--- a/lod_analysis/excels/artists_evaluation.xlsx
+++ b/lod_analysis/excels/artists_evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="427">
   <si>
     <t>artist_id</t>
   </si>
@@ -49,1402 +49,1252 @@
     <t>geonames_completeness</t>
   </si>
   <si>
-    <t>05fG473iIaoy82BF1aGhL8</t>
-  </si>
-  <si>
-    <t>0nmQIMXWTXfhgOBdNzhGOs</t>
-  </si>
-  <si>
-    <t>14pVkFUHDL207LzLHtSA18</t>
-  </si>
-  <si>
-    <t>5eAWCfyUhZtHHtBdNk56l1</t>
-  </si>
-  <si>
-    <t>64tNsm6TnZe2zpcMVMOoHL</t>
-  </si>
-  <si>
-    <t>6JW8wliOEwaDZ231ZY7cf4</t>
-  </si>
-  <si>
-    <t>3TOqt5oJwL9BE2NG9MEwDa</t>
-  </si>
-  <si>
-    <t>6gZq1Q6bdOxsUPUG1TaFbF</t>
-  </si>
-  <si>
-    <t>1DFr97A9HnbV3SKTJFu62M</t>
-  </si>
-  <si>
-    <t>0GDGKpJFhVpcjIGF8N6Ewt</t>
-  </si>
-  <si>
-    <t>1Qp56T7n950O3EGMsSl81D</t>
-  </si>
-  <si>
-    <t>6wWVKhxIU2cEi0K81v7HvP</t>
-  </si>
-  <si>
-    <t>2Pfv2w8a20xzC7Dr7QXRqM</t>
-  </si>
-  <si>
-    <t>6Ghvu1VvMGScGpOUJBAHNH</t>
-  </si>
-  <si>
-    <t>17Mb968quDHpjCkIyq30QV</t>
-  </si>
-  <si>
-    <t>1Dvfqq39HxvCJ3GvfeIFuT</t>
-  </si>
-  <si>
-    <t>2VYQTNDsvvKN9wmU5W7xpj</t>
-  </si>
-  <si>
-    <t>37394IP6uhnjIpsawpMu4l</t>
-  </si>
-  <si>
-    <t>278ZYwGhdK6QTzE3MFePnP</t>
-  </si>
-  <si>
-    <t>1E4r4z7ivGUcSAnCbINJ9v</t>
+    <t>2rGm8R7YDTbqDCVlNssQyL</t>
+  </si>
+  <si>
+    <t>4RVnAU35WRWra6OZ3CbbMA</t>
+  </si>
+  <si>
+    <t>3YcBF2ttyueytpXtEzn1Za</t>
+  </si>
+  <si>
+    <t>4VhL8KLjVso4vLfOLVViTb</t>
   </si>
   <si>
     <t>3HVdAiMNjYrQIKlOGxoGh5</t>
   </si>
   <si>
-    <t>7iWiAD5LLKyiox2grgfmUT</t>
-  </si>
-  <si>
-    <t>3RNrq3jvMZxD9ZyoOZbQOD</t>
-  </si>
-  <si>
-    <t>5he5w2lnU9x7JFhnwcekXX</t>
-  </si>
-  <si>
-    <t>2xiIXseIJcq3nG7C8fHeBj</t>
-  </si>
-  <si>
-    <t>5BtHciL0e0zOP7prIHn3pP</t>
-  </si>
-  <si>
-    <t>1vNvn4iArxt8rtXw8LvwBj</t>
-  </si>
-  <si>
-    <t>5t28BP42x2axFnqOOMg3CM</t>
-  </si>
-  <si>
-    <t>7CTjkl9M3enzBBfm1u10Sy</t>
-  </si>
-  <si>
-    <t>6W8xq7TXME3WXP7c7LMWBR</t>
-  </si>
-  <si>
-    <t>6p9q2PEuRNRMIXy0mxtDaf</t>
-  </si>
-  <si>
-    <t>0ZMRPS0nmaMsLth9slhzIL</t>
-  </si>
-  <si>
-    <t>6B5c4sch27tWHAGdarpPaW</t>
-  </si>
-  <si>
-    <t>0fGVuq5ed21pM7iWwTcMyk</t>
-  </si>
-  <si>
-    <t>3ggwAqZD3lyT2sbovlmfQY</t>
-  </si>
-  <si>
-    <t>4DWX7u8BV0vZIQSpJQQDWU</t>
-  </si>
-  <si>
-    <t>49qiE8dj4JuNdpYGRPdKbF</t>
-  </si>
-  <si>
-    <t>59CIPNdUfewexxn1CJEdp5</t>
-  </si>
-  <si>
-    <t>0L5fC7Ogm2YwgqVCRcF1bT</t>
+    <t>4463nfFMmK1cwAWBQDwT5e</t>
+  </si>
+  <si>
+    <t>3oAazIwC0nAYkOKVQPUC38</t>
+  </si>
+  <si>
+    <t>08yf5A2nS4XEeNvabDXqyg</t>
+  </si>
+  <si>
+    <t>12Chz98pHFMPJEknJQMWvI</t>
+  </si>
+  <si>
+    <t>1jQDgp9Fak4WYVZedWLF4G</t>
+  </si>
+  <si>
+    <t>4e5V1Q2dKCzbLVMQ8qbTn6</t>
+  </si>
+  <si>
+    <t>0oSGxfWSnnOXhD2fKuz2Gy</t>
+  </si>
+  <si>
+    <t>4W48hZAnAHVOC2c8WH8pcq</t>
+  </si>
+  <si>
+    <t>0X2BH1fck6amBIoJhDVmmJ</t>
+  </si>
+  <si>
+    <t>5veVxxPm1vzgi6pO2iVA8L</t>
+  </si>
+  <si>
+    <t>2bcrMsFlF632EQ6VZERWFu</t>
+  </si>
+  <si>
+    <t>5ksRONqssB7BR161NTtJAm</t>
+  </si>
+  <si>
+    <t>4iudEcmuPlYNdbP3e1bdn1</t>
+  </si>
+  <si>
+    <t>5NGO30tJxFlKixkPSgXcFE</t>
+  </si>
+  <si>
+    <t>34v5MVKeQnIo0CWYMbbrPf</t>
+  </si>
+  <si>
+    <t>1HxJeLhIuegM3KgvPn8sTa</t>
+  </si>
+  <si>
+    <t>3XHO7cRUPCLOr6jwp8vsx5</t>
+  </si>
+  <si>
+    <t>4kYSro6naA4h99UJvo89HB</t>
+  </si>
+  <si>
+    <t>0Je74SitssvJg1w4Ra2EK7</t>
+  </si>
+  <si>
+    <t>3aBkeBhwadnWMWoVJ2CxJC</t>
+  </si>
+  <si>
+    <t>1Fmb52lZ6Jv7FMWXXTPO3K</t>
+  </si>
+  <si>
+    <t>2y8Jo9CKhJvtfeKOsYzRdT</t>
+  </si>
+  <si>
+    <t>2aYJ5LAta2ScCdfLhKgZOY</t>
+  </si>
+  <si>
+    <t>3Y10boYzeuFCJ4Qgp53w6o</t>
+  </si>
+  <si>
+    <t>14Gi3Uph96lpNB3utkoVAD</t>
+  </si>
+  <si>
+    <t>4tX2TplrkIP4v05BNC903e</t>
+  </si>
+  <si>
+    <t>6BkcAbUkfIBM4XudxieMq8</t>
+  </si>
+  <si>
+    <t>1aX2dmV8XoHYCOQRxjPESG</t>
+  </si>
+  <si>
+    <t>6zFYqv1mOsgBRQbae3JJ9e</t>
+  </si>
+  <si>
+    <t>2SwhNukah1MYpLR594PnuC</t>
+  </si>
+  <si>
+    <t>4f9iBmdUOhQWeP7dcAn1pf</t>
+  </si>
+  <si>
+    <t>2RE8NwNxsOyuNZDD0jRxHP</t>
+  </si>
+  <si>
+    <t>4A0TivfinfALCAMJqqjZIk</t>
+  </si>
+  <si>
+    <t>3r17AfJCCUqC9Lf0OAc73G</t>
+  </si>
+  <si>
+    <t>6lHL3ubAMgSasKjNqKb8HF</t>
+  </si>
+  <si>
+    <t>5nCi3BB41mBaMH9gfr6Su0</t>
+  </si>
+  <si>
+    <t>3NZE8jDD2cCzd4vUyZ5CQQ</t>
+  </si>
+  <si>
+    <t>3TQ9JTBI2n2hfo7aRONEYV</t>
+  </si>
+  <si>
+    <t>7LnaAXbDVIL75IVPnndf7w</t>
+  </si>
+  <si>
+    <t>4EnEZVjo3w1cwcQYePccay</t>
+  </si>
+  <si>
+    <t>4opTS86dN9uO313J9CE8xg</t>
+  </si>
+  <si>
+    <t>4yiQZ8tQPux8cPriYMWUFP</t>
+  </si>
+  <si>
+    <t>1YB5pnFfL7Y2vjRJLPxaLU</t>
+  </si>
+  <si>
+    <t>2wpWOzQE5TpA0dVnh5YD08</t>
+  </si>
+  <si>
+    <t>6TLwD7HPWuiOzvXEa3oCNe</t>
+  </si>
+  <si>
+    <t>0z4gvV4rjIZ9wHck67ucSV</t>
+  </si>
+  <si>
+    <t>7bvcQXJHkFiN1ppIN3q4fi</t>
+  </si>
+  <si>
+    <t>2dd5mrQZvg6SmahdgVKDzh</t>
+  </si>
+  <si>
+    <t>69Mj3u4FTUrpyeGNSIaU6F</t>
   </si>
   <si>
     <t>6XyY86QOPPrYVGvF9ch6wz</t>
   </si>
   <si>
-    <t>5nGIFgo0shDenQYSE0Sn7c</t>
-  </si>
-  <si>
-    <t>1Ffb6ejR6Fe5IamqA5oRUF</t>
-  </si>
-  <si>
-    <t>6Wr3hh341P84m3EI8qdn9O</t>
-  </si>
-  <si>
-    <t>2ye2Wgw4gimLv2eAKyk1NB</t>
-  </si>
-  <si>
-    <t>4RddZ3iHvSpGV4dvATac9X</t>
-  </si>
-  <si>
-    <t>49bzE5vRBRIota4qeHtQM8</t>
-  </si>
-  <si>
-    <t>74eX4C98E4FCrAMl39qRsJ</t>
-  </si>
-  <si>
-    <t>6GfiCQDFYANz5wUkSmb3Dr</t>
-  </si>
-  <si>
-    <t>3dXaa6jwM7B52GZpaJEIr5</t>
-  </si>
-  <si>
-    <t>5S6hjAxgxjsLylsTtMIimO</t>
-  </si>
-  <si>
-    <t>6om12Ev5ppgoMy3OYSoech</t>
-  </si>
-  <si>
-    <t>12Chz98pHFMPJEknJQMWvI</t>
-  </si>
-  <si>
-    <t>7qAcXJgt1PWnxwUgxMdyuk</t>
-  </si>
-  <si>
-    <t>2AVVj8ezW2mJ0v8u7XydiF</t>
-  </si>
-  <si>
-    <t>2RTUTCvo6onsAnheUk3aL9</t>
-  </si>
-  <si>
-    <t>2R57sY41L9XvGPiIgHOaYq</t>
-  </si>
-  <si>
-    <t>39VNwvlQTqE9SvgPjjnMpc</t>
-  </si>
-  <si>
-    <t>6tbLPxj1uQ6vsRQZI2YFCT</t>
-  </si>
-  <si>
-    <t>1UdQqCUR7RwB9YYJONwbdM</t>
-  </si>
-  <si>
-    <t>56dO9zeHKuU5Gvfc2kxHNw</t>
-  </si>
-  <si>
-    <t>7JDSHlDdVTo7aZKdQZ53Vf</t>
-  </si>
-  <si>
-    <t>44tQC1PjxXIpEgW0i8uN00</t>
-  </si>
-  <si>
-    <t>70BYFdaZbEKbeauJ670ysI</t>
-  </si>
-  <si>
-    <t>3JFsVIxOn7STeilPICkkB2</t>
-  </si>
-  <si>
-    <t>2zgG1GPDvjaBgxeQaVXI14</t>
-  </si>
-  <si>
-    <t>3hE8S8ohRErocpkY7uJW4a</t>
-  </si>
-  <si>
-    <t>3a0Ol9AaugGXjf1ZQcAs1U</t>
-  </si>
-  <si>
-    <t>35Uu85Pq33mK8x1jYqsHY2</t>
-  </si>
-  <si>
-    <t>3Uobr6LgQpBbk6k4QGAb3V</t>
-  </si>
-  <si>
-    <t>5KDIH2gF0VpelTqyQS7udb</t>
-  </si>
-  <si>
-    <t>0niJkG4tKkne3zwr7I8n9n</t>
-  </si>
-  <si>
-    <t>7fWgqc4HJi3pcHhK8hKg2p</t>
-  </si>
-  <si>
-    <t>6vunRaBya0Sx6CMJZAlHTZ</t>
-  </si>
-  <si>
-    <t>3iYvxketuV7AAPCJuWSDH2</t>
-  </si>
-  <si>
-    <t>0nhDd1RWjZ6SDV1Vg1Ku2Q</t>
-  </si>
-  <si>
-    <t>1pRaG81GsVtaTBuVSpldt2</t>
-  </si>
-  <si>
-    <t>1B0155rdv175D1tQ8VH7Oy</t>
-  </si>
-  <si>
-    <t>6iswhpc2w6na3lS1vehFXF</t>
-  </si>
-  <si>
-    <t>23ytwhG1pzX6DIVWRWvW1r</t>
-  </si>
-  <si>
-    <t>6v9XKyEf4HKmUMr3D6weIO</t>
-  </si>
-  <si>
-    <t>03YfzFNcD7l9uskxK7WaPP</t>
-  </si>
-  <si>
-    <t>0lVlNsuGaOr9vMHCZIAKMt</t>
-  </si>
-  <si>
-    <t>0uNj4RxFjG0iVPlZS753en</t>
-  </si>
-  <si>
-    <t>3pulcT2wt7FEG10lQlqDJL</t>
-  </si>
-  <si>
-    <t>4jpaXieuls7LVzG1uma5Rs</t>
-  </si>
-  <si>
-    <t>5mscNJ6lE9Kj7tWv4iCk7y</t>
-  </si>
-  <si>
-    <t>0b2B3PwcYzQAhuJacmcYgc</t>
-  </si>
-  <si>
-    <t>4Ri061lbxtCwNoqDnprznA</t>
-  </si>
-  <si>
-    <t>3LkSiHbjqOHCKCqBfEZOTv</t>
-  </si>
-  <si>
-    <t>3NChzMpu9exTlNPiqUQ2DE</t>
-  </si>
-  <si>
-    <t>0H9lbVkJq2aj6SbqJKBVy5</t>
-  </si>
-  <si>
-    <t>6bu7CtcOMWcS0BMq7snHW6</t>
-  </si>
-  <si>
-    <t>0eI3X5rAzHRZVe5FPk4MN1</t>
-  </si>
-  <si>
-    <t>3o2dn2O0FCVsWDFSh8qxgG</t>
-  </si>
-  <si>
-    <t>1MK0sGeyTNkbefYGj673e9</t>
-  </si>
-  <si>
-    <t>1bkf8u8ot6vEpWTJFBzKZB</t>
-  </si>
-  <si>
-    <t>01crEa9G3pNpXZ5m7wuHOk</t>
-  </si>
-  <si>
-    <t>5274obTQJjzjyycRyJlfml</t>
-  </si>
-  <si>
-    <t>4sy5qWfwUwpGYBnCKnwfcW</t>
-  </si>
-  <si>
-    <t>4PoYwGOztIrPpBfRIlMSxP</t>
-  </si>
-  <si>
-    <t>Slipknot</t>
-  </si>
-  <si>
-    <t>Avenged Sevenfold</t>
-  </si>
-  <si>
-    <t>Pantera</t>
-  </si>
-  <si>
-    <t>System Of A Down</t>
-  </si>
-  <si>
-    <t>Alice In Chains</t>
-  </si>
-  <si>
-    <t>Sepultura</t>
-  </si>
-  <si>
-    <t>Disturbed</t>
-  </si>
-  <si>
-    <t>Godsmack</t>
-  </si>
-  <si>
-    <t>Motörhead</t>
-  </si>
-  <si>
-    <t>Gojira</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Rammstein</t>
-  </si>
-  <si>
-    <t>Mudvayne</t>
-  </si>
-  <si>
-    <t>Deftones</t>
-  </si>
-  <si>
-    <t>Hatebreed</t>
-  </si>
-  <si>
-    <t>Mastodon</t>
-  </si>
-  <si>
-    <t>Marilyn Manson</t>
-  </si>
-  <si>
-    <t>Killswitch Engage</t>
-  </si>
-  <si>
-    <t>Trivium</t>
-  </si>
-  <si>
-    <t>Drowning Pool</t>
+    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
+  </si>
+  <si>
+    <t>7uhvDINTTiD0XBrP9fquN1</t>
+  </si>
+  <si>
+    <t>0Nn9YwJzcaeuU1jJL06e3r</t>
+  </si>
+  <si>
+    <t>6T5tfhQCknKG4UnH90qGnz</t>
+  </si>
+  <si>
+    <t>7wqtxqI3eo7Gn1P7SpP6cQ</t>
+  </si>
+  <si>
+    <t>4njdEjTnLfcGImKZu1iSrz</t>
+  </si>
+  <si>
+    <t>6Rx1JKzBrSzoKQtmbVmBnM</t>
+  </si>
+  <si>
+    <t>5xUf6j4upBrXZPg6AI4MRK</t>
+  </si>
+  <si>
+    <t>27T030eWyCQRmDyuvr1kxY</t>
+  </si>
+  <si>
+    <t>2jzc5TC5TVFLXQlBNiIUzE</t>
+  </si>
+  <si>
+    <t>4rGrN4XDYhP6dUAZMvcuHr</t>
+  </si>
+  <si>
+    <t>20p5D2KrE8CGuOjHtxsyTp</t>
+  </si>
+  <si>
+    <t>2u0gw0uCWBMiqV7h0N8kai</t>
+  </si>
+  <si>
+    <t>43ZHCT0cAZBISjO8DG9PnE</t>
+  </si>
+  <si>
+    <t>0lZoBs4Pzo7R89JM9lxwoT</t>
+  </si>
+  <si>
+    <t>5yG7ZAZafVaAlMTeBybKAL</t>
+  </si>
+  <si>
+    <t>0z5DFXmhT4ZNzWElsM7V89</t>
+  </si>
+  <si>
+    <t>5sD1ZLf2dGQ9gQ3YJl1eAd</t>
+  </si>
+  <si>
+    <t>7Ln80lUS6He07XvHI8qqHH</t>
+  </si>
+  <si>
+    <t>2TzHIUhVpeeDxyJPpQfnV3</t>
+  </si>
+  <si>
+    <t>4LLpKhyESsyAXpc4laK94U</t>
+  </si>
+  <si>
+    <t>3C6chBmZ9wzisBhoh8G2nK</t>
+  </si>
+  <si>
+    <t>3SYGWAHCe31oykdeUPpoJp</t>
+  </si>
+  <si>
+    <t>1VBflYyxBhnDc9uVib98rw</t>
+  </si>
+  <si>
+    <t>3TNt4aUIxgfy9aoaft5Jj2</t>
+  </si>
+  <si>
+    <t>057gc1fxmJ2vkctjQJ7Tal</t>
+  </si>
+  <si>
+    <t>4y5wqoJUmlvr9xV6l5lO4b</t>
+  </si>
+  <si>
+    <t>1l8Fu6IkuTP0U5QetQJ5Xt</t>
+  </si>
+  <si>
+    <t>7A9yZMTrFZcgEWAX2kBfK6</t>
+  </si>
+  <si>
+    <t>2tIP7SsRs7vjIcLrU85W8J</t>
+  </si>
+  <si>
+    <t>3M4ThdJR28z9eSMcQHAZ5G</t>
+  </si>
+  <si>
+    <t>5EvFsr3kj42KNv97ZEnqij</t>
+  </si>
+  <si>
+    <t>19ra5tSw0tWufvUp8GotLo</t>
+  </si>
+  <si>
+    <t>6VX2R9L0O0d6qPvqGuIH7b</t>
+  </si>
+  <si>
+    <t>2rblp9fJo16ZPTcKDtlmKW</t>
+  </si>
+  <si>
+    <t>5gxynDEKwNDgxGJmJjZyte</t>
+  </si>
+  <si>
+    <t>5P5FTygHyx2G57oszR3Wot</t>
+  </si>
+  <si>
+    <t>0Grjlu7ncIuCaSYvCs9fcd</t>
+  </si>
+  <si>
+    <t>7ip3CWlgPZbQHvgJpmcGSS</t>
+  </si>
+  <si>
+    <t>0yNLKJebCb8Aueb54LYya3</t>
+  </si>
+  <si>
+    <t>15UsOTVnJzReFVN1VCnxy4</t>
+  </si>
+  <si>
+    <t>6TcnmlCSxihzWOQJ8k0rNS</t>
+  </si>
+  <si>
+    <t>1Cs0zKBU1kc0i8ypK3B9ai</t>
+  </si>
+  <si>
+    <t>4phGZZrJZRo4ElhRtViYdl</t>
+  </si>
+  <si>
+    <t>5BcAKTbp20cv7tC5VqPFoC</t>
+  </si>
+  <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Kylie Minogue</t>
+  </si>
+  <si>
+    <t>Incubus</t>
+  </si>
+  <si>
+    <t>Bridgit Mendler</t>
   </si>
   <si>
     <t>Rob Zombie</t>
   </si>
   <si>
-    <t>Bullet For My Valentine</t>
-  </si>
-  <si>
-    <t>Korn</t>
-  </si>
-  <si>
-    <t>Skrillex</t>
-  </si>
-  <si>
-    <t>Three Days Grace</t>
-  </si>
-  <si>
-    <t>Breaking Benjamin</t>
-  </si>
-  <si>
-    <t>Valora</t>
-  </si>
-  <si>
-    <t>Five Finger Death Punch</t>
-  </si>
-  <si>
-    <t>Rob Halford</t>
-  </si>
-  <si>
-    <t>Maria Brink</t>
-  </si>
-  <si>
-    <t>Max Cavalera</t>
-  </si>
-  <si>
-    <t>Jamey Jasta</t>
-  </si>
-  <si>
-    <t>Seether</t>
-  </si>
-  <si>
-    <t>Amy Lee</t>
-  </si>
-  <si>
-    <t>Meshuggah</t>
-  </si>
-  <si>
-    <t>Alter Bridge</t>
-  </si>
-  <si>
-    <t>Stone Sour</t>
-  </si>
-  <si>
-    <t>Fozzy</t>
-  </si>
-  <si>
-    <t>Volbeat</t>
+    <t>Laura Branigan</t>
+  </si>
+  <si>
+    <t>Sirah</t>
+  </si>
+  <si>
+    <t>Billy Talent</t>
+  </si>
+  <si>
+    <t>Muse</t>
+  </si>
+  <si>
+    <t>The Biz</t>
+  </si>
+  <si>
+    <t>Collective Soul</t>
+  </si>
+  <si>
+    <t>David Bowie</t>
+  </si>
+  <si>
+    <t>The Temper Trap</t>
+  </si>
+  <si>
+    <t>Ellie Goulding</t>
+  </si>
+  <si>
+    <t>Bruno Martini</t>
+  </si>
+  <si>
+    <t>The Bravery</t>
+  </si>
+  <si>
+    <t>Ace of Base</t>
+  </si>
+  <si>
+    <t>Silverchair</t>
+  </si>
+  <si>
+    <t>The Police</t>
+  </si>
+  <si>
+    <t>John Newman</t>
+  </si>
+  <si>
+    <t>Jack Ü</t>
+  </si>
+  <si>
+    <t>alt-J</t>
+  </si>
+  <si>
+    <t>Cardi B</t>
+  </si>
+  <si>
+    <t>4 Non Blondes</t>
+  </si>
+  <si>
+    <t>Rob Thomas</t>
+  </si>
+  <si>
+    <t>Joan Jett &amp; The Blackhearts</t>
+  </si>
+  <si>
+    <t>Rod Stewart</t>
+  </si>
+  <si>
+    <t>Cobra Starship</t>
+  </si>
+  <si>
+    <t>Scissor Sisters</t>
+  </si>
+  <si>
+    <t>Hard-FI</t>
+  </si>
+  <si>
+    <t>Tom Petty and the Heartbreakers</t>
+  </si>
+  <si>
+    <t>Dr. Alban</t>
+  </si>
+  <si>
+    <t>The Human League</t>
+  </si>
+  <si>
+    <t>Billy Joel</t>
+  </si>
+  <si>
+    <t>Steve Edwards</t>
+  </si>
+  <si>
+    <t>Rag'n'Bone Man</t>
+  </si>
+  <si>
+    <t>Kool Moe Dee</t>
+  </si>
+  <si>
+    <t>Funk Wav</t>
+  </si>
+  <si>
+    <t>Fergie</t>
+  </si>
+  <si>
+    <t>Mýa</t>
+  </si>
+  <si>
+    <t>fun.</t>
+  </si>
+  <si>
+    <t>Spacehog</t>
+  </si>
+  <si>
+    <t>Sir Mix-A-Lot</t>
+  </si>
+  <si>
+    <t>Jamie Foxx</t>
+  </si>
+  <si>
+    <t>N.W.A.</t>
+  </si>
+  <si>
+    <t>Skid Row</t>
+  </si>
+  <si>
+    <t>Gwen Stefani</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Bronski Beat</t>
+  </si>
+  <si>
+    <t>Oliver Tree</t>
+  </si>
+  <si>
+    <t>Akon</t>
+  </si>
+  <si>
+    <t>Joss Stone</t>
+  </si>
+  <si>
+    <t>PSY</t>
+  </si>
+  <si>
+    <t>The J. Geils Band</t>
   </si>
   <si>
     <t>Linkin Park</t>
   </si>
   <si>
-    <t>Evanescence</t>
-  </si>
-  <si>
-    <t>Bring Me The Horizon</t>
-  </si>
-  <si>
-    <t>Rise Against</t>
-  </si>
-  <si>
-    <t>Metallica</t>
-  </si>
-  <si>
-    <t>Papa Roach</t>
-  </si>
-  <si>
-    <t>Skillet</t>
-  </si>
-  <si>
-    <t>Theory of a Deadman</t>
-  </si>
-  <si>
-    <t>Thousand Foot Krutch</t>
-  </si>
-  <si>
-    <t>Puddle Of Mudd</t>
-  </si>
-  <si>
-    <t>Saliva</t>
-  </si>
-  <si>
-    <t>Halestorm</t>
-  </si>
-  <si>
-    <t>Muse</t>
-  </si>
-  <si>
-    <t>Sick Puppies</t>
-  </si>
-  <si>
-    <t>Saving Abel</t>
-  </si>
-  <si>
-    <t>3 Doors Down</t>
-  </si>
-  <si>
-    <t>The Pretty Reckless</t>
-  </si>
-  <si>
-    <t>NOTHING MORE</t>
-  </si>
-  <si>
-    <t>In This Moment</t>
-  </si>
-  <si>
-    <t>Trapt</t>
-  </si>
-  <si>
-    <t>Chevelle</t>
-  </si>
-  <si>
-    <t>Static-X</t>
-  </si>
-  <si>
-    <t>Tremonti</t>
-  </si>
-  <si>
-    <t>Shinedown</t>
-  </si>
-  <si>
-    <t>Lamb of God</t>
-  </si>
-  <si>
-    <t>All That Remains</t>
-  </si>
-  <si>
-    <t>Within Temptation</t>
-  </si>
-  <si>
-    <t>Jacoby Shaddix</t>
-  </si>
-  <si>
-    <t>Sevendust</t>
-  </si>
-  <si>
-    <t>I Prevail</t>
-  </si>
-  <si>
-    <t>Staind</t>
-  </si>
-  <si>
-    <t>Finger Eleven</t>
-  </si>
-  <si>
-    <t>Dope</t>
-  </si>
-  <si>
-    <t>Rahzel</t>
-  </si>
-  <si>
-    <t>Johan Olsen</t>
-  </si>
-  <si>
-    <t>Corey Taylor</t>
-  </si>
-  <si>
-    <t>Pop Evil</t>
-  </si>
-  <si>
-    <t>FEVER 333</t>
-  </si>
-  <si>
-    <t>Otep</t>
-  </si>
-  <si>
-    <t>TesseracT</t>
-  </si>
-  <si>
-    <t>Textures</t>
-  </si>
-  <si>
-    <t>Toothgrinder</t>
-  </si>
-  <si>
-    <t>Machine Head</t>
-  </si>
-  <si>
-    <t>After The Burial</t>
-  </si>
-  <si>
-    <t>Amon Amarth</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Within The Ruins</t>
-  </si>
-  <si>
-    <t>The HU</t>
-  </si>
-  <si>
-    <t>Bobaflex</t>
-  </si>
-  <si>
-    <t>Atreyu</t>
-  </si>
-  <si>
-    <t>Thrice</t>
-  </si>
-  <si>
-    <t>Righteous Vendetta</t>
-  </si>
-  <si>
-    <t>Wage War</t>
-  </si>
-  <si>
-    <t>Bad Wolves</t>
-  </si>
-  <si>
-    <t>Sabaton</t>
-  </si>
-  <si>
-    <t>Behemoth</t>
-  </si>
-  <si>
-    <t>Dream Evil</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Whitechapel</t>
-  </si>
-  <si>
-    <t>Heaven Shall Burn</t>
-  </si>
-  <si>
-    <t>Soil</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Slipknot', 'annotations': {'description': '&lt;p&gt;Slipknot is a metal group based in Des Moines, Iowa. They were formed in 1995, and are well known for their live shows and their image of nine masked performers. They are one of the most important bands of the NWOAHM (New Wave of American Heavy Metal).&lt;/p&gt;\n\n&lt;p&gt;The band released their demo album &lt;em&gt;Mate, Feed, Kill, Repeat&lt;/em&gt; on October 31st, 1996. Slipknot went through several lineup changes before settling with their most known line-up: Sid Wilson, Joey Jordison, Paul Gray, Chris Fehn, Jim Root, Craig Jones, Shawn “Clown” Crahan, Mick Thompson, and Corey Taylor.&lt;/p&gt;\n\n&lt;p&gt;This core line-up rose to the spotlight after their self-titled debut in 1999 which contained the breakout singles &lt;a href="https://genius.com/Slipknot-wait-and-bleed-lyrics" rel="noopener" data-api_path="/songs/73691"&gt;“Wait and Bleed”&lt;/a&gt; and &lt;a href="https://genius.com/Slipknot-spit-it-out-lyrics" rel="noopener" data-api_path="/songs/73693"&gt;“Spit it Out.”&lt;/a&gt; They would go on to release &lt;em&gt;Iowa&lt;/em&gt; (2001), &lt;em&gt;Vol.3: The Subliminal Verses&lt;/em&gt; (2004), and &lt;em&gt;All Hope Is Gone&lt;/em&gt; (2008), and &lt;em&gt;.5: The Gray Chapter&lt;/em&gt; (2014) and &lt;em&gt;We Are Not Your Kind&lt;/em&gt; (2019). The band has sold millions of records worldwide.&lt;/p&gt;\n\n&lt;p&gt;On May 24th, 2010, bassist and founding member Paul Gray died. Although Slipknot continued to tour, Gray’s death called into the question the possibility of new material. However, in 2013, Slipknot went into the studio to write and record what would be their fifth album. On December 12th of the same year, the band parted ways with drummer and founding member Joey Jordison. It was later revealed in 2016 that Jordison suffered from a rare disease called transverse myelitis (which affected his nerves and left him unable to play the drums).&lt;/p&gt;\n\n&lt;p&gt;During the recording process, Slipknot recruited two new members whose identities were, at the time, kept secret. They released &lt;em&gt;.5: The Gray Chapter&lt;/em&gt; on October 21st, 2014. After a year of touring, it has been confirmed that Alessandro Venturella and Jay Weinberg were the new bassist and drummer of Slipknot.&lt;/p&gt;\n\n&lt;p&gt;On March 14, 2019, Chris Fehn filed a lawsuit against the band citing withheld payments. Fehn specifically accused Corey Taylor and Shawn Crahan of setting up several band-related business entities, in different states, that collect money from the band. Fehn called for full forensic accounting to be done on all of the band’s companies and assets in order to collect any profits and damages he may be owed. On March 17, 2019, the band officially announced, via their website, that Chris Fehn was no longer a member of the band, stating:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Slipknot’s focus is on making album #6, and our upcoming shows around the world, our best ever. Chris knows why he is no longer a part of Slipknot. We are disappointed that he chose to point fingers and manufacture claims, rather than doing what was necessary to continue to be a part of Slipknot. We would have preferred he not take the path that he has, but evolution in all things is a necessary part of this life. Long Live The Knot.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['Meld']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Avenged-sevenfold', 'annotations': {'description': '&lt;p&gt;Avenged Sevenfold (sometimes abbreviated as A7X) are an American heavy metal band from Huntington Beach, California, formed in 1999. To date, the band have released seven studio albums, one DVD, and one live album. Two of their studio albums, &lt;em&gt;Nightmare&lt;/em&gt; and &lt;em&gt;Hail to the King&lt;/em&gt;, have debuted at #1 on the Billboard charts.&lt;/p&gt;\n\n&lt;p&gt;Until December 2009, the band’s lineup consisted of vocalist M. Shadows, lead guitarist Synyster Gates, rhythm guitarist Zacky Vengeance, bassist Johnny Christ, and drummer Jimmy “The Rev” Sullivan, who died of an accidental drug overdose while the band was making their fifth album, &lt;em&gt;Nightmare&lt;/em&gt;. For &lt;em&gt;Nightmare&lt;/em&gt;, The Rev was temporarily replaced by ex-&lt;a href="https://genius.com/artists/Dream-theater" rel="noopener" data-api_path="/artists/19712"&gt;Dream Theater&lt;/a&gt; drummer Mike Portnoy, before the band found a permanent replacement with Arin Ilejay. In July 2015, however, it was announced that the band would be moving forward without Ilejay. He was replaced by &lt;a href="https://genius.com/artists/Brooks-wackerman" rel="noopener" data-api_path="/artists/1016534"&gt;Brooks Wackerman&lt;/a&gt; of &lt;a href="https://genius.com/artists/Bad-religion" rel="noopener" data-api_path="/artists/27995"&gt;Bad Religion&lt;/a&gt;, who made his first contribution in Call of Duty: Black Ops III’s score “Jade Helm” (2015). In October 2016, the band have released their seventh studio album, “The Stage.”&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/314bfa844f3dd9e91f8c63711f6132f7.700x394x1.jpg" alt="" width="700" height="394" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['A7X']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pantera', 'annotations': {'description': '&lt;p&gt;Pantera was an American heavy metal band from &lt;a href="https://www.arlingtontx.gov/" rel="noopener nofollow"&gt;Arlington, Texas&lt;/a&gt;. Often celebrated as &lt;a href="http://ultimateclassicrock.com/pantera-far-beyond-driven/" rel="noopener nofollow"&gt;one of the most influential&lt;/a&gt; heavy metal groups of all time, Pantera pioneered a unique style sometimes referred to as “groove metal” that features heavy guitar riffing mostly at mid-tempo (instead of breakneck) speeds.&lt;/p&gt;\n\n&lt;p&gt;Originally conceived as a glam metal act, Pantera changed direction in 1990 and found commercial success with a heavier and more aggressive sound, becoming one of the most well-known and respected heavy metal bands of all time.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The Texan band started as a glam metal band in the early ‘80s. &lt;a href="http://www.fullinbloommusic.com/tlee.html" rel="noopener nofollow"&gt;After a couple lineup changes&lt;/a&gt;, the band found local success with the Abbott brothers &lt;a href="https://genius.com/artists/Vinnie-paul" rel="noopener" data-api_path="/artists/575016"&gt;Vinnie Paul&lt;/a&gt; and &lt;a href="https://genius.com/artists/Dimebag-darrell" rel="noopener" data-api_path="/artists/645583"&gt;Dimebag Darrell&lt;/a&gt; (then known as Diamond Darrell) on drums and guitar respectively, &lt;a href="https://genius.com/artists/Rex-brown" rel="noopener" data-api_path="/artists/755041"&gt;Rex Brown&lt;/a&gt; (then known as Rex Rocker) on bass and &lt;a href="https://genius.com/artists/Terry-glaze" rel="noopener" data-api_path="/artists/1516988"&gt;Terry Glaze&lt;/a&gt; as lead vocalist. The band independently released three glam metal records from 1983 to 1985 which gained them some regional popularity), but no nationwide breakthrough.&lt;/p&gt;\n\n&lt;p&gt;In 1986 and 1987, thrash metal albums like &lt;a href="https://genius.com/albums/Slayer/Reign-in-blood" rel="noopener" data-api_path="/albums/32969"&gt;&lt;i&gt;Reign in Blood&lt;/i&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Megadeth/Peace-sells-but-who-s-buying" rel="noopener" data-api_path="/albums/22490"&gt;&lt;i&gt;Peace Sells… But Who’s Buying?&lt;/i&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Metallica/Master-of-puppets" rel="noopener" data-api_path="/albums/13102"&gt;&lt;i&gt;Master of Puppets&lt;/i&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Anthrax/Among-the-living" rel="noopener" data-api_path="/albums/41916"&gt;&lt;i&gt;Among the Living&lt;/i&gt;&lt;/a&gt; were released, which were dominating the metal scene, consequently making Pantera want to play heavier. Terry Glaze &lt;a href="http://www.blabbermouth.net/news/original-pantera-singer-terry-glaze-couldnt-believe-that-dimebag-was-dead/" rel="noopener nofollow"&gt;left the band&lt;/a&gt; with New Orleans native &lt;a href="https://genius.com/artists/Phil-anselmo" rel="noopener" data-api_path="/artists/550809"&gt;Phil Anselmo&lt;/a&gt; replacing him in 1987.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Pantera/Power-metal" rel="noopener" data-api_path="/albums/100631"&gt;&lt;i&gt;Power Metal&lt;/i&gt;&lt;/a&gt;, the band’s first album with Anselmo, was still not a full out heavy metal album, but was much heavier than the first three. Diamond Darrell auditioned for &lt;a href="https://genius.com/artists/Megadeth" rel="noopener" data-api_path="/artists/19444"&gt;Megadeth&lt;/a&gt; shortly after and was offered the position, but he declined it because his brother couldn’t join.&lt;/p&gt;\n\n&lt;p&gt;The band’s next album, &lt;a href="https://genius.com/albums/Pantera/Cowboys-from-hell" rel="noopener" data-api_path="/albums/44637"&gt;&lt;i&gt;Cowboys from Hell&lt;/i&gt;&lt;/a&gt;, showed them leaving their glam roots behind in favor of a thrash metal sound. The band considered it their first proper album, as the previous four albums aren’t even included on the band’s website. Rex Rocker and Diamond Darrell changed their stage names to emphasize their shift away from glam metal; adopting the names Rex Brown and Dimebag Darrell.&lt;/p&gt;\n\n&lt;p&gt;Their next two albums (and perhaps their most highly successful), &lt;a href="https://genius.com/albums/Pantera/Vulgar-display-of-power" rel="noopener" data-api_path="/albums/41239"&gt;&lt;i&gt;Vulgar Display of Power&lt;/i&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Pantera/Far-beyond-driven" rel="noopener" data-api_path="/albums/44638"&gt;&lt;i&gt;Far Beyond Driven&lt;/i&gt;&lt;/a&gt;, showcased an even heavier sound and pioneered what became the ‘groove metal’ sound. Both albums were enormously successful, the latter &lt;a href="http://ultimateclassicrock.com/pantera-far-beyond-driven/" rel="noopener nofollow"&gt;debuting at #1&lt;/a&gt; on the US Album Chart, one of the heaviest albums ever to do so.&lt;/p&gt;\n\n&lt;p&gt;The band’s last two albums, &lt;a href="https://genius.com/albums/Pantera/The-great-southern-trendkill" rel="noopener" data-api_path="/albums/98520"&gt;&lt;i&gt;The Great Southern Trendkill&lt;/i&gt;&lt;/a&gt; (which was the peak of the band’s holistic heaviness) and &lt;a href="https://genius.com/albums/Pantera/Reinventing-the-steel" rel="noopener" data-api_path="/albums/78447"&gt;&lt;i&gt;Reinventing the Steel&lt;/i&gt;&lt;/a&gt;, despite not having as much of a beloved reception their previous three albums had, were still very successful. However, the band’s tensions continued to tear them apart. Dimebag’s alcoholism took its toll on Anselmo, who also began behaving strangely due to his back pain and subsequent alcohol overuse to quell it. The singer refused to get surgery, feeling it would take him away from the band too long, so he started to use heroin to fight the pain. In 1996, &lt;a href="http://articles.latimes.com/1996-07-28/entertainment/ca-28729_1_drug-abuse" rel="noopener nofollow"&gt;Anselmo nearly overdosed&lt;/a&gt; on heroin onstage. His heart stopped beating, but was revived and promised the other band members to quit using drugs. Anselmo also started doing a lot of side-projects around this time, which annoyed the other band members, who felt he should give his all to Pantera.&lt;/p&gt;\n\n&lt;p&gt;Following 9/11 and the resultant cancellation of their tour, Anselmo and Dimebag’s &lt;a href="http://www.blabbermouth.net/news/philip-anselmo-dimebag-darrell-deserves-to-be-beaten-severely/" rel="noopener nofollow"&gt;relationship got worse&lt;/a&gt;. Anselmo released 2 albums with his side-projects &lt;a href="https://genius.com/artists/Down" rel="noopener" data-api_path="/artists/9692"&gt;Down&lt;/a&gt; and &lt;a href="https://genius.com/artists/Superjoint-ritual" rel="noopener" data-api_path="/artists/344374"&gt;Superjoint Ritual&lt;/a&gt;. The Abbott brothers were frustrated and decided to break up Pantera in 2003, concluding Anselmo had abandoned the band.&lt;/p&gt;\n\n&lt;p&gt;The brothers formed &lt;a href="https://genius.com/artists/Damageplan" rel="noopener" data-api_path="/artists/350976"&gt;Damageplan&lt;/a&gt;, but a war of words between them and Anselmo continued, with &lt;a href="http://www.blabbermouth.net/news/philip-anselmo-dimebag-darrell-deserves-to-be-beaten-severely/" rel="noopener nofollow"&gt;the latter eventually telling &lt;em&gt;Metal Hammer&lt;/em&gt; magazine&lt;/a&gt; that “Dimebag deserves to be beaten severely.” A week later, on December 8, 2004, while performing with Damageplan, Dimebag Darrell was shot and killed along with 3 others by a deranged fan. After this tragic event, any hopes for ever seeing a reunion of Pantera were destroyed.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/System-of-a-down', 'annotations': {'description': '&lt;p&gt;System of a Down, also known by the acronym ‘SOAD’ and often shortened to ‘System,’ are an Armenian four-piece rock band from Southern California, formed in 1994.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band achieved commercial success with the release of five studio albums, and &lt;a href="https://genius.com/albums/System-of-a-down/Toxicity" rel="noopener" data-api_path="/albums/18852"&gt;&lt;em&gt;Toxicity&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/System-of-a-down/Mezmerize" rel="noopener" data-api_path="/albums/20128"&gt;&lt;em&gt;Mezmerize&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/System-of-a-down/Hypnotize" rel="noopener" data-api_path="/albums/26057"&gt;&lt;em&gt;Hypnotize&lt;/em&gt;&lt;/a&gt; have all debuted at number one on the Billboard 200. System of a Down has been nominated for four Grammy Awards, and their song &lt;a href="https://genius.com/System-of-a-down-byob-lyrics" rel="noopener" data-api_path="/songs/75978"&gt;“B.Y.O.B.”&lt;/a&gt; won the Best Hard Rock Performance of 2006.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/6721d312ac721b756f51a7f55359521a.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(&lt;em&gt;Toxicity&lt;/em&gt;’s album art)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;The group briefly disbanded in August 2006 and reunited in November 2010, embarking on a tour for the following three years. They had two subsequent worldwide tours in 2015 and 2017.&lt;br&gt;\nThey returned with two singles, &lt;a href="https://genius.com/System-of-a-down-protect-the-land-lyrics" rel="noopener" data-api_path="/songs/6139655"&gt;“Protect the Land”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-genocidal-humanoidz-lyrics" rel="noopener" data-api_path="/songs/6139659"&gt;“Genocidal Humanoidz”&lt;/a&gt; in November 2020, after fifteen years since their last studio album.&lt;/p&gt;\n\n&lt;p&gt;System of a Down has sold over 40 million records worldwide, and two of their singles, &lt;a href="https://genius.com/System-of-a-down-aerials-lyrics" rel="noopener" data-api_path="/songs/94438"&gt;“Aerials”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-hypnotize-lyrics" rel="noopener" data-api_path="/songs/105732"&gt;“Hypnotize,”&lt;/a&gt; reached number one on Billboard’s Alternative Songs chart.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band currently consists of four Armenian Americans:&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;&lt;a href="https://genius.com/artists/Serj-tankian" rel="noopener" data-api_path="/artists/11189"&gt;Serj Tankian&lt;/a&gt;:&lt;/strong&gt; lead vocals, keyboards, guitar on occasion.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Daron-malakian" rel="noopener" data-api_path="/artists/126460"&gt;Daron Malakian&lt;/a&gt;:&lt;/strong&gt; vocals, guitar.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Shavo-odadijan" rel="noopener"&gt;Shavo Odadjian&lt;/a&gt;:&lt;/strong&gt; bass, backing vocals.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/John-dolmayan" rel="noopener" data-api_path="/artists/646522"&gt;John Dolmayan&lt;/a&gt;:&lt;/strong&gt; drums.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ee9fd1183055081763eedde0c6953a99.620x400x1.jpg" alt="" width="620" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;center&gt;&lt;small&gt;(SOAD’s actual formation)\n&lt;/small&gt;&lt;/center&gt;', 'alternate_names': ['SOAD']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alice-in-chains', 'annotations': {'description': '&lt;p&gt;Alice in Chains are a Seattle-based rock band. They rose to international fame in the early 1990s as part of the ‘grunge’ movement. They are one of the most critically and commercially acclaimed acts of the 90s. Their first 3 studio albums all went multi-platinum and they have received 8 Grammy nominations for Best Hard Rock performance (sadly, never winning once).&lt;/p&gt;\n\n&lt;p&gt;Their unique sound comes from the harmonized vocals of co-founders &lt;a href="https://genius.com/artists/layne-staley" rel="noopener" data-api_path="/artists/461445"&gt;Layne Staley&lt;/a&gt; and &lt;a href="https://genius.com/artists/jerry-cantrell" rel="noopener" data-api_path="/artists/159296"&gt;Jerry Cantrell&lt;/a&gt;, as showcased in some of their biggest songs like &lt;a href="https://genius.com/Alice-in-chains-no-excuses-lyrics" rel="noopener" data-api_path="/songs/339309"&gt;“No Excuses”&lt;/a&gt; from &lt;a href="https://genius.com/albums/alice-in-chains/jar-of-flies" rel="noopener" data-api_path="/albums/38745"&gt;&lt;em&gt;Jar of Flies&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Alice-in-chains-angry-chair-lyrics" rel="noopener" data-api_path="/songs/391256"&gt;“Angry Chair”&lt;/a&gt; from &lt;a href="https://genius.com/albums/alice-in-chains/dirt" rel="noopener" data-api_path="/albums/38159"&gt;&lt;em&gt;Dirt&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/Alice-in-chains-again-lyrics" rel="noopener" data-api_path="/songs/113953"&gt;“Again”&lt;/a&gt; from the &lt;a href="https://genius.com/albums/alice-in-chains/alice-in-chains" rel="noopener" data-api_path="/albums/27730"&gt;self-titled&lt;/a&gt; album. Cantrell also serves as the primary songwriter and guitarist of the band.&lt;/p&gt;\n\n&lt;p&gt;The band was never restricted to grunge. Cantrell believes it to be heavy metal; and indeed a lot of modern heavy metal bands &lt;a href="https://en.wikipedia.org/wiki/Alice_in_Chains#Legacy" rel="noopener nofollow"&gt;cite Alice in Chains as an influence&lt;/a&gt;, including &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; for &lt;a href="https://genius.com/albums/Metallica/Death-magnetic" rel="noopener" data-api_path="/albums/40083"&gt;Death Magnetic&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band’s frontman, Layne Staley, suffered throughout his life from depression and substance abuse, which eventually took his life in 2002. It was a huge blow to the industry and many prominent bands recorded &lt;a href="https://genius.com/Staind-layne-lyrics" rel="noopener" data-api_path="/songs/2303320"&gt;songs&lt;/a&gt; as odes to Staley.&lt;/p&gt;\n\n&lt;p&gt;After extended inactivity, the band recruited &lt;a href="https://genius.com/artists/william-duvall" rel="noopener" data-api_path="/artists/574582"&gt;William DuVall&lt;/a&gt; and have released three successful studio albums since his inclusion.&lt;/p&gt;', 'alternate_names': ['AIC']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sepultura', 'annotations': {'description': '&lt;p&gt;Sepultura is a Brazilian heavy metal band from Belo Horizonte. Formed in 1984 by brothers &lt;a href="https://genius.com/artists/Max-cavalera" rel="noopener" data-api_path="/artists/1856"&gt;Max&lt;/a&gt; and &lt;a href="https://genius.com/artists/Igor-cavalera" rel="noopener" data-api_path="/artists/995489"&gt;Igor Cavalera&lt;/a&gt;, the band was a major force in the death metal, thrash metal, and groove metal genres during the late 1980s and early 1990s, with their later experiments drawing influence from alternative metal, world music, nu-metal, hardcore punk, and industrial metal.&lt;/p&gt;\n\n&lt;p&gt;The first Sepultura show was on December 4th, 1984. The band played two songs that never were re-recorded or released. The band name comes from a Portuguese translation of &lt;a href="https://genius.com/artists/Motorhead" rel="noopener" data-api_path="/artists/14780"&gt;Motörhead&lt;/a&gt;’s song &lt;a href="https://genius.com/Motorhead-dancing-on-your-grave-lyrics" rel="noopener" data-api_path="/songs/712238"&gt;“Dancing on Your Grave”&lt;/a&gt; which is “Dançando na sua Sepultura”. Sepultura means “grave” (sepulchre) in Portuguese (and in some other Latin-based languages). Originally, they wanted to call the band Tropa de Choque (Shock Troops), but found that the name had been used before.&lt;/p&gt;\n\n&lt;p&gt;Sepultura played the Donington Monsters of Rock festival in England in 1996 as a three piece with Andreas Kisser on lead vocals after Max Cavalera learned about the murder of his stepson Dana Wells.&lt;/p&gt;\n\n&lt;p&gt;Max left Sepultura in December 1996 after the rest of the band had clashes with his wife (Dana Wells\' mother) and band manager Gloria Bujnowski. He went on to form the band &lt;a href="https://genius.com/artists/Soulfly" rel="noopener" data-api_path="/artists/301317"&gt;Soulfly&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Derrick Green, originally from Cleveland, Ohio relocated to Brazil to replace Max as vocalist. Sepultura have largely played as a single guitar band since then, though Green has occasionally played rhythm onstage.&lt;/p&gt;\n\n&lt;p&gt;Roy Mayorga filled-in for Igor Cavalera during the European tour with In Flames in 2006. Igor quit Sepultura permanently later the same year. The Cavalera brothers then reunited in the &lt;a href="https://genius.com/artists/Cavalera-conspiracy" rel="noopener" data-api_path="/artists/359888"&gt;Cavalera Conspiracy&lt;/a&gt; project.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n\n\n&lt;h3&gt;Members&lt;/h3&gt;\n\n\n\n\n&lt;h4&gt;Current&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Paulo-jr" rel="noopener" data-api_path="/artists/1016999"&gt;Paulo Jr.&lt;/a&gt; – bass (1984-present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Andreas-kisser" rel="noopener" data-api_path="/artists/351029"&gt;Andreas Kisser&lt;/a&gt; – guitars (1987-present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Derrick-green" rel="noopener" data-api_path="/artists/667497"&gt;Derrick Green&lt;/a&gt; – vocals (1998-present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Eloy-casagrande" rel="noopener" data-api_path="/artists/2056049"&gt;Eloy Casagrande&lt;/a&gt; – drums (2011-present)&lt;/p&gt;\n\n&lt;h4&gt;Past&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Max-cavalera" rel="noopener" data-api_path="/artists/1856"&gt;Max Cavalera&lt;/a&gt; – guitars, vocals (1984-1996)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Igor-cavalera" rel="noopener" data-api_path="/artists/995489"&gt;Igor Cavalera&lt;/a&gt; – drums (1984-2006)&lt;br&gt;\nBeto Pinga – drums (1984)&lt;br&gt;\nCássio – guitars (1984)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Wagner-lamounier" rel="noopener" data-api_path="/artists/1878890"&gt;Wagner Lamounier&lt;/a&gt; – vocals (1984-1985)&lt;br&gt;\nRoberto UFO – guitars (1984)&lt;br&gt;\nRoberto Raffan – bass (1984)&lt;br&gt;\nJulio Franco – guitars (1985)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jairo-guedz" rel="noopener" data-api_path="/artists/1016998"&gt;Jairo Guedz&lt;/a&gt; – guitars (1985-1987)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jean-dolabella" rel="noopener" data-api_path="/artists/325743"&gt;Jean Dolabella&lt;/a&gt; – drums (2006-2011)&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Disturbed', 'annotations': {'description': '&lt;p&gt;Disturbed is an American heavy metal band formed in 1994 (named Brawl at this time) from Chicago, Illinois. In 1996 singer Erich Awalt was replaced by David Draiman and the band was renamed “Disturbed”.&lt;/p&gt;\n\n&lt;p&gt;Disturbed is most famously known for their songs “&lt;a href="https://genius.com/Disturbed-down-with-the-sickness-lyrics" rel="noopener" data-api_path="/songs/97449"&gt;Down With The Sickness&lt;/a&gt;” and their cover of “&lt;a href="https://genius.com/Disturbed-the-sound-of-silence-lyrics" rel="noopener" data-api_path="/songs/2282530"&gt;The Sound of Silence&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Disturbed went on hiatus in July 2011, to get a break from touring, but started to miss it and engaged in some side projects; &lt;a href="https://genius.com/artists/Device" rel="noopener" data-api_path="/artists/170170"&gt;Device&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fight-or-flight" rel="noopener" data-api_path="/artists/343727"&gt;Fight Or Flight&lt;/a&gt;, &lt;a href="https://genius.com/artists/Adrenaline-mob" rel="noopener" data-api_path="/artists/329908"&gt;Adrenaline Mob&lt;/a&gt; and &lt;a href="https://genius.com/artists/Art-of-anarchy" rel="noopener" data-api_path="/artists/1019795"&gt;Art Of Anarchy&lt;/a&gt;.&lt;br&gt;\nDisturbed returned in 2015 announcing their return with their new album – &lt;em&gt;&lt;a href="https://genius.com/albums/Disturbed/Immortalized" rel="noopener" data-api_path="/albums/126740"&gt;Immortalized&lt;/a&gt;&lt;/em&gt;, which was recorded in secret and releasing the first single from the album, “&lt;a href="https://genius.com/Disturbed-the-vengeful-one-lyrics" rel="noopener" data-api_path="/songs/2149822"&gt;The Vengeful One&lt;/a&gt;,” in advance.&lt;br&gt;\n&lt;em&gt;Immortalized&lt;/em&gt; was &lt;a href="https://www.billboard.com/articles/columns/chart-beat/6678673/disturbed-scores-fifth-no-1-album-on-billboard-200-chart" rel="noopener nofollow"&gt;Disturbed’s fifth straight No. 1-debuting studio album on Billboard 200&lt;/a&gt;, making them the third group in history to have achieved five consecutive studio albums at No. 1. The other two being &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; and &lt;a href="https://genius.com/artists/Dave-matthews-band" rel="noopener" data-api_path="/artists/18451"&gt;Dave Matthews Band&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Members:&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/David-draiman" rel="noopener" data-api_path="/artists/71550"&gt;David Draiman&lt;/a&gt; – vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dan-donegan" rel="noopener" data-api_path="/artists/177598"&gt;Dan Donegan&lt;/a&gt; – guitar, keyboards&lt;br&gt;\n&lt;a href="https://genius.com/artists/John-moyer" rel="noopener" data-api_path="/artists/684586"&gt;John Moyer&lt;/a&gt; – bass, backing vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Mike-wengren" rel="noopener" data-api_path="/artists/177599"&gt;Mike Wengren&lt;/a&gt; – drums&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Godsmack', 'annotations': {'description': '&lt;p&gt;Godsmack is an American alternative metal band from Lawrence, Massachusetts, formed in 1995. The band is composed of founder, frontman and songwriter Sully Erna, guitarist Tony Rombola, bassist Robbie Merrill, and drummer Shannon Larkin. Since its formation, Godsmack has released six studio albums, one EP, four DVDs, one compilation album, and one live album.&lt;/p&gt;\n\n&lt;p&gt;The band has had three consecutive number-one albums (Faceless, IV, and The Oracle) on the Billboard 200. The band also has 20 top ten rock radio hits, including 15 songs in the top five, a record number of top ten singles by a rock artist.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Motorhead', 'annotations': {'description': '&lt;p&gt;Motörhead was a heavy metal band (though they prefer to say they play “Rock and Roll” instead) that formed in London, England in 1975 and was fronted by vocalist/bassist Ian “Lemmy” Kilmister. They were considered one of the early pioneers of the New Wave of British Heavy Metal that started in the late 70s, and have left behind a massive legacy that’s spread across 40 years. They have gone through many lineup changes over the years, but their most remembered and “classic” lineup included Lemmy on vocals and bass, “Fast” Eddie Clarke on guitars, and Phil “Philthy Animal” Taylor on drums. Their signature song is &lt;a href="https://genius.com/Motorhead-ace-of-spades-lyrics" rel="noopener" data-api_path="/songs/72697"&gt;“Ace Of Spades”&lt;/a&gt; from the album of the same name.&lt;/p&gt;\n\n&lt;p&gt;On December 28, 2015, the band &lt;a href="https://www.facebook.com/OfficialMotorhead/posts/1107561019276205" rel="noopener nofollow"&gt;announced&lt;/a&gt; via their official Facebook page that Lemmy had passed away at the age of 70 after a short battle with an extremely aggressive cancer, all while in front of his favourite video game and surrounded by his family. The next day, drummer Mikkey Dee &lt;a href="http://www.expressen.se/noje/after-lemmys-death-motorhead-is-over/" rel="noopener nofollow"&gt;confirmed&lt;/a&gt; that the band has disbanded, but despite that, it still lives on in the hearts of many.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Gojira', 'annotations': {'description': '&lt;p&gt;Gojira is a technical/progressive death metal band from Ondres, France.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/5402a6f2a59dc0b33b1841022629c0f4.1000x562x1.jpg" alt="" width="1000" height="562" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Gojira is composed of Joe Duplantier on vocals and rhythm guitar, his brother Mario Duplantier on drums, Christian Andreu on lead guitar, and Jean-Michel Labadie on bass. However, Labadie has only been in the band since 2001; his predecessor was Alex Cornillon, who then became a theatre actor.&lt;/p&gt;\n\n&lt;p&gt;Common lyrical themes include the environment, spirituality, life &amp;amp; death, and biophilia. Although their early material was straight technical death metal, their sound has become slightly softer over time. Their 2016 album, &lt;em&gt;Magma&lt;/em&gt;, appears to have abandoned death entirely and transitioned to straight progressive metal.&lt;/p&gt;\n\n&lt;p&gt;The band was known as Godzilla until 2001, changing their name due to &lt;a href="http://www.thegauntlet.com/bio/1611/Gojira.html" rel="noopener nofollow"&gt;legal issues&lt;/a&gt; with &lt;a href="https://en.wikipedia.org/wiki/Godzilla" rel="noopener nofollow"&gt;the giant fictional monster of the same name&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ghost', 'annotations': {'description': '&lt;p&gt;Ghost, formerly known as “Ghost B.C.” in the US until the release of &lt;a href="https://genius.com/albums/Ghost-bc/Meliora" rel="noopener" data-api_path="/albums/125769"&gt;&lt;em&gt;Meliora&lt;/em&gt;,&lt;/a&gt; is a Swedish metal band with psychedelic elements that harkens back to a more eerie period of metal, evoking the sound of bands like &lt;a href="https://genius.com/artists/Black-sabbath" rel="noopener" data-api_path="/artists/1121"&gt;Black Sabbath&lt;/a&gt; and &lt;a href="https://genius.com/artists/Blue-oyster-cult" rel="noopener" data-api_path="/artists/50622"&gt;Blue Öyster Cult.&lt;/a&gt; They won the &lt;a href="https://www.youtube.com/watch?v=TeRDSwEXw9g" rel="noopener nofollow"&gt;Grammy in 2016 for Best Metal Performance.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;They are well known for their occult-themed lyrics in their songs, as well as the way they portray themselves in a distantly tongue-in-cheek manner as a dark, sinister religious sect, commanded by the Emeritus bloodline.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f89030f2fbca7cb37e1ea5f650131e32.564x564x1.jpg" alt="" width="564" height="564" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Papa Nihil, the oldest family member)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The band members retain a greater degree of anonymity, five of whom are known by name as, “Nameless Ghouls,” signing their names as the alchemical symbol they’ve each been assigned:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;&lt;a href="https://genius.com/15170631" rel="noopener" data-api_path="/referents/15170631"&gt;Fire (lead guitarist)&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/15170704" rel="noopener" data-api_path="/referents/15170704"&gt;Water (bassist)&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/15170799" rel="noopener" data-api_path="/referents/15170799"&gt;Air (keyboardist)&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/15170865" rel="noopener" data-api_path="/referents/15170865"&gt;Earth (drummer)&lt;/a&gt;&lt;/li&gt;\n&lt;li&gt;&lt;a href="https://genius.com/15170877" rel="noopener" data-api_path="/referents/15170877"&gt;Aether (rhythm guitarist)&lt;/a&gt;&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f1d4be754585c96f4d98598e080665f6.400x500x1.jpg" alt="" width="400" height="500" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;These symbols represented each of the band members until the launch of &lt;a href="https://genius.com/albums/Ghost/Prequelle" rel="noopener" data-api_path="/albums/419497"&gt;&lt;em&gt;Prequelle&lt;/em&gt;&lt;/a&gt; in 2018 where they &lt;a href="https://genius.com/15162012" rel="noopener" data-api_path="/referents/15162012"&gt;removed the alchemical symbols altogether.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;It is also noted that all songs are written by “A Ghoul Writer,” but it’s known that &lt;a href="https://genius.com/artists/Tobias-forge" rel="noopener" data-api_path="/artists/1055157"&gt;Tobias Forge&lt;/a&gt; writes the songs and only 2-3 members are part of the songwriting process.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;Papa Emeritus himself has changed appearances thrice and now, for &lt;a href="https://genius.com/albums/Ghost/Prequelle" rel="noopener" data-api_path="/albums/419497"&gt;&lt;em&gt;Prequelle&lt;/em&gt;&lt;/a&gt;, the lead singer is known by &lt;a href="https://genius.com/artists/Cardinal-copia" rel="noopener" data-api_path="/artists/1445918"&gt;Cardinal Copia&lt;/a&gt; (though the vocalist himself remains the same man).&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c20bac9303bf832727bcc25bd1857fb5.550x497x1.jpg" alt="" width="550" height="497" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;&lt;a href="https://genius.com/artists/Papa-emeritus" rel="noopener" data-api_path="/artists/988633"&gt;(Papa Emeritus)&lt;/a&gt;&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;The first such instance occurred on 12/12/12, when Papa Emeritus introduced a younger man in a similar costume as Papa Emeritus II.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/af5346ca53692e7b8dff35ef7803dc04.640x640x1.jpg" alt="" width="640" height="640" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;&lt;a href="https://genius.com/artists/Papa-emeritus-ii" rel="noopener" data-api_path="/artists/745639"&gt;(Papa Emeritus II)&lt;/a&gt;&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;The second instance occurred on June 3rd, 2015, when an ad released by the band revealed that P.E. II had been ‘fired’ for not having opened any churches, toppled any governments, or converted any world leaders in his time as Papa Emeritus. &lt;a href="https://www.youtube.com/watch?v=D6Jo8f95RLY" rel="noopener nofollow"&gt;Papa Emeritus III was introduced as his younger brother.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/d79c02dcc32b9d22ab337635b6af0741.600x600x1.jpg" alt="" width="600" height="600" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;&lt;a href="https://genius.com/artists/Papa-emeritus-iii" rel="noopener" data-api_path="/artists/988634"&gt;(Papa Emeritus III)&lt;/a&gt;&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.youtube.com/watch?v=QcIwc6pelic" rel="noopener nofollow"&gt;Papa Emeritus III was after kicked off by Papa Emeritus 0,&lt;/a&gt; known for being the oldest member of the family. After some months, for the band’s fourth album &lt;a href="https://genius.com/albums/Ghost/Prequelle" rel="noopener" data-api_path="/albums/419497"&gt;&lt;em&gt;Prequelle&lt;/em&gt;,&lt;/a&gt; &lt;a href="https://www.youtube.com/watch?v=e_74Ijj6EpY" rel="noopener nofollow"&gt;a new leader was announced, Cardinal Copia,&lt;/a&gt; the only lead singer that is formally not of the Emeritus’ bloodline (though he is suspected to be the bastard child of &lt;a href="https://genius.com/artists/Papa-nihil" rel="noopener" data-api_path="/artists/1549385"&gt;Papa Nihil&lt;/a&gt; and &lt;a href="https://genius.com/artists/Sister-imperator" rel="noopener" data-api_path="/artists/1948852"&gt;Sister Imperator&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4608fcab08b978063b8f610bf291a97e.1000x600x1.jpg" alt="" width="1000" height="600" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;&lt;a href="https://genius.com/artists/Cardinal-copia" rel="noopener" data-api_path="/artists/1445918"&gt;(Cardinal Copia)&lt;/a&gt;&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;In a ritual (concert) in Mexico in 2020, Papa Nihil was killed by the Ghouls and Cardinal Copia ascended to become Papa Emeritus IV.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://i.genius.com/29cbe63c828b896cc8041421283493741be326ee?url=https%3A%2F%2Fnextmosh.com%2Fwp-content%2Fuploads%2F2020%2F03%2FPapa-Emeritus-IV.jpg" alt=""&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Papa Emeritus IV)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;Regarding the small change of name during a period form “Ghost” to “Ghost B.C.,” a Nameless Ghoul &lt;a href="https://www.westword.com/music/a-nameless-ghoul-from-ghost-bc-on-papa-emeritus-ii-being-too-evil-for-the-vatican-5699472" rel="noopener nofollow"&gt;said:&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The “B.C.” is for “Because of Copyright” or “Before Coachella,” if you want. No, it’s just an amendment. We don’t call ourselves that. The name of the band is still Ghost. We are still referred to as Ghost. That’s what we are. We just put on the “B.C.” when we need to do that. It’s like saying, “Let’s go to the ‘Jack in the Box, LLC.’” You don’t do that.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['Ghost B.C.']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rammstein', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Rammstein&lt;/strong&gt; ist eine Band des Genres “Neue Deutsche Härte” aus Berlin, die 1994 gegründet wurde. Der Name der Band, ursprünglich Rammstein-Flugschau, bezieht sich auf das &lt;a href="https://de.wikipedia.org/wiki/Flugtagungl%C3%BCck_von_Ramstein" rel="noopener nofollow"&gt;Flugtagunglück von Ramstein.&lt;/a&gt; Die Band nannte sich später nur noch “Rammstein” und bestritt jede Verbindung mit der Airshow-Katastrophe. Der Begriff Rammstein bedeutet wörtlich Rammbock aus Stein. Die Band behauptet, der Name beziehe sich auf Rammsteine, die türstopperähnliche Geräte sind, die an alten Toren zu finden sind.&lt;/p&gt;\n\n&lt;p&gt;Seit ihrer Gründung im Jahr 1994, hatte Rammstein keine Änderungen in ihrer Bandbesetzung und keine Mitglieder haben die Band verlassen.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;Rammstein&lt;/strong&gt; is a Neue Deutsche Härte band from Berlin, Germany formed in 1994. Their name, originally &lt;em&gt;Rammstein-Flugschau&lt;/em&gt;, literally translating to “Rammstein Airshow,” presumably refers to the &lt;a href="https://en.wikipedia.org/wiki/Ramstein_air_show_disaster" rel="noopener nofollow"&gt;Ramstein air show disaster of 1988.&lt;/a&gt; The band later left it at just &lt;em&gt;Rammstein&lt;/em&gt; and denied any association with the airshow disaster. The term, &lt;em&gt;Rammstein&lt;/em&gt; literally means a battering ram made of stone. The band claims the name refers to &lt;em&gt;Rammsteine&lt;/em&gt; which are doorstop-like devices found on old gates.&lt;/p&gt;\n\n&lt;p&gt;Since their formation in 1994, Rammstein has had no changes in their band line-up, nor have any members left the band.&lt;/p&gt;\n\n&lt;p&gt;Studio albums released:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/Herzeleid" rel="noopener" data-api_path="/albums/16148"&gt;&lt;em&gt;Herzeleid (Heartache)&lt;/em&gt;&lt;/a&gt; (1995)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/Sehnsucht" rel="noopener" data-api_path="/albums/14287"&gt;&lt;em&gt;Sehnsucht (Longing)&lt;/em&gt;&lt;/a&gt; (1997)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/Mutter" rel="noopener" data-api_path="/albums/14598"&gt;&lt;em&gt;Mutter (Mother)&lt;/em&gt;&lt;/a&gt; (2001)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/Reise-reise" rel="noopener" data-api_path="/albums/14837"&gt;&lt;em&gt;Reise, Reise (Travel, Travel)&lt;/em&gt;&lt;/a&gt; (2004)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/Rosenrot" rel="noopener" data-api_path="/albums/16145"&gt;&lt;em&gt;Rosenrot (Rose Red)&lt;/em&gt;&lt;/a&gt; (2005)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/Liebe-ist-fur-alle-da" rel="noopener" data-api_path="/albums/14013"&gt;&lt;em&gt;Liebe ist für alle da (Love is for everyone)&lt;/em&gt;&lt;/a&gt; (2009)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/albums/Rammstein/rammstein" rel="noopener" data-api_path="/albums/516241"&gt;&lt;em&gt;RAMMSTEIN&lt;/em&gt;&lt;/a&gt; &lt;em&gt;(2019)&lt;/em&gt;\n&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;Band members:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Till-lindemann" rel="noopener" data-api_path="/artists/338482"&gt;Till Lindemann&lt;/a&gt; (lead vocals)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Richard-z-kruspe" rel="noopener" data-api_path="/artists/685005"&gt;Richard Z. Kruspe&lt;/a&gt; (lead guitar and backing vocals)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Paul-landers" rel="noopener" data-api_path="/artists/685006"&gt;Paul Landers&lt;/a&gt; (rhythm guitar, backing vocals)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Oliver-Riedel" rel="noopener" data-api_path="/artists/685008"&gt;Oliver “Ollie” Riedel&lt;/a&gt; (bass guitar)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Christoph-Schneider" rel="noopener" data-api_path="/artists/689508"&gt;Christoph “Doom” Schneider&lt;/a&gt; (drums and electronicpercussion)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Christian-Lorenz" rel="noopener" data-api_path="/artists/689509"&gt;Christian “Flake” Lorenz&lt;/a&gt; (keyboards)&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': ['Rammstein-Flugschau']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Mudvayne', 'annotations': {'description': '&lt;p&gt;Heavy metal quartet Mudvayne formed in Peoria, IL, in 1996, its members adopting the unusual pseudonyms sPaG (M. McDonough) (drums), Gurrg (G. Tribbett) (guitar), and Kud (Chad Gray) (vocals). The group’s original bassist was replaced after two years by Ryknow (Ryan Martinie). During their development, the bandmembers began the practice of applying bizarre makeup. After self-releasing their first album, Kill, I Oughta, they were signed by Epic Records and recorded their major-label debut, L.D. 50, which was released in August 2000 shortly after the end of their first national tour opening for Slipknot.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Deftones', 'annotations': {'description': '&lt;p&gt;Deftones is an American rock band formed in Sacramento, California in 1988. Originally a part of the “nu-metal” scene of the mid-90s, starting with their 2000 album &lt;a href="https://genius.com/albums/Deftones/White-pony" rel="noopener" data-api_path="/albums/20963"&gt;&lt;em&gt;White Pony&lt;/em&gt;&lt;/a&gt;, they began incorporating a wide variety of styles into their sound, including shoegaze, trip-hop, and post-rock. The band currently consists of vocalist and guitarist &lt;a href="https://genius.com/artists/chino-moreno" rel="noopener" data-api_path="/artists/59009"&gt;Chino Moreno&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/stephen-carpenter" rel="noopener" data-api_path="/artists/656821"&gt;Stephen Carpenter&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/sergio-vega" rel="noopener" data-api_path="/artists/363241"&gt;Sergio Vega&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/abe-cunningham" rel="noopener" data-api_path="/artists/656822"&gt;Abe Cunningham&lt;/a&gt;, and keyboardist and turntablist &lt;a href="https://genius.com/artists/frank-delgado" rel="noopener" data-api_path="/artists/363970"&gt;Frank Delgado&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hatebreed', 'annotations': {'description': '&lt;p&gt;&lt;b&gt;Hatebreed&lt;/b&gt; is an American metalcore band from Bridgeport, Connecticut, formed in 1994. Their musical style blends influences from hardcore punk and heavy metal; a prominent band within the hardcore scene, they are also considered a part of the metal scene.&lt;/p&gt;\n\n&lt;h1&gt;Current members:&lt;/h1&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Jasta" rel="noopener" data-api_path="/artists/405207"&gt;Jamey Jasta&lt;/a&gt; – lead vocals&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Chris-the-xmas-bitch-beattie" rel="noopener" data-api_path="/artists/1658396"&gt;Chris Beattie&lt;/a&gt; – bass&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Matt-byrne" rel="noopener" data-api_path="/artists/1658434"&gt;Matt Byrne&lt;/a&gt; – drums&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Frank-novinec" rel="noopener" data-api_path="/artists/2369252"&gt;Frank Novinec&lt;/a&gt; – rhythm guitar, backing vocals&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Wayne-lozinak" rel="noopener" data-api_path="/artists/1132458"&gt;Wayne Lozinak&lt;/a&gt; – lead guitar, backing vocals&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;h1&gt;Former members:&lt;/h1&gt;\n\n&lt;ul&gt;\n&lt;li&gt;Larry Dwyer, Jr. – rhythm guitar, backing vocals (1994–1996)&lt;/li&gt;\n&lt;li&gt;Dave Russo – drums (1994–1996)&lt;/li&gt;\n&lt;li&gt;Nick “Nickel P” Papantoniou – drums (1996–1997)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Matt-mcintosh" rel="noopener" data-api_path="/artists/364285"&gt;Matt McIntosh&lt;/a&gt; – lead guitar, backing vocals (1996–1999)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Jamie-pushbutton-muckinhaupt" rel="noopener" data-api_path="/artists/1658418"&gt;Jamie “Pushbutton” Muckinhaupt&lt;/a&gt; – drums (1997–1999)&lt;/li&gt;\n&lt;li&gt;Rigg Ross – drums (1999–2001)&lt;/li&gt;\n&lt;li&gt;Lou Richards – rhythm guitar, backing vocals (1996–2002; died 2006)&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Sean-martin" rel="noopener" data-api_path="/artists/42889"&gt;Sean Martin&lt;/a&gt; – lead guitar, backing vocals (1999–2009)&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Mastodon', 'annotations': {'description': '&lt;p&gt;An American sludge metal and alternative metal band based out of Atlanta, Georgia. Founded in 2000 after its members — bassist/singer Troy Sanders, lead guitarist/singer Brent Hinds, rhythm guitarist Bill Kelliher and drummer/singer Brann Dailor — met at a &lt;a href="https://genius.com/artists/High-on-fire" rel="noopener" data-api_path="/artists/344638"&gt;High on Fire&lt;/a&gt; concert. Known for sludge metal with a progressive element that also is accessible, Mastodon rose to popularity behind three successive concept records during the 2000s. In the 2010s, the band found itself cleaning up its vocals and production while still trying to retain some of its former gusto.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/e9f75daf6a4c6cf14eb210d93a26dcd3.720x477x1.jpg" alt="" width="720" height="477" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Marilyn-manson', 'annotations': {'description': '&lt;p&gt;Brian Hugh Warner who is better known under his stage name of &lt;strong&gt;Marilyn Manson&lt;/strong&gt; is a musician, painter, actor, multimedia artist, and former music journalist. His stage name is a combination of the names of two American icons, actress &lt;a href="https://genius.com/artists/Marilyn-monroe" rel="noopener" data-api_path="/artists/1949"&gt;Marilyn Monroe&lt;/a&gt; and multiple murder conspiracy convict &lt;a href="https://genius.com/artists/Charles-manson" rel="noopener" data-api_path="/artists/25277"&gt;Charles Manson&lt;/a&gt;.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I picked that (Marilyn Manson) as the fakest stage name of all to say that this is what show business is, fake. Marilyn Monroe wasn’t even her real name, Charles Manson isn’t his real name, and now, I’m taking that to be my real name. But what’s real? You can’t find the truth, you just pick the lie you like the best. As long as you know everything’s a lie, you can’t hurt yourself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;—&lt;a href="http://hollywoodlife.com/celeb/marilyn-manson/" rel="noopener nofollow"&gt;Marylin Manson&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Marilyn Manson is also the name of his rock band, originally “Marilyn Manson and the Spooky Kids”, where everyone had the same naming convention as the singer:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Twiggy-ramirez" rel="noopener" data-api_path="/artists/1099065"&gt;Twiggy Ramirez&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Twiggy" rel="noopener" data-api_path="/artists/19553"&gt;Twiggy&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Richard_Ramirez" rel="noopener nofollow"&gt;Richard Ramirez&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Madonna-wayne-gacy" rel="noopener" data-api_path="/artists/649881"&gt;Madonna Wayne Gacy&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Madonna" rel="noopener" data-api_path="/artists/276"&gt;Madonna&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/John_Wayne_Gacy" rel="noopener nofollow"&gt;John Wayne Gacy&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Ginger-fish" rel="noopener" data-api_path="/artists/649880"&gt;Ginger Fish&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://genius.com/artists/Fred-astaire-and-ginger-rogers" rel="noopener" data-api_path="/artists/382665"&gt;Ginger Roberts&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Albert_Fish" rel="noopener nofollow"&gt;Albert FIsh&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Daisy-berkowitz" rel="noopener" data-api_path="/artists/404173"&gt;Daisy Berkowitz&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Daisy_Duke" rel="noopener nofollow"&gt;Daisy Duke&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/David_Berkowitz" rel="noopener nofollow"&gt;David “Son of Sam” Berkowitz&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Gidget-gein" rel="noopener" data-api_path="/artists/526358"&gt;Gidget Gein&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Gidget" rel="noopener nofollow"&gt;Gidget&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Ed_Gein" rel="noopener nofollow"&gt;Ed Gein&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Sara-lee-lucas" rel="noopener" data-api_path="/artists/491172"&gt;Sara Lee Lucas&lt;/a&gt;:&lt;/strong&gt; &lt;a href="https://en.wikipedia.org/wiki/Sara_Lee_Corporation" rel="noopener nofollow"&gt;Sara Lee&lt;/a&gt; + &lt;a href="https://en.wikipedia.org/wiki/Henry_Lee_Lucas" rel="noopener nofollow"&gt;Henry Lee Lucas&lt;/a&gt;\n&lt;/li&gt;\n&lt;li&gt;Plus &lt;a href="https://genius.com/artists/Olivia-newton-john" rel="noopener" data-api_path="/artists/281740"&gt;Olivia Newton&lt;/a&gt;, &lt;a href="https://en.wikipedia.org/wiki/Ted_Bundy" rel="noopener nofollow"&gt;Bundy&lt;/a&gt; and &lt;a href="https://genius.com/artists/Zsa-zsa-gabor" rel="noopener" data-api_path="/artists/14183"&gt;Zsa Zsa&lt;/a&gt; &lt;a href="https://en.wikipedia.org/wiki/Richard_Speck" rel="noopener nofollow"&gt;Speck&lt;/a&gt;, who left early in the band.&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': ['Brian H. Warner', 'Brian Hugh Warner', 'Brian Warner']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Killswitch-engage', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.allmusic.com/artist/killswitch-engage-mn0000771792/biography" rel="noopener nofollow"&gt;Killswitch Engage&lt;/a&gt; formed in 1999, in Westfield, Massachusetts, after the disbanding of the two bands &lt;a href="https://genius.com/artists/Overcast" rel="noopener" data-api_path="/artists/368028"&gt;Overcast&lt;/a&gt; and &lt;a href="https://genius.com/artists/Aftershock" rel="noopener" data-api_path="/artists/349564"&gt;Aftershock&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 1998 when Overcast split, D\'Antonio started his search to find the right people to fuse hardcore and metal with melody.&lt;br&gt;\nD\'Antonio got in contact with Adam Dutkiewicz, and Joel Stroetzel, the drummer respectively guitarist for Aftershock. The band was completed when Jesse Leach, vocalist for Corrin and Nothing Stays Gold joined.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://m.axs.com/5-interesting-facts-about-killswitch-engage-46963" rel="noopener nofollow"&gt;The band’s name&lt;/a&gt; comes from an episode of the television series &lt;em&gt;The X-Files&lt;/em&gt; entitled “Kill Switch”.&lt;/p&gt;\n\n&lt;p&gt;After the release of their debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Killswitch-engage/Alive-or-just-breathing" rel="noopener" data-api_path="/albums/54976"&gt;Alive Or Just Breathing&lt;/a&gt;&lt;/em&gt; and the following tour, in 2002 – &lt;a href="https://web.archive.org/web/20071225194310/http://www.roadrunnerrecords.com/blabbermouth.net/news.aspx?mode=Article&amp;amp;newsitemID=4557" rel="noopener nofollow"&gt;Jesse Leach quit Killswitch Engage&lt;/a&gt; due to struggles with straining his voice combined with being a newly-wed, with his wife missing him.&lt;br&gt;\nLeach was soon replaced by &lt;a href="https://genius.com/artists/Howard-jones-rock" rel="noopener" data-api_path="/artists/1157271"&gt;Howard Jones&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After nine years of service and taking the band to fame, &lt;a href="https://web.archive.org/web/20120108163920/http://www.metalhammer.co.uk/top-posts/howard-jones-leaves-killswitch-engage" rel="noopener nofollow"&gt;Howard quit the band in 2012&lt;/a&gt;. &lt;a href="https://www.ultimate-guitar.com/news/general_music_news/howard_jones_explains_killswitch_engage_departure.html?no_takeover" rel="noopener nofollow"&gt;He later stated&lt;/a&gt; it was due to the heretic lifestyle in combination with his diabetes.&lt;/p&gt;\n\n&lt;p&gt;To replace Howard, the band held auditions for a new vocalist. They had a lot of applicants at try-outs, &lt;a href="http://www.radiometal.com/article/killswitch-engage-jesse-leachs-return-as-seen-by-adam-dutkiewicz,103989" rel="noopener nofollow"&gt;but they wound choosing their former vocalist – Jesse Leach&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Trivium', 'annotations': {'description': '&lt;p&gt;Trivium is an American Heavy Metal band founded in Orlando, Florida. They released their first album, &lt;em&gt;Ember To Inferno&lt;/em&gt;, on Lifeforce Records before being signed by Roadrunner Records. The band has released a total of 9 studio albums and over 20 singles. Their latest album, &lt;i&gt;What the Dead Men Say&lt;/i&gt;, was released on April 24, 2020. The band has sold over one million albums worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Drowning-pool', 'annotations': {'description': '&lt;p&gt;Drowning Pool is an American metal band named after the movie of the same name. They’ve released six albums and are mostly known for their song ‘Bodies’.&lt;/p&gt;', 'alternate_names': []}}</t>
+    <t>Coldplay</t>
+  </si>
+  <si>
+    <t>The Hooters</t>
+  </si>
+  <si>
+    <t>The Knack</t>
+  </si>
+  <si>
+    <t>DNCE</t>
+  </si>
+  <si>
+    <t>Salt-N-Pepa</t>
+  </si>
+  <si>
+    <t>AWOLNATION</t>
+  </si>
+  <si>
+    <t>Hayley Williams</t>
+  </si>
+  <si>
+    <t>Soundgarden</t>
+  </si>
+  <si>
+    <t>Scorpions</t>
+  </si>
+  <si>
+    <t>a-ha</t>
+  </si>
+  <si>
+    <t>Caesars</t>
+  </si>
+  <si>
+    <t>Fine Young Cannibals</t>
+  </si>
+  <si>
+    <t>Wet Wet Wet</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Duran Duran</t>
+  </si>
+  <si>
+    <t>Iggy Azalea</t>
+  </si>
+  <si>
+    <t>Erasure</t>
+  </si>
+  <si>
+    <t>Blind Melon</t>
+  </si>
+  <si>
+    <t>Arctic Monkeys</t>
+  </si>
+  <si>
+    <t>Katrina &amp; The Waves</t>
+  </si>
+  <si>
+    <t>Mac Miller</t>
+  </si>
+  <si>
+    <t>Naked Eyes</t>
+  </si>
+  <si>
+    <t>Miranda Cosgrove</t>
+  </si>
+  <si>
+    <t>Icona Pop</t>
+  </si>
+  <si>
+    <t>Yeah Yeah Yeahs</t>
+  </si>
+  <si>
+    <t>The Buggles</t>
+  </si>
+  <si>
+    <t>Carl Ward</t>
+  </si>
+  <si>
+    <t>Fifth Harmony</t>
+  </si>
+  <si>
+    <t>Huey Lewis &amp; The News</t>
+  </si>
+  <si>
+    <t>The Kid LAROI</t>
+  </si>
+  <si>
+    <t>The Fratellis</t>
+  </si>
+  <si>
+    <t>Shaggy</t>
+  </si>
+  <si>
+    <t>George Michael</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>MC Hammer</t>
+  </si>
+  <si>
+    <t>Steve Winwood</t>
+  </si>
+  <si>
+    <t>Daughtry</t>
+  </si>
+  <si>
+    <t>New Radicals</t>
+  </si>
+  <si>
+    <t>Peter Schilling</t>
+  </si>
+  <si>
+    <t>New Order</t>
+  </si>
+  <si>
+    <t>XXXTENTACION</t>
+  </si>
+  <si>
+    <t>Third Eye Blind</t>
+  </si>
+  <si>
+    <t>David Guetta</t>
+  </si>
+  <si>
+    <t>Jason Mraz</t>
+  </si>
+  <si>
+    <t>Macklemore &amp; Ryan Lewis</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dna-battle-rapper', 'annotations': {'description': '&lt;p&gt;Born in Queens, New York on April 17, 1991, Eric St. John (aka DNA) is an American battle rapper and MC, and is one of the most-viewed English-speaking battle rappers of all time.&lt;/p&gt;\n\n&lt;p&gt;Starting his battle career on Grind Time Now, DNA is known for his wordplay, schemes, charisma, and sense of humor in the ring.  He has used these strengths to create multiple classics and otherwise solid battles on leagues like URL, King of the Dot, Don’t Flop, and many more.&lt;/p&gt;\n\n&lt;p&gt;Below is a list of all of DNA’s league battles (in chronological order):&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2009&lt;/b&gt;&lt;br&gt;\n#1. Amzilla vs. DNA (4-11-2009^)&lt;br&gt;\n#2. DNA vs. Prophit (5-28-2009^)&lt;br&gt;\n#3. DNA vs. AKA (6-29-2009^)&lt;br&gt;\n#4. DNA vs. Lil\' Farnum (7-11-2009)&lt;br&gt;\n#5. DNA vs. Loe Pesci (9-1-2009)&lt;br&gt;\n#6. DNA vs. Pnut (9-4-2009)&lt;br&gt;\n#7. &lt;a href="https://genius.com/Grind-time-now-dna-vs-rone-2009-lyrics" rel="noopener" data-api_path="/songs/2330317"&gt;DNA vs. Rone (9-30-2009^)&lt;/a&gt;&lt;br&gt;\n#8. &lt;a href="https://genius.com/Grind-time-now-soul-khan-and-dna-vs-rone-and-zm-lyrics" rel="noopener" data-api_path="/songs/2329572"&gt;DNA &amp;amp; Soul Khan vs. Rone &amp;amp; ZM (12-23-2009)&lt;/a&gt;&lt;br&gt;\n#9. Rich Dolarz vs. DNA (12-23-2009)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2010&lt;/b&gt;&lt;br&gt;\n#10. Oun P vs. DNA (2-6-2010)&lt;br&gt;\n#11. Tsu Surf vs. DNA (2-27-2010)&lt;br&gt;\n#12. Big T vs. DNA (9-26-2010)&lt;br&gt;\n#13. &lt;a href="https://genius.com/Time-is-money-dna-vs-t-rex-lyrics" rel="noopener" data-api_path="/songs/4351726"&gt;DNA vs. T-Rex (10-?-2010)&lt;/a&gt;&lt;br&gt;\n#14. Gage vs. DNA (12-27-2010^)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2011&lt;/b&gt;&lt;br&gt;\n#15. &lt;a href="https://genius.com/Urltv-dna-vs-yung-ill-lyrics" rel="noopener" data-api_path="/songs/4295037"&gt;DNA vs. Yung Ill (3-27-2011)&lt;/a&gt;&lt;br&gt;\n#16. DNA vs. X-Factor (8-7-2011)&lt;br&gt;\n#17. &lt;a href="https://genius.com/King-of-the-dot-dizaster-vs-dna-lyrics" rel="noopener" data-api_path="/songs/149911"&gt;Dizaster vs. DNA (11-5-2011)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2012&lt;/b&gt;&lt;br&gt;\n#18. &lt;a href="https://genius.com/Urltv-dna-vs-tech-9-lyrics" rel="noopener" data-api_path="/songs/4433935"&gt;DNA vs. Tech 9 (3-25-2012)&lt;/a&gt;&lt;br&gt;\n#19. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-eurgh-lyrics" rel="noopener" data-api_path="/songs/2823267"&gt;DNA vs. Eurgh (6-9-2012)&lt;/a&gt;&lt;br&gt;\n#20. &lt;a href="https://genius.com/Urltv-dna-vs-e-ness-lyrics" rel="noopener" data-api_path="/songs/7119637"&gt;DNA vs. E. Ness (8-19-2012)&lt;/a&gt;&lt;br&gt;\n#21. DNA vs. Sensa (10-24-2012)&lt;br&gt;\n#22. Michael Blackson vs. DNA (10-25-2012^)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2013&lt;/b&gt;&lt;br&gt;\n#23. &lt;a href="https://genius.com/Urltv-dna-vs-k-shine-lyrics" rel="noopener" data-api_path="/songs/2445743"&gt;DNA vs. K-Shine (3-8-2013)&lt;/a&gt;&lt;br&gt;\n#24. DNA vs. Anecdote (3-16-2013)&lt;br&gt;\n#25. &lt;a href="https://genius.com/King-of-the-dot-the-saurus-vs-dna-lyrics" rel="noopener" data-api_path="/songs/3124095"&gt;The Saurus vs. DNA (3-22-2013)&lt;/a&gt;&lt;br&gt;\n#26. S. Youngin vs DNA (3-29-13)&lt;br&gt;\n#27. Unanymous &amp;amp; Chris Leese vs. Charlie Clips &amp;amp; DNA (4-27-2013)&lt;br&gt;\n#28. &lt;a href="https://genius.com/Dont-flop-arsonal-vs-dna-lyrics" rel="noopener" data-api_path="/songs/226905"&gt;Arsonal vs. DNA (4-27-2013)&lt;/a&gt;&lt;br&gt;\n#29. &lt;a href="https://genius.com/Urltv-dna-vs-chilla-jones-lyrics" rel="noopener" data-api_path="/songs/2442324"&gt;DNA vs. Chilla Jones (6-23-2013)&lt;/a&gt;&lt;br&gt;\n#30. &lt;a href="https://genius.com/King-of-the-dot-charron-vs-dna-lyrics" rel="noopener" data-api_path="/songs/2434650"&gt;Charron vs. DNA (8-23-2013)&lt;/a&gt;&lt;br&gt;\n#31. Pass vs. DNA (10-12-2013)&lt;br&gt;\n#32. DNA vs. Midwest Miles (10-19-2013)&lt;br&gt;\n#33. &lt;a href="https://genius.com/Urltv-b-magic-vs-dna-lyrics" rel="noopener" data-api_path="/songs/2437750"&gt;B Magic vs. DNA (10-26-2013)&lt;/a&gt;&lt;br&gt;\n#34. DNA &amp;amp; Cortez vs. Scizzahz &amp;amp; Wizard (11-9-2013)&lt;br&gt;\n#35. Villun vs. DNA (11-10-2013)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2014&lt;/b&gt;&lt;br&gt;\n#36. DNA vs. Calicoe (1-5-2014)&lt;br&gt;\n#37. Arcane vs. DNA (1-24-2014)&lt;br&gt;\n#38. DNA vs Young Kannon (3-24-2014) (Vaulted)&lt;br&gt;\n#39. &lt;a href="https://genius.com/Urltv-dna-vs-prez-mafia-lyrics" rel="noopener" data-api_path="/songs/5053412"&gt;DNA vs. Prez Mafia (5-17-2014)&lt;/a&gt;&lt;br&gt;\n#40. DNA vs. Celebrity Cell (5-31-2014)&lt;br&gt;\n#41. DNA vs. Ill Will (6-7-2014)&lt;br&gt;\n#42. &lt;a href="https://genius.com/King-of-the-dot-ar-and-talksic-vs-dna-and-charron-lyrics" rel="noopener" data-api_path="/songs/2866136"&gt;AR &amp;amp; Talksic vs. DNA &amp;amp; Charron (9-24-2014^)&lt;/a&gt;&lt;br&gt;\n#43. &lt;a href="https://genius.com/Urltv-tay-roc-vs-dna-lyrics" rel="noopener" data-api_path="/songs/2407818"&gt;Tay Roc vs. DNA (9-26-2014)&lt;/a&gt;&lt;br&gt;\n#44. DNA vs. Sketch Menace (10-4-2014)&lt;br&gt;\n#45. DNA vs. Sonny Bamboo (11-1-2014)&lt;br&gt;\n#46. DNA vs. M. Ciddy (11-8-2014)&lt;br&gt;\n#47. Cruger vs. DNA (11-15-2014)&lt;br&gt;\n#48. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-rone-2014-lyrics" rel="noopener" data-api_path="/songs/2322297"&gt;DNA vs. Rone (REMATCH) [11-22-2014]&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2015&lt;/b&gt;&lt;br&gt;\n#49. &lt;a href="https://genius.com/King-of-the-dot-illmaculate-vs-dna-lyrics" rel="noopener" data-api_path="/songs/3363364"&gt;Illmaculate vs. DNA (2-7-2015)&lt;/a&gt;&lt;br&gt;\n#50. DNA vs. Chess (3-27-2015)&lt;br&gt;\n#51. DNA &amp;amp; K-Shine vs. John John Da Don &amp;amp; Syahboy (4-4-2015)&lt;br&gt;\n#52. &lt;a href="https://genius.com/Urltv-serius-jones-vs-dna-lyrics" rel="noopener" data-api_path="/songs/5369135"&gt;Serius Jones vs. DNA (5-9-2015)&lt;/a&gt;&lt;br&gt;\n#53. Charlie Clips vs. DNA (6-5-2015)&lt;br&gt;\n#54. Hitman Holla &amp;amp; Aye Verb vs. DNA &amp;amp; K-Shine (6-20-2015)&lt;br&gt;\n#55. Marv Won &amp;amp; Quest MCody vs. DNA &amp;amp; K-Shine (6-27-2015)&lt;br&gt;\n#56. DNA vs. Rosenberg Raw (7-5-2015)&lt;br&gt;\n#57. DNA &amp;amp; K-Shine vs. Chess &amp;amp; Steams (7-24-2015)&lt;br&gt;\n#58. 40 B.A.R.R.S &amp;amp; Bonnie Godiva vs. DNA &amp;amp; K-Shine (8-9-2015)&lt;br&gt;\n#59. DNA vs. Cityy Towers (9-13-2015)&lt;br&gt;\n#60. DNA &amp;amp; K-Shine vs. Chess &amp;amp; Steams (REMATCH) [9-25-2015]&lt;br&gt;\n#61. DNA vs. Real Deal (10-10-2015)&lt;br&gt;\n#62. DNA vs. Syahboy (10-18-2015)&lt;br&gt;\n#63. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-dirtbag-dan-lyrics" rel="noopener" data-api_path="/songs/2821630"&gt;DNA vs. Dirtbag Dan (10-24-2015)&lt;/a&gt;&lt;br&gt;\n#64. CoJay vs. DNA (11-14-2015)&lt;br&gt;\n#65. Deffinition vs. DNA (11-15-2015)&lt;br&gt;\n#66. &lt;a href="https://genius.com/Dont-flop-charron-and-100-bulletz-vs-dna-and-k-shine-lyrics" rel="noopener" data-api_path="/songs/2483295"&gt;Charron &amp;amp; 100 Bulletz vs. DNA &amp;amp; K-Shine (11-28-2015)&lt;/a&gt;&lt;br&gt;\n#67. DNA vs. Brizz Rawsteen (12-12-2015)&lt;br&gt;\n#68. DNA &amp;amp; K-Shine vs. Math Hoffa &amp;amp; Cortez (12-20-2015)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2016&lt;/b&gt;&lt;br&gt;\n#69. &lt;a href="https://genius.com/Black-ice-cartel-dna-vs-danja-zone-lyrics" rel="noopener" data-api_path="/songs/3352909"&gt;DNA vs. Danja Zone (1-10-2016)&lt;/a&gt;&lt;br&gt;\n#70. K-Shine &amp;amp; DNA vs. E. Farrell &amp;amp; JeFFrey (1-30-2016)&lt;br&gt;\n#71. DNA vs. Vicci (2-13-2016)&lt;br&gt;\n#72. Arrow vs. DNA (2-20-2016)&lt;br&gt;\n#73. Arsonal &amp;amp; Shotgun Suge vs. DNA &amp;amp; K-Shine (2-28-2016)&lt;br&gt;\n#74. &lt;a href="https://genius.com/Urltv-tsu-surf-and-tay-roc-vs-k-shine-and-dna-lyrics" rel="noopener" data-api_path="/songs/2468773"&gt;Tsu Surf &amp;amp; Tay Roc vs. K-Shine &amp;amp; DNA (3-26-2016)&lt;/a&gt;&lt;br&gt;\n#75. Ty Law vs. DNA (3-26-2016)&lt;br&gt;\n#76. DNA vs. Bangz (5-15-2016)&lt;br&gt;\n#77. Philly Swain vs. DNA (5-22-2016)&lt;br&gt;\n#78. DNA &amp;amp; K-Shine vs. Frankie Wapps &amp;amp; Jaze Juice (5-22-2016)&lt;br&gt;\n#79. DNA vs. Troy Brown (6-5-2016)&lt;br&gt;\n#80. &lt;a href="https://genius.com/King-of-the-dot-dizaster-vs-dna-2016-lyrics" rel="noopener" data-api_path="/songs/2818721"&gt;Dizaster vs. DNA (6-25-2016)&lt;/a&gt;&lt;br&gt;\n#81. &lt;a href="https://genius.com/Urltv-tsu-surf-and-tay-roc-vs-k-shine-and-dna-rematch-lyrics" rel="noopener" data-api_path="/songs/3868848"&gt;Tsu Surf &amp;amp; Tay Roc vs. K-Shine &amp;amp; DNA (REMATCH) [7-9-2016]&lt;/a&gt;&lt;br&gt;\n#82. DNA vs. Chef Trez (7-16-2016)&lt;br&gt;\n#83. Krome vs. DNA (7-22-2016)&lt;br&gt;\n#84. Don Marino vs. DNA (7-28-2016)&lt;br&gt;\n#85. DNA vs. Jae Lyrics (8-20-2016)&lt;br&gt;\n#86. KG The Poet vs. DNA (9-11-2016)&lt;br&gt;\n#87. DNA vs. Rad B (10-23-2016)&lt;br&gt;\n#88. DNA vs. Loso (11-5-2016)&lt;br&gt;\n#89. DNA vs. Joey Gambello (12-17-2016)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2017&lt;/b&gt;&lt;br&gt;\n#90. DNA vs. T-Dubb-O (1-15-2017)&lt;br&gt;\n#91. Pat Stay vs. DNA (1-22-2017)&lt;br&gt;\n#92. Biz Barker vs. DNA (1-29-2017)&lt;br&gt;\n#93. &lt;a href="https://genius.com/King-of-the-dot-a-ward-vs-dna-lyrics" rel="noopener" data-api_path="/songs/3072521"&gt;A. Ward vs. DNA (4-14-2017)&lt;/a&gt;&lt;br&gt;\n#94. Scoop vs. DNA (4-30-2017)&lt;br&gt;\n#95. DNA vs. Reed Dollaz (6-10-2017)&lt;br&gt;\n#96. DNA vs. Haixian (6-17-2017)&lt;br&gt;\n#97. DNA &amp;amp; K-Shine vs. X-Factor &amp;amp; Midwest Miles (6-24-2017)&lt;br&gt;\n#98. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-jimz-lyrics" rel="noopener" data-api_path="/songs/3335689"&gt;DNA vs. Jimz (7-22-2017)&lt;/a&gt;&lt;br&gt;\n#99. DNA vs. 7 Weaponz (7-23-2017)&lt;br&gt;\n#100. DNA &amp;amp; K-Shine vs. Stoopidbars &amp;amp; Swiiffjay (7-30-2017)&lt;br&gt;\n#101. Shotgun Suge vs. DNA (8-5-2017)&lt;br&gt;\n#102. DNA &amp;amp; K-Shine vs. Drugz &amp;amp; Quban (8-19-2017)&lt;br&gt;\n#103. DNA vs. Young Herb (8-19-2017)&lt;br&gt;\n#104. DNA vs. Murdock (9-9-2017)&lt;br&gt;\n#105. QP &amp;amp; Qleen Paper vs. DNA &amp;amp; K-Shine (9-17-2017)&lt;br&gt;\n#106. Tetsho Vintage vs. DNA (9-30-2017)&lt;br&gt;\n#107. DNA vs. Big Kannon (11-4-2017)&lt;br&gt;\n#108. &lt;a href="https://genius.com/Urltv-dna-vs-rum-nitty-lyrics" rel="noopener" data-api_path="/songs/3484197"&gt;DNA vs. Rum Nitty (11-11-2017)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2018&lt;/b&gt;&lt;br&gt;\n#109. Charlie Clips &amp;amp; DNA vs. Big Kannon &amp;amp; Young Kannon (2-3-2018)&lt;br&gt;\n#110. Scotty vs. DNA (3-3-2018)&lt;br&gt;\n#111. E. Ness vs. DNA (3-24-2018)&lt;br&gt;\n#112. DNA vs. O-Red (5-12-2018)&lt;br&gt;\n#113. &lt;a href="https://genius.com/Urltv-dna-vs-jc-lyrics" rel="noopener" data-api_path="/songs/4001239"&gt;DNA vs. JC (6-23-2018)&lt;/a&gt;&lt;br&gt;\n#114. &lt;a href="https://genius.com/Urltv-dna-vs-nu-jerzey-twork-lyrics" rel="noopener" data-api_path="/songs/3902545"&gt;DNA vs. Nu Jerzey Twork (8-11-2018)&lt;/a&gt;&lt;br&gt;\n#115. &lt;a href="https://genius.com/Urltv-dna-vs-danny-myers-lyrics" rel="noopener" data-api_path="/songs/4034604"&gt;DNA vs. Danny Myers (10-13-2018)&lt;/a&gt;&lt;br&gt;\n#116. Mr. Tongue Twister vs. DNA (10-19-2018)&lt;br&gt;\n#117. DNA vs. Quill (10-20-2018)&lt;br&gt;\n#118. DNA vs. Big Hann (11-24-2018)&lt;br&gt;\n#119. &lt;a href="https://genius.com/Urltv-dna-vs-mickey-factz-lyrics" rel="noopener" data-api_path="/songs/4163877"&gt;DNA vs. Mickey Factz (12-15-2018)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2019&lt;/b&gt;&lt;br&gt;\n#120. DNA vs. MVP (2-10-2019)&lt;br&gt;\n#121. DNA &amp;amp; K-Shine vs. Killa B &amp;amp; Showstoppa (3-30-2019)&lt;br&gt;\n#122. DNA vs. Heiron (7-4-2019)&lt;br&gt;\n#123. &lt;a href="https://genius.com/Urltv-nwx-vs-efb-lyrics" rel="noopener" data-api_path="/songs/4806403"&gt;DNA &amp;amp; K-Shine vs. Rum Nitty &amp;amp; Geechi Gotti (8-10-2019)&lt;/a&gt;&lt;br&gt;\n#124. Nu Jerzey Twork &amp;amp; Shotgun Suge vs. DNA &amp;amp; K-Shine (9-7-2019)&lt;br&gt;\n#125. &lt;a href="https://genius.com/Urltv-dna-vs-geechi-gotti-lyrics" rel="noopener" data-api_path="/songs/4931484"&gt;DNA vs. Geechi Gotti (10-5-2019)&lt;/a&gt;&lt;br&gt;\n#126. &lt;a href="https://genius.com/Urltv-dna-vs-t-top-lyrics" rel="noopener" data-api_path="/songs/4933028"&gt;DNA vs. T-Top (10-5-2019)&lt;/a&gt;&lt;br&gt;\n#127. DNA vs. Bill Collector (10-6-2019)&lt;br&gt;\n#128. DNA vs. Chilla Jones (10-26-2019) [Rematch]&lt;br&gt;\n#129. &lt;a href="https://genius.com/Urltv-aye-verb-vs-dna-lyrics" rel="noopener" data-api_path="/songs/5108959"&gt;Aye Verb vs. DNA (12-14-2019)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2020&lt;/b&gt;&lt;br&gt;\n#130. DNA vs. Drugz (3-7-2020)&lt;br&gt;\n#131. John John Da Don vs. DNA (4-4-2020)&lt;br&gt;\n#132. DNA &amp;amp; K-Shine vs. A. Ward &amp;amp; Loso (4-12-2020)#&lt;br&gt;\n#133. &lt;a href="https://genius.com/Urltv-dna-vs-viixen-the-assassin-lyrics" rel="noopener" data-api_path="/songs/6077897"&gt;DNA vs. Viixen The Assassin (10-17-2020)&lt;/a&gt;&lt;br&gt;\n#134. &lt;a href="https://genius.com/Urltv-dna-vs-lu-castro-lyrics" rel="noopener" data-api_path="/songs/6219429"&gt;DNA vs. Lu Castro (11-22-2020)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2021&lt;/b&gt;&lt;br&gt;\n#135. &lt;a href="https://genius.com/Urltv-dna-vs-geechi-gotti-rematch-lyrics" rel="noopener" data-api_path="/songs/6424712"&gt;DNA vs. Geechi Gotti (1-9-2021)&lt;/a&gt;&lt;br&gt;\n#136. &lt;a href="https://genius.com/Urltv-dna-vs-ave-lyrics" rel="noopener" data-api_path="/songs/6414953"&gt;DNA vs. Ave (1-23-2021)&lt;/a&gt;&lt;br&gt;\n#137. Rum Nitty &amp;amp; Jey The Nitewing vs. DNA &amp;amp; Don Marino (3-27-2021)&lt;br&gt;\n#138. DNA vs. B. Dot (6-12-2021)&lt;br&gt;\n#139. DNA vs. King Los (11-6-2021)&lt;br&gt;\n#140. DNA vs. Real Sikh (12-18-2021)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2022&lt;/b&gt;&lt;br&gt;\n#141. DNA vs. Hollow Da Don (2-26-2022)&lt;/p&gt;\n\n&lt;p&gt;#Denotes that the battle was done remotely. The date it was recorded is not known. Date given is based off when it was released on YouTube.&lt;br&gt;\n^ Denotes that the official date is not known for this battle, so the listing is based off the YouTube release date.&lt;/p&gt;', 'alternate_names': ['Eric St. John', 'DNA GTFOH']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kylie-minogue', 'annotations': {'description': '&lt;p&gt;Kylie Minogue is an Australian singer, songwriter, and actress. Often referred to as the Goddess of Pop with a career spanning over 30 years, she has transformed from girl-next-door soap star to ‘90s pop starlet, and short-lived indie darling to bona fide superstar.&lt;/p&gt;\n\n&lt;p&gt;Kylie earned her first big break on the Australian soap opera &lt;em&gt;Neighbours&lt;/em&gt;, playing tomboy mechanic Charlene Mitchell. An on-screen romance with &lt;a href="https://genius.com/artists/Jason-donovan" rel="noopener" data-api_path="/artists/178714"&gt;Jason Donovan&lt;/a&gt; – who played Scott Robinson – blossomed into a real-life relationship, and their wedding on the soap drew in millions of viewers. However, her real ambition was a successful career in music, and by 1988 her debut album, &lt;a href="https://genius.com/albums/Kylie-minogue/Kylie" rel="noopener" data-api_path="/albums/20524"&gt;&lt;em&gt;Kylie&lt;/em&gt;&lt;/a&gt;, was released, reaching #1 in the UK and Australia. Notching up 10 UK Top 3 singles by 1993, she was one of the defining popstars of the early ‘90s. Her follow-ups to the debut album – &lt;a href="https://genius.com/albums/Kylie-minogue/Enjoy-yourself" rel="noopener" data-api_path="/albums/101051"&gt;&lt;em&gt;Enjoy Yourself&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kylie-minogue/Rhythm-of-love" rel="noopener" data-api_path="/albums/19623"&gt;&lt;em&gt;Rhythm of Love&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Kylie-minogue/Enjoy-yourself" rel="noopener" data-api_path="/albums/101051"&gt;&lt;em&gt;Let’s Get To It&lt;/em&gt;&lt;/a&gt; – all reached the Top 15 in the UK.&lt;/p&gt;\n\n&lt;p&gt;With a blossoming relationship with late &lt;a href="https://genius.com/artists/Inxs" rel="noopener" data-api_path="/artists/43898"&gt;INXS&lt;/a&gt; frontman Michael Hutchence, Kylie was encouraged to be more ambitious with her image and sound. As such, she left her former label, PWL, and released the daring &lt;a href="https://genius.com/Kylie-minogue-confide-in-me-lyrics" rel="noopener" data-api_path="/songs/121304"&gt;“Confide In Me”&lt;/a&gt; in early 1994. Critics praised her re-invention, and the single restored the success she had somewhat lost with her previous album. &lt;a href="https://genius.com/albums/Kylie-minogue/Impossible-princess" rel="noopener" data-api_path="/albums/101167"&gt;&lt;em&gt;Impossible Princess&lt;/em&gt;&lt;/a&gt; was another critical success but failed to make much of an impact on the charts, which led some media outlets to believe that her “15 minutes of fame” were over.&lt;/p&gt;\n\n&lt;p&gt;By the turn of the century, Kylie signed with Parlophone and returned head-first to pure pop with the comeback single, &lt;a href="https://genius.com/kylie-minogue-spinning-around-lyrics" rel="noopener" data-api_path="/songs/121298"&gt;“Spinning Around”&lt;/a&gt;. A resounding success, it – and its parent album, &lt;a href="https://genius.com/albums/Kylie-minogue/Light-years" rel="noopener" data-api_path="/albums/20477"&gt;&lt;em&gt;Light Years&lt;/em&gt;&lt;/a&gt; – set the benchmark for her most successful single yet to follow shortly after. &lt;a href="https://genius.com/Kylie-minogue-cant-get-you-out-of-my-head-lyrics" rel="noopener" data-api_path="/songs/121287"&gt;“Can’t Get You Out of My Head”&lt;/a&gt; was one of the best-selling and most-heard singles of the 2000s, and even reached #7 in the US, a market that she had all but vanished from. &lt;a href="https://genius.com/albums/Kylie-minogue/Fever" rel="noopener" data-api_path="/albums/28967"&gt;&lt;em&gt;Fever&lt;/em&gt;&lt;/a&gt; spawned a number of other hit singles, and earned her her first GRAMMY award for &lt;a href="https://genius.com/kylie-minogue-come-into-my-world-lyrics" rel="noopener" data-api_path="/songs/425208"&gt;“Come Into My World”&lt;/a&gt;. 2003 saw the release of the R&amp;amp;B-inflected &lt;a href="https://genius.com/albums/Kylie-minogue/Body-language" rel="noopener" data-api_path="/albums/29021"&gt;&lt;em&gt;Body Language&lt;/em&gt;&lt;/a&gt;, which included the sultry single &lt;a href="https://genius.com/Kylie-minogue-slow-lyrics" rel="noopener" data-api_path="/songs/418883"&gt;“Slow”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The following year, Kylie released a career-encompassing greatest hits collection, &lt;a href="https://genius.com/albums/Kylie-minogue/Ultimate-kylie" rel="noopener" data-api_path="/albums/123493"&gt;&lt;em&gt;Ultimate Kylie&lt;/em&gt;&lt;/a&gt;, and embarked on a world tour in 2005. Just as she finished the UK leg, she was given a devastating diagnosis of breast cancer, which sent her into recluse for many months. By 2006, she resumed the tour and began work on her 10th studio album. &lt;a href="https://genius.com/albums/Kylie-minogue/X" rel="noopener" data-api_path="/albums/99022"&gt;&lt;em&gt;X&lt;/em&gt;&lt;/a&gt; was preceded by the single “2 Hearts”, and was a triumphant return to form. 2010’s &lt;a href="https://genius.com/albums/Kylie-minogue/Aphrodite" rel="noopener" data-api_path="/albums/99366"&gt;&lt;em&gt;Aphrodite&lt;/em&gt;&lt;/a&gt; signaled a move towards dance-pop and electro, and included the hit single &lt;a href="https://genius.com/Kylie-minogue-les-sex-lyrics" rel="noopener" data-api_path="/songs/383790"&gt;“All the Lovers”&lt;/a&gt;. In 2012, Kylie celebrated her 25th year in the industry with an orchestral greatest hits, &lt;a href="https://genius.com/albums/Kylie-minogue/The-abbey-road-sessions" rel="noopener" data-api_path="/albums/172157"&gt;&lt;em&gt;The Abbey Road Sessions&lt;/em&gt;&lt;/a&gt;. Her 12th studio album, &lt;a href="https://genius.com/albums/Kylie-minogue/Kiss-me-once" rel="noopener" data-api_path="/albums/84268"&gt;&lt;em&gt;Kiss Me Once&lt;/em&gt;&lt;/a&gt;, followed in 2014, and the following year she released her first holiday album, &lt;a href="https://genius.com/albums/Kylie-minogue/Kylie-christmas" rel="noopener" data-api_path="/albums/132269"&gt;&lt;em&gt;Kylie Christmas&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In early 2017, Kylie left her long-time label, Parlophone, and signed with BMG Rights Management to release her 14th studio album. &lt;a href="https://genius.com/albums/Kylie-minogue/Golden" rel="noopener" data-api_path="/albums/393266"&gt;&lt;em&gt;Golden&lt;/em&gt;&lt;/a&gt;, released on April 6, 2018, features the country-pop single &lt;a href="https://genius.com/Kylie-minogue-dancing-lyrics" rel="noopener" data-api_path="/songs/3427142"&gt;“Dancing”&lt;/a&gt; and is said to overall have a more country-influenced sound, inspired by her writing trip in Nashville. &lt;em&gt;Golden&lt;/em&gt; became her sixth UK Number One album and her first to be atop the charts in both the UK and her native Australia since 2001’s &lt;a href="https://genius.com/albums/Kylie-minogue/Fever" rel="noopener" data-api_path="/albums/28967"&gt;&lt;em&gt;Fever&lt;/em&gt;&lt;/a&gt;. Owing to the success of the album, she played Glastonbury’s esteemed &lt;em&gt;Legends&lt;/em&gt; slot the following June and released an updated greatest hits. &lt;em&gt;Step Back in Time: The Definitive Collection&lt;/em&gt; became her second UK and Australian chart-topper in 18 months, with its accompanying tour and aforementioned Glastonbury performance receiving critical acclaim. Eschewing the typical extended break between albums, Kylie will release the aptly-titled &lt;em&gt;DISCO&lt;/em&gt; on November 6. Its lead single, “Say Something,” was released on July 23 alongside the announcement of the album.&lt;/p&gt;', 'alternate_names': ['Kylie Ann Minogue']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Incubus', 'annotations': {'description': '&lt;p&gt;Incubus is an American alternative rock band from Calabasas, California. The band was formed in 1991 by vocalist Brandon Boyd, lead guitarist Mike Einziger, and drummer Jose Pasillas while enrolled in Calabasas High School. Incubus later expanded to include bassist Alex “Dirk Lance” Katunich, and Gavin “DJ Lyfe” Koppell; both of whom were eventually replaced by bassist Ben Kenney and DJ Kilmore respectively.&lt;/p&gt;\n\n&lt;p&gt;Incubus has attained commercial success, reaching multi-platinum sales, as well as releasing several successful singles, &lt;a href="https://genius.com/Incubus-dig-lyrics" rel="noopener" data-api_path="/songs/313626"&gt;Dig&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/Incubus-drive-lyrics" rel="noopener" data-api_path="/songs/108451"&gt;Drive&lt;/a&gt; especially.&lt;/p&gt;\n\n&lt;p&gt; The band have undergone many style changes over their long careers. Their early work, &lt;i&gt;Fungus Amongus&lt;/i&gt; (1995) and &lt;i&gt;S.C.I.E.N.C.E.&lt;/i&gt; (1997) were aggressive and clunky Funk Metal inspired by 80’s bands, such as the &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chili Peppers&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt; As the band earned mainstream recognition in the late 90’s and early 00’s their style matured significantly. Their albums &lt;a href="https://genius.com/albums/Incubus/Make-yourself" rel="noopener" data-api_path="/albums/26607"&gt;&lt;i&gt;Make Yourself&lt;/i&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Incubus/Morning-view" rel="noopener" data-api_path="/albums/80202"&gt;&lt;i&gt;Morning View&lt;/i&gt;&lt;/a&gt; evolved into a more Post-Grunge sound.&lt;/p&gt;\n\n&lt;p&gt; The Band’s success continued with the album &lt;i&gt;A Crow Left of the Murder…&lt;/i&gt; (2004). Their sixth studio album, &lt;a href="https://www.billboard.com/music/Incubus/chart-history/TLP" rel="noopener nofollow"&gt;Light Grenades, debuted at #1&lt;/a&gt;, their first and only #1 album.&lt;/p&gt;\n\n&lt;p&gt;Incubus\' first greatest hits album &lt;i&gt;Monuments and Melodies&lt;/i&gt; came out in June 2009. With their 2011 album &lt;i&gt;If Not Now, When?&lt;/i&gt; the band developed a more Pop-Rock style. The band released their eighth studio album, titled 8, on April 21, 2017.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bridgit-mendler', 'annotations': {'description': '&lt;p&gt;Bridgit Claire Mendler, known by just &lt;strong&gt;Bridgit Mendler&lt;/strong&gt; (born December 18, 1992), is an American singer-songwriter and actress.&lt;/p&gt;\n\n&lt;p&gt;She started her acting career in 2004, starring in the animated Indian film, &lt;a href="https://en.wikipedia.org/wiki/The_Legend_of_Buddha" rel="noopener nofollow"&gt;&lt;em&gt;The Legend of Buddha&lt;/em&gt;&lt;/a&gt;. In 2007, Mendler had an acting role as  Pamela in &lt;a href="https://en.wikipedia.org/wiki/Alice_Upside_Down" rel="noopener nofollow"&gt;&lt;em&gt;Alice Upside Down&lt;/em&gt;&lt;/a&gt;. Bridgit has had a lot of acting roles in TV shows and films, such as &lt;a href="https://goo.gl/exFnZw" rel="noopener nofollow"&gt;&lt;em&gt;The Clique&lt;/em&gt;&lt;/a&gt;(2008), &lt;a href="https://en.wikipedia.org/wiki/Labor_Pains" rel="noopener nofollow"&gt;&lt;em&gt;Labor Pains&lt;/em&gt;&lt;/a&gt;(2009) and &lt;a href="https://en.wikipedia.org/wiki/Wizards_of_Waverly_Place" rel="noopener nofollow"&gt;&lt;em&gt;Wizards of Waverly Place&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Mendler starred as the lead character in Disney Channel’s &lt;a href="https://en.wikipedia.org/wiki/Good_Luck_Charlie" rel="noopener nofollow"&gt;&lt;em&gt;Good Luck Charlie&lt;/em&gt;&lt;/a&gt; as Teddy Duncan. The show aired on &lt;a href="https://en.wikipedia.org/wiki/Disney_Channel" rel="noopener nofollow"&gt;&lt;em&gt;Disney Channel&lt;/em&gt;&lt;/a&gt; from April 4, 2010, to February 16, 2014.&lt;/p&gt;\n\n&lt;p&gt;In 2012, she released her debut LP, &lt;a href="https://genius.com/albums/Bridgit-mendler/Hello-my-name-is" rel="noopener" data-api_path="/albums/22851"&gt;&lt;em&gt;Hello My Name Is…&lt;/em&gt;&lt;/a&gt;. The album debuted at number 30 on the US Billboard 200 and has sold over 200,00 copies.&lt;/p&gt;\n\n&lt;p&gt;After starring as the lead role in &lt;em&gt;Good Luck Charlie&lt;/em&gt;, Bridgit didn’t release music until mid-2016. In 2016, she released her first single featuring Kaiydo, called &lt;a href="https://genius.com/Bridgit-mendler-atlantis-lyrics" rel="noopener" data-api_path="/songs/2844293"&gt;“Atlantis”&lt;/a&gt;. After releasing her first single, she released an EP, &lt;a href="https://genius.com/albums/Bridgit-mendler/Nemesis" rel="noopener" data-api_path="/albums/165240"&gt;&lt;em&gt;Nemesis&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In February 2017, Bridgit released (Temperamental Love ft. Devontée] (&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="https://genius.com/Bridgit-mendler-temperamental-love-lyrics" data-api_path="/songs/2974122"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://images.genius.com/655cb62f35345ec7a2ca8325c5bf17de.1000x1000x1.jpg" width="1000" height="1000" data-animated="false"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Bridgit Mendler (Ft. Devontée) - Temperamental Love&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Genius&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Temperamental Love Lyrics: Uh, uh / Girl, you ain\'t the only one that\'s all alone / Hell, I\'m only seeing you on the phone / What\'s a FaceTime? I need face-to-face time / Calls being dropped, you think it\'s&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;) and in March released the collaboration with Pell called [Can’t Bring This Down] (&lt;div class="embedly_preview"&gt;\n&lt;a href="https://genius.com/Bridgit-mendler-cant-bring-this-down-lyrics" data-api_path="/songs/2992079"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://images.genius.com/bef7fcd513aaf3af1a7d07d647656dd3.1000x1000x1.jpg" width="1000" height="1000" data-animated="false"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Bridgit Mendler (Ft. Pell) - Can\'t Bring This Down&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Genius&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Can\'t Bring This Down Lyrics: Shake my head like this / You better stop it / Too high, too quick / You are the one / I never felt like this / If I\'m being honest / I can\'t bring this down / Yeah, yeah, yeah&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;). In late August, Mendler released [Diving ft. RKCB] (&lt;div class="embedly_preview"&gt;\n&lt;a href="https://genius.com/Bridgit-mendler-diving-lyrics" data-api_path="/songs/3178641"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://images.genius.com/888383edb1102bfef48a6b66cfceb6b2.939x939x1.jpg" width="939" height="939" data-animated="false"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Bridgit Mendler (Ft. RKCB) - Diving&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Genius&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Diving Lyrics: There was a time that / I still felt love now I / Don\'t know you, but I got a / Trail of thoughts / That keep us connected and blue / Now I\'m at the elevation from a / Different&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;) on the 5-year anniversary of Ready Or Not.\n\n&lt;p&gt;As of May 2018, Mendler is part of a graduate program at MIT and states that she will still release another album eventually.&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Rob-zombie', 'annotations': {'description': '&lt;p&gt;Rob Zombie (born Robert Bartleh Cummings; January 12, 1965) is an American musician, film director, screenwriter and film producer. Zombie rose to fame as a founding member of the heavy metal band &lt;a href="https://genius.com/artists/White-zombie" rel="noopener" data-api_path="/artists/165622"&gt;White Zombie&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Robert Zombie', 'Robert W. Zombie', 'Robert Wolfgang Zombie', 'Robert Cummings', 'Robert B. Cummings', 'Robert Bartleh Cummings']}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Bullet-for-my-valentine', 'annotations': {'description': '&lt;p&gt;Bullet For My Valentine are a Welsh heavy metal band, formed in 1998 under the name &lt;a href="https://genius.com/artists/Jeff-killed-john" rel="noopener" data-api_path="/artists/1493923"&gt;‘Jeff Killed John’&lt;/a&gt;. The band changed their name in 2003 in addition to reworking their musical style and image.&lt;/p&gt;\n\n&lt;p&gt;Bullet For My Valentine’s music has often been labelled as heavy metal, metalcore and hard rock although it is difficult to place them in a specific genre. For example, &lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Scream-aim-fire" rel="noopener" data-api_path="/albums/81429"&gt;&lt;em&gt;Scream Aim Fire&lt;/em&gt;&lt;/a&gt; is a mix of heavy metal and metalcore with lots of thrash metal influences. On the other hand, &lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Gravity" rel="noopener" data-api_path="/albums/415984"&gt;&lt;em&gt;Gravity&lt;/em&gt;&lt;/a&gt; sees the band stepping out of their comfort zone by infusing electronical elements with their instruments, resulting in a new and unique sound, yet still recognisable.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Discography:&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Bullet-for-my-valentine" rel="noopener" data-api_path="/albums/784390"&gt;&lt;em&gt;Bullet for My Valentine&lt;/em&gt; EP&lt;/a&gt; (2004)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Hand-of-blood" rel="noopener" data-api_path="/albums/240662"&gt;&lt;em&gt;Hand of Blood&lt;/em&gt; EP&lt;/a&gt; (2004)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/The-poison" rel="noopener" data-api_path="/albums/28088"&gt;&lt;em&gt;The Poison&lt;/em&gt;&lt;/a&gt; (2005)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Rare-cuts" rel="noopener" data-api_path="/albums/234956"&gt;&lt;em&gt;Rare Cuts&lt;/em&gt; EP&lt;/a&gt; (2007)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Scream-aim-fire" rel="noopener" data-api_path="/albums/81429"&gt;&lt;em&gt;Scream Aim Fire&lt;/em&gt;&lt;/a&gt; (2008)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Fever" rel="noopener" data-api_path="/albums/40634"&gt;&lt;em&gt;Fever&lt;/em&gt;&lt;/a&gt; (2010)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Temper-temper" rel="noopener" data-api_path="/albums/86401"&gt;&lt;em&gt;Temper Temper&lt;/em&gt;&lt;/a&gt; (2013)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Venom" rel="noopener" data-api_path="/albums/124763"&gt;&lt;em&gt;Venom&lt;/em&gt;&lt;/a&gt; (2015)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Gravity" rel="noopener" data-api_path="/albums/415984"&gt;&lt;em&gt;Gravity&lt;/em&gt;&lt;/a&gt; (2018)&lt;br&gt;\n&lt;a href="https://genius.com/albums/Bullet-for-my-valentine/Bullet-for-my-valentine" rel="noopener" data-api_path="/albums/784390"&gt;&lt;em&gt;Bullet For My Valentine&lt;/em&gt;&lt;/a&gt; (2021)&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Members:&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-tuck" rel="noopener" data-api_path="/artists/1221735"&gt;&lt;strong&gt;Matt Tuck&lt;/strong&gt;&lt;/a&gt;: Lead Vocals, Rhythm Guitar (1998–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Michael-padge-paget" rel="noopener" data-api_path="/artists/1493991"&gt;&lt;strong&gt;Michael “Padge” Paget&lt;/strong&gt;&lt;/a&gt;: Lead Guitar, Backing Vocals (1998–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jamie-mathias" rel="noopener" data-api_path="/artists/1506712"&gt;&lt;strong&gt;Jamie Mathias&lt;/strong&gt;&lt;/a&gt;: Bass, Vocals (2015–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-bowld" rel="noopener" data-api_path="/artists/1492103"&gt;&lt;strong&gt;Jason Bowld&lt;/strong&gt;&lt;/a&gt;: Drums (2017–present)&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Michael-moose-thomas" rel="noopener" data-api_path="/artists/1493992"&gt;Michael “Moose” Thomas&lt;/a&gt;: Drums (1998–2016)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-jay-james" rel="noopener" data-api_path="/artists/1494007"&gt;Jason “Jay” James&lt;/a&gt;: Bass, Backing Vocals (2003–2015)&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/7ff6c48f799e64087701a832831942a5.1000x760x1.png" alt="" width="1000" height="760" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;Padge, Matt, Jason &amp;amp; Jamie&lt;/center&gt;\n&lt;small&gt;&lt;/small&gt;&lt;/small&gt;&lt;/p&gt;', 'alternate_names': ['BFMV']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Korn', 'annotations': {'description': '&lt;p&gt;Bakersfield friends James “Munky” Shaffer, Reginald “Fieldy” Arvizu and David Silveria &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;formed the funk-rock band LAPD&lt;/a&gt; in 1989 and moved to Los Angeles with another friend Brian “Head” Welch as their roadie. Later, with Welch as second guitarist, the band named themselves Creep and recorded a demo with pal Ross Robinson.&lt;/p&gt;\n\n&lt;p&gt;However, when Shaffer and Welch visited family in Bakersfield, they met Jonathan Davis who added a darker, goth-tinged edge to the band’s heavy groove. &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;Robinson recalled&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The band wasn’t dark yet; it had, like, killer grooves and good riffs, but there was some happy edge to it. And when (Davis) walked into the room, it went dark and goth. Basically, during the first song, to audition in the rehearsal room, he started freaking the hell out [laughs]. You couldn’t hear his voice, but you felt chills all over your body, and it was instantly like, “Oh my God, yeah – he’s the one.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;They chose the name Korn (based on &lt;a href="https://www.youtube.com/watch?v=ZYnk4layQqs" rel="noopener nofollow"&gt;a gross story&lt;/a&gt; Davis once overheard) and recorded four songs &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;inspired by acts like&lt;/a&gt; Pantera, Ice Cube, Duran Duran, Cypress Hill, The Cure, Primus and potentially anything in between. That demo attracted Immortal Records. Their debut album only peaked at #72 in the US, but over time became the seed that sprouted into a whole new style of heavy music most commonly called nu-metal. &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis explained&lt;/a&gt; in 2015:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;At the time in rock, there was nothing new or different, and it felt so stagnant. And here come these guys from Bakersfield with this bouncing sound, and I’m screaming my throat out, being super emotional and bringing up all this weird shit … It changed everything, man. And I’m not saying that because I was in the band, but I started seeing kids in baggy clothes and metal kids in Adidas.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Korn’s second album &lt;em&gt;Life Is Peachy&lt;/em&gt; began to expand the band’s sound from just dark and serious into frivolity, with a light-hearted cover of “Low Rider” and the band’s first almost-hit in the US “ADIDAS”. The formula worked in the UK where all three singles reached the top 30.&lt;/p&gt;\n\n&lt;p&gt;It was the band’s third album &lt;em&gt;Follow The Leader&lt;/em&gt;, another collection of dark songs mixed in with some silly ones, that broke the band in the US. Despite two of its singles only reaching the top 20 on two rock charts (but not crossing over to mainstream success), Korn became &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;what Noisey called&lt;/a&gt; “the biggest band in the fucking world”.&lt;/p&gt;\n\n&lt;p&gt;With an established sound, the band continued releasing successful albums and playing to packed arenas through the 2000s. But aside from their experimental tenth album &lt;em&gt;The Path Of Totality&lt;/em&gt; – a mixing of metal and dubstep – their albums remained formulaic and predictable. They are still best remembered for their self-titled debut and third album &lt;em&gt;Follow The Leader&lt;/em&gt;. In 2005, it was common to refer to Korn as a band whose best albums are &lt;a href="https://www.nme.com/reviews/album/reviews-nme-6437" rel="noopener nofollow"&gt;their odd-numbered ones&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The received wisdom about Korn is that they deliver on the odd numbers. Album one, ‘Korn’, revitalised metal, dragging it out of the middle ages into the modern era. Album three, ‘Follow The Leader’, took the form into the mainstream, blowing boundaries and preconceptions. Album four, ‘Issues’, was dense and impenetrable.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Welch quit in 2005 after having “Revelation of Christ” and Silveria left silently in 2006, but years later &lt;a href="https://www.ultimate-guitar.com/news/general_music_news/jonathan_davis_on_david_silveria_reunion_never_never_again.html" rel="noopener nofollow"&gt;revealed&lt;/a&gt; one reason for leaving was that he “was being asked to be a puppet and dumb down my playing” while producers made “cookie cutter Korn songs”. Welch later rejoined in 2013.&lt;/p&gt;\n\n&lt;p&gt;The band’s lifestyles have changed drastically over the band’s three-decade career, moving away from the spoils of excess to inspiring others to overcome their addictions and depression. In 2016, Davis &lt;a href="https://www.theguardian.com/music/2016/oct/21/korn-serenity-of-suffering-jonathan-davis-interview" rel="noopener nofollow"&gt;told The Guardian&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Nothing brings more joy into my fucking heart than seeing our music help a kid who is depressed, or suicidal, or going through an episode. That’s the payoff to me, that’s why we keep coming out here, that’s why we keep making records. Because we like to see people smile.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;As of 2020, the band has released 13 albums. The first seven are certified platinum and the band is &lt;a href="https://www.rollingstone.com/music/music-news/korns-1994-debut-lp-the-oral-history-of-the-most-important-metal-record-of-the-last-20-years-44821/" rel="noopener nofollow"&gt;widely recognized as&lt;/a&gt; a pioneer of “one of heavy music’s biggest paradigm shifts”. They’re credited with creating the genre ‘nu-metal’ – a label &lt;a href="https://noisey.vice.com/en_us/article/r7pbkg/rank-your-records-korn" rel="noopener nofollow"&gt;Davis originally rejected&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’d like to find that fucking writer that coined that term, nu-metal … Yeah, we’re heavy and downtuned, but metal, to me, is like Judas Priest and Iron Maiden. That’s metal, man. I always thought of us as a funk band, that funky groovy shit.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Skrillex', 'annotations': {'description': '&lt;p&gt;Sonny Moore found club and mainstream stardom beginning in 2008, when he swapped his gig as post-hardcore frontman for &lt;a href="https://genius.com/artists/From-first-to-last" rel="noopener" data-api_path="/artists/58750"&gt;From First to Last&lt;/a&gt; and created the dancefloor-oriented project, Skrillex. He initially used the name for live DJ sets, but in 2009 the project moved into the studio with Skrillex remixing the likes of &lt;a href="https://genius.com/artists/Lady-gaga" rel="noopener" data-api_path="/artists/447"&gt;Lady Gaga&lt;/a&gt; and &lt;a href="https://genius.com/artists/Snoop-dogg" rel="noopener" data-api_path="/artists/46"&gt;Snoop Dogg&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Now he strives in mainstream success, playing monstrous live sets, releasing songs that rack up millions of listens and producing for the likes of &lt;a href="https://genius.com/artists/justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt;, &lt;a href="https://genius.com/artists/A-ap-rocky" rel="noopener" data-api_path="/artists/12417"&gt;A$AP Rocky&lt;/a&gt;, &lt;a href="https://genius.com/artists/ty-dolla-ign" rel="noopener" data-api_path="/artists/25005"&gt;Ty Dolla Sign&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Ellie-goulding" rel="noopener" data-api_path="/artists/1838"&gt;Ellie Goulding&lt;/a&gt;, and formed the duo &lt;a href="https://genius.com/artists/jack-u" rel="noopener" data-api_path="/artists/72045"&gt;Jack U&lt;/a&gt; with equally successful producer &lt;a href="https://genius.com/artists/diplo" rel="noopener" data-api_path="/artists/12908"&gt;Thomas “Diplo” Pentz&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Twipz', 'Sonny Moore', 'Sonny J. Moore', 'Sonny John Moore']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Three-days-grace', 'annotations': {'description': '&lt;p&gt;Three Days Grace is a Canadian alternative rock band formed in 1997 and now based in Toronto. Consisting of lead vocalist &lt;a href="https://genius.com/artists/Matt-walst" rel="noopener" data-api_path="/artists/1102458"&gt;Matt Walst&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Barry-stock" rel="noopener" data-api_path="/artists/73436"&gt;Barry Stock&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Neil-sanderson" rel="noopener" data-api_path="/artists/73434"&gt;Neil Sanderson&lt;/a&gt;, and bassist &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt;, the band is best known for their metal-influenced, hard rock sound and clever songwriting.&lt;/p&gt;\n\n&lt;p&gt;TDG grew out of &lt;a href="https://genius.com/artists/Groundswell" rel="noopener" data-api_path="/artists/62823"&gt;Groundswell&lt;/a&gt;, a five-member high-school band founded in 1992. With &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; as lead vocalist, &lt;a href="https://genius.com/artists/Neil-sanderson" rel="noopener" data-api_path="/artists/73434"&gt;Neil Sanderson&lt;/a&gt; as drummer, &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt; as bassist, &lt;a href="https://genius.com/artists/Phil-crowe" rel="noopener" data-api_path="/artists/2060493"&gt;Phil Crowe&lt;/a&gt; as lead guitarist, and &lt;a href="https://genius.com/artists/Joe-grant" rel="noopener" data-api_path="/artists/1216873"&gt;Joe Grant&lt;/a&gt; as rhythm guitarist, Groundswell released one album, &lt;a href="https://genius.com/albums/Groundswell/Wave-of-popular-feeling" rel="noopener" data-api_path="/albums/235662"&gt;&lt;em&gt;Wave of Popular Feeling&lt;/em&gt;&lt;/a&gt; in 1995. That same year, the band broke up, and it was not until 1997 that &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt;, &lt;a href="https://genius.com/artists/Neil-sanderson" rel="noopener" data-api_path="/artists/73434"&gt;Neil Sanderson&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt; got together as “Three Days Grace”.&lt;/p&gt;\n\n&lt;p&gt;Working with local producer &lt;a href="https://genius.com/artists/Gavin-brown" rel="noopener" data-api_path="/artists/128850"&gt;Gavin Brown&lt;/a&gt;, the trio re-worked a number of their past songs and compiled a demo album. After handing it to &lt;a href="https://genius.com/artists/Emi-music-publishing" rel="noopener" data-api_path="/artists/648041"&gt;EMI Music Publishing Canada&lt;/a&gt;, TDG produced their smash single &lt;a href="https://genius.com/Three-days-grace-i-hate-everything-about-you-lyrics" rel="noopener" data-api_path="/songs/107580"&gt;“I Hate Everything About You”&lt;/a&gt;, which would be released in 2003 alongside their eponymous debut album &lt;a href="https://genius.com/albums/Three-days-grace/Three-days-grace" rel="noopener" data-api_path="/albums/26399"&gt;&lt;em&gt;Three Days Grace&lt;/em&gt;&lt;/a&gt; through American label &lt;a href="https://genius.com/artists/Jive-records" rel="noopener" data-api_path="/artists/649293"&gt;Jive Records&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In late 2003, the band welcomed lead guitarist &lt;a href="https://genius.com/artists/Barry-stock" rel="noopener" data-api_path="/artists/73436"&gt;Barry Stock&lt;/a&gt;, and released two additional singles, &lt;a href="https://genius.com/Three-days-grace-just-like-you-lyrics" rel="noopener" data-api_path="/songs/424351"&gt;Just Like You&lt;/a&gt; and &lt;a href="https://genius.com/Three-days-grace-home-lyrics" rel="noopener" data-api_path="/songs/383357"&gt;“Home”&lt;/a&gt;. Going on tour for TDG’s debut album, lead singer &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; developed a prescription drug addiction, and with the support of his friends and family, checked into rehab in 2005.&lt;/p&gt;\n\n&lt;p&gt;While undergoing treatment, Gontier wrote songs about his journey to recovery, which would become tracks on TDG’s second album. After leaving the center, Gontier continued producing music with the band, culminating in 2006’s &lt;a href="https://genius.com/albums/Three-days-grace/One-x-special-edition" rel="noopener" data-api_path="/albums/18897"&gt;&lt;em&gt;One-X&lt;/em&gt;&lt;/a&gt;. The album was positively received: TDG catapulted to the top of Billboard’s 2007 charts, the single &lt;a href="https://genius.com/Three-days-grace-animal-i-have-become-lyrics" rel="noopener" data-api_path="/songs/80495"&gt;“Animal I Have Become”&lt;/a&gt; became the band’s most successful track, and &lt;em&gt;One-X&lt;/em&gt; was certified double platinum July 2007 in Canada. Later in 2016, the album would earn triple platinum in the US.&lt;/p&gt;\n\n&lt;p&gt;In 2009, TDG released their third album, &lt;a href="https://genius.com/albums/Three-days-grace/Life-starts-now" rel="noopener" data-api_path="/albums/82833"&gt;&lt;em&gt;Life Starts Now&lt;/em&gt;&lt;/a&gt;, transitioning from the dark lyrics of their previous records into a lighter and more mature era.&lt;/p&gt;\n\n&lt;p&gt;In 2011, following the disbanding of &lt;a href="https://genius.com/artists/Jive-records" rel="noopener" data-api_path="/artists/649293"&gt;Jive Records&lt;/a&gt;, TDG signed on to &lt;a href="https://genius.com/artists/Rca-records-ltd" rel="noopener" data-api_path="/artists/2538696"&gt;RCA Records&lt;/a&gt;. On June 5, 2012, TDG announced their fourth studio album, &lt;a href="https://genius.com/albums/Three-days-grace/Transit-of-venus" rel="noopener" data-api_path="/albums/82577"&gt;Transit of Venus&lt;/a&gt;, inspired by the rare astrological phenomenon that had occurred that day and released later in October.&lt;/p&gt;\n\n&lt;p&gt;In a surprise announcement on January 9, 2013, lead singer &lt;a href="https://genius.com/artists/Adam-gontier" rel="noopener" data-api_path="/artists/72936"&gt;Adam Gontier&lt;/a&gt; revealed that he was leaving TDG. He was replaced by bassist &lt;a href="https://genius.com/artists/Brad-walst" rel="noopener" data-api_path="/artists/73435"&gt;Brad Walst&lt;/a&gt;’s brother &lt;a href="https://genius.com/artists/Matt-walst" rel="noopener" data-api_path="/artists/1102458"&gt;Matt Walst&lt;/a&gt;, who remains the band’s lead singer today.&lt;/p&gt;\n\n&lt;p&gt;In April 2014, the band released their first single of the year, &lt;a href="https://genius.com/Three-days-grace-painkiller-lyrics" rel="noopener" data-api_path="/songs/393555"&gt;“Painkiller”&lt;/a&gt;, which shot to No. 1 on Billboard’s Mainstream Rock Chart in August. The following month, TDG released their next single, &lt;a href="https://genius.com/Three-days-grace-i-am-machine-lyrics" rel="noopener" data-api_path="/songs/528054"&gt;“I Am Machine”&lt;/a&gt;, and on January 26, 2015, the band confirmed that the title of their next album. In March 2015, TDG released the third single &lt;a href="https://genius.com/Three-days-grace-human-race-lyrics" rel="noopener" data-api_path="/songs/729619"&gt;“Human Race”&lt;/a&gt;, and a week later, they released their fifth studio album, &lt;a href="https://genius.com/albums/Three-days-grace/Human" rel="noopener" data-api_path="/albums/122280"&gt;&lt;em&gt;Human&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Throughout 2015, TDG went on tour, performing in US and Canada, and in early 2016, Europe and Russia. In November 2016, they released a cover single of &lt;a href="https://genius.com/artists/Phantogram" rel="noopener" data-api_path="/artists/12520"&gt;Phantogram&lt;/a&gt;’s &lt;a href="https://genius.com/Three-days-grace-you-dont-get-me-high-anymore-lyrics" rel="noopener" data-api_path="/songs/2911417"&gt;“You Don’t Get Me High Anymore”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Over the summer of 2017, TDG began working on their sixth studio album, &lt;a href="https://genius.com/albums/Three-days-grace/Outsider" rel="noopener" data-api_path="/albums/396513"&gt;“Outsider”&lt;/a&gt;, which was released in March 2018. The first single of the album, &lt;a href="https://genius.com/Three-days-grace-the-mountain-lyrics" rel="noopener" data-api_path="/songs/3461381"&gt;“The Mountain”&lt;/a&gt;, was released January 2018, and followed by &lt;a href="https://genius.com/Three-days-grace-infra-red-lyrics" rel="noopener" data-api_path="/songs/3522134"&gt;“Infra-Red”&lt;/a&gt; in June and &lt;a href="https://genius.com/Three-days-grace-right-left-wrong-lyrics" rel="noopener" data-api_path="/songs/3522132"&gt;“Right Left Wrong”&lt;/a&gt; in November. All three singles made a No. 1 debut on Billboard’s Mainstream Rock Chart, setting the band a record of 15 smash-hit singles. In 2019, the TDG won iHeart Radio’s Rock Artist of the Year.&lt;/p&gt;\n\n&lt;p&gt;In July of 2020, TDG released a cover of &lt;a href="https://genius.com/artists/Gotye" rel="noopener" data-api_path="/artists/17395"&gt;Gotye&lt;/a&gt;’s &lt;a href="https://genius.com/Three-days-grace-somebody-that-i-used-to-know-lyrics" rel="noopener" data-api_path="/songs/5788123"&gt;“Somebody That I Used To Know”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Breaking-benjamin', 'annotations': {'description': '&lt;p&gt;Breaking Benjamin is a rock band from Wilkes-Barre, Pennsylvania. The band was formed in 1999 by lead singer &lt;a href="https://genius.com/artists/Benjamin-burnley" rel="noopener" data-api_path="/artists/502352"&gt;Ben Burnley&lt;/a&gt; and former drummer &lt;a href="https://genius.com/artists/Jeremy-hummel" rel="noopener" data-api_path="/artists/1087832"&gt;Jeremy Hummel&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band was originally named Plan 9, which is a reference to the 1959 film &lt;a href="https://www.imdb.com/title/tt0052077/" rel="noopener nofollow"&gt;&lt;em&gt;Plan 9 from Outer Space&lt;/em&gt;&lt;/a&gt;. The band continuously was misnamed as Planet 9 and drove them to change their name to Breaking Benjamin (Which was the name of Ben’s previous band.) The name originates from  an incident in which Ben accidentally dropped the mic, and the sound man yelled&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Thanks to Benjamin for breaking my fucking mic!”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In 2004, their sophomore album &lt;a href="https://genius.com/albums/Breaking-benjamin/We-are-not-alone" rel="noopener" data-api_path="/albums/76017"&gt;&lt;em&gt;We Are Not Alone&lt;/em&gt;&lt;/a&gt; was released. They collaborated with &lt;a href="https://genius.com/artists/Smashing-pumpkins" rel="noopener" data-api_path="/artists/12025"&gt;Smashing Pumpkins&lt;/a&gt; vocalist &lt;a href="https://genius.com/artists/Billy-corgan" rel="noopener" data-api_path="/artists/42637"&gt;Billy Corgan&lt;/a&gt; on writing their songs &lt;a href="https://genius.com/Breaking-benjamin-rain-lyrics" rel="noopener" data-api_path="/songs/424617"&gt;“Rain”&lt;/a&gt;, &lt;a href="https://genius.com/Breaking-benjamin-forget-it-lyrics" rel="noopener" data-api_path="/songs/399168"&gt;“Forget It”&lt;/a&gt;, and &lt;a href="https://genius.com/Breaking-benjamin-follow-radio-edit-lyrics" rel="noopener" data-api_path="/songs/424537"&gt;“Follow”&lt;/a&gt;. The album peaked at #20 on the &lt;a href="https://www.billboard.com/music/breaking-benjamin/chart-history/billboard-200/song/457115" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt; and has been certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=BREAKING+BENJAMIN&amp;amp;ti=WE+ARE+NOT+ALONE" rel="noopener nofollow"&gt;platinum&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2005, they released their second platinum album &lt;a href="https://genius.com/albums/Breaking-benjamin/Phobia" rel="noopener" data-api_path="/albums/18447"&gt;&lt;em&gt;Phobia&lt;/em&gt;&lt;/a&gt;. The albums lead single &lt;a href="https://genius.com/Breaking-benjamin-the-diary-of-jane-lyrics" rel="noopener" data-api_path="/songs/79054"&gt;“Diary of Jane”&lt;/a&gt; peaked at #2 on the Billboard &lt;a href="https://www.billboard.com/music/breaking-benjamin/chart-history/hot-mainstream-rock-tracks/song/502058" rel="noopener nofollow"&gt;Mainstream Rock Chart&lt;/a&gt;. It received a double-platinum certification and was the fastest single added to radio stations in Hollywood Records history.&lt;/p&gt;\n\n&lt;p&gt;The band began their hiatus in 2010 after a dispute between band members about the release of the &lt;a href="https://genius.com/Breaking-benjamin-blow-me-away-feat-valora-lyrics" rel="noopener" data-api_path="/songs/1513040"&gt;“Blow Me Away”&lt;/a&gt; remix with Syndee Duran.&lt;/p&gt;\n\n&lt;p&gt;Ben returned in 2014 with a whole new lineup. Their first album together &lt;a href="https://genius.com/albums/Breaking-benjamin/Dark-before-dawn" rel="noopener" data-api_path="/albums/126578"&gt;&lt;em&gt;Dark Before Dawn&lt;/em&gt;&lt;/a&gt; made its way up the charts very quickly and peaked at #1 on the Billboard 200. It was certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=BREAKING+BENJAMIN&amp;amp;ti=DARK+BEFORE+DAWN" rel="noopener nofollow"&gt;gold&lt;/a&gt; in 2016.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Valora', 'annotations': {'description': '&lt;p&gt;Valora is a Rock band from Los Angeles, CA featuring electrifying frontwoman Syd Duran. Syd’s powerful vocals and stage presence have catapulted the band from obscurity to national attention. Syd’s sister Taelor Duran was a flaming addition in 2009 on keys and second vocals. Taelor’s rich, sultry harmonies are the anchor to Syd’s soaring vocals. The sibling interaction is alluring and entertaining.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Five-finger-death-punch', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Five Finger Death Punch&lt;/strong&gt;, often shortened to Death Punch and abbreviated as &lt;strong&gt;5FDP&lt;/strong&gt; or &lt;strong&gt;FFDP,&lt;/strong&gt; is an American heavy metal band from Los Angeles, California.&lt;/p&gt;\n\n&lt;p&gt;Formed in 2005, the band’s name is derived from a fictional martial arts maneuver in the 2003 film Kill Bill. The band originally consisted of vocalist Ivan Moody, guitarist Zoltan Bathory, guitarist Caleb Andrew Bingham, bassist Matt Snell, and drummer Jeremy Spencer. Bingham was replaced by guitarist Darrell Roberts in 2006, who was then replaced by Jason Hook in 2009. Bassist Matt Snell departed from the band in 2010, and was replaced by Chris Kael in 2011. Drummer Jeremy Spencer was replaced by Charlie Engen in 2018 due to re-occurring back issues. They are one of the most successful groove metal bands, and are known for their raw aesthetic voices.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/624d64cd46fb90d0e8bf51039b3142ca.735x400x1.jpg" alt="" width="735" height="400" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['5 Finger Death Punch', 'FFDP', '5FDP']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rob-halford', 'annotations': {'description': '&lt;p&gt;Robert John Arthur Halford (Born; 25 August 1951) is an English singer and songwriter, who is best known as the lead vocalist for heavy metal band &lt;a href="https://genius.com/artists/Judas-priest" rel="noopener" data-api_path="/artists/17236"&gt;Judas Priest&lt;/a&gt; and famed for his powerful wide ranging operatic voice.&lt;/p&gt;', 'alternate_names': ['Metal God', 'Robert Halford']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Maria-brink', 'annotations': {'description': '&lt;p&gt;Maria Diane Brink (born December 18, 1977) is an American singer and songwriter. She made her performing debut in an Albany-based band Pulse. In the 2000s, she formed &lt;a href="https://genius.com/artists/In-this-moment" rel="noopener" data-api_path="/artists/259507"&gt;In This Moment&lt;/a&gt;, which has helped her to gain popularity.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Max-cavalera', 'annotations': {'description': '&lt;p&gt;Massimiliano Antonio Cavalera (born in Belo Horizonte, Brazil on August 4th, 1969) is a Brazilian musician best known as the former vocalist, guitarist, and songwriter of &lt;a href="https://genius.com/artists/Sepultura" rel="noopener" data-api_path="/artists/344507"&gt;Sepultura&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He currently plays in heavy metal bands &lt;a href="https://genius.com/artists/Soulfly" rel="noopener" data-api_path="/artists/301317"&gt;Soulfly&lt;/a&gt;, &lt;a href="https://genius.com/artists/Cavalera-conspiracy" rel="noopener" data-api_path="/artists/359888"&gt;Cavalera Conspiracy&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Killer-be-killed" rel="noopener" data-api_path="/artists/356866"&gt;Killer Be Killed&lt;/a&gt;. Max was also involved in a side project called &lt;a href="https://genius.com/artists/Nailbomb" rel="noopener" data-api_path="/artists/363563"&gt;Nailbomb&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Cavalera co-founded the death/thrash metal band &lt;a href="https://genius.com/artists/Sepultura" rel="noopener" data-api_path="/artists/344507"&gt;Sepultura&lt;/a&gt; with his brother &lt;a href="https://genius.com/artists/Igor-Cavalera" rel="noopener" data-api_path="/artists/995489"&gt;Igor Cavalera&lt;/a&gt; and was the band’s lead vocalist and rhythm guitarist until 1996. He appeared on the band’s first six iconic albums. After departure from &lt;a href="https://genius.com/artists/Sepultura" rel="noopener" data-api_path="/artists/344507"&gt;Sepultura&lt;/a&gt;, Max formed the band &lt;a href="https://genius.com/artists/Soulfly" rel="noopener" data-api_path="/artists/301317"&gt;Soulfly&lt;/a&gt; which has released 11 studio albums to this day.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Max and his brother Igor formed the band &lt;a href="https://genius.com/artists/Cavalera-conspiracy" rel="noopener" data-api_path="/artists/359888"&gt;Cavalera Conspiracy&lt;/a&gt;. The band’s creation marked the end of a 10-year feud between the Cavalera brothers.&lt;/p&gt;', 'alternate_names': ['Max Possessed', 'Massimiliano Antonio Cavalera']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jasta', 'annotations': {'description': '&lt;p&gt;Jamey Jasta is most well known as the lead singer of the east coast heavy metal band Hatebreed.&lt;/p&gt;', 'alternate_names': ['James Vincent Shanahan', 'Jamey Jasta']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Seether', 'annotations': {'description': '&lt;p&gt;Seether is a rock band founded in Pretoria, South Africa, 1999.&lt;/p&gt;\n\n&lt;p&gt;The band originally performed under the name Saron Gas until 2002, when they moved to the United States and changed it to Seether, after the &lt;a href="https://genius.com/artists/Veruca-salt" rel="noopener" data-api_path="/artists/356519"&gt;Veruca Salt&lt;/a&gt; song, to avoid confusion with the deadly chemical known as &lt;a href="https://emergency.cdc.gov/agent/sarin/basics/facts.asp" rel="noopener nofollow"&gt;sarin gas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;They gained mainstream popularity in 2002 with their single &lt;a href="https://genius.com/Seether-fine-again-lyrics" rel="noopener" data-api_path="/songs/99710"&gt;“Fine Again,”&lt;/a&gt; and their success was sustained in 2004 with the single &lt;a href="https://genius.com/Seether-broken-lyrics" rel="noopener" data-api_path="/songs/2422300"&gt;“Broken”&lt;/a&gt; which peaked at #20 on the &lt;a href="https://www.billboard.com/music/seether/chart-history/hot-100/song/431934" rel="noopener nofollow"&gt;Billboard Hot 100&lt;/a&gt;. They have experienced continued success with hits such as &lt;a href="https://genius.com/Seether-remedy-lyrics" rel="noopener" data-api_path="/songs/741588"&gt;“Remedy,”&lt;/a&gt; &lt;a href="https://genius.com/Seether-fake-it-lyrics" rel="noopener" data-api_path="/songs/192151"&gt;“Fake It,”&lt;/a&gt; and &lt;a href="https://genius.com/Seether-words-as-weapons-lyrics" rel="noopener" data-api_path="/songs/419632"&gt;“Words as Weapons”&lt;/a&gt; to name a few.&lt;/p&gt;\n\n&lt;p&gt;They won ‘Artist of the Year’ and ‘Best Alternative Artist’ at the 2008 &lt;a href="http://www.mtv.com/vma" rel="noopener nofollow"&gt;MTV Africa Music Awards&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Saron Gas']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Amy-lee', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Amy Lee&lt;/strong&gt; is an U.S. singer, songwriter, record producer, and multi-instrumentalist, famous as the lead singer and co-founder of &lt;a href="https://genius.com/artists/Evanescence" rel="noopener" data-api_path="/artists/17912"&gt;Evanescence&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Meshuggah', 'annotations': {'description': '&lt;p&gt;Meshuggah is an extreme metal band from Umeå, Sweden.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/b5193992ec36500e26f6128662cb1aa4.1000x665x1.jpg" alt="" width="1000" height="665" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Meshuggah’s line-up consists of founding members vocalist Jens Kidman and lead guitarist Fredrik Thordendal, drummer Tomas Haake, who joined in 1990, rhythm guitarist Mårten Hagström, who joined in 1992 and bassist Dick Lövgren since 2004.&lt;/p&gt;\n\n&lt;p&gt;Often esoteric and conceptual, Meshuggah’s lyrics explore themes such as existentialism.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alter-bridge', 'annotations': {'description': '&lt;p&gt;Alter Bridge is a rock band from Orlando, Florida, formed in 2004. Following &lt;a href="https://genius.com/artists/Creed" rel="noopener" data-api_path="/artists/13217"&gt;Creed&lt;/a&gt;’s disbandment in 2004, former members &lt;a href="https://genius.com/artists/mark-tremonti" rel="noopener" data-api_path="/artists/359858"&gt;Mark Tremonti&lt;/a&gt; (Guitar and backing vocals), &lt;a href="https://genius.com/artists/Brian-Marshall" rel="noopener" data-api_path="/artists/793733"&gt;Brian Marshall&lt;/a&gt; (Bass), and &lt;a href="https://genius.com/artists/Scott-phillips" rel="noopener" data-api_path="/artists/793732"&gt;Scott Phillips&lt;/a&gt; (Drums) began working with &lt;a href="https://genius.com/artists/Myles-Kennedy" rel="noopener" data-api_path="/artists/176315"&gt;Myles Kennedy&lt;/a&gt; (Guitar and Vocal), formerly of &lt;a href="https://genius.com/artists/The-mayfield-four" rel="noopener" data-api_path="/artists/362463"&gt;The Mayfield Four&lt;/a&gt;. The band’s name comes from a bridge that once existed on Alter Road near Tremonti’s former home in Detroit, Michigan.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Stone-sour', 'annotations': {'description': '&lt;p&gt;Stone Sour is an American rock band formed in Des Moines, Iowa in 1992.&lt;/p&gt;\n\n&lt;p&gt;Stone Sour earned the group two Grammy Award nominations, both for Best Metal Performance, for the singles “Get Inside”, in 2003, and “Inhale”, in 2004. The album went on to become RIAA certified Gold.&lt;/p&gt;\n\n&lt;p&gt;In 2006, following the release of &lt;em&gt;Come What(ever) May&lt;/em&gt;, the group received another Grammy Award nomination for Best Metal Performance for the single “30/30-150”.&lt;/p&gt;\n\n&lt;p&gt;Stone Sour has sold over four million albums worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fozzy', 'annotations': {'description': '&lt;p&gt;A heavy metal band formed by &lt;a href="https://genius.com/artists/Rich-ward" rel="noopener" data-api_path="/artists/1515302"&gt;Rich Ward&lt;/a&gt; of &lt;a href="https://genius.com/artists/Stuck-mojo" rel="noopener" data-api_path="/artists/358514"&gt;Stuck Mojo&lt;/a&gt; and any musicians he could find.  Wrestler &lt;a href="https://genius.com/artists/Chris-jericho" rel="noopener" data-api_path="/artists/284145"&gt;Chris Jericho&lt;/a&gt; joined and helped develop the band’s fictitious backstory about being trapped in Japan for 20 years and having to watch other bands find success with “their” songs.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Volbeat', 'annotations': {'description': '&lt;p&gt;Volbeat is a Danish rock band formed in Copenhagen in 2001. They play a fusion of rock and roll, heavy metal, and rockabilly. Their current line-up consists of vocalist and guitarist &lt;a href="https://genius.com/artists/Michael-poulsen" rel="noopener" data-api_path="/artists/664303"&gt;Michael Poulsen&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Rob-caggiano" rel="noopener" data-api_path="/artists/214690"&gt;Rob Caggiano&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Jon-larsen" rel="noopener" data-api_path="/artists/1104130"&gt;Jon Larsen&lt;/a&gt; and bassist &lt;a href="https://genius.com/artists/Kaspar-boye-larsen" rel="noopener" data-api_path="/artists/1824690"&gt;Kaspar Boye Larsen&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Singer Michael Poulsen’s first band was death metal act &lt;a href="https://genius.com/artists/Dominus" rel="noopener" data-api_path="/artists/354240"&gt;Dominus&lt;/a&gt;. In 2000, Poulsen became fed up with the death metal music scene, causing Dominus to break up. In 2001, Poulsen went on to form a new band with some friends and other former Dominus members. This was the beginning of Volbeat.&lt;/p&gt;\n\n&lt;p&gt;The band name “Volbeat” was derived from Dominus’s third album name, which was called &lt;a href="https://genius.com/albums/Dominus/Vol-beat" rel="noopener" data-api_path="/albums/226124"&gt;&lt;em&gt;Vol.Beat&lt;/em&gt;&lt;/a&gt; (read as: Volume Beat). After selling 1,000 copies of their &lt;a href="https://genius.com/albums/Volbeat/Beat-the-meat" rel="noopener" data-api_path="/albums/213919"&gt;&lt;em&gt;Beat the Meat&lt;/em&gt;&lt;/a&gt; demo tape, Volbeat was signed to a record deal by &lt;a href="https://genius.com/artists/Rebel-monster-records" rel="noopener" data-api_path="/artists/1108254"&gt;Rebel Monster Records&lt;/a&gt;, a sub-label of &lt;a href="https://genius.com/artists/Mascot-records" rel="noopener" data-api_path="/artists/1108255"&gt;Mascot Records&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band is currently signed to Dutch label Mascot Records and has released six studio albums and one DVD. All of their studio albums have been certified gold in Denmark. Their second album &lt;a href="https://genius.com/albums/Volbeat/Rock-the-rebel-metal-the-devil" rel="noopener" data-api_path="/albums/41582"&gt;&lt;em&gt;Rock the Rebel/Metal the Devil&lt;/em&gt;&lt;/a&gt; received platinum status, and their 2010-release &lt;a href="https://genius.com/albums/Volbeat/Beyond-heaven-above-hell" rel="noopener" data-api_path="/albums/56985"&gt;&lt;em&gt;Beyond Hell/Above Heaven&lt;/em&gt;&lt;/a&gt; was subject to widespread international critical acclaim, receiving double platinum in Denmark, platinum in Finland and Germany, and gold in the United States, Sweden, and Austria.&lt;/p&gt;', 'alternate_names': []}}</t>
+    <t>{'url': 'https://genius.com/artists/Laura-branigan', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Laura Branigan&lt;/strong&gt; (1952–2004) was an American pop singer whose hits included such songs as “&lt;a href="https://genius.com/Laura-branigan-gloria-lyrics" rel="noopener" data-api_path="/songs/748588"&gt;Gloria&lt;/a&gt;” (1982), “&lt;a href="https://genius.com/Laura-branigan-solitaire-lyrics" rel="noopener" data-api_path="/songs/1309267"&gt;Solitaire&lt;/a&gt;” (1983), “&lt;a href="https://genius.com/Laura-branigan-how-am-i-supposed-to-live-without-you-lyrics" rel="noopener" data-api_path="/songs/1247235"&gt;How Am I Supposed to Live Without You&lt;/a&gt;” (1983), and “&lt;a href="https://genius.com/Laura-branigan-shattered-glass-lyrics" rel="noopener" data-api_path="/songs/2284872"&gt;Shattered Glass&lt;/a&gt;” (1987).&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/62a95c7bacaf06110343f0d361cb529c.736x743x1.jpg" alt="" width="736" height="743" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['Laura Ann Branigan']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sirah', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Sarah Mitchell', 'Sara Elizabeth Mitchell']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Billy-talent', 'annotations': {'description': '&lt;p&gt;Billy Talent is a Canadian punk rock band from Mississauga, Ontario. They formed in 1993, under the name Pezz, with &lt;a href="https://genius.com/artists/Benjamin-kowalewicz" rel="noopener" data-api_path="/artists/1086993"&gt;Benjamin Kowalewicz&lt;/a&gt; as the lead vocalist, &lt;a href="https://genius.com/artists/Ian-dsa" rel="noopener" data-api_path="/artists/160987"&gt;Ian D\'Sa&lt;/a&gt; on guitar, bassist Jon Gallant and drummer Aaron Solowoniuk. After changing their name to Billy Talent in 2001, they achieved mainstream success with their &lt;a href="https://genius.com/albums/Billy-talent/Billy-talent" rel="noopener" data-api_path="/albums/15576"&gt;first self-titled studio album&lt;/a&gt;, and have released 5 albums to date.&lt;/p&gt;\n\n&lt;p&gt;The band members met at the &lt;a href="https://en.wikipedia.org/w/index.php?title=Our_Lady_of_Mount_Carmel_Secondary_School" rel="noopener nofollow"&gt;Our Lady of Mount Carmel Secondary School&lt;/a&gt;, which they all attended, and the lineup has stayed the same ever since, though drummer Aaron Solowoniuk could not take part in the recording of the &lt;em&gt;&lt;a href="https://genius.com/albums/Billy-talent/Afraid-of-heights" rel="noopener" data-api_path="/albums/154750"&gt;Afraid of Heights&lt;/a&gt;&lt;/em&gt; album due to &lt;a href="http://www.cbc.ca/news/entertainment/billy-talent-aaron-solowoniuk-1.3405698" rel="noopener nofollow"&gt;complications from the multiple sclerosis&lt;/a&gt; he was diagnosed with in his mid-20s, being thus replaced by friend and fellow drummer &lt;a href="https://genius.com/artists/Jordan-hastings" rel="noopener" data-api_path="/artists/31259"&gt;Jordan Hastings&lt;/a&gt; from &lt;a href="https://genius.com/artists/Alexisonfire" rel="noopener" data-api_path="/artists/31263"&gt;Alexisonfire&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Pezz']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Muse', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.muse.mu/" rel="noopener nofollow"&gt;Muse&lt;/a&gt; is an English rock band from Teignmouth, Devon, consisting of &lt;a href="http://www.musewiki.org/Matthew_Bellamy" rel="noopener nofollow"&gt;Matthew Bellamy&lt;/a&gt; (guitarist, keyboardist, singer, songwriter, middle of the picture), &lt;a href="http://www.musewiki.org/Christopher_Wolstenholme" rel="noopener nofollow"&gt;Christopher Wolstenholme&lt;/a&gt; (bassist, background vocalist, to the left of the picture), and &lt;a href="http://www.musewiki.org/Dominic_Howard" rel="noopener nofollow"&gt;Dominic Howard&lt;/a&gt; (drummer, to the right of the picture). They often infuse classical piano and strings (and sometimes even choirs) with catchy guitar and piano hooks.&lt;/p&gt;\n\n&lt;p&gt;Muse is mostly known due to their alternative genre of music and also their &lt;a href="https://en.wikipedia.org/wiki/List_of_awards_and_nominations_received_by_Muse" rel="noopener nofollow"&gt;live performances&lt;/a&gt;.&lt;br&gt;\n&lt;a href="http://www.musewiki.org/Radiohead" rel="noopener nofollow"&gt;Some have compared Muse to other bands such as Radiohead&lt;/a&gt;; Though this analogy has faded during past years since Muse has changed its taste.&lt;/p&gt;\n\n&lt;p&gt;The band always has an Apocalyptic background theme in their albums; In every album, there is a different apocalyptic perspective. &lt;em&gt;&lt;a href="https://genius.com/Muse-showbiz-lyrics" rel="noopener" data-api_path="/songs/200054"&gt;Showbiz&lt;/a&gt;&lt;/em&gt; (Anxiety), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Origin-of-symmetry" rel="noopener" data-api_path="/albums/21027"&gt;Origin of Symmetry&lt;/a&gt;&lt;/em&gt; (Mental Disorder), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Absolution" rel="noopener" data-api_path="/albums/18003"&gt;Absolution&lt;/a&gt;&lt;/em&gt; (Religion and atheism), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Black-holes-and-revelations" rel="noopener" data-api_path="/albums/18443"&gt;Black Holes and Revelations&lt;/a&gt;&lt;/em&gt; (Alien’s Attack), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/The-resistance" rel="noopener" data-api_path="/albums/11837"&gt;The Resistance&lt;/a&gt;&lt;/em&gt; (Mind Control), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/The-2nd-law" rel="noopener" data-api_path="/albums/20776"&gt;The 2nd Law&lt;/a&gt;&lt;/em&gt; (The 2nd Law of thermodynamics and the world moving toward destruction – Entropy), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Drones" rel="noopener" data-api_path="/albums/121389"&gt;Drones&lt;/a&gt;&lt;/em&gt; (War) and &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Simulation-theory" rel="noopener" data-api_path="/albums/403783"&gt;Simulation Theory&lt;/a&gt;&lt;/em&gt; (Life is a simulation and we should escape this fragile world and move toward the bigger picture).&lt;/p&gt;\n\n&lt;p&gt;Their official website is &lt;a href="http://muse.mu/" rel="noopener nofollow"&gt;muse.mu&lt;/a&gt;.&lt;br&gt;\nFor more information about the band, check out &lt;a href="http://musewiki.org/" rel="noopener nofollow"&gt;musewiki.org&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Collective-soul', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/David-bowie', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.davidbowie.com/" rel="noopener nofollow"&gt;David Bowie&lt;/a&gt; (1947 – 2016) was a British musician, and one of the most iconic rock stars with a widely diverse career where he frequently changed his appearance and musical style, resulting in an acclaimed  discography comparable to other stalwarts such as &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;. In 1966 David Robert Jones chose the surname “Bowie” (as in a Bowie knife, or a Jagger) to cut out any association with teen idol &lt;a href="https://genius.com/artists/Davy-jones" rel="noopener" data-api_path="/artists/386169"&gt;Davy Jones&lt;/a&gt;. Enduring many early missteps, his music had a seminal lift-off with &lt;a href="https://genius.com/David-bowie-space-oddity-lyrics" rel="noopener" data-api_path="/songs/112817"&gt;“Space Oddity”&lt;/a&gt;, used in the BBC’s coverage of the 1969 &lt;a href="http://www.telegraph.co.uk/news/science/space/5871370/Apollo-11-moon-landing-Moon-music.html" rel="noopener nofollow"&gt;Apollo 11 moon landing&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The single rose to #5 in the UK charts as a result of his Top of the Pops performance.  The sci-fi rubric of the song about a fictional character, Major Tom, foreshadowed his future 1972 breakthrough.  In the meantime, Bowie remained a cult figure. 1971’s landmark album, &lt;a href="https://genius.com/albums/David-bowie/Hunky-dory" rel="noopener" data-api_path="/albums/24468"&gt;&lt;em&gt;Hunky Dory&lt;/em&gt;&lt;/a&gt; went largely unnoticed, despite being his first Major RCA release.&lt;/p&gt;\n\n&lt;p&gt;By early 1972, Bowie not only commanded notice, he set the plaform(s) for a genre.  His alter-ego, an androgynous alien that dazzled and shocked, did not mask the brilliance of his musical acumen: it put the public spotlight on it.  Cut from the punk rock performance debauchery of &lt;a href="https://genius.com/artists/Iggy-pop" rel="noopener" data-api_path="/artists/21273"&gt;Iggy Pop&lt;/a&gt; with the alternative underground, aloof artistry of &lt;a href="https://genius.com/artists/Lou-reed" rel="noopener" data-api_path="/artists/13277"&gt;Lou Reed&lt;/a&gt;, Ziggy Stardust was the main-man-alien lead in his conceptual &lt;a href="https://genius.com/albums/David-bowie/The-rise-and-fall-of-ziggy-stardust-and-the-spiders-from-mars" rel="noopener" data-api_path="/albums/18495"&gt;breakthrough album&lt;/a&gt;, and the public persona which haunted him beyond Ziggy’s expiration date.  Ziggy’s “fall” in the plot of the album’s theme took on an ambiguous direction, which drove &lt;a href="https://genius.com/albums/David-bowie/alladin-sane" rel="noopener"&gt;&lt;em&gt;Aladdin Sane&lt;/em&gt;&lt;/a&gt;’s zigzagging broader musical strokes without a conceptual framework.  And yet it framed, over time, the penultimate image of Ziggy, as an icon, emblem, fashion-plate, rock-saint, emoji, etc.&lt;/p&gt;\n\n&lt;p&gt;Bowie used his new-found popularity to move to America, and dabble with new musical directions and cocaine. &lt;a href="https://genius.com/albums/David-bowie/diamond-dogs" rel="noopener" data-api_path="/albums/46048"&gt;&lt;em&gt;Diamond Dogs&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/David-bowie/young-americans" rel="noopener" data-api_path="/albums/76501"&gt;&lt;em&gt;Young Americans&lt;/em&gt;&lt;/a&gt; continue to divide critics, but &lt;a href="https://genius.com/albums/David-bowie/station-to-station" rel="noopener" data-api_path="/albums/32130"&gt;&lt;em&gt;Station To Station&lt;/em&gt;&lt;/a&gt; found Bowie at a new creative peak, despite escalating drug use and related health issues.&lt;/p&gt;\n\n&lt;p&gt;Moving back to Europe helped Bowie reach even greater musical heights. He recorded his iconic “Berlin Trilogy” – &lt;a href="https://genius.com/albums/David-bowie/low" rel="noopener" data-api_path="/albums/28910"&gt;&lt;em&gt;Low&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/heroes" rel="noopener" data-api_path="/albums/28200"&gt;&lt;em&gt;“Heroes”&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/David-bowie/Lodger" rel="noopener" data-api_path="/albums/76513"&gt;&lt;em&gt;Lodger&lt;/em&gt;&lt;/a&gt;, with &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; and &lt;a href="https://genius.com/artists/Tony-visconti" rel="noopener" data-api_path="/artists/37268"&gt;Tony Visconti&lt;/a&gt; (despite the name, only &lt;em&gt;Heroes&lt;/em&gt; was recorded in Berlin), and produced Iggy Pop’s first two solo albums. This was followed by the hard-rocking &lt;a href="https://genius.com/albums/David-bowie/Scary-monsters-and-super-creeps" rel="noopener" data-api_path="/albums/76520"&gt;&lt;em&gt;Scary Monsters (And Super Creeps)&lt;/em&gt;&lt;/a&gt;, and disco-influenced &lt;a href="https://genius.com/albums/David-bowie/Let-s-dance" rel="noopener" data-api_path="/albums/26657"&gt;&lt;em&gt;Let’s Dance&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Bowie entered a period of critical apathy during the 1980s, as albums like &lt;a href="https://genius.com/albums/David-bowie/Tonight" rel="noopener" data-api_path="/albums/76500"&gt;&lt;em&gt;Tonight&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/David-bowie/Never-let-me-down" rel="noopener" data-api_path="/albums/76508"&gt;&lt;em&gt;Never Let Me Down&lt;/em&gt;&lt;/a&gt; fell relatively flat. These were his &lt;a href="https://genius.com/artists/Tin-machine" rel="noopener" data-api_path="/artists/359829"&gt;Tin Machine&lt;/a&gt; days, and they paved the way for a renaissance of huge proportions, with albums such as &lt;a href="https://genius.com/albums/David-bowie/1-outside" rel="noopener" data-api_path="/albums/76519"&gt;&lt;em&gt;1. Outside&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/Earthling" rel="noopener" data-api_path="/albums/76522"&gt;&lt;em&gt;Earthling&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/Heathen" rel="noopener" data-api_path="/albums/47864"&gt;&lt;em&gt;Heathen&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/David-bowie/Reality" rel="noopener" data-api_path="/albums/76523"&gt;&lt;em&gt;Reality&lt;/em&gt;&lt;/a&gt; reclaiming his status as a number one pop star. Radio silence then ensued for much of the 2000s, until he surprisingly issued 2013’s &lt;a href="https://genius.com/albums/David-bowie/The-next-day" rel="noopener" data-api_path="/albums/26468"&gt;&lt;em&gt;The Next Day&lt;/em&gt;&lt;/a&gt;, recorded in secret and released to critical acclaim.&lt;/p&gt;\n\n&lt;p&gt;David Bowie passed away on January 10, 2016, due to cancer, two days after his 69th birthday and the release of his final album, &lt;a href="https://genius.com/albums/David-bowie/Blackstar" rel="noopener" data-api_path="/albums/138144"&gt;&lt;em&gt;Blackstar&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['David R. Jones', 'Ziggy Stardust', 'David Robert Jones']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-temper-trap', 'annotations': {'description': '&lt;p&gt;The Temper Trap is an Australian indie rock band that formed in 2005. The core members are Dougy Mandagi on vocals, Jonathon Aherne on bass guitar, Toby Dundas on drums, Lorenzo Sillitto on lead guitar and Joseph Greer on keyboards and guitar.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ellie-goulding', 'annotations': {'description': '&lt;p&gt;Elena Jane “Ellie” Goulding (born 30 December 1986) – is an English singer-songwriter. In 2010, she became the second artist to both &lt;a href="http://news.bbc.co.uk/1/hi/entertainment/8442389.stm" rel="noopener nofollow"&gt;top the BBC’s annual Sound of… poll&lt;/a&gt; and win &lt;a href="http://www.brits.co.uk/britstv/2010-critics-choice-ellie-goulding" rel="noopener nofollow"&gt;the Critics\' Choice Award at the Brit Awards&lt;/a&gt; in the same year, following &lt;a href="https://genius.com/artists/Adele" rel="noopener" data-api_path="/artists/2300"&gt;Adele’s&lt;/a&gt; win of both in 2008. Originally her music incorporated elements of folk, pop, electronica, and folktronica.&lt;/p&gt;\n\n&lt;p&gt;In July 2009, Goulding signed with Polydor Records, and released her debut EP &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/An-introduction-to-ellie-goulding" rel="noopener" data-api_path="/albums/177255"&gt;An Introduction to Ellie Goulding&lt;/a&gt;&lt;/em&gt;, later that year. Her debut single, &lt;a href="https://genius.com/Ellie-goulding-under-the-sheets-lyrics" rel="noopener" data-api_path="/songs/157218"&gt;“Under The Sheets”&lt;/a&gt; was then released in November.&lt;/p&gt;\n\n&lt;p&gt;In 2010 Goulding recorded and released her debut record &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Lights" rel="noopener" data-api_path="/albums/34852"&gt;Lights&lt;/a&gt;&lt;/em&gt;, which spawned four charting singles in the UK, the biggest of which “&lt;a href="https://genius.com/Ellie-goulding-starry-eyed-lyrics" rel="noopener" data-api_path="/songs/52959"&gt;Starry Eyes&lt;/a&gt;” peaked at #4 in the UK and charted in many European countries and Australia.&lt;/p&gt;\n\n&lt;p&gt;At the end of the year the album’s reissue &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Bright-lights" rel="noopener" data-api_path="/albums/18640"&gt;Bright Lights&lt;/a&gt;&lt;/em&gt; was released, and spawned two singles: &lt;a href="https://genius.com/Ellie-goulding-lights-lyrics" rel="noopener" data-api_path="/songs/79697"&gt;“Lights”&lt;/a&gt; and a cover of &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John’s&lt;/a&gt; “&lt;a href="https://genius.com/Ellie-goulding-your-song-lyrics" rel="noopener" data-api_path="/songs/198880"&gt;Your Song&lt;/a&gt;.” The former of which propelled Goulding into international stardom after becoming a sleeper hit in the United States, eventually peaking at #2 after almost a year of the song charting.&lt;/p&gt;\n\n&lt;p&gt;In 2012, Goulding’s sophomore record &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Halcyon" rel="noopener" data-api_path="/albums/20565"&gt;Halcyon&lt;/a&gt;&lt;/em&gt; was released, featuring lead single “&lt;a href="https://genius.com/Ellie-goulding-anything-could-happen-lyrics" rel="noopener" data-api_path="/songs/85737"&gt;“Anything Could Happen”&lt;/a&gt;, which was another U.S. hit.&lt;/p&gt;\n\n&lt;p&gt;It’s re-issue, &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Halcyon-days" rel="noopener" data-api_path="/albums/42358"&gt;Halcyon Days&lt;/a&gt;&lt;/em&gt; saw critical acclaim for Goulding’s happier lyrical content and musical exploration into EDM. Its lead single, &lt;a href="https://genius.com/Ellie-goulding-burn-lyrics" rel="noopener" data-api_path="/songs/183325"&gt;“Burn”&lt;/a&gt; was a top 20 hit in the United States, becoming a mega-success worldwide.&lt;/p&gt;\n\n&lt;p&gt;Goulding’s vocal connection with EDM has been explored through collaborations with &lt;a href="https://genius.com/artists/Calvin-harris" rel="noopener" data-api_path="/artists/2069"&gt;Calvin Harris&lt;/a&gt;, on hits “&lt;a href="https://genius.com/Calvin-harris-i-need-your-love-lyrics" rel="noopener" data-api_path="/songs/154286"&gt;I Need Your Love&lt;/a&gt;,” and “&lt;a href="https://genius.com/Calvin-harris-outside-lyrics" rel="noopener" data-api_path="/songs/546962"&gt;Outside&lt;/a&gt;”, as well as songs with &lt;a href="https://genius.com/Major-lazer-powerful-lyrics" rel="noopener" data-api_path="/songs/1363351"&gt;Major Lazer&lt;/a&gt;, &lt;a href="https://genius.com/Clean-bandit-mama-lyrics" rel="noopener" data-api_path="/songs/3983995"&gt;Clean Bandit&lt;/a&gt;, &lt;a href="https://genius.com/Zedd-and-lucky-date-fall-into-the-sky-lyrics" rel="noopener" data-api_path="/songs/342832"&gt;Zedd&lt;/a&gt;, &lt;a href="https://genius.com/Ellie-goulding-stay-awake-lyrics" rel="noopener" data-api_path="/songs/198928"&gt;Madeon&lt;/a&gt;, and &lt;a href="https://genius.com/Kygo-and-ellie-goulding-first-time-lyrics" rel="noopener" data-api_path="/songs/3066143"&gt;Kygo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The beginning of 2015 began with Goulding releasing her biggest hit to date, &lt;a href="https://genius.com/Ellie-goulding-love-me-like-you-do-lyrics/" rel="noopener" data-api_path="/songs/665379"&gt;“Love Me Like You Do”&lt;/a&gt;“ for the &lt;a href="https://genius.com/albums/Various-artists/Fifty-shades-of-grey-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/118063"&gt;50 Shades of Grey Soundtrack&lt;/a&gt;. The song was acclaimed by critics and peaked at #1 around the world and #3 in the United States. The song garnered her a Best Pop Solo Performance Grammy Nomination.&lt;/p&gt;\n\n&lt;p&gt;Goulding later re-upped on her pop game with 2015’s &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Delirium" rel="noopener" data-api_path="/albums/131217"&gt;Delirium&lt;/a&gt;&lt;/em&gt;. The album incorporated Goulding’s affiliation with club bangers and explored a poppier sound than her original albums. The album’s lead single &lt;a href="https://genius.com/Ellie-goulding-on-my-mind-lyrics/" rel="noopener" data-api_path="/songs/2308425"&gt;“On My Mind”&lt;/a&gt; became an international success, and received media attention as speculated to be an answer song to &lt;a href="https://genius.com/artists/Ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran’s&lt;/a&gt; “&lt;a href="https://genius.com/Ed-sheeran-dont-lyrics" rel="noopener" data-api_path="/songs/403031"&gt;Don’t.&lt;/a&gt;” The album’s third single, &lt;a href="https://genius.com/%28/Ellie-goulding-something-in-the-way-you-move-lyrics/" rel="noopener"&gt;“Something In The Way You Move”&lt;/a&gt; was another hit, peaking at #43 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;2018 saw Goulding prepare for her fourth record. “&lt;a href="https://genius.com/Ellie-goulding-and-diplo-close-to-me-lyrics" rel="noopener" data-api_path="/songs/4037296"&gt;Close To Me&lt;/a&gt;” with &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt; and featuring &lt;a href="https://genius.com/artists/Swae-lee" rel="noopener" data-api_path="/artists/209139"&gt;Swae Lee&lt;/a&gt; saw success, peaking at #24 in the U.S, and she followed these up with 2019’s “&lt;a href="https://genius.com/Ellie-goulding-flux-lyrics" rel="noopener" data-api_path="/songs/4202475"&gt;Flux&lt;/a&gt;” and “&lt;a href="https://genius.com/Ellie-goulding-sixteen-lyrics" rel="noopener" data-api_path="/songs/4427896"&gt;Sixteen&lt;/a&gt;” which are assumed to be album singles.&lt;/p&gt;', 'alternate_names': ['Elena Jane Goulding']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alok-zeeba-and-bruno-martini', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-bravery', 'annotations': {'description': '&lt;p&gt;Formed in New York City in 2003, The Bravery was a post-punk revival group consisting of lead vocalist Sam Endicott, guitarist Michael Zakarin, keyboardist John Conway, bassist Mike Hindert and drummer Anthony Burulcich. The band released three dance-rock albums before “taking a hiatus” in 2012. Currently, the group has no plans to get back together.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ace-of-base', 'annotations': {'description': '&lt;p&gt;Ace of Base Is a Swedish pop group who scored a string of international hits in the early-to-mid 1990s. They’re best known for their upbeat reggae-tinged dance-pop songs, including &lt;a href="https://genius.com/Ace-of-base-the-sign-lyrics" rel="noopener" data-api_path="/songs/120213"&gt;“The Sign”&lt;/a&gt;, which was the biggest hit of 1994, according to The Billboard US chart.&lt;/p&gt;\n\n&lt;p&gt;The group’s core lineup consisted of producers &lt;a href="https://genius.com/artists/Ulf-ekberg" rel="noopener" data-api_path="/artists/669002"&gt;Ulf “Buddha” Ekberg&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jonas-berggren" rel="noopener" data-api_path="/artists/669001"&gt;Jonas “Joker” Berggren&lt;/a&gt;, along with singers &lt;a href="https://genius.com/artists/Malin-berggren" rel="noopener" data-api_path="/artists/1212896"&gt;Malin “Linn” Berggren&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jenny-berggren" rel="noopener" data-api_path="/artists/352130"&gt;Jenny Berggren&lt;/a&gt; (the three Berggrens are siblings). In the early ’90s, their debut single &lt;a href="https://genius.com/Ace-of-base-wheel-of-fortune-lyrics" rel="noopener" data-api_path="/songs/1674536"&gt;“Wheel of Fortune”&lt;/a&gt; became a hit in Scandinavia, which led to the group connecting with producer &lt;a href="https://genius.com/artists/Denniz-pop" rel="noopener" data-api_path="/artists/39124"&gt;Denniz Pop&lt;/a&gt; (who would later spawn the careers Backstreet Boys, Britney Spears, and Max Martin).&lt;/p&gt;\n\n&lt;p&gt;After the group’s 1992 debut &lt;a href="https://genius.com/albums/Ace-of-base/Happy-nation" rel="noopener" data-api_path="/albums/28819"&gt;&lt;em&gt;Happy Nation&lt;/em&gt;&lt;/a&gt; became an international hit (going on to sell 21 million copies), it was re-released in North America in 1993 as &lt;a href="https://genius.com/albums/Ace-of-base/The-sign" rel="noopener" data-api_path="/albums/148640"&gt;&lt;em&gt;The Sign&lt;/em&gt;&lt;/a&gt;. Three singles from the album became top five pop hits in the US, including &lt;a href="https://genius.com/Ace-of-base-all-that-she-wants-lyrics" rel="noopener" data-api_path="/songs/434050"&gt;“All That She Wants”&lt;/a&gt; (#2), &lt;a href="https://genius.com/Ace-of-base-dont-turn-around-lyrics" rel="noopener" data-api_path="/songs/1405061"&gt;“Don’t Turn Around”&lt;/a&gt; (#4), and “The Sign” (#1 for six weeks). &lt;em&gt;The Sign&lt;/em&gt; went on to sell over 10 million copies.&lt;/p&gt;\n\n&lt;p&gt;The group’s 1995 album &lt;a href="https://genius.com/albums/Ace-of-base/The-bridge" rel="noopener" data-api_path="/albums/148660"&gt;&lt;em&gt;The Bridge&lt;/em&gt;&lt;/a&gt; sold 7 million copies worldwide, including 2 million in the US. The album’s most successful single was &lt;a href="https://genius.com/Ace-of-base-beautiful-life-lyrics" rel="noopener" data-api_path="/songs/1256263"&gt;“Beautiful Life,”&lt;/a&gt; which topped the US Dance chart and reached #15 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;Following the formal departure of singer Linn in 2007, the band performed a series of concerts as a trio in Europe and Asia between 2007 and 2009. Jenny Berggren said in November 2009 that she would be taking an indefinite leave of absence from the band to focus on a solo career. In 2009, Jonas and Ulf recruited two new female vocalists, Clara Hagman and Julia Williamson, and released &lt;a href="https://genius.com/albums/Ace-of-base/The-golden-ratio" rel="noopener" data-api_path="/albums/237379"&gt;&lt;em&gt;The Golden Ratio&lt;/em&gt;&lt;/a&gt; in September 2010.&lt;/p&gt;\n\n&lt;p&gt;In 2012, it was confirmed that Clara Hagman and Julia Williamson had left the group. The group released the compilation &lt;a href="https://genius.com/albums/Ace-of-base/Hidden-gems" rel="noopener" data-api_path="/albums/148662"&gt;&lt;em&gt;Hidden Gems&lt;/em&gt;&lt;/a&gt;, featuring previously unreleased tracks and deep cuts. The band is currently on hiatus indefinitely, with the members publicly stating that a reunion is unlikely.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Silverchair', 'annotations': {'description': '&lt;p&gt;Silverchair were an alternative rock band from &lt;a href="http://en.wikipedia.org/wiki/Newcastle,_New_South_Wales" rel="noopener nofollow"&gt;Newcastle&lt;/a&gt; in New South Wales, Australia, who released their first album, &lt;a href="https://genius.com/albums/Silverchair/Frogstomp" rel="noopener" data-api_path="/albums/115213"&gt;&lt;em&gt;Frogstomp&lt;/em&gt;&lt;/a&gt; when they were &lt;strong&gt;only 15 years old&lt;/strong&gt;. Originally named Innocent Criminals, they changed their name to one influenced by &lt;a href="https://genius.com/artists/C-s-lewis" rel="noopener" data-api_path="/artists/41113"&gt;C.S. Lewis\'&lt;/a&gt; novel, &lt;a href="http://en.wikipedia.org/wiki/The_Silver_Chair" rel="noopener nofollow"&gt;The Silver Chair&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Childhood friends who went to the same school, Silverchair came to public prominence after winning an Australian national TV competition, to which they submitted the demo of &lt;a href="https://genius.com/Silverchair-tomorrow-lyrics" rel="noopener" data-api_path="/songs/586400"&gt;“Tomorrow”&lt;/a&gt;.  The prize?  A professionally recorded song and music video for “Tomorrow”.&lt;/p&gt;\n\n&lt;p&gt;The record companies lapped it up and a bidding war began; Murmur Records, a subsidiary of Sony, signed Silverchair to a three album deal.  It was a clever move: “Tomorrow” stayed at &lt;a href="http://australian-charts.com/showitem.asp?interpret=Silverchair&amp;amp;titel=Tomorrow&amp;amp;cat=s" rel="noopener nofollow"&gt;number 1 on the Australian ARIA singles chart for 6 straight weeks&lt;/a&gt; , while the album that followed &lt;a href="https://genius.com/albums/Silverchair/Frogstomp" rel="noopener" data-api_path="/albums/115213"&gt;&lt;em&gt;Frogstomp&lt;/em&gt;&lt;/a&gt; debuted at &lt;a href="http://australian-charts.com/showitem.asp?interpret=Silverchair&amp;amp;titel=Frogstomp&amp;amp;cat=a" rel="noopener nofollow"&gt;number 1 on the Australian charts, remaining there for 3 weeks&lt;/a&gt;. The album eventually went 9x Platinum in Australia, 6x Platinum in New Zealand, and triple Platinum in both the USA and Canada.  &lt;em&gt;Frogstomp&lt;/em&gt; was also a critical success, winning five awards at the ARIA awards in 1995.  This is even more incredible when one takes into consideration that the album was recorded in 9 days.  The band followed this all up with tours supporting the &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chilli Peppers&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-ramones" rel="noopener" data-api_path="/artists/765"&gt;The Ramones&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;While their follow ups to &lt;em&gt;Frogstomp&lt;/em&gt; did not achieve its impressive sales, they were also major commercial successes:&lt;br&gt;\n&lt;a href="http://.../" rel="noopener nofollow"&gt;&lt;em&gt;Freak Show&lt;/em&gt;&lt;/a&gt; debuted at number 1 on the ARIA charts, and both it and &lt;a href="https://genius.com/albums/Silverchair/Neon-ballroom" rel="noopener" data-api_path="/albums/29624"&gt;Neon Ballroom&lt;/a&gt; achieved 5x platinum status in Australia, double platinum in New Zealand and platinum in both Canada and the USA.  Fourth album, &lt;a href="http://.../" rel="noopener nofollow"&gt;Diorama&lt;/a&gt; also won 5 awards at the ARIA, whilst their fifth and final album &lt;a href="http://.../" rel="noopener nofollow"&gt;&lt;em&gt;Young Modern&lt;/em&gt;&lt;/a&gt; won 6 ARIA awards.  &lt;em&gt;Young Modern&lt;/em&gt; was their 5th consecutive album to enter the charts at number 1, making them the first artist to accomplish this.&lt;/p&gt;\n\n&lt;p&gt;The band went into &lt;a href="http://chairpage.com/news/item/346/" rel="noopener nofollow"&gt;indefinite hibernation in 2011&lt;/a&gt;.  After 20 years of playing together, they were one of Australia’s most successful music exports and one of the few bands outside of Seattle to effectively emulate &lt;strong&gt;and continue&lt;/strong&gt; the success of the grunge/post-grunge sound.&lt;/p&gt;\n\n&lt;p&gt;List of band members:&lt;/p&gt;\n\n&lt;p&gt;Daniel Johns (guitar, lead vocals) 1992 – 2011&lt;br&gt;\nChris Joannou (bass guitar) 1992 – 2011&lt;br&gt;\nBen Gillies (drums) 1992 – 2011&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-police', 'annotations': {'description': '&lt;p&gt;The Police were an English rock band formed in London in 1977. For the majority of their history, the band consisted of &lt;a href="https://genius.com/artists/Sting" rel="noopener" data-api_path="/artists/679"&gt;Sting&lt;/a&gt; (lead vocals, bass), &lt;a href="https://genius.com/artists/Andy-summers" rel="noopener" data-api_path="/artists/54960"&gt;Andy Summers&lt;/a&gt; (guitar) and &lt;a href="https://genius.com/artists/Stewart-copeland" rel="noopener" data-api_path="/artists/54959"&gt;Stewart Copeland&lt;/a&gt; (drums). The Police became globally popular in the late 1970s and are generally regarded as one of the first new wave groups to achieve mainstream success, playing a style of rock that was influenced by punk, reggae, and jazz.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/John-newman', 'annotations': {'description': '&lt;p&gt;John Newman is an English soul singer with an unique voice. With a UK #1 thanks to &lt;a href="https://genius.com/John-newman-love-me-again-lyrics" rel="noopener" data-api_path="/songs/207291"&gt;“Love Me Again”&lt;/a&gt;, it’s sure that he’ll see some success in the United States.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jack-u', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Skrillex" rel="noopener" data-api_path="/artists/15496"&gt;Skrillex&lt;/a&gt; x &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Jack Ü is a duo consisting of long time friends &lt;a href="https://genius.com/artists/Skrillex" rel="noopener" data-api_path="/artists/15496"&gt;Skrillex&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt;. The project was first conceived in 2013. After playing live shows together for a long while prior, Jack Ü released their first official single “&lt;a href="https://genius.com/Jack-u-take-u-there-lyrics" rel="noopener" data-api_path="/songs/488007"&gt;Take Ü There&lt;/a&gt;” featuring vocals from Kiesza on September 17, 2014. Once the single had gained traction, on February 3, 2015, they announced that they would be working with &lt;a href="https://genius.com/artists/Missy-elliott" rel="noopener" data-api_path="/artists/1529"&gt;Missy Elliott&lt;/a&gt; on a remix of “&lt;a href="https://genius.com/Jack-u-take-u-there-missy-elliott-remix-lyrics" rel="noopener" data-api_path="/songs/707670"&gt;Take Ü There&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;The duo’s debut album “&lt;a href="https://genius.com/albums/Jack-u/Skrillex-and-diplo-present-jack-u" rel="noopener" data-api_path="/albums/120512"&gt;Skrillex and Diplo Present Jack Ü&lt;/a&gt;” was then released on 27 February 2015 and was met with overwhelmingly positive reviews whilst also winning a Grammy for Best Dance/Electronica Album &amp;amp; Best Dance Recording for &lt;a href="https://genius.com/Jack-u-where-are-u-now-lyrics" rel="noopener" data-api_path="/songs/713548"&gt;Where Are Ü Now&lt;/a&gt; with Pop musician &lt;a href="https://genius.com/artists/Justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The group is currently thought to be on a hiatus, although not disbanded completely. Although being officially released as a solo &lt;a href="https://genius.com/artists/diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt; record, &lt;a href="https://genius.com/Diplo-get-it-right-lyrics" rel="noopener" data-api_path="/songs/3314337"&gt;Get It Right&lt;/a&gt; features co-production from the other side of the duo in &lt;a href="https://genius.com/artists/Skrillex" rel="noopener" data-api_path="/artists/15496"&gt;Skrillex&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Skrillex &amp; Diplo']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alt-j', 'annotations': {'description': '&lt;p&gt;alt-J is an English indie rock band that consists of vocalist and guitarist Joe Newman, keyboardist and bassist Gus Unger-Hamilton and drummer Thom Green. Gwil Sainsbury was the band’s bassist before &lt;a href="http://www.nme.com/news/alt-j/74837" rel="noopener nofollow"&gt;leaving the band in early 2014&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Formed at Leeds University and signed to a label in Cambridge, UK, the band originally made songs on Garageband before releasing them under the pseudonym &lt;em&gt;∆&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;∆’s name takes a little explaining. Pronounced &lt;em&gt;alt-J&lt;/em&gt;, the delta sign is inserted when you press alt and J on a Mac keyboard.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cardi-b', 'annotations': {'description': '&lt;p&gt;Born on October 11, 1992, and raised in The Bronx, New York, Belcalis Marlenis Almánzar—under the stage name Cardi B—is a rapper and TV personality known for her friendly attitude. From 2015 to 2017 she starred on the TV show &lt;a href="http://www.imdb.com/title/tt1718437/" rel="noopener nofollow"&gt;&lt;em&gt;Love &amp;amp; Hip Hop&lt;/em&gt;&lt;/a&gt;, on which she landed a role after she became popular on the internet due to her personality and stripping endeavors. Following her departure from the series, she attained success in music with her chart-topping summer smash &lt;a href="https://genius.com/Cardi-b-bodak-yellow-lyrics" rel="noopener" data-api_path="/songs/3095483"&gt;“Bodak Yellow.”&lt;/a&gt; She is married to &lt;a href="https://genius.com/artists/Migos" rel="noopener" data-api_path="/artists/44080"&gt;Migos&lt;/a&gt; member &lt;a href="https://genius.com/artists/Offset" rel="noopener" data-api_path="/artists/88813"&gt;Offset&lt;/a&gt;. Cardi also gave birth to Kulture Kiari Cephus, Offset’s fourth child and Cardi’s first.&lt;/p&gt;\n\n&lt;p&gt;Cardi began her music career in 2015 and released &lt;a href="https://genius.com/albums/Cardi-b/Gangsta-bitch-music-vol-2" rel="noopener" data-api_path="/albums/325262"&gt;two installments&lt;/a&gt; of her &lt;a href="https://genius.com/albums/Cardi-b/Gangsta-bitch-music-vol-1" rel="noopener" data-api_path="/albums/569050"&gt;&lt;em&gt;Gangsta Bitch Music&lt;/em&gt;&lt;/a&gt; mixtapes series up until January 2017. The tapes went by relatively quietly but caught the attention of Atlantic Records, where &lt;a href="https://www.vibe.com/2017/03/cardi-b-atlantic-records/" rel="noopener nofollow"&gt;Cardi inked a deal&lt;/a&gt; in February of 2017. Shortly after, Cardi proved her worth when she entered the mainstream music scene with the release of her smash single “Bodak Yellow” on June 16, 2017. The single obtained the top spot on the &lt;em&gt;Billboard&lt;/em&gt; Hot 100, which marked the first time a female rapper achieved this since &lt;a href="https://genius.com/artists/Lauryn-hill" rel="noopener" data-api_path="/artists/448"&gt;Lauryn Hill&lt;/a&gt; did the same with &lt;a href="https://genius.com/Lauryn-hill-doo-wop-that-thing-lyrics" rel="noopener" data-api_path="/songs/822"&gt;“Doo Wop (That Thing)”&lt;/a&gt; in 1999. “Bodak Yellow” was certified 5x Multi-Platinum by the RIAA on February 28, 2018, for selling 5 million units in the US.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.billboard.com/articles/columns/hip-hop/8021967/cardi-b-offset-migos-relationship-timeline-engaged" rel="noopener nofollow"&gt;Speculations of a relationship&lt;/a&gt; between Cardi B and Offset arose in early 2017 after the two were repeatedly sighted together. On October 29, 2017, &lt;a href="https://www.billboard.com/articles/columns/hip-hop/8015031/cardi-b-migos-offset-engaged-powerhouse-philadelphia-bodak-yellow" rel="noopener nofollow"&gt;Offset proposed to Cardi&lt;/a&gt; on stage at a Philadelphia show. They have collaborated on what was at one point Cardi’s most popular single, &lt;a href="https://genius.com/Cardi-b-lick-remix-lyrics" rel="noopener" data-api_path="/songs/2992163"&gt;“Lick,”&lt;/a&gt; Migos\' &lt;a href="https://genius.com/Migos-nicki-minaj-and-cardi-b-motorsport-lyrics" rel="noopener" data-api_path="/songs/3291049"&gt;“MotorSport,”&lt;/a&gt; &lt;a href="https://genius.com/Quality-control-um-yea-lyrics" rel="noopener" data-api_path="/songs/3355240"&gt;“Um Yea,”&lt;/a&gt; and &lt;a href="https://genius.com/Cardi-b-drip-lyrics" rel="noopener" data-api_path="/songs/3626310"&gt;“Drip.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Following her engagement and the success of “Bodak Yellow,” Cardi released the follow-up single &lt;a href="https://genius.com/Cardi-b-bartier-cardi-lyrics" rel="noopener" data-api_path="/songs/3344378"&gt;“Bartier Cardi”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/21-savage" rel="noopener" data-api_path="/artists/430404"&gt;21 Savage&lt;/a&gt; just in time for Christmas. Cardi followed that up with features on the Multi-Platinum singles &lt;a href="https://genius.com/G-eazy-no-limit-lyrics" rel="noopener" data-api_path="/songs/3151905"&gt;“No Limit”&lt;/a&gt; with G-Eazy and A$AP Rocky, and &lt;a href="https://genius.com/Bruno-mars-finesse-remix-lyrics" rel="noopener" data-api_path="/songs/3411476"&gt;“Finesse (Remix)”&lt;/a&gt; with Bruno Mars. Cardi released her debut album, &lt;a href="https://genius.com/albums/Cardi-b/Invasion-of-privacy" rel="noopener" data-api_path="/albums/384474"&gt;&lt;em&gt;Invasion of Privacy&lt;/em&gt;&lt;/a&gt;, on April 6, 2018.&lt;/p&gt;\n\n&lt;p&gt;On January 2nd, 2018, Cardi B &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8085800/cardi-b-the-beatles-ashanti-hot-100-top-10" rel="noopener nofollow"&gt;became the third artist (and first rapper)&lt;/a&gt; to have her first three &lt;em&gt;Billboard&lt;/em&gt; Hot 100 entries (“Bodak Yellow,” “No Limit,” and “MotorSport”) in the chart’s top 10 simultaneously, joining only &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ashanti" rel="noopener" data-api_path="/artists/2675"&gt;Ashanti&lt;/a&gt; in achieving the feat.&lt;/p&gt;\n\n&lt;p&gt;She also became the first female rapper in history to achieve four #1 singles on the &lt;em&gt;Billboard&lt;/em&gt; Hot 100.&lt;/p&gt;', 'alternate_names': ['Belcalis Almánzar', 'Belcalis Marlenis Almánzar', 'Bacardi', 'Bardi']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/4-non-blondes', 'annotations': {'description': '&lt;p&gt;4 Non Blondes began in 1989 as four San Fransciso lesbians who built a local following &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;and got&lt;/a&gt; ‘a lot of press’ in the area, attracting a number of record labels who smelled a hit in their ballad “What’s Up?” – a song so powerful that bass player Christa Hillhouse actually &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;stopped having sex&lt;/a&gt; and ran down the hall when she first heard Linda Perry playing the song to express how much she liked it.&lt;/p&gt;\n\n&lt;p&gt;The band chose Interscope Records and recorded at a studio in Calabasas, California. During these sessions, drummer Wanda Day &lt;a href="https://en.slowradio.com/artists/4-non-blondes" rel="noopener nofollow"&gt;was fired&lt;/a&gt; due to drug problems (she later died in 1997) and guitarist Shaunna Hall left the band over differences with the album’s producer, who &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;told Day’s replacement&lt;/a&gt; “the record is not happening with your guitar player”.&lt;/p&gt;\n\n&lt;p&gt;In 1992, Interscope released “Dear Mr President” as the album’s first single. It found small success in the UK and reached the bottom of the top 40 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=Dear+Mr%2E+President&amp;amp;cat=s" rel="noopener nofollow"&gt;New Zealand&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;When “What’s Up?” was released as the second single, the band rocketed into international stardom. It &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=What%27s+Up%3F&amp;amp;cat=s" rel="noopener nofollow"&gt;topped the charts&lt;/a&gt; in seven countries, reached #2 in three more (including &lt;a href="http://www.officialcharts.com/artist/28984/4-non-blondes/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;) and peaked at #14 in the US, &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;making them&lt;/a&gt; the first openly lesbian group to reach the top 40 there.&lt;/p&gt;\n\n&lt;p&gt;“Spaceman” was the group’s third single. It &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=Spaceman&amp;amp;cat=s" rel="noopener nofollow"&gt;reached the top 40&lt;/a&gt; in six countries overseas and would be their last to chart anywhere. “Drifting” was the album’s fourth and final single, aside from the &lt;a href="https://www.discogs.com/4-Non-Blondes-Superfly/release/7263997" rel="noopener nofollow"&gt;Spain-only release&lt;/a&gt; of “Superfly”.&lt;/p&gt;\n\n&lt;p&gt;Two more songs were released in 1994 on film soundtracks as the band began work on a follow-up album. However, Perry &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;began writing&lt;/a&gt; melancholy music in the direction of Pink Floyd’s &lt;em&gt;Dark Side of the Moon&lt;/em&gt;, the rest of the band wanted to continue making rock songs like “Superfly”, and the label &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;kept pressuring them&lt;/a&gt; to come up with “What’s Up, version 2”.&lt;/p&gt;\n\n&lt;p&gt;Perry left by the end of the year and released two solo albums on Interscope Records in 1996 and 1999. She claims to have &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;told her A&amp;amp;R rep&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“I will kill myself if you do not let me off this label. I am so unhappy with you guys. I will never write you another ‘What’s Up’, so why would you hold onto me?”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Perry got her wish and was released from Interscope due to poor sales of those solo albums. By then, she’d blown through all of the money she’d made from 4 Non Blondes. But three weeks after becoming broke, P!nk seeked her out and they began a lucrative songwriting partnership beginning with the Perry-penned #4 smash hit &lt;a href="https://genius.com/P-nk-get-the-party-started-lyrics" rel="noopener" data-api_path="/songs/195076"&gt;“Get The Party Started”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2011, Perry &lt;a href="https://www.rollingstone.com/music/music-news/linda-perry-forms-new-band-admits-she-never-liked-4-non-blondes-234661/" rel="noopener nofollow"&gt;told Rolling Stone&lt;/a&gt; she would not be performing “What’s Up?” or any other 4 Non Blonde songs with her new band Deep Dark Robot because she didn’t like &lt;em&gt;Bigger, Better, Faster, More&lt;/em&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wasn’t really a big fan of my band. I didn’t like the record at all. ‘Drifting’ was the only song I loved. I did love ‘What’s Up?’ but I hated the production. When I heard our record for the first time I cried. It didn’t sound like me. It made me belligerent and a real asshole. I wanted to say, ‘We’re a fucking, bad-ass cool band. We’re not that fluffy polished bullshit that you’re listening to.’ It was really difficult.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rob-thomas', 'annotations': {'description': '&lt;p&gt;The lead singer of Alt-Rock band &lt;a href="https://genius.com/artists/Matchbox-twenty" rel="noopener" data-api_path="/artists/71892"&gt;Matchbox Twenty&lt;/a&gt;, best known for the 1999 hit &lt;a href="https://genius.com/Santana-smooth-lyrics" rel="noopener" data-api_path="/songs/114915"&gt;‘Smooth’&lt;/a&gt;, his collaboration with &lt;a href="https://genius.com/artists/Santana" rel="noopener" data-api_path="/artists/8439"&gt;Santana&lt;/a&gt;, has won a total of 3 Grammy Awards, provided vocals for 8 albums total and written songs for artists such as Mick Jagger and Pat Green.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Rob-thomas/Chip-tooth-smile" rel="noopener" data-api_path="/albums/505362"&gt;‘Chip Tooth Smile’&lt;/a&gt;, released April 2019, has been compared to Bruce Springsteen’s work in both sound and design, and peaked at 13 on Billboard 200.&lt;/p&gt;\n\n&lt;p&gt;Thomas has also founded the charity &lt;a href="https://www.sidewalkangelsfoundation.org/" rel="noopener nofollow"&gt;Sidewalk Angels&lt;/a&gt; with his wife Marisol, which provides funds for no-kill animal shelters and rescue organizations.&lt;/p&gt;', 'alternate_names': ['Robert K. Thomas', 'Robert Kelly Thomas']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Joan-jett-and-the-blackhearts', 'annotations': {'description': '&lt;p&gt;After splitting with &lt;a href="https://genius.com/artists/The-runaways" rel="noopener" data-api_path="/artists/37911"&gt;The Runaways&lt;/a&gt;, and releasing her first solo album, &lt;a href="https://genius.com/artists/Joan-jett" rel="noopener" data-api_path="/artists/63682"&gt;Joan Jett&lt;/a&gt; placed an ad in LA Weekly looking for bandmates. Gary Ryan, Eric Ambel, and Danny “Furious” O\'Brien joined her, creating the orginial Blackhearts lineup.&lt;br&gt;\nAfter their initial tour though, O\'Brien was replaced with Lee Crystal.&lt;/p&gt;\n\n&lt;p&gt;Early on, keeping the band afloat was not easy. Joan and producer &lt;a href="https://genius.com/artists/Kenny-laguna" rel="noopener" data-api_path="/artists/73857"&gt;Kenny Laguna&lt;/a&gt; struggled, sometimes selling copies of albums from the trunk of his car. Eventually unable to keep up with the demand for Joan Jett’s album, they signed with Boardwalk Records.&lt;/p&gt;\n\n&lt;p&gt;In 1981 the band released their first album together, &lt;a href="https://genius.com/albums/Joan-jett-and-the-blackhearts/I-love-rock-n-roll" rel="noopener" data-api_path="/albums/46351"&gt;&lt;em&gt;I Love Rock N Roll&lt;/em&gt;&lt;/a&gt;. The band’s line up has continued to change over the years.&lt;/p&gt;\n\n&lt;p&gt;To date the band has ten studio albums, with two additional albums released under just “Joan Jett.”&lt;br&gt;\nTheir current line up is Joan Jett, Dougie Needles, Hal B. Selzer, and Thommy Price.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rod-stewart', 'annotations': {'description': '&lt;p&gt;A legend in the rock-n-roll genre, Roderick “Rod” Stewart has sold over 100 million records worldwide with a career spanning over 60 years. He has had 6 consecutive number one albums in the UK, and his tally of 62 UK hit singles includes 31 that reached the top ten, six of which gained the #1 position, including has had 16 top ten singles in the US, with four reaching #1 on the Billboard Hot 100.&lt;/p&gt;', 'alternate_names': ['Roderick Stewart', 'Roderick David Stewart']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cobra-starship', 'annotations': {'description': '&lt;p&gt;Cobra Starship was an American dance-pop band originating from New York City. The band originally started as a solo project by frontman &lt;a href="https://genius.com/artists/Gabe-saporta" rel="noopener" data-api_path="/artists/39647"&gt;Gabe Saporta&lt;/a&gt;, previously of &lt;a href="https://genius.com/artists/Midtown" rel="noopener" data-api_path="/artists/365306"&gt;Midtown&lt;/a&gt;. Saporta has embezzled that the idea of Cobra Starship was formed after Saporta went on a vision quest in the Arizona deserts and began building the idea for a synthpop band, however he has stated in the past that this was just a joke.&lt;/p&gt;\n\n&lt;p&gt;The band started off when Saporta posted a parody of &lt;a href="https://genius.com/artists/Gwen-stefani" rel="noopener" data-api_path="/artists/1893"&gt;Gwen Stefani’s&lt;/a&gt; &lt;a href="https://genius.com/Gwen-stefani-hollaback-girl-lyrics" rel="noopener" data-api_path="/songs/4385"&gt;“Hollaback Girl”&lt;/a&gt; titled &lt;a href="https://genius.com/Cobra-starship-hollaback-boy-lyrics" rel="noopener" data-api_path="/songs/461691"&gt;“Hollaback Boy”&lt;/a&gt;, which become popular on the internet. This eventually led to Cobra Starship being signed to Decaydance Records, an imprint of Fueled By Ramen owned by &lt;a href="https://genius.com/artists/Fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt; bassist &lt;a href="https://genius.com/artists/Pete-wentz" rel="noopener" data-api_path="/artists/214001"&gt;Pete Wentz&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band’s 2006 debut album &lt;a href="https://genius.com/albums/Cobra-starship/While-the-city-sleeps-we-rule-the-streets" rel="noopener" data-api_path="/albums/106746"&gt;&lt;em&gt;While The City Sleeps, We Rule The Streets&lt;/em&gt;&lt;/a&gt; was all written, recorded, and co-produced by Saporta, with production help from &lt;a href="https://genius.com/artists/Ryland-blackinton" rel="noopener" data-api_path="/artists/648572"&gt;Ryland Blackinton&lt;/a&gt; and &lt;a href="https://genius.com/artists/Alex-suarez" rel="noopener" data-api_path="/artists/451305"&gt;Alex Suarez&lt;/a&gt;, who  at the time were both writing music for &lt;a href="https://genius.com/artists/This-is-ivy-league" rel="noopener" data-api_path="/artists/354914"&gt;This Is Ivy League&lt;/a&gt;. The two of them joined the band shortly after the debut was released. The song &lt;a href="https://genius.com/Cobra-starship-snakes-on-a-plane-bring-it-lyrics" rel="noopener" data-api_path="/songs/461649"&gt;“Snakes On A Plane (Bring It)”&lt;/a&gt;, which was included on the album, was written for the 2006 film &lt;a href="https://en.wikipedia.org/wiki/Snakes_on_a_Plane" rel="noopener nofollow"&gt;&lt;em&gt;Snakes On A Plane&lt;/em&gt;&lt;/a&gt; and became a minor hit. The song featured the vocal talents of &lt;a href="https://genius.com/artists/Maja-ivarsson" rel="noopener" data-api_path="/artists/73113"&gt;Maja Ivarsson&lt;/a&gt; of The Sounds, &lt;a href="https://genius.com/artists/William-beckett" rel="noopener" data-api_path="/artists/219977"&gt;William Beckett&lt;/a&gt; of &lt;a href="https://genius.com/artists/The-academy-is" rel="noopener" data-api_path="/artists/174495"&gt;The Academy Is…&lt;/a&gt; and &lt;a href="https://genius.com/artists/Travie-mccoy" rel="noopener" data-api_path="/artists/667"&gt;Travie McCoy&lt;/a&gt; of &lt;a href="https://genius.com/artists/Gym-class-heroes" rel="noopener" data-api_path="/artists/1083"&gt;Gym Class Heroes&lt;/a&gt;. Beckett also helped co-wrote the single.&lt;/p&gt;\n\n&lt;p&gt;After the album was released, Saporta further enlisted the help of &lt;a href="https://genius.com/artists/Nate-novarro" rel="noopener" data-api_path="/artists/1147451"&gt;Nate Novarro&lt;/a&gt; and &lt;a href="https://genius.com/artists/Vicky-t" rel="noopener" data-api_path="/artists/1053219"&gt;Victoria Asher&lt;/a&gt; to become part of the band. Cobra’s 2007 sophomore album &lt;a href="https://genius.com/albums/Cobra-starship/Viva-la-cobra" rel="noopener" data-api_path="/albums/47156"&gt;&lt;em&gt;¡Viva La Cobra!&lt;/em&gt;&lt;/a&gt; was produced by Fall Out Boy vocalist &lt;a href="https://genius.com/artists/Patrick-stump" rel="noopener" data-api_path="/artists/6343"&gt;Patrick Stump&lt;/a&gt; and was the first album the whole band was included on. The band went on to make 2009’s &lt;a href="https://genius.com/albums/Cobra-starship/Hot-mess" rel="noopener" data-api_path="/albums/106747"&gt;&lt;em&gt;Hot Mess&lt;/em&gt;&lt;/a&gt;, their best-selling album, and their final album &lt;a href="https://genius.com/albums/Cobra-starship/Night-shades" rel="noopener" data-api_path="/albums/13481"&gt;&lt;em&gt;Night Shades&lt;/em&gt;&lt;/a&gt; in 2011. They announced their dissolution on November 10, 2015.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Scissor-sisters', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/Scissor_Sisters" rel="noopener nofollow"&gt;Scissor Sisters&lt;/a&gt; are an American pop group formed in 2001. Forged in the “gay nightlife scene of New York,” the band took its name from the female same-sex sexual activity tribadism. Its members include Jake Shears and Ana Matronic as vocalists, Babydaddy as a multi-instrumentalist, Del Marquis as the lead guitarist/bassist, and Randy Real as the drummer. Scissor Sisters incorporate diverse and innovative styles in their music, but tend to sway towards pop rock, glam rock, nu-disco, and electroclash.&lt;/p&gt;\n\n&lt;p&gt;Scissor Sisters have performed around the world and become well-recognized for their controversial and transgressive live performances. They’ve collaborated with a number of other well-known pop musicians, including Elton John and Kylie Minogue. In 2004, U2’s lead vocalist Bono described Scissor Sisters as “the best pop group in the world”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Hard-fi', 'annotations': {'description': '&lt;p&gt;Hard-Fi are an English rock band formed in Staines, Surrey in 2003. The band’s members are Richard Archer (lead vocals and guitar), Kai Stephens (bass guitar and backing vocals) and Steve Kemp (drums and backing vocals).&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tom-petty-and-the-heartbreakers', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Tom-petty" rel="noopener" data-api_path="/artists/20785"&gt;Tom Petty&lt;/a&gt; and the Heartbreakers – an L.A.-based gang of sharp-dressed garage-rock refugees from Gainsville, Florida – released their debut LP in November 1976, featuring two tracks which are now part of their long list of hits, &lt;a href="https://genius.com/Tom-petty-and-the-heartbreakers-breakdown-lyrics" rel="noopener" data-api_path="/songs/1624339"&gt;“Breakdown”&lt;/a&gt; and &lt;a href="https://genius.com/Tom-petty-and-the-heartbreakers-american-girl-lyrics" rel="noopener" data-api_path="/songs/110440"&gt;“American Girl.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Since that first LP in ‘76, the band’s style  has epitomized and largely defined the American &lt;a href="http://80music.about.com/od/genresmovements/p/heartlandrock.htm" rel="noopener nofollow"&gt;“heartland rock” movement&lt;/a&gt; – a vintage-guitar twang, hard lyric truth, and searing vocal attitude.&lt;/p&gt;\n\n&lt;p&gt;Tom Petty and the Heartbreakers have been nominated for &lt;a href="http://www.grammy.com/artist/tom-petty-the-heartbreakers" rel="noopener nofollow"&gt;17 Grammy awards&lt;/a&gt; and sold more than 80 million records worldwide, making them one of the world’s &lt;a href="http://www.belpernews.co.uk/what-s-on/out-about/top-talent-at-the-flowerpot-1-5359458" rel="noopener nofollow"&gt;best-selling bands of all-time.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their album &lt;em&gt;Hypnotic Eye,&lt;/em&gt; released on July 29th, 2014, represents the band’s &lt;a href="http://www.billboard.com/articles/columns/chart-beat/6207083/tom-petty-1-album-first-billboard-200-hypnotic-eye-heartbreakers" rel="noopener nofollow"&gt;first number one album&lt;/a&gt; to debut on the &lt;em&gt;Billboard 200&lt;/em&gt; charts after &lt;a href="http://www.forbes.com/sites/hughmcintyre/2014/08/07/after-37-years-tom-petty-and-the-heartbreakers-nab-first-1-album/#20077d9f64de" rel="noopener nofollow"&gt;37 years&lt;/a&gt; of hit singles.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dr-alban', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-human-league', 'annotations': {'description': '&lt;p&gt;The Human League are a synth pop band from Sheffield, England, formed in 1977. They generated a string of synthesizer-backed dance pop hits throughout the 80s. David Bowie dubbed the group “the sound of the future” in 1981.&lt;/p&gt;\n\n&lt;p&gt;The band is best known for its third studio album released in 1981, &lt;a href="https://genius.com/albums/The-human-league/Dare" rel="noopener" data-api_path="/albums/111021"&gt;&lt;em&gt;Dare!&lt;/em&gt;&lt;/a&gt; The fourth single from &lt;em&gt;Dare&lt;/em&gt;, &lt;a href="https://genius.com/The-human-league-dont-you-want-me-lyrics" rel="noopener" data-api_path="/songs/501821"&gt;“Don’t You Want Me,”&lt;/a&gt; catapulted to #1 in the UK and US.&lt;/p&gt;\n\n&lt;p&gt;Phil Oakey is the only core member of the group. The band’s first incarnation was as an arty all-male synthesizer group, composed of Oakey, Martyn Ware, and Ian Craig Marsh. In the 1980s, Ware and Marsh left the group after continued conflicts with Oakey—they went on to form &lt;a href="https://genius.com/artists/Heaven-17" rel="noopener" data-api_path="/artists/100911"&gt;Heaven 17&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Oakey then recruited two 17-year-old girls, Susan Ann Sulley and Joanne Catherall to be background singers and dancers after his then-girlfriend saw them performing a complex routine to Visage’s &lt;a href="https://genius.com/Visage-fade-to-grey-lyrics" rel="noopener" data-api_path="/songs/321565"&gt;“Fade To Grey”&lt;/a&gt; in a local nightclub. Since 1987, The Human League has remained a trio composed of Oakey, Sulley and Catherall.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Billy-joel', 'annotations': {'description': '&lt;p&gt;Billy Joel (born May 9, 1949) is an American pianist, singer/songwriter, producer, and composer who ranks as one of the most iconic and influential artists from the mid to late 20th century.&lt;/p&gt;\n\n&lt;p&gt;He is the sixth best-selling recording artist and the third best-selling solo artist in the United States, wrote a total of 121 songs that achieved 33 Top 40 hits in the US, a 6-time Grammy winner out of 23 nominations, and one of the best-selling recording artists of all-time with 150 million albums sold worldwide.&lt;/p&gt;\n\n&lt;p&gt;Joel has since continued to tour and sells out in stadiums globally. He also delved into classical music composition, arranging an album, &lt;em&gt;Fantasies and Delusions&lt;/em&gt; released in 2001, opened a motorcycle shop on his native Long Island, and is now regarded as one of the most influential musicians of the 20th century. Among his numerous accolades, he was inducted in the Songwriters Hall of Fame in 1992, bestowed with the Kennedy Center Honors in 2013, and awarded the Gershwin Prize for Popular Song by the Library of Congress in 2014.&lt;/p&gt;', 'alternate_names': ['William Joel', 'William M. Joel', 'William Martin Joel']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Steve-edwards', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ragnbone-man', 'annotations': {'description': '&lt;p&gt;Neo-blues &amp;amp; soul singer Rory Graham was born and raised in the small town of Uckfield in the south-east of England.&lt;/p&gt;\n\n&lt;p&gt;Growing up on early blues and soul, he taught himself to sing by mimicking &lt;a href="https://genius.com/artists/Muddy-waters" rel="noopener" data-api_path="/artists/65145"&gt;Muddy Waters&lt;/a&gt;, before discovering hip-hop. Starting out in music at age 15 as an MC with a local drum\'n\'bass crew, he progressed to hip-hop open-mike nights in nearby Brighton, where he later moved, teaming up with local hip-hop crew the Rum Committee. At the same time, he continued to practice singing in private. Aged 19, he took part in a blues open-mike night at the encouragement of his father, and the rapturous response to his singing boosted his confidence enough to make him consider it as a career rather than rapping.&lt;/p&gt;\n\n&lt;p&gt;Graham’s moniker came from his childhood memories of he and his grandfather watching repeats of the British ‘60s sitcom &lt;a href="https://www.imdb.com/title/tt0057785/" rel="noopener nofollow"&gt;Steptoe and Son&lt;/a&gt;, about a pair of rag-and-bone men – dirt-poor street collectors who in bygone days would go around gathering up rubbish in an attempt to find useful rags, bones, and scrap metal that could be sold to merchants for a few pennies.&lt;/p&gt;\n\n&lt;p&gt;He released his debut EP, &lt;a href="https://genius.com/albums/Ragnbone-man/Bluestown-ep" rel="noopener" data-api_path="/albums/313556"&gt;&lt;em&gt;Bluestown&lt;/em&gt;&lt;/a&gt;, in 2012, followed by several EPs in the next few years, the highest profile of which were &lt;a href="https://genius.com/albums/Ragnbone-man/Wolves-ep" rel="noopener" data-api_path="/albums/255214"&gt;&lt;em&gt;Wolves&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Ragnbone-man/Disfigured-ep" rel="noopener" data-api_path="/albums/122041"&gt;&lt;em&gt;Disfigured&lt;/em&gt;&lt;/a&gt; in 2015. His early releases were more acoustic, but evolved toward a more electronic sound with hip-hop-styled beats. In 2013, he signed a publishing deal with &lt;a href="https://genius.com/artists/Warner-chappell-music" rel="noopener" data-api_path="/artists/1152704"&gt;Warner Chappell&lt;/a&gt;, allowing him to give up his day job as a carer for people with Asperger’s Syndrome. His increasing profile brought him to the attention of &lt;a href="https://genius.com/artists/Columbia-records" rel="noopener" data-api_path="/artists/30372"&gt;Columbia Records&lt;/a&gt;, who signed him in 2016. His debut single for Columbia, “&lt;a href="https://genius.com/Ragnbone-man-human-lyrics" rel="noopener" data-api_path="/songs/2825019"&gt;Human&lt;/a&gt;,” dropped in September of that year and was a big hit in several European countries, topping the charts in Germany. The single was taken from his &lt;a href="https://genius.com/albums/Ragnbone-man/Human" rel="noopener" data-api_path="/albums/286794"&gt;debut album&lt;/a&gt;, which released the following year.&lt;/p&gt;', 'alternate_names': ['Rory Charles Graham', 'Rory Graham', 'Rag ’n’ Bone']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kool-moe-dee', 'annotations': {'description': '&lt;p&gt;Kool Moe Dee is one of rap’s earliest stars. Starting his career in the early ‘70s, he formed the legendary Treacherous Three with DJ Easy Lee, Special K, and L.A. Sunshine.&lt;/p&gt;\n\n&lt;p&gt;After the group’s first break-up in ‘84, Kool Moe Dee went solo, establishing himself as one of hip-hop’s first big stars with his breakout solo album, &lt;a href="https://genius.com/albums/Kool-moe-dee/How-ya-like-me-now" rel="noopener" data-api_path="/albums/4541"&gt;&lt;em&gt;“How Ya Like Me Now?”&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He became one of the first hip-hop acts to get a Grammy, and became the first to perform at the Grammy’s.&lt;/p&gt;\n\n&lt;p&gt;Kool Moe Dee is now mostly remembered for his feud with &lt;a href="https://genius.com/artists/Ll-cool-j" rel="noopener" data-api_path="/artists/848"&gt;LL Cool J&lt;/a&gt;, where they exchanged musical punches that entertained hip-hop heads for years, with the winner of the feud still being debated to this day.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Fergie', 'annotations': {'description': '&lt;p&gt;Fergie Duhamel, born Stacy Ann Ferguson, started her career in television. She starred in six seasons of &lt;em&gt;Kids Incorporated&lt;/em&gt; before leaving the show in 1989. Fergie would venture through a couple of gigs including music group &lt;a href="https://genius.com/artists/Wild-orchid" rel="noopener" data-api_path="/artists/360903"&gt;Wild Orchid&lt;/a&gt; before landing success with one of the most recognizable band of the 2000s: &lt;a href="https://genius.com/artists/Black-eyed-peas" rel="noopener" data-api_path="/artists/425"&gt;Black Eyed Peas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Joining the band in 2003, with her first feature on hit single &lt;a href="https://genius.com/Black-eyed-peas-where-is-the-love-lyrics" rel="noopener" data-api_path="/songs/10680"&gt;“Where is the Love?”"&lt;/a&gt;, Fergie, &lt;a href="https://genius.com/artists/William" rel="noopener" data-api_path="/artists/713"&gt;\u200bwill.i.am&lt;/a&gt;, &lt;a href="https://genius.com/artists/Apldeap" rel="noopener" data-api_path="/artists/47060"&gt;Apl.de.ap&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Taboo" rel="noopener" data-api_path="/artists/5181"&gt;Taboo&lt;/a&gt; reached mainstream success as the Black Eyed Peas grew in renown and popularity as a pop-hiphop group. After releasing the commercially successful album &lt;em&gt;&lt;a href="https://genius.com/albums/Black-eyed-peas-monkey-business" rel="noopener"&gt;Monkey Business&lt;/a&gt;&lt;/em&gt; with the Black Eyed Peas in mid-2005, Fergie ventured into her solo career with a debut album that continues to be her greatest work: &lt;em&gt;&lt;a href="https://genius.com/albums/The-Dutchess" rel="noopener"&gt;The Dutchess&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Released in 2006, the record brought Fergie five multi-platinum singles, including &lt;a href="https://genius.com/Fergie-glamorous-lyrics" rel="noopener" data-api_path="/songs/32326"&gt;“Glamorous”&lt;/a&gt;, &lt;a href="https://genius.com/Fergie-big-girls-dont-cry-lyrics" rel="noopener" data-api_path="/songs/268843"&gt;“Big Girls Don’t Cry”&lt;/a&gt;, and &lt;a href="https://genius.com/Fergie-fergalicious-lyrics" rel="noopener" data-api_path="/songs/32275"&gt;“Fergalicious”&lt;/a&gt;. The latter has catapulted Fergie into pop culture relevance, and the term “fergalicious” or some variation of it is never put to rest in American pop culture.&lt;/p&gt;\n\n&lt;p&gt;With the Black Eyed Peas, Fergie climbed to even greater heights, with singles &lt;a href="https://genius.com/Black-eyed-peas-boom-boom-pow" rel="noopener"&gt;“Boom Boom Pow”&lt;/a&gt; and &lt;a href="https://genius.com/Black-eyed-i-gotta-feeling" rel="noopener"&gt;“I Gotta Feeling”&lt;/a&gt; dominating 2009.&lt;/p&gt;\n\n&lt;p&gt;Fergie later got a &lt;a href="http://www.dailymail.co.uk/tvshowbiz/article-2040842/Fergie-unveils-wax-figure-doppelg-nger-Madame-Tussauds.html" rel="noopener nofollow"&gt;Madame Tussauds figure&lt;/a&gt;, headlined the &lt;a href="https://www.youtube.com/watch?v=11T2B9NH8yM" rel="noopener nofollow"&gt;Super Bowl halftime show with the rest of the band&lt;/a&gt;; and &lt;a href="https://www.avon.com/product/39692/outspoken-by-fergie-eau-de-parfum-spray?setlang=en" rel="noopener nofollow"&gt;released her own fragrance &lt;em&gt;Outspoken&lt;/em&gt;&lt;/a&gt;. She returned to her solo career in 2014 with &lt;a href="https://genius.com/Fergie-la-love-la-la-lyrics" rel="noopener" data-api_path="/songs/520238"&gt;“L.A. LOVE”&lt;/a&gt; and &lt;a href="https://genius.com/Fergie-milf-lyrics" rel="noopener" data-api_path="/songs/2710603"&gt;“M.I.L.F. $”&lt;/a&gt; in 2016.&lt;/p&gt;\n\n&lt;p&gt;Fergie has fearlessly imprinted the face of modern pop music. The world can only wait to see what she will conquer next.&lt;/p&gt;', 'alternate_names': ['Stacy Ann Ferguson', 'Stacy Ferguson']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mya', 'annotations': {'description': '&lt;p&gt;Mýa Marie Harrison is a Grammy-winning R&amp;amp;B artist, songwriter, and actress. In &lt;a href="https://en.wikipedia.org/wiki/M%C3%BDa" rel="noopener nofollow"&gt;1998, she signed with Interscope Records&lt;/a&gt; and released her debut album the same year. The album was a commercial success in the United States and produced the top ten single “It’s All About Me”. &lt;em&gt;Fear of Flying&lt;/em&gt;, her second album, was released in 2000 and became a worldwide success, boosted by the success of its second single “Case of the Ex”.&lt;/p&gt;\n\n&lt;p&gt;In 2003, Mýa released her third album; &lt;em&gt;Moodring&lt;/em&gt;. It peaked at #3 on the Billboard 200 and featured a range of new sounds such as techno, pop rock, and soul. In 2005, Mýa left &lt;a href="https://en.wikipedia.org/wiki/M%C3%BDa#1998%E2%80%932001:_M%C3%BDa,_Fear_of_Flying_and_Lady_Marmalade" rel="noopener nofollow"&gt;A&amp;amp;M Records in exchange for Universal Motown.&lt;/a&gt; Later in 2007, she released he album &lt;em&gt;Liberation&lt;/em&gt;, but only in Japan. In 2008, she &lt;a href="https://en.wikipedia.org/wiki/M%C3%BDa#1998%E2%80%932001:_M%C3%BDa,_Fear_of_Flying_and_Lady_Marmalade" rel="noopener nofollow"&gt;left Universal Motown and moved to Japanese record label, Manhattan Records.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;There, she released her fifth studio album &lt;em&gt;Sugar &amp;amp; Spice&lt;/em&gt;. Later on &lt;a href="https://en.wikipedia.org/wiki/K.I.S.S._%28Keep_It_Sexy_%26_Simple" rel="noopener nofollow"&gt;she founded her own record label&lt;/a&gt; and released the album &lt;em&gt;K.I.S.S.: Keep It Sexy &amp;amp; Simple&lt;/em&gt; in 2011(in both the US and Japan). Her eighth album, &lt;em&gt;Smoove Jones&lt;/em&gt;,  debuted at &lt;a href="https://en.wikipedia.org/wiki/M%C3%BDa#2014%E2%80%932017:_EP_series_and_Smoove_Jones" rel="noopener nofollow"&gt;number thirty on Billboard’s Top R&amp;amp;B/Hip-Hop Albums chart and received a Grammy nomination.&lt;/a&gt; Her recent project &lt;em&gt;T.K.O. (The Knock Out)&lt;/em&gt; was released in 2018 on the same day of her debut album.&lt;/p&gt;', 'alternate_names': ['Mýa Harrison', 'Mýa M. Harrison', 'Mýa Marie Harrison']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Fun', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Fun&lt;/strong&gt; (often stylized as &lt;strong&gt;fun.&lt;/strong&gt;) is an American indie pop band comprising of &lt;a href="https://genius.com/artists/Nate-ruess" rel="noopener" data-api_path="/artists/30424"&gt;Nate Ruess&lt;/a&gt;, formerly of &lt;a href="https://genius.com/artists/The-format" rel="noopener" data-api_path="/artists/61116"&gt;The Format&lt;/a&gt;, Andrew Dost (&lt;a href="https://genius.com/artists/Anathallo" rel="noopener" data-api_path="/artists/214530"&gt;Anathallo&lt;/a&gt;) and &lt;a href="https://genius.com/artists/Jack-antonoff" rel="noopener" data-api_path="/artists/264329"&gt;Jack Antonoff&lt;/a&gt; (&lt;a href="https://genius.com/artists/Steel-train" rel="noopener" data-api_path="/artists/357760"&gt;Steel Train&lt;/a&gt;). Over the course of seven years, fun. has released two albums: their debut &lt;em&gt;Aim and Ignite&lt;/em&gt; in 2009 and their latest &lt;em&gt;Some Nights&lt;/em&gt; in February, 2012.&lt;/p&gt;\n\n&lt;p&gt;Armed with anthemic, towering lyrics and electric vocals, fun. is among the most recent crop of indie-pop bands to cross into the mainstream. fun.’s success is attributed most majorly to the youthful “&lt;a href="https://genius.com/Fun-we-are-young-lyrics" rel="noopener" data-api_path="/songs/63985"&gt;We Are Young&lt;/a&gt;” featuring Janelle Monáe. A smash on the Billboard Hot 100 after a &lt;a href="https://www.youtube.com/watch?v=9bcYwfsb8rw" rel="noopener nofollow"&gt;memorable cover&lt;/a&gt; on &lt;em&gt;Glee&lt;/em&gt;, the song is arguably fun.’s most defining track. Yet their discography has layers of depth past “Young” – the experimental “&lt;a href="https://genius.com/Fun-stars-lyrics" rel="noopener" data-api_path="/songs/71574"&gt;Stars&lt;/a&gt;,” the existential “&lt;a href="https://genius.com/Fun-some-nights%20lyrics" rel="noopener"&gt;Some Nights&lt;/a&gt;” (which also received significant commercial success), the nihilistic “&lt;a href="https://genius.com/Fun-barlights-lyrics" rel="noopener" data-api_path="/songs/195977"&gt;Barlights&lt;/a&gt;,” the persevering “&lt;a href="https://genius.com/Fun-carry-on-lyrics" rel="noopener" data-api_path="/songs/71564"&gt;Carry On&lt;/a&gt;” – fun. is definitely a lyrically poignant and musically delectable group.&lt;/p&gt;\n\n&lt;p&gt;As of 2015, the group is on hiatus, with each member off working on solo projects. Lead singer Ruess released his solo debut, &lt;em&gt;Grand Romantic&lt;/em&gt;, in June of the same year; guitarist Antonoff formed &lt;a href="https://genius.com/artists/Bleachers" rel="noopener" data-api_path="/artists/158659"&gt;Bleachers&lt;/a&gt; and released &lt;em&gt;Strange Desire&lt;/em&gt; in July 2014; Dost composed the soundtrack to the Jack-Black-led comedy, &lt;em&gt;The D Train&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Spacehog', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sir-mix-a-lot', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Anthony Ray', 'Anthony L. Ray']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jamie-foxx', 'annotations': {'description': '&lt;p&gt;Eric Marlon Bishop (born December 13, 1967), known professionally by his stage name Jamie Foxx, is an American actor, singer, songwriter and comedian.&lt;/p&gt;\n\n&lt;p&gt;Although his acting career overthrew his musical career, it was still loaded with a ton of hit singles, most popular of which being “Just Like Me” featuring &lt;a href="https://genius.com/artists/ti" rel="noopener" data-api_path="/artists/85"&gt;T.I.&lt;/a&gt;, “Blame It” featuring &lt;a href="https://genius.com/artists/t-pain" rel="noopener" data-api_path="/artists/337"&gt;T-Pain&lt;/a&gt;, “She Got Her Own” featuring &lt;a href="https://genius.com/artists/ne-yo" rel="noopener" data-api_path="/artists/375"&gt;Ne-Yo&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/artists/fabolous" rel="noopener" data-api_path="/artists/3"&gt;Fabolous&lt;/a&gt;, and “Fall For Your Type” featuring &lt;a href="https://genius.com/artists/drake" rel="noopener" data-api_path="/artists/130"&gt;Drake&lt;/a&gt;. He also made an iconic appearance on &lt;a href="https://genius.com/artists/kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt;’s single, “Gold Digger” in 2005.&lt;/p&gt;', 'alternate_names': ['Eric Bishop', 'Eric Marlon Bishop', 'Jaime Foxx']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nwa', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Eazy-e" rel="noopener" data-api_path="/artists/496"&gt;Eazy-E&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dr-dre" rel="noopener" data-api_path="/artists/123"&gt;Dr.\xa0Dre&lt;/a&gt;, &lt;a href="https://genius.com/artists/Ice-cube" rel="noopener" data-api_path="/artists/186"&gt;Ice Cube&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mc-ren" rel="noopener" data-api_path="/artists/1436"&gt;MC Ren&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dj-yella" rel="noopener" data-api_path="/artists/7973"&gt;DJ Yella&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Arabian-prince" rel="noopener" data-api_path="/artists/3183"&gt;Arabian Prince&lt;/a&gt; initially formed the collective known as “the world’s most dangerous group,” N.W.A.—Niggaz With Attitudes.&lt;/p&gt;\n\n&lt;p&gt;Following Ice Cube’s stint in &lt;a href="https://genius.com/artists/Cia" rel="noopener" data-api_path="/artists/1064"&gt;C.I.A.&lt;/a&gt; and Dre and Yella’s departure from the &lt;a href="https://genius.com/artists/World-class-wreckin-cru" rel="noopener" data-api_path="/artists/11169"&gt;World Class Wreckin Cru&lt;/a&gt;, they got together with Compton hustler Eric “Eazy-E” Wright, who formed Ruthless Records and released Eazy’s single &lt;a href="https://genius.com/Eazy-e-boyz-n-the-hood-lyrics" rel="noopener" data-api_path="/songs/380408"&gt;“Boyz n the Hood,”&lt;/a&gt; written by Cube and produced by Dre. A compilation entitled &lt;em&gt;N.W.A. and the Posse&lt;/em&gt; was released in 1987 but the group’s seminal debut, &lt;a href="https://genius.com/albums/Nwa/Straight-outta-compton" rel="noopener" data-api_path="/albums/7242"&gt;&lt;em&gt;Straight Outta Compton&lt;/em&gt;&lt;/a&gt;, was released on August 8, 1988. It led to the rise of gangsta rap and West Coast hip-hop in general with their tales of “reality rap” from the streets of Compton and South Central Los Angeles. Their song “Fuck tha Police” even put the group on the hit list of the FBI.&lt;/p&gt;\n\n&lt;p&gt;Arabian Prince was the first to leave the group in 1988 over a financial dispute. Ice Cube left N.W.A. in 1989 after his own financial dispute, leading to the other members to diss him on their subsequent releases: the 1990 EP &lt;a href="https://genius.com/albums/Nwa/100-miles-and-runnin" rel="noopener" data-api_path="/albums/11052"&gt;&lt;em&gt;100 Miles and Runnin\'&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Nwa/Efil4zaggin" rel="noopener" data-api_path="/albums/7232"&gt;&lt;em&gt;EFIL4ZAGGIN&lt;/em&gt;&lt;/a&gt;, which was released in 1991 and peaked at #1 on the Billboard 200 chart. &lt;a href="https://genius.com/artists/The-doc" rel="noopener" data-api_path="/artists/1129"&gt;The D.O.C.&lt;/a&gt;, who contributed to &lt;em&gt;Straight Outta Compton&lt;/em&gt; and was still recovering from a car accident that severly altered his strong voice, wrote more rhymes for Dr. Dre and Eazy-E on the &lt;em&gt;EFIL4ZAGGIN&lt;/em&gt; album in attempt to fill the void left by Cube.&lt;/p&gt;\n\n&lt;p&gt;Following N.W.A.’s jabs, Ice Cube threw the knockout blow to the group with his track &lt;a href="https://genius.com/Ice-cube-no-vaseline-lyrics" rel="noopener" data-api_path="/songs/761"&gt;“No Vaseline,”&lt;/a&gt; which, in part, led to Dr. Dre leaving N.W.A. and Ruthless Records with his own financial dispute similar to Cube’s two years earlier. Dre and The D.O.C. went on to establish Death Row Records with Suge Knight in 1992, where Dre would innovate the G-Funk sound and further establish the success of the West Coast sound in hip-hop.&lt;/p&gt;\n\n&lt;p&gt;After back-and-forth disses between &lt;a href="https://genius.com/Dr-dre-fuck-wit-dre-day-and-everybodys-celebratin-lyrics" rel="noopener" data-api_path="/songs/1398"&gt;Dr. Dre&lt;/a&gt; and &lt;a href="https://genius.com/Eazy-e-real-muthaphuckkin-gs-lyrics" rel="noopener" data-api_path="/songs/902"&gt;Eazy-E&lt;/a&gt;, plans for an N.W.A. reunion were in the discussion stages when Eazy-E died of AIDS in 1995. Ice Cube, Dr. Dre, and MC Ren have since reunited to record the tracks &lt;a href="https://genius.com/Nwa-chin-check-lyrics" rel="noopener" data-api_path="/songs/4833"&gt;“Chin Check”&lt;/a&gt; and &lt;a href="https://genius.com/Ice-cube-hello-lyrics" rel="noopener" data-api_path="/songs/23066"&gt;“Hello.”&lt;/a&gt; In 2015, a biographical drama titled &lt;a href="https://www.imdb.com/title/tt1398426/" rel="noopener nofollow"&gt;&lt;em&gt;Straight Outta Compton&lt;/em&gt;&lt;/a&gt; was released to critical acclaim and a box office gross of over $200 million worldwide. The group was inducted into the Rock and Roll Hall of Fame in 2016.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f7c82b07938f54dd0f3a32ec6349c0be.500x220x1.png" alt="" width="500" height="220" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['Niggaz Wit Attitudes', 'Niggaz With Attitudes', 'Dr. Dre x Ice Cube x Eazy-E x MC Ren x DJ Yella', '(N.W.A.) The D.O.C']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Skid-row', 'annotations': {'description': '&lt;p&gt;Skid Row is a rock band from New Jersey, USA. The band was formed in 1986 by bassist Rachel Bolan and guitarist Dave Sabo. Sabo and Bolan went to the same high school and met at a guitar store where Sabo worked. These two would play in Bolan’s garage and they soon recruited more band members via newspapers ads and performed in local clubs.&lt;/p&gt;\n\n&lt;p&gt;The band then released its debut album titled &lt;a href="https://genius.com/albums/Skid-row/Skid-row" rel="noopener" data-api_path="/albums/28408"&gt;&lt;em&gt;Skid Row&lt;/em&gt;&lt;/a&gt; in 1989 and the album was an immediate success and went 5x platinum. Skid Row’s &lt;a href="https://genius.com/albums/Skid-row/Slave-to-the-grind" rel="noopener" data-api_path="/albums/189045"&gt;second album&lt;/a&gt; went 2x platinum&lt;/p&gt;\n\n&lt;p&gt;Skid Row released a &lt;a href="https://genius.com/albums/Skid-row/Subhuman-race" rel="noopener" data-api_path="/albums/209337"&gt;third album&lt;/a&gt; in 1994 after a one year hiatus. The album charted on the top 40. The rest of Skid Row’s releases were not as successful as the first few.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;Current Members&lt;/strong&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Dave-the-snake-sabo" rel="noopener" data-api_path="/artists/1033447"&gt;Dave “The Snake” Sabo&lt;/a&gt; – Guitar, Backing Vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Rachel-bolan" rel="noopener" data-api_path="/artists/1004507"&gt;Rachel Bolan&lt;/a&gt; – Bass, Backing Vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Scotti-hill" rel="noopener" data-api_path="/artists/2479393"&gt;Scotti Hill&lt;/a&gt; – guitar, Backing Vocals&lt;br&gt;\nRob Hammersmith – Drums, Backing vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Zp-theart" rel="noopener" data-api_path="/artists/1188919"&gt;ZP Theart&lt;/a&gt; – Lead Vocals&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Gwen-stefani', 'annotations': {'description': '&lt;p&gt;Gwen Renée Stefani, known simply as Gwen Stefani, is an American singer and songwriter, born on October 3, 1969 in Fullerton, California. She started her musical career as the lead singer in the American pop-rock band, &lt;a href="https://genius.com/artists/No-doubt" rel="noopener" data-api_path="/artists/24421"&gt;No Doubt&lt;/a&gt;, in the early ‘90s. The band has achieved major success with their 1995 album &lt;a href="https://genius.com/albums/No-doubt/Tragic-kingdom" rel="noopener" data-api_path="/albums/43506"&gt;&lt;em&gt;Tragic Kingdom&lt;/em&gt;&lt;/a&gt;, which spawned the hit singles &lt;a href="https://genius.com/No-doubt-just-a-girl-lyrics" rel="noopener" data-api_path="/songs/210348"&gt;“Just a Girl”&lt;/a&gt; and &lt;a href="https://genius.com/No-doubt-dont-speak-lyrics" rel="noopener" data-api_path="/songs/208107"&gt;“Don’t Speak”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2004, Stefani released her first solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/Love-angel-music-baby" rel="noopener" data-api_path="/albums/6076"&gt;&lt;em&gt;Love. Angel. Music. Baby.&lt;/em&gt;&lt;/a&gt;, which spawned the hit songs &lt;a href="https://genius.com/Gwen-stefani-rich-girl-lyrics" rel="noopener" data-api_path="/songs/32729"&gt;“Rich Girl”&lt;/a&gt;, &lt;a href="https://genius.com/Gwen-stefani-hollaback-girl-lyrics" rel="noopener" data-api_path="/songs/4385"&gt;“Hollaback Girl”&lt;/a&gt;, and &lt;a href="https://genius.com/Gwen-stefani-what-you-waiting-for-lyrics" rel="noopener" data-api_path="/songs/284592"&gt;“What You Waiting For?”&lt;/a&gt;; all three songs went number one on the Billboard Hot 100 chart, and also became the first US music download to sell one million copies.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Stefani released her second solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/The-sweet-escape" rel="noopener" data-api_path="/albums/22036"&gt;&lt;em&gt;The Sweet Escape&lt;/em&gt;&lt;/a&gt;, which spawned singles &lt;a href="https://genius.com/Gwen-stefani-the-sweet-escape-lyrics" rel="noopener" data-api_path="/songs/90487"&gt;“The Sweet Escape”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-wind-it-up-lyrics" rel="noopener" data-api_path="/songs/423090"&gt;“Wind It Up”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2016, she released her third solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/This-is-what-the-truth-feels-like" rel="noopener" data-api_path="/albums/113812"&gt;&lt;em&gt;This Is What the Truth Feels Like&lt;/em&gt;&lt;/a&gt;, which became her first solo number-one album to chart on the Billboard 200. The album had hit songs such as, &lt;a href="https://genius.com/Gwen-stefani-make-me-like-you-lyrics" rel="noopener" data-api_path="/songs/2417511"&gt;“Make Me Like You”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-used-to-love-you-lyrics" rel="noopener" data-api_path="/songs/2332048"&gt;“Used to Love You”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Gwen Renée Stefani Shelton', 'Gwen Renée Stefani']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sabrina-carpenter', 'annotations': {'description': '&lt;p&gt;Philadelphia-born Sabrina Annlynn Carpenter (born May 11, 1999) is an American singer-songwriter and actress. She made her debut as a child actress in Season 12, Episode 12 of &lt;em&gt;Law &amp;amp; Order: Special Victims Unit&lt;/em&gt;. In 2013 and 2014, she lent her voice to Princess Vivian on Disney Junior’s &lt;em&gt;Sofia The First&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2014, Carpenter landed her first major acting role as Maya Hart on Disney’s &lt;em&gt;Girl Meets World&lt;/em&gt;, a spinoff of the hit sitcom &lt;em&gt;Boy Meets World&lt;/em&gt;. The same year, she released her first single, &lt;a href="https://genius.com/Sabrina-carpenter-cant-blame-a-girl-for-trying-lyrics" rel="noopener" data-api_path="/songs/556794"&gt;“Can’t Blame A Girl For Trying”&lt;/a&gt;, which received a Radio Disney Music Award.&lt;/p&gt;\n\n&lt;p&gt;In 2014, after signing with Hollywood Records, she released her debut EP, &lt;a href="https://genius.com/albums/Sabrina-carpenter/Can-t-blame-a-girl-for-trying-ep" rel="noopener" data-api_path="/albums/240834"&gt;&lt;em&gt;Can’t Blame a Girl for Trying&lt;/em&gt;&lt;/a&gt;. In 2015, she released her debut studio album, &lt;a href="https://genius.com/albums/Sabrina-carpenter/eyes-wide-open" rel="noopener" data-api_path="/albums/121108"&gt;&lt;em&gt;Eyes Wide Open&lt;/em&gt;&lt;/a&gt;. In 2016, lead single &lt;a href="https://genius.com/Sabrina-carpenter-on-purpose-lyrics" rel="noopener" data-api_path="/songs/2828724"&gt;&lt;em&gt;On Purpose&lt;/em&gt;&lt;/a&gt; preceded the release of her second studio album &lt;a href="https://genius.com/albums/Sabrina-carpenter/Evolution" rel="noopener" data-api_path="/albums/168270"&gt;&lt;em&gt;EVOLution&lt;/em&gt;&lt;/a&gt;, in which she experimented with a more mature pop sound and elements of dance and tropical house.&lt;/p&gt;\n\n&lt;p&gt;In 2018, the Philly pop star dropped her third album, &lt;a href="https://genius.com/albums/Sabrina-carpenter/Singular-act-i" rel="noopener" data-api_path="/albums/352892"&gt;&lt;em&gt;Singular: Act I&lt;/em&gt;&lt;/a&gt;, followed by &lt;a href="https://genius.com/albums/Sabrina-carpenter/Singular-act-ii" rel="noopener" data-api_path="/albums/509686"&gt;&lt;em&gt;Act II&lt;/em&gt;&lt;/a&gt; a year later.&lt;/p&gt;', 'alternate_names': ['Sabrina Annlynn Carpenter']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bronski-beat', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Oliver-tree', 'annotations': {'description': '&lt;p&gt;Oliver Tree Nickell (Born June 29, 1993) is a vocalist, producer, and prolific scooter rider hailing from Santa Cruz, California. On March 27, 2016, Oliver released a video on Vine, entitled, &lt;a href="https://youtu.be/_hhAd8C4SvY" rel="noopener nofollow"&gt;“I’m Turbo”&lt;/a&gt;, which was the first appearance of his persona, Turbo.&lt;/p&gt;\n\n&lt;p&gt;He released music under the name Tree before “When I’m Down”, his upbeat dance song with collaborator Whethan went viral, leading him to sign with Atlantic Records in 2017.&lt;/p&gt;\n\n&lt;p&gt;The genre-defying &lt;a href="https://genius.com/albums/Oliver-tree/Alien-boy-ep" rel="noopener" data-api_path="/albums/403753"&gt;&lt;i&gt;Alien Boy&lt;/i&gt;&lt;/a&gt; EP, the world’s first glimpse at Oliver’s potential, followed the next year and earned tens of millions of streams. Known for his big-budget music videos and the comedic clips posted on his social media, Oliver joined The Chainsmokers on select dates of their tour and played many festivals while attracting attention to his unique and unorthodox fashion sense.&lt;/p&gt;\n\n&lt;p&gt;The Huffington Post described Oliver as “an enigma of genre. While (Oliver is) primarily a pianist, guitarist, and producer, his real-instruments-based-production incorporates rap, male and female vocal harmonies, poetic lyrics, strings and a hearty dose of synth…”&lt;/p&gt;\n\n&lt;p&gt;Oliver’s debut album, &lt;a href="https://genius.com/albums/Oliver-tree/Ugly-is-beautiful" rel="noopener" data-api_path="/albums/487099"&gt;&lt;i&gt;Ugly is Beautiful&lt;/i&gt;&lt;/a&gt;, released July 17th, to astonishing fanfare, reaching top 3 on the iTunes charts within 24 hours of it being released.&lt;/p&gt;\n\n&lt;p&gt;Oliver followed up the release of Ugly is Beautiful almost a year later with a Deluxe edition of the album that released on May 28th, 2021.&lt;/p&gt;', 'alternate_names': ['Tree', 'Oliver Tree Nickell']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Akon', 'annotations': {'description': '&lt;p&gt;Akon (born Aliaume Akon Thiam), is a Senegalese-American Grammy-nominated and platinum-selling rapper, songwriter, singer and businessman. His trademark is singing the word ‘convict’ at the beginning of most of his songs.&lt;/p&gt;\n\n&lt;p&gt;Akon was born in the US but &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;spent much&lt;/a&gt; of childhood in the West African country Senegal. There, he learned to play five instruments including the djembe, guitar and drums. Early on Akon &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;signed a deal with&lt;/a&gt; Elektra Records, but was later dropped from the label.&lt;/p&gt;\n\n&lt;p&gt;His &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;career took off&lt;/a&gt; when Lil Zane introduced Akon to music executive DeVyne Stephens, who signed him to his label UpFront Records &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;and became his&lt;/a&gt; longtime manager and business partner.&lt;/p&gt;\n\n&lt;p&gt;Akon’s music with Stephens, specifically “Lonely”, caught the attention of SRC Records (under Universal). SRC’s A&amp;amp;R man Jerome Foster and CEO Steve Rifkind flew to Atlanta on a private plane &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;to sign him&lt;/a&gt;. His 2004 debut album &lt;em&gt;Trouble&lt;/em&gt; scored two international smash hits with “Locked Up” and “Lonely”, the latter topping the pop chart &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon&amp;amp;titel=Lonely&amp;amp;cat=s" rel="noopener nofollow"&gt;in seven countries&lt;/a&gt; and reaching the top 5 in seven more including &lt;a href="https://www.billboard.com/music/akon/chart-history" rel="noopener nofollow"&gt;the US&lt;/a&gt; and &lt;a href="http://www.officialcharts.com/artist/14451/akon/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;That year, Akon launched Konvict Music – a record label that would release Akon’s next albums in addition to albums by T-Pain and Sway. In 2005, Akon made two guest appearances during the success of &lt;em&gt;Trouble&lt;/em&gt; that were also successful: the Young Jeezy song “Soul Survivor” which did well in the US and UK, and “Moonshine” with Savage which was a huge hit in Australia and New Zealand.&lt;/p&gt;\n\n&lt;p&gt;His 2006 sophomore album &lt;em&gt;Konvicted&lt;/em&gt; spawned three international chart-toppers: “Smack That” featuring Eminem (top 10 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Eminem&amp;amp;titel=Smack+That&amp;amp;cat=s" rel="noopener nofollow"&gt;in twelve countries&lt;/a&gt;), “I Wanna Love You” featuring Snoop Dogg (top 20 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Snoop+Dogg&amp;amp;titel=I+Wanna+Love+You&amp;amp;cat=s" rel="noopener nofollow"&gt;in ten countries&lt;/a&gt;), and “Don’t Matter” (top 10 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Snoop+Dogg&amp;amp;titel=I+Wanna+Love+You&amp;amp;cat=s" rel="noopener nofollow"&gt;in five countries&lt;/a&gt;). The album was &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=AKON&amp;amp;ti=KONVICTED" rel="noopener nofollow"&gt;certified platinum&lt;/a&gt; within seven weeks, eventually reaching triple platinum a year later. Also that year, he made a guest appearance on the Gwen Stefani song “The Sweet Escape”, a top 10 song &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Gwen+Stefani+feat%2E+Akon&amp;amp;titel=The+Sweet+Escape&amp;amp;cat=s" rel="noopener nofollow"&gt;in twelve countries&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;2007 and 2008 saw Akon make several more guest appearances with various artists, giving him eight more US top 40 hits with scattered international success – the biggest being “Dangerous” with Kardinal Offishal, taken from an album he’d executive-produced.&lt;/p&gt;\n\n&lt;p&gt;Akon’s third album &lt;em&gt;Freedom&lt;/em&gt; was internationally successful in late 2008 with three singles reaching the top 10 in several countries, but it did not equal the success of his previous albums. During this time, Akon also remixed “Wanna Be Startin\' Somethin\'” for the 25th anniversary re-release of Michael Jackson’s &lt;em&gt;Thriller&lt;/em&gt;, &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;launched a clothing line&lt;/a&gt;, and founded KonLive Distribution (the label that signed Lady Gaga and released her first three albums) with Jimmy Iovine.&lt;/p&gt;\n\n&lt;p&gt;Since 2009, Akon has continued to collaborate with several artists, his most successful being the &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=David+Guetta+feat%2E+Akon&amp;amp;titel=Sexy+Bitch&amp;amp;cat=s" rel="noopener nofollow"&gt;international chart topper&lt;/a&gt; “Sexy Bitch” with David Guetta. His other work includes being one-third of the rap supergroup Flipsyde, heavy involvement in “We Are the World 25 for Haiti”, and co-writing for artists like NKOTB and Whitney Houston.&lt;/p&gt;\n\n&lt;p&gt;Outside of music, Akon has appeared in the films &lt;em&gt;Black November&lt;/em&gt; and &lt;em&gt;American Heist&lt;/em&gt; and founded &lt;a href="http://akonlightingafrica.com/our-activities/overview/" rel="noopener nofollow"&gt;Akon Lighting Africa&lt;/a&gt;, an effort to provide electricity via solar energy to African villages without power. His fourth album, a five-part concept album tentatively titled &lt;em&gt;Stadium&lt;/em&gt;, was in the works in 2010, but aside from &lt;a href="https://www.billboard.com/articles/news/6429405/akon-new-album-stadium" rel="noopener nofollow"&gt;teasing random singles&lt;/a&gt; like “To Each His Own”, “Whole Lot” and “Just A Man”, the full project did not materialize. Instead, Akon released two albums in 2019 and a mixtape in 2020.&lt;/p&gt;', 'alternate_names': ['Aliune Akon Thiam', 'Aliaune Damala Badara Akon Thiam', 'Aliaune Thiam']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Joss-stone', 'annotations': {'description': '&lt;p&gt;Joscelyn Eve Stoker (born 11 April 1987), better known by her stage name Joss Stone, is an English singer, songwriter and actress. She rose to fame in late 2003 with her multi-platinum debut album, The Soul Sessions, which made the 2004 Mercury Prize shortlist. Her second album, the similarly multi-platinum Mind Body &amp;amp; Soul (2004), topped the UK Albums Chart for one week and spawned the top ten hit “You Had Me”, Stone’s most successful single on the UK Singles Chart to date. Both the album and single received one nomination at the 2005 Grammy Awards, while Stone herself was nominated for Best New Artist, and in an annual BBC poll of music critics, Sound of 2004, was ranked fifth as a predicted breakthrough act of 2004. She became the youngest British female singer to top the UK Albums Chart. Stone’s third album, Introducing Joss Stone, released in March 2007, achieved gold record status by the RIAA and yielded the second-ever highest debut for a British female solo artist on the Billboard 200, and became Stone’s first top five album in the US.&lt;/p&gt;\n\n&lt;p&gt;She released her fourth album, Colour Me Free!, on 20 October 2009, which reached the top 10 on Billboard. Stone released her fifth album, LP1, on 22 July 2011, which reached the top 10 on Billboard. Throughout her career, Stone has sold 14 million records worldwide, establishing herself as one of the best-selling soul artists of the 2000s, and the best-selling British artists of her time. Her first three albums have sold over 2,722,000 copies in the US, while her first two albums have sold over 2 million copies in the UK.&lt;/p&gt;\n\n&lt;p&gt;Stone has earned numerous accolades, including two Brit Awards and one Grammy Award out of five nominations. She also made her film acting debut in 2006 with the fantasy adventure film Eragon, and made her television debut portraying Anne of Cleves in the Showtime series The Tudors in 2009. Stone was the youngest woman on the 2006 Sunday Times Rich List—an annual list of the UK’s wealthiest people—with £6 million. In 2012, her net worth was estimated to be £10 million, making her the fifth richest British musician under 30. The Soul Sessions Vol. 2 (2012) is her fourth consecutive album to reach the top 10 on the Billboard 200.&lt;/p&gt;', 'alternate_names': ['Joscelyn Stoker', 'Joscelyn Eve Stoker']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Psy', 'annotations': {'description': '&lt;p&gt;Park Jae-sang, better known by his stage name Psy, stylized PSY, is a South Korean singer, songwriter, rapper, dancer, record producer and television personality.&lt;/p&gt;\n\n&lt;p&gt;His earlier efforts showcased his comedic stylings within the Korean music world, but none matched that off 2012’s &lt;a href="https://genius.com/Psy-gangnam-style-lyrics" rel="noopener" data-api_path="/songs/88368"&gt;“Gangnam Style”&lt;/a&gt;, which would eventually hit more than 4 billion views on YouTube. In 2013, he was also made the official South Korean &lt;a href="https://web.archive.org/web/20200810111413/http://travel.cnn.com/psy-named-korea-tourism-ambassador-877941/" rel="noopener nofollow"&gt;tourism ambassador&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Psy also founded the South Korean label &lt;a href="https://genius.com/artists/P-nation" rel="noopener" data-api_path="/artists/160396"&gt;P-Nation&lt;/a&gt; with artists such as &lt;a href="https://genius.com/artists/Crush" rel="noopener" data-api_path="/artists/51935"&gt;Crush&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jessi" rel="noopener" data-api_path="/artists/672794"&gt;Jessi&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dawn-korea-rapper" rel="noopener" data-api_path="/artists/1469207"&gt;Dawn&lt;/a&gt;, &lt;a href="https://genius.com/artists/Hyuna" rel="noopener" data-api_path="/artists/27893"&gt;HyunA&lt;/a&gt;, and himself.&lt;/p&gt;', 'alternate_names': ['Park Jae-Sang (박재상)']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-j-geils-band', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Evanescence', 'annotations': {'description': '&lt;p&gt;Evanescence is an American rock band founded in Little Rock, Arkansas in 1995 by singer/pianist Amy Lee and guitarist Ben Moody. Evanescence was originally promoted in Christian stores. Later, the band made it clear they did not want to be considered part of the Christian rock genre, like fellow Wind-up Records artists Creed. Some of their most popular hits include: “&lt;a href="https://genius.com/Evanescence-bring-me-to-life-lyrics" rel="noopener" data-api_path="/songs/67202"&gt;Bring Me to Life&lt;/a&gt;,” “&lt;a href="https://genius.com/Evanescence-my-immortal-lyrics" rel="noopener" data-api_path="/songs/113158"&gt;My Immortal&lt;/a&gt;,” and “&lt;a href="https://genius.com/Evanescence-what-you-want-lyrics" rel="noopener" data-api_path="/songs/218592"&gt;What You Want&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;In 2014, the band &lt;a href="https://twitter.com/AmyLeeEV/status/446110328418349056" rel="noopener nofollow"&gt;parted ways&lt;/a&gt; with their long-term record label Wind-Up and became independent artists. In late 2016, they released a &lt;em&gt;Ultimate Collection&lt;/em&gt; box set featuring all their albums along with the 2000 demo album &lt;a href="https://genius.com/albums/Evanescence/Origin" rel="noopener" data-api_path="/albums/45335"&gt;&lt;em&gt;Origin&lt;/em&gt;&lt;/a&gt; and a B-sides compilation &lt;a href="https://genius.com/albums/Evanescence/Lost-whispers" rel="noopener" data-api_path="/albums/332896"&gt;&lt;em&gt;Lost Whispers&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In November 2017, they released their fourth album, &lt;a href="https://genius.com/albums/Evanescence/Synthesis" rel="noopener" data-api_path="/albums/363298"&gt;&lt;em&gt;Synthesis&lt;/em&gt;&lt;/a&gt;, featuring a reimagining of some of their past songs plus two new original songs with the spotlight on full orchestra and electronics.&lt;/p&gt;\n\n&lt;p&gt;Their fifth album, &lt;a href="https://genius.com/albums/Evanescence/The-bitter-truth" rel="noopener" data-api_path="/albums/624604"&gt;&lt;em&gt;The Bitter Truth&lt;/em&gt;&lt;/a&gt;, was released in March 2021.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bring-me-the-horizon', 'annotations': {'description': '&lt;p&gt;Bring Me The Horizon are a British &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock&lt;/a&gt; band from Sheffield, Yorkshire—often stylised as simply “BMTH” or shortened to “Bring Me.” Formed in 2003, the group currently consists of lead vocalist &lt;a href="https://genius.com/artists/Oliver-sykes" rel="noopener" data-api_path="/artists/1007693"&gt;Oliver “Oli” Sykes,&lt;/a&gt; lead guitarist &lt;a href="https://genius.com/artists/Lee-malia" rel="noopener" data-api_path="/artists/1007694"&gt;Lee Malia,&lt;/a&gt; bassist &lt;a href="https://genius.com/artists/Matt-kean" rel="noopener" data-api_path="/artists/1094009"&gt;Matt Kean,&lt;/a&gt; drummer &lt;a href="https://genius.com/artists/Matt-nicholls" rel="noopener" data-api_path="/artists/1094010"&gt;Matt Nicholls,&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Jordan-fish" rel="noopener" data-api_path="/artists/566546"&gt;Jordan Fish.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/c642295d139a03e53746037448f49329.1000x563x1.jpg" alt="" width="1000" height="563" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The name of the band was taken from &lt;a href="https://www.imdb.com/title/tt0325980/characters/nm0000136" rel="noopener nofollow"&gt;Captain Jack Sparrow’s&lt;/a&gt; line in the first &lt;a href="https://www.imdb.com/title/tt0325980/" rel="noopener nofollow"&gt;&lt;em&gt;Pirates of the Caribbean&lt;/em&gt;&lt;/a&gt; which he says: &lt;a href="https://youtu.be/eZ69WdGN9Ys?t=18" rel="noopener nofollow"&gt;“Bring me that horizon.”&lt;/a&gt; Oli stated in an &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names" rel="noopener nofollow"&gt;interview with &lt;em&gt;Spin&lt;/em&gt;&lt;/a&gt; how the name connects with his vision of the band:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Right at the end of the film—it might even be the very last line—&lt;a href="https://www.imdb.com/name/nm0000136/" rel="noopener nofollow"&gt;Johnny Depp&lt;/a&gt; says, “Bring me that horizon.” That was really inspiring. I was still living with my parents in Sheffield, England, when the movie came out [in 2003]. For me and the band, playing music was always wrapped up with the idea of touring and traveling and seeing the rest of England and the rest of the world. We never thought doing that was possible, but that’s what we wanted to do. So that quote sort of stands in for our feeling of wanting to see what the planet had to offer.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/a3eb78e16fb419fb99e064b798c430da.500x210x14.gif" alt="" width="500" height="210" data-animated="true"&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;BMTH’s sound has changed dramatically over the years. In their original incarnation, they were known for fast blast beats and &lt;a href="https://genius.com/tags/deathcore" rel="noopener"&gt;deathcore&lt;/a&gt; influences. With the official addition of Jordan Fish on 2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;,&lt;/a&gt; the group has steered towards a more stadium-friendly &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock&lt;/a&gt; sound. This was a conscious decision for the band to embrace melody and reach a wider audience.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.independent.co.uk/arts-entertainment/music/oli-sykes-interview-bring-me-the-horizon-tour-o2-arena-royal-albert-hall-a7388161.html" rel="noopener nofollow"&gt;Oli explained the shift&lt;/a&gt; as due to maturing in age and shifting interests, as well as a desire to take the band further than ever before:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We were just a metal band at one point. We were doing alright and playing some shows and now… now we’re one of the biggest heavy rock bands in the world. We want more now. It’s no longer just a fantasy; people know who we are. This can go as far as we want it to go. The only limit is us.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Two years after &lt;em&gt;Sempiternal&lt;/em&gt;, &lt;a href="https://genius.com/albums/Bring-me-the-horizon/That-s-the-spirit" rel="noopener" data-api_path="/albums/127993"&gt;&lt;em&gt;That’s The Spirit&lt;/em&gt;&lt;/a&gt; was released with even more approach to &lt;a href="https://genius.com/tags/alternative-rock" rel="noopener"&gt;alternative rock,&lt;/a&gt; becoming the band’s best selling album to date, with hits like &lt;a href="https://genius.com/Bring-me-the-horizon-drown-lyrics" rel="noopener" data-api_path="/songs/548384"&gt;“Drown,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-happy-song-lyrics" rel="noopener" data-api_path="/songs/2174634"&gt;“Happy Song,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-throne-lyrics" rel="noopener" data-api_path="/songs/2261403"&gt;“Throne”&lt;/a&gt; and &lt;a href="https://genius.com/Bring-me-the-horizon-follow-you-lyrics" rel="noopener" data-api_path="/songs/2291901"&gt;“Follow You.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On January 25th, 2019, their sixth studio album &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Amo" rel="noopener" data-api_path="/albums/415250"&gt;&lt;em&gt;amo&lt;/em&gt;&lt;/a&gt; was released. The record is very experimental and mixes pop and electronic elements, inspired also by &lt;a href="https://genius.com/tags/trap" rel="noopener"&gt;trap music&lt;/a&gt; on &lt;a href="https://genius.com/Bring-me-the-horizon-why-you-gotta-kick-me-when-im-down-lyrics" rel="noopener" data-api_path="/songs/4034879"&gt;“why you gotta kick me when i’m down.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;During 2020 COVID-19 pandemic, Bring Me started teasing videos of music prodution. At October 30, &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Post-human-survival-horror" rel="noopener" data-api_path="/albums/614710"&gt;&lt;em&gt;POST HUMAN: SURVIVAL HORROR&lt;/em&gt;&lt;/a&gt; was released as a callback to the band’s old style. It features four singles, &lt;a href="https://genius.com/Bring-me-the-horizon-ludens-lyrics" rel="noopener" data-api_path="/songs/4912244"&gt;“Ludens,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-parasite-eve-lyrics" rel="noopener" data-api_path="/songs/5405239"&gt;“Parasite Eve,”&lt;/a&gt; &lt;a href="https://genius.com/Bring-me-the-horizon-obey-lyrics" rel="noopener" data-api_path="/songs/5904555"&gt;“Obey”&lt;/a&gt; and &lt;a href="https://genius.com/Bring-me-the-horizon-teardrops-lyrics" rel="noopener" data-api_path="/songs/6058777"&gt;“Teardrops.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;The band’s logo is called “Antivist Symbol” and it’s  an &lt;a href="https://en.wikipedia.org/wiki/Unicursal_hexagram" rel="noopener nofollow"&gt;unicursal hexagram,&lt;/a&gt; used since 2013’s &lt;a href="https://genius.com/albums/Bring-me-the-horizon/Sempiternal" rel="noopener" data-api_path="/albums/29438"&gt;&lt;em&gt;Sempiternal&lt;/em&gt;&lt;/a&gt; release, because of the song &lt;a href="https://genius.com/Bring-me-the-horizon-antivist-lyrics" rel="noopener" data-api_path="/songs/124028"&gt;“Antivist.”&lt;/a&gt; In Aleister Crowley’s &lt;a href="https://en.wikipedia.org/wiki/Thelema" rel="noopener nofollow"&gt;Thelema,&lt;/a&gt; it means that everybody has one true goal in life.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/151384cf60ce8791a1e2c06ad36d2e5a.878x1000x1.png" alt="" width="878" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(First version)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/5fbd85da18e95ecf67085e285dac11bc.400x400x1.jpg" alt="" width="400" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(Actual version)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;h3&gt;Current Lineup:&lt;/h3&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Oliver-sykes" rel="noopener" data-api_path="/artists/1007693"&gt;Oliver “Oli” Sykes:&lt;/a&gt; lead vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jordan-fish" rel="noopener" data-api_path="/artists/566546"&gt;Jordan Fish:&lt;/a&gt; electronics, percussion, vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Lee-malia" rel="noopener" data-api_path="/artists/1007694"&gt;Lee Malia:&lt;/a&gt; lead guitar&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-kean" rel="noopener" data-api_path="/artists/1094009"&gt;Matt Kean:&lt;/a&gt; bass&lt;br&gt;\n&lt;a href="https://genius.com/artists/Matt-nicholls" rel="noopener" data-api_path="/artists/1094010"&gt;Matt Nicholls:&lt;/a&gt; drums&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/6613c20b24031bece922ae1e86da30cf.800x450x1.jpg" alt="" width="800" height="450" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(BMTH’s current lineup)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;', 'alternate_names': ['BMTH']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rise-against', 'annotations': {'description': '&lt;p&gt;Rise Against is an American punk rock band from Chicago, Illinois, formed in December 1999. The band currently consists of &lt;a href="https://genius.com/artists/Tim-mcilrath" rel="noopener" data-api_path="/artists/2421"&gt;Tim McIlrath&lt;/a&gt; (lead vocals, rhythm guitar), &lt;a href="https://genius.com/artists/Zach-blair" rel="noopener" data-api_path="/artists/1232435"&gt;Zach Blair&lt;/a&gt; (lead guitar, backing vocals), &lt;a href="https://genius.com/artists/Joe-principe" rel="noopener" data-api_path="/artists/1033459"&gt;Joe Principe&lt;/a&gt; (bass guitar, backing vocals) and &lt;a href="https://genius.com/artists/Brandon-barnes" rel="noopener" data-api_path="/artists/205662"&gt;Brandon Barnes&lt;/a&gt; (drums, percussion).&lt;/p&gt;\n\n&lt;p&gt;The band is known for its advocacy of progressive organizations such as Amnesty International and It Gets Better Project. The band actively promotes animal rights and all members are straight edge (excluding Barnes), PETA supporters, and vegetarians.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Metallica', 'annotations': {'description': '&lt;p&gt;Like &lt;a href="https://genius.com/artists/Black-sabbath" rel="noopener" data-api_path="/artists/1121"&gt;Black Sabbath&lt;/a&gt; and &lt;a href="https://genius.com/artists/Iron-maiden" rel="noopener" data-api_path="/artists/22163"&gt;Iron Maiden&lt;/a&gt; before, Metallica has managed to transcend the genre from which it originated. To their metal fanbase they are considered one of the &lt;a href="https://genius.com/discussions/169443-Rank-the-big-four" rel="noopener"&gt;Big Four&lt;/a&gt; bands of thrash metal, alongside &lt;a href="https://genius.com/artists/Megadeth" rel="noopener" data-api_path="/artists/19444"&gt;Megadeth&lt;/a&gt;, &lt;a href="https://genius.com/artists/Anthrax" rel="noopener" data-api_path="/artists/11082"&gt;Anthrax&lt;/a&gt; and &lt;a href="https://genius.com/artists/Slayer" rel="noopener" data-api_path="/artists/6596"&gt;Slayer&lt;/a&gt;; however Metallica is also one of the most commercially successful bands in all of rock music, having sold 110 million records, including the 16x platinum &lt;a href="https://genius.com/albums/Metallica/Metallica" rel="noopener" data-api_path="/albums/10852"&gt;&lt;em&gt;Metallica&lt;/em&gt;&lt;/a&gt;, which stands as both the highest selling metal album of all time and one of the &lt;a href="http://www.metalinjection.net/its-just-business/record-sales/metallicas-black-album-sells-16-million-copies-becomes-highest-selling-album-of-the-last-23-years" rel="noopener nofollow"&gt;most successful albums of the modern age&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Metallica was formed in 1981 in Los Angeles, after drummer &lt;a href="https://genius.com/artists/Lars-ulrich" rel="noopener" data-api_path="/artists/63062"&gt;Lars Ulrich&lt;/a&gt; placed an ad in the classifieds which was answered by singer/rhythm guitarist &lt;a href="https://genius.com/artists/James-hetfield" rel="noopener" data-api_path="/artists/63061"&gt;James Hetfield&lt;/a&gt;. They were soon joined by lead guitarist &lt;a href="https://genius.com/artists/Dave-mustaine" rel="noopener" data-api_path="/artists/124416"&gt;Dave Mustaine&lt;/a&gt;, who later formed &lt;a href="https://genius.com/artists/Megadeth" rel="noopener" data-api_path="/artists/19444"&gt;Megadeth&lt;/a&gt; after &lt;a href="http://loudwire.com/dave-mustaine-fired-from-metallica-anniversary/" rel="noopener nofollow"&gt;being kicked out of the band&lt;/a&gt; due to substance abuse, and bassist &lt;a href="https://genius.com/artists/Ron-mcgovney" rel="noopener" data-api_path="/artists/626422"&gt;Ron McGovney&lt;/a&gt;, a childhood friend of Hetfield. These two early members were replaced with &lt;a href="https://genius.com/artists/Cliff-burton" rel="noopener" data-api_path="/artists/575963"&gt;Cliff Burton&lt;/a&gt;—who relocated the band to San Francisco—and ex-&lt;a href="https://genius.com/artists/Exodus" rel="noopener" data-api_path="/artists/66511"&gt;Exodus&lt;/a&gt; lead guitarist, &lt;a href="https://genius.com/artists/Kirk-hammett" rel="noopener" data-api_path="/artists/31938"&gt;Kirk Hammett&lt;/a&gt;, to form the band’s classic line-up.&lt;/p&gt;\n\n&lt;p&gt;They released three albums, 1983’s &lt;a href="https://genius.com/albums/Metallica/Kill-em-all" rel="noopener" data-api_path="/albums/15114"&gt;&lt;em&gt;Kill ‘Em All&lt;/em&gt;&lt;/a&gt;, 1984’s &lt;a href="https://genius.com/albums/Metallica/Ride-the-lightning" rel="noopener" data-api_path="/albums/11990"&gt;&lt;em&gt;Ride The Lightning&lt;/em&gt;&lt;/a&gt; and 1986’s &lt;a href="https://genius.com/albums/Metallica/Master-of-puppets" rel="noopener" data-api_path="/albums/13102"&gt;&lt;em&gt;Master of Puppets&lt;/em&gt;&lt;/a&gt;, before &lt;a href="http://ultimateclassicrock.com/metallica-bassist-cliff-burton-dies-in-a-bus-accident/" rel="noopener nofollow"&gt;the tragic and untimely death of Cliff Burton&lt;/a&gt; on September 27, 1986.&lt;/p&gt;\n\n&lt;p&gt;The band chose to go on and, after lengthy auditions, selected &lt;a href="https://genius.com/artists/Flotsam-and-jetsam" rel="noopener" data-api_path="/artists/352109"&gt;Flotsam And Jetsam&lt;/a&gt; bassist &lt;a href="https://genius.com/artists/Jason-newsted" rel="noopener" data-api_path="/artists/548794"&gt;Jason Newsted&lt;/a&gt;. They produced 1988’s Grammy nominated &lt;a href="https://genius.com/albums/Metallica/And-justice-for-all" rel="noopener" data-api_path="/albums/20959"&gt;&lt;em&gt;…And Justice For All&lt;/em&gt;&lt;/a&gt;, which included the 1989 Grammy winning single &lt;a href="https://genius.com/Metallica-one-lyrics" rel="noopener" data-api_path="/songs/86916"&gt;“One.”&lt;/a&gt; The bleak and overtly complex nature of the album inspired the band to seek a stylistic change. With &lt;a href="https://genius.com/artists/Motley-crue" rel="noopener" data-api_path="/artists/34312"&gt;Mötley Crüe&lt;/a&gt; producer &lt;a href="https://genius.com/artists/Bob-rock" rel="noopener" data-api_path="/artists/34423"&gt;Bob Rock&lt;/a&gt;, Metallica recorded the more mainstream sounding self-titled fifth album, &lt;a href="https://genius.com/albums/Metallica/Metallica" rel="noopener" data-api_path="/albums/10852"&gt;&lt;em&gt;Metallica&lt;/em&gt;&lt;/a&gt;. Released in 1991 and featuring various successful singles, the so-called “Black Album” launched them to commercial success as stadium rock staples.&lt;/p&gt;\n\n&lt;p&gt;The rest of the 1990s saw Metallica releasing more blues-influenced hard rock with 1996’s &lt;a href="https://genius.com/albums/Metallica/Load" rel="noopener" data-api_path="/albums/41512"&gt;&lt;em&gt;Load&lt;/em&gt;&lt;/a&gt; and its companion album, 1997’s &lt;a href="https://genius.com/albums/Metallica/Reload" rel="noopener" data-api_path="/albums/40839"&gt;&lt;em&gt;Reload&lt;/em&gt;&lt;/a&gt;.  While the band’s creative output during this period was markedly different from their earlier metal roots, they continued to sell out stadiums, top charts, and push the boundaries of rock music; both &lt;em&gt;Load&lt;/em&gt; and &lt;em&gt;Reload&lt;/em&gt; debuted at number one on the US Billboard charts, while the 1999 live album, &lt;a href="https://genius.com/albums/Metallica/sm" rel="noopener"&gt;&lt;em&gt;S&amp;amp;M&lt;/em&gt;&lt;/a&gt;, featured the San Francisco Symphony orchestra in a daring cross-genre move.&lt;/p&gt;\n\n&lt;p&gt;This era was not all positive; Lars Ulrich found himself at the center of a &lt;a href="http://archive.wired.com/politics/law/news/2000/04/35670" rel="noopener nofollow"&gt;war with file-sharing network Napster&lt;/a&gt; and was later &lt;a href="http://www.blabbermouth.net/news/metallica-s-lars-ulrich-discusses-breakdown-on-plane/" rel="noopener nofollow"&gt;hospitalized following anxiety attacks&lt;/a&gt; while on tour. James Hetfield also checked into &lt;a href="http://www.mtv.com/news/1452494/metallicas-james-hetfield-calls-rehab-challenging-gratifying/" rel="noopener nofollow"&gt;rehab to deal with alcohol abuse&lt;/a&gt;. After an infamous &lt;a href="https://web.archive.org/web/20090404205425/http://www.playboy.com:80/articles/metallica-interview/index.html" rel="noopener nofollow"&gt;&lt;em&gt;Playboy&lt;/em&gt; magazine interview&lt;/a&gt; in 2001, Jason Newsted left the band; Bob Rock covered bass duties during the recording sessions for 2003’s &lt;a href="https://genius.com/albums/Metallica/St-anger" rel="noopener" data-api_path="/albums/19563"&gt;&lt;em&gt;St. Anger&lt;/em&gt;&lt;/a&gt;. With lyrics conveying the band’s angst—as documented in the 2004 documentary &lt;em&gt;Some Kind of Monster&lt;/em&gt;—and a controversial sound change featuring no solos and poor drum audio, &lt;em&gt;St. Anger&lt;/em&gt; achieved commercial success, but was widely criticized by reviewers and fans. For the tour, the bassist role was eventually filled by &lt;a href="https://genius.com/artists/Robert-trujillo" rel="noopener" data-api_path="/artists/69277"&gt;Robert Trujillo&lt;/a&gt;, formerly of &lt;a href="https://genius.com/artists/Suicidal-tendencies" rel="noopener" data-api_path="/artists/26232"&gt;Suicidal Tendencies&lt;/a&gt;, &lt;a href="https://genius.com/artists/Infectious-grooves" rel="noopener" data-api_path="/artists/355167"&gt;Infectious Grooves&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ozzy-osbourne" rel="noopener" data-api_path="/artists/3347"&gt;Ozzy Osbourne&lt;/a&gt;’s band; with the latter taking Newsted as his bassist.&lt;/p&gt;\n\n&lt;p&gt;In the aftermath of &lt;em&gt;St. Anger&lt;/em&gt;, as well as a resurgence in the popularity of metal, the band decided to return to their earlier roots and in 2008 released their ninth studio album, the &lt;a href="https://genius.com/artists/Rick-rubin" rel="noopener" data-api_path="/artists/27794"&gt;Rick Rubin&lt;/a&gt;-produced &lt;a href="https://genius.com/albums/Metallica/Death-magnetic" rel="noopener" data-api_path="/albums/40083"&gt;&lt;em&gt;Death Magnetic&lt;/em&gt;&lt;/a&gt;. The album was critically appraised and again debuted at #1 on the US Billboard chart, making them the first band to have five consecutive debuts at that position.&lt;/p&gt;\n\n&lt;p&gt;On April 4, 2009, Metallica was &lt;a href="https://m.youtube.com/watch?v=YKxvJGKhlhk" rel="noopener nofollow"&gt;inducted&lt;/a&gt; into the Rock &amp;amp; Roll Hall of Fame.&lt;/p&gt;\n\n&lt;p&gt;Their tenth album, &lt;a href="https://genius.com/albums/Metallica/Hardwired-to-self-destruct" rel="noopener" data-api_path="/albums/164160"&gt;&lt;em&gt;Hardwired… To Self-Destruct&lt;/em&gt;&lt;/a&gt;, was released on November 18, 2016. It received good reviews and topped the Billboard 200, making them one of four artists with six #1 debuts—the second group after the &lt;a href="https://genius.com/artists/Dave-matthews-band" rel="noopener" data-api_path="/artists/18451"&gt;Dave Matthews Band&lt;/a&gt;; the overall record is seven by &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;LINEUP:&lt;br&gt;\n&lt;a href="https://genius.com/artists/James-hetfield" rel="noopener" data-api_path="/artists/63061"&gt;James Hetfield&lt;/a&gt;: Vocals, Guitars (1981 – date)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Kirk-hammett" rel="noopener" data-api_path="/artists/31938"&gt;Kirk Hammett&lt;/a&gt;: Guitars (1983 – date)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Robert-trujillo" rel="noopener" data-api_path="/artists/69277"&gt;Robert Trujillo&lt;/a&gt;: Bass guitar (2003 – date)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Lars-ulrich" rel="noopener" data-api_path="/artists/63062"&gt;Lars Ulrich&lt;/a&gt;: Drums (1981 – date)&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Ron-mcgovney" rel="noopener" data-api_path="/artists/626422"&gt;Ron McGovney&lt;/a&gt;: Bass guitar (1982)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Cliff-burton" rel="noopener" data-api_path="/artists/575963"&gt;Cliff Burton&lt;/a&gt;: Bass guitar (1982 – 1986)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-newsted" rel="noopener" data-api_path="/artists/548794"&gt;Jason Newsted&lt;/a&gt;: Bass guitar (1986 – 2001)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dave-mustaine" rel="noopener" data-api_path="/artists/124416"&gt;Dave Mustaine&lt;/a&gt;: Lead guitar (1982–1983)&lt;br&gt;\n(plus &lt;a href="https://genius.com/artists/Bob-rock" rel="noopener" data-api_path="/artists/34423"&gt;Bob Rock&lt;/a&gt; as an interim bassist following Jason’s departure)&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Papa-roach', 'annotations': {'description': '&lt;p&gt;Papa Roach is an American rock band  from Vacaville, California. Formed in 1993, they would release two EPs (&lt;em&gt;Potatoes for Christmas&lt;/em&gt; and &lt;em&gt;Caca Bonita&lt;/em&gt;) and a self-produced album (&lt;a href="https://genius.com/albums/Papa-roach/Old-friends-from-young-years" rel="noopener" data-api_path="/albums/76384"&gt;&lt;em&gt;Old Friends from Young Years&lt;/em&gt;&lt;/a&gt;) before getting signed to a major label. Their first major-label release was the triple-platinum album &lt;a href="https://genius.com/albums/Papa-roach/Infest" rel="noopener" data-api_path="/albums/36538"&gt;&lt;em&gt;Infest&lt;/em&gt;&lt;/a&gt; in 2000.&lt;/p&gt;\n\n&lt;p&gt;Papa Roach has sold more than 20 million album copies worldwide and are known for their songs “Last Resort”, &lt;a href="https://genius.com/Papa-roach-last-resort-lyrics" rel="noopener" data-api_path="/songs/170534"&gt;&lt;em&gt;Between Angels and Insects&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Papa-roach-she-loves-me-not-lyrics" rel="noopener" data-api_path="/songs/338428"&gt;&lt;em&gt;She Loves Me Not&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Papa-roach-scars-lyrics" rel="noopener" data-api_path="/songs/67321"&gt;&lt;em&gt;Scars&lt;/em&gt;&lt;/a&gt;, and “ &lt;a href="https://genius.com/Papa-roach-born-for-greatness-lyrics" rel="noopener" data-api_path="/songs/3040558"&gt;&lt;em&gt;Born for Greatness&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Skillet', 'annotations': {'description': '&lt;p&gt;Skillet is a heavy rock band from Memphis, TN that has been a voice in both the mainstream and Christian music industries. The band has been led by John Cooper since the band’s start in 1996. Later on in 2000, the year the band’s third album &lt;em&gt;Invincible&lt;/em&gt; came out, Cooper’s wife Korey joined the band as rhythm guitarist and pianist.&lt;/p&gt;\n\n&lt;p&gt;The band started gaining mainstream attention when moving from Ardent Records to Atlantic Records in 2003. The band’s first breakthrough album, &lt;em&gt;Comatose&lt;/em&gt;, making it to No. 55 on the Billboard 200 and certified Gold by the RIAA. Skillet continued to rise up on the charts with their 8&lt;sup&gt;th&lt;/sup&gt; studio album, &lt;em&gt;Awake&lt;/em&gt;, charting at No. 2 on the Billboard 200. The album featured a new addition to the band, Jen Ledger, who provided both drums and vocals.&lt;/p&gt;\n\n&lt;p&gt;Since then, Skillet has continued to see mainstream success with their 9&lt;sup&gt;th&lt;/sup&gt; studio album, &lt;em&gt;Unleashed&lt;/em&gt;, with their lead single “Feel Invincible” becoming one of the theme songs for WWE’s Battleground (2016).&lt;/p&gt;\n\n&lt;p&gt;In 2018, both Jen Ledger and John Cooper released their own side projects &lt;a href="https://genius.com/artists/ledger" rel="noopener" data-api_path="/artists/656529"&gt;LEDGER&lt;/a&gt; and &lt;a href="https://genius.com/artists/fight-the-fury" rel="noopener" data-api_path="/artists/1582744"&gt;Fight the Fury&lt;/a&gt;, respectively. The intention behind the projects was not to disband Skillet, but instead to explore each artist’s own creative sides.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Theory', 'annotations': {'description': '&lt;p&gt;Theory is a Canadian rock band formed in Delta, British Columbia, in 2001.&lt;/p&gt;\n\n&lt;p&gt;Originally named Theory of a Deadman, their name comes from their song &lt;a href="https://genius.com/Theory-of-a-deadman-the-last-song-lyrics" rel="noopener" data-api_path="/songs/517134"&gt;“The Last Song”&lt;/a&gt; (Originally titled “Theory of a Deadman”) which describes a man about to commit suicide.&lt;/p&gt;\n\n&lt;p&gt;In 2008, they released their third album &lt;a href="https://genius.com/albums/Theory-of-a-deadman/Scars-and-souvenirs" rel="noopener" data-api_path="/albums/20339"&gt;&lt;em&gt;Scars &amp;amp; Souvenirs&lt;/em&gt;&lt;/a&gt;, which features vocals from &lt;a href="https://genius.com/artists/Chris-daughtry" rel="noopener" data-api_path="/artists/152338"&gt;Chris Daughtry&lt;/a&gt; and &lt;a href="https://genius.com/artists/Robin-diaz" rel="noopener" data-api_path="/artists/648354"&gt;Robin Diaz&lt;/a&gt;. The album was certified &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=THEORY+OF+A+DEADMAN&amp;amp;ti=SCARS+%26amp%3B+SOUVENIRS" rel="noopener nofollow"&gt;platinum&lt;/a&gt; in 2011. The album’s singles &lt;a href="https://genius.com/Theory-of-a-deadman-bad-girlfriend-lyrics" rel="noopener" data-api_path="/songs/245138"&gt;“Bad Girlfriend”&lt;/a&gt;, &lt;a href="https://genius.com/Theory-of-a-deadman-all-or-nothing-lyrics" rel="noopener" data-api_path="/songs/516566"&gt;“All or Nothing”&lt;/a&gt;, and &lt;a href="https://genius.com/Theory-of-a-deadman-all-or-nothing-lyrics" rel="noopener" data-api_path="/songs/516566"&gt;“Not Meant to Be”&lt;/a&gt; all made their way onto the &lt;a href="https://www.billboard.com/music/theory-of-a-deadman/chart-history" rel="noopener nofollow"&gt;Billboard Hot 100 Chart&lt;/a&gt;. The band shortened their name to Theory in 2017.&lt;/p&gt;\n\n&lt;p&gt;They’ve been nominated for a handful of &lt;a href="https://junoawards.ca/" rel="noopener nofollow"&gt;Juno Awards&lt;/a&gt; and have won the ‘New Group of the Year’ award in 2003.&lt;/p&gt;', 'alternate_names': ['Theory of a Deadman']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Thousand-foot-krutch', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/3962028e132c86f93fa8c9f6dca791c8.225x94x1.png" alt="" width="225" height="94" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Thousand Foot Krutch is a Canadian Christian rock band formed in 1995. Thousand Foot Krutch’s music has always been enveloped with heat and energy. The interplay between the pulsing bass, courtesy of Joel Bruyere, and pounding drums of Steve Augustine are the backbone over which Trevor spits out some of the most rapid fire and melodic lyrics in rock and roll. While musically “heavy,”they’ve always veered more towards the funk of Rage Against the Machine while simultaneously incorporating the fast-paced, rhythmic singing of Michael Jackson circa the Bad days. Bending genres and styles, their songs have been featured prominently in numerous commercials, sports promos, and film trailers.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Puddle-of-mudd', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Puddle of Mudd&lt;/strong&gt; is an American rock band. They formed in 1991 in Kansas City, Missouri. The group currently consists of Wes Scantlin, Dave Moreno, Michael John Adams, and Matt Fuller.&lt;/p&gt;\n\n&lt;p&gt;The group is best known for a series of hits in the 2000s, including &lt;em&gt;“Blurry”&lt;/em&gt;, &lt;em&gt;“She Hates Me”&lt;/em&gt;, and “&lt;em&gt;Psycho&lt;/em&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Saliva', 'annotations': {'description': '&lt;p&gt;Saliva is an American rock band formed in Memphis, Tennessee in 1996. Saliva released their self-titled debut album on August 26, 1997, through Rockingchair Records, a record label owned and operated by Mark Yoshida, who recorded and produced the release at his studio, Rockingchair Studios.&lt;/p&gt;\n\n&lt;p&gt;They were signed to Island Records and went on to release their second studio album Every Six Seconds. Saliva later released their third studio album titled Back into Your System on November 12, 2002 which reached No. 19 on the Billboard 200. Back into Your System launched one of Saliva’s most successful songs, “Always”, reaching No. 51 on the Billboard Hot 100 and No. 1 on the Modern Rock Chart. Three years after Survival of the Sickest, Saliva released Blood Stained Love Story on January 23, 2007, repeating Back into Your System’s chart performance at No. 19 on the Billboard 200. Its first single, “Ladies and Gentlemen”, peaked at No. 2 on the Mainstream Rock Chart.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Halestorm', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://web.archive.org/web/20101015030019/http://www.halestormrocks.com/bio/" rel="noopener nofollow"&gt;Halestorm&lt;/a&gt; is an American rock band from Red Lion, Pennsylvania.&lt;/p&gt;\n\n&lt;p&gt;Lzzy and her brother Arejay formed Halestorm when they were still in middle school, back in 1998. With their dad, Roger Hale on bass they soon started playing local shows and started to earn a crowd throughout Pennsylvania.&lt;/p&gt;\n\n&lt;p&gt;In 2003 Joe Hottinger and in 2004 Josh Smith respectively took over as lead guitarist and basist and in 2005 Halestorm signed with &lt;a href="http://www.atlanticrecords.com/" rel="noopener nofollow"&gt;Atlantic&lt;/a&gt; and released the live EP, &lt;em&gt;&lt;a href="https://genius.com/albums/Halestorm/One-and-done" rel="noopener" data-api_path="/albums/252641"&gt;One and Done&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;After years of making a name for themselves playing countless gigs and festivals Halestorm got to record their debut self-titled studio album, &lt;em&gt;&lt;a href="https://genius.com/albums/Halestorm/Halestorm" rel="noopener" data-api_path="/albums/90807"&gt;Halestorm&lt;/a&gt;&lt;/em&gt; in 2008.&lt;/p&gt;\n\n&lt;p&gt;Current members:&lt;br&gt;\nLzzy Hale – lead vocals, rhythm guitar, acoustic guitar, keyboards, piano (1997–present)&lt;br&gt;\nArejay Hale – drums, backing vocals (1997–present)&lt;br&gt;\nJoe Hottinger – lead guitar, acoustic guitar, backing vocals (2003–present)&lt;br&gt;\nJosh Smith – bass, keyboards, piano, backing vocals (2004–present)&lt;/p&gt;\n\n&lt;p&gt;Past members:&lt;br&gt;\nLeo Nessinger – lead guitar (2000–2003)&lt;br&gt;\nRoger Hale – bass (1998–2004)&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Muse', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.muse.mu/" rel="noopener nofollow"&gt;Muse&lt;/a&gt; is an English rock band from Teignmouth, Devon, consisting of &lt;a href="http://www.musewiki.org/Matthew_Bellamy" rel="noopener nofollow"&gt;Matthew Bellamy&lt;/a&gt; (guitarist, keyboardist, singer, songwriter, middle of the picture), &lt;a href="http://www.musewiki.org/Christopher_Wolstenholme" rel="noopener nofollow"&gt;Christopher Wolstenholme&lt;/a&gt; (bassist, background vocalist, to the left of the picture), and &lt;a href="http://www.musewiki.org/Dominic_Howard" rel="noopener nofollow"&gt;Dominic Howard&lt;/a&gt; (drummer, to the right of the picture). They often infuse classical piano and strings (and sometimes even choirs) with catchy guitar and piano hooks.&lt;/p&gt;\n\n&lt;p&gt;Muse is mostly known due to their alternative genre of music and also their &lt;a href="https://en.wikipedia.org/wiki/List_of_awards_and_nominations_received_by_Muse" rel="noopener nofollow"&gt;live performances&lt;/a&gt;.&lt;br&gt;\n&lt;a href="http://www.musewiki.org/Radiohead" rel="noopener nofollow"&gt;Some have compared Muse to other bands such as Radiohead&lt;/a&gt;; Though this analogy has faded during past years since Muse has changed its taste.&lt;/p&gt;\n\n&lt;p&gt;The band always has an Apocalyptic background theme in their albums; In every album, there is a different apocalyptic perspective. &lt;em&gt;&lt;a href="https://genius.com/Muse-showbiz-lyrics" rel="noopener" data-api_path="/songs/200054"&gt;Showbiz&lt;/a&gt;&lt;/em&gt; (Anxiety), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Origin-of-symmetry" rel="noopener" data-api_path="/albums/21027"&gt;Origin of Symmetry&lt;/a&gt;&lt;/em&gt; (Mental Disorder), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Absolution" rel="noopener" data-api_path="/albums/18003"&gt;Absolution&lt;/a&gt;&lt;/em&gt; (Religion and atheism), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Black-holes-and-revelations" rel="noopener" data-api_path="/albums/18443"&gt;Black Holes and Revelations&lt;/a&gt;&lt;/em&gt; (Alien’s Attack), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/The-resistance" rel="noopener" data-api_path="/albums/11837"&gt;The Resistance&lt;/a&gt;&lt;/em&gt; (Mind Control), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/The-2nd-law" rel="noopener" data-api_path="/albums/20776"&gt;The 2nd Law&lt;/a&gt;&lt;/em&gt; (The 2nd Law of thermodynamics and the world moving toward destruction – Entropy), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Drones" rel="noopener" data-api_path="/albums/121389"&gt;Drones&lt;/a&gt;&lt;/em&gt; (War) and &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Simulation-theory" rel="noopener" data-api_path="/albums/403783"&gt;Simulation Theory&lt;/a&gt;&lt;/em&gt; (Life is a simulation and we should escape this fragile world and move toward the bigger picture).&lt;/p&gt;\n\n&lt;p&gt;Their official website is &lt;a href="http://muse.mu/" rel="noopener nofollow"&gt;muse.mu&lt;/a&gt;.&lt;br&gt;\nFor more information about the band, check out &lt;a href="http://musewiki.org/" rel="noopener nofollow"&gt;musewiki.org&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sick-puppies', 'annotations': {'description': '&lt;p&gt;Sick Puppies is a hard rock band from Australia that formed in 1997. The band currently consists of:&lt;/p&gt;\n\n&lt;p&gt;Bryan Scott – lead vocals, guitar&lt;br&gt;\nEmma Anzai – bass, vocals&lt;br&gt;\nMark Goodwin – drums, backing vocals&lt;/p&gt;\n\n&lt;p&gt;They initially rose to fame from their song All The Same being posted on YouTube in a music video.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Saving-abel', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.genius.com/fc94fb0c3ed8a8f909dbc7630a0987ff.1x1x1.gif" alt="" width="1" height="1" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt; Saving Abel is an American rock band from Corinth, Mississippi, who started in 2004 by Jared Weeks and Jason Null. The band title is from the ancient biblical story of Cain and Abel, that is about a brother who killed his own brother. Band member Jason Null thought up the band title saying “I Googled the story of Cain and Abel and found a line about ‘there was no saving Abel,’ which just jumped out at me.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/3-doors-down', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;3 Doors Down&lt;/strong&gt; is an American rock band. The band was formed in 1996 in Mississippi. The band consists of front-man Brad Arnold, guitarist Chris Henderson, drummer Greg Upchurch, guitarist Chet Roberts, and bassist Justin Biltonen.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names" rel="noopener nofollow"&gt;The name 3 Doors Down came while the band was tour&lt;/a&gt; and they saw a building that had a sign with most of its letters fallen off, leaving it to read “Doors Down”. At the time, there were only three members in the band and so decided for the name 3 Doors Down.&lt;/p&gt;\n\n&lt;p&gt;The group enjoyed mainstream success in the mid-to-late nineties and the early 2000’s, with “Here Without You”, “Kryptonite”, and “When I’m Gone”.&lt;/p&gt;\n\n&lt;p&gt;Recently, the group received a large amount of media attention over their decision to perform at the inauguration of President Donald J. Trump in early 2017.&lt;/p&gt;', 'alternate_names': ['Three Doors Down']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-pretty-reckless', 'annotations': {'description': '&lt;p&gt;The Pretty Reckless is an American rock band from New York City. The band was formed in 2009, and the current members are &lt;a href="https://genius.com/artists/Taylor-momsen" rel="noopener" data-api_path="/artists/145850"&gt;Taylor Momsen&lt;/a&gt; (lead vocals, rhythm guitar), Ben Phillips (lead guitar, backing vocals), Mark Damon (bass) and Jamie Perkins (drums).&lt;/p&gt;\n\n&lt;p&gt;After she began working with the producer Kato Khandwala, Taylor Momsen was introduced to guitarist Ben Philips, and the trio soon began writing together. Before signing to Interscope Records, The Pretty Reckless performed a number of small concerts around New York City and toured North America as the opening act for &lt;a href="https://genius.com/artists/The-veronicas" rel="noopener" data-api_path="/artists/22134"&gt;The Veronicas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On August 31 2010, the band released their first studio album, &lt;a href="https://genius.com/albums/The-pretty-reckless/Light-me-up" rel="noopener" data-api_path="/albums/102383"&gt;&lt;em&gt;Light Me Up&lt;/em&gt;&lt;/a&gt;. From this, three singles were released: &lt;a href="https://genius.com/The-pretty-reckless-make-me-wanna-die-lyrics" rel="noopener" data-api_path="/songs/238268"&gt;“Make Me Wanna Die”&lt;/a&gt;, &lt;a href="https://genius.com/The-pretty-reckless-miss-nothing-lyrics" rel="noopener" data-api_path="/songs/431541"&gt;“Miss Nothing”&lt;/a&gt;, and &lt;a href="https://genius.com/The-pretty-reckless-just-tonight-lyrics" rel="noopener" data-api_path="/songs/238271"&gt;“Just Tonight”&lt;/a&gt;. Upon its release, the album gained favourable reviews from critics, with &lt;a href="http://www.allmusic.com/album/light-me-up-mw0002032905" rel="noopener nofollow"&gt;&lt;em&gt;AllMusic&lt;/em&gt;&lt;/a&gt; praising Taylor Momsen for&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;coming across as the strongest and bitchiest female vocalist to front an alt-rock band since &lt;a href="https://genius.com/artists/Garbage" rel="noopener" data-api_path="/artists/18769"&gt;Garbage&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Shirley-manson" rel="noopener" data-api_path="/artists/25893"&gt;Shirley Manson&lt;/a&gt;.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Their second studio album, &lt;a href="https://genius.com/albums/The-pretty-reckless/Going-to-hell" rel="noopener" data-api_path="/albums/90649"&gt;&lt;em&gt;Going to Hell&lt;/em&gt;&lt;/a&gt;, was released on March 12 2014, and debuted at number five on the &lt;em&gt;Billboard 200&lt;/em&gt;. This marked their first top ten album. Five singles were spawned from &lt;em&gt;Going to Hell&lt;/em&gt;, including &lt;a href="https://genius.com/The-pretty-reckless-heaven-knows-lyrics" rel="noopener" data-api_path="/songs/429979"&gt;“Heaven Knows”&lt;/a&gt; which &lt;a href="http://www.billboard.com/articles/news/5944869/taylor-momsens-the-pretty-reckless-cracks-rock-radios-boys-club" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt;&lt;/a&gt; described as “&lt;a href="https://genius.com/Queen-we-will-rock-you-lyrics" rel="noopener" data-api_path="/songs/55045"&gt;Queen’s “We Will Rock You”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Joan-jett-and-the-blackhearts" rel="noopener" data-api_path="/artists/73858"&gt;Joan Jett&lt;/a&gt; vocals.”&lt;/p&gt;\n\n&lt;p&gt;The lead single from The Pretty Reckless’ third studio album, &lt;a href="https://genius.com/The-pretty-reckless-take-me-down-lyrics" rel="noopener" data-api_path="/songs/2820905"&gt;&lt;em&gt;Take Me Down&lt;/em&gt;&lt;/a&gt; was released on July 15 2016.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nothing-more', 'annotations': {'description': '&lt;p&gt;Nothing More is an American rock band from San Antonio, Texas. The band was formed in 2003 by longtime friends &lt;a href="https://genius.com/artists/Jonny-hawkins" rel="noopener" data-api_path="/artists/1046517"&gt;Jonny Hawkins&lt;/a&gt; and &lt;a href="https://genius.com/artists/Mark-vollelunga" rel="noopener" data-api_path="/artists/1151031"&gt;Mark Vollelunga&lt;/a&gt; after meeting and playing together throughout their school years.&lt;/p&gt;\n\n&lt;p&gt;Their debut album, &lt;a href="https://genius.com/albums/Nothing-more/Shelter" rel="noopener" data-api_path="/albums/306950"&gt;&lt;em&gt;Shelter&lt;/em&gt;&lt;/a&gt;, was released in 2004 with a lineup consisting of vocalist Josh Klaus, guitarists Mark Vollelunga and &lt;a href="https://genius.com/artists/Josh-kercheville" rel="noopener" data-api_path="/artists/1151033"&gt;Josh Kercheville&lt;/a&gt;, bassist Matt Reynolds, and drummer Jonny Hawkins. Nothing More had a hard time keeping a consistent lineup, going through several members but still failing to gain traction and secure a record label. Klaus and Reynolds were replaced by Travis Cox and &lt;a href="https://genius.com/artists/Daniel-oliver" rel="noopener" data-api_path="/artists/1151030"&gt;Daniel Oliver&lt;/a&gt; shortly after the release of Shelter, however, Cox was later swapped for &lt;a href="https://genius.com/artists/Trey-graham" rel="noopener" data-api_path="/artists/1151044"&gt;Trey Graham&lt;/a&gt; in 2006.&lt;/p&gt;\n\n&lt;p&gt;With Graham as their vocalist, they released their second album, &lt;a href="https://genius.com/albums/Nothing-more/Save-you-save-me" rel="noopener" data-api_path="/albums/177566"&gt;&lt;em&gt;Save You/Save Me&lt;/em&gt;&lt;/a&gt;, in 2007. However, despite finding some touring success with the album, the band found that they didn’t appreciate the direction that they were heading with Graham’s mainstream pop influence, which consequently leads to the band firing Graham.  After the departure of Graham in 2007 and Kercheville in 2008, the band was settled with core members Hawkins, Vollelunga, and Oliver. They continued in the pursuit of finding their preferred style and creative process, despite the hardships the band faced. Hawkins began to suffer from depression from a number of personal issues, most notably his mother’s fight with cancer and eventual passing.&lt;/p&gt;\n\n&lt;p&gt;It wasn’t long after that Hawkins opted to become the band’s vocalist and frontman, the band deciding that a major change was needed to move forward. This resulted in the first album, &lt;a href="https://genius.com/albums/Nothing-more/The-few-not-fleeting" rel="noopener" data-api_path="/albums/251732"&gt;&lt;em&gt;The Few Not Fleeting&lt;/em&gt;&lt;/a&gt;, to feature Hawkins as the vocalist in 2009. With the main members now largely responsible for the creative control of the band, the album took on more of a progressive/alternative rock sound, delving into the genres that would later define their future albums and mainstream success. This new approach was ultimately the first step in the right direction as they were finally able to find a sound they resonated with, untouched by outside influences. The album’s lyrics took a lot from Hawkins\' struggles, including the first track of the album, “&lt;a href="https://genius.com/Nothing-more-gone-lyrics" rel="noopener" data-api_path="/songs/2162909"&gt;Gone&lt;/a&gt;”, which speaks about his mother’s battle against cancer.&lt;/p&gt;\n\n&lt;p&gt;After years of being unable to find a record label, the band struck gold with their fifth and self-titled album, &lt;a href="https://genius.com/albums/Nothing-more/Nothing-more" rel="noopener" data-api_path="/albums/181520"&gt;&lt;em&gt;Nothing More&lt;/em&gt;&lt;/a&gt;, which was released independently in 2013. Only a day after playing for a second time at the &lt;a href="https://aftershockfestival.com/" rel="noopener nofollow"&gt;Aftershock Festival&lt;/a&gt; in September of the very same year, the long period of searching for a record contract was over. They finally entered a five-album deal with &lt;a href="https://genius.com/artists/Eleven-seven-music" rel="noopener" data-api_path="/artists/1114170"&gt;Eleven Seven Music&lt;/a&gt; and re-released the album in 2014. The album was highly received the second time around, earning them a breakthrough into the mainstream and the #33 spot on the &lt;a href="https://www.billboard.com/charts/billboard-200/2014-07-11" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt;. They had found success with rock radio and found a handful of their songs surfacing onto the &lt;a href="https://www.billboard.com/music/nothing-more/chart-history/RTT" rel="noopener nofollow"&gt;Mainstream Rock Chart&lt;/a&gt;. “&lt;a href="https://genius.com/Nothing-more-this-is-the-time-ballast-lyrics" rel="noopener" data-api_path="/songs/716375"&gt;This is the Time (Ballast)&lt;/a&gt;” hit #2, followed closely by “&lt;a href="https://genius.com/Nothing-more-heres-to-the-heartache-lyrics" rel="noopener" data-api_path="/songs/610542"&gt;Here’s To The Heartache&lt;/a&gt;” which charted at #4, “&lt;a href="https://genius.com/Nothing-more-jenny-lyrics" rel="noopener" data-api_path="/songs/610548"&gt;Jenny&lt;/a&gt;” at # 6, and “&lt;a href="https://genius.com/Nothing-more-mr-mtv-lyrics" rel="noopener" data-api_path="/songs/599289"&gt;Mr. MTV&lt;/a&gt;” at #12.&lt;/p&gt;\n\n&lt;p&gt;The fifth and latest album, &lt;a href="https://genius.com/albums/Nothing-more/The-stories-we-tell-ourselves" rel="noopener" data-api_path="/albums/348614"&gt;&lt;em&gt;The Stories We Tell Ourselves&lt;/em&gt;&lt;/a&gt;, was released in 2017. “&lt;a href="https://genius.com/Nothing-more-go-to-war-lyrics" rel="noopener" data-api_path="/songs/3130998"&gt;Go To War&lt;/a&gt;” was the first of five promotional singles made public prior to the album. Debuting at #15 on the &lt;a href="https://www.billboard.com/charts/billboard-200/2017-10-06" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt;, the album was nominated for &lt;a href="https://en.wikipedia.org/wiki/Grammy_Award_for_Best_Rock_Album" rel="noopener nofollow"&gt;Best Rock Album&lt;/a&gt; at the 2018 Grammy Awards, with “Go To War” nominated for Best Rock Performance and &lt;a href="https://en.wikipedia.org/wiki/Grammy_Award_for_Best_Rock_Song" rel="noopener nofollow"&gt;Best Rock Song&lt;/a&gt; as well. Later in the very same month, the single topped the &lt;a href="https://www.billboard.com/charts/hot-mainstream-rock-tracks/2017-12-01" rel="noopener nofollow"&gt;Billboard Mainstream Rock&lt;/a&gt; chart at #1.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/In-this-moment', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://inthismomentofficial.com/" rel="noopener nofollow"&gt;&lt;strong&gt;In This Moment&lt;/strong&gt;&lt;/a&gt; is a heavy metal band based out of Los Angeles, California. They are best known for songs such as &lt;a href="https://genius.com/In-this-moment-whore-lyrics" rel="noopener" data-api_path="/songs/733989"&gt;“Whore”&lt;/a&gt; and &lt;a href="https://genius.com/In-this-moment-blood-lyrics" rel="noopener" data-api_path="/songs/733985"&gt;“Blood.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The band was formed in 2005 by lead singer &lt;a href="https://genius.com/artists/Maria-brink" rel="noopener" data-api_path="/artists/162554"&gt;Maria Brink&lt;/a&gt; and guitarist &lt;a href="https://genius.com/artists/Chris-howorth" rel="noopener" data-api_path="/artists/1169166"&gt;Chris Howorth&lt;/a&gt;. They feature three additional members as well. Originally known as ‘Dying Star’ before swapping members and direction, &lt;strong&gt;In This Moment&lt;/strong&gt; released their first album, &lt;a href="https://genius.com/albums/In-this-moment/Beautiful-tragedy" rel="noopener" data-api_path="/albums/134494"&gt;&lt;em&gt;Beautiful Tragedy&lt;/em&gt;&lt;/a&gt; in early 2007.&lt;/p&gt;\n\n&lt;p&gt;They blew up in 2012 with the release of their hit album, &lt;a href="https://genius.com/albums/In-this-moment/Blood-deluxe-edition" rel="noopener" data-api_path="/albums/122295"&gt;&lt;em&gt;Blood&lt;/em&gt;&lt;/a&gt;—debuting at #15 on on the &lt;a href="https://www.billboard.com/music/in-this-moment/chart-history/billboard-200/song/755499" rel="noopener nofollow"&gt;*Billboard 200&lt;/a&gt; and achieving gold-certified status with the RIAA.&lt;/p&gt;\n\n&lt;p&gt;Two years later, their follow-up effort, &lt;a href="https://genius.com/albums/In-this-moment/Black-widow" rel="noopener" data-api_path="/albums/121203"&gt;&lt;em&gt;Black Widow&lt;/em&gt;&lt;/a&gt;, reached &lt;a href="https://www.billboard.com/music/in-this-moment/chart-history/billboard-200/song/869785" rel="noopener nofollow"&gt;#8&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Trapt', 'annotations': {'description': '&lt;p&gt;Trapt is an American rock band that formed in Los Gatos, California in August 1997, best known for their 2003 hit “Headstrong”. Drummer Monty Montgomery &lt;a href="http://www.shavemagazine.com/entertainment/080801#ixzz5etkqZU3O" rel="noopener nofollow"&gt;explained&lt;/a&gt; the origin of the band’s name:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was born out of a youthful angst, feeling that the world around was controlling and restricting, and literally trapping us.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Chevelle', 'annotations': {'description': '&lt;p&gt;Chevelle is an American rock band that formed in 1995 in the Chicago suburb of &lt;a href="https://www.google.com/maps/place/Grayslake,+IL+60030/@41.985579,-87.9702456,9.25z/data=!4m5!3m4!1s0x880f9a91390e6fdd:0x3a7645a25c2eb3b7!8m2!3d42.3444664!4d-88.041746" rel="noopener nofollow"&gt;Grayslake, Illinois&lt;/a&gt;. The band was originally composed of brothers: &lt;a href="https://genius.com/artists/pete-loeffler" rel="noopener" data-api_path="/artists/402817"&gt;Pete Loeffler&lt;/a&gt; (lead vocals and guitar), &lt;a href="https://genius.com/artists/sam-loeffler" rel="noopener" data-api_path="/artists/1129659"&gt;Sam Loeffler&lt;/a&gt; (drums and percussion) and &lt;a href="https://genius.com/artists/joe-loeffler" rel="noopener" data-api_path="/artists/1190555"&gt;Joe Loeffler&lt;/a&gt; (bass and backing vocals). When Joe left the band in 2005, &lt;a href="https://genius.com/artists/geno-lenardo" rel="noopener" data-api_path="/artists/659415"&gt;Geno Lenardo&lt;/a&gt; subbed in as the bassist until he was replaced by Pete and Sam’s brother-in-law, &lt;a href="https://genius.com/artists/dean-bernardini" rel="noopener" data-api_path="/artists/1129661"&gt;Dean Bernardini&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Chevelle has sold over four million albums in the United States.The band’s first studio album, &lt;a href="https://genius.com/albums/chevelle/point-1" rel="noopener" data-api_path="/albums/157105"&gt;Point #1&lt;/a&gt;, was released on a small record label called &lt;a href="https://genius.com/artists/squint-entertainment" rel="noopener" data-api_path="/artists/1120934"&gt;Squint Entertainment&lt;/a&gt;. Chevelle’s second album, &lt;a href="https://genius.com/albums/chevelle/wonder-whats-next" rel="noopener" data-api_path="/albums/133193"&gt;Wonder What’s Next&lt;/a&gt; (October 8, 2002), was certified Platinum after a debut at No. 14 on the United States albums chart, Billboard 200.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/chevelle/this-type-of-thinking-could-do-us-in" rel="noopener" data-api_path="/albums/157106"&gt;This Type of Thinking (Could Do Us In)&lt;/a&gt; (September 21, 2004), the band’s third album, debuted at No. 8 and has been certified Gold.&lt;/p&gt;\n\n&lt;p&gt;Chevelle followed with releases &lt;a href="https://genius.com/albums/chevelle/vena-sera" rel="noopener" data-api_path="/albums/22909"&gt;Vena Sera&lt;/a&gt; (April 3, 2007), &lt;a href="https://genius.com/albums/chevelle/sci-fi-crimes" rel="noopener" data-api_path="/albums/90873"&gt;Sci-Fi Crimes&lt;/a&gt; (August 31, 2009), &lt;a href="https://genius.com/albums/chevelle/hats-off-to-the-bull" rel="noopener" data-api_path="/albums/157107"&gt;Hats Off to the Bull&lt;/a&gt; (December 6, 2011), &lt;a href="https://genius.com/albums/chevelle/la-gorgola" rel="noopener"&gt;La Gárgola&lt;/a&gt; (April 1, 2014), and &lt;a href="https://genius.com/albums/chevelle/the-north-corridor" rel="noopener" data-api_path="/albums/152210"&gt;The North Corridor&lt;/a&gt; (July 8, 2016).&lt;/p&gt;\n\n&lt;p&gt;Other releases include two live albums, two live DVDs and two b-Sides and rarities compilations.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Static-x', 'annotations': {'description': '&lt;p&gt;Static-X was an American industrial metal band from Los Angeles, California formed in 1994. The line-up fluctuated over the years, but always held constant with band founder, frontman, vocalist, and guitarist Wayne Static. Founders of the band were Wayne Static and original drummer for Static-X Ken Jay. The band rose to fame with their 1999 debut album “Wisconsin Death Trip” where the band’s heavy industrial metal sound found attention within the burgeoning nu metal movement of the late 1990s, with the album eventually going platinum in the United States. The band released five more albums over the course of the next decade: “Machine” in 2001, “Shadow Zone” in 2003, “Start a War” in 2005, “Cannibal” in 2007, and “Cult of Static” in 2009. Shortly after their last album’s release, the band entered a hiatus while Static worked on his solo album “Pighammer” in 2011. Static briefly reformed Static-X in 2012, using only members of his solo album’s touring band, before officially breaking up in June 2013. On November 1, 2014, Wayne Static died at the age of 48. R.I.P.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/1c1d6ef6aebd9297b4ad1d5299546066.638x403x1.jpg" alt="" width="638" height="403" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Tremonti', 'annotations': {'description': '&lt;p&gt;Tremonti is a heavy metal band founded and fronted by lead vocalist and guitarist Mark Tremonti. The band is also referred to as “The Tremonti Project.”&lt;br&gt;\nThe band also consists of rhythm guitarist &lt;a href="https://genius.com/artists/Eric-friedman" rel="noopener" data-api_path="/artists/1633366"&gt;Eric Friedman&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/Garrett-Whitlock" rel="noopener" data-api_path="/artists/1633367"&gt;Garrett Whitlock&lt;/a&gt;, and bassist &lt;a href="https://genius.com/artists/Wolfgang-van-halen" rel="noopener" data-api_path="/artists/1043193"&gt;Wolfgang Van Halen&lt;/a&gt;. What originally started as a Mark Tremonti solo project evolved into a fully fledged band after the release of the group’s first album, All I Was, in July 2012.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Shinedown', 'annotations': {'description': '&lt;p&gt;Shinedown is an American hard rock band from Jacksonville, Florida, formed in 2001 and founded by members Brent Smith (vocals), Brad Stewart (bass), Jasin Todd (guitar), and Barry Kerch (drums).&lt;/p&gt;\n\n&lt;p&gt;Smith originally performed as the frontman and lead singer of a band titled &lt;a href="https://genius.com/artists/Dreve" rel="noopener" data-api_path="/artists/1192441"&gt;Dreve&lt;/a&gt; in the mid-1990’s. The only member to be signed to a label was Brent Smith, as the record label was unhappy with Dreve and were dropped prior to releasing an album.&lt;/p&gt;\n\n&lt;p&gt;During the span of their first five albums, a few lineup changes followed, making the band’s only two remaining original members Smith and Kerch.&lt;/p&gt;\n\n&lt;p&gt;Since their inception, the group has released &lt;em&gt;Leave a Whisper&lt;/em&gt;, &lt;em&gt;Us and Them&lt;/em&gt;, &lt;em&gt;The Sound of Madness&lt;/em&gt;, &lt;em&gt;Amaryllis&lt;/em&gt;, and &lt;em&gt;Threat to Survival&lt;/em&gt;, along with &lt;em&gt;Attention Attention&lt;/em&gt;. Over their 18 year span, they have sold more than six million albums worldwide.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Lamb-of-god', 'annotations': {'description': '&lt;p&gt;Lamb of God is a groove metal band from Richmond, Virginia. Originally they went by the name “&lt;a href="https://genius.com/artists/Burn-the-priest" rel="noopener" data-api_path="/artists/367651"&gt;Burn The Priest&lt;/a&gt;” and even released an album. The band underwent a lineup change and didn’t want to give the impression that they were satanic, so they changed their name.&lt;/p&gt;\n\n&lt;p&gt;In July of 2019, it was confirmed that the band had parted ways with drummer Chris Adler, bringing in Art Cruz from Winds of Plague to take over behind the kit.&lt;/p&gt;\n\n&lt;p&gt;Band lineup as of July 2019:&lt;br&gt;\nRandy Blythe – Vocals&lt;br&gt;\nMark Morton – Guitar&lt;br&gt;\nWillie Adler – Guitar&lt;br&gt;\nJohn Campbell – Bass&lt;br&gt;\nArt Cruz – Drums&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/All-that-remains', 'annotations': {'description': '&lt;p&gt;All That Remains is an American metal band that was formed in 1998 by frontman &lt;a href="https://genius.com/artists/Phil-labonte" rel="noopener" data-api_path="/artists/1002170"&gt;Phil Labonte&lt;/a&gt;. The band initially started off as a side project for Labonte whilst he was the vocalist for &lt;a href="https://genius.com/artists/Shadows-fall" rel="noopener" data-api_path="/artists/186967"&gt;Shadows Fall&lt;/a&gt;, another metal band from Massachusetts, but became his full time focus after leaving in 1999.&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Discography:&lt;/strong&gt;&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Behind-silence-and-solitude" rel="noopener" data-api_path="/albums/245604"&gt;&lt;em&gt;Behind Silence and Solitude&lt;/em&gt;&lt;/a&gt; (2002)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/This-darkened-heart" rel="noopener" data-api_path="/albums/245953"&gt;&lt;em&gt;This Darkened Heart&lt;/em&gt;&lt;/a&gt; (2004)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/The-fall-of-ideals" rel="noopener" data-api_path="/albums/160837"&gt;&lt;em&gt;The Fall of Ideals&lt;/em&gt;&lt;/a&gt; (2006)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Overcome" rel="noopener" data-api_path="/albums/87449"&gt;&lt;em&gt;Overcome&lt;/em&gt;&lt;/a&gt; (2008)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/For-we-are-many" rel="noopener" data-api_path="/albums/122296"&gt;&lt;em&gt;For We Are Many&lt;/em&gt;&lt;/a&gt; (2010)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/A-war-you-cannot-win" rel="noopener" data-api_path="/albums/79877"&gt;&lt;em&gt;A War You Cannot Win&lt;/em&gt;&lt;/a&gt; (2012)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/The-order-of-things" rel="noopener" data-api_path="/albums/229242"&gt;&lt;em&gt;The Order of Things&lt;/em&gt;&lt;/a&gt; (2015)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Madness" rel="noopener" data-api_path="/albums/336822"&gt;&lt;em&gt;Madness&lt;/em&gt;&lt;/a&gt; (2017)&lt;br&gt;\n&lt;a href="https://genius.com/albums/All-that-remains/Victim-of-the-new-disease" rel="noopener" data-api_path="/albums/462333"&gt;&lt;em&gt;Victim of the New Disease&lt;/em&gt;&lt;/a&gt; (2018)&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;Members&lt;/strong&gt;:&lt;br&gt;\n&lt;a href="https://genius.com/artists/Phil-labonte" rel="noopener" data-api_path="/artists/1002170"&gt;&lt;strong&gt;Phil Labonte&lt;/strong&gt;&lt;/a&gt; – Lead vocals (1998–present), Piano (2003–2004)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Mike-martin-all-that-remains" rel="noopener" data-api_path="/artists/1002171"&gt;&lt;strong&gt;Mike Martin&lt;/strong&gt;&lt;/a&gt; – Rhythm Guitar (2004–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-costa" rel="noopener" data-api_path="/artists/1002168"&gt;&lt;strong&gt;Jason Costa&lt;/strong&gt;&lt;/a&gt; – Drums (2007–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Aaron-patrick" rel="noopener" data-api_path="/artists/1494706"&gt;&lt;strong&gt;Aaron Patrick&lt;/strong&gt;&lt;/a&gt; – Bass, Backing vocals (2015–present)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-richardson" rel="noopener" data-api_path="/artists/977977"&gt;&lt;strong&gt;Jason Richardson&lt;/strong&gt;&lt;/a&gt; – Lead Guitar (2018–present)&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Oli-herbert" rel="noopener" data-api_path="/artists/1002169"&gt;Oli Herbert&lt;/a&gt; – Lead Guitar (1998–2018)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jeanne-sagan" rel="noopener" data-api_path="/artists/1493860"&gt;Jeanne Sagan&lt;/a&gt; – Bass, Backing vocals (2006–2015)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Shannon-lucas" rel="noopener" data-api_path="/artists/656082"&gt;Shannon Lucas&lt;/a&gt; – Drums (2006)&lt;br&gt;\nMichael Bartlett – Drums (1998–2006)&lt;br&gt;\nMatt Deis – Bass (2003–2005)&lt;br&gt;\nChris Bartlett – Rhythm Guitar (1998–2004)&lt;br&gt;\nDan Egan – Bass (1998–2003)&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/4cab701c551fd2f3faf3013f57ab7bf5.700x400x1.jpg" alt="" width="700" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;center&gt;&lt;small&gt;Jason R, Mike, Phil, Jason C and Aaron&lt;small&gt;&lt;/small&gt;&lt;/small&gt;&lt;/center&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Within-temptation', 'annotations': {'description': '&lt;p&gt;Within Temptation is a Dutch symphonic metal band founded in April 1995 by vocalist Sharon den Adel and guitarist Robert Westerholt. They have always been classified by critics as gothic metal, although the “gothic” influence varies with each album. Their most prominent and well-known sound is described as symphonic metal.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jacoby-shaddix', 'annotations': {'description': '&lt;p&gt;Jacoby Dakota Shaddix (born July 28, 1976) is an American musician, singer, songwriter, rapper, TV presenter and actor. He is best known as being the founding member and the continuous lead singer of the California-based rock band Papa Roach since the band’s formation in 1993.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sevendust', 'annotations': {'description': '&lt;p&gt;Sevendust was officially formed in April 1997 after attempting to name themselves “Rumblefish” and later “Crawlspace,” both of which were names already taken by other bands. The name refers to the popular insecticide “Sevin Dust” which Hornsby saw in his grandmother’s garage&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/I-prevail', 'annotations': {'description': '&lt;p&gt;Since their formation in 2013, the post-hardcore Detroit-based band has quickly garnered a global fan base with their potent mixture of aggressive rock, electronic arrangements, and seamless melodic elements. Their current lineup consists of clean vocalist &lt;a href="https://genius.com/artists/Brian-burkheiser" rel="noopener" data-api_path="/artists/1137411"&gt;Brian Burkheiser&lt;/a&gt;, unclean vocalist &lt;a href="https://genius.com/artists/Eric-vanlerberghe" rel="noopener" data-api_path="/artists/1137412"&gt;Eric Vanlerberghe&lt;/a&gt;, lead guitarist and studio bassist &lt;a href="https://genius.com/artists/Steve-menoian" rel="noopener" data-api_path="/artists/1137413"&gt;Steve Menoian&lt;/a&gt;, and rhythm guitarist &lt;a href="https://genius.com/artists/Dylan-bowman" rel="noopener" data-api_path="/artists/1138618"&gt;Dylan Bowman&lt;/a&gt;, and Gabe Helguera on the drums.&lt;/p&gt;\n\n&lt;p&gt;I Prevail first gained popularity after &lt;a href="https://www.youtube.com/watch?v=czb_CZfWko8" rel="noopener nofollow"&gt;posting a cover&lt;/a&gt; of &lt;a href="https://genius.com/I-prevail-blank-space-lyrics" rel="noopener" data-api_path="/songs/731773"&gt;“Blank Space”&lt;/a&gt; by &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt; on YouTube the first of December in 2014. It was later added as a bonus track to Fearless Records\' &lt;a href="https://genius.com/albums/Fearless-records/Punk-goes-pop-volume-6" rel="noopener" data-api_path="/albums/113789"&gt;&lt;em&gt;Punk Goes Pop Vol. 6.&lt;/em&gt;&lt;/a&gt; Ten days later, two singles for their debut EP were released, &lt;a href="https://genius.com/I-prevail-love-lust-and-liars-lyrics" rel="noopener" data-api_path="/songs/731763"&gt;“Love, Lust, and Liars”&lt;/a&gt; and &lt;a href="https://genius.com/I-prevail-the-enemy-lyrics" rel="noopener" data-api_path="/songs/731770"&gt;“The Enemy”&lt;/a&gt; Shortly after in January 2015, I Prevail released the EP &lt;a href="https://genius.com/albums/I-prevail/Heart-vs-mind" rel="noopener" data-api_path="/albums/122120"&gt;&lt;em&gt;Heart vs. Mind.&lt;/em&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In June of 2016, I Prevail announced their debut album &lt;a href="https://genius.com/albums/I-prevail/Lifelines" rel="noopener" data-api_path="/albums/158244"&gt;&lt;em&gt;Lifelines&lt;/em&gt;&lt;/a&gt; would be released in October. &lt;a href="https://genius.com/I-prevail-scars-lyrics" rel="noopener" data-api_path="/songs/2800405"&gt;“Scars”&lt;/a&gt; was the first single, released July 1st, followed by &lt;a href="https://genius.com/I-prevail-stuck-in-your-head-lyrics" rel="noopener" data-api_path="/songs/2837208"&gt;“Stuck in Your Head”&lt;/a&gt; and &lt;a href="https://genius.com/I-prevail-come-and-get-it-lyrics" rel="noopener" data-api_path="/songs/2870351"&gt;“Come and Get It”&lt;/a&gt; released August 14 and September 28, respectively.&lt;/p&gt;\n\n&lt;p&gt;I Prevail toured all summer long on the Vans Warped Tour in 2017. At the Loudwire Music Awards, their song &lt;a href="https://genius.com/I-prevail-alone-lyrics" rel="noopener" data-api_path="/songs/2886622"&gt;“Alone”&lt;/a&gt; won Hard Rock Song of the Year.&lt;/p&gt;\n\n&lt;p&gt;In 2019, I Prevail released a series of singles before their second LP &lt;a href="https://genius.com/albums/I-prevail/Trauma" rel="noopener" data-api_path="/albums/506060"&gt;&lt;em&gt;Trauma&lt;/em&gt;&lt;/a&gt; was released on March 29. The first single released on February 18 was &lt;a href="https://genius.com/I-prevail-bow-down-lyrics" rel="noopener" data-api_path="/songs/4328458"&gt;“Bow Down,”&lt;/a&gt; immediately followed by &lt;a href="https://genius.com/I-prevail-breaking-down-lyrics" rel="noopener" data-api_path="/songs/4337810"&gt;“Breaking Down”&lt;/a&gt; a couple hours later. &lt;a href="https://genius.com/I-prevail-paranoid-lyrics" rel="noopener" data-api_path="/songs/4337807"&gt;“Paranoid”&lt;/a&gt; was released on March 18.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Staind', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/Staind" rel="noopener nofollow"&gt;Staind&lt;/a&gt; was an American rock band, formed in 1995 in Springfield, Massachusetts. For years, the band consisted of lead vocalist and rhythm guitarist &lt;a href="https://genius.com/artists/Aaron-lewis" rel="noopener" data-api_path="/artists/347635"&gt;Aaron Lewis&lt;/a&gt;, lead guitarist Mike Mushok, bassist and backing vocalist Johnny April, and drummer Jon Wysocki (who left in May 2011). To date, the band has recorded seven studio albums: &lt;a href="https://genius.com/albums/Staind/Tormented" rel="noopener" data-api_path="/albums/243184"&gt;&lt;em&gt;Tormented&lt;/em&gt;&lt;/a&gt; (1996), &lt;a href="https://genius.com/albums/Staind/Dysfunction" rel="noopener" data-api_path="/albums/160795"&gt;&lt;em&gt;Dysfunction&lt;/em&gt;&lt;/a&gt; (1999), &lt;a href="https://genius.com/albums/Staind/Break-the-cycle" rel="noopener" data-api_path="/albums/42347"&gt;&lt;em&gt;Break the Cycle&lt;/em&gt;&lt;/a&gt; (2001), &lt;a href="https://genius.com/albums/Staind/14-shades-of-grey" rel="noopener" data-api_path="/albums/80503"&gt;&lt;em&gt;14 Shades of Grey&lt;/em&gt;&lt;/a&gt; (2003), &lt;a href="https://genius.com/albums/Staind/Chapter-v" rel="noopener" data-api_path="/albums/492820"&gt;&lt;em&gt;Chapter V&lt;/em&gt;&lt;/a&gt; (2005), &lt;a href="https://genius.com/albums/Staind/The-illusion-of-progress" rel="noopener" data-api_path="/albums/149841"&gt;&lt;em&gt;The Illusion of Progress&lt;/em&gt;&lt;/a&gt; (2008), and their self-titled album &lt;a href="https://genius.com/albums/Staind/Staind" rel="noopener" data-api_path="/albums/91487"&gt;&lt;em&gt;Staind&lt;/em&gt;&lt;/a&gt;(2011).&lt;/p&gt;\n\n&lt;p&gt;On May 20, 2011, Staind announced that the band and long-time drummer Jon Wysocki had parted ways. In November 2011 Sam Giancarelli was announced as the new drummer.&lt;/p&gt;\n\n&lt;p&gt;In July 2012 the band announced it was taking a hiatus after releasing 7 albums over 14 years. The band did not perform again until April 27, 2014 at the &lt;em&gt;Welcome To Rockville Festival&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;In late 2014 the band went back on hiatus while Aaron Lewis played solo shows and began work on his second studio album &lt;a href="https://genius.com/albums/Aaron-lewis/Sinner" rel="noopener" data-api_path="/albums/157423"&gt;&lt;em&gt;Sinner&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In an interview in September 2016 Aaron Lewis stated that the band will likely stay in hiatus for the “foreseeable future”.&lt;/p&gt;\n\n&lt;p&gt;In September 2019, Staind made their return to touring after the release of Lewis\' 2019 album &lt;a href="https://genius.com/albums/Aaron-lewis/State%20I\'m%20In" rel="noopener"&gt;&lt;em&gt;State I’m In&lt;/em&gt;&lt;/a&gt; at the &lt;em&gt;Louder than Life Festival&lt;/em&gt; with Aaron Lewis commenting earlier &lt;a href="https://www.altpress.com/news/aaron-lewis-stained-new-album/" rel="noopener nofollow"&gt;what he thinks a new Staind album would sound like&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Finger-eleven', 'annotations': {'description': '&lt;p&gt;Finger Eleven is a Canadian rock band from Burlington, Ontario, formed in 1990. They have released seven total studio albums (six as Finger Eleven and one as Rainbow Butt Monkeys), with their album The Greyest of Blue Skies bringing them into the mainstream. The 2003 self-titled album achieved Gold status in the United States and Platinum in Canada, largely from the success of the single “One Thing”, which marked the band’s first placing on the US Hot 100 Chart at number 16. Their 2007 album, Them vs. You vs. Me, launched the single “Paralyzer”, which went on to top numerous charts including the Canadian Hot 100 and both US rock charts, as well as reaching No. 6 on the US Hot 100 and No. 12 on the Australian Singles Chart.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Shanti-dope', 'annotations': {'description': '&lt;p&gt;Shanti Dope is a 16-year-old rapper from Manila who started writing verses in 2013 following the footsteps of local rappers who use songwriting as a way to tell stories. Influenced by the idea of storytelling through rap, his first long verse got him into rapper Smugglaz 2015 album &lt;em&gt;Walking Distance.&lt;/em&gt; 2017 marks the year he comes out with his own &lt;a href="https://genius.com/albums/Shanti-dope/Shanti-dope" rel="noopener" data-api_path="/albums/372273"&gt;self-titled EP&lt;/a&gt; with Universal Records.&lt;/p&gt;\n\n&lt;p&gt;Along with Smugglaz, he counts as influences Loonie, Ron Henley, and Gloc-9 whose wordplay, context, rhymes, and narratives he aspires for in his own work. The name Shanti Dope meanwhile is borne of the influence of his father, who was a practitioner of Krishna Consciousness. Shanti is the hindi word for “peace,” which, alongside “dope” could mean “Peace is my natural drug.” This call for peace, given songs that actually speak of injustice and inequality, that insists on discussing the state of the nation, is what sets him apart from many rappers his age.&lt;/p&gt;\n\n&lt;p&gt;In less than a week after &lt;a href="https://genius.com/albums/Shanti-dope/Materyal" rel="noopener" data-api_path="/albums/386802"&gt;&lt;em&gt;Materyal&lt;/em&gt;&lt;/a&gt; EP release, the carrier single “Nadarang” shot straight to the #1 spot on Spotify PH’s Top 50 Viral Chart. Not only that, three other songs from the EP entered the chart as well — “Materyal” (#10), “Shantidope” (#15) and “Norem” (#50).&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rahzel', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Johan-olsen', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Corey-taylor', 'annotations': {'description': '&lt;p&gt;Corey Todd Taylor (born December 8, 1973) is an American musician, singer, songwriter, actor, and author, best known as the lead singer and lyricist of the bands &lt;a href="http://www.genius.com/artists/Slipknot" rel="noopener" data-api_path="/artists/20222"&gt;Slipknot&lt;/a&gt; and &lt;a href="http://www.genius.com/artists/Stone-sour" rel="noopener" data-api_path="/artists/59680"&gt;Stone Sour&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Taylor formed Stone Sour in 1992, playing in the Des Moines area, and working on a demo. He joined Slipknot in 1997 to replace their original vocalist and has subsequently released five studio albums with them. After the first two Slipknot albums went Platinum, Taylor revived Stone Sour to record an album and tour in 2002. He has worked with several bands, including Junk Beer Kidnap Band, Korn, Disturbed, Apocalyptica, Anthrax, and Soulfly. Taylor was ranked at #86 in Hit Parader’s Top 100 Metal Vocalists of All Time. He was also named the seventh greatest heavy metal frontman by NME. Taylor was also found, by VVN Music, to possess the second-widest vocal range of any known singer in popular music with a range of five and a half octaves. He was beaten only by Mike Patton (six octaves).&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Pop-evil', 'annotations': {'description': '&lt;p&gt;Pop Evil is an American rock band that was formed in North Muskegon, Michigan in 2001 by Leigh Kakaty. He then added Dave Grahs, Dylan Allison, and Jamie Nummer.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fever-333', 'annotations': {'description': '&lt;p&gt;Fever 333, formerly named The Fever 333 and originally named &lt;a href="http://www.deadpress.co.uk/interview-the-fever-333-09-06-2018" rel="noopener nofollow"&gt;The Fever&lt;/a&gt;, are a &lt;a href="https://genius.com/tags/post-hardcore" rel="noopener"&gt;post-hardcore&lt;/a&gt;, &lt;a href="https://genius.com/tags/rapcore" rel="noopener"&gt;rapcore&lt;/a&gt; supergroup comprised of vocalist &lt;a href="https://genius.com/artists/Jason-aalon-butler" rel="noopener" data-api_path="/artists/160810"&gt;Jason Aalon Butler&lt;/a&gt; (formerly &lt;a href="https://genius.com/artists/letlive" rel="noopener" data-api_path="/artists/60812"&gt;letlive&lt;/a&gt;), drummer Aric Improta (&lt;a href="https://genius.com/artists/night-verses" rel="noopener" data-api_path="/artists/368024"&gt;Night Verses&lt;/a&gt;), and guitarist Stephen Harrison (formerly &lt;a href="https://genius.com/artists/the-chariot" rel="noopener" data-api_path="/artists/34208"&gt;The Chariot&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;In the wake of letlive’s break-up in April 2017, Butler announced this project as a &lt;a href="https://www.youtube.com/watch?v=fQpFc6tqvjQ" rel="noopener nofollow"&gt;live pop-up event&lt;/a&gt; for American Independence Day on July 4th. It was hosted in the parking lot of Randy’s Donuts in his hometown of Inglewood(LA), California. The band played three songs as a political and art statement: &lt;a href="https://genius.com/Fever-333-were-coming-in-lyrics" rel="noopener" data-api_path="/songs/3152208"&gt;“We’re Coming In,”&lt;/a&gt; &lt;a href="https://genius.com/Fever-333-hunting-season-lyrics" rel="noopener" data-api_path="/songs/3152221"&gt;“Hunting Season,”&lt;/a&gt; and “Endgame,” which was later turned into &lt;a href="https://genius.com/Fever-333-prey-for-me-3-lyrics" rel="noopener" data-api_path="/songs/4081771"&gt;“PREY FOR ME/3,”&lt;/a&gt; and released on their debut LP.&lt;/p&gt;\n\n&lt;p&gt;In the months following the short pop-up show, the band periodically dropped studio recordings of “We’re Coming In,” and “Hunting Season,” with a music video to accompany both.&lt;/p&gt;\n\n&lt;p&gt;In November 2017, the single &lt;a href="https://genius.com/Fever-333-walking-in-my-shoes-lyrics" rel="noopener" data-api_path="/songs/3308740"&gt;“Walking in My Shoes”&lt;/a&gt; was released prior to the release of their debut EP, &lt;a href="https://genius.com/albums/Fever-333/Made-an-america" rel="noopener" data-api_path="/albums/412827"&gt;&lt;em&gt;Made An America&lt;/em&gt;&lt;/a&gt; on March 23, 2018. It was released on Roadrunner Records and 333 Wreckords also aided in the marketing of the EP.&lt;/p&gt;\n\n&lt;p&gt;In May 2018, a stand-alone single and music video was released titled &lt;a href="https://genius.com/Fever-333-trigger-lyrics" rel="noopener" data-api_path="/songs/3738476"&gt;“Trigger”&lt;/a&gt; that discusses gun violence issues in America. A remix of “Made an America” was released in September featuring &lt;a href="https://genius.com/artists/Blink-182" rel="noopener" data-api_path="/artists/13373"&gt;blink-182&lt;/a&gt; drummer &lt;a href="https://genius.com/artists/Travis-barker" rel="noopener" data-api_path="/artists/1604"&gt;Travis Barker&lt;/a&gt; and rapper &lt;a href="https://genius.com/artists/Vic-mensa" rel="noopener" data-api_path="/artists/18814"&gt;Vic Mensa&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;With the announcement of the band’s debut LP came a single; in November 2017 &lt;a href="https://genius.com/Fever-333-burn-it-lyrics" rel="noopener" data-api_path="/songs/4078637"&gt;“BURN IT”&lt;/a&gt; was released. The LP &lt;a href="https://genius.com/albums/Fever-333/Strength-in-numb333rs" rel="noopener" data-api_path="/albums/477972"&gt;&lt;em&gt;STRENGTH IN NUMB333RS&lt;/em&gt;&lt;/a&gt; was released on January 2019.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Otep', 'annotations': {'description': '&lt;p&gt;Otep is an American heavy metal band from Los Angeles, California. They were formed in 2000. They have released two EPs, six studio albums, and one live album.&lt;/p&gt;\n\n&lt;p&gt;The current members are Otep Shamaya (vocals), Ari Mihalopoulos (guitar), Justin Kier (drums), and Andrew Barnes (bass).&lt;/p&gt;\n\n&lt;p&gt;They are currently signed with Napalm Records.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://s3.amazonaws.com/filepicker-images-rapgenius/bDemK54aRAqCcSEnUG3U_otep.jpg" alt=""&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Tesseract', 'annotations': {'description': '&lt;p&gt;TesseracT is a progressive metal band, from Milton Keynes, England. They were formed in 2003, by lead guitarist and producer &lt;a href="https://genius.com/artists/Acle-kahney" rel="noopener" data-api_path="/artists/336114"&gt;Acle Kahney&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2011, their debut album &lt;a href="https://genius.com/albums/Tesseract/One" rel="noopener" data-api_path="/albums/209026"&gt;&lt;em&gt;One&lt;/em&gt;&lt;/a&gt; was released. The album won them the 2012 &lt;a href="https://www.loudersound.com/features/vote-now-in-the-2018-progressive-music-awards" rel="noopener nofollow"&gt;Progressive Music Award&lt;/a&gt; for ‘New Blood’.&lt;/p&gt;\n\n&lt;p&gt;They’ve had three albums hit the &lt;a href="https://www.billboard.com/music/tesseract/chart-history" rel="noopener nofollow"&gt;Billboard 200&lt;/a&gt; over the years. &lt;a href="https://genius.com/albums/Tesseract/Altered-state" rel="noopener" data-api_path="/albums/131755"&gt;&lt;em&gt;Altered State&lt;/em&gt;&lt;/a&gt; hit #94, &lt;a href="https://genius.com/albums/Tesseract/Polaris" rel="noopener" data-api_path="/albums/131577"&gt;&lt;em&gt;Polaris&lt;/em&gt;&lt;/a&gt; at #120, and &lt;a href="https://genius.com/albums/Tesseract/Sonder" rel="noopener" data-api_path="/albums/401219"&gt;&lt;em&gt;Sonder&lt;/em&gt;&lt;/a&gt; at #198.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Textures', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Toothgrinder', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Toothgrinder" rel="noopener" data-api_path="/artists/661918"&gt;Toothgrinder&lt;/a&gt; is an American metal band from Asbury Park, New Jersey.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Machine-head', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/After-the-burial', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://atbevergreen.com/?fbclid=IwAR13FXLepizwlCGbGmwd7Bvn25x3FzT0lQw2JyIGYHSQs2M1JAN-I1cELP8" rel="noopener nofollow"&gt;After the Burial&lt;/a&gt; is a Progressive Metal-/Deathcore band who also falls under the Djent-Genre.&lt;br&gt;\nThey formed in 2004 in Minneapolis, Minnesota and are curryntly signed to &lt;a href="https://genius.com/artists/Sumerian-records" rel="noopener" data-api_path="/artists/1015469"&gt;Sumerian Records&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;They are best known for their eight-stringed Guitars and heavy breakdowns&lt;/p&gt;\n\n&lt;p&gt;Their latest Album &lt;a href="https://genius.com/albums/After-the-burial/Evergreen" rel="noopener" data-api_path="/albums/508233"&gt;Evergreen&lt;/a&gt; was released in April, 2019&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Dan-carle" rel="noopener" data-api_path="/artists/1097984"&gt;Dan Carle&lt;/a&gt; – Drums&lt;br&gt;\n&lt;a href="https://genius.com/artists/Anthony-notarmaso" rel="noopener" data-api_path="/artists/1097983"&gt;Anthony Notarmaso&lt;/a&gt; – Vocals&lt;br&gt;\nAdrian Oropeza – Bass&lt;br&gt;\n&lt;a href="https://genius.com/artists/Trent-hafdahl" rel="noopener" data-api_path="/artists/1097982"&gt;Trent Hafdahl&lt;/a&gt; – Guitar&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Amon-amarth', 'annotations': {'description': '&lt;p&gt;Amon Amarth is a Swedish melodic death metal band. They are most famous for the themes within their music, which typically relate to Norse mythology and its gods.&lt;/p&gt;\n\n&lt;p&gt;Band Lineup:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Johan-hegg" rel="noopener" data-api_path="/artists/660045"&gt;Johan Hegg&lt;/a&gt; – Vocals&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Ted-lundstrom" rel="noopener" data-api_path="/artists/660042"&gt;Ted Lundström&lt;/a&gt; – Bass&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Johan-soderberg" rel="noopener" data-api_path="/artists/660044"&gt;Johan Söderberg&lt;/a&gt; – Guitar&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Olavi-mikkonen" rel="noopener" data-api_path="/artists/660043"&gt;Olavi Mikkonen&lt;/a&gt; – Guitar&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Jocke-wallgreen" rel="noopener" data-api_path="/artists/2444322"&gt;Jocke Wallgren&lt;/a&gt; – Drums&lt;/li&gt;\n&lt;/ul&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Avatar-the-last-airbender', 'annotations': {'description': '&lt;p&gt;&lt;em&gt;Avatar: The Last Airbender&lt;/em&gt; is an American animated television series that aired for three seasons (referred to as “books” in each episode’s title card) on &lt;a href="http://www.nick.com/" rel="noopener nofollow"&gt;Nickelodeon&lt;/a&gt; from 2005 to 2008.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Avatar: The Last Airbender&lt;/em&gt; is set in an Asiatic world in which some people are able to manipulate the classical elements by use of psychokinetic variants of Chinese martial arts, known as “bending”. The show combines the styles of anime and American cartoons, and relies on the imagery of various East Asian, Inuit, Southeast Asian, South Asian, and New World societies.&lt;/p&gt;\n\n&lt;p&gt;The series follows the adventures of protagonist twelve-year-old &lt;a href="http://avatar.wikia.com/wiki/Aang" rel="noopener nofollow"&gt;Aang&lt;/a&gt;, the Avatar, and his friends, who must bring peace and unity to the world by ending the &lt;a href="http://avatar.wikia.com/wiki/Ozai" rel="noopener nofollow"&gt;Fire Lord&lt;/a&gt;’s war against the other three nations.&lt;/p&gt;\n\n&lt;p&gt;In 2012, a sequel, &lt;em&gt;&lt;a href="https://genius.com/artists/The-legend-of-korra" rel="noopener" data-api_path="/artists/986116"&gt;The Legend of Korra&lt;/a&gt;&lt;/em&gt;, aired in Nickelodeon, set 70 years after the end of the series.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Within-the-ruins', 'annotations': {'description': '&lt;p&gt;Within the Ruins is an American deathcore band from Westfield, Massachusetts. They are currently signed to E1 Music and Good Fight Music. The group has released five albums and three EPs.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-hu', 'annotations': {'description': '&lt;p&gt;The HU is a band from Mongolia that blends heavy metal and traditional Mongolian throat singing. Their first two videos (“Yuve Yuve Yu” and “Wolf Totem”) immediately went viral garnering the band over 30 million views. The explosive reaction to The HU resulted in a number of features about the band in international media such as NPR, ET India Times, Playboy Mexico, Jack Canal+Fr, Hong Kong 01, DW News Germany and others.&lt;/p&gt;\n\n&lt;p&gt;The band’s name The HU, is the Mongolian root word for human being. They call their style “Hunnu Rock”…inspired by the Hunnu, an ancient Mongolian empire, known as The Huns in western culture. Some of the band’s lyrics include old Mongolian war cries and poetry.&lt;/p&gt;\n\n&lt;p&gt;Founded in 2016 in Ulaanbaatar, Mongolia by their producer Dashka, along with the members Gala, Jaya, Temka, and Enkush. The HU combines Rock Music with traditional Mongolian instrumentation like the Morin Khuur (horsehead fiddle), Tovshuur (Mongolian guitar), Tumur Khuur (jaw harp), guttural throating singing and the bombastic bass and drums of rock. All four members have earned Bachelor’s or higher degrees in music and have several years of touring experience throughout Asia and the Pacific Rim.&lt;/p&gt;\n\n&lt;p&gt;Since the formation of the band, they’ve been working on their first album, The Gereg. The word Gereg was used as the first Diplomatic “Passport” by the Mongol empire during the time of Genghis Khan. The album contains nine songs including viral hits “Yuve Yuve Yu” and “Wolf Totem”, and was released on September 13, 2019 via Eleven Seven Music.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bobaflex', 'annotations': {'description': '&lt;p&gt;BOBAFLEX is known as one of the hardest working bands in the country. Renowned for their high energy, live shows and relentless touring the band was formed in 1998 by brothers Shaun and Marty McCoy. The brothers are known for their ancestral ties to the most infamous family feud in American history between the Hatfield and McCoy.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Atreyu', 'annotations': {'description': '&lt;p&gt;Atreyu is a &lt;a href="https://genius.com/tags/metalcore" rel="noopener"&gt;metalcore&lt;/a&gt; band founded in Orange County, California in 1998. The band’s name originated from the book/movie The Neverending Story. They have seven full-length albums, the most recent from 2018.&lt;/p&gt;\n\n&lt;p&gt;Vocals: &lt;a href="https://genius.com/artists/Alex-varkatzas" rel="noopener" data-api_path="/artists/1319804"&gt;Alex Varkatzas&lt;/a&gt;&lt;br&gt;\nGuitar: &lt;a href="https://genius.com/artists/Dan-jacobs" rel="noopener" data-api_path="/artists/1415910"&gt;Dan Jacobs&lt;/a&gt;&lt;br&gt;\nGuitar: &lt;a href="https://genius.com/artists/Travis-miguel" rel="noopener" data-api_path="/artists/1415909"&gt;Travis Miguel&lt;/a&gt;&lt;br&gt;\nBass: &lt;a href="https://genius.com/artists/Marc-mcknight" rel="noopener" data-api_path="/artists/1415911"&gt;Marc “Porter” McKnight&lt;/a&gt;&lt;br&gt;\nDrummer/vocals: &lt;a href="https://genius.com/artists/Brandon-saller" rel="noopener" data-api_path="/artists/458806"&gt;Brandon Saller&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Thrice', 'annotations': {'description': '&lt;p&gt;Thrice is an American rock band that formed in Irvine, California in 1998. The four members of Thrice are &lt;a href="https://genius.com/artists/Dustin-kensrue" rel="noopener" data-api_path="/artists/226427"&gt;Dustin Kensrue&lt;/a&gt;, &lt;a href="https://genius.com/artists/Teppei-teranishi" rel="noopener" data-api_path="/artists/214366"&gt;Teppei Teranishi&lt;/a&gt;, &lt;a href="https://genius.com/artists/Eddie-breckenridge" rel="noopener" data-api_path="/artists/503878"&gt;Eddie Breckenridge&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Riley-breckenridge" rel="noopener" data-api_path="/artists/503879"&gt;Riley Breckenridge&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band name &lt;a href="http://dyingscene.com/news/why-did-they-choose-the-name-thrice/" rel="noopener nofollow"&gt;came from an inside joke&lt;/a&gt;: A friend claimed that he had beaten the computer game Frogger twice, but Dustin Kensrue responded that he had beaten the game “thrice”. Lacking better ideas, &lt;a href="https://www.youtube.com/watch?v=K4dFVxNizuY&amp;amp;feature=youtu.be&amp;amp;t=1m24s" rel="noopener nofollow"&gt;they chose it as their band name for their first show&lt;/a&gt;, but &lt;a href="https://www.reddit.com/r/PostHardcore/comments/20y31d/i_am_dustin_kensrue_ask_me_anything_go/cg7tb1i" rel="noopener nofollow"&gt;never loved it and considered changing it every album for the next ten years&lt;/a&gt; until finally accepting it.&lt;/p&gt;\n\n&lt;p&gt;Their style early on was characterized by fast tempos, unusual time signatures, heavy distorted guitars, and screaming – falling somewhere between punk and hardcore.&lt;/p&gt;\n\n&lt;p&gt;Their musical style evolved significantly over time and they’ve shown themselves to be skilled and eclectic as musicians and songwriters, retaining some of their older style while expanding into other genres as well. Thrice songs cover a spectrum of genres including acoustic, electronic, hardcore, punk, grunge, blues, and folk. The band often writes the &lt;a href="https://www.youtube.com/watch?v=UmB3ot7YYPc&amp;amp;t=22m45s" rel="noopener nofollow"&gt;music and lyrics to reflect the same emotional and thematic content&lt;/a&gt; and their &lt;a href="http://www.premierguitar.com/articles/24510-the-gray-area-thrices-dustin-kensrue-and-teppei-teranishi?page=2" rel="noopener nofollow"&gt;songwriting process is very democratic&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;From &lt;a href="https://www.guitar.com/articles/thrice-no-identity-crisis-here" rel="noopener nofollow"&gt;early on&lt;/a&gt; to &lt;a href="http://www.ccmmagazine.com/features/don-t-think-thrice-it-s-all-right/" rel="noopener nofollow"&gt;Alchemy&lt;/a&gt; to &lt;a href="http://www.theaquarian.com/2016/06/15/an-interview-with-thrice-to-be-everywhere/" rel="noopener nofollow"&gt;more recently&lt;/a&gt;, lead singer Dustin Kensrue has written the lyrics to nearly every track. His lyrics are finely crafted and often have multiple layers of meaning. About his message, Kensrue &lt;a href="http://www.laweekly.com/music/thrice-return-to-reclaim-their-place-among-post-hardcores-best-bands-6957122" rel="noopener nofollow"&gt;has said&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I want my music to be engaging for humans in general, not just a specific subset of someone that believes something. There’s enough shared experience for us as humans to communicate meaningfully through conversation and art, even with people that you don’t agree with.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Many of Thrice’s lyrics are poetic, though others read more like prose essays. Both from his lyrics and interviews, it is evident that Kensrue is a &lt;a href="https://www.youpak.com/watch?v=K4dFVxNizuY&amp;amp;t=1h31m36s" rel="noopener nofollow"&gt;voracious reader and deep thinker&lt;/a&gt; [1:31:36]. He &lt;a href="http://www.rocksound.tv/features/read/thrice-major-minor-by-dustin-kensrue?" rel="noopener nofollow"&gt;is a Protestant Christian&lt;/a&gt; and frequently &lt;a href="http://theindiespiritualist.com/2011/10/19/the-passion-of-dustin-kensrue-an-interview-with-the-frontman-of-thrice/" rel="noopener nofollow"&gt;uses themes&lt;/a&gt; and &lt;a href="http://vanderbilthustler.com/ac/qa-with-musician-dustin-kensrue.html" rel="noopener nofollow"&gt;allusions from the Bible&lt;/a&gt; – and sometimes direct quotations. In the same vein, there are numerous references in Kensrue’s lyrics to work by Christian writers &lt;a href="https://www.youtube.com/watch?v=UmB3ot7YYPc&amp;amp;t=36m00s" rel="noopener nofollow"&gt;including C.S. Lewis&lt;/a&gt; (&lt;a href="http://www.magnetmagazine.com/2010/01/08/from-the-desk-of-thrice-c-s-lewis-space-trilogy/" rel="noopener nofollow"&gt;Dustin’s favorite author&lt;/a&gt;) and G.K. Chesterton. Additionally, Kensrue gets inspiration for lyrics from historical people and events, novels, films, Greek philosophy, and a host of other subjects. Regardless of the subject, the feelings and subjects explored in their tracks are personally meaningful to the band.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Righteous-vendetta', 'annotations': {'description': '&lt;p&gt;Righteous Vendetta is an American Metalcore band founded in Cody, Wyoming.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Wage-war', 'annotations': {'description': '&lt;p&gt;Originating in Central Florida, Wage War gathers inspiration from several different sub-genres of metal, explaining their wide range of appeal to metal heads everywhere. White Chapel, The Devil Wears Prada, and August Burns Red are just a few of their influences.&lt;/p&gt;\n\n&lt;p&gt;Mixing the anger and angst of Hardcore Metal with a positive message of redemption and hope. Wage War has a bright future ahead of them.&lt;/p&gt;\n\n&lt;p&gt;The current lineup consists of unclean vocalist Briton Bond, lead guitarist and backing vocalist Seth Blake, rhythm guitarist and clean vocalist Cody Quistad, bass guitarist and backing vocalist Chris Gaylord and drummer and percussionist Stephen Kleusener.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bad-wolves', 'annotations': {'description': '&lt;p&gt;Bad Wolves is an American metal band formed in 2017 led by Tommy Vext as lead vocals followed by John Boecklin on drums, Doc Coyle as lead guitar, Chris Cain on the rhythm guitar, and Kyle Konkiel on the bass guitar. In May 2017, Bad Wolves released their debut single, “Learn to Live”, in November 2017, Bad Wolves released their second single, “Toast to the Ghost”, and on January 18, 2018, they released a third single, which was a cover of “Zombie” (originally by &lt;a href="https://genius.com/artists/The-cranberries" rel="noopener" data-api_path="/artists/31849"&gt;The Cranberries&lt;/a&gt;). Bad Wolves then finally released their debut studio album, “Disobey”, on May 11, 2018.&lt;br&gt;\nBad Wolves is managed by the Zoltan Bathory of Five Finger Death Punch.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sabaton', 'annotations': {'description': '&lt;p&gt;Sabaton’s main themes are based on war and historical battles with a focus on WWI and WWII while other battles, wars, and historical figures are also prominently featured on their compositions.&lt;/p&gt;\n\n&lt;p&gt;Sabaton specializes on power metal and was formed in Falun, Sweden during 1999.&lt;/p&gt;\n\n&lt;p&gt;Current members:&lt;/p&gt;\n\n&lt;ul&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Joakim-broden" rel="noopener" data-api_path="/artists/508137"&gt;Joakim Brodén&lt;/a&gt; – Singer and Frontman&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Par-sundstrom" rel="noopener" data-api_path="/artists/508138"&gt;Pär Sundström&lt;/a&gt; – Bass Guitar&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Chris-rorland" rel="noopener" data-api_path="/artists/1735042"&gt;Chris Rörland&lt;/a&gt; – Guitar&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Tommy-johansson" rel="noopener" data-api_path="/artists/1812647"&gt;Tommy Johansson&lt;/a&gt; – Guitar&lt;/li&gt;\n&lt;li&gt;\n&lt;a href="https://genius.com/artists/Hannes-van-dahl" rel="noopener" data-api_path="/artists/1803205"&gt;Hannes van Dahl&lt;/a&gt; – Drums&lt;/li&gt;\n&lt;/ul&gt;\n\n\n&lt;p&gt;Former members:&lt;br&gt;\n* Oskar Montelius&lt;br&gt;\n* Rikard Sundén&lt;br&gt;\n* Richard Larsson&lt;br&gt;\n* Daniel Mullback&lt;br&gt;\n* Daniel Mÿhr&lt;br&gt;\n* Robban Bäck&lt;br&gt;\n* Thorbjörn Englund&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Behemoth', 'annotations': {'description': '&lt;p&gt;Hailing from    Gdańsk, Poland and beginning their career in 1991, the band has gone through several (sub) genre changes; traditionally being labeled &lt;em&gt;blackened death metal&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band was originally called &lt;em&gt;Baphomet&lt;/em&gt; but changed their name as too many other bands shared that name at the time.&lt;/p&gt;\n\n&lt;p&gt;The band’s lyrics are generally along &lt;a href="https://en.wikipedia.org/wiki/Occult" rel="noopener nofollow"&gt;occult&lt;/a&gt;, &lt;a href="https://en.wikipedia.org/wiki/Satanism" rel="noopener nofollow"&gt;Satanic&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Thelema" rel="noopener nofollow"&gt;thelemic&lt;/a&gt; themes. This courted controversy in 2007 when the All-Polish Committee for Defense Against Sects   distributed a list of bands that allegedly promoted Satanism and murder in an effort to restrict the bands freedom to play in Poland. However, it never was officially endorsed.&lt;/p&gt;\n\n&lt;p&gt;The band won the Polish Music Fryderyk Album of the Year (Heavy Metal) Award in 2010 for &lt;a href="https://genius.com/albums/Behemoth/Evangelion" rel="noopener" data-api_path="/albums/42448"&gt;&lt;em&gt;Evangelion&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Dream-evil', 'annotations': {'description': '&lt;p&gt;Dream Evil is a heavy metal band from Sweden, assembled by producer Fredrik Nordström in 1999. Producer Fredrik Nordström had the ambition of creating a power metal band of his own for a long time, but had difficulty finding anyone with musical ideals similar to his own. However, while on holiday in the Greek islands during the year of 1999, Nordström met the young guitarist Gus G (from Firewind). The musicians got along quite well, despite an age difference of over a decade. Plans for a band commenced – Gus had already been planning to relocate to Gothenburg, and upon his arrival he looked up Fredrik at Studio Fredman to begin writing.&lt;/p&gt;\n\n&lt;p&gt;The first person asked to join the new band was Snowy Shaw (from King Diamond, Mercyful Fate and Notre Dame), but the drummer initially refused their invitation. He would later change his mind and agreed to play on the band’s debut album in a session capacity.&lt;/p&gt;\n\n&lt;p&gt;Vocalist Niklas Isfeldt had done backing vocals for some of HammerFall’s songs produced by Nordström, and since he was not involved in any major projects at the time, he agreed to take the position. He also brought along his longtime friend and Pure-X bandmate Peter Stålfors, who assumed bass duties.&lt;/p&gt;\n\n&lt;p&gt;Up until the moment the first promotional photos were shot, the entire band had never been in the same place at the same time before. Some members did not even know each other.&lt;/p&gt;\n\n&lt;p&gt;The band soon got a deal with Century Media Records, and intended to name themselves Dragonslayer due to the medieval and fantastical themes of the songs written by Gus and Nordström. The label did not find the name original enough, and thus the band settled for the name Dream Evil, inspired by the Dio album of the same name.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/b411c09c6dfb042234233b39972eaa41.1000x563x1.jpg" alt="" width="1000" height="563" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Red', 'annotations': {'description': '&lt;p&gt;RED is an American Christian alternative rock/metal band from Pennsylvania. The band’s name &lt;a href="https://www.newreleasetoday.com/article.php?article_id=22" rel="noopener nofollow"&gt;represents&lt;/a&gt; the blood of Christ. The band was formed by twin brothers Anthony (lead guitar) and Randy (bass) Armstrong, Michael Barnes (lead vocals), and Andrew Hendrix (drums) in 2002. The band started out as a CCM cover band for local youth groups, until they grew tired of the genre, wanting to make more personal music with a nu-metal/post-grunge sound.&lt;/p&gt;\n\n&lt;p&gt;Later in 2004, &lt;a href="https://genius.com/artists/jasen-rauch" rel="noopener" data-api_path="/artists/338260"&gt;Jasen Rauch&lt;/a&gt; joined the band as an additional guitarist, eventually becoming one of the main songwriters. The band started recording demos with the help of Grammy-nominated rock producer &lt;a href="https://genius.com/artists/rob-graves" rel="noopener" data-api_path="/artists/91665"&gt;Rob Graves&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Not long after, the band was signed to Essential Records, a subdivision of Provident Label Group, owned by Sony Music Entertainment. Around the same time, Hendrix decided to leave his role as drummer, later being replaced by Hayden Lamb (twin brother of Hunter Lamb, the ex-guitarist of &lt;a href="https://genius.com/artists/paramore" rel="noopener" data-api_path="/artists/22531"&gt;Paramore&lt;/a&gt;). This led to the release of the debut album &lt;a href="https://genius.com/albums/red/end-of-silence" rel="noopener" data-api_path="/albums/119280"&gt;&lt;em&gt;End of Silence&lt;/em&gt;&lt;/a&gt;. The album was most known for it’s singles &lt;a href="https://genius.com/Red-breathe-into-me-lyrics" rel="noopener" data-api_path="/songs/428086"&gt;Breathe Into Me&lt;/a&gt; and &lt;a href="https://genius.com/Red-already-over-lyrics" rel="noopener" data-api_path="/songs/65832"&gt;Already Over&lt;/a&gt; and was eventually nominated for a Grammy for Best Rock Gospel Album in 2007.&lt;br&gt;\nAs the band prepared for their sophomore album, &lt;a href="https://genius.com/albums/Red/Innocence-instinct" rel="noopener" data-api_path="/albums/119282"&gt;&lt;em&gt;Innocence &amp;amp; Instinct&lt;/em&gt;&lt;/a&gt;, the band was involved in a car-crash on the highway damaging their van and gear. From this, Hayden Lamb was injured, leading Joe Rickard to take over for him as the drummer.&lt;/p&gt;\n\n&lt;p&gt;Shortly after the release of the album in 2009, Jasen Rauch decided to leave the band, to pursue producing and songwriting, which eventually led to him becoming the lead guitarist for &lt;a href="https://genius.com/artists/breaking-benjamin" rel="noopener" data-api_path="/artists/21856"&gt;Breaking Benjamin&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The third album, &lt;a href="https://genius.com/albums/Red/Until-we-have-faces" rel="noopener" data-api_path="/albums/119281"&gt;&lt;em&gt;Until We Have Faces&lt;/em&gt;&lt;/a&gt;, led to the band’s first television performance appearing on Conan, then The Tonight Show Starring Jay Leno a week later. Rickard later departed from the band after finishing the “&lt;a href="https://genius.com/albums/Red/Release-the-panic-recalibrated" rel="noopener" data-api_path="/albums/127681"&gt;recalibrated&lt;/a&gt;” version of the fourth album &lt;a href="https://genius.com/albums/Red/Release-the-panic" rel="noopener" data-api_path="/albums/119283"&gt;&lt;em&gt;Release the Panic&lt;/em&gt;&lt;/a&gt;, joining the Swedish heavy metal band &lt;a href="https://genius.com/artists/in-flames" rel="noopener" data-api_path="/artists/17320"&gt;In Flames&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2015, the band released &lt;a href="https://genius.com/albums/Red/Of-beauty-and-rage" rel="noopener" data-api_path="/albums/119379"&gt;&lt;em&gt;of Beauty and Rage&lt;/em&gt;&lt;/a&gt;, an album funded by PledgeMusic, having Dan Johnson of &lt;a href="https://genius.com/artists/love-and-death" rel="noopener" data-api_path="/artists/106178"&gt;Love &amp;amp; Death&lt;/a&gt; as the studio and touring drummer. In the Fall of 2017, Red released &lt;a href="https://genius.com/albums/red/gone" rel="noopener" data-api_path="/albums/369504"&gt;&lt;em&gt;Gone&lt;/em&gt;&lt;/a&gt;, another PledgeMusic funded album, having Rickard return as the studio drummer.&lt;/p&gt;\n\n&lt;p&gt;2019 saw Red go independent for the first time being funded solely by the fans via PledgeMusic. It also saw the official membership of Dan Johnson as the drummer for the band. They released their single &lt;a href="https://genius.com/red-the-evening-hate-lyrics" rel="noopener" data-api_path="/songs/4577772"&gt;The Evening Hate&lt;/a&gt; that June along with a 13+ minute music video created by the band.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Whitechapel', 'annotations': {'description': '&lt;p&gt;Whitechapel is an American &lt;a href="https://genius.com/tags/deathcore" rel="noopener"&gt;deathcore&lt;/a&gt; band from Knoxville, Tennessee. Founded by current vocalist Phil Bozeman, current guitarist Ben Savage, and former guitarist Brandon Cagle in February of 2006. Naming after the Whitechapel District in East London, England, referencing the series of murders as known as Jack the Ripper.&lt;/p&gt;\n\n&lt;p&gt;The band has released 6 studio albums so far.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Heaven-shall-burn', 'annotations': {'description': '&lt;p&gt;HEAVEN SHALL BURN have continued to evolve into an auditory monster that cannot be pigeonholed into any specific genre and where other bands show signs of easing back on their aggression, HEAVEN SHALL BURN do the exact opposite and continue to focus their attack, while remaining steadfast about bringing to light social and ecological injustices through their lyrical content. HEAVEN SHALL BURN have always strived to inspire the listener to educate themselves about injustices of the past as well as current issues while leading the charge towards a more socially und ecologically aware and positive lifestyle.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Soil', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://www.soiltheband.com/bio/" rel="noopener nofollow"&gt;SOiL&lt;/a&gt;, is an American rock band that was formed in Chicago, Illinois in 1997. Most known for their songs “Halo”, “Unreal” and “Redefine”.&lt;/p&gt;\n\n&lt;p&gt;When the song “Halo” was released it got a lot of attention and a lot of labels wanted to sign the band. They decided to sign with &lt;a href="https://www.jayrecords.com/" rel="noopener nofollow"&gt;J Records&lt;/a&gt; and achieved mainstream success with their major label debut, &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/Scars" rel="noopener" data-api_path="/albums/274484"&gt;Scars&lt;/a&gt;&lt;/em&gt;, in 2001. The songs “Halo” and “Unreal” got the band exposure on MTV.&lt;br&gt;\nThey even won Metal Edge magazine’s 2001 Readers’ Choice Award for “Next Big Thing”.&lt;/p&gt;\n\n&lt;p&gt;In 2004 they released their second album &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/Redefine" rel="noopener" data-api_path="/albums/224050"&gt;Re*de*fi*ne&lt;/a&gt;&lt;/em&gt; through J Records,  and embarked on a worldwide tour. In late 2004 frontman Ryan McCombs &lt;a href="http://www.blabbermouth.net/news/soil-confirm-singer-s-departure/" rel="noopener nofollow"&gt;left the group&lt;/a&gt;. He would go on to become the new vocalist of &lt;a href="https://genius.com/artists/Drowning-pool" rel="noopener" data-api_path="/artists/15619"&gt;Drowning Pool&lt;/a&gt; the following year.&lt;/p&gt;\n\n&lt;p&gt;After McCombs departure the band recruited AJ Cavalier as its new singer and released two more studio albums &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/True-self" rel="noopener" data-api_path="/albums/252125"&gt;True Self&lt;/a&gt;&lt;/em&gt; in 2006 and &lt;em&gt;&lt;a href="https://genius.com/albums/Soil/Picture-perfect" rel="noopener" data-api_path="/albums/172278"&gt;Picture Perfect&lt;/a&gt;&lt;/em&gt; in 2009.&lt;/p&gt;\n\n&lt;p&gt;In 2011, SOiL reunited with Ryan McCombs for a 10th anniversairy tour of their debut album, Scars. He stayed with the band and they released a new album in 2013, entitled “&lt;a href="https://genius.com/albums/Soil/Whole" rel="noopener" data-api_path="/albums/211905"&gt;Whole&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Slipknot_(band)', 'artist_name': 'Slipknot', 'wiki': 'http://en.wikipedia.org/wiki/Slipknot_(band)', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'start_year': '1995', 'abstract': 'Slipknot is an American heavy metal band formed in Des Moines, Iowa, in 1995 by percussionist Shawn Crahan, drummer Joey Jordison and bassist Paul Gray. After several lineup changes in its early years, the band settled on nine members for more than a decade: Crahan, Jordison, Gray, Craig Jones, Mick Thomson, Corey Taylor, Sid Wilson, Chris Fehn, and Jim Root. Gray died on May 24, 2010, and was replaced during 2011–2014 by guitarist Donnie Steele. Jordison was dismissed from the band on December 12, 2013. Steele left during the recording sessions for .5: The Gray Chapter. The band found replacements in Alessandro Venturella on bass and Jay Weinberg on drums. After the departure of Jordison, as of December 2013 the only founding member in the current lineup is percussionist Crahan. Fehn was also dismissed from the band in March 2019 prior to the writing of We Are Not Your Kind. Slipknot is well known for its attention-grabbing image, aggressive style of music, and energetic and chaotic live shows. The band rapidly rose to fame following the release of their eponymous debut album in 1999. The 2001 follow-up album, Iowa, although darker in tone, made the band more popular. After a brief hiatus, Slipknot returned in 2004 with Vol. 3: (The Subliminal Verses), before going on another hiatus and returning in 2008 with its fourth album, All Hope Is Gone, which debuted at number one on the Billboard 200 chart. After another long hiatus, Slipknot released its fifth studio album, .5: The Gray Chapter, in 2014. Their sixth studio album, We Are Not Your Kind, was released on August 9, 2019. The band has released two live albums titled 9.0: Live and Day of the Gusano: Live in Mexico, a compilation album titled Antennas to Hell, and five live DVDs. The band has sold 30 million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Avenged_Sevenfold', 'artist_name': 'Avenged Sevenfold', 'wiki': 'http://en.wikipedia.org/wiki/Avenged_Sevenfold', 'hometown': 'http://dbpedia.org/resource/Huntington_Beach,_California', 'start_year': '1999', 'abstract': 'Avenged Sevenfold (sometimes abbreviated as A7X) is an American heavy metal band from Huntington Beach, California, formed in 1999. The band\'s current lineup consists of lead vocalist M. Shadows, rhythm guitarist and backing vocalist Zacky Vengeance, lead guitarist and backing vocalist Synyster Gates, bassist and backing vocalist Johnny Christ, and drummer Brooks Wackerman. Avenged Sevenfold is known for its diverse rock sound and dramatic imagery in album covers and merchandise. The band emerged with a metalcore sound on their debut album Sounding the Seventh Trumpet and continued this sound through their second album Waking the Fallen. However, the band\'s style had evolved by the group\'s third album and first major label release, City of Evil, into a heavy metal and hard rock style. The band continued to explore new sounds with its self-titled release and enjoyed continued mainstream success before their drummer, James "The Rev" Sullivan, died in 2009. Despite his death, Avenged Sevenfold continued on with the help of drummer Mike Portnoy (Dream Theater), and released and toured in support of their fifth album Nightmare in 2010, which debuted on the top spot of the Billboard 200, their first number one debut. In 2011 drummer Arin Ilejay joined the band on tours and recording. The band\'s sixth studio album Hail to the King, which was released in 2013, marked the only Avenged Sevenfold album featuring Ilejay. Hail to the King charted as number 1 on the Billboard 200, the UK Albums chart, as well as the Finnish, Brazilian, Canadian, and Irish charts. In late 2014, Ilejay left the band, and was replaced by former Bad Religion drummer Brooks Wackerman, but the lineup change was not announced to the public until 2015. The band then surprise-released their seventh studio album titled The Stage on October 28, 2016, which debuted as number 4 on the Billboard 200 chart in the US. The Stage is their first conceptual album and it marked another stylistic change for the band, moving towards a progressive metal sound. To date, Avenged Sevenfold has released seven studio albums, one live album/DVD, two compilation albums and eighteen singles and have sold over 8 million albums worldwide, and their records have received numerous certification awards, including five platinum album awards from their home country\'s institution (RIAA). They have also created four original songs for the Call of Duty: Black Ops series, all of which were compiled together in the 2018 EP Black Reign. The band were ranked No. 47 on Loudwire\'s list of Top 50 Metal Bands of All Time.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pantera', 'artist_name': 'Pantera', 'wiki': 'http://en.wikipedia.org/wiki/Pantera', 'hometown': 'http://dbpedia.org/resource/Arlington,_Texas', 'start_year': '1981', 'end_year': '2003', 'abstract': "Pantera (/pænˈtɛrə/) was an American heavy metal band from Arlington, Texas, formed in 1981. The group's best-known lineup consisted of the Abbott brothers (drummer Vinnie Paul and guitarist Dimebag Darrell), along with vocalist Phil Anselmo and bassist Rex Brown. In addition to their development and popularization of the groove metal subgenre, Pantera is credited (along with others, such as Testament, Sepultura and Machine Head) for being part of the second wave of thrash metal scene from the late 1980s to early-to-mid 1990s. Pantera is regarded as one of the most successful and influential bands in heavy metal history, having sold around 20 million records worldwide and having received four Grammy nominations. Having started as a glam metal band, Pantera released three albums in the mid-1980s with lead vocalist Terry Glaze (Metal Magic, Projects in the Jungle, and I Am the Night). Looking for a new and heavier sound, Pantera hired Anselmo in 1987 and released Power Metal in 1988. They secured a record deal with major label Atco the following year. Their fifth album, 1990's Cowboys from Hell, popularized the groove metal genre, while its 1992 follow-up Vulgar Display of Power achieved an even heavier sound. Far Beyond Driven (1994) debuted at number one on the Billboard 200. Tensions began to surface among the band members when Anselmo became addicted to heroin in 1995; he almost died from an overdose in 1996. These tensions resulted in the recording sessions for The Great Southern Trendkill (1996) being held separately. The ongoing tension lasted for another seven years, during which only one studio album, Reinventing the Steel (2000), was recorded. Pantera went on hiatus in 2001 but lingering disputes led to the band breaking up in 2003. The Abbott brothers went on to form Damageplan while Anselmo continued to work on several side projects, including Down, which Brown joined as well. On December 8, 2004, Dimebag Darrell was shot and killed on stage by a mentally unstable fan during a Damageplan concert in Columbus, Ohio. Vinnie Paul went on to form Hellyeah after his brother's death, and died of heart failure in 2018, leaving Brown and Anselmo as the only surviving members of the band's best-known lineup."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/System_of_a_Down', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'start_year': '1994', 'end_year': '2006', 'abstract': 'System of a Down (also known as SoaD or simply System) is an Armenian-American heavy metal band formed in Glendale, California, in 1994. It currently consists of members Serj Tankian (lead vocals, keyboards), Daron Malakian (guitar, vocals), Shavo Odadjian (bass, backing vocals), and John Dolmayan (drums), who replaced original drummer Andy Khachaturian in 1997. The band achieved commercial success with the release of five studio albums, three of which debuted at number one on the US Billboard 200. System of a Down has been nominated for four Grammy Awards and their song "B.Y.O.B." won a Grammy Award for Best Hard Rock Performance in 2006. The band went on hiatus in 2006 and reunited in 2010. Other than two new songs in 2020 ("Protect the Land" and "Genocidal Humanoidz"), System of a Down has not released a full-length record since the Mezmerize and Hypnotize albums in 2005. The band has sold over 40 million records worldwide, while two of their singles "Aerials" and "Hypnotize" reached number one on Billboard\'s Alternative Songs chart. All members of System of a Down are of Armenian descent, being born to Armenian immigrants or immigrating from Armenia themselves.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Alice_in_Chains', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '1987', 'end_year': '2002', 'abstract': "Alice in Chains (often abbreviated as AIC) is an American rock band from Seattle, Washington, formed in 1987 by guitarist and vocalist Jerry Cantrell and drummer Sean Kinney, who later recruited bassist Mike Starr and lead vocalist Layne Staley. Starr was replaced by Mike Inez in 1993. William DuVall joined the band in 2006 as co-lead vocalist and rhythm guitarist, replacing Staley, who died in 2002. The band took its name from Staley's previous group, the glam metal band Alice N' Chains. Often associated with grunge music, Alice in Chains' sound incorporates heavy metal elements. The band is known for its distinctive vocal style, which often included the harmonized vocals between Staley and Cantrell (and later Cantrell and DuVall). Cantrell started to sing lead vocals on the 1992 acoustic EP Sap, and his role continued to grow in the following albums, making Alice in Chains a two-vocal band. Alice in Chains rose to international fame as part of the grunge movement of the early 1990s, along with other Seattle bands such as Nirvana, Pearl Jam, and Soundgarden. They achieved success during the era with the albums Facelift (1990), Dirt (1992), Alice in Chains (1995), as well as the EP Jar of Flies (1994). Although never officially disbanding, Alice in Chains was plagued by extended inactivity from 1996 onward, due to Staley's substance abuse, which resulted in his death in 2002. The band regrouped in 2006, with DuVall taking over as lead vocalist full-time, and they have since released three more albums: Black Gives Way to Blue (2009), The Devil Put Dinosaurs Here (2013), and Rainier Fog (2018). Alice in Chains have sold over 30 million records worldwide, and over 14 million records in the US alone. The band has had 18 Top 10 songs on Billboard's Mainstream Rock Tracks chart, 5 No. 1 hits, and received 11 Grammy Award nominations. The band was ranked number 34 on VH1's 100 Greatest Artists of Hard Rock and was ranked as the 15th greatest live band by Hit Parader. Since its formation, Alice in Chains has released six studio albums, three EPs, three live albums, four compilations, two DVDs, 43 music videos, and 32 singles."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sepultura', 'artist_name': 'Sepultura', 'wiki': 'http://en.wikipedia.org/wiki/Sepultura', 'hometown': 'http://dbpedia.org/resource/Minas_Gerais', 'start_year': '1984', 'abstract': 'Sepultura (Portuguese: [ˌsepuwˈtuɾɐ], "grave") is a Brazilian heavy metal band from Belo Horizonte. Formed in 1984 by brothers Max and Igor Cavalera, the band was a major force in the groove metal, thrash metal and death metal genres during the late 1980s and early 1990s, with their later experiments drawing influence from alternative metal, world music, nu metal, hardcore punk, and industrial metal. Sepultura has also been credited as one of the second wave of thrash metal acts from the late 1980s to early-to-mid-1990s, along with bands like Pantera, Testament, Sacred Reich, Dark Angel, Vio-lence, Forbidden, Death Angel, and Machine Head. The band has had several lineup changes throughout its existence, with Max and Igor Cavalera departing in 1996 and 2006, respectively. Sepultura\'s current lineup consists of vocalist Derrick Green (who replaced Max in 1998), guitarist Andreas Kisser, bassist Paulo Jr. and drummer Eloy Casagrande (who replaced Igor\'s successor Jean Dolabella in 2011). Since Igor Cavalera\'s departure in 2006, there have been no original members left in the band. Although Paulo Jr. joined Sepultura shortly after its formation in late 1984 and is the longest serving member, he did not play on any of the band\'s studio albums until Chaos A.D. (1993). Kisser, who replaced onetime guitarist Jairo Guedz, has appeared on all of Sepultura\'s records since their second full-length Schizophrenia (1987); he also recorded bass guitar until Chaos A.D.. Sepultura has released fifteen studio albums to date, the latest being Quadra (2020). Their most successful records are Beneath the Remains (1989), Arise (1991), Chaos A.D. (1993), and Roots (1996). Sepultura has sold over three million units in the United States and almost 20 million worldwide, gaining multiple gold and platinum records around the globe, including in countries as diverse as France, Australia, Indonesia, United States, Cyprus, and their native Brazil.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Disturbed_(band)', 'artist_name': 'Disturbed', 'wiki': 'http://en.wikipedia.org/wiki/Disturbed_(band)', 'hometown': 'http://dbpedia.org/resource/Chicago', 'start_year': '1994', 'end_year': '2011', 'abstract': 'Disturbed is an American heavy metal band from Chicago, formed in 1994. The band includes vocalist David Draiman, guitarist/keyboardist Dan Donegan, bassist John Moyer and drummer Mike Wengren. Donegan and Wengren have been involved in the band since its inception, with Moyer replacing former bassist Steve "Fuzz" Kmak and Draiman replacing original lead vocalist Erich Awalt. The band has released seven studio albums, five of which have consecutively debuted at number one on the Billboard 200. Disturbed went into hiatus in October 2011, during which the band\'s members focused on various side projects, and returned in June 2015, releasing their first album in four years, Immortalized in August 2015. They also released two live albums, Music as a Weapon II in February 2004 and Disturbed: Live at Red Rocks in November 2016. Disturbed has sold over 17 million records worldwide, making them one of the most successful rock bands in the modern era alongside Slipknot and Godsmack, among others.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Godsmack', 'artist_name': 'Godsmack', 'wiki': 'http://en.wikipedia.org/wiki/Godsmack', 'hometown': 'http://dbpedia.org/resource/Lawrence,_Massachusetts', 'start_year': '1995', 'abstract': 'Godsmack is an American rock band from Lawrence, Massachusetts, formed in 1995. The band is composed of founder, frontman and songwriter Sully Erna, guitarist Tony Rombola, bassist Robbie Merrill and drummer Shannon Larkin. Since its formation, Godsmack has released seven studio albums, one EP (The Other Side), four DVDs, one compilation album (Good Times, Bad Times... Ten Years of Godsmack), and one live album (Live &amp; Inspired). The band has released three consecutive number-one albums (Faceless, IV and The Oracle) on the Billboard 200. The band also has 25 top ten rock radio hits, including 18 songs in the top five. The band\'s seventh album, When Legends Rise was released on April 27, 2018. Since its inception, Godsmack has toured with Ozzfest on more than one occasion and has toured with many other large tours and festivals, including supporting its albums with its own arena tours. In honor of the band\'s success and the release of their sixth studio album, 1000hp, Mayor Marty Walsh declared August 6 as "Godsmack Day" in the city of Boston.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Motörhead', 'artist_name': 'Motörhead', 'wiki': 'http://en.wikipedia.org/wiki/Motörhead', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1975', 'end_year': '2015', 'abstract': 'Motörhead (/ˈmoʊtərhɛd/) were an English rock band formed in London in 1975 by Lemmy (lead vocals, bass), Larry Wallis (guitar), and Lucas Fox (drums). Lemmy was also the primary songwriter and only constant member. The band are often considered a precursor to the new wave of British heavy metal, which re-energised heavy metal in the late 1970s and early 1980s. Though several guitarists and drummers have played in Motörhead, most of their best-selling albums and singles feature drummer Phil "Philthy Animal" Taylor and guitarist "Fast" Eddie Clarke. Motörhead released 22 studio albums, 10 live recordings, 12 compilation albums, and five EPs over a career spanning 40 years. Usually a power trio, they had particular success in the early 1980s with several successful singles in the UK Top 40 chart. The albums Overkill, Bomber, Ace of Spades, and particularly the live album No Sleep \'til Hammersmith cemented Motörhead\'s reputation as a top-tier rock band. The band are ranked number 26 on VH1\'s 100 Greatest Artists of Hard Rock. As of 2016, they have sold more than 15 million albums worldwide. Most often classified as heavy metal, Motörhead has been credited with being part of and influencing numerous musical scenes, thrash metal and speed metal especially. Lemmy, however, always insisted that they were a rock and roll band. He said that they had more in common with punk bands, but with their own unique sound, Motörhead is embraced in both punk and metal scenes. Their lyrics typically covered such topics as war, good versus evil, abuse of power, promiscuous sex, substance abuse, and, most famously, gambling, the latter theme being the focus of their hit song "Ace of Spades". Lemmy died on 28 December 2015 from cardiac arrhythmia and congestive heart failure, after being diagnosed with prostate cancer. The day after his death, drummer Mikkey Dee and guitarist Phil Campbell both confirmed that Motörhead had disbanded. By 2018, all three members of Motörhead\'s best-known lineup (Lemmy, Taylor, and Clarke) had died.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Gojira_(band)', 'artist_name': 'Gojira', 'wiki': 'http://en.wikipedia.org/wiki/Gojira_(band)', 'hometown': 'http://dbpedia.org/resource/Landes_(department)', 'start_year': '1996', 'abstract': 'Gojira is a French heavy metal band from Ondres. Founded as Godzilla in 1996, the band\'s lineup—brothers Joe (lead vocals, rhythm guitar) and Mario Duplantier (drums), Christian Andreu (lead guitar), and Jean-Michel Labadie (bass)—has been the same since the band changed its name to Gojira in 2001. Gojira has been known for their progressive and technical death metal styles and their spiritual and environmentally-themed lyrics. The band has gone "from the utmost obscurity during the first half of their career to widespread global recognition in the second". Gojira\'s first two albums, Terra Incognita (2001) and The Link (2003), and powerful live performances established their reputation as a leading French metal band. Maciste All\'Inferno was a silent film score composed and performed for a one-night show in Bordeaux. Their third album, the critically-acclaimed From Mars to Sirius (2005) with "Backbone", "The Heaviest Matter of the Universe", and "Flying Whales", was covered in the British metal press. The band then signed with Prosthetic Records, which gave them visibility in North America. The follow-up album, The Way of All Flesh (2008), charted on the Billboard 200, and Gojira later launched their first overseas headlining tour. The band began recording the Sea Shepherd EP in a collaborative framework involving several metal musicians. In 2011, Gojira signed with Roadrunner Records. The band released L\'Enfant Sauvage (2012) and Magma (2016), which peaked at number thirty-four and twenty-four respectively on the Billboard 200. Gojira shelved death metal in favor of a more straightforward style on Magma, the band\'s breakthrough album. In 2020, they released their first Billboard-charting single, "Another World". The chart-topping Fortitude (2021) was the best-selling album in the US during its first week. With a DIY approach, the band produce their albums at their own recording studios in France and New York City. Gojira has released seven studio albums, three live DVDs, and is the first French band to top the Billboard Hard Rock Albums chart. Gojira is considered one of France\'s most successful exports to the US. The band has received Grammy Award nominations for Best Rock Album for Magma and Best Metal Performance for the singles "Silvera" and "Amazonia". Gojira holds the record for the loudest concert (and sound) ever recorded at the Stade de France. Throughout their career, the band has been involved in environmental, human- and animal-rights activism.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Ghost_(singer)', 'artist_name': 'Ghost', 'wiki': 'http://en.wikipedia.org/wiki/Ghost_(singer)', 'start_year': '1993', 'abstract': 'Carlton Hylton (born 1974), better known as Ghost, is a Jamaican singjay performer. He is best known for songs such as the dancehall hit "Body Guard". He gained his first notice in 1993 singing for Clifton "Specialist" Dillon on ragga songs, partnering with DJ Culture as rapper. Ghost was a member of Monster Shack Crew in 1996. He joined Jamaican singer Tony Curtis on 1997\'s "Wine", produced by Classical People for Opera House Production. In 1998 he wrote "What Have You Done" with Anthony Cameron, released as a single produced by Red Rose &amp; Malvo during sessions for their compilation album How You Fi Sey Dat? Hylton picked up the nickname "Ghost" as a child in Kingston, Jamaica, from the reaction of other children to his appearance in head bandages after being hit by a bicycle in the road. In 2020, Ghost released the Christian worship song "Humbly Before Thee" under the Ghetto Youths International label.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rammstein', 'artist_name': 'Rammstein', 'wiki': 'http://en.wikipedia.org/wiki/Rammstein', 'hometown': 'http://dbpedia.org/resource/Berlin', 'start_year': '1994', 'abstract': 'Rammstein (German pronunciation: [ˈʁamʃtaɪn], lit. "ramming stone") is a German Neue Deutsche Härte band formed in Berlin in 1994. The band\'s lineup—consisting of lead vocalist Till Lindemann, lead guitarist Richard Kruspe, rhythm guitarist Paul Landers, bassist Oliver Riedel, drummer Christoph Schneider, and keyboardist Christian "Flake" Lorenz—has remained unchanged throughout their history, along with their approach to songwriting, which consists of Lindemann writing and singing the lyrics over instrumental pieces the rest of the band have completed beforehand. Prior to their formation, some members were associated with the punk rock acts Feeling B and First Arsch. After winning a local contest, Rammstein were able to record demos and send them to different record labels, eventually signing with Motor Music. Working with producer Jacob Hellner, they released their debut album Herzeleid in 1995. Though the album initially sold poorly, the band gained popularity through their live performances and the album eventually reached No. 6 in Germany. Their second album, Sehnsucht, was released in 1997 and debuted at No. 1 in Germany, resulting in a worldwide tour lasting nearly four years and spawning the successful singles "Engel" and "Du hast" and the live album Live aus Berlin (1999). Following the tour, Rammstein signed with major label Universal Music and released Mutter in 2001. Six singles were released from the album, all charting in countries throughout Europe. The lead single, "Sonne", reached No. 2 in Germany. Rammstein released Reise, Reise in 2004 and had two more singles reach No. 2 in Germany: "Mein Teil" and "Amerika"; the former song reached No. 1 in Spain, becoming their first No. 1 single. Their fifth album, Rosenrot, was released in 2005, and the lead single, "Benzin", reached No. 6 in Germany. Their second live album, Völkerball, was released in 2006. The band released their sixth album, Liebe ist für alle da, in 2009, with its lead single, "Pussy", becoming their first No. 1 hit in Germany despite having a controversial music video that featured hardcore pornography. The band then entered a recording hiatus and toured for several years, releasing the Made in Germany greatest hits album as well as the Rammstein in Amerika and Paris live albums. After a decade without new music, Rammstein returned in 2019 with the song "Deutschland", which became their second No. 1 hit in Germany. Their untitled seventh studio album was released in May 2019 and reached No. 1 in 14 countries. Rammstein were one of the first bands to emerge within the Neue Deutsche Härte genre, with their debut album leading the music press to coin the term, and their style of music has generally had a positive reception from music critics. Commercially, the band have been very successful, earning many No. 1 albums as well as gold and platinum certifications in countries around the world. Their grand live performances, which often feature pyrotechnics, have contributed to their popularity growth. Despite success, the band have been subject to some controversies, with their overall image having been criticized; for instance, the song "Ich tu dir weh" forced its parent album Liebe ist für alle da to be re-released in Germany with the song removed due to its sexually explicit lyrics.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Mudvayne', 'artist_name': 'Mudvayne', 'wiki': 'http://en.wikipedia.org/wiki/Mudvayne', 'hometown': 'http://dbpedia.org/resource/Peoria,_Illinois', 'start_year': '1996', 'end_year': '2010', 'abstract': 'Mudvayne is an American heavy metal band from Peoria, Illinois, formed in 1996. They are known for their sonic experimentation, innovative album art, face and body paint, masks and uniforms. The band has sold over six million records worldwide, including nearly three million in the United States. The group consist of guitarist Greg Tribbett, drummer Matthew McDonough, lead vocalist Chad Gray and bassist Ryan Martinie. Formed in 1996, Mudvayne became popular in the late-1990s Peoria, Illinois underground music scene. The band released an EP, Kill, I Oughtta, in 1997 and a successful debut album, L.D. 50, in 2000. They had global success with The End of All Things to Come (2002), Lost and Found (2005) and The New Game (2008). After one more album, Mudvayne (2009), the band went on hiatus in 2010 and reunited in 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Deftones', 'artist_name': 'Deftones', 'wiki': 'http://en.wikipedia.org/wiki/Deftones', 'hometown': 'http://dbpedia.org/resource/Sacramento,_California', 'start_year': '1988', 'abstract': 'Deftones is an American alternative metal band formed in Sacramento, California in 1988. It was formed by Chino Moreno (lead vocals, rhythm guitar), Stephen Carpenter (lead guitar), Abe Cunningham (drums), and Dominic Garcia (bass). During their first five years, the band\'s lineup changed several times, but stabilized in 1993 when Cunningham rejoined after his departure in 1990; by this time, Chi Cheng was bassist. The lineup remained stable for fifteen years, with the exception of keyboardist and turntablist Frank Delgado being added in 1999. The band is known as one of the most experimental groups to have come from the alternative metal scene. Deftones have released nine albums since their inception. After the lineup settled in 1993, the band secured a recording contract with Maverick Records, and subsequently released their debut album Adrenaline in 1995. Promoting the album by touring exhaustively with other bands in the scene, Deftones managed to gain a dedicated fan base through word of mouth. Their second album Around the Fur was released in 1997, reached chart positions along with its singles, and became the band\'s first to receive certification from the RIAA. The band found even further success with their third album White Pony (2000), which saw a transition away from their earlier, more aggressive sound into a more experimental direction. Its lead single "Change (In the House of Flies)" is the band\'s most commercially successful single, and the track "Elite" won a Grammy Award for Best Metal Performance; it was also the band\'s first of three albums to be certified platinum in the United States. Their self-titled fourth album was released in 2003. While the group\'s critical success continued, sales proved to be lackluster compared to White Pony. Deftones\' fifth studio effort, Saturday Night Wrist, was released in 2006. While critically acclaimed, the album’s production was marred by creative tensions and personal issues within the band, some of which influenced its material. In 2008, while Deftones were working on an album tentatively titled Eros, Cheng was involved in a traffic collision. As a result, he was left in a minimally conscious state until his death in 2013 of cardiac arrest. After Cheng\'s accident, Deftones halted production on Eros. Quicksand bassist Sergio Vega, who had filled in as a touring member to replace Cheng, later became his permanent replacement. The band released Diamond Eyes in 2010 and embarked on a triple-headline tour with Alice in Chains and Mastodon throughout North America. Their seventh and eighth albums, Koi No Yokan (2012) and Gore (2016) respectively, saw the band continue to move in an increasingly experimental direction and were released to critical acclaim. Their latest album, Ohms, was released on September 25, 2020, receiving significant critical praise. They have sold more than 10 million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hatebreed', 'artist_name': 'Hatebreed', 'wiki': 'http://en.wikipedia.org/wiki/Hatebreed', 'hometown': 'http://dbpedia.org/resource/Bridgeport,_Connecticut', 'start_year': '1994', 'abstract': 'Hatebreed is an American metalcore band from Bridgeport, Connecticut, formed in 1994. The band released its debut album Satisfaction is the Death of Desire in 1997, which gave the band a cult following. The band signed to Universal Records and released Perseverance in 2002, which hit the Billboard 200. Combining elements of hardcore and heavy metal, the band is often described as a metalcore, hardcore punk, and beatdown hardcore band. They have played a major role in the Connecticut hardcore scene.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Mastodon_(band)', 'artist_name': 'Mastodon', 'wiki': 'http://en.wikipedia.org/wiki/Mastodon_(band)', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'start_year': '2000', 'abstract': 'Mastodon is an American heavy metal band from Atlanta, Georgia, formed in 2000. The group is composed of Troy Sanders (bass/vocals), Brent Hinds (lead guitar/vocals), Bill Kelliher (rhythm guitar/backing vocals), and Brann Dailor (drums/vocals). Mastodon has released eight studio albums, as well as a number of other releases. The band\'s 2002 debut album, Remission, garnered significant critical acclaim for its unique sound. Mastodon\'s second full-length release, Leviathan, is a concept album based on the novel Moby-Dick by Herman Melville. Three magazines awarded the record Album of the Year in 2004: Revolver, Kerrang! and Terrorizer. The song "Colony of Birchmen" from the band\'s third album (released in 2006), Blood Mountain, was nominated for a Grammy Award for Best Metal Performance in 2007. Blood Mountain was followed in 2009 by Crack the Skye, and in 2011 by The Hunter, which debuted at No. 10 on the Billboard 200 chart and achieved major commercial success in the United States. The Hunter features the song "Curl of the Burl", which was nominated for a Grammy for Best Hard Rock/Metal Performance in 2012. Mastodon\'s 2014 album, Once More \'Round the Sun, peaked at No. 6 on the Billboard 200 chart and features the band\'s third Grammy-nominated song, "High Road". The band\'s seventh album, Emperor of Sand, was released on March 31, 2017, and features the band\'s most commercially successful song to date, "Show Yourself", which peaked at No. 4 on the US Billboard Mainstream Rock Songs chart in June 2017. The followup single, "Steambreather", peaked at number 18 on the same chart in October 2017. The album\'s opening track, "Sultan\'s Curse", earned the band their first Grammy award. Emperor of Sand was the band\'s first album to receive a Grammy nomination; it was nominated for Best Rock Album. Mastodon\'s eighth album Hushed and Grim was released on October 29, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Marilyn_Manson_(band)', 'artist_name': 'Marilyn Manson', 'wiki': 'http://en.wikipedia.org/wiki/Marilyn_Manson_(band)', 'hometown': 'http://dbpedia.org/resource/Fort_Lauderdale,_Florida', 'start_year': '1989', 'abstract': 'Marilyn Manson is an American rock band formed by namesake lead singer Marilyn Manson and guitarist Daisy Berkowitz in Fort Lauderdale, Florida, in 1989. Originally named Marilyn Manson &amp; the Spooky Kids, they gained a local cult following in South Florida in the early 1990s with their theatrical live performances. In 1993, they were the first act signed to Trent Reznor\'s Nothing Records label. Until 1996, the name of each member was created by combining the first name of a female sex symbol and the last name of a serial killer, for example Marilyn Monroe and Charles Manson. Their lineup has changed between many of their album releases; the eponymous lead singer is the only remaining original member. In the past, band members dressed in outlandish makeup and costumes, and engaged in intentionally shocking behavior both onstage and off. Their lyrics often received criticism for their anti-religious sentiment and references to sex, violence and drugs, while their live performances were frequently called offensive and obscene. On several occasions, protests and petitions led to the group being blocked from performing, with at least three US states passing legislation banning the group from performing at state-owned venues. They released a number of platinum-selling albums, including Antichrist Superstar (1996) and Mechanical Animals (1998). These albums, along with their highly stylized music videos and worldwide touring, brought public recognition to Marilyn Manson. In 1999, news media, infamously, falsely blamed the band for influencing the perpetrators of the Columbine High School massacre. As this controversy began to wane throughout the 2000s, so did the band\'s mainstream popularity. Despite this, Jon Wiederhorn of MTV, in June 2003, referred to Marilyn Manson as "the only true artist today". Marilyn Manson is widely regarded as being one of the most iconic and controversial figures in rock music, with the band and its lead singer influencing numerous other groups and musicians, both in metal-associated acts and also in wider popular culture. VH1 ranked Marilyn Manson as the seventy-eighth best rock band on their 100 Great Artists of Hard Rock. They were inducted into the Kerrang! Hall of Fame in 2000, and have been nominated for four Grammy Awards. In the U.S., the band has seen ten of its releases debut in the top ten, including two number-one albums. Marilyn Manson have sold in excess of 50 million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Killswitch_Engage', 'artist_name': 'Killswitch Engage', 'wiki': 'http://en.wikipedia.org/wiki/Killswitch_Engage', 'hometown': 'http://dbpedia.org/resource/Westfield,_Massachusetts', 'start_year': '1999', 'abstract': 'Killswitch Engage is an American metalcore band from Westfield, Massachusetts, formed in 1999 after the disbanding of Overcast and Aftershock. Killswitch Engage\'s current lineup consists of vocalist Jesse Leach, guitarists Joel Stroetzel and Adam Dutkiewicz, bassist Mike D\'Antonio, and drummer Justin Foley. The band has released eight studio albums and two live performance albums. Their eighth studio album, Atonement, was released on August 16, 2019. Killswitch Engage rose to fame with its 2004 release The End of Heartache, which peaked at number 21 on the Billboard 200, and was certified gold by the RIAA in December 2007 for over 500,000 shipments in the United States. The title track, "The End of Heartache", was nominated for a Grammy Award in 2005 for Best Metal Performance, and a live DVD titled (Set This) World Ablaze was released in 2005. Killswitch Engage has performed at festivals such as Soundwave Festival, Wacken Open Air, Reading and Leeds Festivals, Ozzfest, Download Festival, Rock on the Range, Rock am Ring, Mayhem Festival, Monsters of Rock, Pointfest, Knotfest and Heavy MTL. The band has sold over four million records in the U.S. and has been considered notable within the New Wave of American Heavy Metal, and has also been considered one of the earliest leading forces of the metalcore genre.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Trivium_(band)', 'artist_name': 'Trivium', 'wiki': 'http://en.wikipedia.org/wiki/Trivium_(band)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'start_year': '1999', 'abstract': 'Trivium is an American heavy metal band from Orlando, Florida, formed in 1999. The band comprises vocalist and guitarist Matt Heafy, guitarist Corey Beaulieu, bassist Paolo Gregoletto, and drummer Alex Bent. The band\'s debut album Ember to Inferno was their only album released through Lifeforce Records in 2003. After getting signed to Roadrunner Records in 2004, the band has released nine studio albums and over twenty singles. Their tenth studio album, In the Court of the Dragon, was released on October 8, 2021. The band has sold over one million albums worldwide and was nominated for a Grammy for the song "Betrayer" at the 61st Annual Grammy Awards in 2019 for Best Metal Performance.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Drowning_Pool', 'artist_name': 'Drowning Pool', 'wiki': 'http://en.wikipedia.org/wiki/Drowning_Pool', 'hometown': 'http://dbpedia.org/resource/Dallas', 'start_year': '1996', 'abstract': "Drowning Pool is an American rock band formed in Dallas, Texas in 1996. The band was named after the 1975 film The Drowning Pool. Since its formation, the band has consisted of guitarist C.J. Pierce, bassist Stevie Benton, and drummer Mike Luce, as well as a revolving cast of vocalists, the latest being Jasen Moreno. After the release of their debut album, Sinner (2001), original vocalist Dave Williams was found dead on August 14, 2002 from heart disease. Jason Jones, who replaced Williams in 2003, recorded one album, Desensitized (2004), but left in 2005 due to musical differences. Ryan McCombs of Chicago-based band SOiL, later replaced Jones and released two albums, Full Circle (2007) and Drowning Pool (2010), making it the first time Drowning Pool had not switched singers after just one album. However, McCombs left the band in 2011 to rejoin SOiL. Jasen Moreno was announced as McCombs' replacement in 2012, and the band has since recorded two albums with him: Resilience (2013) and Hellelujah (2016)."}</t>
+    <t>{'url': 'https://genius.com/artists/Coldplay', 'annotations': {'description': '&lt;p&gt;Coldplay is a British rock band, formed in 1997 by University College London classmates &lt;a href="https://genius.com/artists/Chris-martin" rel="noopener" data-api_path="/artists/353"&gt;Chris Martin&lt;/a&gt; (vocals, guitar, piano), &lt;a href="https://genius.com/artists/Jonny-buckland" rel="noopener" data-api_path="/artists/182604"&gt;Jonny Buckland&lt;/a&gt; (guitar) and &lt;a href="https://genius.com/artists/Guy-berryman" rel="noopener" data-api_path="/artists/173684"&gt;Guy Berryman&lt;/a&gt; (bass), along with drummer &lt;a href="https://genius.com/artists/Will-champion" rel="noopener" data-api_path="/artists/182605"&gt;Will Champion&lt;/a&gt;. The band’s name comes from &lt;a href="https://web.archive.org/web/20170809171008/http://www.coldplay.com/newsdetail.php?id=80" rel="noopener nofollow"&gt;Tim Crompton&lt;/a&gt;, a student who was in the same university as the members (University College London) at the time. They were previously known as Pectoralz, then changed their name to Starfish in 1997 &lt;a href="https://kiisfm.iheart.com/content/2021-06-15-24-facts-you-need-to-know-about-our-2021-iheartradio-music-festival-lineup/" rel="noopener nofollow"&gt;before finally settling on the name Coldplay&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Once they issued their debut, &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/Parachutes" rel="noopener" data-api_path="/albums/18002"&gt;Parachutes&lt;/a&gt;&lt;/em&gt; in 2000, many saw them as a &lt;a href="https://genius.com/artists/Radiohead" rel="noopener" data-api_path="/artists/604"&gt;Radiohead&lt;/a&gt; knock-off. No doubt, Coldplay’s sound —elegant, melodic, vaguely spacey and very dramatic — bore plenty of similarity to mid-1990s Radiohead. But the group’s hooks, sharpened by frontman Chris Martin’s ability to pull heartstrings, and the their willingness to evolve their sound, gave Coldplay staying power. The greatest examples are second album &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/A-rush-of-blood-to-the-head" rel="noopener" data-api_path="/albums/17979"&gt;A Rush of Blood to the Head&lt;/a&gt;&lt;/em&gt; (2002), which was generally considered to be musically and lyrically more mature and sophisticated, and less obviously the product of one particular influence, and the fourth one &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/A-rush-of-blood-to-the-head" rel="noopener" data-api_path="/albums/17979"&gt;Viva La Vida or Death and All His Friends&lt;/a&gt;&lt;/em&gt; (2008), where producer &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; influenced the band to broaden their sound and led to various sonic landscapes. Both won the Grammy Award for Best Rock Album and spawned sucessful singles such as &lt;a href="https://genius.com/Coldplay-clocks-lyrics" rel="noopener" data-api_path="/songs/53753"&gt;“Clocks”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-viva-la-vida-lyrics" rel="noopener" data-api_path="/songs/49192"&gt;“Viva la Vida”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-in-my-place-lyrics" rel="noopener" data-api_path="/songs/77596"&gt;“In My Place”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-violet-hill-lyrics" rel="noopener" data-api_path="/songs/64086"&gt;“Violet Hill”&lt;/a&gt; and &lt;a href="https://genius.com/Coldplay-the-scientist-lyrics" rel="noopener" data-api_path="/songs/77594"&gt;“The Scientist”&lt;/a&gt;.&lt;br&gt;\nColdplay also proved they can use truly rock sounds in their albums, as shown in &lt;a href="https://genius.com/albums/Coldplay/X-y" rel="noopener" data-api_path="/albums/11506"&gt;&lt;em&gt;X&amp;amp;Y&lt;/em&gt;&lt;/a&gt;, and juggle with more electronics albums like &lt;a href="https://genius.com/albums/Coldplay/Mylo-xyloto" rel="noopener" data-api_path="/albums/12250"&gt;&lt;em&gt;Mylo Xyloto&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Coldplay/Ghost-stories" rel="noopener" data-api_path="/albums/85921"&gt;&lt;em&gt;Ghost Stories&lt;/em&gt;&lt;/a&gt; or &lt;a href="https://genius.com/albums/Coldplay/A-head-full-of-dreams" rel="noopener" data-api_path="/albums/134218"&gt;&lt;em&gt;A Head Full of Dreams&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;As a result, the band became one of the most commercially successful acts of the new millennium, with over 80 million albums sold – even if along with the acclaim came a vocal opposition, due to the supposedly derivative nature, the overtly emotional lyrics, and the fact they’re good-mannered English boys instead of wild rockstars. As a result, Coldplay are thought as either a punchline showing all that’s wrong with 21st century rock, or a really good if overplayed band with songs tailor made for stadium performances.&lt;/p&gt;', 'alternate_names': ['Starfish']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-hooters', 'annotations': {'description': '&lt;p&gt;The Hooters are an American rock band from Philadelphia, Pennsylvania, United States. They combine elements of rock, reggae, ska, and folk music to create their sound. The Hooters first gained major commercial success in the United States in the mid-1980s due to heavy radio airplay and MTV rotation of several songs including “All You Zombies”, “Day by Day”, “And We Danced” and “Where Do the Children Go”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-knack', 'annotations': {'description': '&lt;p&gt;The Knack was an American rock band based in Los Angeles that rose to fame with their first single, “My Sharona”, an international number-one hit in 1979.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/e7da446954646ea01484e56a690d87de.800x531x1.jpg" alt="" width="800" height="531" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dnce', 'annotations': {'description': '&lt;p&gt;In 2015, &lt;a href="https://genius.com/artists/Joe-jonas" rel="noopener" data-api_path="/artists/16515"&gt;Joe Jonas&lt;/a&gt; announced his first project since the &lt;a href="https://genius.com/artists/Jonas-brothers" rel="noopener" data-api_path="/artists/8436"&gt;Jonas Brothers&lt;/a&gt; officially split: a band called DNCE. Joe recruited guitarist &lt;a href="https://genius.com/artists/Jinjoo-lee" rel="noopener" data-api_path="/artists/1035785"&gt;JinJoo Lee&lt;/a&gt;, bassist and keyboardist &lt;a href="https://genius.com/artists/Cole-whittle" rel="noopener" data-api_path="/artists/1006070"&gt;Cole Whittle&lt;/a&gt;, and drummer &lt;a href="https://genius.com/artists/Jack-lawless" rel="noopener" data-api_path="/artists/1035786"&gt;Jack Lawless&lt;/a&gt;, who worked with Joe back in his JB days.&lt;/p&gt;\n\n&lt;p&gt;JinJoo &lt;a href="http://www.dnce.com/2015/10/23/interview-magazine-with-dnce/" rel="noopener nofollow"&gt;told &lt;em&gt;Interview Magazine&lt;/em&gt;&lt;/a&gt; the meaning of the band’s name.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;‘DNCE’ is ‘dance’ without an A. It’s not a perfect word, and you don’t have to be a perfect dancer to dance. Life is just sometimes not perfect.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;On September 14, 2015, the band premiered their debut single, &lt;a href="https://genius.com/DNCE-cake-by-the-ocean-lyrics" rel="noopener" data-api_path="/songs/2306268"&gt;“Cake By the Ocean,”&lt;/a&gt; on New York’s Z100. The song blew up and soon found a place in the background of an AT&amp;amp;T commercial. This drove more people to check out their music and boosted sales and popularity.&lt;/p&gt;\n\n&lt;p&gt;On October 23rd, 2015, the &lt;a href="https://genius.com/albums/Dnce/Swaay-ep" rel="noopener" data-api_path="/albums/133124"&gt;&lt;em&gt;SWAAY&lt;/em&gt; EP&lt;/a&gt; was released, and a few months later the band announced they would be touring with &lt;a href="https://genius.com/artists/Selena-gomez" rel="noopener" data-api_path="/artists/45372"&gt;Selena Gomez&lt;/a&gt; in the summer of 2016.&lt;/p&gt;\n\n&lt;p&gt;On November 18th, 2016, the &lt;a href="https://genius.com/albums/Dnce/Dnce" rel="noopener" data-api_path="/albums/222215"&gt;self-titled debut album&lt;/a&gt; was released.&lt;/p&gt;\n\n&lt;p&gt;On June 15th, 2018, the &lt;a href="https://genius.com/albums/Dnce/People-to-people-ep" rel="noopener" data-api_path="/albums/397299"&gt;&lt;em&gt;People to People&lt;/em&gt; EP&lt;/a&gt; was released. This was their last project until their hiatus due to Jonas and Lawless continuing with the Jonas Brothers starting from February 28th, 2019. As of now, they are on hiatus.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Salt-n-pepa', 'annotations': {'description': '&lt;p&gt;Salt-N-Pepa is arguably the most successful female rap group of all time. The group began with Cheryl “Salt” James and Sandra “Pepa” Denton meeting while studying to be nurses. James got Denton a job at a Sears department store, where her boyfriend Hurby “Luv Bug” Azor also worked. Azor was studying music production and he asked them to help on &lt;a href="https://www.washingtonpost.com/archive/lifestyle/1994/05/27/salt-n-pepa-taking-control/a969fdd2-c2e2-4b7a-bc48-f83dadb3d13d/?utm_term=.db33642e0b2e" rel="noopener nofollow"&gt;a school project&lt;/a&gt;, an answer record to Doug E. Fresh’s “The Show” they named &lt;a href="https://genius.com/Salt-n-pepa-the-showstopper-is-stupid-fresh-lyrics" rel="noopener" data-api_path="/songs/2147764"&gt;“The Showstopper”&lt;/a&gt; – recorded in 1985 under the name Supernature.&lt;/p&gt;\n\n&lt;p&gt;After the legendary Queens DJ Marley Marl played “The Showstopper” on his radio show, the group &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;began getting booked for shows&lt;/a&gt;. One lyric in “The Showstopper” was ‘We the salt and pepper’, and people kept requesting ‘that salt and pepper song’, so &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;they changed their name&lt;/a&gt; to Salt-N-Pepa. Deejay Deidra “Spinderella” Ropa was added soon after.&lt;/p&gt;\n\n&lt;p&gt;SNP’s debut album &lt;a href="https://genius.com/albums/Salt-n-pepa/Hot-cool-and-vicious" rel="noopener" data-api_path="/albums/8996"&gt;&lt;em&gt;Hot, Cool, &amp;amp; Vicious&lt;/em&gt;&lt;/a&gt; originally spawned a minor hit in the UK with &lt;a href="https://genius.com/Salt-n-pepa-my-mike-sounds-nice-lyrics" rel="noopener" data-api_path="/songs/2144116"&gt;“My Mike Sounds Nice”&lt;/a&gt; in early 1987. But it was the re-release of a remix of “Push It”, originally a quickly-thrown together b-side for their fall ‘87 single “Tramp”, that shot the group into international stardom. The song reached the top 10 in eleven countries &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Salt-N-Pepa&amp;amp;titel=Push+It&amp;amp;cat=s" rel="noopener nofollow"&gt;around the world&lt;/a&gt; in 1988.&lt;/p&gt;\n\n&lt;p&gt;The group had continued international success throughout first half of the 1990s with hits like “Expression”, “Do You Really Want Me”, “You Showed Me”, &lt;a href="https://genius.com/Salt-n-pepa-shoop-lyrics" rel="noopener" data-api_path="/songs/3464"&gt;“Shoop”&lt;/a&gt; and &lt;a href="https://genius.com/Salt-n-pepa-whatta-man-lyrics" rel="noopener" data-api_path="/songs/51518"&gt;“Whatta Man”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/En-vogue" rel="noopener" data-api_path="/artists/8571"&gt;En Vogue&lt;/a&gt;. Their 1991 hit &lt;a href="https://genius.com/Salt-n-pepa-lets-talk-about-sex-lyrics" rel="noopener" data-api_path="/songs/41354"&gt;“Let’s Talk About Sex”&lt;/a&gt; was used to raise awareness about the AIDS epidemic in the United States at the time. SNP won a Grammy for Best Rap Performance by a Duo or Group in 1994 for &lt;a href="https://genius.com/Salt-n-pepa-none-of-your-business-lyrics" rel="noopener" data-api_path="/songs/354653"&gt;“None of Your Business”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The group released their last album &lt;em&gt;Brand New&lt;/em&gt; in 1997, featuring a modest hit &lt;a href="https://genius.com/Salt-n-pepa-r-u-ready-lyrics" rel="noopener" data-api_path="/songs/41370"&gt;“R U Ready,”&lt;/a&gt; before disbanding. SNP &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;continues to tour&lt;/a&gt; and make television appearances, including the VH-1 reality series &lt;em&gt;The Salt-N-Pepa Show&lt;/em&gt; and &lt;em&gt;Let’s Talk About Pep&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Awolnation', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;AWOLNATION&lt;/strong&gt; is an American rock band, formed in 2010 by frontman &lt;a href="https://genius.com/artists/Aaron-bruno" rel="noopener" data-api_path="/artists/333935"&gt;Aaron Bruno&lt;/a&gt;. Aaron is now joined by &lt;a href="https://genius.com/artists/Zach-irons" rel="noopener" data-api_path="/artists/1255544"&gt;Zach Irons&lt;/a&gt; on guitar, &lt;a href="https://genius.com/artists/Isaac-carpenter" rel="noopener" data-api_path="/artists/1065594"&gt;Isaac Carpenter&lt;/a&gt; on drums, Mike Goldman on bass, and &lt;a href="https://genius.com/artists/Daniel-saslow" rel="noopener" data-api_path="/artists/1255543"&gt;Daniel Saslow&lt;/a&gt; on keyboard. They are best known for their hit song, “&lt;a href="https://genius.com/Awolnation-sail-lyrics" rel="noopener" data-api_path="/songs/64894"&gt;Sail&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;The band’s name comes from frontman Aaron Bruno’s high school nickname, “AWOL.” Aaron &lt;a href="http://www.mtv.com/video-clips/u133eg/aaron-bruno-breaks-down-the-name-awolnation" rel="noopener nofollow"&gt;explains to MTV&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was either given or I claimed the nickname AWOL in high school at a certain point. So, I went with the name AWOL because I’ve always enjoyed the option of leaving social circumstances without having to explain myself. I attached “NATION” to “AWOL” and created AWOLNATION as, hopefully, a musical metaphor for a place to escape, to get through the day.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In that same interview, Aaron said of the band’s lyrics&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s important to me that people interpret the lyrics and sort of the concept and the message for their own and not read into it literally. Because, a lot of stuff in the lyrics are metaphors for life situations I’ve been in and I encourage people to create their own meaning out of it all.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band’s sound can best be described as alternative rock. While AWOLNATION’s first two albums, &lt;a href="https://genius.com/albums/Awolnation/Megalithic-symphony-deluxe-edition" rel="noopener" data-api_path="/albums/150516"&gt;&lt;em&gt;Megalithic Symphony&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Awolnation/Run" rel="noopener" data-api_path="/albums/118809"&gt;&lt;em&gt;Run&lt;/em&gt;&lt;/a&gt; feature electronic rock styling, their most recent album, &lt;a href="https://genius.com/albums/Awolnation/Here-come-the-runts" rel="noopener" data-api_path="/albums/379232"&gt;&lt;em&gt;Here Come the Runts&lt;/em&gt;&lt;/a&gt; purposefully departed from this, in search of a more authentic sound.&lt;/p&gt;\n\n&lt;p&gt;The band crafted one of the most influential songs in years with the chart-topping, record-breaking track “&lt;a href="https://genius.com/Awolnation-sail-lyrics" rel="noopener" data-api_path="/songs/64894"&gt;Sail&lt;/a&gt;.” The first single off the gold-certified full-length debut album, &lt;a href="https://genius.com/albums/Awolnation/Megalithic-symphony" rel="noopener" data-api_path="/albums/14688"&gt;Megalithic Symphony&lt;/a&gt;, “Sail” was certified 6x platinum in the US and holds the record for the most weeks on the Billboard Hot 100 chart by an independent artist, the second longest for any artist. The song has also achieved global success: certified 10x platinum in Norway, 6x platinum in Canada, 3x platinum in Sweden, 2x platinum in Australia and New Zealand, platinum in Switzerland, gold in Austria, Germany, and the UK. The song was also notably &lt;a href="https://genius.com/Awolnation-sail-tde-remix-lyrics" rel="noopener" data-api_path="/songs/132580"&gt;remixed&lt;/a&gt; with &lt;a href="https://genius.com/artists/Tde" rel="noopener" data-api_path="/artists/1108010"&gt;TDE&lt;/a&gt;, featuring &lt;a href="https://genius.com/artists/Kendrick-lamar" rel="noopener" data-api_path="/artists/1421"&gt;Kendrick Lamar&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ab-soul" rel="noopener" data-api_path="/artists/2049"&gt;Ab-Soul&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their critically-acclaimed sophomore release &lt;a href="https://genius.com/albums/Awolnation/Run" rel="noopener" data-api_path="/albums/118809"&gt;&lt;em&gt;Run&lt;/em&gt;&lt;/a&gt; spawned three other Top 10 US singles – Top 5 tracks “&lt;a href="https://genius.com/Awolnation-i-am-lyrics" rel="noopener" data-api_path="/songs/726013"&gt;I Am&lt;/a&gt;” and “&lt;a href="https://genius.com/Awolnation-woman-woman-lyrics" rel="noopener" data-api_path="/songs/727477"&gt;Woman Woman&lt;/a&gt;,” as well as their first #1 hit on the Billboard Alternative Chart, “&lt;a href="https://genius.com/Awolnation-hollow-moon-bad-wolf-lyrics" rel="noopener" data-api_path="/songs/691574"&gt;Hollow Moon (Bad Wolf)&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;AWOLNATION released their third studio album, &lt;a href="https://genius.com/albums/Awolnation/Here-come-the-runts" rel="noopener" data-api_path="/albums/379232"&gt;&lt;em&gt;Here Come the Runts&lt;/em&gt;&lt;/a&gt;, in February 2018 via Red Bull Records. The album features the singles “&lt;a href="https://genius.com/Awolnation-passion-lyrics" rel="noopener" data-api_path="/songs/3270748"&gt;Passion&lt;/a&gt;,” “&lt;a href="https://genius.com/Awolnation-seven-sticks-of-dynamite-lyrics" rel="noopener" data-api_path="/songs/3306167"&gt;Seven Sticks of Dynamite&lt;/a&gt;,” and current Top 20 Alt Rock hit, “&lt;a href="https://genius.com/Awolnation-handyman-lyrics" rel="noopener" data-api_path="/songs/3306273"&gt;Handyman&lt;/a&gt;.”&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Hayley-williams', 'annotations': {'description': '&lt;p&gt;Hayley Williams is an American singer born on December 27, 1988; she is the lead vocalist, songwriter, and keyboardist of the Rock/Pop-Punk band &lt;a href="https://genius.com/artists/Paramore" rel="noopener" data-api_path="/artists/22531"&gt;Paramore&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Hayley came to light in the music scene when she was only 16 years old and released with the band their debut album &lt;a href="https://genius.com/albums/Paramore/All-we-know-is-falling" rel="noopener" data-api_path="/albums/28192"&gt;&lt;em&gt;All We Know Is Falling&lt;/em&gt;&lt;/a&gt; which reached number 8 on the UK Rock Chart. It was their second album, the Platinum-certified &lt;a href="https://genius.com/albums/Paramore/Riot" rel="noopener" data-api_path="/albums/25380"&gt;&lt;em&gt;Riot!&lt;/em&gt;&lt;/a&gt; from 2007, that gave the band and Hayley worldwide recognition. She would go on to make three more albums with the band: &lt;a href="https://genius.com/albums/Paramore/Brand-new-eyes" rel="noopener" data-api_path="/albums/19097"&gt;&lt;i&gt;Brand New Eyes&lt;/i&gt;&lt;/a&gt; released in 2009, &lt;a href="https://genius.com/albums/Paramore/Paramore" rel="noopener" data-api_path="/albums/28272"&gt;&lt;i&gt;Paramore&lt;i&gt;&lt;/i&gt;&lt;/i&gt;&lt;/a&gt; released in 2013, and &lt;a href="https://genius.com/albums/Paramore/After-laughter" rel="noopener" data-api_path="/albums/340733"&gt;&lt;i&gt;After Laughter&lt;/i&gt;&lt;/a&gt; released in 2017.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Hayley was featured on the B.o.B single, &lt;a href="https://genius.com/Bob-airplanes-lyrics" rel="noopener" data-api_path="/songs/428"&gt;“Airplanes”&lt;/a&gt;, which was a commercial success reaching No.1 in the UK and No.2 in the US. She has come to be featured on several other commercially successful singles such as Zedd’s &lt;a href="https://genius.com/Zedd-stay-the-night-lyrics" rel="noopener" data-api_path="/songs/216074"&gt;“Stay the Night”&lt;/a&gt; in 2013 and New Found Glory’s &lt;a href="https://genius.com/New-found-glory-vicious-love-lyrics" rel="noopener" data-api_path="/songs/530919"&gt;“Vicious Love”&lt;/a&gt; in 2014. Regardless, Hayley’s main focus remains in her band, Paramore.&lt;/p&gt;\n\n&lt;p&gt;In 2020 she released her solo debut &lt;a href="https://genius.com/Hayley-williams-simmer-lyrics" rel="noopener" data-api_path="/songs/5190196"&gt;“Simmer”&lt;/a&gt;, and announced her debut album &lt;a href="https://genius.com/albums/Hayley-williams/Petals-for-armor" rel="noopener" data-api_path="/albums/595868"&gt;&lt;em&gt;Petals For Armor&lt;/em&gt;&lt;/a&gt;, which was released in May the same year.&lt;/p&gt;\n\n&lt;p&gt;Besides the music, in 2016, she released her own hair dye company, &lt;a href="https://www.gooddyeyoung.com/" rel="noopener nofollow"&gt;Good Dye Young&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Hayley Nichole Williams', 'Hayley Williams of Paramore', 'Hayley Williams from Paramore']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Soundgarden', 'annotations': {'description': '&lt;p&gt;One of the biggest rock bands out of Seattle, Soundgarden was formed in 1984 by singer and rhythm guitarist &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Kim-thayil" rel="noopener" data-api_path="/artists/564464"&gt;Kim Thayil&lt;/a&gt;, and bassist Hiro Yamamoto. &lt;a href="https://genius.com/artists/Matt-cameron" rel="noopener" data-api_path="/artists/564462"&gt;Matt Cameron&lt;/a&gt; became the band’s full-time drummer in 1986, while bassist &lt;a href="https://genius.com/artists/Ben-shepherd" rel="noopener" data-api_path="/artists/564463"&gt;Ben Shepherd&lt;/a&gt; became a permanent replacement for Yamamoto in 1990. While one of the creators of the Grunge alternative rock and the first to sign to a major label, they only rose to stardom once the genre was popularized by &lt;a href="https://genius.com/artists/Nirvana" rel="noopener" data-api_path="/artists/12712"&gt;Nirvana&lt;/a&gt;, &lt;a href="https://genius.com/artists/Pearl-jam" rel="noopener" data-api_path="/artists/22696"&gt;Pearl Jam&lt;/a&gt; and &lt;a href="https://genius.com/artists/Alice-in-chains" rel="noopener" data-api_path="/artists/32179"&gt;Alice in Chains&lt;/a&gt; in the early 90s. After achieving great success with 1994’s &lt;em&gt;&lt;a href="https://genius.com/albums/Soundgarden/Superunknown" rel="noopener" data-api_path="/albums/25916"&gt;Superunknown&lt;/a&gt;&lt;/em&gt;, the band decided to call it quits three years later due to internal squabbles. Eventually they reunited in 2010, releasing new album &lt;em&gt;&lt;a href="https://genius.com/albums/Soundgarden/King-animal" rel="noopener" data-api_path="/albums/26866"&gt;King Animal&lt;/a&gt;&lt;/em&gt; two years later. Frontman Chris Cornell committed suicide in a Detroit hotel room on May 17, 2017. He was 52 years old.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Scorpions', 'annotations': {'description': '&lt;p&gt;Scorpions is a Hard Rock/Heavy Metal band formed in Hannover, Germany. The band was founded in 1965 and their debut album “Lonesome Crow” was released 1972. They released 5 more albums throught the 70’s, some of which, are considered to be their best ones, but their big break out was in the 80’s with albums like “Blackout” and “Love at First Sting”. In this decade, songs like “The Zoo”, “Blackout”, “No One Like You”,  “Rock You Like a Hurricane” and “Still loving You” became hits on the charts and overall classics of  the band. The 90´s started with their eleventh album “Crazy World” that included classics like “Hit Between the Eyes”, “Send Me and Angel” and “Wind of Change” (this last one became a became an icon of the  end of the cold war era). After that, they released 8 more albums with succesful tours across the world. With a 50+ years career, they’re considered one of the most important and influential Heavy Metal bands ever.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Caesars', 'annotations': {'description': '&lt;p&gt;Caesars was a four member band formed in Stockholm in 1993. They released their first EP in 1995 and their third studio-album ‘Love for the Streets’ in their native country in 2002. It was the album that carried their biggest hit ‘Jerk it out’ which gained global success when it appeared in a wildly broadcasted commercial in 2005.&lt;br&gt;\nThey released their last full-length album called “Strawberry Weed” in 2008.&lt;br&gt;\nIn 2012 the band’s guitarist Joakim Åhlund stated that they’d “put the band on ice”, and they haven’t released anything since.&lt;/p&gt;', 'alternate_names': ["Caesar's Palace"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Fine-young-cannibals', 'annotations': {'description': '&lt;p&gt;Their name came from the 1960 film &lt;em&gt;All the Fine Young Cannibals&lt;/em&gt;&lt;/p&gt;', 'alternate_names': ['A Drum Machine and a Trumpet', 'Two Men']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Wet-wet-wet', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Elvis-presley', 'annotations': {'description': '&lt;p&gt;Elvis Aaron Presley (January 8, 1935 – August 16, 1977) was an American performer that spanned all media—music, film, and historic live concerts—with a vehement passion that earned him the moniker, “The King of Rock and Roll.”&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.elvis.com/about/bio" rel="noopener nofollow"&gt;Elvis Presley&lt;/a&gt; was born in Tupelo, Mississippi to Gladys and Vernon Presley.  At the age of 13, he moved with his family to Memphis, Tennessee. Elvis began to explore the blues scene prevalent in Memphis and the culture it encompassed.&lt;/p&gt;\n\n&lt;p&gt;In August 1953, he walked into Sun Records to record a song for his mother’s birthday.  Manager of Sun Records &lt;a href="https://genius.com/artists/Sam-phillips" rel="noopener" data-api_path="/artists/62225"&gt;Sam Phillips&lt;/a&gt; took note of his unique voice and persona, and invited Elvis back to the studio in July 1954, where he ultimately recorded his first true single, &lt;a href="https://genius.com/Elvis-presley-thats-all-right-lyrics" rel="noopener" data-api_path="/songs/197868"&gt;“That’s All Right,”&lt;/a&gt; with &lt;a href="https://genius.com/Elvis-presley-blue-moon-of-kentucky-lyrics" rel="noopener" data-api_path="/songs/197100"&gt;“Blue Moon of Kentucky”&lt;/a&gt; as the B-side.&lt;/p&gt;\n\n&lt;p&gt;Elvis was soon noticed by Colonel Tom Parker, considered one of the best promoters in the industry.  This partnership was pivotal to Elvis\' career, but considered &lt;a href="http://www.elvisinfonet.com/spotlight_thedarksideofcolonelparker.html" rel="noopener nofollow"&gt;controversial and toxic&lt;/a&gt; by his friends, family, and biographers.  Parker moved him to RCA Records, and his first RCA single – &lt;a href="https://genius.com/Elvis-presley-heartbreak-hotel-lyrics" rel="noopener" data-api_path="/songs/119855"&gt;“Heartbreak Hotel”&lt;/a&gt; – was released in January 1956 and became a number one hit in the U.S.  Elvismania had truly begun.&lt;/p&gt;\n\n&lt;p&gt;In March of 1958, Elvis was inducted into the U.S. Army.  During his army career, two pivotal events occurred that affected the rest of his life.  First, his mother Gladys died on August 14, 1958.  Completely and utterly devoted to his mother, Elvis truly never recovered from her death. However, while stationed in West Germany, Elvis met 14-year-old &lt;a href="http://priscilla.elvispresley.com.au/" rel="noopener nofollow"&gt;Priscilla Beaulieu&lt;/a&gt;, whom he dated for seven years before marrying her on May 1, 1967.  They had one daughter, Lisa Marie, on February 1, 1968.&lt;/p&gt;\n\n&lt;p&gt;After being discharged from the army, Elvis continued to release singles, but was also pushed into a heavy film-making schedule, making sub-par, formulaic films that were hits at the box office, but &lt;a href="http://www.elvis-history-blog.com/elvis-film-career.html" rel="noopener nofollow"&gt;destroyed critically&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 1968, Elvis was depressed and unsatisfied with his career, and his popularity was sinking.  However, on December 3, 1968, a television special, &lt;a href="http://www.elvis-history-blog.com/elvis-comeback.html" rel="noopener nofollow"&gt;&lt;em&gt;Singer Presents Elvis&lt;/em&gt;&lt;/a&gt;, aired—a small concert that was his first live performance since 1961.  More famously known as the &lt;em&gt;‘68 Comeback Special&lt;/em&gt;, it revitalized his career, especially as a live performer.&lt;/p&gt;\n\n&lt;p&gt;Despite his success and renewed pride in his career, Elvis\' &lt;a href="http://www.express.co.uk/entertainment/music/606337/The-last-days-Elvis-drugs-obesity-and-a-nurse" rel="noopener nofollow"&gt;health and personal life&lt;/a&gt; was declining.  His marriage fell apart, and he and Priscilla divorced in October 1973.  Four years later, on August 16, 1977, Elvis\' fiance, Ginger Alden, found him on the bathroom floor, unresponsive.  &lt;a href="http://www.nytimes.com/learning/general/onthisday/big/0816.html" rel="noopener nofollow"&gt;He was pronounced dead at 3:30 pm at Baptist Memorial Hospital.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Elvis Presley’s life was short, but his legacy is vast.  He &lt;a href="http://www.elvis.net/guinness/guinnessframe.html" rel="noopener nofollow"&gt;holds the record&lt;/a&gt; for most singles on the U.S. charts (149), most RIAA certificates by a single artist (235), most number one albums in the U.S. by a solo artist (nine), and many more groundbreaking achievements.  But his legacy is not just remembered in numbers alone.  Elvis began a new era for music and pop culture. For many, he was the leader in a new movement of raw, powerful music and performances, uninhibited by the rules of yesteryear.  As Rev. Al Green said, &lt;a href="http://www.houstonpress.com/music/elvis-30-famous-quotes-about-the-king-6772855" rel="noopener nofollow"&gt;“He broke the ice for all of us.”&lt;/a&gt; He inspired many artists after him, including The Beatles, Jackie Wilson, Led Zeppelin, Bob Dylan, Rick Nelson, and many, many, more.&lt;/p&gt;\n\n&lt;p&gt;Perhaps Elvis Presley is best remembered in this touching quote from one of his biggest fans, Bruce Springsteen:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was like he came along and whispered some dream in everybody’s ear, and somehow we all dreamed it.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['Elvis Aaron Presley']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Duran-duran', 'annotations': {'description': '&lt;p&gt;DURAN DURAN has a total of over 80 million records sold, 18 American hit singles, 30 UK top 30 tunes, and a global presence which guarantees them huge concert audiences on five continents. They’ve managed to fuse pop music, art, technology and fashion with a unique sense of style and confidence. Princess Diana also admitted that Duran Duran was her favourite Band among others.&lt;/p&gt;\n\n&lt;p&gt;Bassist John Taylor has said &lt;a href="http://thequietus.com/articles/17506-coke-wet-arcadia-versus-the-power-station-by-simon-price" rel="noopener nofollow"&gt;the original vision&lt;/a&gt; for the band’s sound was ‘to fuse the Sex Pistols and Chic’ after hearing those two bands back-to-back on a pub jukebox one night.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Iggy-azalea', 'annotations': {'description': '&lt;p&gt;Amethyst Amelia Kelly (b. June 7, 1990), better known by her stage name &lt;b&gt;Iggy Azalea&lt;/b&gt;, is an Australian rapper and songwriter signed to Island Records and Roc Nation. After being raised in a small town called Mullumbimby and feeling like an outsider, in 2006, at the age of 16, she moved to the United States to pursue a career in hip hop music, stating that she was drawn to the birthplace of rap, and resided in the Southern part of the country.&lt;/p&gt;\n\n&lt;p&gt;Moving from Miami to Houston to Atlanta, Iggy absorbed the Southern-style drawl of her surroundings and released her debut project, a mixtape titled &lt;a href="https://genius.com/albums/Iggy-azalea/Ignorant-art" rel="noopener" data-api_path="/albums/12993"&gt;&lt;em&gt;Ignorant Art&lt;/em&gt;&lt;/a&gt; in September 2011, shortly after relocating to Los Angeles. Iggy commented that she made it “with intent to make people question and redefine old ideals.” The project’s raw electronic sound accentuated her unique style that would become a trademark throughout her career. Prior to the release of the mixtape, she had been sharing &lt;a href="https://genius.com/Iggy-azalea-hell-of-a-life-remix-lyrics" rel="noopener" data-api_path="/songs/323629"&gt;several&lt;/a&gt; &lt;a href="https://genius.com/Iggy-azalea-two-times-lyrics" rel="noopener" data-api_path="/songs/118421"&gt;home&lt;/a&gt; &lt;a href="https://genius.com/Iggy-azalea-drugs-lyrics" rel="noopener" data-api_path="/songs/63259"&gt;videos&lt;/a&gt; on her YouTube channel as an underground rapper and her debut music video for “&lt;a href="https://genius.com/Iggy-azalea-pu-y-lyrics" rel="noopener" data-api_path="/songs/58489"&gt;Pu$$y&lt;/a&gt;” quickly went viral due to its explicit nature. In 2012, Iggy became the first female and the first non-American rapper to be featured on &lt;em&gt;XXL&lt;/em&gt;’s annual &lt;a href="https://genius.com/Macklemore-xxl-freshman-cypher-2-lyrics" rel="noopener" data-api_path="/songs/74206"&gt;Freshman Class&lt;/a&gt; cover issue.&lt;/p&gt;\n\n&lt;p&gt;Iggy then aligned herself with the self-proclaimed “King of the South” &lt;a href="https://genius.com/artists/Ti" rel="noopener" data-api_path="/artists/85"&gt;T.I.&lt;/a&gt;, who executive produced her free EP &lt;a href="https://genius.com/albums/Iggy-azalea/Glory" rel="noopener" data-api_path="/albums/19753"&gt;&lt;em&gt;Glory&lt;/em&gt;&lt;/a&gt; released in July 2012 through his Grand Hustle imprint, which included their popular collaboration “&lt;a href="https://genius.com/Iggy-azalea-murda-bizness-lyrics" rel="noopener" data-api_path="/songs/69507"&gt;Murda Bizness&lt;/a&gt;”. Later that year, she was featured on the &lt;a href="https://genius.com/Bet-grand-hustle-cypher-lyrics" rel="noopener" data-api_path="/songs/92103"&gt;Hustle Gang Cypher&lt;/a&gt; at the BET Hip Hop Awards. In October 2012, Iggy released her second mixtape &lt;a href="https://genius.com/albums/Iggy-azalea/Trapgold" rel="noopener" data-api_path="/albums/21937"&gt;&lt;em&gt;TrapGold&lt;/em&gt;&lt;/a&gt;, produced entirely by &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt; and &lt;a href="https://genius.com/artists/1st-down-of-fki" rel="noopener"&gt;1st Down&lt;/a&gt; of &lt;a href="https://genius.com/artists/Fki" rel="noopener" data-api_path="/artists/15379"&gt;FKi&lt;/a&gt;. In the following year, she was selected as the tour opening act for the likes of &lt;a href="https://genius.com/artists/Beyonce" rel="noopener" data-api_path="/artists/498"&gt;Beyoncé&lt;/a&gt; and &lt;a href="https://genius.com/artists/Nas" rel="noopener" data-api_path="/artists/56"&gt;Nas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Iggy’s debut studio album &lt;a href="https://genius.com/albums/Iggy-azalea/The-new-classic" rel="noopener" data-api_path="/albums/28238"&gt;&lt;em&gt;The New Classic&lt;/em&gt;&lt;/a&gt; was finally released in April 2014 after she secured significant label deals with Island Def Jam and Mercury Records in the previous year. It topped the US &lt;em&gt;Billboard&lt;/em&gt; Top R&amp;amp;B/Hip-Hop Albums making her the first non-American female rapper to reach the summit of the chart. The album was promoted by a number of single releases: the acclaimed autobiographical “&lt;a href="https://genius.com/Iggy-azalea-work-lyrics" rel="noopener" data-api_path="/songs/117463"&gt;Work&lt;/a&gt;”, “&lt;a href="https://genius.com/Iggy-azalea-bounce-lyrics" rel="noopener" data-api_path="/songs/145628"&gt;Bounce&lt;/a&gt;”, “&lt;a href="https://genius.com/Iggy-azalea-change-your-life-lyrics" rel="noopener" data-api_path="/songs/206949"&gt;Change Your Life&lt;/a&gt;” and the US &lt;em&gt;Billboard&lt;/em&gt; Hot 100 chart-topping single “&lt;a href="https://genius.com/Iggy-azalea-fancy-lyrics" rel="noopener" data-api_path="/songs/352612"&gt;Fancy&lt;/a&gt;”, which made Iggy only the fourth female rapper in the history of that chart to reach number one, claiming the longest-leading reign with seven consecutive weeks. She also went on to achieve three top ten hits simultaneously on the Hot 100 along with her feature on &lt;a href="https://genius.com/Ariana-grande" rel="noopener" data-api_path="/users/2528152"&gt;Ariana Grande&lt;/a&gt;’s “&lt;a href="https://genius.com/Ariana-grande-problem-lyrics" rel="noopener" data-api_path="/songs/405888"&gt;Problem&lt;/a&gt;” and the fifth single from the album, “&lt;a href="https://genius.com/Iggy-azalea-black-widow-lyrics" rel="noopener" data-api_path="/songs/406511"&gt;Black Widow&lt;/a&gt;,” later that year. &lt;em&gt;The New Classic&lt;/em&gt; garnered Iggy four Grammy Award nominations, among many other awards and accolades. In November 2014, the album was reissued in a repackaged version titled &lt;a href="https://genius.com/albums/Iggy-azalea/Reclassified" rel="noopener" data-api_path="/albums/113809"&gt;&lt;em&gt;Reclassified&lt;/em&gt;&lt;/a&gt; featuring five newly recorded songs, including “&lt;a href="https://genius.com/Iggy-azalea-beg-for-it-lyrics" rel="noopener" data-api_path="/songs/539567"&gt;Beg For It&lt;/a&gt;” and “&lt;a href="https://genius.com/Iggy-azalea-trouble-lyrics" rel="noopener" data-api_path="/songs/590819"&gt;Trouble&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;Iggy has also notably collaborated with various other artists such as &lt;a href="https://genius.com/artists/Jennifer-lopez" rel="noopener" data-api_path="/artists/2487"&gt;Jennifer Lopez&lt;/a&gt;, &lt;a href="https://genius.com/artists/Wiz-khalifa" rel="noopener" data-api_path="/artists/310"&gt;Wiz Khalifa&lt;/a&gt; and &lt;a href="https://genius.com/artists/Britney-spears" rel="noopener" data-api_path="/artists/1052"&gt;Britney Spears&lt;/a&gt;, having amassed hundred millions of streams. In one of the more unlikely crossover success stories, Iggy became one of the most polarizing figures in the music industry suffering a tirade of social media backlash over race and hip-hop culture, but the lightning rod rapper &lt;a href="http://abcnews.go.com/GMA/iggy-azalea-missy-elliot-lil-kim-support-criticism/story?id=37865215" rel="noopener nofollow"&gt;credits&lt;/a&gt; the many that have supported her instead, naming some of the women she grew up idolizing particularly &lt;a href="https://genius.com/artists/Missy-elliott" rel="noopener" data-api_path="/artists/1529"&gt;Missy Elliott&lt;/a&gt; and &lt;a href="https://genius.com/artists/Lil-kim" rel="noopener" data-api_path="/artists/411"&gt;Lil\' Kim&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Iggy-azalea/Digital-distortion" rel="noopener" data-api_path="/albums/141471"&gt;&lt;em&gt;Digital Distortion&lt;/em&gt;&lt;/a&gt; had been announced as her sophomore project in 2016 but was ultimately scrapped due to label issues. It was slated to include the singles “&lt;a href="https://genius.com/Iggy-azalea-team-lyrics" rel="noopener" data-api_path="/songs/2398025"&gt;Team&lt;/a&gt;”, “&lt;a href="https://genius.com/Iggy-azalea-mo-bounce-lyrics" rel="noopener" data-api_path="/songs/3011565"&gt;Mo Bounce&lt;/a&gt;”, and “&lt;a href="https://genius.com/Iggy-azalea-switch-lyrics" rel="noopener" data-api_path="/songs/3059119"&gt;Switch&lt;/a&gt;”. In late 2017, Iggy revealed she had parted ways with Def Jam Recordings. She joined Island Records in the following year by releasing the single “&lt;a href="https://genius.com/Iggy-azalea-savior-lyrics" rel="noopener" data-api_path="/songs/3422449"&gt;Savior&lt;/a&gt;.” Her first full project in four years titled &lt;a href="https://genius.com/albums/Iggy-azalea/Survive-the-summer-ep" rel="noopener" data-api_path="/albums/379350"&gt;&lt;em&gt;Survive The Summer&lt;/em&gt;&lt;/a&gt; was preceded by the single “&lt;a href="https://genius.com/Iggy-azalea-kream-lyrics" rel="noopener" data-api_path="/songs/3798091"&gt;Kream&lt;/a&gt;” and was finally released on August 3rd, 2018.&lt;/p&gt;\n\n&lt;p&gt;Months after the EP Iggy decided to part ways with her label and be independent. In 2019 she released three singles under her own label Bad Dream Records, the songs &lt;a href="https://genius.com/Iggy-azalea-sally-walker-lyrics" rel="noopener" data-api_path="/songs/4151688"&gt;“Sally Walker,”&lt;/a&gt; &lt;a href="https://genius.com/Iggy-azalea-started-lyrics" rel="noopener" data-api_path="/songs/4308182"&gt;“Started,”&lt;/a&gt; and &lt;a href="https://genius.com/Iggy-azalea-fuck-it-up-lyrics" rel="noopener" data-api_path="/songs/4209478"&gt;“Fuck It Up\'&lt;/a&gt; (with &lt;a href="https://genius.com/artists/Kash-doll" rel="noopener" data-api_path="/artists/331400"&gt;Kash Doll&lt;/a&gt;). The tracks are part of her first full project in five years, her sophomore studio album &lt;a href="https://genius.com/albums/Iggy-azalea/In-my-defense" rel="noopener" data-api_path="/albums/467630"&gt;&lt;em&gt;In My Defense&lt;/em&gt;&lt;/a&gt; that was released on July 19, 2019.&lt;/p&gt;\n\n&lt;p&gt;Soon after that her EP &lt;a href="https://genius.com/albums/Iggy-azalea/Wicked-lips-ep" rel="noopener" data-api_path="/albums/566060"&gt;&lt;em&gt;Wicked Lips&lt;/em&gt;&lt;/a&gt; was released after a short delay due to her being five months pregnant at the time, spawning the lead single &lt;a href="https://genius.com/Iggy-azalea-and-alice-chater-lola-lyrics" rel="noopener" data-api_path="/songs/4939709"&gt;“Lola”&lt;/a&gt;. In 2020 after releasing the Tinashe assisted &lt;a href="https://genius.com/Iggy-azalea-and-tinashe-dance-like-nobodys-watching-lyrics" rel="noopener" data-api_path="/songs/5866911"&gt;“Dance Like Nobody’s Watching”&lt;/a&gt; Iggy Azalea announced her third official studio album titled &lt;a href="https://genius.com/albums/Iggy-azalea/End-of-an-era-deluxe-version" rel="noopener" data-api_path="/albums/801062"&gt;&lt;em&gt;End Of An Era&lt;/em&gt;&lt;/a&gt; released on August 13, 2021. The project’s first official single “Sip It” was released on April 2, 2021 along with the B-side “Brazil”. The second official single of the project “I Am The Strip Club” was released on July 2, 2021.&lt;/p&gt;', 'alternate_names': ['Amethyst Kelly', 'Amethyst Amelia Kelly']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Erasure', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/49fb726842ac1beeb5661ce204e0c7a7.906x428x1.jpg" alt="" width="906" height="428" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Erasure are an English synthpop duo that formed in London in 1985. Since then, singer/lyricist &lt;a href="https://genius.com/artists/Andy-bell" rel="noopener" data-api_path="/artists/350629"&gt;Andy Bell&lt;/a&gt; (left) and composer/producer &lt;a href="https://genius.com/artists/Vince-clarke" rel="noopener" data-api_path="/artists/494624"&gt;Vince Clarke&lt;/a&gt; (right) have unleashed 18 albums and dozens of singles and EPs onto the charts. Their latest album, &lt;a href="https://genius.com/albums/Erasure/The-neon" rel="noopener" data-api_path="/albums/643348"&gt;&lt;em&gt;The Neon&lt;/em&gt;&lt;/a&gt;, is slated for release on August 2020.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Blind-melon', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Arctic-monkeys', 'annotations': {'description': '&lt;p&gt;Arctic Monkeys is an English rock band formed in 2002 in High Green, a suburb of Sheffield, England. The band consists of &lt;a href="https://genius.com/artists/Alex-turner" rel="noopener" data-api_path="/artists/26178"&gt;Alex Turner&lt;/a&gt; (lead vocals, rhythm/lead guitar), &lt;a href="https://genius.com/artists/Matt-helders" rel="noopener" data-api_path="/artists/50537"&gt;Matt Helders&lt;/a&gt; (drums, vocals), &lt;a href="https://genius.com/artists/Jamie-cook" rel="noopener" data-api_path="/artists/398363"&gt;Jamie Cook&lt;/a&gt; (lead/rhythm guitar) and &lt;a href="https://genius.com/artists/Nick-omalley" rel="noopener" data-api_path="/artists/397891"&gt;Nick O\'Malley&lt;/a&gt; (bass, backing vocals). Former band member Andy Nicholson (bass guitar, backing vocals) left the band in 2006 shortly after their debut album was released. Their sound has changed extensively from album to album, gradually evolving from raw, youthful post-punk revival music to R ‘n’ B and jazz-inspired experiments.&lt;/p&gt;\n\n&lt;p&gt;All four original members of the band were devoted fans of hip-hop when they were younger, a genre that would have an immense influence on their later work, but it was the sound of &lt;a href="https://genius.com/artists/The-strokes" rel="noopener" data-api_path="/artists/12524"&gt;The Strokes&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-libertines" rel="noopener" data-api_path="/artists/20920"&gt;The Libertines&lt;/a&gt; that would help shape their early style. The Arctic Monkeys became one of the first bands to find fame and recognition purely through internet publicity and social media; the Arctics used to sell their demos CDs at a bar where Alex Turner used to work, but due to the limited number of CDs, their fans started to upload them on the internet.&lt;/p&gt;\n\n&lt;p&gt;Initially, they refused to sign a record contract with any label through fear that they would want the band to change their songs, going as far as to refuse scouts guaranteed entry into their gigs. However, they eventually signed with Domino because of the “do it yourself” attitude of founder, Lawrence Bell, who ran the label from his own house.&lt;/p&gt;\n\n&lt;p&gt;The group released their scrappy, spirited debut &lt;a href="https://genius.com/albums/Arctic-monkeys/Whatever-people-say-i-am-that-s-what-i-m-not" rel="noopener" data-api_path="/albums/13108"&gt;&lt;em&gt;Whatever People Say I Am, That’s What I’m Not&lt;/em&gt;&lt;/a&gt; in 2006, an album that spawned their first UK No. 1 singles, &lt;a href="https://genius.com/Arctic-monkeys-i-bet-you-look-good-on-the-dancefloor-lyrics" rel="noopener" data-api_path="/songs/74885"&gt;“I Bet You Look Good on the Dancefloor”&lt;/a&gt; and &lt;a href="https://genius.com/Arctic-monkeys-when-the-sun-goes-down-lyrics" rel="noopener" data-api_path="/songs/75362"&gt;“When the Sun Goes Down”.&lt;/a&gt; They followed it up with &lt;a href="https://genius.com/albums/Arctic-monkeys/Favourite-worst-nightmare" rel="noopener" data-api_path="/albums/14401"&gt;&lt;em&gt;Favourite Worst Nightmare&lt;/em&gt;&lt;/a&gt; in 2007, which took on a more mature lyrical direction, with tighter, more accessible hooks and melodies and more polished production. Their most accessible album to date is &lt;a href="https://genius.com/albums/Arctic-monkeys/Am" rel="noopener" data-api_path="/albums/37951"&gt;&lt;em&gt;AM&lt;/em&gt;&lt;/a&gt;, which contains some of their catchiest and most notable singles, including the indie hit &lt;a href="https://genius.com/albums/Arctic-monkeys/Do-i-wanna-know-single" rel="noopener" data-api_path="/albums/333036"&gt;“Do I Wanna Know?.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Arctic Monkeys subsequently took a five-year break from releasing albums, before returning with their polarising sixth studio album &lt;a href="https://genius.com/albums/Arctic-monkeys/Tranquility-base-hotel-casino" rel="noopener" data-api_path="/albums/398288"&gt;&lt;em&gt;Tranquility Base Hotel and Casino&lt;/em&gt;&lt;/a&gt; in 2018.&lt;/p&gt;', 'alternate_names': ['Death Ramps']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Katrina-and-the-waves', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mac-miller', 'annotations': {'description': '&lt;p&gt;Malcolm James McCormick (Jan. 19, 1992 – Sept. 7, 2018), who performed as &lt;strong&gt;Mac Miller&lt;/strong&gt;, was an American rapper and producer from Pittsburgh, Pennsylvania. Since releasing his &lt;a href="https://genius.com/albums/Mac-miller/But-my-mackin-ain-t-easy" rel="noopener" data-api_path="/albums/12181"&gt;first mixtape&lt;/a&gt; at just 15 years old, he became one of the leaders of the new school of young and highly talented “weirdos.”&lt;/p&gt;\n\n&lt;p&gt;Mac’s credibility in the rap game increased ten-fold and resulted in a slew of quality releases, including 2012’s &lt;em&gt;&lt;a href="https://genius.com/albums/Mac-miller/Macadelic" rel="noopener" data-api_path="/albums/15274"&gt;Macadelic&lt;/a&gt;&lt;/em&gt; mixtape, his second studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Mac-miller/Watching-movies-with-the-sound-off" rel="noopener" data-api_path="/albums/30268"&gt;Watching Movies With The Sound Off&lt;/a&gt;&lt;/em&gt;, and his critically-acclaimed 2014 mixtape &lt;em&gt;&lt;a href="https://genius.com/albums/Mac-miller/Faces" rel="noopener" data-api_path="/albums/98206"&gt;Faces&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;He had multiple alter-egos, most notably his producer alias &lt;a href="https://genius.com/artists/Larry-fisherman" rel="noopener" data-api_path="/artists/31881"&gt;Larry Fisherman&lt;/a&gt; and his sick and twisted pitched-up persona (à la &lt;a href="https://genius.com/artists/Quasimoto" rel="noopener" data-api_path="/artists/2092"&gt;Quasimoto,&lt;/a&gt;) &lt;a href="https://genius.com/artists/Delusional-thomas" rel="noopener" data-api_path="/artists/85358"&gt;Delusional Thomas.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Mac spent the early part of his career with &lt;a href="http://www.rostrumrecords.com/" rel="noopener nofollow"&gt;Rostrum Records&lt;/a&gt; until he left on the first month of 2014, becoming an independent artist. In October 2014, he created his own label called “REMember Music” with Warner Bros Records. He capitalized ‘REM’ in tribute to his friend Reuben Eli Mitrani, who tragically died at just 20.&lt;/p&gt;\n\n&lt;p&gt;Mac Miller behind the scenes at Genius:&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;&lt;iframe class="embedly-embed" src="https://cdn.embedly.com/widgets/media.html?src=https%3A%2F%2Fplayers.brightcove.net%2Fpages%2Fv1%2Findex.html%3FaccountId%3D4863540648001%26playerId%3DHklmClHkx%26videoId%3D5237522114001%26mode%3Diframe&amp;amp;url=http%3A%2F%2Fplayers.brightcove.net%2F4863540648001%2FHklmClHkx_default%2Findex.html%3FvideoId%3D5237522114001&amp;amp;image=http%3A%2F%2Fbrightcove.vo.llnwd.net%2Fe1%2Fpd%2F4863540648001%2F4863540648001_5237530493001_5237522114001-vs.jpg%3FpubId%3D4863540648001%26videoId%3D5237522114001&amp;amp;key=e898f7f22a3443a6893439149a6fb36f&amp;amp;type=text%2Fhtml&amp;amp;schema=brightcove" width="800" height="450" scrolling="no" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;\n\n&lt;p&gt;On September 7th, 2018, TMZ &lt;a href="http://www.tmz.com/2018/09/07/mac-miller-dead-dies/" rel="noopener nofollow"&gt;reported&lt;/a&gt; that Mac Miller passed away at the young age of 26 in his San Fernando Valley home due to an apparent drug overdose, making his fifth studio album, &lt;a href="https://genius.com/albums/Mac-miller/Swimming" rel="noopener" data-api_path="/albums/433528"&gt;&lt;em&gt;Swimming&lt;/em&gt;&lt;/a&gt;, his last body of work while he was alive. Mac Miller always had issues with drug addiction and drug abuse, both of which were constant themes in his music.&lt;/p&gt;', 'alternate_names': ['Larry Lovestein', "Smoke Mo' Purp", 'Malcolm McCormick', 'Easy Mac', 'M. McCormick', 'Malcolm James McCormick', 'EZ Mac']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Naked-eyes', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Miranda-cosgrove', 'annotations': {'description': '&lt;p&gt;Miranda Cosgrove is an American actress and singer. Her career began at the age of three, when she appeared in television commercials. Her film debut came in 2003, when she played Summer Hathaway in School of Rock. She appeared in a number of minor television roles over several years before coming to prominence as Megan Parker on the Nickelodeon TV series Drake &amp;amp; Josh. A few years later, she landed the role of Carly Shay, the lead character in the Nickelodeon TV series iCarly.&lt;/p&gt;\n\n&lt;p&gt;As of May 2010, Cosgrove earned $180,000 per episode of iCarly, making her the second-highest-paid child star on television. Following the success of iCarly, a &lt;a href="https://genius.com/albums/Various-artists/Icarly-soundtrack" rel="noopener" data-api_path="/albums/122122"&gt;soundtrack album&lt;/a&gt; was released in June 2008, in which she performed four songs. Her debut album, &lt;em&gt;Sparks Fly&lt;/em&gt;, was released on April 27, 2010.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Icona-pop', 'annotations': {'description': '&lt;p&gt;Arguably one of the most anthemic musical duos out there, the pair of Swedish electropop women together known as Icona Pop have been impacting the charts and the dance floors since 2009. Comprised of Stockholm-raised Caroline Hjelt and Aino Jawo, who met accidentally at a party, Icona Pop seeks to make among the world’s best dancepop and synthpop music. The two came to the spotlight initially with the powerfully spunky &lt;a href="https://genius.com/Icona-pop-manners-lyrics" rel="noopener" data-api_path="/songs/121961"&gt;“Manners”&lt;/a&gt; as part of 2011 EP &lt;em&gt;Nights Like This&lt;/em&gt;, drawing attention from &lt;em&gt;NME&lt;/em&gt; and &lt;em&gt;The Guardian&lt;/em&gt;, among other publications.&lt;/p&gt;\n\n&lt;p&gt;In the late spring of 2012, Icona Pop gave the world a pre-release single off their debut album &lt;a href="https://genius.com/albums/Icona-pop/icona-pop" rel="noopener" data-api_path="/albums/124734"&gt;&lt;em&gt;Icona Pop&lt;/em&gt;&lt;/a&gt; and the EP &lt;a href="https://genius.com/albums/Icona-pop/Iconic-EP" rel="noopener"&gt;&lt;em&gt;Iconic&lt;/em&gt;&lt;/a&gt; – the would-be titanic hit &lt;a href="https://genius.com/Icona-pop-i-love-it-lyrics" rel="noopener" data-api_path="/songs/78587"&gt;“I Love It”&lt;/a&gt; featuring the rising UK artist &lt;a href="https://genius.com/artists/Charli-xcx" rel="noopener" data-api_path="/artists/45349"&gt;Charli XCX&lt;/a&gt; and producer &lt;a href="https://genius.com/artists/Patrik-berger" rel="noopener" data-api_path="/artists/45369"&gt;Patrik Berger&lt;/a&gt;, of &lt;a href="https://genius.com/artists/Robyn" rel="noopener" data-api_path="/artists/1182"&gt;Robyn&lt;/a&gt; fame. The maximalist track, anthemic and nihilistic, found itself on the soundtracks of many major projects, namely &lt;em&gt;Girls&lt;/em&gt;, &lt;em&gt;The Vampire Desires&lt;/em&gt;, &lt;em&gt;Glee&lt;/em&gt; and many commercials. “I Love It” eventually rolled to a Top 10 hit status on the Billboard charts and topped the UK Singles chart, selling over 4 million downloads worldwide. The eponymous album faltered chart-wise, but the rest of the album was no less significant than “I Love It” in shaping the synthpop artists\' signature sound. The two also found themselves opening the North American leg of &lt;a href="https://genius.com/artists/Marina-and-the-diamonds" rel="noopener" data-api_path="/artists/27048"&gt;Marina and the Diamonds&lt;/a&gt;‘ tour accompanying Diamandis’ &lt;em&gt;Electra Heart&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Come 2013, the duo pushed out the feminist &lt;a href="https://genius.com/Icona-pop-girlfriend-lyrics" rel="noopener" data-api_path="/songs/158502"&gt;“Girlfriend”&lt;/a&gt;, interpolating a &lt;a href="https://genius.com/artists/2pac" rel="noopener" data-api_path="/artists/59"&gt;2Pac&lt;/a&gt; track, which previewed Icona Pop’s debut international album, &lt;a href="https://genius.com/albums/Icona-pop/This-is-icona-pop" rel="noopener" data-api_path="/albums/121246"&gt;&lt;em&gt;This Is…Icona Pop&lt;/em&gt;&lt;/a&gt;, after the releases of “I Love It” and &lt;a href="https://genius.com/Icona-pop-we-got-the-world-lyrics" rel="noopener" data-api_path="/songs/1865855"&gt;“We Got The World”&lt;/a&gt; in 2012. &lt;a href="https://genius.com/Icona-pop-all-night-lyrics" rel="noopener" data-api_path="/songs/194135"&gt;“All Night”&lt;/a&gt; came not long after, topping the Billboard dance chart. &lt;em&gt;This Is…&lt;/em&gt; marked the true establishment of the Swedes into the dance scene, with its jam-packed nature of maximalist, genre-bending tracks and youthful lyrics of dual emotions. The next year, in 2014, the Swedish duo released &lt;a href="https://genius.com/Icona-pop-get-lost-lyrics" rel="noopener" data-api_path="/songs/461816"&gt;“Get Lost”&lt;/a&gt;, and worked as opening acts of Miley Cyrus and Katy Perry.&lt;/p&gt;\n\n&lt;p&gt;In 2015, Icona Pop released dance chart topper &lt;a href="https://genius.com/Icona-pop-emergency-lyrics" rel="noopener" data-api_path="/songs/1912355"&gt;“Emergency”&lt;/a&gt;, featured on the enormously popular video game &lt;em&gt;FIFA 16&lt;/em&gt;. The infectious hit previewed an EP of the same name, and Icona Pop was soon announced as an opening act for the massively popular 2015 One Direction tour. In March of 2016, the Swedes debuted their track &lt;a href="https://genius.com/Icona-pop-someone-who-can-dance-lyrics" rel="noopener" data-api_path="/songs/2428544"&gt;“Someone Who Can Dance”&lt;/a&gt; at the Swedish Grammys, to relative critical excitement. In October of the same year, the duo released &lt;a href="https://genius.com/Icona-pop-brightside-lyrics" rel="noopener" data-api_path="/songs/2882216"&gt;“Brightside”&lt;/a&gt;, an anthem celebrating their friendship. In June 2017, &lt;a href="https://genius.com/Icona-pop-girls-girls-lyrics" rel="noopener" data-api_path="/songs/3110204"&gt;“GIRLS GIRLS”&lt;/a&gt; was released. In October of 2018, the duo came back with a disco song &lt;a href="https://genius.com/Icona-pop-rhythm-in-my-blood-lyrics" rel="noopener" data-api_path="/songs/3955727"&gt;“Rhythm in My Blood”&lt;/a&gt;. It’s quite apparent that Icona Pop have the potential to change the state of musical maximalism and synthpop for the ages, provided the right tools – who knows what kind of anthem they’ll pump out next?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Yeah-yeah-yeahs', 'annotations': {'description': '&lt;p&gt;An Art-Punk band formed out of New York’s Post-Punk Revival scene in the late 1990s / early 2000s, the Yeah Yeah Yeahs are composed of lead vocalist Karen O, guitarist Nick Zinner, and drummer Brian Chase. Best songs include “Maps”, “Y Control”, “Cheated Hearts”, “Turn Into”, “Zero”, and “Heads Will Roll”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Carl-ward', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Fifth-harmony', 'annotations': {'description': '&lt;p&gt;Fifth Harmony is a girl group that formed out of contestants on the 2012 edition of &lt;em&gt;The X Factor USA&lt;/em&gt;, chosen by &lt;a href="https://genius.com/artists/Simon-cowell" rel="noopener" data-api_path="/artists/653533"&gt;Simon Cowell&lt;/a&gt;: &lt;a href="https://genius.com/artists/Ally-brooke-hernandez" rel="noopener" data-api_path="/artists/653060"&gt;Ally Brooke Hernandez,&lt;/a&gt; &lt;a href="https://genius.com/artists/Normani-kordei" rel="noopener" data-api_path="/artists/636165"&gt;Normani Kordei,&lt;/a&gt; &lt;a href="https://genius.com/artists/Lauren-jauregui" rel="noopener" data-api_path="/artists/653062"&gt;Lauren Jauregui,&lt;/a&gt; &lt;a href="https://genius.com/artists/Dinah-jane-hansen" rel="noopener" data-api_path="/artists/653061"&gt;Dinah Jane Hansen,&lt;/a&gt; and &lt;a href="https://genius.com/artists/Camila-cabello" rel="noopener" data-api_path="/artists/609667"&gt;Camila Cabello&lt;/a&gt;. Despite being eliminated at third place, Fifth Harmony moved on to being signed with Syco Music.&lt;/p&gt;\n\n&lt;p&gt;Their first album, &lt;a href="https://genius.com/albums/Fifth-harmony/Reflection" rel="noopener" data-api_path="/albums/117788"&gt;&lt;em&gt;Reflection&lt;/em&gt;,&lt;/a&gt; was released on February 3rd, 2015, and peaked at number 5 on the Billboard 200, becoming their second top ten on that chart following their 2013 EP, &lt;a href="https://genius.com/albums/Fifth-harmony/Better-together" rel="noopener" data-api_path="/albums/46107"&gt;&lt;em&gt;Better Together.&lt;/em&gt;&lt;/a&gt; The album also merited their first top 40 single, &lt;a href="https://genius.com/Fifth-harmony-sledgehammer-lyrics" rel="noopener" data-api_path="/songs/575010"&gt;“Sledgehammer.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their second album,\xa0&lt;a href="https://genius.com/albums/Fifth-harmony/7-27" rel="noopener" data-api_path="/albums/144962"&gt;&lt;em&gt;7/27&lt;/em&gt;,&lt;/a&gt;\xa0was released on May 27th, 2016 and debuted at number 4 on the Billboard 200, making it the group’s highest charting album to date. Its lead single, &lt;a href="https://genius.com/Fifth-harmony-work-from-home-lyrics" rel="noopener" data-api_path="/songs/2427392"&gt;“Work From Home”&lt;/a&gt; featuring rapper &lt;a href="https://genius.com/artists/Ty-dolla-sign" rel="noopener" data-api_path="/artists/25005"&gt;Ty Dolla Sign,&lt;/a&gt; catapulted the girls even further into mainstream success. The track debuted on the Billboard Hot 100 at #12 and reached #4 after 13 weeks and became the girls\' highest-charting single in the U.S. and the first top-five single in the country by a girl group since &lt;a href="https://genius.com/The-pussycat-dolls-buttons-lyrics" rel="noopener" data-api_path="/songs/2865650"&gt;“Buttons”&lt;/a&gt; by &lt;a href="https://genius.com/artists/The-pussycat-dolls" rel="noopener" data-api_path="/artists/8390"&gt;The Pussycat Dolls.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On December 19th of 2016, it was &lt;a href="https://twitter.com/FifthHarmony/status/810711337789771776" rel="noopener nofollow"&gt;announced via Twitter&lt;/a&gt; that &lt;a href="https://genius.com/artists/Camila-cabello" rel="noopener" data-api_path="/artists/609667"&gt;Camila Cabello&lt;/a&gt; would be breaking apart from the group to further pursue solo endeavors.&lt;/p&gt;\n\n&lt;p&gt;On June 2, 2017, Fifth Harmony released “&lt;a href="https://genius.com/Fifth-harmony-down-lyrics" rel="noopener" data-api_path="/songs/3102103"&gt;Down&lt;/a&gt;” as the first single as a four-piece group, featuring rapper &lt;a href="https://genius.com/artists/Gucci-mane" rel="noopener" data-api_path="/artists/13"&gt;Gucci Mane&lt;/a&gt;. Their &lt;a href="https://genius.com/albums/Fifth-harmony/Fifth-harmony" rel="noopener" data-api_path="/albums/344985"&gt;self-titled third album&lt;/a&gt; followed on August 25, 2017.&lt;/p&gt;\n\n&lt;p&gt;On March 19, 2018, after almost six years of being a band, the group posted this statement to their social medias announcing their hiatus to “pursue solo endeavours:”&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/fifthharmony/status/975718651595771904"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;', 'alternate_names': ['5th Harmony']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Huey-lewis-and-the-news', 'annotations': {'description': '&lt;p&gt;Huey Lewis and the News is a pop rock band from San Francisco who had a series of hit singles in the 1980s and early 90s. They’re best known for their “instantly memorable hooks, driven home with economical precision by a tight bar band,” &lt;a href="http://www.allmusic.com/album/sports-mw0000195256" rel="noopener nofollow"&gt;[1]&lt;/a&gt; especially in their back-to-back multiplatinum albums &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Sports" rel="noopener" data-api_path="/albums/125836"&gt;&lt;em&gt;Sports&lt;/em&gt;&lt;/a&gt; (1983) and &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore&lt;/em&gt;&lt;/a&gt; (1986). Their song &lt;a href="https://genius.com/Huey-lewis-and-the-news-hip-to-be-square-lyrics" rel="noopener" data-api_path="/songs/147345"&gt;“Hip to be Square,”&lt;/a&gt; on &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore!&lt;/em&gt;&lt;/a&gt;, was made famous in a scene in &lt;em&gt;American Psycho&lt;/em&gt;, in which Pat Bateman says:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In ‘87, Huey released &lt;em&gt;Fore!&lt;/em&gt;, their most accomplished album. I think their undisputed masterpiece is “Hip to Be Square,” a song so catchy most people probably don’t listen to the lyrics. But they &lt;em&gt;should&lt;/em&gt;, because it’s not just about the pleasures of conformity, and the importance of trends, it’s also a personal statement about the band itself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band got its start when singer and harmonica player &lt;a href="https://genius.com/artists/Huey-lewis" rel="noopener" data-api_path="/artists/61400"&gt;Huey Lewis&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Sean-hopper" rel="noopener" data-api_path="/artists/582291"&gt;Sean Hopper&lt;/a&gt; hooked up with a Bay Area jazz-funk band called &lt;a href="https://genius.com/artists/Clover" rel="noopener" data-api_path="/artists/355320"&gt;Clover&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After &lt;em&gt;Fore!&lt;/em&gt; the band declined in stature, and the lineup changed substantially. They recorded the theme song to the 2008 movie &lt;em&gt;Pineapple Express&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-kid-laroi', 'annotations': {'description': '&lt;p&gt;Charlton Kenneth-Jeffery Howard (b. August 17, 2003), better known as The Kid Laroi (stylized as The Kid LAROI), is an Australian rapper/singer hailing from South Sydney.&lt;/p&gt;\n\n&lt;p&gt;Originally from the Redfern/Waterloo area, The Kid Laroi’s precocious talent impressed the Australian underground hip-hop scene. His first demo &lt;a href="https://genius.com/The-kid-laroi-disconnect-demo-lyrics" rel="noopener" data-api_path="/songs/3882778"&gt;“Disconnect”&lt;/a&gt; was &lt;a href="http://www.abc.net.au/triplej/programs/triplej-breakfast/ue-high-finalist-the-kid-laroi/10077264" rel="noopener nofollow"&gt;even selected as a &lt;em&gt;Triple J&lt;/em&gt; Unearthed High 2018 finalist&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He soon caught the attention of American rappers &lt;a href="https://genius.com/artists/lil-skies" rel="noopener" data-api_path="/artists/1015007"&gt;Lil Skies&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Juice-wrld" rel="noopener" data-api_path="/artists/1237094"&gt;Juice WRLD&lt;/a&gt;. In early January 2019, Laroi toured with Juice WRLD during his Australian tour. It was announced shortly after the tour with Juice that he would also be the supporting act of &lt;a href="https://genius.com/artists/denzel-curry" rel="noopener" data-api_path="/artists/16690"&gt;Denzel Curry&lt;/a&gt;’s Sydney concert. This opened up more opportunities, including a career-changing slot at &lt;em&gt;Rolling Loud&lt;/em&gt; 2019 for the then 16 year old.&lt;/p&gt;\n\n&lt;p&gt;Laroi soon relocated to the US, utilising a strong social media presence to build a rapidly growing fanbase. In June 2020, Laroi and late mentor Juice WRLD released their long-awaited collaboration titled &lt;a href="https://genius.com/The-kid-laroi-and-juice-wrld-go-lyrics" rel="noopener" data-api_path="/songs/5288212"&gt;“GO,“&lt;/a&gt; which &lt;a href="https://www.billboard.com/music/juice-wrld/chart-history/HSI/song/1208449" rel="noopener nofollow"&gt;peaked at #52&lt;/a&gt; on the &lt;em&gt;Billboard&lt;/em&gt; charts.&lt;/p&gt;\n\n&lt;p&gt;Laroi released his debut studio mixtape, &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love" rel="noopener" data-api_path="/albums/599735"&gt;&lt;em&gt;F*CK LOVE&lt;/em&gt;&lt;/a&gt;, on July 24, 2020. The mixtape showed a young artist experimenting with different musical styles resembling more of a melodic blend of pop and emo rap, as he sang and rapped on issues of love and broken hearts.&lt;/p&gt;\n\n&lt;p&gt;In November 2020, Laroi released a deluxe version of this mixtape, titled &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love-savage" rel="noopener" data-api_path="/albums/672580"&gt;&lt;i&gt;F*CK LOVE (SAVAGE)&lt;/i&gt;&lt;/a&gt;. The project was led by the hit track &lt;a href="https://genius.com/The-kid-laroi-so-done-lyrics" rel="noopener" data-api_path="/songs/5289231"&gt;“SO DONE”&lt;/a&gt; and ultimately saw five of its seven tracks reach the &lt;em&gt;Billboard Hot 100&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;For the majority of this time, Laroi had been signed to &lt;a href="https://genius.com/artists/lil-bibby" rel="noopener" data-api_path="/artists/33238"&gt;Lil Bibby&lt;/a&gt; management &lt;a href="https://genius.com/artists/Grade-a-productions" rel="noopener" data-api_path="/artists/669837"&gt;Grade A Productions&lt;/a&gt; and Columbia Records/Sony Music Australia. In June 2021, it was announced that Laroi would be managed by &lt;a href="https://www.nme.com/en_au/news/music/the-kid-laroi-joins-scooter-braun-projects-management-roster-2956308" rel="noopener nofollow"&gt;none other than Scooter Braun&lt;/a&gt;, famous for managing &lt;a href="https://genius.com/artists/justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt; and &lt;a href="https://genius.com/artists/ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt; amongst others.&lt;/p&gt;\n\n&lt;p&gt;In July 2021, Laroi released another deluxe version of his mixtape titled &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love-3-over-you" rel="noopener" data-api_path="/albums/695020"&gt;&lt;em&gt;F&lt;/em&gt;CK LOVE 3: Over You*&lt;/a&gt;. The mixtape featured a star-studded features list including Justin Bieber, Machine Gun Kelly and Polo G. The mixtape debuted at #1 on the Billboard Global 200, making Laroi the &lt;a href="https://www.abc.net.au/triplej/news/musicnews/the-kid-laroi-1-billboard-200-us-chart-records-f*ck-love/13479922" rel="noopener nofollow"&gt;youngest artist to make #1 since Billie Eilish in 2019&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Laroi’s debut album is expected to drop in late 2021/early 2022.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;Howard’s moniker ‘Laroi’ is derived from his Indigenous Australian roots, namely the &lt;a href="https://en.wikipedia.org/wiki/Gamilaraay" rel="noopener nofollow"&gt;Gamilaraay/Gomeroi/Kamilaroi/Gamilaroi&lt;/a&gt; people of northern inland New South Wales. They are one of the four largest Indigenous nations in Australia.&lt;/p&gt;\n\n&lt;p&gt;The name is formed from “gamil”, meaning “no”, and the suffix -(b)araay, bearing the sense of “having”. It is a common practice among Australian tribes to have themselves identified according to their respective words for “no”. Unfortunately, the spoken language is considered to have died out by the 1950s, although anthropological research seeks to piece it together once more.&lt;/p&gt;', 'alternate_names': ['Charlton Kenneth-Jeffery Howard', 'Charlton Howard', 'Laroi']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-fratellis', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/The-fratellis" rel="noopener" data-api_path="/artists/23288"&gt;The Fratellis&lt;/a&gt; is a three-part Scottish rock band from Glasgow who formed in 2005. The band name originated from the crime family from the famous movie, “&lt;a href="https://en.wikipedia.org/wiki/The_Goonies#Plot" rel="noopener nofollow"&gt;The Goonies&lt;/a&gt;”. When translated from Italian—Fratelli means brother—indicating that they are brothers despite having no blood-relation.&lt;/p&gt;\n\n&lt;p&gt;The trio released their first EP (&lt;a href="https://en.wikipedia.org/wiki/The_Fratellis_%28EP" rel="noopener nofollow"&gt;The Fratellis EP&lt;/a&gt;), the EP featured one of their most popular songs to date, “&lt;a href="https://genius.com/The-fratellis-creepin-up-the-backstairs-lyrics" rel="noopener" data-api_path="/songs/1270557"&gt;Creepin’ Up The Backstairs&lt;/a&gt;”. The EP eventually led to their first big break when &lt;a href="https://genius.com/The-fratellis-creepin-up-the-backstairs-lyrics" rel="noopener" data-api_path="/songs/1270557"&gt;Jim Gellatly&lt;/a&gt; had heard the EP he immediately invited them to perform a few songs on his &lt;a href="http://www.beatscene.net/" rel="noopener nofollow"&gt;Beatscene show&lt;/a&gt; (which aired on &lt;a href="http://www.capitalfm.com/scotland/" rel="noopener nofollow"&gt;Galaxy Scotland&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;Once the radio show had gone public &lt;a href="http://www.falloutrecords.com/" rel="noopener nofollow"&gt;Fallout Records&lt;/a&gt; quickly snapped The Fratellis up. Quickly resulting in their debut album, and their most prevalent album to date; &lt;a href="https://genius.com/albums/The-fratellis/Costello-music" rel="noopener" data-api_path="/albums/19783"&gt;Costello Music&lt;/a&gt;. This album catapulted the band into success winning &lt;a href="http://www.brits.co.uk/history/shows/2007#" rel="noopener nofollow"&gt;Brit Award for British Breakthrough Act&lt;/a&gt; in 2007. Afterwards, The Fratellis went onto support massive UK-rock act &lt;a href="http://www.genius.com/artists/kasabian" rel="noopener" data-api_path="/artists/20020"&gt;Kasabian&lt;/a&gt; before their ten-date tour which included Manchester, London and their hometown Glasgow. “&lt;a href="https://www.youtube.com/watch?v=RYhQ8hLhuPY" rel="noopener nofollow"&gt;Baby Fratelli&lt;/a&gt;” was involved in the British drama &lt;a href="https://en.wikipedia.org/wiki/Hot_Fuzz" rel="noopener nofollow"&gt;Hot Fuzz&lt;/a&gt;, where comical duo &lt;a href="https://en.wikipedia.org/wiki/Nick_Frost" rel="noopener nofollow"&gt;Nick Frost&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Simon_Pegg" rel="noopener nofollow"&gt;Simon Pegg&lt;/a&gt; starred.&lt;/p&gt;\n\n&lt;p&gt;After an astonishing result from their debut album and a slight hiatus, they were ready to bring out more music for their fans. The release of&lt;br&gt;\n“&lt;a href="https://genius.com/albums/The-fratellis/Here-we-stand" rel="noopener" data-api_path="/albums/207791"&gt;Here We Stand&lt;/a&gt;” came in June 2008. This album made them popular worldwide as they were asked to play shows from all over the U.S. — which they sold out. In the eyes of the public, The Fratellis were proper Scottish stars after the release of their single, “&lt;a href="https://genius.com/The-fratellis-look-out-sunshine-lyrics" rel="noopener" data-api_path="/songs/1631717"&gt;Look Out Sunshine!&lt;/a&gt;” it was released that all proceeds from said single were donated to &lt;a href="https://www.teenagecancertrust.org/about-us/our-story/music/royal-albert-hall/previous-shows/2008" rel="noopener nofollow"&gt;Teenage Cancer Trust&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2013 it was announced that there was a third album finished and given a date of October 2013 as an official release. The album led to even more success as another highly successful tour came which featured the UK, US, Europe and Japan. Announcing more dates in Russia shortly after.&lt;br&gt;\nHowever, in September 2014 The Fratellis secretly released a free EP on &lt;a href="http://www.thefratellis.com/" rel="noopener nofollow"&gt;their website&lt;/a&gt;, named “&lt;a href="https://genius.com/albums/The-fratellis/The-soul-crush-ep" rel="noopener" data-api_path="/albums/144763"&gt;The Soul Crush EP&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Showing a tremendous work ethic only a year later another album was announced and released in August 2015 through &lt;a href="http://cookingvinyl.com/" rel="noopener nofollow"&gt;Cooking Vinyl Records&lt;/a&gt;.&lt;br&gt;\nNearing the end of 2016, they marked the &lt;a href="http://thefratellis.com/site/costello-music-celebrating-its-10th-anniversary/" rel="noopener nofollow"&gt;10th Anniversary&lt;/a&gt; since the release of Costello Music by playing sixteen separate shows throughout a two month period.&lt;/p&gt;\n\n&lt;p&gt;Despite their chosen genre and sales declining The Fratellis released another album, “&lt;a href="https://genius.com/albums/The-fratellis/In-your-own-sweet-time" rel="noopener" data-api_path="/albums/378523"&gt;In Your Own Sweet Time&lt;/a&gt;” which came with the help of producer &lt;a href="https://genius.com/artists/Tony-hoffer" rel="noopener" data-api_path="/artists/61426"&gt;Tony Hoffer&lt;/a&gt;.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;LINE-UP&lt;/strong&gt;&lt;br&gt;\nLead Vocals/Guitar – Jon Fratelli (John Lawler)&lt;br&gt;\nBass Guitar – Barry “Baz” Fratelli (Barry Wallace)&lt;br&gt;\nDrummer/Backing – Mince Fratelli (Gordon McRory)&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;TOURING MEMBERS&lt;/strong&gt;&lt;br&gt;\nKeyboards/Piano – Will Foster&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Shaggy', 'annotations': {'description': '&lt;p&gt;Orville Richard Burrell CD (born October 22, 1968), known mostly by his stage name Shaggy, is a Jamaican reggae fusion singer and deejay. He took his nickname from Shaggy Rogers, from the cartoon Scooby Doo.&lt;/p&gt;\n\n&lt;p&gt;He was born on October 22, 1968 in Kingston, Jamaica. In 1975 he and his family moved to Brooklyn, New York.&lt;/p&gt;\n\n&lt;p&gt;The singer released his first hit “Oh Carolina” in 1993, which was a dancehall re-make of a ska hit by the Folkes Brothers.&lt;br&gt;\nIn 1995 he published his most famous hit “Boombastic”.&lt;br&gt;\nIn 2000, Shaggy released the album Hot Shot, which was certified 6x Platinum in the U.S. The album featured the singles “It Wasn’t Me” and “Angel”.&lt;/p&gt;', 'alternate_names': ['Mr. Boombastic', 'Orville Burrell', 'Orville Richard Burrell', 'Orville R. Burrell']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/George-michael', 'annotations': {'description': '&lt;p&gt;George Michael was an English singer, songwriter, and producer.  He was born &lt;a href="http://www.bbc.com/news/entertainment-arts-15925376" rel="noopener nofollow"&gt;Georgios Kyriacos Panayiotou on June 25, 1963&lt;/a&gt;, in East Finchley, London.  His mother Lesley Angold Panayiotou was an English dancer and his father Kyriakos “Jack” Panayiotou was a Greek Cypriot restaurateur.&lt;/p&gt;\n\n&lt;p&gt;From 1981 to 1986, Michael was a member of the pop duo &lt;a href="https://genius.com/artists/Wham" rel="noopener" data-api_path="/artists/15441"&gt;Wham!&lt;/a&gt;, which he formed with childhood friend &lt;a href="https://genius.com/artists/Andrew-ridgeley" rel="noopener" data-api_path="/artists/351162"&gt;Andrew Ridgeley&lt;/a&gt;. The duo went on to sell over 28 million albums before their amicable split.&lt;/p&gt;\n\n&lt;p&gt;After going solo in 1987, Michael became known for his provocative and massively popular pop music. His debut solo album, &lt;em&gt;&lt;a href="https://genius.com/albums/George-michael/Faith" rel="noopener" data-api_path="/albums/26960"&gt;Faith&lt;/a&gt;&lt;/em&gt;, went on to sell more than 20 million copies.&lt;/p&gt;\n\n&lt;p&gt;Michael passed away at the age of 53 on December 25, 2016 of a &lt;a href="http://www.cnn.com/2017/03/07/europe/george-michael-death-natural-causes-coroner/" rel="noopener nofollow"&gt;heart condition&lt;/a&gt;. At the time of his death, Michael had sold more than &lt;a href="http://www.billboard.com/articles/news/7633292/george-michael-dead" rel="noopener nofollow"&gt;115 million records worldwide&lt;/a&gt;, making him one of the best selling music artists of all time.&lt;/p&gt;', 'alternate_names': ['Georgios Kyriacos Panayiotou', 'G.K. Panayiotou']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/September', 'annotations': {'description': '&lt;p&gt;Petra Marklund, also known as September, is a Swedish singer, songwriter, and television presenter. Whilst she has had a string of hit singles in her homeland, she is best-known worldwide for the song “&lt;a href="https://genius.com/September-cry-for-you-original-version-lyrics" rel="noopener" data-api_path="/songs/1652839"&gt;Cry for You&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mc-hammer', 'annotations': {'description': '&lt;p&gt;Stanley Kirk Burrell (born 30 March 1962), better known by his stage name &lt;a href="https://genius.com/artists/Mc-hammer" rel="noopener" data-api_path="/artists/1039"&gt;MC Hammer&lt;/a&gt;, is an American rapper, dancer, entrepreneur, spokesman and occasional actor from Oakland, California. He had his greatest commercial success and popularity from the late 1980s until the late 1990s. Remembered for his rapid rise to fame, Hammer is known for his hit records (such as “&lt;a href="https://genius.com/Mc-hammer-u-cant-touch-this-lyrics" rel="noopener" data-api_path="/songs/2161"&gt;U Can’t Touch This&lt;/a&gt;” and “&lt;a href="https://genius.com/Mc-hammer-2-legit-2-quit-lyrics" rel="noopener" data-api_path="/songs/22245"&gt;2 Legit 2 Quit&lt;/a&gt;”), flashy dance movements, choreography and his trademark Hammer pants. Hammer’s superstar-status and entertaining showmanship made him a household name and &lt;a href="https://genius.com/artists/Hip-hop" rel="noopener" data-api_path="/artists/15296"&gt;Hip-Hop&lt;/a&gt; icon. He has sold more than fifty million records worldwide.&lt;/p&gt;\n\n&lt;p&gt;A multi-award winner, &lt;a href="https://genius.com/artists/Mc-hammer" rel="noopener" data-api_path="/artists/1039"&gt;MC Hammer&lt;/a&gt; is considered a pioneer and innovator of pop rap, and is the first &lt;a href="https://genius.com/artists/Hip-hop" rel="noopener" data-api_path="/artists/15296"&gt;Hip-Hop&lt;/a&gt; artist to achieve diamond status for an album. Hammer was later considered a sellout due in part to overexposure as an entertainer, and as a result of being too “commercial” when &lt;a href="https://genius.com/artists/Rap" rel="noopener" data-api_path="/artists/25080"&gt;Rap&lt;/a&gt; was “hardcore”, then his image later becoming increasingly “gritty” to once again adapt to the ever-changing landscape of rap. Burrell became a preacher during the late 1990s with a Christian ministry program called MC Hammer and Friends. Additionally, he starred in a Saturday morning cartoon called Hammerman in 1991 and was executive producer of his own reality show called Hammertime which aired during the summer of 2009. Prior to becoming ordained, Hammer signed to &lt;a href="https://genius.com/artists/Suge-knight" rel="noopener" data-api_path="/artists/660037"&gt;Suge Knight&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Death-row-records" rel="noopener" data-api_path="/artists/149462"&gt;Death Row Records&lt;/a&gt; in 1995.&lt;/p&gt;\n\n&lt;p&gt;Throughout his career, Hammer has managed his own recording business. As a result, he has created and produced his own acts including Oaktown’s 3.5.7, Common Unity, Special Generation, Analise, One Cause One Effect, Teabag, Dom Kimberley, Geeman, DRS, Pleasure Ellis, B Angie B, Stooge Playaz, Ho Frat Hoo! and Wee Wee, among others. A part of additional record labels, he has collaborated and has been associated with &lt;a href="https://genius.com/artists/2pac" rel="noopener" data-api_path="/artists/59"&gt;2Pac&lt;/a&gt;, Teddy Riley, Felton Pilate, &lt;a href="https://genius.com/artists/Tha-dogg-pound" rel="noopener" data-api_path="/artists/464"&gt;Tha Dogg Pound&lt;/a&gt;, The Whole 9, Deion Sanders, and &lt;a href="https://genius.com/artists/Big-daddy-kane" rel="noopener" data-api_path="/artists/202"&gt;Big Daddy Kane&lt;/a&gt;, as well as others.&lt;/p&gt;', 'alternate_names': ['Stanley Burrell', 'Stanley Kirk Burrell', 'Hammer']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Steve-winwood', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/Steve_Winwood" rel="noopener nofollow"&gt;Steven Lawrence Winwood&lt;/a&gt; is most famous for his solo work, including two number one hits &lt;a href="https://genius.com/Steve-winwood-higher-love-lyrics" rel="noopener" data-api_path="/songs/700681"&gt;Higher Love&lt;/a&gt; and &lt;a href="https://genius.com/Steve-winwood-roll-with-it-lyrics" rel="noopener" data-api_path="/songs/443038"&gt;Roll with It&lt;/a&gt;, and for being the member of two supergroups, &lt;a href="https://genius.com/artists/Traffic" rel="noopener" data-api_path="/artists/1129889"&gt;Traffic&lt;/a&gt; and &lt;a href="https://genius.com/artists/Blind-faith" rel="noopener" data-api_path="/artists/139433"&gt;Blind Faith&lt;/a&gt;, along with helping found the &lt;a href="https://genius.com/artists/Blind-faith" rel="noopener" data-api_path="/artists/139433"&gt;Spencer Davis Group&lt;/a&gt; at fourteen years old.&lt;/p&gt;\n\n&lt;p&gt;Speaking of which, Mozart had nothing on Winwood as a keyboard virtuoso:&lt;/p&gt;\n\n&lt;p&gt;As a boy in middle school, little Stevie Winwood played the Hammond synth for Blues gods and Rock &amp;amp; Roll founders like  &lt;a href="https://genius.com/artists/Muddy-waters" rel="noopener" data-api_path="/artists/65145"&gt;Muddy Waters&lt;/a&gt;, &lt;a href="https://genius.com/artists/John-lee-hooker" rel="noopener" data-api_path="/artists/59462"&gt;John Lee Hooker&lt;/a&gt;, &lt;a href="https://genius.com/artists/Howlin-wolf" rel="noopener" data-api_path="/artists/65010"&gt;Howlin\' Wolf&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bb-king" rel="noopener" data-api_path="/artists/1107"&gt;B.B. King&lt;/a&gt;, &lt;a href="https://genius.com/artists/Chuck-berry" rel="noopener" data-api_path="/artists/19340"&gt;Chuck Berry&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bo-diddley" rel="noopener" data-api_path="/artists/133941"&gt;Bo Diddley&lt;/a&gt;, when they toured in Britain. We’d list more, but it’s exhausting to link all of those names.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/VwqsmNR_Q1M?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;&lt;br&gt;\nStevie Winwood playing keyboard at 15 years old.', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Daughtry', 'annotations': {'description': '&lt;p&gt;Daughtry is an American rock band formed and fronted by namesake Chris Daughtry, who was a finalist on the fifth season of American Idol. Their self-titled debut album was released in November 2006. The album reached number one on the Billboard 200, went on to sell more than four million copies in the United States, and has been certified quadruple platinum by the RIAA. Daughtry was also named the best-selling album of 2007 by Billboard, becoming the fastest-selling debut rock album in Soundscan history. The album produced four top 20 hits on the Billboard Hot 100, including top five hits “It’s Not Over” and “Home”.&lt;/p&gt;\n\n&lt;p&gt;The band’s second album, Leave This Town, was released in July 2009. It debuted at number one on the Billboard 200 chart, becoming Daughtry’s second number one album in the United States. To date, Leave This Town has sold over 1.3 million copies in the United States and has been certified platinum by the RIAA. The album’s lead single, “No Surprise,” became the band’s fifth top-20 hit on the Hot 100. Their third studio album, Break the Spell was released in November 2011. It debuted inside the top ten on the Billboard 200 chart and has been certified Gold by the RIAA. Daughtry’s fourth studio album, Baptized was released on November 19, 2013 and it debuted at number six on the 200 chart, selling approximately 90,000 units. To date, Daughtry has sold over 8 million albums and over 22.6 million digital tracks in the U.S.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/New-radicals', 'annotations': {'description': '&lt;p&gt;New Radicals were an incredibly short lived band started by songwriter Gregg Alexander and former child actress Danielle Brisebois; (best known today for playing Archie Bunker’s nephew, Stephanie Mills, in the show All in The Family and it’s spinoff, Archie Bunker’s Place; also an accomplished songwriter) all other members were just session musicians.&lt;/p&gt;\n\n&lt;p&gt;The band released only two singles from their only album before breaking up, the worldwide smash hit &lt;a href="https://genius.com/New-radicals-you-get-what-you-give-lyrics" rel="noopener" data-api_path="/songs/103482"&gt;“You Get What You Give”&lt;/a&gt; and &lt;a href="https://genius.com/New-radicals-someday-well-know-lyrics" rel="noopener" data-api_path="/songs/1030504"&gt;“Someday We’ll Know”&lt;/a&gt; (the latter better known for the &lt;a href="https://genius.com/Mandy-moore-someday-well-know-lyrics" rel="noopener" data-api_path="/songs/356222"&gt;Mandy Moore and Jon Foreman (of Switchfoot fame) cover for the A Walk to Remember soundtrack.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The band broke up around the time of their final single, “Someday We’ll Know” which failed to chart to chart in the US except in the Billboard Adult Pop Songs category. It’s been speculated that the reason of the failure was because it the bands\' break up overshadowed the single and it gave their record label MCA little reason to promote.&lt;/p&gt;\n\n&lt;p&gt;While they were only around for one album, both Alexander and Brisebois are still in the music industry. Alexander would later win a Grammy for writing the Santana and Michelle Branch hit, “The Game of Love” and would become a prolific songwriter. Danielle Brisebois would go on to write the hit Natasha Bedingfield song, “Unwritten.”&lt;br&gt;\nEventually both of them would reunite to write the soundtrack to the film “Begin Again” in 2014.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Peter-schilling', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Pierre Schilling', 'Pierre Michael Schilling']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/New-order', 'annotations': {'description': '&lt;p&gt;“It doesn’t take a genius to tell me what I am.” This is the lyric uttered in the dance-pop song, &lt;a href="https://genius.com/New-order-all-the-way-lyrics" rel="noopener" data-api_path="/songs/995553"&gt;“All the Way”&lt;/a&gt; from &lt;a href="https://genius.com/albums/New-order/Technique" rel="noopener" data-api_path="/albums/28108"&gt;&lt;em&gt;Technique&lt;/em&gt;&lt;/a&gt;, the band’s most dance-infused album to date. With catchy hooks from Bernard Sumner, keyboards from &lt;a href="https://genius.com/artists/Gillian-gilbert" rel="noopener" data-api_path="/artists/541294"&gt;Gillian Gilbert&lt;/a&gt;, basslines from &lt;a href="https://genius.com/artists/Peter-hook" rel="noopener" data-api_path="/artists/647006"&gt;Peter Hook&lt;/a&gt; to &lt;a href="https://genius.com/artists/Tom-chapman" rel="noopener" data-api_path="/artists/1071882"&gt;Tom Chapman&lt;/a&gt;, and everyone else, New Order rose from the ashes of what was once &lt;a href="https://genius.com/artists/Joy-division" rel="noopener" data-api_path="/artists/28034"&gt;Joy Division&lt;/a&gt;. Of course, neither of the bands are directed towards fascism.&lt;/p&gt;\n\n&lt;p&gt;With one of their best-selling 12" single for them and the best-selling 12" single of all time, &lt;a href="https://genius.com/albums/New-order/Blue-monday" rel="noopener" data-api_path="/albums/28105"&gt;&lt;em&gt;Blue Monday&lt;/em&gt;&lt;/a&gt; fuses techno with dance, and justified one of dance’s most splendid artists. With &lt;a href="https://genius.com/albums/New-order/Movement" rel="noopener" data-api_path="/albums/132073"&gt;&lt;em&gt;Movement&lt;/em&gt;&lt;/a&gt;, their debut album, they give tribute to Ian Curtis and their previous incarnation, Joy Division. With &lt;a href="https://genius.com/albums/New-order/Power-corruption-and-lies" rel="noopener" data-api_path="/albums/58486"&gt;&lt;em&gt;Power, Corruption, &amp;amp; Lies&lt;/em&gt;&lt;/a&gt;, they prove that they deliver catchy hooks, as well as synthesis. &lt;a href="https://genius.com/albums/New-order/Low-life" rel="noopener" data-api_path="/albums/138759"&gt;&lt;em&gt;Low-Life&lt;/em&gt;&lt;/a&gt;’s coming-of-age backstory gives way to one of their most recognized singles, &lt;a href="https://genius.com/New-order-the-perfect-kiss-lyrics" rel="noopener" data-api_path="/songs/1299965"&gt;“The Perfect Kiss”&lt;/a&gt;. Late-night clubs can host &lt;a href="https://genius.com/albums/New-order/Brotherhood" rel="noopener" data-api_path="/albums/30834"&gt;&lt;em&gt;Brotherhood&lt;/em&gt;&lt;/a&gt;, one of New Order’s darkest albums centering on substances, teenagers, nights out, and more. If you like to liven things up a bit, &lt;a href="https://genius.com/New-order-fine-time-lyrics" rel="noopener" data-api_path="/songs/116295"&gt;&lt;em&gt;Fine Time&lt;/em&gt;&lt;/a&gt; as well as &lt;em&gt;Technique&lt;/em&gt; can give you the fun side of things, and 80’s techno merged with 90’s polychromatic neo-psychedelia. Alternative rock dominate their most previous albums: &lt;em&gt;Republic&lt;/em&gt;, &lt;em&gt;Get Ready&lt;/em&gt;, and &lt;em&gt;Waiting for the Siren’s Call&lt;/em&gt;. With rock infused with alternative, &lt;em&gt;Lost Sirens&lt;/em&gt; introduces eight tracks left out of &lt;em&gt;Waiting for the Siren’s Call&lt;/em&gt;, as well as Peter hook’s final album recorded with New Order, and the only album produced from archival recordings.&lt;/p&gt;\n\n&lt;p&gt;On 25 September 2015, New Order released &lt;em&gt;Music Complete&lt;/em&gt;, their first studio album in 10 years. With its catchy pop hooks and funk center, the album received favorable reviews.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Xxxtentacion', 'annotations': {'description': '&lt;p&gt;Jahseh Dwayne Ricardo Onfroy (January 23, 1998 – June 18, 2018) was born in Plantation and raised in Lauderhill, Broward County, Florida)—better known by his stage name, XXXTENTACION (pronounced &lt;em&gt;xxx-tenta-ción&lt;/em&gt;)—was an established force in the Florida Soundcloud rap scene. He became widely known for his uniquely raw and aggressive approach to music. &lt;a href="https://www.youtube.com/watch?v=ILhZrraMtK8" rel="noopener nofollow"&gt;X claimed&lt;/a&gt; that his varied artistic influences range from alternative rock bands such as &lt;a href="https://genius.com/artists/Nirvana" rel="noopener" data-api_path="/artists/12712"&gt;Nirvana&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-fray" rel="noopener" data-api_path="/artists/7807"&gt;The Fray&lt;/a&gt; to distinguished rappers like &lt;a href="https://genius.com/artists/Lil-Wayne" rel="noopener" data-api_path="/artists/4"&gt;Lil Wayne&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-notorious-big" rel="noopener" data-api_path="/artists/22"&gt;The Notorious B.I.G&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His breakout hit &lt;a href="https://genius.com/Xxxtentacion-look-at-me-lyrics" rel="noopener" data-api_path="/songs/2441478"&gt;“Look At Me”&lt;/a&gt; was &lt;a href="https://soundcloud.com/rojasonthebeat/look-at-me-ft-xxxtentacion" rel="noopener nofollow"&gt;first released on Soundcloud&lt;/a&gt; in 2015, and then edited and re-released for his 2017 mixtape &lt;a href="https://genius.com/albums/Xxxtentacion/Revenge" rel="noopener" data-api_path="/albums/344273"&gt;&lt;em&gt;Revenge&lt;/em&gt;&lt;/a&gt;. This scored him an &lt;a href="https://www.youtube.com/watch?v=7B9v_5pWjAg" rel="noopener nofollow"&gt;appearance&lt;/a&gt; in the &lt;a href="http://www.xxlmag.com/news/2017/06/2017-xxl-freshman-cover/" rel="noopener nofollow"&gt;&lt;em&gt;XXL&lt;/em&gt; Freshman Class of 2017&lt;/a&gt;. He took the 10th spot, meaning he was voted in by the fans.&lt;/p&gt;\n\n&lt;p&gt;X frequently collaborated with his friend and fellow South Florida rapper, &lt;a href="https://genius.com/artists/Ski-mask-the-slump-god" rel="noopener" data-api_path="/artists/396531"&gt;Ski Mask The Slump God&lt;/a&gt;. He met Ski in juvenile detention and founded the music collective, &lt;a href="https://genius.com/artists/Members-only" rel="noopener" data-api_path="/artists/1072775"&gt;Members Only&lt;/a&gt;, with him.&lt;/p&gt;\n\n&lt;p&gt;X released his debut album, &lt;a href="https://genius.com/albums/Xxxtentacion/17" rel="noopener" data-api_path="/albums/342174"&gt;&lt;em&gt;17&lt;/em&gt;&lt;/a&gt;, in 2017 which peaked at #2 on the &lt;a href="https://www.billboard.com/charts/billboard-200" rel="noopener nofollow"&gt;US &lt;em&gt;Billboard&lt;/em&gt; 200&lt;/a&gt;. He followed that up with his second album, &lt;a href="https://genius.com/albums/Xxxtentacion/Question-mark" rel="noopener" data-api_path="/albums/397606"&gt;&lt;em&gt;?&lt;/em&gt;&lt;/a&gt; in early 2018. It became his first #1 album, and one of its two lead singles, &lt;a href="https://genius.com/Xxxtentacion-sad-lyrics" rel="noopener" data-api_path="/songs/3430186"&gt;“SAD!,”&lt;/a&gt; later became his first #1 song after his death.&lt;/p&gt;\n\n&lt;p&gt;On June 18, 2018, X was tragically shot to death in Deerfield Beach, Florida. According to police reports and surveillance recordings, multiple men planned to rob X after they discovered he was carrying a significant amount of cash with him. The men demanded that X leave his vehicle and hand over his money, but the rapper refused and was &lt;a href="http://www.tmz.com/2018/06/18/xxxtentacion-shot-dead-miami/" rel="noopener nofollow"&gt;subsequently shot in the neck&lt;/a&gt;. The Broward County Sheriff’s Department later confirmed his death in &lt;a href="https://twitter.com/browardsheriff/status/1008838726599004161" rel="noopener nofollow"&gt;a tweet&lt;/a&gt;. X was 20 years old.&lt;/p&gt;\n\n&lt;p&gt;In what is now an eerie message &lt;a href="https://twitter.com/X_XsalvadorX_X/status/1008822539248979970" rel="noopener nofollow"&gt;uploaded to his Instagram&lt;/a&gt; several months before his untimely death, X described how he wanted to be remembered:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;If I’m gonna die or ever be a sacrifice, I wanna make sure that my life made at least 5 million kids happy or they found some sort of answers or resolve in my life.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Following his death, X’s mother Cleopatra Bernard posted a &lt;a href="https://www.instagram.com/p/BkTQdl3hvuN/?taken-by=cleo_ohsojazzy" rel="noopener nofollow"&gt;picture of a sonogram&lt;/a&gt; to &lt;a href="https://www.instagram.com/Cleo_OhSoJazzy/" rel="noopener nofollow"&gt;her personal Instagram&lt;/a&gt;, previewing X’s unborn child. On November 24, 2018, an update was given by X’s mother about his baby, now named Gekyume. This was &lt;a href="https://youtu.be/g-RwLGLEcgc?t=5" rel="noopener nofollow"&gt;a word X created on his Instagram&lt;/a&gt; meaning a “different state or next universe of thought.” On January 26, 2019, Gekyume was born.&lt;/p&gt;\n\n&lt;p&gt;In the time following the rapper’s passing, multiple posthumous verses and choruses were released to the public by several artists, including his first posthumous song with &lt;a href="https://genius.com/artists/Trippie-redd" rel="noopener" data-api_path="/artists/1086436"&gt;Trippie Redd&lt;/a&gt;. The track was titled &lt;a href="https://genius.com/Trippie-redd-and-xxxtentacion-ghost-busters-lyrics" rel="noopener" data-api_path="/songs/3556910"&gt;“Ghost Busters”&lt;/a&gt; and features Ski Mask and &lt;a href="https://genius.com/artists/Quavo" rel="noopener" data-api_path="/artists/61600"&gt;Quavo&lt;/a&gt;. Other notable posthumous features include his records with &lt;a href="https://genius.com/Lil-peep-and-xxxtentacion-falling-down-lyrics" rel="noopener" data-api_path="/songs/3906162"&gt;Lil Peep&lt;/a&gt; and &lt;a href="https://genius.com/Lil-wayne-dont-cry-lyrics" rel="noopener" data-api_path="/songs/3985334"&gt;Lil Wayne&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;X’s first posthumous album, &lt;a href="https://genius.com/albums/Xxxtentacion/Skins" rel="noopener" data-api_path="/albums/424173"&gt;&lt;em&gt;SKINS&lt;/em&gt;&lt;/a&gt;, was released on December 7, 2018. The album was his shortest project to date and includes a sole feature from &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt;. X’s final posthumous album, &lt;a href="https://genius.com/albums/Xxxtentacion/Bad-vibes-forever" rel="noopener" data-api_path="/albums/471489"&gt;&lt;em&gt;Bad Vibes Forever&lt;/em&gt;&lt;/a&gt;, was released on December 6 2019 and highlighted many old X songs released solely on his SoundCloud or previously unreleased snippets.&lt;/p&gt;\n\n&lt;p&gt;Information concerning an official documentary about X was teased on his &lt;a href="https://www.instagram.com/xxxtentacion/?hl=en" rel="noopener nofollow"&gt;Instagram&lt;/a&gt;  and &lt;a href="https://www.youtube.com/watch?v=5ZXFPPV3pnE" rel="noopener nofollow"&gt;YouTube channel&lt;/a&gt; one year after his death.&lt;/p&gt;', 'alternate_names': ['Jahseh Onfroy', 'XXX', 'Yung Dagger Dick', 'Jahseh Dwayne Onfroy', 'Jahseh', 'Jahseh Dwayne Ricardo Onfroy', 'MAKE OUT HILL', 'Jahseh D. R. Onfroy', 'Jah', 'Jahseh D. Onfroy', 'Dagger Dick']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Third-eye-blind', 'annotations': {'description': '&lt;p&gt;Third Eye Blind from San Francisco Mission District Mostly guitars with other things knocking around Riffs and deep beats Lyrics are expanded in a kinda hip hop way That wrong thing you’re not supposed to say- we say it Black on Black pretty much from the beginning It took us so long to get things this way but it really feels like we are underway now Jacked on coffee we are a fabulously disorganized bunch We seek impact with friends try to surf whenever we can dirty jokes looking out for each other we have eyes and a voice so no surprise when we speak the fuck up We care about shit No sequencers no backing tracks not a DJ group We believe in the gathering power of music Guess you could say we are a motherfucking rock band Born in shadow, made of lions, loud as fuck&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/David-guetta', 'annotations': {'description': '&lt;p&gt;Pierre David Guetta, better known simply as &lt;strong&gt;David Guetta&lt;/strong&gt;, is a French DJ and producer. He first got a taste of the limelight with his 2009 album &lt;em&gt;One Love&lt;/em&gt; which included the hit singles “When Love Takes Over”, “Gettin\' Over You”, and “Sexy Bitch”, all three of which reached #1 in the UK and charted high internationally.&lt;/p&gt;\n\n&lt;p&gt;His 2011 album, &lt;em&gt;Nothing but the Beat&lt;/em&gt;, continued this success, containing the hit singles “Where Them Girls At”, “Little Bad Girl”, “Without You”, “Titanium” and “Turn Me On”.&lt;/p&gt;\n\n&lt;p&gt;His sixth album &lt;em&gt;Listen&lt;/em&gt; was released in 2014, and includes chart-toppers “Lovers on the Sun”, “Dangerous”, and “Hey Mama.” Most recently, in 2017, he released “2U” with Justin Bieber and “Dirty Sexy Money” in 2018 with Afrojack, Charli XCX and French Montana.&lt;/p&gt;\n\n&lt;p&gt;Pierre David Guetta, plus connu sous le nom de David Guetta, est un DJ français et producteur. Il prend d\'abord avant-goût du milieu avec son album de 2009 “One Love” qui comprenait les hits “When Love Takes Over”, “Gettin\' Over You”, et “Sexy Bitch”, les trois chansons sont arrivées premières au Royaume-uni et très dans les classements internationalement.&lt;/p&gt;\n\n&lt;p&gt;Son album de 2011 “Nothing but the Beat” l\'a fait continué sur sa lancée, contenant les titres à succès “Where Them Girls At”, “Little Bad Girl”, “Without You”, “Titanium” et “Turn Me On”.&lt;/p&gt;\n\n&lt;p&gt;Son sixième album “Listen est sorti en 2014 et comprend notamment les titres "Lovers on the Sun”, “Dangerous” et “Hey Mama”. Plus récemment, en 2017, il a sorti “2U” avec Justin Bieber et “Dirty Sexy Money” en 2018 avec Afrojack, Charli XCX et French Montana.&lt;/p&gt;', 'alternate_names': ['Pierre David Guetta']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jason-mraz', 'annotations': {'description': "&lt;p&gt;Jason Thomas Mraz, born June 23, 1977, released his debut album, &lt;em&gt;Waiting for My Rocket to Come&lt;/em&gt;, which contained the hit single “The Remedy (I Won’t Worry)”, in 2002, but it was not until the release of his second album, Mr. A-Z, in 2005, that Mraz achieved major commercial success. The album peaked at number five on the Billboard 200 and sold over 100,000 copies in the US. In 2008, Mraz released his third studio album, We Sing. We Dance. We Steal Things. The album debuted at number three on the Billboard 200 and was a commercial success worldwide, peaking in the top ten of many international charts&lt;/p&gt;\n\n&lt;p&gt;Mraz’s international breakthrough came with the release of the single “I’m Yours” from the album We Sing. We Dance. We Steal Things. The single peaked at number six on the Billboard Hot 100, giving Mraz his first top ten single. The song was on the Hot 100 for 76 weeks, beating the previous record of 69 weeks held by LeAnn Rimes' “How Do I Live”. The song was a commercial success in the US, receiving a 5x platinum certification from the RIAA for sales of over five million. The song was successful internationally, topping the charts in New Zealand and Norway and peaking in the top ten of multiple international charts&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Macklemore-and-ryan-lewis', 'annotations': {'description': '&lt;p&gt;Macklemore &amp;amp; Ryan Lewis are a hip-hop duo from Seattle, Washington, comprised of rapper &lt;a href="https://genius.com/artists/Macklemore" rel="noopener" data-api_path="/artists/2026"&gt;&lt;strong&gt;Macklemore&lt;/strong&gt;&lt;/a&gt; and producer &lt;a href="https://genius.com/artists/Ryan-lewis" rel="noopener" data-api_path="/artists/2025"&gt;&lt;strong&gt;Ryan Lewis&lt;/strong&gt;&lt;/a&gt; which formed in 2008. Together they have made two studio albums &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/The-heist" rel="noopener" data-api_path="/albums/22968"&gt;&lt;em&gt;The Heist&lt;/em&gt;&lt;/a&gt;, in 2012, and &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/This-unruly-mess-i-ve-made" rel="noopener" data-api_path="/albums/141904"&gt;&lt;em&gt;This Unruly Mess I’ve Made&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt; &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/The-heist" rel="noopener" data-api_path="/albums/22968"&gt;&lt;em&gt;The Heist&lt;/em&gt;&lt;/a&gt; spawned two number one singles &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-cant-hold-us-lyrics" rel="noopener" data-api_path="/songs/57234"&gt;“Can’t Hold Us”&lt;/a&gt; and &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-thrift-shop-lyrics" rel="noopener" data-api_path="/songs/86538"&gt;“Thrift Shop”&lt;/a&gt; by mixing poppy, likeable beats with catchy hooks. They also had a hit with the gay rights song &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-same-love-lyrics" rel="noopener" data-api_path="/songs/81672"&gt;“Same Love”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Mary-lambert" rel="noopener" data-api_path="/artists/22717"&gt;Mary Lambert&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Their second album &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/This-unruly-mess-i-ve-made" rel="noopener" data-api_path="/albums/141904"&gt;&lt;em&gt;This Unruly Mess I’ve Made&lt;/em&gt;&lt;/a&gt; was released in February\u200b 2016, preceded by the single &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-downtown-lyrics" rel="noopener" data-api_path="/songs/2291611"&gt;“Downtown”&lt;/a&gt; featuring hip-hop legends &lt;a href="https://genius.com/artists/Grandmaster-melle-mel" rel="noopener" data-api_path="/artists/9911"&gt;Grandmaster Melle Mell&lt;/a&gt; and &lt;a href="https://genius.com/artists/Grandmaster-caz" rel="noopener" data-api_path="/artists/5137"&gt;Grandmaster Caz&lt;/a&gt;.  They also released the &lt;a href="http://pitchfork.com/thepitch/1003-macklemores-white-privilege-ii-is-a-mess-but-we-should-talk-about-it/" rel="noopener nofollow"&gt;controversial&lt;/a&gt; song &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-white-privilege-ii-lyrics" rel="noopener" data-api_path="/songs/2411196"&gt;“White Privilege II”&lt;/a&gt; as a promotional single, which explored the ideas of white privilege and the Black Lives Matter movement.&lt;/p&gt;\n\n&lt;p&gt;In 2016, Macklemore and Ryan Lewis amicably split for the time being and Macklemore has since released &lt;a href="https://genius.com/albums/Macklemore/Gemini" rel="noopener" data-api_path="/albums/358991"&gt;a solo album&lt;/a&gt;. However, one cannot rule out the possibility that there will be more Macklemore &amp;amp; Ryan Lewis music in the future.&lt;/p&gt;', 'alternate_names': ['Ryan Lewis &amp; Macklemore']}}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/DNA_(duo)', 'artist_name': 'DNA', 'wiki': 'http://en.wikipedia.org/wiki/DNA_(duo)', 'hometown': 'http://dbpedia.org/resource/Bath,_Somerset', 'start_year': '1988', 'end_year': '1998', 'abstract': 'DNA was the name taken by English electronic music producers Nick Batt and Neal Slateford, best known for releasing a remix of Suzanne Vega\'s "Tom\'s Diner" in 1990. As well as "Tom\'s Diner", the duo remixed two other Suzanne Vega tracks: "Rusted Pipe" in 1991, and a radio mix of "Rosemary" in 2000. After a brief lull, the duo reappeared with a mix of the Loreena McKennitt track "The Mummers\' Dance", which reached number one on the US Billboard Hot 100 Airplay chart in 1997. Batt worked extensively with Goldfrapp on their albums Felt Mountain, Black Cherry and Supernature, receiving an Ivor Novello Award for co-writing the Black Cherry track "Strict Machine".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kylie_Minogue', 'artist_name': 'Kylie Minogue', 'wiki': 'http://en.wikipedia.org/wiki/Kylie_Minogue', 'birth_date': '28 May 1968', 'start_year': '1979', 'abstract': 'Kylie Ann Minogue AO, OBE (/mɪˈnoʊɡ/; born 28 May 1968), also known mononymously as Kylie, is an Australian singer and actress. Minogue is the highest-selling female Australian artist of all time, having sold over 80 million records worldwide. She has been recognised for reinventing herself in music and fashion, for which she is referred to by the European press as the "Princess of Pop" and a style icon. Her accolades include a Grammy Award, three Brit Awards and 17 ARIA Music Awards. Born and raised in Melbourne, Minogue first achieved recognition starring in the Australian soap opera Neighbours, playing tomboy mechanic Charlene Robinson. She gained prominence as a recording artist in the late 1980s and released four bubblegum and dance-pop-influenced studio albums produced by Stock Aitken Waterman. By the early 1990s, she had amassed several top ten singles in the UK and Australia, including "I Should Be So Lucky", "The Loco-Motion", "Hand on Your Heart", and "Better the Devil You Know". Taking more creative control over her music, Minogue signed with Deconstruction Records in 1993 and released Kylie Minogue (1994) and Impossible Princess (1997), both of which received positive reviews. She returned to mainstream dance-oriented music with 2000\'s Light Years, including the number-one hits "Spinning Around" and "On a Night Like This". The follow-up, Fever (2001), was an international breakthrough for Minogue, becoming her best-selling album to date. Two of its singles, "Love at First Sight" and "In Your Eyes", became hits, but its lead single, "Can\'t Get You Out of My Head" became one of the most successful singles of the 2000s, selling over five million units. Minogue continued reinventing her image and experimenting with a range of genres on her subsequent albums, which spawned successful singles such as "Slow", "2 Hearts", "All the Lovers", "Santa Baby", "Timebomb" and "Dancing". With her 2020 album Disco, she became the first female artist to have a chart-topping album in the UK for five consecutive decades. Minogue made her film debut in The Delinquents (1989) and portrayed Cammy in Street Fighter (1994). She has also appeared in the films Moulin Rouge! (2001), Jack &amp; Diane, Holy Motors (2012) and San Andreas (2015). In 2014, she appeared as a judge on the third series of The Voice UK and The Voice Australia. Her other ventures include product endorsements, children\'s books, fashion, and charitable work. Minogue was appointed an Officer of the Order of the British Empire in the 2008 New Year Honours for services to music. She was appointed by the French government as a Chevalier (knight) of the Ordre des Arts et des Lettres for her contribution to the enrichment of French culture. In 2005, while Minogue was on tour, she was diagnosed with breast cancer. She was awarded an honorary Doctor of Health Science (D.H.Sc.) degree by Anglia Ruskin University in 2011 for her work in raising awareness for breast cancer. At the 2011 ARIA Music Awards, she was inducted by the Australian Recording Industry Association into the ARIA Hall of Fame. She was appointed Officer of the Order of Australia (AO) in the 2019 Australia Day Honours.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Incubus_(band)', 'artist_name': 'Incubus', 'wiki': 'http://en.wikipedia.org/wiki/Incubus_(band)', 'hometown': 'http://dbpedia.org/resource/Calabasas,_California', 'start_year': '1991', 'abstract': 'Incubus is an American rock band from Calabasas, California. The band was formed in 1991 by vocalist Brandon Boyd, lead guitarist Mike Einziger, and drummer José Pasillas while enrolled in Calabasas High School and later expanded to include bassist Alex "Dirk Lance" Katunich, and Gavin "DJ Lyfe" Koppell; both of whom were eventually replaced by bassist Ben Kenney and DJ Kilmore, respectively. Incubus has attained commercial success, reaching multi-platinum sales, as well as releasing several successful singles. After their first two albums, Fungus Amongus (1995) and S.C.I.E.N.C.E. (1997), the band earned mainstream recognition with the release of their 1999 album Make Yourself which spawned several hits, including the band\'s highest charting song "Drive." Success continued with the albums Morning View (2001) and A Crow Left of the Murder... (2004). Their sixth studio album, Light Grenades, debuted at No. 1 in 2006 and was followed by Incubus\'s first greatest hits album Monuments and Melodies in June 2009 and the band\'s 2011 album, If Not Now, When?. Incubus also released an EP, Trust Fall (Side A), in early 2015, and two years later, the band released their eighth studio album, titled 8, on April 21, 2017. A second EP, Trust Fall (Side B), was released on April 17, 2020. Worldwide, Incubus has sold over 19 million albums.'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/Rob_Zombie', 'artist_name': 'Rob Zombie', 'wiki': 'http://en.wikipedia.org/wiki/Rob_Zombie', 'birth_date': '12 January 1965', 'start_year': '1985', 'abstract': 'Robert Bartleh Cummings (born January 12, 1965), known professionally as Rob Zombie, is an American singer, songwriter, filmmaker, and voice actor. He is a founding member of the heavy metal band White Zombie, releasing four studio albums with the band. He is the older brother of Spider One, the lead vocalist of the industrial metal band Powerman 5000. Zombie\'s first solo effort was a 1996 song titled "Hands of Death (Burn Baby Burn)", written and performed with Alice Cooper. It went on to receive a nomination for Best Metal Performance at the 39th Annual Grammy Awards. In 1997, he began working on his debut solo studio album, Hellbilly Deluxe, which was released in August 1998. A month later, Zombie officially disbanded White Zombie. Hellbilly Deluxe went on to sell over three million copies worldwide and spawned three singles. Zombie directed the horror film House of 1000 Corpses in 2000, though the controversial project was not released until 2003. His second studio album, The Sinister Urge (2001), became his second platinum album in the U.S. Zombie directed The Devil\'s Rejects (2005), a direct sequel to his prior film House of 1000 Corpses. The project received a more positive reception than its predecessor. His third studio album, Educated Horses (2006), was a departure from his earlier recordings. The album became his third to enter the top ten of the Billboard 200, but saw a decrease in sales compared to his previous releases. Deciding to focus on his directing career, Zombie directed the horror film Halloween (2007), a remake of the 1978 horror classic of the same name. The film became Zombie\'s highest-grossing film to date, though was generally received negatively by critics. He later directed Halloween II (2009), which failed to match the success of its predecessor. He released the animated film The Haunted World of El Superbeasto that same year. Zombie returned to music with the release of his fourth studio album, Hellbilly Deluxe 2 (2010). The album peaked at number eight in the U.S., where it sold over 200,000 copies. In 2012, Zombie released a second remix album and directed the horror film The Lords of Salem, which was released in 2013; that year he also released his fifth studio album Venomous Rat Regeneration Vendor. Later he directed the horror film 31. Zombie released his next solo album, The Electric Warlock Acid Witch Satanic Orgy Celebration Dispenser, in 2016, followed nearly five years later by his seventh studio album, The Lunar Injection Kool Aid Eclipse Conspiracy (2021). Since the beginning of his music career, Zombie\'s music and lyrics have featured notable horror and sci-fi themes. His live shows have been praised for their elaborate shock rock theatricality. Since beginning his solo career, Zombie has sold an estimated fifteen million albums worldwide.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bullet_for_My_Valentine', 'artist_name': 'Bullet for My Valentine', 'wiki': 'http://en.wikipedia.org/wiki/Bullet_for_My_Valentine', 'hometown': 'http://dbpedia.org/resource/Bridgend', 'start_year': '1998', 'abstract': "Bullet for My Valentine, often abbreviated as BFMV, are a Welsh heavy metal band from Bridgend, formed in 1998. The band is currently composed of Matthew Tuck (lead vocals, rhythm guitar), Michael Paget (lead guitar, backing vocals), Jason Bowld (drums) and Jamie Mathias (bass guitar, backing vocals). Former members include Michael Thomas, Jason James and Nick Crandle; the latter were on bass. They were formed under the name Jeff Killed John and started their music career by covering songs by Metallica and Nirvana. Jeff Killed John recorded six songs which were not released; two of these tracks were reworked later in their career as Bullet for My Valentine. A change of style from that of Jeff Killed John led the band to change their name. In 2002, the band secured a five-album deal with Sony BMG. The band has stated that their music is influenced by classic metal acts such as Metallica, Iron Maiden and Slayer. The band is part of the Cardiff music scene. Bullet for My Valentine's debut album The Poison was released on 3 October 2005 in the United Kingdom and on 14 February 2006 in the United States to coincide with Valentine's Day, in a nod to the band's name. The album entered the U.S. Billboard 200 at number 128. It was certified gold by the Recording Industry Association of America. The band made appearances at the Download Festival and Kerrang! XXV, and undertook a U.S. tour with Rob Zombie. Bullet for My Valentine's second studio album, Scream Aim Fire, was released on 28 January 2008 and debuted at number four on the Billboard 200. The band's third album, Fever, was released on 26 April 2010 and debuted at number three on the Billboard 200. On 8 February 2013, the band released their fourth studio album, Temper Temper, which peaked at number 13 on the Billboard 200. On 14 August 2015, the band released their fifth studio album, Venom, which peaked at number 8 on the Billboard 200. On 29 June 2018, the band released their sixth studio album, Gravity. Their self-titled seventh studio album was released on 5 November 2021. The band has sold over one million albums in the United States and over 3,000,000 albums worldwide and are the most-successful act in the Kerrang! Awards category of Best British Band with three wins."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Korn', 'artist_name': 'Korn', 'wiki': 'http://en.wikipedia.org/wiki/Korn', 'hometown': 'http://dbpedia.org/resource/Bakersfield,_California', 'start_year': '1993', 'abstract': 'Korn (stylized as KoЯn) is an American nu metal band from Bakersfield, California, formed in 1993. The band is notable for pioneering the nu metal genre and bringing it into the mainstream. Originally formed in 1993 by three members of the band L.A.P.D., Korn\'s current lineup features founding members James "Munky" Shaffer (rhythm guitar), Reginald "Fieldy" Arvizu (bass), Brian "Head" Welch (lead guitar, backing vocals), and Jonathan Davis (lead vocals, bagpipes), with the addition of Ray Luzier (drums) in 2007, replacing the band\'s first drummer, David Silveria. Korn made a demo tape, Neidermayer\'s Mind, in 1993, which was distributed free to record companies and on request to members of the public. Their debut album, Korn, was released in 1994, followed by Life Is Peachy in 1996. The band first experienced mainstream success with Follow the Leader (1998) and Issues (1999), both of which debuted at number one on the Billboard 200. The band\'s mainstream success continued with Untouchables (2002), Take a Look in the Mirror (2003) and See You on the Other Side (2005). A compilation album, Greatest Hits Vol. 1, was released in 2004, spanning a decade of singles and concluding the band\'s recording contract with Immortal Records and Epic Records. They signed to Virgin Records, releasing See You on the Other Side in 2005, and an untitled album in 2007. Korn\'s other recent albums, Korn III: Remember Who You Are (2010) and The Path of Totality (2011), were released via Roadrunner Records, The Paradigm Shift (2013) being released via Prospect Park and Caroline Records. The Serenity of Suffering, saw their return to Roadrunner Records. Their latest album, The Nothing, was released on September 13, 2019. As of 2018, Korn had sold more than 40 million records worldwide. Twelve of the band\'s official releases have peaked in the top ten of the Billboard 200, eight of which have peaked in the top five. Seven official releases are certified platinum by the Recording Industry Association of America (RIAA), two are certified double platinum, one is certified triple platinum, one is certified five times platinum and two are certified Gold. Korn has released seven video albums and 39 music videos. The band has released 41 singles, 28 of which have charted. Korn has earned two Grammy Awards out of eight nominations and two MTV Video Music Awards out of eleven nominations.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Skrillex', 'artist_name': 'Skrillex', 'wiki': 'http://en.wikipedia.org/wiki/Skrillex', 'birth_date': '15 January 1988', 'start_year': '2004', 'abstract': 'Sonny John Moore (born January 15, 1988), known professionally as Skrillex, is an American DJ, record producer, musician, singer and songwriter. Growing up in Northeast Los Angeles and in Northern California, he joined the American post-hardcore band From First to Last as the lead singer in 2004, and recorded two studio albums with the band (Dear Diary, My Teen Angst Has a Body Count, 2004, and Heroine, 2006) before leaving to pursue a solo career in 2007. He began his first tour as a solo artist in late 2007. After recruiting a new band lineup, Moore joined the Alternative Press Tour to support bands such as All Time Low and The Rocket Summer, and appeared on the cover of Alternative Press\' annual "100 Bands You Need to Know" issue. After releasing the Gypsyhook EP in 2009, Moore was scheduled to record his debut studio album, Bells, with producer Noah Shain. He ceased production of the album, however, and began performing under the name Skrillex, distributing the My Name Is Skrillex EP for free download on his official MySpace page. Subsequently, he released the Scary Monsters and Nice Sprites EP in late–2010 and More Monsters and Sprites EP in mid–2011, both of which have since become moderate commercial successes. On November 30, 2011, he received five Grammy Award nominations at the 54th Grammy Awards, including Best New Artist and won three: "Best Dance/Electronica Album", "Best Dance Recording", and "Best Remixed Recording, Non-Classical". On December 5, 2011, the BBC announced that he had been nominated for their Sound of 2012 poll. On December 12, 2011, he was also named MTV\'s Electronic Dance Music Artist of the Year. Skrillex has won eight Grammy Awards, more than any other electronic dance music artist. Skrillex has collaborated with Diplo and Boys Noize to form the groups of Jack Ü and Dog Blood respectively. It was announced on Moore\'s 29th birthday, he reunited with From First to Last and released a single named "Make War". In 2017, Skrillex produced and mixed 8, the eighth studio album by rock band Incubus. In July 2017, Skrillex released another single featuring debuting solo artist Poo Bear.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Three_Days_Grace', 'artist_name': 'Three Days Grace', 'wiki': 'http://en.wikipedia.org/wiki/Three_Days_Grace', 'hometown': 'http://dbpedia.org/resource/Asphodel–Norwood', 'start_year': '1997', 'abstract': 'Three Days Grace is a Canadian rock band formed in Norwood, Ontario in 1997. The band\'s original iteration was called "Groundswell" and played in various local Norwood back-yard parties and area establishments from 1993 to 1996. Based in Toronto, the band\'s original line-up consisted of guitarist and lead vocalist Adam Gontier, drummer and backing vocalist Neil Sanderson, and bassist Brad Walst. In 2003, Barry Stock was recruited as the band\'s lead guitarist, making them a four-member band. In 2013, Gontier left the band and was replaced by My Darkest Days\' vocalist Matt Walst, who is also the younger brother of Brad Walst. Currently signed to RCA Records, they have released six studio albums, each at three-year intervals: Three Days Grace in 2003, One-X in 2006, Life Starts Now in 2009, Transit of Venus in 2012, Human in 2015, and Outsider in 2018. Their upcoming seventh studio album Explosions is due to be released on May 6, 2022. The first three albums have been RIAA certified 2x platinum, 3x platinum, and platinum, respectively, in the United States. In Canada, they have been certified by Music Canada as platinum, triple platinum, and double platinum, respectively. The band has had 15 No. 1 songs on the Billboard Hot Mainstream Rock Tracks chart, and three No. 1 hits on Alternative Songs.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Breaking_Benjamin', 'artist_name': 'Breaking Benjamin', 'wiki': 'http://en.wikipedia.org/wiki/Breaking_Benjamin', 'hometown': 'http://dbpedia.org/resource/Wilkes-Barre,_Pennsylvania', 'start_year': '1999', 'end_year': '2010', 'abstract': 'Breaking Benjamin is an American rock band from Wilkes-Barre, Pennsylvania, formed in 1999 by lead singer and guitarist Benjamin Burnley and drummer Jeremy Hummel. The first lineup of the band also included guitarist Aaron Fink and bassist Mark Klepaski. This lineup released two albums, Saturate (2002) and We Are Not Alone (2004), before Hummel was replaced by Chad Szeliga in 2005. The band released two more studio albums, Phobia (2006) and Dear Agony (2009), before entering an extended hiatus in early 2010 due to Burnley\'s recurring illnesses. Amid the hiatus, the release of a compilation album, Shallow Bay: The Best of Breaking Benjamin (2011), unauthorized by Burnley, brought about legal trouble within the band resulting in the dismissal of Fink and Klepaski. Szeliga later announced his departure in 2013 citing creative differences. Burnley remained the sole member of the band until late 2014, when the current lineup was announced, including bassist and backing vocalist Aaron Bruch, guitarist and backing vocalist Keith Wallen, guitarist Jasen Rauch, and drummer Shaun Foist. The band afterward released Dark Before Dawn (2015) and Ember (2018), which debuted at number one and three on the Billboard 200, respectively. Following these albums, the band released another compilation, Aurora (2020), featuring reworked acoustic versions of past songs along with one original new song. Despite significant lineup changes, the band\'s musical style and lyrical content have remained consistent, with Burnley serving as the primary composer and lead vocalist since the band\'s inception. The band has commonly been noted for its formulaic hard rock tendencies with angst-heavy lyrics, swelling choruses, and "crunching" guitars. In the United States alone, the band has sold more than 7 million units and yielded three RIAA-certified platinum records, two gold records, and several certified singles, including two multi-platinum, two platinum, and five gold. The band has also produced one number one record on the Billboard 200.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Five_Finger_Death_Punch', 'artist_name': 'Five Finger Death Punch', 'wiki': 'http://en.wikipedia.org/wiki/Five_Finger_Death_Punch', 'hometown': 'http://dbpedia.org/resource/Las_Vegas', 'start_year': '2005', 'abstract': 'Five Finger Death Punch, also abbreviated as 5FDP or FFDP, is an American heavy metal band from Las Vegas, Nevada, formed in 2005. The band originally consisted of vocalist Ivan Moody, rhythm guitarist Zoltan Bathory, lead guitarist Caleb Andrew Bingham, bassist Matt Snell, and drummer Jeremy Spencer. Bingham was replaced by guitarist Darrell Roberts in 2006, who was then replaced by Jason Hook in 2009. Bassist Matt Snell departed from the band in 2010, and was replaced by in 2011. Spencer then departed the band in 2018 due to recurring back issues, and was replaced by Charlie Engen, making rhythm guitarist Bathory the only remaining founding member of the band. In October 2020, British guitarist Andy James became the band\'s lead guitarist, replacing Jason Hook. Five Finger Death Punch\'s debut album The Way of the Fist was released in 2007, which began achieving rapid success and selling over 500,000 copies in the United States. The 2009 follow-up album War Is the Answer further increased their popularity, selling over 1,000,000 copies and got certified Platinum by the RIAA, the band\'s third album, American Capitalist, was released on October 11, 2011, and achieved Platinum status. The following four albums—The Wrong Side of Heaven and the Righteous Side of Hell, Volume 1 (2013), The Wrong Side of Heaven and the Righteous Side of Hell, Volume 2 (2013), Got Your Six (2015), and And Justice for None (2018)—have all been certified Platinum and Gold, making Five Finger Death Punch one of the most successful heavy metal bands of the decade. The band has played international music festivals including Mayhem Festival in 2008, 2010 and 2013, and Download Festival in 2009, 2010, 2013, 2015, and 2017. The band released their eighth studio album, F8, in 2020. Five Finger Death Punch are the recipients of the RadioContraband Rock Radio Awards for "Indie Artist of the Year" in 2011, 2012, 2013, and 2014. They were also honored with the Radio Contraband Rock Radio Award for Album (American Capitalist) and Song of the Year ("Coming Down") in 2012 and "Video of the Year" for "Wrong Side of Heaven" in 2014. To date, Five Finger Death Punch has released eight studio albums, one live album, two compilation albums, one extended play (EP) and 32 singles.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rob_Halford', 'artist_name': 'Rob Halford', 'wiki': 'http://en.wikipedia.org/wiki/Rob_Halford', 'hometown': 'http://dbpedia.org/resource/Walsall', 'birth_date': '25 August 1951', 'start_year': '1969', 'abstract': 'Robert John Arthur Halford (born 25 August 1951) is an English singer and songwriter. He is best known as the lead vocalist of the heavy metal band Judas Priest, which was formed in 1969 and has received accolades such as the 2010 Grammy Award for Best Metal Performance. He has been noted for his powerful, wide-ranging voice and trademark leather-and-studs image, both of which have become iconic in heavy metal. He has also been involved with several side projects, including Fight, Two, and Halford. AllMusic said of Halford, "There have been few vocalists in the history of heavy metal whose singing style has been as influential and instantly recognizable... able to effortlessly alternate between a throaty growl and an ear-splitting falsetto." He was ranked at No. 33 on the list of greatest voices in rock by Planet Rock listeners in 2009. He has also been nicknamed "Metal God" by fans.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Maria_Brink', 'artist_name': 'Maria Brink', 'wiki': 'http://en.wikipedia.org/wiki/Maria_Brink', 'birth_date': '18 December 1977', 'start_year': '2004', 'abstract': 'Maria Brink (born December 18, 1977) is an American singer and songwriter, best known as the frontwoman of American rock band In This Moment. The band has gone on to release seven studio albums and receive four nominations, two from Alternative Press Music Awards, one from Grammy Awards, and one from Loudwire Music Awards. Brink has been awarded "Rock Goddess of the Year" in the third (2013) and fifth (2015) Annual Loudwire Music Awards, "Hottest Chick in Metal" in 2010, one of eleven women in heavy metal who matter by Yell! Magazine in 2012, and was recognized by Revolver Magazine as one of the "25 Hottest Chicks in Hard Rock &amp; Metal".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Max_Cavalera', 'artist_name': 'Max Cavalera', 'wiki': 'http://en.wikipedia.org/wiki/Max_Cavalera', 'birth_date': '04 August 1969', 'start_year': '1984', 'abstract': 'Massimiliano Antonio "Max" Cavalera (Portuguese pronunciation: [masimiliˈɐnu ɐ̃ˈtonju kɐvɐˈleɾɐ], born August 4, 1969) is a Brazilian singer, guitarist, and songwriter who currently plays in heavy metal bands Soulfly, Cavalera Conspiracy, and Killer Be Killed. In 1984, he co-founded the death metal/thrash metal band Sepultura with his brother Igor Cavalera and was the band\'s lead singer and rhythm guitarist until 1996. Cavalera was also involved in a short-lived side project called Nailbomb.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jamey_Jasta', 'artist_name': 'Jamey Jasta', 'wiki': 'http://en.wikipedia.org/wiki/Jamey_Jasta', 'hometown': 'http://dbpedia.org/resource/New_Haven,_Connecticut', 'birth_date': '07 August 1977', 'start_year': '1991', 'abstract': 'Jamey Jasta (born James Vincent Shanahan; August 7, 1977) is an American singer and songwriter from New Haven, Connecticut. He is best known as the lead vocalist of metalcore band Hatebreed and sludge metal band Kingdom of Sorrow. Jasta also fronts metalcore band Icepick. Prior to Hatebreed, Jasta fronted the hardcore band Jasta 14. Jasta owns Stillborn Records, a hardcore- and metal-based record-label from West Haven, and "rock-themed apparel"-line called Hatewear. In 2011, Jasta released a solo album entitled Jasta, collaborating with Randy Blythe and Mark Morton (Lamb of God), Zakk Wylde, Philip Labonte (All That Remains), and Tim Lambesis (As I Lay Dying). Jasta was the host for MTV\'s Headbangers Ball from 2003 to 2007. Jasta created the music for "Stat of the Day" for the nationally syndicated radio and TV talk show, The Dan Patrick Show. Jasta appeared on air with Dan Patrick on January 25, 2013 discussing the making of the song. He, as of 2013, refrains from smoking, drinking, and doing drugs but does not affiliate himself with the straight edge subculture. Jasta\'s debut solo album, Jasta, was released on July 26, 2011, through eOne Music. In Europe, the album was released via Century Media Records. AllMusic scored the album 4 out of 5 stars, while Blabbermouth.net gave it 6.5 out of 10 stars. In 2018, Jasta produced Dee Snider\'s fourth solo album, For the Love of Metal. He is also producing the follow-up that will be released in the summer of 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Seether', 'artist_name': 'Seether', 'wiki': 'http://en.wikipedia.org/wiki/Seether', 'hometown': 'http://dbpedia.org/resource/Pretoria', 'start_year': '1999', 'abstract': 'Seether are a South African rock band founded in 1999 in Pretoria, Gauteng. The band originally performed under the name "Saron Gas" until 2002, when they moved to the United States and changed it to Seether to avoid confusion with the deadly chemical known as sarin gas. Lead vocalist and guitarist Shaun Morgan is the band\'s longest serving member, bassist Dale Stewart joined shortly after formation while drummer John Humphrey joined them for the band\'s second album. Since 2018, the band has been employing second guitarist Corey Lowery. Several notable guitarists like Corey\'s brother Clint and Troy McLawhorn have toured or recorded with the band, however, Shaun has recorded most guitar parts for the band\'s records. Seether gained mainstream popularity in 2002 with their US Active Rock number one single "Fine Again". Their success was sustained in 2004 with the single "Broken", which peaked at number 20 on the Billboard Hot 100. They have experienced continued success with many number one hits on the Hot Mainstream Rock Tracks chart, such as "Remedy", "Fake It", "Country Song", "Words as Weapons", "Let You Down" and "Dangerous". The band has released eight studio albums; their most recent, Si Vis Pacem, Para Bellum, was released on 28 August 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Amy_Lee_(saxophonist)', 'artist_name': 'Amy Lee', 'wiki': 'http://en.wikipedia.org/wiki/Amy_Lee_(saxophonist)', 'hometown': 'http://dbpedia.org/resource/North_Adams,_Massachusetts', 'abstract': "Amy Lee is an American saxophonist, composer and arranger. She has played with a variety of musicians and singers, and is best known for being a member of Jimmy Buffett's Coral Reefer Band. Lee was born in North Adams, Massachusetts and studied music at the University of Miami. After graduating, she moved to Atlanta, Georgia. While living in Atlanta, Lee met Charles Neville of The Neville Brothers and began playing for his group Diversity at the New Orleans Jazz and Heritage Festival. Her first album performance was in 1990 on Richard Smallwood's Portrait. After playing with Diversity for six years at the Festival, Lee was introduced to Jimmy Buffett by Neville, and in 1991, she joined Buffett's Coral Reefer Band, where she recorded and toured until 2006. During her career, Lee has recorded for gospel singer Luther Barnes and rap group Y'all So Stupid. She has also acted as a performer, arranger and writer for radio and television commercials. Lee released her first solo album in 1999, a jazz record titled Inside the Outside. A second album, Use Me, was released in 2004. All of her solo music is released on her independent label Publick Ptomaine Music."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Meshuggah', 'artist_name': 'Meshuggah', 'wiki': 'http://en.wikipedia.org/wiki/Meshuggah', 'hometown': 'http://dbpedia.org/resource/Umeå', 'start_year': '1987', 'abstract': 'Meshuggah (/məˈʃʊɡə/) is a Swedish extreme metal band formed in Umeå in 1987. The band\'s current lineup consists of lead vocalist Jens Kidman, lead guitarist Fredrik Thordendal, drummer Tomas Haake, rhythm guitarist Mårten Hagström and bassist Dick Lövgren. Since its formation, the band has released eight studio albums, six EPs and eight music videos. Their latest studio album, The Violent Sleep of Reason, was released on 7 October 2016. Meshuggah has become known for their innovative musical style and their complex, polymetered song structures and polyrhythms. They rose to fame as a significant act in extreme underground music, became an influence for modern metal bands, and gained a cult following. The band was labelled as one of the ten most important hard rock and heavy metal bands by Rolling Stone and as the most important band in metal by Alternative Press. In the late 2000s, the band was an inspiration for the djent subgenre. In 2006 and 2009, Meshuggah was nominated for two Swedish Grammis Awards for their albums Catch Thirtythree and obZen, respectively. In 2018, the band was nominated for a Grammy Award for their song "Clockworks" under the "Best Metal Performance" category. The band has performed in various international festivals, including Ozzfest and Download, and embarked on the obZen world tour from 2008 to 2010, and also the "Ophidian Trek".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Alter_Bridge', 'artist_name': 'Alter Bridge', 'wiki': 'http://en.wikipedia.org/wiki/Alter_Bridge', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'start_year': '2004', 'abstract': 'Alter Bridge is an American rock band from Orlando, Florida. The band was formed in 2004 by vocalist/rhythm guitarist Myles Kennedy, lead guitarist Mark Tremonti, bassist Brian Marshall and drummer Scott Phillips. After their former band Creed became inactive in 2003, Tremonti and Phillips formed a new band with former bandmate Marshall and new member Kennedy; Alter Bridge was formally unveiled in January 2004, months before Creed\'s official breakup in June. After signing with Wind-up Records, Alter Bridge released its debut album One Day Remains in August 2004, much of which was written by Tremonti the previous year. The album reached No. 5 on the U.S. Billboard 200 and, despite mixed reviews, was certified gold by the Recording Industry Association of America in November 2004. This was followed in October 2007 by the more positively reviewed Blackbird, which marked the beginning of a long partnership between the band and producer Michael Baskette. The album reached No. 13 in the U.S. and was certified silver by the British Phonographic Industry. Following continued activities with the members\' other bands and side projects, Alter Bridge released AB III in October 2010, which achieved critical acclaim and commercial success on Roadrunner Records, with the album\'s lead single "Isolation" topping the Billboard Mainstream Rock chart. Alter Bridge released Fortress to further acclaim in September 2013, as the band\'s members continued splitting their time between various projects. The Last Hero followed on Napalm Records in October 2016, becoming the band\'s first album since its debut to reach the top ten of the Billboard 200, and its first to reach the top five of the UK Albums Chart. Alter Bridge\'s sixth studio album, Walk the Sky, was released in October 2019. This was followed up with Walk The Sky 2.0 in November 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Stone_Sour', 'artist_name': 'Stone Sour', 'wiki': 'http://en.wikipedia.org/wiki/Stone_Sour', 'hometown': 'http://dbpedia.org/resource/Des_Moines,_Iowa', 'start_year': '1992', 'end_year': '1997', 'abstract': 'Stone Sour is an American rock band formed in Des Moines, Iowa, in 1992. The band performed for five years before disbanding in 1997. They reunited in 2000 and since 2015, the group has consisted of Corey Taylor (lead vocals, guitar), Josh Rand (guitar), Christian Martucci (guitar), Johny Chow (bass) and Roy Mayorga (drums). Longtime members Joel Ekman (drums, percussion) and Shawn Economaki (bass guitar) left the band in 2006 and 2011, respectively. Former lead guitarist Jim Root left in 2014. To date, Stone Sour has released six studio albums: Stone Sour (2002); Come What(ever) May (2006); Audio Secrecy (2010); House of Gold &amp; Bones – Part 1 (2012); House of Gold &amp; Bones – Part 2 (2013) and Hydrograd (2017). They also released a digital live album, Live in Moscow, in 2007. Their album, Hydrograd was released in June 2017 and is their first album to feature guitarist Christian Martucci and bassist Johny Chow. Stone Sour earned the group two Grammy Award nominations, both for Best Metal Performance, for the singles "Get Inside", in 2003, and "Inhale", in 2004. From their album Come What(ever) May, the group received another Grammy Award nomination for Best Metal Performance for the single "30/30-150", in 2007. The band has sold 2.1 million albums in the United States as of April 2017.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fozzy', 'artist_name': 'Fozzy', 'wiki': 'http://en.wikipedia.org/wiki/Fozzy', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'start_year': '1999', 'abstract': 'Fozzy is an American heavy metal band formed in Atlanta, Georgia, in 1999 by lead singer Chris Jericho, lead guitarist Rich Ward and drummer Frank Fontsere, who are the longest-serving members of the band and have appeared on all band\'s releases, although Fontsere left in 2005 and rejoined in 2009. The band\'s current lineup consists of Jericho, Ward, Fontsere, rhythm guitarist Billy Grey and bassist P. J. Farley. Jericho has characterized the band by saying, "If Metallica and Journey had a bastard child, it would be Fozzy." As of October 2020, the band has released seven studio albums and one live album. Their first two albums consist of primarily cover songs with some original material, while their albums since have made original material the primary focus.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Volbeat', 'artist_name': 'Volbeat', 'wiki': 'http://en.wikipedia.org/wiki/Volbeat', 'hometown': 'http://dbpedia.org/resource/Copenhagen', 'start_year': '2001', 'abstract': "Volbeat are a Danish rock band formed in Copenhagen in 2001. They play a fusion of rock and roll, heavy metal and rockabilly. Their current line-up consists of vocalist and guitarist Michael Poulsen, guitarist Rob Caggiano, drummer Jon Larsen and bassist Kaspar Boye Larsen. The band is signed to Dutch label Mascot Records and has released seven studio albums and one DVD. All of their studio albums have been certified gold in Denmark. Their second album Rock the Rebel/Metal the Devil received platinum status, and their 2010 release Beyond Hell/Above Heaven was subject to widespread international critical acclaim, receiving double platinum in Denmark, platinum in Finland and Germany, and gold in the United States, Sweden and Austria. Volbeat's seventh album, Rewind, Replay, Rebound, was released on 2 August 2019. Their eighth album, Servant of the Mind, was released on 3 December 2021."}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Laura_Branigan', 'artist_name': 'Laura Branigan', 'wiki': 'http://en.wikipedia.org/wiki/Laura_Branigan', 'birth_date': '03 July 1952', 'death_date': '26 August 2004', 'abstract': 'Laura Ann Branigan (July 3, 1952 – August 26, 2004) was an American singer, songwriter, and actress. Her signature song, the platinum-certified 1982 single "Gloria", stayed on the U.S. Billboard Hot 100 for 36 weeks, then a record for a female artist, peaking at No. 2. It also reached number one in Australia and Canada. In 1984, she reached number one in Canada and Germany with the U.S. No. 4 hit "Self Control". She also had success in the United Kingdom with both "Gloria" and "Self Control" making the Top 10 in the UK Singles Chart. Seeing her greatest level of success in the 1980s, Branigan\'s other singles included the Top 10 hit "Solitaire" (1983), the U.S. AC chart number one "How Am I Supposed to Live Without You" (1983), the Australian No. 2 hit "Ti amo" (1984), her return to the top 40 "The Power of Love" (1987), the top hit 15 dance "Shattered Glass." Her most successful album was 1984\'s platinum-selling Self Control. She also contributed songs to motion picture and television soundtracks, including the Grammy and Academy Award-winning Flashdance soundtrack (1983), and the Ghostbusters soundtrack (1984), and also Miami Vice (1984). In 1985, she won the Tokyo Music Festival with the song "The Lucky One". Her chart success began to wane as the decade closed and after her last two albums Laura Branigan (1990) and Over My Heart (1993) garnered little attention, she generally retired from public life for the rest of the 1990s. She began returning to performing in the early 2000s, most notably appearing as Janis Joplin in the off-Broadway musical Love, Janis. As she was recording new music and preparing a comeback to the music industry, she died at her home in August 2004 from a previously undiagnosed cerebral aneurysm. Branigan and her music saw renewed popularity and public interest in 2019 in the US after "Gloria" was adopted by the NHL\'s St. Louis Blues as their unofficial victory song while they completed a historic mid-season turnaround to win their first Stanley Cup in franchise history, leading to the song entering ice hockey lore as an "unlikely championship anthem". Branigan\'s legacy manager and representative Kathy Golik embraced the trend and traveled to St. Louis to publicly represent Branigan among the Blues fanbase during the 2019 Stanley Cup Playoffs, later stating her belief that Branigan and "Gloria" "will forever be intertwined" with the Blues and the city of St. Louis.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sirah_(rapper)', 'artist_name': 'Sirah', 'wiki': 'http://en.wikipedia.org/wiki/Sirah_(rapper)', 'hometown': 'http://dbpedia.org/resource/New_York_(state)', 'birth_date': '28 July 1988', 'start_year': '2007', 'abstract': 'Sara Elizabeth Mitchell (born July 28, 1988), better known by her stage name Sirah /ˈsaɪrə/, is an American hip hop recording artist based in Los Angeles. She collaborated with Skrillex, on "WEEKENDS!!!", "Kyoto" and the hit single "Bangarang".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Billy_Talent', 'artist_name': 'Billy Talent', 'wiki': 'http://en.wikipedia.org/wiki/Billy_Talent', 'hometown': 'http://dbpedia.org/resource/Mississauga', 'start_year': '1993', 'abstract': "Billy Talent is a Canadian rock band from Mississauga, Ontario. They formed in 1993 with lead vocalist Benjamin Kowalewicz, guitarist Ian D'Sa, bassist Jonathan Gallant, and drummer Aaron Solowoniuk. There have been no lineup changes, although Solowoniuk is currently taking a hiatus from the band due to a relapse of multiple sclerosis, and Jordan Hastings is currently filling in for him. In the 28 years since their inception, Billy Talent has sold over a million physical albums in Canada alone and nearly 3 million albums internationally. Between 1995 and 2016, Billy Talent were the 27th best-selling Canadian artist in Canada and among the top 10 best-selling Canadian bands in Canada. The band existed for almost a decade before mainstream success. The members met and played in Our Lady of Mount Carmel Secondary School under the name Pezz and remained underground in Toronto's indie music scene until 2001. The band renamed itself Billy Talent after running into legal trouble with the old name. It was then that Kowalewicz's connection with an employee of Warner Music Canada's A&amp;R department landed the band a record deal and launched them into mainstream success. Since then, Billy Talent has made three multi-platinum records in Canada and continues to expand their success overseas; this included touring for 20 months supporting their second album. They released their third album, Billy Talent III, on July 14, 2009, and their fourth album, Dead Silence, on September 4, 2012. Dead Silence was followed up by a full UK tour throughout October and November 2012. To commemorate the longevity since the release of their first studio album, the band has released a greatest hits album entitled Hits on November 4, 2014. In 2015, they began to prepare material for their fifth studio album. Just before entering the studio, drummer Aaron Solowoniuk decided to sit out the recording sessions while he continued his longstanding battle with multiple sclerosis. Fellow Canadian Jordan Hastings was quickly recruited to play as Solowoniuk's studio stand-in, and, in early 2016, the group completed work on Afraid of Heights, which was released in July of that year."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Muse_(band)', 'artist_name': 'Muse', 'wiki': 'http://en.wikipedia.org/wiki/Muse_(band)', 'hometown': 'http://dbpedia.org/resource/Teignmouth', 'start_year': '1994', 'abstract': 'Muse are an English rock band from Teignmouth, Devon, formed in 1994. The band consists of Matt Bellamy (lead vocals, guitar, keyboards), Chris Wolstenholme (bass guitar, backing vocals), and Dominic Howard (drums). Muse released their debut album, Showbiz, in 1999, showcasing Bellamy\'s falsetto and a melancholic alternative rock style. Their second album, Origin of Symmetry (2001), incorporated wider instrumentation and romantic classical influences and earned them a reputation for energetic live performances. Absolution (2003) saw further classical influence, with strings on tracks such as "Butterflies and Hurricanes", and was the first of six consecutive UK number-one albums. Black Holes and Revelations (2006) incorporated electronic and pop elements, displayed in singles such as "Supermassive Black Hole", and brought Muse wider international success. The Resistance (2009) and The 2nd Law (2012) explored themes of government oppression and civil uprising and cemented Muse as one of the world\'s major stadium acts. Rolling Stone stated the band possessed "stadium-crushing songs". Topping the US Billboard 200, their seventh album, Drones (2015), was a concept album about drone warfare and returned to a harder rock sound. Their eighth album, Simulation Theory (2018), prominently featured synthesisers and was influenced by science fiction and the simulation hypothesis. Muse have won numerous awards, including two Grammy Awards, two Brit Awards, five MTV Europe Music Awards and eight NME Awards. In 2012 they received the Ivor Novello Award for International Achievement from the British Academy of Songwriters, Composers and Authors. By June 2016, they had sold over 20 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Collective_Soul', 'artist_name': 'Collective Soul', 'wiki': 'http://en.wikipedia.org/wiki/Collective_Soul', 'hometown': 'http://dbpedia.org/resource/Stockbridge,_Georgia', 'start_year': '1992', 'abstract': 'Collective Soul is an American rock band originally from Stockbridge, Georgia. Now based in Atlanta, the group consists of lead vocalist Ed Roland, rhythm guitarist Dean Roland, bassist Will Turpin, drummer Johnny Rabb, and lead guitarist Jesse Triplett. Formed in 1992, Collective Soul released their Hints, Allegations, and Things Left Unsaid album on the independent label Rising Storm Records in 1993. The band went from obscurity to popularity that year after the song "Shine" became an underground hit based on radio play. The album was re-released in 1994 under major label Atlantic Records. Collective Soul released a self-titled album in March 1995. Considered by Ed Roland to be the band\'s true debut album, Collective Soul spent 76 weeks on the Billboard 200 charts and went triple-platinum, becoming the band\'s highest-selling album. The singles "December", "The World I Know", and "Where the River Flows" each reached No. 1 on the Mainstream Rock charts. About two years later, Collective Soul released Disciplined Breakdown. Although not as successful in sales as their previous two albums, Disciplined Breakdown contained two No. 1 Mainstream Rock chart hits with "Precious Declaration" and "Listen". The band released a fourth studio album, Dosage, in 1999. The album\'s first single, "Heavy", spent a then record-breaking 15 weeks on the top spot of the Mainstream Rock charts. The band released Blender in 2000, their fifth and final album with the original starting lineup, as lead guitarist Ross Childress left the band in 2001. About two weeks after Childress\' departure, Collective Soul released Seven Year Itch, a compilation of their greatest hits between 1994 and 2001. Collective Soul established their own label, El Music Group, prior to releasing Youth in 2004. The band recorded a live album with the Atlanta Symphony Youth Orchestra in 2005, titled Home, and released it in 2006. Original drummer Shane Evans departed from the band at the end of 2005. Collective Soul has since released four more albums: Afterwords (2007), a second self-titled album (2009), See What You Started by Continuing (2015), and Blood (2019).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/David_Bowie', 'artist_name': 'David Bowie', 'wiki': 'http://en.wikipedia.org/wiki/David_Bowie', 'birth_date': '08 January 1947', 'death_date': '10 January 2016', 'start_year': '1962', 'end_year': '2016', 'abstract': 'David Robert Jones OAL (8 January 1947 – 10 January 2016), known professionally as David Bowie (/ˈboʊi/ BOH-ee), was an English singer-songwriter and actor. A leading figure in the music industry, Bowie is regarded as one of the most influential musicians of the 20th century. He was acclaimed by critics and musicians, particularly for his innovative work during the 1970s. His career was marked by reinvention and visual presentation, and his music and stagecraft had a significant impact on popular music. Bowie developed an interest in music as a child. He studied art, music and design before embarking on a professional career as a musician in 1963. "Space Oddity", released in 1969, was his first top-five entry on the UK Singles Chart. After a period of experimentation, he re-emerged in 1972 during the glam rock era with his flamboyant and androgynous alter ego Ziggy Stardust. The character was spearheaded by the success of Bowie\'s single "Starman" and album The Rise and Fall of Ziggy Stardust and the Spiders from Mars, which won him widespread popularity. In 1975, Bowie\'s style shifted towards a sound he characterised as "plastic soul", initially alienating many of his UK fans but garnering him his first major US crossover success with the number-one single "Fame" and the album Young Americans. In 1976, Bowie starred in the cult film The Man Who Fell to Earth, directed by Nicolas Roeg, and released Station to Station. In 1977, he further confounded expectations with the electronic-inflected album Low, the first of three collaborations with Brian Eno that came to be known as the "Berlin Trilogy". "Heroes" (1977) and Lodger (1979) followed; each album reached the UK top five and received lasting critical praise. After uneven commercial success in the late 1970s, Bowie had three number-one hits: the 1980 single "Ashes to Ashes", its album Scary Monsters (and Super Creeps), and "Under Pressure" (a 1981 collaboration with Queen). He reached his peak commercial success in 1983 with Let\'s Dance: its title track topped both the UK and US charts. Throughout the 1990s and 2000s, Bowie continued to experiment with musical styles, including industrial and jungle. He also continued acting: his roles included Major Jack Celliers in Merry Christmas, Mr. Lawrence (1983), Jareth the Goblin King in Labyrinth (1986), Pontius Pilate in The Last Temptation of Christ (1988), and Nikola Tesla in The Prestige (2006), among other film and television appearances and cameos. He stopped touring after 2004 and his last live performance was at a charity event in 2006. In 2013, Bowie returned from a decade-long recording hiatus with The Next Day. He remained musically active until his death from liver cancer at his home in New York City. He died two days after both his 69th birthday and the release of his final album, Blackstar (2016). During his lifetime, his record sales, estimated at over 100 million records worldwide, made him one of the best-selling music artists of all time. In the UK, he was awarded ten platinum, eleven gold and eight silver album certifications, and released 11 number-one albums. In the US, he received five platinum and nine gold certifications. He was inducted into the Rock and Roll Hall of Fame in 1996. Rolling Stone named him among the greatest artists in history and – after his death – the "greatest rock star ever".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Temper_Trap', 'artist_name': 'The Temper Trap', 'wiki': 'http://en.wikipedia.org/wiki/The_Temper_Trap', 'hometown': 'http://dbpedia.org/resource/Melbourne', 'start_year': '2005', 'abstract': 'The Temper Trap are an Australian indie rock band formed in 2005 by Dougy Mandagi, Jonathon Aherne, and Toby Dundas. In 2008, the group relocated from Melbourne to London. The band released their debut album Conditions in June 2009 to favourable reviews and commercial success; it peaked at No. 9 on the ARIA Albums Chart and into the top 30 on the UK Albums Chart. Its lead single, "Sweet Disposition", peaked in the top 10 on the Belgian, Irish and UK Singles Charts and reached No. 14 on the ARIA Singles Chart. At the ARIA Music Awards of 2010 in November, The Temper Trap won Best Group and Most Popular Australian Single for "Sweet Disposition". Their eponymous second album was released in late May/early June 2012 under Liberation Music (AUS), Infectious Records (UK) and Glassnote Records (US). The album won the band Best Rock Album, and they also won Best Group at the 2012 ARIA Awards. In October 2013 guitarist Lorenzo Sillitto left the band, during the recording of the third album.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ellie_Goulding', 'artist_name': 'Ellie Goulding', 'wiki': 'http://en.wikipedia.org/wiki/Ellie_Goulding', 'birth_date': '30 December 1986', 'start_year': '2009', 'abstract': 'Elena Jane Goulding (/ˈɡoʊldɪŋ/ GOHL-ding; born 30 December 1986) is an English singer and songwriter. Her career began when she met record producers Starsmith and Frankmusik, and she was later spotted by Jamie Lillywhite, who later became her manager and A&amp;R. After signing to Polydor Records in July 2009, Goulding released her debut extended play, An Introduction to Ellie Goulding later that year. In 2010, she became the second artist to top the BBC\'s annual Sound of... poll and win the Critics\' Choice Award at the Brit Awards in the same year. She released her debut studio album, Lights, in 2010; it debuted at No.\u20091 on the UK Albums Chart and has sold over 850,000 copies in the United Kingdom. In November 2010, the album was reissued as Bright Lights, which spawned two singles: a cover of Elton John\'s "Your Song" which was selected for the first John Lewis Christmas advert, reached No.\u20092 on the UK Singles Chart, and "Lights", which became Goulding\'s highest-charting single on the US Billboard Hot 100 to date, peaking at No.\u20092. Goulding\'s second studio album, Halcyon, was released in October 2012. "Anything Could Happen" preceded the album as the lead single. The album debuted at No.\u20092 on the UK Albums Chart, and after 65 weeks, it reached No.\u20091. Halcyon debuted at No.\u20099 on the US Billboard 200. Halcyon Days, a repackaged edition of Halcyon, was released in August 2013, generating singles, such as "Burn", which became her first No.\u20091 single in the UK. At the 2014 Brit Awards, she received the award for British Female Solo Artist. Goulding released her third studio album, titled Delirium, on 6 November 2015, with "On My Mind" as the album\'s lead single. In December 2015, she received her first Grammy Award nomination for Best Pop Solo Performance for her single "Love Me Like You Do". Her fourth studio album Brightest Blue was released on 17 July 2020, becoming her third to top the UK Albums Chart, and her fourth consecutive RIAA certified album.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Bravery', 'artist_name': 'The Bravery', 'wiki': 'http://en.wikipedia.org/wiki/The_Bravery', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2003', 'end_year': '2011', 'abstract': 'The Bravery is an American rock band, formed in New York City in 2003. The band consists of lead vocalist Sam Endicott, guitarist Michael Zakarin, keyboardist John Conway, bassist Mike Hindert and drummer Anthony Burulcich. They are best known for their 2005 top 10 UK single "An Honest Mistake" and their certified gold 2008 single "Believe". Before their initial split, they released three studio albums: The Bravery (2005), The Sun and the Moon (2007) and Stir the Blood (2009). They also released a remixed edition of their second album, called The Sun and the Moon Complete, in 2008, as well as an Internet live album called Live at the Wiltern Theater in 2010. The group\'s music is mostly post-punk, dance-influenced rock. The band were inactive from the early 2010s onward, with Endicott confirming the band\'s indefinite hiatus in April 2014. On July 31st 2021, The Bravery\'s website confirmed the return of the group.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ace_of_Base', 'artist_name': 'Ace of Base', 'wiki': 'http://en.wikipedia.org/wiki/Ace_of_Base', 'hometown': 'http://dbpedia.org/resource/Gothenburg', 'start_year': '1987', 'abstract': 'Ace of Base is a Swedish pop group, formed in 1990, originally consisting of siblings Jonas, Linn and Jenny Berggren, with Ulf Ekberg. They achieved worldwide success following the release of their debut album Happy Nation in 1992. Later re-issued as The Sign, it was certified nine times platinum in the United States, and was the best-selling album of 1994. One of the most successful debut albums of all time, it was the first to produce three No. 1 singles on the Billboard Mainstream Top 40 chart: "All That She Wants", "The Sign" and "Don\'t Turn Around". They continued to score hit singles throughout the 1990s, with songs such as "Beautiful Life", "Lucky Love", "Cruel Summer" and "Life Is a Flower". By 2002, they had sold a total of 30 million copies of their first four studio albums, making them the third most successful Swedish group of all time, behind ABBA and Roxette. Despite being largely inactive since 2012, the group has never officially disbanded. In the last decade, they have released a number of demo tracks; first via their Facebook page, then in 2015 on the compilation album Hidden Gems. An expanded two-disc edition was included in the 2020 boxset All That She Wants: The Classic Collection. Jenny Berggren continues to perform the group\'s hits in solo concerts around the world.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Silverchair', 'artist_name': 'Silverchair', 'wiki': 'http://en.wikipedia.org/wiki/Silverchair', 'hometown': 'http://dbpedia.org/resource/Australia', 'start_year': '1992', 'end_year': '2011', 'abstract': 'Silverchair were an Australian rock band, which formed in 1992 as Innocent Criminals in Newcastle, New South Wales, with Ben Gillies on drums, Daniel Johns on vocals and guitars, and Chris Joannou on bass guitar. The group got their big break in mid-1994 when they won a national demo competition conducted by SBS TV show Nomad and ABC radio station Triple J. The band was signed by Murmur and were successful in Australia and internationally. Silverchair have sold over 8 million albums worldwide. Silverchair have won more ARIA Music Awards than any other artist in history, earning 21 wins from 49 nominations. They also received six APRA Awards, with Johns winning three songwriting awards in 2008. All five of their studio albums debuted at number one on the ARIA Albums Chart: Frogstomp (1995), Freak Show (1997), Neon Ballroom (1999), Diorama (2002), and Young Modern (2007). Three singles reached number-one on the related ARIA Singles Chart: "Tomorrow" (1994), "Freak" (1997), and "Straight Lines" (2007). Silverchair\'s alternative rock sound evolved throughout their career, differing styles on specific albums growing more ambitious over the years, from grunge on their debut to more recent work displaying orchestral and art rock influences. The songwriting and singing of Johns had evolved steadily while the band had developed an increased element of complexity. In 2003, following the release of Diorama, the band announced a hiatus, during which time members recorded with side projects the Dissociatives, the Mess Hall, and Tambalane. Silverchair reunited at the 2005 Wave Aid concerts. In 2007, they released their fifth album, Young Modern, and played the Across the Great Divide tour with contemporaries Powderfinger. In May 2011, Silverchair announced an indefinite hiatus.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Police', 'artist_name': 'The Police', 'wiki': 'http://en.wikipedia.org/wiki/The_Police', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1977', 'abstract': 'The Police were an English rock band formed in London in 1977. For most of their history the line-up consisted of primary songwriter Sting (lead vocals, bass guitar), Andy Summers (guitar) and Stewart Copeland (drums, percussion). The Police became globally popular in the late 1970s and early 1980s. Emerging in the British new wave scene, they played a style of rock influenced by punk, reggae, and jazz. Their 1978 debut album, Outlandos d\'Amour, reached No. 6 on the UK Albums Chart on the strength of the singles "Roxanne" and "Can\'t Stand Losing You". Their second album, Reggatta de Blanc (1979), became the first of four consecutive No. 1 studio albums in the UK and Australia; its first two singles, "Message in a Bottle" and "Walking on the Moon", became their first UK number ones. Their next two albums, Zenyatta Mondatta (1980) and Ghost in the Machine (1981), led to further critical and commercial success with two songs, "Don\'t Stand So Close to Me" and "Every Little Thing She Does Is Magic", becoming UK number-one singles and Top 5 hits in other countries; the latter album and single were their breakthrough into the US as both reached the Top 3 there. Their final studio album, Synchronicity (1983), was No. 1 in the UK, Canada, Australia, Italy and the US, selling over 8 million copies in the US. Its lead single, "Every Breath You Take", became their fifth UK number one, and only US number one. During this time, the band were considered one of the leaders of the Second British Invasion of the US; in 1983 Rolling Stone labelled them "the first British New Wave act to break through in America on a grand scale, and possibly the biggest band in the world." The Police disbanded in 1986, but reunited in early 2007 for a one-off world tour that ended in August 2008. They were the world\'s highest-earning musicians in 2008, due to their reunion tour. The Police have sold over 75 million records, making them one of the best-selling bands of all time. The band won a number of music awards, including six Grammy Awards, two Brit Awards—winning Best British Group once, and an MTV Video Music Award. In 2003, they were inducted into the Rock and Roll Hall of Fame. Four of their five studio albums appeared on Rolling Stone\'s list of the "500 Greatest Albums of All Time". The band were included among both Rolling Stone\'s and VH1\'s lists of the "100 Greatest Artists of All Time".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/John_Newman_(singer)', 'artist_name': 'John Newman', 'wiki': 'http://en.wikipedia.org/wiki/John_Newman_(singer)', 'birth_date': '16 June 1990', 'start_year': '2012', 'abstract': 'John William Peter Newman (born 16 June 1990) is an English singer, songwriter, musician and record producer. He is best known for the track "Love Me Again" which peaked at number one on the UK Singles Chart in July 2013 and appeared in FIFA 14, as well as co-writing and singing on Rudimental\'s 2012 singles "Feel the Love" and "Not Giving In", which peaked at number one and number 14 on the chart, respectively. In 2014, he featured in the Calvin Harris single "Blame", which also topped the UK charts. At the 2014 Brit Awards, Newman was nominated for three Brit Awards, including for British Male Solo Artist. As of February 2014, Newman has sold over 1.3 million records in the UK alone.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jack_Ü', 'artist_name': 'Jack Ü', 'wiki': 'http://en.wikipedia.org/wiki/Jack_Ü', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2013', 'end_year': '2016', 'abstract': 'Jack Ü is a American DJ duo consisting of electronic music producers Skrillex and Diplo, formed in 2013. They released their first official single, "Take Ü There", featuring vocals from Kiesza, on September 17, 2014. On February 3, 2015, the duo announced that they would be working with Missy Elliott on a remix of "Take Ü There". They released their first and only album, Skrillex and Diplo Present Jack Ü, on February 27, 2015. Jack Ü performed at Ultra Music Festival Miami in 2014. They also performed at Ultra Music Festival in 2015 with the entire "Jack Ü crew", featuring live contributions from CL, Kai, Diddy, Kiesza and Justin Bieber. According to Skrillex, the collaboration is called \'Jack Ü\' because it refers to how the music "jacks you up" with its high energy beats and bassline. The Ü (U with umlaut) letter appears in titles of all of its singles and is usually stylized to look like a smiley.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/ALT_(band)', 'artist_name': 'ALT', 'wiki': 'http://en.wikipedia.org/wiki/ALT_(band)', 'start_year': '1994', 'end_year': '1995', 'abstract': "ALT was a one-off band, featuring former New Zealand band Split Enz frontman Tim Finn, Northern Irish singer/songwriter Andy White and the frontman of the Irish band Hothouse Flowers, Liam Ó Maonlaí, that recorded and played together in 1995. The band's name was created out of the letters of their first names. They released two albums. The first was the studio album Altitude, was recorded in Periscope Studios in Melbourne, Australia. It had thirteen tracks, and it included references and influences to the musical and cultural traditions in which the participants grew up. The second was Bootleg, a live recording from The Continental in Sydney, Australia. Both albums were recorded and released in 1994–1995. They toured briefly around Europe after the album was released. Finn re-recorded an ALT song as the title track and first song for his 2001 EP, What You've Done. The ALT version is the second track of that EP. Finn also included his new take on the song in the Feeding the Gods album the same year. In 2004, Ó Maonlaí joined Finn on stage in Dublin, during a Finn Brothers concert, and they performed one of the ALT songs. The three have worked together on each other's solo projects from time to time."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/4_Non_Blondes', 'artist_name': '4 Non Blondes', 'wiki': 'http://en.wikipedia.org/wiki/4_Non_Blondes', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1989', 'end_year': '1989', 'abstract': '4 Non Blondes was an American alternative rock band from San Francisco, California, active from 1989 to 1994. Their only album, Bigger, Better, Faster, More! spent 59 weeks on the Billboard 200 and sold 1.5 million copies between 1992 and 1994. They hit the charts in 1993 with the release of the album\'s second single, "What\'s Up?". Originally, the band was all-female, with lead singer Linda Perry, bassist Christa Hillhouse, guitarist Shaunna Hall, and drummer Wanda Day. However, along with Day being replaced by Dawn Richardson (drums), Hall was replaced by Roger Rocha (guitar) before the release of the album. Lead singer Linda Perry left the band in 1994, and the remaining members disbanded shortly thereafter.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Rob_Thomas_(musician)', 'artist_name': 'Rob Thomas', 'wiki': 'http://en.wikipedia.org/wiki/Rob_Thomas_(musician)', 'hometown': 'http://dbpedia.org/resource/Sarasota,_Florida', 'birth_date': '14 February 1972', 'start_year': '1990', 'abstract': 'Robert Kelly Thomas (born February 14, 1972) is an American singer, songwriter, and multi-instrumentalist best known for being the lead singer of the rock band Matchbox Twenty. Thomas also records and performs as a solo artist, with "Lonely No More" released in 2005 becoming his biggest solo chart success. Thomas received three Grammy Awards for co-writing and singing on the 1999 hit "Smooth" by Santana and it also was his first song as a solo artist. He has also been a songwriter for artists such as Willie Nelson, Mick Jagger, Marc Anthony, Pat Green, Taylor Hicks, Travis Tritt, and Daughtry. Since 1996, his band has released a string of hit singles to radio, including "Push", "3AM", "Real World", "Back 2 Good", "Bent", "If You\'re Gone", "Mad Season", "Disease", "Unwell", "Bright Lights", "How Far We\'ve Come", and "She\'s So Mean". In 2004, the Songwriters Hall of Fame awarded Thomas its first Hal David Starlight Award, recognizing young songwriters who have already had a lasting influence in the music industry.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Rod_Stewart', 'artist_name': 'Rod Stewart', 'wiki': 'http://en.wikipedia.org/wiki/Rod_Stewart', 'birth_date': '10 January 1945', 'start_year': '1961', 'abstract': 'Sir Roderick David Stewart CBE (born 10 January 1945) is a British rock and pop singer, songwriter, and record producer. Born and raised in London, he is of Scottish and English ancestry. With his distinctive raspy singing voice, Stewart is one of the best-selling music artists of all time, having sold over 250 million records worldwide. He has had 10 number-one albums and 31 top ten singles in the UK, 6 of which reached number one. Stewart has had 16 top ten singles in the US, with four reaching number one on the Billboard Hot 100. He was knighted in the 2016 Birthday Honours for services to music and charity. Stewart\'s music career began in 1962 when he took up busking with a harmonica. In 1963, he joined The Dimensions as harmonica player and vocalist. In 1964, Stewart joined Long John Baldry and the All Stars before moving to the Jeff Beck Group in 1967. Joining Faces in 1969, he also maintained a solo career releasing his debut album that same year. Stewart\'s early albums were a fusion of rock, folk music, soul music, and R&amp;B. His third album, 1971\'s Every Picture Tells a Story, was his breakthrough, topping the charts in the UK, US, Canada and Australia, as did its ballad "Maggie May". His 1972 follow-up album, Never a Dull Moment, also reached number one in the UK and Australia, while going top three in the US and Canada. Its single, "You Wear It Well", topped the chart in the UK and was a moderate hit elsewhere. After a handful more UK top ten hits, Stewart announced the breakup of the Faces in 1975. His next few singles were ballads with "Sailing", off the 1975 UK and Australian number-one album, Atlantic Crossing, becoming a hit in the UK and the Netherlands (number one), Germany (number four) and other countries, but barely charting in North America. A Night on the Town (1976), his fifth straight chart-topper in the UK, began a three-album run of going number one or top three in North America, the UK and Australia with each release. That album\'s "Tonight\'s the Night (Gonna Be Alright)" spent almost two months at number one in the US and Canada, and made the top five in other countries. Foot Loose &amp; Fancy Free (1977) featured the major hit "You\'re In My Heart (The Final Acclaim)" as well as the rocker "Hot Legs". Blondes Have More Fun (1978) and its disco-tinged "Da Ya Think I\'m Sexy" both went to number one in Canada, Australia and the US, with "Da Ya Think I\'m Sexy" also hitting number one in the UK and the top ten in other countries. Stewart\'s albums regularly hit the upper rungs of the charts in the Netherlands throughout the 70s and in Sweden from 1975 onward. After a disco and new wave period in the late 1970s and early 1980s, Stewart\'s music turned to a soft rock/middle-of-the-road style, with most of his albums reaching the top ten in the UK, Germany and Sweden, but faring less well in the US. The single "Rhythm of My Heart" was a top five hit in the UK, US and other countries, with its source album, 1991\'s Vagabond Heart, becoming, at number ten in the US and number two in the UK, his highest charting album in a decade. In 1993, he collaborated with Bryan Adams and Sting on the power ballad "All for Love", which went to number one in many countries. In the early 2000s, he released a series of successful albums interpreting the Great American Songbook. In 2008, Billboard magazine ranked him the 17th most successful artist on the "Billboard Hot 100 All-Time Top Artists". A Grammy and Brit Award recipient, he was voted at No. 33 in Q Magazine\'s list of the Top 100 Greatest Singers of all time As a solo artist, Stewart was inducted into the US Rock and Roll Hall of Fame in 1994, the UK Music Hall of Fame in 2006, and he was inducted a second time into the US Rock and Roll Hall of Fame in 2012 as a member of Faces.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Cobra_Starship', 'artist_name': 'Cobra Starship', 'wiki': 'http://en.wikipedia.org/wiki/Cobra_Starship', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2005', 'end_year': '2015', 'abstract': 'Cobra Starship was an American dance-pop band founded in 2006 by Gabe Saporta (ex-Midtown), and headquartered in New York City, New York. He recorded the first album as a solo project, While the City Sleeps, We Rule the Streets. Saporta later enlisted guitarist Ryland Blackinton, bassist Alex Suarez, drummer Nate Novarro, and keytarist Victoria Asher, all of whom provide backing vocals. Over ten years, Cobra Starship produced four albums and two Billboard Hot 100 top 10 singles. The group released its debut album, While the City Sleeps, We Rule the Streets, in 2006, which contained the single "Snakes on a Plane (Bring It)". The band released its second album, ¡Viva La Cobra!, on October 23, 2007. Their third album, Hot Mess, was released on August 11, 2009. Their fourth and final album, Night Shades, was released on August 30, 2011, in the US and October 28, 2011, in the UK. Cobra Starship officially announced its dissolution on November 10, 2015.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Scissor_Sisters', 'artist_name': 'Scissor Sisters', 'wiki': 'http://en.wikipedia.org/wiki/Scissor_Sisters', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2000', 'end_year': '2012', 'abstract': 'Scissor Sisters are an American pop rock band formed in 2001. Forged in the "gay nightlife scene of New York", the band took its name from the female same-sex sexual activity tribadism. Its members include Jake Shears and Ana Matronic as vocalists, Babydaddy as multi-instrumentalist, Del Marquis as lead guitar/bassist, and Randy Real (who replaced Paddy Boom) as drummer. Scissor Sisters incorporates diverse and eclectic styles in their music, but tends to sway towards pop rock, glam rock, nu-disco, and electroclash. The band came to prominence following the release of their Grammy-nominated and chart-topping disco version of "Comfortably Numb" and subsequent debut album Scissor Sisters (2004). The album was a success, particularly in the UK where it reached number one, was the best-selling album of 2004, was later certified platinum by the BPI, and earned them three BRIT Awards in 2005. All five of its singles reached positions within the top 20 of the UK Singles Chart while "Filthy/Gorgeous" scored the band their first number one on Billboard\'s Hot Dance Club Songs, despite the album\'s meager success in their native US. The album continued its success in countries around Europe, in Australia and in Canada before the release of the band\'s second studio album Ta-Dah (2006), their second consecutive UK number one album which produced their first UK number one single "I Don\'t Feel Like Dancin\'". Their third studio album Night Work (2010) displayed a shift towards a more club-oriented sound, charting at number two on the UK Albums Chart, number one on Billboard\'s Top Independent Albums chart and in the top 10 of several international territories. The band released their fourth studio album Magic Hour in May 2012. Scissor Sisters has performed around the world and have become recognized for their controversial and transgressive live performances. They also collaborated with a number of other well-known pop musicians, including Elton John and Kylie Minogue; these particular collaborations have been received positively by both critics and other notable figures. In 2004, Bono, lead vocalist of rock band U2, described Scissor Sisters as "the best pop group in the world". They also collaborated with Global Cool in 2007 on one of their green lifestyle campaigns.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Hard_(band)', 'artist_name': 'Hard', 'wiki': 'http://en.wikipedia.org/wiki/Hard_(band)', 'hometown': 'http://dbpedia.org/resource/Hungary', 'start_year': '2004', 'abstract': 'Hard is a Hungarian hard rock supergroup formed in late 2004 in Budapest, Hungary by József Kalapács (ex-vocalist of Pokolgép and Omen, currently also singing in Kalapács) and Gábor Mirkovics (ex-bass guitarist of Edda Művek). The rest of the band consisted of guitarist Zsolt Csillik (ex-Dance, Jack Daniels and Fix), keyboardist Dénes Makovics (also known for playing saxophone in Bikini) and drummer Zoltán Váry (ex-Sing Sing, ex-Zero-G, guitars–vocals for the Hungarian KISS tribute band KISS Forever Band). In 2005, Ferenc Béres arrived to fill in the position of Dénes Makovics, who was a session member for the studio recording of the first release, “Égni kell”. He played in EDDA Művek and Fix beforehand. In 2007, Váry left because of the German success of KISS Forever Band (he couldn\'t concentrate on Hard enough), so Donászy arrived, who also played in e.g. Beatrice. In 2007 Hard reformed for an international introduction with singer . The album Traveler was released in 2008. The material has since been remixed by the producer Beau Hill in 2008. In 2009, Swedish vocalist and guitarist Björn Lodin was confirmed as the new singer for Hard. Björn is known for his work with Swedish rockers Baltimoore. Platinum-selling Hungarian guitar virtuoso Endre Csillag has also joined the ranks along with drummer Balázs Hornyák. The band start recording their new CD together in the Autumn with Björn Lodin also handling the production duties. The new, as yet untitled album, is scheduled for release on BLP Music, March 2010. "Love Goes With Anything" is the debut single from the new line-up and was released in November 2009.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Tom_Petty_and_the_Heartbreakers', 'artist_name': 'Tom Petty and the Heartbreakers', 'wiki': 'http://en.wikipedia.org/wiki/Tom_Petty_and_the_Heartbreakers', 'abstract': 'Tom Petty and the Heartbreakers were an American rock band from Gainesville, Florida. Formed in 1976, the band originally comprised Tom Petty (lead singer, guitar), Mike Campbell (lead guitarist), Ron Blair (bass guitar), Stan Lynch (drums), and Benmont Tench (keyboards). In 1981, Blair, weary of the touring lifestyle, departed the band. His replacement, Howie Epstein, stayed with the band for the next two decades. In 1991, Scott Thurston joined the band as a multi-instrumentalist—mostly on rhythm guitar and second keyboards. In 1994, Steve Ferrone replaced Lynch on drums. Blair returned to the Heartbreakers in 2002, the year before Epstein\'s death. The band had a long string of hit singles including "Breakdown", "American Girl", "Refugee", "The Waiting", "Learning to Fly", and "Mary Jane\'s Last Dance", among many others, that stretched over several decades of work. The band\'s music was characterized as both Southern rock and heartland rock, cited alongside artists such as Bruce Springsteen, Bob Seger, and John Mellencamp as progenitors of that genre that arose in the late 1970s and 1980s. While the heartland rock movement waned in the 1990s, the band remained active and popular, touring regularly until Petty\'s death in 2017, after which the Heartbreakers disbanded. Their final studio album, Hypnotic Eye, was released in 2014. The band was inducted into the Rock and Roll Hall of Fame in 2002, their first year of eligibility. Although most of their material was produced and performed under the name "Tom Petty and the Heartbreakers", Petty released three solo albums, the most successful of which was Full Moon Fever (1989). In these releases, some members of the band contributed as collaborators, producing and performing as studio musicians.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Dr._Alban', 'artist_name': 'Dr. Alban', 'wiki': 'http://en.wikipedia.org/wiki/Dr._Alban', 'hometown': 'http://dbpedia.org/resource/Sweden', 'birth_date': '26 August 1957', 'start_year': '1980', 'abstract': 'Alban Uzoma Nwapa (born 26 August 1957), better known by his stage name Dr. Alban, is a Nigerian-Swedish recording artist and producer with his own record label, Dr. Records. His music can best be described as Eurodance/hip-hop reggae in a dancehall style. He has sold an estimated 16 million records worldwide and is most famous for his worldwide 1992 hit "It\'s My Life", from the album One Love.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Human_League', 'artist_name': 'The Human League', 'wiki': 'http://en.wikipedia.org/wiki/The_Human_League', 'abstract': 'The Human League are an English synth-pop band formed in Sheffield in 1977. Initially an experimental electronic outfit, the group signed to Virgin Records in 1979 and later attained widespread commercial success with their third album Dare in 1981. The album contained four hit singles, including the UK/US number one hit "Don\'t You Want Me". The band received the Brit Award for Best British Breakthrough Act in 1982. Further hits followed throughout the 1980s and into the 1990s, including "Mirror Man", "(Keep Feeling) Fascination", "The Lebanon", "Human" (a US No. 1) and "Tell Me When". The only constant band member since 1977 has been lead singer and songwriter Philip Oakey. Keyboard players Martyn Ware and Ian Craig Marsh both left the band in 1980 to form Heaven 17. Under Oakey\'s leadership, the Human League then evolved into a commercially successful New Pop band, with a new line-up including female vocalists Joanne Catherall and Susan Ann Sulley. Since the mid-1990s, the band have essentially been a trio of Oakey, Catherall and Sulley with various sidemen. Since 1978, the Human League have released nine studio albums, two remix albums, one live album, six EPs, 30 singles and several compilation albums. They have had five albums and 15 Top 20 singles and had sold more than 20 million records worldwide by 2010. As an early techno-pop act that received extensive MTV airplay, they are regarded as one of the leading artists of the 1980s Second British Invasion of the US.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Billy_Joel', 'artist_name': 'Billy Joel', 'wiki': 'http://en.wikipedia.org/wiki/Billy_Joel', 'birth_date': '09 May 1949', 'start_year': '1964', 'abstract': 'William Martin Joel (born May 9, 1949) is an American singer-songwriter and composer. Commonly nicknamed the "Piano Man" after his first major hit and signature song of the same name as well as the similarly named 1973 album, he has led a commercially successful career as a solo artist since the 1970s, having released 12 studio albums from 1971 to 1993 as well as one studio album in 2001. He is one of the best-selling music artists of all time, as well as the seventh-best-selling recording artist and the fourth-best-selling solo artist in the United States, with over 150 million records sold worldwide. His 1985 compilation album, Greatest Hits Vol. 1 &amp; 2, is one of the best-selling albums in the United States. Joel was born in 1949 in the Bronx, New York, and grew up on Long Island, both places that influenced his music. Growing up, he took piano lessons at his mother\'s insistence. After dropping out of high school to pursue a musical career, Joel took part in two short-lived bands, The Hassles and Attila, before signing a record deal with Family Productions and kicking off a solo career in 1971 with his first release Cold Spring Harbor. In 1972, Joel caught the attention of Columbia Records after a live radio performance of the song "Captain Jack" became popular in Philadelphia, prompting him to sign a new record deal with the company and release his second album, Piano Man, in 1973. After releasing the albums Streetlife Serenade and Turnstiles in 1974 and 1976 respectively, Joel released his critical and commercial breakthrough album, The Stranger, in 1977. This album became Columbia\'s best-selling release, selling over 10 million copies and spawning several hit singles, including "Just the Way You Are", "Movin\' Out (Anthony\'s Song)", "Only the Good Die Young", and "She\'s Always a Woman"; another song on this album, "Scenes from an Italian Restaurant", is Joel\'s favorite of his own songs and has become a staple of his live shows. Joel\'s next album, 52nd Street, was released in 1978 and became his first album to peak at No.1 on the Billboard 200 chart. Joel released his seventh studio album, Glass Houses, in 1980 in an attempt to further establish himself as a rock artist; this release featured "It\'s Still Rock and Roll to Me" (Joel\'s first single to top the Billboard Hot 100 chart), "You May Be Right", "Don\'t Ask Me Why", and "Sometimes a Fantasy". His next album, The Nylon Curtain, was released in 1982, and stemmed from a desire from Joel to create more lyrically and melodically ambitious music. An Innocent Man, released in 1983, served as an homage to genres of music which Joel had grown up with in the 1950s, such as rhythm and blues and doo-wop; this release featured "Uptown Girl" and "The Longest Time", two of his best-known songs. After releasing the albums The Bridge and Storm Front in 1986 and 1989 respectively, Joel released his twelfth studio album, River of Dreams, in 1993. He went on to release Fantasies and Delusions, a 2001 album featuring classical compositions composed by Joel and performed by British-Korean pianist Richard Hyung-ki Joo. Joel provided voiceover work in 1988 for the Disney animated film Oliver &amp; Company, in which he played the character Dodger with his song, "Why Should I Worry?", and contributed to the soundtracks to several different films, including Easy Money, Ruthless People, and Honeymoon in Vegas. Across the 20 years of his solo career, Joel produced 33 top 40 hits in the U.S., all of which he wrote himself, and three of which ("It\'s Still Rock and Roll to Me", "Tell Her About It", and "We Didn\'t Start the Fire") peaked at the top of the Billboard Hot 100 charts. Joel has been nominated for 23 Grammy Awards, winning five of them, including Album of the Year for 52nd Street. Joel was inducted into the Songwriters Hall of Fame (1992), the Rock and Roll Hall of Fame (1999), and the Long Island Music Hall of Fame (2006). In 2001, Joel received the Johnny Mercer Award from the Songwriters Hall of Fame. In 2013, Joel received the Kennedy Center Honors for influencing American culture through the arts. Since the advent of his solo career, Joel has held a successful touring career, holding live performances across the globe in which he sings several of his written songs. In 1987, he became one of the first artists to hold a rock tour in the Soviet Union following the country\'s alleviation of the ban on rock music. Despite largely retiring from writing and releasing pop music following the release of River of Dreams, he continues to tour; he frequently performs at Madison Square Garden.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Steve_Edwards_(singer)', 'artist_name': 'Steve Edwards', 'wiki': 'http://en.wikipedia.org/wiki/Steve_Edwards_(singer)', 'start_year': '1993', 'abstract': 'Stephen Neil Edwards, better known by his stage name Steve Edwards, is an English house music singer and songwriter from Sheffield, England. He has collaborated with several house music producers.'}</t>
+  </si>
+  <si>
+    <t>{'artist': "http://dbpedia.org/resource/Rag'n'Bone_Man", 'artist_name': "Rag'n'Bone Man", 'wiki': "http://en.wikipedia.org/wiki/Rag'n'Bone_Man", 'abstract': 'Rory Charles Graham (born 29 January 1985), better known as Rag\'n\'Bone Man, is an English singer and songwriter. He is known for his deep baritone voice. His first hit single, "Human", was released in 2016, and his debut album of the same name was released in 2017. At the 2017 Brit Awards, he was named British Breakthrough Act and received the Critics\' Choice Award.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kool_Moe_Dee', 'artist_name': 'Kool Moe Dee', 'wiki': 'http://en.wikipedia.org/wiki/Kool_Moe_Dee', 'birth_date': '08 August 1962', 'start_year': '1978', 'abstract': 'Mohandas Dewese (born August 8, 1962), better known by his stage name Kool Moe Dee, is an American rapper, writer and actor. Considered one of the forerunners of the new jack swing sound in hip hop, he gained fame in the 1980s as a member of one of the pioneering groups in hip hop music, the Treacherous Three, and for his later solo career. During his career he released a total of seven studio albums (five of them solo), with 1994\'s Interlude being the last to date. His fast and aggressive rap style influenced following rap figures such as Big Daddy Kane, Beastie Boys, KRS-One, Rakim, Will Smith, N.W.A, Tupac Shakur, Nas, Jay-Z, among others. Among his most famous songs are "Go See the Doctor", "Wild Wild West" and "How Ya Like Me Now". Kool Moe Dee was ranked No. 33 on About.com\'s list of the 50 Greatest MCs of Our Time (1987–2007).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Fergie_(DJ)', 'artist_name': 'Fergie', 'wiki': 'http://en.wikipedia.org/wiki/Fergie_(DJ)', 'hometown': 'http://dbpedia.org/resource/Larne', 'birth_date': '16 November 1979', 'start_year': '1993', 'abstract': 'Robert Ferguson (born 16 November 1979), known professionally as Fergie, is a Northern Irish DJ and electronic music artist from Larne. He has been an internationally touring DJ and a music producer for over 20 years. He presented a radio show on BBC Radio 1 for over four years while recording 13 Essential Mixes for the station. He was featured in the DJ Mag Top 100 DJs poll seven years in a row and currently holds the record for the highest new entry since the poll began, achieved when he was voted 8th in 2000. Fergie played his first DJ set at the age of 14, standing on an upturned milk crate. He met Tony De Vit who invited him to England and would become Fergie\'s mentor. His career escalated in the 1990s when he played mainly hard house in his DJ sets at club nights such as Trade, Godskitchen, Sundissential, Golden, and Passion (where he had DJ residencies). He achieved UK Singles Chart success in the early 2000s with releases such as his remix of "Meet Her at the Love Parade". Throughout the 2000s his DJ sets became more house and techno orientated. He DJed in Ibiza every summer at nightclubs such as Amnesia, Privilege and Space. He released multiple DJ mixes including two via the Ministry of Sound record label and magazine covermounted CDs for Mixmag and DJ Mag. He also wrote a regular column for Mixmag. He founded the Excentric Muzik record label in 2007. He has released his debut artist album "Dynamite &amp; Laserbeams" on the label in 2010. He currently resides in Las Vegas and has been a resident DJ at the Hakkasan Nightclub at the MGM Grand and at the Omnia nightclub of Caesars Palace since they both opened. He also has a DJ residency in Las Vegas at Wet Republic. He is working under the name Fergie (DJ).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Mýa', 'artist_name': 'Mýa', 'wiki': 'http://en.wikipedia.org/wiki/Mýa', 'birth_date': '10 October 1979', 'start_year': '1996', 'abstract': 'Mýa Marie Harrison (/ˈmaɪə/; born October 10, 1979) is an American singer, songwriter, dancer, and actress. Born into a musical family, before entering the music industry she appeared on BET\'s Teen Summit. Signed in 1996 to Interscope Records, she released her eponymous debut album in April 1998. A critical and commercial success, the album produced her first top ten single "It\'s All About Me". Subsequent singles, "Ghetto Supastar (That Is What You Are)" and "Take Me There", continued to raise her profile and attained chart success worldwide, with the former garnering her first Grammy nomination. Fear of Flying, her second album, was released in April 2000 and became a worldwide success, boosted by the success of its singles "Case of the Ex" and "Free". Harrison continued her rise to prominence in 2002 when she won her first Grammy Award in the category for Best Pop Collaboration with Vocals for her rendition of Labelle\'s 1975 hit "Lady Marmalade" along with Pink, Christina Aguilera and Lil\' Kim, which topped the charts globally. Taking a more active role in the production of her music, Harrison released her third studio album, the eccentric Moodring, in July 2003. The album produced the single "My Love Is Like...Wo" and was certified gold by the RIAA. Following a label change and a delay in her fourth studio album, Harrison went independent and recorded two exclusive albums for the Japanese music market, Sugar &amp; Spice (2008) and K.I.S.S. (Keep It Sexy &amp; Simple) (2011). In between recording those two albums, she launched her own independent record label Planet 9 and competed in Dancing with the Stars – season nine; finishing in second place. As an independent artist, Harrison continues to regularly release music. Beginning in 2014, she released a trio of R&amp;B-rooted EPs, With Love (2014), Sweet XVI (2014), and Love Elevation Suite (2015). In 2016, Harrison released her seventh album, the Grammy-nominated Smoove Jones. The follow-up, TKO (The Knock Out), arrived in April 2018 to commemorate the twentieth anniversary of her debut album. In addition to a music career, Harrison crossed over into acting and made her feature-film debut in 1999\'s thriller In Too Deep starring LL Cool J and Omar Epps. She continued to appear in supporting roles in films such as Chicago (2002), Dirty Dancing: Havana Nights (2004), Shall We Dance? (2004), and Cursed (2005). Harrison\'s contribution to music has earned her many accolades in the fields of pop and R&amp;B music categories. In 2009, Billboard listed Mýa as one of their Hot 100 Artists of the 2000s; placing her in the 97th position. As of October 2020, she has sold over 3.2 million albums in the U.S. and 7 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Fun_(band)', 'artist_name': 'Fun.', 'wiki': 'http://en.wikipedia.org/wiki/Fun_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2008', 'end_year': '2015', 'abstract': 'Fun (stylized fun.) is an American pop rock band based in New York City. The band was formed by Nate Ruess (then-former lead singer of the Format), Andrew Dost (formerly of Anathallo), and Jack Antonoff (of Steel Train and Bleachers). Fun has released two albums: Aim and Ignite in August 2009 and Some Nights in February 2012. The band is best known for three hit singles from Some Nights: Grammy Award-winning "We Are Young" featuring Janelle Monáe, "Some Nights", and "Carry On". "We Are Young" reached number one on the U.S. Billboard Hot 100 and Digital Songs charts. It also peaked at number one in the United Kingdom. "Some Nights" was released as the album\'s second single in June 2012, peaking at number three on the Hot 100 chart and becoming Fun\'s second Top 10 single, as well as the band\'s second song to reach platinum status in the United States. In 2013, "We Are Young" won the Grammy award for Song of the Year and the band won Best New Artist. Additionally, Fun was a nominee for four other Grammy Awards: Record of the Year and Best Pop Duo or Group Performance (both for "We Are Young") along with Album of the Year and Best Pop Vocal Album (both for Some Nights).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Spacehog', 'artist_name': 'Spacehog', 'wiki': 'http://en.wikipedia.org/wiki/Spacehog', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1994', 'end_year': '2002', 'abstract': 'Spacehog are an English rock band formed in 1994 in New York City. Their music is heavily influenced by David Bowie, Queen, and T. Rex. The band\'s best known single is "In the Meantime".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/NewDad', 'artist_name': 'NewDad', 'wiki': 'http://en.wikipedia.org/wiki/NewDad', 'hometown': 'http://dbpedia.org/resource/Republic_of_Ireland', 'start_year': '2020', 'abstract': 'NewDad are an Irish Indie rock band from Galway, Ireland. Their music has been compared to The Cure, Beabadoobee, and Just Mustard by NME magazine. Atwood Magazine wrote of the group: "The band oozes personality with cynical but honest lyrics, colorful visual components, and poignant messages about coping with the, albeit painful, formative experiences." The group have appeared at the Green Man Festival in Wales, The Pitchfork Music Festival in Paris, and on the Irish televesion program Other Voices.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Skid_Row_(Irish_band)', 'artist_name': 'Skid Row', 'wiki': 'http://en.wikipedia.org/wiki/Skid_Row_(Irish_band)', 'hometown': 'http://dbpedia.org/resource/Dublin', 'start_year': '1967', 'end_year': '1972', 'abstract': 'Skid Row were an Irish blues rock band of the late 1960s and early 1970s, based in Dublin and fronted by bass guitarist Brendan "Brush" Shiels. It was the first band in which future Thin Lizzy members Phil Lynott and Gary Moore played professionally.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Gwen_Stefani', 'artist_name': 'Gwen Stefani', 'wiki': 'http://en.wikipedia.org/wiki/Gwen_Stefani', 'birth_date': '03 October 1969', 'start_year': '1986', 'abstract': 'Gwen Renée Stefani (/stəˈfɑːni/; born October 3, 1969) is an American singer and songwriter. She is a co-founder, lead vocalist, and the primary songwriter of the band No Doubt, whose singles include "Just a Girl", "Spiderwebs", and "Don\'t Speak", from their 1995 breakthrough studio album Tragic Kingdom, as well as "Hey Baby" and "It\'s My Life" from later albums. During the band\'s hiatus, Stefani embarked on a solo pop career in 2004 by releasing her debut studio album Love. Angel. Music. Baby. Inspired by pop music from the 1980s, the album was a critical and commercial success. It spawned six singles, including "What You Waiting For?", "Rich Girl", "Hollaback Girl", and "Cool". "Hollaback Girl" reached number one on the Billboard Hot 100 chart while also becoming the first US download to sell one million copies. In 2006, Stefani released her second studio album, The Sweet Escape. Among the singles were "Wind It Up" and "The Sweet Escape", the latter of which was number three on the Billboard Hot 100 year-end chart of 2007. Her third solo album, This Is What the Truth Feels Like (2016), was her first solo album to reach number one on the Billboard 200 chart. Her fourth solo album and first full-length Christmas-themed album, You Make It Feel Like Christmas, was released in 2017 and charted 19 tracks on Billboard\'s Holiday Digital Song Sales component chart in the United States. Stefani has released several singles with Blake Shelton, including "Nobody but You" (2020), which reached number 18 in the US. Stefani has won three Grammy Awards. As a solo artist, she has received an American Music Award, Brit Award, World Music Award, and two Billboard Music Awards. In 2003, she debuted her clothing line L.A.M.B. and expanded her collection with the 2005 Harajuku Lovers line, inspired by Japanese culture and fashion. Billboard magazine ranked Stefani the 54th most successful artist and 37th most successful Hot 100 artist of the 2000–2009 decade. VH1 ranked her 13th on their "100 Greatest Women in Music" list in 2012. Including her work with No Doubt, Stefani has sold more than 30 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sabrina_(Filipino_singer)', 'artist_name': 'Sabrina', 'wiki': 'http://en.wikipedia.org/wiki/Sabrina_(Filipino_singer)', 'birth_date': '30 December 1989', 'start_year': '2006', 'abstract': 'Roli Alexandra Xanxan Orial (born 30 December 1989), also known by her stage name Sabrina Orial or simply Sabrina and Sabrinatics, is a Filipina recording artist and acoustic singer of cover versions.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bronski_Beat', 'artist_name': 'Bronski Beat', 'wiki': 'http://en.wikipedia.org/wiki/Bronski_Beat', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1983', 'end_year': '1995', 'abstract': 'Bronski Beat were a British synthpop trio which achieved success in the mid-1980s, particularly with the 1984 chart hit "Smalltown Boy", from their debut album The Age of Consent. "Smalltown Boy" was their only US Billboard Hot 100 single. All members of the band were openly gay and their songs reflected this, often containing political commentary on gay-related issues. The initial line-up, which recorded the majority of the band\'s hits, consisted of Jimmy Somerville (vocals), Steve Bronski (born Steven William Forrest, keyboards, percussion) and Larry Steinbachek (keyboards, percussion). Somerville left Bronski Beat in 1985, and went on to have success as lead singer of the Communards and as a solo artist. He was replaced by vocalist John Foster, with whom the band continued to have hits in the UK and Europe through 1986. Foster left Bronski Beat after their second album, and the band used a series of vocalists before dissolving in 1995. Steve Bronski revived the band in 2016, recording new material with 1990s member Ian Donaldson. Steinbachek died later that year.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Akon', 'artist_name': 'Akon', 'wiki': 'http://en.wikipedia.org/wiki/Akon', 'birth_date': '16 April 1973', 'start_year': '1996', 'abstract': 'Aliaune Damala Badara Akon Thiam (/ˈeɪkɒn/; born April 16, 1973), also known mononymously as Akon, is a Senegalese-American singer, songwriter, record producer, and entrepreneur from New Jersey. He rose to prominence in 2004 following the release of "Locked Up" (featuring Styles P), the first single from his debut album Trouble (2004), followed by the second single "Lonely". His second album, Konvicted (2006), received three Grammy Award nominations for Best Contemporary R&amp;B Album, and for Best Rap/Sung Collaboration for "Smack That" (featuring Eminem) and "I Wanna Love You" (featuring Snoop Dogg). Both singles became Billboard Hot 100 top ten hits, followed up by "Don\'t Matter" and "Sorry, Blame It on Me". His third studio album Freedom (2008) was led by the single "Right Now (Na Na Na)". Akon often provides vocals as a featured artist and is currently credited with over 300 guest appearances and more than 35 Billboard Hot 100 songs, resulting in five Grammy Award nominations. He is the first solo artist to hold both the number one and two spots simultaneously on the Billboard Hot 100 charts twice. Akon has had four songs certified as 3× platinum, three songs certified as 2× platinum, more than ten songs certified as 1× platinum and more than ten songs certified as gold by the RIAA. He was listed by Guinness World Records as the number-one selling artist for master ringtones in the world. Along with his own musical career, Akon later founded two successful record labels, Konvict Muzik and KonLive Distribution. The labels cultivated a multitude of successful acts, such as Lady Gaga, T-Pain, R. City, Kardinal Offishall, Jeffree Star, and Red Café, among others. Akon sports a concurrent career in producing and songwriting records mainly for artists on his respective labels, as well as for other mainstream artists including Michael Jackson, Snoop Dogg, Lionel Richie, Leona Lewis, Sean Paul, and Whitney Houston. Forbes ranked Akon 80th (Power Rank) in the Forbes Celebrity 100 in 2010 and 5th in the 40 Most Powerful Celebrities in Africa list, in 2011. Billboard ranked Akon No. 6 on the list of Top Digital Songs Artists of the decade.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Joss_Stone', 'artist_name': 'Joss Stone', 'wiki': 'http://en.wikipedia.org/wiki/Joss_Stone', 'birth_date': '11 April 1987', 'start_year': '2001', 'abstract': 'Joscelyn Eve Stoker (born 11 April 1987), known professionally as Joss Stone, is a British singer and actress. She rose to fame in late 2003 with her multi-platinum debut album, The Soul Sessions, which made the 2004 Mercury Prize shortlist. Her second album, the similarly multi-platinum Mind Body &amp; Soul (2004), topped the UK Albums Chart and spawned the top ten hit "You Had Me", Stone\'s most successful single on the UK Singles Chart to date. Both the album and single received one nomination at the 2005 Grammy Awards, while Stone herself was nominated for Best New Artist, and in an annual BBC poll of music critics, Sound of 2004, was ranked fifth as a predicted breakthrough act of 2004. She became the youngest British female singer to top the UK Albums Chart. Stone\'s third album, Introducing Joss Stone, released in March 2007, achieved gold record status by the RIAA and yielded the second-ever highest debut for a British female solo artist on the Billboard 200, and became Stone\'s first top five album in the US. She released her fourth album, Colour Me Free!, in 2009, which reached the top 10 on Billboard. Stone released her fifth album, LP1, in 2011, which reached the top 10 on Billboard. Throughout her career, Stone has sold 15 million records worldwide, establishing herself as one of the best-selling soul artists of the 2000s, and the best-selling British artists of her time. Her first three albums have sold over 2,722,000 copies in the US, while her first two albums have sold over 2 million copies in the UK. Stone has earned several awards including two Brit Awards and one Grammy Award out of five nominations. She made her film acting debut in 2006 with the fantasy adventure film Eragon, and made her television debut portraying Anne of Cleves in the Showtime series The Tudors in 2009. Stone was the youngest woman on the 2006 Sunday Times Rich List—an annual list of the UK\'s wealthiest people—with £6 million. In 2012, her net worth was estimated to be £10 million, making her the fifth richest British musician under 30. The Soul Sessions Vol. 2 (2012) is her fourth consecutive album to reach the top 10 on the Billboard 200, with Australian producer Cam Noble.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Psy', 'artist_name': 'Psy', 'wiki': 'http://en.wikipedia.org/wiki/Psy', 'birth_date': '31 December 1977', 'start_year': '2001', 'abstract': 'Park Jae-sang (Korean: 박재상; Hanja: 朴載相, IPA: [pɐk̚.t͡ɕεsɐŋ]; born December 31, 1977), known professionally as Psy (stylized in all caps as PSY) (싸이; /saɪ/ SY; Korean: [s͈ai]), is a South Korean singer, rapper, songwriter, and record producer. Psy is known domestically for his humorous videos and stage performances, and internationally for his hit single "Gangnam Style". The song\'s refrain was entered into The Yale Book of Quotations as one of the most famous quotations of 2012. On October 23, 2012, Psy met United Nations Secretary-General Ban Ki-moon at the UN Headquarters where Ban expressed his desire to work with the singer because of his "unlimited global reach". On December 21, 2012, his music video for "Gangnam Style" exceeded one billion views on YouTube, becoming the first video to do so in the website\'s history. Psy was subsequently recognized by the media as the King of YouTube. On May 31, 2014, the video for Psy\'s "Gangnam Style" hit two billion views. As of March 2021, it is the eighth most viewed video on YouTube, with over 4 billion views. In December 2012, MTV noted Psy\'s rise from being little known outside South Korea, to being hailed as the "Viral Star of 2012". On December 31, 2012, Psy performed in a globally televised New Year\'s Eve celebration with American rapper MC Hammer on-stage in front of a live audience of over a million people in Times Square, New York City. Following his departure from YG Entertainment in 2018, he founded his own company, P Nation, in 2019.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_J._Geils_Band', 'artist_name': 'The J. Geils Band', 'wiki': 'http://en.wikipedia.org/wiki/The_J._Geils_Band', 'hometown': 'http://dbpedia.org/resource/Worcester,_Massachusetts', 'start_year': '1968', 'end_year': '1985', 'abstract': 'The J. Geils Band /ˌdʒeɪ ˈɡaɪlz/ was an American rock band formed in 1967, in Worcester, Massachusetts, under the leadership of guitarist John "J." Geils. The original band members included vocalist Peter Wolf, harmonica and saxophone player Richard "Magic Dick" Salwitz, drummer Stephen Bladd, vocalist/keyboardist Seth Justman, and bassist Danny Klein. Wolf and Justman served as principal songwriters. The band played R&amp;B-influenced blues rock during the 1970s and soon achieved commercial success before moving towards a more mainstream radio-friendly sound in the early 1980s, which brought the band to its commercial peak. They performed a mix of cover songs of classic blues and R&amp;B songs, along with original compositions written by primarily by Wolf and Justman, as well as some group compositions written under the pseudonymous name Juke Joint Jimmy, representing compositions credited to the entire band as a whole. After Wolf left the band in 1983 to pursue a solo career, the band released one more album in 1984 with Justman on lead vocals, before breaking up in 1985. Beginning in 1999, the band had several reunions prior to the death of its namesake, J. Geils, on April 11, 2017. The band first released several Top 40 singles in the early 1970s, including a cover of the song "Lookin\' for a Love" by The Valentinos (which reached No. 39 on the Billboard Hot 100 in 1972), as well as the single "Give It to Me" (No. 30 in 1973). Their biggest hits included "Must of Got Lost" (No. 12 in 1975), "Come Back" (No. 32 in 1980), "Love Stinks" (which reached No. 38 in 1980 and was featured in several films), "Centerfold" (No. 1 in 1982), and "Freeze-Frame" (No. 4 in 1982).'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Linkin_Park', 'abstract': 'Linkin Park is an American rock band from Agoura Hills, California. The band\'s current lineup comprises vocalist/rhythm guitarist/keyboardist Mike Shinoda, lead guitarist Brad Delson, bassist Dave Farrell, DJ/turntablist Joe Hahn and drummer Rob Bourdon, all of whom are founding members. Vocalists Mark Wakefield and Chester Bennington are former members of the band. Categorized as alternative rock, Linkin Park\'s earlier music spanned a fusion of heavy metal and hip hop, while their later music features more electronica and pop elements. Formed in 1996, Linkin Park rose to international fame with their debut studio album, Hybrid Theory (2000), which became certified Diamond by the Recording Industry Association of America (RIAA). Released during the peak of the nu metal scene, the album\'s singles\' heavy airplay on MTV led the singles "One Step Closer", "Crawling" and "In the End" all to chart highly on the Mainstream Rock chart; the latter crossed over to the pop chart. Their second album, Meteora (2003), continued the band\'s success. The band explored experimental sounds on their third album, Minutes to Midnight (2007). By the end of the decade, Linkin Park was among the most successful and popular rock acts. The band continued to explore a wider variation of musical types on their fourth album, A Thousand Suns (2010), layering their music with more electronic sounds. The band\'s fifth album, Living Things (2012), combined musical elements from all of their previous records. Their sixth album, The Hunting Party (2014), returned to a heavier rock sound, and their seventh album, One More Light (2017), was their first pop-oriented record. Linkin Park went on a hiatus when longtime lead vocalist Bennington died by suicide in July 2017. In April 2020, bassist Dave Farrell revealed the band was working on new music. Linkin Park is among the best-selling bands of the 21st century and the world\'s best-selling music artists, having sold over 100 million records worldwide. They have won two Grammy Awards, six American Music Awards, two Billboard Music Awards, four MTV Video Music Awards, 10 MTV Europe Music Awards and three World Music Awards. In 2003, MTV2 named Linkin Park the sixth-greatest band of the music video era and the third-best of the new millennium. Billboard ranked Linkin Park No. 19 on the Best Artists of the Decade list. In 2012, the band was voted as the greatest artist of the 2000s in a Bracket Madness poll on VH1. In 2014, the band was declared as "The Biggest Rock Band in the World Right Now" by Kerrang!.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Evanescence', 'artist_name': 'Evanescence', 'wiki': 'http://en.wikipedia.org/wiki/Evanescence', 'hometown': 'http://dbpedia.org/resource/Little_Rock,_Arkansas', 'start_year': '1995', 'end_year': '1995', 'abstract': 'Evanescence is an American rock band founded in Little Rock, Arkansas, in 1995 by singer, pianist, and keyboardist Amy Lee and guitarist Ben Moody. After recording independent albums, the band released their first full-length album, Fallen, on Wind-up Records in 2003. On the strength of hit singles "Bring Me to Life" and "My Immortal", Fallen sold more than 17 million copies worldwide and helped the band win two Grammy Awards out of six nominations. A year later, Evanescence released their first live album, Anywhere but Home, which sold more than one million copies worldwide. In 2006, the band released their second studio album, The Open Door, which sold more than five million copies. The band reconvened in June 2009 with a new lineup; their next studio album, Evanescence, was released in 2011. It debuted at the top of the Billboard 200 chart with 127,000 copies in sales. The album also debuted at number one on four other different Billboard charts; the Rock Albums, Digital Albums, Alternative Albums, and the Hard Rock Albums charts. The band spent 2012 on tour in promotion of their latest album with other bands including The Pretty Reckless and Fair to Midland. Troy McLawhorn also became a full-time band member during this time. Following the end of the album\'s tour cycle in 2012, the band entered another hiatus. In 2015, Evanescence emerged from hiatus and announced they would resume touring; however, they stated that new Evanescence material was not being produced, as Lee was focusing on a solo project instead. In addition, Balsamo left the band and was replaced by Jen Majura. In March 2017, Lee stated Evanescence was working on a fourth album for release later in 2017; Synthesis was released worldwide on November 10, 2017, and marked a stylistic change in the band\'s sound. On March 26, 2021, the band released their fifth studio album, The Bitter Truth. The lineup of the group changed several times over the course of the first two studio albums\' productions and promotions: David Hodges left in 2002, co-founder Moody left in 2003 (mid-tour), followed by guitarist John LeCompt and drummer Rocky Gray in 2007, and Terry Balsamo in 2015. As a result, none of the band\'s five studio albums feature the same lineup. The latter two changes led to a hiatus, with temporary band members contributing to tour performances.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bring_Me_the_Horizon', 'artist_name': 'Bring Me the Horizon', 'wiki': 'http://en.wikipedia.org/wiki/Bring_Me_the_Horizon', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'start_year': '2004', 'abstract': "Bring Me the Horizon (often abbreviated as BMTH) are a British rock band formed in Sheffield in 2004. The group consists of lead vocalist Oliver Sykes, guitarist Lee Malia, bassist Matt Kean, drummer Matt Nicholls and keyboardist Jordan Fish. They are signed to RCA Records globally and Columbia Records exclusively in the United States. The band released their debut album Count Your Blessings in 2006. Upon release, the album's sound polarised listeners, and was met with critical disdain. The band began to break away from their controversial sound with Suicide Season (2008), which was a creative, critical and commercial turning point for the band. Bring Me the Horizon released their third album, There Is a Hell Believe Me I've Seen It. There Is a Heaven Let's Keep It a Secret., in 2010, propelling them to greater international fame, whilst incorporating influences from classical music, electronica and pop. Their major label debut, Sempiternal (2013) achieved Gold certification in Australia (35,000) and Silver in the United Kingdom (60,000). That's the Spirit (2015) debuted at number two in the UK Albums Chart and the US Billboard 200. Their sixth studio album Amo (2019) became their first UK chart topper. As well as these six studio albums, they have also released two extended plays and two live albums. They have received four Kerrang! Awards, including two for Best British Band and one for Best Live Band, and have been nominated for two Grammy Awards. The style of their early work, including their debut album Count Your Blessings, has been described primarily as deathcore, but they started to adopt a more eclectic style of metalcore on later albums. Furthermore, That's the Spirit marked a shift in their sound to less aggressive rock music styles. Amo saw a shift into different genres, such as electronica, pop and hip hop."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rise_Against', 'artist_name': 'Rise Against', 'wiki': 'http://en.wikipedia.org/wiki/Rise_Against', 'hometown': 'http://dbpedia.org/resource/Chicago', 'start_year': '1999', 'abstract': 'Rise Against is an American punk rock band from Chicago, formed in 1999. The group\'s current line-up comprises vocalist/rhythm guitarist Tim McIlrath, lead guitarist Zach Blair, bassist Joe Principe and drummer Brandon Barnes. Rooted in hardcore punk and melodic hardcore, Rise Against\'s music emphasizes melody, catchy hooks, an aggressive sound and playstyle, and rapid tempos. Lyrically, the band is known for their outspoken social commentary, covering a wide range of topics such as political injustice, animal rights, humanitarianism, and environmentalism. The band spent its first four years signed to the independent record label Fat Wreck Chords, on which they released two studio albums, The Unraveling (2001) and Revolutions per Minute (2003). Both the albums were met with underground success, and in 2003 the band signed with the major label Dreamworks, which was absorbed by Geffen. Rise Against\'s major label debut Siren Song of the Counter Culture (2004) brought the band mainstream success, largely in part to the popularity of the singles "Give It All" and "Swing Life Away". The band\'s next album, The Sufferer &amp; the Witness (2006), peaked at number ten on the Billboard 200 in the United States, and was Rise Against\'s first album to chart in countries outside of North America. With the release of Appeal to Reason (2008), Rise Against\'s music shifted toward a more accessible and radio-friendly sound, with greater emphasis on production value. The album\'s third single, "Savior", broke the record for the most consecutive weeks spent on both the Hot Rock Songs and Alternative Songs charts. Rise Against\'s popularity grew with the release of Endgame (2011), which peaked at number two on the Billboard 200, and charted highly worldwide. The band\'s 7th and 8th albums, The Black Market (2014) and Wolves (2017) continued the trend of commercial success, and both peaked with the top ten on the Billboard 200. Rise Against is also known for their advocacy of progressivism, supporting organizations such as Amnesty International and the It Gets Better Project. The band actively promotes animal rights and most of the members are straight edge, PETA supporters and vegetarians.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Metallica', 'artist_name': 'Metallica', 'wiki': 'http://en.wikipedia.org/wiki/Metallica', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1981', 'abstract': 'Metallica is an American heavy metal band. The band was formed in 1981 in Los Angeles by vocalist/guitarist James Hetfield and drummer Lars Ulrich, and has been based in San Francisco for most of its career. The band\'s fast tempos, instrumentals and aggressive musicianship made them one of the founding "big four" bands of thrash metal, alongside Megadeth, Anthrax and Slayer. Metallica\'s current lineup comprises founding members and primary songwriters Hetfield and Ulrich, longtime lead guitarist Kirk Hammett, and bassist Robert Trujillo. Guitarist Dave Mustaine (who went on to form Megadeth after being fired from the band) and bassists Ron McGovney, Cliff Burton (who died in a bus accident in Sweden in 1986) and Jason Newsted are former members of the band. After two albums on Megaforce Records and signing to major label Elektra in 1984, Metallica first found commercial success with the release of its third album, Master of Puppets (1986), which has been described as one of the heaviest and most influential thrash metal albums. Their next album, ...And Justice for All (1988), was also successful and gave Metallica their first Grammy Award nomination. Its eponymous fifth album, Metallica (1991), the band\'s first not to root predominantly in thrash metal, appealed to a more mainstream audience, achieving substantial commercial success and selling over 16 million copies in the United States to date, making it the best-selling album of the SoundScan era. After experimenting with different genres and directions in subsequent releases, the band returned to its thrash metal roots with the release of its ninth album, Death Magnetic (2008), which drew similar praise to that of the band\'s earlier albums. Their most recent album is Hardwired... to Self-Destruct, released in 2016. In 2000, Metallica led the case against the peer-to-peer file sharing service Napster, in which the band and several other artists filed lawsuits against the service for sharing their copyright-protected material without consent; after reaching a settlement, Napster became a pay-to-use service in 2003. Metallica was the subject of the acclaimed 2004 documentary film Metallica: Some Kind of Monster, which documented the troubled production of the band\'s eighth album, St. Anger (2003), and the internal struggles within the band at the time. In 2009, Metallica was inducted into the Rock and Roll Hall of Fame. The band wrote the screenplay for and starred in the 2013 IMAX concert film Metallica: Through the Never, in which the band performed live against a fictional thriller storyline. Metallica has released ten studio albums, four live albums, a cover album, five extended plays, 37 singles and 39 music videos. The band has won nine Grammy Awards from 23 nominations, and its last six studio albums (beginning with Metallica) have consecutively debuted at number one on the Billboard 200. Metallica ranks as one of the most commercially successful bands of all time, having sold over 125 million albums worldwide as of 2018. Metallica has been listed as one of the greatest artists of all time by magazines such as Rolling Stone, which ranked them at no. 61 on its 100 Greatest Artists of All Time list. As of 2017, Metallica is the third best-selling music artist since Nielsen SoundScan began tracking sales in 1991, selling a total of 58 million albums in the United States.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Papa_Roach', 'artist_name': 'Papa Roach', 'wiki': 'http://en.wikipedia.org/wiki/Papa_Roach', 'hometown': 'http://dbpedia.org/resource/Vacaville,_California', 'start_year': '1993', 'abstract': 'Papa Roach is an American rock band from Vacaville, California, formed in 1993. The original lineup consisted of lead vocalist Jacoby Shaddix, guitarist Jerry Horton, drummer Dave Buckner, bassist Will James, and trombonist Ben Luther. After two EPs, James left and was replaced by Tobin Esperance. The band independently released two more EPs before signing with DreamWorks Records in 1999, subsequently releasing the triple-platinum Infest in 2000, the gold album Lovehatetragedy in 2002 and the platinum album Getting Away with Murder in 2004. A year after The Paramour Sessions, Buckner left in 2007, and was replaced by Tony Palermo. Papa Roach then made Metamorphosis (2009), Time for Annihilation (2010), The Connection (2012), F.E.A.R. (2015), and Crooked Teeth (2017). Their tenth studio album, Who Do You Trust?, was released on January 18, 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Skillet_(band)', 'artist_name': 'Skillet', 'wiki': 'http://en.wikipedia.org/wiki/Skillet_(band)', 'hometown': 'http://dbpedia.org/resource/Memphis,_Tennessee', 'start_year': '1996', 'abstract': 'Skillet is an American Christian rock band formed in Memphis, Tennessee, in 1996. The band currently consists of husband John Cooper (lead vocals, bass) and wife Korey Cooper (rhythm guitar, keyboards, backing vocals) along with Jen Ledger (drums, vocals) and Seth Morrison (lead guitar). The band has released ten albums, two of which, Collide and Comatose, received Grammy nominations. Two of their albums, Comatose and Awake, are certified Platinum and Double Platinum respectively by the RIAA, while Rise and Unleashed are certified Gold as of June 29, 2020. Five of their songs, "Whispers in the Dark", "Hero", "Monster", "Awake and Alive", and "Feel Invincible", are certified Platinum, while another four, "Rebirthing", "Comatose", "Not Gonna Die", and "The Resistance" are certified Gold. Skillet went through several line-up changes early in their career, leaving founder John Cooper as the only original member remaining in the band. They are known for a relentless touring schedule, which garnered them a top five ranking in the Hardest Working Bands of 2010 by Songkick.com.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Theory_of_a_Deadman', 'artist_name': 'Theory of a Deadman', 'wiki': 'http://en.wikipedia.org/wiki/Theory_of_a_Deadman', 'hometown': 'http://dbpedia.org/resource/North_Delta', 'start_year': '1999', 'abstract': 'Theory of a Deadman (abbreviated as Theory or TOAD) is a Canadian rock band from North Delta, British Columbia. Formed in 1999, the band is currently signed to Roadrunner Records as well as 604 Records. The band includes traits of music styles, such as country and acoustic, in addition to their post-grunge and alternative rock foundation. Nine of their singles have entered the top ten of the US Billboard Mainstream Rock chart, including four songs that peaked at number one: "Bad Girlfriend", "Lowlife", "Rx (Medicate)" and "History of Violence".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Thousand_Foot_Krutch', 'artist_name': 'Thousand Foot Krutch', 'wiki': 'http://en.wikipedia.org/wiki/Thousand_Foot_Krutch', 'hometown': 'http://dbpedia.org/resource/Peterborough,_Ontario', 'start_year': '1995', 'end_year': '2017', 'abstract': 'Thousand Foot Krutch (often abbreviated TFK) is a Canadian Christian rock band formed in Peterborough, Ontario, in 1997. The band has released eight studio albums, two live albums, and three remix albums. The band currently consists of founding member Trevor McNevan (vocals, guitar), Steve Augustine (drums), and Joel Bruyere (bass, backing vocals). Since forming, Thousand Foot Krutch has sold over 1.1 million albums and reached No. 1 on the Billboard Hard Rock Albums Chart twice.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Puddle_of_Mudd', 'artist_name': 'Puddle of Mudd', 'wiki': 'http://en.wikipedia.org/wiki/Puddle_of_Mudd', 'hometown': 'http://dbpedia.org/resource/Kansas_City,_Missouri', 'start_year': '1991', 'abstract': 'Puddle of Mudd is an American rock band formed in Kansas City, Missouri, in 1991. To date, the band has sold over seven million albums and has had a string of No. 1 mainstream rock singles in the United States. Their major-label debut Come Clean has sold over five million copies. They have released an extended play, an independent album and five studio albums, with their latest being Welcome to Galvania in September 2019. Puddle of Mudd has been described as post-grunge, nu metal, hard rock, and alternative metal.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Saliva_(band)', 'artist_name': 'Saliva', 'wiki': 'http://en.wikipedia.org/wiki/Saliva_(band)', 'hometown': 'http://dbpedia.org/resource/Bartlett,_Tennessee', 'start_year': '1996', 'abstract': 'Saliva is an American rock band, formed in Memphis, Tennessee, in 1996. Saliva released their self-titled debut album on August 26, 1997, through Rockingchair Records, a label owned and operated by Mark Yoshida. The release was recorded and produced by Bill Pappas at Rockingchair Studios. They were signed to Island Records and went on to release their second studio album Every Six Seconds. Saliva later released their third studio album titled Back into Your System on November 12, 2002, which reached No. 19 on the Billboard 200. Back into Your System launched one of Saliva\'s most successful songs, "Always", reaching No. 51 on the Billboard Hot 100 and No. 1 on the Modern Rock Chart. Three years after Survival of the Sickest, Saliva released Blood Stained Love Story on January 23, 2007, repeating Back into Your System\'s chart performance at No. 19 on the Billboard 200. Its first single, "Ladies and Gentlemen", peaked at No. 2 on the Mainstream Rock Chart.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Halestorm', 'artist_name': 'Halestorm', 'wiki': 'http://en.wikipedia.org/wiki/Halestorm', 'hometown': 'http://dbpedia.org/resource/Red_Lion,_Pennsylvania', 'start_year': '1997', 'abstract': 'Halestorm is an American rock band from Red Lion, Pennsylvania, consisting of lead vocalist and guitarist Lzzy Hale, her brother drummer and percussionist Arejay Hale, guitarist Joe Hottinger, and bassist Josh Smith. The group\'s self-titled debut album was released on April 28, 2009, through Atlantic Records. Their second album The Strange Case Of... was released on April 10, 2012. Its lead single "Love Bites (So Do I)" won the Grammy Award for Best Hard Rock/Metal Performance on February 10, 2013. Their third album, Into the Wild Life (2015), peaked at number five on the Billboard 200. The band\'s fourth album, Vicious (2018), debuted at number eight on the chart, becoming their second top 10 record. Halestorm is well known for their near non-stop touring, often performing as many as 250 shows a year. Since 2006 they have toured with many hard rock and heavy metal acts including Alice Cooper, Alter Bridge, Chevelle, Seether, Staind, Papa Roach, Trapt, Three Days Grace, Theory of a Deadman, Buckcherry, In This Moment, Disturbed, Shinedown, Avenged Sevenfold, Stone Sour, Skillet, Hellyeah, Heaven &amp; Hell, Evanescence, The Pretty Reckless, Starset, Sevendust, Dorothy, Lita Ford, Godsmack, Bullet for My Valentine, New Years Day, and Stitched Up Heart. Halestorm appeared on the first annual Rockstar Energy Drink Uproar Festival, and in October 2010 the band traveled to Japan to participate in the Loud Park Festival. Halestorm also appeared on the 2010 Taste of Chaos tour. After concerts were cancelled in 2020 due to the COVID-19 pandemic, Halestorm launched #RoadieStrong, a fundraiser for Live Nation Entertainment’s Crew Nation fund to support live show crews. The effort was also supported by Avenged Sevenfold, Shinedown, and other artists.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Muse_(band)', 'artist_name': 'Muse', 'wiki': 'http://en.wikipedia.org/wiki/Muse_(band)', 'hometown': 'http://dbpedia.org/resource/Teignmouth', 'start_year': '1994', 'abstract': 'Muse are an English rock band from Teignmouth, Devon, formed in 1994. The band consists of Matt Bellamy (lead vocals, guitar, keyboards), Chris Wolstenholme (bass guitar, backing vocals), and Dominic Howard (drums). Muse released their debut album, Showbiz, in 1999, showcasing Bellamy\'s falsetto and a melancholic alternative rock style. Their second album, Origin of Symmetry (2001), incorporated wider instrumentation and romantic classical influences and earned them a reputation for energetic live performances. Absolution (2003) saw further classical influence, with strings on tracks such as "Butterflies and Hurricanes", and was the first of six consecutive UK number-one albums. Black Holes and Revelations (2006) incorporated electronic and pop elements, displayed in singles such as "Supermassive Black Hole", and brought Muse wider international success. The Resistance (2009) and The 2nd Law (2012) explored themes of government oppression and civil uprising and cemented Muse as one of the world\'s major stadium acts. Rolling Stone stated the band possessed "stadium-crushing songs". Topping the US Billboard 200, their seventh album, Drones (2015), was a concept album about drone warfare and returned to a harder rock sound. Their eighth album, Simulation Theory (2018), prominently featured synthesisers and was influenced by science fiction and the simulation hypothesis. Muse have won numerous awards, including two Grammy Awards, two Brit Awards, five MTV Europe Music Awards and eight NME Awards. In 2012 they received the Ivor Novello Award for International Achievement from the British Academy of Songwriters, Composers and Authors. By June 2016, they had sold over 20 million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sick_Puppies', 'artist_name': 'Sick Puppies', 'wiki': 'http://en.wikipedia.org/wiki/Sick_Puppies', 'hometown': 'http://dbpedia.org/resource/Sydney', 'start_year': '1997', 'abstract': 'Sick Puppies are an Australian rock band formed in Sydney in 1997. After releasing their debut album, Welcome to the Real World in 2001, the band rose to prominence in 2006 when their song "All the Same" was uploaded, along with a video, to YouTube. The video supported the Free Hugs Campaign, which was launched in Sydney, and has since received over 78 million views on the website. This success was followed up with their second studio album, Dressed Up as Life in 2007, which entered the Billboard 200 at number 181. Their third studio album, Tri-Polar, came out on 14 July 2009. The band\'s fourth studio album, Connect was released on 16 July 2013. They released their fifth studio album, Fury on 20 May 2016 with new vocalist Bryan Scott after Shimon Moore was kicked out of the band in October 2014.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Saving_Abel', 'artist_name': 'Saving Abel', 'wiki': 'http://en.wikipedia.org/wiki/Saving_Abel', 'hometown': 'http://dbpedia.org/resource/Corinth,_Mississippi', 'start_year': '2004', 'abstract': 'Saving Abel is an American rock band from Corinth, Mississippi, founded in 2004 by Jared Weeks and Jason Null. The band is named after the biblical story of Cain and Abel, in which a man named Cain kills his brother Abel. Band member Jason Null thought up the band title saying "I Googled the story of Cain and Abel and found a line about \'there was no saving Abel,\' which just jumped out at me." Lead singer Jared Weeks left the band at the end of 2013 to pursue a solo career, but returned in 2021, replacing Scott Austin.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/3_Doors_Down', 'artist_name': '3 Doors Down', 'wiki': 'http://en.wikipedia.org/wiki/3_Doors_Down', 'hometown': 'http://dbpedia.org/resource/Escatawpa,_Mississippi', 'start_year': '1996', 'abstract': '3 Doors Down is an American rock band from Escatawpa, Mississippi, that formed in 1996. The band originally consisted of Brad Arnold (lead vocals, drums), Matt Roberts (lead guitar, backing vocals), and Todd Harrell (bass guitar). The band rose to international fame with their first single, "Kryptonite", which placed in the top three on the Billboard Hot 100 chart. The band then signed with Republic Records and released their debut album, The Better Life, in 2000. The album was the 11th-best-selling album of the year and was certified 6x platinum in the United States. The group was later joined by drummer Richard Liles, who played during the tour for their first album. The band\'s second album, Away from the Sun (2002), continued the band\'s success; it debuted at No. 8 on the Billboard 200 chart, went multi-platinum in the U.S. like its predecessor, and spawned the hits "When I\'m Gone" and "Here Without You". The band toured extensively for two years. Daniel Adair played drums on tour from 2002 to 2006. This configuration played nearly 1,000 shows across the world following the release of Away from the Sun. In 2005, Greg Upchurch (Puddle of Mudd) joined to play drums to replace Adair. 3 Doors Down released their third album, Seventeen Days, in 2005. The album debuted at No. 1 on the Billboard 200 chart and was certified platinum within one month of release. The band continued their success with their next two albums, 3 Doors Down (2008) and Time of My Life (2011), debuting at No. 1 and No. 3 respectively on the Billboard 200 chart. Their latest album, Us and the Night, was released in 2016; they were working on new material for a seventh studio album as of 2019. The band has been primarily described as post-grunge and alternative rock, while occasionally crossing into hard rock, and Southern rock. Their lyrical content contains overarching themes of angst, rebellion, revenge, yearning, and abandonment. 3 Doors Down has sold 30 million copies worldwide. Original guitarist Matt Roberts departed in 2012, owing to health issues. He was replaced by Chet Roberts, who was formerly Chris Henderson\'s guitar tech. Harrell was fired from the band in 2013 after being charged with vehicular homicide, and was replaced by bassist Justin Biltonen.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Pretty_Reckless', 'artist_name': 'The Pretty Reckless', 'wiki': 'http://en.wikipedia.org/wiki/The_Pretty_Reckless', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2009', 'abstract': 'The Pretty Reckless is an American rock band from New York City, formed in 2009. The band consists of Taylor Momsen (lead vocals, rhythm guitar), Ben Phillips (lead guitar, backing vocals), Mark Damon (bass), and Jamie Perkins (drums). The band released their debut studio album, Light Me Up, in August 2010. The album spawned three moderately successful singles, most notably "Make Me Wanna Die". The band released the Hit Me Like a Man EP in early 2012. In March 2014, the band released their second studio album, Going to Hell, which included the singles "Heaven Knows" and "Messed Up World" which topped the US and UK rock charts. The band\'s third studio album, Who You Selling For, was released on October 21, 2016, by Razor &amp; Tie. The album spawned the single "Take Me Down", which earned the band their fourth number one on the US rock chart. The band\'s fourth studio album, Death by Rock and Roll, was released on February 12, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Nothing_More', 'artist_name': 'Nothing More', 'wiki': 'http://en.wikipedia.org/wiki/Nothing_More', 'hometown': 'http://dbpedia.org/resource/San_Antonio', 'start_year': '2003', 'abstract': 'Nothing More is an American rock band from San Antonio, Texas. Formed in 2003, the band spent much of the 2000s recording independent albums and struggling to maintain a steady lineup or attract record label interest. Towards the end of the decade, the band\'s long-time drummer, Jonny Hawkins, decided to switch to being the band\'s frontman and lead vocalist, stabilizing the band\'s core lineup along with other long-time members Mark Vollelunga (guitar) and Daniel Oliver (bass). The band self-funded and recorded their fourth studio album, Nothing More, over the course of three years and used it to gain the attention of Eleven Seven Music record label, who signed the band to a five album record contract upon hearing it. The album became the band\'s breakthrough release in 2014, with multiple charting singles, including "This is the Time (Ballast)", which hit number 1 on the Mediabase Active Rock chart and number 2 on the Billboard Mainstream Rock chart, and "Mr. MTV", "Jenny" and "Here\'s to the Heartache" all charting in the top 15 of both charts. The band began working on a follow-up in 2016 while continuing to tour in support of their self-titled release, and in September 2017, released their fifth studio album - their second on a major record label - The Stories We Tell Ourselves. The lead single, "Go to War", outperformed the prior singles, topping the Mainstream Rock chart, and the release earned the band three Grammy Award nominations; Best Rock Album for the album, and Best Rock Song and Best Rock Performance for "Go to War". The band continued to promote the release moving into 2018, releasing singles, "Do You Really Want It?" and "Just Say When", and embarking on multiple North American tours into 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/In_This_Moment', 'artist_name': 'In This Moment', 'wiki': 'http://en.wikipedia.org/wiki/In_This_Moment', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '2005', 'abstract': "In This Moment is an American rock band from Los Angeles, California, formed by singer Maria Brink and guitarist Chris Howorth in 2005. They found drummer Jeff Fabb and started the band as Dying Star. Unhappy with their musical direction, they changed their name to In This Moment and gained two band members, guitarist Blake Bunzel and bassist Josh Newell. In 2005, bassist Newell left the band and was replaced by Jesse Landry. Their debut album, Beautiful Tragedy, was released in 2007. Their follow up, titled The Dream was released the following year debuting at number 73 on the Billboard 200. The band's third album, A Star-Crossed Wasteland was released in 2010, and their fourth album titled Blood was released in August 2012 and debuted at number 15. Their fifth album titled Black Widow was released in November 2014 and debuted at number 8, their highest position in the charts to date. Ritual, their sixth, was released in the summer of 2017 and debuted at number 23. Their seventh studio album, Mother was released on March 27, 2020. They have received two nominations of Alternative Press Music Awards, including two for Best Hard Rock Artist and one for Best Live Band. They have also received a Grammy nomination for Best Metal Performance. The band's line-up has changed several times. Landry was replaced by Kyle Konkiel in 2009 and Konkiel was replaced by Travis Johnson in 2010. Jeff Fabb and Blake Bunzel left the band in 2011, and were replaced by Tom Hane and Randy Weitzel respectively. In March 2016, drummer Tom Hane announced his departure from the band and was replaced by Kent Diimmel, formerly of 3 By Design. Throughout their career, the band has performed on several notable tours and festivals including Ozzfest in 2007 and 2008; Warped Tour in 2009; Download Festival in 2009, 2013, and 2018; Mayhem Festival in 2010; Music as a Weapon V tour in 2011; Uproar Festival in 2012; Rock on the Range in 2012, 2013, and 2015; Carnival of Madness tour in 2013; Knotfest in 2014; Rockfest and Rocklahoma in 2015; Carolina Rebellion in 2018; Louder Than Life in 2017 and 2019; Aftershock in 2014, 2017, and 2021; and Welcome to Rockville in 2013, 2015, 2017, and 2019."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Trapt', 'artist_name': 'Trapt', 'wiki': 'http://en.wikipedia.org/wiki/Trapt', 'hometown': 'http://dbpedia.org/resource/Los_Gatos,_California', 'start_year': '1995', 'abstract': 'Trapt is an American rock band formed in Los Gatos, California. It consists of vocalist Chris Taylor Brown, bassist Pete Charell and guitarist Brendan Hengle. They have recorded eight studio albums to date: Amalgamation (1999), Trapt (2002), Someone in Control (2005), Only Through the Pain (2008), No Apologies (2010), Reborn (2013), DNA (2016), and Shadow Work (2020). Trapt is best known for their 2002 hit "Headstrong".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Chevelle_(band)', 'artist_name': 'Chevelle', 'wiki': 'http://en.wikipedia.org/wiki/Chevelle_(band)', 'hometown': 'http://dbpedia.org/resource/Grayslake,_Illinois', 'start_year': '1995', 'abstract': "Chevelle is an American rock band formed in Grayslake, Illinois, in 1995. The band was originally composed of two brothers, Pete Loeffler (lead vocals and guitar) and Sam Loeffler (drums and percussion), along with Matt Scott (bass and backing vocals). Scott was replaced by Sam and Pete's brother, Joe Loeffler, in 1996. When Joe left the band in 2005, Geno Lenardo subbed in as the touring bassist until he was replaced by Pete and Sam's brother-in-law, Dean Bernardini. Bernardini departed from the band in 2019, and in 2021, Kemble Walters joined the band as a touring bassist. The band's first studio album, Point #1, was released on a small record label called Squint Entertainment. Chevelle's second album, Wonder What's Next (2002), was certified double platinum by the RIAA after a debut at No. 14 on the United States albums chart, Billboard 200. This Type of Thinking (Could Do Us In) (2004), the band's third album debuted at No. 8 and has been certified platinum. Chevelle has since released six more albums: Vena Sera (2007), Sci-Fi Crimes (2009), Hats Off to the Bull (2011), La Gárgola (2014), The North Corridor (2016), and their latest Niratias (2021). Other releases from Chevelle include two live albums, DVDs and a compilation of band favorites."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Tremonti_(band)', 'artist_name': 'Tremonti', 'wiki': 'http://en.wikipedia.org/wiki/Tremonti_(band)', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'start_year': '2011', 'abstract': "Tremonti is an American heavy metal band founded and fronted by lead vocalist and guitarist Mark Tremonti, best known as the lead guitarist of rock bands Creed and Alter Bridge. The band also consists of rhythm guitarist Eric Friedman, bassist Tanner Keegan and drummer Ryan Bennett. Bassist Wolfgang Van Halen and drummer Garrett Whitlock are former members of the band. Mark Tremonti's Creed and Alter Bridge bandmate Brian Marshall was also a touring member in 2012. What originally started as a Mark Tremonti solo project evolved into a fully fledged band that has released five studio albums: All I Was in July 2012, Cauterize in June 2015, Dust in April 2016, A Dying Machine in June 2018 and Marching in Time in September 2021. The band's music is a departure from Mark Tremonti's main bands, featuring more of a speed metal influence with melodic vocals."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Shinedown', 'artist_name': 'Shinedown', 'wiki': 'http://en.wikipedia.org/wiki/Shinedown', 'hometown': 'http://dbpedia.org/resource/Jacksonville,_Florida', 'start_year': '2001', 'abstract': "Shinedown is an American rock band from Jacksonville, Florida, formed by singer Brent Smith in 2001 after the dissolution of Dreve, his previous band. Smith, still under contract with record label Atlantic Records, recruited the band's original lineup of Jasin Todd as guitarist, Brad Stewart on bass, and Barry Kerch on drums. Consistent for the first two album cycles, a few lineup changes followed in the late 2000s, eventually stabilizing with Smith and Kerch alongside Zach Myers on guitar and Eric Bass on bass. The group has released six studio albums: Leave a Whisper (2003), Us and Them (2005), The Sound of Madness (2008), Amaryllis (2012), Threat to Survival (2015), and Attention Attention (2018). Shinedown has the most number one singles on the Billboard Mainstream Rock charts out of any band, with 16, and all of their released singles have reached the top 5 on the chart. Additionally, on June 3, 2021 Shinedown was ranked #1 by Billboard on the Greatest of All Time Mainstreams Rock Artists chart released to celebrate the Mainstream Rock Chart's 40th Anniversary. To date, the band has sold more than 10 million records."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Lamb_of_God_(band)', 'artist_name': 'Lamb of God', 'wiki': 'http://en.wikipedia.org/wiki/Lamb_of_God_(band)', 'hometown': 'http://dbpedia.org/resource/Richmond,_Virginia', 'start_year': '1994', 'abstract': 'Lamb of God (sometimes abbreviated as LoG) is an American heavy metal band from Richmond, Virginia. Formed in 1994 as Burn the Priest, the group consists of bassist John Campbell, vocalist Randy Blythe, guitarists Mark Morton and Willie Adler, and drummer Art Cruz. The band is considered a significant member of the new wave of American heavy metal movement. Since their formation, Lamb of God has released ten studio albums: Burn the Priest (as Burn the Priest) (1999), New American Gospel (2000), As the Palaces Burn (2003), Ashes of the Wake (2004), Sacrament (2006), Wrath (2009), Resolution (2012), VII: Sturm und Drang (2015), Legion: XX (as Burn the Priest) (2018), and Lamb of God (2020). The band has also released one live album, one compilation album, three DVDs, two EPs, and twenty-eight singles. The band\'s cumulative sales equal almost two million in the United States, including two albums certified Gold by the RIAA; their latest album, a self-titled effort, was released in 2020. In 2010 and 2011 the band received Grammy nominations for songs from their 2009 album Wrath. They also received a nomination in 2016 for their song "512". Lamb of God has toured with the Ozzfest twice. Other appearances include Download Festival and Sonisphere Festival in the UK, Soundwave Festival, Mayhem Festival 2010 and Gigantour. From 2008 to 2010 they toured as part of Metallica\'s World Magnetic Tour, and supported Slayer on their final world tour in 2018 and 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/All_That_Remains_(band)', 'artist_name': 'All That Remains', 'wiki': 'http://en.wikipedia.org/wiki/All_That_Remains_(band)', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'start_year': '1998', 'abstract': "All That Remains is an American heavy metal band from Springfield, Massachusetts, formed in 1998. They have released nine studio albums, a live CD and DVD, and have sold over a million records worldwide. The group currently consists of vocalist Philip Labonte, rhythm guitarist Mike Martin, former Diecast drummer Jason Costa, and lead guitarist Jason Richardson, with Labonte being the last remaining original member. In spite of this, the band's line-up had remained consistent from the release of 2008's Overcome until 2015's The Order of Things, spanning four albums. This line-up changed, however, in September 2015, when long-time bassist Jeanne Sagan left the band, with Patrick taking her place and then again on February 5, 2019, when the band confirmed that Jason Richardson would be joining the band to replace the deceased lead guitarist and original member, Oli Herbert. In 2021, Aaron Patrick parted ways with All That Remains to focus on his other band, Bury Your Dead."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Within_Temptation', 'artist_name': 'Within Temptation', 'wiki': 'http://en.wikipedia.org/wiki/Within_Temptation', 'hometown': 'http://dbpedia.org/resource/Waddinxveen', 'start_year': '1996', 'abstract': 'Within Temptation is a Dutch symphonic metal band founded in April 1996 by vocalist Sharon den Adel and guitarist Robert Westerholt. They have been classified by critics as gothic metal and symphonic metal, although each album contains other influences outside these genres. Their most prominent and well-known sound is described as symphonic metal, although their earlier material, such as debut album Enter, was mostly gothic metal, with Enter also having a hint of doom metal. In an interview, den Adel said they fell into a symphonic rock genre with various influences. In a later interview with Dutch music platform 3VOOR12, den Adel stated that "We consider ourselves more an atmospheric melodic symphonic metal/rock band... In my opinion, we are not a gothic band but we have gothic elements". After the release of their debut album Enter in 1997, the band became prominent in the Dutch underground scene. It was not until 2001 that they became known to the general public, with the single "Ice Queen" from their second album Mother Earth, which reached No. 2 on the Dutch charts. This was followed by the band winning the Conamus Exportprijs, a Dutch music award, four years in a row, and a fifth in 2016. Their next albums The Silent Force (2004) and The Heart of Everything (2007) debuted at No. 1 on the Dutch charts. In 2008, they released Black Symphony, a live album recorded with the Metropole Orchestra. This was followed in 2009 by An Acoustic Night at the Theatre, another live album, this time with acoustic renditions of the songs. The band\'s fifth studio album, The Unforgiving, was released in March 2011 and was one part of a transmedia effort, alongside both a comic book series and a series of short films that together encompass a story. The album saw the band increasingly venturing on new musical territories outside symphonic metal. Their sixth studio album, Hydra, was released in early 2014 in Japan, Europe, and the United States. The album advanced the band\'s exploration of new musical genres and features guest appearances from various artists: Finnish singer Tarja Turunen, who appears in the lead single "Paradise (What About Us?)"; Howard Jones, former vocalist of American metalcore band Killswitch Engage; Dave Pirner, lead vocalist of American alternative rock band Soul Asylum; and American rapper Xzibit. The band had extensive airplay on BBC Radio 2 in the United Kingdom with one of the songs from the album, "Whole World Is Watching" featuring Pirner. Their latest studio album, Resist, was released in January 2019 and incorporates influences from other musical styles such as industrial and EDM. By 2016, the band had already sold more than 3.5 million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jacoby_Shaddix', 'artist_name': 'Jacoby Shaddix', 'wiki': 'http://en.wikipedia.org/wiki/Jacoby_Shaddix', 'birth_date': '28 July 1976', 'start_year': '1993', 'abstract': 'Jacoby Dakota Shaddix (born July 28, 1976) is an American singer, songwriter, rapper, TV presenter and actor. He is best known as the founding member and the continuous lead singer of the California-based rock band Papa Roach since the band\'s formation in 1993. Shaddix served as the host of the MTV show Scarred for the entirety of the show\'s cycle, presenting both seasons and all 20 episodes of the show, which spanned from April 10 to September 18, 2007. Shaddix would ultimately leave the show due to touring demands with Papa Roach. The name of the show was based on the Papa Roach song "Scars". Shaddix is one of the co-owners of a rock-inspired clothing line with designer Jeff Henry called "Lovers Are Lunatics", with the focus being described as "to create a brand that represents the rock community and showcases their unique creative vision".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sevendust', 'artist_name': 'Sevendust', 'wiki': 'http://en.wikipedia.org/wiki/Sevendust', 'hometown': 'http://dbpedia.org/resource/Atlanta', 'start_year': '1994', 'abstract': 'Sevendust is an American rock band from Atlanta, Georgia, formed in 1994 by bassist Vince Hornsby, drummer Morgan Rose, and guitarist John Connolly. After their first demo, lead vocalist Lajon Witherspoon and guitarist Clint Lowery joined the group. Following a few name changes, the members settled on the name Sevendust and released their self-titled debut album on April 15, 1997, which sold only 310 copies in its first week but ultimately achieved gold certification through touring and support from their label, TVT Records. Since formation, Sevendust have attained success with three consecutive RIAA gold-certified albums, a Grammy nomination, and have sold millions of records worldwide. The group has released a total of thirteen studio albums, including a reissue of their debut as Sevendust: Definitive Edition, which contains five new tracks and a DVD.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/I_Prevail', 'artist_name': 'I Prevail', 'wiki': 'http://en.wikipedia.org/wiki/I_Prevail', 'hometown': 'http://dbpedia.org/resource/Southfield,_Michigan', 'start_year': '2013', 'abstract': 'I Prevail is an American metalcore band formed in Southfield, Michigan, in 2013. They released their debut EP Heart vs. Mind (2014) and rose to popularity from releasing a metal cover of Taylor Swift\'s "Blank Space" as a single, which eventually was certified platinum in the US. The band has since released two studio albums, Lifelines (2016) and Trauma (2019). The band found success with their original material as well, with the singles "Breaking Down" and "Hurricane" performing well on rock radio, the single "Bow Down" being nominated for the Grammy Award for Best Metal Performance in 2019, and Trauma being nominated for the Grammy Award for Best Rock Album the same year.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Staind', 'artist_name': 'Staind', 'wiki': 'http://en.wikipedia.org/wiki/Staind', 'hometown': 'http://dbpedia.org/resource/Springfield,_Massachusetts', 'start_year': '1995', 'end_year': '2012', 'abstract': 'Staind (/steɪnd/ STAYND) is an American rock band formed in Springfield, Massachusetts, in 1995. The original lineup consisted of lead vocalist and rhythm guitarist Aaron Lewis, lead guitarist Mike Mushok, bassist and backing vocalist Johnny April, and drummer Jon Wysocki. The lineup has been stable outside of the 2011 departure of Wysocki, who was replaced by Sal Giancarelli. Staind has recorded seven studio albums: Tormented (1996), Dysfunction (1999), Break the Cycle (2001), 14 Shades of Grey (2003), Chapter V (2005), The Illusion of Progress (2008), and Staind (2011). The band\'s activity became more sporadic after their self-titled release, with Lewis pursuing a solo country music career and Mushok subsequently joining the band Saint Asonia, but they have continued to tour on and off in the following years. In 2016, Lewis reiterated that the band had not broken up, and would possibly create another album, but that his then-current focus was on his solo career. The band reunited more permanently in 2019 for several shows, continuing with live appearances in 2020. Many of their singles have reached high positions on US rock and all-format charts as well, including "It\'s Been Awhile", "Fade", "Price to Play", "So Far Away", and "Right Here".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Finger_Eleven', 'artist_name': 'Finger Eleven', 'wiki': 'http://en.wikipedia.org/wiki/Finger_Eleven', 'hometown': 'http://dbpedia.org/resource/Burlington,_Ontario', 'start_year': '1990', 'abstract': 'Finger Eleven is a Canadian rock band from Burlington, Ontario, formed in 1990. They have released seven studio albums (six as Finger Eleven and one as Rainbow Butt Monkeys), with their album The Greyest of Blue Skies bringing them into the mainstream. Their 2003 self-titled album achieved Gold status in the United States and Platinum in Canada, largely from the success of the single "One Thing", which marked the band\'s first placing on the US Hot 100 Chart at number 16. Their 2007 album, Them vs. You vs. Me launched the single "Paralyzer", which went on to top the Canadian Hot 100 and both US rock charts, as well as reaching No. 6 on the US Hot 100 and No. 12 on the Australian Singles Chart. They won the Juno Award for Rock Album of the Year in 2008. The same album was later certified gold in the US and multi-platinum in Canada. They released their sixth studio album, Life Turns Electric, on October 5, 2010; it was nominated as Best Rock Album of the Year at the Juno Awards of 2011. Five Crooked Lines, their 7th studio album, was released in 2015. Between 1995 and 2016, Finger Eleven was among the top 75 best-selling Canadian artists in Canada and among the top 25 best-selling Canadian bands in Canada.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Dope_(band)', 'artist_name': 'Dope', 'wiki': 'http://en.wikipedia.org/wiki/Dope_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1997', 'abstract': 'Dope is an American heavy metal band from New York City, formed in 1997. The band has released six full-length studio albums with their most recent studio album, Blood Money Part 1, being released on October 28, 2016. The lineup currently consists of founding member and lead singer Edsel Dope, guitarist Virus, bassist Acey Slade, and drummer Daniel Fox.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rahzel', 'artist_name': 'Rahzel', 'wiki': 'http://en.wikipedia.org/wiki/Rahzel', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'birth_date': '06 October 1966', 'abstract': 'Rozell Manely Brown (born October 6, 1966) is an American beatboxer and rapper, formerly a member of the Roots. Rahzel is known for an ability to sing or rap while simultaneously beatboxing, as evidenced in his performances of "Iron Man" and his signature song "If Your Mother Only Knew", a hidden track on Make the Music 2000. His talents are showcased in various solo projects as well as on Ben Harper\'s 2000 single "Steal My Kisses." He also provided his own voice on video games SSX and SSX Tricky. Rahzel was featured on the album True Love by Toots and the Maytals, which won the Grammy Award in 2004 for Best Reggae Album, and showcased many notable musicians including Björk, Willie Nelson, Eric Clapton, Jeff Beck, Trey Anastasio, Gwen Stefani / No Doubt, Ben Harper, Bonnie Raitt, Manu Chao, The Roots, Ryan Adams, Keith Richards, Toots Hibbert, Paul Douglas, Jackie Jackson, Ken Boothe, and The Skatalites.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Corey_Taylor', 'artist_name': 'Corey Taylor', 'wiki': 'http://en.wikipedia.org/wiki/Corey_Taylor', 'birth_date': '08 December 1973', 'start_year': '1992', 'abstract': 'Corey Todd Taylor (born December 8, 1973) is an American singer, musician, songwriter and actor. He is known as the lead vocalist and lyricist of the bands Slipknot and Stone Sour. Taylor co-founded Stone Sour with drummer Joel Ekman in 1992, playing in the Des Moines area, and working on a demo. He joined Slipknot in 1997 to replace their original vocalist and has subsequently released six studio albums with them. After the first two Slipknot albums went Platinum, Taylor revived Stone Sour to record an album and tour in 2002. His debut solo studio album, CMFT, was released on October 2, 2020, by Roadrunner Records. He has worked with several bands, including Junk Beer Kidnap Band, Korn, Disturbed, Apocalyptica, Code Orange, Anthrax, Steel Panther, Falling in Reverse, and Soulfly.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Pop_Evil', 'artist_name': 'Pop Evil', 'wiki': 'http://en.wikipedia.org/wiki/Pop_Evil', 'hometown': 'http://dbpedia.org/resource/Muskegon,_Michigan', 'start_year': '2001', 'abstract': 'Pop Evil is an American rock band that was formed in North Muskegon, Michigan, in 2001 by Leigh Kakaty. The band\'s roots reside in TenFive, a group formed in the late-1990s by Kakaty and guitarist Jason Reed. Pop Evil won the Radio Contraband Rock Radio Award for "Song of the Year" for "Trenches" in 2013.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fever_333', 'artist_name': 'Fever 333', 'wiki': 'http://en.wikipedia.org/wiki/Fever_333', 'hometown': 'http://dbpedia.org/resource/Inglewood,_California', 'start_year': '2017', 'abstract': "Fever 333 or the Fever 333 (both stylized in all caps) is an American rock band formed in Inglewood, California, United States, in July 2017. The three-piece band consists of former Letlive vocalist Jason Aalon Butler, former the Chariot guitarist Stephen Harrison and Night Verses drummer Aric Improta. The band's debut extended play (EP), Made an America, was released on March 23, 2018. The group is signed to Roadrunner Records and 333 Wreckords. Their first LP Strength in Numb333rs was released a year later and its second EP Wrong Generation was released in 2020."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Otep', 'artist_name': 'Otep', 'wiki': 'http://en.wikipedia.org/wiki/Otep', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2000', 'abstract': 'Otep is an American heavy metal band from Los Angeles, California, formed in 2000. They have released two EPs, eight studio albums, and one live album. As of December 2013, they are no longer under their previous label Victory Records and currently are signed with Napalm Records.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Tesseract_(band)', 'artist_name': 'TesseracT', 'wiki': 'http://en.wikipedia.org/wiki/Tesseract_(band)', 'hometown': 'http://dbpedia.org/resource/Milton_Keynes', 'start_year': '2003', 'abstract': 'Tesseract (often stylized as TesseracT) are an English progressive metal band from Milton Keynes. The band, formed in 2003, consists of Daniel Tompkins (lead vocals), Alec "Acle" Kahney (lead guitar and producer), James Monteith (rhythm guitar), Amos Williams (bass, backing vocals) and Jay Postones (drums, percussion). The band is currently signed to Kscope. They are credited as one of the bands to pioneer the djent movement in progressive metal. As of 2018, Tesseract have released four studio albums: One, Altered State, Polaris and Sonder, as well as a live album, Odyssey/Scala, and the extended plays Concealing Fate, Perspective and Errai.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Textures_(band)', 'artist_name': 'Textures', 'wiki': 'http://en.wikipedia.org/wiki/Textures_(band)', 'hometown': 'http://dbpedia.org/resource/Tilburg', 'start_year': '2001', 'end_year': '2017', 'abstract': 'Textures were a Dutch progressive metalcore band, formed in 2001. Textures\' lineup revolved around founding members Jochem Jacobs, Stef Broks, Bart Hennephof, and bassist Remko Tielemans who joined in 2007. Since 2010, vocalist Daniël de Jongh and keyboardist Uri Dijk have been with the band. Textures first came to the spotlight with their debut album Polars with Listenable Records which won an Essent Award for "Most Promising Act" in 2004. Since then, the band released 2 more albums with Listenable Records, 2006\'s Drawing Circles and 2008\'s Silhouettes after signing to Nuclear Blast records.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Toothgrinder', 'artist_name': 'Toothgrinder', 'wiki': 'http://en.wikipedia.org/wiki/Toothgrinder', 'hometown': 'http://dbpedia.org/resource/Asbury_Park,_New_Jersey', 'start_year': '2010', 'abstract': 'Toothgrinder is an American progressive metal band from Asbury Park, New Jersey.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Machine_Head_(band)', 'artist_name': 'Machine Head', 'wiki': 'http://en.wikipedia.org/wiki/Machine_Head_(band)', 'hometown': 'http://dbpedia.org/resource/Oakland,_California', 'start_year': '1991', 'abstract': 'Machine Head is an American heavy metal band from Oakland, California. The band was formed in 1991 by vocalist/guitarist Robb Flynn, who remains the only original member of the band. Machine Head\'s aggressive musicianship made it one of the pioneering bands in the new wave of American heavy metal. Its current lineup comprises Flynn, bassist Jared MacEachern, guitarist Wacław Kiełtyka and drummer Matt Alston. Bassist Adam Duce, guitarists Logan Mader, Ahrue Luster and Phil Demmel, and drummers Tony Costanza, Chris Kontos and Dave McClain are former members of the band; Mader and Kontos toured with the band in 2019 and 2020 as part of the 25th anniversary tour for its first album, Burn My Eyes (1994). Machine Head\'s first four albums earned the band a growing fan base in Europe, however the band would not have success in the United States until later releases. The band drew controversy with its fourth album, Supercharger (2001), which was released three weeks after the September 11 attacks; its only single, "Crashing Around You", and its music video (which featured burning buildings) was pulled from all media outlets. The band nearly disbanded in 2002 after negotiating off its label Roadrunner Records as a result of the controversy, however the band would eventually re-sign with the label. Having experimented with elements of groove metal and nu metal in its early releases, Machine Head changed to a more traditional thrash metal sound and longer songs with its sixth album, The Blackening (2007), which drew critical acclaim and was chosen as Album of the Decade by Metal Hammer in 2010; the album\'s first single, "Aesthetics of Hate", also earned the band a Grammy Award nomination. The band achieved similar success with its following two albums, Unto the Locust (2011) and Bloodstone &amp; Diamonds (2014), before returning to its nu metal roots with the band\'s ninth album, Catharsis (2018). Machine Head has released nine studio albums, two live albums, one video album, 13 singles and 15 music videos. Four of the band\'s studio albums have been certified silver in the United Kingdom, and the band\'s highest peak on the Billboard 200 came with Bloodstone &amp; Diamonds at number 21. As of 2013, the band has sold over three million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/After_the_Burial', 'artist_name': 'After the Burial', 'wiki': 'http://en.wikipedia.org/wiki/After_the_Burial', 'hometown': 'http://dbpedia.org/resource/Minnesota', 'start_year': '2004', 'abstract': 'After the Burial is an American progressive metal band from Minneapolis, Minnesota. They are currently signed to Sumerian Records and have released five of their six full-length albums through the label. Since their inception in 2004, the band has gone through two vocalist changes, two drummer changes, the departure and death of founding rhythm guitarist Justin Lowe, and the departure of bassist Lerichard Foral. Lead guitarist Trent Hafdahl remains the sole remaining founding member. They are considered key contributors to the development of subgenres such as djent and progressive metalcore.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Amon_Amarth', 'artist_name': 'Amon Amarth', 'wiki': 'http://en.wikipedia.org/wiki/Amon_Amarth', 'hometown': 'http://dbpedia.org/resource/Stockholm_County', 'start_year': '1992', 'abstract': 'Amon Amarth (/əˈmɒn əˈmɑːrθ/) is a Swedish melodic death metal band from Tumba, formed in 1992. The band takes its name from the Sindarin name of Mount Doom, a volcano in J. R. R. Tolkien′s Middle-earth. Their lyrics mostly deal with Viking mythology and history, and so they have been sometimes erroneously labeled “Viking metal,” although the band insists they play melodic death metal. The band is composed of lead guitarist Olavi Mikkonen, vocalist Johan Hegg, bassist Ted Lundström, rhythm guitarist Johan Söderberg, and drummer Jocke Wallgren. Amon Amarth has released eleven studio albums, one compilation album, one EP, one video album, and ten music videos. Their first studio album, Once Sent from the Golden Hall, debuted in 1998. Five more studio releases followed, before the band saw its breakthrough with the 2008 album Twilight of the Thunder God, which debuted at No. 10 on the Swedish album charts and No. 50 on the US Billboard 200. Four more albums, Surtur Rising, Deceiver of the Gods, Jomsviking, and Berserker followed in 2011, 2013, 2016, and 2019 respectively.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Avatar_(band)', 'artist_name': 'Avatar', 'wiki': 'http://en.wikipedia.org/wiki/Avatar_(band)', 'hometown': 'http://dbpedia.org/resource/Gothenburg', 'start_year': '2001', 'abstract': 'Avatar is a Swedish heavy metal band, formed in Gothenburg in 2001. The band has released eight studio albums, the most recent being Hunter Gatherer in 2020. The band has had some success on US rock radio, notably with their song "New Land", which peaked at number 20 on the Billboard Mainstream Rock Songs chart in May 2017.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Within_the_Ruins', 'artist_name': 'Within the Ruins', 'wiki': 'http://en.wikipedia.org/wiki/Within_the_Ruins', 'hometown': 'http://dbpedia.org/resource/Westfield,_Massachusetts', 'start_year': '2003', 'abstract': 'Within the Ruins is an American progressive metalcore/deathcore band from Westfield, Massachusetts, United States. They are currently signed to eOne Music and Good Fight Music. The group has released six studio albums and three EPs.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Atreyu', 'artist_name': 'Atreyu', 'wiki': 'http://en.wikipedia.org/wiki/Atreyu', 'hometown': 'http://dbpedia.org/resource/Yorba_Linda,_California', 'start_year': '1998', 'end_year': '2011', 'abstract': 'Atreyu is an American metalcore band from Yorba Linda, California, formed in 1998. The band currently consists of clean vocalist Brandon Saller, guitarists Dan Jacobs and Travis Miguel, bassist and unclean vocalist Marc "Porter" McKnight, and drummer Kyle Rosa. The band have released eight studio albums: Suicide Notes and Butterfly Kisses (2002), The Curse (2004), A Death-Grip on Yesterday (2006), Lead Sails Paper Anchor (2007), Congregation of the Damned (2009), Long Live (2015), In Our Wake (2018) and Baptize (2021).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Thrice', 'artist_name': 'Thrice', 'wiki': 'http://en.wikipedia.org/wiki/Thrice', 'hometown': 'http://dbpedia.org/resource/Irvine,_California', 'start_year': '1999', 'end_year': '2012', 'abstract': "Thrice is an American rock band from Irvine, California, formed in 1998. The group was founded by guitarist/vocalist Dustin Kensrue and lead guitarist Teppei Teranishi while they were in high school. Early in their career, the band was known for fast, hard music based in heavily distorted guitars, prominent lead guitar lines, and frequent changes in complex time signatures. This style is exemplified on their second album, The Illusion of Safety (2002) and their third album The Artist in the Ambulance (2003). Their fourth album Vheissu (2005) made significant changes by incorporating electronic beats, keyboards, and a more experimental sound. In 2007 and 2008, Thrice released The Alchemy Index, consisting of two studio albums that together make a four-part, 24-song cycle. Each of the four six-song EPs of the Alchemy Index features significantly different styles, based on different aspects of the band's musical esthetic which reflect the elemental themes of fire, water, air and earth, both lyrically and musically. The band's seventh album, Beggars, was released on August 11, 2009, and their eighth, Major/Minor on September 20, 2011. The most recent albums feature a refined combination of the band's different experiments and explorations. In 2011, Thrice announced a final tour and an imminent hiatus. Kensrue and Teranishi decided to reform the band in 2015 after attending a Brand New concert. In 2016, Thrice released their first post-reunion album, To Be Everywhere Is to Be Nowhere. The band's tenth album, Palms, was released in 2018. Their eleventh studio album Horizons/East was released in September 2021. Each album released by Thrice has had a portion of its sales proceeds donated to a new charitable organization."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Righteous_Vendetta', 'artist_name': 'Righteous Vendetta', 'wiki': 'http://en.wikipedia.org/wiki/Righteous_Vendetta', 'hometown': 'http://dbpedia.org/resource/Cody,_Wyoming', 'start_year': '2008', 'abstract': 'Righteous Vendetta is an American metalcore band that originated in Cody, Wyoming.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Wage_War', 'artist_name': 'Wage War', 'wiki': 'http://en.wikipedia.org/wiki/Wage_War', 'hometown': 'http://dbpedia.org/resource/Ocala,_Florida', 'start_year': '2010', 'abstract': 'Wage War is an American metalcore band formed in Ocala, Florida in 2010 under the name Empires. The band consists of lead vocalist Briton Bond, lead guitarist Seth Blake, rhythm guitarist and clean vocalist Cody Quistad, bassist Chris Gaylord, and drummer Stephen Kluesener. The band has released four studio albums and one EP. The band self-released one EP, The Fall of Kings in 2011. In 2015, the band signed to Fearless Records. The band released their first studio album, Blueprints, on November 27, 2015. Their second studio album Deadweight was released on August 4, 2017. Their third studio album, Pressure, was released on August 30, 2019. Their fourth studio album, Manic, was released on October 1, 2021.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bad_Wolves', 'artist_name': 'Bad Wolves', 'wiki': 'http://en.wikipedia.org/wiki/Bad_Wolves', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2017', 'abstract': 'Bad Wolves is an American heavy metal band formed in 2017. Initially finding fame from their first single, a cover of the Cranberries\' 1994 hit "Zombie", the band proceeded to find further success with a number of songs topping the Billboard Mainstream Rock songs chart, including "Remember When", "Killing Me Slowly", and "Sober". To date, the band has released three studio albums, Disobey (2018), N.A.T.I.O.N. (2019) and Dear Monsters (2021). In January 2021, Vext left the band and was replaced by Daniel "DL" Lasckiewicz. Tensions ensued between Vext and the band, resulting in legal proceedings including Better Noise Music.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sabaton_(band)', 'artist_name': 'Sabaton', 'wiki': 'http://en.wikipedia.org/wiki/Sabaton_(band)', 'hometown': 'http://dbpedia.org/resource/Falun', 'start_year': '1999', 'abstract': 'Sabaton (Swedish: [ˈsɑ̂ːbaˌtɔn]) is a Swedish heavy metal band from Falun. Most of their nine albums are written about war. Their latest album The Great War (2019) reached number 1 on Swedish and German music charts.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Behemoth_(band)', 'artist_name': 'Behemoth', 'wiki': 'http://en.wikipedia.org/wiki/Behemoth_(band)', 'hometown': 'http://dbpedia.org/resource/Gdańsk', 'start_year': '1991', 'abstract': 'Behemoth is a Polish extreme metal band from Gdańsk, formed in 1991. They are considered to have played an important role in establishing the Polish extreme metal underground. Until the late 1990s, the band played a traditional black metal style with heathen lyrical content, but soon changed to that of occult and thelemic themes written by their lead vocalist Nergal and Krzysztof Azarewicz. With the 1999 release of Satanica, the band demonstrated their presence in the death metal scene, while retaining their own signature style characterized by the drum work of Inferno and multi-layered vocals. Despite Behemoth having been labeled as death metal or thrash metal-influenced, Nergal has mentioned that he does not like the band to be labeled.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Dream_Evil', 'artist_name': 'Dream Evil', 'wiki': 'http://en.wikipedia.org/wiki/Dream_Evil', 'hometown': 'http://dbpedia.org/resource/Gothenburg', 'start_year': '1999', 'abstract': 'Dream Evil is a Swedish heavy metal band, assembled by producer Fredrik Nordström in 1999.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Uisce_Beatha_(band)', 'artist_name': 'Red', 'wiki': 'http://en.wikipedia.org/wiki/Uisce_Beatha_(band)', 'hometown': 'http://dbpedia.org/resource/London,_Ontario', 'start_year': '1990', 'end_year': '1990', 'abstract': 'Uisce Beatha was a 1990s Canadian folk rock band based initially in London, Ontario and after 1993 in Halifax, Nova Scotia. The band took its name from the Irish name for whisky, meaning water of life. Their music ranged from Celtic to punk.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Whitechapel_(band)', 'artist_name': 'Whitechapel', 'wiki': 'http://en.wikipedia.org/wiki/Whitechapel_(band)', 'hometown': 'http://dbpedia.org/resource/Knoxville,_Tennessee', 'start_year': '2006', 'abstract': "Whitechapel is an American deathcore band from Knoxville, Tennessee. The band is named after the Whitechapel district in East London, England, where Jack the Ripper committed a series of murders. The group comprises vocalist Phil Bozeman, guitarists Ben Savage, Alex Wade, and Zach Householder, drummer Alex Rüdinger and bassist Gabe Crisp. Founded in 2006 by Bozeman and Savage, the band has released seven studio albums and fourteen music videos, and are currently signed to Metal Blade Records. Whitechapel's 2010 album A New Era of Corruption, sold around 10,600 copies in the United States in its first week of release and debuted at position No. 43 on the Billboard 200 chart. The band's self-titled fourth album was released in 2012 and debuted at No. 47 on the Billboard 200, selling roughly 9,200 copies in its first week. In 2014 the band released their fifth full-length album, Our Endless War to generally positive reviews. The album sold roughly 16,000 copies in its first week and debuted at No. 10 on the Billboard 200. They released their sixth full-length album Mark of the Blade in 2016 to greater critical acclaim, selling roughly 8,000 copies in the first week of its release. In 2019, Whitechapel released their seventh album, The Valley, which debuted at No. 143 on the Billboard 200 also to critical acclaim. Their newest album, Kin, was released on October 29, 2021."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Heaven_Shall_Burn', 'artist_name': 'Heaven Shall Burn', 'wiki': 'http://en.wikipedia.org/wiki/Heaven_Shall_Burn', 'hometown': 'http://dbpedia.org/resource/Saalfeld', 'start_year': '1996', 'abstract': "Heaven Shall Burn are a German extreme metal band from Saalfeld, formed in 1996. The band consists of vocalist Marcus Bischoff, guitarists Maik Weichert and Alexander Dietz, bassist Eric Bischoff and drummer Christian Bass. They are currently signed to Century Media. They have released eight studio albums, as well as a number of other records. One of their albums, Veto, entered the German Album Charts at #2 in 2013, with their latest, Of Truth and Sacrifice, reaching number 1. Heaven Shall Burn's musical style has been described as metalcore, melodic death metal and deathcore. Their lyrics often express heavy support for anti-racism and anti-fascism. They also have lyrics about resistance, oppression and animal rights. All members are vegans or vegetarians and most follow or followed a straight edge lifestyle."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Soil_(British_band)', 'artist_name': 'Soil', 'wiki': 'http://en.wikipedia.org/wiki/Soil_(British_band)', 'hometown': 'http://dbpedia.org/resource/Manchester', 'start_year': '1984', 'end_year': '1987', 'abstract': 'Soil was a British indie pop group, formed in Manchester in 1984, by North Manchester school-friends, Kevin Siddall (songwriter/guitar), Lee Bennett (bass guitar) and Rob Kerford (drums), and University of Manchester student, Matthew Karas (songwriter/vocals/keyboards/harmonica). Kerford left the group, just before the first gig, and Matthew\'s neighbour, Ravi Low-Beer, stood in on drums. Low-Beer, Kerford and guitarist, Siddall, all played drums on the four song cassette, Too Ill to Close the Door, which was duplicated and distributed by the group, and reviewed in City Life and the Manchester Evening News. After auditioning a few drummers, Gary Farrell, from Stretford, joined the group. In this line-up, Soil supported The Smiths in Kilburn, on 23 October 1986, at Morrissey\'s invitation. This was the concert at which The Smiths\' live album, Rank, was recorded. Karas had given Morrissey a cassette during a chance encounter, and received a postcard shortly afterwards. In the same year, Soil played at venues around Manchester, and regularly appeared at The Boardwalk. They also supported Easterhouse on a short UK tour. Their only release was a flexi-single on the cover of Debris fanzine, edited by Dave Haslam. The track, "Front Room". was played on BBC Radio 1 by John Peel several times, as well as on the local radio stations, BBC Radio Manchester and Red Rose Radio. Karas and Kevin recorded three jingles for the BBC Radio Manchester show, Meltdown, which were played weekly for several months. Soon after the Smiths concert, both Farrell and Bennett left the group. Karas and Siddall played one concert with a backing tape, before recruiting bass guitarist, Phil Morris, and drummer, Ged O\'Brien, who played at their final performance at The Boardwalk in 1987. Karas and Siddall have written and recorded sporadically since 1987, but have not released anything or performed in public. They played a short set in 2013, at Karas\' 50th birthday party. Karas played bass guitar and harmonica with The Fallen Leaves from 2009 until 2021, and has been playing various instruments, writing and arranging with Glassglue since 2003.'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Des Moines, Iowa', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Des_Moines%2C_Iowa', 'place': 'http://sws.geonames.org/4853828/', 'postal_code': '50333', 'geo_link': 'http://www.geonames.org/4853828/des-moines.html', 'lat': '41.590833333333336', 'long': '-93.62083333333334', 'population': '203433'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Huntington Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dwyer_Middle_School', 'place': 'http://sws.geonames.org/5358705/', 'postal_code': '92648', 'geo_link': 'http://www.geonames.org/5346952/ethel-dwyer-middle-school.html', 'lat': '33.69277777777778', 'long': '-118.00027777777778', 'population': '189992'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Arlington, Texas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Arlington%2C_Texas', 'place': 'http://sws.geonames.org/4671240/', 'postal_code': '76015', 'geo_link': 'http://www.geonames.org/4671240/arlington.html', 'lat': '32.705', 'long': '-97.12277777777778', 'population': '365438'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/Coldplay', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1996', 'abstract': 'Coldplay are a British rock band formed in London in 1996. The band consists of vocalist, rhythm guitarist, and pianist Chris Martin; lead guitarist Jonny Buckland; bassist Guy Berryman; drummer Will Champion; and creative director Phil Harvey. They met at University College London and began playing music together from 1996 to 1998, first calling themselves Pectoralz and then Starfish. Coldplay released two EPs, Safety in 1998 and The Blue Room in 1999. The latter was their first release under a major record label, Parlophone. Coldplay achieved worldwide fame with the release of the song "Yellow" in 2000, followed in the same year by their debut album Parachutes, which was nominated for the Mercury Prize. The band\'s second album, A Rush of Blood to the Head (2002), was released to critical acclaim. Their next record, X&amp;Y, was the best-selling album worldwide of 2005; the Brian Eno-produced fourth studio album, Viva la Vida or Death and All His Friends (2008), was the best-selling album of that year and earned the band three Grammy Awards. In 2011, Coldplay released their fifth studio album, Mylo Xyloto, which topped the charts in over 34 countries and was the UK\'s best-selling rock album of 2011. The band have since released Ghost Stories (2014), A Head Full of Dreams (2015), Everyday Life (2019) and Music of the Spheres (2021). Coldplay have sold more than 100 million albums worldwide, making them one of the world\'s best-selling music artists. They have won numerous awards throughout their career, including nine Brit Awards, seven MTV Video Music Awards, eight MTV Europe Music Awards and seven Grammy Awards from 36 nominations. The band\'s first three albums — Parachutes (2000), A Rush of Blood to the Head (2002), and X&amp;Y (2005) — are among the best-selling albums in UK chart history. In December 2009, Rolling Stone readers voted the group the fourth-best artist of the 2000s and Q magazine included the group in their Artists of the Century list. Coldplay have supported various social and political causes, such as Oxfam\'s Make Trade Fair campaign and Amnesty International. They have also performed at charity projects, including Band Aid 20, Live 8, Global Citizen Festival, Sound Relief, Hope for Haiti Now: A Global Benefit for Earthquake Relief, One Love Manchester, The Secret Policeman\'s Ball, Sport Relief and the UK Teenage Cancer Trust.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Hooters', 'artist_name': 'The Hooters', 'wiki': 'http://en.wikipedia.org/wiki/The_Hooters', 'hometown': 'http://dbpedia.org/resource/Philadelphia', 'start_year': '1980', 'abstract': 'The Hooters are an American rock band from Philadelphia, Pennsylvania, United States. They combine elements of rock, reggae, ska, and folk music to create their sound. The Hooters first gained major commercial success in the United States in the mid-1980s due to heavy radio airplay and MTV rotation of several songs including "All You Zombies", "Day by Day", "And We Danced" and "Where Do the Children Go". They opened the Philadelphia portion of the Live Aid benefit concert in 1985. In Europe, they had success with the singles "All You Zombies" and "Johnny B" but their breakthrough across Europe came with the single "Satellite". During the late 1980s and 1990s, The Hooters found significant commercial success internationally, especially in Europe, where they played at The Wall Concert in Berlin in 1990. The Hooters have staged successful tours in Europe and 2007 saw the release of their first album of new material since 1993, Time Stand Still. Their most recent release was Give the Music Back: Live Double Album, released in 2017.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Knack', 'artist_name': 'The Knack', 'wiki': 'http://en.wikipedia.org/wiki/The_Knack', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1996', 'end_year': '2010', 'abstract': 'The Knack was an American rock band based in Los Angeles that rose to fame with its first single, "My Sharona", an international number-one hit in 1979.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/DNCE', 'artist_name': 'DNCE', 'wiki': 'http://en.wikipedia.org/wiki/DNCE', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2015', 'end_year': '2019', 'abstract': 'DNCE was an American dance-rock group. The group consists of vocalist Joe Jonas, drummer Jack Lawless, bassist and keyboardist Cole Whittle, and guitarist JinJoo Lee. The group signed with Republic Records, who released their debut single, "Cake by the Ocean", in September 2015. The song reached the top 10 on several charts, including on the US Billboard Hot 100, where it peaked at No. 9. Their debut extended play, Swaay, was released about a month later. Their self-titled debut studio album was released in November 2016. They were also nominated for Favorite New Artist for the 2016 Kids\' Choice Awards and Best Song to Lip Sync and Best Anthem for the 2016 Radio Disney Music Awards. The group performed at the 2017 Fashion Meets Music Festival. Following the reunion of the Jonas Brothers in 2019, the group has entered an indefinite hiatus.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/SALT_(quartet)', 'artist_name': 'SALT', 'wiki': 'http://en.wikipedia.org/wiki/SALT_(quartet)', 'hometown': 'http://dbpedia.org/resource/Huddinge_Municipality', 'start_year': '2000', 'abstract': 'SALT is a Swedish barbershop quartet that won the Sweet Adelines International competition Quartet Championship for 2007 in Las Vegas, Nevada in October 2006. Sweet Adelines, "one of the world\'s largest singing organizations for women", has members over five continents who belong to more than 1200 quartets. SALT\'s November 2008 feature performance in Anaheim, California was noted by the Vasa Order of America. At the time of winning the Sweet Adelines competition, SALT included tenor Anna Öhman, lead Annika Andersson; baritone Anna-Stina Gerdin, and bass Susanna Berndts. The quartet announced its retirement on Facebook in June 2012 "after singing together for 13 years".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Awolnation', 'artist_name': 'Awolnation', 'wiki': 'http://en.wikipedia.org/wiki/Awolnation', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2009', 'abstract': 'Awolnation (stylized in all caps) is an American rock band, formed and fronted by Aaron Bruno, formerly of Under the Influence of Giants, Home Town Hero, and Insurgence. The band is signed to Better Noise Music, formerly being signed to Red Bull Records, and their first EP, Back from Earth, was released on iTunes on May 18, 2010. They released their first studio album, Megalithic Symphony, on March 15, 2011; it featured their most notable hit, "Sail", which peaked at number 17 on the Billboard Hot 100, number 4 on the Billboard Rock Songs chart, and number 5 on the Billboard Alternative Songs chart. The song has been certified 6× platinum by the RIAA and has sold 6,000,000 copies in the United States. As of February 29, 2016, the album has been certified platinum. The band\'s second studio album, Run, was released on March 17, 2015. The band\'s third studio album, Here Come the Runts, was released on February 2, 2018. Their fourth studio album, Angel Miners &amp; the Lightning Riders, was released on April 24, 2020.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Hayley_Williams', 'artist_name': 'Hayley Williams', 'wiki': 'http://en.wikipedia.org/wiki/Hayley_Williams', 'birth_date': '27 December 1988', 'start_year': '2003', 'abstract': 'Hayley Nichole Williams (born December 27, 1988) is an American singer, songwriter, musician, and businesswoman who is best known as the lead vocalist, primary songwriter, and keyboardist of the rock band Paramore. Born and raised in Mississippi, Williams moved to Franklin, Tennessee, at the age of 13 just after her parents divorced in 2002. In 2004, she formed Paramore alongside Josh Farro, Zac Farro, and Jeremy Davis. The band currently consists of Hayley Williams, Zac Farro and Taylor York. The band has released five studio albums: All We Know Is Falling (2005), Riot! (2007), Brand New Eyes (2009), Paramore (2013), and After Laughter (2017). Williams released her debut solo single, "Simmer", on January 22, 2020, and announced on the same day that her debut studio album, Petals for Armor, would be released on May 8, 2020. The album was preceded by two EPs entitled Petals for Armor I and II that make up the first two-thirds of the album. Her second solo record, Flowers for Vases / Descansos, was released less than a year later on February 5, 2021. Aside from Paramore and preceding her solo career, Williams recorded the song "Teenagers" for the soundtrack of Jennifer\'s Body (2009) and has collaborated with artists such as October Fall, The Chariot, Set Your Goals, Zedd and New Found Glory. In 2010, she was featured on the single "Airplanes" by B.o.B. It peaked at number two on the U.S. Billboard Hot 100. A sequel to the song, "Airplanes, Part II", features new verses from B.o.B. and a verse from Eminem, while Williams\' vocals remain the same. This collaboration led to a Grammy nomination for Best Pop Collaboration with Vocals. Other ventures in which Williams has explored include online beauty and music series Kiss-Off on Popular TV launched in 2015 and the hair-dye company Good Dye Young, launched in 2016.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Soundgarden', 'artist_name': 'Soundgarden', 'wiki': 'http://en.wikipedia.org/wiki/Soundgarden', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '1984', 'end_year': '1997', 'abstract': 'Soundgarden was an American rock band formed in Seattle, Washington, in 1984 by singer and rhythm guitarist Chris Cornell, lead guitarist Kim Thayil (both of whom are the only members to appear in every incarnation of the band), and bassist Hiro Yamamoto. Matt Cameron became the band\'s full-time drummer in 1986, while bassist Ben Shepherd became a permanent replacement for Yamamoto in 1990. The band dissolved in 1997 and re-formed in 2010. Following Cornell\'s death in 2017 and a year of uncertainty of the band\'s future, Thayil declared in October 2018 that the band was finished; they did, however, reunite in January 2019 for a one-off concert in tribute to Cornell. Soundgarden are associated with grunge, a style of alternative rock that developed in Seattle. After releasing two EPs on the Seattle-based label Sub-Pop in 1987 and 1988, their debut album, Ultramega OK was released on the California-based independent label SST Records in 1989. Although the album did not sell well nationally, it gained critical acclaim and was nominated for a Grammy award in 1990. They recorded their second album, Louder Than Love, independently but had signed with major label A&amp;M Records in the interim, and released the album as their major label debut. Unlike their debut, which had failed to chart, Louder Than Love peaked at number 108 on the Billboard 200 album chart. Released the same day as fellow Seattle grunge act Nirvana\'s album Nevermind, their third album Badmotorfinger would bring Soundgarden to national acclaim for the first time, buoyed by the popularity of the singles "Jesus Christ Pose", "Outshined", and "Rusty Cage", the album would reach number 39 on the Billboard 200 and has been certified double-platinum by the RIAA. Soundgarden was one of the seminal creators of grunge, a style of alternative rock that developed in Seattle, and was the first of a number of grunge bands to sign to the record label Sub Pop. Soundgarden was also one of the first grunge bands to sign to a major label (A&amp;M Records in 1989), though they did not achieve commercial success until they popularized the genre in the early 1990s with Seattle contemporaries Alice in Chains, Pearl Jam, and Nirvana. Soundgarden achieved its biggest success with the 1994 album Superunknown, which debuted at number one on the Billboard 200 and yielded the Grammy Award-winning singles "Spoonman" and "Black Hole Sun". In 1996, the band experimented with new sonic textures on their follow-up album Down on the Upside, which debuted at number 2 on the Billboard 200 and spawned several hit singles of its own, including "Burden in My Hand" and "Blow Up the Outside World". In 1997, the band broke up due to internal strife over its creative direction and exhaustion from touring. After more than a decade of working on projects and other bands, Soundgarden reunited in 2010, and Republic Records released their sixth and final studio album, King Animal, two years later. As of 2019, Soundgarden sold more than 14 million records in the United States, and an estimated 30 million worldwide. VH1 ranked Soundgarden at number 14 in their special 100 Greatest Artists of Hard Rock.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Scorpions_(band)', 'artist_name': 'Scorpions', 'wiki': 'http://en.wikipedia.org/wiki/Scorpions_(band)', 'hometown': 'http://dbpedia.org/resource/Hanover', 'start_year': '1965', 'abstract': 'Scorpions are a German rock band formed in 1965 in Hanover by Rudolf Schenker. Since the band\'s inception, its musical style has ranged from hard rock, heavy metal, glam metal, and soft rock. The lineup from 1978 to 1992 was the most successful incarnation of the group, and included Klaus Meine (vocals), Rudolf Schenker (rhythm guitar), Matthias Jabs (lead guitar), Francis Buchholz (bass), and Herman Rarebell (drums). The band\'s only continuous member has been Schenker, although Meine has appeared on all of Scorpions\' studio albums, while Jabs has been a consistent member since 1978, and bassist Paweł Mąciwoda and drummer Mikkey Dee have been in the band since 2003 and 2016 respectively. During the mid-1970s, with guitarist Uli Jon Roth (who replaced Schenker\'s younger brother Michael) part of the line-up, the music of the Scorpions was defined as hard rock. After Roth\'s departure in 1978, Schenker and Meine managed to take control of the group, giving them almost all the power to compose music and write lyrics. Matthias Jabs joined in 1978, and with the melodic rock he played and the influence of producer Dieter Dierks in the band, the Scorpions changed their sound to melodic heavy metal mixed with lyrical "power rock ballads", which is evident in the album Lovedrive (1979), which began the evolution of the band\'s sound, developed later in several of their albums. Over the next decade, the band achieved influence, approval from music critics, and significant commercial success with the albums Animal Magnetism (1980), Blackout (1982), Love at First Sting (1984), the live recording World Wide Live (1985), Savage Amusement (1988), their best-selling compilation Best of Rockers \'n\' Ballads (1989), and Crazy World (1990), all awarded at least one platinum award in the United States. The band has released twelve consecutive studio albums that were in the top 10 in Germany, one of which reached No. 1, as well as three consecutive albums that were in the top 10 in the Billboard 200 in the United States. Scorpions are estimated to have sold over 100 million records around the world, making them one of the best-selling hard rock and heavy metal bands. One of their most recognized hits is "Wind of Change" (from Crazy World), a symbolic anthem of the political changes in Eastern Europe in the late 1980s and early 1990s and the fall of the Berlin Wall, and it remains as one of the best-selling singles in the world with over 14 million copies. Two of the songs on their ninth studio album Love at First Sting, "Rock You Like a Hurricane" and "Still Loving You", are some of the most influential and popular works, both in heavy metal music and among rock ballads, defined as "rock anthem" and "a true hymn of love".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/A_(band)', 'artist_name': 'A', 'wiki': 'http://en.wikipedia.org/wiki/A_(band)', 'hometown': 'http://dbpedia.org/resource/Suffolk', 'start_year': '2008', 'abstract': 'A are a British alternative rock band from Suffolk, England, which formed in 1993. They have released four albums and two live mini-albums, and had a top ten hit with "Nothing" in 2002. Shortly after releasing their fourth album, Teen Dance Ordinance, in 2005, the band briefly split. In 2007 A reunited for a one-off gig, and have been touring sporadically ever since, most recently playing the main stage at Download Pilot on June 19th 2021. They have not released any further albums since 2005.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Caesars_(band)', 'artist_name': 'Caesars', 'wiki': 'http://en.wikipedia.org/wiki/Caesars_(band)', 'abstract': 'Caesars are a Swedish indie rock band from Stockholm, formed in 1995. In their native country, the band was originally known as Caesars Palace, a name which was changed to avoid conflicting with the name of the Las Vegas hotel. In the rest of Scandinavia they are known as Twelve Caesars.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Fine_Young_Cannibals', 'artist_name': 'Fine Young Cannibals', 'wiki': 'http://en.wikipedia.org/wiki/Fine_Young_Cannibals', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'start_year': '1984', 'end_year': '1992', 'abstract': 'Fine Young Cannibals (FYC) were a British pop rock band formed in Birmingham, England, in 1984, by bassist David Steele, guitarist Andy Cox (both formerly of The Beat), and singer Roland Gift (formerly of the Akrylykz). Their self-titled 1985 debut album contained "Johnny Come Home" and a cover of "Suspicious Minds", two songs that were top 40 hits in the UK, Canada, Australia and many European countries. Their 1989 album, The Raw &amp; the Cooked, topped the UK and US album charts, and contained their two Billboard Hot 100 number ones: "She Drives Me Crazy" and "Good Thing". In 1990, the band won two Brit Awards: Best British Group, and Best British Album (for The Raw &amp; the Cooked). Their name came from the 1960 film All the Fine Young Cannibals starring Robert Wagner and Natalie Wood.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Wet_Wet_Wet', 'artist_name': 'Wet Wet Wet', 'wiki': 'http://en.wikipedia.org/wiki/Wet_Wet_Wet', 'hometown': 'http://dbpedia.org/resource/Clydebank', 'start_year': '1982', 'end_year': '1997', 'abstract': 'Wet Wet Wet are a Scottish soft rock band formed in 1982. They scored a number of hits in the UK charts and around the world in the 1980s and 1990s. The band is composed of Graeme Clark (bass, vocals), Tommy Cunningham (drums, vocals), Neil Mitchell (keyboards, piano, vocals) and, since 2018, lead vocalist and former Liberty X singer Kevin Simm, who replaced founding member Marti Pellow after he left during the previous year. A fifth, unofficial member, Graeme Duffin (lead guitar, vocals), has been with them since 1983. The band were named Best British Newcomer at the 1988 Brit Awards. They are best known for their 1994 cover of The Troggs\' 1960s hit "Love Is All Around", which was used on the soundtrack to the film Four Weddings and a Funeral. It was a huge international success and spent 15 weeks atop the British charts. One week before potentially equalling the record for the most consecutive weeks at number 1 on the UK singles chart, held by Bryan Adams\' "(Everything I Do) I Do It for You", it dropped to number two.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Elvis_Presley', 'artist_name': 'Elvis Presley', 'wiki': 'http://en.wikipedia.org/wiki/Elvis_Presley', 'birth_date': '08 January 1935', 'death_date': '16 August 1977', 'abstract': 'Elvis Aaron Presley (January 8, 1935 – August 16, 1977) was an American singer and actor. Dubbed the "King of Rock and Roll", he is regarded as one of the most significant cultural icons of the 20th century. His energized interpretations of songs and sexually provocative performance style, combined with a singularly potent mix of influences across color lines during a transformative era in race relations, led him to both great success and initial controversy. Presley was born in Tupelo, Mississippi, and relocated to Memphis, Tennessee, with his family when he was 13 years old. His music career began there in 1954, recording at Sun Records with producer Sam Phillips, who wanted to bring the sound of African-American music to a wider audience. Presley, on rhythm acoustic guitar, and accompanied by lead guitarist Scotty Moore and bassist Bill Black, was a pioneer of rockabilly, an uptempo, backbeat-driven fusion of country music and rhythm and blues. In 1955, drummer D. J. Fontana joined to complete the lineup of Presley\'s classic quartet and RCA Victor acquired his contract in a deal arranged by Colonel Tom Parker, who would manage him for more than two decades. Presley\'s first RCA Victor single, "Heartbreak Hotel", was released in January 1956 and became a number-one hit in the United States. Within a year, RCA would sell ten million Presley singles. With a series of successful network television appearances and chart-topping records, Presley became the leading figure of the newly popular sound of rock and roll. In November 1956, Presley made his film debut in Love Me Tender. Drafted into military service in 1958, Presley relaunched his recording career two years later with some of his most commercially successful work. He held few concerts, however, and guided by Parker, proceeded to devote much of the 1960s to making Hollywood films and soundtrack albums, most of them critically derided. In 1968, following a seven-year break from live performances, he returned to the stage in the acclaimed television comeback special Elvis, which led to an extended Las Vegas concert residency and a string of highly profitable tours. In 1973, Presley gave the first concert by a solo artist to be broadcast around the world, Aloha from Hawaii. Years of prescription drug abuse and unhealthy eating habits severely compromised his health, and he died suddenly in 1977 at his Graceland estate at the age of 42. Having sold over 500 million records worldwide, Presley is recognized as the best-selling solo music artist of all time by Guinness World Records. He was commercially successful in many genres, including pop, country, R&amp;B, adult contemporary, and gospel. Presley won three Grammy Awards, received the Grammy Lifetime Achievement Award at age 36, and has been inducted into multiple music halls of fame. He holds several records, including the most RIAA certified gold and platinum albums, the most albums charted on the Billboard 200, the most number-one albums by a solo artist on the UK Albums Chart, and the most number-one singles by any act on the UK Singles Chart. In 2018, Presley was posthumously awarded the Presidential Medal of Freedom by Donald Trump.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Duran_Duran', 'artist_name': 'Duran Duran', 'wiki': 'http://en.wikipedia.org/wiki/Duran_Duran', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'start_year': '1978', 'abstract': 'Duran Duran (/djʊˌræn djʊˈræn/) are an English new wave band formed in Birmingham in 1978. The group was a leading band in the MTV-driven Second British Invasion of the US in the 1980s. The group was formed by keyboardist Nick Rhodes and bassist John Taylor, with the later addition of drummer Roger Taylor, and after numerous personnel changes, guitarist Andy Taylor (none of the Taylors are related) and lead singer Simon Le Bon. These five members featured in the most commercially successful line-up. When Duran Duran emerged they were generally considered part of the New Romantic scene, along with bands such as Spandau Ballet and Visage. The video age catapulted Duran Duran into the mainstream with the introduction of the 24-hour music channel MTV. Many of their videos were shot on 35 mm film, which gave a much more polished look than was standard at the time. They also collaborated with professional film directors to take the quality a step further, often teaming up with Australian director Russell Mulcahy for some of their most memorable video offerings. In 1984, the band was an early innovator with video technology in its live stadium shows. The band was one of the most successful acts of the 1980s, though by the end of the decade, membership and music style changes challenged the band before a resurgence in the early 1990s. After a couple of minor singles, the band\'s first major hit was "Girls on Film" (1981), from their self-titled debut album, the popularity of which was enhanced by a controversial music video, which in heavily edited form, played in rotation on MTV. The band\'s breakthrough album was Rio (1982), their second album, which peaked at number six on the Billboard 200 album chart in the US, number two in the United Kingdom, and number one in Australia and Canada. The songs "Rio" and "Hungry Like the Wolf", which featured cinematic music videos, became two of their biggest hits, with the latter winning the inaugural Grammy Award for Best Music Video in 1984. Their follow-up third album Seven and the Ragged Tiger became their only UK number one album; it also reached top ten status in the US, Canada, Australia, and several other countries, and featured the US and UK number one single "The Reflex". In 1985, the band topped the US charts with the single "A View to a Kill" from the soundtrack of the film of the same name. Andy Taylor and Roger Taylor both left before the recording of the band\'s fourth album, 1986\'s Notorious, which was produced by Nile Rogers and featured the top ten single, also named "Notorious". The band spent the rest of the 1980s and early 1990s continuing to release albums and singles, to only moderate success. Their comeback album, 1993\'s Duran Duran (commonly called The Wedding Album) returned the band to their former superstar status, featuring two top-ten worldwide hits "Ordinary World" and "Come Undone". A 1995 album of cover songs, Thank You, produced a minor hit in the critically acclaimed cover of Lou Reed\'s "Perfect Day", but was otherwise critically panned. After John Taylor left in 1997, the band released a number of albums and singles which (compared to prior releases) underperformed on the sales charts. A full reunion of the original lineup of LeBon, Rhodes, and all three Taylors in 2001 led to a number of highly successful concert tours and the 2004 album Astronaut, which reached number 3 in the UK and top 40 in numerous other countries. The album\'s lead single "(Reach Up for The) Sunrise" was an international dance hit, and reached number five in the UK. Andy Taylor left again in 2006, and the band has released four additional albums, with the most recent being Future Past in October, 2021. Duran Duran has sold over 100 million records, making them one of the world\'s best-selling music artists. They achieved 30 top 40 singles in the U.K., 14 singles in the top 10 of the UK Singles Chart and 21 in the US Billboard Hot 100. The band have won numerous awards throughout their career: two Brit Awards including the 2004 award for Outstanding Contribution to Music, two Grammy Awards, an MTV Video Music Award for Lifetime Achievement, and a Video Visionary Award from the MTV Europe Music Awards. They were also awarded a star on the Hollywood Walk of Fame.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Iggy_Azalea', 'artist_name': 'Iggy Azalea', 'wiki': 'http://en.wikipedia.org/wiki/Iggy_Azalea', 'birth_date': '07 June 1990', 'start_year': '2011', 'abstract': 'Amethyst Amelia Kelly (born 7 June 1990), known professionally as Iggy Azalea (/əˈzeɪliə/), is an Australian rapper. At the age of 16, Azalea moved from Australia to the United States in order to pursue a career in music. Azalea earned public recognition after releasing the music videos for her songs "Pussy" and "Two Times" on YouTube, both of which gained rapid popularity. Azalea signed a recording contract with American rapper T.I.\'s label Grand Hustle shortly afterward and released her debut mixtape, Ignorant Art (2011). Azalea\'s debut studio album, The New Classic (2014), peaked among the top five on several charts worldwide, but received mixed reviews from within the industry. The album eventually topped the Billboard Top R&amp;B/Hip-Hop Albums, making Azalea the first non-American female rapper to reach the top of the chart. The New Classic was preceded by Azalea\'s debut single "Work" and chart-topping single "Fancy", which hit the U.S. Billboard Hot 100. Azalea was featured on Ariana Grande\'s single "Problem", which peaked at number two behind "Fancy". With these hits, Azalea joined the ranks of The Beatles as the only act to rank at number one and two simultaneously with their first two Hot 100 entries. In addition, she achieved three top ten hits simultaneously on the Hot 100 with the aforementioned songs and the album\'s fifth single, "Black Widow", which debuted later that year. After her debut album, Azalea released a slew of singles to build anticipation for her intended second album, Digital Distortion. However, a series of conflicts with her label, as well as personal conflicts, resulted in the project being cancelled. Consequently, Azalea switched labels, releasing the EP Survive the Summer (2018) under Island Records. Further disagreements led to Azalea becoming an independent artist and creating her own label, Bad Dreams, through a distribution deal with Empire. Her second album, In My Defense, was released in 2019, followed by another EP, Wicked Lips, that same year. Before taking a hiatus from music, Azalea released her third and final studio album, The End of an Era, in August 2021. Since her debut, Azalea has sold 70 million records worldwide, with 22 million singles in the United States alone. Azalea\'s accolades include two American Music Awards, three Billboard Music Awards, an MTV Video Music Award, a People\'s Choice Award, four Teen Choice Awards and four Grammy Award nominations. Azalea\'s official YouTube channel has accumulated 3.4 billion views, with 15 music videos receiving over 100 million views on Vevo.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Erasure', 'artist_name': 'Erasure', 'wiki': 'http://en.wikipedia.org/wiki/Erasure', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1985', 'abstract': 'Erasure (/əˈreɪʒər/) are an English synthpop duo formed in London in 1985, consisting of singer and songwriter Andy Bell with songwriter, producer and keyboardist Vince Clarke, previously known as co-founder of the band Depeche Mode. From their fourth single, "Sometimes" (1986), Erasure established themselves on the UK Singles Chart, becoming one of the most successful artists of the mid-1980s to the mid-1990s. From 1986 to 2007, the duo achieved 24 consecutive top 40 hits in the UK. By 2009, 34 of their 37 chart-eligible singles and EPs had made the UK top 40, including 17 climbing into the top 10. At the 1989 Brit Awards, Erasure won the Brit Award for Best British Group. Beyond this mainstream commercial success, Erasure are also popular within the LGBT community for whom the openly gay singer Andy Bell has become an icon in the UK. Although their debut album, Wonderland (1986) did not perform well, their second album, The Circus (1987), reached number 6 and spawned four top 20 singles on the UK charts. Their third album, The Innocents (1988) was rendered a number one and was followed the same year by the Christmas EP Crackers International (1988) peaking at number 2. It set the scene as the first in a string of albums to place in the top spot, with their next five consecutive longform releases reaching the pole position of the UK Albums Chart: the albums Wild! (1989) and Chorus (1991), the ABBA tribute EP Abba-esque (1992), the compilation Pop! The First 20 Hits (1992), then the album I Say I Say I Say (1994). Erasure\'s best-known songs are mainly from albums of this period and include the hits "Oh L\'amour", "Sometimes", "Victim of Love", "Ship of Fools", "Chains of Love", "A Little Respect", "Stop!", "Drama!", "Blue Savannah", "Star", "Chorus", "Love to Hate You", "Breath of Life", "Take a Chance on Me" (an ABBA cover), "Always" and "Run to the Sun". From 1995 onwards, Erasure\'s commercial success began to fade with the atmospheric self-titled album Erasure (1995) which, despite being a critical success, confused its audience. The mixed reception of the following album, Cowboy (1997), confirmed a decline in Erasure\'s popularity until the album Loveboat (2000), which went almost unnoticed. In the mid-2000s, however, the duo managed to make a commercial comeback in some European countries and in the United States, notably thanks to their cover album Other People\'s Songs (2003), followed by the album Nightbird (2005) which won back the fans. This return to favour gave the band their last two hit singles: "Solsbury Hill" (2003) (a Peter Gabriel song) and "Breathe" (2005). In the late 2000s, Erasure began a new commercial decline with the acoustic album Union Street (2006) followed by Light at the End of the World (2007). During the 2010s, the band\'s new albums briefly charted, with Tomorrow\'s World (2011), the Christmas album Snow Globe (2013), The Violet Flame (2014), World Be Gone (2017) and, finally, The Neon (2020). Despite the singles from this decade not managing to reach the charts, however, a solid international fanbase enables Erasure to maintain its activity through touring and online sales, not to mention the royalties attached to the catalogue of their past hits. Achieving mainstream success at home in the UK, Erasure also has a strong following abroad, especially in some European countries (mainly in Ireland, Germany, Austria, Denmark and Sweden) where the band enjoyed numerous hits. Surprisingly, Erasure has a broad audience in a few South American countries, especially in Argentina, Chile and Peru. In the US, Erasure had three hits: "Chains of Love" (1988) at number 12, their biggest chart placing ever in that country, "A Little Respect" (1988) at number 14, and "Always" (1994) at number 20. In Russia, as well as in the former Soviet bloc countries, Erasure is mostly known for the sole song "Love to Hate You" (1991). In France, "Oh L\'amour" (1986) was the only hit of the band, peaking at number 14 in the singles top 50 of that country, followed by "Sometimes" (1986) that underperformed at a low number 39 (in February 1987) and still remains to this day Erasure\'s last entry in the French singles chart. Overall in their career, Erasure have penned over 200 songs and have sold over 28 million albums worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Blind_Melon', 'artist_name': 'Blind Melon', 'wiki': 'http://en.wikipedia.org/wiki/Blind_Melon', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1990', 'end_year': '1999', 'abstract': 'Blind Melon is an American rock band formed in 1990 in Los Angeles, California, by five musicians: three from Mississippi, one from Pennsylvania and one from Indiana. The band currently consists of guitarists Rogers Stevens and Christopher Thorn, drummer Glen Graham, vocalist Travis Warren and bassist Nathan Towne. They are best known for their 1993 hit "No Rain", and enjoyed critical and commercial success in the early 1990s with their neo-psychedelic take on alternative rock. Blind Melon released two albums on Capitol Records – Blind Melon (1992) and Soup (1995) – before their original lead vocalist Shannon Hoon died of a drug overdose on the band\'s tour bus in New Orleans on October 21, 1995. After four years of unsuccessfully searching for a replacement for Hoon, Blind Melon officially dissolved in 1999. The remaining members reformed the band in 2006 with Warren and recorded one album with him, For My Friends (2008). Shortly after its release, Warren left Blind Melon but rejoined in 2010, when the band returned to performing occasional gigs. Blind Melon is currently working on their fourth studio album. Blind Melon has been nominated for four Grammy Awards.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Arctic_Monkeys', 'artist_name': 'Arctic Monkeys', 'wiki': 'http://en.wikipedia.org/wiki/Arctic_Monkeys', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'start_year': '2002', 'abstract': 'Arctic Monkeys are an English rock band formed in Sheffield in 2002. The group consists of Alex Turner (lead vocals, guitar, keyboards), Jamie Cook (guitar, keyboards), Nick O\'Malley (bass guitar, backing vocals), and Matt Helders (drums, backing vocals). Former band member Andy Nicholson (bass guitar, backing vocals) left the band in 2006 shortly after their debut album was released. Arctic Monkeys were heralded as one of the first bands to come to public attention via the Internet, with commentators suggesting they represented the possibility of a change in the way in which new bands are promoted and marketed. Their debut album, Whatever People Say I Am, That\'s What I\'m Not (2006), became the fastest-selling debut album in UK chart history, and has been hailed as one of the greatest debut albums. It won Best British Album at the 2007 Brit Awards. The band\'s second album, Favourite Worst Nightmare (2007), was also acclaimed by critics and won Best British Album at the 2008 BRIT Awards. They went on to release Humbug (2009) and Suck It and See (2011). The band\'s global recognition increased with their critically acclaimed fifth album AM (2013), which was supported by the global hit "Do I Wanna Know?". It topped four Billboard charts and was certified platinum in the US. At the 2014 BRIT Awards, the album became their third to win British Album of the Year. Their sixth album, Tranquility Base Hotel &amp; Casino (2018), was a major departure from the band\'s previous guitar-heavy work, instead being piano-oriented. It received a Best Alternative Music Album nomination at the 2019 Grammy Awards, their second to do so after Whatever People Say I Am, That\'s What I\'m Not. As of 2021, Arctic Monkeys have sold over 20 million records worldwide. In the United Kingdom, the band became the first independent-label band to debut at number one in the UK with their first six albums. The band have won seven Brit Awards; winning Best British Group and British Album of the Year three times; a Mercury Prize for Whatever People Say I Am, That\'s What I\'m Not, an Ivor Novello Award, and 20 NME Awards. In addition, they have been nominated for five Grammy Awards, and received Mercury Prize nominations in 2007, 2013, and 2018. Both Whatever People Say I Am, That\'s What I\'m Not and AM are included in NME\'s and different editions of Rolling Stone\'s 500 Greatest Albums of All Time lists.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Katrina_and_the_Waves', 'artist_name': 'Katrina &amp; the Waves', 'wiki': 'http://en.wikipedia.org/wiki/Katrina_and_the_Waves', 'hometown': 'http://dbpedia.org/resource/Cambridgeshire', 'start_year': '1981', 'end_year': '1999', 'abstract': 'Katrina and the Waves were a British-American rock band best known for the 1985 hit "Walking on Sunshine". They also won the 1997 Eurovision Song Contest with the song "Love Shine a Light".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Mac_Miller', 'artist_name': 'Mac Miller', 'wiki': 'http://en.wikipedia.org/wiki/Mac_Miller', 'birth_date': '19 January 1992', 'death_date': '07 September 2018', 'start_year': '2007', 'end_year': '2018', 'abstract': "Malcolm James McCormick (January 19, 1992 – September 7, 2018), known professionally as Mac Miller, was an American rapper and record producer from Pittsburgh, Pennsylvania. Miller began his career in Pittsburgh's hip hop scene in 2007, at the age of fifteen. In 2010, he signed a record deal with independent label Rostrum Records and released his breakthrough mixtapes K.I.D.S. (2010) and Best Day Ever (2011). Miller's debut studio album, Blue Slide Park (2011), became the first independently distributed debut album to top the US Billboard 200 since 1995. In 2013, he founded the record label imprint REMember Music. After his second studio album, Watching Movies with the Sound Off (2013), he left Rostrum and signed with the major label Warner Bros. Records in 2014. With them, he released four studio albums: GO:OD AM (2015), The Divine Feminine (2016), Swimming (2018), and the posthumous Circles (2020). For Swimming, he was posthumously nominated for a Grammy Award for Best Rap Album. He also served as a record producer for various artists, including himself, under the pseudonym Larry Fisherman. Miller struggled with substance abuse, which was often referenced in his lyrics. On September 7, 2018, Miller died from an accidental drug overdose of cocaine, fentanyl, and alcohol at his home, aged 26."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Naked_Eyes', 'artist_name': 'Naked Eyes', 'wiki': 'http://en.wikipedia.org/wiki/Naked_Eyes', 'abstract': 'Naked Eyes are an English new wave band that rose to prominence in the early 1980s. The band had four US top 40 singles. The group\'s first hit, "Always Something There to Remind Me", was a cover of the Burt Bacharach/Hal David standard. The band had subsequent hits with more of their own compositions, "Promises, Promises", "When the Lights Go Out", and "(What) In the Name of Love".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Icona_Pop', 'artist_name': 'Icona Pop', 'wiki': 'http://en.wikipedia.org/wiki/Icona_Pop', 'hometown': 'http://dbpedia.org/resource/Stockholm', 'start_year': '2009', 'abstract': 'Icona Pop (English: /aɪˈkɒnə pɒp/) is a Swedish electropop duo that formed in 2009, with electro house and indie pop music influences. Its two members, Caroline Hjelt and Aino Jawo, grew up in Stockholm and create what the Swedish press has described as music which "you can both laugh and cry to at the same time". They signed to TEN Music Group in 2009 and are currently also in a label deal with Ultra Music. Their biggest hit to date has been "I Love It".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Yeah_Yeah_Yeahs', 'artist_name': 'Yeah Yeah Yeahs', 'wiki': 'http://en.wikipedia.org/wiki/Yeah_Yeah_Yeahs', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2000', 'abstract': "The Yeah Yeah Yeahs are an American indie rock band formed in New York City in 2000. The group is composed of vocalist and pianist Karen O (born Karen Lee Orzolek), guitarist and keyboardist Nick Zinner, and drummer Brian Chase. They are complemented in live performances by second guitarist David Pajo (formerly of Slint and Tortoise), who joined as a touring member in 2009 and replaced Imaad Wasif, who had previously held the role. According to an interview that aired during ABC's Live from Central Park SummerStage series, the band's name was taken from modern New York City vernacular. The band has recorded four studio albums; the first, Fever to Tell, was released in 2003. The second, Show Your Bones, was released in 2006 and was named the second best album of the year by NME. Their third studio album, It's Blitz!, was released in March 2009. All three albums earned the band Grammy nominations for Best Alternative Music Album. Their fourth album, Mosquito, was released in April 2013."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Buggles', 'artist_name': 'The Buggles', 'wiki': 'http://en.wikipedia.org/wiki/The_Buggles', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1977', 'end_year': '1982', 'abstract': 'The Buggles were an English new wave band formed in London in 1977 by singer and bassist Trevor Horn and keyboardist Geoffrey Downes. They are best known for their 1979 debut single "Video Killed the Radio Star", which topped the UK Singles Chart and reached number one in 15 other countries. The duo released their first album, The Age of Plastic, in January 1980 with "Video Killed the Radio Star" as its lead single. Soon after the album\'s release, Horn and Downes joined the progressive rock band Yes, recording and releasing Drama in the process. Following a tour to promote the album, Yes disbanded in 1981. That same year, on 1 August, the music video for "Video Killed the Radio Star" became the first ever shown on MTV in the US. The following year, the Buggles released a second album, Adventures in Modern Recording. Its lack of commercial success led to the breakup of the group. Since 1998, Horn and Downes have occasionally performed the Buggles\' songs. In October 2011, the Buggles reunited to play at the British Music Experience at the O2 Arena in London. At the 2016 Progressive Music Awards, the Buggles won an "Outer Limit Award".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Fifth_Harmony', 'artist_name': 'Fifth Harmony', 'wiki': 'http://en.wikipedia.org/wiki/Fifth_Harmony', 'hometown': 'http://dbpedia.org/resource/Miami', 'start_year': '2012', 'end_year': '2018', 'abstract': 'Fifth Harmony, often shortened to 5H, is an American girl group based in Miami currently on hiatus, composed of Ally Brooke, Normani, Dinah Jane, Lauren Jauregui, and previously Camila Cabello until her departure from the group in December 2016. The group signed a joint record deal with Simon Cowell\'s label Syco Records and L.A. Reid\'s label Epic Records after forming and finishing third in the second season of the American singing competition series The X Factor in 2012. Rising to prominence by social media, the group\'s debut extended play and their three studio albums all charted within the top ten of the Billboard 200 in the United States. Following their exit from The X Factor, they released their debut single "Miss Movin\' On", preceding their extended play Better Together, certified gold in the United States. Its music video won the group the MTV Video Music Award for Artist to Watch. The group released their debut studio album Reflection in 2015, also receiving a gold certification in the country. The album included the singles "Boss", "Sledgehammer" and "Worth It". The latter achieved triple platinum certification in the United States and reached the top-ten in thirteen countries. The following year, "Work from Home", the lead single from their second album 7/27, became the group\'s first top-ten single on the Billboard Hot 100 and the first top-five by a girl group in a decade on that chart. They released their self-titled third album in 2017. Their accolades include three MTV Europe Music Awards, four MTV Video Music Awards, four iHeartRadio Music Awards, an American Music Award, a Billboard Women in Music award and ten Teen Choice Awards. Fifth Harmony has sold over 15 million units in the United States and earned 1.6 billion on-demand streams, according to Nielsen SoundScan. The group went on hiatus in March 2018, allowing the members to pursue solo projects.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Huey_Lewis_and_the_News', 'artist_name': 'Huey Lewis &amp; The News', 'wiki': 'http://en.wikipedia.org/wiki/Huey_Lewis_and_the_News', 'hometown': 'http://dbpedia.org/resource/San_Francisco', 'start_year': '1979', 'abstract': 'Huey Lewis and the News is an American rock band based in San Francisco, California. They had a run of hit singles during the 1980s and early 1990s, eventually achieving 19 top ten singles across the Billboard Hot 100, Adult Contemporary, and Mainstream Rock charts. Their most successful album, Sports, was released in 1983. The album, along with its videos being featured on MTV, catapulted the group to worldwide fame. Their popularity expanded when the hit song "The Power of Love" was featured in the 1985 film Back to the Future. "The Power of Love" reached number one on the Billboard Hot 100 singles chart and was nominated for the Academy Award for Best Original Song.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Kid_Laroi', 'artist_name': 'The Kid Laroi', 'wiki': 'http://en.wikipedia.org/wiki/The_Kid_Laroi', 'birth_date': '17 August 2003', 'start_year': '2018', 'abstract': 'Charlton Kenneth Jeffrey Howard (born 17 August 2003), professionally known as the Kid Laroi (stylised The Kid LAROI.), is an Australian singer, rapper and songwriter. Born in Waterloo, New South Wales, he originally gained recognition from his association and friendship with Juice Wrld while he was on tour in Australia. He gained a local following before joining a partnership agreement with Lil Bibby\'s Grade A Productions and Columbia Records. and attained further popularity with his song "Go" featuring Juice Wrld, which peaked at number 52 on the Billboard Hot 100. His debut mixtape F*ck Love (2020) peaked at number one on the Australian ARIA Charts, making him the youngest Australian solo artist ever to reach the top, and also reached number one on the US Billboard 200. Additionally, Laroi\'s songs "Without You", its remix with Miley Cyrus, and "Stay" (with Justin Bieber) reached the top ten of the Billboard Hot 100, with "Stay" peaking at number one for seven non-consecutive weeks. Among his accolades, Laroi has won an APRA Award, two ARIA Awards and a National Indigenous Music Award, and been nominated for two American Music Awards, two Grammy Awards, three MTV Video Music Awards, and four People\'s Choice Awards.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Fratellis', 'artist_name': 'The Fratellis', 'wiki': 'http://en.wikipedia.org/wiki/The_Fratellis', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'start_year': '2012', 'abstract': 'The Fratellis are a Scottish rock band from Glasgow, formed in 2005. The band consists of lead vocalist and guitarist Jon Fratelli, bassist and backing vocalist Barry Fratelli, and drummer and backing vocalist Mince Fratelli. Their singles "Chelsea Dagger" and "Whistle for the Choir" were both top ten hits in the UK charts.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Shaggy_(musician)', 'artist_name': 'Shaggy', 'wiki': 'http://en.wikipedia.org/wiki/Shaggy_(musician)', 'birth_date': '22 October 1968', 'start_year': '1992', 'abstract': 'Orville Richard Burrell CD (born October 22, 1968), better known by his stage name Shaggy, is a Jamaican-American reggae musician, singer, DJ, and actor who scored hits with the songs "It Wasn\'t Me", "Boombastic", "In The Summertime", "Oh Carolina", and "Angel". He has been nominated for seven Grammy Awards, winning twice for Best Reggae Album with Boombastic in 1996 and 44/876 with Sting in 2019, and has won the Brit Award for International Male Solo Artist in 2002. In 2007, he was awarded the Jamaican Order of Distinction with the rank of Commander.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/George_Michael', 'artist_name': 'George Michael', 'wiki': 'http://en.wikipedia.org/wiki/George_Michael', 'birth_date': '25 June 1963', 'death_date': '25 December 2016', 'start_year': '1981', 'end_year': '2016', 'abstract': 'George Michael (born Georgios Kyriacos Panayiotou; 25 June 1963 – 25 December 2016) was a British singer, songwriter and record producer. Known as a leading creative force in music production, songwriting, vocal performance and visual presentation, he is regarded as one of the most significant cultural figures of the MTV era. Born in East Finchley, North London, Michael rose to fame as a member of the music duo Wham! and later embarked on a solo career. Forming the duo Wham! with Andrew Ridgeley in 1981, the band\'s first two albums, Fantastic (1983) and Make It Big (1984), reached number one on the UK Albums Chart and the US Billboard 200. Their hit singles included "Wake Me Up Before You Go-Go" and "Last Christmas". Establishing themselves as a global act, Wham! toured China in April 1985; the tour was the first visit to China by a Western popular music act, and it generated worldwide media coverage. Michael\'s first solo single, "Careless Whisper", reached number one in over 20 countries, including the UK and US. Before embarking on the production of his first solo album, Michael went on to release two more number-one singles, "A Different Corner" and "I Knew You Were Waiting (For Me)". Michael\'s debut solo album, Faith, was released in 1987, topping the UK Albums Chart and staying at number one on the Billboard 200 for 12 weeks. Globally it sold 25 million copies, and four singles from the album—"Faith", "Father Figure", "One More Try", and "Monkey"—reached number one on the Billboard Hot 100. Michael became the best-selling music artist of 1988, and Faith was awarded Album of the Year at the 1989 Grammy Awards. His second solo album, Listen Without Prejudice Vol. 1 (1990), sold approximately eight million copies and was a UK number-one. It included the Billboard Hot 100 number-one "Praying for Time" and the worldwide hit "Freedom! \'90". A 1991 duet with Elton John, "Don\'t Let the Sun Go Down on Me", was also a transatlantic number one. Michael went on to release two more multimillion-selling albums, Older (1996) and Patience (2004). Michael came out as gay in 1998. He was an active LGBT rights campaigner and HIV/AIDS charity fundraiser. Michael\'s personal life, drug use, and legal troubles made headlines during the late 1990s and 2000s, as he was arrested for public lewdness in 1998 and was arrested for multiple drug-related offences after that time. The 2005 documentary A Different Story covered his career and personal life. Michael\'s 25 Live tour spanned three tours from 2006 to 2008. Michael fell into a coma in 2011 during a bout with pneumonia, but later recovered. He performed his final concert at London\'s Earls Court in 2012. On 25 December 2016, Michael was found dead at his home in Goring-on-Thames, Oxfordshire. Michael is one of the best-selling music artists of all time, with sales of over 120 million records worldwide. He achieved seven number-one songs on the UK Singles Chart and eight number-one songs on the US Billboard Hot 100. Michael won various music awards, including two Grammy Awards, three Brit Awards, three American Music Awards, 12 Billboard Music Awards, four MTV Video Music Awards, and six Ivor Novello Awards. In 2015, he was ranked 45th in Billboard\'s list of the "Greatest Hot 100 Artists of All Time". The Radio Academy named him the most played artist on British radio during the period 1984–2004.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/September_(band)', 'artist_name': 'September', 'wiki': 'http://en.wikipedia.org/wiki/September_(band)', 'hometown': 'http://dbpedia.org/resource/Socialist_Federal_Republic_of_Yugoslavia', 'start_year': '1975', 'end_year': '1979', 'abstract': 'September was a Yugoslavian jazz rock band active between 1975 and 1979.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/MC_Hammer', 'artist_name': 'MC Hammer', 'wiki': 'http://en.wikipedia.org/wiki/MC_Hammer', 'birth_date': '30 March 1962', 'start_year': '1985', 'abstract': 'Stanley Kirk Burrell (born March 30, 1962), better known by his stage name MC Hammer (or simply Hammer), is an American rapper, songwriter, dancer and record producer who had his greatest commercial success and popularity from the late 1980s until the early 1990s. Remembered for his rapid rise to fame, Hammer is known for songs (such as "U Can\'t Touch This" and "2 Legit 2 Quit"), flashy dance movements, choreography and eponymous Hammer pants. A multi-award winner, MC Hammer is considered a "forefather/pioneer" and innovator of pop rap (incorporating elements of freestyle music) and is the first hip hop artist to achieve diamond status for an album. BET ranked Hammer as the No. 7 "Best Dancer Of All Time". Vibe\'s "The Best Rapper Ever Tournament" declared him the 17th favorite of all-time during the first round. Hammer\'s popularity and success waned by 1992 when he was labeled a sellout by the changing landscape of hip-hop music, leading to financial problems later in life, including a highly publicized bankruptcy in 1996. During this time, Hammer unsuccessfully attempted to appeal to the rise of gangsta rap. Burrell became a preacher during the late 1990s with a Christian ministry program on TBN called M.C. Hammer and Friends. Additionally, he starred in a Saturday-morning cartoon called Hammerman in 1991 and was executive producer of his own reality show called Hammertime, which aired on the A&amp;E Network during the summer of 2009. Hammer was also a television show host and dance judge on Dance Fever in 2003, was co-creator of a dance website called DanceJam.com and is a record label CEO while still performing concerts at music venues and assisting with other social media, ministry and outreach functions. Prior to becoming ordained, Hammer signed with Suge Knight\'s Death Row Records in 1995. Throughout his career, Hammer has managed his own recording business. As a result, he has created and produced his own acts including Ho Frat Hoo!, Oaktown\'s 3.5.7, Special Generation, Analise, DRS, B Angie B and Gentry Kozia. A part of additional record labels, he has associated, collaborated and recorded with Psy, VMF, Tupac Shakur, Teddy Riley, Felton Pilate, Tha Dogg Pound, The Whole 9, The Hines Brother, Deion Sanders, Big Daddy Kane, BeBe &amp; CeCe Winans and Jon Gibson.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Steve_Winwood', 'artist_name': 'Steve Winwood', 'wiki': 'http://en.wikipedia.org/wiki/Steve_Winwood', 'birth_date': '12 May 1948', 'start_year': '1961', 'abstract': 'Stephen Lawrence Winwood (born 12 May 1948) is an English singer, songwriter and musician whose genres include blue-eyed soul, rhythm and blues, blues rock and pop rock. Though primarily a vocalist and keyboard player, Winwood plays other instruments proficiently, including drums, mandolin, guitars, bass and saxophone. Winwood was a key member of several major acts of the 1960s and 1970s, including the Spencer Davis Group, Traffic and Blind Faith. Beginning in the 1980s, his solo career took off and he had a number of hit singles, including "While You See a Chance" (1980) from the album Arc of a Diver and "Valerie" (1982) from Talking Back to the Night ("Valerie" became a hit when it was re-released with a remix from Winwood\'s 1987 compilation album Chronicles). His 1986 album Back in the High Life marked his career zenith, with hit singles including "Back in the High Life Again", "The Finer Things" and the US Billboard Hot 100 number one hit "Higher Love". He found the top of the Hot 100 again with "Roll With It" (1988) from the album of the same name, with "Holding On" also charting highly the same year. While his hit singles ceased at the end of the 1980s, he continued to release new albums up to 2008, when Nine Lives, his latest album, was released. Since then, while he has not released any new albums, he still continues to tour alongside other classic rock acts, most recently in 2020 with Steely Dan. He was inducted into the Rock and Roll Hall of Fame as a member of Traffic in 2004. In 2005, Winwood was honoured as a BMI Icon at the annual BMI London Awards for his "enduring influence on generations of music makers". In 2008, Rolling Stone ranked Winwood No. 33 in its 100 Greatest Singers of All Time. Winwood has won two Grammy Awards. He was nominated twice for a Brit Award for Best British Male Artist: 1988 and 1989. In 2011, he received the Ivor Novello Award from the British Academy of Songwriters, Composers and Authors for Outstanding Song Collection.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Daughtry_(band)', 'artist_name': 'Daughtry', 'wiki': 'http://en.wikipedia.org/wiki/Daughtry_(band)', 'hometown': 'http://dbpedia.org/resource/McLeansville,_North_Carolina', 'start_year': '2006', 'abstract': 'Daughtry /ˈdɔːtri/ is an American rock band formed and fronted by namesake Chris Daughtry, who was a finalist on the fifth season of American Idol. Their self-titled debut album was released in November 2006 and reached number one on the Billboard 200. The album went on to sell more than six million copies in the United States, and has been certified six times platinum by the RIAA. Daughtry was also named the best selling album of 2007 by Billboard, becoming the fastest-selling debut rock album in Nielsen SoundScan history. The album produced four top 20 hits on the Billboard Hot 100, including top five hits "It\'s Not Over" and "Home". The band\'s second album, Leave This Town, was released in July 2009 and debuted at number one on the Billboard 200 chart, becoming Daughtry\'s second number one album in the United States. To date, Leave This Town has sold over 1.3 million copies in the United States and has been certified platinum by the RIAA. The album\'s lead single, "No Surprise", became the band\'s fifth top 20 hit on the Hot 100. Their third studio album, Break the Spell, was released in November 2011 and debuted within the top 10 on the Billboard 200 chart. The album has been certified Gold by the RIAA. Daughtry\'s fourth studio album, Baptized, was released on November 19, 2013, and debuted at number six on the Billboard 200 chart, selling approximately 90,000 units. To date, Daughtry has sold over 9 million albums and over 25.6 million digital tracks in the U.S.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/New_Radicals', 'artist_name': 'New Radicals', 'wiki': 'http://en.wikipedia.org/wiki/New_Radicals', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1997', 'end_year': '1997', 'abstract': 'New Radicals (stylized as Иew Radicals) were an American alternative rock band formed in 1997 in Los Angeles, California. The band was centered on frontman Gregg Alexander, who wrote and produced all of their songs. The band\'s only other permanent member was keyboardist and percussionist Danielle Brisebois. The band released only one album, 1998\'s Maybe You\'ve Been Brainwashed Too, an alternative rock album heavily influenced by the rock and soul of the 1970s, containing—among radio-friendly modern rock tracks and love songs—strong criticism of corporate America. The band is known for their debut single "You Get What You Give". Despite aspects of the lyrics generating minor controversy for their references to certain celebrities, the song topped the charts in Canada and New Zealand, became a top 5 hit in the United Kingdom, and was in the top 40 in the US. Tired of touring and promotional interviews, Alexander disbanded the group in mid-1999 before the release of their second single, "Someday We\'ll Know", to focus on writing and producing songs for other artists. Alexander and Brisebois\' songwriting partnership continued following the disbanding of the group, with the two being nominated for the Academy Award for Best Original Song in 2015 for their composition "Lost Stars" from the film Begin Again. Since their disbandment, the group has received numerous offers for a reunion tour or new album, but Alexander has repeatedly turned these down. However, the band finally reunited for a one off performance on January 20, 2021, at President Joe Biden\'s presidential inauguration.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Peter_Schilling', 'artist_name': 'Peter Schilling', 'wiki': 'http://en.wikipedia.org/wiki/Peter_Schilling', 'birth_date': '28 January 1956', 'start_year': '1976', 'abstract': 'Peter Schilling (born Pierre Michael Schilling; 28 January 1956) is a German synthpop musician whose songs often feature science-fiction themes like aliens, astronauts and catastrophes. He is best-known for his 1983 hit single "Major Tom (Coming Home)" which was an international success.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/New_Order_(band)', 'artist_name': 'New Order', 'wiki': 'http://en.wikipedia.org/wiki/New_Order_(band)', 'hometown': 'http://dbpedia.org/resource/Salford', 'start_year': '1980', 'end_year': '1993', 'abstract': 'New Order are an English rock band formed in 1980 by vocalist and guitarist Bernard Sumner, bassist Peter Hook and drummer Stephen Morris. The band formed after the demise of Joy Division, following the suicide of lead singer Ian Curtis; they were joined by Gillian Gilbert on keyboards later that year. New Order\'s integration of post-punk with electronic and dance music made them one of the most acclaimed and influential bands of the 1980s. They were the flagship band for Manchester-based independent record label Factory Records and its nightclub The Haçienda, and worked in long-term collaboration with graphic designer Peter Saville. While the band\'s early years were overshadowed by the legacy of Joy Division, their experience of the early 1980s New York club scene saw them increasingly incorporate dance rhythms and electronic instrumentation into their work. Their 1983 hit "Blue Monday" became the best-selling 12-inch single of all time and a popular club track. In the 1980s, they released successful albums such as Power, Corruption &amp; Lies (1983), Technique (1989), and the singles compilation Substance (1987). They disbanded in 1993 to work on individual projects before reuniting in 1998. In the years since, New Order has gone through various hiatuses and personnel changes, most prominently the departure of Hook in 2007. They released their tenth studio album, Music Complete, in 2015.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Third_Eye_Blind', 'artist_name': 'Third Eye Blind', 'wiki': 'http://en.wikipedia.org/wiki/Third_Eye_Blind', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1993', 'abstract': 'Third Eye Blind is an American rock band formed in San Francisco, California, in 1993. After years of lineup changes in the early and mid-1990s, the songwriting duo of Stephan Jenkins and Kevin Cadogan signed the band\'s first major-label recording contract with Elektra Records in 1996. The band released their self-titled debut album in 1997, with the band largely consisting of Jenkins (vocals, rhythm guitar), Cadogan (lead guitar), Arion Salazar (bass guitar), and Brad Hargreaves (drums). Shortly after the release of the band\'s second album in 1999, Blue, with the same line-up, Cadogan was released from the band under controversial circumstances. The band continued, but with many line-up changes and long gaps between album releases for the next 15 years. The band released Out of the Vein in 2003 and Ursa Major in 2009 with guitarist Tony Fredianelli, but parted ways with him shortly afterwards, leaving only Jenkins and Hargreaves as the remaining core members. The band\'s lineup stabilized again in the mid-2010s, adding Kryz Reid (lead guitar), Alex Kopp (keyboards), and Alex LeCavalier (bass guitar). The new lineup lead to increased output with less time between releases - Dopamine (2015), and a string of EPs, We Are Drugs (2016) and Thanks for Everything (2018). After Kopp was replaced by Colin Creev, a sixth studio album, Screamer (2019) was released, and a seventh studio album, Our Bande Apart, was released on September 24, 2021. The band found commercial success in the late 1990s, with Third Eye Blind and Blue certified platinum six times and single platinum in the United States, respectively. Several songs were a commercial success as well, with "Semi-Charmed Life", "Jumper", and "How\'s It Going to Be", all reaching the Top 10 of the US Billboard Hot 100, and "Never Let You Go" reaching the Top 20. Third Eye Blind has sold around 12 million records worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/David_Guetta', 'artist_name': 'David Guetta', 'wiki': 'http://en.wikipedia.org/wiki/David_Guetta', 'abstract': 'Pierre David Guetta (/ˈɡɛtə/; French pronunciation: \u200b[pjɛʁ david ɡɛta]; born 7 November 1967) is a French DJ, record producer and songwriter. He has racked up over 50 million record sales globally, with more than 10 billion streams. In 2011, 2020 and 2021, Guetta was voted the number one DJ in the DJ Mag Top 100 DJs poll. In 2013, Billboard crowned "When Love Takes Over" as the number one dance-pop collaboration of all time. Born and raised in Paris, he released his first album, Just a Little More Love, in 2002. Later, he released Guetta Blaster (2004) and Pop Life (2007). Guetta achieved mainstream success with his 2009 album One Love which included the hit singles "When Love Takes Over", "Gettin\' Over You", "Sexy Bitch" and "Memories", the first three of which reached number one in the United Kingdom. The 2011 follow-up album, Nothing but the Beat, continued this success, containing the hit singles "Where Them Girls At", "Little Bad Girl", "Without You", "Titanium" and "Turn Me On". In 2018, he released the album 7 featuring J Balvin, Nicki Minaj, Jason Derulo, Sia, G-Eazy and more. The album also featured twelve tracks by his alias Jack Back. In 2019, he started a new movement together with fellow producer MORTEN called "Future Rave". The duo released their "New Rave" EP in July 2020 for the fans to enjoy at home despite clubs being closed. Guetta and Sia reunited to release "Let\'s Love" in 2020, amidst the COVID-19 pandemic. In June 2021 Guetta sold his recorded music catalog for an amount in the region of US$100 million, with Music Business Worldwide citing a source saying it was more than that, but less than US$150 million. Guetta\'s accolades include two Grammy Awards, an American Music Award and a Billboard Music Award.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jason_Mraz', 'artist_name': 'Jason Mraz', 'wiki': 'http://en.wikipedia.org/wiki/Jason_Mraz', 'birth_date': '23 June 1977', 'start_year': '1999', 'abstract': 'Jason Thomas Mraz (/məˈræz/; born June 23, 1977) is an American guitarist, singer and songwriter. In 2002 he released his debut studio album, Waiting for My Rocket to Come, which contained the single "The Remedy (I Won\'t Worry)" that reached number 15 on the Billboard Hot 100, his first top-40 hit in the US. His second album, Mr. A-Z, released in 2005, peaked at number 5 on the Billboard 200 and sold over 100,000 copies in the US. In 2008 Mraz released his third studio album, We Sing. We Dance. We Steal Things. It debuted at number 3 on the Billboard 200 and was an international commercial success primarily due to the hit "I\'m Yours". The song peaked at number 6 on the Billboard Hot 100, giving him his first top ten single, spent a then-record 76 weeks on the Hot 100, and was certified Diamond (10x Platinum) by the RIAA in 2019. His fourth album, Love Is a Four Letter Word, peaked at number 2 on the Billboard 200, his highest-charting album to date. Mraz has won two Grammy Awards and received two additional nominations, and has also won two Teen Choice Awards, a People\'s Choice Award and the Hal David Songwriters Hall of Fame Award. He has earned Platinum and multi-Platinum certifications in over 20 countries, and has toured in North America, South America, Europe, Asia, Australia, the Middle East and parts of Africa. As of July 2014 Mraz has sold over seven million albums, and over 11.5 million downloaded singles. His musical style, from rhythmic feeling to his use of nylon string guitars, has been heavily influenced by Brazilian music.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Macklemore_&amp;_Ryan_Lewis', 'artist_name': 'Macklemore &amp; Ryan Lewis', 'wiki': 'http://en.wikipedia.org/wiki/Macklemore_&amp;_Ryan_Lewis', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '2008', 'end_year': '2017', 'abstract': 'Macklemore &amp; Ryan Lewis are an American hip hop duo, formed in 2008, from Seattle, Washington. The duo is composed of Ben Haggerty, a rapper who goes by the stage name of Macklemore, and Ryan Lewis, a record producer, DJ, and professional photographer, who met the former at a photo shoot. In 2009, they released their first collaborative effort, an EP titled VS. EP. They later followed up with VS. Redux (2010), the Grammy Award-winning album The Heist (2012) and This Unruly Mess I\'ve Made (2016). Macklemore and Lewis\' single "Thrift Shop" reached number one on the US Billboard Hot 100 in 2013. The single was soon dubbed the first song since 1994 to top the Hot 100 chart without the support of a major record label by Billboard, although Macklemore, in a slightly unusual recording contract, pays a nominal percentage of sales to use Warner Bros. Records\' radio promotion department to push his singles. Their second single, "Can\'t Hold Us", also peaked at number one on the Hot 100 Chart, making Macklemore and Lewis the first duo in the chart\'s history to have their first two singles both reach the peak position. Macklemore and Lewis released their debut studio album, The Heist, on October 9, 2012, which charted at number 2 on the US Billboard 200. The pair won four Grammy Awards at the 2014 ceremony, including Best New Artist, Best Rap Album (The Heist), Best Rap Song and Best Rap Performance ("Thrift Shop"). Their second album, This Unruly Mess I\'ve Made, was released on February 26, 2016. As of 2021, the band has sold 2 million records worldwide. On June 15, 2017, Macklemore announced that the duo were on hiatus. On October 26, 2021, Macklemore and Ryan Lewis announced that a new track, titled "Next Year", featuring pop musician Windser is set to be released on October 29, on their respective Instagram pages.'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Bath, Somerset', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Bath%2C_Somerset', 'place': 'http://sws.geonames.org/2656173/', 'geo_link': 'http://www.geonames.org/2656173/bath.html', 'lat': '51.38', 'long': '-2.36', 'population': '93238'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Calabasas, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Calabasas%2C_California', 'place': 'http://sws.geonames.org/5332593/', 'postal_code': '91302', 'geo_link': 'http://www.geonames.org/5332593/calabasas.html', 'lat': '34.138333333333335', 'long': '-118.66083333333333', 'population': '23058'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Mississauga', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Mississauga', 'place': 'http://sws.geonames.org/6075357/', 'geo_link': 'http://www.geonames.org/6075357/mississauga.html', 'lat': '43.6', 'long': '-79.65', 'population': '668549'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Teignmouth', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Teignmouth', 'place': 'http://sws.geonames.org/2636132/', 'geo_link': 'http://www.geonames.org/2636132/teignmouth.html', 'lat': '50.5515', 'long': '-3.4886', 'population': '15498'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Stockbridge, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Stockbridge%2C_Georgia', 'place': 'http://sws.geonames.org/4224681/', 'postal_code': '30281', 'geo_link': 'http://www.geonames.org/4224681/stockbridge.html', 'lat': '33.534166666666664', 'long': '-84.2311111111111', 'population': '25636'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Melbourne', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Melbourne', 'place': 'http://sws.geonames.org/7839805/', 'geo_link': 'http://www.geonames.org/2158177/melbourne.html', 'lat': '37.81361111111111', 'long': '144.96305555555554', 'population': '116447'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Gothenburg', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Gothenburg', 'place': 'http://sws.geonames.org/2711537/', 'geo_link': 'http://www.geonames.org/2711537/goeteborg.html', 'lat': '57.7', 'long': '11.966666666666667', 'population': '504084'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Australia', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Australia', 'place': 'http://sws.geonames.org/2077456/', 'geo_link': 'http://www.geonames.org/2077456/commonwealth-of-australia.html', 'lat': '-25', 'long': '135', 'population': '21515754'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sarasota, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Sarasota%2C_Florida', 'place': 'http://sws.geonames.org/4172131/', 'postal_code': '34278', 'geo_link': 'http://www.geonames.org/4172131/sarasota.html', 'lat': '27.337222222222223', 'long': '-82.53527777777778', 'population': '51917'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Hungary', 'country_code': 'HU', 'wiki': 'http://en.wikipedia.org/wiki/Hungary', 'place': 'http://sws.geonames.org/719819/', 'geo_link': 'http://www.geonames.org/719819/hungary.html', 'lat': '47', 'long': '20', 'population': '9982000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sweden', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Sweden', 'place': 'http://sws.geonames.org/2661886/', 'geo_link': 'http://www.geonames.org/2661886/kingdom-of-sweden.html', 'lat': '62', 'long': '15', 'population': '9828655'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Larne', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Larne', 'place': 'http://sws.geonames.org/2644849/', 'geo_link': 'http://www.geonames.org/2644849/larne.html', 'lat': '54.851', 'long': '-5.811', 'population': '18421'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Republic of Ireland', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Republic_of_Ireland', 'place': 'http://sws.geonames.org/2963597/', 'geo_link': 'http://www.geonames.org/2963597/ireland.html', 'lat': '53', 'long': '-8', 'population': '4622917'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Dublin', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Dublin', 'place': 'http://sws.geonames.org/7778677/', 'geo_link': 'http://www.geonames.org/2964574/dublin.html', 'lat': '53.34777777777778', 'long': '-6.259722222222222', 'population': '1024027'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Worcester, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Worcester%2C_Massachusetts', 'place': 'http://sws.geonames.org/4956184/', 'postal_code': '01604', 'geo_link': 'http://www.geonames.org/4956184/worcester.html', 'lat': '42.266666666666666', 'long': '-71.8', 'population': '181045'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Philadelphia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Philadelphia', 'place': 'http://sws.geonames.org/4560349/', 'postal_code': '19109', 'geo_link': 'http://www.geonames.org/4560349/philadelphia.html', 'lat': '39.95', 'long': '-75.16666666666667', 'population': '1526006'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Huddinge Municipality', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Huddinge_Municipality', 'place': 'http://sws.geonames.org/2704619/', 'geo_link': 'http://www.geonames.org/2704619/huddinge-kommun.html', 'lat': '59.233333333333334', 'long': '17.983333333333334', 'population': '97959'}</t>
   </si>
   <si>
     <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Minas Gerais', 'country_code': 'BR', 'wiki': 'http://en.wikipedia.org/wiki/Minas_Gerais', 'place': 'http://sws.geonames.org/3457153/', 'geo_link': 'http://www.geonames.org/3457153/minas-gerais.html', 'lat': '-18', 'long': '-43.95', 'population': '19595309'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Chicago', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Chicago', 'place': 'http://sws.geonames.org/4887398/', 'postal_code': '60633', 'geo_link': 'http://www.geonames.org/4887398/chicago.html', 'lat': '41.83694444444444', 'long': '-87.68472222222222', 'population': '2695598'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Lawrence, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lawrence%2C_Massachusetts', 'place': 'http://sws.geonames.org/4941720/', 'postal_code': '01841', 'geo_link': 'http://www.geonames.org/4941720/lawrence.html', 'lat': '42.706944444444446', 'long': '-71.16361111111111', 'population': '76377'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Landes (department)', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Landes_(department)', 'place': 'http://sws.geonames.org/3007866/', 'geo_link': 'http://www.geonames.org/3007866/departement-des-landes.html', 'lat': '44', 'long': '-0.8333333333333334', 'population': '392592'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Berlin', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Berlin', 'place': 'http://sws.geonames.org/6547383/', 'postal_code': '10967', 'geo_link': 'http://www.geonames.org/2950157/land-berlin.html', 'lat': '52.5', 'long': '13.145833333333334', 'population': '3426354'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Peoria, Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Peoria%2C_Illinois', 'place': 'http://sws.geonames.org/4905687/', 'postal_code': '61638', 'geo_link': 'http://www.geonames.org/4905687/peoria.html', 'lat': '40.72083333333333', 'long': '-89.60944444444445', 'population': '115007'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sacramento, California', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A2%D0%B0%D0%B8%D0%BD%D1%81%D1%82%D0%B2%D0%BE', 'place': 'http://sws.geonames.org/5389489/', 'postal_code': '94258', 'geo_link': 'http://www.geonames.org/5389489/sacramento.html', 'lat': '38.55555555555556', 'long': '-121.46888888888888', 'population': '466488'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bridgeport, Connecticut', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bridgeport%2C_Connecticut', 'place': 'http://sws.geonames.org/5282804/', 'postal_code': '06610', 'geo_link': 'http://www.geonames.org/5282804/bridgeport.html', 'lat': '41.18638888888889', 'long': '-73.19555555555556', 'population': '144229'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Atlanta', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Atlanta', 'place': 'http://sws.geonames.org/4180439/', 'postal_code': '30305', 'geo_link': 'http://www.geonames.org/4180439/atlanta.html', 'lat': '33.755', 'long': '-84.39', 'population': '420003'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Fort Lauderdale, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Fort_Lauderdale%2C_Florida', 'place': 'http://sws.geonames.org/4155966/', 'postal_code': '33320', 'geo_link': 'http://www.geonames.org/4155966/fort-lauderdale.html', 'lat': '26.133333333333333', 'long': '-80.15', 'population': '165521'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Westfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Westfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4955190/', 'postal_code': '01085', 'geo_link': 'http://www.geonames.org/4955190/westfield.html', 'lat': '42.125', 'long': '-72.75', 'population': '41094'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Orlando, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orlando%2C_Florida', 'place': 'http://sws.geonames.org/4167147/', 'postal_code': '32832', 'geo_link': 'http://www.geonames.org/4167147/orlando.html', 'lat': '28.41583333333333', 'long': '-81.29888888888888', 'population': '238300'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Dallas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Dallas', 'place': 'http://sws.geonames.org/4684888/', 'postal_code': '75221', 'geo_link': 'http://www.geonames.org/4684888/dallas.html', 'lat': '32.77583333333333', 'long': '-96.79666666666667', 'population': '1197816'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bridgend', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Bridgend', 'place': 'http://sws.geonames.org/2654755/', 'geo_link': 'http://www.geonames.org/2654755/bridgend.html', 'lat': '51.5072', 'long': '-3.5784', 'population': '39429'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bakersfield, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bakersfield%2C_California', 'place': 'http://sws.geonames.org/5325738/', 'postal_code': '93308', 'geo_link': 'http://www.geonames.org/5325738/bakersfield.html', 'lat': '35.36666666666667', 'long': '-119.01666666666667', 'population': '347483'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Wilkes-Barre, Pennsylvania', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Wilkes-Barre%2C_Pennsylvania', 'place': 'http://sws.geonames.org/5219488/', 'geo_link': 'http://www.geonames.org/5219488/wilkes-barre.html', 'lat': '41.24444444444445', 'long': '-75.87805555555556', 'population': '41498'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Las Vegas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Las_Vegas', 'place': 'http://sws.geonames.org/5506956/', 'postal_code': '89106', 'geo_link': 'http://www.geonames.org/5506956/las-vegas.html', 'lat': '36.175', 'long': '-115.13638888888889', 'population': '583756'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Walsall', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Walsall', 'place': 'http://sws.geonames.org/2634853/', 'geo_link': 'http://www.geonames.org/2634853/walsall.html', 'lat': '52.58', 'long': '-1.98', 'population': '172141'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'New Haven, Connecticut', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_Haven%2C_Connecticut', 'place': 'http://sws.geonames.org/4839366/', 'postal_code': '06507', 'geo_link': 'http://www.geonames.org/4839366/new-haven.html', 'lat': '41.31', 'long': '-72.92361111111111', 'population': '129779'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Pretoria', 'country_code': 'ZA', 'wiki': 'http://en.wikipedia.org/wiki/Pretoria', 'place': 'http://sws.geonames.org/964137/', 'geo_link': 'http://www.geonames.org/964137/pretoria.html', 'lat': '-25.746111111111112', 'long': '28.188055555555554', 'population': '1619438'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'North Adams, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/North_Adams%2C_Massachusetts', 'place': 'http://sws.geonames.org/4945486/', 'postal_code': '01247', 'geo_link': 'http://www.geonames.org/4945486/north-adams.html', 'lat': '42.7', 'long': '-73.11666666666666', 'population': '13708'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Umeå', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Ume%C3%A5', 'place': 'http://sws.geonames.org/602150/', 'geo_link': 'http://www.geonames.org/602150/umea.html', 'lat': '63.825', 'long': '20.26388888888889', 'population': '74005'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Copenhagen', 'country_code': 'DK', 'wiki': 'http://en.wikipedia.org/wiki/Copenhagen', 'place': 'http://sws.geonames.org/2618425/', 'geo_link': 'http://www.geonames.org/2618425/copenhagen.html', 'lat': '55.67611111111111', 'long': '12.568333333333333', 'population': '1153615'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Little Rock, Arkansas', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Little_Rock%2C_Arkansas', 'place': 'http://sws.geonames.org/4119403/', 'postal_code': '72223', 'geo_link': 'http://www.geonames.org/4119403/little-rock.html', 'lat': '34.736111111111114', 'long': '-92.33111111111111', 'population': '193524'}</t>
+    <t>{'place_name': 'Hanover', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Hanover', 'place': 'http://sws.geonames.org/2910831/', 'geo_link': 'http://www.geonames.org/2910831/hannover.html', 'lat': '52.36666666666667', 'long': '9.716666666666667', 'population': '515140'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Suffolk', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Suffolk', 'place': 'http://sws.geonames.org/2636561/', 'geo_link': 'http://www.geonames.org/2636561/suffolk.html', 'lat': '52.166666666666664', 'long': '1', 'population': '702100'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Clydebank', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Clydebank', 'place': 'http://sws.geonames.org/2652730/', 'geo_link': 'http://www.geonames.org/2652730/clydebank.html', 'lat': '55.8997', 'long': '-4.4006', 'population': '29867'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
   </si>
   <si>
     <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Vacaville, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Vacaville%2C_California', 'place': 'http://sws.geonames.org/5405228/', 'postal_code': '95688', 'geo_link': 'http://www.geonames.org/5405228/vacaville.html', 'lat': '38.35388888888889', 'long': '-121.97277777777778', 'population': '92428'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Memphis, Tennessee', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%9C%D0%B5%D0%BC%D1%84%D0%B8%D1%81_%28%D0%A2%D0%B5%D0%BD%D0%BD%D0%B5%D1%81%D1%81%D0%B8%29', 'place': 'http://sws.geonames.org/4641239/', 'postal_code': '38173', 'geo_link': 'http://www.geonames.org/4641239/memphis.html', 'lat': '35.1175', 'long': '-89.97111111111111', 'population': '646889'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Peterborough, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Peterborough%2C_Ontario', 'place': 'http://sws.geonames.org/6101645/', 'geo_link': 'http://www.geonames.org/6101645/peterborough.html', 'lat': '44.3', 'long': '-78.31666666666666', 'population': '75877'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Kansas City, Missouri', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Kansas_City%2C_Missouri', 'place': 'http://sws.geonames.org/4393217/', 'postal_code': '64196', 'geo_link': 'http://www.geonames.org/4393217/kansas-city.html', 'lat': '39.09972222222222', 'long': '-94.57833333333333', 'population': '459787'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bartlett, Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Bartlett%2C_Tennessee', 'place': 'http://sws.geonames.org/4604183/', 'geo_link': 'http://www.geonames.org/4604183/bartlett.html', 'lat': '35.223055555555554', 'long': '-89.8411111111111', 'population': '54613'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Teignmouth', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Teignmouth', 'place': 'http://sws.geonames.org/2636132/', 'geo_link': 'http://www.geonames.org/2636132/teignmouth.html', 'lat': '50.5515', 'long': '-3.4886', 'population': '15498'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sydney', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Sydney', 'place': 'http://sws.geonames.org/2147714/', 'geo_link': 'http://www.geonames.org/2147714/sydney.html', 'lat': '33.865', 'long': '151.20944444444444', 'population': '4627345'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Corinth, Mississippi', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Corinth%2C_Mississippi', 'place': 'http://sws.geonames.org/4422713/', 'postal_code': '38834', 'geo_link': 'http://www.geonames.org/4422713/corinth.html', 'lat': '34.937222222222225', 'long': '-88.51527777777778', 'population': '14573'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Escatawpa, Mississippi', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Escatawpa%2C_Mississippi', 'place': 'http://sws.geonames.org/4425816/', 'postal_code': '39552', 'geo_link': 'http://www.geonames.org/4425816/escatawpa.html', 'lat': '30.489166666666666', 'long': '-88.55111111111111', 'population': '3722'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'San Antonio', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Antonio', 'place': 'http://sws.geonames.org/4726206/', 'postal_code': '78233', 'geo_link': 'http://www.geonames.org/4726206/san-antonio.html', 'lat': '29.416666666666668', 'long': '-98.5', 'population': '1327407'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Los Gatos, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Mulberry_School', 'place': 'http://sws.geonames.org/5373574/', 'postal_code': '95033', 'geo_link': 'http://www.geonames.org/5368518/los-gatos.html', 'lat': '37.236111111111114', 'long': '-121.96166666666667', 'population': '29413'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Grayslake, Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Grayslake%2C_Illinois', 'place': 'http://sws.geonames.org/4894465/', 'postal_code': '60030', 'geo_link': 'http://www.geonames.org/4894465/grayslake.html', 'lat': '42.348333333333336', 'long': '-88.0325', 'population': '20957'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Jacksonville, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Jacksonville%2C_Florida', 'place': 'http://sws.geonames.org/4160021/', 'postal_code': '32232', 'geo_link': 'http://www.geonames.org/4160021/jacksonville.html', 'lat': '30.336944444444445', 'long': '-81.6613888888889', 'population': '821784'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Richmond, Virginia', 'country_code': 'US', 'wiki': 'http://ru.wikipedia.org/wiki/%D0%A0%D0%B8%D1%87%D0%BC%D0%BE%D0%BD%D0%B4_%28%D0%92%D0%B8%D1%80%D0%B4%D0%B6%D0%B8%D0%BD%D0%B8%D1%8F%29', 'place': 'http://sws.geonames.org/4781708/', 'postal_code': '23249', 'geo_link': 'http://www.geonames.org/4781708/richmond.html', 'lat': '37.53333333333333', 'long': '-77.46666666666667', 'population': '204214'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Springfield, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Springfield%2C_Massachusetts', 'place': 'http://sws.geonames.org/4951788/', 'postal_code': '01111', 'geo_link': 'http://www.geonames.org/4951788/springfield.html', 'lat': '42.10138888888889', 'long': '-72.59027777777777', 'population': '153060'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Waddinxveen', 'country_code': 'NL', 'wiki': 'http://en.wikipedia.org/wiki/Waddinxveen', 'place': 'http://sws.geonames.org/2745096/', 'geo_link': 'http://www.geonames.org/2745095/gemeente-waddinxveen.html', 'lat': '52.05', 'long': '4.65', 'population': '25338'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Southfield, Michigan', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Southfield%2C_Michigan', 'place': 'http://sws.geonames.org/5010643/', 'geo_link': 'http://www.geonames.org/5010643/township-of-southfield.html', 'lat': '42.47972222222222', 'long': '-83.245'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Burlington, Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Burlington%2C_Ontario', 'place': 'http://sws.geonames.org/5911592/', 'geo_link': 'http://www.geonames.org/5911592/burlington.html', 'lat': '43.31666666666667', 'long': '-79.8', 'population': '164415'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Muskegon, Michigan', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Muskegon%2C_Michigan', 'place': 'http://sws.geonames.org/5003132/', 'postal_code': '49440', 'geo_link': 'http://www.geonames.org/5003132/muskegon.html', 'lat': '43.23416666666667', 'long': '-86.24833333333333', 'population': '38401'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Inglewood, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Inglewood%2C_California', 'place': 'http://sws.geonames.org/5359488/', 'postal_code': '90302', 'geo_link': 'http://www.geonames.org/5359488/inglewood.html', 'lat': '33.9575', 'long': '-118.34611111111111', 'population': '109673'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Milton Keynes', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Milton_Keynes', 'place': 'http://sws.geonames.org/2642465/', 'geo_link': 'http://www.geonames.org/2642465/milton-keynes.html', 'lat': '52.04', 'long': '-0.76', 'population': '184506'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Tilburg', 'country_code': 'NL', 'wiki': 'http://en.wikipedia.org/wiki/Tilburg', 'place': 'http://sws.geonames.org/2746301/', 'geo_link': 'http://www.geonames.org/2746300/gemeente-tilburg.html', 'lat': '51.55', 'long': '5.083333333333333', 'population': '210270'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Asbury Park, New Jersey', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Asbury_Park%2C_New_Jersey', 'place': 'http://sws.geonames.org/5095281/', 'postal_code': '07712', 'geo_link': 'http://www.geonames.org/5095281/asbury-park.html', 'lat': '40.222884', 'long': '-74.010232', 'population': '16116'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Oakland, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Oakland%2C_California', 'place': 'http://sws.geonames.org/5378538/', 'postal_code': '94601', 'geo_link': 'http://www.geonames.org/5378538/oakland.html', 'lat': '37.80444444444444', 'long': '-122.27083333333333', 'population': '390724'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Minnesota', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Minnesota', 'place': 'http://sws.geonames.org/5037779/', 'geo_link': 'http://www.geonames.org/5037779/minnesota.html', 'lat': '46.25024', 'long': '-94.25055', 'population': '5141953'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Stockholm County', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Stockholm_County', 'place': 'http://sws.geonames.org/2673722/', 'geo_link': 'http://www.geonames.org/2673722/stockholm.html', 'lat': '59.5', 'long': '18', 'population': '2127006'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Gothenburg', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Gothenburg', 'place': 'http://sws.geonames.org/2711537/', 'geo_link': 'http://www.geonames.org/2711537/goeteborg.html', 'lat': '57.7', 'long': '11.966666666666667', 'population': '504084'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Yorba Linda, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Yorba_Linda%2C_California', 'place': 'http://sws.geonames.org/5410902/', 'postal_code': '92886', 'geo_link': 'http://www.geonames.org/5410902/yorba-linda.html', 'lat': '33.888551', 'long': '-117.813231', 'population': '64234'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Irvine, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Irvine%2C_California', 'place': 'http://sws.geonames.org/5359777/', 'postal_code': '92619', 'geo_link': 'http://www.geonames.org/5359777/irvine.html', 'lat': '33.669444444444444', 'long': '-117.82305555555556', 'population': '212375'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Cody, Wyoming', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Cody_Middle_School', 'place': 'http://sws.geonames.org/5821597/', 'postal_code': '82414', 'geo_link': 'http://www.geonames.org/5821593/cody.html', 'lat': '44.52333333333333', 'long': '-109.05722222222222', 'population': '9520'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Ocala, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Ocala%2C_Florida', 'place': 'http://sws.geonames.org/4166673/', 'postal_code': '34472', 'geo_link': 'http://www.geonames.org/4166673/ocala.html', 'lat': '29.18777777777778', 'long': '-82.13055555555556', 'population': '56315'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Falun', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Falun', 'place': 'http://sws.geonames.org/2715459/', 'geo_link': 'http://www.geonames.org/2715459/falun.html', 'lat': '60.60722222222222', 'long': '15.63111111111111', 'population': '36477'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Gdańsk', 'country_code': 'PL', 'wiki': 'http://en.wikipedia.org/wiki/Gda%C5%84sk', 'place': 'http://sws.geonames.org/7531002/', 'geo_link': 'http://www.geonames.org/3099434/gdansk.html', 'lat': '54.36666666666667', 'long': '18.633333333333333', 'population': '461865'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'London, Ontario', 'country_code': 'CA', 'wiki': 'http://uk.wikipedia.org/wiki/%D0%9B%D0%BE%D0%BD%D0%B4%D0%BE%D0%BD_(%D0%9E%D0%BD%D1%82%D0%B0%D1%80%D1%96%D0%BE)', 'place': 'http://sws.geonames.org/6058560/', 'geo_link': 'http://www.geonames.org/6058560/london.html', 'lat': '42.9837', 'long': '-81.2497', 'population': '346765'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Knoxville, Tennessee', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Knoxville%2C_Tennessee', 'place': 'http://sws.geonames.org/4634946/', 'postal_code': '37920', 'geo_link': 'http://www.geonames.org/4634946/knoxville.html', 'lat': '35.97277777777778', 'long': '-83.94222222222223', 'population': '178874'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Saalfeld', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Saalfeld', 'place': 'http://sws.geonames.org/2842688/', 'geo_link': 'http://www.geonames.org/2842688/saalfeld.html', 'lat': '50.65', 'long': '11.366666666666667', 'population': '28023'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Manchester', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Manchester', 'place': 'http://sws.geonames.org/3333169/', 'geo_link': 'http://www.geonames.org/3333169/manchester.html', 'lat': '53.46666666666667', 'long': '-2.2333333333333334'}</t>
+    <t>{'place_name': 'Stockholm', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Stockholm', 'place': 'http://sws.geonames.org/2673730/', 'geo_link': 'http://www.geonames.org/2673730/stockholm.html', 'lat': '59.32944444444445', 'long': '18.06861111111111', 'population': '1253309'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Miami', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Miami', 'place': 'http://sws.geonames.org/4164138/', 'postal_code': '33176', 'geo_link': 'http://www.geonames.org/4164138/miami.html', 'lat': '25.775277777777777', 'long': '-80.2088888888889', 'population': '399457'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'San Francisco', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Francisco', 'place': 'http://sws.geonames.org/5391997/', 'postal_code': '94118', 'geo_link': 'http://www.geonames.org/5391959/san-francisco.html', 'lat': '37.78333333333333', 'long': '-122.41666666666667', 'population': '805235'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Glasgow', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Glasgow', 'place': 'http://sws.geonames.org/3333231/', 'geo_link': 'http://www.geonames.org/2648579/glasgow.html', 'lat': '55.858', 'long': '-4.259', 'population': '610268'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'McLeansville, North Carolina', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/McLeansville%2C_North_Carolina', 'place': 'http://sws.geonames.org/4478715/', 'geo_link': 'http://www.geonames.org/4478715/mcleansville.html', 'lat': '36.10388888888889', 'long': '-79.66027777777778', 'population': '1021'}</t>
   </si>
 </sst>
 </file>
@@ -1870,28 +1720,28 @@
         <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="G2">
-        <v>1.780654668807983</v>
+        <v>2.296481847763062</v>
       </c>
       <c r="H2">
-        <v>0.1874721050262451</v>
+        <v>1.499643087387085</v>
       </c>
       <c r="I2">
-        <v>0.09384679794311523</v>
+        <v>0.0938105583190918</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1908,19 +1758,16 @@
         <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F3" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
       <c r="G3">
-        <v>1.390295505523682</v>
+        <v>1.687314033508301</v>
       </c>
       <c r="H3">
-        <v>1.51537013053894</v>
+        <v>1.796238660812378</v>
       </c>
       <c r="I3">
-        <v>0.06265163421630859</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1929,7 +1776,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1946,25 +1793,25 @@
         <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F4" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G4">
-        <v>1.608820915222168</v>
+        <v>1.530888080596924</v>
       </c>
       <c r="H4">
-        <v>1.421567916870117</v>
+        <v>1.812066316604614</v>
       </c>
       <c r="I4">
-        <v>0.1093220710754395</v>
+        <v>0.1093511581420898</v>
       </c>
       <c r="J4">
         <v>0.6666666666666666</v>
       </c>
       <c r="K4">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1983,29 +1830,23 @@
       <c r="D5" t="s">
         <v>214</v>
       </c>
-      <c r="E5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F5" t="s">
-        <v>409</v>
-      </c>
       <c r="G5">
-        <v>1.671579599380493</v>
+        <v>1.813308954238892</v>
       </c>
       <c r="H5">
-        <v>0.1405007839202881</v>
+        <v>10.52852821350098</v>
       </c>
       <c r="I5">
-        <v>0.06264758110046387</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K5">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2022,28 +1863,25 @@
         <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F6" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="G6">
-        <v>1.468450546264648</v>
+        <v>1.218435764312744</v>
       </c>
       <c r="H6">
-        <v>1.655644416809082</v>
+        <v>0.1406228542327881</v>
       </c>
       <c r="I6">
-        <v>0.1095585823059082</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2060,28 +1898,25 @@
         <v>216</v>
       </c>
       <c r="E7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F7" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="G7">
-        <v>1.624614953994751</v>
+        <v>3.514785051345825</v>
       </c>
       <c r="H7">
-        <v>1.37460994720459</v>
+        <v>28.52450776100159</v>
       </c>
       <c r="I7">
-        <v>0.07813000679016113</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>0.6666666666666666</v>
       </c>
       <c r="L7">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2098,19 +1933,16 @@
         <v>217</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
-      </c>
-      <c r="F8" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="G8">
-        <v>1.624887228012085</v>
+        <v>1.390061140060425</v>
       </c>
       <c r="H8">
-        <v>1.343171358108521</v>
+        <v>22.15101361274719</v>
       </c>
       <c r="I8">
-        <v>0.09372115135192871</v>
+        <v>0.09372615814208984</v>
       </c>
       <c r="J8">
         <v>0.6666666666666666</v>
@@ -2119,7 +1951,7 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2136,28 +1968,28 @@
         <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F9" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="G9">
-        <v>1.249971628189087</v>
+        <v>1.421548843383789</v>
       </c>
       <c r="H9">
-        <v>1.390063762664795</v>
+        <v>1.421774625778198</v>
       </c>
       <c r="I9">
-        <v>0.06244754791259766</v>
+        <v>0.07810044288635254</v>
       </c>
       <c r="J9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2174,25 +2006,25 @@
         <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F10" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="G10">
-        <v>1.5308518409729</v>
+        <v>1.687101125717163</v>
       </c>
       <c r="H10">
-        <v>1.639966726303101</v>
+        <v>1.530882835388184</v>
       </c>
       <c r="I10">
-        <v>0.09403419494628906</v>
+        <v>0.1093475818634033</v>
       </c>
       <c r="J10">
         <v>0.6666666666666666</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L10">
         <v>0.8888888888888888</v>
@@ -2208,32 +2040,23 @@
       <c r="C11" t="s">
         <v>120</v>
       </c>
-      <c r="D11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" t="s">
-        <v>320</v>
-      </c>
-      <c r="F11" t="s">
-        <v>415</v>
-      </c>
       <c r="G11">
-        <v>1.343436002731323</v>
+        <v>0.6870691776275635</v>
       </c>
       <c r="H11">
-        <v>1.484024047851562</v>
+        <v>11.16923403739929</v>
       </c>
       <c r="I11">
-        <v>0.07810616493225098</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2247,28 +2070,31 @@
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
-        <v>321</v>
+        <v>315</v>
+      </c>
+      <c r="F12" t="s">
+        <v>399</v>
       </c>
       <c r="G12">
-        <v>1.655858278274536</v>
+        <v>1.405886888504028</v>
       </c>
       <c r="H12">
-        <v>0.1405887603759766</v>
+        <v>1.405956983566284</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1096096038818359</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K12">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2282,31 +2108,28 @@
         <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E13" t="s">
-        <v>322</v>
-      </c>
-      <c r="F13" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="G13">
-        <v>1.54651927947998</v>
+        <v>1.530937433242798</v>
       </c>
       <c r="H13">
-        <v>1.608994245529175</v>
+        <v>6.810890197753906</v>
       </c>
       <c r="I13">
-        <v>0.1090807914733887</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2320,31 +2143,31 @@
         <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E14" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F14" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="G14">
-        <v>1.280713796615601</v>
+        <v>1.281181573867798</v>
       </c>
       <c r="H14">
-        <v>1.562396764755249</v>
+        <v>1.749534368515015</v>
       </c>
       <c r="I14">
-        <v>0.07809829711914062</v>
+        <v>0.1091156005859375</v>
       </c>
       <c r="J14">
         <v>0.6666666666666666</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2358,31 +2181,28 @@
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E15" t="s">
-        <v>324</v>
-      </c>
-      <c r="F15" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="G15">
-        <v>1.155975103378296</v>
+        <v>2.28096866607666</v>
       </c>
       <c r="H15">
-        <v>1.516034126281738</v>
+        <v>2.124233961105347</v>
       </c>
       <c r="I15">
-        <v>0.09393429756164551</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0.6666666666666666</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2396,31 +2216,25 @@
         <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" t="s">
-        <v>325</v>
-      </c>
-      <c r="F16" t="s">
-        <v>419</v>
+        <v>224</v>
       </c>
       <c r="G16">
-        <v>1.31196117401123</v>
+        <v>1.468627214431763</v>
       </c>
       <c r="H16">
-        <v>1.530884504318237</v>
+        <v>15.65232849121094</v>
       </c>
       <c r="I16">
-        <v>0.06248998641967773</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2434,28 +2248,28 @@
         <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="G17">
-        <v>1.437389612197876</v>
+        <v>1.405899524688721</v>
       </c>
       <c r="H17">
-        <v>1.499603986740112</v>
+        <v>1.436926364898682</v>
       </c>
       <c r="I17">
-        <v>0.1093850135803223</v>
+        <v>0.2499611377716064</v>
       </c>
       <c r="J17">
         <v>0.6666666666666666</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -2472,31 +2286,31 @@
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F18" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="G18">
-        <v>1.546728610992432</v>
+        <v>1.484024047851562</v>
       </c>
       <c r="H18">
-        <v>2.405687093734741</v>
+        <v>21.199059009552</v>
       </c>
       <c r="I18">
-        <v>0.06226706504821777</v>
+        <v>0.1102590560913086</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K18">
         <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2510,31 +2324,31 @@
         <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F19" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="G19">
-        <v>1.15597677230835</v>
+        <v>1.421768426895142</v>
       </c>
       <c r="H19">
-        <v>1.40591287612915</v>
+        <v>1.640244245529175</v>
       </c>
       <c r="I19">
-        <v>0.109349250793457</v>
+        <v>0.1091122627258301</v>
       </c>
       <c r="J19">
         <v>0.6666666666666666</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2548,22 +2362,22 @@
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E20" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F20" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="G20">
-        <v>1.406163692474365</v>
+        <v>1.046629190444946</v>
       </c>
       <c r="H20">
-        <v>2.20237135887146</v>
+        <v>1.796223163604736</v>
       </c>
       <c r="I20">
-        <v>0.07809615135192871</v>
+        <v>0.09395503997802734</v>
       </c>
       <c r="J20">
         <v>0.6666666666666666</v>
@@ -2572,7 +2386,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2586,22 +2400,19 @@
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
       <c r="G21">
-        <v>1.234085321426392</v>
+        <v>1.296757698059082</v>
       </c>
       <c r="H21">
-        <v>1.468398571014404</v>
+        <v>22.1039559841156</v>
       </c>
       <c r="I21">
-        <v>0.09373116493225098</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0.6666666666666666</v>
@@ -2610,7 +2421,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2624,28 +2435,31 @@
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E22" t="s">
-        <v>331</v>
+        <v>324</v>
+      </c>
+      <c r="F22" t="s">
+        <v>405</v>
       </c>
       <c r="G22">
-        <v>0.9531686305999756</v>
+        <v>1.280948638916016</v>
       </c>
       <c r="H22">
-        <v>1.186955451965332</v>
+        <v>1.561981201171875</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1094977855682373</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2659,31 +2473,28 @@
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>332</v>
-      </c>
-      <c r="F23" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="G23">
-        <v>1.405914545059204</v>
+        <v>1.265559673309326</v>
       </c>
       <c r="H23">
-        <v>5.357864618301392</v>
+        <v>1.561898231506348</v>
       </c>
       <c r="I23">
-        <v>0.09396457672119141</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K23">
         <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2697,31 +2508,25 @@
         <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" t="s">
-        <v>333</v>
-      </c>
-      <c r="F24" t="s">
-        <v>426</v>
+        <v>232</v>
       </c>
       <c r="G24">
-        <v>1.515250682830811</v>
+        <v>1.937034606933594</v>
       </c>
       <c r="H24">
-        <v>1.702723979949951</v>
+        <v>9.466511726379395</v>
       </c>
       <c r="I24">
-        <v>0.06245923042297363</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2735,28 +2540,31 @@
         <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E25" t="s">
-        <v>334</v>
+        <v>326</v>
+      </c>
+      <c r="F25" t="s">
+        <v>405</v>
       </c>
       <c r="G25">
-        <v>1.671493291854858</v>
+        <v>1.359045028686523</v>
       </c>
       <c r="H25">
-        <v>0.1874990463256836</v>
+        <v>0.1718719005584717</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.09371137619018555</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K25">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2770,28 +2578,31 @@
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E26" t="s">
-        <v>335</v>
+        <v>327</v>
+      </c>
+      <c r="F26" t="s">
+        <v>406</v>
       </c>
       <c r="G26">
-        <v>1.718380451202393</v>
+        <v>3.452543497085571</v>
       </c>
       <c r="H26">
-        <v>1.577520847320557</v>
+        <v>1.093250751495361</v>
       </c>
       <c r="I26">
-        <v>0.09394454956054688</v>
+        <v>0.06248664855957031</v>
       </c>
       <c r="J26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2805,31 +2616,25 @@
         <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>236</v>
-      </c>
-      <c r="E27" t="s">
-        <v>336</v>
-      </c>
-      <c r="F27" t="s">
-        <v>427</v>
+        <v>235</v>
       </c>
       <c r="G27">
-        <v>1.827908515930176</v>
+        <v>3.530416965484619</v>
       </c>
       <c r="H27">
-        <v>1.218422174453735</v>
+        <v>9.638341665267944</v>
       </c>
       <c r="I27">
-        <v>0.07789278030395508</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0.6666666666666666</v>
       </c>
       <c r="K27">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2843,22 +2648,25 @@
         <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="E28" t="s">
+        <v>328</v>
       </c>
       <c r="G28">
-        <v>1.151695251464844</v>
+        <v>1.327538728713989</v>
       </c>
       <c r="H28">
-        <v>38.71830010414124</v>
+        <v>0.9685230255126953</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2875,28 +2683,28 @@
         <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F29" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="G29">
-        <v>1.240879774093628</v>
+        <v>1.155709266662598</v>
       </c>
       <c r="H29">
-        <v>8.737159729003906</v>
+        <v>22.52618741989136</v>
       </c>
       <c r="I29">
-        <v>0.1013383865356445</v>
+        <v>0.1249756813049316</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -2913,31 +2721,31 @@
         <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F30" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="G30">
-        <v>1.313841819763184</v>
+        <v>1.327962875366211</v>
       </c>
       <c r="H30">
-        <v>1.270216464996338</v>
+        <v>1.375729322433472</v>
       </c>
       <c r="I30">
-        <v>0.06999063491821289</v>
+        <v>0.06256294250488281</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K30">
         <v>0.7777777777777778</v>
       </c>
       <c r="L30">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2951,19 +2759,22 @@
         <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>339</v>
+        <v>331</v>
+      </c>
+      <c r="F31" t="s">
+        <v>407</v>
       </c>
       <c r="G31">
-        <v>1.422981262207031</v>
+        <v>1.218523502349854</v>
       </c>
       <c r="H31">
-        <v>5.010539531707764</v>
+        <v>0.1249668598175049</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.07804560661315918</v>
       </c>
       <c r="J31">
         <v>0.6666666666666666</v>
@@ -2972,7 +2783,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2986,25 +2797,25 @@
         <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G32">
-        <v>1.374525785446167</v>
+        <v>1.437304496765137</v>
       </c>
       <c r="H32">
-        <v>5.677733421325684</v>
+        <v>8.34162974357605</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3021,31 +2832,31 @@
         <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E33" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F33" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="G33">
-        <v>1.206098079681396</v>
+        <v>1.093476057052612</v>
       </c>
       <c r="H33">
-        <v>2.863658428192139</v>
+        <v>1.561903953552246</v>
       </c>
       <c r="I33">
-        <v>0.1234598159790039</v>
+        <v>0.09397554397583008</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K33">
         <v>0.7777777777777778</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3059,31 +2870,28 @@
         <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E34" t="s">
-        <v>342</v>
-      </c>
-      <c r="F34" t="s">
-        <v>431</v>
+        <v>334</v>
       </c>
       <c r="G34">
-        <v>1.093036651611328</v>
+        <v>1.218463182449341</v>
       </c>
       <c r="H34">
-        <v>5.386476755142212</v>
+        <v>0.1249699592590332</v>
       </c>
       <c r="I34">
-        <v>0.09389543533325195</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K34">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L34">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3097,31 +2905,28 @@
         <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>343</v>
-      </c>
-      <c r="F35" t="s">
-        <v>432</v>
+        <v>335</v>
       </c>
       <c r="G35">
-        <v>1.278834342956543</v>
+        <v>1.874554634094238</v>
       </c>
       <c r="H35">
-        <v>0.1519215106964111</v>
+        <v>27.02485871315002</v>
       </c>
       <c r="I35">
-        <v>0.0646204948425293</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K35">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3135,31 +2940,28 @@
         <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
-        <v>344</v>
-      </c>
-      <c r="F36" t="s">
-        <v>433</v>
+        <v>336</v>
       </c>
       <c r="G36">
-        <v>1.366125106811523</v>
+        <v>1.358788013458252</v>
       </c>
       <c r="H36">
-        <v>2.600810050964355</v>
+        <v>1.093492269515991</v>
       </c>
       <c r="I36">
-        <v>0.1093862056732178</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K36">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L36">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3173,31 +2975,28 @@
         <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E37" t="s">
-        <v>345</v>
-      </c>
-      <c r="F37" t="s">
-        <v>423</v>
+        <v>337</v>
       </c>
       <c r="G37">
-        <v>1.031206607818604</v>
+        <v>1.468401670455933</v>
       </c>
       <c r="H37">
-        <v>2.445056676864624</v>
+        <v>7.154826641082764</v>
       </c>
       <c r="I37">
-        <v>0.06254720687866211</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3211,31 +3010,28 @@
         <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E38" t="s">
-        <v>346</v>
-      </c>
-      <c r="F38" t="s">
-        <v>406</v>
+        <v>338</v>
       </c>
       <c r="G38">
-        <v>1.284216165542603</v>
+        <v>1.374943256378174</v>
       </c>
       <c r="H38">
-        <v>2.46979832649231</v>
+        <v>0.9213883876800537</v>
       </c>
       <c r="I38">
-        <v>0.1194119453430176</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0.6666666666666666</v>
       </c>
       <c r="K38">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3248,32 +3044,23 @@
       <c r="C39" t="s">
         <v>148</v>
       </c>
-      <c r="D39" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" t="s">
-        <v>347</v>
-      </c>
-      <c r="F39" t="s">
-        <v>420</v>
-      </c>
       <c r="G39">
-        <v>1.342055797576904</v>
+        <v>0.5153496265411377</v>
       </c>
       <c r="H39">
-        <v>3.313599824905396</v>
+        <v>31.44568991661072</v>
       </c>
       <c r="I39">
-        <v>0.1117744445800781</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3287,28 +3074,28 @@
         <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E40" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F40" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="G40">
-        <v>1.484299898147583</v>
+        <v>1.359282493591309</v>
       </c>
       <c r="H40">
-        <v>0.1405773162841797</v>
+        <v>0.9371988773345947</v>
       </c>
       <c r="I40">
-        <v>0.0624847412109375</v>
+        <v>0.109351634979248</v>
       </c>
       <c r="J40">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L40">
         <v>0.8888888888888888</v>
@@ -3325,16 +3112,16 @@
         <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E41" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G41">
-        <v>1.734229564666748</v>
+        <v>1.046630144119263</v>
       </c>
       <c r="H41">
-        <v>0.1559402942657471</v>
+        <v>0.906033992767334</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3343,7 +3130,7 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -3360,22 +3147,22 @@
         <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E42" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="F42" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="G42">
-        <v>1.561897993087769</v>
+        <v>1.561897277832031</v>
       </c>
       <c r="H42">
-        <v>0.265514612197876</v>
+        <v>5.045678853988647</v>
       </c>
       <c r="I42">
-        <v>0.1093969345092773</v>
+        <v>0.09373164176940918</v>
       </c>
       <c r="J42">
         <v>0.6666666666666666</v>
@@ -3398,31 +3185,31 @@
         <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E43" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="F43" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="G43">
-        <v>1.780829191207886</v>
+        <v>1.452548503875732</v>
       </c>
       <c r="H43">
-        <v>1.234082460403442</v>
+        <v>1.406151294708252</v>
       </c>
       <c r="I43">
-        <v>0.06248688697814941</v>
+        <v>0.07810378074645996</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K43">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L43">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3436,31 +3223,25 @@
         <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" t="s">
-        <v>352</v>
-      </c>
-      <c r="F44" t="s">
-        <v>412</v>
+        <v>251</v>
       </c>
       <c r="G44">
-        <v>1.249412298202515</v>
+        <v>0.9372971057891846</v>
       </c>
       <c r="H44">
-        <v>0.4373595714569092</v>
+        <v>10.1391909122467</v>
       </c>
       <c r="I44">
-        <v>0.0940248966217041</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0.6666666666666666</v>
       </c>
       <c r="K44">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3474,31 +3255,25 @@
         <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>254</v>
-      </c>
-      <c r="E45" t="s">
-        <v>353</v>
-      </c>
-      <c r="F45" t="s">
-        <v>437</v>
+        <v>252</v>
       </c>
       <c r="G45">
-        <v>1.82765793800354</v>
+        <v>1.390299797058105</v>
       </c>
       <c r="H45">
-        <v>2.874319314956665</v>
+        <v>11.35690259933472</v>
       </c>
       <c r="I45">
-        <v>0.06278395652770996</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3512,31 +3287,31 @@
         <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E46" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F46" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="G46">
-        <v>1.233894348144531</v>
+        <v>1.593377828598022</v>
       </c>
       <c r="H46">
-        <v>0.1559808254241943</v>
+        <v>0.1249668598175049</v>
       </c>
       <c r="I46">
-        <v>0.09399962425231934</v>
+        <v>0.1093854904174805</v>
       </c>
       <c r="J46">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>0.6666666666666666</v>
       </c>
       <c r="L46">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3550,31 +3325,31 @@
         <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E47" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F47" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="G47">
-        <v>1.655864238739014</v>
+        <v>1.452786922454834</v>
       </c>
       <c r="H47">
-        <v>1.780981540679932</v>
+        <v>1.436931610107422</v>
       </c>
       <c r="I47">
-        <v>0.06248307228088379</v>
+        <v>0.07828998565673828</v>
       </c>
       <c r="J47">
         <v>0.6666666666666666</v>
       </c>
       <c r="K47">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3588,19 +3363,19 @@
         <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E48" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G48">
-        <v>1.499649047851562</v>
+        <v>1.468248605728149</v>
       </c>
       <c r="H48">
-        <v>2.108870983123779</v>
+        <v>22.52592468261719</v>
       </c>
       <c r="I48">
-        <v>0.1093437671661377</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -3623,31 +3398,28 @@
         <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E49" t="s">
-        <v>357</v>
-      </c>
-      <c r="F49" t="s">
-        <v>440</v>
+        <v>346</v>
       </c>
       <c r="G49">
-        <v>0.9838888645172119</v>
+        <v>1.812070608139038</v>
       </c>
       <c r="H49">
-        <v>1.858723402023315</v>
+        <v>0.8124687671661377</v>
       </c>
       <c r="I49">
-        <v>0.1720869541168213</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K49">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L49">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3661,31 +3433,31 @@
         <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E50" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F50" t="s">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="G50">
-        <v>0.9369823932647705</v>
+        <v>1.265559196472168</v>
       </c>
       <c r="H50">
-        <v>0.1405696868896484</v>
+        <v>22.44757556915283</v>
       </c>
       <c r="I50">
-        <v>0.09399008750915527</v>
+        <v>0.09373378753662109</v>
       </c>
       <c r="J50">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K50">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L50">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3699,31 +3471,25 @@
         <v>160</v>
       </c>
       <c r="D51" t="s">
-        <v>260</v>
-      </c>
-      <c r="E51" t="s">
-        <v>359</v>
-      </c>
-      <c r="F51" t="s">
-        <v>442</v>
+        <v>258</v>
       </c>
       <c r="G51">
-        <v>1.437426805496216</v>
+        <v>1.374674558639526</v>
       </c>
       <c r="H51">
-        <v>0.1718375682830811</v>
+        <v>0.1249620914459229</v>
       </c>
       <c r="I51">
-        <v>0.06248331069946289</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K51">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3737,22 +3503,22 @@
         <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E52" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G52">
-        <v>1.030836582183838</v>
+        <v>1.515235424041748</v>
       </c>
       <c r="H52">
-        <v>1.593374490737915</v>
+        <v>28.27460145950317</v>
       </c>
       <c r="I52">
-        <v>0.0624847412109375</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <v>0.6666666666666666</v>
@@ -3772,31 +3538,28 @@
         <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E53" t="s">
-        <v>361</v>
-      </c>
-      <c r="F53" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
       <c r="G53">
-        <v>1.281179904937744</v>
+        <v>1.374823808670044</v>
       </c>
       <c r="H53">
-        <v>0.1563906669616699</v>
+        <v>0.8433945178985596</v>
       </c>
       <c r="I53">
-        <v>0.09349298477172852</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>0.6666666666666666</v>
       </c>
       <c r="L53">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3810,31 +3573,28 @@
         <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E54" t="s">
-        <v>362</v>
-      </c>
-      <c r="F54" t="s">
-        <v>444</v>
+        <v>350</v>
       </c>
       <c r="G54">
-        <v>1.171367883682251</v>
+        <v>1.452984571456909</v>
       </c>
       <c r="H54">
-        <v>15.4492449760437</v>
+        <v>1.030808210372925</v>
       </c>
       <c r="I54">
-        <v>0.0939486026763916</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0.6666666666666666</v>
       </c>
       <c r="L54">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3848,28 +3608,28 @@
         <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E55" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F55" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="G55">
-        <v>1.202851533889771</v>
+        <v>1.280946969985962</v>
       </c>
       <c r="H55">
-        <v>1.640354156494141</v>
+        <v>1.577746629714966</v>
       </c>
       <c r="I55">
-        <v>0.06259775161743164</v>
+        <v>0.1249723434448242</v>
       </c>
       <c r="J55">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K55">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3886,31 +3646,28 @@
         <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E56" t="s">
-        <v>364</v>
-      </c>
-      <c r="F56" t="s">
-        <v>446</v>
+        <v>352</v>
       </c>
       <c r="G56">
-        <v>1.296615839004517</v>
+        <v>1.484024286270142</v>
       </c>
       <c r="H56">
-        <v>1.437150001525879</v>
+        <v>21.18299531936646</v>
       </c>
       <c r="I56">
-        <v>0.124924898147583</v>
+        <v>0</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3924,31 +3681,31 @@
         <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E57" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="G57">
-        <v>1.234004735946655</v>
+        <v>1.359279870986938</v>
       </c>
       <c r="H57">
-        <v>1.42131781578064</v>
+        <v>1.46825385093689</v>
       </c>
       <c r="I57">
-        <v>0.06271648406982422</v>
+        <v>0.1092722415924072</v>
       </c>
       <c r="J57">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K57">
         <v>0.6666666666666666</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3962,22 +3719,22 @@
         <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E58" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="F58" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="G58">
-        <v>1.780779600143433</v>
+        <v>1.312191724777222</v>
       </c>
       <c r="H58">
-        <v>2.890010118484497</v>
+        <v>22.40095233917236</v>
       </c>
       <c r="I58">
-        <v>0.1248848438262939</v>
+        <v>0.1093463897705078</v>
       </c>
       <c r="J58">
         <v>0.6666666666666666</v>
@@ -4000,31 +3757,31 @@
         <v>168</v>
       </c>
       <c r="D59" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E59" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F59" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="G59">
-        <v>1.312188386917114</v>
+        <v>1.374676465988159</v>
       </c>
       <c r="H59">
-        <v>4.467825889587402</v>
+        <v>1.452780723571777</v>
       </c>
       <c r="I59">
-        <v>0.1093502044677734</v>
+        <v>0.06248641014099121</v>
       </c>
       <c r="J59">
         <v>0.6666666666666666</v>
       </c>
       <c r="K59">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -4038,31 +3795,31 @@
         <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E60" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F60" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="G60">
-        <v>1.312453269958496</v>
+        <v>1.390296220779419</v>
       </c>
       <c r="H60">
-        <v>0.6248574256896973</v>
+        <v>22.54132509231567</v>
       </c>
       <c r="I60">
-        <v>0.06221723556518555</v>
+        <v>0.09394502639770508</v>
       </c>
       <c r="J60">
         <v>0.6666666666666666</v>
       </c>
       <c r="K60">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -4076,22 +3833,22 @@
         <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E61" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F61" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="G61">
-        <v>1.530854225158691</v>
+        <v>1.14059042930603</v>
       </c>
       <c r="H61">
-        <v>0.437161922454834</v>
+        <v>1.390063762664795</v>
       </c>
       <c r="I61">
-        <v>0.06275773048400879</v>
+        <v>0.0624854564666748</v>
       </c>
       <c r="J61">
         <v>0.6666666666666666</v>
@@ -4100,7 +3857,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4114,25 +3871,31 @@
         <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="E62" t="s">
+        <v>358</v>
+      </c>
+      <c r="F62" t="s">
+        <v>405</v>
       </c>
       <c r="G62">
-        <v>1.218501091003418</v>
+        <v>1.280716896057129</v>
       </c>
       <c r="H62">
-        <v>10.90340542793274</v>
+        <v>1.405914783477783</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>0.09372758865356445</v>
       </c>
       <c r="J62">
         <v>0.6666666666666666</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -4146,31 +3909,28 @@
         <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E63" t="s">
-        <v>370</v>
-      </c>
-      <c r="F63" t="s">
-        <v>423</v>
+        <v>359</v>
       </c>
       <c r="G63">
-        <v>1.49964714050293</v>
+        <v>1.593144655227661</v>
       </c>
       <c r="H63">
-        <v>1.484247207641602</v>
+        <v>2.468392848968506</v>
       </c>
       <c r="I63">
-        <v>0.1093499660491943</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K63">
         <v>0.6666666666666666</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4184,28 +3944,28 @@
         <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E64" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F64" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="G64">
-        <v>1.343579053878784</v>
+        <v>1.327817678451538</v>
       </c>
       <c r="H64">
-        <v>0.1715984344482422</v>
+        <v>1.515499114990234</v>
       </c>
       <c r="I64">
-        <v>0.04694890975952148</v>
+        <v>0.1405961513519287</v>
       </c>
       <c r="J64">
         <v>0.6666666666666666</v>
       </c>
       <c r="K64">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -4222,22 +3982,22 @@
         <v>174</v>
       </c>
       <c r="D65" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E65" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F65" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="G65">
-        <v>1.31196141242981</v>
+        <v>1.343451499938965</v>
       </c>
       <c r="H65">
-        <v>1.421543836593628</v>
+        <v>1.890167236328125</v>
       </c>
       <c r="I65">
-        <v>0.06248116493225098</v>
+        <v>0.06246447563171387</v>
       </c>
       <c r="J65">
         <v>0.6666666666666666</v>
@@ -4246,7 +4006,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L65">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4259,32 +4019,29 @@
       <c r="C66" t="s">
         <v>175</v>
       </c>
-      <c r="D66" t="s">
-        <v>275</v>
-      </c>
       <c r="E66" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F66" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="G66">
-        <v>1.421571254730225</v>
+        <v>0.5779750347137451</v>
       </c>
       <c r="H66">
-        <v>1.922109603881836</v>
+        <v>1.593388319015503</v>
       </c>
       <c r="I66">
-        <v>0.1092886924743652</v>
+        <v>0.109349250793457</v>
       </c>
       <c r="J66">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K66">
         <v>0.6666666666666666</v>
       </c>
       <c r="L66">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4298,31 +4055,28 @@
         <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
-        <v>374</v>
-      </c>
-      <c r="F67" t="s">
-        <v>454</v>
+        <v>363</v>
       </c>
       <c r="G67">
-        <v>1.218459129333496</v>
+        <v>1.39054274559021</v>
       </c>
       <c r="H67">
-        <v>1.686860322952271</v>
+        <v>10.10674810409546</v>
       </c>
       <c r="I67">
-        <v>0.06248760223388672</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L67">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4336,28 +4090,31 @@
         <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E68" t="s">
-        <v>375</v>
+        <v>364</v>
+      </c>
+      <c r="F68" t="s">
+        <v>418</v>
       </c>
       <c r="G68">
-        <v>1.328057050704956</v>
+        <v>1.171567440032959</v>
       </c>
       <c r="H68">
-        <v>1.07787036895752</v>
+        <v>21.18297123908997</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>0.09372758865356445</v>
       </c>
       <c r="J68">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4371,31 +4128,31 @@
         <v>178</v>
       </c>
       <c r="D69" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E69" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G69">
-        <v>1.234199047088623</v>
+        <v>1.546499729156494</v>
       </c>
       <c r="H69">
-        <v>1.311963081359863</v>
+        <v>1.515533685684204</v>
       </c>
       <c r="I69">
-        <v>0.1249654293060303</v>
+        <v>0.07811903953552246</v>
       </c>
       <c r="J69">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K69">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L69">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4409,31 +4166,28 @@
         <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E70" t="s">
-        <v>377</v>
-      </c>
-      <c r="F70" t="s">
-        <v>455</v>
+        <v>366</v>
       </c>
       <c r="G70">
-        <v>1.156190633773804</v>
+        <v>1.577765464782715</v>
       </c>
       <c r="H70">
-        <v>1.35916543006897</v>
+        <v>1.765192747116089</v>
       </c>
       <c r="I70">
-        <v>0.07787895202636719</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K70">
         <v>0.6666666666666666</v>
       </c>
       <c r="L70">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4447,31 +4201,31 @@
         <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E71" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="F71" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="G71">
-        <v>1.640241384506226</v>
+        <v>1.10909366607666</v>
       </c>
       <c r="H71">
-        <v>0.2187035083770752</v>
+        <v>22.44780540466309</v>
       </c>
       <c r="I71">
-        <v>0.0624845027923584</v>
+        <v>0.09376168251037598</v>
       </c>
       <c r="J71">
         <v>0.6666666666666666</v>
       </c>
       <c r="K71">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4485,31 +4239,28 @@
         <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E72" t="s">
-        <v>379</v>
-      </c>
-      <c r="F72" t="s">
-        <v>456</v>
+        <v>368</v>
       </c>
       <c r="G72">
-        <v>0.9215471744537354</v>
+        <v>2.062012910842896</v>
       </c>
       <c r="H72">
-        <v>0.1561455726623535</v>
+        <v>1.655847787857056</v>
       </c>
       <c r="I72">
-        <v>0.1094202995300293</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K72">
         <v>0.6666666666666666</v>
       </c>
       <c r="L72">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4523,22 +4274,22 @@
         <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="F73" t="s">
-        <v>447</v>
+        <v>404</v>
       </c>
       <c r="G73">
-        <v>1.405899524688721</v>
+        <v>1.437124013900757</v>
       </c>
       <c r="H73">
-        <v>1.609098196029663</v>
+        <v>1.436927080154419</v>
       </c>
       <c r="I73">
-        <v>0.07788896560668945</v>
+        <v>0.09399700164794922</v>
       </c>
       <c r="J73">
         <v>0.6666666666666666</v>
@@ -4547,7 +4298,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4561,28 +4312,28 @@
         <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F74" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="G74">
-        <v>1.124967813491821</v>
+        <v>3.217834234237671</v>
       </c>
       <c r="H74">
-        <v>0.9060325622558594</v>
+        <v>1.34343147277832</v>
       </c>
       <c r="I74">
-        <v>0.09373092651367188</v>
+        <v>0.07810664176940918</v>
       </c>
       <c r="J74">
         <v>0.3333333333333333</v>
       </c>
       <c r="K74">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4599,25 +4350,31 @@
         <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>284</v>
+        <v>281</v>
+      </c>
+      <c r="E75" t="s">
+        <v>371</v>
+      </c>
+      <c r="F75" t="s">
+        <v>421</v>
       </c>
       <c r="G75">
-        <v>1.046858310699463</v>
+        <v>7.748153448104858</v>
       </c>
       <c r="H75">
-        <v>12.71550750732422</v>
+        <v>22.32300209999084</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>0.124755859375</v>
       </c>
       <c r="J75">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4631,25 +4388,25 @@
         <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E76" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G76">
-        <v>1.23408031463623</v>
+        <v>1.328027963638306</v>
       </c>
       <c r="H76">
-        <v>1.577759981155396</v>
+        <v>5.202123165130615</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>0.1091344356536865</v>
       </c>
       <c r="J76">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K76">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -4666,31 +4423,28 @@
         <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E77" t="s">
-        <v>383</v>
-      </c>
-      <c r="F77" t="s">
-        <v>457</v>
+        <v>373</v>
       </c>
       <c r="G77">
-        <v>1.234084844589233</v>
+        <v>1.812071084976196</v>
       </c>
       <c r="H77">
-        <v>9.997603416442871</v>
+        <v>6.045443534851074</v>
       </c>
       <c r="I77">
-        <v>0.1093807220458984</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4704,31 +4458,28 @@
         <v>187</v>
       </c>
       <c r="D78" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E78" t="s">
-        <v>384</v>
-      </c>
-      <c r="F78" t="s">
-        <v>458</v>
+        <v>374</v>
       </c>
       <c r="G78">
-        <v>1.468253612518311</v>
+        <v>1.218464136123657</v>
       </c>
       <c r="H78">
-        <v>1.702573299407959</v>
+        <v>9.950773239135742</v>
       </c>
       <c r="I78">
-        <v>0.07825446128845215</v>
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K78">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4742,31 +4493,25 @@
         <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>288</v>
-      </c>
-      <c r="E79" t="s">
-        <v>385</v>
-      </c>
-      <c r="F79" t="s">
-        <v>459</v>
+        <v>285</v>
       </c>
       <c r="G79">
-        <v>1.421610832214355</v>
+        <v>1.063174724578857</v>
       </c>
       <c r="H79">
-        <v>1.437309980392456</v>
+        <v>12.09061932563782</v>
       </c>
       <c r="I79">
-        <v>0.09366393089294434</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0.6666666666666666</v>
       </c>
       <c r="K79">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4780,22 +4525,22 @@
         <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E80" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="F80" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="G80">
-        <v>0.9372067451477051</v>
+        <v>1.609027624130249</v>
       </c>
       <c r="H80">
-        <v>1.5777428150177</v>
+        <v>2.421305894851685</v>
       </c>
       <c r="I80">
-        <v>0.06249713897705078</v>
+        <v>0.1247053146362305</v>
       </c>
       <c r="J80">
         <v>0.6666666666666666</v>
@@ -4818,31 +4563,31 @@
         <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E81" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F81" t="s">
-        <v>461</v>
+        <v>401</v>
       </c>
       <c r="G81">
-        <v>1.031002044677734</v>
+        <v>1.218690633773804</v>
       </c>
       <c r="H81">
-        <v>1.374653100967407</v>
+        <v>1.624617338180542</v>
       </c>
       <c r="I81">
-        <v>0.2187843322753906</v>
+        <v>0.07810783386230469</v>
       </c>
       <c r="J81">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K81">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L81">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4855,32 +4600,29 @@
       <c r="C82" t="s">
         <v>191</v>
       </c>
-      <c r="D82" t="s">
-        <v>291</v>
-      </c>
       <c r="E82" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="F82" t="s">
-        <v>462</v>
+        <v>404</v>
       </c>
       <c r="G82">
-        <v>1.28118634223938</v>
+        <v>0.5779540538787842</v>
       </c>
       <c r="H82">
-        <v>2.171360969543457</v>
+        <v>1.452548980712891</v>
       </c>
       <c r="I82">
-        <v>0.07787203788757324</v>
+        <v>0.09372806549072266</v>
       </c>
       <c r="J82">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="K82">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4894,31 +4636,25 @@
         <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
-      </c>
-      <c r="E83" t="s">
-        <v>389</v>
-      </c>
-      <c r="F83" t="s">
-        <v>463</v>
+        <v>288</v>
       </c>
       <c r="G83">
-        <v>1.046625137329102</v>
+        <v>1.312189340591431</v>
       </c>
       <c r="H83">
-        <v>2.062016010284424</v>
+        <v>11.52856063842773</v>
       </c>
       <c r="I83">
-        <v>0.1718292236328125</v>
+        <v>0</v>
       </c>
       <c r="J83">
         <v>0.3333333333333333</v>
       </c>
       <c r="K83">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4932,31 +4668,31 @@
         <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E84" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="F84" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="G84">
-        <v>1.437370777130127</v>
+        <v>1.577714204788208</v>
       </c>
       <c r="H84">
-        <v>2.030755043029785</v>
+        <v>1.562095403671265</v>
       </c>
       <c r="I84">
-        <v>0.1247732639312744</v>
+        <v>0.09376239776611328</v>
       </c>
       <c r="J84">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K84">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L84">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4970,22 +4706,22 @@
         <v>194</v>
       </c>
       <c r="D85" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E85" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F85" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="G85">
-        <v>1.015453815460205</v>
+        <v>1.234118461608887</v>
       </c>
       <c r="H85">
-        <v>1.515265703201294</v>
+        <v>0.2187354564666748</v>
       </c>
       <c r="I85">
-        <v>0.1092815399169922</v>
+        <v>0.1405577659606934</v>
       </c>
       <c r="J85">
         <v>0.6666666666666666</v>
@@ -4994,7 +4730,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L85">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -5008,31 +4744,28 @@
         <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E86" t="s">
-        <v>392</v>
-      </c>
-      <c r="F86" t="s">
-        <v>466</v>
+        <v>380</v>
       </c>
       <c r="G86">
-        <v>1.389992713928223</v>
+        <v>1.749549150466919</v>
       </c>
       <c r="H86">
-        <v>1.452783346176147</v>
+        <v>1.562129020690918</v>
       </c>
       <c r="I86">
-        <v>0.07814502716064453</v>
+        <v>0</v>
       </c>
       <c r="J86">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K86">
         <v>0.6666666666666666</v>
       </c>
       <c r="L86">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -5046,22 +4779,22 @@
         <v>196</v>
       </c>
       <c r="D87" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E87" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F87" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G87">
-        <v>1.249933242797852</v>
+        <v>1.452821493148804</v>
       </c>
       <c r="H87">
-        <v>1.671746253967285</v>
+        <v>1.60903000831604</v>
       </c>
       <c r="I87">
-        <v>0.2028446197509766</v>
+        <v>0.1093137264251709</v>
       </c>
       <c r="J87">
         <v>0.6666666666666666</v>
@@ -5070,7 +4803,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -5084,22 +4817,25 @@
         <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>297</v>
+        <v>293</v>
+      </c>
+      <c r="E88" t="s">
+        <v>382</v>
       </c>
       <c r="G88">
-        <v>1.093492746353149</v>
+        <v>1.062282562255859</v>
       </c>
       <c r="H88">
-        <v>12.37207341194153</v>
+        <v>2.843040466308594</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -5116,22 +4852,25 @@
         <v>198</v>
       </c>
       <c r="D89" t="s">
-        <v>298</v>
+        <v>294</v>
+      </c>
+      <c r="E89" t="s">
+        <v>383</v>
       </c>
       <c r="G89">
-        <v>0.9841184616088867</v>
+        <v>1.421539068222046</v>
       </c>
       <c r="H89">
-        <v>11.30985760688782</v>
+        <v>2.108839750289917</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L89">
         <v>0</v>
@@ -5148,22 +4887,19 @@
         <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E90" t="s">
-        <v>394</v>
-      </c>
-      <c r="F90" t="s">
-        <v>467</v>
+        <v>384</v>
       </c>
       <c r="G90">
-        <v>1.124735832214355</v>
+        <v>1.421425580978394</v>
       </c>
       <c r="H90">
-        <v>1.515255451202393</v>
+        <v>1.54651665687561</v>
       </c>
       <c r="I90">
-        <v>0.1405961513519287</v>
+        <v>0.1096115112304688</v>
       </c>
       <c r="J90">
         <v>0.6666666666666666</v>
@@ -5172,7 +4908,7 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="L90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -5186,31 +4922,28 @@
         <v>200</v>
       </c>
       <c r="D91" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E91" t="s">
-        <v>395</v>
-      </c>
-      <c r="F91" t="s">
-        <v>468</v>
+        <v>385</v>
       </c>
       <c r="G91">
-        <v>1.702721834182739</v>
+        <v>1.202844381332397</v>
       </c>
       <c r="H91">
-        <v>1.546506404876709</v>
+        <v>21.85443568229675</v>
       </c>
       <c r="I91">
-        <v>0.1405906677246094</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K91">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5224,22 +4957,19 @@
         <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E92" t="s">
-        <v>396</v>
-      </c>
-      <c r="F92" t="s">
-        <v>469</v>
+        <v>386</v>
       </c>
       <c r="G92">
-        <v>1.063149452209473</v>
+        <v>1.328031778335571</v>
       </c>
       <c r="H92">
-        <v>2.14011549949646</v>
+        <v>21.91647267341614</v>
       </c>
       <c r="I92">
-        <v>0.2341148853302002</v>
+        <v>0</v>
       </c>
       <c r="J92">
         <v>0.6666666666666666</v>
@@ -5248,7 +4978,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5262,22 +4992,22 @@
         <v>202</v>
       </c>
       <c r="D93" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E93" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="F93" t="s">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="G93">
-        <v>1.484029769897461</v>
+        <v>1.062279939651489</v>
       </c>
       <c r="H93">
-        <v>1.530885934829712</v>
+        <v>1.484022378921509</v>
       </c>
       <c r="I93">
-        <v>0.140592098236084</v>
+        <v>0.1093487739562988</v>
       </c>
       <c r="J93">
         <v>0.6666666666666666</v>
@@ -5286,7 +5016,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L93">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5300,28 +5030,28 @@
         <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E94" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F94" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="G94">
-        <v>1.640470027923584</v>
+        <v>1.609223127365112</v>
       </c>
       <c r="H94">
-        <v>2.780357599258423</v>
+        <v>1.296536684036255</v>
       </c>
       <c r="I94">
-        <v>0.2343249320983887</v>
+        <v>0.07788848876953125</v>
       </c>
       <c r="J94">
         <v>0.6666666666666666</v>
       </c>
       <c r="K94">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L94">
         <v>0.8888888888888888</v>
@@ -5338,22 +5068,19 @@
         <v>204</v>
       </c>
       <c r="D95" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E95" t="s">
-        <v>399</v>
-      </c>
-      <c r="F95" t="s">
-        <v>471</v>
+        <v>389</v>
       </c>
       <c r="G95">
-        <v>1.452771902084351</v>
+        <v>1.374446392059326</v>
       </c>
       <c r="H95">
-        <v>2.186972856521606</v>
+        <v>22.16703176498413</v>
       </c>
       <c r="I95">
-        <v>0.09372949600219727</v>
+        <v>0</v>
       </c>
       <c r="J95">
         <v>0.6666666666666666</v>
@@ -5362,7 +5089,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L95">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5376,31 +5103,28 @@
         <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E96" t="s">
-        <v>400</v>
-      </c>
-      <c r="F96" t="s">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="G96">
-        <v>1.265354633331299</v>
+        <v>1.609028577804565</v>
       </c>
       <c r="H96">
-        <v>1.827625036239624</v>
+        <v>1.546504020690918</v>
       </c>
       <c r="I96">
-        <v>0.187497615814209</v>
+        <v>0.09369301795959473</v>
       </c>
       <c r="J96">
         <v>0.6666666666666666</v>
       </c>
       <c r="K96">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L96">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5414,31 +5138,25 @@
         <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>306</v>
-      </c>
-      <c r="E97" t="s">
-        <v>401</v>
-      </c>
-      <c r="F97" t="s">
-        <v>466</v>
+        <v>302</v>
       </c>
       <c r="G97">
-        <v>1.015558481216431</v>
+        <v>2.327579975128174</v>
       </c>
       <c r="H97">
-        <v>2.405692338943481</v>
+        <v>12.9659161567688</v>
       </c>
       <c r="I97">
-        <v>0.0934898853302002</v>
+        <v>0</v>
       </c>
       <c r="J97">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K97">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5452,28 +5170,28 @@
         <v>207</v>
       </c>
       <c r="D98" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E98" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="F98" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="G98">
-        <v>1.531176805496216</v>
+        <v>1.249553203582764</v>
       </c>
       <c r="H98">
-        <v>2.468225717544556</v>
+        <v>1.421531200408936</v>
       </c>
       <c r="I98">
-        <v>0.1247072219848633</v>
+        <v>0.1248915195465088</v>
       </c>
       <c r="J98">
         <v>0.6666666666666666</v>
       </c>
       <c r="K98">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L98">
         <v>0.8888888888888888</v>
@@ -5490,31 +5208,28 @@
         <v>208</v>
       </c>
       <c r="D99" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E99" t="s">
-        <v>403</v>
-      </c>
-      <c r="F99" t="s">
-        <v>474</v>
+        <v>392</v>
       </c>
       <c r="G99">
-        <v>1.249696016311646</v>
+        <v>1.374409437179565</v>
       </c>
       <c r="H99">
-        <v>1.562104463577271</v>
+        <v>7.764021396636963</v>
       </c>
       <c r="I99">
-        <v>0.07811450958251953</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5528,22 +5243,19 @@
         <v>209</v>
       </c>
       <c r="D100" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E100" t="s">
-        <v>404</v>
-      </c>
-      <c r="F100" t="s">
-        <v>475</v>
+        <v>393</v>
       </c>
       <c r="G100">
-        <v>1.015151739120483</v>
+        <v>1.296800851821899</v>
       </c>
       <c r="H100">
-        <v>1.749585866928101</v>
+        <v>2.062045335769653</v>
       </c>
       <c r="I100">
-        <v>0.1249752044677734</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0.6666666666666666</v>
@@ -5552,7 +5264,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L100">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5566,31 +5278,31 @@
         <v>210</v>
       </c>
       <c r="D101" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E101" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F101" t="s">
-        <v>476</v>
+        <v>415</v>
       </c>
       <c r="G101">
-        <v>1.124735116958618</v>
+        <v>1.45277738571167</v>
       </c>
       <c r="H101">
-        <v>1.562360525131226</v>
+        <v>22.71339273452759</v>
       </c>
       <c r="I101">
-        <v>0.07810568809509277</v>
+        <v>0.09371662139892578</v>
       </c>
       <c r="J101">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K101">
         <v>0.7777777777777778</v>
       </c>
       <c r="L101">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/lod_analysis/excels/artists_evaluation.xlsx
+++ b/lod_analysis/excels/artists_evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="438">
   <si>
     <t>artist_id</t>
   </si>
@@ -49,1252 +49,1285 @@
     <t>geonames_completeness</t>
   </si>
   <si>
-    <t>2rGm8R7YDTbqDCVlNssQyL</t>
+    <t>6HD2mo0Gz8wd8IbOXYwUfN</t>
+  </si>
+  <si>
+    <t>2DlGxzQSjYe5N6G9nkYghR</t>
+  </si>
+  <si>
+    <t>5orH1OWgjAYUX8sZ5gihTv</t>
+  </si>
+  <si>
+    <t>2ZvrvbQNrHKwjT7qfGFFUW</t>
+  </si>
+  <si>
+    <t>18JD8DVlD1fakDAw7E9LFC</t>
+  </si>
+  <si>
+    <t>5iNrZmtVMtYev5M9yoWpEq</t>
+  </si>
+  <si>
+    <t>5ApKaVHAStk5kAuyBW1wG8</t>
+  </si>
+  <si>
+    <t>55Aa2cqylxrFIXC767Z865</t>
+  </si>
+  <si>
+    <t>3l0CmX0FuQjFxr8SK7Vqag</t>
+  </si>
+  <si>
+    <t>2NjfBq1NflQcKSeiDooVjY</t>
+  </si>
+  <si>
+    <t>64KEffDW9EtZ1y2vBYgq8T</t>
+  </si>
+  <si>
+    <t>4e5V1Q2dKCzbLVMQ8qbTn6</t>
+  </si>
+  <si>
+    <t>7oPgCQqMMXEXrNau5vxYZP</t>
+  </si>
+  <si>
+    <t>03ilIKH0i08IxmjKcn63ne</t>
+  </si>
+  <si>
+    <t>1g1yxsNVPhMUl9GrMjEb2o</t>
+  </si>
+  <si>
+    <t>2rblp9fJo16ZPTcKDtlmKW</t>
+  </si>
+  <si>
+    <t>56xTxG4nQMAs1GW9kvn0uA</t>
+  </si>
+  <si>
+    <t>5zzrJD2jXrE9dZ1AklRFcL</t>
+  </si>
+  <si>
+    <t>4n31svBA9GGIYxGxgrQaRK</t>
+  </si>
+  <si>
+    <t>7FIoB5PHdrMZVC3q2HE5MS</t>
+  </si>
+  <si>
+    <t>6Rx1JKzBrSzoKQtmbVmBnM</t>
+  </si>
+  <si>
+    <t>2cBh5lVMg222FFuRU7EfDE</t>
+  </si>
+  <si>
+    <t>2d0hyoQ5ynDBnkvAbJKORj</t>
+  </si>
+  <si>
+    <t>5eAWCfyUhZtHHtBdNk56l1</t>
+  </si>
+  <si>
+    <t>2BTZIqw0ntH9MvilQ3ewNY</t>
+  </si>
+  <si>
+    <t>64tNsm6TnZe2zpcMVMOoHL</t>
+  </si>
+  <si>
+    <t>2RdwBSPQiwcmiDo9kixcl8</t>
+  </si>
+  <si>
+    <t>5vCOdeiQt9LyzdI87kt5Sh</t>
+  </si>
+  <si>
+    <t>26VFTg2z8YR0cCuwLzESi2</t>
+  </si>
+  <si>
+    <t>3hozsZ9hqNq7CoBGYNlFTz</t>
+  </si>
+  <si>
+    <t>3qm84nBOXUEQ2vnTfUTTFC</t>
+  </si>
+  <si>
+    <t>4zxvC7CRGvggq9EWXOpwAo</t>
+  </si>
+  <si>
+    <t>6Ff53KvcvAj5U7Z1vojB5o</t>
+  </si>
+  <si>
+    <t>7vFpNLbCXbBFs4kFBUlkSl</t>
+  </si>
+  <si>
+    <t>540vIaP2JwjQb9dm3aArA4</t>
+  </si>
+  <si>
+    <t>07XSN3sPlIlB2L2XNcTwJw</t>
+  </si>
+  <si>
+    <t>6XyY86QOPPrYVGvF9ch6wz</t>
+  </si>
+  <si>
+    <t>3TQ9JTBI2n2hfo7aRONEYV</t>
+  </si>
+  <si>
+    <t>2u0gw0uCWBMiqV7h0N8kai</t>
+  </si>
+  <si>
+    <t>6qXwLwTLdA44HYsA26vaNU</t>
+  </si>
+  <si>
+    <t>4GLJPBj5Cdr9AgLKvLWM4n</t>
+  </si>
+  <si>
+    <t>0cwmNvclzPd8mQnoHuIksj</t>
+  </si>
+  <si>
+    <t>3XsgWn63EnA4wYZBjVyxjf</t>
+  </si>
+  <si>
+    <t>2S5hlvw4CMtMGswFtfdK15</t>
+  </si>
+  <si>
+    <t>6T5tfhQCknKG4UnH90qGnz</t>
+  </si>
+  <si>
+    <t>02QYcz7JjwzKiKGHg53rZY</t>
+  </si>
+  <si>
+    <t>3jK9MiCrA42lLAdMGUZpwa</t>
+  </si>
+  <si>
+    <t>6SLAMfhOi7UJI0fMztaK0m</t>
+  </si>
+  <si>
+    <t>7wqtxqI3eo7Gn1P7SpP6cQ</t>
+  </si>
+  <si>
+    <t>0Nn9YwJzcaeuU1jJL06e3r</t>
+  </si>
+  <si>
+    <t>32lVGr0fSRGT6okLKHiP68</t>
+  </si>
+  <si>
+    <t>7xkAwz0bQTGDSbkofyQt3U</t>
+  </si>
+  <si>
+    <t>7CajNmpbOovFoOoasH2HaY</t>
+  </si>
+  <si>
+    <t>2Zq5OUwXVGPIPw6aBrVIFq</t>
+  </si>
+  <si>
+    <t>07QEuhtrNmmZ0zEcqE9SF6</t>
+  </si>
+  <si>
+    <t>03r4iKL2g2442PT9n2UKsx</t>
+  </si>
+  <si>
+    <t>5tth2a3v0sWwV1C7bApBdX</t>
+  </si>
+  <si>
+    <t>7mlge4peaoNgzTsY6M32RB</t>
+  </si>
+  <si>
+    <t>3X0tJzVYoWlfjLYI0Ridsw</t>
+  </si>
+  <si>
+    <t>36QJpDe2go2KgaRleHCDTp</t>
+  </si>
+  <si>
+    <t>0iVrCROxeyon7MZUW3MfzT</t>
+  </si>
+  <si>
+    <t>0BmLNz4nSLfoWYW1cYsElL</t>
+  </si>
+  <si>
+    <t>7c0XG5cIJTrrAgEC3ULPiq</t>
+  </si>
+  <si>
+    <t>1Yox196W7bzVNZI7RBaPnf</t>
+  </si>
+  <si>
+    <t>4AYkFtEBnNnGuoo8HaHErd</t>
+  </si>
+  <si>
+    <t>5OfhOoKunSnuubxxRML8J3</t>
+  </si>
+  <si>
+    <t>6aq8T2RcspxVOGgMrTzjWc</t>
+  </si>
+  <si>
+    <t>4S2yOnmsWW97dT87yVoaSZ</t>
+  </si>
+  <si>
+    <t>7gP3bB2nilZXLfPHJhMdvc</t>
+  </si>
+  <si>
+    <t>6w7fc6IZlo5zwBaKT5jU1X</t>
+  </si>
+  <si>
+    <t>4P0dddbxPil35MNN9G2MEX</t>
+  </si>
+  <si>
+    <t>6BkcAbUkfIBM4XudxieMq8</t>
+  </si>
+  <si>
+    <t>2m62cc253Xvd9qYQ8d2X3d</t>
+  </si>
+  <si>
+    <t>5BvJzeQpmsdsFp4HGUYUEx</t>
+  </si>
+  <si>
+    <t>07YZf4WDAMNwqr4jfgOZ8y</t>
+  </si>
+  <si>
+    <t>5WUlDfRSoLAfcVSX1WnrxN</t>
+  </si>
+  <si>
+    <t>3AuMNF8rQAKOzjYppFNAoB</t>
+  </si>
+  <si>
+    <t>2QmLFuIDtNDmmJY3OtvinN</t>
+  </si>
+  <si>
+    <t>4sD9znwiVFx9cgRPZ42aQ1</t>
+  </si>
+  <si>
+    <t>6OXILsPD4WNJ7XiGMAkCWa</t>
+  </si>
+  <si>
+    <t>3JsMj0DEzyWc0VDlHuy9Bx</t>
+  </si>
+  <si>
+    <t>64M6ah0SkkRsnPGtGiRAbb</t>
+  </si>
+  <si>
+    <t>3DiDSECUqqY1AuBP8qtaIa</t>
+  </si>
+  <si>
+    <t>2D2qwEatKbBSKhBCfP6lyn</t>
+  </si>
+  <si>
+    <t>3TVXtAsR1Inumwj472S9r4</t>
   </si>
   <si>
     <t>4RVnAU35WRWra6OZ3CbbMA</t>
   </si>
   <si>
-    <t>3YcBF2ttyueytpXtEzn1Za</t>
-  </si>
-  <si>
-    <t>4VhL8KLjVso4vLfOLVViTb</t>
-  </si>
-  <si>
-    <t>3HVdAiMNjYrQIKlOGxoGh5</t>
-  </si>
-  <si>
-    <t>4463nfFMmK1cwAWBQDwT5e</t>
-  </si>
-  <si>
-    <t>3oAazIwC0nAYkOKVQPUC38</t>
-  </si>
-  <si>
-    <t>08yf5A2nS4XEeNvabDXqyg</t>
-  </si>
-  <si>
-    <t>12Chz98pHFMPJEknJQMWvI</t>
-  </si>
-  <si>
-    <t>1jQDgp9Fak4WYVZedWLF4G</t>
-  </si>
-  <si>
-    <t>4e5V1Q2dKCzbLVMQ8qbTn6</t>
-  </si>
-  <si>
-    <t>0oSGxfWSnnOXhD2fKuz2Gy</t>
-  </si>
-  <si>
-    <t>4W48hZAnAHVOC2c8WH8pcq</t>
-  </si>
-  <si>
-    <t>0X2BH1fck6amBIoJhDVmmJ</t>
-  </si>
-  <si>
-    <t>5veVxxPm1vzgi6pO2iVA8L</t>
-  </si>
-  <si>
-    <t>2bcrMsFlF632EQ6VZERWFu</t>
-  </si>
-  <si>
-    <t>5ksRONqssB7BR161NTtJAm</t>
-  </si>
-  <si>
-    <t>4iudEcmuPlYNdbP3e1bdn1</t>
-  </si>
-  <si>
-    <t>5NGO30tJxFlKixkPSgXcFE</t>
-  </si>
-  <si>
-    <t>34v5MVKeQnIo0CWYMbbrPf</t>
-  </si>
-  <si>
-    <t>1HxJeLhIuegM3KgvPn8sTa</t>
-  </si>
-  <si>
-    <t>3XHO7cRUPCLOr6jwp8vsx5</t>
-  </si>
-  <si>
-    <t>4kYSro6naA4h99UJvo89HB</t>
-  </si>
-  <si>
-    <t>0Je74SitssvJg1w4Ra2EK7</t>
-  </si>
-  <si>
-    <t>3aBkeBhwadnWMWoVJ2CxJC</t>
-  </si>
-  <si>
-    <t>1Fmb52lZ6Jv7FMWXXTPO3K</t>
-  </si>
-  <si>
-    <t>2y8Jo9CKhJvtfeKOsYzRdT</t>
-  </si>
-  <si>
-    <t>2aYJ5LAta2ScCdfLhKgZOY</t>
-  </si>
-  <si>
-    <t>3Y10boYzeuFCJ4Qgp53w6o</t>
-  </si>
-  <si>
-    <t>14Gi3Uph96lpNB3utkoVAD</t>
-  </si>
-  <si>
-    <t>4tX2TplrkIP4v05BNC903e</t>
-  </si>
-  <si>
-    <t>6BkcAbUkfIBM4XudxieMq8</t>
-  </si>
-  <si>
-    <t>1aX2dmV8XoHYCOQRxjPESG</t>
-  </si>
-  <si>
-    <t>6zFYqv1mOsgBRQbae3JJ9e</t>
-  </si>
-  <si>
-    <t>2SwhNukah1MYpLR594PnuC</t>
-  </si>
-  <si>
-    <t>4f9iBmdUOhQWeP7dcAn1pf</t>
-  </si>
-  <si>
-    <t>2RE8NwNxsOyuNZDD0jRxHP</t>
-  </si>
-  <si>
-    <t>4A0TivfinfALCAMJqqjZIk</t>
-  </si>
-  <si>
-    <t>3r17AfJCCUqC9Lf0OAc73G</t>
-  </si>
-  <si>
-    <t>6lHL3ubAMgSasKjNqKb8HF</t>
-  </si>
-  <si>
-    <t>5nCi3BB41mBaMH9gfr6Su0</t>
-  </si>
-  <si>
-    <t>3NZE8jDD2cCzd4vUyZ5CQQ</t>
-  </si>
-  <si>
-    <t>3TQ9JTBI2n2hfo7aRONEYV</t>
-  </si>
-  <si>
-    <t>7LnaAXbDVIL75IVPnndf7w</t>
-  </si>
-  <si>
-    <t>4EnEZVjo3w1cwcQYePccay</t>
-  </si>
-  <si>
-    <t>4opTS86dN9uO313J9CE8xg</t>
-  </si>
-  <si>
-    <t>4yiQZ8tQPux8cPriYMWUFP</t>
-  </si>
-  <si>
-    <t>1YB5pnFfL7Y2vjRJLPxaLU</t>
-  </si>
-  <si>
-    <t>2wpWOzQE5TpA0dVnh5YD08</t>
-  </si>
-  <si>
-    <t>6TLwD7HPWuiOzvXEa3oCNe</t>
-  </si>
-  <si>
-    <t>0z4gvV4rjIZ9wHck67ucSV</t>
-  </si>
-  <si>
-    <t>7bvcQXJHkFiN1ppIN3q4fi</t>
-  </si>
-  <si>
-    <t>2dd5mrQZvg6SmahdgVKDzh</t>
-  </si>
-  <si>
-    <t>69Mj3u4FTUrpyeGNSIaU6F</t>
-  </si>
-  <si>
-    <t>6XyY86QOPPrYVGvF9ch6wz</t>
-  </si>
-  <si>
-    <t>4gzpq5DPGxSnKTe4SA8HAU</t>
+    <t>0nyc9SZGLITSOJASmTZsnZ</t>
+  </si>
+  <si>
+    <t>4uN3DsfENc7dp0OLO0FEIb</t>
+  </si>
+  <si>
+    <t>1n0pe6Cx9pCNvXYkX9TTLX</t>
+  </si>
+  <si>
+    <t>3C6chBmZ9wzisBhoh8G2nK</t>
+  </si>
+  <si>
+    <t>2YTbBGa3Tf2rRPhiJxWoUN</t>
+  </si>
+  <si>
+    <t>2LhsePRtgCo4THVKULQBL7</t>
   </si>
   <si>
     <t>7uhvDINTTiD0XBrP9fquN1</t>
   </si>
   <si>
-    <t>0Nn9YwJzcaeuU1jJL06e3r</t>
-  </si>
-  <si>
-    <t>6T5tfhQCknKG4UnH90qGnz</t>
-  </si>
-  <si>
-    <t>7wqtxqI3eo7Gn1P7SpP6cQ</t>
-  </si>
-  <si>
-    <t>4njdEjTnLfcGImKZu1iSrz</t>
-  </si>
-  <si>
-    <t>6Rx1JKzBrSzoKQtmbVmBnM</t>
-  </si>
-  <si>
-    <t>5xUf6j4upBrXZPg6AI4MRK</t>
-  </si>
-  <si>
-    <t>27T030eWyCQRmDyuvr1kxY</t>
-  </si>
-  <si>
-    <t>2jzc5TC5TVFLXQlBNiIUzE</t>
-  </si>
-  <si>
-    <t>4rGrN4XDYhP6dUAZMvcuHr</t>
-  </si>
-  <si>
-    <t>20p5D2KrE8CGuOjHtxsyTp</t>
-  </si>
-  <si>
-    <t>2u0gw0uCWBMiqV7h0N8kai</t>
-  </si>
-  <si>
-    <t>43ZHCT0cAZBISjO8DG9PnE</t>
-  </si>
-  <si>
-    <t>0lZoBs4Pzo7R89JM9lxwoT</t>
-  </si>
-  <si>
-    <t>5yG7ZAZafVaAlMTeBybKAL</t>
-  </si>
-  <si>
-    <t>0z5DFXmhT4ZNzWElsM7V89</t>
-  </si>
-  <si>
-    <t>5sD1ZLf2dGQ9gQ3YJl1eAd</t>
-  </si>
-  <si>
-    <t>7Ln80lUS6He07XvHI8qqHH</t>
-  </si>
-  <si>
-    <t>2TzHIUhVpeeDxyJPpQfnV3</t>
-  </si>
-  <si>
-    <t>4LLpKhyESsyAXpc4laK94U</t>
-  </si>
-  <si>
-    <t>3C6chBmZ9wzisBhoh8G2nK</t>
-  </si>
-  <si>
-    <t>3SYGWAHCe31oykdeUPpoJp</t>
-  </si>
-  <si>
-    <t>1VBflYyxBhnDc9uVib98rw</t>
-  </si>
-  <si>
-    <t>3TNt4aUIxgfy9aoaft5Jj2</t>
-  </si>
-  <si>
-    <t>057gc1fxmJ2vkctjQJ7Tal</t>
-  </si>
-  <si>
-    <t>4y5wqoJUmlvr9xV6l5lO4b</t>
-  </si>
-  <si>
-    <t>1l8Fu6IkuTP0U5QetQJ5Xt</t>
-  </si>
-  <si>
-    <t>7A9yZMTrFZcgEWAX2kBfK6</t>
-  </si>
-  <si>
-    <t>2tIP7SsRs7vjIcLrU85W8J</t>
-  </si>
-  <si>
-    <t>3M4ThdJR28z9eSMcQHAZ5G</t>
-  </si>
-  <si>
-    <t>5EvFsr3kj42KNv97ZEnqij</t>
-  </si>
-  <si>
-    <t>19ra5tSw0tWufvUp8GotLo</t>
-  </si>
-  <si>
-    <t>6VX2R9L0O0d6qPvqGuIH7b</t>
-  </si>
-  <si>
-    <t>2rblp9fJo16ZPTcKDtlmKW</t>
-  </si>
-  <si>
-    <t>5gxynDEKwNDgxGJmJjZyte</t>
-  </si>
-  <si>
-    <t>5P5FTygHyx2G57oszR3Wot</t>
-  </si>
-  <si>
-    <t>0Grjlu7ncIuCaSYvCs9fcd</t>
-  </si>
-  <si>
-    <t>7ip3CWlgPZbQHvgJpmcGSS</t>
-  </si>
-  <si>
-    <t>0yNLKJebCb8Aueb54LYya3</t>
-  </si>
-  <si>
-    <t>15UsOTVnJzReFVN1VCnxy4</t>
-  </si>
-  <si>
-    <t>6TcnmlCSxihzWOQJ8k0rNS</t>
-  </si>
-  <si>
-    <t>1Cs0zKBU1kc0i8ypK3B9ai</t>
-  </si>
-  <si>
-    <t>4phGZZrJZRo4ElhRtViYdl</t>
-  </si>
-  <si>
-    <t>5BcAKTbp20cv7tC5VqPFoC</t>
-  </si>
-  <si>
-    <t>DNA</t>
+    <t>2ye2Wgw4gimLv2eAKyk1NB</t>
+  </si>
+  <si>
+    <t>1uNFoZAHBGtllmzznpCI3s</t>
+  </si>
+  <si>
+    <t>63yrD80RY3RNEM2YDpUpO8</t>
+  </si>
+  <si>
+    <t>4tZwfgrHOc3mvqYlEYSvVi</t>
+  </si>
+  <si>
+    <t>7Js6Lde8thlIHXggv2SCBz</t>
+  </si>
+  <si>
+    <t>4tpUmLEVLCGFr93o8hFFIB</t>
+  </si>
+  <si>
+    <t>3fMbdgg4jU18AjLCKBhRSm</t>
+  </si>
+  <si>
+    <t>Daniel Merriweather</t>
+  </si>
+  <si>
+    <t>Jennifer Lopez</t>
+  </si>
+  <si>
+    <t>Geri Halliwell</t>
+  </si>
+  <si>
+    <t>Herbie Hancock</t>
+  </si>
+  <si>
+    <t>2 Unlimited</t>
+  </si>
+  <si>
+    <t>Seeb</t>
+  </si>
+  <si>
+    <t>Yazz</t>
+  </si>
+  <si>
+    <t>Lil Wayne</t>
+  </si>
+  <si>
+    <t>Clairo</t>
+  </si>
+  <si>
+    <t>Tones And I</t>
+  </si>
+  <si>
+    <t>Marshmello</t>
+  </si>
+  <si>
+    <t>Collective Soul</t>
+  </si>
+  <si>
+    <t>Tracy Chapman</t>
+  </si>
+  <si>
+    <t>Drake Bell</t>
+  </si>
+  <si>
+    <t>Plain White T's</t>
+  </si>
+  <si>
+    <t>MC Hammer</t>
+  </si>
+  <si>
+    <t>Wanz</t>
+  </si>
+  <si>
+    <t>KT Tunstall</t>
+  </si>
+  <si>
+    <t>George Thorogood &amp; The Destroyers</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>Hayley Williams</t>
+  </si>
+  <si>
+    <t>Sophie Ellis-Bextor</t>
+  </si>
+  <si>
+    <t>Rage Against The Machine</t>
+  </si>
+  <si>
+    <t>System Of A Down</t>
+  </si>
+  <si>
+    <t>Cyndi Lauper</t>
+  </si>
+  <si>
+    <t>Alice In Chains</t>
+  </si>
+  <si>
+    <t>Pharrell Williams</t>
+  </si>
+  <si>
+    <t>AronChupa</t>
+  </si>
+  <si>
+    <t>Halsey</t>
+  </si>
+  <si>
+    <t>OK Go</t>
+  </si>
+  <si>
+    <t>Guns N' Roses</t>
+  </si>
+  <si>
+    <t>Kiesza</t>
+  </si>
+  <si>
+    <t>*NSYNC</t>
+  </si>
+  <si>
+    <t>Zombie Nation</t>
+  </si>
+  <si>
+    <t>DJ Snake</t>
+  </si>
+  <si>
+    <t>KISS</t>
+  </si>
+  <si>
+    <t>Linkin Park</t>
+  </si>
+  <si>
+    <t>Sir Mix-A-Lot</t>
+  </si>
+  <si>
+    <t>Wet Wet Wet</t>
+  </si>
+  <si>
+    <t>Tonic</t>
+  </si>
+  <si>
+    <t>Dragonette</t>
+  </si>
+  <si>
+    <t>Vengaboys</t>
+  </si>
+  <si>
+    <t>Ugly Kid Joe</t>
+  </si>
+  <si>
+    <t>Royal Blood</t>
+  </si>
+  <si>
+    <t>DNCE</t>
+  </si>
+  <si>
+    <t>Sasha</t>
+  </si>
+  <si>
+    <t>Anderson .Paak</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>Salt-N-Pepa</t>
+  </si>
+  <si>
+    <t>The Knack</t>
+  </si>
+  <si>
+    <t>Taylor Dayne</t>
+  </si>
+  <si>
+    <t>Belinda Carlisle</t>
+  </si>
+  <si>
+    <t>Calvin Harris</t>
+  </si>
+  <si>
+    <t>Colin Peter</t>
+  </si>
+  <si>
+    <t>Owl City</t>
+  </si>
+  <si>
+    <t>Beastie Boys</t>
+  </si>
+  <si>
+    <t>Lil' Kim</t>
+  </si>
+  <si>
+    <t>Marianne Faithfull</t>
+  </si>
+  <si>
+    <t>Suzanne Vega</t>
+  </si>
+  <si>
+    <t>Led Zeppelin</t>
+  </si>
+  <si>
+    <t>Montell Jordan</t>
+  </si>
+  <si>
+    <t>Alexandra Stan</t>
+  </si>
+  <si>
+    <t>Ty Dolla $ign</t>
+  </si>
+  <si>
+    <t>Megadeth</t>
+  </si>
+  <si>
+    <t>Madness</t>
+  </si>
+  <si>
+    <t>Mr. Big</t>
+  </si>
+  <si>
+    <t>Soft Cell</t>
+  </si>
+  <si>
+    <t>NOFX</t>
+  </si>
+  <si>
+    <t>Foster The People</t>
+  </si>
+  <si>
+    <t>The Lemonheads</t>
+  </si>
+  <si>
+    <t>Cypress Hill</t>
+  </si>
+  <si>
+    <t>Dr. Alban</t>
+  </si>
+  <si>
+    <t>The Alan Parsons Project</t>
+  </si>
+  <si>
+    <t>Vampire Weekend</t>
+  </si>
+  <si>
+    <t>Jason Derulo</t>
+  </si>
+  <si>
+    <t>Sia</t>
+  </si>
+  <si>
+    <t>Kelly Rowland</t>
+  </si>
+  <si>
+    <t>Meredith Brooks</t>
+  </si>
+  <si>
+    <t>Sinéad O'Connor</t>
+  </si>
+  <si>
+    <t>Bad Boys Blue</t>
+  </si>
+  <si>
+    <t>Supertramp</t>
+  </si>
+  <si>
+    <t>Bebe Rexha</t>
+  </si>
+  <si>
+    <t>Alicia Keys</t>
+  </si>
+  <si>
+    <t>Bodeans</t>
+  </si>
+  <si>
+    <t>Drake</t>
   </si>
   <si>
     <t>Kylie Minogue</t>
   </si>
   <si>
-    <t>Incubus</t>
-  </si>
-  <si>
-    <t>Bridgit Mendler</t>
-  </si>
-  <si>
-    <t>Rob Zombie</t>
-  </si>
-  <si>
-    <t>Laura Branigan</t>
-  </si>
-  <si>
-    <t>Sirah</t>
-  </si>
-  <si>
-    <t>Billy Talent</t>
-  </si>
-  <si>
-    <t>Muse</t>
-  </si>
-  <si>
-    <t>The Biz</t>
-  </si>
-  <si>
-    <t>Collective Soul</t>
-  </si>
-  <si>
-    <t>David Bowie</t>
-  </si>
-  <si>
-    <t>The Temper Trap</t>
-  </si>
-  <si>
-    <t>Ellie Goulding</t>
-  </si>
-  <si>
-    <t>Bruno Martini</t>
-  </si>
-  <si>
-    <t>The Bravery</t>
-  </si>
-  <si>
-    <t>Ace of Base</t>
-  </si>
-  <si>
-    <t>Silverchair</t>
-  </si>
-  <si>
-    <t>The Police</t>
-  </si>
-  <si>
-    <t>John Newman</t>
-  </si>
-  <si>
-    <t>Jack Ü</t>
-  </si>
-  <si>
-    <t>alt-J</t>
-  </si>
-  <si>
-    <t>Cardi B</t>
-  </si>
-  <si>
-    <t>4 Non Blondes</t>
-  </si>
-  <si>
-    <t>Rob Thomas</t>
-  </si>
-  <si>
-    <t>Joan Jett &amp; The Blackhearts</t>
-  </si>
-  <si>
-    <t>Rod Stewart</t>
-  </si>
-  <si>
-    <t>Cobra Starship</t>
-  </si>
-  <si>
-    <t>Scissor Sisters</t>
-  </si>
-  <si>
-    <t>Hard-FI</t>
-  </si>
-  <si>
-    <t>Tom Petty and the Heartbreakers</t>
-  </si>
-  <si>
-    <t>Dr. Alban</t>
-  </si>
-  <si>
-    <t>The Human League</t>
-  </si>
-  <si>
-    <t>Billy Joel</t>
-  </si>
-  <si>
-    <t>Steve Edwards</t>
-  </si>
-  <si>
-    <t>Rag'n'Bone Man</t>
-  </si>
-  <si>
-    <t>Kool Moe Dee</t>
-  </si>
-  <si>
-    <t>Funk Wav</t>
-  </si>
-  <si>
-    <t>Fergie</t>
-  </si>
-  <si>
-    <t>Mýa</t>
-  </si>
-  <si>
-    <t>fun.</t>
-  </si>
-  <si>
-    <t>Spacehog</t>
-  </si>
-  <si>
-    <t>Sir Mix-A-Lot</t>
-  </si>
-  <si>
-    <t>Jamie Foxx</t>
-  </si>
-  <si>
-    <t>N.W.A.</t>
-  </si>
-  <si>
-    <t>Skid Row</t>
-  </si>
-  <si>
-    <t>Gwen Stefani</t>
-  </si>
-  <si>
-    <t>Sabrina</t>
-  </si>
-  <si>
-    <t>Bronski Beat</t>
-  </si>
-  <si>
-    <t>Oliver Tree</t>
-  </si>
-  <si>
-    <t>Akon</t>
-  </si>
-  <si>
-    <t>Joss Stone</t>
-  </si>
-  <si>
-    <t>PSY</t>
-  </si>
-  <si>
-    <t>The J. Geils Band</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>Coldplay</t>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>Sugar Ray</t>
+  </si>
+  <si>
+    <t>Real Life</t>
+  </si>
+  <si>
+    <t>Naked Eyes</t>
+  </si>
+  <si>
+    <t>Camouflage</t>
+  </si>
+  <si>
+    <t>L.V.</t>
   </si>
   <si>
     <t>The Hooters</t>
   </si>
   <si>
-    <t>The Knack</t>
-  </si>
-  <si>
-    <t>DNCE</t>
-  </si>
-  <si>
-    <t>Salt-N-Pepa</t>
-  </si>
-  <si>
-    <t>AWOLNATION</t>
-  </si>
-  <si>
-    <t>Hayley Williams</t>
-  </si>
-  <si>
-    <t>Soundgarden</t>
-  </si>
-  <si>
-    <t>Scorpions</t>
-  </si>
-  <si>
-    <t>a-ha</t>
-  </si>
-  <si>
-    <t>Caesars</t>
-  </si>
-  <si>
-    <t>Fine Young Cannibals</t>
-  </si>
-  <si>
-    <t>Wet Wet Wet</t>
-  </si>
-  <si>
-    <t>Elvis Presley</t>
-  </si>
-  <si>
-    <t>Duran Duran</t>
-  </si>
-  <si>
-    <t>Iggy Azalea</t>
-  </si>
-  <si>
-    <t>Erasure</t>
-  </si>
-  <si>
-    <t>Blind Melon</t>
-  </si>
-  <si>
-    <t>Arctic Monkeys</t>
-  </si>
-  <si>
-    <t>Katrina &amp; The Waves</t>
-  </si>
-  <si>
-    <t>Mac Miller</t>
-  </si>
-  <si>
-    <t>Naked Eyes</t>
-  </si>
-  <si>
-    <t>Miranda Cosgrove</t>
-  </si>
-  <si>
-    <t>Icona Pop</t>
-  </si>
-  <si>
-    <t>Yeah Yeah Yeahs</t>
-  </si>
-  <si>
-    <t>The Buggles</t>
-  </si>
-  <si>
-    <t>Carl Ward</t>
-  </si>
-  <si>
-    <t>Fifth Harmony</t>
-  </si>
-  <si>
-    <t>Huey Lewis &amp; The News</t>
-  </si>
-  <si>
-    <t>The Kid LAROI</t>
-  </si>
-  <si>
-    <t>The Fratellis</t>
-  </si>
-  <si>
-    <t>Shaggy</t>
-  </si>
-  <si>
-    <t>George Michael</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>MC Hammer</t>
-  </si>
-  <si>
-    <t>Steve Winwood</t>
-  </si>
-  <si>
-    <t>Daughtry</t>
-  </si>
-  <si>
-    <t>New Radicals</t>
-  </si>
-  <si>
-    <t>Peter Schilling</t>
-  </si>
-  <si>
-    <t>New Order</t>
-  </si>
-  <si>
-    <t>XXXTENTACION</t>
-  </si>
-  <si>
-    <t>Third Eye Blind</t>
-  </si>
-  <si>
-    <t>David Guetta</t>
-  </si>
-  <si>
-    <t>Jason Mraz</t>
-  </si>
-  <si>
-    <t>Macklemore &amp; Ryan Lewis</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Dna-battle-rapper', 'annotations': {'description': '&lt;p&gt;Born in Queens, New York on April 17, 1991, Eric St. John (aka DNA) is an American battle rapper and MC, and is one of the most-viewed English-speaking battle rappers of all time.&lt;/p&gt;\n\n&lt;p&gt;Starting his battle career on Grind Time Now, DNA is known for his wordplay, schemes, charisma, and sense of humor in the ring.  He has used these strengths to create multiple classics and otherwise solid battles on leagues like URL, King of the Dot, Don’t Flop, and many more.&lt;/p&gt;\n\n&lt;p&gt;Below is a list of all of DNA’s league battles (in chronological order):&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2009&lt;/b&gt;&lt;br&gt;\n#1. Amzilla vs. DNA (4-11-2009^)&lt;br&gt;\n#2. DNA vs. Prophit (5-28-2009^)&lt;br&gt;\n#3. DNA vs. AKA (6-29-2009^)&lt;br&gt;\n#4. DNA vs. Lil\' Farnum (7-11-2009)&lt;br&gt;\n#5. DNA vs. Loe Pesci (9-1-2009)&lt;br&gt;\n#6. DNA vs. Pnut (9-4-2009)&lt;br&gt;\n#7. &lt;a href="https://genius.com/Grind-time-now-dna-vs-rone-2009-lyrics" rel="noopener" data-api_path="/songs/2330317"&gt;DNA vs. Rone (9-30-2009^)&lt;/a&gt;&lt;br&gt;\n#8. &lt;a href="https://genius.com/Grind-time-now-soul-khan-and-dna-vs-rone-and-zm-lyrics" rel="noopener" data-api_path="/songs/2329572"&gt;DNA &amp;amp; Soul Khan vs. Rone &amp;amp; ZM (12-23-2009)&lt;/a&gt;&lt;br&gt;\n#9. Rich Dolarz vs. DNA (12-23-2009)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2010&lt;/b&gt;&lt;br&gt;\n#10. Oun P vs. DNA (2-6-2010)&lt;br&gt;\n#11. Tsu Surf vs. DNA (2-27-2010)&lt;br&gt;\n#12. Big T vs. DNA (9-26-2010)&lt;br&gt;\n#13. &lt;a href="https://genius.com/Time-is-money-dna-vs-t-rex-lyrics" rel="noopener" data-api_path="/songs/4351726"&gt;DNA vs. T-Rex (10-?-2010)&lt;/a&gt;&lt;br&gt;\n#14. Gage vs. DNA (12-27-2010^)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2011&lt;/b&gt;&lt;br&gt;\n#15. &lt;a href="https://genius.com/Urltv-dna-vs-yung-ill-lyrics" rel="noopener" data-api_path="/songs/4295037"&gt;DNA vs. Yung Ill (3-27-2011)&lt;/a&gt;&lt;br&gt;\n#16. DNA vs. X-Factor (8-7-2011)&lt;br&gt;\n#17. &lt;a href="https://genius.com/King-of-the-dot-dizaster-vs-dna-lyrics" rel="noopener" data-api_path="/songs/149911"&gt;Dizaster vs. DNA (11-5-2011)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2012&lt;/b&gt;&lt;br&gt;\n#18. &lt;a href="https://genius.com/Urltv-dna-vs-tech-9-lyrics" rel="noopener" data-api_path="/songs/4433935"&gt;DNA vs. Tech 9 (3-25-2012)&lt;/a&gt;&lt;br&gt;\n#19. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-eurgh-lyrics" rel="noopener" data-api_path="/songs/2823267"&gt;DNA vs. Eurgh (6-9-2012)&lt;/a&gt;&lt;br&gt;\n#20. &lt;a href="https://genius.com/Urltv-dna-vs-e-ness-lyrics" rel="noopener" data-api_path="/songs/7119637"&gt;DNA vs. E. Ness (8-19-2012)&lt;/a&gt;&lt;br&gt;\n#21. DNA vs. Sensa (10-24-2012)&lt;br&gt;\n#22. Michael Blackson vs. DNA (10-25-2012^)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2013&lt;/b&gt;&lt;br&gt;\n#23. &lt;a href="https://genius.com/Urltv-dna-vs-k-shine-lyrics" rel="noopener" data-api_path="/songs/2445743"&gt;DNA vs. K-Shine (3-8-2013)&lt;/a&gt;&lt;br&gt;\n#24. DNA vs. Anecdote (3-16-2013)&lt;br&gt;\n#25. &lt;a href="https://genius.com/King-of-the-dot-the-saurus-vs-dna-lyrics" rel="noopener" data-api_path="/songs/3124095"&gt;The Saurus vs. DNA (3-22-2013)&lt;/a&gt;&lt;br&gt;\n#26. S. Youngin vs DNA (3-29-13)&lt;br&gt;\n#27. Unanymous &amp;amp; Chris Leese vs. Charlie Clips &amp;amp; DNA (4-27-2013)&lt;br&gt;\n#28. &lt;a href="https://genius.com/Dont-flop-arsonal-vs-dna-lyrics" rel="noopener" data-api_path="/songs/226905"&gt;Arsonal vs. DNA (4-27-2013)&lt;/a&gt;&lt;br&gt;\n#29. &lt;a href="https://genius.com/Urltv-dna-vs-chilla-jones-lyrics" rel="noopener" data-api_path="/songs/2442324"&gt;DNA vs. Chilla Jones (6-23-2013)&lt;/a&gt;&lt;br&gt;\n#30. &lt;a href="https://genius.com/King-of-the-dot-charron-vs-dna-lyrics" rel="noopener" data-api_path="/songs/2434650"&gt;Charron vs. DNA (8-23-2013)&lt;/a&gt;&lt;br&gt;\n#31. Pass vs. DNA (10-12-2013)&lt;br&gt;\n#32. DNA vs. Midwest Miles (10-19-2013)&lt;br&gt;\n#33. &lt;a href="https://genius.com/Urltv-b-magic-vs-dna-lyrics" rel="noopener" data-api_path="/songs/2437750"&gt;B Magic vs. DNA (10-26-2013)&lt;/a&gt;&lt;br&gt;\n#34. DNA &amp;amp; Cortez vs. Scizzahz &amp;amp; Wizard (11-9-2013)&lt;br&gt;\n#35. Villun vs. DNA (11-10-2013)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2014&lt;/b&gt;&lt;br&gt;\n#36. DNA vs. Calicoe (1-5-2014)&lt;br&gt;\n#37. Arcane vs. DNA (1-24-2014)&lt;br&gt;\n#38. DNA vs Young Kannon (3-24-2014) (Vaulted)&lt;br&gt;\n#39. &lt;a href="https://genius.com/Urltv-dna-vs-prez-mafia-lyrics" rel="noopener" data-api_path="/songs/5053412"&gt;DNA vs. Prez Mafia (5-17-2014)&lt;/a&gt;&lt;br&gt;\n#40. DNA vs. Celebrity Cell (5-31-2014)&lt;br&gt;\n#41. DNA vs. Ill Will (6-7-2014)&lt;br&gt;\n#42. &lt;a href="https://genius.com/King-of-the-dot-ar-and-talksic-vs-dna-and-charron-lyrics" rel="noopener" data-api_path="/songs/2866136"&gt;AR &amp;amp; Talksic vs. DNA &amp;amp; Charron (9-24-2014^)&lt;/a&gt;&lt;br&gt;\n#43. &lt;a href="https://genius.com/Urltv-tay-roc-vs-dna-lyrics" rel="noopener" data-api_path="/songs/2407818"&gt;Tay Roc vs. DNA (9-26-2014)&lt;/a&gt;&lt;br&gt;\n#44. DNA vs. Sketch Menace (10-4-2014)&lt;br&gt;\n#45. DNA vs. Sonny Bamboo (11-1-2014)&lt;br&gt;\n#46. DNA vs. M. Ciddy (11-8-2014)&lt;br&gt;\n#47. Cruger vs. DNA (11-15-2014)&lt;br&gt;\n#48. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-rone-2014-lyrics" rel="noopener" data-api_path="/songs/2322297"&gt;DNA vs. Rone (REMATCH) [11-22-2014]&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2015&lt;/b&gt;&lt;br&gt;\n#49. &lt;a href="https://genius.com/King-of-the-dot-illmaculate-vs-dna-lyrics" rel="noopener" data-api_path="/songs/3363364"&gt;Illmaculate vs. DNA (2-7-2015)&lt;/a&gt;&lt;br&gt;\n#50. DNA vs. Chess (3-27-2015)&lt;br&gt;\n#51. DNA &amp;amp; K-Shine vs. John John Da Don &amp;amp; Syahboy (4-4-2015)&lt;br&gt;\n#52. &lt;a href="https://genius.com/Urltv-serius-jones-vs-dna-lyrics" rel="noopener" data-api_path="/songs/5369135"&gt;Serius Jones vs. DNA (5-9-2015)&lt;/a&gt;&lt;br&gt;\n#53. Charlie Clips vs. DNA (6-5-2015)&lt;br&gt;\n#54. Hitman Holla &amp;amp; Aye Verb vs. DNA &amp;amp; K-Shine (6-20-2015)&lt;br&gt;\n#55. Marv Won &amp;amp; Quest MCody vs. DNA &amp;amp; K-Shine (6-27-2015)&lt;br&gt;\n#56. DNA vs. Rosenberg Raw (7-5-2015)&lt;br&gt;\n#57. DNA &amp;amp; K-Shine vs. Chess &amp;amp; Steams (7-24-2015)&lt;br&gt;\n#58. 40 B.A.R.R.S &amp;amp; Bonnie Godiva vs. DNA &amp;amp; K-Shine (8-9-2015)&lt;br&gt;\n#59. DNA vs. Cityy Towers (9-13-2015)&lt;br&gt;\n#60. DNA &amp;amp; K-Shine vs. Chess &amp;amp; Steams (REMATCH) [9-25-2015]&lt;br&gt;\n#61. DNA vs. Real Deal (10-10-2015)&lt;br&gt;\n#62. DNA vs. Syahboy (10-18-2015)&lt;br&gt;\n#63. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-dirtbag-dan-lyrics" rel="noopener" data-api_path="/songs/2821630"&gt;DNA vs. Dirtbag Dan (10-24-2015)&lt;/a&gt;&lt;br&gt;\n#64. CoJay vs. DNA (11-14-2015)&lt;br&gt;\n#65. Deffinition vs. DNA (11-15-2015)&lt;br&gt;\n#66. &lt;a href="https://genius.com/Dont-flop-charron-and-100-bulletz-vs-dna-and-k-shine-lyrics" rel="noopener" data-api_path="/songs/2483295"&gt;Charron &amp;amp; 100 Bulletz vs. DNA &amp;amp; K-Shine (11-28-2015)&lt;/a&gt;&lt;br&gt;\n#67. DNA vs. Brizz Rawsteen (12-12-2015)&lt;br&gt;\n#68. DNA &amp;amp; K-Shine vs. Math Hoffa &amp;amp; Cortez (12-20-2015)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2016&lt;/b&gt;&lt;br&gt;\n#69. &lt;a href="https://genius.com/Black-ice-cartel-dna-vs-danja-zone-lyrics" rel="noopener" data-api_path="/songs/3352909"&gt;DNA vs. Danja Zone (1-10-2016)&lt;/a&gt;&lt;br&gt;\n#70. K-Shine &amp;amp; DNA vs. E. Farrell &amp;amp; JeFFrey (1-30-2016)&lt;br&gt;\n#71. DNA vs. Vicci (2-13-2016)&lt;br&gt;\n#72. Arrow vs. DNA (2-20-2016)&lt;br&gt;\n#73. Arsonal &amp;amp; Shotgun Suge vs. DNA &amp;amp; K-Shine (2-28-2016)&lt;br&gt;\n#74. &lt;a href="https://genius.com/Urltv-tsu-surf-and-tay-roc-vs-k-shine-and-dna-lyrics" rel="noopener" data-api_path="/songs/2468773"&gt;Tsu Surf &amp;amp; Tay Roc vs. K-Shine &amp;amp; DNA (3-26-2016)&lt;/a&gt;&lt;br&gt;\n#75. Ty Law vs. DNA (3-26-2016)&lt;br&gt;\n#76. DNA vs. Bangz (5-15-2016)&lt;br&gt;\n#77. Philly Swain vs. DNA (5-22-2016)&lt;br&gt;\n#78. DNA &amp;amp; K-Shine vs. Frankie Wapps &amp;amp; Jaze Juice (5-22-2016)&lt;br&gt;\n#79. DNA vs. Troy Brown (6-5-2016)&lt;br&gt;\n#80. &lt;a href="https://genius.com/King-of-the-dot-dizaster-vs-dna-2016-lyrics" rel="noopener" data-api_path="/songs/2818721"&gt;Dizaster vs. DNA (6-25-2016)&lt;/a&gt;&lt;br&gt;\n#81. &lt;a href="https://genius.com/Urltv-tsu-surf-and-tay-roc-vs-k-shine-and-dna-rematch-lyrics" rel="noopener" data-api_path="/songs/3868848"&gt;Tsu Surf &amp;amp; Tay Roc vs. K-Shine &amp;amp; DNA (REMATCH) [7-9-2016]&lt;/a&gt;&lt;br&gt;\n#82. DNA vs. Chef Trez (7-16-2016)&lt;br&gt;\n#83. Krome vs. DNA (7-22-2016)&lt;br&gt;\n#84. Don Marino vs. DNA (7-28-2016)&lt;br&gt;\n#85. DNA vs. Jae Lyrics (8-20-2016)&lt;br&gt;\n#86. KG The Poet vs. DNA (9-11-2016)&lt;br&gt;\n#87. DNA vs. Rad B (10-23-2016)&lt;br&gt;\n#88. DNA vs. Loso (11-5-2016)&lt;br&gt;\n#89. DNA vs. Joey Gambello (12-17-2016)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2017&lt;/b&gt;&lt;br&gt;\n#90. DNA vs. T-Dubb-O (1-15-2017)&lt;br&gt;\n#91. Pat Stay vs. DNA (1-22-2017)&lt;br&gt;\n#92. Biz Barker vs. DNA (1-29-2017)&lt;br&gt;\n#93. &lt;a href="https://genius.com/King-of-the-dot-a-ward-vs-dna-lyrics" rel="noopener" data-api_path="/songs/3072521"&gt;A. Ward vs. DNA (4-14-2017)&lt;/a&gt;&lt;br&gt;\n#94. Scoop vs. DNA (4-30-2017)&lt;br&gt;\n#95. DNA vs. Reed Dollaz (6-10-2017)&lt;br&gt;\n#96. DNA vs. Haixian (6-17-2017)&lt;br&gt;\n#97. DNA &amp;amp; K-Shine vs. X-Factor &amp;amp; Midwest Miles (6-24-2017)&lt;br&gt;\n#98. &lt;a href="https://genius.com/King-of-the-dot-dna-vs-jimz-lyrics" rel="noopener" data-api_path="/songs/3335689"&gt;DNA vs. Jimz (7-22-2017)&lt;/a&gt;&lt;br&gt;\n#99. DNA vs. 7 Weaponz (7-23-2017)&lt;br&gt;\n#100. DNA &amp;amp; K-Shine vs. Stoopidbars &amp;amp; Swiiffjay (7-30-2017)&lt;br&gt;\n#101. Shotgun Suge vs. DNA (8-5-2017)&lt;br&gt;\n#102. DNA &amp;amp; K-Shine vs. Drugz &amp;amp; Quban (8-19-2017)&lt;br&gt;\n#103. DNA vs. Young Herb (8-19-2017)&lt;br&gt;\n#104. DNA vs. Murdock (9-9-2017)&lt;br&gt;\n#105. QP &amp;amp; Qleen Paper vs. DNA &amp;amp; K-Shine (9-17-2017)&lt;br&gt;\n#106. Tetsho Vintage vs. DNA (9-30-2017)&lt;br&gt;\n#107. DNA vs. Big Kannon (11-4-2017)&lt;br&gt;\n#108. &lt;a href="https://genius.com/Urltv-dna-vs-rum-nitty-lyrics" rel="noopener" data-api_path="/songs/3484197"&gt;DNA vs. Rum Nitty (11-11-2017)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2018&lt;/b&gt;&lt;br&gt;\n#109. Charlie Clips &amp;amp; DNA vs. Big Kannon &amp;amp; Young Kannon (2-3-2018)&lt;br&gt;\n#110. Scotty vs. DNA (3-3-2018)&lt;br&gt;\n#111. E. Ness vs. DNA (3-24-2018)&lt;br&gt;\n#112. DNA vs. O-Red (5-12-2018)&lt;br&gt;\n#113. &lt;a href="https://genius.com/Urltv-dna-vs-jc-lyrics" rel="noopener" data-api_path="/songs/4001239"&gt;DNA vs. JC (6-23-2018)&lt;/a&gt;&lt;br&gt;\n#114. &lt;a href="https://genius.com/Urltv-dna-vs-nu-jerzey-twork-lyrics" rel="noopener" data-api_path="/songs/3902545"&gt;DNA vs. Nu Jerzey Twork (8-11-2018)&lt;/a&gt;&lt;br&gt;\n#115. &lt;a href="https://genius.com/Urltv-dna-vs-danny-myers-lyrics" rel="noopener" data-api_path="/songs/4034604"&gt;DNA vs. Danny Myers (10-13-2018)&lt;/a&gt;&lt;br&gt;\n#116. Mr. Tongue Twister vs. DNA (10-19-2018)&lt;br&gt;\n#117. DNA vs. Quill (10-20-2018)&lt;br&gt;\n#118. DNA vs. Big Hann (11-24-2018)&lt;br&gt;\n#119. &lt;a href="https://genius.com/Urltv-dna-vs-mickey-factz-lyrics" rel="noopener" data-api_path="/songs/4163877"&gt;DNA vs. Mickey Factz (12-15-2018)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2019&lt;/b&gt;&lt;br&gt;\n#120. DNA vs. MVP (2-10-2019)&lt;br&gt;\n#121. DNA &amp;amp; K-Shine vs. Killa B &amp;amp; Showstoppa (3-30-2019)&lt;br&gt;\n#122. DNA vs. Heiron (7-4-2019)&lt;br&gt;\n#123. &lt;a href="https://genius.com/Urltv-nwx-vs-efb-lyrics" rel="noopener" data-api_path="/songs/4806403"&gt;DNA &amp;amp; K-Shine vs. Rum Nitty &amp;amp; Geechi Gotti (8-10-2019)&lt;/a&gt;&lt;br&gt;\n#124. Nu Jerzey Twork &amp;amp; Shotgun Suge vs. DNA &amp;amp; K-Shine (9-7-2019)&lt;br&gt;\n#125. &lt;a href="https://genius.com/Urltv-dna-vs-geechi-gotti-lyrics" rel="noopener" data-api_path="/songs/4931484"&gt;DNA vs. Geechi Gotti (10-5-2019)&lt;/a&gt;&lt;br&gt;\n#126. &lt;a href="https://genius.com/Urltv-dna-vs-t-top-lyrics" rel="noopener" data-api_path="/songs/4933028"&gt;DNA vs. T-Top (10-5-2019)&lt;/a&gt;&lt;br&gt;\n#127. DNA vs. Bill Collector (10-6-2019)&lt;br&gt;\n#128. DNA vs. Chilla Jones (10-26-2019) [Rematch]&lt;br&gt;\n#129. &lt;a href="https://genius.com/Urltv-aye-verb-vs-dna-lyrics" rel="noopener" data-api_path="/songs/5108959"&gt;Aye Verb vs. DNA (12-14-2019)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2020&lt;/b&gt;&lt;br&gt;\n#130. DNA vs. Drugz (3-7-2020)&lt;br&gt;\n#131. John John Da Don vs. DNA (4-4-2020)&lt;br&gt;\n#132. DNA &amp;amp; K-Shine vs. A. Ward &amp;amp; Loso (4-12-2020)#&lt;br&gt;\n#133. &lt;a href="https://genius.com/Urltv-dna-vs-viixen-the-assassin-lyrics" rel="noopener" data-api_path="/songs/6077897"&gt;DNA vs. Viixen The Assassin (10-17-2020)&lt;/a&gt;&lt;br&gt;\n#134. &lt;a href="https://genius.com/Urltv-dna-vs-lu-castro-lyrics" rel="noopener" data-api_path="/songs/6219429"&gt;DNA vs. Lu Castro (11-22-2020)&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2021&lt;/b&gt;&lt;br&gt;\n#135. &lt;a href="https://genius.com/Urltv-dna-vs-geechi-gotti-rematch-lyrics" rel="noopener" data-api_path="/songs/6424712"&gt;DNA vs. Geechi Gotti (1-9-2021)&lt;/a&gt;&lt;br&gt;\n#136. &lt;a href="https://genius.com/Urltv-dna-vs-ave-lyrics" rel="noopener" data-api_path="/songs/6414953"&gt;DNA vs. Ave (1-23-2021)&lt;/a&gt;&lt;br&gt;\n#137. Rum Nitty &amp;amp; Jey The Nitewing vs. DNA &amp;amp; Don Marino (3-27-2021)&lt;br&gt;\n#138. DNA vs. B. Dot (6-12-2021)&lt;br&gt;\n#139. DNA vs. King Los (11-6-2021)&lt;br&gt;\n#140. DNA vs. Real Sikh (12-18-2021)&lt;/p&gt;\n\n&lt;p&gt;&lt;b&gt;2022&lt;/b&gt;&lt;br&gt;\n#141. DNA vs. Hollow Da Don (2-26-2022)&lt;/p&gt;\n\n&lt;p&gt;#Denotes that the battle was done remotely. The date it was recorded is not known. Date given is based off when it was released on YouTube.&lt;br&gt;\n^ Denotes that the official date is not known for this battle, so the listing is based off the YouTube release date.&lt;/p&gt;', 'alternate_names': ['Eric St. John', 'DNA GTFOH']}}</t>
+    <t>Metallica</t>
+  </si>
+  <si>
+    <t>Justin Bieber</t>
+  </si>
+  <si>
+    <t>Melanie Martinez</t>
+  </si>
+  <si>
+    <t>Daft Punk</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Blondie</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Daniel-merriweather', 'annotations': {'description': "&lt;p&gt;Australian R&amp;amp;B &amp;amp; Blue-Eyed soul singer known for his 2009 ‘'Love &amp;amp; War’‘ album and duets with Adele in ’‘Water &amp;amp; A Flame’‘ and ’‘Change’‘ with Wale.&lt;/p&gt;", 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jennifer-lopez', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Jennifer Lynn Lopez&lt;/strong&gt; (born July 24, 1969), also known as J.Lo, is an American singer, actress, dancer, fashion designer, author, and producer.&lt;/p&gt;\n\n&lt;p&gt;Lopez gained her first high-profile job as a Fly Girl dancer on &lt;em&gt;In Living Color&lt;/em&gt; in 1991, where she remained a regular until she decided to pursue an acting career in 1993.&lt;/p&gt;\n\n&lt;p&gt;She ventured into the music industry in 1999 with her debut studio album &lt;em&gt;On the 6&lt;/em&gt;, preceded by the No. 1 single “If You Had My Love.”&lt;/p&gt;\n\n&lt;p&gt;With the simultaneous release of her second studio album &lt;em&gt;J.Lo&lt;/em&gt; and her romantic comedy The Wedding Planner in 2001, Lopez became the first woman to have a number one album and film in the same week. Her 2002 remix album, J to tha L–O! The Remixes, became the first in history to debut at number one on the U.S. Billboard 200. Later that year, she released her third studio album This Is Me… Her fifth studio album, Como Ama una Mujer (2007), received the highest first-week sales for a debut Spanish album in the United States. Following an unsuccessful period, she returned to prominence in 2011 with her appearance as a judge on American Idol, and released her seventh studio album Love?. Since 2017, Lopez has produced and served as a judge on World of Dance.&lt;/p&gt;\n\n&lt;p&gt;With a cumulative film gross of US$3 billion and estimated global sales of 80 million records, Lopez is regarded as the most influential Latin performer in the United States. In 2012, Forbes ranked her as the most powerful celebrity in the world, as well as the 38th most powerful woman in the world. Time listed her among the 100 most influential people in the world in 2018. Her most successful singles on the US Billboard Hot 100 include: “If You Had My Love”, “Love Don’t Cost a Thing”, “I’m Real”, “Ain’t It Funny”, “Jenny from the Block”, “All I Have”, and “On the Floor”, which is one of the best-selling singles of all time.&lt;/p&gt;', 'alternate_names': ['Jennifer L. Lopez', 'Jennifer Lynn Lopez', 'JLo']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Geri-halliwell', 'annotations': {'description': '&lt;p&gt;Geri Halliwell was born on August 6, 1972 in Watford, England. In 1994, she became “Ginger Spice” in the all-girl, British pop group the Spice Girls. Halliwell quit in 1998 to pursue her solo career, starting with her single, “Look At Me,” which sold more than 1 million copies worldwide. Since her run with the Spice Girls, Halliwell has authored a series of children’s books.&lt;/p&gt;', 'alternate_names': ['Ginger Spice', 'Geri Horner', 'Geraldine Halliwell', 'Geraldine Horner', 'Geraldine E. Halliwell', 'Geraldine E. Horner', 'Geraldine Estelle Halliwell', 'Geraldine Estelle Horner']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Herbie-hancock', 'annotations': {'description': '&lt;p&gt;Herbert Jeffrey “Herbie” Hancock (born April 12, 1940) is an American pianist, keyboardist, bandleader, composer and actor from Chicago, Illinois.&lt;/p&gt;\n\n&lt;p&gt;In 1960 he began working with &lt;a href="https://en.wikipedia.org/wiki/Donald_Byrd" rel="noopener nofollow"&gt;Donald Byrd&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Coleman_Hawkins" rel="noopener nofollow"&gt;Coleman Hawkins&lt;/a&gt;. He recorded his first solo album &lt;em&gt;“Takin\' Off”&lt;/em&gt; for Blue Note Records in 1962. &lt;em&gt;“Watermelon Man”&lt;/em&gt;. Thanks to the album he caught the attention of &lt;a href="https://genius.com/artists/Miles-Davis" rel="noopener" data-api_path="/artists/8150"&gt;Miles Davis&lt;/a&gt;, who asks, in May 1963, Hancock to join his &lt;a href="https://en.wikipedia.org/wiki/Miles_Davis_Quintet#Second_Great_Quintet_.281964.E2.80.9368.29" rel="noopener nofollow"&gt;Second Great Quintet&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In the sixties he records two important albums in jazz history: &lt;em&gt;“Empyrean Isles”&lt;/em&gt; (1964) and &lt;em&gt;“Maiden Voyage”&lt;/em&gt; (1965), both for Blue Note. During this period, Hancock also composed the score to &lt;a href="https://en.wikipedia.org/wiki/Michelangelo_Antonioni" rel="noopener nofollow"&gt;Michelangelo Antonioni&lt;/a&gt;’s film &lt;a href="https://en.wikipedia.org/wiki/Blowup" rel="noopener nofollow"&gt;Blowup&lt;/a&gt; (1966), the first of many film soundtracks he recorded in his career.&lt;/p&gt;\n\n&lt;p&gt;Hancock left Blue Note in 1969, signing with Warner Bros. Records. In the seventies he changes his style, using electronic instruments to create a blend of funk and jazz. This change culminate in album like &lt;em&gt;“Head Hunters”&lt;/em&gt;. Later he recorded many albums consisting of jazz-inflected disco and pop music. During this years he found time to record more traditional jazz while creating more commercially oriented music. His instrumental single “Rockit” was the first jazz hip-hop song and became a worldwide anthem for the breakdancers and for the hip-hop culture of the 1980s. It was also the first mainstream single to feature scratching, and also featured an innovative animated music video.&lt;/p&gt;\n\n&lt;p&gt;In 1986 Hancock performed and acted in the film ‘Round Midnight. He also wrote the score/soundtrack, for which he won an Academy Award for Original Music Score.&lt;/p&gt;\n\n&lt;p&gt;During the last decades he recorded also tribute albums (&lt;em&gt;“Gershwin’s World”&lt;/em&gt;, &lt;em&gt;“River: The Joni Letters”&lt;/em&gt;) or the album &lt;em&gt;“The New Standard”&lt;/em&gt; in which he reinterprets contemporaneous rock and R&amp;amp;B songs.&lt;/p&gt;\n\n&lt;p&gt;In his career he won &lt;a href="https://en.wikipedia.org/wiki/Herbie_Hancock#Awards" rel="noopener nofollow"&gt;many prizes&lt;/a&gt;, including one Academy Award and fourteen Grammy.&lt;/p&gt;\n\n&lt;p&gt;Herbie Hancock helped to redefine the role of a jazz rhythm section and was one of the primary architects of the post-bop sound. He was one of the first jazz musicians to embrace synthesizers and funk music. Hancock’s music is often melodic and accessible; he has had many songs “cross over” and achieved success among pop audiences.&lt;/p&gt;', 'alternate_names': ['Herbert Hancock', 'Herbert J. Hancock', 'Herbert Jeffrey Hancock', 'H. Hancock']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/2-unlimited', 'annotations': {'description': '&lt;p&gt;2 Unlimited is a dance group founded in 1991 by Belgian producers Jean-Paul DeCoster and Phil Wilde and fronted by Dutch rapper Ray Slijngaard and Dutch vocalist Anita Doth. During five years of enormous worldwide popularity, the act scored 16 chart hits, including “Get Ready for This”, “Twilight Zone”, “No Limit”, and “Tribal Dance”. During their career, they have sold 18 million records worldwide. Although they enjoyed less mainstream recognition in the United States, many of their songs have become popular themes at US sporting events, particularly in the NHL.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Seeb', 'annotations': {'description': '&lt;p&gt;Seeb is a Norwegian EDM production duo from Oslo, Norway, comprised of &lt;a href="https://genius.com/artists/Simen-eriksrud" rel="noopener" data-api_path="/artists/993370"&gt;Simen Eriksrud&lt;/a&gt; and &lt;a href="https://genius.com/artists/Espen-berg" rel="noopener" data-api_path="/artists/1055228"&gt;Espen Berg&lt;/a&gt;. The name ‘Seeb’ comes from the initials of the first and last names of the duo respectively.&lt;/p&gt;\n\n&lt;p&gt;The duo’s breakthrough came in 2015 with their remix of Mike Posner’s, &lt;a href="https://genius.com/Mike-posner-i-took-a-pill-in-ibiza-seeb-remix-lyrics" rel="noopener" data-api_path="/songs/2435615"&gt;“I Took A Pill In Ibiza,”&lt;/a&gt; which received high acclaim worldwide, reaching number one in the UK, Norway, and the Netherlands. They followed this up in 2016 with the release of their debut EP, &lt;a href="https://genius.com/albums/Seeb/Intro-to-seeb-ep" rel="noopener" data-api_path="/albums/660279"&gt;&lt;em&gt;Intro to Seeb&lt;/em&gt;&lt;/a&gt;, comprised of two singles and four remixes produced by the duo.&lt;/p&gt;\n\n&lt;p&gt;In 2017, the duo released their biggest collaboration yet, &lt;a href="https://genius.com/Onerepublic-and-seeb-rich-love-lyrics" rel="noopener" data-api_path="/songs/3155565"&gt;“Rich Love”&lt;/a&gt; with &lt;a href="https://genius.com/artists/Onerepublic" rel="noopener" data-api_path="/artists/934"&gt;OneRepublic&lt;/a&gt; before releasing their second EP, &lt;a href="https://genius.com/albums/Seeb/Nice-to-meet-you" rel="noopener" data-api_path="/albums/421642"&gt;&lt;em&gt;Nice to Meet You&lt;/em&gt;&lt;/a&gt; in 2018, featuring six original songs produced by the duo.&lt;/p&gt;\n\n&lt;p&gt;They continued their success into 2019 releasing more singles and collaborating with a range of artists such as &lt;a href="https://genius.com/artists/Highasakite" rel="noopener" data-api_path="/artists/235814"&gt;Highasakite&lt;/a&gt; on &lt;a href="https://genius.com/Seeb-and-highasakite-free-to-go-lyrics" rel="noopener" data-api_path="/songs/4464424"&gt;“Free To Go”&lt;/a&gt; and &lt;a href="https://genius.com/artists/Justin-jesso" rel="noopener" data-api_path="/artists/1220431"&gt;Justin Jesso&lt;/a&gt; on &lt;a href="https://genius.com/Justin-jesso-and-seeb-bigger-than-lyrics" rel="noopener" data-api_path="/songs/5021730"&gt;“Bigger Than,”&lt;/a&gt; which saw them win the &lt;a href="https://spellemann.no/detalj/8071" rel="noopener nofollow"&gt;Spellemanprisen Pop Group of the Year Award&lt;/a&gt; for 2019. In 2020, they released their debut album, &lt;a href="https://genius.com/albums/Seeb/Sad-in-scandinavia" rel="noopener" data-api_path="/albums/643895"&gt;&lt;em&gt;Sad in Scandinavia&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Yazz', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lil-wayne', 'annotations': {'description': '&lt;p&gt;Dwayne Michael Carter, Jr., better known by his stage name &lt;a href="https://genius.com/Rap-genius-the-many-nicknames-of-lil-wayne-lyrics" rel="noopener" data-api_path="/songs/212529"&gt;Lil Wayne&lt;/a&gt;, grew up in the Hollygrove neighborhood of New Orleans, Louisiana.&lt;/p&gt;\n\n&lt;p&gt;At the age of nine, Lil Wayne joined Cash Money Records as the youngest member of the label, and half of the duo, The B.G.‘z, with &lt;a href="https://genius.com/artists/Bg" rel="noopener" data-api_path="/artists/1819"&gt;B.G.&lt;/a&gt;. In 1997, Lil Wayne joined the group &lt;a href="https://genius.com/artists/Hot-boys" rel="noopener" data-api_path="/artists/1663"&gt;Hot Boys&lt;/a&gt;, which also included rappers &lt;a href="https://genius.com/artists/Juvenile" rel="noopener" data-api_path="/artists/38"&gt;Juvenile&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bg" rel="noopener" data-api_path="/artists/1819"&gt;B.G.&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Young-turk" rel="noopener" data-api_path="/artists/3558"&gt;Young Turk&lt;/a&gt;. Lil Wayne gained most of his success with the group’s major selling album &lt;a href="https://genius.com/albums/Hot-boys/Guerrilla-warfare" rel="noopener" data-api_path="/albums/3680"&gt;Guerrilla Warfare&lt;/a&gt;, released in 1999. &lt;a href="http://www.guinnessworldrecords.com/world-records/rapper-with-the-most-us-hot-100-hits" rel="noopener nofollow"&gt;He has been listed in the 2012 Guinness Book Of World Records&lt;/a&gt; for the record of Most US Hot 100 Hits By A Rap Artist with 64 hits between 1999 and 2010.&lt;/p&gt;\n\n&lt;p&gt;Wayne is famous for his command of slow, witty lines and metaphorical jokes. &lt;a href="https://en.wikipedia.org/wiki/Lil_Wayne_albums_discography" rel="noopener nofollow"&gt;His discography&lt;/a&gt; includes a slew of successful mixtapes, including &lt;a href="https://genius.com/albums/Lil-wayne/The-dedication" rel="noopener" data-api_path="/albums/21532"&gt;&lt;em&gt;Dedication&lt;/em&gt; 1&lt;/a&gt;, &lt;a href="https://genius.com/albums/Lil-wayne/Dedication-2" rel="noopener" data-api_path="/albums/5004"&gt;2&lt;/a&gt;, &lt;a href="https://genius.com/albums/Lil-wayne/Dedication-3" rel="noopener" data-api_path="/albums/12981"&gt;3&lt;/a&gt;, &lt;a href="https://genius.com/albums/Lil-wayne/Dedication-4" rel="noopener" data-api_path="/albums/20748"&gt;4&lt;/a&gt;, &lt;a href="https://genius.com/albums/Lil-wayne/Dedication-5" rel="noopener" data-api_path="/albums/41879"&gt;5&lt;/a&gt; and &lt;a href="https://genius.com/albums/Lil-wayne/Dedication-6" rel="noopener" data-api_path="/albums/388686"&gt;6&lt;/a&gt;; &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-wayne/No-ceilings" rel="noopener" data-api_path="/albums/11095"&gt;No Ceilings&lt;/a&gt;;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-wayne/Da-drought-3" rel="noopener" data-api_path="/albums/5010"&gt;Da Drought 3&lt;/a&gt;&lt;/em&gt;. His albums consistently garner acclaim, with &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-wayne/Tha-carter" rel="noopener" data-api_path="/albums/4998"&gt;Tha Carter&lt;/a&gt;&lt;/em&gt; series all platinum hits. &lt;em&gt;Tha Carter&lt;/em&gt; series has been a work of Wayne’s for 13 years and continues to grow with the fifth installment, &lt;a href="https://genius.com/albums/Lil-wayne/Tha-carter-v" rel="noopener" data-api_path="/albums/98888"&gt;&lt;em&gt;Tha Carter V&lt;/em&gt;&lt;/a&gt; released in 2018 (however, it was initially supposed to be released in late 2014). Wayne keeps a regular recording schedule, with studio booths in his tour bus, home, and following him everywhere.&lt;/p&gt;', 'alternate_names': ['Dwayne Michael Carter Jr', 'Dwayne Michael Carter', 'Little Wayne', 'Young Mulah', 'Weezy F. Baby', 'Lil Tunechi', 'Lil Weezy Ana', 'Weezy', 'Dwayne Carter']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Clairo', 'annotations': {'description': '&lt;p&gt;Claire Elizabeth Cottrill (born August 18, 1998), better known by her stage name Clairo, is an American singer-songwriter from Atlanta, Georgia.&lt;/p&gt;\n\n&lt;p&gt;She was born in Atlanta, GA, where she lived for seven years, and then she moved to Bellevue, WA and eventually Carlisle, MA.&lt;/p&gt;\n\n&lt;p&gt;Her parents are marketing executive &lt;a href="https://en.wikipedia.org/wiki/Geoff_Cottrill" rel="noopener nofollow"&gt;Geoff Cottrill&lt;/a&gt; and photographer &lt;a href="https://www.allisoncottrillphotography.com/" rel="noopener nofollow"&gt;Allie E. Cottrill&lt;/a&gt;, who influenced her music taste. Clairo told &lt;a href="https://youtu.be/2RsucCjZlvk?t=34" rel="noopener nofollow"&gt;Beats 1&lt;/a&gt;, “My dad is the reason why I love &lt;a href="https://genius.com/artists/Al-green" rel="noopener" data-api_path="/artists/1610"&gt;Al Green&lt;/a&gt; so much, and my mom is the reason why I love &lt;a href="https://genius.com/artists/Cocteau-twins" rel="noopener" data-api_path="/artists/138662"&gt;Cocteau Twins&lt;/a&gt; so much.”&lt;/p&gt;\n\n&lt;p&gt;Clairo’s first EP, titled &lt;a href="https://genius.com/albums/Clairo/Do-u-wanna-fall-in-love" rel="noopener" data-api_path="/albums/369340"&gt;&lt;em&gt;Do U Wanna Fall In Love?&lt;/em&gt;&lt;/a&gt;, was released in December of 2014.&lt;/p&gt;\n\n&lt;p&gt;She originally rose to prominence with her song “&lt;a href="https://genius.com/Clairo-pretty-girl-lyrics" rel="noopener" data-api_path="/songs/3185563"&gt;Pretty Girl&lt;/a&gt;”, which was released in 2017 and soon went viral. Her first full-length, &lt;em&gt;&lt;a href="https://genius.com/albums/Clairo/Immunity" rel="noopener" data-api_path="/albums/531649"&gt;Immunity&lt;/a&gt;,&lt;/em&gt; was released in 2019.&lt;/p&gt;', 'alternate_names': ['Claire Elizabeth Cottrill', 'Claire Cottrill', 'DJ Baby Benz']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tones-and-i', 'annotations': {'description': '&lt;p&gt;Toni Watson, known by her stage-name Tones and I, is an Australian artist from Mornington Peninsula before moving to Byron Bay, New South Wales to start her music career.&lt;/p&gt;\n\n&lt;p&gt;Come February 2019, Tones uploaded her first song &lt;a href="https://genius.com/Tones-and-i-johnny-run-away-lyrics" rel="noopener" data-api_path="/songs/4358348"&gt;“Johnny Run Away.”&lt;/a&gt; Soon after, Tones found herself opening for Norway’s &lt;a href="https://genius.com/artists/Aurora" rel="noopener" data-api_path="/artists/36413"&gt;AURORA&lt;/a&gt;. Toni’s first EP, &lt;a href="https://genius.com/albums/Tones-and-i/The-kids-are-coming-ep" rel="noopener" data-api_path="/albums/545562"&gt;&lt;em&gt;The Kids Are Coming&lt;/em&gt;&lt;/a&gt;, was released on August 30, 2019 and contained her break-out hit &lt;a href="https://genius.com/Tones-and-i-dance-monkey-lyrics" rel="noopener" data-api_path="/songs/4539729"&gt;“Dance Monkey.”&lt;/a&gt;&lt;/p&gt;', 'alternate_names': ['Toni Elizabeth Watson', 'Toni Watson', 'Toni "Tones" Watson']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Marshmello-and-anne-marie', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Marshmello" rel="noopener" data-api_path="/artists/582361"&gt;Marshmello&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/artists/Anne-marie" rel="noopener" data-api_path="/artists/296675"&gt;Anne-Marie&lt;/a&gt; is truly a dynamic duo with their collaboration  &lt;a href="https://genius.com/Marshmello-and-anne-marie-friends-lyrics" rel="noopener" data-api_path="/songs/3348299"&gt;“FRIENDS”&lt;/a&gt; landing a #4 spot on &lt;a href="https://spotifycharts.com/regional" rel="noopener nofollow"&gt;Spotify’s Global Top 50&lt;/a&gt; list. Marshmello is an American electronic dance music producer and DJ.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Collective-soul', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tracy-chapman', 'annotations': {'description': '&lt;p&gt;Tracy Chapman is an american singer songwriter, best known for her songs “&lt;a href="https://genius.com/Tracy-chapman-fast-car-lyrics" rel="noopener" data-api_path="/songs/2408099"&gt;Fast Car&lt;/a&gt;” and “&lt;a href="https://genius.com/Tracy-chapman-give-me-one-reason-lyrics" rel="noopener" data-api_path="/songs/345909"&gt;Give Me One Reason&lt;/a&gt;”. She has won four Grammy Awards, including Best Rock Song.&lt;/p&gt;\n\n&lt;p&gt;Chapman released her debut album in 1988, titled &lt;a href="https://genius.com/albums/Tracy-chapman/Tracy-chapman" rel="noopener" data-api_path="/albums/146955"&gt;&lt;em&gt;Tracy Chapman&lt;/em&gt;&lt;/a&gt;, which immediately received critical praise and commercial success. Her lyrics largely focus on &lt;a href="https://www.theguardian.com/lifeandstyle/2008/oct/31/tracy-chapman-women-pop-usa" rel="noopener nofollow"&gt;social justice&lt;/a&gt; and she remains a vocal activist with non-profit human rights organizations such as Amnesty International, and she famously &lt;a href="https://www.youtube.com/watch?v=7tWE9mPM9pw" rel="noopener nofollow"&gt;performed&lt;/a&gt; “Fast Car” at the televised Nelson Mandela 70th Birthday Tribute Concert for charity in 1988.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Drake-bell', 'annotations': {'description': '&lt;p&gt;Drake Bell born June 27, 1986, is an American actor, voice actor, comedian, singer-songwriter, and multi-instrumentalist. In 2005 he independently released his debut album, Telegraph, released under Bell’s own name. His second album, It’s Only Time, was released in 2006 after signing with Universal Motown Records and debuted at #81 on the Billboard 200, selling over 23,000 copies its first week of release. It’s Only Time has sold 178,000 copies in the United States as of 2012.Bell released an EP in 2011 called A Reminder independently. In 2014, Bell released his third album, Ready Steady Go! under indie label Surfdog Records. Ready Steady Go! debuted at #182 on the Billboard 200, and sold 2,000 copies in its first week of release.&lt;/p&gt;', 'alternate_names': ['Jared Drake Bell', 'Drake Campana']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Plain-white-ts', 'annotations': {'description': '&lt;p&gt;The Plain White T’s are a rock band from Lombard, IL, USA. Their members include &lt;a href="https://genius.com/artists/Tom-higgenson" rel="noopener" data-api_path="/artists/20661"&gt;Tom Higgenson&lt;/a&gt; (Vocals, Rhythm Guitar), Dave Trio (Rhythm Guitar, Back-Up Vocals), &lt;a href="https://genius.com/artists/Sn-wlf" rel="noopener" data-api_path="/artists/1056220"&gt;Tim Lopez AKA Søn Wølf&lt;/a&gt; (Lead Guitar, Vocals, Keyboards), Mike Retondo (Bass Guitar), and De\'Mar Hamilton (Drums).&lt;/p&gt;\n\n&lt;p&gt;The band chose this name &lt;a href="http://thedailyaztec.com/19809/artsandlifestyle/under-the-scope-singer-tom-higgenson-of-plain-white-ts-tells-all/" rel="noopener nofollow"&gt;because&lt;/a&gt; “a plain white T is a plain white T. We all have one, and they never go out of style" and it symoblizes the “greaser style” of music the members all love.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mc-hammer', 'annotations': {'description': '&lt;p&gt;Stanley Kirk Burrell (born 30 March 1962), better known by his stage name &lt;a href="https://genius.com/artists/Mc-hammer" rel="noopener" data-api_path="/artists/1039"&gt;MC Hammer&lt;/a&gt;, is an American rapper, dancer, entrepreneur, spokesman and occasional actor from Oakland, California. He had his greatest commercial success and popularity from the late 1980s until the late 1990s. Remembered for his rapid rise to fame, Hammer is known for his hit records (such as “&lt;a href="https://genius.com/Mc-hammer-u-cant-touch-this-lyrics" rel="noopener" data-api_path="/songs/2161"&gt;U Can’t Touch This&lt;/a&gt;” and “&lt;a href="https://genius.com/Mc-hammer-2-legit-2-quit-lyrics" rel="noopener" data-api_path="/songs/22245"&gt;2 Legit 2 Quit&lt;/a&gt;”), flashy dance movements, choreography and his trademark Hammer pants. Hammer’s superstar-status and entertaining showmanship made him a household name and &lt;a href="https://genius.com/artists/Hip-hop" rel="noopener" data-api_path="/artists/15296"&gt;Hip-Hop&lt;/a&gt; icon. He has sold more than fifty million records worldwide.&lt;/p&gt;\n\n&lt;p&gt;A multi-award winner, &lt;a href="https://genius.com/artists/Mc-hammer" rel="noopener" data-api_path="/artists/1039"&gt;MC Hammer&lt;/a&gt; is considered a pioneer and innovator of pop rap, and is the first &lt;a href="https://genius.com/artists/Hip-hop" rel="noopener" data-api_path="/artists/15296"&gt;Hip-Hop&lt;/a&gt; artist to achieve diamond status for an album. Hammer was later considered a sellout due in part to overexposure as an entertainer, and as a result of being too “commercial” when &lt;a href="https://genius.com/artists/Rap" rel="noopener" data-api_path="/artists/25080"&gt;Rap&lt;/a&gt; was “hardcore”, then his image later becoming increasingly “gritty” to once again adapt to the ever-changing landscape of rap. Burrell became a preacher during the late 1990s with a Christian ministry program called MC Hammer and Friends. Additionally, he starred in a Saturday morning cartoon called Hammerman in 1991 and was executive producer of his own reality show called Hammertime which aired during the summer of 2009. Prior to becoming ordained, Hammer signed to &lt;a href="https://genius.com/artists/Suge-knight" rel="noopener" data-api_path="/artists/660037"&gt;Suge Knight&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Death-row-records" rel="noopener" data-api_path="/artists/149462"&gt;Death Row Records&lt;/a&gt; in 1995.&lt;/p&gt;\n\n&lt;p&gt;Throughout his career, Hammer has managed his own recording business. As a result, he has created and produced his own acts including Oaktown’s 3.5.7, Common Unity, Special Generation, Analise, One Cause One Effect, Teabag, Dom Kimberley, Geeman, DRS, Pleasure Ellis, B Angie B, Stooge Playaz, Ho Frat Hoo! and Wee Wee, among others. A part of additional record labels, he has collaborated and has been associated with &lt;a href="https://genius.com/artists/2pac" rel="noopener" data-api_path="/artists/59"&gt;2Pac&lt;/a&gt;, Teddy Riley, Felton Pilate, &lt;a href="https://genius.com/artists/Tha-dogg-pound" rel="noopener" data-api_path="/artists/464"&gt;Tha Dogg Pound&lt;/a&gt;, The Whole 9, Deion Sanders, and &lt;a href="https://genius.com/artists/Big-daddy-kane" rel="noopener" data-api_path="/artists/202"&gt;Big Daddy Kane&lt;/a&gt;, as well as others.&lt;/p&gt;', 'alternate_names': ['Stanley Burrell', 'Stanley Kirk Burrell', 'Hammer']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Wanz', 'annotations': {'description': '&lt;p&gt;Wanz is a R&amp;amp;B, pop and hip-hop singer born in seattle in 1961. His career was kickstarted by the song “Thrift Shop” by &lt;a href="https://genius.com/artists/Macklemore-and-ryan-lewis" rel="noopener" data-api_path="/artists/2525"&gt;Macklemore and Ryan Lewis&lt;/a&gt;. This would end up being his biggest and only hit song to date, leading many to believe he’s just been a one hit wonder.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kt-tunstall', 'annotations': {'description': '&lt;p&gt;Kate Victoria “KT” Tunstall is a Scottish singer-songwriter from Edinburgh. She rose to fame in 2005 with her debut studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Kt-tunstall/Eye-to-the-telescope" rel="noopener" data-api_path="/albums/106424"&gt;Eye to the Telescope&lt;/a&gt;&lt;/em&gt;, which includes the singles “&lt;a href="https://genius.com/Kt-tunstall-black-horse-and-the-cherry-tree-lyrics" rel="noopener" data-api_path="/songs/458477"&gt;Black Horse &amp;amp; the Cherry Tree&lt;/a&gt;”, “&lt;a href="https://genius.com/Kt-tunstall-suddenly-i-see-lyrics" rel="noopener" data-api_path="/songs/489214"&gt;Other Side of the World&lt;/a&gt;” and her best-known song, “&lt;a href="https://genius.com/Kt-tunstall-suddenly-i-see-lyrics" rel="noopener" data-api_path="/songs/489214"&gt;Suddenly I See&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/George-thorogood-and-the-destroyers', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/George_Thorogood" rel="noopener nofollow"&gt;George Lawrence Thorogood&lt;/a&gt; is a maniacal master of slide blues guitar…so it’s not surprising that the majority of the songs on his band’s albums are blues covers, from &lt;a href="https://genius.com/artists/John-lee-hooker" rel="noopener" data-api_path="/artists/59462"&gt;John Lee Hooker&lt;/a&gt;, &lt;a href="https://genius.com/artists/Willie-dixon" rel="noopener" data-api_path="/artists/65011"&gt;Willie Dixon&lt;/a&gt;, &lt;a href="https://genius.com/artists/Elmore-james" rel="noopener" data-api_path="/artists/358668"&gt;Elmore James&lt;/a&gt;, &lt;a href="https://genius.com/artists/Robert-johnson" rel="noopener" data-api_path="/artists/35851"&gt;Robert Johnson&lt;/a&gt;, and others. The writing credits for his albums look like Led Zeppelin’s would if they didn’t claim credit for everyone else’s songs.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/491cd30560d453d741ddfaa061fa54f5.600x450x1.jpg" alt="" width="600" height="450" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/George-harrison', 'annotations': {'description': '&lt;p&gt;If George Harrison were merely remembered for his involvement in &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt;, his legacy would be solidified as one of rock’s greatest names. Along with staging the &lt;a href="https://www.imdb.com/title/tt0158560/" rel="noopener nofollow"&gt;world’s first benefit concert&lt;/a&gt; where major artists performed together for humanitarian relief, introducing pop culture to classical Indian music and gaining three #1 singles as a solo artist, he was also a film producer and an avid gardener.&lt;/p&gt;\n\n&lt;p&gt;In 1957, he met a young &lt;a href="https://genius.com/artists/Paul-mccartney" rel="noopener" data-api_path="/artists/1601"&gt;Paul McCartney&lt;/a&gt; on a bus they both took to school. McCartney then introduced him to &lt;a href="https://genius.com/artists/John-lennon" rel="noopener" data-api_path="/artists/16450"&gt;John Lennon&lt;/a&gt; to audition for his skiffle group, the Quarrymen. Lennon originally rejected Harrison as he thought he was too young to be the band, having just turned 15. Harrison eventually impressed Lennon with his guitar skills and was accepted as a member of the group.&lt;/p&gt;\n\n&lt;p&gt;During his time with The Beatles, Harrison was the lead guitarist, one of the singers, and contributed many songs such as &lt;a href="https://genius.com/The-beatles-taxman-lyrics" rel="noopener" data-api_path="/songs/75223"&gt;“Taxman,”&lt;/a&gt; &lt;a href="https://genius.com/The-beatles-within-you-without-you-lyrics" rel="noopener" data-api_path="/songs/76567"&gt;“Within You Without You,”&lt;/a&gt; &lt;a href="https://genius.com/The-beatles-while-my-guitar-gently-weeps-lyrics" rel="noopener" data-api_path="/songs/75670"&gt;“While My Guitar Gently Weeps,”&lt;/a&gt; &lt;a href="https://genius.com/The-beatles-here-comes-the-sun-lyrics" rel="noopener" data-api_path="/songs/87577"&gt;“Here Comes the Sun”&lt;/a&gt; and &lt;a href="https://genius.com/The-beatles-something-lyrics" rel="noopener" data-api_path="/songs/87564"&gt;“Something.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Harrison released his debut album, &lt;a href="https://genius.com/albums/George-harrison/Wonderwall-music" rel="noopener" data-api_path="/albums/345852"&gt;&lt;em&gt;Wonderwall Music&lt;/em&gt;&lt;/a&gt;, during 1968 as the soundtrack to the film &lt;em&gt;Wonderwall&lt;/em&gt;. It was the first solo album to be released by a Beatle. Harrison released another album, &lt;a href="https://genius.com/albums/George-harrison/Electronic-sound" rel="noopener" data-api_path="/albums/185269"&gt;&lt;em&gt;Electronic Sounds&lt;/em&gt;&lt;/a&gt;, before The Beatles breakup in 1970.&lt;/p&gt;\n\n&lt;p&gt;In 1970, Harrison released the critically acclaimed triple album, &lt;a href="https://genius.com/albums/George-harrison/All-things-must-pass" rel="noopener" data-api_path="/albums/41860"&gt;&lt;em&gt;All Things Must Pass&lt;/em&gt;&lt;/a&gt;. The album consisted of songs that Harrison had been collecting throughout his time with The Beatles. The album was co-produced by &lt;a href="https://genius.com/artists/Phil-spector" rel="noopener" data-api_path="/artists/29024"&gt;Phil Spector&lt;/a&gt; and made use of his famous Wall Of Sound technique. The album produced the #1 hit, &lt;a href="https://genius.com/George-harrison-my-sweet-lord-lyrics" rel="noopener" data-api_path="/songs/202126"&gt;“My Sweet Lord.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In later years, Harrison released 9 studio albums spawning two #1 singles: &lt;a href="https://genius.com/George-harrison-give-me-love-give-me-peace-on-earth-lyrics" rel="noopener" data-api_path="/songs/207155"&gt;“Give Me Love (Give Me Peace On Earth)”&lt;/a&gt; and &lt;a href="https://genius.com/George-harrison-got-my-mind-set-on-you-lyrics" rel="noopener" data-api_path="/songs/402440"&gt;“Got My Mind Set On You.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;During 1988, Harrison founded supergroup, &lt;a href="https://genius.com/artists/The-traveling-wilburys" rel="noopener" data-api_path="/artists/60612"&gt;The Travelling Wilburys&lt;/a&gt;, along with &lt;a href="https://genius.com/artists/Jeff-lynne" rel="noopener" data-api_path="/artists/34990"&gt;Jeff Lynne&lt;/a&gt;, &lt;a href="https://genius.com/artists/Tom-petty" rel="noopener" data-api_path="/artists/20785"&gt;Tom Petty&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt; and &lt;a href="https://genius.com/artists/Roy-orbison" rel="noopener" data-api_path="/artists/47372"&gt;Roy Orbison&lt;/a&gt;. The group released &lt;a href="https://genius.com/albums/The-traveling-wilburys/Traveling-wilburys-vol-1" rel="noopener" data-api_path="/albums/39460"&gt;&lt;em&gt;Traveling Wilburys, Vol. 1&lt;/em&gt;&lt;/a&gt; to much success. Following Orbison’s death, the remaining members released their final album, &lt;a href="https://genius.com/albums/The-traveling-wilburys/Traveling-wilburys-vol-3" rel="noopener" data-api_path="/albums/171091"&gt;&lt;em&gt;Traveling Wilburys, Vol. 3&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;During 1970, Harrison bought Friar Park, a 62 acre mansion in Henley-on-Thames. He spent years renovating the mansion and personally caring for  it’s grounds. The cover for &lt;em&gt;All Things Must Pass&lt;/em&gt; was shot in the grounds of the mansion along with many of his music videos.&lt;/p&gt;\n\n&lt;p&gt;During the filming of &lt;a href="https://www.imdb.com/title/tt0058182/" rel="noopener nofollow"&gt;&lt;em&gt;A Hard Day’s Night&lt;/em&gt;&lt;/a&gt;, Harrison met his first wife Pattie Boyd, who played the role of a schoolgirl. They married in 1966, divorcing in 1977 on the grounds of Harrison’s infidelities. Boyd later on married Harrison’s longtime friend &lt;a href="https://genius.com/artists/Eric-clapton" rel="noopener" data-api_path="/artists/19272"&gt;Eric Clapton&lt;/a&gt;. Harrison then met Olivia Arias who was working for Harrison’s record label, &lt;a href="http://www.georgeharrison.com/dark-horse-records/" rel="noopener nofollow"&gt;Dark Horse Records&lt;/a&gt;, as a secretary. They married in 1978 and had a son, Dhani, born on August 1st, 1978.&lt;/p&gt;\n\n&lt;p&gt;In 1999, Harrison’s home was broken into by a crazed fan who stabbed him multiple times, only to be stopped by Harrison’s wife.&lt;/p&gt;\n\n&lt;p&gt;George Harrison (1943-2001) passed away at 58 to a long battle with cancer.&lt;/p&gt;', 'alternate_names': ['Nelson Wilbury']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Hayley-williams', 'annotations': {'description': '&lt;p&gt;Hayley Williams is an American singer born on December 27, 1988; she is the lead vocalist, songwriter, and keyboardist of the Rock/Pop-Punk band &lt;a href="https://genius.com/artists/Paramore" rel="noopener" data-api_path="/artists/22531"&gt;Paramore&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Hayley came to light in the music scene when she was only 16 years old and released with the band their debut album &lt;a href="https://genius.com/albums/Paramore/All-we-know-is-falling" rel="noopener" data-api_path="/albums/28192"&gt;&lt;em&gt;All We Know Is Falling&lt;/em&gt;&lt;/a&gt; which reached number 8 on the UK Rock Chart. It was their second album, the Platinum-certified &lt;a href="https://genius.com/albums/Paramore/Riot" rel="noopener" data-api_path="/albums/25380"&gt;&lt;em&gt;Riot!&lt;/em&gt;&lt;/a&gt; from 2007, that gave the band and Hayley worldwide recognition. She would go on to make three more albums with the band: &lt;a href="https://genius.com/albums/Paramore/Brand-new-eyes" rel="noopener" data-api_path="/albums/19097"&gt;&lt;i&gt;Brand New Eyes&lt;/i&gt;&lt;/a&gt; released in 2009, &lt;a href="https://genius.com/albums/Paramore/Paramore" rel="noopener" data-api_path="/albums/28272"&gt;&lt;i&gt;Paramore&lt;i&gt;&lt;/i&gt;&lt;/i&gt;&lt;/a&gt; released in 2013, and &lt;a href="https://genius.com/albums/Paramore/After-laughter" rel="noopener" data-api_path="/albums/340733"&gt;&lt;i&gt;After Laughter&lt;/i&gt;&lt;/a&gt; released in 2017.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Hayley was featured on the B.o.B single, &lt;a href="https://genius.com/Bob-airplanes-lyrics" rel="noopener" data-api_path="/songs/428"&gt;“Airplanes”&lt;/a&gt;, which was a commercial success reaching No.1 in the UK and No.2 in the US. She has come to be featured on several other commercially successful singles such as Zedd’s &lt;a href="https://genius.com/Zedd-stay-the-night-lyrics" rel="noopener" data-api_path="/songs/216074"&gt;“Stay the Night”&lt;/a&gt; in 2013 and New Found Glory’s &lt;a href="https://genius.com/New-found-glory-vicious-love-lyrics" rel="noopener" data-api_path="/songs/530919"&gt;“Vicious Love”&lt;/a&gt; in 2014. Regardless, Hayley’s main focus remains in her band, Paramore.&lt;/p&gt;\n\n&lt;p&gt;In 2020 she released her solo debut &lt;a href="https://genius.com/Hayley-williams-simmer-lyrics" rel="noopener" data-api_path="/songs/5190196"&gt;“Simmer”&lt;/a&gt;, and announced her debut album &lt;a href="https://genius.com/albums/Hayley-williams/Petals-for-armor" rel="noopener" data-api_path="/albums/595868"&gt;&lt;em&gt;Petals For Armor&lt;/em&gt;&lt;/a&gt;, which was released in May the same year.&lt;/p&gt;\n\n&lt;p&gt;Besides the music, in 2016, she released her own hair dye company, &lt;a href="https://www.gooddyeyoung.com/" rel="noopener nofollow"&gt;Good Dye Young&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Hayley Nichole Williams', 'Hayley Williams of Paramore', 'Hayley Williams from Paramore']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sophie-ellis-bextor', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Sophie Michelle Ellis-Bextor&lt;/strong&gt; (born 10 April 1979) is an English singer, songwriter and model. She first came to prominence in the late 1990s, as the lead singer of the indie rock band &lt;a href="https://genius.com/artists/Theaudience" rel="noopener" data-api_path="/artists/354722"&gt;Theaudience&lt;/a&gt;. After the group disbanded, she went solo, achieving widespread success in the early 2000s.&lt;/p&gt;\n\n&lt;p&gt;Her music is a mixture of mainstream pop, disco, nu-disco, and ‘80s electronic influences.&lt;/p&gt;', 'alternate_names': ['Sophie Michelle Ellis-Bextor']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rage-against-the-machine', 'annotations': {'description': '&lt;p&gt;Formed in Los Angeles in 1991, Rage Against the Machine are critically acclaimed for their aggressive, politically charged rhymes. During the 1990s, they found huge success with their politicised image, broad array of influences and punk attitudes. The band represents an important intersection in 90s culture – between the musical expression of urban black rebels (hip-hop, funk) and their white counterpart (metal, punk rock).&lt;/p&gt;\n\n&lt;p&gt;Accompanying a musical fusion of punk, hip-hop and metal, the lyricism of frontman &lt;a href="https://genius.com/artists/Zack-de-la-rocha" rel="noopener" data-api_path="/artists/9775"&gt;Zack de la Rocha&lt;/a&gt; provides a fiery critique of corporate America, government oppression, and cultural imperialism. Both de la Rocha and guitarist &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt; were &lt;a href="http://www.rollingstone.com/music/artists/rage-against-the-machine/biography" rel="noopener nofollow"&gt;born into activist families&lt;/a&gt;, influential to shaping the band’s political views and activism. De la Rocha’s father devoted his artistic work to Chicano causes, and Morello was raised by a civil rights activist mother and a Kenyan rebel-turned-diplomat father.&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine view their music as a &lt;a href="http://www.musicfanclubs.org/rage/articles/juice00.htm" rel="noopener nofollow"&gt;vehicle for social activism&lt;/a&gt;, and de la Rocha has explained this by saying:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I’m interested in spreading those ideas through art, because music has the power to cross borders, to break military sieges and to establish real dialogue.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Over their career, Rage Against the Machine have &lt;a href="http://www.rollingstone.com/music/news/the-battle-of-rage-against-the-machine-19991125" rel="noopener nofollow"&gt;championed numerous causes&lt;/a&gt;, including death-row inmate Mumia Abu-Jamal’s fight for a new trial, the Zapatista freedom fighters in Mexico, and the treatment of sweatshop workers. The band’s leftist and revolutionary political views are further represented in almost all of their songs, and this politically fuelled commentary is key to their identity. Notable examples of these beliefs are discussed in &lt;a href="https://genius.com/Rage-against-the-machine-killing-in-the-name-lyrics" rel="noopener" data-api_path="/songs/4569"&gt;“Killing in the Name”&lt;/a&gt; (addressing racism and police corruption), &lt;a href="https://genius.com/Rage-against-the-machine-wake-up-lyrics" rel="noopener" data-api_path="/songs/39712"&gt;“Wake Up”&lt;/a&gt; (addressing racism in the American government), and &lt;a href="https://genius.com/Rage-against-the-machine-freedom-lyrics" rel="noopener" data-api_path="/songs/39703"&gt;“Freedom”&lt;/a&gt; (supporting imprisoned American-Indian activist Leonard Peltier).&lt;/p&gt;\n\n&lt;p&gt;Rage Against the Machine split up in 2000, with three of the band members joining &lt;a href="https://genius.com/artists/Soundgarden" rel="noopener" data-api_path="/artists/19976"&gt;Soundgarden&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt; to form rock supergroup &lt;a href="https://genius.com/artists/Audioslave" rel="noopener" data-api_path="/artists/39547"&gt;Audioslave&lt;/a&gt;. They reunited in 2007, and since then have sporadically performed major live events, but are yet to record any new material. In May 2016, it was revealed that &lt;a href="https://genius.com/artists/Tom-morello" rel="noopener" data-api_path="/artists/4781"&gt;Tom Morello&lt;/a&gt;, &lt;a href="https://genius.com/artists/Brad-wilk" rel="noopener" data-api_path="/artists/646889"&gt;Brad Wilk&lt;/a&gt; and &lt;a href="https://genius.com/artists/Tim-commerford" rel="noopener" data-api_path="/artists/646888"&gt;Tim Commerford&lt;/a&gt; had united with &lt;a href="https://genius.com/artists/Chuck-d" rel="noopener" data-api_path="/artists/1884"&gt;Chuck D&lt;/a&gt; of &lt;a href="https://genius.com/artists/Public-enemy" rel="noopener" data-api_path="/artists/203"&gt;Public Enemy&lt;/a&gt; and &lt;a href="https://genius.com/artists/B-real" rel="noopener" data-api_path="/artists/998"&gt;B-Real&lt;/a&gt; of &lt;a href="https://genius.com/artists/Cypress-hill" rel="noopener" data-api_path="/artists/1317"&gt;Cypress Hill&lt;/a&gt; to form the supergroup, &lt;a href="https://genius.com/artists/Prophets-of-rage" rel="noopener" data-api_path="/artists/980209"&gt;Prophets of Rage&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/System-of-a-down', 'annotations': {'description': '&lt;p&gt;System of a Down, also known by the acronym ‘SOAD’ and often shortened to ‘System,’ are an Armenian four-piece rock band from Southern California, formed in 1994.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band achieved commercial success with the release of five studio albums, and &lt;a href="https://genius.com/albums/System-of-a-down/Toxicity" rel="noopener" data-api_path="/albums/18852"&gt;&lt;em&gt;Toxicity&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/System-of-a-down/Mezmerize" rel="noopener" data-api_path="/albums/20128"&gt;&lt;em&gt;Mezmerize&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/System-of-a-down/Hypnotize" rel="noopener" data-api_path="/albums/26057"&gt;&lt;em&gt;Hypnotize&lt;/em&gt;&lt;/a&gt; have all debuted at number one on the Billboard 200. System of a Down has been nominated for four Grammy Awards, and their song &lt;a href="https://genius.com/System-of-a-down-byob-lyrics" rel="noopener" data-api_path="/songs/75978"&gt;“B.Y.O.B.”&lt;/a&gt; won the Best Hard Rock Performance of 2006.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/6721d312ac721b756f51a7f55359521a.1000x1000x1.jpg" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;small&gt;&lt;center&gt;(&lt;em&gt;Toxicity&lt;/em&gt;’s album art)&lt;/center&gt;&lt;/small&gt;&lt;/p&gt;\n\n&lt;p&gt;The group briefly disbanded in August 2006 and reunited in November 2010, embarking on a tour for the following three years. They had two subsequent worldwide tours in 2015 and 2017.&lt;br&gt;\nThey returned with two singles, &lt;a href="https://genius.com/System-of-a-down-protect-the-land-lyrics" rel="noopener" data-api_path="/songs/6139655"&gt;“Protect the Land”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-genocidal-humanoidz-lyrics" rel="noopener" data-api_path="/songs/6139659"&gt;“Genocidal Humanoidz”&lt;/a&gt; in November 2020, after fifteen years since their last studio album.&lt;/p&gt;\n\n&lt;p&gt;System of a Down has sold over 40 million records worldwide, and two of their singles, &lt;a href="https://genius.com/System-of-a-down-aerials-lyrics" rel="noopener" data-api_path="/songs/94438"&gt;“Aerials”&lt;/a&gt; and &lt;a href="https://genius.com/System-of-a-down-hypnotize-lyrics" rel="noopener" data-api_path="/songs/105732"&gt;“Hypnotize,”&lt;/a&gt; reached number one on Billboard’s Alternative Songs chart.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;The band currently consists of four Armenian Americans:&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;&lt;a href="https://genius.com/artists/Serj-tankian" rel="noopener" data-api_path="/artists/11189"&gt;Serj Tankian&lt;/a&gt;:&lt;/strong&gt; lead vocals, keyboards, guitar on occasion.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Daron-malakian" rel="noopener" data-api_path="/artists/126460"&gt;Daron Malakian&lt;/a&gt;:&lt;/strong&gt; vocals, guitar.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/Shavo-odadijan" rel="noopener"&gt;Shavo Odadjian&lt;/a&gt;:&lt;/strong&gt; bass, backing vocals.&lt;br&gt;\n&lt;strong&gt;&lt;a href="https://genius.com/artists/John-dolmayan" rel="noopener" data-api_path="/artists/646522"&gt;John Dolmayan&lt;/a&gt;:&lt;/strong&gt; drums.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/ee9fd1183055081763eedde0c6953a99.620x400x1.jpg" alt="" width="620" height="400" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;center&gt;&lt;small&gt;(SOAD’s actual formation)\n&lt;/small&gt;&lt;/center&gt;', 'alternate_names': ['SOAD']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cyndi-lauper', 'annotations': {'description': '&lt;p&gt;An 80’s pop starlet that skyrocketed her way to the top of the mainstream game, Cyndi Lauper has made her mark as an artist both socially and musically.&lt;/p&gt;\n\n&lt;p&gt;Beginning her solo career in the 1983 with hit debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Cyndi-lauper/She-s-so-unusual" rel="noopener" data-api_path="/albums/24258"&gt;She’s So Unusual&lt;/a&gt;&lt;/em&gt;, Lauper came to be a household name with the four top-five hits that came with the record, including breakthrough single &lt;a href="https://genius.com/Cyndi-lauper-girls-just-want-to-have-fun-lyrics" rel="noopener" data-api_path="/songs/98419"&gt;“Girls Just Wanna Have Fun”&lt;/a&gt; and the visceral, chart-topping &lt;a href="https://genius.com/Cyndi-lauper-time-after-time" rel="noopener"&gt;“Time After Time”&lt;/a&gt;. Her camp attitude, electrifying vocals, and unrelenting earworms made an impression on the general public, and she would take home Best New Artist and Best Album Package at the Grammy’s for &lt;em&gt;She’s So Unusual&lt;/em&gt;, amidst 4 other nominations. Lauper would never reach the same sort of stardom again musically following &lt;em&gt;She’s So Unusual&lt;/em&gt;, but her legacy was far from over.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;She’s So Unusual&lt;/em&gt; set the ground for her next work: &lt;em&gt;&lt;a href="https://genius.com/albums/Cyndi-lauper/True-colors" rel="noopener" data-api_path="/albums/121519"&gt;True Colors&lt;/a&gt;&lt;/em&gt;. Released in 1986, the album most notably contained title-track &lt;a href="https://genius.com/Cyndi-lauper-true-colors-lyrics" rel="noopener" data-api_path="/songs/959926"&gt;“True Colors”&lt;/a&gt;, which would grow to become a primary anthem of the gay rights movement. Lauper would later serve as a key advocate of the LGBT community, and she has fairly consistently addressed homophobia throughout her career.&lt;/p&gt;\n\n&lt;p&gt;She released seven more studio albums since then, including a notable best-hits collection and a cover album title &lt;em&gt;&lt;a href="https://genius.com/albums/Cyndi-lauper/At-last" rel="noopener" data-api_path="/albums/146158"&gt;At Last&lt;/a&gt;&lt;/em&gt;. Though none would reach the same commercial success as her previous records despite general critical acclaim, they have expanded Lauper’s sound and topical direction. She’s due to release her next album, &lt;em&gt;&lt;a href="https://genius.com/albums/Cyndi-lauper/Detour" rel="noopener" data-api_path="/albums/142867"&gt;Detour&lt;/a&gt;&lt;/em&gt; on May 2, 2016.&lt;/p&gt;\n\n&lt;p&gt;Lauper has also made a significant imprint on the theatre aspect of culture. In 2013 – 30 years after her initial solo debut – she became the sole composer and lyricist of hit Broadway musical &lt;em&gt;Kinky Boots&lt;/em&gt; to accompany Harvey Feirstein’s book. &lt;em&gt;Boots&lt;/em&gt; brought home six Tony Awards, including Best Score for Lauper, making her the first woman in history to receive the award by herself. With the award, Lauper is only missing an Oscar to become one of the legendary EGOT winners.&lt;/p&gt;\n\n&lt;p&gt;In the last 30 years, Lauper has solidified her status as a pop culture icon, selling over 50 million records in the process.&lt;/p&gt;', 'alternate_names': ['Cynthia Lauper', 'Cynthia Ann Stephanie Lauper']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alice-in-chains', 'annotations': {'description': '&lt;p&gt;Alice in Chains are a Seattle-based rock band. They rose to international fame in the early 1990s as part of the ‘grunge’ movement. They are one of the most critically and commercially acclaimed acts of the 90s. Their first 3 studio albums all went multi-platinum and they have received 8 Grammy nominations for Best Hard Rock performance (sadly, never winning once).&lt;/p&gt;\n\n&lt;p&gt;Their unique sound comes from the harmonized vocals of co-founders &lt;a href="https://genius.com/artists/layne-staley" rel="noopener" data-api_path="/artists/461445"&gt;Layne Staley&lt;/a&gt; and &lt;a href="https://genius.com/artists/jerry-cantrell" rel="noopener" data-api_path="/artists/159296"&gt;Jerry Cantrell&lt;/a&gt;, as showcased in some of their biggest songs like &lt;a href="https://genius.com/Alice-in-chains-no-excuses-lyrics" rel="noopener" data-api_path="/songs/339309"&gt;“No Excuses”&lt;/a&gt; from &lt;a href="https://genius.com/albums/alice-in-chains/jar-of-flies" rel="noopener" data-api_path="/albums/38745"&gt;&lt;em&gt;Jar of Flies&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/Alice-in-chains-angry-chair-lyrics" rel="noopener" data-api_path="/songs/391256"&gt;“Angry Chair”&lt;/a&gt; from &lt;a href="https://genius.com/albums/alice-in-chains/dirt" rel="noopener" data-api_path="/albums/38159"&gt;&lt;em&gt;Dirt&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/Alice-in-chains-again-lyrics" rel="noopener" data-api_path="/songs/113953"&gt;“Again”&lt;/a&gt; from the &lt;a href="https://genius.com/albums/alice-in-chains/alice-in-chains" rel="noopener" data-api_path="/albums/27730"&gt;self-titled&lt;/a&gt; album. Cantrell also serves as the primary songwriter and guitarist of the band.&lt;/p&gt;\n\n&lt;p&gt;The band was never restricted to grunge. Cantrell believes it to be heavy metal; and indeed a lot of modern heavy metal bands &lt;a href="https://en.wikipedia.org/wiki/Alice_in_Chains#Legacy" rel="noopener nofollow"&gt;cite Alice in Chains as an influence&lt;/a&gt;, including &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt; for &lt;a href="https://genius.com/albums/Metallica/Death-magnetic" rel="noopener" data-api_path="/albums/40083"&gt;Death Magnetic&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band’s frontman, Layne Staley, suffered throughout his life from depression and substance abuse, which eventually took his life in 2002. It was a huge blow to the industry and many prominent bands recorded &lt;a href="https://genius.com/Staind-layne-lyrics" rel="noopener" data-api_path="/songs/2303320"&gt;songs&lt;/a&gt; as odes to Staley.&lt;/p&gt;\n\n&lt;p&gt;After extended inactivity, the band recruited &lt;a href="https://genius.com/artists/william-duvall" rel="noopener" data-api_path="/artists/574582"&gt;William DuVall&lt;/a&gt; and have released three successful studio albums since his inclusion.&lt;/p&gt;', 'alternate_names': ['AIC']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Pharrell-williams', 'annotations': {'description': '&lt;p&gt;Pharrell Williams (born April 5, 1973) is a record producer, singer-songwriter, rapper, and fashion designer from Virginia Beach, Virginia. Pharrell and his production partner &lt;a href="https://genius.com/artists/Chad-hugo" rel="noopener" data-api_path="/artists/26832"&gt;Chad Hugo&lt;/a&gt; formed the production duo &lt;a href="https://genius.com/artists/The-neptunes" rel="noopener" data-api_path="/artists/4617"&gt;The Neptunes&lt;/a&gt; and they have produced a number of hip-hop, R&amp;amp;B, and pop hits for artists such as &lt;a href="https://genius.com/artists/Jay-z" rel="noopener" data-api_path="/artists/2"&gt;JAY-Z&lt;/a&gt;, &lt;a href="https://genius.com/artists/Usher" rel="noopener" data-api_path="/artists/132"&gt;Usher&lt;/a&gt;, &lt;a href="https://genius.com/artists/Gwen-stefani" rel="noopener" data-api_path="/artists/1893"&gt;Gwen Stefani&lt;/a&gt;, and many more. He is also the lead vocalist and drummer of rap/rock band &lt;a href="https://genius.com/artists/Nerd" rel="noopener" data-api_path="/artists/747"&gt;N.E.R.D&lt;/a&gt;, which he formed with Hugo and &lt;a href="https://genius.com/artists/Shay-haley" rel="noopener" data-api_path="/artists/304487"&gt;Shay Haley&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After singing on a few Neptunes-produced tracks, Pharrell released his first solo single, “Frontin\'”, in 2003. He released his debut solo album, &lt;a href="https://genius.com/albums/Pharrell-williams/In-my-mind" rel="noopener" data-api_path="/albums/7541"&gt;&lt;em&gt;In My Mind&lt;/em&gt;&lt;/a&gt;, in 2006, and his second album &lt;a href="https://genius.com/albums/Pharrell-williams/G-i-r-l" rel="noopener" data-api_path="/albums/84179"&gt;&lt;em&gt;G I R L&lt;/em&gt;&lt;/a&gt; in 2014, which featured the #1 pop single &lt;a href="https://genius.com/Pharrell-williams-happy-lyrics" rel="noopener" data-api_path="/songs/154031"&gt;“Happy”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Pharrell has received a number of awards, including Billboard Music Awards and three Grammy Awards for Producer of the Year, Non-Classical (2004 with The Neptunes, 2014, 2019), as well as receiving an Oscar nomination in 2014 in the Best Original Song category for “Happy” from the &lt;em&gt;Despicable Me 2&lt;/em&gt; soundtrack. He also was a coach on the singing competition show &lt;em&gt;The Voice&lt;/em&gt; in 2014.&lt;/p&gt;\n\n&lt;p&gt;He is also the co-founder of the clothing brands Billionaire Boys Club and Ice Cream, and he also has a partnership deal with Adidas. He established the multimedia company i am OTHER in 2012 to manage all of his business ventures under one umbrella.&lt;/p&gt;', 'alternate_names': ['Pharrell', 'Skateboard P', 'Pharrell Lanscilo Williams', 'Pharrell L. Williams']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Aronchupa', 'annotations': {'description': '&lt;p&gt;Aron Michael Ekberg (AronChupa) is a rapper, singer, songwriter, DJ, record producer, and record label owner from Sweden.&lt;/p&gt;\n\n&lt;p&gt;Aron started his career as a &lt;a href="http://www.lol-la.com/interview-swedish-soccer-player-turned-dj-aronchupa-talks-im-an-albatraoz-much-more/" rel="noopener nofollow"&gt;soccer player&lt;/a&gt;, and later created an electro-hip hop group called Albatraoz (Signed to Sony Music Sweden), along with his friends/members of the soccer club he played for.&lt;/p&gt;\n\n&lt;p&gt;His most Popular song is &lt;a href="https://genius.com/Aronchupa-im-an-albatraoz-lyrics" rel="noopener" data-api_path="/songs/582508"&gt;“I’m an Albatroz,”&lt;/a&gt; and his only album so far is &lt;a href="https://play.spotify.com/album/1PoAlIDkhgVSoX7oskyAF1" rel="noopener nofollow"&gt;&lt;em&gt;Russ&lt;/em&gt;&lt;/a&gt;, released in 2014.&lt;/p&gt;', 'alternate_names': ['Aron Ekberg', 'Aron Michael Ekberg']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Halsey', 'annotations': {'description': '&lt;p&gt;Halsey is the stage name of New Jersey singer &lt;a href="https://genius.com/artists/Ashley-frangipane" rel="noopener" data-api_path="/artists/228636"&gt;Ashley Nicolette Frangipane&lt;/a&gt;. It is an anagram of her first name and taken from the &lt;a href="http://www.yelp.com/biz/halsey-street-subway-station-new-york" rel="noopener nofollow"&gt;Halsey Street subway stop&lt;/a&gt; and street in Brooklyn&amp;lt; New York where she used to live. &lt;a href="http://iamhalsey.com/aboutme" rel="noopener nofollow"&gt;The bio on her website&lt;/a&gt; reads:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I am Halsey. I will never be anything but honest. I write songs about sex and being sad.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Halsey was diagnosed with bipolar disorder when she was 17. This has greatly influenced her creative process from the start of her career. Songs like &lt;a href="https://genius.com/Halsey-control-lyrics" rel="noopener" data-api_path="/songs/726676"&gt;“Control”&lt;/a&gt; and &lt;a href="https://genius.com/Halsey-gasoline-lyrics" rel="noopener" data-api_path="/songs/2286804"&gt;“Gasoline”&lt;/a&gt; explicitly delve into her psychological and emotional battles. &lt;em&gt;Manic&lt;/em&gt;, Halsey’s third album and arguably her rawest and most emotionally vulnerable, &lt;a href="https://www.rollingstone.com/music/music-features/halsey-rebel-peace-cover-story-849084/" rel="noopener nofollow"&gt;was written in a fully manic state&lt;/a&gt; rather than a depressive one.&lt;/p&gt;\n\n&lt;p&gt;When Halsey was a teen with over 14,000 friends on MySpace, she posted covers of songs on YouTube. In 2012, she recorded &lt;a href="https://genius.com/ashley-frangipane-the-haylor-song-lyrics" rel="noopener" data-api_path="/songs/2320385"&gt;“The Haylor Song,”&lt;/a&gt; &lt;a href="https://www.youtube.com/watch?v=ehnEkmUTqyI" rel="noopener nofollow"&gt;a parody&lt;/a&gt; of &lt;a href="https://genius.com/artists/Taylor-swift" rel="noopener" data-api_path="/artists/1177"&gt;Taylor Swift&lt;/a&gt;’s hit song &lt;a href="https://genius.com/taylor-swift-i-knew-you-were-trouble-lyrics" rel="noopener" data-api_path="/songs/92224"&gt;“I Knew You Were Trouble”&lt;/a&gt; that created controversy over the nature of the lyrics. Nevertheless, she had accumulated a respectable amount of online attention, reaching 16,000 subscribers on YouTube at the age of 18.&lt;/p&gt;\n\n&lt;p&gt;In 2014, Halsey posted her first single &lt;a href="https://genius.com/halsey-ghost-lyrics" rel="noopener" data-api_path="/songs/519309"&gt;“Ghost”&lt;/a&gt; on Soundcloud, which turned heads in her direction. Her close friend Anthony &lt;a href="http://www.bbc.co.uk/newsbeat/article/34061249/how-halsey-ruled-the-world-before-releasing-debut-badlands" rel="noopener nofollow"&gt;pretended to be her manager&lt;/a&gt;, accompanying her in various meetings with different record labels. After being signed to &lt;a href="http://twitter.com/Astralwerks" rel="noopener nofollow"&gt;Astralwerks&lt;/a&gt;, she released her EP &lt;a href="https://genius.com/albums/Halsey/Room-93" rel="noopener" data-api_path="/albums/117562"&gt;&lt;em&gt;Room 93&lt;/em&gt;&lt;/a&gt; in late 2014, with four of the five tracks carrying accompanying music videos, giving the EP a “visual” feel. She was the most mentioned artist online at &lt;a href="http://www.billboard.com/articles/events/festivals/6509472/sxsw-twitter-stats-miley-cyrus-run-the-jewels" rel="noopener nofollow"&gt;SXSW 2015&lt;/a&gt;, which was evident by her ever-increasing fanbase. She reached over half a million followers on Twitter at the age of 20.&lt;/p&gt;\n\n&lt;p&gt;In anticipation of her debut effort, &lt;a href="https://genius.com/albums/Halsey/Badlands" rel="noopener" data-api_path="/albums/530224"&gt;&lt;em&gt;Badlands&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/halsey-hold-me-down" rel="noopener"&gt;“Hold Me Down”&lt;/a&gt; was released as a pre-order single, followed by &lt;a href="https://genius.com/halsey-new-americana-lyrics" rel="noopener" data-api_path="/songs/733666"&gt;“New Americana,”&lt;/a&gt; the anthem of today’s diversified generation. &lt;em&gt;Badlands&lt;/em&gt; was officially released on August 28, 2015, described by Halsey as &lt;a href="http://www.coupdemainmagazine.com/interviews/interview-halsey-her-debut-album-badlands" rel="noopener nofollow"&gt;“an angry female record”&lt;/a&gt;. It also represents her &lt;a href="http://www.coupdemainmagazine.com/interviews/interview-halsey-her-debut-album-badlands" rel="noopener nofollow"&gt;mental state&lt;/a&gt;. At Firefly Music Festival 2015, she told an &lt;a href="https://www.youtube.com/watch?v=DIdyEDFf4dA" rel="noopener nofollow"&gt;interviewer&lt;/a&gt;, “For me, it was about creating a universe and making it so that people felt like they were actually being transported somewhere.”&lt;/p&gt;\n\n&lt;p&gt;Halsey and &lt;a href="https://genius.com/artists/Justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt; got together on the Skrillex-produced track &lt;a href="https://genius.com/justin-bieber-the-feeling-lyrics" rel="noopener" data-api_path="/songs/2342330"&gt;“The Feeling,”&lt;/a&gt; which they performed together on the TODAY Show in promotion for Bieber’s fourth album &lt;a href="https://genius.com/albums/Justin-bieber/Purpose" rel="noopener" data-api_path="/albums/132311"&gt;&lt;em&gt;Purpose&lt;/em&gt;&lt;/a&gt;. In 2016, she collaborated &lt;a href="https://genius.com/artists/The-chainsmokers" rel="noopener" data-api_path="/artists/150934"&gt;The Chainsmokers&lt;/a&gt; on the song of the summer, &lt;a href="https://genius.com/the-chainsmokers-closer-lyrics" rel="noopener" data-api_path="/songs/2458848"&gt;“Closer,”&lt;/a&gt; which would go onto become her biggest hit. The Grammy-nominated earworm maintained its reign at the top of the &lt;a href="https://www.billboard.com/music/halsey/chart-history/hot-100/song/987759" rel="noopener nofollow"&gt;&lt;em&gt;Billboard&lt;/em&gt; Hot 100 for 12 consecutive weeks.&lt;/a&gt; Halsey later dropped &lt;a href="https://genius.com/Halsey-not-afraid-anymore-lyrics" rel="noopener" data-api_path="/songs/2953972"&gt;“Not Afraid Anymore”&lt;/a&gt; for the &lt;a href="https://genius.com/albums/Various-artists/Fifty-shades-darker-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/313068"&gt;soundtrack&lt;/a&gt; of the 2017 film &lt;em&gt;Fifty Shades Darker.&lt;/em&gt;&lt;/p&gt;\n\n&lt;p&gt;Halsey’s sophomore album &lt;a href="https://genius.com/albums/Halsey/Hopeless-fountain-kingdom" rel="noopener" data-api_path="/albums/334524"&gt;&lt;em&gt;hopeless fountain kingdom&lt;/em&gt;&lt;/a&gt; was released June 2, 2017. The record’s title fulfills the long-debated acronym “HFK” that she continuously hinted at through the years. The album is &lt;a href="http://www.mtv.com/news/3001539/halsey-romeo-and-juliet-hopeless-fountain-kingdom-symbolism/" rel="noopener nofollow"&gt;inspired by the story of &lt;i&gt;Romeo and Juliet&lt;/i&gt;&lt;/a&gt;. That same year, Halsey and her then-boyfriend &lt;a href="https://genius.com/artists/G-eazy" rel="noopener" data-api_path="/artists/11395"&gt;G-Eazy&lt;/a&gt; released &lt;a href="https://genius.com/G-eazy-and-halsey-him-and-i-lyrics." rel="noopener"&gt;“Him &amp;amp; I.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Halsey’s first track of 2018 was a feature on &lt;a href="https://genius.com/artists/Thirty-seconds-to-mars" rel="noopener" data-api_path="/artists/60945"&gt;Thirty Seconds to Mars\'&lt;/a&gt; &lt;a href="https://genius.com/Thirty-seconds-to-mars-love-is-madness-lyrics" rel="noopener" data-api_path="/songs/3596894"&gt;“Love Is Madness.”&lt;/a&gt; The collabo track &lt;a href="https://genius.com/Benny-blanco-halsey-and-khalid-eastside-lyrics" rel="noopener" data-api_path="/songs/3828011"&gt;“Eastside”&lt;/a&gt; saw her teaming up with &lt;a href="https://genius.com/artists/Khalid" rel="noopener" data-api_path="/artists/9932"&gt;Khalid&lt;/a&gt; and &lt;a href="https://genius.com/artists/Benny-blanco" rel="noopener" data-api_path="/artists/28906"&gt;benny blanco.&lt;/a&gt; Soon after Halsey dropped &lt;a href="https://genius.com/Halsey-without-me-lyrics" rel="noopener" data-api_path="/songs/3977187"&gt;“Without Me,”&lt;/a&gt; the first single from her then-unannounced 2020 album, she and G-Eazy &lt;a href="https://people.com/music/halsey-talks-g-eazy-split-suicide-attempt-glamour-interview/" rel="noopener nofollow"&gt;ended their on-again-off-again relationship,&lt;/a&gt; leading fans to speculate and later confirm that “Without Me” was &lt;a href="https://genius.com/15518820" rel="noopener" data-api_path="/referents/15518820"&gt;about their very public relationship.&lt;/a&gt; “Without Me” hit #1 on the Billboard Hot 100, and in honor of its charting success, she dropped a &lt;a href="https://genius.com/Halsey-without-me-remix-lyrics" rel="noopener" data-api_path="/songs/4215971"&gt;remix&lt;/a&gt; with &lt;a href="https://genius.com/artists/Juice-wrld" rel="noopener" data-api_path="/artists/1237094"&gt;the now-deceased rapper Juice WRLD&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Halsey’s 2019 began with a collaboration with English rocker &lt;a href="https://genius.com/artists/Yungblud" rel="noopener" data-api_path="/artists/1120585"&gt;YUNGBLUD&lt;/a&gt; titled &lt;a href="https://genius.com/Yungblud-and-halsey-11-minutes-lyrics" rel="noopener" data-api_path="/songs/4284170"&gt;“11 Minutes,”&lt;/a&gt; Soon after, the pair &lt;a href="https://www.kiss1027.fm/2019/02/24/halsey-addresses-dating-rumours-in-new-interview/" rel="noopener nofollow"&gt;confirmed they were dating&lt;/a&gt; The duo went on to record a cover of &lt;a href="https://genius.com/artists/Death-cab-for-cutie" rel="noopener" data-api_path="/artists/22559"&gt;Death Cab for Cutie’s&lt;/a&gt; &lt;a href="https://genius.com/Death-cab-for-cutie-i-will-follow-you-into-the-dark-lyrics" rel="noopener" data-api_path="/songs/145060"&gt;“I Will Follow You into the Dark”&lt;/a&gt; for &lt;a href="https://www.abc.net.au/triplej/" rel="noopener nofollow"&gt;triple J.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After years of friendship, Korean-pop group &lt;a href="https://genius.com/artists/Bts" rel="noopener" data-api_path="/artists/70113"&gt;BTS&lt;/a&gt; featured Halsey in &lt;a href="https://genius.com/Bts-boy-with-luv-lyrics" rel="noopener" data-api_path="/songs/4453270"&gt;“Boy With Luv,”&lt;/a&gt; which &lt;a href="https://variety.com/2019/digital/news/bts-youtube-record-boy-with-luv-halsey-1203188877/" rel="noopener nofollow"&gt;broke YouTube’s record for most views on a music video in 24 hours, with 78 million views&lt;/a&gt;. As of October 2020, the video now has over 990 million views.&lt;/p&gt;\n\n&lt;p&gt;On May 17, 2019, Halsey released the stand-alone single, &lt;a href="https://genius.com/Halsey-nightmare-lyrics" rel="noopener" data-api_path="/songs/4541747"&gt;“Nightmare,”&lt;/a&gt; initially intended to be the first single of her third album &lt;a href="https://genius.com/albums/Halsey/Manic" rel="noopener" data-api_path="/albums/488527"&gt;&lt;em&gt;Manic.&lt;/em&gt;&lt;/a&gt; Following this, &lt;a href="https://genius.com/Halsey-graveyard-lyrics" rel="noopener" data-api_path="/songs/4838396"&gt;“Graveyard”&lt;/a&gt; was released, with Halsey announcing that &lt;em&gt;Manic&lt;/em&gt; would drop in January 2020. Singles &lt;a href="https://genius.com/Halsey-finally-beautiful-stranger-lyrics" rel="noopener" data-api_path="/songs/5072613"&gt;“Finally // beautiful stranger,”&lt;/a&gt; &lt;a href="https://genius.com/Halsey-suga-and-bts-sugas-interlude-lyrics" rel="noopener" data-api_path="/songs/5072616"&gt;“SUGA’s Interlude,”&lt;/a&gt; and &lt;a href="https://genius.com/Halsey-you-should-be-sad-lyrics" rel="noopener" data-api_path="/songs/5009294"&gt;“You should be sad”&lt;/a&gt; dropped in anticipation for the album.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Manic&lt;/em&gt; is Halsey’s first album that does not “hide behind a concept"—it’s fully raw nature brings forward her most vulnerable self. She told &lt;a href="https://www.rollingstone.com/music/music-features/halsey-rebel-peace-cover-story-849084/" rel="noopener nofollow"&gt;&lt;em&gt;Rolling Stone&lt;/em&gt;&lt;/a&gt; that mania is "that thing in the back of our minds that drives us to outrageous thoughts. Like when you’re driving a car and you’re like [she mimes suddenly cutting over the wheel], or you’re on top of a building, and you’re like, ‘What if I just jump?’ … You are controlled by those impulses rather than logic and reason.”&lt;/p&gt;\n\n&lt;p&gt;Since releasing their third studio album, Manic, on Jan. 17, 2020, Halsey has delved into her artistic side in more ways than one. On November 10, 2020, Halsey released a book of poems titled I Would Leave Me If I Could, which explores topics such as mental health, sexuality, relationships, longing, and love. The book debuted on The New York Times Best Sellers list, and the cover features an original piece of artwork by Halsey called “American Woman.”&lt;/p&gt;\n\n&lt;p&gt;Alongside her recent poetry book, Halsey also revealed her makeup line, About-Face, on January 25, 2021. This line was described by Halsey as a “multi-dimension makeup brand for everyone,” promoting inclusivity, diversity, and beauty of all forms.&lt;/p&gt;\n\n&lt;p&gt;On January 27, 2021, over a year after the release of &lt;em&gt;Manic&lt;/em&gt;, Halsey announced their pregnancy, alongside a set of photos on Instagram. In the photos, she tagged boyfriend Alev Aydin’s Instagram account right over her belly.&lt;/p&gt;\n\n&lt;p&gt;In March of 2021, Halsey quietly announced their pronouns, putting “she/they” in her Instagram bio. They later spoke more on the subject in their Instagram story, saying “For those asking RE: my updated IG bio, I am happy with either pronouns.” … “The inclusion of ‘they’ in addition to ‘she’ feels most authentic to me. If you know me at all, you know what it means to me to express this outwardly. Thanks for being the best.” Halsey also said this when speaking on her gender identity and pregnancy: “I thought pregnancy would give me very strong, binary feelings about ‘womanhood,’” they wrote. “But truly, it has leveled my perception of gender entirely. My sensitivity to my body has made me hyper aware of my humanness and that’s all.”&lt;/p&gt;\n\n&lt;p&gt;On June 28, Halsey announced their fourth studio album “If I Can’t Have Love, I Want Power”. Produced by Trent Reznor and Atticus Ross, this full-length album is assumed to include their stand-alone single &lt;a href="https://genius.com/Halsey-nightmare-lyrics" rel="noopener" data-api_path="/songs/4541747"&gt;“Nightmare,”&lt;/a&gt; from 2019. On July 7, 2021, the album art was revealed along with a brief Instagram caption from Halsey, where they described it as a “concept album about the joys and horrors of pregnancy and childbirth.” Halsey continued in this caption by saying, “It was very important to me that the cover art conveyed the sentiment of my journey over the past few months. The dichotomy of the Madonna and the Whore. The idea that me as a sexual being and my body as a vessel and gift to my child are two concepts that can co-exist peacefully and powerfully. My body has belonged to the world in many different ways the past few years, and this image is my means of reclaiming my autonomy and establishing my pride and strength as a life force for my human being.” The album’s release date is set to be August 27, 2021.&lt;/p&gt;', 'alternate_names': ['Ashley Frangipane', 'Ashley N. Frangipane', 'Ashley Nicolette Frangipane']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ok-go', 'annotations': {'description': '&lt;p&gt;Formed in Chicago in 1998, OK Go; Damian Kulash, Dan Konopka, Timothy Nordwind, and Andy Ross, is an indie alternative rock band, known for their eye-catching, low-budget music videos.&lt;/p&gt;\n\n&lt;p&gt;In 2002, as Damian Kulash, Timothy Nordwind, Dan Konopka, and Andy Duncan, they released their self-titled debut, to generally positive claim, and has since attained a cult following among fans and critics alike.&lt;/p&gt;\n\n&lt;p&gt;In 2005, as Andy Duncan left, “Oh No” was released to more positive reviews, as Andy Ross joined, and “Here It Goes Again” reached #38 on the Billboard Hot 100.&lt;/p&gt;\n\n&lt;p&gt;2010’s “Of the Blue Colour of the Sky”, along with many hits, such as “White Knuckles”, “WTF?”, and “This Too Shall Pass”, was released to outstanding reviews, as praise went to conceptualization and songs. Also, with a heated debate with EMI for non-encrypted music videos, and hosting, OK Go split and formed Paracdute Recordings, and has since used that label.&lt;/p&gt;\n\n&lt;p&gt;With some time off, they returned again in 2014 with the EP “Upside Out”, which contained the hit “The Writing’s On the Wall”, which made the Billboard 100, and 3 more songs. Those songs eventually turned out to be catalogued for their most meticulous album, “Hungry Ghosts”. Taking a widely electronic route, “Hungry Ghosts” was positively praised by critics and fans alike for its electronic roots.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Guns-n-roses', 'annotations': {'description': '&lt;p&gt;Guns N\' Roses was the most dangerous band in the world in the late 80s and early 90s. Led by singer &lt;a href="https://genius.com/artists/Axl-rose" rel="noopener" data-api_path="/artists/101616"&gt;Axl Rose&lt;/a&gt; and stylish guitarist &lt;a href="https://genius.com/artists/Slash" rel="noopener" data-api_path="/artists/10939"&gt;Slash&lt;/a&gt;, they mixed the passion of blues, the heaviness of rock, and the attitude of punk, bringing forth a breath of fresh air to a music scene dominated by cheesy hair metal bands.&lt;/p&gt;\n\n&lt;p&gt;Their debut album, &lt;a href="https://genius.com/albums/Guns-n-roses/Appetite-for-destruction" rel="noopener" data-api_path="/albums/11175"&gt;&lt;em&gt;Appetite for Destruction&lt;/em&gt;&lt;/a&gt;, is the best selling debut of all-time. They outsold a headlining &lt;a href="https://genius.com/artists/Aerosmith" rel="noopener" data-api_path="/artists/533"&gt;Aerosmith&lt;/a&gt; on their first major tour, released two double albums (&lt;a href="https://genius.com/albums/Guns-n-roses/Use-your-illusion" rel="noopener" data-api_path="/albums/356776"&gt;&lt;em&gt;Use Your Illusion&lt;/em&gt;&lt;/a&gt; &lt;a href="https://genius.com/albums/Guns-n-roses/Use-your-illusion-i" rel="noopener" data-api_path="/albums/20164"&gt;&lt;em&gt;I&lt;/em&gt;&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/albums/Guns-n-roses/Use-your-illusion-ii" rel="noopener" data-api_path="/albums/25700"&gt;&lt;em&gt;II&lt;/em&gt;&lt;/a&gt;) simultaneously, and soon would play to audiences in excesses of 20,000 people.&lt;/p&gt;\n\n&lt;p&gt;However, cracks started forming in the band, as classic era drummer &lt;a href="https://genius.com/artists/Steven-Adler" rel="noopener" data-api_path="/artists/176325"&gt;Steven Adler&lt;/a&gt; was fired from the band before the “Use Your Illusion” releases and founding rhythm guitarist &lt;a href="https://genius.com/artists/Izzy-Stradlin" rel="noopener" data-api_path="/artists/176296"&gt;Izzy Stradlin&lt;/a&gt; left abruptly during the ensuing tour. They were replaced by &lt;a href="https://genius.com/artists/Matt-Sorum" rel="noopener" data-api_path="/artists/366017"&gt;Matt Sorum&lt;/a&gt; and &lt;a href="https://genius.com/artists/Gilby-Clarke" rel="noopener" data-api_path="/artists/348775"&gt;Gilby Clarke&lt;/a&gt;, respectively, with keyboardist &lt;a href="https://genius.com/artists/Dizzy-Reed" rel="noopener" data-api_path="/artists/632937"&gt;Dizzy Reed&lt;/a&gt; joining the band and expanding the group’s sound.&lt;/p&gt;\n\n&lt;p&gt;After releasing a punk-rock covers album (&lt;a href="https://genius.com/albums/Guns-n-roses/The-spaghetti-incident" rel="noopener" data-api_path="/albums/67910"&gt;&lt;em&gt;“The Spaghetti Incident?”&lt;/em&gt;&lt;/a&gt;) in 1993, progress on a follow-up album stalled due to creative differences between Rose and Slash. Tensions arose and personal conflicts caused the band to begin to fall apart. By 1998, only Rose and Reed remained in the band from the “Illusion”-era.&lt;/p&gt;\n\n&lt;p&gt;Several different lineups worked on the new album for over a decade; with musicians as diverse as punk bassist &lt;a href="https://genius.com/artists/Tommy-Stinson" rel="noopener" data-api_path="/artists/33396"&gt;Tommy Stinson&lt;/a&gt;, virtuoso guitarist &lt;a href="https://genius.com/artists/Buckethead" rel="noopener" data-api_path="/artists/362950"&gt;Buckethead&lt;/a&gt;, and several former touring members of &lt;a href="https://genius.com/artists/Nine-Inch-Nails" rel="noopener" data-api_path="/artists/12757"&gt;Nine Inch Nails&lt;/a&gt;. The result, 2008’s &lt;a href="https://genius.com/albums/Guns-n-roses/Chinese-democracy" rel="noopener" data-api_path="/albums/61296"&gt;&lt;em&gt;Chinese Democracy&lt;/em&gt;&lt;/a&gt;, was met with positive reviews but undersold expectations.&lt;/p&gt;\n\n&lt;p&gt;Rose toured heavily from 2001 until 2014 with various musicians from the “Chinese” era, before Slash and bassist &lt;a href="https://genius.com/artists/Duff-mckagan" rel="noopener" data-api_path="/artists/353742"&gt;Duff McKagan&lt;/a&gt; rejoined the band in 2016, marking the first time those three played together since 1994. The current lineup includes Rose, Slash, McKagan, Reed, “Chinese Democracy”-era rhythm guitarist Richard Fortus and drummer Frank Ferrer, and new keyboardist Melissa Reese.&lt;/p&gt;\n\n&lt;p&gt;The group’s “Not In this Lifetime…” quasi-reunion tour became a massive success, grossing over $560 million by 2019, the third highest-grossing tour of all time.&lt;/p&gt;', 'alternate_names': ['Guns and Roses']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kiesza', 'annotations': {'description': "&lt;p&gt;Kiesa Rae Ellestad, born 16 January 1989, is better known as &lt;strong&gt;Kiesza&lt;/strong&gt;. She’s a Canadian singer and multi-instrumentalist from Calgary.&lt;/p&gt;\n\n&lt;p&gt;Kiesza took part in the Young Canadians, performing tap and jazz dancing, as well as theatre. She’s also trained as a ballerina, however, a knee injury at age 15 ended her ballet career. When Ellestad was 18, she says that her parents' divorce caused her to write her first song, as a way of expressing her feelings. The same year, she heard a song of hers played on the radio.&lt;/p&gt;", 'alternate_names': ['Kiesa Ellestad', 'Kiesa Rae Ellestad']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nsync', 'annotations': {'description': '&lt;p&gt;*NSYNC (sometimes stylized as ★NSYNC, formally stylized as ‘N Sync) was an American boy band formed in Orlando, Florida in 1995 and launched in Germany by BMG Ariola Munich. The group consisted of &lt;a href="https://genius.com/artists/Justin-timberlake" rel="noopener" data-api_path="/artists/334"&gt;Justin Timberlake&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jc-chasez" rel="noopener" data-api_path="/artists/8613"&gt;J.C. Chasez&lt;/a&gt;, &lt;a href="https://genius.com/artists/Chris-kirkpatrick" rel="noopener" data-api_path="/artists/218290"&gt;Chris Kirkpatrick&lt;/a&gt;, &lt;a href="https://genius.com/artists/Joey-fatone" rel="noopener" data-api_path="/artists/390329"&gt;Joey Fatone&lt;/a&gt; and &lt;a href="https://genius.com/artists/Lance-bass" rel="noopener" data-api_path="/artists/996500"&gt;Lance Bass&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After heavily publicized legal battles with their former manager Lou Pearlman and former record label Sony BMG, the group’s second album, &lt;em&gt;&lt;a href="https://genius.com/albums/N-sync/No-strings-attached" rel="noopener" data-api_path="/albums/6463"&gt;No Strings Attached&lt;/a&gt;&lt;/em&gt;, sold over one million copies in one day and 2.42 million copies in one week.&lt;/p&gt;\n\n&lt;p&gt;In addition to a host of Grammy Award nominations, *NSYNC has performed at the World Series, the Super Bowl and the Olympic Games, and sang or recorded with &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lisa-left-eye-lopes" rel="noopener" data-api_path="/artists/7393"&gt;Lisa ‘Left Eye’ Lopes&lt;/a&gt;, &lt;a href="https://genius.com/artists/Aerosmith" rel="noopener" data-api_path="/artists/533"&gt;Aerosmith&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mary-j-blige" rel="noopener" data-api_path="/artists/358"&gt;Mary J. Blige&lt;/a&gt;, &lt;a href="https://genius.com/artists/Britney-spears" rel="noopener" data-api_path="/artists/1052"&gt;Britney Spears&lt;/a&gt;, &lt;a href="https://genius.com/artists/Nelly" rel="noopener" data-api_path="/artists/148"&gt;Nelly&lt;/a&gt;, &lt;a href="https://genius.com/artists/Michael-jackson" rel="noopener" data-api_path="/artists/835"&gt;Michael Jackson&lt;/a&gt;, &lt;a href="https://genius.com/artists/Phil-collins" rel="noopener" data-api_path="/artists/3927"&gt;Phil Collins&lt;/a&gt;, &lt;a href="https://genius.com/artists/Stevie-wonder" rel="noopener" data-api_path="/artists/1602"&gt;Stevie Wonder&lt;/a&gt;, &lt;a href="https://genius.com/artists/Celine-dion" rel="noopener" data-api_path="/artists/65300"&gt;Céline Dion&lt;/a&gt; and &lt;a href="https://genius.com/artists/Gloria-estefan" rel="noopener" data-api_path="/artists/83348"&gt;Gloria Estefan&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;While *NSYNC announced a “temporary hiatus” in spring 2002, the band has not recorded new material since. The group’s official website was shut down in the summer of 2006, and in 2007, Lance Bass confirmed that the group has “definitely broken up.” They have sold over 50 million albums during their career.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Zombie-nation', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dj-snake', 'annotations': {'description': '&lt;p&gt;William Grigahcine, better known by his stage name &lt;strong&gt;DJ Snake&lt;/strong&gt;, is a French DJ, rapper and producer mixing hip hop and electronic music.&lt;br&gt;\nBorn: June 13, 1986.&lt;/p&gt;', 'alternate_names': ['W. Grigahcine', 'William Grigahcine', 'William Sami Étienne Grigahcine']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kiss', 'annotations': {'description': '&lt;p&gt;Formed in 1973 by &lt;a href="https://genius.com/artists/Gene-simmons" rel="noopener" data-api_path="/artists/354975"&gt;Gene Simmons&lt;/a&gt;, &lt;a href="https://genius.com/artists/Paul-stanley" rel="noopener" data-api_path="/artists/340440"&gt;Paul Stanley&lt;/a&gt;, &lt;a href="https://genius.com/artists/Ace-frehley" rel="noopener" data-api_path="/artists/310551"&gt;Ace Frehley&lt;/a&gt; and &lt;a href="https://genius.com/artists/Peter-criss" rel="noopener" data-api_path="/artists/358696"&gt;Peter Criss&lt;/a&gt;, KISS is a hard rock band, who are known for their elaborate stage performances.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.rapgenius.com/6dec1ddca665a2bc5d60ff51d036fe2f.800x337x1.png" alt="" width="800" height="337" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Their lineup has changed constantly, with Simmons (bass, vocals) and Stanley (rhythm guitar, vocals) being the only remaining original members. However, through the years the band’s lead guitarists and drummers (with occasional singing for both) have included &lt;a href="https://genius.com/artists/Eric-carr" rel="noopener" data-api_path="/artists/370157"&gt;Eric Carr&lt;/a&gt;, &lt;a href="https://genius.com/artists/Vinnie-vincent" rel="noopener" data-api_path="/artists/380185"&gt;Vinnie Vincent&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mark-st-john" rel="noopener" data-api_path="/artists/106602"&gt;Mark St. John&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Bruce-kulick" rel="noopener" data-api_path="/artists/361740"&gt;Bruce Kulick&lt;/a&gt;, with the current lineup consisting of &lt;a href="https://genius.com/artists/Tommy-thayer" rel="noopener" data-api_path="/artists/347802"&gt;Tommy Thayer&lt;/a&gt; (lead guitar, vocals) and &lt;a href="https://genius.com/artists/Eric-singer" rel="noopener" data-api_path="/artists/64074"&gt;Eric Singer&lt;/a&gt; (drums, vocals).&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sir-mix-a-lot', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Anthony Ray', 'Anthony L. Ray']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Wet-wet-wet', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Tonic', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dragonette', 'annotations': {'description': '&lt;p&gt;Dragonette is a Canadian electronic music band from Toronto, Ontario, formed in 2005. The band consists of singer-songwriter Martina Sorbara, bassist and producer Dan Kurtz (also in The New Deal) and drummer Joel Stouffer.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Vengaboys', 'annotations': {'description': '&lt;p&gt;Vengaboys are a very popular bubblegum pop group. The members of the group are &lt;a href="http://www.bubblegumdancer.com/project.php?id=128#ixzz5IzGQMbFa" rel="noopener nofollow"&gt;Kim Sasabone, Denise Post-Van Rijswijk, Yorick Bakker, and Donny Latupeirissa&lt;/a&gt;. They’re well-known for their cartoonish poppy songs such as “Boom, Boom, Boom, Boom!!” They’ve sold an estimated &lt;a href="https://en.wikipedia.org/wiki/Vengaboys#Discography" rel="noopener nofollow"&gt;25 million records worldwide&lt;/a&gt; and was named the “Best Selling Music Group” in 2003 by World Music Awards.&lt;/p&gt;\n\n&lt;p&gt;The group has released three albums; &lt;em&gt;Up &amp;amp; Down-The Party Album&lt;/em&gt;, &lt;em&gt;The Party Album!&lt;/em&gt;, and &lt;em&gt;The Platinum Album&lt;/em&gt;; two of the albums have achieved gold and platinum status in other countries.&lt;/p&gt;\n\n&lt;p&gt;The group took a hiatus after 2000 and returned in 2006 with a new member Donny Latupeirissa, or Ma\'Donny. In 2010, the band confirmed that their &lt;a href="https://en.wikipedia.org/wiki/Vengaboys#Discography" rel="noopener nofollow"&gt;comeback single&lt;/a&gt; would be “Rocket to Uranus” and was released in June. In 2013, they released a new single called “Hot Hot Hot”.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;The X-mas Party Album&lt;/em&gt; was released in 2014. In 2017, the band announced Party On the Dance Floor Tour.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ugly-kid-joe', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Royal-blood', 'annotations': {'description': '&lt;p&gt;Two piece rock band (consisting of members Mike Kerr and Ben Thatcher) with only bass and drums, formed in Brighton UK. Their sound is expanded by the use of effects to fill the space where other instruments would normally be.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dnce', 'annotations': {'description': '&lt;p&gt;In 2015, &lt;a href="https://genius.com/artists/Joe-jonas" rel="noopener" data-api_path="/artists/16515"&gt;Joe Jonas&lt;/a&gt; announced his first project since the &lt;a href="https://genius.com/artists/Jonas-brothers" rel="noopener" data-api_path="/artists/8436"&gt;Jonas Brothers&lt;/a&gt; officially split: a band called DNCE. Joe recruited guitarist &lt;a href="https://genius.com/artists/Jinjoo-lee" rel="noopener" data-api_path="/artists/1035785"&gt;JinJoo Lee&lt;/a&gt;, bassist and keyboardist &lt;a href="https://genius.com/artists/Cole-whittle" rel="noopener" data-api_path="/artists/1006070"&gt;Cole Whittle&lt;/a&gt;, and drummer &lt;a href="https://genius.com/artists/Jack-lawless" rel="noopener" data-api_path="/artists/1035786"&gt;Jack Lawless&lt;/a&gt;, who worked with Joe back in his JB days.&lt;/p&gt;\n\n&lt;p&gt;JinJoo &lt;a href="http://www.dnce.com/2015/10/23/interview-magazine-with-dnce/" rel="noopener nofollow"&gt;told &lt;em&gt;Interview Magazine&lt;/em&gt;&lt;/a&gt; the meaning of the band’s name.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;‘DNCE’ is ‘dance’ without an A. It’s not a perfect word, and you don’t have to be a perfect dancer to dance. Life is just sometimes not perfect.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;On September 14, 2015, the band premiered their debut single, &lt;a href="https://genius.com/DNCE-cake-by-the-ocean-lyrics" rel="noopener" data-api_path="/songs/2306268"&gt;“Cake By the Ocean,”&lt;/a&gt; on New York’s Z100. The song blew up and soon found a place in the background of an AT&amp;amp;T commercial. This drove more people to check out their music and boosted sales and popularity.&lt;/p&gt;\n\n&lt;p&gt;On October 23rd, 2015, the &lt;a href="https://genius.com/albums/Dnce/Swaay-ep" rel="noopener" data-api_path="/albums/133124"&gt;&lt;em&gt;SWAAY&lt;/em&gt; EP&lt;/a&gt; was released, and a few months later the band announced they would be touring with &lt;a href="https://genius.com/artists/Selena-gomez" rel="noopener" data-api_path="/artists/45372"&gt;Selena Gomez&lt;/a&gt; in the summer of 2016.&lt;/p&gt;\n\n&lt;p&gt;On November 18th, 2016, the &lt;a href="https://genius.com/albums/Dnce/Dnce" rel="noopener" data-api_path="/albums/222215"&gt;self-titled debut album&lt;/a&gt; was released.&lt;/p&gt;\n\n&lt;p&gt;On June 15th, 2018, the &lt;a href="https://genius.com/albums/Dnce/People-to-people-ep" rel="noopener" data-api_path="/albums/397299"&gt;&lt;em&gt;People to People&lt;/em&gt; EP&lt;/a&gt; was released. This was their last project until their hiatus due to Jonas and Lawless continuing with the Jonas Brothers starting from February 28th, 2019. As of now, they are on hiatus.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sasha', 'annotations': {'description': '&lt;p&gt;Sasha may refer to:&lt;/p&gt;\n\n&lt;ol&gt;\n&lt;li&gt;&lt;p&gt;Jamaican musician, born Karen Chin.&lt;br&gt;\nA dancehall artist, deejay, and singer, best known for her singles “Dat Sexy Body”, “Kill the Bitch”, and her featured single “I’m Still in Love with You” with Sean Paul.&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;German singer, born Sascha Schmitz.&lt;br&gt;\nA pop singer spawning hits across Europe, with gold and platinum selling albums “Dedicated to…”, “…you”, and “Surfin\' on a Backbeat”, as well as hit singles “If You Believe” and “I Feel Lonely”&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Welsh DJ, born Alexander Coe.&lt;br&gt;\nAn electronic music producer and DJ pioneering house and dance music. Best known for his mix albums, remixes, and works with John Digweed as Sasha &amp;amp; John Digweed.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;\n\n\n&lt;p&gt;&lt;img src="https://images.genius.com/fbff701e6b56d7141ee6f361eef0d1cc.1000x1000x1.png" alt="" width="1000" height="1000" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Anderson-paak', 'annotations': {'description': '&lt;p&gt;Brandon Paak Anderson, a.k.a. Anderson .Paak, is a singer, songwriter, producer, and drummer from Oxnard, California. He released his debut EP, &lt;em&gt;Violets Are Blue,&lt;/em&gt; under his original moniker, &lt;a href="https://www.youtube.com/watch?v=gasKY7t30io&amp;amp;t=0m9s" rel="noopener nofollow"&gt;Breezy Lovejoy&lt;/a&gt;, in 2010. He eventually began using his new stage name and released  &lt;em&gt;O.B.E. Vol. 1&lt;/em&gt; in June 2012 and &lt;em&gt;Lovejoy&lt;/em&gt; in October 2012.&lt;/p&gt;\n\n&lt;p&gt;Before his 2014 album &lt;a href="https://genius.com/albums/Anderson-paak/Venice" rel="noopener" data-api_path="/albums/128954"&gt;&lt;em&gt;Venice,&lt;/em&gt;&lt;/a&gt; .Paak officially changed his name to Anderson .Paak. When asked if his name change was symbolic of a turning point in his career by &lt;a href="http://consequenceofsound.net/2015/12/from-compton-to-malibu-the-new-life-of-anderson-paak/" rel="noopener nofollow"&gt;&lt;em&gt;Consequence of Sound&lt;/em&gt;,&lt;/a&gt; he stated:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;Yeah, that was the case. […] and I felt like it was time to transition to a different name.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;With his name change, .Paak was reborn. &lt;em&gt;Venice&lt;/em&gt;, released a full two years after his last project showcased .Paak’s incredible versatility. &lt;a href="https://genius.com/Anderson-paak-milk-n-honey-lyrics" rel="noopener" data-api_path="/songs/557673"&gt;“Milk n\' Honey”&lt;/a&gt; showed .Paak’s storytelling ability. In &lt;a href="https://genius.com/Anderson-paak-the-city-lyrics" rel="noopener" data-api_path="/songs/2284324"&gt;“The City,”&lt;/a&gt; .Paak shows he can create a West Coast anthem. &lt;a href="https://genius.com/Anderson-paak-drugs-lyrics" rel="noopener" data-api_path="/songs/452769"&gt;“Drugs,”&lt;/a&gt; the single that &lt;a href="http://www.laweekly.com/music/anderson-paaks-long-hard-road-to-fame-was-worth-the-wait-7169706" rel="noopener nofollow"&gt;got .Paak noticed by Dre,&lt;/a&gt; is perhaps .Paak’s most telling song of his sound, with powerful vocals and progressive production on full display.&lt;/p&gt;\n\n&lt;p&gt;2015 was a standout year for .Paak, thanks to his guest features. Appearing on six songs from Dr. Dre’s &lt;a href="https://genius.com/albums/Dr-dre/Compton" rel="noopener" data-api_path="/albums/128418"&gt;&lt;em&gt;Compton&lt;/em&gt;&lt;/a&gt; project, as well as two songs on The Game’s &lt;a href="https://genius.com/albums/The-game/The-documentary-2-5" rel="noopener" data-api_path="/albums/132576"&gt;&lt;em&gt;The Documentary 2.5&lt;/em&gt;&lt;/a&gt;, his popularity began to skyrocket. In late 2015, .Paak released two EP’s: &lt;a href="https://genius.com/albums/Anderson-paak/The-anderson-paak-ep" rel="noopener" data-api_path="/albums/134092"&gt;&lt;em&gt;The Anderson .Paak EP&lt;/em&gt;&lt;/a&gt; in collaboration with The Blended Babies and &lt;a href="https://genius.com/albums/Nxworries/Link-up-suede" rel="noopener" data-api_path="/albums/139158"&gt;&lt;em&gt;Link Up &amp;amp; Suede&lt;/em&gt;&lt;/a&gt; as one half of &lt;a href="https://genius.com/artists/Nxworries" rel="noopener" data-api_path="/artists/339382"&gt;NxWorries&lt;/a&gt; with producer &lt;a href="https://genius.com/artists/Knxwledge" rel="noopener" data-api_path="/artists/30574"&gt;Knxwledge&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Riding the success of 2015, 2016 saw .Paak collaborate with many big name artists. Anderson was featured on Macklemore’s &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-dance-off-lyrics" rel="noopener" data-api_path="/songs/2429093"&gt;“Dance Off”,&lt;/a&gt; Domo Genesis\' &lt;a href="https://genius.com/Domo-genesis-dapper-lyrics" rel="noopener" data-api_path="/songs/2437280"&gt;“Dapper”,&lt;/a&gt; KAYTRANDA’s &lt;a href="https://genius.com/Kaytranada-glowed-up-lyrics" rel="noopener" data-api_path="/songs/2452034"&gt;“Glowed Up,”&lt;/a&gt; Snakehips &lt;a href="https://genius.com/Snakehips-money-on-me-lyrics" rel="noopener" data-api_path="/songs/2448137"&gt;“Money On Me”,&lt;/a&gt; ScHoolboy Q’s &lt;a href="https://genius.com/Schoolboy-q-blank-face-lyrics" rel="noopener" data-api_path="/songs/2670497"&gt;“Blank Face”,&lt;/a&gt; and Mac Miller’s &lt;a href="https://genius.com/Mac-miller-dang-lyrics" rel="noopener" data-api_path="/songs/2828305"&gt;“Dang!”.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In January of 2016, .Paak released his second album, &lt;a href="https://genius.com/albums/Anderson-paak/Malibu" rel="noopener" data-api_path="/albums/139522"&gt;&lt;em&gt;Malibu.&lt;/em&gt;&lt;/a&gt; The album, sixteen tracks in length, is .Paak’s strongest work to date, showing the growth he’s made since his Breezy Lovejoy days. The album was met with incredible praise, receiving an &lt;a href="http://www.metacritic.com/music/malibu/anderson-paak" rel="noopener nofollow"&gt;85 on Metacritic,&lt;/a&gt; making it one of the &lt;a href="http://www.metacritic.com/browse/albums/score/metascore/year?sort=desc&amp;amp;year_selected=2016" rel="noopener nofollow"&gt;most well-received albums of the year.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After the release of &lt;em&gt;Malibu,&lt;/em&gt; .Paak announced that he signed to Dr. Dre’s &lt;a href="http://aftermathmusic.com/" rel="noopener nofollow"&gt;Aftermath Entertainment&lt;/a&gt;. Paak was also a member of &lt;a href="http://freshman.xxlmag.com/" rel="noopener nofollow"&gt;2016’s XXL Freshman Issue&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He released his third studio album, &lt;a href="https://genius.com/albums/Anderson-paak/Oxnard" rel="noopener" data-api_path="/albums/431070"&gt;&lt;em&gt;Oxnard&lt;/em&gt;&lt;/a&gt;, on November 16, 2018. He would release two singles prior to the project: &lt;a href="https://genius.com/Anderson-paak-tints-lyrics" rel="noopener" data-api_path="/songs/3997715"&gt;“Tints”&lt;/a&gt;, featuring Kendrick Lamar, and &lt;a href="https://genius.com/Anderson-paak-who-r-u-lyrics" rel="noopener" data-api_path="/songs/4045184"&gt;“Who R U?”&lt;/a&gt;, produced in part by &lt;a href="https://genius.com/artists/Dr-dre" rel="noopener" data-api_path="/artists/123"&gt;Dr. Dre&lt;/a&gt;. The album was received well by critics, and debuted at #11 on the &lt;em&gt;Billboard&lt;/em&gt; 200. The song &lt;a href="https://genius.com/Anderson-paak-bubblin-lyrics" rel="noopener" data-api_path="/songs/2921121"&gt;“Bubblin”&lt;/a&gt; won “Best Rap Performance” at the 61st Grammy Awards on May 17, 2019.&lt;/p&gt;\n\n&lt;p&gt;On April 12, 2019, he released his fourth studio album, &lt;a href="https://genius.com/albums/Anderson-paak/Ventura" rel="noopener" data-api_path="/albums/508432"&gt;&lt;em&gt;Ventura&lt;/em&gt;&lt;/a&gt;. The star-studded project features such artists as &lt;a href="https://genius.com/artists/Andre-3000" rel="noopener" data-api_path="/artists/14266"&gt;André 3000&lt;/a&gt;, &lt;a href="https://genius.com/artists/Smokey-robinson" rel="noopener" data-api_path="/artists/1223"&gt;Smokey Robinson&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lalah-hathaway" rel="noopener" data-api_path="/artists/100354"&gt;Lalah Hathaway&lt;/a&gt;, and more. &lt;em&gt;Ventura&lt;/em&gt; would become Paak’s first US Top Ten hit, debuting at #4 on the &lt;em&gt;Billboard&lt;/em&gt; 200.&lt;/p&gt;', 'alternate_names': ['Cheeky Andy', 'Breezy Lovejoy', 'Brandon P. Anderson', 'Brandon Paak Anderson']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Rainbow-kitten-surprise', 'annotations': {'description': '&lt;p&gt;Rainbow Kitten Surprise and all five of its members hail from the mountains of Boone, North Carolina. With chilling harmonies, dynamic instrumentation, and introspective lyrics, their genre-defying sound will keep you humming their tunes all day long. The band takes influence from great artists like Modest Mouse and Kings of Leon, as much as Frank Ocean and Schoolboy Q. Their highly unusual band name is &lt;a href="https://www.redbull.tv/video/AP-1SHAEV1RH2111/interview-rainbow-kitten-surprise" rel="noopener nofollow"&gt;credited&lt;/a&gt; to a roommate of RKS. The members asked him to name the band as he was leaving the hospital, and, still under the influence of morphine, he named the band Rainbow Kitten Surprise.&lt;/p&gt;\n\n&lt;p&gt;RKS was formed in early 2013 when the first two members, Sam Melo and Darrick “Bozzy” Keller, decided to begin writing and composing music together. What started out as just two college students with acoustic guitars would soon turn into a full band with a unique sound and style.&lt;/p&gt;\n\n&lt;p&gt;After recording RKS’s first EP “Mary” in an old dorm room on the campus of Appalachian State University, the duo decided to take it up a notch by adding more members and instruments to the band. Over the next year the group widely expanded in size and sound by adding three more members: Ethan Goodpaster (Electric Guitar), Jess Haney (Drums), and Charlie Holt (Bass). In that year, RKS independently released their first album “Seven”, which was later re-released in combination with the band’s first EP as a joint album titled “Seven + Mary”. The title song, “Seven” has been featured in many places on the web including the very popular podcast by IGN, Podcast Beyond! The song “Devil Like Me” and its music video earned the band a spot in VH1’s “Make A Band Famous” contest, where they made it to the final 24 out of thousands of artists from across the US.&lt;/p&gt;\n\n&lt;p&gt;In 2015 the group released the full-length album titled “RKS” and performed at clubs and festivals over the next three years.&lt;/p&gt;\n\n&lt;p&gt;Independently, they have over 75 million streams across digital platforms and notched over 45 sold out shows on their first U.S. headline tour. Elektra Records took note and signed RKS in 2018. The band worked with GRAMMY award-winning producer &lt;a href="https://genius.com/artists/Jay-joyce" rel="noopener" data-api_path="/artists/59535"&gt;Jay Joyce&lt;/a&gt; (Cage The Elephant, Sleeper Agent) on their Elektra debut, How to: Friend, Love, Freefall. The album is being supported by a tour of the same name, with shows throughout the US and Canada.&lt;/p&gt;\n\n&lt;p&gt;The group’s main interest is producing a quality, unique, and fresh sound for all music lovers to listen to and enjoy.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Salt-n-pepa', 'annotations': {'description': '&lt;p&gt;Salt-N-Pepa is arguably the most successful female rap group of all time. The group began with Cheryl “Salt” James and Sandra “Pepa” Denton meeting while studying to be nurses. James got Denton a job at a Sears department store, where her boyfriend Hurby “Luv Bug” Azor also worked. Azor was studying music production and he asked them to help on &lt;a href="https://www.washingtonpost.com/archive/lifestyle/1994/05/27/salt-n-pepa-taking-control/a969fdd2-c2e2-4b7a-bc48-f83dadb3d13d/?utm_term=.db33642e0b2e" rel="noopener nofollow"&gt;a school project&lt;/a&gt;, an answer record to Doug E. Fresh’s “The Show” they named &lt;a href="https://genius.com/Salt-n-pepa-the-showstopper-is-stupid-fresh-lyrics" rel="noopener" data-api_path="/songs/2147764"&gt;“The Showstopper”&lt;/a&gt; – recorded in 1985 under the name Supernature.&lt;/p&gt;\n\n&lt;p&gt;After the legendary Queens DJ Marley Marl played “The Showstopper” on his radio show, the group &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;began getting booked for shows&lt;/a&gt;. One lyric in “The Showstopper” was ‘We the salt and pepper’, and people kept requesting ‘that salt and pepper song’, so &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;they changed their name&lt;/a&gt; to Salt-N-Pepa. Deejay Deidra “Spinderella” Ropa was added soon after.&lt;/p&gt;\n\n&lt;p&gt;SNP’s debut album &lt;a href="https://genius.com/albums/Salt-n-pepa/Hot-cool-and-vicious" rel="noopener" data-api_path="/albums/8996"&gt;&lt;em&gt;Hot, Cool, &amp;amp; Vicious&lt;/em&gt;&lt;/a&gt; originally spawned a minor hit in the UK with &lt;a href="https://genius.com/Salt-n-pepa-my-mike-sounds-nice-lyrics" rel="noopener" data-api_path="/songs/2144116"&gt;“My Mike Sounds Nice”&lt;/a&gt; in early 1987. But it was the re-release of a remix of “Push It”, originally a quickly-thrown together b-side for their fall ‘87 single “Tramp”, that shot the group into international stardom. The song reached the top 10 in eleven countries &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Salt-N-Pepa&amp;amp;titel=Push+It&amp;amp;cat=s" rel="noopener nofollow"&gt;around the world&lt;/a&gt; in 1988.&lt;/p&gt;\n\n&lt;p&gt;The group had continued international success throughout first half of the 1990s with hits like “Expression”, “Do You Really Want Me”, “You Showed Me”, &lt;a href="https://genius.com/Salt-n-pepa-shoop-lyrics" rel="noopener" data-api_path="/songs/3464"&gt;“Shoop”&lt;/a&gt; and &lt;a href="https://genius.com/Salt-n-pepa-whatta-man-lyrics" rel="noopener" data-api_path="/songs/51518"&gt;“Whatta Man”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/En-vogue" rel="noopener" data-api_path="/artists/8571"&gt;En Vogue&lt;/a&gt;. Their 1991 hit &lt;a href="https://genius.com/Salt-n-pepa-lets-talk-about-sex-lyrics" rel="noopener" data-api_path="/songs/41354"&gt;“Let’s Talk About Sex”&lt;/a&gt; was used to raise awareness about the AIDS epidemic in the United States at the time. SNP won a Grammy for Best Rap Performance by a Duo or Group in 1994 for &lt;a href="https://genius.com/Salt-n-pepa-none-of-your-business-lyrics" rel="noopener" data-api_path="/songs/354653"&gt;“None of Your Business”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The group released their last album &lt;em&gt;Brand New&lt;/em&gt; in 1997, featuring a modest hit &lt;a href="https://genius.com/Salt-n-pepa-r-u-ready-lyrics" rel="noopener" data-api_path="/songs/41370"&gt;“R U Ready,”&lt;/a&gt; before disbanding. SNP &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;continues to tour&lt;/a&gt; and make television appearances, including the VH-1 reality series &lt;em&gt;The Salt-N-Pepa Show&lt;/em&gt; and &lt;em&gt;Let’s Talk About Pep&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-knack', 'annotations': {'description': '&lt;p&gt;The Knack was an American rock band based in Los Angeles that rose to fame with their first single, “My Sharona”, an international number-one hit in 1979.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/e7da446954646ea01484e56a690d87de.800x531x1.jpg" alt="" width="800" height="531" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Taylor-dayne', 'annotations': {'description': '&lt;p&gt;Leslie Wunderman (born March 7, 1962), better known by her recording and stage names Les Lee and Taylor Dayne, is an American pop and freestyle music singer-songwriter and actress. In late 1987, she scored her first major hit when her debut single &lt;a href="https://genius.com/Taylor-dayne-tell-it-to-my-heart-lyrics" rel="noopener" data-api_path="/songs/1475149"&gt;“Tell It to My Heart”&lt;/a&gt; reached No. 7 on the Hot 100. She then went on to have a string of hits in the late 1980s and early 1990s, including the No. 1 Billboard hit &lt;a href="https://genius.com/Taylor-dayne-love-will-lead-you-back-lyrics" rel="noopener" data-api_path="/songs/1786378"&gt;“Love Will Lead You Back”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Overall, she has had eighteen individual hit songs reach the top ten in Billboard magazine. These include most recently, the 2011 American and international hit &lt;a href="https://genius.com/Taylor-dayne-floor-on-fire-original-radio-mix-lyrics" rel="noopener" data-api_path="/songs/4371117"&gt;“Floor on Fire”&lt;/a&gt; and the 2008 song &lt;a href="https://genius.com/Taylor-dayne-beautiful-lyrics" rel="noopener" data-api_path="/songs/901021"&gt;“Beautiful”&lt;/a&gt;, which reached the top spot on the Billboard Hot Dance Club Play chart. She has also topped the U.S. Billboard Hot Dance Club Play chart three times. In December 2016, Billboard magazine ranked her as the 28th most successful dance artist of all-time.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Belinda-carlisle', 'annotations': {'description': '&lt;p&gt;Belinda Jo Carlisle (born August 17, 1958) is an American singer and songwriter. She gained worldwide fame as the lead singer of The Go-Go’s, one of the most successful all-female bands of all time, and went on to have a prolific career as a solo act.&lt;/p&gt;', 'alternate_names': ['Belinda J. Carlisle', 'Belinda Jo Carlisle']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Calvin-harris', 'annotations': {'description': '&lt;p&gt;Adam Richard Wiles (born 17 January 1984), better known by his stage name &lt;strong&gt;Calvin Harris&lt;/strong&gt;, is a Scottish DJ, singer, songwriter, and record producer. He collaborated with &lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt; on the international hit &lt;a href="http://rock.genius.com/Rihanna-we-found-love-lyrics" rel="noopener" data-api_path="/songs/56642"&gt;“We Found Love.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;According to Forbes, Harris &lt;a href="http://news.genius.com/Forbes-worlds-highest-paid-djs-electronic-cash-kings-lyrics" rel="noopener" data-api_path="/songs/205119"&gt;was the highest paid DJ of 2013,&lt;/a&gt; grossing an estimated $46 million.&lt;/p&gt;', 'alternate_names': ['Adam Wiles', 'Adam R. Wiles', 'Adam Richard Wiles']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Colin-petersen', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Owl-city', 'annotations': {'description': '&lt;p&gt;Originally making songs in his basement for his friends as &lt;a href="https://genius.com/artists/Sky-sailing" rel="noopener" data-api_path="/artists/360480"&gt;Sky Sailing&lt;/a&gt;, &lt;a href="https://genius.com/artists/Adam-young" rel="noopener" data-api_path="/artists/39521"&gt;Adam Young&lt;/a&gt; then discovered synth music and became Owl City, releasing two relatively unpopular albums &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Maybe-i-m-dreaming" rel="noopener" data-api_path="/albums/40282"&gt;Maybe I’m Dreaming&lt;/a&gt;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Of-june" rel="noopener" data-api_path="/albums/100523"&gt;Of June&lt;/a&gt;&lt;/em&gt; before making his hit single “&lt;a href="https://genius.com/Owl-city-fireflies-lyrics" rel="noopener" data-api_path="/songs/54831"&gt;Fireflies&lt;/a&gt;” which made his third album as Owl City, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Ocean-eyes" rel="noopener" data-api_path="/albums/12041"&gt;Ocean Eyes&lt;/a&gt;&lt;/em&gt; a hit.&lt;/p&gt;\n\n&lt;p&gt;After this worldwide success he put on two more albums, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/All-things-bright-and-beautiful" rel="noopener" data-api_path="/albums/12197"&gt;All Things Bright and Beautiful&lt;/a&gt;&lt;/em&gt; in 2011, and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/The-midsummer-station" rel="noopener" data-api_path="/albums/20412"&gt;The Midsummer Station&lt;/a&gt;&lt;/em&gt; in 2012. In 2014 he released an EP, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Ultraviolet-ep" rel="noopener" data-api_path="/albums/105845"&gt;Ultraviolet&lt;/a&gt;&lt;/em&gt;, composed of 4 songs &lt;a href="https://genius.com/Owl-city-this-isnt-the-end-lyrics" rel="noopener" data-api_path="/songs/461949"&gt;whom one&lt;/a&gt; would appear on his following album, &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Mobile-orchestra" rel="noopener" data-api_path="/albums/124470"&gt;Mobile Orchestra&lt;/a&gt;&lt;/em&gt;. Retiring from Owl City in 2016 to focus on &lt;a href="https://www.ayoungscores.com/" rel="noopener nofollow"&gt;Adam Young Scores&lt;/a&gt;, a new project made of orchestral soundtracks about historic events, he reappeared in 2017 to tease his upcoming new album &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Cinematic" rel="noopener" data-api_path="/albums/377687"&gt;Cinematic&lt;/a&gt;&lt;/em&gt;, with the release of a series of three EPs, called &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-1-ep" rel="noopener" data-api_path="/albums/377817"&gt;Reel 1&lt;/a&gt;&lt;/em&gt; , &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-2-ep" rel="noopener" data-api_path="/albums/399481"&gt;2&lt;/a&gt;&lt;/em&gt; and &lt;em&gt;&lt;a href="https://genius.com/albums/Owl-city/Reel-3-ep" rel="noopener" data-api_path="/albums/417372"&gt;3&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Beastie-boys', 'annotations': {'description': '&lt;p&gt;The Beastie Boys is a groundbreaking, pioneering, Grammy award winning rap group from New York City that has sold &lt;a href="http://nymag.com/arts/popmusic/features/beastie-boys-2011-5/index5.html" rel="noopener nofollow"&gt;over 40 million albums&lt;/a&gt; worldwide. The group has been inactive since the death of founding member Adam “MCA” Yauch in 2012. According to Bad Brains bassist Darryl Jenifer, the name &lt;a href="http://nymag.com/arts/popmusic/features/beastie-boys-2011-5/index.html" rel="noopener nofollow"&gt;came from&lt;/a&gt; the code word ‘beast’, which was yelled to alert musicians selling drugs of the presence of a policeman outside a record shop that doubled as a rehearsal space for bands in the early 1980s.&lt;/p&gt;\n\n&lt;p&gt;Originally a punk rock band named The Young Aborigines consisting of Yauch, Kate Shellenbach, Michael “Mike D” Diamond and John Berry, the band renamed themselves Beastie Boys and released the &lt;em&gt;Polly Wog Stew&lt;/em&gt; EP shortly before Berry’s exit in 1982. Berry was replaced by Adam “Ad-rock” Horowitz and the band recorded a disco-joke parody of Malcolm McLaren’s “Buffalo Gals” titled “Cookie Puss” the following year. Producer Rick Rubin took an interest in the song, envisioning the group as ‘the first white rap group’ – but without Schellenbach. Rubin founded Def Jam Records soon after and signed the group as a trio.&lt;/p&gt;\n\n&lt;p&gt;Their first rap single, 1984’s “Rock Hard”, featured an uncleared sample of AC/DC’s “Back In Black” and was &lt;a href="https://www.kerrang.com/features/10-great-malcolm-young-moments/" rel="noopener nofollow"&gt;promptly recalled&lt;/a&gt;. However, its b-side “Beastie Revolution” was &lt;a href="https://web.archive.org/web/20110826155454/http://samplinglaw.wordpress.com/2008/01/04/the-very-first-sampling-lawsuit/" rel="noopener nofollow"&gt;used without authorization&lt;/a&gt; in a British Airways commercial, resulting in a $40,000 settlement that the band used to embark upon a full-time rap career.&lt;/p&gt;\n\n&lt;p&gt;“She’s On It” followed in 1985 on the &lt;em&gt;Krush Groove&lt;/em&gt; soundtrack. That year, the band toured as the &lt;a href="https://www.billboard.com/articles/news/6516809/watch-ad-rock-discuss-beastie-boys-opening-for-madonna-jimmy-fallon-tonight-show" rel="noopener nofollow"&gt;opening act&lt;/a&gt; of Madonna’s Virgin Tour after Russell Simmons &lt;a href="https://books.google.com/books?id=RbtMDwAAQBAJ&amp;amp;pg=PA174&amp;amp;lpg=PA174&amp;amp;dq=beastie+boys+madonna+tour+1985+rubin+%22fat+boys%22&amp;amp;source=bl&amp;amp;ots=jTj-_RYgSd&amp;amp;sig=ACfU3U3Qyo8N1S9KFym_Af3NXfStbpUIwg&amp;amp;hl=en&amp;amp;sa=X&amp;amp;ved=2ahUKEwiM5oWGwI3jAhXLm-AKHRDEAdEQ6AEwDnoECAwQAQ#v=onepage&amp;amp;q=beastie%20boys%20madonna%20tour%201985%20rubin%20%22fat%20boys%22&amp;amp;f=false" rel="noopener nofollow"&gt;told her management&lt;/a&gt; Run DMC wanted $20,000 a show, but he had another rap group that only charged $500. MCA &lt;a href="http://nymag.com/arts/popmusic/features/beastie-boys-2011-5/index3.html" rel="noopener nofollow"&gt;later shared&lt;/a&gt; what their nightly set consisted of:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;We did like three songs, and then I did the electric boogaloo for a minute, and then we fucked with the audience. They hated us. Kids literally in tears, parents wanting to kill us.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In the summer of 1986, “Hold It, Now Hit It” &lt;a href="https://www.billboard.com/music/beastie-boys/chart-history/r-b-hip-hop-songs" rel="noopener nofollow"&gt;reached #55&lt;/a&gt; on the US Hip Hop/R&amp;amp;B chart. &lt;em&gt;Licensed To Ill&lt;/em&gt; followed that November as two other tracks from it became minor hits on the same chart. However, it was the satirical frat-boy anthem “(You Gotta) Fight For Your Right (To Party!)” that launched the band into international stardom – reaching the top 20 in five countries in early 1987. Within weeks, four more of the album’s tracks found scattered international chart success in its wake. &lt;em&gt;Licensed To Ill&lt;/em&gt; became the first hip hop record to reach #1 in the US, topping the Billboard 200 for seven weeks and ultimately &lt;a href="https://www.billboard.com/articles/news/489107/beastie-boys-blazed-billboard-chart-history" rel="noopener nofollow"&gt;staying on the chart&lt;/a&gt; for 73 weeks as the group headlined their Licensed To Ill Tour for several months. By the end of the year, &lt;a href="https://www.theguardian.com/music/2018/oct/21/beastie-boys-book-memoir-interview" rel="noopener nofollow"&gt;they were&lt;/a&gt; “unhappy and barely speaking to one another”, with MCA and Mike D each forming their own new bands. They had also &lt;a href="http://nymag.com/arts/popmusic/features/beastie-boys-2011-5/index5.html" rel="noopener nofollow"&gt;split with&lt;/a&gt; Rubin and Def Jam over unpaid royalties.&lt;/p&gt;\n\n&lt;p&gt;In 1988, MCA flew to LA to take a role in the film &lt;em&gt;Lost Angels&lt;/em&gt;. When Ad-rock and Mike D came to visit, they attended a party hosted by Delicious Vinyl CEO Matt Dike who hooked them up with the Dust Brothers, who were fresh off their top 10 successes with Tone Loc and Young MC. This collaboration led to a drastic change in their sound and image with 1989’s funk-infused, disco-influenced &lt;em&gt;Paul’s Boutique&lt;/em&gt; – an intentional leap away from the frat-boy image they’d gained by emulating (and ridiculing) it on &lt;em&gt;Licensed To Ill&lt;/em&gt;. Despite its lead single “Hey Ladies” achieving moderate chart success in five countries including a top 40 placement in the US, the album was labeled a flop. Years later, however, it would be named one of the best albums of all time by Rolling Stone, Spin, VH1, Pitchfork and Time Magazine, and &lt;a href="https://www.rollingstone.com/music/music-news/how-the-beastie-boys-made-their-masterpiece-186788/" rel="noopener nofollow"&gt;lauded as&lt;/a&gt; “The Sgt Pepper of hip hop”, an &lt;a href="https://www.soundonsound.com/people/dust-brothers" rel="noopener nofollow"&gt;album that&lt;/a&gt; “single-handedly redefined a whole musical generation’s approach to sampling”.&lt;/p&gt;\n\n&lt;p&gt;Another massive change in sound happened with 1992’s &lt;em&gt;Check Your Head&lt;/em&gt; when The Beasties picked instruments up again, looping pieces of organic jam sessions to rap over and creating an eclectic collection of hip hop, punk, funk and rock. The band also began to transition away from misogynistic and boisterous lyrics, tackling more mature themes like peace, love, equality and spiritual enlightenment. The album reached the top 10 in the US, but its singles found little chart success there or abroad. Tours with opening acts Rollins Band, L7 and Cypress Hill demonstrated how this diverse album appealed to rock, alternative and hip hop crowds at the same time.&lt;/p&gt;\n\n&lt;p&gt;The US chart-topping 1994 album &lt;em&gt;Ill Communication&lt;/em&gt; continued this more organic sound and mature lyrical approach. The album’s lead single “Sabotage” only charted well in the UK, Canada and The Netherlands, but nonetheless became a huge underground success in the US aided by a music video directed by Spike Jonze. The album was supported with a worldwide tour, followed by &lt;a href="https://www.rollingstone.com/music/music-news/lollapalooza-round-4-courts-nirvana-beastie-boys-and-more-87865/" rel="noopener nofollow"&gt;a spot on&lt;/a&gt; Lollapalooza ‘94. Random diverse releases followed: the compilation of previous material &lt;em&gt;Some Old Bullshit&lt;/em&gt;, the punk-rooted &lt;em&gt;Aglio e Olio&lt;/em&gt;, and the instrumental &lt;em&gt;The In Sound from Way Out!&lt;/em&gt;. During this time, the group became very active with social causes like &lt;a href="https://www.pri.org/stories/2016-07-07/remember-when-beastie-boys-played-tibet-here-s-how-it-happened" rel="noopener nofollow"&gt;the Free Tibet movement&lt;/a&gt;, largely spearheaded by MCA.&lt;/p&gt;\n\n&lt;p&gt;&lt;em&gt;Hello Nasty&lt;/em&gt; marked another large shift in sound for the group in 1998 with the incorporation of electronic elements and the addition of master turntablist Mix Master Mike. Its lead single “Intergalactic” became the group’s third and final US top 40 hit, also charting well in ten countries overseas and &lt;a href="https://www.grammy.com/grammys/artists/beastie-boys" rel="noopener nofollow"&gt;winning a Rap Grammy&lt;/a&gt; the following year. The follow-up single “Body Movin\'” found scattered success overseas, and the album shot into the top 5 in fifteen countries and earned the Beasties another Grammy. An anthology titled &lt;em&gt;The Sounds of Science&lt;/em&gt; followed in 1999. The more straightforward hip hop &lt;em&gt;To The Five Boroughs&lt;/em&gt; appeared in 2004 with a heavy focus on the group’s political views. Its lead single “Ch-Check It Out” made the top 40 in eight countries overseas, and was a minor hit in the US.&lt;/p&gt;\n\n&lt;p&gt;Five years later, the instrumental &lt;em&gt;The Mix Up&lt;/em&gt; surfaced. The Beasties had originally planned to drop &lt;em&gt;Hot Sauce Committee Part One&lt;/em&gt; in 2009, but soon after the release of the advance single “Too Many Rappers”, the group &lt;a href="https://www.rollingstone.com/music/music-news/beastie-boys-adam-yauch-reveals-he-has-cancer-251987/" rel="noopener nofollow"&gt;announced that&lt;/a&gt; MCA was diagnosed with cancer and the album was put on hold while he began treatment. A year later, the Beasties gave a tongue-in-cheek announcement that &lt;em&gt;Part One&lt;/em&gt; was being replaced by &lt;em&gt;Hot Sauce Committee Part Two&lt;/em&gt;, and would &lt;a href="https://www.clashmusic.com/news/beastie-boys-re-jig-hot-sauce-committee" rel="noopener nofollow"&gt;consist mostly&lt;/a&gt; of the songs intended for &lt;em&gt;Part One&lt;/em&gt;. “Make Some Noise” became the official lead single for &lt;em&gt;Part Two&lt;/em&gt; in 2011, accompanied by a short film titled &lt;em&gt;Fight For Your Right (Revisited)&lt;/em&gt;. The Beasties were inducted into the Rock And Roll Hall Of Fame that December, but MCA was too sick to attend. Six months later, MCA passed away. In 2014, Mike D &lt;a href="https://www.nme.com/news/music/beastie-boys-2-24-1234190" rel="noopener nofollow"&gt;revealed&lt;/a&gt; that he and Ad-rock promised him they wouldn’t make more music as the Beastie Boys after his death.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lil-kim', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Lil\' Kim&lt;/strong&gt; (born Kimberly Denise Jones on July 11, 1974) grew up in Brooklyn, New York, living much of her adolescent life on the streets after being expelled from home.&lt;/p&gt;\n\n&lt;p&gt;Sometime between then and her super-stardom, she performed a freestyle rap for &lt;a href="https://genius.com/artists/The-notorious-big" rel="noopener" data-api_path="/artists/22"&gt;The Notorious B.I.G.&lt;/a&gt;. This got her music career started in 1995, as Biggie’s group &lt;a href="https://genius.com/artists/Junior-mafia" rel="noopener" data-api_path="/artists/129"&gt;Junior M.A.F.I.A.&lt;/a&gt;, whose debut album &lt;em&gt;&lt;a href="https://genius.com/albums/Junior-mafia/Conspiracy" rel="noopener" data-api_path="/albums/4158"&gt;Conspiracy&lt;/a&gt;&lt;/em&gt; generated three hit singles, two of which contained verses from Lil Kim (&lt;a href="https://genius.com/Junior-mafia-i-need-you-tonight-lyrics" rel="noopener" data-api_path="/songs/24739"&gt;“I Need You Tonight”&lt;/a&gt; and &lt;a href="https://genius.com/Junior-mafia-get-money-lyrics" rel="noopener" data-api_path="/songs/145"&gt;“I Get Money”&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;Lil\' Kim’s debut studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-kim/Hard-core" rel="noopener" data-api_path="/albums/4919"&gt;Hard Core&lt;/a&gt;&lt;/em&gt; (1996) earned Double Platinum status and spawned three consecutive #1 rap hits: &lt;a href="https://genius.com/Lil-kim-no-time-lyrics" rel="noopener" data-api_path="/songs/28203"&gt;“No Time”&lt;/a&gt;, &lt;a href="https://genius.com/Lil-kim-not-tonight-ladies-night-remix-lyrics" rel="noopener" data-api_path="/songs/3803"&gt;“Not Tonight (Ladies Night Remix)”&lt;/a&gt;, and &lt;a href="https://genius.com/Lil-kim-crush-on-you-lyrics" rel="noopener" data-api_path="/songs/2279119"&gt;“Crush on You”&lt;/a&gt;, a record for a female rapper. Her following albums, &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-kim/The-notorious-k-i-m" rel="noopener" data-api_path="/albums/4921"&gt;The Notorious K.I.M.&lt;/a&gt;&lt;/em&gt; (2000) and &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-kim/La-bella-mafia" rel="noopener" data-api_path="/albums/4922"&gt;La Bella Mafia (2003)&lt;/a&gt;&lt;/em&gt;, were certified Platinum, making her the only female rapper besides &lt;a href="https://genius.com/artists/Missy-elliott" rel="noopener" data-api_path="/artists/1529"&gt;Missy Elliott&lt;/a&gt; to have at least 3 platinum albums.&lt;/p&gt;\n\n&lt;p&gt;She was featured on the single, &lt;a href="https://genius.com/Lil-kim-lady-marmalade-lyrics" rel="noopener" data-api_path="/songs/32486"&gt;“Lady Marmalade”&lt;/a&gt;, which also had guest vocals by fellow recording artists &lt;a href="https://genius.com/artists/Mya" rel="noopener" data-api_path="/artists/339"&gt;Mya&lt;/a&gt;, &lt;a href="https://genius.com/artists/Pink" rel="noopener" data-api_path="/artists/345"&gt;Pink&lt;/a&gt; and &lt;a href="https://genius.com/artists/Christina-aguilera" rel="noopener" data-api_path="/artists/1211"&gt;Christina Aguilera&lt;/a&gt; (a remake of the &lt;a href="https://genius.com/Labelle-lady-marmalade-lyrics" rel="noopener" data-api_path="/songs/637943"&gt;1975 smash hit&lt;/a&gt;, originally recorded by &lt;a href="https://genius.com/artists/Patti-labelle" rel="noopener" data-api_path="/artists/1146"&gt;Patti LaBelle&lt;/a&gt;) which went to #1 on &lt;em&gt;Billboard’s&lt;/em&gt; Hot 100, making her the first female rapper to have a #1 on that chart. In addition, the remake won two MTV Video Music Awards including Video of the Year, and a Grammy Award for Best Pop Collaboration with Vocals at the 44th Grammy Awards in 2002.&lt;/p&gt;\n\n&lt;p&gt;In 2005, she served a year-long prison sentence for lying to a jury about her friends\' involvement in a shooting four years earlier. During her incarceration, her fourth album &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-kim/The-naked-truth" rel="noopener" data-api_path="/albums/4930"&gt;The Naked Truth&lt;/a&gt;&lt;/em&gt; was released. She returned to the public eye in 2009 with an appearance on &lt;em&gt;Dancing with the Stars&lt;/em&gt;. Parting ways with major labels, she remained independent in the coming years, issuing a handful of mixtapes and branching out to other creative projects. After over a decade, her fifth studio full-length album &lt;em&gt;&lt;a href="https://genius.com/albums/Lil-kim/9" rel="noopener" data-api_path="/albums/378590"&gt;9&lt;/a&gt;&lt;/em&gt; materialized in 2019.&lt;/p&gt;\n\n&lt;p&gt;With her hardcore posturing and sexually explicit rhymes, Lil\' Kim is considered a hip-hop legend for blazing a trail for other like-minded and liberated female artists in the ‘90s and beyond. Aside from music, she is also known for her risk-taking and luxurious approach to fashion that influenced many, being often cited as a fashion icon. Throughout her life and career, the original Queen Bee has been noted for inspiring and helping others embrace their sexuality and individuality.&lt;/p&gt;', 'alternate_names': ['Kimmy Blanco', 'Kimberly Jones', 'Kimberly Denise Jones']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Marianne-faithfull', 'annotations': {'description': '&lt;p&gt;Marianne Evelyn Gabriel Faithfull, mainly known as Marianne Faithfull, was an english singer, songwriter, and actress. She is most well known for being Mick Jagger’s girlfriend in the late 60’s and for her hit single, As Tears Go By.&lt;/p&gt;', 'alternate_names': ['Marianne Evelyn Gabriel Faithfull']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Suzanne-vega', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Led-zeppelin', 'annotations': {'description': '&lt;p&gt;One of the &lt;a href="http://www.rollingstone.com/music/lists/100-greatest-artists-of-all-time-19691231/led-zeppelin-20110419" rel="noopener nofollow"&gt;greatest&lt;/a&gt; rock bands of all time, Led Zeppelin was comprised of guitarist &lt;a href="https://genius.com/artists/Jimmy-page" rel="noopener" data-api_path="/artists/9536"&gt;Jimmy Page&lt;/a&gt;, drummer &lt;a href="https://genius.com/artists/John-bonham" rel="noopener" data-api_path="/artists/652853"&gt;John Bonham&lt;/a&gt;, singer &lt;a href="https://genius.com/artists/Robert-plant" rel="noopener" data-api_path="/artists/12999"&gt;Robert Plant&lt;/a&gt; and bassist\\keyboardist &lt;a href="https://genius.com/artists/John-paul-jones" rel="noopener" data-api_path="/artists/211068"&gt;John Paul Jones&lt;/a&gt;. Following the &lt;a href="http://www.rollingstone.com/music/lists/the-10-wildest-led-zeppelin-legends-fact-checked-20121121/john-bonham-drank-40-shots-of-vodka-the-night-he-died-19691231" rel="noopener nofollow"&gt;death&lt;/a&gt; of Bonham in 1980, they went on a permanent hiatus.&lt;/p&gt;\n\n&lt;p&gt;Known for Plant’s aggressive, stunning vocal performances, Page’s iconic guitar riffs and Bonham’s exuberant drumming (as well as Jones\' groovy bass lines and keyboard arrangements—the latter of which received more prominence in the band’s later albums), they’ve sold around 300 million records worldwide. Tracks such as &lt;a href="https://genius.com/Led-zeppelin-stairway-to-heaven-lyrics" rel="noopener" data-api_path="/songs/1061"&gt;“Stairway to Heaven”&lt;/a&gt; and &lt;a href="https://genius.com/Led-zeppelin-kashmir-lyrics" rel="noopener" data-api_path="/songs/106428"&gt;“Kashmir”&lt;/a&gt; frequently make ‘greatest songs of all time’ lists, and their live shows are spoken of in hushed tones. Plant’s painful, bluesy screech, Page’s innovative guitar playing (sometimes with the use of a violin bow), Jones\' precision and Bonzo’s monstrous drum sound and extensive solos made for legendary concert performances.&lt;/p&gt;\n\n&lt;p&gt;Despite contemporaries such as &lt;a href="https://genius.com/artists/The-who" rel="noopener" data-api_path="/artists/17846"&gt;The Who&lt;/a&gt; continuing to tour and &lt;a href="https://www.youtube.com/watch?v=D4CiedGbjaQ" rel="noopener nofollow"&gt;release new music&lt;/a&gt;, both &lt;a href="http://www.musictimes.com/articles/17176/20141124/robert-plant-talks-wont-reunite-led-zeppelin-jimmy-page-talks-led-zep-ellen-watch.htm" rel="noopener nofollow"&gt;Plant&lt;/a&gt; and &lt;a href="http://www.telegraph.co.uk/culture/music/music-news/11131557/Jimmy-Page-Led-Zeppelin-arent-going-to-reunite.html" rel="noopener nofollow"&gt;Page&lt;/a&gt; have assured fans that the band will not reunite. At most, the surviving members performed with an array of drummers and bassist Paul Martinez during Live Aid (1985), Page and Plant did a combined project in the mid 90s, and the band performed with John’s son Jason Bonham (a drummer himself) in both Atlantic Records\' 40th anniversary in 1989 and a 2007 concert for Atlantic’s recently deceased founder Ahmet Ertegun (released as the lauded live album\\film &lt;em&gt;&lt;a href="http://www.ledzeppelin.com/celebrationday/" rel="noopener nofollow"&gt;Celebration Day&lt;/a&gt;&lt;/em&gt; in 2012). Their legacy remains intact.&lt;/p&gt;', 'alternate_names': ['The New Yardbirds']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Montell-jordan', 'annotations': {'description': '&lt;p&gt;Montell Du\'Sean Barnett (born December 3, 1968 in Los Angeles, CA), known professionally as Montell Jordan, is an American singer, songwriter and record producer, best known for his 1995 single “&lt;a href="https://genius.com/Montell-jordan-this-is-how-we-do-it-lyrics" rel="noopener" data-api_path="/songs/49817"&gt;This Is How We Do It&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Jordan was the primary male solo artist on &lt;a href="https://en.wikipedia.org/wiki/Def_Jam_Recordings" rel="noopener nofollow"&gt;Def Jam&lt;/a&gt;’s Def Soul imprint until leaving the label in 2003.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Jordan left the music business to become the worship leader at &lt;a href="https://en.wikipedia.org/wiki/Victory_World_Church" rel="noopener nofollow"&gt;Victory World Church&lt;/a&gt; in Norcross, Georgia.&lt;/p&gt;', 'alternate_names': ["Montell Du'Sean Barnett Jordan"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alexandra-stan', 'annotations': {'description': '&lt;p&gt;Born on June 10, 1989 in &lt;a href="https://en.wikipedia.org/wiki/Constan%C8%9Ba" rel="noopener nofollow"&gt;Constanța&lt;/a&gt;, &lt;b&gt;Alexandra Stan&lt;/b&gt; is a Romanian singer-songwriter.&lt;/p&gt;\n\n&lt;p&gt;After she was invited to sing in a televised show at the age of 15, she eventually participated in various music-related contests, including the Mamaia Music Festival in 2009. Producers and songwriters &lt;a href="https://genius.com/artists/Marcel-prodan" rel="noopener" data-api_path="/artists/61567"&gt;Marcel Prodan&lt;/a&gt; and &lt;a href="https://genius.com/artists/Andrei-nemirschi" rel="noopener" data-api_path="/artists/491341"&gt;Andrei Nemirschi&lt;/a&gt; discovered Stan that year at a karaoke bar in Constanța. They offered her a record deal with their label &lt;i&gt;Maan Records&lt;/i&gt;, which she accepted, and later went on to record a promotional single titled “&lt;a href="https://genius.com/Alexandra-stan-show-me-the-way-lyrics" rel="noopener" data-api_path="/songs/485119"&gt;Show Me the Way&lt;/a&gt;”. Her debut single, “&lt;a href="https://genius.com/Alexandra-stan-lollipop-param-pam-pam-lyrics" rel="noopener" data-api_path="/songs/485101"&gt;Lollipop (Param Pam Pam)&lt;/a&gt;”, released on December 16, 2009,  was given notable radio airplay. The song’s provocative, low-budget music video was criticized by some viewers for emphasizing her physical and not her vocal qualities.&lt;/p&gt;\n\n&lt;p&gt;In 2011, Stan made her international breakthrough with the single “&lt;a href="https://genius.com/Alexandra-stan-mr-saxobeat-lyrics" rel="noopener" data-api_path="/songs/601770"&gt;Mr. Saxobeat&lt;/a&gt;”. The song first achieved success in Romania, where it peaked at number one on the Romanian Top 100 for eight consecutive weeks. It then became acclaimed worldwide, topping the record charts in several other countries, and selling almost one million copies in less than year. At the 2011 Romanian Music Awards, Stan and “Mr. Saxobeat” won several awards and nominations. Stan also won the Best Romanian Act and a nomination for Best European Act at the 2011 MTV Europe Music Awards.&lt;/p&gt;\n\n&lt;p&gt;The follow-up single “&lt;a href="https://genius.com/Alexandra-stan-get-back-asap-lyrics" rel="noopener" data-api_path="/songs/482269"&gt;Get Back&lt;/a&gt;”, achieved modest success and reached the top 10 in Finland and Romania, and the top 20 in other European countries. The singer’s debut studio album &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Saxobeats" rel="noopener" data-api_path="/albums/108678"&gt;Saxobeats&lt;/a&gt;&lt;/i&gt; was released in August 2011, and was moderately successful in Japan and Europe. Her chart success followed in 2012 with “&lt;a href="https://genius.com/Alexandra-stan-lemonade-lyrics" rel="noopener" data-api_path="/songs/482278"&gt;Lemonade&lt;/a&gt;”, which was certified Gold in Italy. The release of Stan’s second studio album was postponed following &lt;a href="https://en.wikipedia.org/wiki/Dec._No._5946/212/2015" rel="noopener nofollow"&gt;an alleged violent incident&lt;/a&gt; between her and Prodan, in June 2013. The case attracted widespread media coverage in Romania. Later that year, the singer launched a campaign against domestic violence called “Nu bate! Mai bine cântă!”.&lt;/p&gt;\n\n&lt;p&gt;Her comeback single, “&lt;a href="https://genius.com/Alexandra-stan-thanks-for-leaving-lyrics" rel="noopener" data-api_path="/songs/485130"&gt;Thanks for Leaving&lt;/a&gt;”, was released in April 2014, which she said was personal. The follow-up “&lt;a href="https://genius.com/Alexandra-stan-cherry-pop-lyrics" rel="noopener" data-api_path="/songs/482258"&gt;Cherry Pop&lt;/a&gt;” became the most sought-after ringtone on the Recochoku service in Japan within two hours of its release, while “&lt;a href="https://genius.com/Alexandra-stan-dance-lyrics" rel="noopener" data-api_path="/songs/482271"&gt;Dance&lt;/a&gt;” experienced similar success on its release. &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Unlocked" rel="noopener" data-api_path="/albums/121207"&gt;Unlocked&lt;/a&gt;&lt;/i&gt;, Stan’s second studio album, was premiered on August 27, 2014, and charted within the top 30 in Japan. The music video for “&lt;a href="https://genius.com/Alexandra-stan-give-me-your-everything-lyrics" rel="noopener" data-api_path="/songs/2025862"&gt;Give Me Your Everything&lt;/a&gt;”, the fourth single from &lt;i&gt;Unlocked&lt;/i&gt;, caused controversy for a scene that features Stan wearing a robe inscribed with masonic symbols.&lt;/p&gt;\n\n&lt;p&gt;In June 2015, Stan released “&lt;a href="https://genius.com/Alexandra-stan-and-inna-we-wanna-lyrics" rel="noopener" data-api_path="/songs/2131883"&gt;We Wanna&lt;/a&gt;”, a collaboration with Romanian singer &lt;a href="https://genius.com/artists/Inna" rel="noopener" data-api_path="/artists/22636"&gt;INNA&lt;/a&gt; and American reggaeton performer &lt;a href="https://genius.com/artists/Daddy-yankee" rel="noopener" data-api_path="/artists/1823"&gt;Daddy Yankee&lt;/a&gt;. The track reached the top 60 in multiple countries including Romania, Argentina and Italy. It was certified Gold in the latter region. In November 2015, she released the single “&lt;a href="https://genius.com/Alexandra-stan-i-did-it-mama-lyrics" rel="noopener" data-api_path="/songs/2387162"&gt;I Did It, Mama!&lt;/a&gt;”, which reached the top ten in Romania. The singer’s third studio album &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Alesta-international-version" rel="noopener" data-api_path="/albums/399505"&gt;Alesta&lt;/a&gt;&lt;/i&gt; followed in March 2016. It debuted at number 34 on the Japanese Albums Chart.&lt;/p&gt;\n\n&lt;p&gt;The singer joined the supergroup &lt;a href="https://genius.com/artists/G-girls" rel="noopener" data-api_path="/artists/678090"&gt;G Girls&lt;/a&gt; along with &lt;a href="https://genius.com/artists/Antonia" rel="noopener" data-api_path="/artists/37365"&gt;Antonia&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lori" rel="noopener" data-api_path="/artists/135505"&gt;Lori&lt;/a&gt;, and INNA, and premiered the single “&lt;a href="https://genius.com/G-girls-call-the-police-lyrics" rel="noopener" data-api_path="/songs/2486651"&gt;Call the Police&lt;/a&gt;”, which was successful in Poland.&lt;/p&gt;\n\n&lt;p&gt;To promote the launch of &lt;a href="https://en.wikipedia.org/wiki/Virgin_Radio_Romania" rel="noopener nofollow"&gt;Virgin Radio Romania&lt;/a&gt; in early 2017, Stan recorded &lt;a href="https://genius.com/Alexandra-stan-like-a-virgin-lyrics" rel="noopener" data-api_path="/songs/2966851"&gt;a cover version&lt;/a&gt; of &lt;a href="https://genius.com/artists/Madonna" rel="noopener" data-api_path="/artists/276"&gt;Madonna&lt;/a&gt;’s song “&lt;a href="https://genius.com/Madonna-like-a-virgin-lyrics" rel="noopener" data-api_path="/songs/151415"&gt;Like a Virgin&lt;/a&gt;”, saying she was a fan of it. She also recorded “&lt;a href="https://genius.com/Alexandra-stan-favorite-game-lyrics" rel="noopener" data-api_path="/songs/3335724"&gt;Favorite Game&lt;/a&gt;” for the soundtrack of the Japanese movie &lt;i&gt;Miko Girl&lt;/i&gt;.&lt;/p&gt;\n\n&lt;p&gt;In April 2018, Stan released her fourth studio album titled &lt;i&gt;&lt;a href="https://genius.com/albums/Alexandra-stan/Mami-international-version_" rel="noopener"&gt;Mami&lt;/a&gt;&lt;/i&gt;, which peaked at number 119 in Japan. Stan contributed guest vocals on &lt;a href="https://genius.com/artists/Manuel-riva" rel="noopener" data-api_path="/artists/1411574"&gt;Manuel Riva&lt;/a&gt;’s track “&lt;a href="https://genius.com/Manuel-riva-miami-lyrics" rel="noopener" data-api_path="/songs/3566370"&gt;Miami&lt;/a&gt;”, which reached the top ten on the US Dance Club Songs chart. It also reached the top 10 in Romania. The singer opened the 2018 Neversea Festival, which had selected “Miami” as its anthem. At the 2018 Beirut International Awards Festival, Stan was awarded a special prize for her career, after being referred to as one of the most successful Romanian artists alongside INNA.&lt;/p&gt;', 'alternate_names': ['Alexandra Ioana Stan']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Ty-dolla-sign', 'annotations': {'description': '&lt;p&gt;Tyrone Griffin, better known by his stage name &lt;strong&gt;Ty Dolla Sign&lt;/strong&gt; – often styled as Ty Dolla $ign, and some times shortened to Ty$ – is a hip hop artist from L.A. who was first introduced to the mainstream in early 2014 with his hit single &lt;a href="https://genius.com/Ty-dolla-sign-paranoid-lyrics" rel="noopener" data-api_path="/songs/180657"&gt;“Paranoid.”&lt;/a&gt; He dropped his debut EP, &lt;a href="https://genius.com/albums/Ty-dolla-sign/Beach-house-ep" rel="noopener" data-api_path="/albums/74606"&gt;&lt;em&gt;Beach House&lt;/em&gt;&lt;/a&gt; shortly after, and he has since signed to &lt;a href="https://genius.com/artists/wiz-khalifa" rel="noopener" data-api_path="/artists/310"&gt;Wiz Khalifa’s&lt;/a&gt; Taylor Gang Records and &lt;a href="https://genius.com/artists/DJ%20Mustard" rel="noopener" data-api_path="/artists/29780"&gt;DJ Mustards&lt;/a&gt;’s Pushaz Ink. After a string of projects including &lt;a href="https://genius.com/albums/Ty-dolla-sign/Airplane-mode" rel="noopener" data-api_path="/albums/133026"&gt;&lt;em&gt;Airplane Mode&lt;/em&gt;&lt;/a&gt; and &lt;em&gt;$ign Langauge&lt;/em&gt;, he dropped his debut LP &lt;em&gt;Free TC&lt;/em&gt; on November 13th, 2015. His 2nd album &lt;a href="https://genius.com/albums/Ty-dolla-sign/Beach-house-3-deluxe" rel="noopener" data-api_path="/albums/421591"&gt;&lt;em&gt;Beach House 3&lt;/em&gt;&lt;/a&gt; was released on October 27, 2017.&lt;/p&gt;', 'alternate_names': ['Ty Dolla Signn', 'Ty Dolla', 'Tyrone Griffin Jr.', 'Tyrone Griffin', 'Tyrone W. Griffin Jr.', 'Tyrone W. Griffin', 'Tyrone William Griffin', 'Tyrone William Griffin Jr']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Megadeth', 'annotations': {'description': '&lt;p&gt;After being &lt;a href="http://loudwire.com/dave-mustaine-fired-from-metallica-anniversary/" rel="noopener nofollow"&gt;kicked out of&lt;/a&gt; &lt;a href="https://genius.com/artists/Metallica" rel="noopener" data-api_path="/artists/10662"&gt;Metallica&lt;/a&gt;, Dave Mustaine decided to form a thrash metal band that not only rivaled his former band, but played faster, more technical metal. Along with bassist David ‘Junior’ Ellefson and a revolving door of guitarists and drummers, Mustaine &lt;a href="https://genius.com/Megadeth-set-the-world-afire-lyrics" rel="noopener" data-api_path="/songs/92396"&gt;set the world afire&lt;/a&gt; as Megadeth became known as the world’s state-of-the-art speed metal band throughout the 80s and the early 90s. One of the &lt;a href="https://genius.com/discussions/169443-Rank-the-big-four" rel="noopener"&gt;Big Four&lt;/a&gt; of &lt;a href="https://en.wikipedia.org/wiki/The_Big_Four:_Live_from_Sofia,_Bulgaria" rel="noopener nofollow"&gt;thrash metal&lt;/a&gt;, Megadeth remains one of metal’s most popular acts today.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;However, Dave Mustaine’s fledgling band got off to a shaky start. Initially unable to find like-minded individuals, it was not until an altercation with his (underage) downstairs neighbours Dave Ellefson and Greg Handevidt, that led to him buying them beer and forming the first incarnation of the band with drummer Dijon Carruthers in 1983.&lt;/p&gt;\n\n&lt;p&gt;The band was named after a political pamphlet that referred to a “megadeath” (one million deaths by nuclear explosion):&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;The arsenal of megadeath can’t be rid no matter what the peace treaties come to&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;After a few line-up changes, including &lt;a href="https://genius.com/artists/Slayer" rel="noopener" data-api_path="/artists/6596"&gt;Slayer&lt;/a&gt; guitarist Kerry King, the band settled on the first stable Megadeth line-up of the two Daves (Mustaine and Ellefson), guitarist Chris Poland, and drummer Gar Samuelson. Together they released 1985’s &lt;em&gt;&lt;a href="https://genius.com/albums/Megadeth/Killing-is-my-business-and-business-is-good" rel="noopener" data-api_path="/albums/22489"&gt;Killing Is My Business… and Business Is Good&lt;/a&gt;&lt;/em&gt; and 1986’s well-received &lt;em&gt;&lt;a href="https://genius.com/albums/Megadeth/Peace-sells-but-who-s-buying" rel="noopener" data-api_path="/albums/22490"&gt;Peace Sells… but Who’s Buying?&lt;/a&gt;&lt;/em&gt;, which both featured band mascot &lt;a href="https://en.wikipedia.org/wiki/Vic_Rattlehead" rel="noopener nofollow"&gt;Vic Rattlehead&lt;/a&gt; (a homage to both &lt;a href="http://maiden-world.com/articles/history-of-eddie.html" rel="noopener nofollow"&gt;Eddie the Head&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Mot%C3%B6rhead#Cover_art" rel="noopener nofollow"&gt;Snaggletooth&lt;/a&gt;) on the front cover. &lt;em&gt;Peace Sells… but Who’s Buying?&lt;/em&gt; included political themes, which in addition to the technical guitar work on display, became a staple of future Megadeth. Ironically, given the circumstances around Mustaine’s Metallica firing, both Poland and Samuelson were fired soon after &lt;em&gt;Peace Sells… but Who’s Buying?&lt;/em&gt; for excessive drug (heroin) abuse.&lt;/p&gt;\n\n&lt;p&gt;1988’s &lt;a href="https://genius.com/albums/Megadeth/So-far-so-good-so-what" rel="noopener" data-api_path="/albums/22492"&gt;&lt;em&gt;So Far, So Good… So What!&lt;/em&gt;&lt;/a&gt; continued in a similar vein both lyrically and musically, but was less cohesive than &lt;em&gt;Peace Sells… but Who’s Buying?&lt;/em&gt;, perhaps due to the line-up change, questionable mixing/engineering and alcohol/drug addiction. The subsequent firing of Jeff Young and Chuck Behler and newfound sobriety of Mustaine, led to the classic Megadeth line-up: the two Daves, Nick Menza on drums, and Marty Friedman on guitars. They started with great success, producing the Grammy-nominated and definitive thrash metal album, &lt;a href="https://genius.com/albums/Megadeth/Rust-in-peace" rel="noopener" data-api_path="/albums/16297"&gt;&lt;em&gt;Rust in Peace&lt;/em&gt;&lt;/a&gt;, with the popular singles &lt;a href="https://genius.com/Megadeth-holy-wars-the-punishment-due-lyrics" rel="noopener" data-api_path="/songs/109944"&gt;“Holy Wars… the Punishment Due”&lt;/a&gt; and &lt;a href="https://genius.com/Megadeth-hangar-18-lyrics" rel="noopener" data-api_path="/songs/118018"&gt;“Hangar 18”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;This classic line-up stayed together throughout the 90s, receiving six consecutive Grammy nominations (losing twice to Metallica and twice to &lt;a href="https://genius.com/artists/Nine-inch-nails" rel="noopener" data-api_path="/artists/12757"&gt;Nine Inch Nails&lt;/a&gt;), however the frustration of not achieving the same success as Metallica led Megadeth to progressively eschew their signature fast-paced thrash metal sound for a more traditional heavy metal and Hard Rock sound, culminating in the 1999’s incredibly poorly-received &lt;a href="https://genius.com/albums/Megadeth/Risk" rel="noopener" data-api_path="/albums/27049"&gt;&lt;em&gt;Risk&lt;/em&gt;&lt;/a&gt;. An attempt to right ship, with &lt;a href="https://genius.com/albums/Megadeth/The-world-needs-a-hero" rel="noopener" data-api_path="/albums/27366"&gt;&lt;em&gt;The World Needs a Hero&lt;/em&gt;&lt;/a&gt; was unsuccessful and following a nerve injury to Mustaine’s left arm, he disbanded Megadeth.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;With a comeback album, &lt;a href="https://genius.com/albums/Megadeth/The-system-has-failed" rel="noopener" data-api_path="/albums/28083"&gt;&lt;em&gt;The System has Failed&lt;/em&gt;&lt;/a&gt; in 2004, that saw a return to Megadeth’s thrash metal and speed metal roots, the band begun to regain the popularity it had lost in the late 90s, with increasing acclaim with each subsequent album. 2007’s &lt;a href="https://genius.com/albums/Megadeth/United-abominations" rel="noopener" data-api_path="/albums/28084"&gt;&lt;em&gt;United Abominations&lt;/em&gt;&lt;/a&gt; was the band’s highest-charting album since 1994’s &lt;a href="https://genius.com/albums/Megadeth/Youthanasia" rel="noopener" data-api_path="/albums/24189"&gt;&lt;em&gt;Youthanasia&lt;/em&gt;&lt;/a&gt; and was voted Metal album of the year by Guitar World. 2009’s &lt;a href="https://genius.com/albums/Megadeth/Endgame" rel="noopener" data-api_path="/albums/28104"&gt;&lt;em&gt;Endgame&lt;/em&gt;&lt;/a&gt; contained Grammy-nominated single &lt;a href="https://genius.com/Megadeth-headcrusher-lyrics" rel="noopener" data-api_path="/songs/116278"&gt;“Head Crusher”&lt;/a&gt;, and 2011’s &lt;a href="https://genius.com/albums/Megadeth/Th1rt3en" rel="noopener" data-api_path="/albums/28106"&gt;&lt;em&gt;TH1RT3EN&lt;/em&gt;&lt;/a&gt; contained three Grammy-nominated singles (and the return of Dave Ellefson to the band).&lt;/p&gt;\n\n&lt;p&gt;This increase in popularity was evident when the band’s fourteenth album &lt;a href="https://genius.com/albums/Megadeth/Super-collider" rel="noopener" data-api_path="/albums/74399"&gt;&lt;em&gt;Super Collider&lt;/em&gt;&lt;/a&gt; debuted at number six on the Billboard chart in 2013. &lt;a href="https://genius.com/albums/Megadeth/Dystopia" rel="noopener" data-api_path="/albums/141136"&gt;&lt;em&gt;Dystopia&lt;/em&gt;&lt;/a&gt;, their fifteenth album, was expected to be released on October 2nd, 2015, but was eventually delayed to January 22nd, 2016.&lt;/p&gt;\n\n&lt;p&gt;Following Mustaine’s Throat Cancer diagnosis and recovery, the band reconvened to work on their next album. On May 2021, following leaked private videos, Mustaine announced that the band had once again parted ways with David Ellefson. Mustaine confirmed the bass tracks recorded by Ellefson would not appear on the album and would be re-recorded by a different bassist, but he didn’t reveal the bassist’s name. Former bass player James LoMenzo filled in for the band’s tour. The new album called &lt;em&gt;The Sick, the Dying… and the Dead!&lt;/em&gt; is scheduled to be released in the spring of 2022.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n\n\n&lt;h3&gt;Members&lt;/h3&gt;\n\n\n\n\n&lt;h4&gt;Current&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://www.metal-archives.com/artists/Dave_Mustaine/184" rel="noopener nofollow"&gt;Dave Mustaine&lt;/a&gt; – vocals, guitars (1983–2002; 2004–present)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Kiko_Loureiro/3826" rel="noopener nofollow"&gt;Kiko Loureiro&lt;/a&gt; – guitars (2015–present)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Dirk_Verbeuren/1391" rel="noopener nofollow"&gt;Dirk Verbeuren&lt;/a&gt; – drums (2016–present)&lt;/p&gt;\n\n&lt;h4&gt;Past&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://www.metal-archives.com/artists/David_Ellefson/218" rel="noopener nofollow"&gt;David Ellefson&lt;/a&gt; – bass (1983–2002; 2010–2021)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Greg_Handevidt/2702" rel="noopener nofollow"&gt;Greg Handevidt&lt;/a&gt; – guitars (1983)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Dijon_Carruthers/2763" rel="noopener nofollow"&gt;Dijon Carruthers&lt;/a&gt; – drums (1983)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Lee_Rauch/2768" rel="noopener nofollow"&gt;Lee Rausch&lt;/a&gt; – drums (1984)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chris_Poland/2716" rel="noopener nofollow"&gt;Chris Poland&lt;/a&gt; – guitars (1984–1987)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Gar_Samuelson/2772" rel="noopener nofollow"&gt;Gar Samuelson&lt;/a&gt; – drums (1984–1987)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Jeff_Young/2723" rel="noopener nofollow"&gt;Jeff Young&lt;/a&gt; – guitars (1987–1989)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chuck_Behler/2774" rel="noopener nofollow"&gt;Chuck Behler&lt;/a&gt; – drums (1987–1989)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Nick_Menza/2790" rel="noopener nofollow"&gt;Nick Menza&lt;/a&gt; – drums (1989–1998)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Marty_Friedman/2741" rel="noopener nofollow"&gt;Marty Friedman&lt;/a&gt; – guitars (1990–2000)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Jimmy_DeGrasso/2793" rel="noopener nofollow"&gt;Jimmy DeGrasso&lt;/a&gt; – drums (1998–2002)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Al_Pitrelli/2748" rel="noopener nofollow"&gt;Al Pitrelli&lt;/a&gt; – guitars (2000–2002)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Glen_Drover/2754" rel="noopener nofollow"&gt;Glen Drover&lt;/a&gt; – guitars (2004–2008)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Shawn_Drover/223" rel="noopener nofollow"&gt;Shawn Drover&lt;/a&gt; – drums (2004–2014)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/James_MacDonough/2833" rel="noopener nofollow"&gt;James MacDonough&lt;/a&gt; – bass (2004–2006)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/James_LoMenzo/2836" rel="noopener nofollow"&gt;James LoMenzo&lt;/a&gt; – bass (2006–2010)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chris_Broderick/215" rel="noopener nofollow"&gt;Chris Broderick&lt;/a&gt; – guitars (2008–2014)&lt;/p&gt;\n\n&lt;h4&gt;Touring&lt;/h4&gt;\n\n\n&lt;p&gt;&lt;a href="https://www.metal-archives.com/artists/Kerry_King/267" rel="noopener nofollow"&gt;Kerry King&lt;/a&gt; – guitars (1984)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Mike_Albert/139584" rel="noopener nofollow"&gt;Mike Albert&lt;/a&gt; – guitars (1985)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Chris_Adler/10965" rel="noopener nofollow"&gt;Chris Adler&lt;/a&gt; – drums (2015–2016)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/Tony_Laureano/434" rel="noopener nofollow"&gt;Tony Laureano&lt;/a&gt; – drums (2015–2016)&lt;br&gt;\n&lt;a href="https://www.metal-archives.com/artists/James_LoMenzo/2836" rel="noopener nofollow"&gt;James LoMenzo&lt;/a&gt; – bass (2021–present)&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Madness', 'annotations': {'description': '&lt;p&gt;Madness are an English ska band from Camden Town, North London, whom formed in 1976. One of the most prominent bands of the late 1970s and early 1980s 2 Tone ska revival, they continue to perform with six of the seven members of their classic line-up.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Mr-bigg', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Mr. Bigg Time', 'Donald Pears II']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Soft-cell', 'annotations': {'description': '&lt;p&gt;Soft Cell is an English synthpop duo who originated in 1978 consisting of vocalist Marc Almond and instrumentalist David Ball. They are best known for their song “Tainted Love” which was released in 1981.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Nofx', 'annotations': {'description': '&lt;p&gt;Take the melody of &lt;a href="https://genius.com/artists/Descendents" rel="noopener" data-api_path="/artists/44950"&gt;The Descendents&lt;/a&gt;, some of &lt;a href="https://genius.com/artists/Bad-religion" rel="noopener" data-api_path="/artists/27995"&gt;Bad Religion’s&lt;/a&gt; political sense, add a handful of pills and there’s NOFX.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Nofx-backstage-passport-lyrics" rel="noopener" data-api_path="/songs/1845265"&gt;Screwing up since 1983&lt;/a&gt;, the Californian group is one of the most influential bands in the history of punk rock. Rising in popularity during the 90’s, but never signing to a major label, remaining true to punk’s DIY roots, they released most of their stuff themselves or through Epitaph Records (owned by fellow punk rocker Brett Gurewitz from Bad Religion).&lt;/p&gt;\n\n&lt;p&gt;Spreading sarcasm in every lyric, NOFX’s music range from hardcore punk to pop punk and even ska, but they’ve been doing it for so long and so characteristically that from the early days to their newest record, &lt;em&gt;First Ditch Effort&lt;/em&gt;, it’s instantly recognizable: it sounds like NOFX.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Foster-the-people', 'annotations': {'description': '&lt;p&gt;Foster the People is an American indie pop band formed in Los Angeles, California in 2009. The group is composed of &lt;a href="https://genius.com/artists/Mark-foster" rel="noopener" data-api_path="/artists/20731"&gt;Mark Foster&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mark-pontius" rel="noopener" data-api_path="/artists/634157"&gt;Mark Pontius&lt;/a&gt;, &lt;a href="https://genius.com/artists/Sean-cimino" rel="noopener" data-api_path="/artists/634158"&gt;Sean Cimino&lt;/a&gt; and &lt;a href="https://genius.com/artists/Isom-innis" rel="noopener" data-api_path="/artists/182399"&gt;Isom Innis&lt;/a&gt;. The group’s music, described as melodic dance-infused pop and rock, spans many genres. Tyler Halford is currently a touring member of the band. &lt;a href="https://genius.com/artists/Danyew" rel="noopener" data-api_path="/artists/479945"&gt;Phil Danyew&lt;/a&gt; toured with the band from 2014-2019, as he now has his own project, Elephant Castle. &lt;a href="https://genius.com/artists/Jacob-fink" rel="noopener" data-api_path="/artists/634156"&gt;Jacob “Cubbie” Fink&lt;/a&gt; was once a member but had left the band in 2015 after the release of their second album. &lt;a href="https://genius.com/artists/Arlene-deradoorian" rel="noopener" data-api_path="/artists/1019524"&gt;Arlene Deradoorian&lt;/a&gt; (sister of Angel Deradoorian) and &lt;a href="https://genius.com/artists/Haley-dekle" rel="noopener" data-api_path="/artists/236557"&gt;Haley Dekle&lt;/a&gt; had also provided backing vocals for the group in 2014.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-lemonheads', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Cypress-hill', 'annotations': {'description': '&lt;p&gt;Cypress Hill is an West Coast – Cuban-American/Latino hip hop group originated from South Gate, California.&lt;br&gt;\nMembers of the group: &lt;a href="https://genius.com/artists/B-real" rel="noopener" data-api_path="/artists/998"&gt;B-Real&lt;/a&gt;, &lt;a href="https://genius.com/artists/Muggs" rel="noopener" data-api_path="/artists/5273"&gt;Muggs&lt;/a&gt;, &lt;a href="https://genius.com/artists/Sen-dog" rel="noopener" data-api_path="/artists/5140"&gt;Sen Dog&lt;/a&gt;, &lt;a href="https://genius.com/artists/Eric-bobo" rel="noopener" data-api_path="/artists/22889"&gt;Eric Bobo&lt;/a&gt;.&lt;br&gt;\nPast member of Cypress Hill was &lt;a href="https://genius.com/artists/Mellow-man-ace" rel="noopener" data-api_path="/artists/3583"&gt;Mellow Man Ace&lt;/a&gt;.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;h3&gt;Discography&lt;/h3&gt;\n\n&lt;p&gt;1991: &lt;a href="https://genius.com/albums/Cypress-hill/Cypress-hill" rel="noopener" data-api_path="/albums/1878"&gt;Cypress Hill&lt;/a&gt;&lt;br&gt;\n1992: &lt;a href="https://genius.com/albums/Cypress-hill/Something-for-the-blunted" rel="noopener" data-api_path="/albums/90127"&gt;Something for the Blunted&lt;/a&gt;&lt;br&gt;\n1993: &lt;a href="https://genius.com/albums/Cypress-hill/Black-sunday" rel="noopener" data-api_path="/albums/1861"&gt;Black Sunday&lt;/a&gt;&lt;br&gt;\n1995: &lt;a href="https://genius.com/albums/Cypress-hill/Cypress-hill-iii-temples-of-boom" rel="noopener" data-api_path="/albums/1886"&gt;Cypress Hill III: Temples of Boom&lt;/a&gt;&lt;br&gt;\n1996: &lt;a href="https://genius.com/albums/Cypress-hill/Unreleased-revamped" rel="noopener" data-api_path="/albums/1889"&gt;Unreleased &amp;amp; Revamped&lt;/a&gt;&lt;br&gt;\n1998: &lt;a href="https://genius.com/albums/Cypress-hill/Cypress-hill-iv" rel="noopener" data-api_path="/albums/1881"&gt;Cypress Hill IV&lt;/a&gt;&lt;br&gt;\n1999: &lt;a href="https://genius.com/albums/Cypress-hill/Los-grandes-exitos-en-espanol" rel="noopener" data-api_path="/albums/12672"&gt;Los Grandes Éxitos en Español&lt;/a&gt;&lt;br&gt;\n2000: &lt;a href="https://genius.com/albums/Cypress-hill/Skull-bones" rel="noopener" data-api_path="/albums/1862"&gt;Skull &amp;amp; Bones&lt;/a&gt;&lt;br&gt;\n2001: &lt;a href="https://genius.com/albums/Cypress-hill/Stoned-raiders" rel="noopener" data-api_path="/albums/1883"&gt;Stoned Riders&lt;/a&gt;&lt;br&gt;\n2002: Stash&lt;br&gt;\n2004: &lt;a href="https://genius.com/albums/Cypress-hill/Till-death-do-us-part" rel="noopener" data-api_path="/albums/1880"&gt;Till Death Do Us Part&lt;/a&gt;&lt;br&gt;\n2004: Smoke ‘Em If You Got \'Em&lt;br&gt;\n2010: &lt;a href="https://genius.com/albums/Cypress-hill/Rise-up" rel="noopener" data-api_path="/albums/1882"&gt;Rise Up&lt;/a&gt;&lt;br&gt;\n2012: Cypress x Rusko&lt;br&gt;\n2018: &lt;a href="https://genius.com/albums/Cypress-hill/Elephants-on-acid" rel="noopener" data-api_path="/albums/441164"&gt;Elephants On Acid&lt;/a&gt;&lt;/p&gt;\n\n&lt;hr&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Dr-alban', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/The-alan-parsons-project', 'annotations': {'description': '&lt;p&gt;While Homer Simpson believed the &lt;a href="https://en.wikipedia.org/wiki/The_Alan_Parsons_Project" rel="noopener nofollow"&gt;Alan Parsons Project&lt;/a&gt; to be “some kind of hovercraft”, in fact its name is self-explanatory, Alan Parsons being a force in the progressive rock world who produced the Beatles\' &lt;em&gt;Abbey Road&lt;/em&gt; and Pink Floyd’s &lt;em&gt;Dark Side of the Moon&lt;/em&gt;, but also has his own recording project, which has produced its own hits over the years.&lt;/p&gt;\n\n&lt;p&gt;The one other solid fixture in this recording act is &lt;a href="https://en.wikipedia.org/wiki/Eric_Woolfson" rel="noopener nofollow"&gt;Eric Woolfson&lt;/a&gt;, a session musician and record producer with his own respectable resume.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/YXKmsvRXE4A?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Vampire-weekend', 'annotations': {'description': '&lt;p&gt;Vampire Weekend is an American indie rock band known for their complex lyrics and unorthodox production. Consisting of &lt;a href="https://genius.com/artists/Ezra-koenig" rel="noopener" data-api_path="/artists/44145"&gt;Ezra Koenig&lt;/a&gt;, &lt;a href="https://genius.com/artists/Baio" rel="noopener" data-api_path="/artists/547647"&gt;Chris Baio&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Chris-tomson" rel="noopener" data-api_path="/artists/642694"&gt;Chris Tomson&lt;/a&gt;, they have released four albums: &lt;a href="https://genius.com/albums/Vampire-weekend/Vampire-weekend" rel="noopener" data-api_path="/albums/11626"&gt;&lt;em&gt;Vampire Weekend&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Vampire-weekend/Contra" rel="noopener" data-api_path="/albums/11705"&gt;&lt;em&gt;Contra&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Vampire-weekend/Modern-vampires-of-the-city" rel="noopener" data-api_path="/albums/30135"&gt;&lt;em&gt;Modern Vampires of the City&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/Vampire-weekend/Father-of-the-bride" rel="noopener" data-api_path="/albums/438579"&gt;&lt;em&gt;Father of the Bride&lt;/em&gt;&lt;/a&gt;, which was originally known under the working title &lt;em&gt;Mitsubishi Macchiato&lt;/em&gt;. The latter two debuted at number one on the &lt;em&gt;Billboard&lt;/em&gt; 200, making them the first previously unknown independently signed to do so.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Rostam" rel="noopener" data-api_path="/artists/491040"&gt;Rostam Batmanglij&lt;/a&gt; was a member (mainly working on production and synths throughout his time) until January 2016, when he left to pursue solo projects. However, he contributed to their fourth album, Father of the Bride, which released in the Spring of 2019.&lt;/p&gt;\n\n&lt;p&gt;The band got their name the summer before Koenig’s sophmore year of college. He wanted to make an East Coast version of the 80s vampire film &lt;a href="https://www.imdb.com/title/tt0093437/" rel="noopener nofollow"&gt;&lt;em&gt;The Lost Boys&lt;/em&gt;&lt;/a&gt; and titled his version &lt;em&gt;Vampire Weekend&lt;/em&gt;. They originally considered calling themselves Weekend, but there was another band with that name. It was probably in reference to the Godard film &lt;a href="https://www.imdb.com/title/tt0062480/" rel="noopener nofollow"&gt;&lt;em&gt;Week-End&lt;/em&gt;&lt;/a&gt;, which is about dissolute youth revolutionaries in the 1968 tumult in France. &lt;a href="http://www.wunderkammermag.com/music-reviews/vampire-weekend-contra" rel="noopener nofollow"&gt;They allude to the film both in the “Mansard Roof” and “Oxford Comma” videos.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;With the release of &lt;em&gt;Modern Vampires of the City&lt;/em&gt;, Vampire Weekend has likened their first three albums to a trilogy. Koenig &lt;a href="http://www.nytimes.com/2013/05/12/arts/music/vampire-weekends-evolution-in-modern-vampires-of-the-city.html?pagewanted=all" rel="noopener nofollow"&gt;told Jon Pareles of the &lt;em&gt;New York Times&lt;/em&gt;&lt;/a&gt; as much in May 2013:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It reminded me of &lt;em&gt;Brideshead Revisited&lt;/em&gt;. The naïve joyous school days in the beginning. Then the expansion of the world, travel, seeing other places, learning a little bit more about how people live. And then the end is a little bit of growing up, starting to think more seriously about your life and your faith. If people could look at our three albums as a bildungsroman, I’d be O.K. with that.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Flavorwire has compiled a map similar to our &lt;a href="http://www.genius.com/rapmap" rel="noopener" data-api_path="/users/956434"&gt;Rap Map&lt;/a&gt; of &lt;a href="http://flavorwire.com/390035/an-interactive-map-of-vampire-weekends-many-geographical-references" rel="noopener nofollow"&gt;every location mentioned in Vampire Weekend songs.&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Jason-derulo', 'annotations': {'description': '&lt;p&gt;Jason Derulo (born Jason Joel Desrouleaux), is an American singer-songwriter and dancer. Since the start of his career as a solo recording artist in 2009, Jason has sold over 30 million singles and has achieved four Top 5 singles, including “Wiggle,” “Talk Dirty,” “In My Head,” and “Whatcha Say.” He is known for singing his name at he beginning of many of his songs.&lt;/p&gt;\n\n&lt;p&gt;After producing records and writing songs for several artists, Derulo signed to minor recording label Beluga Heights. After Beluga Heights became part of the Warner Music Group, Derulo released his debut single &lt;a href="https://genius.com/Jason-derulo-whatcha-say-lyrics" rel="noopener" data-api_path="/songs/6028"&gt;“Whatcha Say”&lt;/a&gt; in May 2009. It sold over five million digital downloads, gaining an RIAA certification of triple platinum, and reaching number 1 in the U.S. and New Zealand. His debut album, &lt;a href="https://genius.com/albums/Jason-derulo/Jason-derulo" rel="noopener" data-api_path="/albums/24465"&gt;&lt;em&gt;Jason Derulo&lt;/em&gt;&lt;/a&gt;, was released on March 2, 2010.&lt;/p&gt;\n\n&lt;p&gt;He released his second studio album, &lt;a href="https://genius.com/albums/Jason-derulo/Future-history" rel="noopener" data-api_path="/albums/10922"&gt;&lt;em&gt;Future History&lt;/em&gt;&lt;/a&gt;, on September 16, 2011. It was preceded by the release of the UK number-one single &lt;a href="https://genius.com/Jason-derulo-dont-wanna-go-home-lyrics" rel="noopener" data-api_path="/songs/50793"&gt;“Don’t Wanna Go Home.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Derulo’s third international album, &lt;a href="https://genius.com/albums/Jason-derulo/Tattoos" rel="noopener" data-api_path="/albums/42060"&gt;&lt;em&gt;Tattoos&lt;/em&gt;&lt;/a&gt;, was released on September 24, 2013 featuring the singles &lt;a href="https://genius.com/Jason-derulo-marry-me-lyrics" rel="noopener" data-api_path="/songs/210478"&gt;“Marry Me”&lt;/a&gt;, &lt;a href="https://genius.com/Jason-derulo-trumpets-lyrics" rel="noopener" data-api_path="/songs/220968"&gt;“Trumpets”&lt;/a&gt;, &lt;a href="https://genius.com/Jason-derulo-talk-dirty-lyrics" rel="noopener" data-api_path="/songs/194687"&gt;“Talk Dirty”&lt;/a&gt;, and &lt;a href="https://genius.com/Jason-derulo-the-other-side-lyrics" rel="noopener" data-api_path="/songs/154542"&gt;“The Other Side”&lt;/a&gt;. Derulo reissued the album a year later under the name &lt;a href="https://genius.com/albums/Jason-derulo/Talk-dirty" rel="noopener" data-api_path="/albums/351874"&gt;&lt;em&gt;Talk Dirty&lt;/em&gt;&lt;/a&gt; with some additional songs and the single &lt;a href="https://genius.com/Jason-derulo-wiggle-lyrics" rel="noopener" data-api_path="/songs/403545"&gt;“Wiggle”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His fourth album &lt;a href="https://genius.com/albums/Jason-derulo/Everything-is-4" rel="noopener" data-api_path="/albums/122800"&gt;&lt;em&gt;Everything is 4&lt;/em&gt;&lt;/a&gt; was released on June 2, 2015 featuring the lead single &lt;a href="https://genius.com/Jason-derulo-want-to-want-me-lyrics" rel="noopener" data-api_path="/songs/720259"&gt;“Want to Want Me”&lt;/a&gt;. It was released on March 9, 2015, and topped charts worldwide. It also reached #6 in the US. A year later he released a compilation album, &lt;a href="https://genius.com/albums/Jason-derulo/Platinum-hits" rel="noopener" data-api_path="/albums/161185"&gt;“Platinum Hits”&lt;/a&gt; featuring his 11 platinum songs plus the single &lt;a href="https://genius.com/Jason-derulo-kiss-the-sky-lyrics" rel="noopener" data-api_path="/songs/2827834"&gt;&lt;em&gt;Kiss the Sky&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;From 2017 to 2019, Derulo released singles and collaborations, most notably &lt;a href="https://genius.com/Jason-derulo-swalla-lyrics" rel="noopener" data-api_path="/songs/2945277"&gt;“Swalla”&lt;/a&gt;, &lt;a href="https://genius.com/Jason-derulo-colors-lyrics" rel="noopener" data-api_path="/songs/3529615"&gt;“Colors”&lt;/a&gt;, and &lt;a href="https://genius.com/Jason-derulo-and-david-guetta-goodbye-lyrics" rel="noopener" data-api_path="/songs/3911203"&gt;“Goodbye”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2019, Derulo released &lt;a href="https://genius.com/albums/Jason-derulo/2sides-side-1" rel="noopener" data-api_path="/albums/574060"&gt;“2 Sides (Side 1)”&lt;/a&gt;, the first of 2 sets of EPs. The second side was set to release in 2020, but has been delayed due to disputes with Warner Brothers.&lt;/p&gt;', 'alternate_names': ['Jason Joel Desrouleaux', 'Jason Desrouleaux']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sia', 'annotations': {'description': '&lt;p&gt;Sia Kate Isobelle Furler (born December 18, 1975), popularly known as Sia, is an Australian pop singer and songwriter. She is also part of the supergroup, &lt;a href="https://genius.com/artists/Lsd" rel="noopener" data-api_path="/artists/1462360"&gt;LSD&lt;/a&gt; alongside British singer, &lt;a href="https://genius.com/artists/Labrinth" rel="noopener" data-api_path="/artists/720"&gt;Labrinth&lt;/a&gt; and American DJ, &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt;. Before her solo debut, Sia also lent vocals to British acid-jazz duo, &lt;a href="https://genius.com/artists/Zero-7" rel="noopener" data-api_path="/artists/2570"&gt;Zero 7&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Her album &lt;em&gt;&lt;a href="https://genius.com/albums/Sia/1000-forms-of-fear" rel="noopener" data-api_path="/albums/104614"&gt;1000 Forms of Fear&lt;/a&gt;&lt;/em&gt; was released in 2014 and is her most successful album to date, with the top 10 single “&lt;a href="https://genius.com/Sia-chandelier-lyrics" rel="noopener" data-api_path="/songs/378195"&gt;Chandelier&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;After performing for nearly 15 years at nightclubs as well as releasing five studio albums, Sia took a hiatus from performing in 2010 when she began writing for other artists. Some of her most successful collaborations are “&lt;a href="https://genius.com/David-guetta-titanium-lyrics" rel="noopener" data-api_path="/songs/64869"&gt;Titanium&lt;/a&gt;” with &lt;a href="https://genius.com/artists/David-guetta" rel="noopener" data-api_path="/artists/2578"&gt;David Guetta&lt;/a&gt;, “&lt;a href="https://genius.com/Rihanna-diamonds-lyrics" rel="noopener" data-api_path="/songs/89794"&gt;Diamonds&lt;/a&gt;” with &lt;a href="https://genius.com/artists/Rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt; and “&lt;a href="https://genius.com/Flo-rida-wild-ones-lyrics" rel="noopener" data-api_path="/songs/68266"&gt;Wild Ones&lt;/a&gt;” with &lt;a href="https://genius.com/artists/Flo-rida" rel="noopener" data-api_path="/artists/1081"&gt;Flo Rida&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Sia famously started hiding her face during her recent promotional cycles and public events. She has stated that because when she started to become a little bit famous, it felt destabilizing for her in some ways. In order for her to maintain a certain amount of privacy, she focused on writing for other artists and started covering up her face with the famous wig.&lt;/p&gt;\n\n&lt;p&gt;Sia has the most music videos with over a billion views on YouTube of all-female artists, with 5 videos having reached at least one billion views.&lt;/p&gt;\n\n&lt;p&gt;She has received a wide range of awards, including a total of 8 Grammy nominations. Sia also has had 8 of her songs go double platinum in record sales.&lt;/p&gt;\n\n&lt;p&gt;Despite this, her excursion into film was a far cry from her illustrious music career. In 2021, Sia would release a film entitled &lt;a href="https://www.imdb.com/title/tt7541720/" rel="noopener nofollow"&gt;&lt;em&gt;Music&lt;/em&gt;&lt;/a&gt;. Starring &lt;a href="https://www.imdb.com/name/nm4675650/?ref_=tt_cl_t1" rel="noopener nofollow"&gt;Maddie Ziegler&lt;/a&gt; in the title role of an autistic teen, the movie was &lt;a href="https://www.usatoday.com/story/entertainment/movies/2021/02/10/critics-slam-sia-film-music-nonsensical-and-cringe-inducing/6712473002/" rel="noopener nofollow"&gt;slammed&lt;/a&gt; by critics and Sia fans alike for its &lt;a href="https://intheirownleague.com/2021/02/20/why-music-2021-is-harmful-for-neurodivergent-representation-and-alternatives-to-consider/" rel="noopener nofollow"&gt;poor&lt;/a&gt; representation of autism and almost &lt;a href="https://www.indiewire.com/2021/02/sia-film-music-maddie-ziegler-autistic-community-1234617040/" rel="noopener nofollow"&gt;ableist&lt;/a&gt; sentiments. Following some &lt;a href="https://variety.com/2020/music/news/sia-debate-twitter-disabled-film-autism-music-1234837013/" rel="noopener nofollow"&gt;stormy&lt;/a&gt; tweets in response to criticism, Sia would &lt;a href="https://www.usatoday.com/story/entertainment/movies/2021/02/04/sia-adds-disclaimer-golden-globe-nominated-music-amid-backlash-autism-community/4386251001/" rel="noopener nofollow"&gt;delete&lt;/a&gt; her Twitter account. The film &lt;a href="https://www.rottentomatoes.com/m/music" rel="noopener nofollow"&gt;maintains&lt;/a&gt; an 8% on &lt;a href="https://rottontomatoes.com/" rel="noopener nofollow"&gt;Rotten Tomatoes&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Sia Kate Isobelle Furler', 'Sia Furler', 'Sia K. I. Furler']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Kelly-rowland', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://twitter.com/KELLYROWLAND" rel="noopener nofollow"&gt;Kelendria Trene Rowland&lt;/a&gt;, also known as Kelly Rowland, was born in Atlanta, Georgia and raised in Houston, Texas. She began her music career with &lt;a href="https://en.wikipedia.org/wiki/List_of_best-selling_girl_groups#Best-selling_girl_groups_worldwide" rel="noopener nofollow"&gt;the world’s second best-selling girl group of all time&lt;/a&gt;, &lt;a href="https://genius.com/artists/Destinys-child" rel="noopener" data-api_path="/artists/2831"&gt;Destiny’s Child&lt;/a&gt;, (following the &lt;a href="https://genius.com/artists/Spice-girls" rel="noopener" data-api_path="/artists/13074"&gt;Spice Girls&lt;/a&gt;), and her solo career has maintained her status as a legendary rhythm and blues singer/songwriter. Kelly’s singing style is most comfortable in the midrange, capable of making inflections echoing the soul-divas of the R&amp;amp;B golden age, inspired by their gospel roots, including &lt;a href="https://genius.com/artists/Tina-turner" rel="noopener" data-api_path="/artists/28334"&gt;Tina Turner&lt;/a&gt;, &lt;a href="https://genius.com/artists/Aretha-franklin" rel="noopener" data-api_path="/artists/1108"&gt;Aretha Franklin&lt;/a&gt; and Kelly’s idol &lt;a href="https://genius.com/artists/Whitney-houston" rel="noopener" data-api_path="/artists/8534"&gt;Whitney Houston&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;This artist’s signature songs include &lt;a href="https://genius.com/Kelly-rowland-motivation-lyrics" rel="noopener" data-api_path="/songs/5026"&gt;“Motivation”&lt;/a&gt; which features benchmark rapper &lt;a href="https://genius.com/artists/Lil-wayne" rel="noopener" data-api_path="/artists/4"&gt;Lil Wayne&lt;/a&gt;, &lt;a href="https://genius.com/Kelly-rowland-kisses-down-low-lyrics" rel="noopener" data-api_path="/songs/128426"&gt;“Kisses Down Low”&lt;/a&gt;, a sexy summer hit, and she achieved cross-over success in Eurodance when she paired with &lt;a href="https://genius.com/artists/David-guetta" rel="noopener" data-api_path="/artists/2578"&gt;David Guetta&lt;/a&gt; for &lt;a href="https://genius.com/David-guetta-when-love-takes-over-feat-kelly-rowland-lyrics" rel="noopener"&gt;“When Love Takes Over”&lt;/a&gt;. On her most applauded tracks, Rowland shares her talents with contemporaries: old friends &lt;a href="https://genius.com/artists/Beyonce" rel="noopener" data-api_path="/artists/498"&gt;Beyoncé&lt;/a&gt;, &lt;a href="https://genius.com/artists/Michelle-williams" rel="noopener" data-api_path="/artists/35041"&gt;Michelle Williams&lt;/a&gt;, as well as new(er) friends &lt;a href="https://genius.com/artists/Fantasia" rel="noopener" data-api_path="/artists/8609"&gt;Fantasia&lt;/a&gt; and &lt;a href="https://genius.com/artists/Missy-elliott" rel="noopener" data-api_path="/artists/1529"&gt;Missy Elliott&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Kelly has received a plethora of nods from the academy and others in the industry: &lt;a href="http://kellyrowland.com/bio/" rel="noopener nofollow"&gt;“five Grammy Awards, 16 Billboard Music Awards, 15 Soul Train Awards, 4 American Music Awards, 2 MTV Video Music Awards, 1 BRIT Award, 1 BET Award, 1 NAACP Image Award, a Star on the &lt;em&gt;Hollywood Walk of Fame&lt;/em&gt;”&lt;/a&gt; and counting. 2014 was topsy-turvy for Kelly: she welcomed a bouncy baby boy into the world, but &lt;a href="http://www.usmagazine.com/celebrity-news/news/kelly-rowland-mom-doris-rowland-garrison-dies-66-2014312" rel="noopener nofollow"&gt;lost her mother one month later&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Most recently Kelly is developing her small screen resume on the hit television show &lt;a href="https://genius.com/albums/Empire-cast/Empire-season-2" rel="noopener"&gt;Empire’s second season&lt;/a&gt;, appearing as the mentally disturbed mother of the &lt;a href="https://genius.com/albums/William-shakespeare/King-lear" rel="noopener" data-api_path="/albums/25554"&gt;King Lear&lt;/a&gt; character, Lucious Lyon. The feature films &lt;a href="http://www.imdb.com/title/tt0329101/fullcredits?ref_=tt_ov_st_sm" rel="noopener nofollow"&gt;&lt;em&gt;Freddy vs. Jason&lt;/em&gt;&lt;/a&gt; and  &lt;a href="http://www.imdb.com/title/tt0379487/fullcredits?ref_=tt_ov_st_sm" rel="noopener nofollow"&gt;&lt;em&gt;the Seat Filler&lt;/em&gt;&lt;/a&gt; also included Kelly’s acting credits.&lt;/p&gt;', 'alternate_names': ['Kelendria T. Rowland', 'Kelendria Trene Rowland', 'Kelendria Rowland']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Meredith-brooks', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Meredith Ann Brooks']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Sinead-oconnor', 'annotations': {'description': '&lt;p&gt;Sinéad O\'Connor (who goes by Shuhada\' Sadaqat in her private life) is an Irish singer-songwriter who rose to fame in the late 80s with her album &lt;em&gt;The Lion and the Cobra&lt;/em&gt; and achieved worldwide success with her cover of Prince’s “Nothing Compares 2 U”.&lt;/p&gt;\n\n&lt;p&gt;O\'Connor was discovered in 1985 when Nigel Grainge of Ensign Records saw her band Ton Ton Macoute perform. Although he was not fond of the band’s music, he was impressed by O\'Connor’s ‘amazing voice’. Grainge had O\'Connor record four songs with Karl Wallinger (World Party) and &lt;a href="https://www.oldies.com/artist-biography/Sinead-OConnor.html" rel="noopener nofollow"&gt;signed her to his label&lt;/a&gt;. O\'Connor’s first single was the song “Heroine” which she co-wrote with U2’s guitarist The Edge for the film &lt;em&gt;Captive&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Her debut album &lt;em&gt;The Lion and the Cobra&lt;/em&gt; was a sensation when it was released in 1987, reaching gold record status and &lt;a href="https://www.grammy.com/grammys/artists/sin%C3%A9ad-oconnor" rel="noopener nofollow"&gt;earning&lt;/a&gt; a Best Female Rock Vocal Performance Grammy nomination. O\'Connor’s debut single “Troy” charted in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=Troy&amp;amp;cat=s" rel="noopener nofollow"&gt;The Netherlands and Belgium&lt;/a&gt;, and “Mandinka”, released in late 1987, cracked the top 20 &lt;a href="http://www.officialcharts.com/artist/24657/sinead-o\'connor/" rel="noopener nofollow"&gt;in the UK&lt;/a&gt; and top 30 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=Mandinka&amp;amp;cat=s" rel="noopener nofollow"&gt;three other European countries&lt;/a&gt;, helping her album chart well &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=The+Lion+And+The+Cobra&amp;amp;cat=a" rel="noopener nofollow"&gt;in Europe&lt;/a&gt;. Spin Magazine &lt;a href="https://www.spin.com/featured/sinead-oconnor-interview-spin-30-cover-story/" rel="noopener nofollow"&gt;described&lt;/a&gt; the album as a “remarkable, still-spine-tingling first record”.&lt;/p&gt;\n\n&lt;p&gt;In 1990, the lead single from her sophomore album &lt;em&gt;I Do Not Want What I Haven’t Got&lt;/em&gt;, a cover of the Prince-penned song “Nothing Compares 2 U” (originally performed by &lt;a href="https://genius.com/The-family-nothing-compares-2-u-lyrics" rel="noopener" data-api_path="/songs/2891977"&gt;The Family&lt;/a&gt;), became an &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=Nothing+Compares+2+U&amp;amp;cat=s" rel="noopener nofollow"&gt;international smash hit&lt;/a&gt;, topping the charts in eleven countries including &lt;a href="http://www.officialcharts.com/artist/24657/sinead-o\'connor/" rel="noopener nofollow"&gt;the UK&lt;/a&gt; and &lt;a href="https://www.billboard.com/music/sinead-oconnor/chart-history/hot-100" rel="noopener nofollow"&gt;the US&lt;/a&gt;, propelling O\'Connor into worldwide stardom. Its second single “The Emperor’s New Clothes” was a top 30 hit &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Sin%E9ad+O%27Connor&amp;amp;titel=The+Emperor%27s+New+Clothes&amp;amp;cat=s" rel="noopener nofollow"&gt;in several European countries&lt;/a&gt;, but only a modest one &lt;a href="https://www.billboard.com/music/sinead-oconnor/chart-history/hot-100" rel="noopener nofollow"&gt;in the US&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Almost immediately, controversy brewed around O\'Connor. A canceled Saturday Night Live performance was followed by &lt;a href="https://www.theguardian.com/music/2012/sep/21/sinead-o-connor-pope-photo" rel="noopener nofollow"&gt;ripping a photo&lt;/a&gt; of the Pope in half on the show two years later. She refused to allow the American National Anthem be sung before one of her concerts, leading to a local FM station banning her music and a senator calling for the boycotting of her shows. She refused to attend the 1990 Grammys despite receiving &lt;a href="https://www.grammy.com/grammys/artists/sin%C3%A9ad-oconnor" rel="noopener nofollow"&gt;four nominations&lt;/a&gt;. And she claimed a meeting with Prince included a threat that he was going to beat her, which he denied.&lt;/p&gt;\n\n&lt;p&gt;Her subsequent releases through the 90’s found &lt;a href="https://dutchcharts.nl/artist/Sinead_O\'Connor" rel="noopener nofollow"&gt;moderate success&lt;/a&gt; &lt;a href="http://www.officialcharts.com/artist/24657/sinead-o\'connor/" rel="noopener nofollow"&gt;overseas&lt;/a&gt;, and though album sales in the US &lt;a href="https://www.billboard.com/music/sinead-oconnor/chart-history/billboard-200" rel="noopener nofollow"&gt;were marginal&lt;/a&gt;, she had no further hits there. After 2000’s &lt;em&gt;Faith And Courage&lt;/em&gt;, O\'Connor’s success worldwide &lt;a href="https://dutchcharts.nl/artist/Sinead_O\'Connor" rel="noopener nofollow"&gt;diminished&lt;/a&gt;, with her songs only charting modestly in Ireland.&lt;/p&gt;\n\n&lt;p&gt;In addition to a fading career, a suicide attempt in 1999, three short-lived marriages between 2001-2012, and &lt;a href="https://www.news.com.au/entertainment/celebrity-life/celebrity-kids/sinead-oconnors-worrying-message-after-losing-custody-of-her-child/news-story/0a607587e38640e6fcfd183bde84d4ab" rel="noopener nofollow"&gt;losing custody&lt;/a&gt; of her son left her in a deteriorated mental state that culminated in a 12-minute profanity-laced video on her Facebook page in 2017 where she &lt;a href="https://www.telegraph.co.uk/news/2017/08/08/sinead-oconnor-sparks-fears-mental-health-posting-tearful-video/" rel="noopener nofollow"&gt;talks about&lt;/a&gt; wanting to kill herself. A month later she &lt;a href="https://variety.com/2017/tv/news/sinead-oconnor-dr-phil-interview-video-1202555641/" rel="noopener nofollow"&gt;appeared on a talk show&lt;/a&gt; stating, “I’m very excited to be getting some proper help”. However, in 2018 she changed her name from Sinéad O\'Connor to Magda Davitt, then to Shuhada Sadaqat, converted to Islam and &lt;a href="https://consequenceofsound.net/2018/11/sinead-oconnor-twitter/" rel="noopener nofollow"&gt;tweeted&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;What I’m about to say is something so racist I never thought my soul could ever feel it. But truly I never wanna spend time with white people again (if that’s what non-muslims are called). Not for one moment, for any reason. They are disgusting … If its ‘Crazy’ to care. Then by all means, spank my ass and call me Fruity loops.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In 2019, O\'Connor released a demo of new song “Milestones” and announced a new upcoming LP &lt;em&gt;No Mud No Lotus&lt;/em&gt; (also the title of a 2014 book by Zen Master Thich Nhat Hanh) was scheduled for release later in the year, but a cover of gospel singer Mahalia Jackson’s “Trouble Of The World”, a song &lt;a href="https://www.hotpress.com/music/exclusive-sinead-oconnor-talks-trouble-of-the-world-in-the-next-issue-of-hot-press-22828112" rel="noopener nofollow"&gt;in support&lt;/a&gt; of the Black Lives Matter cause, appeared in 2020 instead. In June 2021, she &lt;a href="https://www.spin.com/2021/06/sinead-oconnor-retirement/" rel="noopener nofollow"&gt;announced&lt;/a&gt; her retirement from music, revealing that her upcoming album &lt;em&gt;No Veteran Dies Alone&lt;/em&gt; will be her last, and added to her claims of abuse by Prince back in the 1990s in her memoir &lt;em&gt;&lt;a href="https://www.npr.org/2021/06/01/992501997/sinead-oconnor-has-a-new-memoir-and-no-regrets" rel="noopener nofollow"&gt;Rememberings&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': ['Magda Davitt', "Sinead O'connor"]}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bad-boys-blue', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Supertramp', 'annotations': {'description': '&lt;p&gt;Supertramp are an English rock band formed in 1969 (assuming this name in 1970). Their style oscillates between progressive rock and a more mainstream pop rock. The band’s work is marked by the songwriting of founders Rick Davies and Roger Hodgson and the prominent use of Wurlitzer electric piano and saxophone.&lt;/p&gt;\n\n&lt;p&gt;Garnering tremendous success in the latter half of the ‘70s, Supertramp created several very popular and recognisable hit singles, beginning with &lt;a href="https://genius.com/Supertramp-school-lyrics" rel="noopener" data-api_path="/songs/307015"&gt;School&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-dreamer-lyrics" rel="noopener" data-api_path="/songs/732412"&gt;Dreamer&lt;/a&gt; off their 1974 commercial breakthrough, &lt;a href="https://genius.com/albums/Supertramp/Crime-of-the-century" rel="noopener" data-api_path="/albums/67354"&gt;&lt;em&gt;Crime Of The Century&lt;/em&gt;&lt;/a&gt;. 1977’s &lt;a href="https://genius.com/albums/Supertramp/Even-in-the-quietest-moments" rel="noopener" data-api_path="/albums/147348"&gt;&lt;em&gt;Even In The Quietest Moments…&lt;/em&gt;&lt;/a&gt; saw two more Hodgson-penned highlights in &lt;a href="https://genius.com/Supertramp-give-a-little-bit-lyrics" rel="noopener" data-api_path="/songs/967668"&gt;Give A Little Bit&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-fools-overture-lyrics" rel="noopener" data-api_path="/songs/1645350"&gt;Fool’s Overture&lt;/a&gt;, before the band and its leading duo reached their peak with the band’s top-selling record, 1979’s &lt;a href="https://genius.com/albums/Supertramp/Breakfast-in-america" rel="noopener" data-api_path="/albums/82564"&gt;&lt;em&gt;Breakfast In America&lt;/em&gt;&lt;/a&gt;. This album alone includes no less than 6 popular tracks: four of Hodgson’s (&lt;a href="https://genius.com/Supertramp-the-logical-song-lyrics" rel="noopener" data-api_path="/songs/440468"&gt;The Logical Song&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-take-the-long-way-home-lyrics" rel="noopener" data-api_path="/songs/482326"&gt;Take The Long Way Home&lt;/a&gt;, &lt;a href="https://genius.com/Supertramp-child-of-vision-lyrics" rel="noopener" data-api_path="/songs/477112"&gt;Child Of Vision&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-breakfast-in-america-lyrics" rel="noopener" data-api_path="/songs/482324"&gt;the title track&lt;/a&gt;) and the two most well-known of Davies’ creations, &lt;a href="https://genius.com/Supertramp-gone-hollywood-lyrics" rel="noopener" data-api_path="/songs/482321"&gt;Gone Hollywood&lt;/a&gt; and &lt;a href="https://genius.com/Supertramp-goodbye-stranger-lyrics" rel="noopener" data-api_path="/songs/361826"&gt;Goodbye Stranger&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The next album would be the last including Roger Hodgson, after which Richard Davies helmed the band alone into the ‘80s and the rise of digital synthesizers.&lt;/p&gt;\n\n&lt;p&gt;While Supertramp still exists, the latest album by the band was released in 2002.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bebe-rexha', 'annotations': {'description': '&lt;p&gt;Born on August 30, 1989, Bleta Rexha–widely known by her stage name Bebe Rexha, with &lt;a href="http://www.gmanetwork.com/news/story/571629/lifestyle/artandculture/bebe-rexha-music-is-about-making-people-know-they-re-not-alone" rel="noopener nofollow"&gt;Bebe meaning “bumblebee”&lt;/a&gt;–is an American singer and songwriter hailing from Brooklyn, New York. Her Albanian background and passion for music at the young age of 4 led her to pursue her love for music through Tottenville High School on Staten Island.&lt;/p&gt;\n\n&lt;p&gt;She is best known for being featured on the hit singles &lt;a href="https://genius.com/Cash-cash-take-me-home-lyrics" rel="noopener" data-api_path="/songs/286961"&gt;“Take Me Home”&lt;/a&gt; by &lt;a href="https://genius.com/artists/cash-cash" rel="noopener" data-api_path="/artists/104043"&gt;Cash Cash&lt;/a&gt;, &lt;a href="https://genius.com/David-guetta-hey-mama-lyrics" rel="noopener" data-api_path="/songs/554208"&gt;“Hey Mama”&lt;/a&gt; by &lt;a href="https://genius.com/artists/David-guetta" rel="noopener" data-api_path="/artists/2578"&gt;David Guetta&lt;/a&gt; and &lt;a href="https://genius.com/G-eazy-me-myself-and-i-lyrics" rel="noopener" data-api_path="/songs/2329765"&gt;“Me, Myself and I”&lt;/a&gt; by &lt;a href="https://genius.com/artists/g-eazy" rel="noopener" data-api_path="/artists/11395"&gt;G-Eazy&lt;/a&gt;. She is also known for being the lead vocalist of the American band &lt;a href="https://genius.com/artists/Black-cards" rel="noopener" data-api_path="/artists/160888"&gt;Black Cards&lt;/a&gt;, which was created by Pete Wentz, lead bassist of &lt;a href="https://genius.com/artists/fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;She has worked producing and writing for several different artists and most notably co-wrote the number-one US Billboard Hot 100 hit &lt;a href="https://genius.com/Eminem-the-monster-lyrics" rel="noopener" data-api_path="/songs/235732"&gt;“The Monster”&lt;/a&gt; by &lt;a href="https://genius.com/artists/eminem" rel="noopener" data-api_path="/artists/45"&gt;Eminem&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/rihanna" rel="noopener" data-api_path="/artists/89"&gt;Rihanna&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;She published two EPs in 2017: All Your Fault &lt;a href="https://genius.com/albums/Bebe-rexha/All-your-fault-pt-1" rel="noopener" data-api_path="/albums/162610"&gt;Pt. 1&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/albums/Bebe-rexha/All-your-fault-pt-2" rel="noopener" data-api_path="/albums/326236"&gt;Pt. 2&lt;/a&gt;. &lt;a href="https://genius.com/Bebe-rexha-meant-to-be-lyrics" rel="noopener" data-api_path="/songs/3182458"&gt;“Meant To Be”&lt;/a&gt;, which is in part 2, has entered US Billboard Hot 100 and is the &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8467605/meant-to-be-breaks-record-longest-rule-hot-country-songs-history" rel="noopener nofollow"&gt;longest No.1 on the Billboard Hot Country songs&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/Bebe-rexha-meant-to-be-lyrics" rel="noopener" data-api_path="/songs/3182458"&gt;“Meant To Be”&lt;/a&gt; would also be later included in Bebe’s debut album &lt;a href="https://genius.com/albums/Bebe-rexha/Expectations" rel="noopener" data-api_path="/albums/379436"&gt;Expectations&lt;/a&gt;, the latter being released on June 22, 2018. The album peaked at #13 on the Billboard Hot 200.&lt;/p&gt;\n\n&lt;p&gt;On May 7th, 2021, Bebe’s highly anticipated second studio album, &lt;a href="https://genius.com/albums/Bebe-rexha/Better-mistakes" rel="noopener" data-api_path="/albums/483384"&gt;&lt;em&gt;Better Mistakes&lt;/em&gt;&lt;/a&gt;, was released. It consisted of more personal outlook on music, and featured many A-list artists, including &lt;a href="https://genius.com/artists/Travis-barker" rel="noopener" data-api_path="/artists/1604"&gt;Travis Barker&lt;/a&gt;, &lt;a href="https://genius.com/artists/Lil-uzi-vert" rel="noopener" data-api_path="/artists/217208"&gt;Lil Uzi Vert&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Doja-cat" rel="noopener" data-api_path="/artists/139478"&gt;Doja Cat&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Bleta Rexha']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Alicia-keys', 'annotations': {'description': '&lt;p&gt;Gifted with one of the finest voices of the early 21st century and exceptional talent, the famed &lt;strong&gt;Alicia Keys&lt;/strong&gt; is a recognized, award-winning R&amp;amp;B singer, songwriter, and record producer. She was born on January 25, 1981 in New York.&lt;/p&gt;\n\n&lt;p&gt;Her debut album &lt;a href="https://genius.com/albums/Alicia-keys/Songs-in-a-minor" rel="noopener" data-api_path="/albums/27929"&gt;&lt;em&gt;Songs in A Minor&lt;/em&gt;&lt;/a&gt; launched her career as she became the best-selling new artist of 2001. Her follow-up album &lt;a href="https://genius.com/albums/Alicia-keys/The-diary-of-alicia-keys" rel="noopener" data-api_path="/albums/19545"&gt;&lt;em&gt;The Diary of Alicia Keys&lt;/em&gt;&lt;/a&gt; (2003) and her album for the &lt;a href="https://genius.com/albums/Alicia-keys/Unplugged" rel="noopener" data-api_path="/albums/6333"&gt;&lt;em&gt;MTV Unplugged&lt;/em&gt;&lt;/a&gt; series in 2005 further cemented her at the top of the pop and R&amp;amp;B game. Her biggest hits are powerful ballads like &lt;a href="https://genius.com/Alicia-keys-fallin-lyrics" rel="noopener" data-api_path="/songs/344010"&gt;“Fallin\',”&lt;/a&gt; &lt;a href="https://genius.com/Alicia-keys-if-i-aint-got-you-lyrics" rel="noopener" data-api_path="/songs/276051"&gt;“If I Ain’t Got You,”&lt;/a&gt; and &lt;a href="https://genius.com/Alicia-keys-no-one-lyrics" rel="noopener" data-api_path="/songs/428036"&gt;“No One.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On January 15, 2019 Pop/R&amp;amp;B legend and &lt;a href="https://www.grammy.com/grammys/news/alicia-keys-host-2019-grammy-awards" rel="noopener nofollow"&gt;15-time GRAMMY winner Alicia Keys&lt;/a&gt; was announced as the host of the 61st Annual GRAMMY Awards. This will be the first time Keys has been the master of ceremonies for Music’s Biggest Night.&lt;/p&gt;\n\n&lt;p&gt;Alicia Keys, whose birth name is Alicia Augello-Cook, has been married to rapper and producer &lt;a href="https://genius.com/artists/Swizz-beatz" rel="noopener" data-api_path="/artists/184"&gt;Swizz Beats&lt;/a&gt; since 2010 from whom she has two children: Egypt Daoud and Genesis Ali.&lt;/p&gt;', 'alternate_names': ['Alicia Augello-Cook', 'Alicia Augello-Cook Dean']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Bodeans', 'annotations': {'description': '&lt;p&gt;The BoDeans are an American rock band from Waukesha, Wisconsin, formed in 1983.&lt;/p&gt;\n\n&lt;p&gt;The first full lineup was Kurt Neumann, vocals and lead guitar. Sam Llanas, vocals and rhythm guitar; Bob Griffin, bass. Nick Kitsos, drums.&lt;/p&gt;\n\n&lt;p&gt;In a 1987 &lt;em&gt;Rolling Stone&lt;/em&gt; magazine poll, the BoDeans were voted ‘Best New American Band’.&lt;/p&gt;\n\n&lt;p&gt;In 1993, their song “Closer to Free” was selected as the theme song for the television series “Party of Five” and became one of Billboard’s 10 most-played songs of 1996.&lt;/p&gt;\n\n&lt;p&gt;Presently, Neumann is the only remaining original member. Neumann is joined by drummer Kenny Aronoff, widely known for his work with John Cougar Mellencamp.&lt;/p&gt;\n\n&lt;p&gt;A more detailed band history is  archived at the &lt;a href="http://archive.jsonline.com/news/milwaukee/29335784.html" rel="noopener nofollow"&gt;Milwaukee Journal Sentinel&lt;/a&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Drake', 'annotations': {'description': '&lt;p&gt;Aubrey Drake Graham (born October 24, 1986) is a Canadian rapper, singer, songwriter, record producer, actor, and entrepreneur.&lt;/p&gt;\n\n&lt;p&gt;Drake is part of a generation of rappers, along with &lt;a href="https://genius.com/artists/Wiz-khalifa" rel="noopener" data-api_path="/artists/310"&gt;Wiz Khalifa&lt;/a&gt;, &lt;a href="https://genius.com/artists/Kid-cudi" rel="noopener" data-api_path="/artists/68"&gt;Kid Cudi&lt;/a&gt; and others, who came up through internet mixtapes. Drizzy put out three mixtapes from 2006 to 2009: &lt;a href="https://genius.com/albums/drake/room-for-improvement" rel="noopener" data-api_path="/albums/2625"&gt;&lt;em&gt;Room for Improvement,&lt;/em&gt;&lt;/a&gt; &lt;a href="https://genius.com/albums/drake/comeback-season" rel="noopener" data-api_path="/albums/2622"&gt;&lt;em&gt;Comeback Season,&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/drake/so-far-gone" rel="noopener" data-api_path="/albums/2627"&gt;&lt;em&gt;So Far Gone.&lt;/em&gt;&lt;/a&gt; These mixtapes got him the attention of &lt;a href="https://genius.com/artists/Lil-wayne" rel="noopener" data-api_path="/artists/4"&gt;Lil Wayne&lt;/a&gt;, and spawned the hit singles &lt;a href="https://genius.com/lyrics/Drake-ft-eminem-kanye-west-and-lil-wayne/Forever" rel="noopener" data-api_path="/songs/147"&gt;“Forever”&lt;/a&gt; and &lt;a href="https://genius.com/lyrics/Drake/Best-i-ever-had" rel="noopener" data-api_path="/songs/672"&gt;“Best I Ever Had,”&lt;/a&gt; the latter coming from his critically acclaimed mixtape &lt;a href="https://genius.com/albums/Drake/So-far-gone" rel="noopener" data-api_path="/albums/2627"&gt;&lt;em&gt;So Far Gone&lt;/em&gt;&lt;/a&gt;. During this period, Drake also made a slew of guest appearances on tracks by artists from &lt;a href="https://genius.com/lyrics/Dj-khaled-ft-drake-lil-wayne-rick-ross-usher-and-young-jeezy/Fed-up" rel="noopener"&gt;DJ Khaled&lt;/a&gt; to &lt;a href="https://genius.com/lyrics/Jay-z-ft-drake/Off-that" rel="noopener" data-api_path="/songs/674"&gt;JAY-Z.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Even before the release of his debut album, Drake was &lt;a href="https://www.billboard.com/articles/news/268522/rapper-drake-lil-wayne-protege-draws-heavy-hitters-to-new-york-gig/" rel="noopener nofollow"&gt;being referred to&lt;/a&gt; by Billboard as “the biggest buzz” and “possibly the most sought-after artist” in hip-hop. Reportedly three major labels were courting him in “one of the biggest bidding wars ever.” Even a New York Times &lt;a href="https://www.nytimes.com/2009/05/28/arts/music/28drak.html" rel="noopener nofollow"&gt;article began&lt;/a&gt;, “If there was a time in hip-hop before Drake, it’s tough to remember.” Drake finally signed to Lil Wayne’s Young Money Entertainment label in 2009 and his debut album &lt;a href="https://genius.com/posts/Drake-thank-me-later-all-the-lyrics-to-every-song-explained" rel="noopener"&gt;&lt;em&gt;Thank Me Later&lt;/em&gt;&lt;/a&gt; came out the following year. His second album, &lt;em&gt;&lt;a href="https://genius.com/albums/Drake/Take-care" rel="noopener" data-api_path="/albums/10787"&gt;Take Care&lt;/a&gt;&lt;/em&gt;, was released in November 2011 and ultimately led to &lt;a href="https://www.youtube.com/watch?v=fKmk6OIR9V0" rel="noopener nofollow"&gt;celebration&lt;/a&gt; with his crew for earning his first Grammy Award (for Best Rap Album). The album has been certified 4x platinum as of March 29, 2016. His third studio album, &lt;a href="https://genius.com/albums/Drake/Nothing-was-the-same" rel="noopener" data-api_path="/albums/40475"&gt;&lt;em&gt;Nothing Was The Same&lt;/em&gt;&lt;/a&gt;, was released September 24th, 2013. Two years later on February 13, 2015, Drake released &lt;em&gt;&lt;a href="https://genius.com/albums/Drake/If-you-re-reading-this-it-s-too-late" rel="noopener" data-api_path="/albums/119674"&gt;If You’re Reading This It’s Too Late&lt;/a&gt;&lt;/em&gt;. Just months after that, he released a collaborative mixtape with American rapper Future, called &lt;a href="https://genius.com/albums/Drake-and-future/What-a-time-to-be-alive" rel="noopener" data-api_path="/albums/131405"&gt;&lt;em&gt;What A Time To Be Alive&lt;/em&gt;&lt;/a&gt;. His fourth studio album, &lt;a href="https://genius.com/albums/Drake/Views" rel="noopener" data-api_path="/albums/132506"&gt;&lt;em&gt;Views&lt;/em&gt;&lt;/a&gt;, was released on April 29, 2016. Following the release of &lt;em&gt;Views&lt;/em&gt;, Drake announced the release of his new “playlist,” &lt;a href="https://genius.com/albums/Drake/More-life" rel="noopener" data-api_path="/albums/286515"&gt;&lt;em&gt;More Life,&lt;/em&gt;&lt;/a&gt; on OVOSOUND Radio. It was released on March 18, 2017.&lt;/p&gt;\n\n&lt;p&gt;On January 19, 2018, Drake surprisingly released a two-track EP, which was titled &lt;a href="https://genius.com/albums/Drake/Scary-hours" rel="noopener" data-api_path="/albums/391461"&gt;&lt;em&gt;Scary Hours&lt;/em&gt;&lt;/a&gt;. In the following weeks Drake would make a song with his friend &lt;a href="https://genius.com/artists/Blocboy-jb" rel="noopener" data-api_path="/artists/1254513"&gt;BlocBoy JB&lt;/a&gt; called &lt;a href="https://genius.com/Blocboy-jb-look-alive-lyrics" rel="noopener" data-api_path="/songs/3452330"&gt;“Look Alive”&lt;/a&gt;, the song would &lt;a href="https://genius.com/a/memphis-rapper-blocboy-jb-s-drake-collaboration-look-alive-debuts-at-no-6-on-the-hot-100?utm_source=home_recent_stories" rel="noopener" data-api_path="/articles/4356"&gt;debut at #6 on the billboard&lt;/a&gt; and would mark Drake’s 23rd Top 10 Billboard hit. After “God’s Plan” debuted and spent 11 consecutive weeks at #1 on the &lt;em&gt;Billboard&lt;/em&gt;, Drake released &lt;a href="https://genius.com/Drake-nice-for-what-lyrics" rel="noopener" data-api_path="/songs/3580132"&gt;“Nice For What”&lt;/a&gt; to continue the streak of a successful 2018. “Nice for What” would go on &lt;a href="https://genius.com/a/drake-announces-his-new-album-scorpion-replaces-himself-at-no-1-with-nice-for-what?utm_source=home_featured_stories" rel="noopener" data-api_path="/articles/4771"&gt;to replace “God’s Plan” as the #1 song on the Hot 100&lt;/a&gt;. Drake went on to release his fifth studio album &lt;a href="https://genius.com/albums/Drake/Scorpion" rel="noopener" data-api_path="/albums/420582"&gt;&lt;em&gt;Scorpion&lt;/em&gt;&lt;/a&gt; on June 29, 2018. It featured 25 tracks and was released as a double album. Upon release, it set the single day album streaming record on both Apple Music and Spotify and broke the first-week streaming record for an album in a mere three days. That week, a record-shattering seven songs from the album placed in the Billboard Hot 100’s top ten.&lt;/p&gt;\n\n&lt;p&gt;In a December 25, 2019 &lt;a href="https://www.youtube.com/watch?v=mmsasEoupO4" rel="noopener nofollow"&gt;interview with Rap Radar&lt;/a&gt;, Drake confirmed upcoming music. He followed this statement up by releasing two songs with Future, &lt;a href="https://genius.com/Future-life-is-good-lyrics" rel="noopener" data-api_path="/songs/5111026"&gt;“Life is Good”&lt;/a&gt; and &lt;a href="https://genius.com/Drake-desires-lyrics" rel="noopener" data-api_path="/songs/4825634"&gt;“Desires,”&lt;/a&gt; on January 10, 2020, and January 31, 2020, respectively. A month later, Drake would drop two tracks: &lt;a href="https://genius.com/Drake-when-to-say-when-lyrics" rel="noopener" data-api_path="/songs/5127477"&gt;“When to Say When”&lt;/a&gt; and &lt;a href="https://genius.com/Drake-chicago-freestyle-lyrics" rel="noopener" data-api_path="/songs/5310327"&gt;“Chicago Freestyle.”&lt;/a&gt; On April 3, 2020, Drake released &lt;a href="https://genius.com/Drake-toosie-slide-lyrics" rel="noopener" data-api_path="/songs/5402847"&gt;“Toosie Slide,”&lt;/a&gt; the first official single from his upcoming material. &lt;a href="https://genius.com/albums/Drake/Dark-lane-demo-tapes" rel="noopener" data-api_path="/albums/630537"&gt;&lt;em&gt;Dark Lane Demo Tapes&lt;/em&gt;&lt;/a&gt;, Drake’s 5th official mixtape, was released on May 1, 2020 with the promise of &lt;a href="https://ew.com/music/drake-dark-lane-demo-tapes-announces-sixth-album/" rel="noopener nofollow"&gt;a new studio album&lt;/a&gt; for summer 2020.&lt;/p&gt;\n\n&lt;p&gt;On October 24, 2020, Drake’s 34th birthday, he revealed the album trailer for &lt;a href="https://genius.com/albums/Drake/Certified-lover-boy" rel="noopener" data-api_path="/albums/585647"&gt;&lt;em&gt;Certified Lover Boy&lt;/em&gt;&lt;/a&gt; and announced a January 2021 release date, which was postponed following a &lt;a href="https://www.nme.com/news/music/drake-says-certified-lover-boy-is-in-the-pot-and-coming-soon-2894853" rel="noopener nofollow"&gt;knee injury.&lt;/a&gt; On March 4th, 2021, Drake released &lt;a href="https://genius.com/albums/Drake/Scary-hours-2" rel="noopener" data-api_path="/albums/742624"&gt;&lt;em&gt;Scary Hours 2&lt;/em&gt;&lt;/a&gt;, the sequel to Drake’s January 2018 EP &lt;a href="https://genius.com/albums/Drake/Scary-hours" rel="noopener" data-api_path="/albums/391461"&gt;&lt;em&gt;Scary Hours&lt;/em&gt;&lt;/a&gt;. The mixtape includes features from Lil Baby and Rick Ross. Certified Lover Boy finally dropped on September 3, 2021.&lt;/p&gt;\n\n&lt;p&gt;Drizzy has also been involved in many beefs, including &lt;a href="http://www.mtv.com/news/2496809/timeline-drake-common-beef-sweet-to-stay-schemin/" rel="noopener nofollow"&gt;ones with Common&lt;/a&gt; and &lt;a href="http://www.mtv.com/news/1985114/drake-tyga-beef-timeline/" rel="noopener nofollow"&gt;Tyga.&lt;/a&gt; His most eventful &lt;a href="http://www.billboard.com/articles/columns/the-juice/6641784/meek-mill-drake-timeline" rel="noopener nofollow"&gt;beef was with Philadelphia rapper Meek Mill&lt;/a&gt;. This started the whole conspiracy over &lt;a href="http://www.nme.com/news/music/drake-133-1222920" rel="noopener nofollow"&gt;“Drake has a ghostwriter.”&lt;/a&gt; Drake fired back immediately with &lt;a href="https://genius.com/Drake-charged-up-lyrics" rel="noopener" data-api_path="/songs/2263716"&gt;“Charged Up”&lt;/a&gt; and with no response from Meek, he dropped another diss track four days later titled &lt;a href="https://genius.com/Drake-back-to-back-lyrics" rel="noopener" data-api_path="/songs/2266961"&gt;“Back to Back.”&lt;/a&gt; Meek then released &lt;em&gt;his&lt;/em&gt; diss track titled &lt;a href="https://genius.com/Meek-mill-wanna-know-lyrics" rel="noopener" data-api_path="/songs/2268486"&gt;“Wanna Know.”&lt;/a&gt;. Drake &lt;em&gt;was&lt;/em&gt; &lt;a href="http://www.mtv.com/news/2682345/drake-back-to-back-diss-grammy-nomination/" rel="noopener nofollow"&gt;nominated for a Grammy&lt;/a&gt; for “Best Rap Performance” for “Back to Back.”&lt;/p&gt;', 'alternate_names': ['C. Papi', 'Aubrey Graham', 'Aubrey D. Graham', 'Champagne Papi', '6 God', 'Drizzy', 'Aubrey Drake Graham']}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/Kylie-minogue', 'annotations': {'description': '&lt;p&gt;Kylie Minogue is an Australian singer, songwriter, and actress. Often referred to as the Goddess of Pop with a career spanning over 30 years, she has transformed from girl-next-door soap star to ‘90s pop starlet, and short-lived indie darling to bona fide superstar.&lt;/p&gt;\n\n&lt;p&gt;Kylie earned her first big break on the Australian soap opera &lt;em&gt;Neighbours&lt;/em&gt;, playing tomboy mechanic Charlene Mitchell. An on-screen romance with &lt;a href="https://genius.com/artists/Jason-donovan" rel="noopener" data-api_path="/artists/178714"&gt;Jason Donovan&lt;/a&gt; – who played Scott Robinson – blossomed into a real-life relationship, and their wedding on the soap drew in millions of viewers. However, her real ambition was a successful career in music, and by 1988 her debut album, &lt;a href="https://genius.com/albums/Kylie-minogue/Kylie" rel="noopener" data-api_path="/albums/20524"&gt;&lt;em&gt;Kylie&lt;/em&gt;&lt;/a&gt;, was released, reaching #1 in the UK and Australia. Notching up 10 UK Top 3 singles by 1993, she was one of the defining popstars of the early ‘90s. Her follow-ups to the debut album – &lt;a href="https://genius.com/albums/Kylie-minogue/Enjoy-yourself" rel="noopener" data-api_path="/albums/101051"&gt;&lt;em&gt;Enjoy Yourself&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Kylie-minogue/Rhythm-of-love" rel="noopener" data-api_path="/albums/19623"&gt;&lt;em&gt;Rhythm of Love&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Kylie-minogue/Enjoy-yourself" rel="noopener" data-api_path="/albums/101051"&gt;&lt;em&gt;Let’s Get To It&lt;/em&gt;&lt;/a&gt; – all reached the Top 15 in the UK.&lt;/p&gt;\n\n&lt;p&gt;With a blossoming relationship with late &lt;a href="https://genius.com/artists/Inxs" rel="noopener" data-api_path="/artists/43898"&gt;INXS&lt;/a&gt; frontman Michael Hutchence, Kylie was encouraged to be more ambitious with her image and sound. As such, she left her former label, PWL, and released the daring &lt;a href="https://genius.com/Kylie-minogue-confide-in-me-lyrics" rel="noopener" data-api_path="/songs/121304"&gt;“Confide In Me”&lt;/a&gt; in early 1994. Critics praised her re-invention, and the single restored the success she had somewhat lost with her previous album. &lt;a href="https://genius.com/albums/Kylie-minogue/Impossible-princess" rel="noopener" data-api_path="/albums/101167"&gt;&lt;em&gt;Impossible Princess&lt;/em&gt;&lt;/a&gt; was another critical success but failed to make much of an impact on the charts, which led some media outlets to believe that her “15 minutes of fame” were over.&lt;/p&gt;\n\n&lt;p&gt;By the turn of the century, Kylie signed with Parlophone and returned head-first to pure pop with the comeback single, &lt;a href="https://genius.com/kylie-minogue-spinning-around-lyrics" rel="noopener" data-api_path="/songs/121298"&gt;“Spinning Around”&lt;/a&gt;. A resounding success, it – and its parent album, &lt;a href="https://genius.com/albums/Kylie-minogue/Light-years" rel="noopener" data-api_path="/albums/20477"&gt;&lt;em&gt;Light Years&lt;/em&gt;&lt;/a&gt; – set the benchmark for her most successful single yet to follow shortly after. &lt;a href="https://genius.com/Kylie-minogue-cant-get-you-out-of-my-head-lyrics" rel="noopener" data-api_path="/songs/121287"&gt;“Can’t Get You Out of My Head”&lt;/a&gt; was one of the best-selling and most-heard singles of the 2000s, and even reached #7 in the US, a market that she had all but vanished from. &lt;a href="https://genius.com/albums/Kylie-minogue/Fever" rel="noopener" data-api_path="/albums/28967"&gt;&lt;em&gt;Fever&lt;/em&gt;&lt;/a&gt; spawned a number of other hit singles, and earned her her first GRAMMY award for &lt;a href="https://genius.com/kylie-minogue-come-into-my-world-lyrics" rel="noopener" data-api_path="/songs/425208"&gt;“Come Into My World”&lt;/a&gt;. 2003 saw the release of the R&amp;amp;B-inflected &lt;a href="https://genius.com/albums/Kylie-minogue/Body-language" rel="noopener" data-api_path="/albums/29021"&gt;&lt;em&gt;Body Language&lt;/em&gt;&lt;/a&gt;, which included the sultry single &lt;a href="https://genius.com/Kylie-minogue-slow-lyrics" rel="noopener" data-api_path="/songs/418883"&gt;“Slow”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The following year, Kylie released a career-encompassing greatest hits collection, &lt;a href="https://genius.com/albums/Kylie-minogue/Ultimate-kylie" rel="noopener" data-api_path="/albums/123493"&gt;&lt;em&gt;Ultimate Kylie&lt;/em&gt;&lt;/a&gt;, and embarked on a world tour in 2005. Just as she finished the UK leg, she was given a devastating diagnosis of breast cancer, which sent her into recluse for many months. By 2006, she resumed the tour and began work on her 10th studio album. &lt;a href="https://genius.com/albums/Kylie-minogue/X" rel="noopener" data-api_path="/albums/99022"&gt;&lt;em&gt;X&lt;/em&gt;&lt;/a&gt; was preceded by the single “2 Hearts”, and was a triumphant return to form. 2010’s &lt;a href="https://genius.com/albums/Kylie-minogue/Aphrodite" rel="noopener" data-api_path="/albums/99366"&gt;&lt;em&gt;Aphrodite&lt;/em&gt;&lt;/a&gt; signaled a move towards dance-pop and electro, and included the hit single &lt;a href="https://genius.com/Kylie-minogue-les-sex-lyrics" rel="noopener" data-api_path="/songs/383790"&gt;“All the Lovers”&lt;/a&gt;. In 2012, Kylie celebrated her 25th year in the industry with an orchestral greatest hits, &lt;a href="https://genius.com/albums/Kylie-minogue/The-abbey-road-sessions" rel="noopener" data-api_path="/albums/172157"&gt;&lt;em&gt;The Abbey Road Sessions&lt;/em&gt;&lt;/a&gt;. Her 12th studio album, &lt;a href="https://genius.com/albums/Kylie-minogue/Kiss-me-once" rel="noopener" data-api_path="/albums/84268"&gt;&lt;em&gt;Kiss Me Once&lt;/em&gt;&lt;/a&gt;, followed in 2014, and the following year she released her first holiday album, &lt;a href="https://genius.com/albums/Kylie-minogue/Kylie-christmas" rel="noopener" data-api_path="/albums/132269"&gt;&lt;em&gt;Kylie Christmas&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In early 2017, Kylie left her long-time label, Parlophone, and signed with BMG Rights Management to release her 14th studio album. &lt;a href="https://genius.com/albums/Kylie-minogue/Golden" rel="noopener" data-api_path="/albums/393266"&gt;&lt;em&gt;Golden&lt;/em&gt;&lt;/a&gt;, released on April 6, 2018, features the country-pop single &lt;a href="https://genius.com/Kylie-minogue-dancing-lyrics" rel="noopener" data-api_path="/songs/3427142"&gt;“Dancing”&lt;/a&gt; and is said to overall have a more country-influenced sound, inspired by her writing trip in Nashville. &lt;em&gt;Golden&lt;/em&gt; became her sixth UK Number One album and her first to be atop the charts in both the UK and her native Australia since 2001’s &lt;a href="https://genius.com/albums/Kylie-minogue/Fever" rel="noopener" data-api_path="/albums/28967"&gt;&lt;em&gt;Fever&lt;/em&gt;&lt;/a&gt;. Owing to the success of the album, she played Glastonbury’s esteemed &lt;em&gt;Legends&lt;/em&gt; slot the following June and released an updated greatest hits. &lt;em&gt;Step Back in Time: The Definitive Collection&lt;/em&gt; became her second UK and Australian chart-topper in 18 months, with its accompanying tour and aforementioned Glastonbury performance receiving critical acclaim. Eschewing the typical extended break between albums, Kylie will release the aptly-titled &lt;em&gt;DISCO&lt;/em&gt; on November 6. Its lead single, “Say Something,” was released on July 23 alongside the announcement of the album.&lt;/p&gt;', 'alternate_names': ['Kylie Ann Minogue']}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/Incubus', 'annotations': {'description': '&lt;p&gt;Incubus is an American alternative rock band from Calabasas, California. The band was formed in 1991 by vocalist Brandon Boyd, lead guitarist Mike Einziger, and drummer Jose Pasillas while enrolled in Calabasas High School. Incubus later expanded to include bassist Alex “Dirk Lance” Katunich, and Gavin “DJ Lyfe” Koppell; both of whom were eventually replaced by bassist Ben Kenney and DJ Kilmore respectively.&lt;/p&gt;\n\n&lt;p&gt;Incubus has attained commercial success, reaching multi-platinum sales, as well as releasing several successful singles, &lt;a href="https://genius.com/Incubus-dig-lyrics" rel="noopener" data-api_path="/songs/313626"&gt;Dig&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/Incubus-drive-lyrics" rel="noopener" data-api_path="/songs/108451"&gt;Drive&lt;/a&gt; especially.&lt;/p&gt;\n\n&lt;p&gt; The band have undergone many style changes over their long careers. Their early work, &lt;i&gt;Fungus Amongus&lt;/i&gt; (1995) and &lt;i&gt;S.C.I.E.N.C.E.&lt;/i&gt; (1997) were aggressive and clunky Funk Metal inspired by 80’s bands, such as the &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chili Peppers&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt; As the band earned mainstream recognition in the late 90’s and early 00’s their style matured significantly. Their albums &lt;a href="https://genius.com/albums/Incubus/Make-yourself" rel="noopener" data-api_path="/albums/26607"&gt;&lt;i&gt;Make Yourself&lt;/i&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Incubus/Morning-view" rel="noopener" data-api_path="/albums/80202"&gt;&lt;i&gt;Morning View&lt;/i&gt;&lt;/a&gt; evolved into a more Post-Grunge sound.&lt;/p&gt;\n\n&lt;p&gt; The Band’s success continued with the album &lt;i&gt;A Crow Left of the Murder…&lt;/i&gt; (2004). Their sixth studio album, &lt;a href="https://www.billboard.com/music/Incubus/chart-history/TLP" rel="noopener nofollow"&gt;Light Grenades, debuted at #1&lt;/a&gt;, their first and only #1 album.&lt;/p&gt;\n\n&lt;p&gt;Incubus\' first greatest hits album &lt;i&gt;Monuments and Melodies&lt;/i&gt; came out in June 2009. With their 2011 album &lt;i&gt;If Not Now, When?&lt;/i&gt; the band developed a more Pop-Rock style. The band released their eighth studio album, titled 8, on April 21, 2017.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bridgit-mendler', 'annotations': {'description': '&lt;p&gt;Bridgit Claire Mendler, known by just &lt;strong&gt;Bridgit Mendler&lt;/strong&gt; (born December 18, 1992), is an American singer-songwriter and actress.&lt;/p&gt;\n\n&lt;p&gt;She started her acting career in 2004, starring in the animated Indian film, &lt;a href="https://en.wikipedia.org/wiki/The_Legend_of_Buddha" rel="noopener nofollow"&gt;&lt;em&gt;The Legend of Buddha&lt;/em&gt;&lt;/a&gt;. In 2007, Mendler had an acting role as  Pamela in &lt;a href="https://en.wikipedia.org/wiki/Alice_Upside_Down" rel="noopener nofollow"&gt;&lt;em&gt;Alice Upside Down&lt;/em&gt;&lt;/a&gt;. Bridgit has had a lot of acting roles in TV shows and films, such as &lt;a href="https://goo.gl/exFnZw" rel="noopener nofollow"&gt;&lt;em&gt;The Clique&lt;/em&gt;&lt;/a&gt;(2008), &lt;a href="https://en.wikipedia.org/wiki/Labor_Pains" rel="noopener nofollow"&gt;&lt;em&gt;Labor Pains&lt;/em&gt;&lt;/a&gt;(2009) and &lt;a href="https://en.wikipedia.org/wiki/Wizards_of_Waverly_Place" rel="noopener nofollow"&gt;&lt;em&gt;Wizards of Waverly Place&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Mendler starred as the lead character in Disney Channel’s &lt;a href="https://en.wikipedia.org/wiki/Good_Luck_Charlie" rel="noopener nofollow"&gt;&lt;em&gt;Good Luck Charlie&lt;/em&gt;&lt;/a&gt; as Teddy Duncan. The show aired on &lt;a href="https://en.wikipedia.org/wiki/Disney_Channel" rel="noopener nofollow"&gt;&lt;em&gt;Disney Channel&lt;/em&gt;&lt;/a&gt; from April 4, 2010, to February 16, 2014.&lt;/p&gt;\n\n&lt;p&gt;In 2012, she released her debut LP, &lt;a href="https://genius.com/albums/Bridgit-mendler/Hello-my-name-is" rel="noopener" data-api_path="/albums/22851"&gt;&lt;em&gt;Hello My Name Is…&lt;/em&gt;&lt;/a&gt;. The album debuted at number 30 on the US Billboard 200 and has sold over 200,00 copies.&lt;/p&gt;\n\n&lt;p&gt;After starring as the lead role in &lt;em&gt;Good Luck Charlie&lt;/em&gt;, Bridgit didn’t release music until mid-2016. In 2016, she released her first single featuring Kaiydo, called &lt;a href="https://genius.com/Bridgit-mendler-atlantis-lyrics" rel="noopener" data-api_path="/songs/2844293"&gt;“Atlantis”&lt;/a&gt;. After releasing her first single, she released an EP, &lt;a href="https://genius.com/albums/Bridgit-mendler/Nemesis" rel="noopener" data-api_path="/albums/165240"&gt;&lt;em&gt;Nemesis&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In February 2017, Bridgit released (Temperamental Love ft. Devontée] (&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;a href="https://genius.com/Bridgit-mendler-temperamental-love-lyrics" data-api_path="/songs/2974122"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://images.genius.com/655cb62f35345ec7a2ca8325c5bf17de.1000x1000x1.jpg" width="1000" height="1000" data-animated="false"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Bridgit Mendler (Ft. Devontée) - Temperamental Love&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Genius&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Temperamental Love Lyrics: Uh, uh / Girl, you ain\'t the only one that\'s all alone / Hell, I\'m only seeing you on the phone / What\'s a FaceTime? I need face-to-face time / Calls being dropped, you think it\'s&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;) and in March released the collaboration with Pell called [Can’t Bring This Down] (&lt;div class="embedly_preview"&gt;\n&lt;a href="https://genius.com/Bridgit-mendler-cant-bring-this-down-lyrics" data-api_path="/songs/2992079"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://images.genius.com/bef7fcd513aaf3af1a7d07d647656dd3.1000x1000x1.jpg" width="1000" height="1000" data-animated="false"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Bridgit Mendler (Ft. Pell) - Can\'t Bring This Down&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Genius&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Can\'t Bring This Down Lyrics: Shake my head like this / You better stop it / Too high, too quick / You are the one / I never felt like this / If I\'m being honest / I can\'t bring this down / Yeah, yeah, yeah&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;). In late August, Mendler released [Diving ft. RKCB] (&lt;div class="embedly_preview"&gt;\n&lt;a href="https://genius.com/Bridgit-mendler-diving-lyrics" data-api_path="/songs/3178641"&gt;\n  &lt;div class="gray_container"&gt;\n    \n      &lt;div class="embedly_preview-thumb"&gt;\n        &lt;img src="https://images.genius.com/888383edb1102bfef48a6b66cfceb6b2.939x939x1.jpg" width="939" height="939" data-animated="false"&gt;\n      &lt;/div&gt;\n    \n    &lt;div class="embedly_preview-text"&gt;\n      &lt;span class="embedly_preview-title"&gt;Bridgit Mendler (Ft. RKCB) - Diving&lt;/span&gt;\n      \n        &lt;span class="embedly_preview-dash"&gt; — &lt;/span&gt;\n        &lt;span class="embedly_preview-provider"&gt;Genius&lt;/span&gt;\n      \n      \n        &lt;div class="embedly_preview-description"&gt;Diving Lyrics: There was a time that / I still felt love now I / Don\'t know you, but I got a / Trail of thoughts / That keep us connected and blue / Now I\'m at the elevation from a / Different&lt;/div&gt;\n      \n    &lt;/div&gt;\n  &lt;/div&gt;\n&lt;/a&gt;\n&lt;/div&gt;) on the 5-year anniversary of Ready Or Not.\n\n&lt;p&gt;As of May 2018, Mendler is part of a graduate program at MIT and states that she will still release another album eventually.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rob-zombie', 'annotations': {'description': '&lt;p&gt;Rob Zombie (born Robert Bartleh Cummings; January 12, 1965) is an American musician, film director, screenwriter and film producer. Zombie rose to fame as a founding member of the heavy metal band &lt;a href="https://genius.com/artists/White-zombie" rel="noopener" data-api_path="/artists/165622"&gt;White Zombie&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Robert Zombie', 'Robert W. Zombie', 'Robert Wolfgang Zombie', 'Robert Cummings', 'Robert B. Cummings', 'Robert Bartleh Cummings']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Laura-branigan', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Laura Branigan&lt;/strong&gt; (1952–2004) was an American pop singer whose hits included such songs as “&lt;a href="https://genius.com/Laura-branigan-gloria-lyrics" rel="noopener" data-api_path="/songs/748588"&gt;Gloria&lt;/a&gt;” (1982), “&lt;a href="https://genius.com/Laura-branigan-solitaire-lyrics" rel="noopener" data-api_path="/songs/1309267"&gt;Solitaire&lt;/a&gt;” (1983), “&lt;a href="https://genius.com/Laura-branigan-how-am-i-supposed-to-live-without-you-lyrics" rel="noopener" data-api_path="/songs/1247235"&gt;How Am I Supposed to Live Without You&lt;/a&gt;” (1983), and “&lt;a href="https://genius.com/Laura-branigan-shattered-glass-lyrics" rel="noopener" data-api_path="/songs/2284872"&gt;Shattered Glass&lt;/a&gt;” (1987).&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/62a95c7bacaf06110343f0d361cb529c.736x743x1.jpg" alt="" width="736" height="743" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['Laura Ann Branigan']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sirah', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Sarah Mitchell', 'Sara Elizabeth Mitchell']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Billy-talent', 'annotations': {'description': '&lt;p&gt;Billy Talent is a Canadian punk rock band from Mississauga, Ontario. They formed in 1993, under the name Pezz, with &lt;a href="https://genius.com/artists/Benjamin-kowalewicz" rel="noopener" data-api_path="/artists/1086993"&gt;Benjamin Kowalewicz&lt;/a&gt; as the lead vocalist, &lt;a href="https://genius.com/artists/Ian-dsa" rel="noopener" data-api_path="/artists/160987"&gt;Ian D\'Sa&lt;/a&gt; on guitar, bassist Jon Gallant and drummer Aaron Solowoniuk. After changing their name to Billy Talent in 2001, they achieved mainstream success with their &lt;a href="https://genius.com/albums/Billy-talent/Billy-talent" rel="noopener" data-api_path="/albums/15576"&gt;first self-titled studio album&lt;/a&gt;, and have released 5 albums to date.&lt;/p&gt;\n\n&lt;p&gt;The band members met at the &lt;a href="https://en.wikipedia.org/w/index.php?title=Our_Lady_of_Mount_Carmel_Secondary_School" rel="noopener nofollow"&gt;Our Lady of Mount Carmel Secondary School&lt;/a&gt;, which they all attended, and the lineup has stayed the same ever since, though drummer Aaron Solowoniuk could not take part in the recording of the &lt;em&gt;&lt;a href="https://genius.com/albums/Billy-talent/Afraid-of-heights" rel="noopener" data-api_path="/albums/154750"&gt;Afraid of Heights&lt;/a&gt;&lt;/em&gt; album due to &lt;a href="http://www.cbc.ca/news/entertainment/billy-talent-aaron-solowoniuk-1.3405698" rel="noopener nofollow"&gt;complications from the multiple sclerosis&lt;/a&gt; he was diagnosed with in his mid-20s, being thus replaced by friend and fellow drummer &lt;a href="https://genius.com/artists/Jordan-hastings" rel="noopener" data-api_path="/artists/31259"&gt;Jordan Hastings&lt;/a&gt; from &lt;a href="https://genius.com/artists/Alexisonfire" rel="noopener" data-api_path="/artists/31263"&gt;Alexisonfire&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Pezz']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Muse', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.muse.mu/" rel="noopener nofollow"&gt;Muse&lt;/a&gt; is an English rock band from Teignmouth, Devon, consisting of &lt;a href="http://www.musewiki.org/Matthew_Bellamy" rel="noopener nofollow"&gt;Matthew Bellamy&lt;/a&gt; (guitarist, keyboardist, singer, songwriter, middle of the picture), &lt;a href="http://www.musewiki.org/Christopher_Wolstenholme" rel="noopener nofollow"&gt;Christopher Wolstenholme&lt;/a&gt; (bassist, background vocalist, to the left of the picture), and &lt;a href="http://www.musewiki.org/Dominic_Howard" rel="noopener nofollow"&gt;Dominic Howard&lt;/a&gt; (drummer, to the right of the picture). They often infuse classical piano and strings (and sometimes even choirs) with catchy guitar and piano hooks.&lt;/p&gt;\n\n&lt;p&gt;Muse is mostly known due to their alternative genre of music and also their &lt;a href="https://en.wikipedia.org/wiki/List_of_awards_and_nominations_received_by_Muse" rel="noopener nofollow"&gt;live performances&lt;/a&gt;.&lt;br&gt;\n&lt;a href="http://www.musewiki.org/Radiohead" rel="noopener nofollow"&gt;Some have compared Muse to other bands such as Radiohead&lt;/a&gt;; Though this analogy has faded during past years since Muse has changed its taste.&lt;/p&gt;\n\n&lt;p&gt;The band always has an Apocalyptic background theme in their albums; In every album, there is a different apocalyptic perspective. &lt;em&gt;&lt;a href="https://genius.com/Muse-showbiz-lyrics" rel="noopener" data-api_path="/songs/200054"&gt;Showbiz&lt;/a&gt;&lt;/em&gt; (Anxiety), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Origin-of-symmetry" rel="noopener" data-api_path="/albums/21027"&gt;Origin of Symmetry&lt;/a&gt;&lt;/em&gt; (Mental Disorder), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Absolution" rel="noopener" data-api_path="/albums/18003"&gt;Absolution&lt;/a&gt;&lt;/em&gt; (Religion and atheism), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Black-holes-and-revelations" rel="noopener" data-api_path="/albums/18443"&gt;Black Holes and Revelations&lt;/a&gt;&lt;/em&gt; (Alien’s Attack), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/The-resistance" rel="noopener" data-api_path="/albums/11837"&gt;The Resistance&lt;/a&gt;&lt;/em&gt; (Mind Control), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/The-2nd-law" rel="noopener" data-api_path="/albums/20776"&gt;The 2nd Law&lt;/a&gt;&lt;/em&gt; (The 2nd Law of thermodynamics and the world moving toward destruction – Entropy), &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Drones" rel="noopener" data-api_path="/albums/121389"&gt;Drones&lt;/a&gt;&lt;/em&gt; (War) and &lt;em&gt;&lt;a href="https://genius.com/albums/Muse/Simulation-theory" rel="noopener" data-api_path="/albums/403783"&gt;Simulation Theory&lt;/a&gt;&lt;/em&gt; (Life is a simulation and we should escape this fragile world and move toward the bigger picture).&lt;/p&gt;\n\n&lt;p&gt;Their official website is &lt;a href="http://muse.mu/" rel="noopener nofollow"&gt;muse.mu&lt;/a&gt;.&lt;br&gt;\nFor more information about the band, check out &lt;a href="http://musewiki.org/" rel="noopener nofollow"&gt;musewiki.org&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Collective-soul', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/David-bowie', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://www.davidbowie.com/" rel="noopener nofollow"&gt;David Bowie&lt;/a&gt; (1947 – 2016) was a British musician, and one of the most iconic rock stars with a widely diverse career where he frequently changed his appearance and musical style, resulting in an acclaimed  discography comparable to other stalwarts such as &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bob-dylan" rel="noopener" data-api_path="/artists/181"&gt;Bob Dylan&lt;/a&gt;. In 1966 David Robert Jones chose the surname “Bowie” (as in a Bowie knife, or a Jagger) to cut out any association with teen idol &lt;a href="https://genius.com/artists/Davy-jones" rel="noopener" data-api_path="/artists/386169"&gt;Davy Jones&lt;/a&gt;. Enduring many early missteps, his music had a seminal lift-off with &lt;a href="https://genius.com/David-bowie-space-oddity-lyrics" rel="noopener" data-api_path="/songs/112817"&gt;“Space Oddity”&lt;/a&gt;, used in the BBC’s coverage of the 1969 &lt;a href="http://www.telegraph.co.uk/news/science/space/5871370/Apollo-11-moon-landing-Moon-music.html" rel="noopener nofollow"&gt;Apollo 11 moon landing&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The single rose to #5 in the UK charts as a result of his Top of the Pops performance.  The sci-fi rubric of the song about a fictional character, Major Tom, foreshadowed his future 1972 breakthrough.  In the meantime, Bowie remained a cult figure. 1971’s landmark album, &lt;a href="https://genius.com/albums/David-bowie/Hunky-dory" rel="noopener" data-api_path="/albums/24468"&gt;&lt;em&gt;Hunky Dory&lt;/em&gt;&lt;/a&gt; went largely unnoticed, despite being his first Major RCA release.&lt;/p&gt;\n\n&lt;p&gt;By early 1972, Bowie not only commanded notice, he set the plaform(s) for a genre.  His alter-ego, an androgynous alien that dazzled and shocked, did not mask the brilliance of his musical acumen: it put the public spotlight on it.  Cut from the punk rock performance debauchery of &lt;a href="https://genius.com/artists/Iggy-pop" rel="noopener" data-api_path="/artists/21273"&gt;Iggy Pop&lt;/a&gt; with the alternative underground, aloof artistry of &lt;a href="https://genius.com/artists/Lou-reed" rel="noopener" data-api_path="/artists/13277"&gt;Lou Reed&lt;/a&gt;, Ziggy Stardust was the main-man-alien lead in his conceptual &lt;a href="https://genius.com/albums/David-bowie/The-rise-and-fall-of-ziggy-stardust-and-the-spiders-from-mars" rel="noopener" data-api_path="/albums/18495"&gt;breakthrough album&lt;/a&gt;, and the public persona which haunted him beyond Ziggy’s expiration date.  Ziggy’s “fall” in the plot of the album’s theme took on an ambiguous direction, which drove &lt;a href="https://genius.com/albums/David-bowie/alladin-sane" rel="noopener"&gt;&lt;em&gt;Aladdin Sane&lt;/em&gt;&lt;/a&gt;’s zigzagging broader musical strokes without a conceptual framework.  And yet it framed, over time, the penultimate image of Ziggy, as an icon, emblem, fashion-plate, rock-saint, emoji, etc.&lt;/p&gt;\n\n&lt;p&gt;Bowie used his new-found popularity to move to America, and dabble with new musical directions and cocaine. &lt;a href="https://genius.com/albums/David-bowie/diamond-dogs" rel="noopener" data-api_path="/albums/46048"&gt;&lt;em&gt;Diamond Dogs&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/David-bowie/young-americans" rel="noopener" data-api_path="/albums/76501"&gt;&lt;em&gt;Young Americans&lt;/em&gt;&lt;/a&gt; continue to divide critics, but &lt;a href="https://genius.com/albums/David-bowie/station-to-station" rel="noopener" data-api_path="/albums/32130"&gt;&lt;em&gt;Station To Station&lt;/em&gt;&lt;/a&gt; found Bowie at a new creative peak, despite escalating drug use and related health issues.&lt;/p&gt;\n\n&lt;p&gt;Moving back to Europe helped Bowie reach even greater musical heights. He recorded his iconic “Berlin Trilogy” – &lt;a href="https://genius.com/albums/David-bowie/low" rel="noopener" data-api_path="/albums/28910"&gt;&lt;em&gt;Low&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/heroes" rel="noopener" data-api_path="/albums/28200"&gt;&lt;em&gt;“Heroes”&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/David-bowie/Lodger" rel="noopener" data-api_path="/albums/76513"&gt;&lt;em&gt;Lodger&lt;/em&gt;&lt;/a&gt;, with &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; and &lt;a href="https://genius.com/artists/Tony-visconti" rel="noopener" data-api_path="/artists/37268"&gt;Tony Visconti&lt;/a&gt; (despite the name, only &lt;em&gt;Heroes&lt;/em&gt; was recorded in Berlin), and produced Iggy Pop’s first two solo albums. This was followed by the hard-rocking &lt;a href="https://genius.com/albums/David-bowie/Scary-monsters-and-super-creeps" rel="noopener" data-api_path="/albums/76520"&gt;&lt;em&gt;Scary Monsters (And Super Creeps)&lt;/em&gt;&lt;/a&gt;, and disco-influenced &lt;a href="https://genius.com/albums/David-bowie/Let-s-dance" rel="noopener" data-api_path="/albums/26657"&gt;&lt;em&gt;Let’s Dance&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Bowie entered a period of critical apathy during the 1980s, as albums like &lt;a href="https://genius.com/albums/David-bowie/Tonight" rel="noopener" data-api_path="/albums/76500"&gt;&lt;em&gt;Tonight&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/David-bowie/Never-let-me-down" rel="noopener" data-api_path="/albums/76508"&gt;&lt;em&gt;Never Let Me Down&lt;/em&gt;&lt;/a&gt; fell relatively flat. These were his &lt;a href="https://genius.com/artists/Tin-machine" rel="noopener" data-api_path="/artists/359829"&gt;Tin Machine&lt;/a&gt; days, and they paved the way for a renaissance of huge proportions, with albums such as &lt;a href="https://genius.com/albums/David-bowie/1-outside" rel="noopener" data-api_path="/albums/76519"&gt;&lt;em&gt;1. Outside&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/Earthling" rel="noopener" data-api_path="/albums/76522"&gt;&lt;em&gt;Earthling&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/David-bowie/Heathen" rel="noopener" data-api_path="/albums/47864"&gt;&lt;em&gt;Heathen&lt;/em&gt;&lt;/a&gt;, and &lt;a href="https://genius.com/albums/David-bowie/Reality" rel="noopener" data-api_path="/albums/76523"&gt;&lt;em&gt;Reality&lt;/em&gt;&lt;/a&gt; reclaiming his status as a number one pop star. Radio silence then ensued for much of the 2000s, until he surprisingly issued 2013’s &lt;a href="https://genius.com/albums/David-bowie/The-next-day" rel="noopener" data-api_path="/albums/26468"&gt;&lt;em&gt;The Next Day&lt;/em&gt;&lt;/a&gt;, recorded in secret and released to critical acclaim.&lt;/p&gt;\n\n&lt;p&gt;David Bowie passed away on January 10, 2016, due to cancer, two days after his 69th birthday and the release of his final album, &lt;a href="https://genius.com/albums/David-bowie/Blackstar" rel="noopener" data-api_path="/albums/138144"&gt;&lt;em&gt;Blackstar&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['David R. Jones', 'Ziggy Stardust', 'David Robert Jones']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-temper-trap', 'annotations': {'description': '&lt;p&gt;The Temper Trap is an Australian indie rock band that formed in 2005. The core members are Dougy Mandagi on vocals, Jonathon Aherne on bass guitar, Toby Dundas on drums, Lorenzo Sillitto on lead guitar and Joseph Greer on keyboards and guitar.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ellie-goulding', 'annotations': {'description': '&lt;p&gt;Elena Jane “Ellie” Goulding (born 30 December 1986) – is an English singer-songwriter. In 2010, she became the second artist to both &lt;a href="http://news.bbc.co.uk/1/hi/entertainment/8442389.stm" rel="noopener nofollow"&gt;top the BBC’s annual Sound of… poll&lt;/a&gt; and win &lt;a href="http://www.brits.co.uk/britstv/2010-critics-choice-ellie-goulding" rel="noopener nofollow"&gt;the Critics\' Choice Award at the Brit Awards&lt;/a&gt; in the same year, following &lt;a href="https://genius.com/artists/Adele" rel="noopener" data-api_path="/artists/2300"&gt;Adele’s&lt;/a&gt; win of both in 2008. Originally her music incorporated elements of folk, pop, electronica, and folktronica.&lt;/p&gt;\n\n&lt;p&gt;In July 2009, Goulding signed with Polydor Records, and released her debut EP &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/An-introduction-to-ellie-goulding" rel="noopener" data-api_path="/albums/177255"&gt;An Introduction to Ellie Goulding&lt;/a&gt;&lt;/em&gt;, later that year. Her debut single, &lt;a href="https://genius.com/Ellie-goulding-under-the-sheets-lyrics" rel="noopener" data-api_path="/songs/157218"&gt;“Under The Sheets”&lt;/a&gt; was then released in November.&lt;/p&gt;\n\n&lt;p&gt;In 2010 Goulding recorded and released her debut record &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Lights" rel="noopener" data-api_path="/albums/34852"&gt;Lights&lt;/a&gt;&lt;/em&gt;, which spawned four charting singles in the UK, the biggest of which “&lt;a href="https://genius.com/Ellie-goulding-starry-eyed-lyrics" rel="noopener" data-api_path="/songs/52959"&gt;Starry Eyes&lt;/a&gt;” peaked at #4 in the UK and charted in many European countries and Australia.&lt;/p&gt;\n\n&lt;p&gt;At the end of the year the album’s reissue &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Bright-lights" rel="noopener" data-api_path="/albums/18640"&gt;Bright Lights&lt;/a&gt;&lt;/em&gt; was released, and spawned two singles: &lt;a href="https://genius.com/Ellie-goulding-lights-lyrics" rel="noopener" data-api_path="/songs/79697"&gt;“Lights”&lt;/a&gt; and a cover of &lt;a href="https://genius.com/artists/Elton-john" rel="noopener" data-api_path="/artists/560"&gt;Elton John’s&lt;/a&gt; “&lt;a href="https://genius.com/Ellie-goulding-your-song-lyrics" rel="noopener" data-api_path="/songs/198880"&gt;Your Song&lt;/a&gt;.” The former of which propelled Goulding into international stardom after becoming a sleeper hit in the United States, eventually peaking at #2 after almost a year of the song charting.&lt;/p&gt;\n\n&lt;p&gt;In 2012, Goulding’s sophomore record &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Halcyon" rel="noopener" data-api_path="/albums/20565"&gt;Halcyon&lt;/a&gt;&lt;/em&gt; was released, featuring lead single “&lt;a href="https://genius.com/Ellie-goulding-anything-could-happen-lyrics" rel="noopener" data-api_path="/songs/85737"&gt;“Anything Could Happen”&lt;/a&gt;, which was another U.S. hit.&lt;/p&gt;\n\n&lt;p&gt;It’s re-issue, &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Halcyon-days" rel="noopener" data-api_path="/albums/42358"&gt;Halcyon Days&lt;/a&gt;&lt;/em&gt; saw critical acclaim for Goulding’s happier lyrical content and musical exploration into EDM. Its lead single, &lt;a href="https://genius.com/Ellie-goulding-burn-lyrics" rel="noopener" data-api_path="/songs/183325"&gt;“Burn”&lt;/a&gt; was a top 20 hit in the United States, becoming a mega-success worldwide.&lt;/p&gt;\n\n&lt;p&gt;Goulding’s vocal connection with EDM has been explored through collaborations with &lt;a href="https://genius.com/artists/Calvin-harris" rel="noopener" data-api_path="/artists/2069"&gt;Calvin Harris&lt;/a&gt;, on hits “&lt;a href="https://genius.com/Calvin-harris-i-need-your-love-lyrics" rel="noopener" data-api_path="/songs/154286"&gt;I Need Your Love&lt;/a&gt;,” and “&lt;a href="https://genius.com/Calvin-harris-outside-lyrics" rel="noopener" data-api_path="/songs/546962"&gt;Outside&lt;/a&gt;”, as well as songs with &lt;a href="https://genius.com/Major-lazer-powerful-lyrics" rel="noopener" data-api_path="/songs/1363351"&gt;Major Lazer&lt;/a&gt;, &lt;a href="https://genius.com/Clean-bandit-mama-lyrics" rel="noopener" data-api_path="/songs/3983995"&gt;Clean Bandit&lt;/a&gt;, &lt;a href="https://genius.com/Zedd-and-lucky-date-fall-into-the-sky-lyrics" rel="noopener" data-api_path="/songs/342832"&gt;Zedd&lt;/a&gt;, &lt;a href="https://genius.com/Ellie-goulding-stay-awake-lyrics" rel="noopener" data-api_path="/songs/198928"&gt;Madeon&lt;/a&gt;, and &lt;a href="https://genius.com/Kygo-and-ellie-goulding-first-time-lyrics" rel="noopener" data-api_path="/songs/3066143"&gt;Kygo&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The beginning of 2015 began with Goulding releasing her biggest hit to date, &lt;a href="https://genius.com/Ellie-goulding-love-me-like-you-do-lyrics/" rel="noopener" data-api_path="/songs/665379"&gt;“Love Me Like You Do”&lt;/a&gt;“ for the &lt;a href="https://genius.com/albums/Various-artists/Fifty-shades-of-grey-original-motion-picture-soundtrack" rel="noopener" data-api_path="/albums/118063"&gt;50 Shades of Grey Soundtrack&lt;/a&gt;. The song was acclaimed by critics and peaked at #1 around the world and #3 in the United States. The song garnered her a Best Pop Solo Performance Grammy Nomination.&lt;/p&gt;\n\n&lt;p&gt;Goulding later re-upped on her pop game with 2015’s &lt;em&gt;&lt;a href="https://genius.com/albums/Ellie-goulding/Delirium" rel="noopener" data-api_path="/albums/131217"&gt;Delirium&lt;/a&gt;&lt;/em&gt;. The album incorporated Goulding’s affiliation with club bangers and explored a poppier sound than her original albums. The album’s lead single &lt;a href="https://genius.com/Ellie-goulding-on-my-mind-lyrics/" rel="noopener" data-api_path="/songs/2308425"&gt;“On My Mind”&lt;/a&gt; became an international success, and received media attention as speculated to be an answer song to &lt;a href="https://genius.com/artists/Ed-sheeran" rel="noopener" data-api_path="/artists/12418"&gt;Ed Sheeran’s&lt;/a&gt; “&lt;a href="https://genius.com/Ed-sheeran-dont-lyrics" rel="noopener" data-api_path="/songs/403031"&gt;Don’t.&lt;/a&gt;” The album’s third single, &lt;a href="https://genius.com/%28/Ellie-goulding-something-in-the-way-you-move-lyrics/" rel="noopener"&gt;“Something In The Way You Move”&lt;/a&gt; was another hit, peaking at #43 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;2018 saw Goulding prepare for her fourth record. “&lt;a href="https://genius.com/Ellie-goulding-and-diplo-close-to-me-lyrics" rel="noopener" data-api_path="/songs/4037296"&gt;Close To Me&lt;/a&gt;” with &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt; and featuring &lt;a href="https://genius.com/artists/Swae-lee" rel="noopener" data-api_path="/artists/209139"&gt;Swae Lee&lt;/a&gt; saw success, peaking at #24 in the U.S, and she followed these up with 2019’s “&lt;a href="https://genius.com/Ellie-goulding-flux-lyrics" rel="noopener" data-api_path="/songs/4202475"&gt;Flux&lt;/a&gt;” and “&lt;a href="https://genius.com/Ellie-goulding-sixteen-lyrics" rel="noopener" data-api_path="/songs/4427896"&gt;Sixteen&lt;/a&gt;” which are assumed to be album singles.&lt;/p&gt;', 'alternate_names': ['Elena Jane Goulding']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alok-zeeba-and-bruno-martini', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-bravery', 'annotations': {'description': '&lt;p&gt;Formed in New York City in 2003, The Bravery was a post-punk revival group consisting of lead vocalist Sam Endicott, guitarist Michael Zakarin, keyboardist John Conway, bassist Mike Hindert and drummer Anthony Burulcich. The band released three dance-rock albums before “taking a hiatus” in 2012. Currently, the group has no plans to get back together.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ace-of-base', 'annotations': {'description': '&lt;p&gt;Ace of Base Is a Swedish pop group who scored a string of international hits in the early-to-mid 1990s. They’re best known for their upbeat reggae-tinged dance-pop songs, including &lt;a href="https://genius.com/Ace-of-base-the-sign-lyrics" rel="noopener" data-api_path="/songs/120213"&gt;“The Sign”&lt;/a&gt;, which was the biggest hit of 1994, according to The Billboard US chart.&lt;/p&gt;\n\n&lt;p&gt;The group’s core lineup consisted of producers &lt;a href="https://genius.com/artists/Ulf-ekberg" rel="noopener" data-api_path="/artists/669002"&gt;Ulf “Buddha” Ekberg&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jonas-berggren" rel="noopener" data-api_path="/artists/669001"&gt;Jonas “Joker” Berggren&lt;/a&gt;, along with singers &lt;a href="https://genius.com/artists/Malin-berggren" rel="noopener" data-api_path="/artists/1212896"&gt;Malin “Linn” Berggren&lt;/a&gt; and &lt;a href="https://genius.com/artists/Jenny-berggren" rel="noopener" data-api_path="/artists/352130"&gt;Jenny Berggren&lt;/a&gt; (the three Berggrens are siblings). In the early ’90s, their debut single &lt;a href="https://genius.com/Ace-of-base-wheel-of-fortune-lyrics" rel="noopener" data-api_path="/songs/1674536"&gt;“Wheel of Fortune”&lt;/a&gt; became a hit in Scandinavia, which led to the group connecting with producer &lt;a href="https://genius.com/artists/Denniz-pop" rel="noopener" data-api_path="/artists/39124"&gt;Denniz Pop&lt;/a&gt; (who would later spawn the careers Backstreet Boys, Britney Spears, and Max Martin).&lt;/p&gt;\n\n&lt;p&gt;After the group’s 1992 debut &lt;a href="https://genius.com/albums/Ace-of-base/Happy-nation" rel="noopener" data-api_path="/albums/28819"&gt;&lt;em&gt;Happy Nation&lt;/em&gt;&lt;/a&gt; became an international hit (going on to sell 21 million copies), it was re-released in North America in 1993 as &lt;a href="https://genius.com/albums/Ace-of-base/The-sign" rel="noopener" data-api_path="/albums/148640"&gt;&lt;em&gt;The Sign&lt;/em&gt;&lt;/a&gt;. Three singles from the album became top five pop hits in the US, including &lt;a href="https://genius.com/Ace-of-base-all-that-she-wants-lyrics" rel="noopener" data-api_path="/songs/434050"&gt;“All That She Wants”&lt;/a&gt; (#2), &lt;a href="https://genius.com/Ace-of-base-dont-turn-around-lyrics" rel="noopener" data-api_path="/songs/1405061"&gt;“Don’t Turn Around”&lt;/a&gt; (#4), and “The Sign” (#1 for six weeks). &lt;em&gt;The Sign&lt;/em&gt; went on to sell over 10 million copies.&lt;/p&gt;\n\n&lt;p&gt;The group’s 1995 album &lt;a href="https://genius.com/albums/Ace-of-base/The-bridge" rel="noopener" data-api_path="/albums/148660"&gt;&lt;em&gt;The Bridge&lt;/em&gt;&lt;/a&gt; sold 7 million copies worldwide, including 2 million in the US. The album’s most successful single was &lt;a href="https://genius.com/Ace-of-base-beautiful-life-lyrics" rel="noopener" data-api_path="/songs/1256263"&gt;“Beautiful Life,”&lt;/a&gt; which topped the US Dance chart and reached #15 on the Hot 100.&lt;/p&gt;\n\n&lt;p&gt;Following the formal departure of singer Linn in 2007, the band performed a series of concerts as a trio in Europe and Asia between 2007 and 2009. Jenny Berggren said in November 2009 that she would be taking an indefinite leave of absence from the band to focus on a solo career. In 2009, Jonas and Ulf recruited two new female vocalists, Clara Hagman and Julia Williamson, and released &lt;a href="https://genius.com/albums/Ace-of-base/The-golden-ratio" rel="noopener" data-api_path="/albums/237379"&gt;&lt;em&gt;The Golden Ratio&lt;/em&gt;&lt;/a&gt; in September 2010.&lt;/p&gt;\n\n&lt;p&gt;In 2012, it was confirmed that Clara Hagman and Julia Williamson had left the group. The group released the compilation &lt;a href="https://genius.com/albums/Ace-of-base/Hidden-gems" rel="noopener" data-api_path="/albums/148662"&gt;&lt;em&gt;Hidden Gems&lt;/em&gt;&lt;/a&gt;, featuring previously unreleased tracks and deep cuts. The band is currently on hiatus indefinitely, with the members publicly stating that a reunion is unlikely.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Silverchair', 'annotations': {'description': '&lt;p&gt;Silverchair were an alternative rock band from &lt;a href="http://en.wikipedia.org/wiki/Newcastle,_New_South_Wales" rel="noopener nofollow"&gt;Newcastle&lt;/a&gt; in New South Wales, Australia, who released their first album, &lt;a href="https://genius.com/albums/Silverchair/Frogstomp" rel="noopener" data-api_path="/albums/115213"&gt;&lt;em&gt;Frogstomp&lt;/em&gt;&lt;/a&gt; when they were &lt;strong&gt;only 15 years old&lt;/strong&gt;. Originally named Innocent Criminals, they changed their name to one influenced by &lt;a href="https://genius.com/artists/C-s-lewis" rel="noopener" data-api_path="/artists/41113"&gt;C.S. Lewis\'&lt;/a&gt; novel, &lt;a href="http://en.wikipedia.org/wiki/The_Silver_Chair" rel="noopener nofollow"&gt;The Silver Chair&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Childhood friends who went to the same school, Silverchair came to public prominence after winning an Australian national TV competition, to which they submitted the demo of &lt;a href="https://genius.com/Silverchair-tomorrow-lyrics" rel="noopener" data-api_path="/songs/586400"&gt;“Tomorrow”&lt;/a&gt;.  The prize?  A professionally recorded song and music video for “Tomorrow”.&lt;/p&gt;\n\n&lt;p&gt;The record companies lapped it up and a bidding war began; Murmur Records, a subsidiary of Sony, signed Silverchair to a three album deal.  It was a clever move: “Tomorrow” stayed at &lt;a href="http://australian-charts.com/showitem.asp?interpret=Silverchair&amp;amp;titel=Tomorrow&amp;amp;cat=s" rel="noopener nofollow"&gt;number 1 on the Australian ARIA singles chart for 6 straight weeks&lt;/a&gt; , while the album that followed &lt;a href="https://genius.com/albums/Silverchair/Frogstomp" rel="noopener" data-api_path="/albums/115213"&gt;&lt;em&gt;Frogstomp&lt;/em&gt;&lt;/a&gt; debuted at &lt;a href="http://australian-charts.com/showitem.asp?interpret=Silverchair&amp;amp;titel=Frogstomp&amp;amp;cat=a" rel="noopener nofollow"&gt;number 1 on the Australian charts, remaining there for 3 weeks&lt;/a&gt;. The album eventually went 9x Platinum in Australia, 6x Platinum in New Zealand, and triple Platinum in both the USA and Canada.  &lt;em&gt;Frogstomp&lt;/em&gt; was also a critical success, winning five awards at the ARIA awards in 1995.  This is even more incredible when one takes into consideration that the album was recorded in 9 days.  The band followed this all up with tours supporting the &lt;a href="https://genius.com/artists/Red-hot-chili-peppers" rel="noopener" data-api_path="/artists/1460"&gt;Red Hot Chilli Peppers&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-ramones" rel="noopener" data-api_path="/artists/765"&gt;The Ramones&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;While their follow ups to &lt;em&gt;Frogstomp&lt;/em&gt; did not achieve its impressive sales, they were also major commercial successes:&lt;br&gt;\n&lt;a href="http://.../" rel="noopener nofollow"&gt;&lt;em&gt;Freak Show&lt;/em&gt;&lt;/a&gt; debuted at number 1 on the ARIA charts, and both it and &lt;a href="https://genius.com/albums/Silverchair/Neon-ballroom" rel="noopener" data-api_path="/albums/29624"&gt;Neon Ballroom&lt;/a&gt; achieved 5x platinum status in Australia, double platinum in New Zealand and platinum in both Canada and the USA.  Fourth album, &lt;a href="http://.../" rel="noopener nofollow"&gt;Diorama&lt;/a&gt; also won 5 awards at the ARIA, whilst their fifth and final album &lt;a href="http://.../" rel="noopener nofollow"&gt;&lt;em&gt;Young Modern&lt;/em&gt;&lt;/a&gt; won 6 ARIA awards.  &lt;em&gt;Young Modern&lt;/em&gt; was their 5th consecutive album to enter the charts at number 1, making them the first artist to accomplish this.&lt;/p&gt;\n\n&lt;p&gt;The band went into &lt;a href="http://chairpage.com/news/item/346/" rel="noopener nofollow"&gt;indefinite hibernation in 2011&lt;/a&gt;.  After 20 years of playing together, they were one of Australia’s most successful music exports and one of the few bands outside of Seattle to effectively emulate &lt;strong&gt;and continue&lt;/strong&gt; the success of the grunge/post-grunge sound.&lt;/p&gt;\n\n&lt;p&gt;List of band members:&lt;/p&gt;\n\n&lt;p&gt;Daniel Johns (guitar, lead vocals) 1992 – 2011&lt;br&gt;\nChris Joannou (bass guitar) 1992 – 2011&lt;br&gt;\nBen Gillies (drums) 1992 – 2011&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-police', 'annotations': {'description': '&lt;p&gt;The Police were an English rock band formed in London in 1977. For the majority of their history, the band consisted of &lt;a href="https://genius.com/artists/Sting" rel="noopener" data-api_path="/artists/679"&gt;Sting&lt;/a&gt; (lead vocals, bass), &lt;a href="https://genius.com/artists/Andy-summers" rel="noopener" data-api_path="/artists/54960"&gt;Andy Summers&lt;/a&gt; (guitar) and &lt;a href="https://genius.com/artists/Stewart-copeland" rel="noopener" data-api_path="/artists/54959"&gt;Stewart Copeland&lt;/a&gt; (drums). The Police became globally popular in the late 1970s and are generally regarded as one of the first new wave groups to achieve mainstream success, playing a style of rock that was influenced by punk, reggae, and jazz.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/John-newman', 'annotations': {'description': '&lt;p&gt;John Newman is an English soul singer with an unique voice. With a UK #1 thanks to &lt;a href="https://genius.com/John-newman-love-me-again-lyrics" rel="noopener" data-api_path="/songs/207291"&gt;“Love Me Again”&lt;/a&gt;, it’s sure that he’ll see some success in the United States.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jack-u', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Skrillex" rel="noopener" data-api_path="/artists/15496"&gt;Skrillex&lt;/a&gt; x &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Jack Ü is a duo consisting of long time friends &lt;a href="https://genius.com/artists/Skrillex" rel="noopener" data-api_path="/artists/15496"&gt;Skrillex&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt;. The project was first conceived in 2013. After playing live shows together for a long while prior, Jack Ü released their first official single “&lt;a href="https://genius.com/Jack-u-take-u-there-lyrics" rel="noopener" data-api_path="/songs/488007"&gt;Take Ü There&lt;/a&gt;” featuring vocals from Kiesza on September 17, 2014. Once the single had gained traction, on February 3, 2015, they announced that they would be working with &lt;a href="https://genius.com/artists/Missy-elliott" rel="noopener" data-api_path="/artists/1529"&gt;Missy Elliott&lt;/a&gt; on a remix of “&lt;a href="https://genius.com/Jack-u-take-u-there-missy-elliott-remix-lyrics" rel="noopener" data-api_path="/songs/707670"&gt;Take Ü There&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;The duo’s debut album “&lt;a href="https://genius.com/albums/Jack-u/Skrillex-and-diplo-present-jack-u" rel="noopener" data-api_path="/albums/120512"&gt;Skrillex and Diplo Present Jack Ü&lt;/a&gt;” was then released on 27 February 2015 and was met with overwhelmingly positive reviews whilst also winning a Grammy for Best Dance/Electronica Album &amp;amp; Best Dance Recording for &lt;a href="https://genius.com/Jack-u-where-are-u-now-lyrics" rel="noopener" data-api_path="/songs/713548"&gt;Where Are Ü Now&lt;/a&gt; with Pop musician &lt;a href="https://genius.com/artists/Justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The group is currently thought to be on a hiatus, although not disbanded completely. Although being officially released as a solo &lt;a href="https://genius.com/artists/diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt; record, &lt;a href="https://genius.com/Diplo-get-it-right-lyrics" rel="noopener" data-api_path="/songs/3314337"&gt;Get It Right&lt;/a&gt; features co-production from the other side of the duo in &lt;a href="https://genius.com/artists/Skrillex" rel="noopener" data-api_path="/artists/15496"&gt;Skrillex&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Skrillex &amp; Diplo']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Alt-j', 'annotations': {'description': '&lt;p&gt;alt-J is an English indie rock band that consists of vocalist and guitarist Joe Newman, keyboardist and bassist Gus Unger-Hamilton and drummer Thom Green. Gwil Sainsbury was the band’s bassist before &lt;a href="http://www.nme.com/news/alt-j/74837" rel="noopener nofollow"&gt;leaving the band in early 2014&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Formed at Leeds University and signed to a label in Cambridge, UK, the band originally made songs on Garageband before releasing them under the pseudonym &lt;em&gt;∆&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;∆’s name takes a little explaining. Pronounced &lt;em&gt;alt-J&lt;/em&gt;, the delta sign is inserted when you press alt and J on a Mac keyboard.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Cardi-b', 'annotations': {'description': '&lt;p&gt;Born on October 11, 1992, and raised in The Bronx, New York, Belcalis Marlenis Almánzar—under the stage name Cardi B—is a rapper and TV personality known for her friendly attitude. From 2015 to 2017 she starred on the TV show &lt;a href="http://www.imdb.com/title/tt1718437/" rel="noopener nofollow"&gt;&lt;em&gt;Love &amp;amp; Hip Hop&lt;/em&gt;&lt;/a&gt;, on which she landed a role after she became popular on the internet due to her personality and stripping endeavors. Following her departure from the series, she attained success in music with her chart-topping summer smash &lt;a href="https://genius.com/Cardi-b-bodak-yellow-lyrics" rel="noopener" data-api_path="/songs/3095483"&gt;“Bodak Yellow.”&lt;/a&gt; She is married to &lt;a href="https://genius.com/artists/Migos" rel="noopener" data-api_path="/artists/44080"&gt;Migos&lt;/a&gt; member &lt;a href="https://genius.com/artists/Offset" rel="noopener" data-api_path="/artists/88813"&gt;Offset&lt;/a&gt;. Cardi also gave birth to Kulture Kiari Cephus, Offset’s fourth child and Cardi’s first.&lt;/p&gt;\n\n&lt;p&gt;Cardi began her music career in 2015 and released &lt;a href="https://genius.com/albums/Cardi-b/Gangsta-bitch-music-vol-2" rel="noopener" data-api_path="/albums/325262"&gt;two installments&lt;/a&gt; of her &lt;a href="https://genius.com/albums/Cardi-b/Gangsta-bitch-music-vol-1" rel="noopener" data-api_path="/albums/569050"&gt;&lt;em&gt;Gangsta Bitch Music&lt;/em&gt;&lt;/a&gt; mixtapes series up until January 2017. The tapes went by relatively quietly but caught the attention of Atlantic Records, where &lt;a href="https://www.vibe.com/2017/03/cardi-b-atlantic-records/" rel="noopener nofollow"&gt;Cardi inked a deal&lt;/a&gt; in February of 2017. Shortly after, Cardi proved her worth when she entered the mainstream music scene with the release of her smash single “Bodak Yellow” on June 16, 2017. The single obtained the top spot on the &lt;em&gt;Billboard&lt;/em&gt; Hot 100, which marked the first time a female rapper achieved this since &lt;a href="https://genius.com/artists/Lauryn-hill" rel="noopener" data-api_path="/artists/448"&gt;Lauryn Hill&lt;/a&gt; did the same with &lt;a href="https://genius.com/Lauryn-hill-doo-wop-that-thing-lyrics" rel="noopener" data-api_path="/songs/822"&gt;“Doo Wop (That Thing)”&lt;/a&gt; in 1999. “Bodak Yellow” was certified 5x Multi-Platinum by the RIAA on February 28, 2018, for selling 5 million units in the US.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.billboard.com/articles/columns/hip-hop/8021967/cardi-b-offset-migos-relationship-timeline-engaged" rel="noopener nofollow"&gt;Speculations of a relationship&lt;/a&gt; between Cardi B and Offset arose in early 2017 after the two were repeatedly sighted together. On October 29, 2017, &lt;a href="https://www.billboard.com/articles/columns/hip-hop/8015031/cardi-b-migos-offset-engaged-powerhouse-philadelphia-bodak-yellow" rel="noopener nofollow"&gt;Offset proposed to Cardi&lt;/a&gt; on stage at a Philadelphia show. They have collaborated on what was at one point Cardi’s most popular single, &lt;a href="https://genius.com/Cardi-b-lick-remix-lyrics" rel="noopener" data-api_path="/songs/2992163"&gt;“Lick,”&lt;/a&gt; Migos\' &lt;a href="https://genius.com/Migos-nicki-minaj-and-cardi-b-motorsport-lyrics" rel="noopener" data-api_path="/songs/3291049"&gt;“MotorSport,”&lt;/a&gt; &lt;a href="https://genius.com/Quality-control-um-yea-lyrics" rel="noopener" data-api_path="/songs/3355240"&gt;“Um Yea,”&lt;/a&gt; and &lt;a href="https://genius.com/Cardi-b-drip-lyrics" rel="noopener" data-api_path="/songs/3626310"&gt;“Drip.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Following her engagement and the success of “Bodak Yellow,” Cardi released the follow-up single &lt;a href="https://genius.com/Cardi-b-bartier-cardi-lyrics" rel="noopener" data-api_path="/songs/3344378"&gt;“Bartier Cardi”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/21-savage" rel="noopener" data-api_path="/artists/430404"&gt;21 Savage&lt;/a&gt; just in time for Christmas. Cardi followed that up with features on the Multi-Platinum singles &lt;a href="https://genius.com/G-eazy-no-limit-lyrics" rel="noopener" data-api_path="/songs/3151905"&gt;“No Limit”&lt;/a&gt; with G-Eazy and A$AP Rocky, and &lt;a href="https://genius.com/Bruno-mars-finesse-remix-lyrics" rel="noopener" data-api_path="/songs/3411476"&gt;“Finesse (Remix)”&lt;/a&gt; with Bruno Mars. Cardi released her debut album, &lt;a href="https://genius.com/albums/Cardi-b/Invasion-of-privacy" rel="noopener" data-api_path="/albums/384474"&gt;&lt;em&gt;Invasion of Privacy&lt;/em&gt;&lt;/a&gt;, on April 6, 2018.&lt;/p&gt;\n\n&lt;p&gt;On January 2nd, 2018, Cardi B &lt;a href="https://www.billboard.com/articles/columns/chart-beat/8085800/cardi-b-the-beatles-ashanti-hot-100-top-10" rel="noopener nofollow"&gt;became the third artist (and first rapper)&lt;/a&gt; to have her first three &lt;em&gt;Billboard&lt;/em&gt; Hot 100 entries (“Bodak Yellow,” “No Limit,” and “MotorSport”) in the chart’s top 10 simultaneously, joining only &lt;a href="https://genius.com/artists/The-beatles" rel="noopener" data-api_path="/artists/586"&gt;The Beatles&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ashanti" rel="noopener" data-api_path="/artists/2675"&gt;Ashanti&lt;/a&gt; in achieving the feat.&lt;/p&gt;\n\n&lt;p&gt;She also became the first female rapper in history to achieve four #1 singles on the &lt;em&gt;Billboard&lt;/em&gt; Hot 100.&lt;/p&gt;', 'alternate_names': ['Belcalis Almánzar', 'Belcalis Marlenis Almánzar', 'Bacardi', 'Bardi']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/4-non-blondes', 'annotations': {'description': '&lt;p&gt;4 Non Blondes began in 1989 as four San Fransciso lesbians who built a local following &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;and got&lt;/a&gt; ‘a lot of press’ in the area, attracting a number of record labels who smelled a hit in their ballad “What’s Up?” – a song so powerful that bass player Christa Hillhouse actually &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;stopped having sex&lt;/a&gt; and ran down the hall when she first heard Linda Perry playing the song to express how much she liked it.&lt;/p&gt;\n\n&lt;p&gt;The band chose Interscope Records and recorded at a studio in Calabasas, California. During these sessions, drummer Wanda Day &lt;a href="https://en.slowradio.com/artists/4-non-blondes" rel="noopener nofollow"&gt;was fired&lt;/a&gt; due to drug problems (she later died in 1997) and guitarist Shaunna Hall left the band over differences with the album’s producer, who &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;told Day’s replacement&lt;/a&gt; “the record is not happening with your guitar player”.&lt;/p&gt;\n\n&lt;p&gt;In 1992, Interscope released “Dear Mr President” as the album’s first single. It found small success in the UK and reached the bottom of the top 40 in &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=Dear+Mr%2E+President&amp;amp;cat=s" rel="noopener nofollow"&gt;New Zealand&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;When “What’s Up?” was released as the second single, the band rocketed into international stardom. It &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=What%27s+Up%3F&amp;amp;cat=s" rel="noopener nofollow"&gt;topped the charts&lt;/a&gt; in seven countries, reached #2 in three more (including &lt;a href="http://www.officialcharts.com/artist/28984/4-non-blondes/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;) and peaked at #14 in the US, &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;making them&lt;/a&gt; the first openly lesbian group to reach the top 40 there.&lt;/p&gt;\n\n&lt;p&gt;“Spaceman” was the group’s third single. It &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=4+Non+Blondes&amp;amp;titel=Spaceman&amp;amp;cat=s" rel="noopener nofollow"&gt;reached the top 40&lt;/a&gt; in six countries overseas and would be their last to chart anywhere. “Drifting” was the album’s fourth and final single, aside from the &lt;a href="https://www.discogs.com/4-Non-Blondes-Superfly/release/7263997" rel="noopener nofollow"&gt;Spain-only release&lt;/a&gt; of “Superfly”.&lt;/p&gt;\n\n&lt;p&gt;Two more songs were released in 1994 on film soundtracks as the band began work on a follow-up album. However, Perry &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;began writing&lt;/a&gt; melancholy music in the direction of Pink Floyd’s &lt;em&gt;Dark Side of the Moon&lt;/em&gt;, the rest of the band wanted to continue making rock songs like “Superfly”, and the label &lt;a href="https://www.songfacts.com/facts/4-non-blondes/whats-up" rel="noopener nofollow"&gt;kept pressuring them&lt;/a&gt; to come up with “What’s Up, version 2”.&lt;/p&gt;\n\n&lt;p&gt;Perry left by the end of the year and released two solo albums on Interscope Records in 1996 and 1999. She claims to have &lt;a href="https://web.archive.org/web/20121028192212/http://www.sfbg.com/40/01/noise_miss_understood.html" rel="noopener nofollow"&gt;told her A&amp;amp;R rep&lt;/a&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“I will kill myself if you do not let me off this label. I am so unhappy with you guys. I will never write you another ‘What’s Up’, so why would you hold onto me?”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Perry got her wish and was released from Interscope due to poor sales of those solo albums. By then, she’d blown through all of the money she’d made from 4 Non Blondes. But three weeks after becoming broke, P!nk seeked her out and they began a lucrative songwriting partnership beginning with the Perry-penned #4 smash hit &lt;a href="https://genius.com/P-nk-get-the-party-started-lyrics" rel="noopener" data-api_path="/songs/195076"&gt;“Get The Party Started”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2011, Perry &lt;a href="https://www.rollingstone.com/music/music-news/linda-perry-forms-new-band-admits-she-never-liked-4-non-blondes-234661/" rel="noopener nofollow"&gt;told Rolling Stone&lt;/a&gt; she would not be performing “What’s Up?” or any other 4 Non Blonde songs with her new band Deep Dark Robot because she didn’t like &lt;em&gt;Bigger, Better, Faster, More&lt;/em&gt;:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I wasn’t really a big fan of my band. I didn’t like the record at all. ‘Drifting’ was the only song I loved. I did love ‘What’s Up?’ but I hated the production. When I heard our record for the first time I cried. It didn’t sound like me. It made me belligerent and a real asshole. I wanted to say, ‘We’re a fucking, bad-ass cool band. We’re not that fluffy polished bullshit that you’re listening to.’ It was really difficult.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rob-thomas', 'annotations': {'description': '&lt;p&gt;The lead singer of Alt-Rock band &lt;a href="https://genius.com/artists/Matchbox-twenty" rel="noopener" data-api_path="/artists/71892"&gt;Matchbox Twenty&lt;/a&gt;, best known for the 1999 hit &lt;a href="https://genius.com/Santana-smooth-lyrics" rel="noopener" data-api_path="/songs/114915"&gt;‘Smooth’&lt;/a&gt;, his collaboration with &lt;a href="https://genius.com/artists/Santana" rel="noopener" data-api_path="/artists/8439"&gt;Santana&lt;/a&gt;, has won a total of 3 Grammy Awards, provided vocals for 8 albums total and written songs for artists such as Mick Jagger and Pat Green.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Rob-thomas/Chip-tooth-smile" rel="noopener" data-api_path="/albums/505362"&gt;‘Chip Tooth Smile’&lt;/a&gt;, released April 2019, has been compared to Bruce Springsteen’s work in both sound and design, and peaked at 13 on Billboard 200.&lt;/p&gt;\n\n&lt;p&gt;Thomas has also founded the charity &lt;a href="https://www.sidewalkangelsfoundation.org/" rel="noopener nofollow"&gt;Sidewalk Angels&lt;/a&gt; with his wife Marisol, which provides funds for no-kill animal shelters and rescue organizations.&lt;/p&gt;', 'alternate_names': ['Robert K. Thomas', 'Robert Kelly Thomas']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Joan-jett-and-the-blackhearts', 'annotations': {'description': '&lt;p&gt;After splitting with &lt;a href="https://genius.com/artists/The-runaways" rel="noopener" data-api_path="/artists/37911"&gt;The Runaways&lt;/a&gt;, and releasing her first solo album, &lt;a href="https://genius.com/artists/Joan-jett" rel="noopener" data-api_path="/artists/63682"&gt;Joan Jett&lt;/a&gt; placed an ad in LA Weekly looking for bandmates. Gary Ryan, Eric Ambel, and Danny “Furious” O\'Brien joined her, creating the orginial Blackhearts lineup.&lt;br&gt;\nAfter their initial tour though, O\'Brien was replaced with Lee Crystal.&lt;/p&gt;\n\n&lt;p&gt;Early on, keeping the band afloat was not easy. Joan and producer &lt;a href="https://genius.com/artists/Kenny-laguna" rel="noopener" data-api_path="/artists/73857"&gt;Kenny Laguna&lt;/a&gt; struggled, sometimes selling copies of albums from the trunk of his car. Eventually unable to keep up with the demand for Joan Jett’s album, they signed with Boardwalk Records.&lt;/p&gt;\n\n&lt;p&gt;In 1981 the band released their first album together, &lt;a href="https://genius.com/albums/Joan-jett-and-the-blackhearts/I-love-rock-n-roll" rel="noopener" data-api_path="/albums/46351"&gt;&lt;em&gt;I Love Rock N Roll&lt;/em&gt;&lt;/a&gt;. The band’s line up has continued to change over the years.&lt;/p&gt;\n\n&lt;p&gt;To date the band has ten studio albums, with two additional albums released under just “Joan Jett.”&lt;br&gt;\nTheir current line up is Joan Jett, Dougie Needles, Hal B. Selzer, and Thommy Price.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Rod-stewart', 'annotations': {'description': '&lt;p&gt;A legend in the rock-n-roll genre, Roderick “Rod” Stewart has sold over 100 million records worldwide with a career spanning over 60 years. He has had 6 consecutive number one albums in the UK, and his tally of 62 UK hit singles includes 31 that reached the top ten, six of which gained the #1 position, including has had 16 top ten singles in the US, with four reaching #1 on the Billboard Hot 100.&lt;/p&gt;', 'alternate_names': ['Roderick Stewart', 'Roderick David Stewart']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Cobra-starship', 'annotations': {'description': '&lt;p&gt;Cobra Starship was an American dance-pop band originating from New York City. The band originally started as a solo project by frontman &lt;a href="https://genius.com/artists/Gabe-saporta" rel="noopener" data-api_path="/artists/39647"&gt;Gabe Saporta&lt;/a&gt;, previously of &lt;a href="https://genius.com/artists/Midtown" rel="noopener" data-api_path="/artists/365306"&gt;Midtown&lt;/a&gt;. Saporta has embezzled that the idea of Cobra Starship was formed after Saporta went on a vision quest in the Arizona deserts and began building the idea for a synthpop band, however he has stated in the past that this was just a joke.&lt;/p&gt;\n\n&lt;p&gt;The band started off when Saporta posted a parody of &lt;a href="https://genius.com/artists/Gwen-stefani" rel="noopener" data-api_path="/artists/1893"&gt;Gwen Stefani’s&lt;/a&gt; &lt;a href="https://genius.com/Gwen-stefani-hollaback-girl-lyrics" rel="noopener" data-api_path="/songs/4385"&gt;“Hollaback Girl”&lt;/a&gt; titled &lt;a href="https://genius.com/Cobra-starship-hollaback-boy-lyrics" rel="noopener" data-api_path="/songs/461691"&gt;“Hollaback Boy”&lt;/a&gt;, which become popular on the internet. This eventually led to Cobra Starship being signed to Decaydance Records, an imprint of Fueled By Ramen owned by &lt;a href="https://genius.com/artists/Fall-out-boy" rel="noopener" data-api_path="/artists/7811"&gt;Fall Out Boy&lt;/a&gt; bassist &lt;a href="https://genius.com/artists/Pete-wentz" rel="noopener" data-api_path="/artists/214001"&gt;Pete Wentz&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The band’s 2006 debut album &lt;a href="https://genius.com/albums/Cobra-starship/While-the-city-sleeps-we-rule-the-streets" rel="noopener" data-api_path="/albums/106746"&gt;&lt;em&gt;While The City Sleeps, We Rule The Streets&lt;/em&gt;&lt;/a&gt; was all written, recorded, and co-produced by Saporta, with production help from &lt;a href="https://genius.com/artists/Ryland-blackinton" rel="noopener" data-api_path="/artists/648572"&gt;Ryland Blackinton&lt;/a&gt; and &lt;a href="https://genius.com/artists/Alex-suarez" rel="noopener" data-api_path="/artists/451305"&gt;Alex Suarez&lt;/a&gt;, who  at the time were both writing music for &lt;a href="https://genius.com/artists/This-is-ivy-league" rel="noopener" data-api_path="/artists/354914"&gt;This Is Ivy League&lt;/a&gt;. The two of them joined the band shortly after the debut was released. The song &lt;a href="https://genius.com/Cobra-starship-snakes-on-a-plane-bring-it-lyrics" rel="noopener" data-api_path="/songs/461649"&gt;“Snakes On A Plane (Bring It)”&lt;/a&gt;, which was included on the album, was written for the 2006 film &lt;a href="https://en.wikipedia.org/wiki/Snakes_on_a_Plane" rel="noopener nofollow"&gt;&lt;em&gt;Snakes On A Plane&lt;/em&gt;&lt;/a&gt; and became a minor hit. The song featured the vocal talents of &lt;a href="https://genius.com/artists/Maja-ivarsson" rel="noopener" data-api_path="/artists/73113"&gt;Maja Ivarsson&lt;/a&gt; of The Sounds, &lt;a href="https://genius.com/artists/William-beckett" rel="noopener" data-api_path="/artists/219977"&gt;William Beckett&lt;/a&gt; of &lt;a href="https://genius.com/artists/The-academy-is" rel="noopener" data-api_path="/artists/174495"&gt;The Academy Is…&lt;/a&gt; and &lt;a href="https://genius.com/artists/Travie-mccoy" rel="noopener" data-api_path="/artists/667"&gt;Travie McCoy&lt;/a&gt; of &lt;a href="https://genius.com/artists/Gym-class-heroes" rel="noopener" data-api_path="/artists/1083"&gt;Gym Class Heroes&lt;/a&gt;. Beckett also helped co-wrote the single.&lt;/p&gt;\n\n&lt;p&gt;After the album was released, Saporta further enlisted the help of &lt;a href="https://genius.com/artists/Nate-novarro" rel="noopener" data-api_path="/artists/1147451"&gt;Nate Novarro&lt;/a&gt; and &lt;a href="https://genius.com/artists/Vicky-t" rel="noopener" data-api_path="/artists/1053219"&gt;Victoria Asher&lt;/a&gt; to become part of the band. Cobra’s 2007 sophomore album &lt;a href="https://genius.com/albums/Cobra-starship/Viva-la-cobra" rel="noopener" data-api_path="/albums/47156"&gt;&lt;em&gt;¡Viva La Cobra!&lt;/em&gt;&lt;/a&gt; was produced by Fall Out Boy vocalist &lt;a href="https://genius.com/artists/Patrick-stump" rel="noopener" data-api_path="/artists/6343"&gt;Patrick Stump&lt;/a&gt; and was the first album the whole band was included on. The band went on to make 2009’s &lt;a href="https://genius.com/albums/Cobra-starship/Hot-mess" rel="noopener" data-api_path="/albums/106747"&gt;&lt;em&gt;Hot Mess&lt;/em&gt;&lt;/a&gt;, their best-selling album, and their final album &lt;a href="https://genius.com/albums/Cobra-starship/Night-shades" rel="noopener" data-api_path="/albums/13481"&gt;&lt;em&gt;Night Shades&lt;/em&gt;&lt;/a&gt; in 2011. They announced their dissolution on November 10, 2015.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Scissor-sisters', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/Scissor_Sisters" rel="noopener nofollow"&gt;Scissor Sisters&lt;/a&gt; are an American pop group formed in 2001. Forged in the “gay nightlife scene of New York,” the band took its name from the female same-sex sexual activity tribadism. Its members include Jake Shears and Ana Matronic as vocalists, Babydaddy as a multi-instrumentalist, Del Marquis as the lead guitarist/bassist, and Randy Real as the drummer. Scissor Sisters incorporate diverse and innovative styles in their music, but tend to sway towards pop rock, glam rock, nu-disco, and electroclash.&lt;/p&gt;\n\n&lt;p&gt;Scissor Sisters have performed around the world and become well-recognized for their controversial and transgressive live performances. They’ve collaborated with a number of other well-known pop musicians, including Elton John and Kylie Minogue. In 2004, U2’s lead vocalist Bono described Scissor Sisters as “the best pop group in the world”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hard-fi', 'annotations': {'description': '&lt;p&gt;Hard-Fi are an English rock band formed in Staines, Surrey in 2003. The band’s members are Richard Archer (lead vocals and guitar), Kai Stephens (bass guitar and backing vocals) and Steve Kemp (drums and backing vocals).&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Tom-petty-and-the-heartbreakers', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Tom-petty" rel="noopener" data-api_path="/artists/20785"&gt;Tom Petty&lt;/a&gt; and the Heartbreakers – an L.A.-based gang of sharp-dressed garage-rock refugees from Gainsville, Florida – released their debut LP in November 1976, featuring two tracks which are now part of their long list of hits, &lt;a href="https://genius.com/Tom-petty-and-the-heartbreakers-breakdown-lyrics" rel="noopener" data-api_path="/songs/1624339"&gt;“Breakdown”&lt;/a&gt; and &lt;a href="https://genius.com/Tom-petty-and-the-heartbreakers-american-girl-lyrics" rel="noopener" data-api_path="/songs/110440"&gt;“American Girl.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Since that first LP in ‘76, the band’s style  has epitomized and largely defined the American &lt;a href="http://80music.about.com/od/genresmovements/p/heartlandrock.htm" rel="noopener nofollow"&gt;“heartland rock” movement&lt;/a&gt; – a vintage-guitar twang, hard lyric truth, and searing vocal attitude.&lt;/p&gt;\n\n&lt;p&gt;Tom Petty and the Heartbreakers have been nominated for &lt;a href="http://www.grammy.com/artist/tom-petty-the-heartbreakers" rel="noopener nofollow"&gt;17 Grammy awards&lt;/a&gt; and sold more than 80 million records worldwide, making them one of the world’s &lt;a href="http://www.belpernews.co.uk/what-s-on/out-about/top-talent-at-the-flowerpot-1-5359458" rel="noopener nofollow"&gt;best-selling bands of all-time.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their album &lt;em&gt;Hypnotic Eye,&lt;/em&gt; released on July 29th, 2014, represents the band’s &lt;a href="http://www.billboard.com/articles/columns/chart-beat/6207083/tom-petty-1-album-first-billboard-200-hypnotic-eye-heartbreakers" rel="noopener nofollow"&gt;first number one album&lt;/a&gt; to debut on the &lt;em&gt;Billboard 200&lt;/em&gt; charts after &lt;a href="http://www.forbes.com/sites/hughmcintyre/2014/08/07/after-37-years-tom-petty-and-the-heartbreakers-nab-first-1-album/#20077d9f64de" rel="noopener nofollow"&gt;37 years&lt;/a&gt; of hit singles.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Dr-alban', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-human-league', 'annotations': {'description': '&lt;p&gt;The Human League are a synth pop band from Sheffield, England, formed in 1977. They generated a string of synthesizer-backed dance pop hits throughout the 80s. David Bowie dubbed the group “the sound of the future” in 1981.&lt;/p&gt;\n\n&lt;p&gt;The band is best known for its third studio album released in 1981, &lt;a href="https://genius.com/albums/The-human-league/Dare" rel="noopener" data-api_path="/albums/111021"&gt;&lt;em&gt;Dare!&lt;/em&gt;&lt;/a&gt; The fourth single from &lt;em&gt;Dare&lt;/em&gt;, &lt;a href="https://genius.com/The-human-league-dont-you-want-me-lyrics" rel="noopener" data-api_path="/songs/501821"&gt;“Don’t You Want Me,”&lt;/a&gt; catapulted to #1 in the UK and US.&lt;/p&gt;\n\n&lt;p&gt;Phil Oakey is the only core member of the group. The band’s first incarnation was as an arty all-male synthesizer group, composed of Oakey, Martyn Ware, and Ian Craig Marsh. In the 1980s, Ware and Marsh left the group after continued conflicts with Oakey—they went on to form &lt;a href="https://genius.com/artists/Heaven-17" rel="noopener" data-api_path="/artists/100911"&gt;Heaven 17&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Oakey then recruited two 17-year-old girls, Susan Ann Sulley and Joanne Catherall to be background singers and dancers after his then-girlfriend saw them performing a complex routine to Visage’s &lt;a href="https://genius.com/Visage-fade-to-grey-lyrics" rel="noopener" data-api_path="/songs/321565"&gt;“Fade To Grey”&lt;/a&gt; in a local nightclub. Since 1987, The Human League has remained a trio composed of Oakey, Sulley and Catherall.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Billy-joel', 'annotations': {'description': '&lt;p&gt;Billy Joel (born May 9, 1949) is an American pianist, singer/songwriter, producer, and composer who ranks as one of the most iconic and influential artists from the mid to late 20th century.&lt;/p&gt;\n\n&lt;p&gt;He is the sixth best-selling recording artist and the third best-selling solo artist in the United States, wrote a total of 121 songs that achieved 33 Top 40 hits in the US, a 6-time Grammy winner out of 23 nominations, and one of the best-selling recording artists of all-time with 150 million albums sold worldwide.&lt;/p&gt;\n\n&lt;p&gt;Joel has since continued to tour and sells out in stadiums globally. He also delved into classical music composition, arranging an album, &lt;em&gt;Fantasies and Delusions&lt;/em&gt; released in 2001, opened a motorcycle shop on his native Long Island, and is now regarded as one of the most influential musicians of the 20th century. Among his numerous accolades, he was inducted in the Songwriters Hall of Fame in 1992, bestowed with the Kennedy Center Honors in 2013, and awarded the Gershwin Prize for Popular Song by the Library of Congress in 2014.&lt;/p&gt;', 'alternate_names': ['William Joel', 'William M. Joel', 'William Martin Joel']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Steve-edwards', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Ragnbone-man', 'annotations': {'description': '&lt;p&gt;Neo-blues &amp;amp; soul singer Rory Graham was born and raised in the small town of Uckfield in the south-east of England.&lt;/p&gt;\n\n&lt;p&gt;Growing up on early blues and soul, he taught himself to sing by mimicking &lt;a href="https://genius.com/artists/Muddy-waters" rel="noopener" data-api_path="/artists/65145"&gt;Muddy Waters&lt;/a&gt;, before discovering hip-hop. Starting out in music at age 15 as an MC with a local drum\'n\'bass crew, he progressed to hip-hop open-mike nights in nearby Brighton, where he later moved, teaming up with local hip-hop crew the Rum Committee. At the same time, he continued to practice singing in private. Aged 19, he took part in a blues open-mike night at the encouragement of his father, and the rapturous response to his singing boosted his confidence enough to make him consider it as a career rather than rapping.&lt;/p&gt;\n\n&lt;p&gt;Graham’s moniker came from his childhood memories of he and his grandfather watching repeats of the British ‘60s sitcom &lt;a href="https://www.imdb.com/title/tt0057785/" rel="noopener nofollow"&gt;Steptoe and Son&lt;/a&gt;, about a pair of rag-and-bone men – dirt-poor street collectors who in bygone days would go around gathering up rubbish in an attempt to find useful rags, bones, and scrap metal that could be sold to merchants for a few pennies.&lt;/p&gt;\n\n&lt;p&gt;He released his debut EP, &lt;a href="https://genius.com/albums/Ragnbone-man/Bluestown-ep" rel="noopener" data-api_path="/albums/313556"&gt;&lt;em&gt;Bluestown&lt;/em&gt;&lt;/a&gt;, in 2012, followed by several EPs in the next few years, the highest profile of which were &lt;a href="https://genius.com/albums/Ragnbone-man/Wolves-ep" rel="noopener" data-api_path="/albums/255214"&gt;&lt;em&gt;Wolves&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Ragnbone-man/Disfigured-ep" rel="noopener" data-api_path="/albums/122041"&gt;&lt;em&gt;Disfigured&lt;/em&gt;&lt;/a&gt; in 2015. His early releases were more acoustic, but evolved toward a more electronic sound with hip-hop-styled beats. In 2013, he signed a publishing deal with &lt;a href="https://genius.com/artists/Warner-chappell-music" rel="noopener" data-api_path="/artists/1152704"&gt;Warner Chappell&lt;/a&gt;, allowing him to give up his day job as a carer for people with Asperger’s Syndrome. His increasing profile brought him to the attention of &lt;a href="https://genius.com/artists/Columbia-records" rel="noopener" data-api_path="/artists/30372"&gt;Columbia Records&lt;/a&gt;, who signed him in 2016. His debut single for Columbia, “&lt;a href="https://genius.com/Ragnbone-man-human-lyrics" rel="noopener" data-api_path="/songs/2825019"&gt;Human&lt;/a&gt;,” dropped in September of that year and was a big hit in several European countries, topping the charts in Germany. The single was taken from his &lt;a href="https://genius.com/albums/Ragnbone-man/Human" rel="noopener" data-api_path="/albums/286794"&gt;debut album&lt;/a&gt;, which released the following year.&lt;/p&gt;', 'alternate_names': ['Rory Charles Graham', 'Rory Graham', 'Rag ’n’ Bone']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Kool-moe-dee', 'annotations': {'description': '&lt;p&gt;Kool Moe Dee is one of rap’s earliest stars. Starting his career in the early ‘70s, he formed the legendary Treacherous Three with DJ Easy Lee, Special K, and L.A. Sunshine.&lt;/p&gt;\n\n&lt;p&gt;After the group’s first break-up in ‘84, Kool Moe Dee went solo, establishing himself as one of hip-hop’s first big stars with his breakout solo album, &lt;a href="https://genius.com/albums/Kool-moe-dee/How-ya-like-me-now" rel="noopener" data-api_path="/albums/4541"&gt;&lt;em&gt;“How Ya Like Me Now?”&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He became one of the first hip-hop acts to get a Grammy, and became the first to perform at the Grammy’s.&lt;/p&gt;\n\n&lt;p&gt;Kool Moe Dee is now mostly remembered for his feud with &lt;a href="https://genius.com/artists/Ll-cool-j" rel="noopener" data-api_path="/artists/848"&gt;LL Cool J&lt;/a&gt;, where they exchanged musical punches that entertained hip-hop heads for years, with the winner of the feud still being debated to this day.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fergie', 'annotations': {'description': '&lt;p&gt;Fergie Duhamel, born Stacy Ann Ferguson, started her career in television. She starred in six seasons of &lt;em&gt;Kids Incorporated&lt;/em&gt; before leaving the show in 1989. Fergie would venture through a couple of gigs including music group &lt;a href="https://genius.com/artists/Wild-orchid" rel="noopener" data-api_path="/artists/360903"&gt;Wild Orchid&lt;/a&gt; before landing success with one of the most recognizable band of the 2000s: &lt;a href="https://genius.com/artists/Black-eyed-peas" rel="noopener" data-api_path="/artists/425"&gt;Black Eyed Peas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Joining the band in 2003, with her first feature on hit single &lt;a href="https://genius.com/Black-eyed-peas-where-is-the-love-lyrics" rel="noopener" data-api_path="/songs/10680"&gt;“Where is the Love?”"&lt;/a&gt;, Fergie, &lt;a href="https://genius.com/artists/William" rel="noopener" data-api_path="/artists/713"&gt;\u200bwill.i.am&lt;/a&gt;, &lt;a href="https://genius.com/artists/Apldeap" rel="noopener" data-api_path="/artists/47060"&gt;Apl.de.ap&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Taboo" rel="noopener" data-api_path="/artists/5181"&gt;Taboo&lt;/a&gt; reached mainstream success as the Black Eyed Peas grew in renown and popularity as a pop-hiphop group. After releasing the commercially successful album &lt;em&gt;&lt;a href="https://genius.com/albums/Black-eyed-peas-monkey-business" rel="noopener"&gt;Monkey Business&lt;/a&gt;&lt;/em&gt; with the Black Eyed Peas in mid-2005, Fergie ventured into her solo career with a debut album that continues to be her greatest work: &lt;em&gt;&lt;a href="https://genius.com/albums/The-Dutchess" rel="noopener"&gt;The Dutchess&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Released in 2006, the record brought Fergie five multi-platinum singles, including &lt;a href="https://genius.com/Fergie-glamorous-lyrics" rel="noopener" data-api_path="/songs/32326"&gt;“Glamorous”&lt;/a&gt;, &lt;a href="https://genius.com/Fergie-big-girls-dont-cry-lyrics" rel="noopener" data-api_path="/songs/268843"&gt;“Big Girls Don’t Cry”&lt;/a&gt;, and &lt;a href="https://genius.com/Fergie-fergalicious-lyrics" rel="noopener" data-api_path="/songs/32275"&gt;“Fergalicious”&lt;/a&gt;. The latter has catapulted Fergie into pop culture relevance, and the term “fergalicious” or some variation of it is never put to rest in American pop culture.&lt;/p&gt;\n\n&lt;p&gt;With the Black Eyed Peas, Fergie climbed to even greater heights, with singles &lt;a href="https://genius.com/Black-eyed-peas-boom-boom-pow" rel="noopener"&gt;“Boom Boom Pow”&lt;/a&gt; and &lt;a href="https://genius.com/Black-eyed-i-gotta-feeling" rel="noopener"&gt;“I Gotta Feeling”&lt;/a&gt; dominating 2009.&lt;/p&gt;\n\n&lt;p&gt;Fergie later got a &lt;a href="http://www.dailymail.co.uk/tvshowbiz/article-2040842/Fergie-unveils-wax-figure-doppelg-nger-Madame-Tussauds.html" rel="noopener nofollow"&gt;Madame Tussauds figure&lt;/a&gt;, headlined the &lt;a href="https://www.youtube.com/watch?v=11T2B9NH8yM" rel="noopener nofollow"&gt;Super Bowl halftime show with the rest of the band&lt;/a&gt;; and &lt;a href="https://www.avon.com/product/39692/outspoken-by-fergie-eau-de-parfum-spray?setlang=en" rel="noopener nofollow"&gt;released her own fragrance &lt;em&gt;Outspoken&lt;/em&gt;&lt;/a&gt;. She returned to her solo career in 2014 with &lt;a href="https://genius.com/Fergie-la-love-la-la-lyrics" rel="noopener" data-api_path="/songs/520238"&gt;“L.A. LOVE”&lt;/a&gt; and &lt;a href="https://genius.com/Fergie-milf-lyrics" rel="noopener" data-api_path="/songs/2710603"&gt;“M.I.L.F. $”&lt;/a&gt; in 2016.&lt;/p&gt;\n\n&lt;p&gt;Fergie has fearlessly imprinted the face of modern pop music. The world can only wait to see what she will conquer next.&lt;/p&gt;', 'alternate_names': ['Stacy Ann Ferguson', 'Stacy Ferguson']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Mya', 'annotations': {'description': '&lt;p&gt;Mýa Marie Harrison is a Grammy-winning R&amp;amp;B artist, songwriter, and actress. In &lt;a href="https://en.wikipedia.org/wiki/M%C3%BDa" rel="noopener nofollow"&gt;1998, she signed with Interscope Records&lt;/a&gt; and released her debut album the same year. The album was a commercial success in the United States and produced the top ten single “It’s All About Me”. &lt;em&gt;Fear of Flying&lt;/em&gt;, her second album, was released in 2000 and became a worldwide success, boosted by the success of its second single “Case of the Ex”.&lt;/p&gt;\n\n&lt;p&gt;In 2003, Mýa released her third album; &lt;em&gt;Moodring&lt;/em&gt;. It peaked at #3 on the Billboard 200 and featured a range of new sounds such as techno, pop rock, and soul. In 2005, Mýa left &lt;a href="https://en.wikipedia.org/wiki/M%C3%BDa#1998%E2%80%932001:_M%C3%BDa,_Fear_of_Flying_and_Lady_Marmalade" rel="noopener nofollow"&gt;A&amp;amp;M Records in exchange for Universal Motown.&lt;/a&gt; Later in 2007, she released he album &lt;em&gt;Liberation&lt;/em&gt;, but only in Japan. In 2008, she &lt;a href="https://en.wikipedia.org/wiki/M%C3%BDa#1998%E2%80%932001:_M%C3%BDa,_Fear_of_Flying_and_Lady_Marmalade" rel="noopener nofollow"&gt;left Universal Motown and moved to Japanese record label, Manhattan Records.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;There, she released her fifth studio album &lt;em&gt;Sugar &amp;amp; Spice&lt;/em&gt;. Later on &lt;a href="https://en.wikipedia.org/wiki/K.I.S.S._%28Keep_It_Sexy_%26_Simple" rel="noopener nofollow"&gt;she founded her own record label&lt;/a&gt; and released the album &lt;em&gt;K.I.S.S.: Keep It Sexy &amp;amp; Simple&lt;/em&gt; in 2011(in both the US and Japan). Her eighth album, &lt;em&gt;Smoove Jones&lt;/em&gt;,  debuted at &lt;a href="https://en.wikipedia.org/wiki/M%C3%BDa#2014%E2%80%932017:_EP_series_and_Smoove_Jones" rel="noopener nofollow"&gt;number thirty on Billboard’s Top R&amp;amp;B/Hip-Hop Albums chart and received a Grammy nomination.&lt;/a&gt; Her recent project &lt;em&gt;T.K.O. (The Knock Out)&lt;/em&gt; was released in 2018 on the same day of her debut album.&lt;/p&gt;', 'alternate_names': ['Mýa Harrison', 'Mýa M. Harrison', 'Mýa Marie Harrison']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fun', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;Fun&lt;/strong&gt; (often stylized as &lt;strong&gt;fun.&lt;/strong&gt;) is an American indie pop band comprising of &lt;a href="https://genius.com/artists/Nate-ruess" rel="noopener" data-api_path="/artists/30424"&gt;Nate Ruess&lt;/a&gt;, formerly of &lt;a href="https://genius.com/artists/The-format" rel="noopener" data-api_path="/artists/61116"&gt;The Format&lt;/a&gt;, Andrew Dost (&lt;a href="https://genius.com/artists/Anathallo" rel="noopener" data-api_path="/artists/214530"&gt;Anathallo&lt;/a&gt;) and &lt;a href="https://genius.com/artists/Jack-antonoff" rel="noopener" data-api_path="/artists/264329"&gt;Jack Antonoff&lt;/a&gt; (&lt;a href="https://genius.com/artists/Steel-train" rel="noopener" data-api_path="/artists/357760"&gt;Steel Train&lt;/a&gt;). Over the course of seven years, fun. has released two albums: their debut &lt;em&gt;Aim and Ignite&lt;/em&gt; in 2009 and their latest &lt;em&gt;Some Nights&lt;/em&gt; in February, 2012.&lt;/p&gt;\n\n&lt;p&gt;Armed with anthemic, towering lyrics and electric vocals, fun. is among the most recent crop of indie-pop bands to cross into the mainstream. fun.’s success is attributed most majorly to the youthful “&lt;a href="https://genius.com/Fun-we-are-young-lyrics" rel="noopener" data-api_path="/songs/63985"&gt;We Are Young&lt;/a&gt;” featuring Janelle Monáe. A smash on the Billboard Hot 100 after a &lt;a href="https://www.youtube.com/watch?v=9bcYwfsb8rw" rel="noopener nofollow"&gt;memorable cover&lt;/a&gt; on &lt;em&gt;Glee&lt;/em&gt;, the song is arguably fun.’s most defining track. Yet their discography has layers of depth past “Young” – the experimental “&lt;a href="https://genius.com/Fun-stars-lyrics" rel="noopener" data-api_path="/songs/71574"&gt;Stars&lt;/a&gt;,” the existential “&lt;a href="https://genius.com/Fun-some-nights%20lyrics" rel="noopener"&gt;Some Nights&lt;/a&gt;” (which also received significant commercial success), the nihilistic “&lt;a href="https://genius.com/Fun-barlights-lyrics" rel="noopener" data-api_path="/songs/195977"&gt;Barlights&lt;/a&gt;,” the persevering “&lt;a href="https://genius.com/Fun-carry-on-lyrics" rel="noopener" data-api_path="/songs/71564"&gt;Carry On&lt;/a&gt;” – fun. is definitely a lyrically poignant and musically delectable group.&lt;/p&gt;\n\n&lt;p&gt;As of 2015, the group is on hiatus, with each member off working on solo projects. Lead singer Ruess released his solo debut, &lt;em&gt;Grand Romantic&lt;/em&gt;, in June of the same year; guitarist Antonoff formed &lt;a href="https://genius.com/artists/Bleachers" rel="noopener" data-api_path="/artists/158659"&gt;Bleachers&lt;/a&gt; and released &lt;em&gt;Strange Desire&lt;/em&gt; in July 2014; Dost composed the soundtrack to the Jack-Black-led comedy, &lt;em&gt;The D Train&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Spacehog', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sir-mix-a-lot', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Anthony Ray', 'Anthony L. Ray']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jamie-foxx', 'annotations': {'description': '&lt;p&gt;Eric Marlon Bishop (born December 13, 1967), known professionally by his stage name Jamie Foxx, is an American actor, singer, songwriter and comedian.&lt;/p&gt;\n\n&lt;p&gt;Although his acting career overthrew his musical career, it was still loaded with a ton of hit singles, most popular of which being “Just Like Me” featuring &lt;a href="https://genius.com/artists/ti" rel="noopener" data-api_path="/artists/85"&gt;T.I.&lt;/a&gt;, “Blame It” featuring &lt;a href="https://genius.com/artists/t-pain" rel="noopener" data-api_path="/artists/337"&gt;T-Pain&lt;/a&gt;, “She Got Her Own” featuring &lt;a href="https://genius.com/artists/ne-yo" rel="noopener" data-api_path="/artists/375"&gt;Ne-Yo&lt;/a&gt; &amp;amp; &lt;a href="https://genius.com/artists/fabolous" rel="noopener" data-api_path="/artists/3"&gt;Fabolous&lt;/a&gt;, and “Fall For Your Type” featuring &lt;a href="https://genius.com/artists/drake" rel="noopener" data-api_path="/artists/130"&gt;Drake&lt;/a&gt;. He also made an iconic appearance on &lt;a href="https://genius.com/artists/kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt;’s single, “Gold Digger” in 2005.&lt;/p&gt;', 'alternate_names': ['Eric Bishop', 'Eric Marlon Bishop', 'Jaime Foxx']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Nwa', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/Eazy-e" rel="noopener" data-api_path="/artists/496"&gt;Eazy-E&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dr-dre" rel="noopener" data-api_path="/artists/123"&gt;Dr.\xa0Dre&lt;/a&gt;, &lt;a href="https://genius.com/artists/Ice-cube" rel="noopener" data-api_path="/artists/186"&gt;Ice Cube&lt;/a&gt;, &lt;a href="https://genius.com/artists/Mc-ren" rel="noopener" data-api_path="/artists/1436"&gt;MC Ren&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dj-yella" rel="noopener" data-api_path="/artists/7973"&gt;DJ Yella&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Arabian-prince" rel="noopener" data-api_path="/artists/3183"&gt;Arabian Prince&lt;/a&gt; initially formed the collective known as “the world’s most dangerous group,” N.W.A.—Niggaz With Attitudes.&lt;/p&gt;\n\n&lt;p&gt;Following Ice Cube’s stint in &lt;a href="https://genius.com/artists/Cia" rel="noopener" data-api_path="/artists/1064"&gt;C.I.A.&lt;/a&gt; and Dre and Yella’s departure from the &lt;a href="https://genius.com/artists/World-class-wreckin-cru" rel="noopener" data-api_path="/artists/11169"&gt;World Class Wreckin Cru&lt;/a&gt;, they got together with Compton hustler Eric “Eazy-E” Wright, who formed Ruthless Records and released Eazy’s single &lt;a href="https://genius.com/Eazy-e-boyz-n-the-hood-lyrics" rel="noopener" data-api_path="/songs/380408"&gt;“Boyz n the Hood,”&lt;/a&gt; written by Cube and produced by Dre. A compilation entitled &lt;em&gt;N.W.A. and the Posse&lt;/em&gt; was released in 1987 but the group’s seminal debut, &lt;a href="https://genius.com/albums/Nwa/Straight-outta-compton" rel="noopener" data-api_path="/albums/7242"&gt;&lt;em&gt;Straight Outta Compton&lt;/em&gt;&lt;/a&gt;, was released on August 8, 1988. It led to the rise of gangsta rap and West Coast hip-hop in general with their tales of “reality rap” from the streets of Compton and South Central Los Angeles. Their song “Fuck tha Police” even put the group on the hit list of the FBI.&lt;/p&gt;\n\n&lt;p&gt;Arabian Prince was the first to leave the group in 1988 over a financial dispute. Ice Cube left N.W.A. in 1989 after his own financial dispute, leading to the other members to diss him on their subsequent releases: the 1990 EP &lt;a href="https://genius.com/albums/Nwa/100-miles-and-runnin" rel="noopener" data-api_path="/albums/11052"&gt;&lt;em&gt;100 Miles and Runnin\'&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Nwa/Efil4zaggin" rel="noopener" data-api_path="/albums/7232"&gt;&lt;em&gt;EFIL4ZAGGIN&lt;/em&gt;&lt;/a&gt;, which was released in 1991 and peaked at #1 on the Billboard 200 chart. &lt;a href="https://genius.com/artists/The-doc" rel="noopener" data-api_path="/artists/1129"&gt;The D.O.C.&lt;/a&gt;, who contributed to &lt;em&gt;Straight Outta Compton&lt;/em&gt; and was still recovering from a car accident that severly altered his strong voice, wrote more rhymes for Dr. Dre and Eazy-E on the &lt;em&gt;EFIL4ZAGGIN&lt;/em&gt; album in attempt to fill the void left by Cube.&lt;/p&gt;\n\n&lt;p&gt;Following N.W.A.’s jabs, Ice Cube threw the knockout blow to the group with his track &lt;a href="https://genius.com/Ice-cube-no-vaseline-lyrics" rel="noopener" data-api_path="/songs/761"&gt;“No Vaseline,”&lt;/a&gt; which, in part, led to Dr. Dre leaving N.W.A. and Ruthless Records with his own financial dispute similar to Cube’s two years earlier. Dre and The D.O.C. went on to establish Death Row Records with Suge Knight in 1992, where Dre would innovate the G-Funk sound and further establish the success of the West Coast sound in hip-hop.&lt;/p&gt;\n\n&lt;p&gt;After back-and-forth disses between &lt;a href="https://genius.com/Dr-dre-fuck-wit-dre-day-and-everybodys-celebratin-lyrics" rel="noopener" data-api_path="/songs/1398"&gt;Dr. Dre&lt;/a&gt; and &lt;a href="https://genius.com/Eazy-e-real-muthaphuckkin-gs-lyrics" rel="noopener" data-api_path="/songs/902"&gt;Eazy-E&lt;/a&gt;, plans for an N.W.A. reunion were in the discussion stages when Eazy-E died of AIDS in 1995. Ice Cube, Dr. Dre, and MC Ren have since reunited to record the tracks &lt;a href="https://genius.com/Nwa-chin-check-lyrics" rel="noopener" data-api_path="/songs/4833"&gt;“Chin Check”&lt;/a&gt; and &lt;a href="https://genius.com/Ice-cube-hello-lyrics" rel="noopener" data-api_path="/songs/23066"&gt;“Hello.”&lt;/a&gt; In 2015, a biographical drama titled &lt;a href="https://www.imdb.com/title/tt1398426/" rel="noopener nofollow"&gt;&lt;em&gt;Straight Outta Compton&lt;/em&gt;&lt;/a&gt; was released to critical acclaim and a box office gross of over $200 million worldwide. The group was inducted into the Rock and Roll Hall of Fame in 2016.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/f7c82b07938f54dd0f3a32ec6349c0be.500x220x1.png" alt="" width="500" height="220" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': ['Niggaz Wit Attitudes', 'Niggaz With Attitudes', 'Dr. Dre x Ice Cube x Eazy-E x MC Ren x DJ Yella', '(N.W.A.) The D.O.C']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Skid-row', 'annotations': {'description': '&lt;p&gt;Skid Row is a rock band from New Jersey, USA. The band was formed in 1986 by bassist Rachel Bolan and guitarist Dave Sabo. Sabo and Bolan went to the same high school and met at a guitar store where Sabo worked. These two would play in Bolan’s garage and they soon recruited more band members via newspapers ads and performed in local clubs.&lt;/p&gt;\n\n&lt;p&gt;The band then released its debut album titled &lt;a href="https://genius.com/albums/Skid-row/Skid-row" rel="noopener" data-api_path="/albums/28408"&gt;&lt;em&gt;Skid Row&lt;/em&gt;&lt;/a&gt; in 1989 and the album was an immediate success and went 5x platinum. Skid Row’s &lt;a href="https://genius.com/albums/Skid-row/Slave-to-the-grind" rel="noopener" data-api_path="/albums/189045"&gt;second album&lt;/a&gt; went 2x platinum&lt;/p&gt;\n\n&lt;p&gt;Skid Row released a &lt;a href="https://genius.com/albums/Skid-row/Subhuman-race" rel="noopener" data-api_path="/albums/209337"&gt;third album&lt;/a&gt; in 1994 after a one year hiatus. The album charted on the top 40. The rest of Skid Row’s releases were not as successful as the first few.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;Current Members&lt;/strong&gt;&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Dave-the-snake-sabo" rel="noopener" data-api_path="/artists/1033447"&gt;Dave “The Snake” Sabo&lt;/a&gt; – Guitar, Backing Vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Rachel-bolan" rel="noopener" data-api_path="/artists/1004507"&gt;Rachel Bolan&lt;/a&gt; – Bass, Backing Vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Scotti-hill" rel="noopener" data-api_path="/artists/2479393"&gt;Scotti Hill&lt;/a&gt; – guitar, Backing Vocals&lt;br&gt;\nRob Hammersmith – Drums, Backing vocals&lt;br&gt;\n&lt;a href="https://genius.com/artists/Zp-theart" rel="noopener" data-api_path="/artists/1188919"&gt;ZP Theart&lt;/a&gt; – Lead Vocals&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Gwen-stefani', 'annotations': {'description': '&lt;p&gt;Gwen Renée Stefani, known simply as Gwen Stefani, is an American singer and songwriter, born on October 3, 1969 in Fullerton, California. She started her musical career as the lead singer in the American pop-rock band, &lt;a href="https://genius.com/artists/No-doubt" rel="noopener" data-api_path="/artists/24421"&gt;No Doubt&lt;/a&gt;, in the early ‘90s. The band has achieved major success with their 1995 album &lt;a href="https://genius.com/albums/No-doubt/Tragic-kingdom" rel="noopener" data-api_path="/albums/43506"&gt;&lt;em&gt;Tragic Kingdom&lt;/em&gt;&lt;/a&gt;, which spawned the hit singles &lt;a href="https://genius.com/No-doubt-just-a-girl-lyrics" rel="noopener" data-api_path="/songs/210348"&gt;“Just a Girl”&lt;/a&gt; and &lt;a href="https://genius.com/No-doubt-dont-speak-lyrics" rel="noopener" data-api_path="/songs/208107"&gt;“Don’t Speak”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2004, Stefani released her first solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/Love-angel-music-baby" rel="noopener" data-api_path="/albums/6076"&gt;&lt;em&gt;Love. Angel. Music. Baby.&lt;/em&gt;&lt;/a&gt;, which spawned the hit songs &lt;a href="https://genius.com/Gwen-stefani-rich-girl-lyrics" rel="noopener" data-api_path="/songs/32729"&gt;“Rich Girl”&lt;/a&gt;, &lt;a href="https://genius.com/Gwen-stefani-hollaback-girl-lyrics" rel="noopener" data-api_path="/songs/4385"&gt;“Hollaback Girl”&lt;/a&gt;, and &lt;a href="https://genius.com/Gwen-stefani-what-you-waiting-for-lyrics" rel="noopener" data-api_path="/songs/284592"&gt;“What You Waiting For?”&lt;/a&gt;; all three songs went number one on the Billboard Hot 100 chart, and also became the first US music download to sell one million copies.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Stefani released her second solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/The-sweet-escape" rel="noopener" data-api_path="/albums/22036"&gt;&lt;em&gt;The Sweet Escape&lt;/em&gt;&lt;/a&gt;, which spawned singles &lt;a href="https://genius.com/Gwen-stefani-the-sweet-escape-lyrics" rel="noopener" data-api_path="/songs/90487"&gt;“The Sweet Escape”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-wind-it-up-lyrics" rel="noopener" data-api_path="/songs/423090"&gt;“Wind It Up”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2016, she released her third solo album, &lt;a href="https://genius.com/albums/Gwen-stefani/This-is-what-the-truth-feels-like" rel="noopener" data-api_path="/albums/113812"&gt;&lt;em&gt;This Is What the Truth Feels Like&lt;/em&gt;&lt;/a&gt;, which became her first solo number-one album to chart on the Billboard 200. The album had hit songs such as, &lt;a href="https://genius.com/Gwen-stefani-make-me-like-you-lyrics" rel="noopener" data-api_path="/songs/2417511"&gt;“Make Me Like You”&lt;/a&gt; and &lt;a href="https://genius.com/Gwen-stefani-used-to-love-you-lyrics" rel="noopener" data-api_path="/songs/2332048"&gt;“Used to Love You”&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Gwen Renée Stefani Shelton', 'Gwen Renée Stefani']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Sabrina-carpenter', 'annotations': {'description': '&lt;p&gt;Philadelphia-born Sabrina Annlynn Carpenter (born May 11, 1999) is an American singer-songwriter and actress. She made her debut as a child actress in Season 12, Episode 12 of &lt;em&gt;Law &amp;amp; Order: Special Victims Unit&lt;/em&gt;. In 2013 and 2014, she lent her voice to Princess Vivian on Disney Junior’s &lt;em&gt;Sofia The First&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2014, Carpenter landed her first major acting role as Maya Hart on Disney’s &lt;em&gt;Girl Meets World&lt;/em&gt;, a spinoff of the hit sitcom &lt;em&gt;Boy Meets World&lt;/em&gt;. The same year, she released her first single, &lt;a href="https://genius.com/Sabrina-carpenter-cant-blame-a-girl-for-trying-lyrics" rel="noopener" data-api_path="/songs/556794"&gt;“Can’t Blame A Girl For Trying”&lt;/a&gt;, which received a Radio Disney Music Award.&lt;/p&gt;\n\n&lt;p&gt;In 2014, after signing with Hollywood Records, she released her debut EP, &lt;a href="https://genius.com/albums/Sabrina-carpenter/Can-t-blame-a-girl-for-trying-ep" rel="noopener" data-api_path="/albums/240834"&gt;&lt;em&gt;Can’t Blame a Girl for Trying&lt;/em&gt;&lt;/a&gt;. In 2015, she released her debut studio album, &lt;a href="https://genius.com/albums/Sabrina-carpenter/eyes-wide-open" rel="noopener" data-api_path="/albums/121108"&gt;&lt;em&gt;Eyes Wide Open&lt;/em&gt;&lt;/a&gt;. In 2016, lead single &lt;a href="https://genius.com/Sabrina-carpenter-on-purpose-lyrics" rel="noopener" data-api_path="/songs/2828724"&gt;&lt;em&gt;On Purpose&lt;/em&gt;&lt;/a&gt; preceded the release of her second studio album &lt;a href="https://genius.com/albums/Sabrina-carpenter/Evolution" rel="noopener" data-api_path="/albums/168270"&gt;&lt;em&gt;EVOLution&lt;/em&gt;&lt;/a&gt;, in which she experimented with a more mature pop sound and elements of dance and tropical house.&lt;/p&gt;\n\n&lt;p&gt;In 2018, the Philly pop star dropped her third album, &lt;a href="https://genius.com/albums/Sabrina-carpenter/Singular-act-i" rel="noopener" data-api_path="/albums/352892"&gt;&lt;em&gt;Singular: Act I&lt;/em&gt;&lt;/a&gt;, followed by &lt;a href="https://genius.com/albums/Sabrina-carpenter/Singular-act-ii" rel="noopener" data-api_path="/albums/509686"&gt;&lt;em&gt;Act II&lt;/em&gt;&lt;/a&gt; a year later.&lt;/p&gt;', 'alternate_names': ['Sabrina Annlynn Carpenter']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Bronski-beat', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Oliver-tree', 'annotations': {'description': '&lt;p&gt;Oliver Tree Nickell (Born June 29, 1993) is a vocalist, producer, and prolific scooter rider hailing from Santa Cruz, California. On March 27, 2016, Oliver released a video on Vine, entitled, &lt;a href="https://youtu.be/_hhAd8C4SvY" rel="noopener nofollow"&gt;“I’m Turbo”&lt;/a&gt;, which was the first appearance of his persona, Turbo.&lt;/p&gt;\n\n&lt;p&gt;He released music under the name Tree before “When I’m Down”, his upbeat dance song with collaborator Whethan went viral, leading him to sign with Atlantic Records in 2017.&lt;/p&gt;\n\n&lt;p&gt;The genre-defying &lt;a href="https://genius.com/albums/Oliver-tree/Alien-boy-ep" rel="noopener" data-api_path="/albums/403753"&gt;&lt;i&gt;Alien Boy&lt;/i&gt;&lt;/a&gt; EP, the world’s first glimpse at Oliver’s potential, followed the next year and earned tens of millions of streams. Known for his big-budget music videos and the comedic clips posted on his social media, Oliver joined The Chainsmokers on select dates of their tour and played many festivals while attracting attention to his unique and unorthodox fashion sense.&lt;/p&gt;\n\n&lt;p&gt;The Huffington Post described Oliver as “an enigma of genre. While (Oliver is) primarily a pianist, guitarist, and producer, his real-instruments-based-production incorporates rap, male and female vocal harmonies, poetic lyrics, strings and a hearty dose of synth…”&lt;/p&gt;\n\n&lt;p&gt;Oliver’s debut album, &lt;a href="https://genius.com/albums/Oliver-tree/Ugly-is-beautiful" rel="noopener" data-api_path="/albums/487099"&gt;&lt;i&gt;Ugly is Beautiful&lt;/i&gt;&lt;/a&gt;, released July 17th, to astonishing fanfare, reaching top 3 on the iTunes charts within 24 hours of it being released.&lt;/p&gt;\n\n&lt;p&gt;Oliver followed up the release of Ugly is Beautiful almost a year later with a Deluxe edition of the album that released on May 28th, 2021.&lt;/p&gt;', 'alternate_names': ['Tree', 'Oliver Tree Nickell']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Akon', 'annotations': {'description': '&lt;p&gt;Akon (born Aliaume Akon Thiam), is a Senegalese-American Grammy-nominated and platinum-selling rapper, songwriter, singer and businessman. His trademark is singing the word ‘convict’ at the beginning of most of his songs.&lt;/p&gt;\n\n&lt;p&gt;Akon was born in the US but &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;spent much&lt;/a&gt; of childhood in the West African country Senegal. There, he learned to play five instruments including the djembe, guitar and drums. Early on Akon &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;signed a deal with&lt;/a&gt; Elektra Records, but was later dropped from the label.&lt;/p&gt;\n\n&lt;p&gt;His &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;career took off&lt;/a&gt; when Lil Zane introduced Akon to music executive DeVyne Stephens, who signed him to his label UpFront Records &lt;a href="http://www.hollywood.com/general/akon-sued-for-150-million-by-former-business-partner-report-60686814/" rel="noopener nofollow"&gt;and became his&lt;/a&gt; longtime manager and business partner.&lt;/p&gt;\n\n&lt;p&gt;Akon’s music with Stephens, specifically “Lonely”, caught the attention of SRC Records (under Universal). SRC’s A&amp;amp;R man Jerome Foster and CEO Steve Rifkind flew to Atlanta on a private plane &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;to sign him&lt;/a&gt;. His 2004 debut album &lt;em&gt;Trouble&lt;/em&gt; scored two international smash hits with “Locked Up” and “Lonely”, the latter topping the pop chart &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon&amp;amp;titel=Lonely&amp;amp;cat=s" rel="noopener nofollow"&gt;in seven countries&lt;/a&gt; and reaching the top 5 in seven more including &lt;a href="https://www.billboard.com/music/akon/chart-history" rel="noopener nofollow"&gt;the US&lt;/a&gt; and &lt;a href="http://www.officialcharts.com/artist/14451/akon/" rel="noopener nofollow"&gt;the UK&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;That year, Akon launched Konvict Music – a record label that would release Akon’s next albums in addition to albums by T-Pain and Sway. In 2005, Akon made two guest appearances during the success of &lt;em&gt;Trouble&lt;/em&gt; that were also successful: the Young Jeezy song “Soul Survivor” which did well in the US and UK, and “Moonshine” with Savage which was a huge hit in Australia and New Zealand.&lt;/p&gt;\n\n&lt;p&gt;His 2006 sophomore album &lt;em&gt;Konvicted&lt;/em&gt; spawned three international chart-toppers: “Smack That” featuring Eminem (top 10 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Eminem&amp;amp;titel=Smack+That&amp;amp;cat=s" rel="noopener nofollow"&gt;in twelve countries&lt;/a&gt;), “I Wanna Love You” featuring Snoop Dogg (top 20 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Snoop+Dogg&amp;amp;titel=I+Wanna+Love+You&amp;amp;cat=s" rel="noopener nofollow"&gt;in ten countries&lt;/a&gt;), and “Don’t Matter” (top 10 &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Akon+feat%2E+Snoop+Dogg&amp;amp;titel=I+Wanna+Love+You&amp;amp;cat=s" rel="noopener nofollow"&gt;in five countries&lt;/a&gt;). The album was &lt;a href="https://www.riaa.com/gold-platinum/?tab_active=default-award&amp;amp;ar=AKON&amp;amp;ti=KONVICTED" rel="noopener nofollow"&gt;certified platinum&lt;/a&gt; within seven weeks, eventually reaching triple platinum a year later. Also that year, he made a guest appearance on the Gwen Stefani song “The Sweet Escape”, a top 10 song &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Gwen+Stefani+feat%2E+Akon&amp;amp;titel=The+Sweet+Escape&amp;amp;cat=s" rel="noopener nofollow"&gt;in twelve countries&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;2007 and 2008 saw Akon make several more guest appearances with various artists, giving him eight more US top 40 hits with scattered international success – the biggest being “Dangerous” with Kardinal Offishal, taken from an album he’d executive-produced.&lt;/p&gt;\n\n&lt;p&gt;Akon’s third album &lt;em&gt;Freedom&lt;/em&gt; was internationally successful in late 2008 with three singles reaching the top 10 in several countries, but it did not equal the success of his previous albums. During this time, Akon also remixed “Wanna Be Startin\' Somethin\'” for the 25th anniversary re-release of Michael Jackson’s &lt;em&gt;Thriller&lt;/em&gt;, &lt;a href="https://wbssmedia.com/artists/detail/645" rel="noopener nofollow"&gt;launched a clothing line&lt;/a&gt;, and founded KonLive Distribution (the label that signed Lady Gaga and released her first three albums) with Jimmy Iovine.&lt;/p&gt;\n\n&lt;p&gt;Since 2009, Akon has continued to collaborate with several artists, his most successful being the &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=David+Guetta+feat%2E+Akon&amp;amp;titel=Sexy+Bitch&amp;amp;cat=s" rel="noopener nofollow"&gt;international chart topper&lt;/a&gt; “Sexy Bitch” with David Guetta. His other work includes being one-third of the rap supergroup Flipsyde, heavy involvement in “We Are the World 25 for Haiti”, and co-writing for artists like NKOTB and Whitney Houston.&lt;/p&gt;\n\n&lt;p&gt;Outside of music, Akon has appeared in the films &lt;em&gt;Black November&lt;/em&gt; and &lt;em&gt;American Heist&lt;/em&gt; and founded &lt;a href="http://akonlightingafrica.com/our-activities/overview/" rel="noopener nofollow"&gt;Akon Lighting Africa&lt;/a&gt;, an effort to provide electricity via solar energy to African villages without power. His fourth album, a five-part concept album tentatively titled &lt;em&gt;Stadium&lt;/em&gt;, was in the works in 2010, but aside from &lt;a href="https://www.billboard.com/articles/news/6429405/akon-new-album-stadium" rel="noopener nofollow"&gt;teasing random singles&lt;/a&gt; like “To Each His Own”, “Whole Lot” and “Just A Man”, the full project did not materialize. Instead, Akon released two albums in 2019 and a mixtape in 2020.&lt;/p&gt;', 'alternate_names': ['Aliune Akon Thiam', 'Aliaune Damala Badara Akon Thiam', 'Aliaune Thiam']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Joss-stone', 'annotations': {'description': '&lt;p&gt;Joscelyn Eve Stoker (born 11 April 1987), better known by her stage name Joss Stone, is an English singer, songwriter and actress. She rose to fame in late 2003 with her multi-platinum debut album, The Soul Sessions, which made the 2004 Mercury Prize shortlist. Her second album, the similarly multi-platinum Mind Body &amp;amp; Soul (2004), topped the UK Albums Chart for one week and spawned the top ten hit “You Had Me”, Stone’s most successful single on the UK Singles Chart to date. Both the album and single received one nomination at the 2005 Grammy Awards, while Stone herself was nominated for Best New Artist, and in an annual BBC poll of music critics, Sound of 2004, was ranked fifth as a predicted breakthrough act of 2004. She became the youngest British female singer to top the UK Albums Chart. Stone’s third album, Introducing Joss Stone, released in March 2007, achieved gold record status by the RIAA and yielded the second-ever highest debut for a British female solo artist on the Billboard 200, and became Stone’s first top five album in the US.&lt;/p&gt;\n\n&lt;p&gt;She released her fourth album, Colour Me Free!, on 20 October 2009, which reached the top 10 on Billboard. Stone released her fifth album, LP1, on 22 July 2011, which reached the top 10 on Billboard. Throughout her career, Stone has sold 14 million records worldwide, establishing herself as one of the best-selling soul artists of the 2000s, and the best-selling British artists of her time. Her first three albums have sold over 2,722,000 copies in the US, while her first two albums have sold over 2 million copies in the UK.&lt;/p&gt;\n\n&lt;p&gt;Stone has earned numerous accolades, including two Brit Awards and one Grammy Award out of five nominations. She also made her film acting debut in 2006 with the fantasy adventure film Eragon, and made her television debut portraying Anne of Cleves in the Showtime series The Tudors in 2009. Stone was the youngest woman on the 2006 Sunday Times Rich List—an annual list of the UK’s wealthiest people—with £6 million. In 2012, her net worth was estimated to be £10 million, making her the fifth richest British musician under 30. The Soul Sessions Vol. 2 (2012) is her fourth consecutive album to reach the top 10 on the Billboard 200.&lt;/p&gt;', 'alternate_names': ['Joscelyn Stoker', 'Joscelyn Eve Stoker']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Psy', 'annotations': {'description': '&lt;p&gt;Park Jae-sang, better known by his stage name Psy, stylized PSY, is a South Korean singer, songwriter, rapper, dancer, record producer and television personality.&lt;/p&gt;\n\n&lt;p&gt;His earlier efforts showcased his comedic stylings within the Korean music world, but none matched that off 2012’s &lt;a href="https://genius.com/Psy-gangnam-style-lyrics" rel="noopener" data-api_path="/songs/88368"&gt;“Gangnam Style”&lt;/a&gt;, which would eventually hit more than 4 billion views on YouTube. In 2013, he was also made the official South Korean &lt;a href="https://web.archive.org/web/20200810111413/http://travel.cnn.com/psy-named-korea-tourism-ambassador-877941/" rel="noopener nofollow"&gt;tourism ambassador&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Psy also founded the South Korean label &lt;a href="https://genius.com/artists/P-nation" rel="noopener" data-api_path="/artists/160396"&gt;P-Nation&lt;/a&gt; with artists such as &lt;a href="https://genius.com/artists/Crush" rel="noopener" data-api_path="/artists/51935"&gt;Crush&lt;/a&gt;, &lt;a href="https://genius.com/artists/Jessi" rel="noopener" data-api_path="/artists/672794"&gt;Jessi&lt;/a&gt;, &lt;a href="https://genius.com/artists/Dawn-korea-rapper" rel="noopener" data-api_path="/artists/1469207"&gt;Dawn&lt;/a&gt;, &lt;a href="https://genius.com/artists/Hyuna" rel="noopener" data-api_path="/artists/27893"&gt;HyunA&lt;/a&gt;, and himself.&lt;/p&gt;', 'alternate_names': ['Park Jae-Sang (박재상)']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-j-geils-band', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Linkin-park', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/albums/Linkin-park/Hybrid-theory" rel="noopener" data-api_path="/albums/15321"&gt;&lt;em&gt;Hybrid Theory&lt;/em&gt;&lt;/a&gt; isn’t just the title of Linkin Park’s chart-topping debut album, but a career mission statement.&lt;/p&gt;\n\n&lt;p&gt;From day one, the same six players (lead vocalist &lt;a href="https://genius.com/artists/Chester-bennington" rel="noopener" data-api_path="/artists/1015"&gt;Chester Bennington&lt;/a&gt;, drummer/percussionist &lt;a href="https://genius.com/artists/Rob-bourdon" rel="noopener" data-api_path="/artists/643808"&gt;Rob Bourdon&lt;/a&gt;, guitarist &lt;a href="https://genius.com/artists/Brad-delson" rel="noopener" data-api_path="/artists/177201"&gt;Brad Delson&lt;/a&gt;, bassist &lt;a href="https://genius.com/artists/Dave-farrell" rel="noopener" data-api_path="/artists/635618"&gt;Dave ‘Phoenix’ Farrell&lt;/a&gt;, DJ/Programmer &lt;a href="https://genius.com/artists/Joe-hahn" rel="noopener" data-api_path="/artists/271318"&gt;Joe Hahn&lt;/a&gt;, and keyboardist, guitarist, and co-lead vocals &lt;a href="https://genius.com/artists/Mike-shinoda" rel="noopener" data-api_path="/artists/4431"&gt;Mike Shinoda&lt;/a&gt;) built the band by fusing all their favorite styles of music into one unmistakable signature sound. With each album, Linkin Park defiantly challenges themselves and their fans by blasting into new musical territory. After setting the template for rock that incorporated hip-hop influences with &lt;em&gt;Hybrid Theory&lt;/em&gt; and &lt;a href="https://genius.com/albums/Linkin-park/Meteora" rel="noopener" data-api_path="/albums/5986"&gt;&lt;em&gt;Meteora&lt;/em&gt;&lt;/a&gt;, they shifted gears completely and defied expectations with the polychromatic &lt;a href="https://genius.com/albums/Linkin-park/Minutes-to-midnight" rel="noopener" data-api_path="/albums/16008"&gt;&lt;em&gt;Minutes to Midnight&lt;/em&gt;&lt;/a&gt;, and again with the esoteric &lt;a href="https://genius.com/albums/Linkin-park/A-thousand-suns" rel="noopener" data-api_path="/albums/15414"&gt;&lt;em&gt;A Thousand Suns&lt;/em&gt;&lt;/a&gt;, before melding a piece of them all into 2012’s &lt;a href="https://genius.com/albums/Linkin-park/Living-things" rel="noopener" data-api_path="/albums/16392"&gt;&lt;em&gt;LIVING THINGS&lt;/em&gt;&lt;/a&gt;. With their 2014 release and heaviest offering in years, &lt;a href="https://genius.com/albums/Linkin-park/The-hunting-party" rel="noopener" data-api_path="/albums/100521"&gt;&lt;em&gt;The Hunting Party&lt;/em&gt;&lt;/a&gt;, Linkin Park manage to capture their ever-innovative spirit with a hunger seldom seen in bands on their seventh album. &lt;a href="https://genius.com/albums/Linkin-park/One-more-light" rel="noopener" data-api_path="/albums/330664"&gt;&lt;em&gt;One More Light&lt;/em&gt;&lt;/a&gt; (2017) is an interesting personal album, filled with a lot of emotion.&lt;/p&gt;\n\n&lt;p&gt;Unfortunately, on July 20, 2017, Chester unexpectedly &lt;a href="http://www.tmz.com/2017/07/20/linkin-park-singer-chester-bennington-dead-commits-suicide/" rel="noopener nofollow"&gt;died by suicide&lt;/a&gt;, shocking and saddening both fans and his own band members alike.&lt;/p&gt;\n\n&lt;p&gt;As for the band’s name, they were originally called Hybrid Theory, but trademark issues with a band called Hybrid forced the band to rethink their name. According to &lt;a href="https://www.altpress.com/features/entry/how_bands_got_their_names/P1" rel="noopener nofollow"&gt;&lt;em&gt;Alternative Press&lt;/em&gt;&lt;/a&gt;, Bennington suggested “Lincoln Park” since he had to drive past there after band practice to get home. However, the domain name “lincolnpark.com” cost more than the band could afford so they changed the spelling to Linkin Park. It was also suggested that the name change would help them appear right next to Limp Bizkit at record stores.&lt;/p&gt;', 'alternate_names': ['Hybrid Theory', 'Xero', 'MMM...COOKIES']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Coldplay', 'annotations': {'description': '&lt;p&gt;Coldplay is a British rock band, formed in 1997 by University College London classmates &lt;a href="https://genius.com/artists/Chris-martin" rel="noopener" data-api_path="/artists/353"&gt;Chris Martin&lt;/a&gt; (vocals, guitar, piano), &lt;a href="https://genius.com/artists/Jonny-buckland" rel="noopener" data-api_path="/artists/182604"&gt;Jonny Buckland&lt;/a&gt; (guitar) and &lt;a href="https://genius.com/artists/Guy-berryman" rel="noopener" data-api_path="/artists/173684"&gt;Guy Berryman&lt;/a&gt; (bass), along with drummer &lt;a href="https://genius.com/artists/Will-champion" rel="noopener" data-api_path="/artists/182605"&gt;Will Champion&lt;/a&gt;. The band’s name comes from &lt;a href="https://web.archive.org/web/20170809171008/http://www.coldplay.com/newsdetail.php?id=80" rel="noopener nofollow"&gt;Tim Crompton&lt;/a&gt;, a student who was in the same university as the members (University College London) at the time. They were previously known as Pectoralz, then changed their name to Starfish in 1997 &lt;a href="https://kiisfm.iheart.com/content/2021-06-15-24-facts-you-need-to-know-about-our-2021-iheartradio-music-festival-lineup/" rel="noopener nofollow"&gt;before finally settling on the name Coldplay&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Once they issued their debut, &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/Parachutes" rel="noopener" data-api_path="/albums/18002"&gt;Parachutes&lt;/a&gt;&lt;/em&gt; in 2000, many saw them as a &lt;a href="https://genius.com/artists/Radiohead" rel="noopener" data-api_path="/artists/604"&gt;Radiohead&lt;/a&gt; knock-off. No doubt, Coldplay’s sound —elegant, melodic, vaguely spacey and very dramatic — bore plenty of similarity to mid-1990s Radiohead. But the group’s hooks, sharpened by frontman Chris Martin’s ability to pull heartstrings, and the their willingness to evolve their sound, gave Coldplay staying power. The greatest examples are second album &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/A-rush-of-blood-to-the-head" rel="noopener" data-api_path="/albums/17979"&gt;A Rush of Blood to the Head&lt;/a&gt;&lt;/em&gt; (2002), which was generally considered to be musically and lyrically more mature and sophisticated, and less obviously the product of one particular influence, and the fourth one &lt;em&gt;&lt;a href="https://genius.com/albums/Coldplay/A-rush-of-blood-to-the-head" rel="noopener" data-api_path="/albums/17979"&gt;Viva La Vida or Death and All His Friends&lt;/a&gt;&lt;/em&gt; (2008), where producer &lt;a href="https://genius.com/artists/Brian-eno" rel="noopener" data-api_path="/artists/29972"&gt;Brian Eno&lt;/a&gt; influenced the band to broaden their sound and led to various sonic landscapes. Both won the Grammy Award for Best Rock Album and spawned sucessful singles such as &lt;a href="https://genius.com/Coldplay-clocks-lyrics" rel="noopener" data-api_path="/songs/53753"&gt;“Clocks”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-viva-la-vida-lyrics" rel="noopener" data-api_path="/songs/49192"&gt;“Viva la Vida”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-in-my-place-lyrics" rel="noopener" data-api_path="/songs/77596"&gt;“In My Place”&lt;/a&gt;, &lt;a href="https://genius.com/Coldplay-violet-hill-lyrics" rel="noopener" data-api_path="/songs/64086"&gt;“Violet Hill”&lt;/a&gt; and &lt;a href="https://genius.com/Coldplay-the-scientist-lyrics" rel="noopener" data-api_path="/songs/77594"&gt;“The Scientist”&lt;/a&gt;.&lt;br&gt;\nColdplay also proved they can use truly rock sounds in their albums, as shown in &lt;a href="https://genius.com/albums/Coldplay/X-y" rel="noopener" data-api_path="/albums/11506"&gt;&lt;em&gt;X&amp;amp;Y&lt;/em&gt;&lt;/a&gt;, and juggle with more electronics albums like &lt;a href="https://genius.com/albums/Coldplay/Mylo-xyloto" rel="noopener" data-api_path="/albums/12250"&gt;&lt;em&gt;Mylo Xyloto&lt;/em&gt;&lt;/a&gt;, &lt;a href="https://genius.com/albums/Coldplay/Ghost-stories" rel="noopener" data-api_path="/albums/85921"&gt;&lt;em&gt;Ghost Stories&lt;/em&gt;&lt;/a&gt; or &lt;a href="https://genius.com/albums/Coldplay/A-head-full-of-dreams" rel="noopener" data-api_path="/albums/134218"&gt;&lt;em&gt;A Head Full of Dreams&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;As a result, the band became one of the most commercially successful acts of the new millennium, with over 80 million albums sold – even if along with the acclaim came a vocal opposition, due to the supposedly derivative nature, the overtly emotional lyrics, and the fact they’re good-mannered English boys instead of wild rockstars. As a result, Coldplay are thought as either a punchline showing all that’s wrong with 21st century rock, or a really good if overplayed band with songs tailor made for stadium performances.&lt;/p&gt;', 'alternate_names': ['Starfish']}}</t>
+    <t>{'url': 'https://genius.com/artists/Sugar-ray', 'annotations': {'description': '&lt;p&gt;Sugar Ray is an American rock band from Newport Beach, California. Originally forming in 1986. They originally played rap-rock, with early singles like “Iron Mic” and “Mean Machine”. The band achieved mainstream popularity in 1997 with their more pop-influenced single, “Fly”. The song’s success led the band to shift its style dramatically to the more radio-friendly pop sound with their newer releases. Their best-selling album, 14:59, was released in 1999, and featured popular singles “Every Morning”, “Someday”, and “When It’s Over”.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/In-real-life', 'annotations': {'description': '&lt;p&gt;In Real Life was a five-piece boy band that won the one-season singing competition &lt;em&gt;Boy Band,&lt;/em&gt; hosted by &lt;a href="https://genius.com/artists/Rita-ora" rel="noopener" data-api_path="/artists/17853"&gt;Rita Ora&lt;/a&gt;. The group consists of &lt;a href="https://genius.com/artists/Brady-tutton" rel="noopener" data-api_path="/artists/1203699"&gt;Brady Tutton&lt;/a&gt;, &lt;a href="https://genius.com/artists/Sergio-calderon" rel="noopener" data-api_path="/artists/1203707"&gt;Sergio Calderon&lt;/a&gt;, &lt;a href="https://genius.com/artists/Drew-ramos" rel="noopener" data-api_path="/artists/1203698"&gt;Drew Ramos&lt;/a&gt;, &lt;a href="https://genius.com/artists/Chance-perez" rel="noopener" data-api_path="/artists/1203697"&gt;Chance Perez&lt;/a&gt;, and rapper &lt;a href="https://genius.com/artists/Conor-smith" rel="noopener" data-api_path="/artists/1031278"&gt;Conor Smith (formerly Michael Conor)&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Their first single, “&lt;a href="https://genius.com/In-real-life-eyes-closed-lyrics" rel="noopener" data-api_path="/songs/3210383"&gt;Eyes Closed&lt;/a&gt;,” was released on August 24, 2017 – the day they won the TV show to form In Real Life.&lt;/p&gt;\n\n&lt;p&gt;In early November 2017, the band released Christmas singles “&lt;a href="https://genius.com/In-real-life-feel-this-christmas-lyrics" rel="noopener" data-api_path="/songs/3301332"&gt;Feel This Christmas&lt;/a&gt;” and “&lt;a href="https://genius.com/In-real-life-ill-be-home-for-christmas-lyrics" rel="noopener" data-api_path="/songs/3301353"&gt;I’ll Be Home For Christmas&lt;/a&gt;,” followed by four singles in 2018, “&lt;a href="https://genius.com/In-real-life-tattoo-how-bout-you-lyrics" rel="noopener" data-api_path="/songs/3369618"&gt;Tattoo (How ‘Bout You)&lt;/a&gt;” in February, “&lt;a href="https://genius.com/in-real-life-how-badly-lyrics" rel="noopener" data-api_path="/songs/3662221"&gt;How Badly&lt;/a&gt;,” in April, “&lt;a href="https://genius.com/in-real-life-tonight-belongs-to-you-lyrics" rel="noopener" data-api_path="/songs/3538938"&gt;Tonight Belongs To You&lt;/a&gt;” in July, and &lt;a href="https://genius.com/in-real-life-got-me-good-lyrics" rel="noopener" data-api_path="/songs/3841162"&gt;“Got Me Good”&lt;/a&gt; in September. Their first headlining tour took place at the end of the year and was named after the &lt;em&gt;Tonight Belongs To You Tour&lt;/em&gt; after the highly emphasized single of the same name.&lt;/p&gt;\n\n&lt;p&gt;The highly-anticipated single “&lt;a href="https://genius.com/in-real-life-crazy-af-lyrics" rel="noopener" data-api_path="/songs/4380407"&gt;Crazy AF&lt;/a&gt;” in March 2019 after a long break from releasing music, with two releases following it: “&lt;a href="https://genius.com/In-real-life-somebody-like-you-lyrics" rel="noopener" data-api_path="/songs/4538846"&gt;Somebody Like You&lt;/a&gt;” in May and “&lt;a href="https://genius.com/in-real-life-hurt-for-long-lyrics" rel="noopener" data-api_path="/songs/4685225"&gt;Hurt For Long&lt;/a&gt;” in July. The group’s debut album &lt;em&gt;&lt;a href="https://genius.com/albums/in-real-life/she-do" rel="noopener" data-api_path="/albums/409045"&gt;She Do&lt;/a&gt;&lt;/em&gt; was announced on the 9th of August 2019 and was highly anticipated until its release on the 23rd of the same month. Their second headlining tour, &lt;em&gt;For U Tour&lt;/em&gt; took place in October of the same year.&lt;/p&gt;\n\n&lt;p&gt;In January 2020, the band &lt;a href="https://twitter.com/InRealLife/status/1219349368202919936" rel="noopener nofollow"&gt;announced&lt;/a&gt; they would be taking a hiatus, with each of them pursuing solo careers.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Naked-eyes', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Camouflage', 'annotations': {'description': '&lt;p&gt;Camouflage is a German synth-pop trio consisting of lead singer Marcus Meyn, Heiko Maile and Oliver Kreyssig.&lt;br&gt;\nTheir only Billboard Hot 100 hit was “The Great Commandment”, which earned No. 59 place in 1988, and earned three weeks at No. 1 on the US dance chart. They also had two additional minor dance hits in 1989 out which “Love Is A Shield reached No. 9 on the German chart. They were included in the music compilation listing ‘Tucker Rock’ in December of 2018. This honor was validated by the band’s listing on the Pandora Station by the same name.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Lv-south-central-cartel', 'annotations': {'description': '&lt;p&gt;Larry Sanders, better known by his stage name L.V. (which stands for “Large Variety”), is an American R&amp;amp;B singer. He is best known for his collaboration with rapper Coolio on the single, “Gangsta’s Paradise”, and has been featured on multiple soundtracks since then. Having released two solo albums to date, he was also a member of the gangsta rap group South Central Cartel since their beginning, usually singing the vocals and chorus.&lt;/p&gt;', 'alternate_names': ['Larry J. Sanders', 'Larry James Sanders']}}</t>
   </si>
   <si>
     <t>{'url': 'https://genius.com/artists/The-hooters', 'annotations': {'description': '&lt;p&gt;The Hooters are an American rock band from Philadelphia, Pennsylvania, United States. They combine elements of rock, reggae, ska, and folk music to create their sound. The Hooters first gained major commercial success in the United States in the mid-1980s due to heavy radio airplay and MTV rotation of several songs including “All You Zombies”, “Day by Day”, “And We Danced” and “Where Do the Children Go”.&lt;/p&gt;', 'alternate_names': []}}</t>
   </si>
   <si>
-    <t>{'url': 'https://genius.com/artists/The-knack', 'annotations': {'description': '&lt;p&gt;The Knack was an American rock band based in Los Angeles that rose to fame with their first single, “My Sharona”, an international number-one hit in 1979.&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/e7da446954646ea01484e56a690d87de.800x531x1.jpg" alt="" width="800" height="531" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Dnce', 'annotations': {'description': '&lt;p&gt;In 2015, &lt;a href="https://genius.com/artists/Joe-jonas" rel="noopener" data-api_path="/artists/16515"&gt;Joe Jonas&lt;/a&gt; announced his first project since the &lt;a href="https://genius.com/artists/Jonas-brothers" rel="noopener" data-api_path="/artists/8436"&gt;Jonas Brothers&lt;/a&gt; officially split: a band called DNCE. Joe recruited guitarist &lt;a href="https://genius.com/artists/Jinjoo-lee" rel="noopener" data-api_path="/artists/1035785"&gt;JinJoo Lee&lt;/a&gt;, bassist and keyboardist &lt;a href="https://genius.com/artists/Cole-whittle" rel="noopener" data-api_path="/artists/1006070"&gt;Cole Whittle&lt;/a&gt;, and drummer &lt;a href="https://genius.com/artists/Jack-lawless" rel="noopener" data-api_path="/artists/1035786"&gt;Jack Lawless&lt;/a&gt;, who worked with Joe back in his JB days.&lt;/p&gt;\n\n&lt;p&gt;JinJoo &lt;a href="http://www.dnce.com/2015/10/23/interview-magazine-with-dnce/" rel="noopener nofollow"&gt;told &lt;em&gt;Interview Magazine&lt;/em&gt;&lt;/a&gt; the meaning of the band’s name.&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;‘DNCE’ is ‘dance’ without an A. It’s not a perfect word, and you don’t have to be a perfect dancer to dance. Life is just sometimes not perfect.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;On September 14, 2015, the band premiered their debut single, &lt;a href="https://genius.com/DNCE-cake-by-the-ocean-lyrics" rel="noopener" data-api_path="/songs/2306268"&gt;“Cake By the Ocean,”&lt;/a&gt; on New York’s Z100. The song blew up and soon found a place in the background of an AT&amp;amp;T commercial. This drove more people to check out their music and boosted sales and popularity.&lt;/p&gt;\n\n&lt;p&gt;On October 23rd, 2015, the &lt;a href="https://genius.com/albums/Dnce/Swaay-ep" rel="noopener" data-api_path="/albums/133124"&gt;&lt;em&gt;SWAAY&lt;/em&gt; EP&lt;/a&gt; was released, and a few months later the band announced they would be touring with &lt;a href="https://genius.com/artists/Selena-gomez" rel="noopener" data-api_path="/artists/45372"&gt;Selena Gomez&lt;/a&gt; in the summer of 2016.&lt;/p&gt;\n\n&lt;p&gt;On November 18th, 2016, the &lt;a href="https://genius.com/albums/Dnce/Dnce" rel="noopener" data-api_path="/albums/222215"&gt;self-titled debut album&lt;/a&gt; was released.&lt;/p&gt;\n\n&lt;p&gt;On June 15th, 2018, the &lt;a href="https://genius.com/albums/Dnce/People-to-people-ep" rel="noopener" data-api_path="/albums/397299"&gt;&lt;em&gt;People to People&lt;/em&gt; EP&lt;/a&gt; was released. This was their last project until their hiatus due to Jonas and Lawless continuing with the Jonas Brothers starting from February 28th, 2019. As of now, they are on hiatus.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Salt-n-pepa', 'annotations': {'description': '&lt;p&gt;Salt-N-Pepa is arguably the most successful female rap group of all time. The group began with Cheryl “Salt” James and Sandra “Pepa” Denton meeting while studying to be nurses. James got Denton a job at a Sears department store, where her boyfriend Hurby “Luv Bug” Azor also worked. Azor was studying music production and he asked them to help on &lt;a href="https://www.washingtonpost.com/archive/lifestyle/1994/05/27/salt-n-pepa-taking-control/a969fdd2-c2e2-4b7a-bc48-f83dadb3d13d/?utm_term=.db33642e0b2e" rel="noopener nofollow"&gt;a school project&lt;/a&gt;, an answer record to Doug E. Fresh’s “The Show” they named &lt;a href="https://genius.com/Salt-n-pepa-the-showstopper-is-stupid-fresh-lyrics" rel="noopener" data-api_path="/songs/2147764"&gt;“The Showstopper”&lt;/a&gt; – recorded in 1985 under the name Supernature.&lt;/p&gt;\n\n&lt;p&gt;After the legendary Queens DJ Marley Marl played “The Showstopper” on his radio show, the group &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;began getting booked for shows&lt;/a&gt;. One lyric in “The Showstopper” was ‘We the salt and pepper’, and people kept requesting ‘that salt and pepper song’, so &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;they changed their name&lt;/a&gt; to Salt-N-Pepa. Deejay Deidra “Spinderella” Ropa was added soon after.&lt;/p&gt;\n\n&lt;p&gt;SNP’s debut album &lt;a href="https://genius.com/albums/Salt-n-pepa/Hot-cool-and-vicious" rel="noopener" data-api_path="/albums/8996"&gt;&lt;em&gt;Hot, Cool, &amp;amp; Vicious&lt;/em&gt;&lt;/a&gt; originally spawned a minor hit in the UK with &lt;a href="https://genius.com/Salt-n-pepa-my-mike-sounds-nice-lyrics" rel="noopener" data-api_path="/songs/2144116"&gt;“My Mike Sounds Nice”&lt;/a&gt; in early 1987. But it was the re-release of a remix of “Push It”, originally a quickly-thrown together b-side for their fall ‘87 single “Tramp”, that shot the group into international stardom. The song reached the top 10 in eleven countries &lt;a href="https://dutchcharts.nl/showitem.asp?interpret=Salt-N-Pepa&amp;amp;titel=Push+It&amp;amp;cat=s" rel="noopener nofollow"&gt;around the world&lt;/a&gt; in 1988.&lt;/p&gt;\n\n&lt;p&gt;The group had continued international success throughout first half of the 1990s with hits like “Expression”, “Do You Really Want Me”, “You Showed Me”, &lt;a href="https://genius.com/Salt-n-pepa-shoop-lyrics" rel="noopener" data-api_path="/songs/3464"&gt;“Shoop”&lt;/a&gt; and &lt;a href="https://genius.com/Salt-n-pepa-whatta-man-lyrics" rel="noopener" data-api_path="/songs/51518"&gt;“Whatta Man”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/En-vogue" rel="noopener" data-api_path="/artists/8571"&gt;En Vogue&lt;/a&gt;. Their 1991 hit &lt;a href="https://genius.com/Salt-n-pepa-lets-talk-about-sex-lyrics" rel="noopener" data-api_path="/songs/41354"&gt;“Let’s Talk About Sex”&lt;/a&gt; was used to raise awareness about the AIDS epidemic in the United States at the time. SNP won a Grammy for Best Rap Performance by a Duo or Group in 1994 for &lt;a href="https://genius.com/Salt-n-pepa-none-of-your-business-lyrics" rel="noopener" data-api_path="/songs/354653"&gt;“None of Your Business”&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;The group released their last album &lt;em&gt;Brand New&lt;/em&gt; in 1997, featuring a modest hit &lt;a href="https://genius.com/Salt-n-pepa-r-u-ready-lyrics" rel="noopener" data-api_path="/songs/41370"&gt;“R U Ready,”&lt;/a&gt; before disbanding. SNP &lt;a href="https://i-d.vice.com/en_uk/article/d3p9nv/salt-n-pepa-hip-hop-90s-interview-music" rel="noopener nofollow"&gt;continues to tour&lt;/a&gt; and make television appearances, including the VH-1 reality series &lt;em&gt;The Salt-N-Pepa Show&lt;/em&gt; and &lt;em&gt;Let’s Talk About Pep&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Awolnation', 'annotations': {'description': '&lt;p&gt;&lt;strong&gt;AWOLNATION&lt;/strong&gt; is an American rock band, formed in 2010 by frontman &lt;a href="https://genius.com/artists/Aaron-bruno" rel="noopener" data-api_path="/artists/333935"&gt;Aaron Bruno&lt;/a&gt;. Aaron is now joined by &lt;a href="https://genius.com/artists/Zach-irons" rel="noopener" data-api_path="/artists/1255544"&gt;Zach Irons&lt;/a&gt; on guitar, &lt;a href="https://genius.com/artists/Isaac-carpenter" rel="noopener" data-api_path="/artists/1065594"&gt;Isaac Carpenter&lt;/a&gt; on drums, Mike Goldman on bass, and &lt;a href="https://genius.com/artists/Daniel-saslow" rel="noopener" data-api_path="/artists/1255543"&gt;Daniel Saslow&lt;/a&gt; on keyboard. They are best known for their hit song, “&lt;a href="https://genius.com/Awolnation-sail-lyrics" rel="noopener" data-api_path="/songs/64894"&gt;Sail&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;The band’s name comes from frontman Aaron Bruno’s high school nickname, “AWOL.” Aaron &lt;a href="http://www.mtv.com/video-clips/u133eg/aaron-bruno-breaks-down-the-name-awolnation" rel="noopener nofollow"&gt;explains to MTV&lt;/a&gt;&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;I was either given or I claimed the nickname AWOL in high school at a certain point. So, I went with the name AWOL because I’ve always enjoyed the option of leaving social circumstances without having to explain myself. I attached “NATION” to “AWOL” and created AWOLNATION as, hopefully, a musical metaphor for a place to escape, to get through the day.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;In that same interview, Aaron said of the band’s lyrics&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It’s important to me that people interpret the lyrics and sort of the concept and the message for their own and not read into it literally. Because, a lot of stuff in the lyrics are metaphors for life situations I’ve been in and I encourage people to create their own meaning out of it all.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band’s sound can best be described as alternative rock. While AWOLNATION’s first two albums, &lt;a href="https://genius.com/albums/Awolnation/Megalithic-symphony-deluxe-edition" rel="noopener" data-api_path="/albums/150516"&gt;&lt;em&gt;Megalithic Symphony&lt;/em&gt;&lt;/a&gt; and &lt;a href="https://genius.com/albums/Awolnation/Run" rel="noopener" data-api_path="/albums/118809"&gt;&lt;em&gt;Run&lt;/em&gt;&lt;/a&gt; feature electronic rock styling, their most recent album, &lt;a href="https://genius.com/albums/Awolnation/Here-come-the-runts" rel="noopener" data-api_path="/albums/379232"&gt;&lt;em&gt;Here Come the Runts&lt;/em&gt;&lt;/a&gt; purposefully departed from this, in search of a more authentic sound.&lt;/p&gt;\n\n&lt;p&gt;The band crafted one of the most influential songs in years with the chart-topping, record-breaking track “&lt;a href="https://genius.com/Awolnation-sail-lyrics" rel="noopener" data-api_path="/songs/64894"&gt;Sail&lt;/a&gt;.” The first single off the gold-certified full-length debut album, &lt;a href="https://genius.com/albums/Awolnation/Megalithic-symphony" rel="noopener" data-api_path="/albums/14688"&gt;Megalithic Symphony&lt;/a&gt;, “Sail” was certified 6x platinum in the US and holds the record for the most weeks on the Billboard Hot 100 chart by an independent artist, the second longest for any artist. The song has also achieved global success: certified 10x platinum in Norway, 6x platinum in Canada, 3x platinum in Sweden, 2x platinum in Australia and New Zealand, platinum in Switzerland, gold in Austria, Germany, and the UK. The song was also notably &lt;a href="https://genius.com/Awolnation-sail-tde-remix-lyrics" rel="noopener" data-api_path="/songs/132580"&gt;remixed&lt;/a&gt; with &lt;a href="https://genius.com/artists/Tde" rel="noopener" data-api_path="/artists/1108010"&gt;TDE&lt;/a&gt;, featuring &lt;a href="https://genius.com/artists/Kendrick-lamar" rel="noopener" data-api_path="/artists/1421"&gt;Kendrick Lamar&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ab-soul" rel="noopener" data-api_path="/artists/2049"&gt;Ab-Soul&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their critically-acclaimed sophomore release &lt;a href="https://genius.com/albums/Awolnation/Run" rel="noopener" data-api_path="/albums/118809"&gt;&lt;em&gt;Run&lt;/em&gt;&lt;/a&gt; spawned three other Top 10 US singles – Top 5 tracks “&lt;a href="https://genius.com/Awolnation-i-am-lyrics" rel="noopener" data-api_path="/songs/726013"&gt;I Am&lt;/a&gt;” and “&lt;a href="https://genius.com/Awolnation-woman-woman-lyrics" rel="noopener" data-api_path="/songs/727477"&gt;Woman Woman&lt;/a&gt;,” as well as their first #1 hit on the Billboard Alternative Chart, “&lt;a href="https://genius.com/Awolnation-hollow-moon-bad-wolf-lyrics" rel="noopener" data-api_path="/songs/691574"&gt;Hollow Moon (Bad Wolf)&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;AWOLNATION released their third studio album, &lt;a href="https://genius.com/albums/Awolnation/Here-come-the-runts" rel="noopener" data-api_path="/albums/379232"&gt;&lt;em&gt;Here Come the Runts&lt;/em&gt;&lt;/a&gt;, in February 2018 via Red Bull Records. The album features the singles “&lt;a href="https://genius.com/Awolnation-passion-lyrics" rel="noopener" data-api_path="/songs/3270748"&gt;Passion&lt;/a&gt;,” “&lt;a href="https://genius.com/Awolnation-seven-sticks-of-dynamite-lyrics" rel="noopener" data-api_path="/songs/3306167"&gt;Seven Sticks of Dynamite&lt;/a&gt;,” and current Top 20 Alt Rock hit, “&lt;a href="https://genius.com/Awolnation-handyman-lyrics" rel="noopener" data-api_path="/songs/3306273"&gt;Handyman&lt;/a&gt;.”&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Hayley-williams', 'annotations': {'description': '&lt;p&gt;Hayley Williams is an American singer born on December 27, 1988; she is the lead vocalist, songwriter, and keyboardist of the Rock/Pop-Punk band &lt;a href="https://genius.com/artists/Paramore" rel="noopener" data-api_path="/artists/22531"&gt;Paramore&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Hayley came to light in the music scene when she was only 16 years old and released with the band their debut album &lt;a href="https://genius.com/albums/Paramore/All-we-know-is-falling" rel="noopener" data-api_path="/albums/28192"&gt;&lt;em&gt;All We Know Is Falling&lt;/em&gt;&lt;/a&gt; which reached number 8 on the UK Rock Chart. It was their second album, the Platinum-certified &lt;a href="https://genius.com/albums/Paramore/Riot" rel="noopener" data-api_path="/albums/25380"&gt;&lt;em&gt;Riot!&lt;/em&gt;&lt;/a&gt; from 2007, that gave the band and Hayley worldwide recognition. She would go on to make three more albums with the band: &lt;a href="https://genius.com/albums/Paramore/Brand-new-eyes" rel="noopener" data-api_path="/albums/19097"&gt;&lt;i&gt;Brand New Eyes&lt;/i&gt;&lt;/a&gt; released in 2009, &lt;a href="https://genius.com/albums/Paramore/Paramore" rel="noopener" data-api_path="/albums/28272"&gt;&lt;i&gt;Paramore&lt;i&gt;&lt;/i&gt;&lt;/i&gt;&lt;/a&gt; released in 2013, and &lt;a href="https://genius.com/albums/Paramore/After-laughter" rel="noopener" data-api_path="/albums/340733"&gt;&lt;i&gt;After Laughter&lt;/i&gt;&lt;/a&gt; released in 2017.&lt;/p&gt;\n\n&lt;p&gt;In 2010, Hayley was featured on the B.o.B single, &lt;a href="https://genius.com/Bob-airplanes-lyrics" rel="noopener" data-api_path="/songs/428"&gt;“Airplanes”&lt;/a&gt;, which was a commercial success reaching No.1 in the UK and No.2 in the US. She has come to be featured on several other commercially successful singles such as Zedd’s &lt;a href="https://genius.com/Zedd-stay-the-night-lyrics" rel="noopener" data-api_path="/songs/216074"&gt;“Stay the Night”&lt;/a&gt; in 2013 and New Found Glory’s &lt;a href="https://genius.com/New-found-glory-vicious-love-lyrics" rel="noopener" data-api_path="/songs/530919"&gt;“Vicious Love”&lt;/a&gt; in 2014. Regardless, Hayley’s main focus remains in her band, Paramore.&lt;/p&gt;\n\n&lt;p&gt;In 2020 she released her solo debut &lt;a href="https://genius.com/Hayley-williams-simmer-lyrics" rel="noopener" data-api_path="/songs/5190196"&gt;“Simmer”&lt;/a&gt;, and announced her debut album &lt;a href="https://genius.com/albums/Hayley-williams/Petals-for-armor" rel="noopener" data-api_path="/albums/595868"&gt;&lt;em&gt;Petals For Armor&lt;/em&gt;&lt;/a&gt;, which was released in May the same year.&lt;/p&gt;\n\n&lt;p&gt;Besides the music, in 2016, she released her own hair dye company, &lt;a href="https://www.gooddyeyoung.com/" rel="noopener nofollow"&gt;Good Dye Young&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': ['Hayley Nichole Williams', 'Hayley Williams of Paramore', 'Hayley Williams from Paramore']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Soundgarden', 'annotations': {'description': '&lt;p&gt;One of the biggest rock bands out of Seattle, Soundgarden was formed in 1984 by singer and rhythm guitarist &lt;a href="https://genius.com/artists/Chris-cornell" rel="noopener" data-api_path="/artists/18435"&gt;Chris Cornell&lt;/a&gt;, lead guitarist &lt;a href="https://genius.com/artists/Kim-thayil" rel="noopener" data-api_path="/artists/564464"&gt;Kim Thayil&lt;/a&gt;, and bassist Hiro Yamamoto. &lt;a href="https://genius.com/artists/Matt-cameron" rel="noopener" data-api_path="/artists/564462"&gt;Matt Cameron&lt;/a&gt; became the band’s full-time drummer in 1986, while bassist &lt;a href="https://genius.com/artists/Ben-shepherd" rel="noopener" data-api_path="/artists/564463"&gt;Ben Shepherd&lt;/a&gt; became a permanent replacement for Yamamoto in 1990. While one of the creators of the Grunge alternative rock and the first to sign to a major label, they only rose to stardom once the genre was popularized by &lt;a href="https://genius.com/artists/Nirvana" rel="noopener" data-api_path="/artists/12712"&gt;Nirvana&lt;/a&gt;, &lt;a href="https://genius.com/artists/Pearl-jam" rel="noopener" data-api_path="/artists/22696"&gt;Pearl Jam&lt;/a&gt; and &lt;a href="https://genius.com/artists/Alice-in-chains" rel="noopener" data-api_path="/artists/32179"&gt;Alice in Chains&lt;/a&gt; in the early 90s. After achieving great success with 1994’s &lt;em&gt;&lt;a href="https://genius.com/albums/Soundgarden/Superunknown" rel="noopener" data-api_path="/albums/25916"&gt;Superunknown&lt;/a&gt;&lt;/em&gt;, the band decided to call it quits three years later due to internal squabbles. Eventually they reunited in 2010, releasing new album &lt;em&gt;&lt;a href="https://genius.com/albums/Soundgarden/King-animal" rel="noopener" data-api_path="/albums/26866"&gt;King Animal&lt;/a&gt;&lt;/em&gt; two years later. Frontman Chris Cornell committed suicide in a Detroit hotel room on May 17, 2017. He was 52 years old.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Scorpions', 'annotations': {'description': '&lt;p&gt;Scorpions is a Hard Rock/Heavy Metal band formed in Hannover, Germany. The band was founded in 1965 and their debut album “Lonesome Crow” was released 1972. They released 5 more albums throught the 70’s, some of which, are considered to be their best ones, but their big break out was in the 80’s with albums like “Blackout” and “Love at First Sting”. In this decade, songs like “The Zoo”, “Blackout”, “No One Like You”,  “Rock You Like a Hurricane” and “Still loving You” became hits on the charts and overall classics of  the band. The 90´s started with their eleventh album “Crazy World” that included classics like “Hit Between the Eyes”, “Send Me and Angel” and “Wind of Change” (this last one became a became an icon of the  end of the cold war era). After that, they released 8 more albums with succesful tours across the world. With a 50+ years career, they’re considered one of the most important and influential Heavy Metal bands ever.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Caesars', 'annotations': {'description': '&lt;p&gt;Caesars was a four member band formed in Stockholm in 1993. They released their first EP in 1995 and their third studio-album ‘Love for the Streets’ in their native country in 2002. It was the album that carried their biggest hit ‘Jerk it out’ which gained global success when it appeared in a wildly broadcasted commercial in 2005.&lt;br&gt;\nThey released their last full-length album called “Strawberry Weed” in 2008.&lt;br&gt;\nIn 2012 the band’s guitarist Joakim Åhlund stated that they’d “put the band on ice”, and they haven’t released anything since.&lt;/p&gt;', 'alternate_names': ["Caesar's Palace"]}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fine-young-cannibals', 'annotations': {'description': '&lt;p&gt;Their name came from the 1960 film &lt;em&gt;All the Fine Young Cannibals&lt;/em&gt;&lt;/p&gt;', 'alternate_names': ['A Drum Machine and a Trumpet', 'Two Men']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Wet-wet-wet', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Elvis-presley', 'annotations': {'description': '&lt;p&gt;Elvis Aaron Presley (January 8, 1935 – August 16, 1977) was an American performer that spanned all media—music, film, and historic live concerts—with a vehement passion that earned him the moniker, “The King of Rock and Roll.”&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="http://www.elvis.com/about/bio" rel="noopener nofollow"&gt;Elvis Presley&lt;/a&gt; was born in Tupelo, Mississippi to Gladys and Vernon Presley.  At the age of 13, he moved with his family to Memphis, Tennessee. Elvis began to explore the blues scene prevalent in Memphis and the culture it encompassed.&lt;/p&gt;\n\n&lt;p&gt;In August 1953, he walked into Sun Records to record a song for his mother’s birthday.  Manager of Sun Records &lt;a href="https://genius.com/artists/Sam-phillips" rel="noopener" data-api_path="/artists/62225"&gt;Sam Phillips&lt;/a&gt; took note of his unique voice and persona, and invited Elvis back to the studio in July 1954, where he ultimately recorded his first true single, &lt;a href="https://genius.com/Elvis-presley-thats-all-right-lyrics" rel="noopener" data-api_path="/songs/197868"&gt;“That’s All Right,”&lt;/a&gt; with &lt;a href="https://genius.com/Elvis-presley-blue-moon-of-kentucky-lyrics" rel="noopener" data-api_path="/songs/197100"&gt;“Blue Moon of Kentucky”&lt;/a&gt; as the B-side.&lt;/p&gt;\n\n&lt;p&gt;Elvis was soon noticed by Colonel Tom Parker, considered one of the best promoters in the industry.  This partnership was pivotal to Elvis\' career, but considered &lt;a href="http://www.elvisinfonet.com/spotlight_thedarksideofcolonelparker.html" rel="noopener nofollow"&gt;controversial and toxic&lt;/a&gt; by his friends, family, and biographers.  Parker moved him to RCA Records, and his first RCA single – &lt;a href="https://genius.com/Elvis-presley-heartbreak-hotel-lyrics" rel="noopener" data-api_path="/songs/119855"&gt;“Heartbreak Hotel”&lt;/a&gt; – was released in January 1956 and became a number one hit in the U.S.  Elvismania had truly begun.&lt;/p&gt;\n\n&lt;p&gt;In March of 1958, Elvis was inducted into the U.S. Army.  During his army career, two pivotal events occurred that affected the rest of his life.  First, his mother Gladys died on August 14, 1958.  Completely and utterly devoted to his mother, Elvis truly never recovered from her death. However, while stationed in West Germany, Elvis met 14-year-old &lt;a href="http://priscilla.elvispresley.com.au/" rel="noopener nofollow"&gt;Priscilla Beaulieu&lt;/a&gt;, whom he dated for seven years before marrying her on May 1, 1967.  They had one daughter, Lisa Marie, on February 1, 1968.&lt;/p&gt;\n\n&lt;p&gt;After being discharged from the army, Elvis continued to release singles, but was also pushed into a heavy film-making schedule, making sub-par, formulaic films that were hits at the box office, but &lt;a href="http://www.elvis-history-blog.com/elvis-film-career.html" rel="noopener nofollow"&gt;destroyed critically&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 1968, Elvis was depressed and unsatisfied with his career, and his popularity was sinking.  However, on December 3, 1968, a television special, &lt;a href="http://www.elvis-history-blog.com/elvis-comeback.html" rel="noopener nofollow"&gt;&lt;em&gt;Singer Presents Elvis&lt;/em&gt;&lt;/a&gt;, aired—a small concert that was his first live performance since 1961.  More famously known as the &lt;em&gt;‘68 Comeback Special&lt;/em&gt;, it revitalized his career, especially as a live performer.&lt;/p&gt;\n\n&lt;p&gt;Despite his success and renewed pride in his career, Elvis\' &lt;a href="http://www.express.co.uk/entertainment/music/606337/The-last-days-Elvis-drugs-obesity-and-a-nurse" rel="noopener nofollow"&gt;health and personal life&lt;/a&gt; was declining.  His marriage fell apart, and he and Priscilla divorced in October 1973.  Four years later, on August 16, 1977, Elvis\' fiance, Ginger Alden, found him on the bathroom floor, unresponsive.  &lt;a href="http://www.nytimes.com/learning/general/onthisday/big/0816.html" rel="noopener nofollow"&gt;He was pronounced dead at 3:30 pm at Baptist Memorial Hospital.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Elvis Presley’s life was short, but his legacy is vast.  He &lt;a href="http://www.elvis.net/guinness/guinnessframe.html" rel="noopener nofollow"&gt;holds the record&lt;/a&gt; for most singles on the U.S. charts (149), most RIAA certificates by a single artist (235), most number one albums in the U.S. by a solo artist (nine), and many more groundbreaking achievements.  But his legacy is not just remembered in numbers alone.  Elvis began a new era for music and pop culture. For many, he was the leader in a new movement of raw, powerful music and performances, uninhibited by the rules of yesteryear.  As Rev. Al Green said, &lt;a href="http://www.houstonpress.com/music/elvis-30-famous-quotes-about-the-king-6772855" rel="noopener nofollow"&gt;“He broke the ice for all of us.”&lt;/a&gt; He inspired many artists after him, including The Beatles, Jackie Wilson, Led Zeppelin, Bob Dylan, Rick Nelson, and many, many, more.&lt;/p&gt;\n\n&lt;p&gt;Perhaps Elvis Presley is best remembered in this touching quote from one of his biggest fans, Bruce Springsteen:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;It was like he came along and whispered some dream in everybody’s ear, and somehow we all dreamed it.&lt;/p&gt;&lt;/blockquote&gt;', 'alternate_names': ['Elvis Aaron Presley']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Duran-duran', 'annotations': {'description': '&lt;p&gt;DURAN DURAN has a total of over 80 million records sold, 18 American hit singles, 30 UK top 30 tunes, and a global presence which guarantees them huge concert audiences on five continents. They’ve managed to fuse pop music, art, technology and fashion with a unique sense of style and confidence. Princess Diana also admitted that Duran Duran was her favourite Band among others.&lt;/p&gt;\n\n&lt;p&gt;Bassist John Taylor has said &lt;a href="http://thequietus.com/articles/17506-coke-wet-arcadia-versus-the-power-station-by-simon-price" rel="noopener nofollow"&gt;the original vision&lt;/a&gt; for the band’s sound was ‘to fuse the Sex Pistols and Chic’ after hearing those two bands back-to-back on a pub jukebox one night.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Iggy-azalea', 'annotations': {'description': '&lt;p&gt;Amethyst Amelia Kelly (b. June 7, 1990), better known by her stage name &lt;b&gt;Iggy Azalea&lt;/b&gt;, is an Australian rapper and songwriter signed to Island Records and Roc Nation. After being raised in a small town called Mullumbimby and feeling like an outsider, in 2006, at the age of 16, she moved to the United States to pursue a career in hip hop music, stating that she was drawn to the birthplace of rap, and resided in the Southern part of the country.&lt;/p&gt;\n\n&lt;p&gt;Moving from Miami to Houston to Atlanta, Iggy absorbed the Southern-style drawl of her surroundings and released her debut project, a mixtape titled &lt;a href="https://genius.com/albums/Iggy-azalea/Ignorant-art" rel="noopener" data-api_path="/albums/12993"&gt;&lt;em&gt;Ignorant Art&lt;/em&gt;&lt;/a&gt; in September 2011, shortly after relocating to Los Angeles. Iggy commented that she made it “with intent to make people question and redefine old ideals.” The project’s raw electronic sound accentuated her unique style that would become a trademark throughout her career. Prior to the release of the mixtape, she had been sharing &lt;a href="https://genius.com/Iggy-azalea-hell-of-a-life-remix-lyrics" rel="noopener" data-api_path="/songs/323629"&gt;several&lt;/a&gt; &lt;a href="https://genius.com/Iggy-azalea-two-times-lyrics" rel="noopener" data-api_path="/songs/118421"&gt;home&lt;/a&gt; &lt;a href="https://genius.com/Iggy-azalea-drugs-lyrics" rel="noopener" data-api_path="/songs/63259"&gt;videos&lt;/a&gt; on her YouTube channel as an underground rapper and her debut music video for “&lt;a href="https://genius.com/Iggy-azalea-pu-y-lyrics" rel="noopener" data-api_path="/songs/58489"&gt;Pu$$y&lt;/a&gt;” quickly went viral due to its explicit nature. In 2012, Iggy became the first female and the first non-American rapper to be featured on &lt;em&gt;XXL&lt;/em&gt;’s annual &lt;a href="https://genius.com/Macklemore-xxl-freshman-cypher-2-lyrics" rel="noopener" data-api_path="/songs/74206"&gt;Freshman Class&lt;/a&gt; cover issue.&lt;/p&gt;\n\n&lt;p&gt;Iggy then aligned herself with the self-proclaimed “King of the South” &lt;a href="https://genius.com/artists/Ti" rel="noopener" data-api_path="/artists/85"&gt;T.I.&lt;/a&gt;, who executive produced her free EP &lt;a href="https://genius.com/albums/Iggy-azalea/Glory" rel="noopener" data-api_path="/albums/19753"&gt;&lt;em&gt;Glory&lt;/em&gt;&lt;/a&gt; released in July 2012 through his Grand Hustle imprint, which included their popular collaboration “&lt;a href="https://genius.com/Iggy-azalea-murda-bizness-lyrics" rel="noopener" data-api_path="/songs/69507"&gt;Murda Bizness&lt;/a&gt;”. Later that year, she was featured on the &lt;a href="https://genius.com/Bet-grand-hustle-cypher-lyrics" rel="noopener" data-api_path="/songs/92103"&gt;Hustle Gang Cypher&lt;/a&gt; at the BET Hip Hop Awards. In October 2012, Iggy released her second mixtape &lt;a href="https://genius.com/albums/Iggy-azalea/Trapgold" rel="noopener" data-api_path="/albums/21937"&gt;&lt;em&gt;TrapGold&lt;/em&gt;&lt;/a&gt;, produced entirely by &lt;a href="https://genius.com/artists/Diplo" rel="noopener" data-api_path="/artists/12908"&gt;Diplo&lt;/a&gt; and &lt;a href="https://genius.com/artists/1st-down-of-fki" rel="noopener"&gt;1st Down&lt;/a&gt; of &lt;a href="https://genius.com/artists/Fki" rel="noopener" data-api_path="/artists/15379"&gt;FKi&lt;/a&gt;. In the following year, she was selected as the tour opening act for the likes of &lt;a href="https://genius.com/artists/Beyonce" rel="noopener" data-api_path="/artists/498"&gt;Beyoncé&lt;/a&gt; and &lt;a href="https://genius.com/artists/Nas" rel="noopener" data-api_path="/artists/56"&gt;Nas&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Iggy’s debut studio album &lt;a href="https://genius.com/albums/Iggy-azalea/The-new-classic" rel="noopener" data-api_path="/albums/28238"&gt;&lt;em&gt;The New Classic&lt;/em&gt;&lt;/a&gt; was finally released in April 2014 after she secured significant label deals with Island Def Jam and Mercury Records in the previous year. It topped the US &lt;em&gt;Billboard&lt;/em&gt; Top R&amp;amp;B/Hip-Hop Albums making her the first non-American female rapper to reach the summit of the chart. The album was promoted by a number of single releases: the acclaimed autobiographical “&lt;a href="https://genius.com/Iggy-azalea-work-lyrics" rel="noopener" data-api_path="/songs/117463"&gt;Work&lt;/a&gt;”, “&lt;a href="https://genius.com/Iggy-azalea-bounce-lyrics" rel="noopener" data-api_path="/songs/145628"&gt;Bounce&lt;/a&gt;”, “&lt;a href="https://genius.com/Iggy-azalea-change-your-life-lyrics" rel="noopener" data-api_path="/songs/206949"&gt;Change Your Life&lt;/a&gt;” and the US &lt;em&gt;Billboard&lt;/em&gt; Hot 100 chart-topping single “&lt;a href="https://genius.com/Iggy-azalea-fancy-lyrics" rel="noopener" data-api_path="/songs/352612"&gt;Fancy&lt;/a&gt;”, which made Iggy only the fourth female rapper in the history of that chart to reach number one, claiming the longest-leading reign with seven consecutive weeks. She also went on to achieve three top ten hits simultaneously on the Hot 100 along with her feature on &lt;a href="https://genius.com/Ariana-grande" rel="noopener" data-api_path="/users/2528152"&gt;Ariana Grande&lt;/a&gt;’s “&lt;a href="https://genius.com/Ariana-grande-problem-lyrics" rel="noopener" data-api_path="/songs/405888"&gt;Problem&lt;/a&gt;” and the fifth single from the album, “&lt;a href="https://genius.com/Iggy-azalea-black-widow-lyrics" rel="noopener" data-api_path="/songs/406511"&gt;Black Widow&lt;/a&gt;,” later that year. &lt;em&gt;The New Classic&lt;/em&gt; garnered Iggy four Grammy Award nominations, among many other awards and accolades. In November 2014, the album was reissued in a repackaged version titled &lt;a href="https://genius.com/albums/Iggy-azalea/Reclassified" rel="noopener" data-api_path="/albums/113809"&gt;&lt;em&gt;Reclassified&lt;/em&gt;&lt;/a&gt; featuring five newly recorded songs, including “&lt;a href="https://genius.com/Iggy-azalea-beg-for-it-lyrics" rel="noopener" data-api_path="/songs/539567"&gt;Beg For It&lt;/a&gt;” and “&lt;a href="https://genius.com/Iggy-azalea-trouble-lyrics" rel="noopener" data-api_path="/songs/590819"&gt;Trouble&lt;/a&gt;.”&lt;/p&gt;\n\n&lt;p&gt;Iggy has also notably collaborated with various other artists such as &lt;a href="https://genius.com/artists/Jennifer-lopez" rel="noopener" data-api_path="/artists/2487"&gt;Jennifer Lopez&lt;/a&gt;, &lt;a href="https://genius.com/artists/Wiz-khalifa" rel="noopener" data-api_path="/artists/310"&gt;Wiz Khalifa&lt;/a&gt; and &lt;a href="https://genius.com/artists/Britney-spears" rel="noopener" data-api_path="/artists/1052"&gt;Britney Spears&lt;/a&gt;, having amassed hundred millions of streams. In one of the more unlikely crossover success stories, Iggy became one of the most polarizing figures in the music industry suffering a tirade of social media backlash over race and hip-hop culture, but the lightning rod rapper &lt;a href="http://abcnews.go.com/GMA/iggy-azalea-missy-elliot-lil-kim-support-criticism/story?id=37865215" rel="noopener nofollow"&gt;credits&lt;/a&gt; the many that have supported her instead, naming some of the women she grew up idolizing particularly &lt;a href="https://genius.com/artists/Missy-elliott" rel="noopener" data-api_path="/artists/1529"&gt;Missy Elliott&lt;/a&gt; and &lt;a href="https://genius.com/artists/Lil-kim" rel="noopener" data-api_path="/artists/411"&gt;Lil\' Kim&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Iggy-azalea/Digital-distortion" rel="noopener" data-api_path="/albums/141471"&gt;&lt;em&gt;Digital Distortion&lt;/em&gt;&lt;/a&gt; had been announced as her sophomore project in 2016 but was ultimately scrapped due to label issues. It was slated to include the singles “&lt;a href="https://genius.com/Iggy-azalea-team-lyrics" rel="noopener" data-api_path="/songs/2398025"&gt;Team&lt;/a&gt;”, “&lt;a href="https://genius.com/Iggy-azalea-mo-bounce-lyrics" rel="noopener" data-api_path="/songs/3011565"&gt;Mo Bounce&lt;/a&gt;”, and “&lt;a href="https://genius.com/Iggy-azalea-switch-lyrics" rel="noopener" data-api_path="/songs/3059119"&gt;Switch&lt;/a&gt;”. In late 2017, Iggy revealed she had parted ways with Def Jam Recordings. She joined Island Records in the following year by releasing the single “&lt;a href="https://genius.com/Iggy-azalea-savior-lyrics" rel="noopener" data-api_path="/songs/3422449"&gt;Savior&lt;/a&gt;.” Her first full project in four years titled &lt;a href="https://genius.com/albums/Iggy-azalea/Survive-the-summer-ep" rel="noopener" data-api_path="/albums/379350"&gt;&lt;em&gt;Survive The Summer&lt;/em&gt;&lt;/a&gt; was preceded by the single “&lt;a href="https://genius.com/Iggy-azalea-kream-lyrics" rel="noopener" data-api_path="/songs/3798091"&gt;Kream&lt;/a&gt;” and was finally released on August 3rd, 2018.&lt;/p&gt;\n\n&lt;p&gt;Months after the EP Iggy decided to part ways with her label and be independent. In 2019 she released three singles under her own label Bad Dream Records, the songs &lt;a href="https://genius.com/Iggy-azalea-sally-walker-lyrics" rel="noopener" data-api_path="/songs/4151688"&gt;“Sally Walker,”&lt;/a&gt; &lt;a href="https://genius.com/Iggy-azalea-started-lyrics" rel="noopener" data-api_path="/songs/4308182"&gt;“Started,”&lt;/a&gt; and &lt;a href="https://genius.com/Iggy-azalea-fuck-it-up-lyrics" rel="noopener" data-api_path="/songs/4209478"&gt;“Fuck It Up\'&lt;/a&gt; (with &lt;a href="https://genius.com/artists/Kash-doll" rel="noopener" data-api_path="/artists/331400"&gt;Kash Doll&lt;/a&gt;). The tracks are part of her first full project in five years, her sophomore studio album &lt;a href="https://genius.com/albums/Iggy-azalea/In-my-defense" rel="noopener" data-api_path="/albums/467630"&gt;&lt;em&gt;In My Defense&lt;/em&gt;&lt;/a&gt; that was released on July 19, 2019.&lt;/p&gt;\n\n&lt;p&gt;Soon after that her EP &lt;a href="https://genius.com/albums/Iggy-azalea/Wicked-lips-ep" rel="noopener" data-api_path="/albums/566060"&gt;&lt;em&gt;Wicked Lips&lt;/em&gt;&lt;/a&gt; was released after a short delay due to her being five months pregnant at the time, spawning the lead single &lt;a href="https://genius.com/Iggy-azalea-and-alice-chater-lola-lyrics" rel="noopener" data-api_path="/songs/4939709"&gt;“Lola”&lt;/a&gt;. In 2020 after releasing the Tinashe assisted &lt;a href="https://genius.com/Iggy-azalea-and-tinashe-dance-like-nobodys-watching-lyrics" rel="noopener" data-api_path="/songs/5866911"&gt;“Dance Like Nobody’s Watching”&lt;/a&gt; Iggy Azalea announced her third official studio album titled &lt;a href="https://genius.com/albums/Iggy-azalea/End-of-an-era-deluxe-version" rel="noopener" data-api_path="/albums/801062"&gt;&lt;em&gt;End Of An Era&lt;/em&gt;&lt;/a&gt; released on August 13, 2021. The project’s first official single “Sip It” was released on April 2, 2021 along with the B-side “Brazil”. The second official single of the project “I Am The Strip Club” was released on July 2, 2021.&lt;/p&gt;', 'alternate_names': ['Amethyst Kelly', 'Amethyst Amelia Kelly']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Erasure', 'annotations': {'description': '&lt;p&gt;&lt;img src="https://images.rapgenius.com/49fb726842ac1beeb5661ce204e0c7a7.906x428x1.jpg" alt="" width="906" height="428" data-animated="false"&gt;&lt;/p&gt;\n\n&lt;p&gt;Erasure are an English synthpop duo that formed in London in 1985. Since then, singer/lyricist &lt;a href="https://genius.com/artists/Andy-bell" rel="noopener" data-api_path="/artists/350629"&gt;Andy Bell&lt;/a&gt; (left) and composer/producer &lt;a href="https://genius.com/artists/Vince-clarke" rel="noopener" data-api_path="/artists/494624"&gt;Vince Clarke&lt;/a&gt; (right) have unleashed 18 albums and dozens of singles and EPs onto the charts. Their latest album, &lt;a href="https://genius.com/albums/Erasure/The-neon" rel="noopener" data-api_path="/albums/643348"&gt;&lt;em&gt;The Neon&lt;/em&gt;&lt;/a&gt;, is slated for release on August 2020.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Blind-melon', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Arctic-monkeys', 'annotations': {'description': '&lt;p&gt;Arctic Monkeys is an English rock band formed in 2002 in High Green, a suburb of Sheffield, England. The band consists of &lt;a href="https://genius.com/artists/Alex-turner" rel="noopener" data-api_path="/artists/26178"&gt;Alex Turner&lt;/a&gt; (lead vocals, rhythm/lead guitar), &lt;a href="https://genius.com/artists/Matt-helders" rel="noopener" data-api_path="/artists/50537"&gt;Matt Helders&lt;/a&gt; (drums, vocals), &lt;a href="https://genius.com/artists/Jamie-cook" rel="noopener" data-api_path="/artists/398363"&gt;Jamie Cook&lt;/a&gt; (lead/rhythm guitar) and &lt;a href="https://genius.com/artists/Nick-omalley" rel="noopener" data-api_path="/artists/397891"&gt;Nick O\'Malley&lt;/a&gt; (bass, backing vocals). Former band member Andy Nicholson (bass guitar, backing vocals) left the band in 2006 shortly after their debut album was released. Their sound has changed extensively from album to album, gradually evolving from raw, youthful post-punk revival music to R ‘n’ B and jazz-inspired experiments.&lt;/p&gt;\n\n&lt;p&gt;All four original members of the band were devoted fans of hip-hop when they were younger, a genre that would have an immense influence on their later work, but it was the sound of &lt;a href="https://genius.com/artists/The-strokes" rel="noopener" data-api_path="/artists/12524"&gt;The Strokes&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-libertines" rel="noopener" data-api_path="/artists/20920"&gt;The Libertines&lt;/a&gt; that would help shape their early style. The Arctic Monkeys became one of the first bands to find fame and recognition purely through internet publicity and social media; the Arctics used to sell their demos CDs at a bar where Alex Turner used to work, but due to the limited number of CDs, their fans started to upload them on the internet.&lt;/p&gt;\n\n&lt;p&gt;Initially, they refused to sign a record contract with any label through fear that they would want the band to change their songs, going as far as to refuse scouts guaranteed entry into their gigs. However, they eventually signed with Domino because of the “do it yourself” attitude of founder, Lawrence Bell, who ran the label from his own house.&lt;/p&gt;\n\n&lt;p&gt;The group released their scrappy, spirited debut &lt;a href="https://genius.com/albums/Arctic-monkeys/Whatever-people-say-i-am-that-s-what-i-m-not" rel="noopener" data-api_path="/albums/13108"&gt;&lt;em&gt;Whatever People Say I Am, That’s What I’m Not&lt;/em&gt;&lt;/a&gt; in 2006, an album that spawned their first UK No. 1 singles, &lt;a href="https://genius.com/Arctic-monkeys-i-bet-you-look-good-on-the-dancefloor-lyrics" rel="noopener" data-api_path="/songs/74885"&gt;“I Bet You Look Good on the Dancefloor”&lt;/a&gt; and &lt;a href="https://genius.com/Arctic-monkeys-when-the-sun-goes-down-lyrics" rel="noopener" data-api_path="/songs/75362"&gt;“When the Sun Goes Down”.&lt;/a&gt; They followed it up with &lt;a href="https://genius.com/albums/Arctic-monkeys/Favourite-worst-nightmare" rel="noopener" data-api_path="/albums/14401"&gt;&lt;em&gt;Favourite Worst Nightmare&lt;/em&gt;&lt;/a&gt; in 2007, which took on a more mature lyrical direction, with tighter, more accessible hooks and melodies and more polished production. Their most accessible album to date is &lt;a href="https://genius.com/albums/Arctic-monkeys/Am" rel="noopener" data-api_path="/albums/37951"&gt;&lt;em&gt;AM&lt;/em&gt;&lt;/a&gt;, which contains some of their catchiest and most notable singles, including the indie hit &lt;a href="https://genius.com/albums/Arctic-monkeys/Do-i-wanna-know-single" rel="noopener" data-api_path="/albums/333036"&gt;“Do I Wanna Know?.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Arctic Monkeys subsequently took a five-year break from releasing albums, before returning with their polarising sixth studio album &lt;a href="https://genius.com/albums/Arctic-monkeys/Tranquility-base-hotel-casino" rel="noopener" data-api_path="/albums/398288"&gt;&lt;em&gt;Tranquility Base Hotel and Casino&lt;/em&gt;&lt;/a&gt; in 2018.&lt;/p&gt;', 'alternate_names': ['Death Ramps']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Katrina-and-the-waves', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Mac-miller', 'annotations': {'description': '&lt;p&gt;Malcolm James McCormick (Jan. 19, 1992 – Sept. 7, 2018), who performed as &lt;strong&gt;Mac Miller&lt;/strong&gt;, was an American rapper and producer from Pittsburgh, Pennsylvania. Since releasing his &lt;a href="https://genius.com/albums/Mac-miller/But-my-mackin-ain-t-easy" rel="noopener" data-api_path="/albums/12181"&gt;first mixtape&lt;/a&gt; at just 15 years old, he became one of the leaders of the new school of young and highly talented “weirdos.”&lt;/p&gt;\n\n&lt;p&gt;Mac’s credibility in the rap game increased ten-fold and resulted in a slew of quality releases, including 2012’s &lt;em&gt;&lt;a href="https://genius.com/albums/Mac-miller/Macadelic" rel="noopener" data-api_path="/albums/15274"&gt;Macadelic&lt;/a&gt;&lt;/em&gt; mixtape, his second studio album &lt;em&gt;&lt;a href="https://genius.com/albums/Mac-miller/Watching-movies-with-the-sound-off" rel="noopener" data-api_path="/albums/30268"&gt;Watching Movies With The Sound Off&lt;/a&gt;&lt;/em&gt;, and his critically-acclaimed 2014 mixtape &lt;em&gt;&lt;a href="https://genius.com/albums/Mac-miller/Faces" rel="noopener" data-api_path="/albums/98206"&gt;Faces&lt;/a&gt;&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;He had multiple alter-egos, most notably his producer alias &lt;a href="https://genius.com/artists/Larry-fisherman" rel="noopener" data-api_path="/artists/31881"&gt;Larry Fisherman&lt;/a&gt; and his sick and twisted pitched-up persona (à la &lt;a href="https://genius.com/artists/Quasimoto" rel="noopener" data-api_path="/artists/2092"&gt;Quasimoto,&lt;/a&gt;) &lt;a href="https://genius.com/artists/Delusional-thomas" rel="noopener" data-api_path="/artists/85358"&gt;Delusional Thomas.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Mac spent the early part of his career with &lt;a href="http://www.rostrumrecords.com/" rel="noopener nofollow"&gt;Rostrum Records&lt;/a&gt; until he left on the first month of 2014, becoming an independent artist. In October 2014, he created his own label called “REMember Music” with Warner Bros Records. He capitalized ‘REM’ in tribute to his friend Reuben Eli Mitrani, who tragically died at just 20.&lt;/p&gt;\n\n&lt;p&gt;Mac Miller behind the scenes at Genius:&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;&lt;iframe class="embedly-embed" src="https://cdn.embedly.com/widgets/media.html?src=https%3A%2F%2Fplayers.brightcove.net%2Fpages%2Fv1%2Findex.html%3FaccountId%3D4863540648001%26playerId%3DHklmClHkx%26videoId%3D5237522114001%26mode%3Diframe&amp;amp;url=http%3A%2F%2Fplayers.brightcove.net%2F4863540648001%2FHklmClHkx_default%2Findex.html%3FvideoId%3D5237522114001&amp;amp;image=http%3A%2F%2Fbrightcove.vo.llnwd.net%2Fe1%2Fpd%2F4863540648001%2F4863540648001_5237530493001_5237522114001-vs.jpg%3FpubId%3D4863540648001%26videoId%3D5237522114001&amp;amp;key=e898f7f22a3443a6893439149a6fb36f&amp;amp;type=text%2Fhtml&amp;amp;schema=brightcove" width="800" height="450" scrolling="no" frameborder="0" allowfullscreen&gt;&lt;/iframe&gt;&lt;/div&gt;\n\n&lt;p&gt;On September 7th, 2018, TMZ &lt;a href="http://www.tmz.com/2018/09/07/mac-miller-dead-dies/" rel="noopener nofollow"&gt;reported&lt;/a&gt; that Mac Miller passed away at the young age of 26 in his San Fernando Valley home due to an apparent drug overdose, making his fifth studio album, &lt;a href="https://genius.com/albums/Mac-miller/Swimming" rel="noopener" data-api_path="/albums/433528"&gt;&lt;em&gt;Swimming&lt;/em&gt;&lt;/a&gt;, his last body of work while he was alive. Mac Miller always had issues with drug addiction and drug abuse, both of which were constant themes in his music.&lt;/p&gt;', 'alternate_names': ['Larry Lovestein', "Smoke Mo' Purp", 'Malcolm McCormick', 'Easy Mac', 'M. McCormick', 'Malcolm James McCormick', 'EZ Mac']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Naked-eyes', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Miranda-cosgrove', 'annotations': {'description': '&lt;p&gt;Miranda Cosgrove is an American actress and singer. Her career began at the age of three, when she appeared in television commercials. Her film debut came in 2003, when she played Summer Hathaway in School of Rock. She appeared in a number of minor television roles over several years before coming to prominence as Megan Parker on the Nickelodeon TV series Drake &amp;amp; Josh. A few years later, she landed the role of Carly Shay, the lead character in the Nickelodeon TV series iCarly.&lt;/p&gt;\n\n&lt;p&gt;As of May 2010, Cosgrove earned $180,000 per episode of iCarly, making her the second-highest-paid child star on television. Following the success of iCarly, a &lt;a href="https://genius.com/albums/Various-artists/Icarly-soundtrack" rel="noopener" data-api_path="/albums/122122"&gt;soundtrack album&lt;/a&gt; was released in June 2008, in which she performed four songs. Her debut album, &lt;em&gt;Sparks Fly&lt;/em&gt;, was released on April 27, 2010.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Icona-pop', 'annotations': {'description': '&lt;p&gt;Arguably one of the most anthemic musical duos out there, the pair of Swedish electropop women together known as Icona Pop have been impacting the charts and the dance floors since 2009. Comprised of Stockholm-raised Caroline Hjelt and Aino Jawo, who met accidentally at a party, Icona Pop seeks to make among the world’s best dancepop and synthpop music. The two came to the spotlight initially with the powerfully spunky &lt;a href="https://genius.com/Icona-pop-manners-lyrics" rel="noopener" data-api_path="/songs/121961"&gt;“Manners”&lt;/a&gt; as part of 2011 EP &lt;em&gt;Nights Like This&lt;/em&gt;, drawing attention from &lt;em&gt;NME&lt;/em&gt; and &lt;em&gt;The Guardian&lt;/em&gt;, among other publications.&lt;/p&gt;\n\n&lt;p&gt;In the late spring of 2012, Icona Pop gave the world a pre-release single off their debut album &lt;a href="https://genius.com/albums/Icona-pop/icona-pop" rel="noopener" data-api_path="/albums/124734"&gt;&lt;em&gt;Icona Pop&lt;/em&gt;&lt;/a&gt; and the EP &lt;a href="https://genius.com/albums/Icona-pop/Iconic-EP" rel="noopener"&gt;&lt;em&gt;Iconic&lt;/em&gt;&lt;/a&gt; – the would-be titanic hit &lt;a href="https://genius.com/Icona-pop-i-love-it-lyrics" rel="noopener" data-api_path="/songs/78587"&gt;“I Love It”&lt;/a&gt; featuring the rising UK artist &lt;a href="https://genius.com/artists/Charli-xcx" rel="noopener" data-api_path="/artists/45349"&gt;Charli XCX&lt;/a&gt; and producer &lt;a href="https://genius.com/artists/Patrik-berger" rel="noopener" data-api_path="/artists/45369"&gt;Patrik Berger&lt;/a&gt;, of &lt;a href="https://genius.com/artists/Robyn" rel="noopener" data-api_path="/artists/1182"&gt;Robyn&lt;/a&gt; fame. The maximalist track, anthemic and nihilistic, found itself on the soundtracks of many major projects, namely &lt;em&gt;Girls&lt;/em&gt;, &lt;em&gt;The Vampire Desires&lt;/em&gt;, &lt;em&gt;Glee&lt;/em&gt; and many commercials. “I Love It” eventually rolled to a Top 10 hit status on the Billboard charts and topped the UK Singles chart, selling over 4 million downloads worldwide. The eponymous album faltered chart-wise, but the rest of the album was no less significant than “I Love It” in shaping the synthpop artists\' signature sound. The two also found themselves opening the North American leg of &lt;a href="https://genius.com/artists/Marina-and-the-diamonds" rel="noopener" data-api_path="/artists/27048"&gt;Marina and the Diamonds&lt;/a&gt;‘ tour accompanying Diamandis’ &lt;em&gt;Electra Heart&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;Come 2013, the duo pushed out the feminist &lt;a href="https://genius.com/Icona-pop-girlfriend-lyrics" rel="noopener" data-api_path="/songs/158502"&gt;“Girlfriend”&lt;/a&gt;, interpolating a &lt;a href="https://genius.com/artists/2pac" rel="noopener" data-api_path="/artists/59"&gt;2Pac&lt;/a&gt; track, which previewed Icona Pop’s debut international album, &lt;a href="https://genius.com/albums/Icona-pop/This-is-icona-pop" rel="noopener" data-api_path="/albums/121246"&gt;&lt;em&gt;This Is…Icona Pop&lt;/em&gt;&lt;/a&gt;, after the releases of “I Love It” and &lt;a href="https://genius.com/Icona-pop-we-got-the-world-lyrics" rel="noopener" data-api_path="/songs/1865855"&gt;“We Got The World”&lt;/a&gt; in 2012. &lt;a href="https://genius.com/Icona-pop-all-night-lyrics" rel="noopener" data-api_path="/songs/194135"&gt;“All Night”&lt;/a&gt; came not long after, topping the Billboard dance chart. &lt;em&gt;This Is…&lt;/em&gt; marked the true establishment of the Swedes into the dance scene, with its jam-packed nature of maximalist, genre-bending tracks and youthful lyrics of dual emotions. The next year, in 2014, the Swedish duo released &lt;a href="https://genius.com/Icona-pop-get-lost-lyrics" rel="noopener" data-api_path="/songs/461816"&gt;“Get Lost”&lt;/a&gt;, and worked as opening acts of Miley Cyrus and Katy Perry.&lt;/p&gt;\n\n&lt;p&gt;In 2015, Icona Pop released dance chart topper &lt;a href="https://genius.com/Icona-pop-emergency-lyrics" rel="noopener" data-api_path="/songs/1912355"&gt;“Emergency”&lt;/a&gt;, featured on the enormously popular video game &lt;em&gt;FIFA 16&lt;/em&gt;. The infectious hit previewed an EP of the same name, and Icona Pop was soon announced as an opening act for the massively popular 2015 One Direction tour. In March of 2016, the Swedes debuted their track &lt;a href="https://genius.com/Icona-pop-someone-who-can-dance-lyrics" rel="noopener" data-api_path="/songs/2428544"&gt;“Someone Who Can Dance”&lt;/a&gt; at the Swedish Grammys, to relative critical excitement. In October of the same year, the duo released &lt;a href="https://genius.com/Icona-pop-brightside-lyrics" rel="noopener" data-api_path="/songs/2882216"&gt;“Brightside”&lt;/a&gt;, an anthem celebrating their friendship. In June 2017, &lt;a href="https://genius.com/Icona-pop-girls-girls-lyrics" rel="noopener" data-api_path="/songs/3110204"&gt;“GIRLS GIRLS”&lt;/a&gt; was released. In October of 2018, the duo came back with a disco song &lt;a href="https://genius.com/Icona-pop-rhythm-in-my-blood-lyrics" rel="noopener" data-api_path="/songs/3955727"&gt;“Rhythm in My Blood”&lt;/a&gt;. It’s quite apparent that Icona Pop have the potential to change the state of musical maximalism and synthpop for the ages, provided the right tools – who knows what kind of anthem they’ll pump out next?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Yeah-yeah-yeahs', 'annotations': {'description': '&lt;p&gt;An Art-Punk band formed out of New York’s Post-Punk Revival scene in the late 1990s / early 2000s, the Yeah Yeah Yeahs are composed of lead vocalist Karen O, guitarist Nick Zinner, and drummer Brian Chase. Best songs include “Maps”, “Y Control”, “Cheated Hearts”, “Turn Into”, “Zero”, and “Heads Will Roll”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Carl-ward', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Fifth-harmony', 'annotations': {'description': '&lt;p&gt;Fifth Harmony is a girl group that formed out of contestants on the 2012 edition of &lt;em&gt;The X Factor USA&lt;/em&gt;, chosen by &lt;a href="https://genius.com/artists/Simon-cowell" rel="noopener" data-api_path="/artists/653533"&gt;Simon Cowell&lt;/a&gt;: &lt;a href="https://genius.com/artists/Ally-brooke-hernandez" rel="noopener" data-api_path="/artists/653060"&gt;Ally Brooke Hernandez,&lt;/a&gt; &lt;a href="https://genius.com/artists/Normani-kordei" rel="noopener" data-api_path="/artists/636165"&gt;Normani Kordei,&lt;/a&gt; &lt;a href="https://genius.com/artists/Lauren-jauregui" rel="noopener" data-api_path="/artists/653062"&gt;Lauren Jauregui,&lt;/a&gt; &lt;a href="https://genius.com/artists/Dinah-jane-hansen" rel="noopener" data-api_path="/artists/653061"&gt;Dinah Jane Hansen,&lt;/a&gt; and &lt;a href="https://genius.com/artists/Camila-cabello" rel="noopener" data-api_path="/artists/609667"&gt;Camila Cabello&lt;/a&gt;. Despite being eliminated at third place, Fifth Harmony moved on to being signed with Syco Music.&lt;/p&gt;\n\n&lt;p&gt;Their first album, &lt;a href="https://genius.com/albums/Fifth-harmony/Reflection" rel="noopener" data-api_path="/albums/117788"&gt;&lt;em&gt;Reflection&lt;/em&gt;,&lt;/a&gt; was released on February 3rd, 2015, and peaked at number 5 on the Billboard 200, becoming their second top ten on that chart following their 2013 EP, &lt;a href="https://genius.com/albums/Fifth-harmony/Better-together" rel="noopener" data-api_path="/albums/46107"&gt;&lt;em&gt;Better Together.&lt;/em&gt;&lt;/a&gt; The album also merited their first top 40 single, &lt;a href="https://genius.com/Fifth-harmony-sledgehammer-lyrics" rel="noopener" data-api_path="/songs/575010"&gt;“Sledgehammer.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Their second album,\xa0&lt;a href="https://genius.com/albums/Fifth-harmony/7-27" rel="noopener" data-api_path="/albums/144962"&gt;&lt;em&gt;7/27&lt;/em&gt;,&lt;/a&gt;\xa0was released on May 27th, 2016 and debuted at number 4 on the Billboard 200, making it the group’s highest charting album to date. Its lead single, &lt;a href="https://genius.com/Fifth-harmony-work-from-home-lyrics" rel="noopener" data-api_path="/songs/2427392"&gt;“Work From Home”&lt;/a&gt; featuring rapper &lt;a href="https://genius.com/artists/Ty-dolla-sign" rel="noopener" data-api_path="/artists/25005"&gt;Ty Dolla Sign,&lt;/a&gt; catapulted the girls even further into mainstream success. The track debuted on the Billboard Hot 100 at #12 and reached #4 after 13 weeks and became the girls\' highest-charting single in the U.S. and the first top-five single in the country by a girl group since &lt;a href="https://genius.com/The-pussycat-dolls-buttons-lyrics" rel="noopener" data-api_path="/songs/2865650"&gt;“Buttons”&lt;/a&gt; by &lt;a href="https://genius.com/artists/The-pussycat-dolls" rel="noopener" data-api_path="/artists/8390"&gt;The Pussycat Dolls.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;On December 19th of 2016, it was &lt;a href="https://twitter.com/FifthHarmony/status/810711337789771776" rel="noopener nofollow"&gt;announced via Twitter&lt;/a&gt; that &lt;a href="https://genius.com/artists/Camila-cabello" rel="noopener" data-api_path="/artists/609667"&gt;Camila Cabello&lt;/a&gt; would be breaking apart from the group to further pursue solo endeavors.&lt;/p&gt;\n\n&lt;p&gt;On June 2, 2017, Fifth Harmony released “&lt;a href="https://genius.com/Fifth-harmony-down-lyrics" rel="noopener" data-api_path="/songs/3102103"&gt;Down&lt;/a&gt;” as the first single as a four-piece group, featuring rapper &lt;a href="https://genius.com/artists/Gucci-mane" rel="noopener" data-api_path="/artists/13"&gt;Gucci Mane&lt;/a&gt;. Their &lt;a href="https://genius.com/albums/Fifth-harmony/Fifth-harmony" rel="noopener" data-api_path="/albums/344985"&gt;self-titled third album&lt;/a&gt; followed on August 25, 2017.&lt;/p&gt;\n\n&lt;p&gt;On March 19, 2018, after almost six years of being a band, the group posted this statement to their social medias announcing their hiatus to “pursue solo endeavours:”&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview"&gt;\n&lt;blockquote class="twitter-tweet"&gt;&lt;a href="https://twitter.com/fifthharmony/status/975718651595771904"&gt;&lt;/a&gt;&lt;/blockquote&gt;\n&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;\n&lt;/div&gt;', 'alternate_names': ['5th Harmony']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Huey-lewis-and-the-news', 'annotations': {'description': '&lt;p&gt;Huey Lewis and the News is a pop rock band from San Francisco who had a series of hit singles in the 1980s and early 90s. They’re best known for their “instantly memorable hooks, driven home with economical precision by a tight bar band,” &lt;a href="http://www.allmusic.com/album/sports-mw0000195256" rel="noopener nofollow"&gt;[1]&lt;/a&gt; especially in their back-to-back multiplatinum albums &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Sports" rel="noopener" data-api_path="/albums/125836"&gt;&lt;em&gt;Sports&lt;/em&gt;&lt;/a&gt; (1983) and &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore&lt;/em&gt;&lt;/a&gt; (1986). Their song &lt;a href="https://genius.com/Huey-lewis-and-the-news-hip-to-be-square-lyrics" rel="noopener" data-api_path="/songs/147345"&gt;“Hip to be Square,”&lt;/a&gt; on &lt;a href="https://genius.com/albums/Huey-lewis-and-the-news/Fore" rel="noopener" data-api_path="/albums/32925"&gt;&lt;em&gt;Fore!&lt;/em&gt;&lt;/a&gt;, was made famous in a scene in &lt;em&gt;American Psycho&lt;/em&gt;, in which Pat Bateman says:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;In ‘87, Huey released &lt;em&gt;Fore!&lt;/em&gt;, their most accomplished album. I think their undisputed masterpiece is “Hip to Be Square,” a song so catchy most people probably don’t listen to the lyrics. But they &lt;em&gt;should&lt;/em&gt;, because it’s not just about the pleasures of conformity, and the importance of trends, it’s also a personal statement about the band itself.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;The band got its start when singer and harmonica player &lt;a href="https://genius.com/artists/Huey-lewis" rel="noopener" data-api_path="/artists/61400"&gt;Huey Lewis&lt;/a&gt; and keyboardist &lt;a href="https://genius.com/artists/Sean-hopper" rel="noopener" data-api_path="/artists/582291"&gt;Sean Hopper&lt;/a&gt; hooked up with a Bay Area jazz-funk band called &lt;a href="https://genius.com/artists/Clover" rel="noopener" data-api_path="/artists/355320"&gt;Clover&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;After &lt;em&gt;Fore!&lt;/em&gt; the band declined in stature, and the lineup changed substantially. They recorded the theme song to the 2008 movie &lt;em&gt;Pineapple Express&lt;/em&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-kid-laroi', 'annotations': {'description': '&lt;p&gt;Charlton Kenneth-Jeffery Howard (b. August 17, 2003), better known as The Kid Laroi (stylized as The Kid LAROI), is an Australian rapper/singer hailing from South Sydney.&lt;/p&gt;\n\n&lt;p&gt;Originally from the Redfern/Waterloo area, The Kid Laroi’s precocious talent impressed the Australian underground hip-hop scene. His first demo &lt;a href="https://genius.com/The-kid-laroi-disconnect-demo-lyrics" rel="noopener" data-api_path="/songs/3882778"&gt;“Disconnect”&lt;/a&gt; was &lt;a href="http://www.abc.net.au/triplej/programs/triplej-breakfast/ue-high-finalist-the-kid-laroi/10077264" rel="noopener nofollow"&gt;even selected as a &lt;em&gt;Triple J&lt;/em&gt; Unearthed High 2018 finalist&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;He soon caught the attention of American rappers &lt;a href="https://genius.com/artists/lil-skies" rel="noopener" data-api_path="/artists/1015007"&gt;Lil Skies&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Juice-wrld" rel="noopener" data-api_path="/artists/1237094"&gt;Juice WRLD&lt;/a&gt;. In early January 2019, Laroi toured with Juice WRLD during his Australian tour. It was announced shortly after the tour with Juice that he would also be the supporting act of &lt;a href="https://genius.com/artists/denzel-curry" rel="noopener" data-api_path="/artists/16690"&gt;Denzel Curry&lt;/a&gt;’s Sydney concert. This opened up more opportunities, including a career-changing slot at &lt;em&gt;Rolling Loud&lt;/em&gt; 2019 for the then 16 year old.&lt;/p&gt;\n\n&lt;p&gt;Laroi soon relocated to the US, utilising a strong social media presence to build a rapidly growing fanbase. In June 2020, Laroi and late mentor Juice WRLD released their long-awaited collaboration titled &lt;a href="https://genius.com/The-kid-laroi-and-juice-wrld-go-lyrics" rel="noopener" data-api_path="/songs/5288212"&gt;“GO,“&lt;/a&gt; which &lt;a href="https://www.billboard.com/music/juice-wrld/chart-history/HSI/song/1208449" rel="noopener nofollow"&gt;peaked at #52&lt;/a&gt; on the &lt;em&gt;Billboard&lt;/em&gt; charts.&lt;/p&gt;\n\n&lt;p&gt;Laroi released his debut studio mixtape, &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love" rel="noopener" data-api_path="/albums/599735"&gt;&lt;em&gt;F*CK LOVE&lt;/em&gt;&lt;/a&gt;, on July 24, 2020. The mixtape showed a young artist experimenting with different musical styles resembling more of a melodic blend of pop and emo rap, as he sang and rapped on issues of love and broken hearts.&lt;/p&gt;\n\n&lt;p&gt;In November 2020, Laroi released a deluxe version of this mixtape, titled &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love-savage" rel="noopener" data-api_path="/albums/672580"&gt;&lt;i&gt;F*CK LOVE (SAVAGE)&lt;/i&gt;&lt;/a&gt;. The project was led by the hit track &lt;a href="https://genius.com/The-kid-laroi-so-done-lyrics" rel="noopener" data-api_path="/songs/5289231"&gt;“SO DONE”&lt;/a&gt; and ultimately saw five of its seven tracks reach the &lt;em&gt;Billboard Hot 100&lt;/em&gt;.&lt;/p&gt;\n\n&lt;p&gt;For the majority of this time, Laroi had been signed to &lt;a href="https://genius.com/artists/lil-bibby" rel="noopener" data-api_path="/artists/33238"&gt;Lil Bibby&lt;/a&gt; management &lt;a href="https://genius.com/artists/Grade-a-productions" rel="noopener" data-api_path="/artists/669837"&gt;Grade A Productions&lt;/a&gt; and Columbia Records/Sony Music Australia. In June 2021, it was announced that Laroi would be managed by &lt;a href="https://www.nme.com/en_au/news/music/the-kid-laroi-joins-scooter-braun-projects-management-roster-2956308" rel="noopener nofollow"&gt;none other than Scooter Braun&lt;/a&gt;, famous for managing &lt;a href="https://genius.com/artists/justin-bieber" rel="noopener" data-api_path="/artists/357"&gt;Justin Bieber&lt;/a&gt; and &lt;a href="https://genius.com/artists/ariana-grande" rel="noopener" data-api_path="/artists/26507"&gt;Ariana Grande&lt;/a&gt; amongst others.&lt;/p&gt;\n\n&lt;p&gt;In July 2021, Laroi released another deluxe version of his mixtape titled &lt;a href="https://genius.com/albums/The-kid-laroi/F-ck-love-3-over-you" rel="noopener" data-api_path="/albums/695020"&gt;&lt;em&gt;F&lt;/em&gt;CK LOVE 3: Over You*&lt;/a&gt;. The mixtape featured a star-studded features list including Justin Bieber, Machine Gun Kelly and Polo G. The mixtape debuted at #1 on the Billboard Global 200, making Laroi the &lt;a href="https://www.abc.net.au/triplej/news/musicnews/the-kid-laroi-1-billboard-200-us-chart-records-f*ck-love/13479922" rel="noopener nofollow"&gt;youngest artist to make #1 since Billie Eilish in 2019&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Laroi’s debut album is expected to drop in late 2021/early 2022.&lt;/p&gt;\n\n&lt;hr&gt;\n\n\n&lt;p&gt;Howard’s moniker ‘Laroi’ is derived from his Indigenous Australian roots, namely the &lt;a href="https://en.wikipedia.org/wiki/Gamilaraay" rel="noopener nofollow"&gt;Gamilaraay/Gomeroi/Kamilaroi/Gamilaroi&lt;/a&gt; people of northern inland New South Wales. They are one of the four largest Indigenous nations in Australia.&lt;/p&gt;\n\n&lt;p&gt;The name is formed from “gamil”, meaning “no”, and the suffix -(b)araay, bearing the sense of “having”. It is a common practice among Australian tribes to have themselves identified according to their respective words for “no”. Unfortunately, the spoken language is considered to have died out by the 1950s, although anthropological research seeks to piece it together once more.&lt;/p&gt;', 'alternate_names': ['Charlton Kenneth-Jeffery Howard', 'Charlton Howard', 'Laroi']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/The-fratellis', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://genius.com/artists/The-fratellis" rel="noopener" data-api_path="/artists/23288"&gt;The Fratellis&lt;/a&gt; is a three-part Scottish rock band from Glasgow who formed in 2005. The band name originated from the crime family from the famous movie, “&lt;a href="https://en.wikipedia.org/wiki/The_Goonies#Plot" rel="noopener nofollow"&gt;The Goonies&lt;/a&gt;”. When translated from Italian—Fratelli means brother—indicating that they are brothers despite having no blood-relation.&lt;/p&gt;\n\n&lt;p&gt;The trio released their first EP (&lt;a href="https://en.wikipedia.org/wiki/The_Fratellis_%28EP" rel="noopener nofollow"&gt;The Fratellis EP&lt;/a&gt;), the EP featured one of their most popular songs to date, “&lt;a href="https://genius.com/The-fratellis-creepin-up-the-backstairs-lyrics" rel="noopener" data-api_path="/songs/1270557"&gt;Creepin’ Up The Backstairs&lt;/a&gt;”. The EP eventually led to their first big break when &lt;a href="https://genius.com/The-fratellis-creepin-up-the-backstairs-lyrics" rel="noopener" data-api_path="/songs/1270557"&gt;Jim Gellatly&lt;/a&gt; had heard the EP he immediately invited them to perform a few songs on his &lt;a href="http://www.beatscene.net/" rel="noopener nofollow"&gt;Beatscene show&lt;/a&gt; (which aired on &lt;a href="http://www.capitalfm.com/scotland/" rel="noopener nofollow"&gt;Galaxy Scotland&lt;/a&gt;).&lt;/p&gt;\n\n&lt;p&gt;Once the radio show had gone public &lt;a href="http://www.falloutrecords.com/" rel="noopener nofollow"&gt;Fallout Records&lt;/a&gt; quickly snapped The Fratellis up. Quickly resulting in their debut album, and their most prevalent album to date; &lt;a href="https://genius.com/albums/The-fratellis/Costello-music" rel="noopener" data-api_path="/albums/19783"&gt;Costello Music&lt;/a&gt;. This album catapulted the band into success winning &lt;a href="http://www.brits.co.uk/history/shows/2007#" rel="noopener nofollow"&gt;Brit Award for British Breakthrough Act&lt;/a&gt; in 2007. Afterwards, The Fratellis went onto support massive UK-rock act &lt;a href="http://www.genius.com/artists/kasabian" rel="noopener" data-api_path="/artists/20020"&gt;Kasabian&lt;/a&gt; before their ten-date tour which included Manchester, London and their hometown Glasgow. “&lt;a href="https://www.youtube.com/watch?v=RYhQ8hLhuPY" rel="noopener nofollow"&gt;Baby Fratelli&lt;/a&gt;” was involved in the British drama &lt;a href="https://en.wikipedia.org/wiki/Hot_Fuzz" rel="noopener nofollow"&gt;Hot Fuzz&lt;/a&gt;, where comical duo &lt;a href="https://en.wikipedia.org/wiki/Nick_Frost" rel="noopener nofollow"&gt;Nick Frost&lt;/a&gt; and &lt;a href="https://en.wikipedia.org/wiki/Simon_Pegg" rel="noopener nofollow"&gt;Simon Pegg&lt;/a&gt; starred.&lt;/p&gt;\n\n&lt;p&gt;After an astonishing result from their debut album and a slight hiatus, they were ready to bring out more music for their fans. The release of&lt;br&gt;\n“&lt;a href="https://genius.com/albums/The-fratellis/Here-we-stand" rel="noopener" data-api_path="/albums/207791"&gt;Here We Stand&lt;/a&gt;” came in June 2008. This album made them popular worldwide as they were asked to play shows from all over the U.S. — which they sold out. In the eyes of the public, The Fratellis were proper Scottish stars after the release of their single, “&lt;a href="https://genius.com/The-fratellis-look-out-sunshine-lyrics" rel="noopener" data-api_path="/songs/1631717"&gt;Look Out Sunshine!&lt;/a&gt;” it was released that all proceeds from said single were donated to &lt;a href="https://www.teenagecancertrust.org/about-us/our-story/music/royal-albert-hall/previous-shows/2008" rel="noopener nofollow"&gt;Teenage Cancer Trust&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;In 2013 it was announced that there was a third album finished and given a date of October 2013 as an official release. The album led to even more success as another highly successful tour came which featured the UK, US, Europe and Japan. Announcing more dates in Russia shortly after.&lt;br&gt;\nHowever, in September 2014 The Fratellis secretly released a free EP on &lt;a href="http://www.thefratellis.com/" rel="noopener nofollow"&gt;their website&lt;/a&gt;, named “&lt;a href="https://genius.com/albums/The-fratellis/The-soul-crush-ep" rel="noopener" data-api_path="/albums/144763"&gt;The Soul Crush EP&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Showing a tremendous work ethic only a year later another album was announced and released in August 2015 through &lt;a href="http://cookingvinyl.com/" rel="noopener nofollow"&gt;Cooking Vinyl Records&lt;/a&gt;.&lt;br&gt;\nNearing the end of 2016, they marked the &lt;a href="http://thefratellis.com/site/costello-music-celebrating-its-10th-anniversary/" rel="noopener nofollow"&gt;10th Anniversary&lt;/a&gt; since the release of Costello Music by playing sixteen separate shows throughout a two month period.&lt;/p&gt;\n\n&lt;p&gt;Despite their chosen genre and sales declining The Fratellis released another album, “&lt;a href="https://genius.com/albums/The-fratellis/In-your-own-sweet-time" rel="noopener" data-api_path="/albums/378523"&gt;In Your Own Sweet Time&lt;/a&gt;” which came with the help of producer &lt;a href="https://genius.com/artists/Tony-hoffer" rel="noopener" data-api_path="/artists/61426"&gt;Tony Hoffer&lt;/a&gt;.&lt;/p&gt;\n\n&lt;hr&gt;\n\n&lt;p&gt;&lt;strong&gt;LINE-UP&lt;/strong&gt;&lt;br&gt;\nLead Vocals/Guitar – Jon Fratelli (John Lawler)&lt;br&gt;\nBass Guitar – Barry “Baz” Fratelli (Barry Wallace)&lt;br&gt;\nDrummer/Backing – Mince Fratelli (Gordon McRory)&lt;/p&gt;\n\n&lt;p&gt;&lt;strong&gt;TOURING MEMBERS&lt;/strong&gt;&lt;br&gt;\nKeyboards/Piano – Will Foster&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Shaggy', 'annotations': {'description': '&lt;p&gt;Orville Richard Burrell CD (born October 22, 1968), known mostly by his stage name Shaggy, is a Jamaican reggae fusion singer and deejay. He took his nickname from Shaggy Rogers, from the cartoon Scooby Doo.&lt;/p&gt;\n\n&lt;p&gt;He was born on October 22, 1968 in Kingston, Jamaica. In 1975 he and his family moved to Brooklyn, New York.&lt;/p&gt;\n\n&lt;p&gt;The singer released his first hit “Oh Carolina” in 1993, which was a dancehall re-make of a ska hit by the Folkes Brothers.&lt;br&gt;\nIn 1995 he published his most famous hit “Boombastic”.&lt;br&gt;\nIn 2000, Shaggy released the album Hot Shot, which was certified 6x Platinum in the U.S. The album featured the singles “It Wasn’t Me” and “Angel”.&lt;/p&gt;', 'alternate_names': ['Mr. Boombastic', 'Orville Burrell', 'Orville Richard Burrell', 'Orville R. Burrell']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/George-michael', 'annotations': {'description': '&lt;p&gt;George Michael was an English singer, songwriter, and producer.  He was born &lt;a href="http://www.bbc.com/news/entertainment-arts-15925376" rel="noopener nofollow"&gt;Georgios Kyriacos Panayiotou on June 25, 1963&lt;/a&gt;, in East Finchley, London.  His mother Lesley Angold Panayiotou was an English dancer and his father Kyriakos “Jack” Panayiotou was a Greek Cypriot restaurateur.&lt;/p&gt;\n\n&lt;p&gt;From 1981 to 1986, Michael was a member of the pop duo &lt;a href="https://genius.com/artists/Wham" rel="noopener" data-api_path="/artists/15441"&gt;Wham!&lt;/a&gt;, which he formed with childhood friend &lt;a href="https://genius.com/artists/Andrew-ridgeley" rel="noopener" data-api_path="/artists/351162"&gt;Andrew Ridgeley&lt;/a&gt;. The duo went on to sell over 28 million albums before their amicable split.&lt;/p&gt;\n\n&lt;p&gt;After going solo in 1987, Michael became known for his provocative and massively popular pop music. His debut solo album, &lt;em&gt;&lt;a href="https://genius.com/albums/George-michael/Faith" rel="noopener" data-api_path="/albums/26960"&gt;Faith&lt;/a&gt;&lt;/em&gt;, went on to sell more than 20 million copies.&lt;/p&gt;\n\n&lt;p&gt;Michael passed away at the age of 53 on December 25, 2016 of a &lt;a href="http://www.cnn.com/2017/03/07/europe/george-michael-death-natural-causes-coroner/" rel="noopener nofollow"&gt;heart condition&lt;/a&gt;. At the time of his death, Michael had sold more than &lt;a href="http://www.billboard.com/articles/news/7633292/george-michael-dead" rel="noopener nofollow"&gt;115 million records worldwide&lt;/a&gt;, making him one of the best selling music artists of all time.&lt;/p&gt;', 'alternate_names': ['Georgios Kyriacos Panayiotou', 'G.K. Panayiotou']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/September', 'annotations': {'description': '&lt;p&gt;Petra Marklund, also known as September, is a Swedish singer, songwriter, and television presenter. Whilst she has had a string of hit singles in her homeland, she is best-known worldwide for the song “&lt;a href="https://genius.com/September-cry-for-you-original-version-lyrics" rel="noopener" data-api_path="/songs/1652839"&gt;Cry for You&lt;/a&gt;”.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Mc-hammer', 'annotations': {'description': '&lt;p&gt;Stanley Kirk Burrell (born 30 March 1962), better known by his stage name &lt;a href="https://genius.com/artists/Mc-hammer" rel="noopener" data-api_path="/artists/1039"&gt;MC Hammer&lt;/a&gt;, is an American rapper, dancer, entrepreneur, spokesman and occasional actor from Oakland, California. He had his greatest commercial success and popularity from the late 1980s until the late 1990s. Remembered for his rapid rise to fame, Hammer is known for his hit records (such as “&lt;a href="https://genius.com/Mc-hammer-u-cant-touch-this-lyrics" rel="noopener" data-api_path="/songs/2161"&gt;U Can’t Touch This&lt;/a&gt;” and “&lt;a href="https://genius.com/Mc-hammer-2-legit-2-quit-lyrics" rel="noopener" data-api_path="/songs/22245"&gt;2 Legit 2 Quit&lt;/a&gt;”), flashy dance movements, choreography and his trademark Hammer pants. Hammer’s superstar-status and entertaining showmanship made him a household name and &lt;a href="https://genius.com/artists/Hip-hop" rel="noopener" data-api_path="/artists/15296"&gt;Hip-Hop&lt;/a&gt; icon. He has sold more than fifty million records worldwide.&lt;/p&gt;\n\n&lt;p&gt;A multi-award winner, &lt;a href="https://genius.com/artists/Mc-hammer" rel="noopener" data-api_path="/artists/1039"&gt;MC Hammer&lt;/a&gt; is considered a pioneer and innovator of pop rap, and is the first &lt;a href="https://genius.com/artists/Hip-hop" rel="noopener" data-api_path="/artists/15296"&gt;Hip-Hop&lt;/a&gt; artist to achieve diamond status for an album. Hammer was later considered a sellout due in part to overexposure as an entertainer, and as a result of being too “commercial” when &lt;a href="https://genius.com/artists/Rap" rel="noopener" data-api_path="/artists/25080"&gt;Rap&lt;/a&gt; was “hardcore”, then his image later becoming increasingly “gritty” to once again adapt to the ever-changing landscape of rap. Burrell became a preacher during the late 1990s with a Christian ministry program called MC Hammer and Friends. Additionally, he starred in a Saturday morning cartoon called Hammerman in 1991 and was executive producer of his own reality show called Hammertime which aired during the summer of 2009. Prior to becoming ordained, Hammer signed to &lt;a href="https://genius.com/artists/Suge-knight" rel="noopener" data-api_path="/artists/660037"&gt;Suge Knight&lt;/a&gt;’s &lt;a href="https://genius.com/artists/Death-row-records" rel="noopener" data-api_path="/artists/149462"&gt;Death Row Records&lt;/a&gt; in 1995.&lt;/p&gt;\n\n&lt;p&gt;Throughout his career, Hammer has managed his own recording business. As a result, he has created and produced his own acts including Oaktown’s 3.5.7, Common Unity, Special Generation, Analise, One Cause One Effect, Teabag, Dom Kimberley, Geeman, DRS, Pleasure Ellis, B Angie B, Stooge Playaz, Ho Frat Hoo! and Wee Wee, among others. A part of additional record labels, he has collaborated and has been associated with &lt;a href="https://genius.com/artists/2pac" rel="noopener" data-api_path="/artists/59"&gt;2Pac&lt;/a&gt;, Teddy Riley, Felton Pilate, &lt;a href="https://genius.com/artists/Tha-dogg-pound" rel="noopener" data-api_path="/artists/464"&gt;Tha Dogg Pound&lt;/a&gt;, The Whole 9, Deion Sanders, and &lt;a href="https://genius.com/artists/Big-daddy-kane" rel="noopener" data-api_path="/artists/202"&gt;Big Daddy Kane&lt;/a&gt;, as well as others.&lt;/p&gt;', 'alternate_names': ['Stanley Burrell', 'Stanley Kirk Burrell', 'Hammer']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Steve-winwood', 'annotations': {'description': '&lt;p&gt;&lt;a href="https://en.wikipedia.org/wiki/Steve_Winwood" rel="noopener nofollow"&gt;Steven Lawrence Winwood&lt;/a&gt; is most famous for his solo work, including two number one hits &lt;a href="https://genius.com/Steve-winwood-higher-love-lyrics" rel="noopener" data-api_path="/songs/700681"&gt;Higher Love&lt;/a&gt; and &lt;a href="https://genius.com/Steve-winwood-roll-with-it-lyrics" rel="noopener" data-api_path="/songs/443038"&gt;Roll with It&lt;/a&gt;, and for being the member of two supergroups, &lt;a href="https://genius.com/artists/Traffic" rel="noopener" data-api_path="/artists/1129889"&gt;Traffic&lt;/a&gt; and &lt;a href="https://genius.com/artists/Blind-faith" rel="noopener" data-api_path="/artists/139433"&gt;Blind Faith&lt;/a&gt;, along with helping found the &lt;a href="https://genius.com/artists/Blind-faith" rel="noopener" data-api_path="/artists/139433"&gt;Spencer Davis Group&lt;/a&gt; at fourteen years old.&lt;/p&gt;\n\n&lt;p&gt;Speaking of which, Mozart had nothing on Winwood as a keyboard virtuoso:&lt;/p&gt;\n\n&lt;p&gt;As a boy in middle school, little Stevie Winwood played the Hammond synth for Blues gods and Rock &amp;amp; Roll founders like  &lt;a href="https://genius.com/artists/Muddy-waters" rel="noopener" data-api_path="/artists/65145"&gt;Muddy Waters&lt;/a&gt;, &lt;a href="https://genius.com/artists/John-lee-hooker" rel="noopener" data-api_path="/artists/59462"&gt;John Lee Hooker&lt;/a&gt;, &lt;a href="https://genius.com/artists/Howlin-wolf" rel="noopener" data-api_path="/artists/65010"&gt;Howlin\' Wolf&lt;/a&gt;, &lt;a href="https://genius.com/artists/Bb-king" rel="noopener" data-api_path="/artists/1107"&gt;B.B. King&lt;/a&gt;, &lt;a href="https://genius.com/artists/Chuck-berry" rel="noopener" data-api_path="/artists/19340"&gt;Chuck Berry&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bo-diddley" rel="noopener" data-api_path="/artists/133941"&gt;Bo Diddley&lt;/a&gt;, when they toured in Britain. We’d list more, but it’s exhausting to link all of those names.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/VwqsmNR_Q1M?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;&lt;br&gt;\nStevie Winwood playing keyboard at 15 years old.', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Daughtry', 'annotations': {'description': '&lt;p&gt;Daughtry is an American rock band formed and fronted by namesake Chris Daughtry, who was a finalist on the fifth season of American Idol. Their self-titled debut album was released in November 2006. The album reached number one on the Billboard 200, went on to sell more than four million copies in the United States, and has been certified quadruple platinum by the RIAA. Daughtry was also named the best-selling album of 2007 by Billboard, becoming the fastest-selling debut rock album in Soundscan history. The album produced four top 20 hits on the Billboard Hot 100, including top five hits “It’s Not Over” and “Home”.&lt;/p&gt;\n\n&lt;p&gt;The band’s second album, Leave This Town, was released in July 2009. It debuted at number one on the Billboard 200 chart, becoming Daughtry’s second number one album in the United States. To date, Leave This Town has sold over 1.3 million copies in the United States and has been certified platinum by the RIAA. The album’s lead single, “No Surprise,” became the band’s fifth top-20 hit on the Hot 100. Their third studio album, Break the Spell was released in November 2011. It debuted inside the top ten on the Billboard 200 chart and has been certified Gold by the RIAA. Daughtry’s fourth studio album, Baptized was released on November 19, 2013 and it debuted at number six on the 200 chart, selling approximately 90,000 units. To date, Daughtry has sold over 8 million albums and over 22.6 million digital tracks in the U.S.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/New-radicals', 'annotations': {'description': '&lt;p&gt;New Radicals were an incredibly short lived band started by songwriter Gregg Alexander and former child actress Danielle Brisebois; (best known today for playing Archie Bunker’s nephew, Stephanie Mills, in the show All in The Family and it’s spinoff, Archie Bunker’s Place; also an accomplished songwriter) all other members were just session musicians.&lt;/p&gt;\n\n&lt;p&gt;The band released only two singles from their only album before breaking up, the worldwide smash hit &lt;a href="https://genius.com/New-radicals-you-get-what-you-give-lyrics" rel="noopener" data-api_path="/songs/103482"&gt;“You Get What You Give”&lt;/a&gt; and &lt;a href="https://genius.com/New-radicals-someday-well-know-lyrics" rel="noopener" data-api_path="/songs/1030504"&gt;“Someday We’ll Know”&lt;/a&gt; (the latter better known for the &lt;a href="https://genius.com/Mandy-moore-someday-well-know-lyrics" rel="noopener" data-api_path="/songs/356222"&gt;Mandy Moore and Jon Foreman (of Switchfoot fame) cover for the A Walk to Remember soundtrack.&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;The band broke up around the time of their final single, “Someday We’ll Know” which failed to chart to chart in the US except in the Billboard Adult Pop Songs category. It’s been speculated that the reason of the failure was because it the bands\' break up overshadowed the single and it gave their record label MCA little reason to promote.&lt;/p&gt;\n\n&lt;p&gt;While they were only around for one album, both Alexander and Brisebois are still in the music industry. Alexander would later win a Grammy for writing the Santana and Michelle Branch hit, “The Game of Love” and would become a prolific songwriter. Danielle Brisebois would go on to write the hit Natasha Bedingfield song, “Unwritten.”&lt;br&gt;\nEventually both of them would reunite to write the soundtrack to the film “Begin Again” in 2014.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Peter-schilling', 'annotations': {'description': '&lt;p&gt;?&lt;/p&gt;', 'alternate_names': ['Pierre Schilling', 'Pierre Michael Schilling']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/New-order', 'annotations': {'description': '&lt;p&gt;“It doesn’t take a genius to tell me what I am.” This is the lyric uttered in the dance-pop song, &lt;a href="https://genius.com/New-order-all-the-way-lyrics" rel="noopener" data-api_path="/songs/995553"&gt;“All the Way”&lt;/a&gt; from &lt;a href="https://genius.com/albums/New-order/Technique" rel="noopener" data-api_path="/albums/28108"&gt;&lt;em&gt;Technique&lt;/em&gt;&lt;/a&gt;, the band’s most dance-infused album to date. With catchy hooks from Bernard Sumner, keyboards from &lt;a href="https://genius.com/artists/Gillian-gilbert" rel="noopener" data-api_path="/artists/541294"&gt;Gillian Gilbert&lt;/a&gt;, basslines from &lt;a href="https://genius.com/artists/Peter-hook" rel="noopener" data-api_path="/artists/647006"&gt;Peter Hook&lt;/a&gt; to &lt;a href="https://genius.com/artists/Tom-chapman" rel="noopener" data-api_path="/artists/1071882"&gt;Tom Chapman&lt;/a&gt;, and everyone else, New Order rose from the ashes of what was once &lt;a href="https://genius.com/artists/Joy-division" rel="noopener" data-api_path="/artists/28034"&gt;Joy Division&lt;/a&gt;. Of course, neither of the bands are directed towards fascism.&lt;/p&gt;\n\n&lt;p&gt;With one of their best-selling 12" single for them and the best-selling 12" single of all time, &lt;a href="https://genius.com/albums/New-order/Blue-monday" rel="noopener" data-api_path="/albums/28105"&gt;&lt;em&gt;Blue Monday&lt;/em&gt;&lt;/a&gt; fuses techno with dance, and justified one of dance’s most splendid artists. With &lt;a href="https://genius.com/albums/New-order/Movement" rel="noopener" data-api_path="/albums/132073"&gt;&lt;em&gt;Movement&lt;/em&gt;&lt;/a&gt;, their debut album, they give tribute to Ian Curtis and their previous incarnation, Joy Division. With &lt;a href="https://genius.com/albums/New-order/Power-corruption-and-lies" rel="noopener" data-api_path="/albums/58486"&gt;&lt;em&gt;Power, Corruption, &amp;amp; Lies&lt;/em&gt;&lt;/a&gt;, they prove that they deliver catchy hooks, as well as synthesis. &lt;a href="https://genius.com/albums/New-order/Low-life" rel="noopener" data-api_path="/albums/138759"&gt;&lt;em&gt;Low-Life&lt;/em&gt;&lt;/a&gt;’s coming-of-age backstory gives way to one of their most recognized singles, &lt;a href="https://genius.com/New-order-the-perfect-kiss-lyrics" rel="noopener" data-api_path="/songs/1299965"&gt;“The Perfect Kiss”&lt;/a&gt;. Late-night clubs can host &lt;a href="https://genius.com/albums/New-order/Brotherhood" rel="noopener" data-api_path="/albums/30834"&gt;&lt;em&gt;Brotherhood&lt;/em&gt;&lt;/a&gt;, one of New Order’s darkest albums centering on substances, teenagers, nights out, and more. If you like to liven things up a bit, &lt;a href="https://genius.com/New-order-fine-time-lyrics" rel="noopener" data-api_path="/songs/116295"&gt;&lt;em&gt;Fine Time&lt;/em&gt;&lt;/a&gt; as well as &lt;em&gt;Technique&lt;/em&gt; can give you the fun side of things, and 80’s techno merged with 90’s polychromatic neo-psychedelia. Alternative rock dominate their most previous albums: &lt;em&gt;Republic&lt;/em&gt;, &lt;em&gt;Get Ready&lt;/em&gt;, and &lt;em&gt;Waiting for the Siren’s Call&lt;/em&gt;. With rock infused with alternative, &lt;em&gt;Lost Sirens&lt;/em&gt; introduces eight tracks left out of &lt;em&gt;Waiting for the Siren’s Call&lt;/em&gt;, as well as Peter hook’s final album recorded with New Order, and the only album produced from archival recordings.&lt;/p&gt;\n\n&lt;p&gt;On 25 September 2015, New Order released &lt;em&gt;Music Complete&lt;/em&gt;, their first studio album in 10 years. With its catchy pop hooks and funk center, the album received favorable reviews.&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Xxxtentacion', 'annotations': {'description': '&lt;p&gt;Jahseh Dwayne Ricardo Onfroy (January 23, 1998 – June 18, 2018) was born in Plantation and raised in Lauderhill, Broward County, Florida)—better known by his stage name, XXXTENTACION (pronounced &lt;em&gt;xxx-tenta-ción&lt;/em&gt;)—was an established force in the Florida Soundcloud rap scene. He became widely known for his uniquely raw and aggressive approach to music. &lt;a href="https://www.youtube.com/watch?v=ILhZrraMtK8" rel="noopener nofollow"&gt;X claimed&lt;/a&gt; that his varied artistic influences range from alternative rock bands such as &lt;a href="https://genius.com/artists/Nirvana" rel="noopener" data-api_path="/artists/12712"&gt;Nirvana&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-fray" rel="noopener" data-api_path="/artists/7807"&gt;The Fray&lt;/a&gt; to distinguished rappers like &lt;a href="https://genius.com/artists/Lil-Wayne" rel="noopener" data-api_path="/artists/4"&gt;Lil Wayne&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-notorious-big" rel="noopener" data-api_path="/artists/22"&gt;The Notorious B.I.G&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His breakout hit &lt;a href="https://genius.com/Xxxtentacion-look-at-me-lyrics" rel="noopener" data-api_path="/songs/2441478"&gt;“Look At Me”&lt;/a&gt; was &lt;a href="https://soundcloud.com/rojasonthebeat/look-at-me-ft-xxxtentacion" rel="noopener nofollow"&gt;first released on Soundcloud&lt;/a&gt; in 2015, and then edited and re-released for his 2017 mixtape &lt;a href="https://genius.com/albums/Xxxtentacion/Revenge" rel="noopener" data-api_path="/albums/344273"&gt;&lt;em&gt;Revenge&lt;/em&gt;&lt;/a&gt;. This scored him an &lt;a href="https://www.youtube.com/watch?v=7B9v_5pWjAg" rel="noopener nofollow"&gt;appearance&lt;/a&gt; in the &lt;a href="http://www.xxlmag.com/news/2017/06/2017-xxl-freshman-cover/" rel="noopener nofollow"&gt;&lt;em&gt;XXL&lt;/em&gt; Freshman Class of 2017&lt;/a&gt;. He took the 10th spot, meaning he was voted in by the fans.&lt;/p&gt;\n\n&lt;p&gt;X frequently collaborated with his friend and fellow South Florida rapper, &lt;a href="https://genius.com/artists/Ski-mask-the-slump-god" rel="noopener" data-api_path="/artists/396531"&gt;Ski Mask The Slump God&lt;/a&gt;. He met Ski in juvenile detention and founded the music collective, &lt;a href="https://genius.com/artists/Members-only" rel="noopener" data-api_path="/artists/1072775"&gt;Members Only&lt;/a&gt;, with him.&lt;/p&gt;\n\n&lt;p&gt;X released his debut album, &lt;a href="https://genius.com/albums/Xxxtentacion/17" rel="noopener" data-api_path="/albums/342174"&gt;&lt;em&gt;17&lt;/em&gt;&lt;/a&gt;, in 2017 which peaked at #2 on the &lt;a href="https://www.billboard.com/charts/billboard-200" rel="noopener nofollow"&gt;US &lt;em&gt;Billboard&lt;/em&gt; 200&lt;/a&gt;. He followed that up with his second album, &lt;a href="https://genius.com/albums/Xxxtentacion/Question-mark" rel="noopener" data-api_path="/albums/397606"&gt;&lt;em&gt;?&lt;/em&gt;&lt;/a&gt; in early 2018. It became his first #1 album, and one of its two lead singles, &lt;a href="https://genius.com/Xxxtentacion-sad-lyrics" rel="noopener" data-api_path="/songs/3430186"&gt;“SAD!,”&lt;/a&gt; later became his first #1 song after his death.&lt;/p&gt;\n\n&lt;p&gt;On June 18, 2018, X was tragically shot to death in Deerfield Beach, Florida. According to police reports and surveillance recordings, multiple men planned to rob X after they discovered he was carrying a significant amount of cash with him. The men demanded that X leave his vehicle and hand over his money, but the rapper refused and was &lt;a href="http://www.tmz.com/2018/06/18/xxxtentacion-shot-dead-miami/" rel="noopener nofollow"&gt;subsequently shot in the neck&lt;/a&gt;. The Broward County Sheriff’s Department later confirmed his death in &lt;a href="https://twitter.com/browardsheriff/status/1008838726599004161" rel="noopener nofollow"&gt;a tweet&lt;/a&gt;. X was 20 years old.&lt;/p&gt;\n\n&lt;p&gt;In what is now an eerie message &lt;a href="https://twitter.com/X_XsalvadorX_X/status/1008822539248979970" rel="noopener nofollow"&gt;uploaded to his Instagram&lt;/a&gt; several months before his untimely death, X described how he wanted to be remembered:&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;If I’m gonna die or ever be a sacrifice, I wanna make sure that my life made at least 5 million kids happy or they found some sort of answers or resolve in my life.&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;Following his death, X’s mother Cleopatra Bernard posted a &lt;a href="https://www.instagram.com/p/BkTQdl3hvuN/?taken-by=cleo_ohsojazzy" rel="noopener nofollow"&gt;picture of a sonogram&lt;/a&gt; to &lt;a href="https://www.instagram.com/Cleo_OhSoJazzy/" rel="noopener nofollow"&gt;her personal Instagram&lt;/a&gt;, previewing X’s unborn child. On November 24, 2018, an update was given by X’s mother about his baby, now named Gekyume. This was &lt;a href="https://youtu.be/g-RwLGLEcgc?t=5" rel="noopener nofollow"&gt;a word X created on his Instagram&lt;/a&gt; meaning a “different state or next universe of thought.” On January 26, 2019, Gekyume was born.&lt;/p&gt;\n\n&lt;p&gt;In the time following the rapper’s passing, multiple posthumous verses and choruses were released to the public by several artists, including his first posthumous song with &lt;a href="https://genius.com/artists/Trippie-redd" rel="noopener" data-api_path="/artists/1086436"&gt;Trippie Redd&lt;/a&gt;. The track was titled &lt;a href="https://genius.com/Trippie-redd-and-xxxtentacion-ghost-busters-lyrics" rel="noopener" data-api_path="/songs/3556910"&gt;“Ghost Busters”&lt;/a&gt; and features Ski Mask and &lt;a href="https://genius.com/artists/Quavo" rel="noopener" data-api_path="/artists/61600"&gt;Quavo&lt;/a&gt;. Other notable posthumous features include his records with &lt;a href="https://genius.com/Lil-peep-and-xxxtentacion-falling-down-lyrics" rel="noopener" data-api_path="/songs/3906162"&gt;Lil Peep&lt;/a&gt; and &lt;a href="https://genius.com/Lil-wayne-dont-cry-lyrics" rel="noopener" data-api_path="/songs/3985334"&gt;Lil Wayne&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;X’s first posthumous album, &lt;a href="https://genius.com/albums/Xxxtentacion/Skins" rel="noopener" data-api_path="/albums/424173"&gt;&lt;em&gt;SKINS&lt;/em&gt;&lt;/a&gt;, was released on December 7, 2018. The album was his shortest project to date and includes a sole feature from &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt;. X’s final posthumous album, &lt;a href="https://genius.com/albums/Xxxtentacion/Bad-vibes-forever" rel="noopener" data-api_path="/albums/471489"&gt;&lt;em&gt;Bad Vibes Forever&lt;/em&gt;&lt;/a&gt;, was released on December 6 2019 and highlighted many old X songs released solely on his SoundCloud or previously unreleased snippets.&lt;/p&gt;\n\n&lt;p&gt;Information concerning an official documentary about X was teased on his &lt;a href="https://www.instagram.com/xxxtentacion/?hl=en" rel="noopener nofollow"&gt;Instagram&lt;/a&gt;  and &lt;a href="https://www.youtube.com/watch?v=5ZXFPPV3pnE" rel="noopener nofollow"&gt;YouTube channel&lt;/a&gt; one year after his death.&lt;/p&gt;', 'alternate_names': ['Jahseh Onfroy', 'XXX', 'Yung Dagger Dick', 'Jahseh Dwayne Onfroy', 'Jahseh', 'Jahseh Dwayne Ricardo Onfroy', 'MAKE OUT HILL', 'Jahseh D. R. Onfroy', 'Jah', 'Jahseh D. Onfroy', 'Dagger Dick']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Third-eye-blind', 'annotations': {'description': '&lt;p&gt;Third Eye Blind from San Francisco Mission District Mostly guitars with other things knocking around Riffs and deep beats Lyrics are expanded in a kinda hip hop way That wrong thing you’re not supposed to say- we say it Black on Black pretty much from the beginning It took us so long to get things this way but it really feels like we are underway now Jacked on coffee we are a fabulously disorganized bunch We seek impact with friends try to surf whenever we can dirty jokes looking out for each other we have eyes and a voice so no surprise when we speak the fuck up We care about shit No sequencers no backing tracks not a DJ group We believe in the gathering power of music Guess you could say we are a motherfucking rock band Born in shadow, made of lions, loud as fuck&lt;/p&gt;', 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/David-guetta', 'annotations': {'description': '&lt;p&gt;Pierre David Guetta, better known simply as &lt;strong&gt;David Guetta&lt;/strong&gt;, is a French DJ and producer. He first got a taste of the limelight with his 2009 album &lt;em&gt;One Love&lt;/em&gt; which included the hit singles “When Love Takes Over”, “Gettin\' Over You”, and “Sexy Bitch”, all three of which reached #1 in the UK and charted high internationally.&lt;/p&gt;\n\n&lt;p&gt;His 2011 album, &lt;em&gt;Nothing but the Beat&lt;/em&gt;, continued this success, containing the hit singles “Where Them Girls At”, “Little Bad Girl”, “Without You”, “Titanium” and “Turn Me On”.&lt;/p&gt;\n\n&lt;p&gt;His sixth album &lt;em&gt;Listen&lt;/em&gt; was released in 2014, and includes chart-toppers “Lovers on the Sun”, “Dangerous”, and “Hey Mama.” Most recently, in 2017, he released “2U” with Justin Bieber and “Dirty Sexy Money” in 2018 with Afrojack, Charli XCX and French Montana.&lt;/p&gt;\n\n&lt;p&gt;Pierre David Guetta, plus connu sous le nom de David Guetta, est un DJ français et producteur. Il prend d\'abord avant-goût du milieu avec son album de 2009 “One Love” qui comprenait les hits “When Love Takes Over”, “Gettin\' Over You”, et “Sexy Bitch”, les trois chansons sont arrivées premières au Royaume-uni et très dans les classements internationalement.&lt;/p&gt;\n\n&lt;p&gt;Son album de 2011 “Nothing but the Beat” l\'a fait continué sur sa lancée, contenant les titres à succès “Where Them Girls At”, “Little Bad Girl”, “Without You”, “Titanium” et “Turn Me On”.&lt;/p&gt;\n\n&lt;p&gt;Son sixième album “Listen est sorti en 2014 et comprend notamment les titres "Lovers on the Sun”, “Dangerous” et “Hey Mama”. Plus récemment, en 2017, il a sorti “2U” avec Justin Bieber et “Dirty Sexy Money” en 2018 avec Afrojack, Charli XCX et French Montana.&lt;/p&gt;', 'alternate_names': ['Pierre David Guetta']}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Jason-mraz', 'annotations': {'description': "&lt;p&gt;Jason Thomas Mraz, born June 23, 1977, released his debut album, &lt;em&gt;Waiting for My Rocket to Come&lt;/em&gt;, which contained the hit single “The Remedy (I Won’t Worry)”, in 2002, but it was not until the release of his second album, Mr. A-Z, in 2005, that Mraz achieved major commercial success. The album peaked at number five on the Billboard 200 and sold over 100,000 copies in the US. In 2008, Mraz released his third studio album, We Sing. We Dance. We Steal Things. The album debuted at number three on the Billboard 200 and was a commercial success worldwide, peaking in the top ten of many international charts&lt;/p&gt;\n\n&lt;p&gt;Mraz’s international breakthrough came with the release of the single “I’m Yours” from the album We Sing. We Dance. We Steal Things. The single peaked at number six on the Billboard Hot 100, giving Mraz his first top ten single. The song was on the Hot 100 for 76 weeks, beating the previous record of 69 weeks held by LeAnn Rimes' “How Do I Live”. The song was a commercial success in the US, receiving a 5x platinum certification from the RIAA for sales of over five million. The song was successful internationally, topping the charts in New Zealand and Norway and peaking in the top ten of multiple international charts&lt;/p&gt;", 'alternate_names': []}}</t>
-  </si>
-  <si>
-    <t>{'url': 'https://genius.com/artists/Macklemore-and-ryan-lewis', 'annotations': {'description': '&lt;p&gt;Macklemore &amp;amp; Ryan Lewis are a hip-hop duo from Seattle, Washington, comprised of rapper &lt;a href="https://genius.com/artists/Macklemore" rel="noopener" data-api_path="/artists/2026"&gt;&lt;strong&gt;Macklemore&lt;/strong&gt;&lt;/a&gt; and producer &lt;a href="https://genius.com/artists/Ryan-lewis" rel="noopener" data-api_path="/artists/2025"&gt;&lt;strong&gt;Ryan Lewis&lt;/strong&gt;&lt;/a&gt; which formed in 2008. Together they have made two studio albums &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/The-heist" rel="noopener" data-api_path="/albums/22968"&gt;&lt;em&gt;The Heist&lt;/em&gt;&lt;/a&gt;, in 2012, and &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/This-unruly-mess-i-ve-made" rel="noopener" data-api_path="/albums/141904"&gt;&lt;em&gt;This Unruly Mess I’ve Made&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt; &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/The-heist" rel="noopener" data-api_path="/albums/22968"&gt;&lt;em&gt;The Heist&lt;/em&gt;&lt;/a&gt; spawned two number one singles &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-cant-hold-us-lyrics" rel="noopener" data-api_path="/songs/57234"&gt;“Can’t Hold Us”&lt;/a&gt; and &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-thrift-shop-lyrics" rel="noopener" data-api_path="/songs/86538"&gt;“Thrift Shop”&lt;/a&gt; by mixing poppy, likeable beats with catchy hooks. They also had a hit with the gay rights song &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-same-love-lyrics" rel="noopener" data-api_path="/songs/81672"&gt;“Same Love”&lt;/a&gt; featuring &lt;a href="https://genius.com/artists/Mary-lambert" rel="noopener" data-api_path="/artists/22717"&gt;Mary Lambert&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Their second album &lt;a href="https://genius.com/albums/Macklemore-and-ryan-lewis/This-unruly-mess-i-ve-made" rel="noopener" data-api_path="/albums/141904"&gt;&lt;em&gt;This Unruly Mess I’ve Made&lt;/em&gt;&lt;/a&gt; was released in February\u200b 2016, preceded by the single &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-downtown-lyrics" rel="noopener" data-api_path="/songs/2291611"&gt;“Downtown”&lt;/a&gt; featuring hip-hop legends &lt;a href="https://genius.com/artists/Grandmaster-melle-mel" rel="noopener" data-api_path="/artists/9911"&gt;Grandmaster Melle Mell&lt;/a&gt; and &lt;a href="https://genius.com/artists/Grandmaster-caz" rel="noopener" data-api_path="/artists/5137"&gt;Grandmaster Caz&lt;/a&gt;.  They also released the &lt;a href="http://pitchfork.com/thepitch/1003-macklemores-white-privilege-ii-is-a-mess-but-we-should-talk-about-it/" rel="noopener nofollow"&gt;controversial&lt;/a&gt; song &lt;a href="https://genius.com/Macklemore-and-ryan-lewis-white-privilege-ii-lyrics" rel="noopener" data-api_path="/songs/2411196"&gt;“White Privilege II”&lt;/a&gt; as a promotional single, which explored the ideas of white privilege and the Black Lives Matter movement.&lt;/p&gt;\n\n&lt;p&gt;In 2016, Macklemore and Ryan Lewis amicably split for the time being and Macklemore has since released &lt;a href="https://genius.com/albums/Macklemore/Gemini" rel="noopener" data-api_path="/albums/358991"&gt;a solo album&lt;/a&gt;. However, one cannot rule out the possibility that there will be more Macklemore &amp;amp; Ryan Lewis music in the future.&lt;/p&gt;', 'alternate_names': ['Ryan Lewis &amp; Macklemore']}}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/DNA_(duo)', 'artist_name': 'DNA', 'wiki': 'http://en.wikipedia.org/wiki/DNA_(duo)', 'hometown': 'http://dbpedia.org/resource/Bath,_Somerset', 'start_year': '1988', 'end_year': '1998', 'abstract': 'DNA was the name taken by English electronic music producers Nick Batt and Neal Slateford, best known for releasing a remix of Suzanne Vega\'s "Tom\'s Diner" in 1990. As well as "Tom\'s Diner", the duo remixed two other Suzanne Vega tracks: "Rusted Pipe" in 1991, and a radio mix of "Rosemary" in 2000. After a brief lull, the duo reappeared with a mix of the Loreena McKennitt track "The Mummers\' Dance", which reached number one on the US Billboard Hot 100 Airplay chart in 1997. Batt worked extensively with Goldfrapp on their albums Felt Mountain, Black Cherry and Supernature, receiving an Ivor Novello Award for co-writing the Black Cherry track "Strict Machine".'}</t>
+    <t>{'url': 'https://genius.com/artists/Metallica', 'annotations': {'description': '&lt;p&gt;Like &lt;a href="https://genius.com/artists/Black-sabbath" rel="noopener" data-api_path="/artists/1121"&gt;Black Sabbath&lt;/a&gt; and &lt;a href="https://genius.com/artists/Iron-maiden" rel="noopener" data-api_path="/artists/22163"&gt;Iron Maiden&lt;/a&gt; before, Metallica has managed to transcend the genre from which it originated. To their metal fanbase they are considered one of the &lt;a href="https://genius.com/discussions/169443-Rank-the-big-four" rel="noopener"&gt;Big Four&lt;/a&gt; bands of thrash metal, alongside &lt;a href="https://genius.com/artists/Megadeth" rel="noopener" data-api_path="/artists/19444"&gt;Megadeth&lt;/a&gt;, &lt;a href="https://genius.com/artists/Anthrax" rel="noopener" data-api_path="/artists/11082"&gt;Anthrax&lt;/a&gt; and &lt;a href="https://genius.com/artists/Slayer" rel="noopener" data-api_path="/artists/6596"&gt;Slayer&lt;/a&gt;; however Metallica is also one of the most commercially successful bands in all of rock music, having sold 110 million records, including the 16x platinum &lt;a href="https://genius.com/albums/Metallica/Metallica" rel="noopener" data-api_path="/albums/10852"&gt;&lt;em&gt;Metallica&lt;/em&gt;&lt;/a&gt;, which stands as both the highest selling metal album of all time and one of the &lt;a href="http://www.metalinjection.net/its-just-business/record-sales/metallicas-black-album-sells-16-million-copies-becomes-highest-selling-album-of-the-last-23-years" rel="noopener nofollow"&gt;most successful albums of the modern age&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Metallica was formed in 1981 in Los Angeles, after drummer &lt;a href="https://genius.com/artists/Lars-ulrich" rel="noopener" data-api_path="/artists/63062"&gt;Lars Ulrich&lt;/a&gt; placed an ad in the classifieds which was answered by singer/rhythm guitarist &lt;a href="https://genius.com/artists/James-hetfield" rel="noopener" data-api_path="/artists/63061"&gt;James Hetfield&lt;/a&gt;. They were soon joined by lead guitarist &lt;a href="https://genius.com/artists/Dave-mustaine" rel="noopener" data-api_path="/artists/124416"&gt;Dave Mustaine&lt;/a&gt;, who later formed &lt;a href="https://genius.com/artists/Megadeth" rel="noopener" data-api_path="/artists/19444"&gt;Megadeth&lt;/a&gt; after &lt;a href="http://loudwire.com/dave-mustaine-fired-from-metallica-anniversary/" rel="noopener nofollow"&gt;being kicked out of the band&lt;/a&gt; due to substance abuse, and bassist &lt;a href="https://genius.com/artists/Ron-mcgovney" rel="noopener" data-api_path="/artists/626422"&gt;Ron McGovney&lt;/a&gt;, a childhood friend of Hetfield. These two early members were replaced with &lt;a href="https://genius.com/artists/Cliff-burton" rel="noopener" data-api_path="/artists/575963"&gt;Cliff Burton&lt;/a&gt;—who relocated the band to San Francisco—and ex-&lt;a href="https://genius.com/artists/Exodus" rel="noopener" data-api_path="/artists/66511"&gt;Exodus&lt;/a&gt; lead guitarist, &lt;a href="https://genius.com/artists/Kirk-hammett" rel="noopener" data-api_path="/artists/31938"&gt;Kirk Hammett&lt;/a&gt;, to form the band’s classic line-up.&lt;/p&gt;\n\n&lt;p&gt;They released three albums, 1983’s &lt;a href="https://genius.com/albums/Metallica/Kill-em-all" rel="noopener" data-api_path="/albums/15114"&gt;&lt;em&gt;Kill ‘Em All&lt;/em&gt;&lt;/a&gt;, 1984’s &lt;a href="https://genius.com/albums/Metallica/Ride-the-lightning" rel="noopener" data-api_path="/albums/11990"&gt;&lt;em&gt;Ride The Lightning&lt;/em&gt;&lt;/a&gt; and 1986’s &lt;a href="https://genius.com/albums/Metallica/Master-of-puppets" rel="noopener" data-api_path="/albums/13102"&gt;&lt;em&gt;Master of Puppets&lt;/em&gt;&lt;/a&gt;, before &lt;a href="http://ultimateclassicrock.com/metallica-bassist-cliff-burton-dies-in-a-bus-accident/" rel="noopener nofollow"&gt;the tragic and untimely death of Cliff Burton&lt;/a&gt; on September 27, 1986.&lt;/p&gt;\n\n&lt;p&gt;The band chose to go on and, after lengthy auditions, selected &lt;a href="https://genius.com/artists/Flotsam-and-jetsam" rel="noopener" data-api_path="/artists/352109"&gt;Flotsam And Jetsam&lt;/a&gt; bassist &lt;a href="https://genius.com/artists/Jason-newsted" rel="noopener" data-api_path="/artists/548794"&gt;Jason Newsted&lt;/a&gt;. They produced 1988’s Grammy nominated &lt;a href="https://genius.com/albums/Metallica/And-justice-for-all" rel="noopener" data-api_path="/albums/20959"&gt;&lt;em&gt;…And Justice For All&lt;/em&gt;&lt;/a&gt;, which included the 1989 Grammy winning single &lt;a href="https://genius.com/Metallica-one-lyrics" rel="noopener" data-api_path="/songs/86916"&gt;“One.”&lt;/a&gt; The bleak and overtly complex nature of the album inspired the band to seek a stylistic change. With &lt;a href="https://genius.com/artists/Motley-crue" rel="noopener" data-api_path="/artists/34312"&gt;Mötley Crüe&lt;/a&gt; producer &lt;a href="https://genius.com/artists/Bob-rock" rel="noopener" data-api_path="/artists/34423"&gt;Bob Rock&lt;/a&gt;, Metallica recorded the more mainstream sounding self-titled fifth album, &lt;a href="https://genius.com/albums/Metallica/Metallica" rel="noopener" data-api_path="/albums/10852"&gt;&lt;em&gt;Metallica&lt;/em&gt;&lt;/a&gt;. Released in 1991 and featuring various successful singles, the so-called “Black Album” launched them to commercial success as stadium rock staples.&lt;/p&gt;\n\n&lt;p&gt;The rest of the 1990s saw Metallica releasing more blues-influenced hard rock with 1996’s &lt;a href="https://genius.com/albums/Metallica/Load" rel="noopener" data-api_path="/albums/41512"&gt;&lt;em&gt;Load&lt;/em&gt;&lt;/a&gt; and its companion album, 1997’s &lt;a href="https://genius.com/albums/Metallica/Reload" rel="noopener" data-api_path="/albums/40839"&gt;&lt;em&gt;Reload&lt;/em&gt;&lt;/a&gt;.  While the band’s creative output during this period was markedly different from their earlier metal roots, they continued to sell out stadiums, top charts, and push the boundaries of rock music; both &lt;em&gt;Load&lt;/em&gt; and &lt;em&gt;Reload&lt;/em&gt; debuted at number one on the US Billboard charts, while the 1999 live album, &lt;a href="https://genius.com/albums/Metallica/sm" rel="noopener"&gt;&lt;em&gt;S&amp;amp;M&lt;/em&gt;&lt;/a&gt;, featured the San Francisco Symphony orchestra in a daring cross-genre move.&lt;/p&gt;\n\n&lt;p&gt;This era was not all positive; Lars Ulrich found himself at the center of a &lt;a href="http://archive.wired.com/politics/law/news/2000/04/35670" rel="noopener nofollow"&gt;war with file-sharing network Napster&lt;/a&gt; and was later &lt;a href="http://www.blabbermouth.net/news/metallica-s-lars-ulrich-discusses-breakdown-on-plane/" rel="noopener nofollow"&gt;hospitalized following anxiety attacks&lt;/a&gt; while on tour. James Hetfield also checked into &lt;a href="http://www.mtv.com/news/1452494/metallicas-james-hetfield-calls-rehab-challenging-gratifying/" rel="noopener nofollow"&gt;rehab to deal with alcohol abuse&lt;/a&gt;. After an infamous &lt;a href="https://web.archive.org/web/20090404205425/http://www.playboy.com:80/articles/metallica-interview/index.html" rel="noopener nofollow"&gt;&lt;em&gt;Playboy&lt;/em&gt; magazine interview&lt;/a&gt; in 2001, Jason Newsted left the band; Bob Rock covered bass duties during the recording sessions for 2003’s &lt;a href="https://genius.com/albums/Metallica/St-anger" rel="noopener" data-api_path="/albums/19563"&gt;&lt;em&gt;St. Anger&lt;/em&gt;&lt;/a&gt;. With lyrics conveying the band’s angst—as documented in the 2004 documentary &lt;em&gt;Some Kind of Monster&lt;/em&gt;—and a controversial sound change featuring no solos and poor drum audio, &lt;em&gt;St. Anger&lt;/em&gt; achieved commercial success, but was widely criticized by reviewers and fans. For the tour, the bassist role was eventually filled by &lt;a href="https://genius.com/artists/Robert-trujillo" rel="noopener" data-api_path="/artists/69277"&gt;Robert Trujillo&lt;/a&gt;, formerly of &lt;a href="https://genius.com/artists/Suicidal-tendencies" rel="noopener" data-api_path="/artists/26232"&gt;Suicidal Tendencies&lt;/a&gt;, &lt;a href="https://genius.com/artists/Infectious-grooves" rel="noopener" data-api_path="/artists/355167"&gt;Infectious Grooves&lt;/a&gt; and &lt;a href="https://genius.com/artists/Ozzy-osbourne" rel="noopener" data-api_path="/artists/3347"&gt;Ozzy Osbourne&lt;/a&gt;’s band; with the latter taking Newsted as his bassist.&lt;/p&gt;\n\n&lt;p&gt;In the aftermath of &lt;em&gt;St. Anger&lt;/em&gt;, as well as a resurgence in the popularity of metal, the band decided to return to their earlier roots and in 2008 released their ninth studio album, the &lt;a href="https://genius.com/artists/Rick-rubin" rel="noopener" data-api_path="/artists/27794"&gt;Rick Rubin&lt;/a&gt;-produced &lt;a href="https://genius.com/albums/Metallica/Death-magnetic" rel="noopener" data-api_path="/albums/40083"&gt;&lt;em&gt;Death Magnetic&lt;/em&gt;&lt;/a&gt;. The album was critically appraised and again debuted at #1 on the US Billboard chart, making them the first band to have five consecutive debuts at that position.&lt;/p&gt;\n\n&lt;p&gt;On April 4, 2009, Metallica was &lt;a href="https://m.youtube.com/watch?v=YKxvJGKhlhk" rel="noopener nofollow"&gt;inducted&lt;/a&gt; into the Rock &amp;amp; Roll Hall of Fame.&lt;/p&gt;\n\n&lt;p&gt;Their tenth album, &lt;a href="https://genius.com/albums/Metallica/Hardwired-to-self-destruct" rel="noopener" data-api_path="/albums/164160"&gt;&lt;em&gt;Hardwired… To Self-Destruct&lt;/em&gt;&lt;/a&gt;, was released on November 18, 2016. It received good reviews and topped the Billboard 200, making them one of four artists with six #1 debuts—the second group after the &lt;a href="https://genius.com/artists/Dave-matthews-band" rel="noopener" data-api_path="/artists/18451"&gt;Dave Matthews Band&lt;/a&gt;; the overall record is seven by &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;LINEUP:&lt;br&gt;\n&lt;a href="https://genius.com/artists/James-hetfield" rel="noopener" data-api_path="/artists/63061"&gt;James Hetfield&lt;/a&gt;: Vocals, Guitars (1981 – date)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Kirk-hammett" rel="noopener" data-api_path="/artists/31938"&gt;Kirk Hammett&lt;/a&gt;: Guitars (1983 – date)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Robert-trujillo" rel="noopener" data-api_path="/artists/69277"&gt;Robert Trujillo&lt;/a&gt;: Bass guitar (2003 – date)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Lars-ulrich" rel="noopener" data-api_path="/artists/63062"&gt;Lars Ulrich&lt;/a&gt;: Drums (1981 – date)&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/artists/Ron-mcgovney" rel="noopener" data-api_path="/artists/626422"&gt;Ron McGovney&lt;/a&gt;: Bass guitar (1982)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Cliff-burton" rel="noopener" data-api_path="/artists/575963"&gt;Cliff Burton&lt;/a&gt;: Bass guitar (1982 – 1986)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Jason-newsted" rel="noopener" data-api_path="/artists/548794"&gt;Jason Newsted&lt;/a&gt;: Bass guitar (1986 – 2001)&lt;br&gt;\n&lt;a href="https://genius.com/artists/Dave-mustaine" rel="noopener" data-api_path="/artists/124416"&gt;Dave Mustaine&lt;/a&gt;: Lead guitar (1982–1983)&lt;br&gt;\n(plus &lt;a href="https://genius.com/artists/Bob-rock" rel="noopener" data-api_path="/artists/34423"&gt;Bob Rock&lt;/a&gt; as an interim bassist following Jason’s departure)&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Justin-bieber', 'annotations': {'description': '&lt;p&gt;Justin Bieber (born March 1, 1994) is a pop, R&amp;amp;B musician and recording artist, singer-songwriter and part-time actor. Since bursting onto the scene in 2008 (after being discovered on YouTube) he has taken the world by storm and divided opinion; selling 15 million albums worldwide, making two concert documentaries, winning numerous awards, amassing 100 million Twitter followers, and being the most Googled person on Earth more than once.&lt;/p&gt;\n\n&lt;p&gt;On November 17, 2009, shortly after being discovered by &lt;a href="https://genius.com/artists/Usher" rel="noopener" data-api_path="/artists/132"&gt;Usher&lt;/a&gt;, Bieber released his first EP, &lt;a href="https://genius.com/albums/Justin-bieber/My-world" rel="noopener" data-api_path="/albums/10847"&gt;&lt;em&gt;My World&lt;/em&gt;&lt;/a&gt;. The project featured his first hit &lt;a href="https://genius.com/Justin-bieber-one-time-lyrics" rel="noopener" data-api_path="/songs/80308"&gt;“One Time.”&lt;/a&gt; Bieber followed with his first album, &lt;a href="https://genius.com/albums/Justin-bieber/My-world-2-0" rel="noopener" data-api_path="/albums/6037"&gt;&lt;em&gt;My World 2.0&lt;/em&gt;&lt;/a&gt;, on March 19, 2010. The album contained the hit &lt;a href="https://genius.com/Justin-bieber-baby-lyrics" rel="noopener" data-api_path="/songs/566"&gt;“Baby,”&lt;/a&gt; which was famously &lt;a href="https://www.youtube.com/watch?v=kffacxfA7G4" rel="noopener nofollow"&gt;the most disliked video&lt;/a&gt; on YouTube until December 2017.&lt;/p&gt;\n\n&lt;p&gt;Before finishing his third studio album, Justin released &lt;a href="https://genius.com/albums/Justin-bieber/Under-the-mistletoe" rel="noopener" data-api_path="/albums/15289"&gt;a Christmas album&lt;/a&gt; on November 1, 2011.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Justin-bieber/Believe" rel="noopener" data-api_path="/albums/17970"&gt;&lt;em&gt;Believe&lt;/em&gt;&lt;/a&gt; was released on June 15, 2012, and featured elements of dance and R&amp;amp;B music, unlike the teen-pop styles found in his previous works. The album included the international hits &lt;a href="https://genius.com/Justin-bieber-boyfriend-lyrics" rel="noopener" data-api_path="/songs/68966"&gt;“Boyfriend,”&lt;/a&gt; &lt;a href="https://genius.com/Justin-bieber-as-long-as-you-love-me-lyrics" rel="noopener" data-api_path="/songs/77547"&gt;“As Long as You Love Me.”&lt;/a&gt;, and &lt;a href="https://genius.com/Justin-bieber-beauty-and-a-beat-lyrics" rel="noopener" data-api_path="/songs/77735"&gt;“Beauty and a Beat.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;After his third album, and before his fourth, Bieber released the compilation album &lt;a href="https://genius.com/albums/Justin-bieber/Journals*" rel="noopener"&gt;&lt;em&gt;Journals&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;His fourth full album &lt;a href="https://genius.com/albums/Justin-bieber/Purpose" rel="noopener" data-api_path="/albums/132311"&gt;&lt;em&gt;Purpose&lt;/em&gt;&lt;/a&gt; was released on November 13, 2015, with the lead single &lt;a href="https://genius.com/Justin-bieber-what-do-you-mean-lyrics" rel="noopener" data-api_path="/songs/2286779"&gt;“What Do You Mean”&lt;/a&gt; becoming his first number one hit on the &lt;em&gt;Billboard&lt;/em&gt; Hot 100. He later followed it up with two more number ones, &lt;a href="https://genius.com/Justin-bieber-sorry-lyrics" rel="noopener" data-api_path="/songs/2323822"&gt;“Sorry”&lt;/a&gt; and &lt;a href="https://genius.com/Justin-bieber-love-yourself-lyrics" rel="noopener" data-api_path="/songs/2342329"&gt;“Love Yourself,”&lt;/a&gt; which cemented his success in the adult pop world.&lt;/p&gt;\n\n&lt;p&gt;“Love Yourself” managed to set a record for most weeks in the top ten after debuting in the top ten, breaking out of a multiple-way tie that included the likes of &lt;a href="https://genius.com/Nicki-minaj-starships-lyrics" rel="noopener" data-api_path="/songs/65701"&gt;“Starships”&lt;/a&gt; by Nicki Minaj and his own “What Do You Mean” and “Sorry.”&lt;/p&gt;\n\n&lt;p&gt;On February 14, 2020, Bieber released &lt;a href="https://genius.com/albums/Justin-bieber/Changes" rel="noopener" data-api_path="/albums/583715"&gt;&lt;em&gt;Changes&lt;/em&gt;&lt;/a&gt;, his first project since 2015.&lt;/p&gt;\n\n&lt;p&gt;He was notably in a relationship with &lt;a href="https://genius.com/artists/Selena-gomez" rel="noopener" data-api_path="/artists/45372"&gt;Selena Gomez&lt;/a&gt; between 2010 and 2013.  Since 2013, Justin Bieber and Selena Gomez dated on and off, before breaking up in March 2018. In July 2018, Bieber became engaged and later married to model Hailey Baldwin.&lt;/p&gt;\n\n&lt;p&gt;On March 19, 2021, Justin released his sixth studio album &lt;a href="https://genius.com/albums/Justin-bieber/Justice" rel="noopener" data-api_path="/albums/602825"&gt;&lt;em&gt;Justice&lt;/em&gt;&lt;/a&gt;, a week later Justin released a &lt;a href="https://genius.com/albums/Justin-bieber/Justice-triple-chucks-deluxe" rel="noopener" data-api_path="/albums/749179"&gt;&lt;em&gt;Triple Chucks Deluxe Edition&lt;/em&gt;&lt;/a&gt; of &lt;em&gt;Justice&lt;/em&gt; on March 26, 2021, a week and two days later on Easter Sunday, April 4, 2021, Justin Bieber surprise dropped a Gospel EP titled &lt;a href="https://genius.com/albums/Justin-bieber/Freedom-ep" rel="noopener" data-api_path="/albums/756081"&gt;&lt;em&gt;Freedom. – EP&lt;/em&gt;&lt;/a&gt;. He released the &lt;a href="https://genius.com/albums/Justin-bieber/Justice-complete-edition" rel="noopener" data-api_path="/albums/823433"&gt;complete edition of &lt;em&gt;Justice&lt;/em&gt;&lt;/a&gt; on October 8, 2021, containing three previously unreleased tracks: “&lt;a href="https://genius.com/Justin-bieber-red-eye-lyrics" rel="noopener" data-api_path="/songs/5262375"&gt;Red Eye&lt;/a&gt;,” featuring &lt;a href="https://genius.com/artists/Troyboi" rel="noopener" data-api_path="/artists/400356"&gt;TroyBoi&lt;/a&gt;, “&lt;a href="https://genius.com/Justin-bieber-angels-speak-lyrics" rel="noopener" data-api_path="/songs/5234705"&gt;Angels Speak&lt;/a&gt;,” featuring &lt;a href="https://genius.com/artists/Poo-bear" rel="noopener" data-api_path="/artists/5763"&gt;Poo Bear&lt;/a&gt;, and “&lt;a href="https://genius.com/Justin-bieber-hailey-lyrics" rel="noopener" data-api_path="/songs/6586464"&gt;Hailey&lt;/a&gt;.”&lt;/p&gt;', 'alternate_names': ['Justin Drew Bieber']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Melanie-martinez', 'annotations': {'description': '&lt;p&gt;Melanie Adele Martinez (born April 28, 1995) is an American singer-songwriter born in Astoria, Queens and raised in Baldwin, New York.&lt;/p&gt;\n\n&lt;p&gt;Born to Dominican and Puerto Rican parents, Melanie first rose to fame on the Emmy Award-winning TV show &lt;a href="http://NBC.com/the-voice" rel="noopener nofollow"&gt;&lt;em&gt;The Voice USA&lt;/em&gt;&lt;/a&gt; at the age of 17. Although she did not win, Melanie was inspired to produce their first single &lt;a href="https://genius.com/Melanie-martinez-dollhouse-lyrics" rel="noopener" data-api_path="/songs/381520"&gt;“Dollhouse”&lt;/a&gt;, followed by their sophomore single&lt;a href="https://genius.com/Melanie-martinez-carousel-lyrics" rel="noopener" data-api_path="/songs/435278"&gt;“Carousel”&lt;/a&gt; was used in &lt;a href="https://www.youtube.com/watch?v=bE1cV4TgWiw" rel="noopener nofollow"&gt;promos for &lt;em&gt;American Horror Story: Freak Show&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Starting her independent career, Melanie signed with &lt;a href="https://genius.com/artists/Atlantic-records" rel="noopener" data-api_path="/artists/68978"&gt;&lt;em&gt;Atlantic Records&lt;/em&gt;&lt;/a&gt;. In 2014, Melanie would release their debut EP &lt;a href="https://genius.com/albums/Melanie-martinez/Dollhouse" rel="noopener" data-api_path="/albums/117979"&gt;&lt;em&gt;Dollhouse&lt;/em&gt;&lt;/a&gt;, which introduced her alter-ego Cry Baby and would lay the foundation for their first studio album &lt;a href="https://genius.com/albums/Melanie-martinez/Cry-baby" rel="noopener" data-api_path="/albums/125507"&gt;&lt;em&gt;Cry Baby&lt;/em&gt;&lt;/a&gt;, which debuted August 14, 2015 and featured &lt;a href="https://genius.com/artists/Kinetics" rel="noopener" data-api_path="/artists/12128"&gt;Kinetics&lt;/a&gt; and &lt;a href="https://genius.com/artists/One-love" rel="noopener" data-api_path="/artists/28165"&gt;One Love&lt;/a&gt; as its producers.&lt;/p&gt;\n\n&lt;p&gt;On December 4, 2017, Melanie would be embroiled in controversy, after singer-songwriter &lt;a href="https://genius.com/artists/Timothy-heller" rel="noopener" data-api_path="/artists/1274650"&gt;Timothy Heller&lt;/a&gt;, a former close friend, accused her of sexual assault and rape. Melanie addressed the accusation, saying that “[Timothy] had never said no to what we chose to do together”, and asserting that Heller’s statements were false. Melanie then took a four-year-hiatus from actively producing music.&lt;/p&gt;\n\n&lt;p&gt;On September 6, 2019, Melanie released their second studio album &lt;a href="https://genius.com/albums/Melanie-martinez/K-12" rel="noopener" data-api_path="/albums/413895"&gt;&lt;em&gt;K-12&lt;/em&gt;&lt;/a&gt;, which was accompanied by her &lt;a href="https://www.youtube.com/watch?v=2HtaIvb61Uk&amp;amp;list=PLhpyBoWxiusije5j7TXxcRjUF0fcPsw83" rel="noopener nofollow"&gt;self-directed film&lt;/a&gt; of the same name.&lt;/p&gt;\n\n&lt;p&gt;On September 25, 2020, Melanie released a follow-up EP: &lt;a href="https://genius.com/albums/Melanie-martinez/After-school" rel="noopener" data-api_path="/albums/592434"&gt;&lt;em&gt;After School&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Melanie’s dreamy but dark aesthetic and unique style of writing, singing, and story-telling has garnered her an enormous fanbase. On songs like &lt;a href="https://genius.com/melanie-martinez-mrs-potato-head-lyrics" rel="noopener" data-api_path="/songs/2266331"&gt;“Mrs. Potato Head”&lt;/a&gt; and &lt;a href="https://genius.com/melanie-martinez-dollhouse-lyrics" rel="noopener" data-api_path="/songs/381520"&gt;“Dollhouse”&lt;/a&gt; Melanie comments on issues in today’s society, and on other songs like &lt;a href="https://genius.com/melanie-martinez-alphabet-boy-lyrics" rel="noopener" data-api_path="/songs/654738"&gt;“Alphabet Boy”&lt;/a&gt; and &lt;a href="https://genius.com/melanie-martinez-cry-baby-lyrics" rel="noopener" data-api_path="/songs/390271"&gt;“Cry Baby”&lt;/a&gt; she gives listeners a relatable glimpse into their personal life.&lt;/p&gt;\n\n&lt;p&gt;Melanie cites other alternative artists &lt;a href="https://genius.com/artists/Lana-del-rey" rel="noopener" data-api_path="/artists/15740"&gt;Lana Del Rey&lt;/a&gt;, &lt;a href="https://genius.com/artists/Regina-spektor" rel="noopener" data-api_path="/artists/19191"&gt;Regina Spektor&lt;/a&gt;, &lt;a href="https://genius.com/artists/Feist" rel="noopener" data-api_path="/artists/18072"&gt;Feist&lt;/a&gt;, &lt;a href="https://genius.com/artists/Fiona-apple" rel="noopener" data-api_path="/artists/653"&gt;Fiona Apple&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Marina-and-the-diamonds" rel="noopener" data-api_path="/artists/27048"&gt;Marina and the Diamonds&lt;/a&gt; as major influences on her music.&lt;/p&gt;\n\n&lt;p&gt;In addition to her accounts on Instagram, Twitter, and Facebook, Melanie also uses &lt;a href="http://melaniemartinezmusic.tumblr.com/" rel="noopener nofollow"&gt;Tumblr,&lt;/a&gt; &lt;a href="https://www.youtube.com/user/Melmartinezx3" rel="noopener nofollow"&gt;YouTube,&lt;/a&gt; and her &lt;a href="http://melaniemartinezmusic.com/?frontpage-true" rel="noopener nofollow"&gt;official website&lt;/a&gt; to connect with fans.&lt;/p&gt;', 'alternate_names': ['Melanie A. Martinez', 'Melanie Adele Martinez']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Daft-punk', 'annotations': {'description': '&lt;p&gt;With their thoroughly modern disco sound — a blend of house, funk, electro and techno — this French duo was one of the biggest electronic music acts of the late 1990s and 2000s. &lt;a href="https://genius.com/artists/Guy-manuel-de-homem-christo" rel="noopener" data-api_path="/artists/31634"&gt;Guy Manuel de Homem-Christo&lt;/a&gt; and &lt;a href="https://genius.com/artists/Thomas-bangalter" rel="noopener" data-api_path="/artists/42463"&gt;Thomas Bangalter&lt;/a&gt; wore shiny droid costumes at every live show (and only allowed themselves to be photographed in said costumes) but their music was only sometimes robotic: Daft Punk were as influenced by rock bands like &lt;a href="https://genius.com/artists/Ac-dc" rel="noopener" data-api_path="/artists/20268"&gt;AC/DC&lt;/a&gt; as they were by classic disco acts (&lt;a href="https://genius.com/artists/Chic" rel="noopener" data-api_path="/artists/1557518"&gt;Chic&lt;/a&gt;’s Nile Rodgers even collaborated with them for their hit 2013 single, &lt;a href="https://genius.com/Daft-punk-get-lucky-lyrics" rel="noopener" data-api_path="/songs/139968"&gt;“Get Lucky”&lt;/a&gt;). Not only were they prolific creators, but some of the best collaborators in the industry, producing for and working alongside artists such as &lt;a href="https://genius.com/artists/Kanye-west" rel="noopener" data-api_path="/artists/72"&gt;Kanye West&lt;/a&gt; and &lt;a href="https://genius.com/artists/The-weeknd" rel="noopener" data-api_path="/artists/2358"&gt;The Weeknd&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;On 22 February 2021, Daft Punk &lt;a href="https://variety.com/2021/music/news/daft-punk-have-split-up-publicist-confirms-1234912186/" rel="noopener nofollow"&gt;announced&lt;/a&gt; their retirement through a video titled “Epilogue,” featuring footage from their 2004 film &lt;em&gt;Electroma&lt;/em&gt; and the orchestral version of &lt;a href="https://genius.com/Daft-punk-touch-lyrics" rel="noopener" data-api_path="/songs/151359"&gt;“Touch”.&lt;/a&gt; It marks an end to the incredible journey they had in influencing the world of music, with just four studio albums released over the course of 28 years.&lt;/p&gt;\n\n&lt;p&gt;&lt;/p&gt;&lt;div class="embedly_preview embedly_preview--video"&gt;\n&lt;iframe type="text/html" width="640" height="390" frameborder="0" allowfullscreen="1" src="https://www.youtube.com/embed/DuDX6wNfjqc?modestbranding=1&amp;amp;start=0&amp;amp;showinfo=0&amp;amp;enablejsapi=1&amp;amp;origin=genius.com"&gt;&lt;/iframe&gt;\n&lt;/div&gt;', 'alternate_names': ['Guy-Manuel de Homem-Christo &amp; Thomas Bangalter']}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/D-block-europe', 'annotations': {'description': '&lt;p&gt;D-Block Europe are an UK Rap collective, hailing from Lewisham, South London. The group primarily consists of &lt;a href="https://genius.com/artists/Young-adz" rel="noopener" data-api_path="/artists/182468"&gt;Young Adz&lt;/a&gt; and &lt;a href="https://genius.com/artists/Dirtbike-lb" rel="noopener" data-api_path="/artists/1183833"&gt;Dirtbike LB&lt;/a&gt;, with &lt;a href="https://genius.com/artists/Lil-pino" rel="noopener" data-api_path="/artists/1610456"&gt;Lil Pino&lt;/a&gt; also featuring occasionally.&lt;/p&gt;\n\n&lt;p&gt;The group is well known for their catchy, effortless flow and explicit sexual lyrics, often rapping about trapping, having sex and especially performing oral sex on women:&lt;/p&gt;\n\n&lt;blockquote&gt;\n&lt;p&gt;I’m a nasty ass nigga, I kiss every single body part she got&lt;br&gt;\nI’m still a G&lt;br&gt;\n- &lt;a href="https://genius.com/D-block-europe-nassty-lyrics" rel="noopener" data-api_path="/songs/4030218"&gt;Young Adz on &lt;i&gt;nASSty&lt;/i&gt;&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Can I put my dick in? Thumb in your butt while I lick it&lt;br&gt;\n- &lt;a href="https://genius.com/D-block-europe-nassty-lyrics" rel="noopener" data-api_path="/songs/4030218"&gt;Dirtbike LB on &lt;i&gt;Kitchen Kings&lt;/i&gt;&lt;/a&gt;&lt;/p&gt;\n&lt;/blockquote&gt;\n\n&lt;p&gt;They officially formed sometime in the early 2010’s, enjoying a steady rise to the top of the UK scene in the recent years. The release of &lt;a href="https://genius.com/albums/Yxng-bane-and-d-block-europe/Any-minute-now" rel="noopener" data-api_path="/albums/447074"&gt;Any Minute Now&lt;/a&gt; in collaboration with &lt;a href="https://genius.com/artists/Yxng-bane" rel="noopener" data-api_path="/artists/572067"&gt;Yxng Bane&lt;/a&gt; in 2018 featured the hit &lt;a href="https://genius.com/Yxng-bane-x-d-block-europe-gucci-mane-lyrics" rel="noopener" data-api_path="/songs/3837881"&gt;“Gucci Mane”&lt;/a&gt;, which was well received by fans and subsequently led to the release of the &lt;a href="https://genius.com/albums/D-block-europe/Home-alone" rel="noopener" data-api_path="/albums/503589"&gt;&lt;em&gt;Home Alone&lt;/em&gt;&lt;/a&gt; mixtape on the 15th of February, 2019. They released their second mixtape &lt;a href="https://genius.com/albums/D-block-europe/PTSD" rel="noopener" data-api_path="/albums/561961"&gt;&lt;em&gt;PTSD&lt;/em&gt;&lt;/a&gt; on the 26th of September 2019. On the 9th of October 2020, the duo released debut studio album &lt;a href="https://genius.com/albums/D-block-europe/The-blue-print-us-vs-them" rel="noopener" data-api_path="/albums/649100"&gt;&lt;em&gt;The Blue Print: Us vs. Them&lt;/em&gt;&lt;/a&gt;.&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Blondie', 'annotations': {'description': '&lt;p&gt;&lt;a href="http://punkturns30.blogspot.com/2007/05/blondie-is-group.html" rel="noopener nofollow"&gt;Blondie is a Group!&lt;/a&gt; hailed the merch for their April 1978 gigs, when the 5-member band (give or take 1 or 2, time-wise) had an underground following in the U.S. (especially in their hood, NYC), after two critically lauded records and hits outside their turf: the UK and Australia.&lt;/p&gt;\n\n&lt;p&gt;The captivating vocalist &lt;a href="https://genius.com/artists/Debbie-harry" rel="noopener" data-api_path="/artists/118226"&gt;Debbie Harry&lt;/a&gt;, a brunette raised in Jersey, had stage-presence and more visual appeal as a (bleached) blonde, sang clever songs with hooks.  Some bordered on punk, but with synths, like “&lt;a href="https://genius.com/Blondie-rip-her-to-shreds-lyrics" rel="noopener" data-api_path="/songs/192723"&gt;Rip Her to Shreds&lt;/a&gt;”; More than a few had a retro girl-group pop  1960s feel, “&lt;a href="https://genius.com/Blondie-in-the-flesh-lyrics" rel="noopener" data-api_path="/songs/192084"&gt;In The Flesh&lt;/a&gt;”.  Others delivered a cinematic flair, e.g., the fun spy-thrill ride, “&lt;a href="https://genius.com/Blondie-contact-in-red-square-lyrics" rel="noopener" data-api_path="/songs/192748"&gt;Contact in Red Square&lt;/a&gt;”, plotted in just over two minutes.  Many critics dubbed the band retro, to the shock of &lt;a href="https://genius.com/artists/Debbie-harry" rel="noopener" data-api_path="/artists/118226"&gt;Debbie Harry&lt;/a&gt; who stated at the time they were firmly &lt;a href="https://www.rocksbackpages.com/Library/Article/blondies-debbie-harry-1978" rel="noopener nofollow"&gt;new wave&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;September 1978’s 3rd album made Blondie platinum.  Hit producer &lt;a href="https://genius.com/artists/Mike-chapman" rel="noopener" data-api_path="/artists/30909"&gt;Mike Chapman&lt;/a&gt; pushed the band to deliver their best (at least in a commercial sense).  He proposed an electronic-loop to an old song in their repertoire that never made the cut as a studio recording, dubbed “&lt;a href="https://genius.com/Blondie/Heart-of-glass" rel="noopener"&gt;Heart of Glass&lt;/a&gt;”, blowing up early 1979 airwaves as the the 3rd or 4th single from the 1978 album, i.e., 4th in the UK and other countries.  In the U.S. it was the 3rd single, the first 2 (the only cover songs on the album) having failed to scratch the HOT 100.  In the UK, the 1st single, “&lt;a href="https://genius.com/artists/Picture-this" rel="noopener" data-api_path="/artists/624636"&gt;Picture This&lt;/a&gt;“, penned by Harrry/Stein/Destri got to# 12, doing almost as well in Sweden and other European countries.&lt;/p&gt;\n\n&lt;p&gt;“&lt;a href="https://genius.com/Blondie/Heart-of-glass" rel="noopener"&gt;Heart of Glass&lt;/a&gt;“ from the 3rd record &lt;a href="https://genius.com/albums/Blondie/Parallel-lines" rel="noopener" data-api_path="/albums/28158"&gt;&lt;em&gt;Parallel Lines&lt;/em&gt;&lt;/a&gt; turned the band into a brand, despite being critically acclaimed.  It hurled out 2 more hits, ”&lt;a href="https://genius.com/artists/One-way-or-another" rel="noopener" data-api_path="/artists/455903"&gt;One way or another&lt;/a&gt;“ in North America, by Debbie Harry and &lt;a href="https://genius.com/artists/Nigel-harrison" rel="noopener" data-api_path="/artists/540398"&gt;Nigel Harrison&lt;/a&gt;, their English bassist.  ”&lt;a href="https://genius.com/artists/Sunday-girl" rel="noopener" data-api_path="/artists/390926"&gt;Sunday Girl&lt;/a&gt;“ by &lt;a href="https://genius.com/artists/Chris-stein" rel="noopener" data-api_path="/artists/713417"&gt;Chris Stein&lt;/a&gt;, became their 2nd #1 in the UK.&lt;/p&gt;\n\n&lt;p&gt;The 4th record, served in September 1979 &lt;a href="https://genius.com/albums/Blondie/Eat-to-the-beat" rel="noopener" data-api_path="/albums/40103"&gt;&lt;em&gt;Eat to the Beat&lt;/em&gt;&lt;/a&gt; did not disappoint, despite or because of more eclectic and experimental tunes.  It moved steadily into U.S. platinum; for that it didn’t need to break out another “Heart of Glass”.  Album sales weren’t hurt when February 1980’s soon-to-be monster hit ate the beat, pimped out of the main theme of a movie, &lt;a href="https://www.imdb.com/title/tt0080365/" rel="noopener nofollow"&gt;American Gigolo&lt;/a&gt;.  &lt;a href="https://genius.com/Blondie-call-me-lyrics" rel="noopener" data-api_path="/songs/193085"&gt;“Call Me”&lt;/a&gt;“, penned and produced by &lt;a href="https://genius.com/artists/Giorgio-moroder" rel="noopener" data-api_path="/artists/50122"&gt;Giorgio Moroder&lt;/a&gt;, with lyrics by Debbie Harry, was a world-wide smash, becoming Billboard’s #1 single of 1980.&lt;/p&gt;\n\n&lt;p&gt;In November 1980 Blondie spawned a more daring album with some originals that smacked of show-tunes, closing with an actual siren-song cover, &lt;a href="https://genius.com/albums/E-girls-jp/Follow-me" rel="noopener" data-api_path="/albums/753247"&gt;Follow Me&lt;/a&gt; from the 1960 musical Camelot.  The opening (mostly) instrumental track is a dramatic, string-hued piece culminating to a space-age outro and Debbie Harry’s spoken deadpan narration of a future history; panned by critics, it has an &lt;a href="https://genius.com/artists/Ennio-morricone" rel="noopener" data-api_path="/artists/47679"&gt;Ennio Morricone&lt;/a&gt;-esqe edge.   Despite its sheer musicality, &lt;a href="https://genius.com/albums/Blondie/Autoamerican" rel="noopener" data-api_path="/albums/6414"&gt;&lt;em&gt;Autoamerican&lt;/em&gt;&lt;/a&gt; drove it through: the reggae cover-song single “&lt;a href="https://genius.com/albums/John-holt/The-tide-is-high" rel="noopener" data-api_path="/albums/255121"&gt;The Tide Is High&lt;/a&gt;”, was a worldwide tidal wave splash, #1 in the U.S., as was the next single, an about-face to the beach water of tide’s high, a song with an urban-sense, made to dance.  It bested the “Tide”, particularly in the U.S., rapping it up to #1.  “&lt;a href="https://genius.com/artists/rapture" rel="noopener" data-api_path="/artists/17012"&gt;Rapture&lt;/a&gt;“ was Blondie’s 3rd and last #1 (in the U.S., that is), and the 2nd penned by Harry/Stein.  A &lt;a href="https://genius.com/artists/Chris-stein" rel="noopener" data-api_path="/artists/713417"&gt;Chris Stein&lt;/a&gt; quote sums it up well, from &lt;a href="https://www.biography.com/news/blondie-debbie-harry-rapture-tide-is-high" rel="noopener nofollow"&gt;Biography&lt;/a&gt;,&lt;/p&gt;\n\n&lt;blockquote&gt;&lt;p&gt;“Rapture” was the first time many Americans were exposed to this new art form. U-God and Inspectah Deck from the Wu-Tang Clan once told me that ‘Rapture’ was the first rap song they ever heard as kids,” Stein told the New York Post. “That’s mind-boggling.”&lt;/p&gt;&lt;/blockquote&gt;\n\n&lt;p&gt;&lt;a href="https://genius.com/albums/Blondie/Autoamerican" rel="noopener" data-api_path="/albums/6414"&gt;&lt;em&gt;Autoamerican&lt;/em&gt;&lt;/a&gt; was recorded in L.A. at the insistence of their producer.  The music and painted album cover still attested to the band’s roots, musically and physically, firmly, NYC.  Along with quintessential bands such as &lt;a href="https://genius.com/artists/Ramones" rel="noopener" data-api_path="/artists/765"&gt;Ramones&lt;/a&gt;, &lt;a href="https://genius.com/artists/Talking-heads" rel="noopener" data-api_path="/artists/13347"&gt;Talking Heads&lt;/a&gt;, and &lt;a href="https://genius.com/artists/Television" rel="noopener" data-api_path="/artists/31147"&gt;Television&lt;/a&gt;, Blondie gained underground grounding by regularly gigging at &lt;a href="https://genius.com/De-la-soul-cbgbs-lyrics" rel="noopener" data-api_path="/songs/2845157"&gt;CBGB’S&lt;/a&gt; and Live at Max’s Kansas City- the venue’s 2nd phase in 1975&lt;/p&gt;\n\n&lt;p&gt;1982 brought on the band’s sixth studio album, a commercial flop compared to its predecessors: &lt;a href="https://genius.com/albums/blondie/the-hunter" rel="noopener" data-api_path="/albums/40144"&gt;&lt;em&gt;The Hunter&lt;/em&gt;&lt;/a&gt; yielded a couple of semi-hits, primarily the Harry/Stein song “&lt;a href="https://genius.com/Blondie-island-of-lost-souls-lyrics" rel="noopener" data-api_path="/songs/192946"&gt;Island of Lost Souls&lt;/a&gt;”.&lt;/p&gt;\n\n&lt;p&gt;Blondie, the band, fizzled-out afterwards.  &lt;a href="https://genius.com/artists/Debbie-harry" rel="noopener" data-api_path="/artists/118226"&gt;Debbie Harry&lt;/a&gt; would continue putting out solo records (Chris Stein’s chops contributing when possible), the first of which was before &lt;a href="https://genius.com/Red-hot-chili-peppers-the-hunter-lyrics" rel="noopener" data-api_path="/songs/2467627"&gt;The Hunter&lt;/a&gt;, 1981’s &lt;a href="https://genius.com/artists/Kookoo" rel="noopener" data-api_path="/artists/1427490"&gt;Kookoo&lt;/a&gt;, produced and co-written by &lt;a href="https://genius.com/artists/Nile-rodgers" rel="noopener" data-api_path="/artists/34636"&gt;Nile Rodgers&lt;/a&gt; and &lt;a href="https://genius.com/artists/Bernard-edwards" rel="noopener" data-api_path="/artists/189401"&gt;Bernard Edwards&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Not until 1999 did Blondie yield a  “comeback album”, sort of: &lt;a href="https://genius.com/albums/blondie/no-exit" rel="noopener" data-api_path="/albums/40159"&gt;&lt;em&gt;No Exit&lt;/em&gt;&lt;/a&gt; had one big international hit, Blondie’s sixth #1 in the UK, &lt;a href="https://genius.com/Blondie-maria-lyrics" rel="noopener" data-api_path="/songs/193016"&gt;“Maria”&lt;/a&gt;, penned by keyboardist &lt;a href="https://genius.com/artists/Jimmy-destri" rel="noopener" data-api_path="/artists/1036333"&gt;Jimmy Destri&lt;/a&gt;.  Since then the band (or variation thereof, always with “Harry/Stein”) have continued releasing albums.&lt;/p&gt;\n\n&lt;p&gt;In 2006, Blondie was inducted into &lt;a href="https://www.rockhall.com/inductees/blondie" rel="noopener nofollow"&gt;The Rock &amp;amp; Roll Hall of Fame&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;&lt;a href="https://www.morrisonhotelgallery.com/search/Mick--Rock" rel="noopener nofollow"&gt;Mick Rock&lt;/a&gt;, photographer, &lt;a href="https://www.morrisonhotelgallery.com/collections/JE4xhs/The-Best-Photographs-of-Debbie-Harry" rel="noopener nofollow"&gt;took the best shots of Debbie Harry, or was it Andy Warhol, who turned them into…paintings?&lt;/a&gt;.  Picture this:&lt;/p&gt;\n\n&lt;p&gt;&lt;img src="https://images.genius.com/40bac203f70bccd6a20017700e646dae.411x490x1.jpg" alt="" width="411" height="490" data-animated="false"&gt;&lt;/p&gt;', 'alternate_names': []}}</t>
+  </si>
+  <si>
+    <t>{'url': 'https://genius.com/artists/Michael-jackson', 'annotations': {'description': '&lt;p&gt;Michael Jackson (August 29, 1958 – June 25, 2009) was born in Gary, Indiana. Jackson began his career when he was seven years old as the lead singer of the &lt;a href="https://genius.com/artists/Jackson-5" rel="noopener" data-api_path="/artists/8662"&gt;Jackson 5&lt;/a&gt;, breaking into stardom in 1969 after signing into Motown. The Jackson 5’s &lt;a href="https://genius.com/Jackson-5-i-want-you-back-lyrics" rel="noopener" data-api_path="/songs/54027"&gt;first&lt;/a&gt; &lt;a href="https://genius.com/Jackson-5-abc-lyrics" rel="noopener" data-api_path="/songs/1603797"&gt;four&lt;/a&gt; &lt;a href="https://genius.com/Jackson-5-the-love-you-save-lyrics" rel="noopener" data-api_path="/songs/591744"&gt;singles&lt;/a&gt; &lt;a href="https://genius.com/Jackson-5-ill-be-there-lyrics" rel="noopener" data-api_path="/songs/110441"&gt;all&lt;/a&gt; peaked at number one on the Billboard 100, and soon after Michael pursued a solo career.&lt;/p&gt;\n\n&lt;p&gt;His breakthrough fifth album, 1979’s &lt;a href="https://genius.com/albums/Michael-jackson/Off-the-wall" rel="noopener" data-api_path="/albums/21266"&gt;&lt;em&gt;Off The Wall&lt;/em&gt;&lt;/a&gt; produced four top ten hits (including &lt;a href="https://genius.com/Michael-Jackson-dont-stop-til-you-get-enough-lyrics" rel="noopener" data-api_path="/songs/114677"&gt;“Don’t Stop ‘Til You Get Enough”&lt;/a&gt;) and sold 20 million copies, establishing him as a household name. The album was followed with 1982’s &lt;a href="https://genius.com/albums/Michael-jackson/Thriller" rel="noopener" data-api_path="/albums/11769"&gt;&lt;em&gt;Thriller&lt;/em&gt;&lt;/a&gt;, which became the best selling album of all time, and was the first album to feature seven top 10 singles, including &lt;a href="https://genius.com/Michael-Jackson-billie-jean-lyrics" rel="noopener" data-api_path="/songs/1644"&gt;“Billie Jean”&lt;/a&gt; and &lt;a href="https://genius.com/Michael-Jackson-beat-it-lyrics" rel="noopener" data-api_path="/songs/67272"&gt;“Beat It.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;In 1985, Michael contributed to the collaboration single &lt;a href="https://genius.com/Usa-for-africa-we-are-the-world-lyrics" rel="noopener" data-api_path="/songs/96286"&gt;“We Are The World”&lt;/a&gt;, which remains one of the best-selling singles of all time and raised nearly $65 million for famine relief.&lt;/p&gt;\n\n&lt;p&gt;In 1987, Michael released &lt;a href="https://genius.com/albums/Michael-Jackson/bad" rel="noopener" data-api_path="/albums/11195"&gt;&lt;em&gt;Bad&lt;/em&gt;&lt;/a&gt;, which spawned five number one hits, including &lt;a href="https://genius.com/Michael-Jackson-man-in-the-mirror-lyrics" rel="noopener" data-api_path="/songs/1777"&gt;“Man In The Mirror,”&lt;/a&gt; &lt;a href="https://genius.com/Michael-Jackson-bad-lyrics" rel="noopener" data-api_path="/songs/1862"&gt;“Bad,”&lt;/a&gt; and &lt;a href="https://genius.com/Michael-jackson-dirty-diana-lyrics" rel="noopener" data-api_path="/songs/2907"&gt;“Dirty Diana.”&lt;/a&gt; He followed the record with 1991’s &lt;a href="https://genius.com/albums/michael-jackson/dangerous" rel="noopener" data-api_path="/albums/6296"&gt;&lt;em&gt;Dangerous&lt;/em&gt;&lt;/a&gt;, which included hits &lt;a href="https://genius.com/Michael-jackson-black-or-white-lyrics" rel="noopener" data-api_path="/songs/101077"&gt;“Black or White”&lt;/a&gt; and &lt;a href="https://genius.com/Michael-jackson-remember-the-time-lyrics" rel="noopener" data-api_path="/songs/188401"&gt;“Remember the Time.”&lt;/a&gt; In 1993, Jackson performed at the &lt;a href="https://www.youtube.com/watch?v=idg8TNknvDU" rel="noopener nofollow"&gt;Super Bowl XXVII halftime show&lt;/a&gt;.&lt;/p&gt;\n\n&lt;p&gt;Michael Jackson’s appearance paved the way for A-List artists to perform at the Super Bowl Halftime Show and had been watched by 133.4 million viewers, many of whom watched his performance at the Rose Bowl rather than the game itself. Jackson’s appearance would, later on, be revealed as a [massive success for the &lt;a href="https://youtu.be/-VhFiSHeBn4" rel="noopener nofollow"&gt;NFL&lt;/a&gt; towards tackling counter-programming in previous halftime shows.&lt;/p&gt;\n\n&lt;p&gt;His Double-album &lt;a href="https://genius.com/albums/Michael-jackson-history" rel="noopener"&gt;&lt;em&gt;HIStory&lt;/em&gt;&lt;/a&gt; was released in 1995, and became the best selling multiple-disc album of all time, moving 20 million units. It included the singles &lt;a href="https://genius.com/Michael-jackson-scream-lyrics" rel="noopener" data-api_path="/songs/108127"&gt;“Scream”&lt;/a&gt; (a duet with sister &lt;a href="https://genius.com/artists/Janet-jackson" rel="noopener" data-api_path="/artists/2122"&gt;Janet Jackson&lt;/a&gt;), &lt;a href="https://genius.com/Michael-jackson-you-are-not-alone-lyrics" rel="noopener" data-api_path="/songs/184066"&gt;“You Are Not Alone”&lt;/a&gt; (which was incidentally also the first single to enter the Billboard Hot 100 at #1), and &lt;a href="https://genius.com/Michael-jackson-earth-song-lyrics" rel="noopener" data-api_path="/songs/111004"&gt;“Earth Song.”&lt;/a&gt; He followed with his final album, 2001’s &lt;a href="https://genius.com/albums/michael-jackson/invincible" rel="noopener" data-api_path="/albums/6247"&gt;&lt;em&gt;Invincible&lt;/em&gt;&lt;/a&gt;, which hosted the single &lt;a href="https://genius.com/Michael-jackson-you-rock-my-world-lyrics" rel="noopener" data-api_path="/songs/137432"&gt;“You Rock My World.”&lt;/a&gt;&lt;/p&gt;\n\n&lt;p&gt;Michael passed away at the age of 50 on June 25, 2009, due to an overdose of Propofol without his private doctor Conrad Murray’s supervision. His legacy, however, lives on, with some of his unreleased music is being put out posthumously.&lt;/p&gt;\n\n&lt;p&gt;His success spawned 13 Grammys, 26 AMAs, over 400 million records sold, 13 solo #1 singles, and many, many more achievements.&lt;/p&gt;\n\n&lt;p&gt;During his career, Michael broke down racial barriers that denied black artists mainstream media exposure. His contributions to music, dance, videography, and fashion made him a global figure in popular culture for over four decades. He is considered one of the most influential artists of all time.&lt;/p&gt;', 'alternate_names': ['King of Pop', 'Michael Joseph Jackson']}}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Daniel_Merriweather', 'artist_name': 'Daniel Merriweather', 'wiki': 'http://en.wikipedia.org/wiki/Daniel_Merriweather', 'birth_date': '17 February 1982', 'start_year': '2002', 'abstract': 'Daniel Paul Merriweather (born 17 February 1982) is an Australian R&amp;B recording artist. Merriweather\'s debut solo album, Love &amp; War, was released in June 2009. It entered the UK Albums Chart at number two. It was preceded by two singles, "Change" and "Red", which both made the top 10 on the related singles chart. Merriweather has won two ARIA Music Awards, Best Urban Release in 2005 for "She\'s Got Me" and Best Male Artist in 2009 for Love &amp; War. In addition to his solo career, he has worked as a featured vocalist for other well-known artists. His guest vocals are included on album tracks by Disco Montego, Mark Ronson and Phrase. His collaborations with Ronson led to working in the United Kingdom including lead vocals on 2007 Ronson\'s hit "Stop Me", a cover version of "Stop Me If You Think You\'ve Heard This One Before", a song by The Smiths. In November 2019, Daniel announced his first single for ten years titled \'Everything I Need\', followed up by an album announcement. Merriweather played a couple of sold out London gigs too. Since 2017, Merriweather has been in a relationship with lawyer Coleen Mensa.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jennifer_Lopez', 'artist_name': 'Jennifer Lopez', 'wiki': 'http://en.wikipedia.org/wiki/Jennifer_Lopez', 'birth_date': '24 July 1969', 'start_year': '1986', 'abstract': 'Jennifer Lynn Lopez (born July 24, 1969), also known by her nickname J.Lo, is an American singer, actress, and dancer. In 1991, Lopez began appearing as a Fly Girl dancer on In Living Color, where she remained a regular until she decided to pursue an acting career in 1993. For her first leading role in the 1997 Selena biopic of the same name, Lopez became the first Latin actress to earn over US$1 million for a film. She went on to star in Anaconda (1997) and Out of Sight (1998), and established herself as the highest-paid Latin actress in Hollywood. Lopez ventured into the music industry with her debut studio album On the 6 (1999), which helped propel the Latin pop movement in American music, and later starred in the psychological horror The Cell (2000). With the simultaneous release of her second studio album J.Lo and her romantic comedy The Wedding Planner in 2001, Lopez became the first woman to have a number-one album and film in the same week. Her 2002 release, J to tha L–O! The Remixes, became the first remix album in history to debut atop the US Billboard 200. Later that year, she released her third studio album This Is Me... Then and starred in the film Maid in Manhattan. After starring in Gigli (2003), a critical and commercial failure, Lopez subsequently starred in the successful romantic comedies Shall We Dance? (2004) and Monster-in-Law (2005). Her fifth studio album, Como Ama una Mujer (2007), received the highest first week sales for a debut Spanish album in the United States. Following a relatively unsuccessful period, she returned to prominence in 2011 with her appearance as a judge on American Idol and released her seventh studio album Love?. From 2016 to 2018, she starred in the police drama series Shades of Blue and performed a residency show, Jennifer Lopez: All I Have, at Planet Hollywood Las Vegas. Lopez also produced and served as a judge on World of Dance (2017–2020). In 2019, she garnered critical acclaim for her performance as a stripper in the crime drama Hustlers. Lopez is considered a pop culture icon, and is often described as a triple threat entertainer. With a cumulative film gross of US$3.1 billion and estimated global sales of 70 million records, Lopez is regarded as the most influential Latin entertainer in North America. In 2012, Forbes ranked her as the most powerful celebrity in the world, as well as the 38th most powerful woman in the world. Time listed her among the 100 most influential people in the world in 2018. Her most successful singles on the US Billboard Hot 100 include: "If You Had My Love", "I\'m Real", "Ain\'t It Funny", "All I Have", and "On the Floor". For her contributions to the recording industry, Lopez has received a landmark star on the Hollywood Walk of Fame, the Billboard Icon Award, and the Michael Jackson Video Vanguard Award among other honors. Her other ventures include beauty and clothing lines, fragrances, a production company, and a charitable foundation.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Herbie_Hancock', 'artist_name': 'Herbie Hancock', 'wiki': 'http://en.wikipedia.org/wiki/Herbie_Hancock', 'birth_date': '12 April 1940', 'start_year': '1961', 'abstract': 'Herbert Jeffrey Hancock (born April 12, 1940) is an American jazz pianist, keyboardist, bandleader, composer, and occasional actor. Hancock started his career with trumpeter Donald Byrd’s group. He shortly thereafter joined the Miles Davis Quintet, where he helped to redefine the role of a jazz rhythm section and was one of the primary architects of the post-bop sound. In the 1970s, Hancock experimented with jazz fusion, funk, and electro styles, utilizing a wide array of synthesizers and electronics. It was during this period that he released perhaps his best-known and most influential album, Head Hunters. Hancock\'s best-known compositions include "Cantaloupe Island", "Watermelon Man", "Maiden Voyage" and "Chameleon", all of which are jazz standards. During the 1980s, he enjoyed a hit single with the electronic instrumental "Rockit", a collaboration with bassist/producer Bill Laswell. His 2007 Joni Mitchell tribute album River: The Joni Letters won the 2008 Grammy Award for Album of the Year, only the second jazz album to win the award after Getz/Gilberto in 1965. Since 2012, Hancock has served as a professor at the University of California, Los Angeles, where he teaches at the UCLA Herb Alpert School of Music. He is also the chairman of the Herbie Hancock Institute of Jazz (formerly known as the Thelonious Monk Institute of Jazz until 2019).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/2_Unlimited', 'artist_name': '2 Unlimited', 'wiki': 'http://en.wikipedia.org/wiki/2_Unlimited', 'hometown': 'http://dbpedia.org/resource/Amsterdam', 'start_year': '1991', 'end_year': '1996', 'abstract': '2 Unlimited is a Dutch dance act founded by Belgian producers Jean-Paul De Coster and Phil Wilde in 1991 in Amsterdam, Netherlands. Dutch rapper Ray Slijngaard and Dutch vocalist Anita Doth fronted the act from 1991 to 1996. During the five years of 2 Unlimited\'s worldwide mainstream success, the act scored a total of 16 chart hits, including "Get Ready for This", "Twilight Zone", "No Limit", and "Tribal Dance". They have sold 18 million records worldwide. Although they enjoyed less mainstream recognition in the United States, many of their songs have become popular themes at American sporting events, particularly in the NHL and the NBA.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Seeb_(music_producers)', 'artist_name': 'Seeb', 'wiki': 'http://en.wikipedia.org/wiki/Seeb_(music_producers)', 'start_year': '2015', 'abstract': 'Seeb (sometimes stylized as SEEB or SeeB) is a Norwegian EDM record production duo made up of Simen Eriksrud and Espen Berg. Their name is made up of the initials (first letter of given name and surname) of the original duo.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Yazz', 'artist_name': 'Yazz', 'wiki': 'http://en.wikipedia.org/wiki/Yazz', 'birth_date': '19 May 1960', 'start_year': '1988', 'abstract': 'Yazz (born Yasmin Evans, 19 May 1960) is an English pop singer, who remains best known for her 1988 UK number one single "The Only Way Is Up". Some of her records are credited to Yazz and the Plastic Population.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Lil_Wayne', 'artist_name': 'Lil Wayne', 'wiki': 'http://en.wikipedia.org/wiki/Lil_Wayne', 'birth_date': '27 September 1982', 'start_year': '1995', 'abstract': 'Dwayne Michael Carter Jr. (born September 27, 1982), known professionally as Lil Wayne, is an American rapper and record executive. He is regarded by many contemporaries as one of the most influential hip hop artists of his generation, and often cited as one of the greatest rappers of all time. His career began in 1995, at the age of 12, when he was signed by rapper Birdman, joining Cash Money Records as the youngest member of the label. From then on, Wayne was the flagship artist of Cash Money Records before ending his association with the company in June 2018. In 1995, Wayne was put in a duo with label-mate B.G. (at the time known as Lil Doogie) and they recorded an album, True Story, released that year, although Wayne (at the time known as Baby D) only appeared on three tracks. Wayne and B.G. soon joined the southern hip hop group Hot Boys, with Cash Money label-mates Juvenile and Turk in 1997; they released their debut album Get It How U Live! in October that year. The Hot Boys became popular following the release of the album Guerrilla Warfare (1999) and the song "Bling Bling". Lil Wayne\'s solo debut album Tha Block Is Hot (1999) was his solo breakthrough, and he reached higher popularity with his fourth album Tha Carter (2004) and fifth album Tha Carter II (2005), as well as several mixtapes and collaborations throughout 2006 and 2007. He gained more prominence within the music industry with his sixth album Tha Carter III (2008), with first-week sales of over one million copies in the US. The album won the Grammy Award for Best Rap Album and included successful singles "A Milli", "Got Money" (featuring T-Pain), and "Lollipop" (featuring Static Major)—the latter being his first single to reach number one on the Billboard Hot 100. In February 2010, Wayne released his seventh studio album, Rebirth, which experimented with rap rock and was met with generally negative reviews. A month later in March 2010, Lil Wayne began serving an 8-month jail sentence in New York after being convicted of criminal possession of a weapon stemming from an incident in July 2007. His eighth studio album I Am Not a Human Being (2010) was released during his incarceration, while his 2011 album Tha Carter IV was released following his release. Tha Carter IV sold 964,000 copies in its first week in the United States. His twelfth studio album Tha Carter V was released in 2018 after multiple delays. Wayne\'s thirteenth album, Funeral, was released in early 2020. Lil Wayne has sold over 120 million records worldwide, including more than 20 million albums and 70 million digital tracks in the United States, making him one of the world\'s best-selling music artists. He has won five Grammy Awards, 11 BET Awards, four Billboard Music Awards, two MTV Video Music Awards and eight NAACP Image Awards. On September 27, 2012, he became the first male artist to surpass Elvis Presley with the most entries on the Billboard Hot 100, with 109 songs. Lil Wayne also currently serves as the chief executive officer (CEO) of his own label, Young Money Entertainment.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Clairo', 'artist_name': 'Clairo', 'wiki': 'http://en.wikipedia.org/wiki/Clairo', 'hometown': 'http://dbpedia.org/resource/Carlisle,_Massachusetts', 'birth_date': '18 August 1998', 'start_year': '2012', 'abstract': 'Claire Elizabeth Cottrill (born August 18, 1998), known professionally as Clairo, is an American singer-songwriter. Born in Atlanta, Georgia, and raised in Carlisle, Massachusetts, she began posting music on the internet at age 13. Clairo rose to prominence following the viral success of the music video for her lo-fi single "Pretty Girl" in 2017. She subsequently signed a record deal with Fader Label, where she released her debut EP Diary 001 (2018). Her debut studio album Immunity (2019) received critical acclaim and spawned the singles "Bags" and "Sofia", the latter of which became her first single to chart on the Billboard Hot 100. Cottrill\'s second studio album, Sling, was released in 2021. Upon its release, the album received critical acclaim and saw commercial success, debuting in the top 20 of the US Billboard 200.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Marshmello', 'artist_name': 'Marshmello', 'wiki': 'http://en.wikipedia.org/wiki/Marshmello', 'birth_date': '19 May 1992', 'start_year': '2015', 'abstract': 'Christopher Comstock (born May 19, 1992), known professionally as Marshmello, is an American electronic music producer and DJ. His songs "Silence", "Wolves", "Friends", "Happier", and "Alone" have been certified multi-platinum in several countries and appeared in the Top 30 of the Billboard Hot 100. His musical style includes groove-oriented, synth and bass-heavy electronic dance music. He is managed by Moe Shalizi. Marshmello first gained international recognition in early 2015 by publishing remixes online. His debut studio album, Joytime, was released in January 2016, which included the lead single and Marshmello\'s debut single "Keep It Mello". "Alone", a platinum-certified single was released in May 2016 via the Canadian record label Monstercat. Having peaked on the US Billboard Hot 100 at number 60, it became his first single to be certified platinum in the US and Canada with over 1 million copies of certified units. That year, he released three subsequent singles. In 2017, after releasing singles such as "Chasing Colors", "Twinbow" and "Moving On", Marshmello collaborated with American R&amp;B singer Khalid to release "Silence" as a single, which was certified platinum and multi-platinum in eight countries. Succeeding another single, one of his bestselling singles, a collaboration with American singer Selena Gomez, titled "Wolves" was released. In 2018, he released "Friends", a collaboration with British singer Anne-Marie. Months later, his second studio album, Joytime II, was released with singles "Tell Me" and "Check This Out". "Happier", a collaboration with British band Bastille, was released in August and became his highest charting song on the Billboard Hot 100 at #2. In 2019, he earned $40 million, ranking second on the list of highest paid DJs compiled by Forbes. In 2020, he and American rapper Juice Wrld released "Come &amp; Go", from the latter\'s posthumous album Legends Never Die; the song reached number two on the Billboard Hot 100, matching "Happier" as his highest charting song. In 2021, his album Shockwave earned him a Grammy nomination. Marshmello wears a custom white helmet, resembling a marshmallow, for public appearances and in his music videos. His identity was initially a secret, but was confirmed by Forbes to be Chris Comstock in April 2017.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Collective_Soul', 'artist_name': 'Collective Soul', 'wiki': 'http://en.wikipedia.org/wiki/Collective_Soul', 'hometown': 'http://dbpedia.org/resource/Stockbridge,_Georgia', 'start_year': '1992', 'abstract': 'Collective Soul is an American rock band originally from Stockbridge, Georgia. Now based in Atlanta, the group consists of lead vocalist Ed Roland, rhythm guitarist Dean Roland, bassist Will Turpin, drummer Johnny Rabb, and lead guitarist Jesse Triplett. Formed in 1992, Collective Soul released their Hints, Allegations, and Things Left Unsaid album on the independent label Rising Storm Records in 1993. The band went from obscurity to popularity that year after the song "Shine" became an underground hit based on radio play. The album was re-released in 1994 under major label Atlantic Records. Collective Soul released a self-titled album in March 1995. Considered by Ed Roland to be the band\'s true debut album, Collective Soul spent 76 weeks on the Billboard 200 charts and went triple-platinum, becoming the band\'s highest-selling album. The singles "December", "The World I Know", and "Where the River Flows" each reached No. 1 on the Mainstream Rock charts. About two years later, Collective Soul released Disciplined Breakdown. Although not as successful in sales as their previous two albums, Disciplined Breakdown contained two No. 1 Mainstream Rock chart hits with "Precious Declaration" and "Listen". The band released a fourth studio album, Dosage, in 1999. The album\'s first single, "Heavy", spent a then record-breaking 15 weeks on the top spot of the Mainstream Rock charts. The band released Blender in 2000, their fifth and final album with the original starting lineup, as lead guitarist Ross Childress left the band in 2001. About two weeks after Childress\' departure, Collective Soul released Seven Year Itch, a compilation of their greatest hits between 1994 and 2001. Collective Soul established their own label, El Music Group, prior to releasing Youth in 2004. The band recorded a live album with the Atlanta Symphony Youth Orchestra in 2005, titled Home, and released it in 2006. Original drummer Shane Evans departed from the band at the end of 2005. Collective Soul has since released four more albums: Afterwords (2007), a second self-titled album (2009), See What You Started by Continuing (2015), and Blood (2019).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Tracy_Chapman', 'artist_name': 'Tracy Chapman', 'wiki': 'http://en.wikipedia.org/wiki/Tracy_Chapman', 'birth_date': '30 March 1964', 'start_year': '1986', 'abstract': 'Tracy Chapman (born March 30, 1964) is an American singer-songwriter, known for her hits "Fast Car", "Give Me One Reason", "Talkin\' \'bout a Revolution", and "Baby Can I Hold You". She is a multi-platinum and four-time Grammy Award–winning artist. Chapman was signed to Elektra Records by Bob Krasnow in 1987. The following year she released her debut album, Tracy Chapman, which became a worldwide success. The album earned Chapman six Grammy Award nominations, including Album of the Year, three of which she won: Best New Artist, Best Female Pop Vocal Performance for her single "Fast Car", and Best Contemporary Folk Album. Chapman released her second album, Crossroads, the following year, which garnered her an additional Grammy nomination. Since Crossroads, Chapman has released six more studio albums. Her multi-platinum fourth album, New Beginning, yielded a Grammy Award-winning lead single, "Give Me One Reason". Chapman\'s most recent album is Our Bright Future, released in 2008.'}</t>
+  </si>
+  <si>
+    <t>{'artist': "http://dbpedia.org/resource/Plain_White_T's", 'artist_name': "Plain White T's", 'wiki': "http://en.wikipedia.org/wiki/Plain_White_T's", 'hometown': 'http://dbpedia.org/resource/Lombard,_Illinois', 'start_year': '1997', 'abstract': 'Plain White T\'s are an American rock band from Lombard, Illinois, formed in 1997 by high school friends Tom Higgenson, Dave Tirio, and Ken Fletcher, and joined a short time later by Steve Mast. The group had a mostly underground following in Chicago basements, clubs, and bars in its early years. The band had a number-one hit song with "Hey There Delilah", which achieved platinum status in 2007 and earned two Grammy nominations. Its songs "1234" and "Rhythm of Love" were certified platinum in 2009 and 2011.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/MC_Hammer', 'artist_name': 'MC Hammer', 'wiki': 'http://en.wikipedia.org/wiki/MC_Hammer', 'birth_date': '30 March 1962', 'start_year': '1985', 'abstract': 'Stanley Kirk Burrell (born March 30, 1962), better known by his stage name MC Hammer (or simply Hammer), is an American rapper, songwriter, dancer and record producer who had his greatest commercial success and popularity from the late 1980s until the early 1990s. Remembered for his rapid rise to fame, Hammer is known for songs (such as "U Can\'t Touch This" and "2 Legit 2 Quit"), flashy dance movements, choreography and eponymous Hammer pants. A multi-award winner, MC Hammer is considered a "forefather/pioneer" and innovator of pop rap (incorporating elements of freestyle music) and is the first hip hop artist to achieve diamond status for an album. BET ranked Hammer as the No. 7 "Best Dancer Of All Time". Vibe\'s "The Best Rapper Ever Tournament" declared him the 17th favorite of all-time during the first round. Hammer\'s popularity and success waned by 1992 when he was labeled a sellout by the changing landscape of hip-hop music, leading to financial problems later in life, including a highly publicized bankruptcy in 1996. During this time, Hammer unsuccessfully attempted to appeal to the rise of gangsta rap. Burrell became a preacher during the late 1990s with a Christian ministry program on TBN called M.C. Hammer and Friends. Additionally, he starred in a Saturday-morning cartoon called Hammerman in 1991 and was executive producer of his own reality show called Hammertime, which aired on the A&amp;E Network during the summer of 2009. Hammer was also a television show host and dance judge on Dance Fever in 2003, was co-creator of a dance website called DanceJam.com and is a record label CEO while still performing concerts at music venues and assisting with other social media, ministry and outreach functions. Prior to becoming ordained, Hammer signed with Suge Knight\'s Death Row Records in 1995. Throughout his career, Hammer has managed his own recording business. As a result, he has created and produced his own acts including Ho Frat Hoo!, Oaktown\'s 3.5.7, Special Generation, Analise, DRS, B Angie B and Gentry Kozia. A part of additional record labels, he has associated, collaborated and recorded with Psy, VMF, Tupac Shakur, Teddy Riley, Felton Pilate, Tha Dogg Pound, The Whole 9, The Hines Brother, Deion Sanders, Big Daddy Kane, BeBe &amp; CeCe Winans and Jon Gibson.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Wanz', 'artist_name': 'Wanz', 'wiki': 'http://en.wikipedia.org/wiki/Wanz', 'birth_date': '09 October 1961', 'start_year': '1980', 'abstract': 'Michael "Mike" Wansley (born October 9, 1961), better known by his stage names Wanz and TeeWanz, is an American singer, songwriter and rapper. He performs in various genres, including rock, R&amp;B, soul, hip hop, and pop. He was featured on fellow Seattle-based duo Macklemore and Ryan Lewis\' international hit single "Thrift Shop", which received two Grammy Awards for "Best Rap Performance" and "Best Rap Song".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/KT_Tunstall', 'artist_name': 'KT Tunstall', 'wiki': 'http://en.wikipedia.org/wiki/KT_Tunstall', 'birth_date': '23 June 1975', 'start_year': '2000', 'abstract': 'Kate Victoria "KT" Tunstall (born 23 June 1975) is a Scottish singer-songwriter and musician. She first gained attention with a 2004 live solo performance of her song "Black Horse and the Cherry Tree" on Later... with Jools Holland. The name of her debut album, Eye to the Telescope, was inspired by her childhood experiences at her father\'s physics laboratory at University of St Andrews. Released in 2004, this album launched her music career. That album inspired her nomination for the Mercury Prize in 2005, BRIT Award for Best British Live Act and BRIT Award for Best Breakthrough Act in 2006, and Grammy Award for Best Female Pop Vocal Performance in 2007. She eventually won BRIT Award for Best British Female Artist and European Border Breakers Award, both in 2006. The single "Black Horse and the Cherry Tree" was given the Q Magazine Award for Best Track in 2005, and "Suddenly I See" won the Ivor Novello Award for Best Song in 2006. "Suddenly I See" became a popular hit and has been featured in The Devil Wears Prada; Blind Dating; Ugly Betty; Grey\'s Anatomy; and Love, Rosie; Thrillville, and as a campaign song of the Hillary Clinton 2008 presidential campaign. She has released six albums internationally: Eye to the Telescope (2004), Drastic Fantastic (2007), Tiger Suit (2010), Invisible Empire // Crescent Moon (2013), Kin (2016) and Wax (2018). She has also appeared in two episodes of the comedy series This is Jinsy on Sky Atlantic. Tunstall has written soundtracks for films: "Boy" for The Kid, "Miracle" for Winter\'s Tale, "We Could Be Kings" for Million Dollar Arm, "Float", "Strange Sight" and "1000 Years" for Tinker Bell and the Legend of the NeverBeast, "Fit In" for About Ray, and "Bad Moms (Suite)", "Enough is Enough (Suite)", and "Get Your Tits Up (Suite)" for Bad Moms.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/George_Harrison', 'artist_name': 'George Harrison', 'wiki': 'http://en.wikipedia.org/wiki/George_Harrison', 'birth_date': '25 February 1943', 'death_date': '29 November 2001', 'start_year': '1958', 'end_year': '2001', 'abstract': 'George Harrison MBE (25 February 1943 – 29 November 2001) was an English musician, singer-songwriter, and music and film producer who achieved international fame as the lead guitarist of the Beatles. Sometimes called "the quiet Beatle", Harrison embraced Indian culture and helped broaden the scope of popular music through his incorporation of Indian instrumentation and Hindu-aligned spirituality in the Beatles\' work. Although the majority of the band\'s songs were written by John Lennon and Paul McCartney, most Beatles albums from 1965 onwards contained at least two Harrison compositions. His songs for the group include "Taxman", "Within You Without You", "While My Guitar Gently Weeps", "Here Comes the Sun" and "Something". Harrison\'s earliest musical influences included George Formby and Django Reinhardt; Carl Perkins, Chet Atkins and Chuck Berry were subsequent influences. By 1965, he had begun to lead the Beatles into folk rock through his interest in Bob Dylan and the Byrds, and towards Indian classical music through his use of the sitar on "Norwegian Wood (This Bird Has Flown)". Having initiated the band\'s embracing of Transcendental Meditation in 1967, he subsequently developed an association with the Hare Krishna movement. After the band\'s break-up in 1970, Harrison released the triple album All Things Must Pass, a critically acclaimed work that produced his most successful hit single, "My Sweet Lord", and introduced his signature sound as a solo artist, the slide guitar. He also organised the 1971 Concert for Bangladesh with Indian musician Ravi Shankar, a precursor to later benefit concerts such as Live Aid. In his role as a music and film producer, Harrison produced acts signed to the Beatles\' Apple record label before founding Dark Horse Records in 1974 and co-founding HandMade Films in 1978. Harrison released several best-selling singles and albums as a solo performer. In 1988, he co-founded the platinum-selling supergroup the Traveling Wilburys. A prolific recording artist, he was featured as a guest guitarist on tracks by Badfinger, Ronnie Wood and Billy Preston, and collaborated on songs and music with Dylan, Eric Clapton, Ringo Starr and Tom Petty, among others. Rolling Stone magazine ranked him number 11 in their list of the "100 Greatest Guitarists of All Time". He is a two-time Rock and Roll Hall of Fame inductee – as a member of the Beatles in 1988, and posthumously for his solo career in 2004. Harrison\'s first marriage, to model Pattie Boyd in 1966, ended in divorce in 1977. The following year he married Olivia Arias, with whom he had a son, Dhani. Harrison died from lung cancer in 2001 at the age of 58, two years after surviving a knife attack by an intruder at his Friar Park home. His remains were cremated, and the ashes were scattered according to Hindu tradition in a private ceremony in the Ganges and Yamuna rivers in India. He left an estate of almost £100 million.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Hayley_Williams', 'artist_name': 'Hayley Williams', 'wiki': 'http://en.wikipedia.org/wiki/Hayley_Williams', 'birth_date': '27 December 1988', 'start_year': '2003', 'abstract': 'Hayley Nichole Williams (born December 27, 1988) is an American singer, songwriter, musician, and businesswoman who is best known as the lead vocalist, primary songwriter, and keyboardist of the rock band Paramore. Born and raised in Mississippi, Williams moved to Franklin, Tennessee, at the age of 13 just after her parents divorced in 2002. In 2004, she formed Paramore alongside Josh Farro, Zac Farro, and Jeremy Davis. The band currently consists of Hayley Williams, Zac Farro and Taylor York. The band has released five studio albums: All We Know Is Falling (2005), Riot! (2007), Brand New Eyes (2009), Paramore (2013), and After Laughter (2017). Williams released her debut solo single, "Simmer", on January 22, 2020, and announced on the same day that her debut studio album, Petals for Armor, would be released on May 8, 2020. The album was preceded by two EPs entitled Petals for Armor I and II that make up the first two-thirds of the album. Her second solo record, Flowers for Vases / Descansos, was released less than a year later on February 5, 2021. Aside from Paramore and preceding her solo career, Williams recorded the song "Teenagers" for the soundtrack of Jennifer\'s Body (2009) and has collaborated with artists such as October Fall, The Chariot, Set Your Goals, Zedd and New Found Glory. In 2010, she was featured on the single "Airplanes" by B.o.B. It peaked at number two on the U.S. Billboard Hot 100. A sequel to the song, "Airplanes, Part II", features new verses from B.o.B. and a verse from Eminem, while Williams\' vocals remain the same. This collaboration led to a Grammy nomination for Best Pop Collaboration with Vocals. Other ventures in which Williams has explored include online beauty and music series Kiss-Off on Popular TV launched in 2015 and the hair-dye company Good Dye Young, launched in 2016.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sophie_Ellis-Bextor', 'artist_name': 'Sophie Ellis-Bextor', 'wiki': 'http://en.wikipedia.org/wiki/Sophie_Ellis-Bextor', 'birth_date': '10 April 1979', 'start_year': '1997', 'abstract': 'Sophie Michelle Ellis-Bextor (born 10 April 1979) is an English singer, songwriter and model. She first came to prominence in the late 1990s, as the lead singer of the indie rock band Theaudience. After the group disbanded, Ellis-Bextor went solo, achieving success in the early 2000s. Her music is a mixture of mainstream pop, disco, nu-disco, and 1980s electronic influences. Her solo debut album, Read My Lips, was released in 2001. The album reached number two in the UK Albums Chart and was certified double platinum by the British Phonographic Industry (BPI). The record experienced international success, selling more than 2 million copies worldwide. It produced four singles, three of which reached the top three in the UK. In 2003, Read My Lips won the Edison Award for "Best Dance Album". Ellis-Bextor\'s second album, Shoot from the Hip, was released in 2003. The album reached number 19 in the UK and produced two top ten singles. Trip the Light Fantastic, her third album, was released in 2007 and reached number seven in the UK. The album produced three singles, one of which reached the top ten in the UK. Her fourth studio album, Make a Scene (released in 2011) and its third single "Bittersweet" achieved top 40 positions in the UK. In 2014, Ellis-Bextor released her fifth studio album, Wanderlust which became her highest charting album since Read My Lips. Her sixth album, the Latin-inspired Familia earned critical acclaim in 2016.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Rage_Against_the_Machine', 'artist_name': 'Rage Against the Machine', 'wiki': 'http://en.wikipedia.org/wiki/Rage_Against_the_Machine', 'abstract': "Rage Against the Machine (often abbreviated as RATM or shortened to Rage) is an American rock band from Los Angeles, California. Formed in 1991, the group consists of vocalist Zack de la Rocha, bassist and backing vocalist Tim Commerford, guitarist Tom Morello, and drummer Brad Wilk. Their songs express revolutionary political views. As of 2010, they have sold over 16 million records worldwide. The band was nominated for induction into the Rock &amp; Roll Hall of Fame in their first year of eligibility in 2017, then again in 2018, 2019, and 2021, though the bids failed. Rage Against the Machine released its self-titled debut album in 1992 to commercial and critical success, leading to a slot in the 1993 Lollapalooza festival; in 2003, the album was ranked number 368 on Rolling Stone's list of the 500 greatest albums of all time. The follow-up albums, Evil Empire (1996) and The Battle of Los Angeles (1999), were also successful; both albums topped the Billboard 200 chart. During their initial nine-year run, Rage Against the Machine became a popular and influential band, and had a large influence on the nu metal genre which came to prominence during the second half of the 1990s. They were also ranked No. 33 on VH1's 100 Greatest Artists of Hard Rock. In 2000, Rage Against the Machine released the cover album Renegades and disbanded after growing creative differences led to De la Rocha's departure. De la Rocha started a low-profile solo career, while the rest of the band formed the rock supergroup Audioslave with Chris Cornell, the former frontman of Soundgarden; Audioslave recorded three albums before disbanding in 2007. The same year, Rage Against the Machine announced a reunion and performed together for the first time in seven years at the Coachella Valley Music and Arts Festival in April 2007. Within the next four years, minus a sabbatical in 2009, the band continued to perform at more live venues and festivals around the world before going on hiatus once again in 2011. In 2016, Morello, Commerford and Wilk formed a new band, Prophets of Rage, with B-Real, Chuck D, and DJ Lord; that band released one EP and one full-length studio album before disbanding in 2019. After an eight-year hiatus, Rage Against the Machine announced in November 2019 that they were reuniting for a world tour, which was initially scheduled to start in 2020 but was ultimately postponed to 2021 and again to 2022, due to the COVID-19 pandemic."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/System_of_a_Down', 'artist_name': 'System of a Down', 'wiki': 'http://en.wikipedia.org/wiki/System_of_a_Down', 'hometown': 'http://dbpedia.org/resource/Glendale,_California', 'start_year': '1994', 'end_year': '2006', 'abstract': 'System of a Down (also known as SoaD or simply System) is an Armenian-American heavy metal band formed in Glendale, California, in 1994. It currently consists of members Serj Tankian (lead vocals, keyboards), Daron Malakian (guitar, vocals), Shavo Odadjian (bass, backing vocals), and John Dolmayan (drums), who replaced original drummer Andy Khachaturian in 1997. The band achieved commercial success with the release of five studio albums, three of which debuted at number one on the US Billboard 200. System of a Down has been nominated for four Grammy Awards and their song "B.Y.O.B." won a Grammy Award for Best Hard Rock Performance in 2006. The band went on hiatus in 2006 and reunited in 2010. Other than two new songs in 2020 ("Protect the Land" and "Genocidal Humanoidz"), System of a Down has not released a full-length record since the Mezmerize and Hypnotize albums in 2005. The band has sold over 40 million records worldwide, while two of their singles "Aerials" and "Hypnotize" reached number one on Billboard\'s Alternative Songs chart. All members of System of a Down are of Armenian descent, being born to Armenian immigrants or immigrating from Armenia themselves.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Cyndi_Lauper', 'artist_name': 'Cyndi Lauper', 'wiki': 'http://en.wikipedia.org/wiki/Cyndi_Lauper', 'birth_date': '22 June 1953', 'start_year': '1977', 'abstract': 'Cynthia Ann Stephanie Lauper Thornton (born June 22, 1953) is an American singer, songwriter, actress, and activist. Her career has spanned over 40 years. Her album She\'s So Unusual (1983) was the first debut album by a female artist to achieve four top-five hits on the Billboard Hot 100—"Girls Just Want to Have Fun", "Time After Time", "She Bop", and "All Through the Night"—and earned Lauper the Best New Artist award at the 27th Grammy Awards in 1985. Her success continued with the soundtrack for the motion picture The Goonies and her second record True Colors (1986). This album included the number one single "True Colors" and "Change of Heart", which peaked at number three. In 1989, she had a hit with "I Drove All Night". Since 1983, Lauper has released eleven studio albums and participated in many other projects. In 2010, Memphis Blues became Billboard\'s most successful blues album of the year, remaining at number one on the Billboard Blues Albums chart for 13 consecutive weeks. In 2013, Lauper won the Tony Award for best original score for composing the Broadway musical Kinky Boots, making her the first woman to win the category by herself. The musical was awarded five other Tonys including Tony Award for Best New Musical. In 2014, Lauper was awarded the Grammy Award for Best Musical Theater Album for the cast recording. In 2016, the West End production won Best New Musical at the Olivier Awards. Lauper has sold over 50 million records worldwide. She has won awards at the Grammys, Emmys, Tonys, the New York\'s Outer Critics Circle, MTV Video Music Awards (VMAs), Billboard Awards, and American Music Awards (AMAs). An inductee into both the Songwriters Hall of Fame and the Hollywood Walk of Fame, Lauper is one of the few singers to win three of the four major American entertainment awards (EGOT). Lauper won the inaugural Best Female Video prize at the 1984 VMAs for "Girls Just Want to Have Fun". This music video is recognized by MTV, VH1 and Rolling Stone as one of the greatest music videos of the era. She is featured in the Rock and Roll Hall of Fame Museum\'s Women Who Rock exhibit. Her debut album is included in Rolling Stone\'s list of the 500 Greatest Albums of All Time, while "Time After Time" is included in VH1\'s list of the 100 Best Songs of the Past 25 years. VH1 has ranked Lauper No. 58 of the 100 Greatest Women of Rock &amp; Roll. Lauper is known for her distinctive image, featuring a variety of hair colors and eccentric clothing, and for her powerful and distinctive four-octave singing range. She has been celebrated for her humanitarian work, particularly as an advocate for LGBT rights in the United States. Her charitable efforts were acknowledged in 2013 when she was invited as a special guest to attend U.S. President Barack Obama\'s second-term inauguration.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Alice_in_Chains', 'artist_name': 'Alice in Chains', 'wiki': 'http://en.wikipedia.org/wiki/Alice_in_Chains', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '1987', 'end_year': '2002', 'abstract': "Alice in Chains (often abbreviated as AIC) is an American rock band from Seattle, Washington, formed in 1987 by guitarist and vocalist Jerry Cantrell and drummer Sean Kinney, who later recruited bassist Mike Starr and lead vocalist Layne Staley. Starr was replaced by Mike Inez in 1993. William DuVall joined the band in 2006 as co-lead vocalist and rhythm guitarist, replacing Staley, who died in 2002. The band took its name from Staley's previous group, the glam metal band Alice N' Chains. Often associated with grunge music, Alice in Chains' sound incorporates heavy metal elements. The band is known for its distinctive vocal style, which often included the harmonized vocals between Staley and Cantrell (and later Cantrell and DuVall). Cantrell started to sing lead vocals on the 1992 acoustic EP Sap, and his role continued to grow in the following albums, making Alice in Chains a two-vocal band. Alice in Chains rose to international fame as part of the grunge movement of the early 1990s, along with other Seattle bands such as Nirvana, Pearl Jam, and Soundgarden. They achieved success during the era with the albums Facelift (1990), Dirt (1992), Alice in Chains (1995), as well as the EP Jar of Flies (1994). Although never officially disbanding, Alice in Chains was plagued by extended inactivity from 1996 onward, due to Staley's substance abuse, which resulted in his death in 2002. The band regrouped in 2006, with DuVall taking over as lead vocalist full-time, and they have since released three more albums: Black Gives Way to Blue (2009), The Devil Put Dinosaurs Here (2013), and Rainier Fog (2018). Alice in Chains have sold over 30 million records worldwide, and over 14 million records in the US alone. The band has had 18 Top 10 songs on Billboard's Mainstream Rock Tracks chart, 5 No. 1 hits, and received 11 Grammy Award nominations. The band was ranked number 34 on VH1's 100 Greatest Artists of Hard Rock and was ranked as the 15th greatest live band by Hit Parader. Since its formation, Alice in Chains has released six studio albums, three EPs, three live albums, four compilations, two DVDs, 43 music videos, and 32 singles."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Pharrell_Williams', 'artist_name': 'Pharrell Williams', 'wiki': 'http://en.wikipedia.org/wiki/Pharrell_Williams', 'birth_date': '05 April 1973', 'start_year': '1992', 'abstract': 'Pharrell Lanscilo Williams (/fəˈrɛl/; born April 5, 1973) is an American record producer, rapper, singer, songwriter, and entrepreneur. Alongside close colleague Chad Hugo, he formed the hip hop and R&amp;B production duo The Neptunes in the early 1990s, with whom he has produced songs for various recording artists. In 1999, he became lead vocalist of the band N.E.R.D., which he formed with Hugo and drummer Shay Haley. Williams released his debut solo album, In My Mind, in 2006. In 2013, he was featured on the song "Blurred Lines" with Robin Thicke and T.I., and his song "Happy" was the lead single for the soundtrack of the film Despicable Me 2. In the same year, he was featured on Daft Punk\'s single "Get Lucky", which won Record of the Year and Best Pop Duo/Group Performance at the 56th Grammy Awards. His second album, Girl, was released in 2014. Williams has received numerous accolades and nominations. He has won 13 Grammy Awards, including three for Producer of the Year, Non-Classical (one as a member of the Neptunes). He is also a two-time Academy Award nominee: in 2014 for Best Original Song, for "Happy" (from Despicable Me 2); and in 2017 for Best Picture, as a producer of Hidden Figures.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/AronChupa', 'artist_name': 'AronChupa', 'wiki': 'http://en.wikipedia.org/wiki/AronChupa', 'birth_date': '30 March 1991', 'start_year': '2012', 'abstract': 'Aron Michael Ekberg (born 30 March 1991), better known by his stage name AronChupa, is a Swedish singer, record producer, songwriter, artist and DJ. His 2014 song "I\'m an Albatraoz" reached number 1 on the Swedish Singles Chart and in Denmark, and top 10 in many charts across Europe. It also reached number 25 in the UK and number 10 in the US dance charts. His younger sister, Nora Ekberg, better known professionally as Little Sis Nora, provided the vocals for the track and starred in the music video, but never appeared as featured artist on the track. The music video has surpassed 1.2 billion views on YouTube.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Halsey_(singer)', 'artist_name': 'Halsey', 'wiki': 'http://en.wikipedia.org/wiki/Halsey_(singer)', 'birth_date': '29 September 1994', 'start_year': '2012', 'abstract': 'Ashley Nicolette Frangipane (/ˌfrændʒɪˈpɑːni/; born September 29, 1994), known professionally as Halsey (IPA: /ˈhɔːlzi/, /ˈhɑːlzi/), is an American singer and songwriter. Gaining attention from self-released music on social media platforms, she was signed by Astralwerks in 2014 and released her debut EP, Room 93, later that year. Halsey released her debut studio album, Badlands, in 2015. It was certified Double Platinum by the Recording Industry Association of America (RIAA), as were its tracks "Colors" and "Gasoline". In 2016, she was featured on the Chainsmokers\' single "Closer", which topped the charts in over 10 countries. Her second studio album, Hopeless Fountain Kingdom (2017), consisted of more "radio-friendly" music than her previous releases; its singles "Now or Never" and "Bad at Love" reached the top 20 of the Billboard Hot 100, with the latter peaking in the top five. Halsey\'s third studio album, Manic (2020), became her best selling album worldwide, while its lead single "Without Me" became her most successful single as a lead artist. Her fourth studio album, If I Can\'t Have Love, I Want Power (2021), moved away from her previous sound in favor of a darker industrial sound; described by Halsey as "the album [she] always wanted to make", it was produced by Nine Inch Nails members Trent Reznor and Atticus Ross and received generally positive reviews. In 2020, Billboard reported that Halsey has sold over 1 million albums and received over 6 billion streams in the United States. She is noted for her distinctive singing voice. Her awards and nominations include four Billboard Music Awards, one American Music Award, one GLAAD Media Award, an MTV Video Music Award, two Grammy Awards, and being named Songwriter of the year by BMI Film &amp; TV Awards in 2021. She was also included on Time magazine\'s annual list of the 100 most influential people in the world in 2020. Aside from music, she has been involved in suicide prevention awareness, sexual assault victim advocacy, and racial justice protests.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/OK_Go', 'artist_name': 'OK Go', 'wiki': 'http://en.wikipedia.org/wiki/OK_Go', 'hometown': 'http://dbpedia.org/resource/Chicago', 'start_year': '1998', 'abstract': 'OK Go is an American rock band originally from Chicago, Illinois, now based in Los Angeles, California. The band is composed of Damian Kulash (lead vocals, guitar), Tim Nordwind (bass guitar and vocals), Dan Konopka (drums and percussion), and Andy Ross (guitar, keyboards and vocals), who joined them in 2005, replacing Andy Duncan. The band is known for its often quirky and elaborate one-take music videos. The original members formed as OK Go in 1998 and released two studio albums before Duncan\'s departure. The band\'s video for "Here It Goes Again" won a Grammy Award for Best Music Video in 2007.'}</t>
+  </si>
+  <si>
+    <t>{'artist': "http://dbpedia.org/resource/Guns_N'_Roses", 'artist_name': "Guns N' Roses", 'wiki': "http://en.wikipedia.org/wiki/Guns_N'_Roses", 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1985', 'abstract': 'Guns N\' Roses is an American hard rock band from Los Angeles, California, formed in 1985. When they signed to Geffen Records in 1986, the band comprised vocalist Axl Rose, lead guitarist Slash, rhythm guitarist Izzy Stradlin, bassist Duff McKagan, and drummer Steven Adler. The current lineup consists of Rose, Slash, McKagan, guitarist Richard Fortus, drummer Frank Ferrer and keyboardists Dizzy Reed and Melissa Reese. Guns N\' Roses\' debut album, Appetite for Destruction (1987), reached number one on the Billboard 200 a year after its release, on the strength of the top 10 singles "Welcome to the Jungle", "Paradise City", and "Sweet Child o\' Mine", the band\'s only single to reach number one on the Billboard Hot 100. The album has sold approximately 30 million copies worldwide, including 18 million units in the United States, making it the country\'s bestselling debut album and eleventh-bestselling album. Their next studio album, G N\' R Lies (1988), reached number two on the Billboard 200, sold ten million copies worldwide (including five million in the U.S.), and included the top 5 hit "Patience". Use Your Illusion I and Use Your Illusion II, recorded simultaneously and released in 1991, debuted at number two and number one on the Billboard 200 respectively and have sold a combined 35 million copies worldwide (including 14 million units in the U.S.). The Illusion albums included the lead single "You Could Be Mine", covers of "Live and Let Die" and "Knockin\' on Heaven\'s Door", and a trilogy of ballads ("Don\'t Cry", "November Rain", and "Estranged"), which featured notably high-budget music videos. The records were supported by the Use Your Illusion Tour, a world tour that lasted from 1991 to 1993. The covers album "The Spaghetti Incident?" (1993) was the last studio album to feature Slash and McKagan before their initial departure. Work on a follow-up album stalled due to creative differences between band members; by 1998 only Rose and Reed remained from the Illusion-era lineup. Rose, wanting to expand the band\'s sound with industrial &amp; electronic elements, enrolled an eclectic lineup of musicians, including punk bassist Tommy Stinson, virtuoso guitarist Buckethead, synth-player Chris Pitman and several touring members of Nine Inch Nails, among others. After a decade of work, Guns N\' Roses\'s long-awaited sixth studio album, Chinese Democracy (2008), was released. At an estimated $14 million in production costs, it is the most expensive rock album in history. It debuted at number three on the Billboard 200, but undersold industry expectations despite a mostly positive critical reception. Following the expansive Chinese Democracy Tour, Slash and McKagan rejoined the band in 2016 for the Not in This Lifetime... Tour, which became the third-highest-grossing concert tour on record, grossing over $584 million by its conclusion in 2019. In their early years, the band\'s hedonism and rebelliousness drew comparisons to the early Rolling Stones and earned them the nickname "the most dangerous band in the world". The band\'s classic lineup, along with later members Reed and drummer Matt Sorum, was inducted into the Rock and Roll Hall of Fame in 2012, its first year of eligibility. Guns N\' Roses have sold more than 100 million records worldwide, including 45 million in the United States, making them one of the best-selling acts in history.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kiesza', 'artist_name': 'Kiesza', 'wiki': 'http://en.wikipedia.org/wiki/Kiesza', 'birth_date': '16 January 1989', 'abstract': 'Kiesa Rae Ellestad (born January 16, 1989), known professionally as Kiesza (/ˈkaɪzə/ KY-za), is a Canadian singer and multi-instrumentalist from Calgary.In 2017, she was involved in a car accident in Toronto, suffering severe injuries that required her to take several years off to recover. To date, she has released the albums Sound of a Woman (2014) and Crave (2020).'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/NSYNC', 'artist_name': '*NSYNC', 'wiki': 'http://en.wikipedia.org/wiki/NSYNC', 'hometown': 'http://dbpedia.org/resource/Orlando,_Florida', 'start_year': '1995', 'end_year': '2002', 'abstract': 'NSYNC (/ɛnˈsɪŋk/, /ɪn-/; also stylized as *NSYNC or \'N Sync) was an American boy band formed by Chris Kirkpatrick in Orlando, Florida, in 1995 and launched in Germany by BMG Ariola Munich. NSYNC consisted of Kirkpatrick, Justin Timberlake, JC Chasez, Joey Fatone, and Lance Bass. Their self-titled debut album was successfully released to European countries in 1997, and later debuted in the U.S. market with the single "I Want You Back". After heavily publicized legal battles with their former manager Lou Pearlman and former record label Bertelsmann Music Group, the group\'s second album, No Strings Attached (2000), sold over one million copies in one day and 2.4 million copies in one week, which was a record for over fifteen years. NSYNC\'s first two studio albums were both certified Diamond by the Recording Industry Association of America (RIAA). Celebrity (2001) debuted with 1.8 million copies in its first week in the US. Singles such as "Bye Bye Bye", "This I Promise You", "Girlfriend", "Pop" and "It\'s Gonna Be Me" reached the top 10 in several international charts, with the last being a US Billboard Hot 100 number one. In addition to a host of Grammy Award nominations, NSYNC performed at the World Series, the Super Bowl and the Olympic Games, and sang or recorded with Elton John, Stevie Wonder, Michael Jackson, Janet Jackson, Britney Spears, Phil Collins, Celine Dion, Aerosmith, Nelly, Lisa "Left Eye" Lopes, Mary J. Blige, country music band Alabama, and Gloria Estefan. The group received eight Grammy Award nominations. NSYNC last recorded new material in 2002 before undergoing an indefinite hiatus. The five members have reunited a couple of times, including at the 2013 MTV Video Music Awards and to receive a star on the Hollywood Walk of Fame. The band completed five nationwide concert tours and has sold over 70 million records, becoming one of the best-selling boy bands in history. Rolling Stone recognized their instant success as one of the Top 25 Teen Idol Breakout Moments of all time. Justin Timberlake went on to become a ten-time Grammy Award winner throughout his solo career.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Zombie_Nation_(musician)', 'artist_name': 'Zombie Nation', 'wiki': 'http://en.wikipedia.org/wiki/Zombie_Nation_(musician)', 'hometown': 'http://dbpedia.org/resource/Germany', 'start_year': '1998', 'end_year': '1998', 'abstract': 'Zombie Nation is the project of German DJ and producer Florian Senfter. Zombie Nation\'s single "Kernkraft 400" was a worldwide hit.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/DJ_Snake', 'artist_name': 'DJ Snake', 'wiki': 'http://en.wikipedia.org/wiki/DJ_Snake', 'hometown': 'http://dbpedia.org/resource/Ermont', 'birth_date': '13 June 1986', 'start_year': '2009', 'abstract': 'William Sami Étienne Grigahcine (born 13 June 1986), known by his stage name DJ Snake, is a French record producer and DJ. He first achieved international attention in 2013 by releasing an instrumentation-orientated single "Turn Down for What" with US musician Lil Jon. He made his international debut with the singles "Bird Machine" and "Turn Down for What" in 2013. "Bird Machine" is a collaboration with fellow French musician Alesia. The single was picked up by Mad Decent, a Los Angeles-based record label run by Diplo. DJ Snake was announced to be working on a collaboration with Diplo, originally slated to debut in 2014; it released in 2015 as the single "Lean On" in collaboration with MØ and Diplo\'s Major Lazer. On 30 April 2014, DJ Snake was labeled as an "Artist to Watch" by FoxWeekly. He and Dillon Francis were announced as alternating supporting artists for the summer Mothership Tour 2014 with Skrillex. In March 2018, Billboard named DJ Snake as number nine on their 2018 ranking of dance musicians titled Billboard Dance 100.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kiss_(band)', 'artist_name': 'Kiss', 'wiki': 'http://en.wikipedia.org/wiki/Kiss_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1973', 'abstract': 'Kiss (often stylized as KIϟϟ) is an American rock band formed in New York City in January 1973 by Paul Stanley, Gene Simmons, Ace Frehley, and Peter Criss. Well known for its members\' face paint and stage outfits, the group rose to prominence in the mid–late 1970s with its shocking live performances, which featured fire breathing, blood-spitting, smoking guitars, shooting rockets, levitating drum kits, and pyrotechnics. The band has gone through several lineup changes, with Stanley and Simmons being the only members to feature in every lineup. The original and best-known lineup consists of Stanley (vocals and rhythm guitar), Simmons (vocals and bass), Frehley (lead guitar and vocals), and Criss (drums and vocals). With their make-up and costumes, the band members took on the personae of comic book-style characters: the Starchild (Stanley), the Demon (Simmons), the Spaceman or Space Ace (Frehley), and the Catman (Criss). Due to creative differences, both Criss and Frehley had departed the group by 1982. In 1983, Kiss began performing without makeup and costumes, thus marking the beginning of the band\'s "unmasked" era that would last for over a decade. The band experienced a commercial resurgence during this era, with the Platinum-certified album Lick It Up successfully introducing them to a new generation of fans, and its music videos receiving regular airplay on MTV. Eric Carr, who had replaced Criss in 1980, died in 1991 of heart cancer and was replaced by Eric Singer. In response to a wave of Kiss nostalgia in the mid-1990s, the original lineup re-united in 1996, which also saw the return of its makeup and stage costumes. The resulting reunion tour was highly successful, grossing $143.7 million, making it the band\'s most successful tour to date. Criss and Frehley subsequently left the band again, and have been replaced by Singer and Tommy Thayer. The band has continued with its original stage makeup, with Singer and Thayer using the original Catman and Spaceman makeup, respectively. In September 2018, Kiss announced that, after 45 years of recording and performing, it would be embarking on its ongoing final tour, the End of the Road World Tour, which started in January 2019 and is currently set to conclude in 2022. Kiss is regarded as one of the most influential rock bands of all time, as well as one of the best-selling bands of all time, having sold more than 75 million records worldwide, including 21 million RIAA-certified albums. Kiss also holds the title as America\'s No. 1 Gold record award-winning group of all time, having earned 30 Gold albums. Kiss has 14 Platinum albums, with three albums being multi-Platinum. On April 10, 2014, the four original members of Kiss were inducted into the Rock and Roll Hall of Fame. Kiss was ranked by MTV as the ninth "Greatest Metal Band of All Time", and placed tenth on VH1\'s "100 Greatest Artists of Hard Rock" list, as well as being ranked as the third "Best Metal and Hard Rock Live Band of All Time" by Loudwire magazine.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Linkin_Park', 'abstract': 'Linkin Park is an American rock band from Agoura Hills, California. The band\'s current lineup comprises vocalist/rhythm guitarist/keyboardist Mike Shinoda, lead guitarist Brad Delson, bassist Dave Farrell, DJ/turntablist Joe Hahn and drummer Rob Bourdon, all of whom are founding members. Vocalists Mark Wakefield and Chester Bennington are former members of the band. Categorized as alternative rock, Linkin Park\'s earlier music spanned a fusion of heavy metal and hip hop, while their later music features more electronica and pop elements. Formed in 1996, Linkin Park rose to international fame with their debut studio album, Hybrid Theory (2000), which became certified Diamond by the Recording Industry Association of America (RIAA). Released during the peak of the nu metal scene, the album\'s singles\' heavy airplay on MTV led the singles "One Step Closer", "Crawling" and "In the End" all to chart highly on the Mainstream Rock chart; the latter crossed over to the pop chart. Their second album, Meteora (2003), continued the band\'s success. The band explored experimental sounds on their third album, Minutes to Midnight (2007). By the end of the decade, Linkin Park was among the most successful and popular rock acts. The band continued to explore a wider variation of musical types on their fourth album, A Thousand Suns (2010), layering their music with more electronic sounds. The band\'s fifth album, Living Things (2012), combined musical elements from all of their previous records. Their sixth album, The Hunting Party (2014), returned to a heavier rock sound, and their seventh album, One More Light (2017), was their first pop-oriented record. Linkin Park went on a hiatus when longtime lead vocalist Bennington died by suicide in July 2017. In April 2020, bassist Dave Farrell revealed the band was working on new music. Linkin Park is among the best-selling bands of the 21st century and the world\'s best-selling music artists, having sold over 100 million records worldwide. They have won two Grammy Awards, six American Music Awards, two Billboard Music Awards, four MTV Video Music Awards, 10 MTV Europe Music Awards and three World Music Awards. In 2003, MTV2 named Linkin Park the sixth-greatest band of the music video era and the third-best of the new millennium. Billboard ranked Linkin Park No. 19 on the Best Artists of the Decade list. In 2012, the band was voted as the greatest artist of the 2000s in a Bracket Madness poll on VH1. In 2014, the band was declared as "The Biggest Rock Band in the World Right Now" by Kerrang!.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sir_Mix-a-Lot', 'artist_name': 'Sir Mix-a-Lot', 'wiki': 'http://en.wikipedia.org/wiki/Sir_Mix-a-Lot', 'hometown': 'http://dbpedia.org/resource/Seattle', 'birth_date': '12 August 1963', 'start_year': '1979', 'abstract': 'Anthony L. Ray (born August 12, 1963), better known by his stage name Sir Mix-a-Lot, is an American rapper, songwriter, and record producer. He is best known for his 1992 hit song "Baby Got Back", which peaked at number one on the Billboard Hot 100.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Wet_Wet_Wet', 'artist_name': 'Wet Wet Wet', 'wiki': 'http://en.wikipedia.org/wiki/Wet_Wet_Wet', 'hometown': 'http://dbpedia.org/resource/Clydebank', 'start_year': '1982', 'end_year': '1997', 'abstract': 'Wet Wet Wet are a Scottish soft rock band formed in 1982. They scored a number of hits in the UK charts and around the world in the 1980s and 1990s. The band is composed of Graeme Clark (bass, vocals), Tommy Cunningham (drums, vocals), Neil Mitchell (keyboards, piano, vocals) and, since 2018, lead vocalist and former Liberty X singer Kevin Simm, who replaced founding member Marti Pellow after he left during the previous year. A fifth, unofficial member, Graeme Duffin (lead guitar, vocals), has been with them since 1983. The band were named Best British Newcomer at the 1988 Brit Awards. They are best known for their 1994 cover of The Troggs\' 1960s hit "Love Is All Around", which was used on the soundtrack to the film Four Weddings and a Funeral. It was a huge international success and spent 15 weeks atop the British charts. One week before potentially equalling the record for the most consecutive weeks at number 1 on the UK singles chart, held by Bryan Adams\' "(Everything I Do) I Do It for You", it dropped to number two.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Tonic_(band)', 'artist_name': 'Tonic', 'wiki': 'http://en.wikipedia.org/wiki/Tonic_(band)', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1993', 'end_year': '2004', 'abstract': 'Tonic is an American rock band, formed in 1993 by Emerson Hart and Jeff Russo. Later members have included Dan Lavery, Kevin Shepard, and Dan Rothchild. Signed to a recording contract in 1995, the band released its debut album Lemon Parade in 1996. The single "If You Could Only See" reached No. 11 on the Billboard Airplay Hot 100 in 1997, and Lemon Parade itself reached platinum status. Tonic spent much of the next two years touring, adding to its reputation as a relentlessly gigging band. In addition to extensive touring Tonic produced other work, including songs for feature film soundtracks. After self-producing its 1999 album Sugar, Tonic released its third album Head on Straight in 2002. Tonic received two Grammy nominations from Head on Straight, including one for Best Rock Performance by a Duo or Group with Vocal for "Take Me As I Am", and one for Best Rock Album. The band then went on hiatus beginning in 2004 while its members pursued other musical endeavors. It wasn\'t until late 2008 Tonic became active again, embarking on a tour and releasing a greatest-hits compilation, all of which served as a prelude to their fourth studio album, 2010\'s Tonic. After the release of that album, Tonic has continued to tour and remain active, utilizing direct funding from fans to make an all-acoustic version of Lemon Parade titled Lemon Parade Revisited in 2016, and debuting their first non-album single with 2021\'s "To Be Loved".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Dragonette', 'artist_name': 'Dragonette', 'wiki': 'http://en.wikipedia.org/wiki/Dragonette', 'hometown': 'http://dbpedia.org/resource/Ontario', 'start_year': '2005', 'abstract': "Dragonette is a Canadian electronic music band from Toronto, Ontario, formed in 2005. The band consists of singer-songwriter Martina Sorbara, bassist and producer Dan Kurtz (also in The New Deal), and drummer Joel Stouffer. Dragonette released a self-titled EP in 2005 before being signed to Mercury Records and relocating to London, where they recorded and released their debut studio album, Galore, in August 2007 to moderate critical appreciation. A second studio album, Fixin to Thrill, was released in September 2009. The group's third studio album, Bodyparts, was released in September 2012 and their fourth, Royal Blues, followed in November 2016. Following the relationship split of founding members Martina Sorbara and Dan Kurtz in 2016, Kurtz also left the group. He elected to rejoin his previous band The New Deal. Sorbara has since announced she will be continuing the Dragonette name as a solo artist henceforth."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Vengaboys', 'artist_name': 'Vengaboys', 'wiki': 'http://en.wikipedia.org/wiki/Vengaboys', 'hometown': 'http://dbpedia.org/resource/Netherlands', 'start_year': '1997', 'end_year': '2002', 'abstract': 'Vengaboys are a Dutch Eurodance music group based in Rotterdam. The group was the creation of Dutch producers Wessel van Diepen and Dennis van den Driesschen (known as Danski and Delmundo). It consists of lead (female) vocalists Kim Sasabone and Denise Post-Van Rijswijk and male vocalists Robin Pors and Donny Latupeirissa. Casting and selection of the performing act 1997–2000 was done by Wendelien van Diepen. The group enjoyed commercial success in the late 1990s. They are best known for their hit singles "We Like to Party", "Boom, Boom, Boom, Boom!!" and "We\'re Going to Ibiza", the latter two of which topped the UK Singles Chart. They have sold an estimated 25 million records worldwide. On 2 May 2001, the World Music Awards gave Vengaboys the award for best-selling dance group of the year.In 2019, Dutch online newspaper Nu.nl called Vengaboys the most successful Dutch pop group in history.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Ugly_Kid_Joe', 'artist_name': 'Ugly Kid Joe', 'wiki': 'http://en.wikipedia.org/wiki/Ugly_Kid_Joe', 'hometown': 'http://dbpedia.org/resource/Isla_Vista,_California', 'start_year': '1987', 'end_year': '1997', 'abstract': "Ugly Kid Joe is an American heavy metal band, from Isla Vista, California, formed in 1989. The band's name spoofs the glam metal band Pretty Boy Floyd's name. To date, Ugly Kid Joe have released four full-length albums, two compilation albums and two EPs. Their best selling records are As Ugly as They Wanna Be (1991) and America's Least Wanted (1992), which were both certified double platinum by the RIAA; the former is notable for being the first EP to go platinum. The band broke up in 1997, but announced a reunion in 2010 and has ever since both reformed and recommenced activity."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Royal_Blood_(band)', 'artist_name': 'Royal Blood', 'wiki': 'http://en.wikipedia.org/wiki/Royal_Blood_(band)', 'hometown': 'http://dbpedia.org/resource/Worthing', 'start_year': '2011', 'abstract': "Royal Blood are an English rock duo formed by Mike Kerr (vocals, bass guitar) and Ben Thatcher (drums) in Worthing in 2011. Their sound is anchored by Kerr's unique bass playing style, which sees him using various effects pedals and amps to make his bass guitar sound like a standard electric guitar and bass guitar at the same time. Their self-titled debut album was released in August 2014, with their second album How Did We Get So Dark? following in June 2017, and their third album Typhoons in April 2021."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/DNCE', 'artist_name': 'DNCE', 'wiki': 'http://en.wikipedia.org/wiki/DNCE', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2015', 'end_year': '2019', 'abstract': 'DNCE was an American dance-rock group. The group consists of vocalist Joe Jonas, drummer Jack Lawless, bassist and keyboardist Cole Whittle, and guitarist JinJoo Lee. The group signed with Republic Records, who released their debut single, "Cake by the Ocean", in September 2015. The song reached the top 10 on several charts, including on the US Billboard Hot 100, where it peaked at No. 9. Their debut extended play, Swaay, was released about a month later. Their self-titled debut studio album was released in November 2016. They were also nominated for Favorite New Artist for the 2016 Kids\' Choice Awards and Best Song to Lip Sync and Best Anthem for the 2016 Radio Disney Music Awards. The group performed at the 2017 Fashion Meets Music Festival. Following the reunion of the Jonas Brothers in 2019, the group has entered an indefinite hiatus.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sasha_(DJ)', 'artist_name': 'Sasha', 'wiki': 'http://en.wikipedia.org/wiki/Sasha_(DJ)', 'hometown': 'http://dbpedia.org/resource/Flintshire', 'birth_date': '04 September 1969', 'start_year': '1989', 'abstract': "Alexander Paul Coe (born 4 September 1969), known professionaly as Sasha, is a Welsh DJ and record producer. He is best known for his live events and electronic music as a solo artist, as well as his collaborations with British DJ John Digweed as Sasha &amp; John Digweed. He was voted as World No.\u2060\u200a\u20601 DJ in 2000 in a poll conducted by DJ Magazine. He is a four-time International Dance Music Awards winner, four-time DJ Awards winner and Grammy Award nominee. Sasha began his career playing acid house music in the late 1980s. He partnered with John Digweed in 1993, touring internationally and producing a series of mix albums (compilations of other artists' work played in a continuous fashion). Sasha has remixed tracks for artists such as D-Ream, Madonna, Moby, The Chemical Brothers and Hot Chip. Sasha's remixing and production often combine electronic music genres, making it difficult for critics to pinpoint his musical style. As well as remixes and compilation albums, Sasha has produced three albums of original works: The Qat Collection in 1994, Airdrawndagger in 2002, and Scene Delete in 2016. After achieving success as a producer and DJ, Sasha worked with younger DJs and producers such as BT and James Zabiela. His use of live audio engineering equipment helped popularise technological innovations among DJs who formerly relied on records and turntables. In 2007, he formed a record label with Renaissance Records called emFire, which is the exclusive outlet for his new music."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Anderson_.Paak', 'artist_name': 'Anderson .Paak', 'wiki': 'http://en.wikipedia.org/wiki/Anderson_.Paak', 'birth_date': '08 February 1986', 'start_year': '2007', 'abstract': 'Brandon Paak Anderson (born February 8, 1986), better known by his stage name Anderson .Paak (/pæk, pɑːk/), is an American rapper, singer, songwriter, record producer, and drummer. He released his debut mixtape, O.B.E. Vol. 1, in 2012 and went on to release Venice in 2014. In 2016 he followed up with Malibu, which received a nomination for Best Urban Contemporary Album at the Grammy Awards, followed by Oxnard, in 2018. At the 61st Grammy Awards, Paak won his first Grammy award for Best Rap Performance with the song "Bubblin". He won another Grammy in 2020 for Best R&amp;B Album with Ventura and one for Best R&amp;B Performance for "Come Home" (featuring André 3000). Apart from his solo career, Anderson formed the duo NxWorries in 2015 with record producer Knxwledge. He is frequently accompanied by the band Free Nationals, who play a variety of instruments, such as electric guitar, bass, piano, keyboards and drums, and also serve as backing vocalists. In 2021, he formed the duo Silk Sonic with fellow singer-songwriter Bruno Mars. The duo\'s debut single, "Leave the Door Open", became Anderson\'s first single to reach number one on the Billboard Hot 100.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Rainbow_(rock_band)', 'artist_name': 'Rainbow', 'wiki': 'http://en.wikipedia.org/wiki/Rainbow_(rock_band)', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '2015', 'abstract': 'Rainbow (also known as Ritchie Blackmore\'s Rainbow or Blackmore\'s Rainbow) are a British rock supergroup, formed in London and Los Angeles in 1975 by guitarist Ritchie Blackmore. They were originally established with Ronnie James Dio\'s American rock band Elf, but after their self-titled debut album, Blackmore fired the backing members and continued with Dio. Rainbow recorded two more studio albums with Dio—Rising (1976) and Long Live Rock \'n\' Roll (1978)—before he left the band to join Black Sabbath in 1979. Rainbow\'s early work primarily featured mystical lyrics with a neoclassical metal style, then went in a more pop-rock oriented direction following Dio\'s departure from the group. Three British musicians joined in 1979—singer Graham Bonnet, keyboardist Don Airey and then-former Deep Purple bassist Roger Glover—and this line-up gave the band their commercial breakthrough with the single "Since You Been Gone" from their fourth studio album Down to Earth. The band continued their success in the early 1980s with their next three albums Difficult to Cure (1981), Straight Between the Eyes (1982) and Bent Out of Shape (1983). After breaking up in 1984, Blackmore reformed Rainbow in 1993 with a new lineup, which recorded their eighth and last studio album to date Stranger in Us All (1995). Blackmore\'s change in direction, from rock to Renaissance and medieval-influenced music, led to Rainbow\'s second dissolution in 1997. He revived the band once again in 2015, and they still perform live occasionally. Over the years Rainbow went through many personnel changes, with each studio album recorded with a different lineup, and leaving Blackmore as the band\'s only constant member. The singers Joe Lynn Turner and Doogie White followed Bonnet, and numerous backing musicians have come and gone. In addition to Blackmore, Rainbow\'s current lineup includes Ronnie Romero on vocals, Jens Johansson on keyboards, Bob Nouveau on bass and David Keith on drums. Rainbow were ranked No. 90 on VH1\'s 100 Greatest Artists of Hard Rock. The band have sold over 30 million records worldwide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Salt-N-Pepa', 'artist_name': 'Salt-N-Pepa', 'wiki': 'http://en.wikipedia.org/wiki/Salt-N-Pepa', 'hometown': 'http://dbpedia.org/resource/Queens', 'start_year': '1985', 'end_year': '2002', 'abstract': 'Salt-N-Pepa (also stylized as Salt \'N\' Pepa or Salt \'N Pepa) is an American hip-hop group formed in New York City in 1985. Group members included Salt (Cheryl James), Pepa (Sandra Denton), and DJ Spinderella (Deidra Roper). They were signed to Next Plateau Records and released their single "Push It" in 1987, which hit number one in three countries and became a top 10 or top 20 hit in various countries. Their debut album, Hot, Cool &amp; Vicious, sold more than 1 million copies in the US, making them the first female rap act to achieve gold and platinum status. Their fourth album, Very Necessary, sold over 7 million copies worldwide (5 million in the U.S.), making it the highest-selling album by a female rap act in history at the time. Salt-N-Pepa have sold over 15 million records worldwide, making them one of the bestselling rap acts of all time. The group has been nominated for a Grammy Award several times. The trio won the 1995 Grammy Award for Best Rap Performance by a Duo or Group for their song "None of Your Business", making them one of the first female rap acts to win a Grammy Award, along with Queen Latifah, who won during the same year. Their success in rap and hip hop culture has earned them the honorific title "The First Ladies of Rap and Hip Hop".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Knack', 'artist_name': 'The Knack', 'wiki': 'http://en.wikipedia.org/wiki/The_Knack', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1996', 'end_year': '2010', 'abstract': 'The Knack was an American rock band based in Los Angeles that rose to fame with its first single, "My Sharona", an international number-one hit in 1979.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Taylor_Dayne', 'artist_name': 'Taylor Dayne', 'wiki': 'http://en.wikipedia.org/wiki/Taylor_Dayne', 'birth_date': '07 March 1962', 'start_year': '1985', 'abstract': 'Taylor Dayne (born Leslie Wunderman; March 7, 1962) is an American singer, songwriter, and actress. She rose to fame in 1987 after her debut single "Tell It to My Heart". Dayne achieved six additional U.S. top-10 singles, including "Love Will Lead You Back", "Prove Your Love", and "I\'ll Always Love You". Dayne has received two Grammy Award nominations, and has won an American Music Award, and multiple New York Music Awards. She has also received New York Hall of Fame honors and was ranked number 18 on Rolling Stone\'s list of the best female dance artists of all time. In December 2016, Billboard magazine ranked her the 28th most successful dance artist of all time.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Belinda_Carlisle', 'artist_name': 'Belinda Carlisle', 'wiki': 'http://en.wikipedia.org/wiki/Belinda_Carlisle', 'abstract': 'Belinda Jo Carlisle (/kɑːrlaɪl/; born August 17, 1958) is an American musician, singer, and author. She gained fame as the lead singer of the Go-Go\'s, one of the most successful all-female bands of all time, and went on to have a prolific career as a solo artist. Raised in Southern California, Carlisle became the lead singer of the Go-Go\'s after the band\'s formation in 1978. With their chart-topping debut release Beauty and the Beat in 1981, the group helped popularize new wave music in the United States. The Go-Go\'s were the first (and to date only) all-female band in history who wrote their own songs and played their own instruments to achieve a No. 1 album. The Go-Go\'s have sold over seven million records worldwide. After the dissolution of the Go-Go\'s in 1985, Carlisle went on to have a successful solo career with radio hits such as "Mad About You", "I Get Weak", "Circle in the Sand", "Leave a Light On", and "Heaven Is a Place on Earth". The Go-Go\'s reformed in 1999, and Carlisle continues to perform with them regularly while also maintaining her solo career. Carlisle\'s autobiography, Lips Unsealed, published in June 2010, was a New York Times Best Seller and received favorable reviews. In 2011, Carlisle, as a member of The Go-Go\'s, received a star on the Hollywood Walk of Fame. She and the band were inducted into the Rock and Roll Hall of Fame on October 30, 2021.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Calvin_Harris', 'artist_name': 'Calvin Harris', 'wiki': 'http://en.wikipedia.org/wiki/Calvin_Harris', 'birth_date': '17 January 1984', 'start_year': '2002', 'abstract': 'Adam Richard Wiles (born 17 January 1984), known professionally as Calvin Harris, is a Scottish DJ, record producer, singer, and songwriter. After focusing on self-sung projects, in 2012, Harris released his third album 18 Months, which involved various vocalists in its single records and gained international recognition. He has released five studio albums and at one point ran his own record label, Fly Eye Records, which he founded in 2010 (defunct in 2016). His debut studio album, I Created Disco, was released in June 2007. Its singles "Acceptable in the 80s" and "The Girls" both reached the top 10 in the UK. In 2009, he released his second studio album, Ready for the Weekend, which debuted at number one on the UK Albums Chart and whose lead single, "I\'m Not Alone", became his first song to top the UK Singles Chart. In 2012, Harris rose to international prominence with the release of his third studio album, 18 Months, which topped the UK Albums charts and became his first album to chart on the US Billboard 200, peaking at number 19. All eight of the album\'s singles reached the top 10 in the UK, breaking the record for the most top 10 songs from one studio album on the UK Singles Chart with eight entries, surpassing Michael Jackson\'s record. In 2014, he released his fourth studio album, Motion, which debuted at number two in the UK and number five in the US. In 2017, he released his fifth studio album, Funk Wav Bounces Vol. 1, which reached the top 2 in the UK and the US and became his third consecutive number one album on the US Dance/Electronic Albums chart. In October 2014, he became the first artist to place three songs simultaneously on the top 10 of Billboard\'s Dance/Electronic Songs chart. He also became the first UK solo artist to reach more than one billion streams on Spotify. Harris has received 18 Brit Award nominations–winning British Producer of the Year and British Single of the Year for "One Kiss" with Dua Lipa, both in 2019, as well as five Grammy nominations, including a win for Best Music Video in 2013. In 2013 he also received the Ivor Novello Award for Songwriter of the Year from the British Academy of Songwriters, Composers, and Authors, and was named the Top Dance/Electronic Artist at the 2015 Billboard Music Awards. He appeared on Debrett\'s 2017 list of the most influential people in the United Kingdom. He topped Forbes\' list of the world\'s highest-paid DJs for six consecutive years from 2013 to 2018.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Owl_City', 'artist_name': 'Owl City', 'wiki': 'http://en.wikipedia.org/wiki/Owl_City', 'hometown': 'http://dbpedia.org/resource/Owatonna,_Minnesota', 'birth_date': '05 July 1986', 'start_year': '2007', 'abstract': 'Owl City is an American electronic music project created in 2007 in Owatonna, Minnesota; it is one of several projects by singer, songwriter and multi-instrumentalist Adam Young. Young created the project while experimenting with music in his parents\' basement. Owl City developed a following on the social networking site MySpace, like many musicians who achieved success in the late 2000s, before signing with Universal Republic Records, now Republic Records, in 2008. After two independent releases, Owl City gained mainstream popularity with the 2009 major label debut album Ocean Eyes, which includes the six-time Platinum single "Fireflies". The album was certified Platinum in the United States in April 2010. In June 2011, Owl City released its third studio album, All Things Bright and Beautiful, which was followed by The Midsummer Station in August 2012. Owl City has recorded songs for several animated films, including Legend of the Guardians: The Owls of Ga\'Hoole, Wreck-It Ralph, The Croods and The Smurfs 2. Owl City also has released several charting singles, most notably "Good Time" and "Fireflies".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Beastie_Boys', 'artist_name': 'Beastie Boys', 'wiki': 'http://en.wikipedia.org/wiki/Beastie_Boys', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1981', 'end_year': '2012', 'abstract': 'Beastie Boys were an American hip hop group from New York City, formed in 1981. The group was composed of Michael "Mike D" Diamond (vocals, drums), Adam "MCA" Yauch (vocals, bass), and Adam "Ad-Rock" Horovitz (vocals, guitar, programming). Beastie Boys were formed out of members of experimental hardcore punk band The Young Aborigines in 1978, with Diamond as vocalist, Jeremy Shatan on bass guitar, John Berry on guitar, and Kate Schellenbach on drums. When Shatan left in 1981, Yauch replaced him on bass and the band changed their name to Beastie Boys. Berry left shortly thereafter and was replaced by Horovitz. After achieving local success with the 1983 comedy hip hop single "Cooky Puss," Beastie Boys made a full transition to hip hop, and Schellenbach left. They toured with Madonna in 1985 and a year later released their debut album, Licensed to Ill (1986), the first rap record to top the Billboard 200 chart. Their second album, Paul\'s Boutique (1989), composed almost entirely of samples, was a commercial failure, but later received critical acclaim. Check Your Head (1992) and Ill Communication (1994) found mainstream success, followed by Hello Nasty (1998), To the 5 Boroughs (2004), The Mix-Up (2007), and Hot Sauce Committee Part Two (2011). Beastie Boys have sold 20 million records in the United States and had seven platinum-selling albums from 1986 to 2004. They are the biggest-selling rap group since Billboard began recording sales in 1991. In 2012, they became the third rap group to be inducted into the Rock and Roll Hall of Fame. In the same year, Yauch died of cancer and Beastie Boys disbanded. Since then, the remaining two members have released several retrospective works, including a book and documentary film detailing the history of the group as well as a career-spanning compilation album. Diamond has produced acts including Portugal. The Man, while Horovitz has taken small acting roles and continues to play music.'}</t>
+  </si>
+  <si>
+    <t>{'artist': "http://dbpedia.org/resource/Lil'_Kim", 'artist_name': "Lil' Kim", 'wiki': "http://en.wikipedia.org/wiki/Lil'_Kim", 'birth_date': '11 July 1974', 'start_year': '1994', 'abstract': 'Kimberly Denise Jones (born July 11, 1974 or 1975), better known by her stage name Lil\' Kim, is an American rapper, actress, model, and reality television personality. Born and raised in Brooklyn, New York City, she lived much of her adolescent life on the streets after being expelled from home. In her teens, Jones would freestyle rap, influenced by fellow female hip hop artists like MC Lyte and The Lady of Rage. In 1994, she was discovered by fellow rapper The Notorious B.I.G., who invited her to join his group Junior M.A.F.I.A.; their debut album, Conspiracy, generated two top 20 singles in the United States and was certified gold by the Recording Industry Association of America (RIAA). Lil\' Kim\'s debut studio album, Hard Core (1996) was certified double platinum, has since sold more than six million copies worldwide, and spawned three successful singles: "No Time", "Not Tonight (Ladies Night)", and "Crush on You". Her following albums, The Notorious K.I.M. (2000) and La Bella Mafia (2003) were also certified platinum. In 2001, she was featured on the single "Lady Marmalade" (a remake of the 1974 hit single of the same name, originally recorded by LaBelle), alongside Mýa, Pink, and Christina Aguilera, which topped the U.S. Billboard Hot 100. Other notable singles from this period include "The Jump Off" and "Magic Stick", the latter of which reached number two on the U.S. Billboard Hot 100, becoming Kim\'s 2nd-highest-charting single as a lead artist. In 2005, Lil\' Kim served a one-year prison sentence for lying to a jury about her friends\' involvement in a shooting four years earlier. During her incarceration, her fourth album, The Naked Truth, was released to positive reviews from critics. A reality series covering her sentence, Lil\' Kim: Countdown to Lockdown, premiered on BET in 2006. She released her first mixtape, Ms. G.O.A.T., in 2008 and returned to the public eye in 2009 with an appearance on Dancing with the Stars. Throughout the 2010s, she continued to release music and perform sporadically, collaborating with artists such as Faith Evans, Remy Ma, and Fabolous. Her fifth studio album, 9, was released in 2019. Lil\' Kim has sold more than 15 million albums and 30 million singles worldwide. Her songs "No Time", "Big Momma Thang", and "Not Tonight (Ladies Night)" were each listed on Complex\'s list of the 50 Best Rap Songs By Women. In 2012, Lil\' Kim was listed on VH1\'s 100 Greatest Women in Music list at number 45, the second highest position for a solo female hip-hop artist. Aside from music, Lil\' Kim is also known for her risk-taking and luxurious approach to fashion that inspired many artists; she has been cited as a fashion icon. She has been noted for helping females embrace their "sexuality and femininity" in a way that was a stark contrast at the time from other female artists.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Marianne_Faithfull', 'artist_name': 'Marianne Faithfull', 'wiki': 'http://en.wikipedia.org/wiki/Marianne_Faithfull', 'birth_date': '29 December 1946', 'start_year': '1964', 'abstract': 'Marianne Evelyn Gabriel Faithfull (born 29 December 1946) is an English singer and actress. She achieved popularity in the 1960s with the release of her hit single "As Tears Go By" and became one of the lead female artists during the British Invasion in the United States. Born in Hampstead, London, Faithfull began her career in 1964 after attending a Rolling Stones party, where she was discovered by Andrew Loog Oldham. Her debut album Marianne Faithfull (1965) (released simultaneously with her album Come My Way) was a commercial success followed by a number of albums on Decca Records. From 1966 to 1970, she had a highly publicised romantic relationship with Mick Jagger. Her popularity was further enhanced by her film roles, such as those in I\'ll Never Forget What\'s\'isname (1967), The Girl on a Motorcycle (1968), and Hamlet (1969). However, her popularity was overshadowed by personal problems in the 1970s. During that time she was anorexic, homeless, and a heroin addict. Noted for her distinctive voice, Faithfull\'s previously melodic and higher-registered vocals (which were prevalent throughout her career in the 1960s) were affected by severe laryngitis, coupled with persistent drug abuse during the 1970s, permanently altering her voice, leaving it raspy, cracked and lower in pitch. This new sound was praised as "whisky soaked" by some critics and seen as having helped to capture the raw emotions expressed in Faithfull\'s music. After a long commercial absence, Faithfull made a comeback with the 1979 release of her critically acclaimed album Broken English. The album was a commercial success and marked a resurgence of her musical career. Broken English earned Faithfull a nomination for the Grammy Award for Best Female Rock Vocal Performance and is often regarded as her "definitive recording". She followed this with a series of albums, including Dangerous Acquaintances (1981), A Child\'s Adventure (1983), and Strange Weather (1987). Faithfull also wrote three books about her life: Faithfull: An Autobiography (1994), Memories, Dreams &amp; Reflections (2007), and Marianne Faithfull: A Life on Record (2014). Faithfull is listed on VH1\'s "100 Greatest Women of Rock and Roll" list. She received the World Lifetime Achievement Award at the 2009 Women\'s World Awards and was made a Commandeur of the Ordre des Arts et des Lettres by the government of France.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Suzanne_Vega', 'artist_name': 'Suzanne Vega', 'wiki': 'http://en.wikipedia.org/wiki/Suzanne_Vega', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'birth_date': '11 July 1959', 'start_year': '1982', 'abstract': 'Suzanne Nadine Vega (born July 11, 1959) is an American singer-songwriter best known for her folk-inspired music. Vega\'s music career spans almost 40 years. She came to prominence in the mid-1980s, releasing four singles that entered the Top 40 charts in the UK during the 1980s and 1990s, including "Marlene on the Wall", "Left of Center", "Luka" and "No Cheap Thrill". "Tom\'s Diner", which was originally released as an a cappella recording on Vega\'s second album, Solitude Standing (1987), was remixed in 1990 as a dance track by English electronic duo DNA with Vega as featured artist, and it became a Top 10 hit in over five countries. The original a capella recording of the song was used as a test during the creation of the MP3 format. The role of her song in the development of the MP3 compression prompted Vega to be given the title of "The Mother of the MP3". Vega has released nine studio albums to date, the latest of which is Lover, Beloved: Songs from an Evening with Carson McCullers, released in 2016.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Led_Zeppelin', 'artist_name': 'Led Zeppelin', 'wiki': 'http://en.wikipedia.org/wiki/Led_Zeppelin', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1968', 'end_year': '1980', 'abstract': 'Led Zeppelin were an English rock band formed in London in 1968. The group consisted of vocalist Robert Plant, guitarist Jimmy Page, bassist/keyboardist John Paul Jones, and drummer John Bonham. With a heavy, guitar-driven sound, they are cited as one of the progenitors of hard rock and heavy metal, although their style drew from a variety of influences, including blues and folk music. Led Zeppelin have been credited as significantly impacting the nature of the music industry, particularly in the development of album-oriented rock (AOR) and stadium rock. Originally named the New Yardbirds, Led Zeppelin\'s deal with Atlantic Records gave them considerable artistic freedom. Initially unpopular with critics, they achieved significant commercial success with eight studio albums over ten years. Their 1969 debut, Led Zeppelin, was a top-ten album in several countries and featured such tracks as "Good Times Bad Times", "Dazed and Confused" and "Communication Breakdown". Led Zeppelin II (1969) was their first number-one album, and yielded "Ramble On" and "Whole Lotta Love". In 1970 they released Led Zeppelin III which featured "Immigrant Song". Their untitled fourth album, commonly known as Led Zeppelin IV (1971), is one of the best-selling albums in history with 37 million copies sold. The album includes "Black Dog", "Rock and Roll" and "Stairway to Heaven", with the latter being among the most popular and influential works in rock history. Houses of the Holy (1973) yielded "The Ocean", "Over the Hills and Far Away" and "The Rain Song". Physical Graffiti (1975), a double album, featured "Trampled Under Foot" and "Kashmir". Page wrote most of Led Zeppelin\'s music, particularly early in their career, while Plant wrote most of the lyrics. Jones\'s keyboard-based compositions later became central to their music, which featured increasing experimentation. The latter half of their career saw a series of record-breaking tours that earned the group a reputation for excess and debauchery. Although they remained commercially and critically successful, their touring and output, which included Presence (1976) and In Through the Out Door (1979), grew limited, and the group disbanded following Bonham\'s death in 1980. Since then the surviving former members sporadically collaborated and participated in one-off reunions. The most successful of these was the 2007 Ahmet Ertegun Tribute Concert in London, with Bonham\'s son Jason Bonham on drums. Led Zeppelin are one of the best-selling music artists of all time; their total record sales are estimated to be between 200 to 300 million units worldwide. They achieved eight consecutive UK number-one albums and six number-one albums on the US Billboard 200, with five of their albums certified Diamond in the US. Rolling Stone magazine described them as "the heaviest band of all time", "the biggest band of the Seventies", and "unquestionably one of the most enduring bands in rock history". They were inducted into the Rock and Roll Hall of Fame in 1995; the museum\'s biography of the band states that they were "as influential" during the 1970s as the Beatles were during the 1960s.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Montell_Jordan', 'artist_name': 'Montell Jordan', 'wiki': 'http://en.wikipedia.org/wiki/Montell_Jordan', 'birth_date': '03 December 1968', 'start_year': '1991', 'abstract': 'Montell Du\'Sean Barnett Jordan (born, December 3, 1968) is an American pastor, singer, songwriter, and record producer. Best known for his 1995 single "This Is How We Do It", Jordan was the primary male solo artist on Def Jam\'s Def Soul imprint until leaving the label in 2003. In 2010, Jordan left the music business to become the worship leader at Victory World Church in Norcross, Georgia.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Alexandra_Stan', 'artist_name': 'Alexandra Stan', 'wiki': 'http://en.wikipedia.org/wiki/Alexandra_Stan', 'birth_date': '10 June 1989', 'start_year': '2009', 'abstract': 'Alexandra Ioana Stan (born 10 June 1989) is a Romanian singer-songwriter. Born in the city of Constanța, she made her worldwide breakthrough with the 2010 single "Mr. Saxobeat", which was written and produced by Marcel Prodan and Andrei Nemirschi. They had previously discovered Stan at a karaoke bar in 2009 and signed her to their label, Maan Records. "Mr. Saxobeat" had followed the singer\'s debut single, "Lollipop (Param Pam Pam)" (2009), which brought her moderate fame in Romania. "Mr. Saxobeat" quickly achieved commercial success locally and abroad, reaching number one in several countries and gathering various certifications. Saxobeats, Stan\'s debut studio album, was released in August 2011 and features the follow-up singles "Get Back (ASAP)" (2011) and "Lemonade" (2012), which had moderate success in Europe. An alleged altercation with Prodan in 2013 and a lawsuit against him preceded the release of Stan\'s second album, Unlocked, which would eventually be issued in August 2014. Two of its singles, "Dance" (2014) and "Cherry Pop" (2014), were successful in Japan. Stan\'s third studio album, Alesta, was released in March 2016 and included a collaboration with Inna and Daddy Yankee on "We Wanna" (2015); the single went on to reach the top 60 in several countries. Mami, her fourth record, followed in 2018. Preceding the release of its last single was Stan\'s feature on Manuel Riva\'s "Miami" (2018), which peaked within the top ten in Romania and on Billboard\'s Dance Club Songs chart. Stan has received a number of awards and nominations, including the European Border Breakers Award, a Japan Gold Disc Award, an MTV Europe Music Award and two Romanian Music Awards. She is also referred to as one of the most successful Romanian artists alongside Inna.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Megadeth', 'artist_name': 'Megadeth', 'wiki': 'http://en.wikipedia.org/wiki/Megadeth', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2004', 'abstract': 'Megadeth is an American heavy metal band formed in Los Angeles in 1983 by vocalist/guitarist Dave Mustaine and bassist David Ellefson. Known for their technically complex guitar work and musicianship, Megadeth is one of the "big four" of American thrash metal along with Metallica, Anthrax, and Slayer, responsible for the genre\'s development and popularization. Their music features complex arrangements and fast rhythm sections, and lyrical themes of death, war, politics, personal relationships, and religion. In 1985, Megadeth released its debut album, Killing Is My Business... and Business Is Good!, on the independent record label Combat Records, to moderate success. It caught the attention of bigger labels, which led to Megadeth signing with Capitol Records. Their first major-label album, Peace Sells... but Who\'s Buying?, was released in 1986 and was a major hit with the underground metal scene. Band members\' substance abuse issues and personal disputes had brought Megadeth negative publicity during the late 1980s. Nonetheless, the band went on to release a number of platinum-selling albums, including So Far, So Good... So What! (1988), Rust in Peace (1990), and Countdown to Extinction (1992). These albums, along with worldwide tours, brought them public recognition. Megadeth has had numerous guitarists, drummers and bassists throughout its 38-year career, with Mustaine being the only remaining original member of the group. The band temporarily disbanded in 2002 when Mustaine suffered an arm injury and re-established in 2004 without Ellefson, who had taken legal action against him. Ellefson settled out of court and rejoined in 2010, but was fired from the band in 2021 amid allegations of sexual misconduct. Megadeth\'s current lineup includes Mustaine, guitarist Kiko Loureiro and drummer Dirk Verbeuren; former bassist James LoMenzo currently serves as touring bassist. Megadeth has sold 38 million records worldwide, earned platinum certification in the United States for six of its fifteen studio albums, and received twelve Grammy nominations. Megadeth won its first Grammy Award in 2017 for the song "Dystopia" in the Best Metal Performance category. The band\'s mascot, Vic Rattlehead, regularly appears on album artwork and live shows. The group has drawn controversy for its music and lyrics, including album bans and canceled concerts; MTV refused to play two of the band\'s music videos that the network considered to condone suicide. Megadeth has hosted its own music festival Gigantour, several times since July 2005, and held its first annual MegaCruise in October 2019.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Madness_(band)', 'artist_name': 'Madness', 'wiki': 'http://en.wikipedia.org/wiki/Madness_(band)', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1976', 'end_year': '1986', 'abstract': 'Madness are an English ska band from Camden Town, North London, who formed in 1976. One of the most prominent bands of the late 1970s and early 1980s two-tone ska revival, they continue to perform with six of the seven members of their original line-up. Madness\'s most successful period was from 1980 to 1986, when the band\'s songs spent a total of 214 weeks on the UK Singles Chart. (UB40 shared the same number of weeks, the largest for any British group in the decade, but over a longer period.) Madness have had 15 singles reach the UK top ten, including "One Step Beyond", "Baggy Trousers" and "It Must Be Love", one UK number-one single "House of Fun" and two number ones in Ireland, "House of Fun" and "Wings of a Dove". "Our House" was their biggest US hit, reaching number 7 on the Billboard Hot 100. In 2000, the band received the Ivor Novello Award from the British Academy of Songwriters, Composers and Authors for Outstanding Song Collection.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Mr._Big_(American_band)', 'artist_name': 'Mr. Big', 'wiki': 'http://en.wikipedia.org/wiki/Mr._Big_(American_band)', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2009', 'end_year': '2018', 'abstract': 'Mr. Big is an American glam metal band formed in Los Angeles, California, in 1988. The band was originally composed of Eric Martin (lead vocals), Paul Gilbert (guitar, backing vocals), Billy Sheehan (bass guitar, backing vocals), and Pat Torpey (drums, percussion, backing vocals). Though primarily a metal band, they are most known for scoring softer hits. Their songs are often marked by strong vocals and vocal harmonies. Their hits include "To Be with You" (a number-one single in 15 countries in 1992) and "Just Take My Heart". The band takes its name from a song by Free which it covered on the 1993 album Bump Ahead. Mr. Big remained active and popular for over a decade despite internal conflicts and changing music trends, releasing four studio albums: Mr. Big (1989), Lean into It (1991), Bump Ahead (1993) and Hey Man (1996). Guitarist Paul Gilbert departed the band in 1999, and Richie Kotzen was brought as a guitarist and vocalist. The band released two more albums with this line-up: Get Over It (1999) and Actual Size (2001). Mr. Big broke up in 2002. Following requests from fans, Mr. Big reunited with its original line-up in 2009. The band\'s first post-reunion tour was in Japan. In 2010, Mr. Big released its first album in 15 years with the same line-up: What If.... During the recording of the follow-up album ...The Stories We Could Tell (2014), Pat Torpey was diagnosed with Parkinson\'s disease and participated only marginally as a touring support. The band\'s ninth album, Defying Gravity (2017), was its last record involving Torpey as drum producer; he died the following year. Not wanting to continue without Torpey, the band intended to release a final studio album, conduct a farewell tour and disband. However, since then they have been on hiatus, they still exist as musical entity, but with no concrete plans to continue with a different drummer and haven\'t discussed their future, as affirmed by Billy Sheehan. Mr. Big is frequently cited as an example of the "Big in Japan" phenomenon, where a musical act is disproportionately more popular in Japan compared to similar groups. Some consider Mr. Big as one-hit wonder for "To Be with You", but they maintained consistent popularity in the Japanese market for years.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Soft_Cell', 'artist_name': 'Soft Cell', 'wiki': 'http://en.wikipedia.org/wiki/Soft_Cell', 'hometown': 'http://dbpedia.org/resource/West_Yorkshire', 'start_year': '1978', 'end_year': '1984', 'abstract': 'Soft Cell are an English synthpop duo who came to prominence in the early 1980s. The duo consisted of vocalist Marc Almond and instrumentalist David Ball. The band are primarily known for their 1981 hit version of "Tainted Love" and their platinum-selling debut album Non-Stop Erotic Cabaret. In the United Kingdom, Soft Cell had twelve top 40 hits, including "Tainted Love" (number 1), "Torch" (number 2), "Say Hello, Wave Goodbye", "What" (both number 3), and "Bedsitter" (number 4). They also had four top 20 albums between 1981 and 1984. In 1984, the duo split; however, they reformed in 2001 to tour and release a new album. They held a reunion concert in London on 30 September 2018, stating it would be their last live UK performance as a duo but that they may still perform abroad and record together. Soft Cell\'s songs have been covered by several artists, including David Gray, Coil and Nine Inch Nails. Their track "Memorabilia" earned recognition for the band as pioneers of the synth-oriented techno genre. The duo have sold ten million records world-wide.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/NOFX', 'artist_name': 'NOFX', 'wiki': 'http://en.wikipedia.org/wiki/NOFX', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1983', 'abstract': "NOFX (/ˌnoʊɛfˈɛks/) is an American punk rock band formed in Los Angeles, California, in 1983. Vocalist/bassist Fat Mike, guitarist Eric Melvin and drummer Erik Sandin are original founding and longest-serving members of the band, who have appeared on every release of the band, although Sandin departed briefly in 1985, only to rejoin the following year. El Hefe joined the band in 1991 to play lead guitar and trumpet, rounding out the current line-up. NOFX's mainstream success coincided with increased interest in punk rock during the 1990s, though, unlike many of their contemporaries (including Bad Religion, Green Day and The Offspring), they have never been signed to a major label. NOFX has released fourteen studio albums, sixteen extended plays and a number of seven-inch singles. The band rose to popularity with their fifth studio album Punk in Drublic (1994), which is their only release to receive gold certification by the RIAA. Their latest studio album, Single Album, was released on February 26, 2021. The group has sold over eight million records worldwide, making them one of the most successful independent bands of all time. In 2008, NOFX broadcast their own show on Fuse TV entitled NOFX: Backstage Passport."}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Foster_the_People', 'artist_name': 'Foster the People', 'wiki': 'http://en.wikipedia.org/wiki/Foster_the_People', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2009', 'abstract': 'Foster the People is an American indie pop band formed in Los Angeles, California, in 2009. It currently consists of lead vocalist Mark Foster, lead guitarist Sean Cimino and keyboardist Isom Innis. Foster founded the band in 2009 after spending several years in Los Angeles as a struggling musician and working as a commercial jingle writer. After Foster\'s song "Pumped Up Kicks" became a viral success in 2010, the group received a record deal from Startime International and gained a fanbase through small club shows and appearances at music festivals. After releasing their debut album Torches in May 2011, "Pumped Up Kicks" became a crossover hit on commercial radio in mid-2011 and eventually reached number three on the Billboard Hot 100. The record also featured the singles "Helena Beat" and "Don\'t Stop (Color on the Walls)". The group received three Grammy Award nominations for Torches and "Pumped Up Kicks". After touring for two years in support of Torches, Foster the People released their second album, Supermodel, in March 2014. It was preceded by the lead single "Coming of Age". In July 2017, the band released their third studio album, Sacred Hearts Club, with the addition of Isom Innis and Sean Cimino, both former touring members, to the official lineup. From this album, their song "Sit Next to Me" peaked at number 42 on the Billboard Hot 100 and was certified double platinum by the RIAA.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Lemonheads', 'artist_name': 'The Lemonheads', 'wiki': 'http://en.wikipedia.org/wiki/The_Lemonheads', 'hometown': 'http://dbpedia.org/resource/Massachusetts', 'start_year': '1986', 'end_year': '1997', 'abstract': 'The Lemonheads are an American alternative rock band formed in Boston, Massachusetts, in 1986 by Evan Dando, Ben Deily, and Jesse Peretz. Dando has remained the band\'s only constant member.After their initial punk-influenced releases and tours as an independent/college rock band in the late 1980s, the Lemonheads\' popularity with a mass audience grew in 1992 with the major label album It\'s a Shame about Ray, which was produced, engineered, and mixed by The Robb Brothers (Bruce Robb, Dee, and Joe). This was followed by a cover of Simon and Garfunkel\'s "Mrs. Robinson", which eventually became one of the band\'s most successful singles. Then Lemonheads were active until 1997 before going on hiatus, but reformed with a new lineup in 2005 and released The Lemonheads the following year. The band released its latest album, Varshons 2, in February 2019. Since its formation, recording and touring lineups of the band have included co-founders Deily and Peretz, John Strohm (Blake Babies), Doug Trachten, Corey Loog Brennan, Byron Hoagland (Folks On Fire), Ben Daughtrey (Squirrel Bait), Juliana Hatfield (Blake Babies), Nic Dalton (Godstar, Sneeze, The Plunderers), David Ryan (Fuzzy), Patrick "Murph" Murphy (Dinosaur Jr), George Berz (Dinosaur Jr, Gobblehoof), Josh Lattanzi, Bill Gibson (The Eastern Dark), Mark \'Budola\' Newman, Kenny Lyon, Vess Ruhtenberg, Devon Ashley, Karl Alvarez and Bill Stevenson (Descendents), P. David Hazel and various others.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Cypress_Hill', 'artist_name': 'Cypress Hill', 'wiki': 'http://en.wikipedia.org/wiki/Cypress_Hill', 'abstract': 'Cypress Hill is an American hip hop group from South Gate, California. They are the first hip-hop group to have sold multi-platinum and platinum albums, having sold over 20 million albums worldwide. They are considered to be among the main progenitors of West Coast and 1990s hip hop. The group has been critically acclaimed for their first five albums. All of the group members advocate for medical and recreational use of cannabis in the United States. In 2019, Cypress Hill became the first hip hop group to have a star on the Hollywood Walk of Fame.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Dr._Alban', 'artist_name': 'Dr. Alban', 'wiki': 'http://en.wikipedia.org/wiki/Dr._Alban', 'hometown': 'http://dbpedia.org/resource/Sweden', 'birth_date': '26 August 1957', 'start_year': '1980', 'abstract': 'Alban Uzoma Nwapa (born 26 August 1957), better known by his stage name Dr. Alban, is a Nigerian-Swedish recording artist and producer with his own record label, Dr. Records. His music can best be described as Eurodance/hip-hop reggae in a dancehall style. He has sold an estimated 16 million records worldwide and is most famous for his worldwide 1992 hit "It\'s My Life", from the album One Love.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/The_Alan_Parsons_Project', 'artist_name': 'The Alan Parsons Project', 'wiki': 'http://en.wikipedia.org/wiki/The_Alan_Parsons_Project', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1975', 'end_year': '1990', 'abstract': 'The Alan Parsons Project were a British rock band active between 1975 and 1990, whose core membership consisted of Alan Parsons and Eric Woolfson. They were accompanied by a varying number of session musicians and some relatively consistent session players such as guitarist Ian Bairnson, arranger Andrew Powell, bassist and vocalist David Paton, drummer Stuart Elliott, and vocalists Lenny Zakatek and Chris Rainbow. Parsons was an audio engineer and producer by profession, but also a musician and a composer. A songwriter by profession, Woolfson was also a composer, a pianist, and a singer. Almost all the songs on the Project\'s albums are credited to "Woolfson/Parsons". The Alan Parsons Project released eleven studio albums in its 15-year career, including the successful I Robot and Eye in the Sky. Some of their most notable songs are "The Raven", "(The System of) Dr. Tarr and Professor Fether", "I Wouldn\'t Want to Be Like You", "Games People Play", "Time", "Snake Eyes", "Sirius"/"Eye in the Sky", "Old and Wise", and "Don\'t Answer Me".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Vampire_Weekend', 'artist_name': 'Vampire Weekend', 'wiki': 'http://en.wikipedia.org/wiki/Vampire_Weekend', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2006', 'abstract': 'Vampire Weekend is an American rock band from New York City, formed in 2006 and currently signed to Columbia Records. The band was formed by lead vocalist and guitarist Ezra Koenig, multi-instrumentalist Rostam Batmanglij, drummer Chris Tomson, and bassist Chris Baio. The band\'s eponymous first album Vampire Weekend (2008)—which included the singles "Mansard Roof", "A-Punk", "Oxford Comma", "Cape Cod Kwassa Kwassa", and "The Kids Don\'t Stand a Chance"—was acclaimed by critics for its world music influences. Their following album, Contra (2010), was similarly acclaimed and garnered strong commercial success. Their third studio album, Modern Vampires of the City (2013), won the group the Grammy Award for Best Alternative Music Album. Batmanglij departed the group in early 2016. The band\'s fourth album, Father of the Bride, was released in 2019, and earned them a second Grammy win for Best Alternative Music Album. The album was also nominated for the Grammy Award for Album of the Year.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Jason_Derulo', 'artist_name': 'Jason Derulo', 'wiki': 'http://en.wikipedia.org/wiki/Jason_Derulo', 'birth_date': '21 September 1989', 'start_year': '2006', 'abstract': 'Jason Joel Desrouleaux (born September 21, 1989), better known by his stage name Jason Derulo (/dəˈruːloʊ/; formerly stylised as Derülo), is an American singer, songwriter, and dancer. Since the start of his solo recording career in 2009, he has sold over 30 million singles and has achieved eleven Platinum singles including "Wiggle", "Talk Dirty", "Want to Want Me", "Trumpets", "It Girl", "In My Head", "Ridin\' Solo", and "Whatcha Say". After contributing and writing songs for various artists, Derulo signed to recording label Beluga Heights, owned by record producer and industry veteran J. R. Rotem. After Beluga Heights became part of the Warner Music Group, Derulo became a recording artist and released his debut single "Whatcha Say" in May 2009. It sold over five million digital downloads, gaining an RIAA certification of triple Platinum, and reaching number 1 in the U.S. and New Zealand. Derulo released his second single, "In My Head", in December 2009 and his debut studio album, Jason Derulo, followed on March 2, 2010. He released his second album, Future History, on September 16, 2011; the album was preceded by the release of the UK number-one single "Don\'t Wanna Go Home". Derulo\'s third international album, Tattoos, was released on September 24, 2013, and later repackaged as his third U.S. album, Talk Dirty, released on April 15, 2014. In 2015, Derulo released his single "Want to Want Me" and announced his fourth studio album, Everything Is 4, which was released on June 2, 2015. In June 2020, Derulo released the single "Savage Love (Laxed – Siren Beat)" alongside beat producer Jawsh 685. The song went viral on TikTok and was later on remixed by BTS, wherein the remix reached number one in the US, becoming Derulo\'s second chart topper in the region. In November 2020, Derulo released another single entitled "Love Not War (The Tampa Beat)" featuring New Caledonian beat producer Nuka. It was inspired from the latter\'s SoundCloud track known as "The Tampa Beat" which was earlier released in 2018, with it being used in over 23 million TikTok videos.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sia_(musician)', 'artist_name': 'Sia', 'wiki': 'http://en.wikipedia.org/wiki/Sia_(musician)', 'birth_date': '18 December 1975', 'start_year': '1990', 'abstract': 'Sia Kate Isobelle Furler (/ˈsiːə/ SEE-ə; born 18 December 1975) is an Australian singer, songwriter, voice actress, and director. She started her career as a singer in the acid jazz band Crisp in the mid-1990s in Adelaide. In 1997, when Crisp disbanded, she released her debut studio album, titled OnlySee, in Australia. She moved to London and provided vocals for the British duo Zero 7. Sia released her second studio album, Healing Is Difficult, in 2001, and her third, Colour the Small One, in 2004. Sia moved to New York City in 2005 and toured the United States. Her fourth and fifth studio albums, Some People Have Real Problems and We Are Born, were released in 2008 and 2010, respectively. Each was certified gold by the Australian Recording Industry Association and attracted wider notice than her earlier albums. Uncomfortable with her growing fame, Sia took a hiatus from performing and focused on songwriting for other artists, producing successful collaborations "Titanium" (with David Guetta), "Diamonds" (with Rihanna) and "Wild Ones" (with Flo Rida). In 2014, Sia broke through as a solo recording artist when her sixth studio album, 1000 Forms of Fear, debuted at No. 1 in the U.S. Billboard 200 and generated the top-ten single "Chandelier" and a trilogy of music videos co-directed by Sia and starring child dancer Maddie Ziegler. Since then, Sia has usually worn a wig that obscures her face to protect her privacy. Her seventh studio album, This Is Acting (2016), spawned her first Billboard Hot 100 number one single, "Cheap Thrills". The same year, Sia began her Nostalgic for the Present Tour, which incorporated dancing by Ziegler and others, and other performance art elements. Her eighth studio album, Everyday Is Christmas, was released in 2017 and reissued in 2018 with three bonus tracks. In 2018, she collaborated with Labrinth and Diplo in the group LSD, and they released their self-titled debut album in April 2019. Sia wrote and directed a feature film, titled Music, which was released in early 2021 alongside an album, Music – Songs from and Inspired by the Motion Picture. Among the accolades received by Sia are nearly a dozen ARIA Awards, 9 Grammy Award nominations and an MTV Video Music Award.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Kelly_Rowland', 'artist_name': 'Kelly Rowland', 'wiki': 'http://en.wikipedia.org/wiki/Kelly_Rowland', 'birth_date': '11 February 1981', 'start_year': '1997', 'abstract': 'Kelendria Trene Rowland (born February 11, 1981) is an American singer-songwriter, actress, and television personality. She rose to fame in the late 1990s as a member of Destiny\'s Child, one of the world\'s best-selling girl groups of all time. During the group\'s three-year hiatus, Rowland released her debut solo studio album, Simply Deep (2002), which debuted at number one on the UK Albums Chart and sold over 3.7 million copies worldwide. It included the Billboard Hot 100 number-one single "Dilemma" (with Nelly), as well as the UK top-five hits "Stole" and "Can\'t Nobody". Rowland also ventured into acting with starring roles in the successful films Freddy vs. Jason (2003) and The Seat Filler (2005). Following the disbanding of Destiny\'s Child in 2006, Rowland released her second studio album, Ms. Kelly (2007), which produced the international top-ten hits "Like This" (featuring Eve) and "Work". In 2009, she hosted the first season of The Fashion Show, and was featured on David Guetta\'s "When Love Takes Over", which topped the charts in several countries. Its success influenced Rowland to explore electronic dance music music on her third studio album, Here I Am (2011), which spawned the UK top-ten singles "Commander" (featuring David Guetta), "Down for Whatever" and "What a Feeling", as a well as the hit Electro-R&amp;B single "Motivation" (featuring Lil Wayne). Her fourth studio album, Talk a Good Game (2013), became her third top-ten album on the US Billboard 200 chart. Rowland was a television judge on the eighth season of The X Factor UK (2011), as well as the third season of The X Factor USA (2013). She has continued her television career by hosting Chasing Destiny (2016) and starred as a coach on The Voice Australia (2017–2020). Throughout her career, Rowland has sold over 40 million records as a solo artist, and a further 60 million records with Destiny\'s Child. Her work has earned her several awards and nominations, including four Grammy Awards, one Billboard Music Award, and two Soul Train Music Awards. Rowland has also received a star on the Hollywood Walk of Fame as part of Destiny\'s Child, and as a solo artist, she has been honored by the American Society of Composers, Authors and Publishers and Essence for her contributions to music. In 2014, Fuse ranked Rowland in their "100 Most Award-Winning Artists" list at number 20.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Meredith_Brooks', 'artist_name': 'Meredith Brooks', 'wiki': 'http://en.wikipedia.org/wiki/Meredith_Brooks', 'hometown': 'http://dbpedia.org/resource/Oregon_City,_Oregon', 'birth_date': '12 June 1958', 'start_year': '1976', 'end_year': '2007', 'abstract': 'Meredith Ann Brooks (born June 12, 1958) is an American singer-songwriter and guitarist best known for her 1997 hit song "Bitch", for which she was nominated for a Grammy Award.'}</t>
+  </si>
+  <si>
+    <t>{'artist': "http://dbpedia.org/resource/Sinéad_O'Connor", 'artist_name': "Sinéad O'Connor", 'wiki': "http://en.wikipedia.org/wiki/Sinéad_O'Connor", 'birth_date': '08 December 1966', 'start_year': '1986', 'end_year': '2021', 'abstract': 'Shuhada Sadaqat (born Sinéad Marie Bernadette O\'Connor on 8 December 1966 and still known by her birth name, Sinéad O\'Connor) is an Irish singer-songwriter. Her debut album, The Lion and the Cobra, released in 1987, charted internationally and her single "Nothing Compares 2 U", released in 1990, was named the number one world single by the Billboard Music Awards. Since then, while maintaining her singing career, she has occasionally encountered controversy, partly due to her statements and gestures. These include her ordination as a priest, despite being a woman with a Roman Catholic background, and strongly expressing views on organised religion, women\'s rights, war, and child abuse. In addition to her ten solo albums, her work includes many singles, songs for films, collaborations with many other artists, and appearances at charity fundraising concerts. In 2017, O\'Connor changed her name to Magda Davitt. After converting to Islam in 2018, she changed it to Shuhada Sadaqat. However, she continues to record and perform under her birth name.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bad_Boys_Blue', 'artist_name': 'Bad Boys Blue', 'wiki': 'http://en.wikipedia.org/wiki/Bad_Boys_Blue', 'hometown': 'http://dbpedia.org/resource/Cologne', 'start_year': '1984', 'abstract': 'Bad Boys Blue are a multinational pop group formed in Cologne in 1984. The group performed many international hits including "You\'re a Woman", "Pretty Young Girl", "I Wanna Hear Your Heartbeat", and "Come Back and Stay". The group became massively popular in Eastern Europe, South America, and South Africa, with the band performing to sell-out crowds in Russia and Ukraine. In contrast, the group never charted in the UK, and their only charting U.S. singles were "Save Your Love" and "I Totally Miss You" (1993) which became successful chart hits.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Supertramp', 'artist_name': 'Supertramp', 'wiki': 'http://en.wikipedia.org/wiki/Supertramp', 'hometown': 'http://dbpedia.org/resource/England', 'start_year': '2015', 'end_year': '2015', 'abstract': 'Supertramp were an English rock band formed in London, England in mid 1969. Marked by the individual songwriting of founders Roger Hodgson (vocals, keyboards, and guitars) and Rick Davies (vocals and keyboards), they are distinguished for blending progressive rock and pop styles as well as for a sound that relied heavily on Wurlitzer electric piano. The group\'s line-up changed numerous times throughout their career, with Davies being the only consistent member throughout the decades. Other longtime members included bassist Dougie Thomson, drummer Bob Siebenberg, and saxophonist John Helliwell. The band were initially a prog-rock group, but starting with their third album, Crime of the Century (1974), they began moving towards a more pop-oriented sound. They reached their commercial peak with 1979\'s Breakfast in America, which yielded the international top 10 singles "The Logical Song", "Breakfast in America", "Goodbye Stranger", and "Take the Long Way Home". Their other top 40 hits included "Dreamer" (1974), "Give a Little Bit", (1977) and "It\'s Raining Again" (1982). In 1983, Hodgson left the group to pursue a solo career. Davies took over as the band\'s sole leader until 1988, after which they disbanded and periodically reformed in various configurations. As of 2007, Supertramp album sales exceeded 60 million. They attained significant popularity in North America, Europe, South Africa, and Australia. Their highest sales levels were in Canada, where they had two diamond-certified (ten-times platinum) albums (Crime of the Century and Breakfast in America), and their only number 1 singles anywhere ("The Logical Song" and "Dreamer").'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Bebe_Rexha', 'artist_name': 'Bebe Rexha', 'wiki': 'http://en.wikipedia.org/wiki/Bebe_Rexha', 'birth_date': '30 August 1989', 'start_year': '2010', 'abstract': 'Bleta Rexha (Albanian: [ˈblɛta ˈɾɛdʒa]; born August 30, 1989), known professionally as Bebe Rexha (/ˈbiːbi ˈrɛksə/ BEE-bee REK-sə), is an American singer and songwriter. After signing with Warner Records in 2013, Rexha received songwriting credits on Eminem\'s single "The Monster" (which later received the Grammy Award for Best Rap/Sung Performance) and has also contributed songwriting to songs recorded by Shinee, Selena Gomez, and Nick Jonas. Rexha released her debut extended play in 2015, I Don\'t Wanna Grow Up, which saw the moderate commercial success of the singles "I Can\'t Stop Drinking About You" and "I\'m Gonna Show You Crazy". Rexha released two additional extended plays in 2017, All Your Fault: Pt. 1 and All Your Fault: Pt. 2, which again saw the moderate success of the singles "I Got You" and "The Way I Are (Dance with Somebody)". Rexha has also seen success with several collaborations including "Hey Mama" with David Guetta, Nicki Minaj and Afrojack, "Me, Myself &amp; I" with G-Eazy, "In the Name of Love" with Martin Garrix, and "Meant to Be" with Florida Georgia Line, the latter of which had large success as a country crossover single, peaking at number two on the Billboard Hot 100 chart in the United States. Rexha\'s debut studio album, Expectations (2018), reached number 13 on the Billboard 200 chart in the United States and saw the success of its lead single, "I\'m a Mess", and brought Rexha two nominations for Best New Artist and Best Country Duo/Group Performance at the 61st Grammy Awards. Rexha released her second studio album, Better Mistakes, in 2021.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Alicia_Keys', 'artist_name': 'Alicia Keys', 'wiki': 'http://en.wikipedia.org/wiki/Alicia_Keys', 'birth_date': '25 January 1981', 'start_year': '1996', 'abstract': 'Alicia Augello Cook (born January 25, 1981), known professionally as Alicia Keys, is an American singer, songwriter and actress. A classically trained pianist, Keys began composing songs by age 12 and was signed at 15 years old by Columbia Records. After disputes with the label, she signed with Arista Records and later released her debut album, Songs in A Minor, with J Records in 2001. The album was critically and commercially successful, producing her first Billboard Hot 100 number-one single "Fallin\'" and selling over 12 million copies worldwide. The album earned Keys five Grammy Awards in 2002. Her second album, The Diary of Alicia Keys (2003), was also a critical and commercial success, spawning successful singles "You Don\'t Know My Name", "If I Ain\'t Got You", and "Diary", and selling eight million copies worldwide. The album garnered her an additional four Grammy Awards. Her duet "My Boo" with Usher became her second number-one single in 2004. Keys released her first live album, Unplugged (2005), and became the first woman to have an MTV Unplugged album debut at number one. Her third album, As I Am (2007), produced the Hot 100 number-one single "No One", selling seven million copies worldwide and earning an additional three Grammy Awards. In 2007, Keys made her film debut in the action-thriller film Smokin\' Aces. She released the theme song to the James Bond film Quantum of Solace "Another Way to Die" with Jack White. Her fourth album, The Element of Freedom (2009), became her first chart-topping album in the United Kingdom, and sold four million copies worldwide. Keys also collaborated with Jay-Z on "Empire State of Mind" (2009), which became her fourth number-one single in the United States and won the Grammy Award for Best Rap/Sung Collaboration. The Element of Freedom spawned the Billboard Hot 100 charting singles Doesn\'t Mean Anything, Try Sleeping with a Broken Heart, "Un-Thinkable (I\'m Ready)" and "Empire State of Mind (Part II) Broken Down". Her fifth album Girl on Fire (2012) was her fifth Billboard 200 topping album, spawning the successful title track, and won the Grammy Award for Best R&amp;B Album. In 2013, VH1 Storytellers was released as her second live album. Her sixth studio album, Here (2016), became her seventh US R&amp;B/Hip-Hop chart-topping album. Her seventh studio album, Alicia (2020) spawned the singles "Show Me Love" and "Underdog". Keys has sold over 90 million records worldwide, making her one of the world\'s best-selling music artists and she was named by Billboard the top R&amp;B artist of the 2000s decade. She has received numerous accolades in her career, including 15 competitive Grammy Awards, 17 NAACP Image Awards, 12 ASCAP Awards, and an award from the Songwriters Hall of Fame and National Music Publishers Association. She placed tenth on their list of Top 50 R&amp;B/Hip-Hop Artists of the Past 25 Years. VH1 included her on their 100 Greatest Artists of All Time and 100 Greatest Women in Music lists, while Time has named her in their 100 list of most influential people in 2005 and 2017. Keys is also acclaimed for her humanitarian work, philanthropy and activism, e.g. being awarded Ambassador of Conscience by Amnesty International; she co-founded and serves as the Global Ambassador of the nonprofit HIV/AIDS-fighting organization Keep a Child Alive.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/BoDeans', 'artist_name': 'BoDeans', 'wiki': 'http://en.wikipedia.org/wiki/BoDeans', 'hometown': 'http://dbpedia.org/resource/Waukesha,_Wisconsin', 'start_year': '1983', 'abstract': 'BoDeans is an American rock band formed in Waukesha, Wisconsin. BoDeans came to prominence in the 1980s. The band\'s sound encompasses multiple rock genres, including roots rock, heartland rock, and alternative rock. The band\'s biggest hit to date is "Closer to Free", which was used as the theme song to the hit TV series Party of Five. The band has been described as "one of the most successful, and best known, bands to come out of the Milwaukee area". BoDeans is included in a permanent installation at the Rock and Roll Hall of Fame Museum in Cleveland, Ohio.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Drake_(musician)', 'artist_name': 'Drake', 'wiki': 'http://en.wikipedia.org/wiki/Drake_(musician)', 'birth_date': '24 October 1986', 'start_year': '2001', 'abstract': 'Aubrey Drake Graham (born October 24, 1986) is a Canadian rapper, singer and actor. Gaining recognition by starring in the teen drama series Degrassi: The Next Generation (2001–08), Drake pursued a career in music releasing his debut mixtape Room for Improvement in 2006; he subsequently released the mixtapes Comeback Season (2007) and So Far Gone (2009) before signing with Young Money Entertainment. Drake released his debut studio album Thank Me Later in 2010, which debuted at number one on the US Billboard 200. He achieved major critical success with Take Care (2011), and commercial success with Nothing Was the Same (2013) and his first commercial mixtape If You\'re Reading This It\'s Too Late (2015); the latter two were certified multi-platinum in the US. Drake\'s fourth album Views (2016) sat atop the Billboard 200 for 13 nonconsecutive weeks, becoming the first album by a male solo artist to do so in over a decade, and featured the chart record-setting lead single "One Dance". His second solo commercial mixtape More Life (2017) set then-multiple streaming records, and in 2018, he released the double album Scorpion, which contained the Billboard Hot 100 number-one singles "God\'s Plan", "Nice for What", and "In My Feelings". Leaving Young Money in 2018, Drake\'s third commercial mixtape Dark Lane Demo Tapes was released in 2020, and featured the chart-topping "Toosie Slide". In 2021, the EP Scary Hours 2 included the number one "What\'s Next" and set chart records, and preceded his delayed sixth album Certified Lover Boy (2021); the album set the record for most U.S. top-ten entries from one album, with lead single "Way 2 Sexy" becoming his ninth number one. As an entrepreneur, Drake founded the OVO Sound record label with longtime collaborator 40 in 2012. In 2013, Drake became the new "global ambassador" of the Toronto Raptors, joining the executive committee of the NBA franchise, while owning naming rights to its practice facility. In 2016, he began collaborating with American entrepreneur Brent Hocking on the bourbon whiskey Virginia Black; it eventually broke sale records in Canada. Drake has also designed fashion, the most notable including a sub-label collaboration with Nike, alongside other business ventures. In 2018, he was reportedly responsible for 5 per cent (CAD$440 million) of Toronto\'s CAD$8.8 billion annual tourism income. Among the world\'s best-selling music artists, with over 170 million records sold, Drake is ranked as the highest-certified digital singles artist in the United States by the RIAA. He has won four Grammy Awards, six American Music Awards, a record 29 Billboard Music Awards, two Brit Awards, and three Juno Awards, and holds several Billboard Hot 100 chart records; Drake has the most top 10 singles (54), the most charted songs (258), the most simultaneously charted songs in one week (27), the most Hot 100 debuts in one week (22), and the most continuous time on the Hot 100 (431 weeks). He additionally has the most number-one singles on the R&amp;B/Hip-Hop Airplay, Hot R&amp;B/Hip-Hop Songs, Hot Rap Songs, and Rhythmic Airplay charts.'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/Kylie_Minogue', 'artist_name': 'Kylie Minogue', 'wiki': 'http://en.wikipedia.org/wiki/Kylie_Minogue', 'birth_date': '28 May 1968', 'start_year': '1979', 'abstract': 'Kylie Ann Minogue AO, OBE (/mɪˈnoʊɡ/; born 28 May 1968), also known mononymously as Kylie, is an Australian singer and actress. Minogue is the highest-selling female Australian artist of all time, having sold over 80 million records worldwide. She has been recognised for reinventing herself in music and fashion, for which she is referred to by the European press as the "Princess of Pop" and a style icon. Her accolades include a Grammy Award, three Brit Awards and 17 ARIA Music Awards. Born and raised in Melbourne, Minogue first achieved recognition starring in the Australian soap opera Neighbours, playing tomboy mechanic Charlene Robinson. She gained prominence as a recording artist in the late 1980s and released four bubblegum and dance-pop-influenced studio albums produced by Stock Aitken Waterman. By the early 1990s, she had amassed several top ten singles in the UK and Australia, including "I Should Be So Lucky", "The Loco-Motion", "Hand on Your Heart", and "Better the Devil You Know". Taking more creative control over her music, Minogue signed with Deconstruction Records in 1993 and released Kylie Minogue (1994) and Impossible Princess (1997), both of which received positive reviews. She returned to mainstream dance-oriented music with 2000\'s Light Years, including the number-one hits "Spinning Around" and "On a Night Like This". The follow-up, Fever (2001), was an international breakthrough for Minogue, becoming her best-selling album to date. Two of its singles, "Love at First Sight" and "In Your Eyes", became hits, but its lead single, "Can\'t Get You Out of My Head" became one of the most successful singles of the 2000s, selling over five million units. Minogue continued reinventing her image and experimenting with a range of genres on her subsequent albums, which spawned successful singles such as "Slow", "2 Hearts", "All the Lovers", "Santa Baby", "Timebomb" and "Dancing". With her 2020 album Disco, she became the first female artist to have a chart-topping album in the UK for five consecutive decades. Minogue made her film debut in The Delinquents (1989) and portrayed Cammy in Street Fighter (1994). She has also appeared in the films Moulin Rouge! (2001), Jack &amp; Diane, Holy Motors (2012) and San Andreas (2015). In 2014, she appeared as a judge on the third series of The Voice UK and The Voice Australia. Her other ventures include product endorsements, children\'s books, fashion, and charitable work. Minogue was appointed an Officer of the Order of the British Empire in the 2008 New Year Honours for services to music. She was appointed by the French government as a Chevalier (knight) of the Ordre des Arts et des Lettres for her contribution to the enrichment of French culture. In 2005, while Minogue was on tour, she was diagnosed with breast cancer. She was awarded an honorary Doctor of Health Science (D.H.Sc.) degree by Anglia Ruskin University in 2011 for her work in raising awareness for breast cancer. At the 2011 ARIA Music Awards, she was inducted by the Australian Recording Industry Association into the ARIA Hall of Fame. She was appointed Officer of the Order of Australia (AO) in the 2019 Australia Day Honours.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Incubus_(band)', 'artist_name': 'Incubus', 'wiki': 'http://en.wikipedia.org/wiki/Incubus_(band)', 'hometown': 'http://dbpedia.org/resource/Calabasas,_California', 'start_year': '1991', 'abstract': 'Incubus is an American rock band from Calabasas, California. The band was formed in 1991 by vocalist Brandon Boyd, lead guitarist Mike Einziger, and drummer José Pasillas while enrolled in Calabasas High School and later expanded to include bassist Alex "Dirk Lance" Katunich, and Gavin "DJ Lyfe" Koppell; both of whom were eventually replaced by bassist Ben Kenney and DJ Kilmore, respectively. Incubus has attained commercial success, reaching multi-platinum sales, as well as releasing several successful singles. After their first two albums, Fungus Amongus (1995) and S.C.I.E.N.C.E. (1997), the band earned mainstream recognition with the release of their 1999 album Make Yourself which spawned several hits, including the band\'s highest charting song "Drive." Success continued with the albums Morning View (2001) and A Crow Left of the Murder... (2004). Their sixth studio album, Light Grenades, debuted at No. 1 in 2006 and was followed by Incubus\'s first greatest hits album Monuments and Melodies in June 2009 and the band\'s 2011 album, If Not Now, When?. Incubus also released an EP, Trust Fall (Side A), in early 2015, and two years later, the band released their eighth studio album, titled 8, on April 21, 2017. A second EP, Trust Fall (Side B), was released on April 17, 2020. Worldwide, Incubus has sold over 19 million albums.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rob_Zombie', 'artist_name': 'Rob Zombie', 'wiki': 'http://en.wikipedia.org/wiki/Rob_Zombie', 'birth_date': '12 January 1965', 'start_year': '1985', 'abstract': 'Robert Bartleh Cummings (born January 12, 1965), known professionally as Rob Zombie, is an American singer, songwriter, filmmaker, and voice actor. He is a founding member of the heavy metal band White Zombie, releasing four studio albums with the band. He is the older brother of Spider One, the lead vocalist of the industrial metal band Powerman 5000. Zombie\'s first solo effort was a 1996 song titled "Hands of Death (Burn Baby Burn)", written and performed with Alice Cooper. It went on to receive a nomination for Best Metal Performance at the 39th Annual Grammy Awards. In 1997, he began working on his debut solo studio album, Hellbilly Deluxe, which was released in August 1998. A month later, Zombie officially disbanded White Zombie. Hellbilly Deluxe went on to sell over three million copies worldwide and spawned three singles. Zombie directed the horror film House of 1000 Corpses in 2000, though the controversial project was not released until 2003. His second studio album, The Sinister Urge (2001), became his second platinum album in the U.S. Zombie directed The Devil\'s Rejects (2005), a direct sequel to his prior film House of 1000 Corpses. The project received a more positive reception than its predecessor. His third studio album, Educated Horses (2006), was a departure from his earlier recordings. The album became his third to enter the top ten of the Billboard 200, but saw a decrease in sales compared to his previous releases. Deciding to focus on his directing career, Zombie directed the horror film Halloween (2007), a remake of the 1978 horror classic of the same name. The film became Zombie\'s highest-grossing film to date, though was generally received negatively by critics. He later directed Halloween II (2009), which failed to match the success of its predecessor. He released the animated film The Haunted World of El Superbeasto that same year. Zombie returned to music with the release of his fourth studio album, Hellbilly Deluxe 2 (2010). The album peaked at number eight in the U.S., where it sold over 200,000 copies. In 2012, Zombie released a second remix album and directed the horror film The Lords of Salem, which was released in 2013; that year he also released his fifth studio album Venomous Rat Regeneration Vendor. Later he directed the horror film 31. Zombie released his next solo album, The Electric Warlock Acid Witch Satanic Orgy Celebration Dispenser, in 2016, followed nearly five years later by his seventh studio album, The Lunar Injection Kool Aid Eclipse Conspiracy (2021). Since the beginning of his music career, Zombie\'s music and lyrics have featured notable horror and sci-fi themes. His live shows have been praised for their elaborate shock rock theatricality. Since beginning his solo career, Zombie has sold an estimated fifteen million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Laura_Branigan', 'artist_name': 'Laura Branigan', 'wiki': 'http://en.wikipedia.org/wiki/Laura_Branigan', 'birth_date': '03 July 1952', 'death_date': '26 August 2004', 'abstract': 'Laura Ann Branigan (July 3, 1952 – August 26, 2004) was an American singer, songwriter, and actress. Her signature song, the platinum-certified 1982 single "Gloria", stayed on the U.S. Billboard Hot 100 for 36 weeks, then a record for a female artist, peaking at No. 2. It also reached number one in Australia and Canada. In 1984, she reached number one in Canada and Germany with the U.S. No. 4 hit "Self Control". She also had success in the United Kingdom with both "Gloria" and "Self Control" making the Top 10 in the UK Singles Chart. Seeing her greatest level of success in the 1980s, Branigan\'s other singles included the Top 10 hit "Solitaire" (1983), the U.S. AC chart number one "How Am I Supposed to Live Without You" (1983), the Australian No. 2 hit "Ti amo" (1984), her return to the top 40 "The Power of Love" (1987), the top hit 15 dance "Shattered Glass." Her most successful album was 1984\'s platinum-selling Self Control. She also contributed songs to motion picture and television soundtracks, including the Grammy and Academy Award-winning Flashdance soundtrack (1983), and the Ghostbusters soundtrack (1984), and also Miami Vice (1984). In 1985, she won the Tokyo Music Festival with the song "The Lucky One". Her chart success began to wane as the decade closed and after her last two albums Laura Branigan (1990) and Over My Heart (1993) garnered little attention, she generally retired from public life for the rest of the 1990s. She began returning to performing in the early 2000s, most notably appearing as Janis Joplin in the off-Broadway musical Love, Janis. As she was recording new music and preparing a comeback to the music industry, she died at her home in August 2004 from a previously undiagnosed cerebral aneurysm. Branigan and her music saw renewed popularity and public interest in 2019 in the US after "Gloria" was adopted by the NHL\'s St. Louis Blues as their unofficial victory song while they completed a historic mid-season turnaround to win their first Stanley Cup in franchise history, leading to the song entering ice hockey lore as an "unlikely championship anthem". Branigan\'s legacy manager and representative Kathy Golik embraced the trend and traveled to St. Louis to publicly represent Branigan among the Blues fanbase during the 2019 Stanley Cup Playoffs, later stating her belief that Branigan and "Gloria" "will forever be intertwined" with the Blues and the city of St. Louis.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sirah_(rapper)', 'artist_name': 'Sirah', 'wiki': 'http://en.wikipedia.org/wiki/Sirah_(rapper)', 'hometown': 'http://dbpedia.org/resource/New_York_(state)', 'birth_date': '28 July 1988', 'start_year': '2007', 'abstract': 'Sara Elizabeth Mitchell (born July 28, 1988), better known by her stage name Sirah /ˈsaɪrə/, is an American hip hop recording artist based in Los Angeles. She collaborated with Skrillex, on "WEEKENDS!!!", "Kyoto" and the hit single "Bangarang".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Billy_Talent', 'artist_name': 'Billy Talent', 'wiki': 'http://en.wikipedia.org/wiki/Billy_Talent', 'hometown': 'http://dbpedia.org/resource/Mississauga', 'start_year': '1993', 'abstract': "Billy Talent is a Canadian rock band from Mississauga, Ontario. They formed in 1993 with lead vocalist Benjamin Kowalewicz, guitarist Ian D'Sa, bassist Jonathan Gallant, and drummer Aaron Solowoniuk. There have been no lineup changes, although Solowoniuk is currently taking a hiatus from the band due to a relapse of multiple sclerosis, and Jordan Hastings is currently filling in for him. In the 28 years since their inception, Billy Talent has sold over a million physical albums in Canada alone and nearly 3 million albums internationally. Between 1995 and 2016, Billy Talent were the 27th best-selling Canadian artist in Canada and among the top 10 best-selling Canadian bands in Canada. The band existed for almost a decade before mainstream success. The members met and played in Our Lady of Mount Carmel Secondary School under the name Pezz and remained underground in Toronto's indie music scene until 2001. The band renamed itself Billy Talent after running into legal trouble with the old name. It was then that Kowalewicz's connection with an employee of Warner Music Canada's A&amp;R department landed the band a record deal and launched them into mainstream success. Since then, Billy Talent has made three multi-platinum records in Canada and continues to expand their success overseas; this included touring for 20 months supporting their second album. They released their third album, Billy Talent III, on July 14, 2009, and their fourth album, Dead Silence, on September 4, 2012. Dead Silence was followed up by a full UK tour throughout October and November 2012. To commemorate the longevity since the release of their first studio album, the band has released a greatest hits album entitled Hits on November 4, 2014. In 2015, they began to prepare material for their fifth studio album. Just before entering the studio, drummer Aaron Solowoniuk decided to sit out the recording sessions while he continued his longstanding battle with multiple sclerosis. Fellow Canadian Jordan Hastings was quickly recruited to play as Solowoniuk's studio stand-in, and, in early 2016, the group completed work on Afraid of Heights, which was released in July of that year."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Muse_(band)', 'artist_name': 'Muse', 'wiki': 'http://en.wikipedia.org/wiki/Muse_(band)', 'hometown': 'http://dbpedia.org/resource/Teignmouth', 'start_year': '1994', 'abstract': 'Muse are an English rock band from Teignmouth, Devon, formed in 1994. The band consists of Matt Bellamy (lead vocals, guitar, keyboards), Chris Wolstenholme (bass guitar, backing vocals), and Dominic Howard (drums). Muse released their debut album, Showbiz, in 1999, showcasing Bellamy\'s falsetto and a melancholic alternative rock style. Their second album, Origin of Symmetry (2001), incorporated wider instrumentation and romantic classical influences and earned them a reputation for energetic live performances. Absolution (2003) saw further classical influence, with strings on tracks such as "Butterflies and Hurricanes", and was the first of six consecutive UK number-one albums. Black Holes and Revelations (2006) incorporated electronic and pop elements, displayed in singles such as "Supermassive Black Hole", and brought Muse wider international success. The Resistance (2009) and The 2nd Law (2012) explored themes of government oppression and civil uprising and cemented Muse as one of the world\'s major stadium acts. Rolling Stone stated the band possessed "stadium-crushing songs". Topping the US Billboard 200, their seventh album, Drones (2015), was a concept album about drone warfare and returned to a harder rock sound. Their eighth album, Simulation Theory (2018), prominently featured synthesisers and was influenced by science fiction and the simulation hypothesis. Muse have won numerous awards, including two Grammy Awards, two Brit Awards, five MTV Europe Music Awards and eight NME Awards. In 2012 they received the Ivor Novello Award for International Achievement from the British Academy of Songwriters, Composers and Authors. By June 2016, they had sold over 20 million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Collective_Soul', 'artist_name': 'Collective Soul', 'wiki': 'http://en.wikipedia.org/wiki/Collective_Soul', 'hometown': 'http://dbpedia.org/resource/Stockbridge,_Georgia', 'start_year': '1992', 'abstract': 'Collective Soul is an American rock band originally from Stockbridge, Georgia. Now based in Atlanta, the group consists of lead vocalist Ed Roland, rhythm guitarist Dean Roland, bassist Will Turpin, drummer Johnny Rabb, and lead guitarist Jesse Triplett. Formed in 1992, Collective Soul released their Hints, Allegations, and Things Left Unsaid album on the independent label Rising Storm Records in 1993. The band went from obscurity to popularity that year after the song "Shine" became an underground hit based on radio play. The album was re-released in 1994 under major label Atlantic Records. Collective Soul released a self-titled album in March 1995. Considered by Ed Roland to be the band\'s true debut album, Collective Soul spent 76 weeks on the Billboard 200 charts and went triple-platinum, becoming the band\'s highest-selling album. The singles "December", "The World I Know", and "Where the River Flows" each reached No. 1 on the Mainstream Rock charts. About two years later, Collective Soul released Disciplined Breakdown. Although not as successful in sales as their previous two albums, Disciplined Breakdown contained two No. 1 Mainstream Rock chart hits with "Precious Declaration" and "Listen". The band released a fourth studio album, Dosage, in 1999. The album\'s first single, "Heavy", spent a then record-breaking 15 weeks on the top spot of the Mainstream Rock charts. The band released Blender in 2000, their fifth and final album with the original starting lineup, as lead guitarist Ross Childress left the band in 2001. About two weeks after Childress\' departure, Collective Soul released Seven Year Itch, a compilation of their greatest hits between 1994 and 2001. Collective Soul established their own label, El Music Group, prior to releasing Youth in 2004. The band recorded a live album with the Atlanta Symphony Youth Orchestra in 2005, titled Home, and released it in 2006. Original drummer Shane Evans departed from the band at the end of 2005. Collective Soul has since released four more albums: Afterwords (2007), a second self-titled album (2009), See What You Started by Continuing (2015), and Blood (2019).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/David_Bowie', 'artist_name': 'David Bowie', 'wiki': 'http://en.wikipedia.org/wiki/David_Bowie', 'birth_date': '08 January 1947', 'death_date': '10 January 2016', 'start_year': '1962', 'end_year': '2016', 'abstract': 'David Robert Jones OAL (8 January 1947 – 10 January 2016), known professionally as David Bowie (/ˈboʊi/ BOH-ee), was an English singer-songwriter and actor. A leading figure in the music industry, Bowie is regarded as one of the most influential musicians of the 20th century. He was acclaimed by critics and musicians, particularly for his innovative work during the 1970s. His career was marked by reinvention and visual presentation, and his music and stagecraft had a significant impact on popular music. Bowie developed an interest in music as a child. He studied art, music and design before embarking on a professional career as a musician in 1963. "Space Oddity", released in 1969, was his first top-five entry on the UK Singles Chart. After a period of experimentation, he re-emerged in 1972 during the glam rock era with his flamboyant and androgynous alter ego Ziggy Stardust. The character was spearheaded by the success of Bowie\'s single "Starman" and album The Rise and Fall of Ziggy Stardust and the Spiders from Mars, which won him widespread popularity. In 1975, Bowie\'s style shifted towards a sound he characterised as "plastic soul", initially alienating many of his UK fans but garnering him his first major US crossover success with the number-one single "Fame" and the album Young Americans. In 1976, Bowie starred in the cult film The Man Who Fell to Earth, directed by Nicolas Roeg, and released Station to Station. In 1977, he further confounded expectations with the electronic-inflected album Low, the first of three collaborations with Brian Eno that came to be known as the "Berlin Trilogy". "Heroes" (1977) and Lodger (1979) followed; each album reached the UK top five and received lasting critical praise. After uneven commercial success in the late 1970s, Bowie had three number-one hits: the 1980 single "Ashes to Ashes", its album Scary Monsters (and Super Creeps), and "Under Pressure" (a 1981 collaboration with Queen). He reached his peak commercial success in 1983 with Let\'s Dance: its title track topped both the UK and US charts. Throughout the 1990s and 2000s, Bowie continued to experiment with musical styles, including industrial and jungle. He also continued acting: his roles included Major Jack Celliers in Merry Christmas, Mr. Lawrence (1983), Jareth the Goblin King in Labyrinth (1986), Pontius Pilate in The Last Temptation of Christ (1988), and Nikola Tesla in The Prestige (2006), among other film and television appearances and cameos. He stopped touring after 2004 and his last live performance was at a charity event in 2006. In 2013, Bowie returned from a decade-long recording hiatus with The Next Day. He remained musically active until his death from liver cancer at his home in New York City. He died two days after both his 69th birthday and the release of his final album, Blackstar (2016). During his lifetime, his record sales, estimated at over 100 million records worldwide, made him one of the best-selling music artists of all time. In the UK, he was awarded ten platinum, eleven gold and eight silver album certifications, and released 11 number-one albums. In the US, he received five platinum and nine gold certifications. He was inducted into the Rock and Roll Hall of Fame in 1996. Rolling Stone named him among the greatest artists in history and – after his death – the "greatest rock star ever".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Temper_Trap', 'artist_name': 'The Temper Trap', 'wiki': 'http://en.wikipedia.org/wiki/The_Temper_Trap', 'hometown': 'http://dbpedia.org/resource/Melbourne', 'start_year': '2005', 'abstract': 'The Temper Trap are an Australian indie rock band formed in 2005 by Dougy Mandagi, Jonathon Aherne, and Toby Dundas. In 2008, the group relocated from Melbourne to London. The band released their debut album Conditions in June 2009 to favourable reviews and commercial success; it peaked at No. 9 on the ARIA Albums Chart and into the top 30 on the UK Albums Chart. Its lead single, "Sweet Disposition", peaked in the top 10 on the Belgian, Irish and UK Singles Charts and reached No. 14 on the ARIA Singles Chart. At the ARIA Music Awards of 2010 in November, The Temper Trap won Best Group and Most Popular Australian Single for "Sweet Disposition". Their eponymous second album was released in late May/early June 2012 under Liberation Music (AUS), Infectious Records (UK) and Glassnote Records (US). The album won the band Best Rock Album, and they also won Best Group at the 2012 ARIA Awards. In October 2013 guitarist Lorenzo Sillitto left the band, during the recording of the third album.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Ellie_Goulding', 'artist_name': 'Ellie Goulding', 'wiki': 'http://en.wikipedia.org/wiki/Ellie_Goulding', 'birth_date': '30 December 1986', 'start_year': '2009', 'abstract': 'Elena Jane Goulding (/ˈɡoʊldɪŋ/ GOHL-ding; born 30 December 1986) is an English singer and songwriter. Her career began when she met record producers Starsmith and Frankmusik, and she was later spotted by Jamie Lillywhite, who later became her manager and A&amp;R. After signing to Polydor Records in July 2009, Goulding released her debut extended play, An Introduction to Ellie Goulding later that year. In 2010, she became the second artist to top the BBC\'s annual Sound of... poll and win the Critics\' Choice Award at the Brit Awards in the same year. She released her debut studio album, Lights, in 2010; it debuted at No.\u20091 on the UK Albums Chart and has sold over 850,000 copies in the United Kingdom. In November 2010, the album was reissued as Bright Lights, which spawned two singles: a cover of Elton John\'s "Your Song" which was selected for the first John Lewis Christmas advert, reached No.\u20092 on the UK Singles Chart, and "Lights", which became Goulding\'s highest-charting single on the US Billboard Hot 100 to date, peaking at No.\u20092. Goulding\'s second studio album, Halcyon, was released in October 2012. "Anything Could Happen" preceded the album as the lead single. The album debuted at No.\u20092 on the UK Albums Chart, and after 65 weeks, it reached No.\u20091. Halcyon debuted at No.\u20099 on the US Billboard 200. Halcyon Days, a repackaged edition of Halcyon, was released in August 2013, generating singles, such as "Burn", which became her first No.\u20091 single in the UK. At the 2014 Brit Awards, she received the award for British Female Solo Artist. Goulding released her third studio album, titled Delirium, on 6 November 2015, with "On My Mind" as the album\'s lead single. In December 2015, she received her first Grammy Award nomination for Best Pop Solo Performance for her single "Love Me Like You Do". Her fourth studio album Brightest Blue was released on 17 July 2020, becoming her third to top the UK Albums Chart, and her fourth consecutive RIAA certified album.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Bravery', 'artist_name': 'The Bravery', 'wiki': 'http://en.wikipedia.org/wiki/The_Bravery', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2003', 'end_year': '2011', 'abstract': 'The Bravery is an American rock band, formed in New York City in 2003. The band consists of lead vocalist Sam Endicott, guitarist Michael Zakarin, keyboardist John Conway, bassist Mike Hindert and drummer Anthony Burulcich. They are best known for their 2005 top 10 UK single "An Honest Mistake" and their certified gold 2008 single "Believe". Before their initial split, they released three studio albums: The Bravery (2005), The Sun and the Moon (2007) and Stir the Blood (2009). They also released a remixed edition of their second album, called The Sun and the Moon Complete, in 2008, as well as an Internet live album called Live at the Wiltern Theater in 2010. The group\'s music is mostly post-punk, dance-influenced rock. The band were inactive from the early 2010s onward, with Endicott confirming the band\'s indefinite hiatus in April 2014. On July 31st 2021, The Bravery\'s website confirmed the return of the group.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Ace_of_Base', 'artist_name': 'Ace of Base', 'wiki': 'http://en.wikipedia.org/wiki/Ace_of_Base', 'hometown': 'http://dbpedia.org/resource/Gothenburg', 'start_year': '1987', 'abstract': 'Ace of Base is a Swedish pop group, formed in 1990, originally consisting of siblings Jonas, Linn and Jenny Berggren, with Ulf Ekberg. They achieved worldwide success following the release of their debut album Happy Nation in 1992. Later re-issued as The Sign, it was certified nine times platinum in the United States, and was the best-selling album of 1994. One of the most successful debut albums of all time, it was the first to produce three No. 1 singles on the Billboard Mainstream Top 40 chart: "All That She Wants", "The Sign" and "Don\'t Turn Around". They continued to score hit singles throughout the 1990s, with songs such as "Beautiful Life", "Lucky Love", "Cruel Summer" and "Life Is a Flower". By 2002, they had sold a total of 30 million copies of their first four studio albums, making them the third most successful Swedish group of all time, behind ABBA and Roxette. Despite being largely inactive since 2012, the group has never officially disbanded. In the last decade, they have released a number of demo tracks; first via their Facebook page, then in 2015 on the compilation album Hidden Gems. An expanded two-disc edition was included in the 2020 boxset All That She Wants: The Classic Collection. Jenny Berggren continues to perform the group\'s hits in solo concerts around the world.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Silverchair', 'artist_name': 'Silverchair', 'wiki': 'http://en.wikipedia.org/wiki/Silverchair', 'hometown': 'http://dbpedia.org/resource/Australia', 'start_year': '1992', 'end_year': '2011', 'abstract': 'Silverchair were an Australian rock band, which formed in 1992 as Innocent Criminals in Newcastle, New South Wales, with Ben Gillies on drums, Daniel Johns on vocals and guitars, and Chris Joannou on bass guitar. The group got their big break in mid-1994 when they won a national demo competition conducted by SBS TV show Nomad and ABC radio station Triple J. The band was signed by Murmur and were successful in Australia and internationally. Silverchair have sold over 8 million albums worldwide. Silverchair have won more ARIA Music Awards than any other artist in history, earning 21 wins from 49 nominations. They also received six APRA Awards, with Johns winning three songwriting awards in 2008. All five of their studio albums debuted at number one on the ARIA Albums Chart: Frogstomp (1995), Freak Show (1997), Neon Ballroom (1999), Diorama (2002), and Young Modern (2007). Three singles reached number-one on the related ARIA Singles Chart: "Tomorrow" (1994), "Freak" (1997), and "Straight Lines" (2007). Silverchair\'s alternative rock sound evolved throughout their career, differing styles on specific albums growing more ambitious over the years, from grunge on their debut to more recent work displaying orchestral and art rock influences. The songwriting and singing of Johns had evolved steadily while the band had developed an increased element of complexity. In 2003, following the release of Diorama, the band announced a hiatus, during which time members recorded with side projects the Dissociatives, the Mess Hall, and Tambalane. Silverchair reunited at the 2005 Wave Aid concerts. In 2007, they released their fifth album, Young Modern, and played the Across the Great Divide tour with contemporaries Powderfinger. In May 2011, Silverchair announced an indefinite hiatus.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Police', 'artist_name': 'The Police', 'wiki': 'http://en.wikipedia.org/wiki/The_Police', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1977', 'abstract': 'The Police were an English rock band formed in London in 1977. For most of their history the line-up consisted of primary songwriter Sting (lead vocals, bass guitar), Andy Summers (guitar) and Stewart Copeland (drums, percussion). The Police became globally popular in the late 1970s and early 1980s. Emerging in the British new wave scene, they played a style of rock influenced by punk, reggae, and jazz. Their 1978 debut album, Outlandos d\'Amour, reached No. 6 on the UK Albums Chart on the strength of the singles "Roxanne" and "Can\'t Stand Losing You". Their second album, Reggatta de Blanc (1979), became the first of four consecutive No. 1 studio albums in the UK and Australia; its first two singles, "Message in a Bottle" and "Walking on the Moon", became their first UK number ones. Their next two albums, Zenyatta Mondatta (1980) and Ghost in the Machine (1981), led to further critical and commercial success with two songs, "Don\'t Stand So Close to Me" and "Every Little Thing She Does Is Magic", becoming UK number-one singles and Top 5 hits in other countries; the latter album and single were their breakthrough into the US as both reached the Top 3 there. Their final studio album, Synchronicity (1983), was No. 1 in the UK, Canada, Australia, Italy and the US, selling over 8 million copies in the US. Its lead single, "Every Breath You Take", became their fifth UK number one, and only US number one. During this time, the band were considered one of the leaders of the Second British Invasion of the US; in 1983 Rolling Stone labelled them "the first British New Wave act to break through in America on a grand scale, and possibly the biggest band in the world." The Police disbanded in 1986, but reunited in early 2007 for a one-off world tour that ended in August 2008. They were the world\'s highest-earning musicians in 2008, due to their reunion tour. The Police have sold over 75 million records, making them one of the best-selling bands of all time. The band won a number of music awards, including six Grammy Awards, two Brit Awards—winning Best British Group once, and an MTV Video Music Award. In 2003, they were inducted into the Rock and Roll Hall of Fame. Four of their five studio albums appeared on Rolling Stone\'s list of the "500 Greatest Albums of All Time". The band were included among both Rolling Stone\'s and VH1\'s lists of the "100 Greatest Artists of All Time".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/John_Newman_(singer)', 'artist_name': 'John Newman', 'wiki': 'http://en.wikipedia.org/wiki/John_Newman_(singer)', 'birth_date': '16 June 1990', 'start_year': '2012', 'abstract': 'John William Peter Newman (born 16 June 1990) is an English singer, songwriter, musician and record producer. He is best known for the track "Love Me Again" which peaked at number one on the UK Singles Chart in July 2013 and appeared in FIFA 14, as well as co-writing and singing on Rudimental\'s 2012 singles "Feel the Love" and "Not Giving In", which peaked at number one and number 14 on the chart, respectively. In 2014, he featured in the Calvin Harris single "Blame", which also topped the UK charts. At the 2014 Brit Awards, Newman was nominated for three Brit Awards, including for British Male Solo Artist. As of February 2014, Newman has sold over 1.3 million records in the UK alone.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jack_Ü', 'artist_name': 'Jack Ü', 'wiki': 'http://en.wikipedia.org/wiki/Jack_Ü', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2013', 'end_year': '2016', 'abstract': 'Jack Ü is a American DJ duo consisting of electronic music producers Skrillex and Diplo, formed in 2013. They released their first official single, "Take Ü There", featuring vocals from Kiesza, on September 17, 2014. On February 3, 2015, the duo announced that they would be working with Missy Elliott on a remix of "Take Ü There". They released their first and only album, Skrillex and Diplo Present Jack Ü, on February 27, 2015. Jack Ü performed at Ultra Music Festival Miami in 2014. They also performed at Ultra Music Festival in 2015 with the entire "Jack Ü crew", featuring live contributions from CL, Kai, Diddy, Kiesza and Justin Bieber. According to Skrillex, the collaboration is called \'Jack Ü\' because it refers to how the music "jacks you up" with its high energy beats and bassline. The Ü (U with umlaut) letter appears in titles of all of its singles and is usually stylized to look like a smiley.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/ALT_(band)', 'artist_name': 'ALT', 'wiki': 'http://en.wikipedia.org/wiki/ALT_(band)', 'start_year': '1994', 'end_year': '1995', 'abstract': "ALT was a one-off band, featuring former New Zealand band Split Enz frontman Tim Finn, Northern Irish singer/songwriter Andy White and the frontman of the Irish band Hothouse Flowers, Liam Ó Maonlaí, that recorded and played together in 1995. The band's name was created out of the letters of their first names. They released two albums. The first was the studio album Altitude, was recorded in Periscope Studios in Melbourne, Australia. It had thirteen tracks, and it included references and influences to the musical and cultural traditions in which the participants grew up. The second was Bootleg, a live recording from The Continental in Sydney, Australia. Both albums were recorded and released in 1994–1995. They toured briefly around Europe after the album was released. Finn re-recorded an ALT song as the title track and first song for his 2001 EP, What You've Done. The ALT version is the second track of that EP. Finn also included his new take on the song in the Feeding the Gods album the same year. In 2004, Ó Maonlaí joined Finn on stage in Dublin, during a Finn Brothers concert, and they performed one of the ALT songs. The three have worked together on each other's solo projects from time to time."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/4_Non_Blondes', 'artist_name': '4 Non Blondes', 'wiki': 'http://en.wikipedia.org/wiki/4_Non_Blondes', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1989', 'end_year': '1989', 'abstract': '4 Non Blondes was an American alternative rock band from San Francisco, California, active from 1989 to 1994. Their only album, Bigger, Better, Faster, More! spent 59 weeks on the Billboard 200 and sold 1.5 million copies between 1992 and 1994. They hit the charts in 1993 with the release of the album\'s second single, "What\'s Up?". Originally, the band was all-female, with lead singer Linda Perry, bassist Christa Hillhouse, guitarist Shaunna Hall, and drummer Wanda Day. However, along with Day being replaced by Dawn Richardson (drums), Hall was replaced by Roger Rocha (guitar) before the release of the album. Lead singer Linda Perry left the band in 1994, and the remaining members disbanded shortly thereafter.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rob_Thomas_(musician)', 'artist_name': 'Rob Thomas', 'wiki': 'http://en.wikipedia.org/wiki/Rob_Thomas_(musician)', 'hometown': 'http://dbpedia.org/resource/Sarasota,_Florida', 'birth_date': '14 February 1972', 'start_year': '1990', 'abstract': 'Robert Kelly Thomas (born February 14, 1972) is an American singer, songwriter, and multi-instrumentalist best known for being the lead singer of the rock band Matchbox Twenty. Thomas also records and performs as a solo artist, with "Lonely No More" released in 2005 becoming his biggest solo chart success. Thomas received three Grammy Awards for co-writing and singing on the 1999 hit "Smooth" by Santana and it also was his first song as a solo artist. He has also been a songwriter for artists such as Willie Nelson, Mick Jagger, Marc Anthony, Pat Green, Taylor Hicks, Travis Tritt, and Daughtry. Since 1996, his band has released a string of hit singles to radio, including "Push", "3AM", "Real World", "Back 2 Good", "Bent", "If You\'re Gone", "Mad Season", "Disease", "Unwell", "Bright Lights", "How Far We\'ve Come", and "She\'s So Mean". In 2004, the Songwriters Hall of Fame awarded Thomas its first Hal David Starlight Award, recognizing young songwriters who have already had a lasting influence in the music industry.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Rod_Stewart', 'artist_name': 'Rod Stewart', 'wiki': 'http://en.wikipedia.org/wiki/Rod_Stewart', 'birth_date': '10 January 1945', 'start_year': '1961', 'abstract': 'Sir Roderick David Stewart CBE (born 10 January 1945) is a British rock and pop singer, songwriter, and record producer. Born and raised in London, he is of Scottish and English ancestry. With his distinctive raspy singing voice, Stewart is one of the best-selling music artists of all time, having sold over 250 million records worldwide. He has had 10 number-one albums and 31 top ten singles in the UK, 6 of which reached number one. Stewart has had 16 top ten singles in the US, with four reaching number one on the Billboard Hot 100. He was knighted in the 2016 Birthday Honours for services to music and charity. Stewart\'s music career began in 1962 when he took up busking with a harmonica. In 1963, he joined The Dimensions as harmonica player and vocalist. In 1964, Stewart joined Long John Baldry and the All Stars before moving to the Jeff Beck Group in 1967. Joining Faces in 1969, he also maintained a solo career releasing his debut album that same year. Stewart\'s early albums were a fusion of rock, folk music, soul music, and R&amp;B. His third album, 1971\'s Every Picture Tells a Story, was his breakthrough, topping the charts in the UK, US, Canada and Australia, as did its ballad "Maggie May". His 1972 follow-up album, Never a Dull Moment, also reached number one in the UK and Australia, while going top three in the US and Canada. Its single, "You Wear It Well", topped the chart in the UK and was a moderate hit elsewhere. After a handful more UK top ten hits, Stewart announced the breakup of the Faces in 1975. His next few singles were ballads with "Sailing", off the 1975 UK and Australian number-one album, Atlantic Crossing, becoming a hit in the UK and the Netherlands (number one), Germany (number four) and other countries, but barely charting in North America. A Night on the Town (1976), his fifth straight chart-topper in the UK, began a three-album run of going number one or top three in North America, the UK and Australia with each release. That album\'s "Tonight\'s the Night (Gonna Be Alright)" spent almost two months at number one in the US and Canada, and made the top five in other countries. Foot Loose &amp; Fancy Free (1977) featured the major hit "You\'re In My Heart (The Final Acclaim)" as well as the rocker "Hot Legs". Blondes Have More Fun (1978) and its disco-tinged "Da Ya Think I\'m Sexy" both went to number one in Canada, Australia and the US, with "Da Ya Think I\'m Sexy" also hitting number one in the UK and the top ten in other countries. Stewart\'s albums regularly hit the upper rungs of the charts in the Netherlands throughout the 70s and in Sweden from 1975 onward. After a disco and new wave period in the late 1970s and early 1980s, Stewart\'s music turned to a soft rock/middle-of-the-road style, with most of his albums reaching the top ten in the UK, Germany and Sweden, but faring less well in the US. The single "Rhythm of My Heart" was a top five hit in the UK, US and other countries, with its source album, 1991\'s Vagabond Heart, becoming, at number ten in the US and number two in the UK, his highest charting album in a decade. In 1993, he collaborated with Bryan Adams and Sting on the power ballad "All for Love", which went to number one in many countries. In the early 2000s, he released a series of successful albums interpreting the Great American Songbook. In 2008, Billboard magazine ranked him the 17th most successful artist on the "Billboard Hot 100 All-Time Top Artists". A Grammy and Brit Award recipient, he was voted at No. 33 in Q Magazine\'s list of the Top 100 Greatest Singers of all time As a solo artist, Stewart was inducted into the US Rock and Roll Hall of Fame in 1994, the UK Music Hall of Fame in 2006, and he was inducted a second time into the US Rock and Roll Hall of Fame in 2012 as a member of Faces.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Cobra_Starship', 'artist_name': 'Cobra Starship', 'wiki': 'http://en.wikipedia.org/wiki/Cobra_Starship', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2005', 'end_year': '2015', 'abstract': 'Cobra Starship was an American dance-pop band founded in 2006 by Gabe Saporta (ex-Midtown), and headquartered in New York City, New York. He recorded the first album as a solo project, While the City Sleeps, We Rule the Streets. Saporta later enlisted guitarist Ryland Blackinton, bassist Alex Suarez, drummer Nate Novarro, and keytarist Victoria Asher, all of whom provide backing vocals. Over ten years, Cobra Starship produced four albums and two Billboard Hot 100 top 10 singles. The group released its debut album, While the City Sleeps, We Rule the Streets, in 2006, which contained the single "Snakes on a Plane (Bring It)". The band released its second album, ¡Viva La Cobra!, on October 23, 2007. Their third album, Hot Mess, was released on August 11, 2009. Their fourth and final album, Night Shades, was released on August 30, 2011, in the US and October 28, 2011, in the UK. Cobra Starship officially announced its dissolution on November 10, 2015.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Scissor_Sisters', 'artist_name': 'Scissor Sisters', 'wiki': 'http://en.wikipedia.org/wiki/Scissor_Sisters', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2000', 'end_year': '2012', 'abstract': 'Scissor Sisters are an American pop rock band formed in 2001. Forged in the "gay nightlife scene of New York", the band took its name from the female same-sex sexual activity tribadism. Its members include Jake Shears and Ana Matronic as vocalists, Babydaddy as multi-instrumentalist, Del Marquis as lead guitar/bassist, and Randy Real (who replaced Paddy Boom) as drummer. Scissor Sisters incorporates diverse and eclectic styles in their music, but tends to sway towards pop rock, glam rock, nu-disco, and electroclash. The band came to prominence following the release of their Grammy-nominated and chart-topping disco version of "Comfortably Numb" and subsequent debut album Scissor Sisters (2004). The album was a success, particularly in the UK where it reached number one, was the best-selling album of 2004, was later certified platinum by the BPI, and earned them three BRIT Awards in 2005. All five of its singles reached positions within the top 20 of the UK Singles Chart while "Filthy/Gorgeous" scored the band their first number one on Billboard\'s Hot Dance Club Songs, despite the album\'s meager success in their native US. The album continued its success in countries around Europe, in Australia and in Canada before the release of the band\'s second studio album Ta-Dah (2006), their second consecutive UK number one album which produced their first UK number one single "I Don\'t Feel Like Dancin\'". Their third studio album Night Work (2010) displayed a shift towards a more club-oriented sound, charting at number two on the UK Albums Chart, number one on Billboard\'s Top Independent Albums chart and in the top 10 of several international territories. The band released their fourth studio album Magic Hour in May 2012. Scissor Sisters has performed around the world and have become recognized for their controversial and transgressive live performances. They also collaborated with a number of other well-known pop musicians, including Elton John and Kylie Minogue; these particular collaborations have been received positively by both critics and other notable figures. In 2004, Bono, lead vocalist of rock band U2, described Scissor Sisters as "the best pop group in the world". They also collaborated with Global Cool in 2007 on one of their green lifestyle campaigns.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hard_(band)', 'artist_name': 'Hard', 'wiki': 'http://en.wikipedia.org/wiki/Hard_(band)', 'hometown': 'http://dbpedia.org/resource/Hungary', 'start_year': '2004', 'abstract': 'Hard is a Hungarian hard rock supergroup formed in late 2004 in Budapest, Hungary by József Kalapács (ex-vocalist of Pokolgép and Omen, currently also singing in Kalapács) and Gábor Mirkovics (ex-bass guitarist of Edda Művek). The rest of the band consisted of guitarist Zsolt Csillik (ex-Dance, Jack Daniels and Fix), keyboardist Dénes Makovics (also known for playing saxophone in Bikini) and drummer Zoltán Váry (ex-Sing Sing, ex-Zero-G, guitars–vocals for the Hungarian KISS tribute band KISS Forever Band). In 2005, Ferenc Béres arrived to fill in the position of Dénes Makovics, who was a session member for the studio recording of the first release, “Égni kell”. He played in EDDA Művek and Fix beforehand. In 2007, Váry left because of the German success of KISS Forever Band (he couldn\'t concentrate on Hard enough), so Donászy arrived, who also played in e.g. Beatrice. In 2007 Hard reformed for an international introduction with singer . The album Traveler was released in 2008. The material has since been remixed by the producer Beau Hill in 2008. In 2009, Swedish vocalist and guitarist Björn Lodin was confirmed as the new singer for Hard. Björn is known for his work with Swedish rockers Baltimoore. Platinum-selling Hungarian guitar virtuoso Endre Csillag has also joined the ranks along with drummer Balázs Hornyák. The band start recording their new CD together in the Autumn with Björn Lodin also handling the production duties. The new, as yet untitled album, is scheduled for release on BLP Music, March 2010. "Love Goes With Anything" is the debut single from the new line-up and was released in November 2009.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Tom_Petty_and_the_Heartbreakers', 'artist_name': 'Tom Petty and the Heartbreakers', 'wiki': 'http://en.wikipedia.org/wiki/Tom_Petty_and_the_Heartbreakers', 'abstract': 'Tom Petty and the Heartbreakers were an American rock band from Gainesville, Florida. Formed in 1976, the band originally comprised Tom Petty (lead singer, guitar), Mike Campbell (lead guitarist), Ron Blair (bass guitar), Stan Lynch (drums), and Benmont Tench (keyboards). In 1981, Blair, weary of the touring lifestyle, departed the band. His replacement, Howie Epstein, stayed with the band for the next two decades. In 1991, Scott Thurston joined the band as a multi-instrumentalist—mostly on rhythm guitar and second keyboards. In 1994, Steve Ferrone replaced Lynch on drums. Blair returned to the Heartbreakers in 2002, the year before Epstein\'s death. The band had a long string of hit singles including "Breakdown", "American Girl", "Refugee", "The Waiting", "Learning to Fly", and "Mary Jane\'s Last Dance", among many others, that stretched over several decades of work. The band\'s music was characterized as both Southern rock and heartland rock, cited alongside artists such as Bruce Springsteen, Bob Seger, and John Mellencamp as progenitors of that genre that arose in the late 1970s and 1980s. While the heartland rock movement waned in the 1990s, the band remained active and popular, touring regularly until Petty\'s death in 2017, after which the Heartbreakers disbanded. Their final studio album, Hypnotic Eye, was released in 2014. The band was inducted into the Rock and Roll Hall of Fame in 2002, their first year of eligibility. Although most of their material was produced and performed under the name "Tom Petty and the Heartbreakers", Petty released three solo albums, the most successful of which was Full Moon Fever (1989). In these releases, some members of the band contributed as collaborators, producing and performing as studio musicians.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Dr._Alban', 'artist_name': 'Dr. Alban', 'wiki': 'http://en.wikipedia.org/wiki/Dr._Alban', 'hometown': 'http://dbpedia.org/resource/Sweden', 'birth_date': '26 August 1957', 'start_year': '1980', 'abstract': 'Alban Uzoma Nwapa (born 26 August 1957), better known by his stage name Dr. Alban, is a Nigerian-Swedish recording artist and producer with his own record label, Dr. Records. His music can best be described as Eurodance/hip-hop reggae in a dancehall style. He has sold an estimated 16 million records worldwide and is most famous for his worldwide 1992 hit "It\'s My Life", from the album One Love.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Human_League', 'artist_name': 'The Human League', 'wiki': 'http://en.wikipedia.org/wiki/The_Human_League', 'abstract': 'The Human League are an English synth-pop band formed in Sheffield in 1977. Initially an experimental electronic outfit, the group signed to Virgin Records in 1979 and later attained widespread commercial success with their third album Dare in 1981. The album contained four hit singles, including the UK/US number one hit "Don\'t You Want Me". The band received the Brit Award for Best British Breakthrough Act in 1982. Further hits followed throughout the 1980s and into the 1990s, including "Mirror Man", "(Keep Feeling) Fascination", "The Lebanon", "Human" (a US No. 1) and "Tell Me When". The only constant band member since 1977 has been lead singer and songwriter Philip Oakey. Keyboard players Martyn Ware and Ian Craig Marsh both left the band in 1980 to form Heaven 17. Under Oakey\'s leadership, the Human League then evolved into a commercially successful New Pop band, with a new line-up including female vocalists Joanne Catherall and Susan Ann Sulley. Since the mid-1990s, the band have essentially been a trio of Oakey, Catherall and Sulley with various sidemen. Since 1978, the Human League have released nine studio albums, two remix albums, one live album, six EPs, 30 singles and several compilation albums. They have had five albums and 15 Top 20 singles and had sold more than 20 million records worldwide by 2010. As an early techno-pop act that received extensive MTV airplay, they are regarded as one of the leading artists of the 1980s Second British Invasion of the US.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Billy_Joel', 'artist_name': 'Billy Joel', 'wiki': 'http://en.wikipedia.org/wiki/Billy_Joel', 'birth_date': '09 May 1949', 'start_year': '1964', 'abstract': 'William Martin Joel (born May 9, 1949) is an American singer-songwriter and composer. Commonly nicknamed the "Piano Man" after his first major hit and signature song of the same name as well as the similarly named 1973 album, he has led a commercially successful career as a solo artist since the 1970s, having released 12 studio albums from 1971 to 1993 as well as one studio album in 2001. He is one of the best-selling music artists of all time, as well as the seventh-best-selling recording artist and the fourth-best-selling solo artist in the United States, with over 150 million records sold worldwide. His 1985 compilation album, Greatest Hits Vol. 1 &amp; 2, is one of the best-selling albums in the United States. Joel was born in 1949 in the Bronx, New York, and grew up on Long Island, both places that influenced his music. Growing up, he took piano lessons at his mother\'s insistence. After dropping out of high school to pursue a musical career, Joel took part in two short-lived bands, The Hassles and Attila, before signing a record deal with Family Productions and kicking off a solo career in 1971 with his first release Cold Spring Harbor. In 1972, Joel caught the attention of Columbia Records after a live radio performance of the song "Captain Jack" became popular in Philadelphia, prompting him to sign a new record deal with the company and release his second album, Piano Man, in 1973. After releasing the albums Streetlife Serenade and Turnstiles in 1974 and 1976 respectively, Joel released his critical and commercial breakthrough album, The Stranger, in 1977. This album became Columbia\'s best-selling release, selling over 10 million copies and spawning several hit singles, including "Just the Way You Are", "Movin\' Out (Anthony\'s Song)", "Only the Good Die Young", and "She\'s Always a Woman"; another song on this album, "Scenes from an Italian Restaurant", is Joel\'s favorite of his own songs and has become a staple of his live shows. Joel\'s next album, 52nd Street, was released in 1978 and became his first album to peak at No.1 on the Billboard 200 chart. Joel released his seventh studio album, Glass Houses, in 1980 in an attempt to further establish himself as a rock artist; this release featured "It\'s Still Rock and Roll to Me" (Joel\'s first single to top the Billboard Hot 100 chart), "You May Be Right", "Don\'t Ask Me Why", and "Sometimes a Fantasy". His next album, The Nylon Curtain, was released in 1982, and stemmed from a desire from Joel to create more lyrically and melodically ambitious music. An Innocent Man, released in 1983, served as an homage to genres of music which Joel had grown up with in the 1950s, such as rhythm and blues and doo-wop; this release featured "Uptown Girl" and "The Longest Time", two of his best-known songs. After releasing the albums The Bridge and Storm Front in 1986 and 1989 respectively, Joel released his twelfth studio album, River of Dreams, in 1993. He went on to release Fantasies and Delusions, a 2001 album featuring classical compositions composed by Joel and performed by British-Korean pianist Richard Hyung-ki Joo. Joel provided voiceover work in 1988 for the Disney animated film Oliver &amp; Company, in which he played the character Dodger with his song, "Why Should I Worry?", and contributed to the soundtracks to several different films, including Easy Money, Ruthless People, and Honeymoon in Vegas. Across the 20 years of his solo career, Joel produced 33 top 40 hits in the U.S., all of which he wrote himself, and three of which ("It\'s Still Rock and Roll to Me", "Tell Her About It", and "We Didn\'t Start the Fire") peaked at the top of the Billboard Hot 100 charts. Joel has been nominated for 23 Grammy Awards, winning five of them, including Album of the Year for 52nd Street. Joel was inducted into the Songwriters Hall of Fame (1992), the Rock and Roll Hall of Fame (1999), and the Long Island Music Hall of Fame (2006). In 2001, Joel received the Johnny Mercer Award from the Songwriters Hall of Fame. In 2013, Joel received the Kennedy Center Honors for influencing American culture through the arts. Since the advent of his solo career, Joel has held a successful touring career, holding live performances across the globe in which he sings several of his written songs. In 1987, he became one of the first artists to hold a rock tour in the Soviet Union following the country\'s alleviation of the ban on rock music. Despite largely retiring from writing and releasing pop music following the release of River of Dreams, he continues to tour; he frequently performs at Madison Square Garden.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Steve_Edwards_(singer)', 'artist_name': 'Steve Edwards', 'wiki': 'http://en.wikipedia.org/wiki/Steve_Edwards_(singer)', 'start_year': '1993', 'abstract': 'Stephen Neil Edwards, better known by his stage name Steve Edwards, is an English house music singer and songwriter from Sheffield, England. He has collaborated with several house music producers.'}</t>
-  </si>
-  <si>
-    <t>{'artist': "http://dbpedia.org/resource/Rag'n'Bone_Man", 'artist_name': "Rag'n'Bone Man", 'wiki': "http://en.wikipedia.org/wiki/Rag'n'Bone_Man", 'abstract': 'Rory Charles Graham (born 29 January 1985), better known as Rag\'n\'Bone Man, is an English singer and songwriter. He is known for his deep baritone voice. His first hit single, "Human", was released in 2016, and his debut album of the same name was released in 2017. At the 2017 Brit Awards, he was named British Breakthrough Act and received the Critics\' Choice Award.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Kool_Moe_Dee', 'artist_name': 'Kool Moe Dee', 'wiki': 'http://en.wikipedia.org/wiki/Kool_Moe_Dee', 'birth_date': '08 August 1962', 'start_year': '1978', 'abstract': 'Mohandas Dewese (born August 8, 1962), better known by his stage name Kool Moe Dee, is an American rapper, writer and actor. Considered one of the forerunners of the new jack swing sound in hip hop, he gained fame in the 1980s as a member of one of the pioneering groups in hip hop music, the Treacherous Three, and for his later solo career. During his career he released a total of seven studio albums (five of them solo), with 1994\'s Interlude being the last to date. His fast and aggressive rap style influenced following rap figures such as Big Daddy Kane, Beastie Boys, KRS-One, Rakim, Will Smith, N.W.A, Tupac Shakur, Nas, Jay-Z, among others. Among his most famous songs are "Go See the Doctor", "Wild Wild West" and "How Ya Like Me Now". Kool Moe Dee was ranked No. 33 on About.com\'s list of the 50 Greatest MCs of Our Time (1987–2007).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fergie_(DJ)', 'artist_name': 'Fergie', 'wiki': 'http://en.wikipedia.org/wiki/Fergie_(DJ)', 'hometown': 'http://dbpedia.org/resource/Larne', 'birth_date': '16 November 1979', 'start_year': '1993', 'abstract': 'Robert Ferguson (born 16 November 1979), known professionally as Fergie, is a Northern Irish DJ and electronic music artist from Larne. He has been an internationally touring DJ and a music producer for over 20 years. He presented a radio show on BBC Radio 1 for over four years while recording 13 Essential Mixes for the station. He was featured in the DJ Mag Top 100 DJs poll seven years in a row and currently holds the record for the highest new entry since the poll began, achieved when he was voted 8th in 2000. Fergie played his first DJ set at the age of 14, standing on an upturned milk crate. He met Tony De Vit who invited him to England and would become Fergie\'s mentor. His career escalated in the 1990s when he played mainly hard house in his DJ sets at club nights such as Trade, Godskitchen, Sundissential, Golden, and Passion (where he had DJ residencies). He achieved UK Singles Chart success in the early 2000s with releases such as his remix of "Meet Her at the Love Parade". Throughout the 2000s his DJ sets became more house and techno orientated. He DJed in Ibiza every summer at nightclubs such as Amnesia, Privilege and Space. He released multiple DJ mixes including two via the Ministry of Sound record label and magazine covermounted CDs for Mixmag and DJ Mag. He also wrote a regular column for Mixmag. He founded the Excentric Muzik record label in 2007. He has released his debut artist album "Dynamite &amp; Laserbeams" on the label in 2010. He currently resides in Las Vegas and has been a resident DJ at the Hakkasan Nightclub at the MGM Grand and at the Omnia nightclub of Caesars Palace since they both opened. He also has a DJ residency in Las Vegas at Wet Republic. He is working under the name Fergie (DJ).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Mýa', 'artist_name': 'Mýa', 'wiki': 'http://en.wikipedia.org/wiki/Mýa', 'birth_date': '10 October 1979', 'start_year': '1996', 'abstract': 'Mýa Marie Harrison (/ˈmaɪə/; born October 10, 1979) is an American singer, songwriter, dancer, and actress. Born into a musical family, before entering the music industry she appeared on BET\'s Teen Summit. Signed in 1996 to Interscope Records, she released her eponymous debut album in April 1998. A critical and commercial success, the album produced her first top ten single "It\'s All About Me". Subsequent singles, "Ghetto Supastar (That Is What You Are)" and "Take Me There", continued to raise her profile and attained chart success worldwide, with the former garnering her first Grammy nomination. Fear of Flying, her second album, was released in April 2000 and became a worldwide success, boosted by the success of its singles "Case of the Ex" and "Free". Harrison continued her rise to prominence in 2002 when she won her first Grammy Award in the category for Best Pop Collaboration with Vocals for her rendition of Labelle\'s 1975 hit "Lady Marmalade" along with Pink, Christina Aguilera and Lil\' Kim, which topped the charts globally. Taking a more active role in the production of her music, Harrison released her third studio album, the eccentric Moodring, in July 2003. The album produced the single "My Love Is Like...Wo" and was certified gold by the RIAA. Following a label change and a delay in her fourth studio album, Harrison went independent and recorded two exclusive albums for the Japanese music market, Sugar &amp; Spice (2008) and K.I.S.S. (Keep It Sexy &amp; Simple) (2011). In between recording those two albums, she launched her own independent record label Planet 9 and competed in Dancing with the Stars – season nine; finishing in second place. As an independent artist, Harrison continues to regularly release music. Beginning in 2014, she released a trio of R&amp;B-rooted EPs, With Love (2014), Sweet XVI (2014), and Love Elevation Suite (2015). In 2016, Harrison released her seventh album, the Grammy-nominated Smoove Jones. The follow-up, TKO (The Knock Out), arrived in April 2018 to commemorate the twentieth anniversary of her debut album. In addition to a music career, Harrison crossed over into acting and made her feature-film debut in 1999\'s thriller In Too Deep starring LL Cool J and Omar Epps. She continued to appear in supporting roles in films such as Chicago (2002), Dirty Dancing: Havana Nights (2004), Shall We Dance? (2004), and Cursed (2005). Harrison\'s contribution to music has earned her many accolades in the fields of pop and R&amp;B music categories. In 2009, Billboard listed Mýa as one of their Hot 100 Artists of the 2000s; placing her in the 97th position. As of October 2020, she has sold over 3.2 million albums in the U.S. and 7 million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fun_(band)', 'artist_name': 'Fun.', 'wiki': 'http://en.wikipedia.org/wiki/Fun_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2008', 'end_year': '2015', 'abstract': 'Fun (stylized fun.) is an American pop rock band based in New York City. The band was formed by Nate Ruess (then-former lead singer of the Format), Andrew Dost (formerly of Anathallo), and Jack Antonoff (of Steel Train and Bleachers). Fun has released two albums: Aim and Ignite in August 2009 and Some Nights in February 2012. The band is best known for three hit singles from Some Nights: Grammy Award-winning "We Are Young" featuring Janelle Monáe, "Some Nights", and "Carry On". "We Are Young" reached number one on the U.S. Billboard Hot 100 and Digital Songs charts. It also peaked at number one in the United Kingdom. "Some Nights" was released as the album\'s second single in June 2012, peaking at number three on the Hot 100 chart and becoming Fun\'s second Top 10 single, as well as the band\'s second song to reach platinum status in the United States. In 2013, "We Are Young" won the Grammy award for Song of the Year and the band won Best New Artist. Additionally, Fun was a nominee for four other Grammy Awards: Record of the Year and Best Pop Duo or Group Performance (both for "We Are Young") along with Album of the Year and Best Pop Vocal Album (both for Some Nights).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Spacehog', 'artist_name': 'Spacehog', 'wiki': 'http://en.wikipedia.org/wiki/Spacehog', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1994', 'end_year': '2002', 'abstract': 'Spacehog are an English rock band formed in 1994 in New York City. Their music is heavily influenced by David Bowie, Queen, and T. Rex. The band\'s best known single is "In the Meantime".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/NewDad', 'artist_name': 'NewDad', 'wiki': 'http://en.wikipedia.org/wiki/NewDad', 'hometown': 'http://dbpedia.org/resource/Republic_of_Ireland', 'start_year': '2020', 'abstract': 'NewDad are an Irish Indie rock band from Galway, Ireland. Their music has been compared to The Cure, Beabadoobee, and Just Mustard by NME magazine. Atwood Magazine wrote of the group: "The band oozes personality with cynical but honest lyrics, colorful visual components, and poignant messages about coping with the, albeit painful, formative experiences." The group have appeared at the Green Man Festival in Wales, The Pitchfork Music Festival in Paris, and on the Irish televesion program Other Voices.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Skid_Row_(Irish_band)', 'artist_name': 'Skid Row', 'wiki': 'http://en.wikipedia.org/wiki/Skid_Row_(Irish_band)', 'hometown': 'http://dbpedia.org/resource/Dublin', 'start_year': '1967', 'end_year': '1972', 'abstract': 'Skid Row were an Irish blues rock band of the late 1960s and early 1970s, based in Dublin and fronted by bass guitarist Brendan "Brush" Shiels. It was the first band in which future Thin Lizzy members Phil Lynott and Gary Moore played professionally.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Gwen_Stefani', 'artist_name': 'Gwen Stefani', 'wiki': 'http://en.wikipedia.org/wiki/Gwen_Stefani', 'birth_date': '03 October 1969', 'start_year': '1986', 'abstract': 'Gwen Renée Stefani (/stəˈfɑːni/; born October 3, 1969) is an American singer and songwriter. She is a co-founder, lead vocalist, and the primary songwriter of the band No Doubt, whose singles include "Just a Girl", "Spiderwebs", and "Don\'t Speak", from their 1995 breakthrough studio album Tragic Kingdom, as well as "Hey Baby" and "It\'s My Life" from later albums. During the band\'s hiatus, Stefani embarked on a solo pop career in 2004 by releasing her debut studio album Love. Angel. Music. Baby. Inspired by pop music from the 1980s, the album was a critical and commercial success. It spawned six singles, including "What You Waiting For?", "Rich Girl", "Hollaback Girl", and "Cool". "Hollaback Girl" reached number one on the Billboard Hot 100 chart while also becoming the first US download to sell one million copies. In 2006, Stefani released her second studio album, The Sweet Escape. Among the singles were "Wind It Up" and "The Sweet Escape", the latter of which was number three on the Billboard Hot 100 year-end chart of 2007. Her third solo album, This Is What the Truth Feels Like (2016), was her first solo album to reach number one on the Billboard 200 chart. Her fourth solo album and first full-length Christmas-themed album, You Make It Feel Like Christmas, was released in 2017 and charted 19 tracks on Billboard\'s Holiday Digital Song Sales component chart in the United States. Stefani has released several singles with Blake Shelton, including "Nobody but You" (2020), which reached number 18 in the US. Stefani has won three Grammy Awards. As a solo artist, she has received an American Music Award, Brit Award, World Music Award, and two Billboard Music Awards. In 2003, she debuted her clothing line L.A.M.B. and expanded her collection with the 2005 Harajuku Lovers line, inspired by Japanese culture and fashion. Billboard magazine ranked Stefani the 54th most successful artist and 37th most successful Hot 100 artist of the 2000–2009 decade. VH1 ranked her 13th on their "100 Greatest Women in Music" list in 2012. Including her work with No Doubt, Stefani has sold more than 30 million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Sabrina_(Filipino_singer)', 'artist_name': 'Sabrina', 'wiki': 'http://en.wikipedia.org/wiki/Sabrina_(Filipino_singer)', 'birth_date': '30 December 1989', 'start_year': '2006', 'abstract': 'Roli Alexandra Xanxan Orial (born 30 December 1989), also known by her stage name Sabrina Orial or simply Sabrina and Sabrinatics, is a Filipina recording artist and acoustic singer of cover versions.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Bronski_Beat', 'artist_name': 'Bronski Beat', 'wiki': 'http://en.wikipedia.org/wiki/Bronski_Beat', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1983', 'end_year': '1995', 'abstract': 'Bronski Beat were a British synthpop trio which achieved success in the mid-1980s, particularly with the 1984 chart hit "Smalltown Boy", from their debut album The Age of Consent. "Smalltown Boy" was their only US Billboard Hot 100 single. All members of the band were openly gay and their songs reflected this, often containing political commentary on gay-related issues. The initial line-up, which recorded the majority of the band\'s hits, consisted of Jimmy Somerville (vocals), Steve Bronski (born Steven William Forrest, keyboards, percussion) and Larry Steinbachek (keyboards, percussion). Somerville left Bronski Beat in 1985, and went on to have success as lead singer of the Communards and as a solo artist. He was replaced by vocalist John Foster, with whom the band continued to have hits in the UK and Europe through 1986. Foster left Bronski Beat after their second album, and the band used a series of vocalists before dissolving in 1995. Steve Bronski revived the band in 2016, recording new material with 1990s member Ian Donaldson. Steinbachek died later that year.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Akon', 'artist_name': 'Akon', 'wiki': 'http://en.wikipedia.org/wiki/Akon', 'birth_date': '16 April 1973', 'start_year': '1996', 'abstract': 'Aliaune Damala Badara Akon Thiam (/ˈeɪkɒn/; born April 16, 1973), also known mononymously as Akon, is a Senegalese-American singer, songwriter, record producer, and entrepreneur from New Jersey. He rose to prominence in 2004 following the release of "Locked Up" (featuring Styles P), the first single from his debut album Trouble (2004), followed by the second single "Lonely". His second album, Konvicted (2006), received three Grammy Award nominations for Best Contemporary R&amp;B Album, and for Best Rap/Sung Collaboration for "Smack That" (featuring Eminem) and "I Wanna Love You" (featuring Snoop Dogg). Both singles became Billboard Hot 100 top ten hits, followed up by "Don\'t Matter" and "Sorry, Blame It on Me". His third studio album Freedom (2008) was led by the single "Right Now (Na Na Na)". Akon often provides vocals as a featured artist and is currently credited with over 300 guest appearances and more than 35 Billboard Hot 100 songs, resulting in five Grammy Award nominations. He is the first solo artist to hold both the number one and two spots simultaneously on the Billboard Hot 100 charts twice. Akon has had four songs certified as 3× platinum, three songs certified as 2× platinum, more than ten songs certified as 1× platinum and more than ten songs certified as gold by the RIAA. He was listed by Guinness World Records as the number-one selling artist for master ringtones in the world. Along with his own musical career, Akon later founded two successful record labels, Konvict Muzik and KonLive Distribution. The labels cultivated a multitude of successful acts, such as Lady Gaga, T-Pain, R. City, Kardinal Offishall, Jeffree Star, and Red Café, among others. Akon sports a concurrent career in producing and songwriting records mainly for artists on his respective labels, as well as for other mainstream artists including Michael Jackson, Snoop Dogg, Lionel Richie, Leona Lewis, Sean Paul, and Whitney Houston. Forbes ranked Akon 80th (Power Rank) in the Forbes Celebrity 100 in 2010 and 5th in the 40 Most Powerful Celebrities in Africa list, in 2011. Billboard ranked Akon No. 6 on the list of Top Digital Songs Artists of the decade.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Joss_Stone', 'artist_name': 'Joss Stone', 'wiki': 'http://en.wikipedia.org/wiki/Joss_Stone', 'birth_date': '11 April 1987', 'start_year': '2001', 'abstract': 'Joscelyn Eve Stoker (born 11 April 1987), known professionally as Joss Stone, is a British singer and actress. She rose to fame in late 2003 with her multi-platinum debut album, The Soul Sessions, which made the 2004 Mercury Prize shortlist. Her second album, the similarly multi-platinum Mind Body &amp; Soul (2004), topped the UK Albums Chart and spawned the top ten hit "You Had Me", Stone\'s most successful single on the UK Singles Chart to date. Both the album and single received one nomination at the 2005 Grammy Awards, while Stone herself was nominated for Best New Artist, and in an annual BBC poll of music critics, Sound of 2004, was ranked fifth as a predicted breakthrough act of 2004. She became the youngest British female singer to top the UK Albums Chart. Stone\'s third album, Introducing Joss Stone, released in March 2007, achieved gold record status by the RIAA and yielded the second-ever highest debut for a British female solo artist on the Billboard 200, and became Stone\'s first top five album in the US. She released her fourth album, Colour Me Free!, in 2009, which reached the top 10 on Billboard. Stone released her fifth album, LP1, in 2011, which reached the top 10 on Billboard. Throughout her career, Stone has sold 15 million records worldwide, establishing herself as one of the best-selling soul artists of the 2000s, and the best-selling British artists of her time. Her first three albums have sold over 2,722,000 copies in the US, while her first two albums have sold over 2 million copies in the UK. Stone has earned several awards including two Brit Awards and one Grammy Award out of five nominations. She made her film acting debut in 2006 with the fantasy adventure film Eragon, and made her television debut portraying Anne of Cleves in the Showtime series The Tudors in 2009. Stone was the youngest woman on the 2006 Sunday Times Rich List—an annual list of the UK\'s wealthiest people—with £6 million. In 2012, her net worth was estimated to be £10 million, making her the fifth richest British musician under 30. The Soul Sessions Vol. 2 (2012) is her fourth consecutive album to reach the top 10 on the Billboard 200, with Australian producer Cam Noble.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Psy', 'artist_name': 'Psy', 'wiki': 'http://en.wikipedia.org/wiki/Psy', 'birth_date': '31 December 1977', 'start_year': '2001', 'abstract': 'Park Jae-sang (Korean: 박재상; Hanja: 朴載相, IPA: [pɐk̚.t͡ɕεsɐŋ]; born December 31, 1977), known professionally as Psy (stylized in all caps as PSY) (싸이; /saɪ/ SY; Korean: [s͈ai]), is a South Korean singer, rapper, songwriter, and record producer. Psy is known domestically for his humorous videos and stage performances, and internationally for his hit single "Gangnam Style". The song\'s refrain was entered into The Yale Book of Quotations as one of the most famous quotations of 2012. On October 23, 2012, Psy met United Nations Secretary-General Ban Ki-moon at the UN Headquarters where Ban expressed his desire to work with the singer because of his "unlimited global reach". On December 21, 2012, his music video for "Gangnam Style" exceeded one billion views on YouTube, becoming the first video to do so in the website\'s history. Psy was subsequently recognized by the media as the King of YouTube. On May 31, 2014, the video for Psy\'s "Gangnam Style" hit two billion views. As of March 2021, it is the eighth most viewed video on YouTube, with over 4 billion views. In December 2012, MTV noted Psy\'s rise from being little known outside South Korea, to being hailed as the "Viral Star of 2012". On December 31, 2012, Psy performed in a globally televised New Year\'s Eve celebration with American rapper MC Hammer on-stage in front of a live audience of over a million people in Times Square, New York City. Following his departure from YG Entertainment in 2018, he founded his own company, P Nation, in 2019.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_J._Geils_Band', 'artist_name': 'The J. Geils Band', 'wiki': 'http://en.wikipedia.org/wiki/The_J._Geils_Band', 'hometown': 'http://dbpedia.org/resource/Worcester,_Massachusetts', 'start_year': '1968', 'end_year': '1985', 'abstract': 'The J. Geils Band /ˌdʒeɪ ˈɡaɪlz/ was an American rock band formed in 1967, in Worcester, Massachusetts, under the leadership of guitarist John "J." Geils. The original band members included vocalist Peter Wolf, harmonica and saxophone player Richard "Magic Dick" Salwitz, drummer Stephen Bladd, vocalist/keyboardist Seth Justman, and bassist Danny Klein. Wolf and Justman served as principal songwriters. The band played R&amp;B-influenced blues rock during the 1970s and soon achieved commercial success before moving towards a more mainstream radio-friendly sound in the early 1980s, which brought the band to its commercial peak. They performed a mix of cover songs of classic blues and R&amp;B songs, along with original compositions written by primarily by Wolf and Justman, as well as some group compositions written under the pseudonymous name Juke Joint Jimmy, representing compositions credited to the entire band as a whole. After Wolf left the band in 1983 to pursue a solo career, the band released one more album in 1984 with Justman on lead vocals, before breaking up in 1985. Beginning in 1999, the band had several reunions prior to the death of its namesake, J. Geils, on April 11, 2017. The band first released several Top 40 singles in the early 1970s, including a cover of the song "Lookin\' for a Love" by The Valentinos (which reached No. 39 on the Billboard Hot 100 in 1972), as well as the single "Give It to Me" (No. 30 in 1973). Their biggest hits included "Must of Got Lost" (No. 12 in 1975), "Come Back" (No. 32 in 1980), "Love Stinks" (which reached No. 38 in 1980 and was featured in several films), "Centerfold" (No. 1 in 1982), and "Freeze-Frame" (No. 4 in 1982).'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Linkin_Park', 'artist_name': 'Linkin Park', 'wiki': 'http://en.wikipedia.org/wiki/Linkin_Park', 'abstract': 'Linkin Park is an American rock band from Agoura Hills, California. The band\'s current lineup comprises vocalist/rhythm guitarist/keyboardist Mike Shinoda, lead guitarist Brad Delson, bassist Dave Farrell, DJ/turntablist Joe Hahn and drummer Rob Bourdon, all of whom are founding members. Vocalists Mark Wakefield and Chester Bennington are former members of the band. Categorized as alternative rock, Linkin Park\'s earlier music spanned a fusion of heavy metal and hip hop, while their later music features more electronica and pop elements. Formed in 1996, Linkin Park rose to international fame with their debut studio album, Hybrid Theory (2000), which became certified Diamond by the Recording Industry Association of America (RIAA). Released during the peak of the nu metal scene, the album\'s singles\' heavy airplay on MTV led the singles "One Step Closer", "Crawling" and "In the End" all to chart highly on the Mainstream Rock chart; the latter crossed over to the pop chart. Their second album, Meteora (2003), continued the band\'s success. The band explored experimental sounds on their third album, Minutes to Midnight (2007). By the end of the decade, Linkin Park was among the most successful and popular rock acts. The band continued to explore a wider variation of musical types on their fourth album, A Thousand Suns (2010), layering their music with more electronic sounds. The band\'s fifth album, Living Things (2012), combined musical elements from all of their previous records. Their sixth album, The Hunting Party (2014), returned to a heavier rock sound, and their seventh album, One More Light (2017), was their first pop-oriented record. Linkin Park went on a hiatus when longtime lead vocalist Bennington died by suicide in July 2017. In April 2020, bassist Dave Farrell revealed the band was working on new music. Linkin Park is among the best-selling bands of the 21st century and the world\'s best-selling music artists, having sold over 100 million records worldwide. They have won two Grammy Awards, six American Music Awards, two Billboard Music Awards, four MTV Video Music Awards, 10 MTV Europe Music Awards and three World Music Awards. In 2003, MTV2 named Linkin Park the sixth-greatest band of the music video era and the third-best of the new millennium. Billboard ranked Linkin Park No. 19 on the Best Artists of the Decade list. In 2012, the band was voted as the greatest artist of the 2000s in a Bracket Madness poll on VH1. In 2014, the band was declared as "The Biggest Rock Band in the World Right Now" by Kerrang!.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Coldplay', 'artist_name': 'Coldplay', 'wiki': 'http://en.wikipedia.org/wiki/Coldplay', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1996', 'abstract': 'Coldplay are a British rock band formed in London in 1996. The band consists of vocalist, rhythm guitarist, and pianist Chris Martin; lead guitarist Jonny Buckland; bassist Guy Berryman; drummer Will Champion; and creative director Phil Harvey. They met at University College London and began playing music together from 1996 to 1998, first calling themselves Pectoralz and then Starfish. Coldplay released two EPs, Safety in 1998 and The Blue Room in 1999. The latter was their first release under a major record label, Parlophone. Coldplay achieved worldwide fame with the release of the song "Yellow" in 2000, followed in the same year by their debut album Parachutes, which was nominated for the Mercury Prize. The band\'s second album, A Rush of Blood to the Head (2002), was released to critical acclaim. Their next record, X&amp;Y, was the best-selling album worldwide of 2005; the Brian Eno-produced fourth studio album, Viva la Vida or Death and All His Friends (2008), was the best-selling album of that year and earned the band three Grammy Awards. In 2011, Coldplay released their fifth studio album, Mylo Xyloto, which topped the charts in over 34 countries and was the UK\'s best-selling rock album of 2011. The band have since released Ghost Stories (2014), A Head Full of Dreams (2015), Everyday Life (2019) and Music of the Spheres (2021). Coldplay have sold more than 100 million albums worldwide, making them one of the world\'s best-selling music artists. They have won numerous awards throughout their career, including nine Brit Awards, seven MTV Video Music Awards, eight MTV Europe Music Awards and seven Grammy Awards from 36 nominations. The band\'s first three albums — Parachutes (2000), A Rush of Blood to the Head (2002), and X&amp;Y (2005) — are among the best-selling albums in UK chart history. In December 2009, Rolling Stone readers voted the group the fourth-best artist of the 2000s and Q magazine included the group in their Artists of the Century list. Coldplay have supported various social and political causes, such as Oxfam\'s Make Trade Fair campaign and Amnesty International. They have also performed at charity projects, including Band Aid 20, Live 8, Global Citizen Festival, Sound Relief, Hope for Haiti Now: A Global Benefit for Earthquake Relief, One Love Manchester, The Secret Policeman\'s Ball, Sport Relief and the UK Teenage Cancer Trust.'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Len_(band)', 'artist_name': 'Len', 'wiki': 'http://en.wikipedia.org/wiki/Len_(band)', 'hometown': 'http://dbpedia.org/resource/Ontario', 'start_year': '1991', 'end_year': '2005', 'abstract': 'Len is a Canadian alternative rock duo based in Toronto, Ontario. The band consists of siblings Marc Costanzo (vocals, guitar) and Sharon Costanzo (vocals, bass) and a revolving lineup of touring and studio musicians.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Sugar_Ray', 'artist_name': 'Sugar Ray', 'wiki': 'http://en.wikipedia.org/wiki/Sugar_Ray', 'hometown': 'http://dbpedia.org/resource/Newport_Beach,_California', 'start_year': '1986', 'abstract': 'Sugar Ray is an American rock band formed in Newport Beach, California, in 1986. Originally playing heavier nu metal style music, the band achieved mainstream popularity in 1997 with their more pop-influenced single "Fly". The song\'s success led the band to shift its style dramatically to the more radio-friendly pop sound with their subsequent releases. Their best-selling album, 14:59, was released in 1999, and featured popular singles "Every Morning", "Someday", followed by a self-titled album in 2001 featuring the single "When It\'s Over". The band would release two further albums, In the Pursuit of Leisure (2003) and Music for Cougars (2009), though the albums and respective singles generally sold far less. The band continued to tour into the 2010s. In 2019, ten years after the band\'s last album, they announced their seventh studio album, Little Yachty, in June 2019. The lead single, "Make It Easy", was released the same month.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Real_Life_(band)', 'artist_name': 'Real Life', 'wiki': 'http://en.wikipedia.org/wiki/Real_Life_(band)', 'hometown': 'http://dbpedia.org/resource/Australia', 'start_year': '1980', 'abstract': 'Real Life are an Australian new wave and synth-pop band that achieved international chart success with their 1983 singles "Send Me an Angel" and "Catch Me I\'m Falling", both of which were taken from their debut album, Heartland. The band originally consisted of David Sterry (lead vocals and guitar), Richard Zatorski (keyboards and violin), Allan Johnson (bass), and Danny Simcic (drums). Steve Williams (keyboards) replaced Zatorski in 1986, and was replaced by George Pappas in 1995 after a long hiatus of band activity.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Naked_Eyes', 'artist_name': 'Naked Eyes', 'wiki': 'http://en.wikipedia.org/wiki/Naked_Eyes', 'abstract': 'Naked Eyes are an English new wave band that rose to prominence in the early 1980s. The band had four US top 40 singles. The group\'s first hit, "Always Something There to Remind Me", was a cover of the Burt Bacharach/Hal David standard. The band had subsequent hits with more of their own compositions, "Promises, Promises", "When the Lights Go Out", and "(What) In the Name of Love".'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Camouflage_(band)', 'artist_name': 'Camouflage', 'wiki': 'http://en.wikipedia.org/wiki/Camouflage_(band)', 'hometown': 'http://dbpedia.org/resource/Bietigheim-Bissingen', 'start_year': '1983', 'abstract': 'Camouflage is a German synth-pop trio consisting of lead singer (b. May 2, 1966), Heiko Maile and . Their only Billboard Hot 100 hit was "The Great Commandment", which reached No. 59 in 1988, and spent three weeks at No. 1 on the Dance Club Songs chart. They also had two additional minor dance hits in 1989.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/L.V._(singer)', 'artist_name': 'L.V.', 'wiki': 'http://en.wikipedia.org/wiki/L.V._(singer)', 'hometown': 'http://dbpedia.org/resource/California', 'birth_date': '21 November 1957', 'start_year': '1991', 'abstract': 'Larry Sanders (born November 21, 1957), better known by his stage name L.V. (which stands for "Large Variety"), is an American R&amp;B singer. He is best known for his collaboration with rapper Coolio on the single "Gangsta\'s Paradise" and has been featured on multiple soundtracks since then. Having released five solo albums to date, he was also a member of the gangsta rap group South Central Cartel since their beginning, usually singing the vocals and chorus.'}</t>
   </si>
   <si>
     <t>{'artist': 'http://dbpedia.org/resource/The_Hooters', 'artist_name': 'The Hooters', 'wiki': 'http://en.wikipedia.org/wiki/The_Hooters', 'hometown': 'http://dbpedia.org/resource/Philadelphia', 'start_year': '1980', 'abstract': 'The Hooters are an American rock band from Philadelphia, Pennsylvania, United States. They combine elements of rock, reggae, ska, and folk music to create their sound. The Hooters first gained major commercial success in the United States in the mid-1980s due to heavy radio airplay and MTV rotation of several songs including "All You Zombies", "Day by Day", "And We Danced" and "Where Do the Children Go". They opened the Philadelphia portion of the Live Aid benefit concert in 1985. In Europe, they had success with the singles "All You Zombies" and "Johnny B" but their breakthrough across Europe came with the single "Satellite". During the late 1980s and 1990s, The Hooters found significant commercial success internationally, especially in Europe, where they played at The Wall Concert in Berlin in 1990. The Hooters have staged successful tours in Europe and 2007 saw the release of their first album of new material since 1993, Time Stand Still. Their most recent release was Give the Music Back: Live Double Album, released in 2017.'}</t>
   </si>
   <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Knack', 'artist_name': 'The Knack', 'wiki': 'http://en.wikipedia.org/wiki/The_Knack', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1996', 'end_year': '2010', 'abstract': 'The Knack was an American rock band based in Los Angeles that rose to fame with its first single, "My Sharona", an international number-one hit in 1979.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/DNCE', 'artist_name': 'DNCE', 'wiki': 'http://en.wikipedia.org/wiki/DNCE', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2015', 'end_year': '2019', 'abstract': 'DNCE was an American dance-rock group. The group consists of vocalist Joe Jonas, drummer Jack Lawless, bassist and keyboardist Cole Whittle, and guitarist JinJoo Lee. The group signed with Republic Records, who released their debut single, "Cake by the Ocean", in September 2015. The song reached the top 10 on several charts, including on the US Billboard Hot 100, where it peaked at No. 9. Their debut extended play, Swaay, was released about a month later. Their self-titled debut studio album was released in November 2016. They were also nominated for Favorite New Artist for the 2016 Kids\' Choice Awards and Best Song to Lip Sync and Best Anthem for the 2016 Radio Disney Music Awards. The group performed at the 2017 Fashion Meets Music Festival. Following the reunion of the Jonas Brothers in 2019, the group has entered an indefinite hiatus.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/SALT_(quartet)', 'artist_name': 'SALT', 'wiki': 'http://en.wikipedia.org/wiki/SALT_(quartet)', 'hometown': 'http://dbpedia.org/resource/Huddinge_Municipality', 'start_year': '2000', 'abstract': 'SALT is a Swedish barbershop quartet that won the Sweet Adelines International competition Quartet Championship for 2007 in Las Vegas, Nevada in October 2006. Sweet Adelines, "one of the world\'s largest singing organizations for women", has members over five continents who belong to more than 1200 quartets. SALT\'s November 2008 feature performance in Anaheim, California was noted by the Vasa Order of America. At the time of winning the Sweet Adelines competition, SALT included tenor Anna Öhman, lead Annika Andersson; baritone Anna-Stina Gerdin, and bass Susanna Berndts. The quartet announced its retirement on Facebook in June 2012 "after singing together for 13 years".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Awolnation', 'artist_name': 'Awolnation', 'wiki': 'http://en.wikipedia.org/wiki/Awolnation', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '2009', 'abstract': 'Awolnation (stylized in all caps) is an American rock band, formed and fronted by Aaron Bruno, formerly of Under the Influence of Giants, Home Town Hero, and Insurgence. The band is signed to Better Noise Music, formerly being signed to Red Bull Records, and their first EP, Back from Earth, was released on iTunes on May 18, 2010. They released their first studio album, Megalithic Symphony, on March 15, 2011; it featured their most notable hit, "Sail", which peaked at number 17 on the Billboard Hot 100, number 4 on the Billboard Rock Songs chart, and number 5 on the Billboard Alternative Songs chart. The song has been certified 6× platinum by the RIAA and has sold 6,000,000 copies in the United States. As of February 29, 2016, the album has been certified platinum. The band\'s second studio album, Run, was released on March 17, 2015. The band\'s third studio album, Here Come the Runts, was released on February 2, 2018. Their fourth studio album, Angel Miners &amp; the Lightning Riders, was released on April 24, 2020.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Hayley_Williams', 'artist_name': 'Hayley Williams', 'wiki': 'http://en.wikipedia.org/wiki/Hayley_Williams', 'birth_date': '27 December 1988', 'start_year': '2003', 'abstract': 'Hayley Nichole Williams (born December 27, 1988) is an American singer, songwriter, musician, and businesswoman who is best known as the lead vocalist, primary songwriter, and keyboardist of the rock band Paramore. Born and raised in Mississippi, Williams moved to Franklin, Tennessee, at the age of 13 just after her parents divorced in 2002. In 2004, she formed Paramore alongside Josh Farro, Zac Farro, and Jeremy Davis. The band currently consists of Hayley Williams, Zac Farro and Taylor York. The band has released five studio albums: All We Know Is Falling (2005), Riot! (2007), Brand New Eyes (2009), Paramore (2013), and After Laughter (2017). Williams released her debut solo single, "Simmer", on January 22, 2020, and announced on the same day that her debut studio album, Petals for Armor, would be released on May 8, 2020. The album was preceded by two EPs entitled Petals for Armor I and II that make up the first two-thirds of the album. Her second solo record, Flowers for Vases / Descansos, was released less than a year later on February 5, 2021. Aside from Paramore and preceding her solo career, Williams recorded the song "Teenagers" for the soundtrack of Jennifer\'s Body (2009) and has collaborated with artists such as October Fall, The Chariot, Set Your Goals, Zedd and New Found Glory. In 2010, she was featured on the single "Airplanes" by B.o.B. It peaked at number two on the U.S. Billboard Hot 100. A sequel to the song, "Airplanes, Part II", features new verses from B.o.B. and a verse from Eminem, while Williams\' vocals remain the same. This collaboration led to a Grammy nomination for Best Pop Collaboration with Vocals. Other ventures in which Williams has explored include online beauty and music series Kiss-Off on Popular TV launched in 2015 and the hair-dye company Good Dye Young, launched in 2016.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Soundgarden', 'artist_name': 'Soundgarden', 'wiki': 'http://en.wikipedia.org/wiki/Soundgarden', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '1984', 'end_year': '1997', 'abstract': 'Soundgarden was an American rock band formed in Seattle, Washington, in 1984 by singer and rhythm guitarist Chris Cornell, lead guitarist Kim Thayil (both of whom are the only members to appear in every incarnation of the band), and bassist Hiro Yamamoto. Matt Cameron became the band\'s full-time drummer in 1986, while bassist Ben Shepherd became a permanent replacement for Yamamoto in 1990. The band dissolved in 1997 and re-formed in 2010. Following Cornell\'s death in 2017 and a year of uncertainty of the band\'s future, Thayil declared in October 2018 that the band was finished; they did, however, reunite in January 2019 for a one-off concert in tribute to Cornell. Soundgarden are associated with grunge, a style of alternative rock that developed in Seattle. After releasing two EPs on the Seattle-based label Sub-Pop in 1987 and 1988, their debut album, Ultramega OK was released on the California-based independent label SST Records in 1989. Although the album did not sell well nationally, it gained critical acclaim and was nominated for a Grammy award in 1990. They recorded their second album, Louder Than Love, independently but had signed with major label A&amp;M Records in the interim, and released the album as their major label debut. Unlike their debut, which had failed to chart, Louder Than Love peaked at number 108 on the Billboard 200 album chart. Released the same day as fellow Seattle grunge act Nirvana\'s album Nevermind, their third album Badmotorfinger would bring Soundgarden to national acclaim for the first time, buoyed by the popularity of the singles "Jesus Christ Pose", "Outshined", and "Rusty Cage", the album would reach number 39 on the Billboard 200 and has been certified double-platinum by the RIAA. Soundgarden was one of the seminal creators of grunge, a style of alternative rock that developed in Seattle, and was the first of a number of grunge bands to sign to the record label Sub Pop. Soundgarden was also one of the first grunge bands to sign to a major label (A&amp;M Records in 1989), though they did not achieve commercial success until they popularized the genre in the early 1990s with Seattle contemporaries Alice in Chains, Pearl Jam, and Nirvana. Soundgarden achieved its biggest success with the 1994 album Superunknown, which debuted at number one on the Billboard 200 and yielded the Grammy Award-winning singles "Spoonman" and "Black Hole Sun". In 1996, the band experimented with new sonic textures on their follow-up album Down on the Upside, which debuted at number 2 on the Billboard 200 and spawned several hit singles of its own, including "Burden in My Hand" and "Blow Up the Outside World". In 1997, the band broke up due to internal strife over its creative direction and exhaustion from touring. After more than a decade of working on projects and other bands, Soundgarden reunited in 2010, and Republic Records released their sixth and final studio album, King Animal, two years later. As of 2019, Soundgarden sold more than 14 million records in the United States, and an estimated 30 million worldwide. VH1 ranked Soundgarden at number 14 in their special 100 Greatest Artists of Hard Rock.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Scorpions_(band)', 'artist_name': 'Scorpions', 'wiki': 'http://en.wikipedia.org/wiki/Scorpions_(band)', 'hometown': 'http://dbpedia.org/resource/Hanover', 'start_year': '1965', 'abstract': 'Scorpions are a German rock band formed in 1965 in Hanover by Rudolf Schenker. Since the band\'s inception, its musical style has ranged from hard rock, heavy metal, glam metal, and soft rock. The lineup from 1978 to 1992 was the most successful incarnation of the group, and included Klaus Meine (vocals), Rudolf Schenker (rhythm guitar), Matthias Jabs (lead guitar), Francis Buchholz (bass), and Herman Rarebell (drums). The band\'s only continuous member has been Schenker, although Meine has appeared on all of Scorpions\' studio albums, while Jabs has been a consistent member since 1978, and bassist Paweł Mąciwoda and drummer Mikkey Dee have been in the band since 2003 and 2016 respectively. During the mid-1970s, with guitarist Uli Jon Roth (who replaced Schenker\'s younger brother Michael) part of the line-up, the music of the Scorpions was defined as hard rock. After Roth\'s departure in 1978, Schenker and Meine managed to take control of the group, giving them almost all the power to compose music and write lyrics. Matthias Jabs joined in 1978, and with the melodic rock he played and the influence of producer Dieter Dierks in the band, the Scorpions changed their sound to melodic heavy metal mixed with lyrical "power rock ballads", which is evident in the album Lovedrive (1979), which began the evolution of the band\'s sound, developed later in several of their albums. Over the next decade, the band achieved influence, approval from music critics, and significant commercial success with the albums Animal Magnetism (1980), Blackout (1982), Love at First Sting (1984), the live recording World Wide Live (1985), Savage Amusement (1988), their best-selling compilation Best of Rockers \'n\' Ballads (1989), and Crazy World (1990), all awarded at least one platinum award in the United States. The band has released twelve consecutive studio albums that were in the top 10 in Germany, one of which reached No. 1, as well as three consecutive albums that were in the top 10 in the Billboard 200 in the United States. Scorpions are estimated to have sold over 100 million records around the world, making them one of the best-selling hard rock and heavy metal bands. One of their most recognized hits is "Wind of Change" (from Crazy World), a symbolic anthem of the political changes in Eastern Europe in the late 1980s and early 1990s and the fall of the Berlin Wall, and it remains as one of the best-selling singles in the world with over 14 million copies. Two of the songs on their ninth studio album Love at First Sting, "Rock You Like a Hurricane" and "Still Loving You", are some of the most influential and popular works, both in heavy metal music and among rock ballads, defined as "rock anthem" and "a true hymn of love".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/A_(band)', 'artist_name': 'A', 'wiki': 'http://en.wikipedia.org/wiki/A_(band)', 'hometown': 'http://dbpedia.org/resource/Suffolk', 'start_year': '2008', 'abstract': 'A are a British alternative rock band from Suffolk, England, which formed in 1993. They have released four albums and two live mini-albums, and had a top ten hit with "Nothing" in 2002. Shortly after releasing their fourth album, Teen Dance Ordinance, in 2005, the band briefly split. In 2007 A reunited for a one-off gig, and have been touring sporadically ever since, most recently playing the main stage at Download Pilot on June 19th 2021. They have not released any further albums since 2005.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Caesars_(band)', 'artist_name': 'Caesars', 'wiki': 'http://en.wikipedia.org/wiki/Caesars_(band)', 'abstract': 'Caesars are a Swedish indie rock band from Stockholm, formed in 1995. In their native country, the band was originally known as Caesars Palace, a name which was changed to avoid conflicting with the name of the Las Vegas hotel. In the rest of Scandinavia they are known as Twelve Caesars.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fine_Young_Cannibals', 'artist_name': 'Fine Young Cannibals', 'wiki': 'http://en.wikipedia.org/wiki/Fine_Young_Cannibals', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'start_year': '1984', 'end_year': '1992', 'abstract': 'Fine Young Cannibals (FYC) were a British pop rock band formed in Birmingham, England, in 1984, by bassist David Steele, guitarist Andy Cox (both formerly of The Beat), and singer Roland Gift (formerly of the Akrylykz). Their self-titled 1985 debut album contained "Johnny Come Home" and a cover of "Suspicious Minds", two songs that were top 40 hits in the UK, Canada, Australia and many European countries. Their 1989 album, The Raw &amp; the Cooked, topped the UK and US album charts, and contained their two Billboard Hot 100 number ones: "She Drives Me Crazy" and "Good Thing". In 1990, the band won two Brit Awards: Best British Group, and Best British Album (for The Raw &amp; the Cooked). Their name came from the 1960 film All the Fine Young Cannibals starring Robert Wagner and Natalie Wood.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Wet_Wet_Wet', 'artist_name': 'Wet Wet Wet', 'wiki': 'http://en.wikipedia.org/wiki/Wet_Wet_Wet', 'hometown': 'http://dbpedia.org/resource/Clydebank', 'start_year': '1982', 'end_year': '1997', 'abstract': 'Wet Wet Wet are a Scottish soft rock band formed in 1982. They scored a number of hits in the UK charts and around the world in the 1980s and 1990s. The band is composed of Graeme Clark (bass, vocals), Tommy Cunningham (drums, vocals), Neil Mitchell (keyboards, piano, vocals) and, since 2018, lead vocalist and former Liberty X singer Kevin Simm, who replaced founding member Marti Pellow after he left during the previous year. A fifth, unofficial member, Graeme Duffin (lead guitar, vocals), has been with them since 1983. The band were named Best British Newcomer at the 1988 Brit Awards. They are best known for their 1994 cover of The Troggs\' 1960s hit "Love Is All Around", which was used on the soundtrack to the film Four Weddings and a Funeral. It was a huge international success and spent 15 weeks atop the British charts. One week before potentially equalling the record for the most consecutive weeks at number 1 on the UK singles chart, held by Bryan Adams\' "(Everything I Do) I Do It for You", it dropped to number two.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Elvis_Presley', 'artist_name': 'Elvis Presley', 'wiki': 'http://en.wikipedia.org/wiki/Elvis_Presley', 'birth_date': '08 January 1935', 'death_date': '16 August 1977', 'abstract': 'Elvis Aaron Presley (January 8, 1935 – August 16, 1977) was an American singer and actor. Dubbed the "King of Rock and Roll", he is regarded as one of the most significant cultural icons of the 20th century. His energized interpretations of songs and sexually provocative performance style, combined with a singularly potent mix of influences across color lines during a transformative era in race relations, led him to both great success and initial controversy. Presley was born in Tupelo, Mississippi, and relocated to Memphis, Tennessee, with his family when he was 13 years old. His music career began there in 1954, recording at Sun Records with producer Sam Phillips, who wanted to bring the sound of African-American music to a wider audience. Presley, on rhythm acoustic guitar, and accompanied by lead guitarist Scotty Moore and bassist Bill Black, was a pioneer of rockabilly, an uptempo, backbeat-driven fusion of country music and rhythm and blues. In 1955, drummer D. J. Fontana joined to complete the lineup of Presley\'s classic quartet and RCA Victor acquired his contract in a deal arranged by Colonel Tom Parker, who would manage him for more than two decades. Presley\'s first RCA Victor single, "Heartbreak Hotel", was released in January 1956 and became a number-one hit in the United States. Within a year, RCA would sell ten million Presley singles. With a series of successful network television appearances and chart-topping records, Presley became the leading figure of the newly popular sound of rock and roll. In November 1956, Presley made his film debut in Love Me Tender. Drafted into military service in 1958, Presley relaunched his recording career two years later with some of his most commercially successful work. He held few concerts, however, and guided by Parker, proceeded to devote much of the 1960s to making Hollywood films and soundtrack albums, most of them critically derided. In 1968, following a seven-year break from live performances, he returned to the stage in the acclaimed television comeback special Elvis, which led to an extended Las Vegas concert residency and a string of highly profitable tours. In 1973, Presley gave the first concert by a solo artist to be broadcast around the world, Aloha from Hawaii. Years of prescription drug abuse and unhealthy eating habits severely compromised his health, and he died suddenly in 1977 at his Graceland estate at the age of 42. Having sold over 500 million records worldwide, Presley is recognized as the best-selling solo music artist of all time by Guinness World Records. He was commercially successful in many genres, including pop, country, R&amp;B, adult contemporary, and gospel. Presley won three Grammy Awards, received the Grammy Lifetime Achievement Award at age 36, and has been inducted into multiple music halls of fame. He holds several records, including the most RIAA certified gold and platinum albums, the most albums charted on the Billboard 200, the most number-one albums by a solo artist on the UK Albums Chart, and the most number-one singles by any act on the UK Singles Chart. In 2018, Presley was posthumously awarded the Presidential Medal of Freedom by Donald Trump.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Duran_Duran', 'artist_name': 'Duran Duran', 'wiki': 'http://en.wikipedia.org/wiki/Duran_Duran', 'hometown': 'http://dbpedia.org/resource/Birmingham', 'start_year': '1978', 'abstract': 'Duran Duran (/djʊˌræn djʊˈræn/) are an English new wave band formed in Birmingham in 1978. The group was a leading band in the MTV-driven Second British Invasion of the US in the 1980s. The group was formed by keyboardist Nick Rhodes and bassist John Taylor, with the later addition of drummer Roger Taylor, and after numerous personnel changes, guitarist Andy Taylor (none of the Taylors are related) and lead singer Simon Le Bon. These five members featured in the most commercially successful line-up. When Duran Duran emerged they were generally considered part of the New Romantic scene, along with bands such as Spandau Ballet and Visage. The video age catapulted Duran Duran into the mainstream with the introduction of the 24-hour music channel MTV. Many of their videos were shot on 35 mm film, which gave a much more polished look than was standard at the time. They also collaborated with professional film directors to take the quality a step further, often teaming up with Australian director Russell Mulcahy for some of their most memorable video offerings. In 1984, the band was an early innovator with video technology in its live stadium shows. The band was one of the most successful acts of the 1980s, though by the end of the decade, membership and music style changes challenged the band before a resurgence in the early 1990s. After a couple of minor singles, the band\'s first major hit was "Girls on Film" (1981), from their self-titled debut album, the popularity of which was enhanced by a controversial music video, which in heavily edited form, played in rotation on MTV. The band\'s breakthrough album was Rio (1982), their second album, which peaked at number six on the Billboard 200 album chart in the US, number two in the United Kingdom, and number one in Australia and Canada. The songs "Rio" and "Hungry Like the Wolf", which featured cinematic music videos, became two of their biggest hits, with the latter winning the inaugural Grammy Award for Best Music Video in 1984. Their follow-up third album Seven and the Ragged Tiger became their only UK number one album; it also reached top ten status in the US, Canada, Australia, and several other countries, and featured the US and UK number one single "The Reflex". In 1985, the band topped the US charts with the single "A View to a Kill" from the soundtrack of the film of the same name. Andy Taylor and Roger Taylor both left before the recording of the band\'s fourth album, 1986\'s Notorious, which was produced by Nile Rogers and featured the top ten single, also named "Notorious". The band spent the rest of the 1980s and early 1990s continuing to release albums and singles, to only moderate success. Their comeback album, 1993\'s Duran Duran (commonly called The Wedding Album) returned the band to their former superstar status, featuring two top-ten worldwide hits "Ordinary World" and "Come Undone". A 1995 album of cover songs, Thank You, produced a minor hit in the critically acclaimed cover of Lou Reed\'s "Perfect Day", but was otherwise critically panned. After John Taylor left in 1997, the band released a number of albums and singles which (compared to prior releases) underperformed on the sales charts. A full reunion of the original lineup of LeBon, Rhodes, and all three Taylors in 2001 led to a number of highly successful concert tours and the 2004 album Astronaut, which reached number 3 in the UK and top 40 in numerous other countries. The album\'s lead single "(Reach Up for The) Sunrise" was an international dance hit, and reached number five in the UK. Andy Taylor left again in 2006, and the band has released four additional albums, with the most recent being Future Past in October, 2021. Duran Duran has sold over 100 million records, making them one of the world\'s best-selling music artists. They achieved 30 top 40 singles in the U.K., 14 singles in the top 10 of the UK Singles Chart and 21 in the US Billboard Hot 100. The band have won numerous awards throughout their career: two Brit Awards including the 2004 award for Outstanding Contribution to Music, two Grammy Awards, an MTV Video Music Award for Lifetime Achievement, and a Video Visionary Award from the MTV Europe Music Awards. They were also awarded a star on the Hollywood Walk of Fame.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Iggy_Azalea', 'artist_name': 'Iggy Azalea', 'wiki': 'http://en.wikipedia.org/wiki/Iggy_Azalea', 'birth_date': '07 June 1990', 'start_year': '2011', 'abstract': 'Amethyst Amelia Kelly (born 7 June 1990), known professionally as Iggy Azalea (/əˈzeɪliə/), is an Australian rapper. At the age of 16, Azalea moved from Australia to the United States in order to pursue a career in music. Azalea earned public recognition after releasing the music videos for her songs "Pussy" and "Two Times" on YouTube, both of which gained rapid popularity. Azalea signed a recording contract with American rapper T.I.\'s label Grand Hustle shortly afterward and released her debut mixtape, Ignorant Art (2011). Azalea\'s debut studio album, The New Classic (2014), peaked among the top five on several charts worldwide, but received mixed reviews from within the industry. The album eventually topped the Billboard Top R&amp;B/Hip-Hop Albums, making Azalea the first non-American female rapper to reach the top of the chart. The New Classic was preceded by Azalea\'s debut single "Work" and chart-topping single "Fancy", which hit the U.S. Billboard Hot 100. Azalea was featured on Ariana Grande\'s single "Problem", which peaked at number two behind "Fancy". With these hits, Azalea joined the ranks of The Beatles as the only act to rank at number one and two simultaneously with their first two Hot 100 entries. In addition, she achieved three top ten hits simultaneously on the Hot 100 with the aforementioned songs and the album\'s fifth single, "Black Widow", which debuted later that year. After her debut album, Azalea released a slew of singles to build anticipation for her intended second album, Digital Distortion. However, a series of conflicts with her label, as well as personal conflicts, resulted in the project being cancelled. Consequently, Azalea switched labels, releasing the EP Survive the Summer (2018) under Island Records. Further disagreements led to Azalea becoming an independent artist and creating her own label, Bad Dreams, through a distribution deal with Empire. Her second album, In My Defense, was released in 2019, followed by another EP, Wicked Lips, that same year. Before taking a hiatus from music, Azalea released her third and final studio album, The End of an Era, in August 2021. Since her debut, Azalea has sold 70 million records worldwide, with 22 million singles in the United States alone. Azalea\'s accolades include two American Music Awards, three Billboard Music Awards, an MTV Video Music Award, a People\'s Choice Award, four Teen Choice Awards and four Grammy Award nominations. Azalea\'s official YouTube channel has accumulated 3.4 billion views, with 15 music videos receiving over 100 million views on Vevo.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Erasure', 'artist_name': 'Erasure', 'wiki': 'http://en.wikipedia.org/wiki/Erasure', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1985', 'abstract': 'Erasure (/əˈreɪʒər/) are an English synthpop duo formed in London in 1985, consisting of singer and songwriter Andy Bell with songwriter, producer and keyboardist Vince Clarke, previously known as co-founder of the band Depeche Mode. From their fourth single, "Sometimes" (1986), Erasure established themselves on the UK Singles Chart, becoming one of the most successful artists of the mid-1980s to the mid-1990s. From 1986 to 2007, the duo achieved 24 consecutive top 40 hits in the UK. By 2009, 34 of their 37 chart-eligible singles and EPs had made the UK top 40, including 17 climbing into the top 10. At the 1989 Brit Awards, Erasure won the Brit Award for Best British Group. Beyond this mainstream commercial success, Erasure are also popular within the LGBT community for whom the openly gay singer Andy Bell has become an icon in the UK. Although their debut album, Wonderland (1986) did not perform well, their second album, The Circus (1987), reached number 6 and spawned four top 20 singles on the UK charts. Their third album, The Innocents (1988) was rendered a number one and was followed the same year by the Christmas EP Crackers International (1988) peaking at number 2. It set the scene as the first in a string of albums to place in the top spot, with their next five consecutive longform releases reaching the pole position of the UK Albums Chart: the albums Wild! (1989) and Chorus (1991), the ABBA tribute EP Abba-esque (1992), the compilation Pop! The First 20 Hits (1992), then the album I Say I Say I Say (1994). Erasure\'s best-known songs are mainly from albums of this period and include the hits "Oh L\'amour", "Sometimes", "Victim of Love", "Ship of Fools", "Chains of Love", "A Little Respect", "Stop!", "Drama!", "Blue Savannah", "Star", "Chorus", "Love to Hate You", "Breath of Life", "Take a Chance on Me" (an ABBA cover), "Always" and "Run to the Sun". From 1995 onwards, Erasure\'s commercial success began to fade with the atmospheric self-titled album Erasure (1995) which, despite being a critical success, confused its audience. The mixed reception of the following album, Cowboy (1997), confirmed a decline in Erasure\'s popularity until the album Loveboat (2000), which went almost unnoticed. In the mid-2000s, however, the duo managed to make a commercial comeback in some European countries and in the United States, notably thanks to their cover album Other People\'s Songs (2003), followed by the album Nightbird (2005) which won back the fans. This return to favour gave the band their last two hit singles: "Solsbury Hill" (2003) (a Peter Gabriel song) and "Breathe" (2005). In the late 2000s, Erasure began a new commercial decline with the acoustic album Union Street (2006) followed by Light at the End of the World (2007). During the 2010s, the band\'s new albums briefly charted, with Tomorrow\'s World (2011), the Christmas album Snow Globe (2013), The Violet Flame (2014), World Be Gone (2017) and, finally, The Neon (2020). Despite the singles from this decade not managing to reach the charts, however, a solid international fanbase enables Erasure to maintain its activity through touring and online sales, not to mention the royalties attached to the catalogue of their past hits. Achieving mainstream success at home in the UK, Erasure also has a strong following abroad, especially in some European countries (mainly in Ireland, Germany, Austria, Denmark and Sweden) where the band enjoyed numerous hits. Surprisingly, Erasure has a broad audience in a few South American countries, especially in Argentina, Chile and Peru. In the US, Erasure had three hits: "Chains of Love" (1988) at number 12, their biggest chart placing ever in that country, "A Little Respect" (1988) at number 14, and "Always" (1994) at number 20. In Russia, as well as in the former Soviet bloc countries, Erasure is mostly known for the sole song "Love to Hate You" (1991). In France, "Oh L\'amour" (1986) was the only hit of the band, peaking at number 14 in the singles top 50 of that country, followed by "Sometimes" (1986) that underperformed at a low number 39 (in February 1987) and still remains to this day Erasure\'s last entry in the French singles chart. Overall in their career, Erasure have penned over 200 songs and have sold over 28 million albums worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Blind_Melon', 'artist_name': 'Blind Melon', 'wiki': 'http://en.wikipedia.org/wiki/Blind_Melon', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1990', 'end_year': '1999', 'abstract': 'Blind Melon is an American rock band formed in 1990 in Los Angeles, California, by five musicians: three from Mississippi, one from Pennsylvania and one from Indiana. The band currently consists of guitarists Rogers Stevens and Christopher Thorn, drummer Glen Graham, vocalist Travis Warren and bassist Nathan Towne. They are best known for their 1993 hit "No Rain", and enjoyed critical and commercial success in the early 1990s with their neo-psychedelic take on alternative rock. Blind Melon released two albums on Capitol Records – Blind Melon (1992) and Soup (1995) – before their original lead vocalist Shannon Hoon died of a drug overdose on the band\'s tour bus in New Orleans on October 21, 1995. After four years of unsuccessfully searching for a replacement for Hoon, Blind Melon officially dissolved in 1999. The remaining members reformed the band in 2006 with Warren and recorded one album with him, For My Friends (2008). Shortly after its release, Warren left Blind Melon but rejoined in 2010, when the band returned to performing occasional gigs. Blind Melon is currently working on their fourth studio album. Blind Melon has been nominated for four Grammy Awards.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Arctic_Monkeys', 'artist_name': 'Arctic Monkeys', 'wiki': 'http://en.wikipedia.org/wiki/Arctic_Monkeys', 'hometown': 'http://dbpedia.org/resource/Sheffield', 'start_year': '2002', 'abstract': 'Arctic Monkeys are an English rock band formed in Sheffield in 2002. The group consists of Alex Turner (lead vocals, guitar, keyboards), Jamie Cook (guitar, keyboards), Nick O\'Malley (bass guitar, backing vocals), and Matt Helders (drums, backing vocals). Former band member Andy Nicholson (bass guitar, backing vocals) left the band in 2006 shortly after their debut album was released. Arctic Monkeys were heralded as one of the first bands to come to public attention via the Internet, with commentators suggesting they represented the possibility of a change in the way in which new bands are promoted and marketed. Their debut album, Whatever People Say I Am, That\'s What I\'m Not (2006), became the fastest-selling debut album in UK chart history, and has been hailed as one of the greatest debut albums. It won Best British Album at the 2007 Brit Awards. The band\'s second album, Favourite Worst Nightmare (2007), was also acclaimed by critics and won Best British Album at the 2008 BRIT Awards. They went on to release Humbug (2009) and Suck It and See (2011). The band\'s global recognition increased with their critically acclaimed fifth album AM (2013), which was supported by the global hit "Do I Wanna Know?". It topped four Billboard charts and was certified platinum in the US. At the 2014 BRIT Awards, the album became their third to win British Album of the Year. Their sixth album, Tranquility Base Hotel &amp; Casino (2018), was a major departure from the band\'s previous guitar-heavy work, instead being piano-oriented. It received a Best Alternative Music Album nomination at the 2019 Grammy Awards, their second to do so after Whatever People Say I Am, That\'s What I\'m Not. As of 2021, Arctic Monkeys have sold over 20 million records worldwide. In the United Kingdom, the band became the first independent-label band to debut at number one in the UK with their first six albums. The band have won seven Brit Awards; winning Best British Group and British Album of the Year three times; a Mercury Prize for Whatever People Say I Am, That\'s What I\'m Not, an Ivor Novello Award, and 20 NME Awards. In addition, they have been nominated for five Grammy Awards, and received Mercury Prize nominations in 2007, 2013, and 2018. Both Whatever People Say I Am, That\'s What I\'m Not and AM are included in NME\'s and different editions of Rolling Stone\'s 500 Greatest Albums of All Time lists.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Katrina_and_the_Waves', 'artist_name': 'Katrina &amp; the Waves', 'wiki': 'http://en.wikipedia.org/wiki/Katrina_and_the_Waves', 'hometown': 'http://dbpedia.org/resource/Cambridgeshire', 'start_year': '1981', 'end_year': '1999', 'abstract': 'Katrina and the Waves were a British-American rock band best known for the 1985 hit "Walking on Sunshine". They also won the 1997 Eurovision Song Contest with the song "Love Shine a Light".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Mac_Miller', 'artist_name': 'Mac Miller', 'wiki': 'http://en.wikipedia.org/wiki/Mac_Miller', 'birth_date': '19 January 1992', 'death_date': '07 September 2018', 'start_year': '2007', 'end_year': '2018', 'abstract': "Malcolm James McCormick (January 19, 1992 – September 7, 2018), known professionally as Mac Miller, was an American rapper and record producer from Pittsburgh, Pennsylvania. Miller began his career in Pittsburgh's hip hop scene in 2007, at the age of fifteen. In 2010, he signed a record deal with independent label Rostrum Records and released his breakthrough mixtapes K.I.D.S. (2010) and Best Day Ever (2011). Miller's debut studio album, Blue Slide Park (2011), became the first independently distributed debut album to top the US Billboard 200 since 1995. In 2013, he founded the record label imprint REMember Music. After his second studio album, Watching Movies with the Sound Off (2013), he left Rostrum and signed with the major label Warner Bros. Records in 2014. With them, he released four studio albums: GO:OD AM (2015), The Divine Feminine (2016), Swimming (2018), and the posthumous Circles (2020). For Swimming, he was posthumously nominated for a Grammy Award for Best Rap Album. He also served as a record producer for various artists, including himself, under the pseudonym Larry Fisherman. Miller struggled with substance abuse, which was often referenced in his lyrics. On September 7, 2018, Miller died from an accidental drug overdose of cocaine, fentanyl, and alcohol at his home, aged 26."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Naked_Eyes', 'artist_name': 'Naked Eyes', 'wiki': 'http://en.wikipedia.org/wiki/Naked_Eyes', 'abstract': 'Naked Eyes are an English new wave band that rose to prominence in the early 1980s. The band had four US top 40 singles. The group\'s first hit, "Always Something There to Remind Me", was a cover of the Burt Bacharach/Hal David standard. The band had subsequent hits with more of their own compositions, "Promises, Promises", "When the Lights Go Out", and "(What) In the Name of Love".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Icona_Pop', 'artist_name': 'Icona Pop', 'wiki': 'http://en.wikipedia.org/wiki/Icona_Pop', 'hometown': 'http://dbpedia.org/resource/Stockholm', 'start_year': '2009', 'abstract': 'Icona Pop (English: /aɪˈkɒnə pɒp/) is a Swedish electropop duo that formed in 2009, with electro house and indie pop music influences. Its two members, Caroline Hjelt and Aino Jawo, grew up in Stockholm and create what the Swedish press has described as music which "you can both laugh and cry to at the same time". They signed to TEN Music Group in 2009 and are currently also in a label deal with Ultra Music. Their biggest hit to date has been "I Love It".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Yeah_Yeah_Yeahs', 'artist_name': 'Yeah Yeah Yeahs', 'wiki': 'http://en.wikipedia.org/wiki/Yeah_Yeah_Yeahs', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '2000', 'abstract': "The Yeah Yeah Yeahs are an American indie rock band formed in New York City in 2000. The group is composed of vocalist and pianist Karen O (born Karen Lee Orzolek), guitarist and keyboardist Nick Zinner, and drummer Brian Chase. They are complemented in live performances by second guitarist David Pajo (formerly of Slint and Tortoise), who joined as a touring member in 2009 and replaced Imaad Wasif, who had previously held the role. According to an interview that aired during ABC's Live from Central Park SummerStage series, the band's name was taken from modern New York City vernacular. The band has recorded four studio albums; the first, Fever to Tell, was released in 2003. The second, Show Your Bones, was released in 2006 and was named the second best album of the year by NME. Their third studio album, It's Blitz!, was released in March 2009. All three albums earned the band Grammy nominations for Best Alternative Music Album. Their fourth album, Mosquito, was released in April 2013."}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Buggles', 'artist_name': 'The Buggles', 'wiki': 'http://en.wikipedia.org/wiki/The_Buggles', 'hometown': 'http://dbpedia.org/resource/London', 'start_year': '1977', 'end_year': '1982', 'abstract': 'The Buggles were an English new wave band formed in London in 1977 by singer and bassist Trevor Horn and keyboardist Geoffrey Downes. They are best known for their 1979 debut single "Video Killed the Radio Star", which topped the UK Singles Chart and reached number one in 15 other countries. The duo released their first album, The Age of Plastic, in January 1980 with "Video Killed the Radio Star" as its lead single. Soon after the album\'s release, Horn and Downes joined the progressive rock band Yes, recording and releasing Drama in the process. Following a tour to promote the album, Yes disbanded in 1981. That same year, on 1 August, the music video for "Video Killed the Radio Star" became the first ever shown on MTV in the US. The following year, the Buggles released a second album, Adventures in Modern Recording. Its lack of commercial success led to the breakup of the group. Since 1998, Horn and Downes have occasionally performed the Buggles\' songs. In October 2011, the Buggles reunited to play at the British Music Experience at the O2 Arena in London. At the 2016 Progressive Music Awards, the Buggles won an "Outer Limit Award".'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Fifth_Harmony', 'artist_name': 'Fifth Harmony', 'wiki': 'http://en.wikipedia.org/wiki/Fifth_Harmony', 'hometown': 'http://dbpedia.org/resource/Miami', 'start_year': '2012', 'end_year': '2018', 'abstract': 'Fifth Harmony, often shortened to 5H, is an American girl group based in Miami currently on hiatus, composed of Ally Brooke, Normani, Dinah Jane, Lauren Jauregui, and previously Camila Cabello until her departure from the group in December 2016. The group signed a joint record deal with Simon Cowell\'s label Syco Records and L.A. Reid\'s label Epic Records after forming and finishing third in the second season of the American singing competition series The X Factor in 2012. Rising to prominence by social media, the group\'s debut extended play and their three studio albums all charted within the top ten of the Billboard 200 in the United States. Following their exit from The X Factor, they released their debut single "Miss Movin\' On", preceding their extended play Better Together, certified gold in the United States. Its music video won the group the MTV Video Music Award for Artist to Watch. The group released their debut studio album Reflection in 2015, also receiving a gold certification in the country. The album included the singles "Boss", "Sledgehammer" and "Worth It". The latter achieved triple platinum certification in the United States and reached the top-ten in thirteen countries. The following year, "Work from Home", the lead single from their second album 7/27, became the group\'s first top-ten single on the Billboard Hot 100 and the first top-five by a girl group in a decade on that chart. They released their self-titled third album in 2017. Their accolades include three MTV Europe Music Awards, four MTV Video Music Awards, four iHeartRadio Music Awards, an American Music Award, a Billboard Women in Music award and ten Teen Choice Awards. Fifth Harmony has sold over 15 million units in the United States and earned 1.6 billion on-demand streams, according to Nielsen SoundScan. The group went on hiatus in March 2018, allowing the members to pursue solo projects.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Huey_Lewis_and_the_News', 'artist_name': 'Huey Lewis &amp; The News', 'wiki': 'http://en.wikipedia.org/wiki/Huey_Lewis_and_the_News', 'hometown': 'http://dbpedia.org/resource/San_Francisco', 'start_year': '1979', 'abstract': 'Huey Lewis and the News is an American rock band based in San Francisco, California. They had a run of hit singles during the 1980s and early 1990s, eventually achieving 19 top ten singles across the Billboard Hot 100, Adult Contemporary, and Mainstream Rock charts. Their most successful album, Sports, was released in 1983. The album, along with its videos being featured on MTV, catapulted the group to worldwide fame. Their popularity expanded when the hit song "The Power of Love" was featured in the 1985 film Back to the Future. "The Power of Love" reached number one on the Billboard Hot 100 singles chart and was nominated for the Academy Award for Best Original Song.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Kid_Laroi', 'artist_name': 'The Kid Laroi', 'wiki': 'http://en.wikipedia.org/wiki/The_Kid_Laroi', 'birth_date': '17 August 2003', 'start_year': '2018', 'abstract': 'Charlton Kenneth Jeffrey Howard (born 17 August 2003), professionally known as the Kid Laroi (stylised The Kid LAROI.), is an Australian singer, rapper and songwriter. Born in Waterloo, New South Wales, he originally gained recognition from his association and friendship with Juice Wrld while he was on tour in Australia. He gained a local following before joining a partnership agreement with Lil Bibby\'s Grade A Productions and Columbia Records. and attained further popularity with his song "Go" featuring Juice Wrld, which peaked at number 52 on the Billboard Hot 100. His debut mixtape F*ck Love (2020) peaked at number one on the Australian ARIA Charts, making him the youngest Australian solo artist ever to reach the top, and also reached number one on the US Billboard 200. Additionally, Laroi\'s songs "Without You", its remix with Miley Cyrus, and "Stay" (with Justin Bieber) reached the top ten of the Billboard Hot 100, with "Stay" peaking at number one for seven non-consecutive weeks. Among his accolades, Laroi has won an APRA Award, two ARIA Awards and a National Indigenous Music Award, and been nominated for two American Music Awards, two Grammy Awards, three MTV Video Music Awards, and four People\'s Choice Awards.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/The_Fratellis', 'artist_name': 'The Fratellis', 'wiki': 'http://en.wikipedia.org/wiki/The_Fratellis', 'hometown': 'http://dbpedia.org/resource/Glasgow', 'start_year': '2012', 'abstract': 'The Fratellis are a Scottish rock band from Glasgow, formed in 2005. The band consists of lead vocalist and guitarist Jon Fratelli, bassist and backing vocalist Barry Fratelli, and drummer and backing vocalist Mince Fratelli. Their singles "Chelsea Dagger" and "Whistle for the Choir" were both top ten hits in the UK charts.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Shaggy_(musician)', 'artist_name': 'Shaggy', 'wiki': 'http://en.wikipedia.org/wiki/Shaggy_(musician)', 'birth_date': '22 October 1968', 'start_year': '1992', 'abstract': 'Orville Richard Burrell CD (born October 22, 1968), better known by his stage name Shaggy, is a Jamaican-American reggae musician, singer, DJ, and actor who scored hits with the songs "It Wasn\'t Me", "Boombastic", "In The Summertime", "Oh Carolina", and "Angel". He has been nominated for seven Grammy Awards, winning twice for Best Reggae Album with Boombastic in 1996 and 44/876 with Sting in 2019, and has won the Brit Award for International Male Solo Artist in 2002. In 2007, he was awarded the Jamaican Order of Distinction with the rank of Commander.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/George_Michael', 'artist_name': 'George Michael', 'wiki': 'http://en.wikipedia.org/wiki/George_Michael', 'birth_date': '25 June 1963', 'death_date': '25 December 2016', 'start_year': '1981', 'end_year': '2016', 'abstract': 'George Michael (born Georgios Kyriacos Panayiotou; 25 June 1963 – 25 December 2016) was a British singer, songwriter and record producer. Known as a leading creative force in music production, songwriting, vocal performance and visual presentation, he is regarded as one of the most significant cultural figures of the MTV era. Born in East Finchley, North London, Michael rose to fame as a member of the music duo Wham! and later embarked on a solo career. Forming the duo Wham! with Andrew Ridgeley in 1981, the band\'s first two albums, Fantastic (1983) and Make It Big (1984), reached number one on the UK Albums Chart and the US Billboard 200. Their hit singles included "Wake Me Up Before You Go-Go" and "Last Christmas". Establishing themselves as a global act, Wham! toured China in April 1985; the tour was the first visit to China by a Western popular music act, and it generated worldwide media coverage. Michael\'s first solo single, "Careless Whisper", reached number one in over 20 countries, including the UK and US. Before embarking on the production of his first solo album, Michael went on to release two more number-one singles, "A Different Corner" and "I Knew You Were Waiting (For Me)". Michael\'s debut solo album, Faith, was released in 1987, topping the UK Albums Chart and staying at number one on the Billboard 200 for 12 weeks. Globally it sold 25 million copies, and four singles from the album—"Faith", "Father Figure", "One More Try", and "Monkey"—reached number one on the Billboard Hot 100. Michael became the best-selling music artist of 1988, and Faith was awarded Album of the Year at the 1989 Grammy Awards. His second solo album, Listen Without Prejudice Vol. 1 (1990), sold approximately eight million copies and was a UK number-one. It included the Billboard Hot 100 number-one "Praying for Time" and the worldwide hit "Freedom! \'90". A 1991 duet with Elton John, "Don\'t Let the Sun Go Down on Me", was also a transatlantic number one. Michael went on to release two more multimillion-selling albums, Older (1996) and Patience (2004). Michael came out as gay in 1998. He was an active LGBT rights campaigner and HIV/AIDS charity fundraiser. Michael\'s personal life, drug use, and legal troubles made headlines during the late 1990s and 2000s, as he was arrested for public lewdness in 1998 and was arrested for multiple drug-related offences after that time. The 2005 documentary A Different Story covered his career and personal life. Michael\'s 25 Live tour spanned three tours from 2006 to 2008. Michael fell into a coma in 2011 during a bout with pneumonia, but later recovered. He performed his final concert at London\'s Earls Court in 2012. On 25 December 2016, Michael was found dead at his home in Goring-on-Thames, Oxfordshire. Michael is one of the best-selling music artists of all time, with sales of over 120 million records worldwide. He achieved seven number-one songs on the UK Singles Chart and eight number-one songs on the US Billboard Hot 100. Michael won various music awards, including two Grammy Awards, three Brit Awards, three American Music Awards, 12 Billboard Music Awards, four MTV Video Music Awards, and six Ivor Novello Awards. In 2015, he was ranked 45th in Billboard\'s list of the "Greatest Hot 100 Artists of All Time". The Radio Academy named him the most played artist on British radio during the period 1984–2004.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/September_(band)', 'artist_name': 'September', 'wiki': 'http://en.wikipedia.org/wiki/September_(band)', 'hometown': 'http://dbpedia.org/resource/Socialist_Federal_Republic_of_Yugoslavia', 'start_year': '1975', 'end_year': '1979', 'abstract': 'September was a Yugoslavian jazz rock band active between 1975 and 1979.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/MC_Hammer', 'artist_name': 'MC Hammer', 'wiki': 'http://en.wikipedia.org/wiki/MC_Hammer', 'birth_date': '30 March 1962', 'start_year': '1985', 'abstract': 'Stanley Kirk Burrell (born March 30, 1962), better known by his stage name MC Hammer (or simply Hammer), is an American rapper, songwriter, dancer and record producer who had his greatest commercial success and popularity from the late 1980s until the early 1990s. Remembered for his rapid rise to fame, Hammer is known for songs (such as "U Can\'t Touch This" and "2 Legit 2 Quit"), flashy dance movements, choreography and eponymous Hammer pants. A multi-award winner, MC Hammer is considered a "forefather/pioneer" and innovator of pop rap (incorporating elements of freestyle music) and is the first hip hop artist to achieve diamond status for an album. BET ranked Hammer as the No. 7 "Best Dancer Of All Time". Vibe\'s "The Best Rapper Ever Tournament" declared him the 17th favorite of all-time during the first round. Hammer\'s popularity and success waned by 1992 when he was labeled a sellout by the changing landscape of hip-hop music, leading to financial problems later in life, including a highly publicized bankruptcy in 1996. During this time, Hammer unsuccessfully attempted to appeal to the rise of gangsta rap. Burrell became a preacher during the late 1990s with a Christian ministry program on TBN called M.C. Hammer and Friends. Additionally, he starred in a Saturday-morning cartoon called Hammerman in 1991 and was executive producer of his own reality show called Hammertime, which aired on the A&amp;E Network during the summer of 2009. Hammer was also a television show host and dance judge on Dance Fever in 2003, was co-creator of a dance website called DanceJam.com and is a record label CEO while still performing concerts at music venues and assisting with other social media, ministry and outreach functions. Prior to becoming ordained, Hammer signed with Suge Knight\'s Death Row Records in 1995. Throughout his career, Hammer has managed his own recording business. As a result, he has created and produced his own acts including Ho Frat Hoo!, Oaktown\'s 3.5.7, Special Generation, Analise, DRS, B Angie B and Gentry Kozia. A part of additional record labels, he has associated, collaborated and recorded with Psy, VMF, Tupac Shakur, Teddy Riley, Felton Pilate, Tha Dogg Pound, The Whole 9, The Hines Brother, Deion Sanders, Big Daddy Kane, BeBe &amp; CeCe Winans and Jon Gibson.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Steve_Winwood', 'artist_name': 'Steve Winwood', 'wiki': 'http://en.wikipedia.org/wiki/Steve_Winwood', 'birth_date': '12 May 1948', 'start_year': '1961', 'abstract': 'Stephen Lawrence Winwood (born 12 May 1948) is an English singer, songwriter and musician whose genres include blue-eyed soul, rhythm and blues, blues rock and pop rock. Though primarily a vocalist and keyboard player, Winwood plays other instruments proficiently, including drums, mandolin, guitars, bass and saxophone. Winwood was a key member of several major acts of the 1960s and 1970s, including the Spencer Davis Group, Traffic and Blind Faith. Beginning in the 1980s, his solo career took off and he had a number of hit singles, including "While You See a Chance" (1980) from the album Arc of a Diver and "Valerie" (1982) from Talking Back to the Night ("Valerie" became a hit when it was re-released with a remix from Winwood\'s 1987 compilation album Chronicles). His 1986 album Back in the High Life marked his career zenith, with hit singles including "Back in the High Life Again", "The Finer Things" and the US Billboard Hot 100 number one hit "Higher Love". He found the top of the Hot 100 again with "Roll With It" (1988) from the album of the same name, with "Holding On" also charting highly the same year. While his hit singles ceased at the end of the 1980s, he continued to release new albums up to 2008, when Nine Lives, his latest album, was released. Since then, while he has not released any new albums, he still continues to tour alongside other classic rock acts, most recently in 2020 with Steely Dan. He was inducted into the Rock and Roll Hall of Fame as a member of Traffic in 2004. In 2005, Winwood was honoured as a BMI Icon at the annual BMI London Awards for his "enduring influence on generations of music makers". In 2008, Rolling Stone ranked Winwood No. 33 in its 100 Greatest Singers of All Time. Winwood has won two Grammy Awards. He was nominated twice for a Brit Award for Best British Male Artist: 1988 and 1989. In 2011, he received the Ivor Novello Award from the British Academy of Songwriters, Composers and Authors for Outstanding Song Collection.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Daughtry_(band)', 'artist_name': 'Daughtry', 'wiki': 'http://en.wikipedia.org/wiki/Daughtry_(band)', 'hometown': 'http://dbpedia.org/resource/McLeansville,_North_Carolina', 'start_year': '2006', 'abstract': 'Daughtry /ˈdɔːtri/ is an American rock band formed and fronted by namesake Chris Daughtry, who was a finalist on the fifth season of American Idol. Their self-titled debut album was released in November 2006 and reached number one on the Billboard 200. The album went on to sell more than six million copies in the United States, and has been certified six times platinum by the RIAA. Daughtry was also named the best selling album of 2007 by Billboard, becoming the fastest-selling debut rock album in Nielsen SoundScan history. The album produced four top 20 hits on the Billboard Hot 100, including top five hits "It\'s Not Over" and "Home". The band\'s second album, Leave This Town, was released in July 2009 and debuted at number one on the Billboard 200 chart, becoming Daughtry\'s second number one album in the United States. To date, Leave This Town has sold over 1.3 million copies in the United States and has been certified platinum by the RIAA. The album\'s lead single, "No Surprise", became the band\'s fifth top 20 hit on the Hot 100. Their third studio album, Break the Spell, was released in November 2011 and debuted within the top 10 on the Billboard 200 chart. The album has been certified Gold by the RIAA. Daughtry\'s fourth studio album, Baptized, was released on November 19, 2013, and debuted at number six on the Billboard 200 chart, selling approximately 90,000 units. To date, Daughtry has sold over 9 million albums and over 25.6 million digital tracks in the U.S.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/New_Radicals', 'artist_name': 'New Radicals', 'wiki': 'http://en.wikipedia.org/wiki/New_Radicals', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1997', 'end_year': '1997', 'abstract': 'New Radicals (stylized as Иew Radicals) were an American alternative rock band formed in 1997 in Los Angeles, California. The band was centered on frontman Gregg Alexander, who wrote and produced all of their songs. The band\'s only other permanent member was keyboardist and percussionist Danielle Brisebois. The band released only one album, 1998\'s Maybe You\'ve Been Brainwashed Too, an alternative rock album heavily influenced by the rock and soul of the 1970s, containing—among radio-friendly modern rock tracks and love songs—strong criticism of corporate America. The band is known for their debut single "You Get What You Give". Despite aspects of the lyrics generating minor controversy for their references to certain celebrities, the song topped the charts in Canada and New Zealand, became a top 5 hit in the United Kingdom, and was in the top 40 in the US. Tired of touring and promotional interviews, Alexander disbanded the group in mid-1999 before the release of their second single, "Someday We\'ll Know", to focus on writing and producing songs for other artists. Alexander and Brisebois\' songwriting partnership continued following the disbanding of the group, with the two being nominated for the Academy Award for Best Original Song in 2015 for their composition "Lost Stars" from the film Begin Again. Since their disbandment, the group has received numerous offers for a reunion tour or new album, but Alexander has repeatedly turned these down. However, the band finally reunited for a one off performance on January 20, 2021, at President Joe Biden\'s presidential inauguration.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Peter_Schilling', 'artist_name': 'Peter Schilling', 'wiki': 'http://en.wikipedia.org/wiki/Peter_Schilling', 'birth_date': '28 January 1956', 'start_year': '1976', 'abstract': 'Peter Schilling (born Pierre Michael Schilling; 28 January 1956) is a German synthpop musician whose songs often feature science-fiction themes like aliens, astronauts and catastrophes. He is best-known for his 1983 hit single "Major Tom (Coming Home)" which was an international success.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/New_Order_(band)', 'artist_name': 'New Order', 'wiki': 'http://en.wikipedia.org/wiki/New_Order_(band)', 'hometown': 'http://dbpedia.org/resource/Salford', 'start_year': '1980', 'end_year': '1993', 'abstract': 'New Order are an English rock band formed in 1980 by vocalist and guitarist Bernard Sumner, bassist Peter Hook and drummer Stephen Morris. The band formed after the demise of Joy Division, following the suicide of lead singer Ian Curtis; they were joined by Gillian Gilbert on keyboards later that year. New Order\'s integration of post-punk with electronic and dance music made them one of the most acclaimed and influential bands of the 1980s. They were the flagship band for Manchester-based independent record label Factory Records and its nightclub The Haçienda, and worked in long-term collaboration with graphic designer Peter Saville. While the band\'s early years were overshadowed by the legacy of Joy Division, their experience of the early 1980s New York club scene saw them increasingly incorporate dance rhythms and electronic instrumentation into their work. Their 1983 hit "Blue Monday" became the best-selling 12-inch single of all time and a popular club track. In the 1980s, they released successful albums such as Power, Corruption &amp; Lies (1983), Technique (1989), and the singles compilation Substance (1987). They disbanded in 1993 to work on individual projects before reuniting in 1998. In the years since, New Order has gone through various hiatuses and personnel changes, most prominently the departure of Hook in 2007. They released their tenth studio album, Music Complete, in 2015.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Third_Eye_Blind', 'artist_name': 'Third Eye Blind', 'wiki': 'http://en.wikipedia.org/wiki/Third_Eye_Blind', 'hometown': 'http://dbpedia.org/resource/California', 'start_year': '1993', 'abstract': 'Third Eye Blind is an American rock band formed in San Francisco, California, in 1993. After years of lineup changes in the early and mid-1990s, the songwriting duo of Stephan Jenkins and Kevin Cadogan signed the band\'s first major-label recording contract with Elektra Records in 1996. The band released their self-titled debut album in 1997, with the band largely consisting of Jenkins (vocals, rhythm guitar), Cadogan (lead guitar), Arion Salazar (bass guitar), and Brad Hargreaves (drums). Shortly after the release of the band\'s second album in 1999, Blue, with the same line-up, Cadogan was released from the band under controversial circumstances. The band continued, but with many line-up changes and long gaps between album releases for the next 15 years. The band released Out of the Vein in 2003 and Ursa Major in 2009 with guitarist Tony Fredianelli, but parted ways with him shortly afterwards, leaving only Jenkins and Hargreaves as the remaining core members. The band\'s lineup stabilized again in the mid-2010s, adding Kryz Reid (lead guitar), Alex Kopp (keyboards), and Alex LeCavalier (bass guitar). The new lineup lead to increased output with less time between releases - Dopamine (2015), and a string of EPs, We Are Drugs (2016) and Thanks for Everything (2018). After Kopp was replaced by Colin Creev, a sixth studio album, Screamer (2019) was released, and a seventh studio album, Our Bande Apart, was released on September 24, 2021. The band found commercial success in the late 1990s, with Third Eye Blind and Blue certified platinum six times and single platinum in the United States, respectively. Several songs were a commercial success as well, with "Semi-Charmed Life", "Jumper", and "How\'s It Going to Be", all reaching the Top 10 of the US Billboard Hot 100, and "Never Let You Go" reaching the Top 20. Third Eye Blind has sold around 12 million records worldwide.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/David_Guetta', 'artist_name': 'David Guetta', 'wiki': 'http://en.wikipedia.org/wiki/David_Guetta', 'abstract': 'Pierre David Guetta (/ˈɡɛtə/; French pronunciation: \u200b[pjɛʁ david ɡɛta]; born 7 November 1967) is a French DJ, record producer and songwriter. He has racked up over 50 million record sales globally, with more than 10 billion streams. In 2011, 2020 and 2021, Guetta was voted the number one DJ in the DJ Mag Top 100 DJs poll. In 2013, Billboard crowned "When Love Takes Over" as the number one dance-pop collaboration of all time. Born and raised in Paris, he released his first album, Just a Little More Love, in 2002. Later, he released Guetta Blaster (2004) and Pop Life (2007). Guetta achieved mainstream success with his 2009 album One Love which included the hit singles "When Love Takes Over", "Gettin\' Over You", "Sexy Bitch" and "Memories", the first three of which reached number one in the United Kingdom. The 2011 follow-up album, Nothing but the Beat, continued this success, containing the hit singles "Where Them Girls At", "Little Bad Girl", "Without You", "Titanium" and "Turn Me On". In 2018, he released the album 7 featuring J Balvin, Nicki Minaj, Jason Derulo, Sia, G-Eazy and more. The album also featured twelve tracks by his alias Jack Back. In 2019, he started a new movement together with fellow producer MORTEN called "Future Rave". The duo released their "New Rave" EP in July 2020 for the fans to enjoy at home despite clubs being closed. Guetta and Sia reunited to release "Let\'s Love" in 2020, amidst the COVID-19 pandemic. In June 2021 Guetta sold his recorded music catalog for an amount in the region of US$100 million, with Music Business Worldwide citing a source saying it was more than that, but less than US$150 million. Guetta\'s accolades include two Grammy Awards, an American Music Award and a Billboard Music Award.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Jason_Mraz', 'artist_name': 'Jason Mraz', 'wiki': 'http://en.wikipedia.org/wiki/Jason_Mraz', 'birth_date': '23 June 1977', 'start_year': '1999', 'abstract': 'Jason Thomas Mraz (/məˈræz/; born June 23, 1977) is an American guitarist, singer and songwriter. In 2002 he released his debut studio album, Waiting for My Rocket to Come, which contained the single "The Remedy (I Won\'t Worry)" that reached number 15 on the Billboard Hot 100, his first top-40 hit in the US. His second album, Mr. A-Z, released in 2005, peaked at number 5 on the Billboard 200 and sold over 100,000 copies in the US. In 2008 Mraz released his third studio album, We Sing. We Dance. We Steal Things. It debuted at number 3 on the Billboard 200 and was an international commercial success primarily due to the hit "I\'m Yours". The song peaked at number 6 on the Billboard Hot 100, giving him his first top ten single, spent a then-record 76 weeks on the Hot 100, and was certified Diamond (10x Platinum) by the RIAA in 2019. His fourth album, Love Is a Four Letter Word, peaked at number 2 on the Billboard 200, his highest-charting album to date. Mraz has won two Grammy Awards and received two additional nominations, and has also won two Teen Choice Awards, a People\'s Choice Award and the Hal David Songwriters Hall of Fame Award. He has earned Platinum and multi-Platinum certifications in over 20 countries, and has toured in North America, South America, Europe, Asia, Australia, the Middle East and parts of Africa. As of July 2014 Mraz has sold over seven million albums, and over 11.5 million downloaded singles. His musical style, from rhythmic feeling to his use of nylon string guitars, has been heavily influenced by Brazilian music.'}</t>
-  </si>
-  <si>
-    <t>{'artist': 'http://dbpedia.org/resource/Macklemore_&amp;_Ryan_Lewis', 'artist_name': 'Macklemore &amp; Ryan Lewis', 'wiki': 'http://en.wikipedia.org/wiki/Macklemore_&amp;_Ryan_Lewis', 'hometown': 'http://dbpedia.org/resource/Seattle', 'start_year': '2008', 'end_year': '2017', 'abstract': 'Macklemore &amp; Ryan Lewis are an American hip hop duo, formed in 2008, from Seattle, Washington. The duo is composed of Ben Haggerty, a rapper who goes by the stage name of Macklemore, and Ryan Lewis, a record producer, DJ, and professional photographer, who met the former at a photo shoot. In 2009, they released their first collaborative effort, an EP titled VS. EP. They later followed up with VS. Redux (2010), the Grammy Award-winning album The Heist (2012) and This Unruly Mess I\'ve Made (2016). Macklemore and Lewis\' single "Thrift Shop" reached number one on the US Billboard Hot 100 in 2013. The single was soon dubbed the first song since 1994 to top the Hot 100 chart without the support of a major record label by Billboard, although Macklemore, in a slightly unusual recording contract, pays a nominal percentage of sales to use Warner Bros. Records\' radio promotion department to push his singles. Their second single, "Can\'t Hold Us", also peaked at number one on the Hot 100 Chart, making Macklemore and Lewis the first duo in the chart\'s history to have their first two singles both reach the peak position. Macklemore and Lewis released their debut studio album, The Heist, on October 9, 2012, which charted at number 2 on the US Billboard 200. The pair won four Grammy Awards at the 2014 ceremony, including Best New Artist, Best Rap Album (The Heist), Best Rap Song and Best Rap Performance ("Thrift Shop"). Their second album, This Unruly Mess I\'ve Made, was released on February 26, 2016. As of 2021, the band has sold 2 million records worldwide. On June 15, 2017, Macklemore announced that the duo were on hiatus. On October 26, 2021, Macklemore and Ryan Lewis announced that a new track, titled "Next Year", featuring pop musician Windser is set to be released on October 29, on their respective Instagram pages.'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Bath, Somerset', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Bath%2C_Somerset', 'place': 'http://sws.geonames.org/2656173/', 'geo_link': 'http://www.geonames.org/2656173/bath.html', 'lat': '51.38', 'long': '-2.36', 'population': '93238'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Calabasas, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Calabasas%2C_California', 'place': 'http://sws.geonames.org/5332593/', 'postal_code': '91302', 'geo_link': 'http://www.geonames.org/5332593/calabasas.html', 'lat': '34.138333333333335', 'long': '-118.66083333333333', 'population': '23058'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Mississauga', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Mississauga', 'place': 'http://sws.geonames.org/6075357/', 'geo_link': 'http://www.geonames.org/6075357/mississauga.html', 'lat': '43.6', 'long': '-79.65', 'population': '668549'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Teignmouth', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Teignmouth', 'place': 'http://sws.geonames.org/2636132/', 'geo_link': 'http://www.geonames.org/2636132/teignmouth.html', 'lat': '50.5515', 'long': '-3.4886', 'population': '15498'}</t>
+    <t>{'artist': 'http://dbpedia.org/resource/Metallica', 'artist_name': 'Metallica', 'wiki': 'http://en.wikipedia.org/wiki/Metallica', 'hometown': 'http://dbpedia.org/resource/Los_Angeles', 'start_year': '1981', 'abstract': 'Metallica is an American heavy metal band. The band was formed in 1981 in Los Angeles by vocalist/guitarist James Hetfield and drummer Lars Ulrich, and has been based in San Francisco for most of its career. The band\'s fast tempos, instrumentals and aggressive musicianship made them one of the founding "big four" bands of thrash metal, alongside Megadeth, Anthrax and Slayer. Metallica\'s current lineup comprises founding members and primary songwriters Hetfield and Ulrich, longtime lead guitarist Kirk Hammett, and bassist Robert Trujillo. Guitarist Dave Mustaine (who went on to form Megadeth after being fired from the band) and bassists Ron McGovney, Cliff Burton (who died in a bus accident in Sweden in 1986) and Jason Newsted are former members of the band. After two albums on Megaforce Records and signing to major label Elektra in 1984, Metallica first found commercial success with the release of its third album, Master of Puppets (1986), which has been described as one of the heaviest and most influential thrash metal albums. Their next album, ...And Justice for All (1988), was also successful and gave Metallica their first Grammy Award nomination. Its eponymous fifth album, Metallica (1991), the band\'s first not to root predominantly in thrash metal, appealed to a more mainstream audience, achieving substantial commercial success and selling over 16 million copies in the United States to date, making it the best-selling album of the SoundScan era. After experimenting with different genres and directions in subsequent releases, the band returned to its thrash metal roots with the release of its ninth album, Death Magnetic (2008), which drew similar praise to that of the band\'s earlier albums. Their most recent album is Hardwired... to Self-Destruct, released in 2016. In 2000, Metallica led the case against the peer-to-peer file sharing service Napster, in which the band and several other artists filed lawsuits against the service for sharing their copyright-protected material without consent; after reaching a settlement, Napster became a pay-to-use service in 2003. Metallica was the subject of the acclaimed 2004 documentary film Metallica: Some Kind of Monster, which documented the troubled production of the band\'s eighth album, St. Anger (2003), and the internal struggles within the band at the time. In 2009, Metallica was inducted into the Rock and Roll Hall of Fame. The band wrote the screenplay for and starred in the 2013 IMAX concert film Metallica: Through the Never, in which the band performed live against a fictional thriller storyline. Metallica has released ten studio albums, four live albums, a cover album, five extended plays, 37 singles and 39 music videos. The band has won nine Grammy Awards from 23 nominations, and its last six studio albums (beginning with Metallica) have consecutively debuted at number one on the Billboard 200. Metallica ranks as one of the most commercially successful bands of all time, having sold over 125 million albums worldwide as of 2018. Metallica has been listed as one of the greatest artists of all time by magazines such as Rolling Stone, which ranked them at no. 61 on its 100 Greatest Artists of All Time list. As of 2017, Metallica is the third best-selling music artist since Nielsen SoundScan began tracking sales in 1991, selling a total of 58 million albums in the United States.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Justin_Bieber', 'artist_name': 'Justin Bieber', 'wiki': 'http://en.wikipedia.org/wiki/Justin_Bieber', 'birth_date': '01 March 1994', 'start_year': '2007', 'abstract': 'Justin Drew Bieber (/biːbər/; born March 1, 1994) is a Canadian singer. He was discovered by American record executive Scooter Braun and signed with RBMG Records in 2008, gaining recognition with the release of his debut seven-track EP My World (2009) and soon establishing himself as a teen idol. Bieber achieved commercial success with his teen pop-driven debut studio album, My World 2.0 (2010), which debuted atop the US Billboard 200, making him the youngest solo male act to top the chart in 47 years. The album also contained the internationally successful single "Baby", which became one of the highest certified singles of all time in the US. His second studio album, Under the Mistletoe (2011), became the first Christmas album by a male artist to debut at number one in the US. His third studio album, Believe (2012), saw him experiment with dance-pop. In 2013, Bieber became the first and youngest act in history to have five US number-one albums at the age of 18. Following Believe, Bieber was involved in various controversies and legal issues between 2013 and 2014, which had a drastic impact on his public image. Bieber\'s fourth studio album, Purpose, was released in 2015. It was preceded by "Where Are Ü Now", a collaboration with Jack Ü, which saw Bieber explore EDM, and win the Grammy Award for Best Dance Recording. Purpose embodied a multi-genre production and produced three US number-one singles: "Love Yourself", "Sorry", and "What Do You Mean?". He became the first artist in history to occupy the entire top three of the UK Singles Chart, as the singles charted at positions 1, 2 and 3 simultaneously. Bieber diversified on numerous collaborations between 2016 and 2017 including DJ Khaled\'s "I\'m the One", which reached number one on the US Billboard Hot 100. A week later, he released his remix to Luis Fonsi and Daddy Yankee\'s "Despacito", claiming his subsequent chart-topper. It tied the then-record for most weeks atop the US Billboard Hot 100 and made Bieber the first artist in history to chart new number-one singles in consecutive weeks. He won his career-first Latin Grammy Award for Best Urban Fusion/Performance for "Despacito". Billboard ranked "Despacito" at number one on the Greatest of All Time Hot Latin Songs Chart. In 2019, he released a country collaboration with Dan + Shay, "10,000 Hours", for which he won the Grammy Award for Best Country Duo/Group Performance. In 2020, Bieber released his R&amp;B-led fifth studio album, Changes, which debuted at number one in both the UK and US, and received critical acclaim for his vocal progression and released his collaboration, "Stuck with U", with Ariana Grande, which debuted atop the US Billboard Hot 100. Bieber returned to his pop roots on his sixth studio album, Justice (2021), which debuted atop the US Billboard 200, making him the youngest soloist to have eight US number-one albums, a record held previously by Elvis Presley since 1965. It produced the number-one single "Peaches" and became a commercial success. In July 2021, Bieber released a collaboration with the Kid Laroi, "Stay", which became his eighth number-one single in the US. Bieber is one of the best-selling music artists of all time, with estimated sales of over 150 million records worldwide. He is credited with three Diamond certifications from the RIAA for "Baby", "Sorry" and "Despacito". He has received numerous accolades, including two Grammy Awards, one Latin Grammy Award, two Brit Awards, one Bambi Award, 21 Billboard Music Awards, 18 American Music Awards, a record 21 MTV Europe Music Awards (the most wins for any artist in history), six MTV Video Music Awards, 23 Teen Choice Awards (the most wins for a male individual), and 32 Guinness World Records. Time named Bieber one of the 100 most influential people in the world in 2011, and he was included on Forbes\' list of the top ten most powerful celebrities in 2011, 2012, and 2013.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Daft_Punk', 'artist_name': 'Daft Punk', 'wiki': 'http://en.wikipedia.org/wiki/Daft_Punk', 'hometown': 'http://dbpedia.org/resource/Paris', 'start_year': '1993', 'end_year': '2021', 'abstract': 'Daft Punk were a French electronic music duo formed in 1993 in Paris by Guy-Manuel de Homem-Christo and Thomas Bangalter. Widely regarded as one of the most influential acts in dance music history, they achieved popularity in the late 1990s as part of the French house movement. They garnered critical acclaim and commercial success in the years following, combining elements of house music with funk, techno, disco, indie rock and pop. After Bangalter and Homem-Christo\'s indie rock band Darlin\' disbanded, they began experimenting with drum machines, synthesisers and the talk box. Their debut studio album Homework was released by Virgin Records in 1997 to positive reviews, backed by singles "Around the World" and "Da Funk". From 1999, they assumed robot personas with helmets, outfits and gloves for public appearances to preserve their identities; they made few media appearances. They were managed from 1996 to 2008 by Pedro Winter, the head of Ed Banger Records. Daft Punk\'s second album, Discovery (2001), had further success, supported by hit singles "One More Time", "Digital Love" and "Harder, Better, Faster, Stronger". The album became the basis for an animated film, Interstella 5555, supervised by a Japanese animator Leiji Matsumoto. Daft Punk\'s third album, Human After All (2005), received mixed reviews, though the singles "Robot Rock" and "Technologic" achieved success in the United Kingdom. The duo directed their first film, Electroma, an avant-garde science fiction film, in 2006. They toured throughout 2006 and 2007 and released the live album Alive 2007, which won a Grammy Award for Best Electronic/Dance Album; the tour is credited for popularising dance music in North America. Daft Punk composed the score for the 2010 film Tron: Legacy. In 2013, Daft Punk left Virgin for Columbia Records and released their fourth album, Random Access Memories, to acclaim; lead single "Get Lucky" reached the top 10 in the charts of 32 countries. Random Access Memories won five Grammy Awards in 2014, including Album of the Year and Record of the Year for "Get Lucky". In 2016, Daft Punk gained their only number one on the Billboard Hot 100 with "Starboy", a collaboration with the Weeknd. Rolling Stone ranked them the 12th greatest musical duo. They announced their split in 2021.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Europe_(band)', 'artist_name': 'Europe', 'wiki': 'http://en.wikipedia.org/wiki/Europe_(band)', 'hometown': 'http://dbpedia.org/resource/Upplands_Väsby', 'start_year': '1979', 'end_year': '1979', 'abstract': 'Europe is a Swedish rock band formed in Upplands Väsby, Sweden in 1979, by frontman Joey Tempest, guitarist John Norum, bassist Peter Olsson, and drummer Tony Reno. They obtained a major breakthrough in Sweden in 1982 by winning the televised competition "Rock-SM" (Swedish Rock Championships): it was the first time this competition was held, and Europe became a larger success than the competition itself. Since their formation, Europe has released eleven studio albums, three live albums, three compilations and twenty-four music videos. Europe\'s current lineup comprises Tempest, Norum, bassist John Levén, keyboardist Mic Michaeli, and drummer Ian Haugland. Europe rose to international fame in the 1980s with their third album, 1986\'s The Final Countdown. Europe has sold 10 million albums worldwide. The band has had two top 20 albums on the Billboard 200 chart (The Final Countdown and Out of This World) and three top 30 singles on the Billboard Hot 100 chart ("The Final Countdown", "Rock the Night" and "Carrie", which reached number 3 on the Billboard Hot 100). Europe went on hiatus in 1992, reunited temporarily for a one-off performance in Stockholm on New Year\'s Eve 1999 and announced an official reunion in 2003. Since then the band has released six albums, Start from the Dark (2004), Secret Society (2006), Last Look at Eden (2009), Bag of Bones (2012), War of Kings (2015) and Walk the Earth (2017). Europe gained new attention in the US after being featured in a GEICO cable television commercial campaign during 2015–2016. The band is mainly influenced by Whitesnake, Deep Purple, Rainbow, Led Zeppelin, Thin Lizzy, UFO and Michael Schenker Group.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Blondie_(band)', 'artist_name': 'Blondie', 'wiki': 'http://en.wikipedia.org/wiki/Blondie_(band)', 'hometown': 'http://dbpedia.org/resource/New_York_City', 'start_year': '1974', 'end_year': '1982', 'abstract': 'Blondie is an American rock band co-founded by singer Debbie Harry and guitarist Chris Stein. The band was a pioneer in the American new wave scene of the mid-1970s in New York. Their first two albums contained strong elements of these genres, and although highly successful in the United Kingdom and Australia, Blondie was regarded as an underground band in the United States until the release of Parallel Lines in 1978. Over the next five years, the band achieved several hit singles including "Heart of Glass", "Call Me", "Atomic", "The Tide Is High", and “Rapture”. The band became noted for its eclectic mix of musical styles, incorporating elements of disco, pop, reggae, and early rap music. Blondie disbanded after the release of its sixth studio album, The Hunter, in 1982. Debbie Harry continued to pursue a solo career with varied results after taking a few years off to care for partner Chris Stein, who was diagnosed with pemphigus, a rare autoimmune disease of the skin. The band re-formed in 1997, achieving renewed success and a number one single in the United Kingdom with "Maria" in 1999, exactly 20 years after their first UK No. 1 single ("Heart of Glass"). The group toured and performed throughout the world during the following years, and was inducted into the Rock and Roll Hall of Fame in 2006. Blondie has sold around 40 million records worldwide and is still active. The band\'s eleventh studio album, Pollinator, was released on May 5, 2017.'}</t>
+  </si>
+  <si>
+    <t>{'artist': 'http://dbpedia.org/resource/Michael_Jackson_(English_singer)', 'artist_name': 'Michael Jackson', 'wiki': 'http://en.wikipedia.org/wiki/Michael_Jackson_(English_singer)', 'abstract': 'Michael Jackson is a British singer who was lead vocalist with the heavy metal band Satan/Pariah.'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Amsterdam', 'country_code': 'NL', 'wiki': 'http://en.wikipedia.org/wiki/Amsterdam', 'place': 'http://sws.geonames.org/2759794/', 'geo_link': 'http://www.geonames.org/2759794/amsterdam.html', 'lat': '52.36666666666667', 'long': '4.9', 'population': '741636'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Carlisle, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Carlisle%2C_Massachusetts', 'place': 'http://sws.geonames.org/4932328/', 'postal_code': '01741', 'geo_link': 'http://www.geonames.org/4932328/carlisle.html', 'lat': '42.52916666666667', 'long': '-71.35', 'population': '4799'}</t>
   </si>
   <si>
     <t>{'place_name': 'Stockbridge, Georgia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Stockbridge%2C_Georgia', 'place': 'http://sws.geonames.org/4224681/', 'postal_code': '30281', 'geo_link': 'http://www.geonames.org/4224681/stockbridge.html', 'lat': '33.534166666666664', 'long': '-84.2311111111111', 'population': '25636'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Melbourne', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Melbourne', 'place': 'http://sws.geonames.org/7839805/', 'geo_link': 'http://www.geonames.org/2158177/melbourne.html', 'lat': '37.81361111111111', 'long': '144.96305555555554', 'population': '116447'}</t>
+    <t>{'place_name': 'Lombard, Illinois', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Lombard%2C_Illinois', 'place': 'http://sws.geonames.org/4900373/', 'postal_code': '60148', 'geo_link': 'http://www.geonames.org/4900373/lombard.html', 'lat': '41.87611111111111', 'long': '-88.015', 'population': '43165'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Glendale, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Glendale%2C_California', 'place': 'http://sws.geonames.org/5352423/', 'postal_code': '91208', 'geo_link': 'http://www.geonames.org/5352423/glendale.html', 'lat': '34.14611111111111', 'long': '-118.255', 'population': '191719'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Chicago', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Chicago', 'place': 'http://sws.geonames.org/4887398/', 'postal_code': '60633', 'geo_link': 'http://www.geonames.org/4887398/chicago.html', 'lat': '41.83694444444444', 'long': '-87.68472222222222', 'population': '2695598'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Orlando, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Orlando%2C_Florida', 'place': 'http://sws.geonames.org/4167147/', 'postal_code': '32832', 'geo_link': 'http://www.geonames.org/4167147/orlando.html', 'lat': '28.41583333333333', 'long': '-81.29888888888888', 'population': '238300'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Germany', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Germany', 'place': 'http://sws.geonames.org/2921044/', 'geo_link': 'http://www.geonames.org/2921044/federal-republic-of-germany.html', 'lat': '51.5', 'long': '10.5', 'population': '81802257'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Ermont', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Ermont', 'place': 'http://sws.geonames.org/3019897/', 'postal_code': '95120', 'geo_link': 'http://www.geonames.org/3019897/ermont.html', 'lat': '48.9922', 'long': '2.2603', 'population': '28117'}</t>
   </si>
   <si>
     <t>{'place_name': 'New York City', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/New_York_City', 'place': 'http://sws.geonames.org/5128581/', 'postal_code': '10041', 'geo_link': 'http://www.geonames.org/5128581/new-york-city.html', 'lat': '40.7127', 'long': '-74.0059', 'population': '8175133'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Gothenburg', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Gothenburg', 'place': 'http://sws.geonames.org/2711537/', 'geo_link': 'http://www.geonames.org/2711537/goeteborg.html', 'lat': '57.7', 'long': '11.966666666666667', 'population': '504084'}</t>
+    <t>{'place_name': 'Clydebank', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Clydebank', 'place': 'http://sws.geonames.org/2652730/', 'geo_link': 'http://www.geonames.org/2652730/clydebank.html', 'lat': '55.8997', 'long': '-4.4006', 'population': '29867'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Ontario', 'country_code': 'CA', 'wiki': 'http://en.wikipedia.org/wiki/Ontario', 'place': 'http://sws.geonames.org/6093943/', 'geo_link': 'http://www.geonames.org/6093943/ontario.html', 'lat': '50.0', 'long': '-85.0', 'population': '12861940'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Netherlands', 'country_code': 'NL', 'wiki': 'http://en.wikipedia.org/wiki/Netherlands', 'place': 'http://sws.geonames.org/2750405/', 'geo_link': 'http://www.geonames.org/2750405/kingdom-of-the-netherlands.html', 'lat': '52.36666666666667', 'long': '5.75', 'population': '16645000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Isla Vista, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Isla_Vista%2C_California', 'place': 'http://sws.geonames.org/5359864/', 'geo_link': 'http://www.geonames.org/5359864/isla-vista.html', 'lat': '34.413333333333334', 'long': '-119.86083333333333', 'population': '23096'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Worthing', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Worthing', 'place': 'http://sws.geonames.org/2633521/', 'geo_link': 'http://www.geonames.org/2633521/worthing.html', 'lat': '50.81471111111111', 'long': '-0.3713861111111111', 'population': '99110'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Flintshire', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Flintshire', 'place': 'http://sws.geonames.org/2649298/', 'geo_link': 'http://www.geonames.org/2649298/county-of-flintshire.html', 'lat': '53.25', 'long': '-3.16667'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Queens', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Queens', 'place': 'http://sws.geonames.org/5133273/', 'geo_link': 'http://www.geonames.org/5133268/queens-county.html', 'lat': '40.75', 'long': '-73.86666666666666', 'population': '2230722'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Owatonna, Minnesota', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Owatonna%2C_Minnesota', 'place': 'http://sws.geonames.org/5040647/', 'postal_code': '55060', 'geo_link': 'http://www.geonames.org/5040647/owatonna.html', 'lat': '44.08722222222222', 'long': '-93.22444444444444', 'population': '25599'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'West Yorkshire', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/West_Yorkshire', 'place': 'http://sws.geonames.org/2634219/', 'geo_link': 'http://www.geonames.org/2634219/west-yorkshire.html', 'lat': '53.75', 'long': '-1.6666666666666665', 'population': '2161200'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Massachusetts', 'place': 'http://sws.geonames.org/6254926/', 'geo_link': 'http://www.geonames.org/6254926/massachusetts.html', 'lat': '42.36565', 'long': '-71.10832', 'population': '6433422'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Sweden', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Sweden', 'place': 'http://sws.geonames.org/2661886/', 'geo_link': 'http://www.geonames.org/2661886/kingdom-of-sweden.html', 'lat': '62', 'long': '15', 'population': '9828655'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Oregon City, Oregon', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Oregon_City%2C_Oregon', 'place': 'http://sws.geonames.org/5744253/', 'postal_code': '97045', 'geo_link': 'http://www.geonames.org/5744253/oregon-city.html', 'lat': '45.35722222222222', 'long': '-122.60722222222222', 'population': '31859'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Cologne', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Cologne', 'place': 'http://sws.geonames.org/6553049/', 'geo_link': 'http://www.geonames.org/6553049/koeln.html', 'lat': '50.93638888888889', 'long': '6.9527777777777775', 'population': '1024373'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'England', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/England', 'place': 'http://sws.geonames.org/6269131/', 'geo_link': 'http://www.geonames.org/6269131/england.html', 'lat': '51.5', 'long': '-0.11666666666666667', 'population': '50000000'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Waukesha, Wisconsin', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Waukesha%2C_Wisconsin', 'place': 'http://sws.geonames.org/5278052/', 'postal_code': '53188', 'geo_link': 'http://www.geonames.org/5278052/waukesha.html', 'lat': '43.01166666666666', 'long': '-88.23166666666667', 'population': '70718'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Newport Beach, California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Newport_Beach%2C_California', 'place': 'http://sws.geonames.org/5376889/', 'geo_link': 'http://www.geonames.org/5376889/newport-beach.html', 'lat': '33.61666666666667', 'long': '-117.8975'}</t>
   </si>
   <si>
     <t>{'place_name': 'Australia', 'country_code': 'AU', 'wiki': 'http://en.wikipedia.org/wiki/Australia', 'place': 'http://sws.geonames.org/2077456/', 'geo_link': 'http://www.geonames.org/2077456/commonwealth-of-australia.html', 'lat': '-25', 'long': '135', 'population': '21515754'}</t>
   </si>
   <si>
-    <t>{'place_name': 'London', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/London', 'place': 'http://sws.geonames.org/2643743/', 'geo_link': 'http://www.geonames.org/2643743/london.html', 'lat': '51.507222222222225', 'long': '-0.1275', 'population': '7556900'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'California', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/California', 'place': 'http://sws.geonames.org/5332921/', 'geo_link': 'http://www.geonames.org/5332921/california.html', 'lat': '35.458606', 'long': '-119.355165', 'population': '37691912'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sarasota, Florida', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Sarasota%2C_Florida', 'place': 'http://sws.geonames.org/4172131/', 'postal_code': '34278', 'geo_link': 'http://www.geonames.org/4172131/sarasota.html', 'lat': '27.337222222222223', 'long': '-82.53527777777778', 'population': '51917'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Hungary', 'country_code': 'HU', 'wiki': 'http://en.wikipedia.org/wiki/Hungary', 'place': 'http://sws.geonames.org/719819/', 'geo_link': 'http://www.geonames.org/719819/hungary.html', 'lat': '47', 'long': '20', 'population': '9982000'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sweden', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Sweden', 'place': 'http://sws.geonames.org/2661886/', 'geo_link': 'http://www.geonames.org/2661886/kingdom-of-sweden.html', 'lat': '62', 'long': '15', 'population': '9828655'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Larne', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Larne', 'place': 'http://sws.geonames.org/2644849/', 'geo_link': 'http://www.geonames.org/2644849/larne.html', 'lat': '54.851', 'long': '-5.811', 'population': '18421'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Republic of Ireland', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Republic_of_Ireland', 'place': 'http://sws.geonames.org/2963597/', 'geo_link': 'http://www.geonames.org/2963597/ireland.html', 'lat': '53', 'long': '-8', 'population': '4622917'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Dublin', 'country_code': 'IE', 'wiki': 'http://en.wikipedia.org/wiki/Dublin', 'place': 'http://sws.geonames.org/7778677/', 'geo_link': 'http://www.geonames.org/2964574/dublin.html', 'lat': '53.34777777777778', 'long': '-6.259722222222222', 'population': '1024027'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Worcester, Massachusetts', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Worcester%2C_Massachusetts', 'place': 'http://sws.geonames.org/4956184/', 'postal_code': '01604', 'geo_link': 'http://www.geonames.org/4956184/worcester.html', 'lat': '42.266666666666666', 'long': '-71.8', 'population': '181045'}</t>
+    <t>{'place_name': 'Bietigheim-Bissingen', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Bietigheim-Bissingen', 'place': 'http://sws.geonames.org/2949012/', 'geo_link': 'http://www.geonames.org/2949012/bietigheim-bissingen.html', 'lat': '48.96666666666667', 'long': '9.133333333333333', 'population': '41769'}</t>
   </si>
   <si>
     <t>{'place_name': 'Philadelphia', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Philadelphia', 'place': 'http://sws.geonames.org/4560349/', 'postal_code': '19109', 'geo_link': 'http://www.geonames.org/4560349/philadelphia.html', 'lat': '39.95', 'long': '-75.16666666666667', 'population': '1526006'}</t>
   </si>
   <si>
-    <t>{'place_name': 'Huddinge Municipality', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Huddinge_Municipality', 'place': 'http://sws.geonames.org/2704619/', 'geo_link': 'http://www.geonames.org/2704619/huddinge-kommun.html', 'lat': '59.233333333333334', 'long': '17.983333333333334', 'population': '97959'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Seattle', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Seattle', 'place': 'http://sws.geonames.org/5809844/', 'postal_code': '98166', 'geo_link': 'http://www.geonames.org/5809844/seattle.html', 'lat': '47.609722222222224', 'long': '-122.33305555555556', 'population': '608660'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Hanover', 'country_code': 'DE', 'wiki': 'http://en.wikipedia.org/wiki/Hanover', 'place': 'http://sws.geonames.org/2910831/', 'geo_link': 'http://www.geonames.org/2910831/hannover.html', 'lat': '52.36666666666667', 'long': '9.716666666666667', 'population': '515140'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Suffolk', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Suffolk', 'place': 'http://sws.geonames.org/2636561/', 'geo_link': 'http://www.geonames.org/2636561/suffolk.html', 'lat': '52.166666666666664', 'long': '1', 'population': '702100'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Birmingham', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Birmingham', 'place': 'http://sws.geonames.org/3333125/', 'geo_link': 'http://www.geonames.org/2655603/birmingham.html', 'lat': '52.48305555555555', 'long': '-1.8936111111111111', 'population': '984333'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Clydebank', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Clydebank', 'place': 'http://sws.geonames.org/2652730/', 'geo_link': 'http://www.geonames.org/2652730/clydebank.html', 'lat': '55.8997', 'long': '-4.4006', 'population': '29867'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Los Angeles', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Los_Angeles', 'place': 'http://sws.geonames.org/5368361/', 'postal_code': '90001', 'geo_link': 'http://www.geonames.org/5368361/los-angeles.html', 'lat': '34.05', 'long': '-118.25', 'population': '3792621'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Sheffield', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Sheffield', 'place': 'http://sws.geonames.org/3333193/', 'geo_link': 'http://www.geonames.org/2638077/sheffield.html', 'lat': '53.38361111111111', 'long': '-1.4669444444444444', 'population': '447047'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Stockholm', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Stockholm', 'place': 'http://sws.geonames.org/2673730/', 'geo_link': 'http://www.geonames.org/2673730/stockholm.html', 'lat': '59.32944444444445', 'long': '18.06861111111111', 'population': '1253309'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Miami', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/Miami', 'place': 'http://sws.geonames.org/4164138/', 'postal_code': '33176', 'geo_link': 'http://www.geonames.org/4164138/miami.html', 'lat': '25.775277777777777', 'long': '-80.2088888888889', 'population': '399457'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'San Francisco', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/San_Francisco', 'place': 'http://sws.geonames.org/5391997/', 'postal_code': '94118', 'geo_link': 'http://www.geonames.org/5391959/san-francisco.html', 'lat': '37.78333333333333', 'long': '-122.41666666666667', 'population': '805235'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'Glasgow', 'country_code': 'GB', 'wiki': 'http://en.wikipedia.org/wiki/Glasgow', 'place': 'http://sws.geonames.org/3333231/', 'geo_link': 'http://www.geonames.org/2648579/glasgow.html', 'lat': '55.858', 'long': '-4.259', 'population': '610268'}</t>
-  </si>
-  <si>
-    <t>{'place_name': 'McLeansville, North Carolina', 'country_code': 'US', 'wiki': 'http://en.wikipedia.org/wiki/McLeansville%2C_North_Carolina', 'place': 'http://sws.geonames.org/4478715/', 'geo_link': 'http://www.geonames.org/4478715/mcleansville.html', 'lat': '36.10388888888889', 'long': '-79.66027777777778', 'population': '1021'}</t>
+    <t>{'place_name': 'Paris', 'country_code': 'FR', 'wiki': 'http://en.wikipedia.org/wiki/Paris', 'place': 'http://sws.geonames.org/2988507/', 'postal_code': '75000', 'geo_link': 'http://www.geonames.org/2968815/paris.html', 'lat': '48.8567', 'long': '2.3508', 'population': '2257981'}</t>
+  </si>
+  <si>
+    <t>{'place_name': 'Upplands Väsby', 'country_code': 'SE', 'wiki': 'http://en.wikipedia.org/wiki/Upplands_V%C3%A4sby', 'place': 'http://sws.geonames.org/2666238/', 'geo_link': 'http://www.geonames.org/2666238/upplands-vaesby.html', 'lat': '59.516666666666666', 'long': '17.916666666666668', 'population': '36534'}</t>
   </si>
 </sst>
 </file>
@@ -1720,28 +1753,25 @@
         <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F2" t="s">
-        <v>395</v>
+        <v>310</v>
       </c>
       <c r="G2">
-        <v>2.296481847763062</v>
+        <v>1.15622353553772</v>
       </c>
       <c r="H2">
-        <v>1.499643087387085</v>
+        <v>30.72710180282593</v>
       </c>
       <c r="I2">
-        <v>0.0938105583190918</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K2">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L2">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1758,13 +1788,13 @@
         <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G3">
-        <v>1.687314033508301</v>
+        <v>1.046617746353149</v>
       </c>
       <c r="H3">
-        <v>1.796238660812378</v>
+        <v>3.827213287353516</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1792,29 +1822,23 @@
       <c r="D4" t="s">
         <v>213</v>
       </c>
-      <c r="E4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F4" t="s">
-        <v>396</v>
-      </c>
       <c r="G4">
-        <v>1.530888080596924</v>
+        <v>0.9060714244842529</v>
       </c>
       <c r="H4">
-        <v>1.812066316604614</v>
+        <v>32.92985701560974</v>
       </c>
       <c r="I4">
-        <v>0.1093511581420898</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1830,20 +1854,23 @@
       <c r="D5" t="s">
         <v>214</v>
       </c>
+      <c r="E5" t="s">
+        <v>312</v>
+      </c>
       <c r="G5">
-        <v>1.813308954238892</v>
+        <v>1.218461036682129</v>
       </c>
       <c r="H5">
-        <v>10.52852821350098</v>
+        <v>0.1249349117279053</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1863,25 +1890,28 @@
         <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>310</v>
+        <v>313</v>
+      </c>
+      <c r="F6" t="s">
+        <v>403</v>
       </c>
       <c r="G6">
-        <v>1.218435764312744</v>
+        <v>0.9528934955596924</v>
       </c>
       <c r="H6">
-        <v>0.1406228542327881</v>
+        <v>0.999767541885376</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2186994552612305</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K6">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1898,22 +1928,22 @@
         <v>216</v>
       </c>
       <c r="E7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G7">
-        <v>3.514785051345825</v>
+        <v>1.171565294265747</v>
       </c>
       <c r="H7">
-        <v>28.52450776100159</v>
+        <v>1.499678373336792</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1933,22 +1963,22 @@
         <v>217</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G8">
-        <v>1.390061140060425</v>
+        <v>1.093794345855713</v>
       </c>
       <c r="H8">
-        <v>22.15101361274719</v>
+        <v>1.061984062194824</v>
       </c>
       <c r="I8">
-        <v>0.09372615814208984</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K8">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1968,19 +1998,16 @@
         <v>218</v>
       </c>
       <c r="E9" t="s">
-        <v>313</v>
-      </c>
-      <c r="F9" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="G9">
-        <v>1.421548843383789</v>
+        <v>1.390296936035156</v>
       </c>
       <c r="H9">
-        <v>1.421774625778198</v>
+        <v>23.40140676498413</v>
       </c>
       <c r="I9">
-        <v>0.07810044288635254</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1989,7 +2016,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2006,28 +2033,28 @@
         <v>219</v>
       </c>
       <c r="E10" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F10" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G10">
-        <v>1.687101125717163</v>
+        <v>1.202857971191406</v>
       </c>
       <c r="H10">
-        <v>1.530882835388184</v>
+        <v>1.124737739562988</v>
       </c>
       <c r="I10">
-        <v>0.1093475818634033</v>
+        <v>0.1093440055847168</v>
       </c>
       <c r="J10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2040,17 +2067,20 @@
       <c r="C11" t="s">
         <v>120</v>
       </c>
+      <c r="D11" t="s">
+        <v>220</v>
+      </c>
       <c r="G11">
-        <v>0.6870691776275635</v>
+        <v>1.015387058258057</v>
       </c>
       <c r="H11">
-        <v>11.16923403739929</v>
+        <v>10.91927313804626</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2070,31 +2100,28 @@
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E12" t="s">
-        <v>315</v>
-      </c>
-      <c r="F12" t="s">
-        <v>399</v>
+        <v>318</v>
       </c>
       <c r="G12">
-        <v>1.405886888504028</v>
+        <v>1.093758344650269</v>
       </c>
       <c r="H12">
-        <v>1.405956983566284</v>
+        <v>22.08826041221619</v>
       </c>
       <c r="I12">
-        <v>0.1096096038818359</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K12">
         <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2108,28 +2135,31 @@
         <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E13" t="s">
-        <v>316</v>
+        <v>319</v>
+      </c>
+      <c r="F13" t="s">
+        <v>405</v>
       </c>
       <c r="G13">
-        <v>1.530937433242798</v>
+        <v>0.9685256481170654</v>
       </c>
       <c r="H13">
-        <v>6.810890197753906</v>
+        <v>23.02580547332764</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1249661445617676</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2143,22 +2173,19 @@
         <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E14" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" t="s">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="G14">
-        <v>1.281181573867798</v>
+        <v>0.9216639995574951</v>
       </c>
       <c r="H14">
-        <v>1.749534368515015</v>
+        <v>0.7966842651367188</v>
       </c>
       <c r="I14">
-        <v>0.1091156005859375</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0.6666666666666666</v>
@@ -2167,7 +2194,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L14">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2181,16 +2208,13 @@
         <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="G15">
-        <v>2.28096866607666</v>
+        <v>0.984135627746582</v>
       </c>
       <c r="H15">
-        <v>2.124233961105347</v>
+        <v>11.74722146987915</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2199,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2216,25 +2240,31 @@
         <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="E16" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" t="s">
+        <v>406</v>
       </c>
       <c r="G16">
-        <v>1.468627214431763</v>
+        <v>1.140352725982666</v>
       </c>
       <c r="H16">
-        <v>15.65232849121094</v>
+        <v>22.62029933929443</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1091251373291016</v>
       </c>
       <c r="J16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2248,31 +2278,28 @@
         <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E17" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" t="s">
-        <v>401</v>
+        <v>322</v>
       </c>
       <c r="G17">
-        <v>1.405899524688721</v>
+        <v>1.078109502792358</v>
       </c>
       <c r="H17">
-        <v>1.436926364898682</v>
+        <v>0.9997627735137939</v>
       </c>
       <c r="I17">
-        <v>0.2499611377716064</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2286,22 +2313,19 @@
         <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E18" t="s">
-        <v>320</v>
-      </c>
-      <c r="F18" t="s">
-        <v>402</v>
+        <v>323</v>
       </c>
       <c r="G18">
-        <v>1.484024047851562</v>
+        <v>1.062474727630615</v>
       </c>
       <c r="H18">
-        <v>21.199059009552</v>
+        <v>1.155752897262573</v>
       </c>
       <c r="I18">
-        <v>0.1102590560913086</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0.6666666666666666</v>
@@ -2310,7 +2334,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2324,31 +2348,28 @@
         <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>321</v>
-      </c>
-      <c r="F19" t="s">
-        <v>403</v>
+        <v>324</v>
       </c>
       <c r="G19">
-        <v>1.421768426895142</v>
+        <v>0.9841470718383789</v>
       </c>
       <c r="H19">
-        <v>1.640244245529175</v>
+        <v>1.030990839004517</v>
       </c>
       <c r="I19">
-        <v>0.1091122627258301</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0.6666666666666666</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2362,31 +2383,25 @@
         <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
-      </c>
-      <c r="E20" t="s">
-        <v>322</v>
-      </c>
-      <c r="F20" t="s">
-        <v>404</v>
+        <v>229</v>
       </c>
       <c r="G20">
-        <v>1.046629190444946</v>
+        <v>1.140340566635132</v>
       </c>
       <c r="H20">
-        <v>1.796223163604736</v>
+        <v>0.2811973094940186</v>
       </c>
       <c r="I20">
-        <v>0.09395503997802734</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0.6666666666666666</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2400,25 +2415,25 @@
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G21">
-        <v>1.296757698059082</v>
+        <v>1.593633413314819</v>
       </c>
       <c r="H21">
-        <v>22.1039559841156</v>
+        <v>1.983645677566528</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2435,31 +2450,28 @@
         <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E22" t="s">
-        <v>324</v>
-      </c>
-      <c r="F22" t="s">
-        <v>405</v>
+        <v>326</v>
       </c>
       <c r="G22">
-        <v>1.280948638916016</v>
+        <v>1.109102010726929</v>
       </c>
       <c r="H22">
-        <v>1.561981201171875</v>
+        <v>1.999538660049438</v>
       </c>
       <c r="I22">
-        <v>0.1094977855682373</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2473,22 +2485,22 @@
         <v>132</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E23" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G23">
-        <v>1.265559673309326</v>
+        <v>1.187447309494019</v>
       </c>
       <c r="H23">
-        <v>1.561898231506348</v>
+        <v>22.93184971809387</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>0.6666666666666666</v>
@@ -2508,22 +2520,25 @@
         <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="E24" t="s">
+        <v>328</v>
       </c>
       <c r="G24">
-        <v>1.937034606933594</v>
+        <v>1.093491315841675</v>
       </c>
       <c r="H24">
-        <v>9.466511726379395</v>
+        <v>8.560475826263428</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2540,31 +2555,31 @@
         <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E25" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F25" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G25">
-        <v>1.359045028686523</v>
+        <v>1.124731779098511</v>
       </c>
       <c r="H25">
-        <v>0.1718719005584717</v>
+        <v>21.1981098651886</v>
       </c>
       <c r="I25">
-        <v>0.09371137619018555</v>
+        <v>0.1093528270721436</v>
       </c>
       <c r="J25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2578,31 +2593,28 @@
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E26" t="s">
-        <v>327</v>
-      </c>
-      <c r="F26" t="s">
-        <v>406</v>
+        <v>330</v>
       </c>
       <c r="G26">
-        <v>3.452543497085571</v>
+        <v>1.077874660491943</v>
       </c>
       <c r="H26">
-        <v>1.093250751495361</v>
+        <v>1.765208005905151</v>
       </c>
       <c r="I26">
-        <v>0.06248664855957031</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2616,25 +2628,31 @@
         <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="E27" t="s">
+        <v>331</v>
+      </c>
+      <c r="F27" t="s">
+        <v>408</v>
       </c>
       <c r="G27">
-        <v>3.530416965484619</v>
+        <v>1.42177152633667</v>
       </c>
       <c r="H27">
-        <v>9.638341665267944</v>
+        <v>1.29655933380127</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>0.2184691429138184</v>
       </c>
       <c r="J27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2648,16 +2666,16 @@
         <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G28">
-        <v>1.327538728713989</v>
+        <v>1.156019687652588</v>
       </c>
       <c r="H28">
-        <v>0.9685230255126953</v>
+        <v>0.2811431884765625</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2683,31 +2701,28 @@
         <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E29" t="s">
-        <v>329</v>
-      </c>
-      <c r="F29" t="s">
-        <v>401</v>
+        <v>333</v>
       </c>
       <c r="G29">
-        <v>1.155709266662598</v>
+        <v>1.202842473983765</v>
       </c>
       <c r="H29">
-        <v>22.52618741989136</v>
+        <v>1.062252044677734</v>
       </c>
       <c r="I29">
-        <v>0.1249756813049316</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2721,31 +2736,28 @@
         <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>330</v>
-      </c>
-      <c r="F30" t="s">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="G30">
-        <v>1.327962875366211</v>
+        <v>1.952662467956543</v>
       </c>
       <c r="H30">
-        <v>1.375729322433472</v>
+        <v>23.19763088226318</v>
       </c>
       <c r="I30">
-        <v>0.06256294250488281</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2759,22 +2771,22 @@
         <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F31" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G31">
-        <v>1.218523502349854</v>
+        <v>0.9528915882110596</v>
       </c>
       <c r="H31">
-        <v>0.1249668598175049</v>
+        <v>1.468414306640625</v>
       </c>
       <c r="I31">
-        <v>0.07804560661315918</v>
+        <v>0.1093440055847168</v>
       </c>
       <c r="J31">
         <v>0.6666666666666666</v>
@@ -2783,7 +2795,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2797,28 +2809,31 @@
         <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E32" t="s">
-        <v>332</v>
+        <v>336</v>
+      </c>
+      <c r="F32" t="s">
+        <v>410</v>
       </c>
       <c r="G32">
-        <v>1.437304496765137</v>
+        <v>1.484417676925659</v>
       </c>
       <c r="H32">
-        <v>8.34162974357605</v>
+        <v>1.6087646484375</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.06248831748962402</v>
       </c>
       <c r="J32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2832,31 +2847,28 @@
         <v>142</v>
       </c>
       <c r="D33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>333</v>
-      </c>
-      <c r="F33" t="s">
-        <v>408</v>
+        <v>337</v>
       </c>
       <c r="G33">
-        <v>1.093476057052612</v>
+        <v>0.9839413166046143</v>
       </c>
       <c r="H33">
-        <v>1.561903953552246</v>
+        <v>1.234103202819824</v>
       </c>
       <c r="I33">
-        <v>0.09397554397583008</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L33">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2870,28 +2882,31 @@
         <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E34" t="s">
-        <v>334</v>
+        <v>338</v>
+      </c>
+      <c r="F34" t="s">
+        <v>411</v>
       </c>
       <c r="G34">
-        <v>1.218463182449341</v>
+        <v>1.140359878540039</v>
       </c>
       <c r="H34">
-        <v>0.1249699592590332</v>
+        <v>26.32208561897278</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>0.1093447208404541</v>
       </c>
       <c r="J34">
         <v>0.6666666666666666</v>
       </c>
       <c r="K34">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2905,28 +2920,31 @@
         <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s">
-        <v>335</v>
+        <v>339</v>
+      </c>
+      <c r="F35" t="s">
+        <v>412</v>
       </c>
       <c r="G35">
-        <v>1.874554634094238</v>
+        <v>1.218452930450439</v>
       </c>
       <c r="H35">
-        <v>27.02485871315002</v>
+        <v>1.437193393707275</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>0.06245613098144531</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K35">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2940,28 +2958,31 @@
         <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E36" t="s">
-        <v>336</v>
+        <v>340</v>
+      </c>
+      <c r="F36" t="s">
+        <v>413</v>
       </c>
       <c r="G36">
-        <v>1.358788013458252</v>
+        <v>1.843088865280151</v>
       </c>
       <c r="H36">
-        <v>1.093492269515991</v>
+        <v>1.577493190765381</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>0.2033324241638184</v>
       </c>
       <c r="J36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>0.5555555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2975,28 +2996,31 @@
         <v>146</v>
       </c>
       <c r="D37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E37" t="s">
-        <v>337</v>
+        <v>341</v>
+      </c>
+      <c r="F37" t="s">
+        <v>414</v>
       </c>
       <c r="G37">
-        <v>1.468401670455933</v>
+        <v>1.718343496322632</v>
       </c>
       <c r="H37">
-        <v>7.154826641082764</v>
+        <v>22.30746030807495</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>0.1249649524688721</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K37">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3010,25 +3034,25 @@
         <v>147</v>
       </c>
       <c r="D38" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="G38">
-        <v>1.374943256378174</v>
+        <v>1.234107494354248</v>
       </c>
       <c r="H38">
-        <v>0.9213883876800537</v>
+        <v>7.99812126159668</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3044,23 +3068,32 @@
       <c r="C39" t="s">
         <v>148</v>
       </c>
+      <c r="D39" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" t="s">
+        <v>343</v>
+      </c>
+      <c r="F39" t="s">
+        <v>408</v>
+      </c>
       <c r="G39">
-        <v>0.5153496265411377</v>
+        <v>0.8906791210174561</v>
       </c>
       <c r="H39">
-        <v>31.44568991661072</v>
+        <v>21.19807362556458</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.109083890914917</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3074,25 +3107,25 @@
         <v>149</v>
       </c>
       <c r="D40" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E40" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F40" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G40">
-        <v>1.359282493591309</v>
+        <v>1.280939102172852</v>
       </c>
       <c r="H40">
-        <v>0.9371988773345947</v>
+        <v>1.280686855316162</v>
       </c>
       <c r="I40">
-        <v>0.109351634979248</v>
+        <v>0.07837295532226562</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K40">
         <v>0.7777777777777778</v>
@@ -3112,28 +3145,31 @@
         <v>150</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>340</v>
+        <v>345</v>
+      </c>
+      <c r="F41" t="s">
+        <v>416</v>
       </c>
       <c r="G41">
-        <v>1.046630144119263</v>
+        <v>1.01538610458374</v>
       </c>
       <c r="H41">
-        <v>0.906033992767334</v>
+        <v>22.46440315246582</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.09372615814208984</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K41">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3147,31 +3183,31 @@
         <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E42" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="F42" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="G42">
-        <v>1.561897277832031</v>
+        <v>1.077869892120361</v>
       </c>
       <c r="H42">
-        <v>5.045678853988647</v>
+        <v>22.6352710723877</v>
       </c>
       <c r="I42">
-        <v>0.09373164176940918</v>
+        <v>0.1093838214874268</v>
       </c>
       <c r="J42">
         <v>0.6666666666666666</v>
       </c>
       <c r="K42">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L42">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3185,31 +3221,31 @@
         <v>152</v>
       </c>
       <c r="D43" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E43" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F43" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="G43">
-        <v>1.452548503875732</v>
+        <v>0.9684069156646729</v>
       </c>
       <c r="H43">
-        <v>1.406151294708252</v>
+        <v>1.468367576599121</v>
       </c>
       <c r="I43">
-        <v>0.07810378074645996</v>
+        <v>0.06233477592468262</v>
       </c>
       <c r="J43">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K43">
         <v>0.7777777777777778</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3223,25 +3259,31 @@
         <v>153</v>
       </c>
       <c r="D44" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="E44" t="s">
+        <v>348</v>
+      </c>
+      <c r="F44" t="s">
+        <v>419</v>
       </c>
       <c r="G44">
-        <v>0.9372971057891846</v>
+        <v>0.8594145774841309</v>
       </c>
       <c r="H44">
-        <v>10.1391909122467</v>
+        <v>0.1563205718994141</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.09365558624267578</v>
       </c>
       <c r="J44">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3255,25 +3297,31 @@
         <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>254</v>
+      </c>
+      <c r="E45" t="s">
+        <v>349</v>
+      </c>
+      <c r="F45" t="s">
+        <v>420</v>
       </c>
       <c r="G45">
-        <v>1.390299797058105</v>
+        <v>0.952906608581543</v>
       </c>
       <c r="H45">
-        <v>11.35690259933472</v>
+        <v>1.499635219573975</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>0.109349250793457</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3287,28 +3335,28 @@
         <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E46" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="F46" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G46">
-        <v>1.593377828598022</v>
+        <v>1.374707221984863</v>
       </c>
       <c r="H46">
-        <v>0.1249668598175049</v>
+        <v>22.57277774810791</v>
       </c>
       <c r="I46">
-        <v>0.1093854904174805</v>
+        <v>0.1874308586120605</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K46">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L46">
         <v>0.8888888888888888</v>
@@ -3325,22 +3373,22 @@
         <v>156</v>
       </c>
       <c r="D47" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E47" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="F47" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="G47">
-        <v>1.452786922454834</v>
+        <v>1.327810764312744</v>
       </c>
       <c r="H47">
-        <v>1.436931610107422</v>
+        <v>21.8698194026947</v>
       </c>
       <c r="I47">
-        <v>0.07828998565673828</v>
+        <v>0.1093499660491943</v>
       </c>
       <c r="J47">
         <v>0.6666666666666666</v>
@@ -3349,7 +3397,7 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="L47">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3363,16 +3411,16 @@
         <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E48" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="G48">
-        <v>1.468248605728149</v>
+        <v>1.327818155288696</v>
       </c>
       <c r="H48">
-        <v>22.52592468261719</v>
+        <v>0.874788761138916</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3398,28 +3446,31 @@
         <v>158</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E49" t="s">
-        <v>346</v>
+        <v>353</v>
+      </c>
+      <c r="F49" t="s">
+        <v>422</v>
       </c>
       <c r="G49">
-        <v>1.812070608139038</v>
+        <v>1.093491554260254</v>
       </c>
       <c r="H49">
-        <v>0.8124687671661377</v>
+        <v>0.1405885219573975</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>0.0624854564666748</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K49">
         <v>0.6666666666666666</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3433,25 +3484,25 @@
         <v>159</v>
       </c>
       <c r="D50" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E50" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F50" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="G50">
-        <v>1.265559196472168</v>
+        <v>1.296601533889771</v>
       </c>
       <c r="H50">
-        <v>22.44757556915283</v>
+        <v>22.51031279563904</v>
       </c>
       <c r="I50">
-        <v>0.09373378753662109</v>
+        <v>0.1093380451202393</v>
       </c>
       <c r="J50">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K50">
         <v>0.7777777777777778</v>
@@ -3471,25 +3522,31 @@
         <v>160</v>
       </c>
       <c r="D51" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="E51" t="s">
+        <v>355</v>
+      </c>
+      <c r="F51" t="s">
+        <v>416</v>
       </c>
       <c r="G51">
-        <v>1.374674558639526</v>
+        <v>1.312451839447021</v>
       </c>
       <c r="H51">
-        <v>0.1249620914459229</v>
+        <v>1.452747106552124</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>0.06222319602966309</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3503,22 +3560,22 @@
         <v>161</v>
       </c>
       <c r="D52" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E52" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="G52">
-        <v>1.515235424041748</v>
+        <v>1.280764818191528</v>
       </c>
       <c r="H52">
-        <v>28.27460145950317</v>
+        <v>0.9685235023498535</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K52">
         <v>0.6666666666666666</v>
@@ -3538,16 +3595,16 @@
         <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E53" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G53">
-        <v>1.374823808670044</v>
+        <v>1.249703407287598</v>
       </c>
       <c r="H53">
-        <v>0.8433945178985596</v>
+        <v>27.74427390098572</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3556,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="K53">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -3573,16 +3630,16 @@
         <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E54" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G54">
-        <v>1.452984571456909</v>
+        <v>0.9685819149017334</v>
       </c>
       <c r="H54">
-        <v>1.030808210372925</v>
+        <v>0.1405379772186279</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3608,31 +3665,25 @@
         <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>262</v>
-      </c>
-      <c r="E55" t="s">
-        <v>351</v>
-      </c>
-      <c r="F55" t="s">
-        <v>412</v>
+        <v>264</v>
       </c>
       <c r="G55">
-        <v>1.280946969985962</v>
+        <v>1.249706029891968</v>
       </c>
       <c r="H55">
-        <v>1.577746629714966</v>
+        <v>12.12212634086609</v>
       </c>
       <c r="I55">
-        <v>0.1249723434448242</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0.3333333333333333</v>
       </c>
       <c r="K55">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3646,28 +3697,31 @@
         <v>165</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E56" t="s">
-        <v>352</v>
+        <v>359</v>
+      </c>
+      <c r="F56" t="s">
+        <v>424</v>
       </c>
       <c r="G56">
-        <v>1.484024286270142</v>
+        <v>1.562137842178345</v>
       </c>
       <c r="H56">
-        <v>21.18299531936646</v>
+        <v>1.515260696411133</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>0.1562125682830811</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K56">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3681,31 +3735,31 @@
         <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E57" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="F57" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="G57">
-        <v>1.359279870986938</v>
+        <v>1.218454837799072</v>
       </c>
       <c r="H57">
-        <v>1.46825385093689</v>
+        <v>3.077394485473633</v>
       </c>
       <c r="I57">
-        <v>0.1092722415924072</v>
+        <v>0.09373569488525391</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K57">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L57">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3719,31 +3773,28 @@
         <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E58" t="s">
-        <v>354</v>
-      </c>
-      <c r="F58" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="G58">
-        <v>1.312191724777222</v>
+        <v>1.749829053878784</v>
       </c>
       <c r="H58">
-        <v>22.40095233917236</v>
+        <v>1.483809232711792</v>
       </c>
       <c r="I58">
-        <v>0.1093463897705078</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>0.6666666666666666</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3757,31 +3808,28 @@
         <v>168</v>
       </c>
       <c r="D59" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E59" t="s">
-        <v>355</v>
-      </c>
-      <c r="F59" t="s">
-        <v>405</v>
+        <v>362</v>
       </c>
       <c r="G59">
-        <v>1.374676465988159</v>
+        <v>0.9370009899139404</v>
       </c>
       <c r="H59">
-        <v>1.452780723571777</v>
+        <v>24.27549123764038</v>
       </c>
       <c r="I59">
-        <v>0.06248641014099121</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L59">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3795,31 +3843,31 @@
         <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E60" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F60" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="G60">
-        <v>1.390296220779419</v>
+        <v>1.265351533889771</v>
       </c>
       <c r="H60">
-        <v>22.54132509231567</v>
+        <v>24.26015329360962</v>
       </c>
       <c r="I60">
-        <v>0.09394502639770508</v>
+        <v>0.09372973442077637</v>
       </c>
       <c r="J60">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K60">
         <v>0.7777777777777778</v>
       </c>
       <c r="L60">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3833,28 +3881,28 @@
         <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E61" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="F61" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G61">
-        <v>1.14059042930603</v>
+        <v>1.499644756317139</v>
       </c>
       <c r="H61">
-        <v>1.390063762664795</v>
+        <v>1.265303373336792</v>
       </c>
       <c r="I61">
-        <v>0.0624854564666748</v>
+        <v>0.06248140335083008</v>
       </c>
       <c r="J61">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L61">
         <v>0.8888888888888888</v>
@@ -3871,31 +3919,28 @@
         <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E62" t="s">
-        <v>358</v>
-      </c>
-      <c r="F62" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="G62">
-        <v>1.280716896057129</v>
+        <v>1.32754111289978</v>
       </c>
       <c r="H62">
-        <v>1.405914783477783</v>
+        <v>25.32360696792603</v>
       </c>
       <c r="I62">
-        <v>0.09372758865356445</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K62">
         <v>0.6666666666666666</v>
       </c>
       <c r="L62">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3909,16 +3954,16 @@
         <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E63" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="G63">
-        <v>1.593144655227661</v>
+        <v>1.609209299087524</v>
       </c>
       <c r="H63">
-        <v>2.468392848968506</v>
+        <v>0.1562285423278809</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -3944,31 +3989,25 @@
         <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>271</v>
-      </c>
-      <c r="E64" t="s">
-        <v>360</v>
-      </c>
-      <c r="F64" t="s">
-        <v>415</v>
+        <v>273</v>
       </c>
       <c r="G64">
-        <v>1.327817678451538</v>
+        <v>1.546639680862427</v>
       </c>
       <c r="H64">
-        <v>1.515499114990234</v>
+        <v>10.106849193573</v>
       </c>
       <c r="I64">
-        <v>0.1405961513519287</v>
+        <v>0</v>
       </c>
       <c r="J64">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3982,22 +4021,22 @@
         <v>174</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E65" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F65" t="s">
         <v>416</v>
       </c>
       <c r="G65">
-        <v>1.343451499938965</v>
+        <v>1.702727794647217</v>
       </c>
       <c r="H65">
-        <v>1.890167236328125</v>
+        <v>1.468191623687744</v>
       </c>
       <c r="I65">
-        <v>0.06246447563171387</v>
+        <v>0.09393835067749023</v>
       </c>
       <c r="J65">
         <v>0.6666666666666666</v>
@@ -4019,26 +4058,29 @@
       <c r="C66" t="s">
         <v>175</v>
       </c>
+      <c r="D66" t="s">
+        <v>275</v>
+      </c>
       <c r="E66" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F66" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G66">
-        <v>0.5779750347137451</v>
+        <v>1.296509981155396</v>
       </c>
       <c r="H66">
-        <v>1.593388319015503</v>
+        <v>1.437156200408936</v>
       </c>
       <c r="I66">
-        <v>0.109349250793457</v>
+        <v>0.06248831748962402</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K66">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L66">
         <v>0.8888888888888888</v>
@@ -4055,28 +4097,31 @@
         <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E67" t="s">
-        <v>363</v>
+        <v>369</v>
+      </c>
+      <c r="F67" t="s">
+        <v>416</v>
       </c>
       <c r="G67">
-        <v>1.39054274559021</v>
+        <v>0.999763011932373</v>
       </c>
       <c r="H67">
-        <v>10.10674810409546</v>
+        <v>1.359113454818726</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>0.09372925758361816</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K67">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4090,25 +4135,25 @@
         <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E68" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F68" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="G68">
-        <v>1.171567440032959</v>
+        <v>1.187221050262451</v>
       </c>
       <c r="H68">
-        <v>21.18297123908997</v>
+        <v>22.43219757080078</v>
       </c>
       <c r="I68">
-        <v>0.09372758865356445</v>
+        <v>0.1093459129333496</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K68">
         <v>0.7777777777777778</v>
@@ -4128,28 +4173,28 @@
         <v>178</v>
       </c>
       <c r="D69" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E69" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F69" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G69">
-        <v>1.546499729156494</v>
+        <v>1.031116485595703</v>
       </c>
       <c r="H69">
-        <v>1.515533685684204</v>
+        <v>1.484020709991455</v>
       </c>
       <c r="I69">
-        <v>0.07811903953552246</v>
+        <v>0.06237578392028809</v>
       </c>
       <c r="J69">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K69">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L69">
         <v>0.8888888888888888</v>
@@ -4166,28 +4211,31 @@
         <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E70" t="s">
-        <v>366</v>
+        <v>372</v>
+      </c>
+      <c r="F70" t="s">
+        <v>416</v>
       </c>
       <c r="G70">
-        <v>1.577765464782715</v>
+        <v>0.9997706413269043</v>
       </c>
       <c r="H70">
-        <v>1.765192747116089</v>
+        <v>1.780829668045044</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>0.1093499660491943</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K70">
         <v>0.6666666666666666</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4201,28 +4249,28 @@
         <v>180</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E71" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="F71" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="G71">
-        <v>1.10909366607666</v>
+        <v>0.9844093322753906</v>
       </c>
       <c r="H71">
-        <v>22.44780540466309</v>
+        <v>1.327535629272461</v>
       </c>
       <c r="I71">
-        <v>0.09376168251037598</v>
+        <v>0.0624849796295166</v>
       </c>
       <c r="J71">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K71">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L71">
         <v>0.8888888888888888</v>
@@ -4239,25 +4287,25 @@
         <v>181</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E72" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="G72">
-        <v>2.062012910842896</v>
+        <v>1.515229225158691</v>
       </c>
       <c r="H72">
-        <v>1.655847787857056</v>
+        <v>0.1406385898590088</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K72">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L72">
         <v>0</v>
@@ -4274,28 +4322,28 @@
         <v>182</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E73" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F73" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="G73">
-        <v>1.437124013900757</v>
+        <v>0.9529318809509277</v>
       </c>
       <c r="H73">
-        <v>1.436927080154419</v>
+        <v>1.015384912490845</v>
       </c>
       <c r="I73">
-        <v>0.09399700164794922</v>
+        <v>0.1249608993530273</v>
       </c>
       <c r="J73">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K73">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L73">
         <v>0.8888888888888888</v>
@@ -4312,31 +4360,31 @@
         <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E74" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F74" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G74">
-        <v>3.217834234237671</v>
+        <v>1.234082460403442</v>
       </c>
       <c r="H74">
-        <v>1.34343147277832</v>
+        <v>1.405889511108398</v>
       </c>
       <c r="I74">
-        <v>0.07810664176940918</v>
+        <v>0.1249678134918213</v>
       </c>
       <c r="J74">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K74">
         <v>0.7777777777777778</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4350,31 +4398,31 @@
         <v>184</v>
       </c>
       <c r="D75" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E75" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F75" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G75">
-        <v>7.748153448104858</v>
+        <v>1.202841520309448</v>
       </c>
       <c r="H75">
-        <v>22.32300209999084</v>
+        <v>25.88427591323853</v>
       </c>
       <c r="I75">
-        <v>0.124755859375</v>
+        <v>0.09395432472229004</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K75">
         <v>0.6666666666666666</v>
       </c>
       <c r="L75">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4388,25 +4436,25 @@
         <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E76" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="G76">
-        <v>1.328027963638306</v>
+        <v>1.468632698059082</v>
       </c>
       <c r="H76">
-        <v>5.202123165130615</v>
+        <v>21.21424651145935</v>
       </c>
       <c r="I76">
-        <v>0.1091344356536865</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K76">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L76">
         <v>0</v>
@@ -4423,16 +4471,16 @@
         <v>186</v>
       </c>
       <c r="D77" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E77" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G77">
-        <v>1.812071084976196</v>
+        <v>1.765207529067993</v>
       </c>
       <c r="H77">
-        <v>6.045443534851074</v>
+        <v>2.015149354934692</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -4441,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="K77">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L77">
         <v>0</v>
@@ -4458,25 +4506,25 @@
         <v>187</v>
       </c>
       <c r="D78" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E78" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G78">
-        <v>1.218464136123657</v>
+        <v>1.593372583389282</v>
       </c>
       <c r="H78">
-        <v>9.950773239135742</v>
+        <v>2.327579498291016</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K78">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -4493,25 +4541,31 @@
         <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>285</v>
+        <v>288</v>
+      </c>
+      <c r="E79" t="s">
+        <v>381</v>
+      </c>
+      <c r="F79" t="s">
+        <v>428</v>
       </c>
       <c r="G79">
-        <v>1.063174724578857</v>
+        <v>1.187220573425293</v>
       </c>
       <c r="H79">
-        <v>12.09061932563782</v>
+        <v>0.9057621955871582</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>0.1096181869506836</v>
       </c>
       <c r="J79">
         <v>0.6666666666666666</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4525,31 +4579,28 @@
         <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E80" t="s">
-        <v>375</v>
-      </c>
-      <c r="F80" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="G80">
-        <v>1.609027624130249</v>
+        <v>1.374813556671143</v>
       </c>
       <c r="H80">
-        <v>2.421305894851685</v>
+        <v>0.8590326309204102</v>
       </c>
       <c r="I80">
-        <v>0.1247053146362305</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L80">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4563,31 +4614,31 @@
         <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E81" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F81" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="G81">
-        <v>1.218690633773804</v>
+        <v>1.249919414520264</v>
       </c>
       <c r="H81">
-        <v>1.624617338180542</v>
+        <v>1.343431234359741</v>
       </c>
       <c r="I81">
-        <v>0.07810783386230469</v>
+        <v>0.1403768062591553</v>
       </c>
       <c r="J81">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K81">
         <v>0.6666666666666666</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4600,23 +4651,26 @@
       <c r="C82" t="s">
         <v>191</v>
       </c>
+      <c r="D82" t="s">
+        <v>291</v>
+      </c>
       <c r="E82" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F82" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="G82">
-        <v>0.5779540538787842</v>
+        <v>1.453049659729004</v>
       </c>
       <c r="H82">
-        <v>1.452548980712891</v>
+        <v>1.343199253082275</v>
       </c>
       <c r="I82">
-        <v>0.09372806549072266</v>
+        <v>0.0624539852142334</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K82">
         <v>0.7777777777777778</v>
@@ -4636,22 +4690,25 @@
         <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>288</v>
+        <v>292</v>
+      </c>
+      <c r="E83" t="s">
+        <v>385</v>
       </c>
       <c r="G83">
-        <v>1.312189340591431</v>
+        <v>1.43742823600769</v>
       </c>
       <c r="H83">
-        <v>11.52856063842773</v>
+        <v>0.2496693134307861</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -4668,31 +4725,28 @@
         <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E84" t="s">
-        <v>378</v>
-      </c>
-      <c r="F84" t="s">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="G84">
-        <v>1.577714204788208</v>
+        <v>1.499650955200195</v>
       </c>
       <c r="H84">
-        <v>1.562095403671265</v>
+        <v>1.98390793800354</v>
       </c>
       <c r="I84">
-        <v>0.09376239776611328</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>1</v>
       </c>
       <c r="K84">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4706,22 +4760,22 @@
         <v>194</v>
       </c>
       <c r="D85" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E85" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F85" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="G85">
-        <v>1.234118461608887</v>
+        <v>1.218462467193604</v>
       </c>
       <c r="H85">
-        <v>0.2187354564666748</v>
+        <v>21.21372604370117</v>
       </c>
       <c r="I85">
-        <v>0.1405577659606934</v>
+        <v>0.1093473434448242</v>
       </c>
       <c r="J85">
         <v>0.6666666666666666</v>
@@ -4744,16 +4798,16 @@
         <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E86" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="G86">
-        <v>1.749549150466919</v>
+        <v>2.452687740325928</v>
       </c>
       <c r="H86">
-        <v>1.562129020690918</v>
+        <v>2.296194076538086</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -4779,31 +4833,28 @@
         <v>196</v>
       </c>
       <c r="D87" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E87" t="s">
-        <v>381</v>
-      </c>
-      <c r="F87" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="G87">
-        <v>1.452821493148804</v>
+        <v>1.452784538269043</v>
       </c>
       <c r="H87">
-        <v>1.60903000831604</v>
+        <v>1.57774829864502</v>
       </c>
       <c r="I87">
-        <v>0.1093137264251709</v>
+        <v>0</v>
       </c>
       <c r="J87">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K87">
         <v>0.6666666666666666</v>
       </c>
       <c r="L87">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4816,29 +4867,29 @@
       <c r="C88" t="s">
         <v>197</v>
       </c>
-      <c r="D88" t="s">
-        <v>293</v>
-      </c>
       <c r="E88" t="s">
-        <v>382</v>
+        <v>390</v>
+      </c>
+      <c r="F88" t="s">
+        <v>417</v>
       </c>
       <c r="G88">
-        <v>1.062282562255859</v>
+        <v>0.4842305183410645</v>
       </c>
       <c r="H88">
-        <v>2.843040466308594</v>
+        <v>0.1405916213989258</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>0.1093747615814209</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4852,28 +4903,31 @@
         <v>198</v>
       </c>
       <c r="D89" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E89" t="s">
-        <v>383</v>
+        <v>391</v>
+      </c>
+      <c r="F89" t="s">
+        <v>432</v>
       </c>
       <c r="G89">
-        <v>1.421539068222046</v>
+        <v>1.312177419662476</v>
       </c>
       <c r="H89">
-        <v>2.108839750289917</v>
+        <v>1.64001202583313</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>0.06272292137145996</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K89">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4887,28 +4941,31 @@
         <v>199</v>
       </c>
       <c r="D90" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E90" t="s">
-        <v>384</v>
+        <v>392</v>
+      </c>
+      <c r="F90" t="s">
+        <v>433</v>
       </c>
       <c r="G90">
-        <v>1.421425580978394</v>
+        <v>1.499922752380371</v>
       </c>
       <c r="H90">
-        <v>1.54651665687561</v>
+        <v>0.1562135219573975</v>
       </c>
       <c r="I90">
-        <v>0.1096115112304688</v>
+        <v>0.07783865928649902</v>
       </c>
       <c r="J90">
         <v>0.6666666666666666</v>
       </c>
       <c r="K90">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4922,25 +4979,25 @@
         <v>200</v>
       </c>
       <c r="D91" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E91" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="G91">
-        <v>1.202844381332397</v>
+        <v>1.249705076217651</v>
       </c>
       <c r="H91">
-        <v>21.85443568229675</v>
+        <v>0.1405842304229736</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K91">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -4957,19 +5014,22 @@
         <v>201</v>
       </c>
       <c r="D92" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="E92" t="s">
-        <v>386</v>
+        <v>394</v>
+      </c>
+      <c r="F92" t="s">
+        <v>434</v>
       </c>
       <c r="G92">
-        <v>1.328031778335571</v>
+        <v>0.999807596206665</v>
       </c>
       <c r="H92">
-        <v>21.91647267341614</v>
+        <v>1.437156200408936</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>0.15621018409729</v>
       </c>
       <c r="J92">
         <v>0.6666666666666666</v>
@@ -4978,7 +5038,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4992,28 +5052,28 @@
         <v>202</v>
       </c>
       <c r="D93" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E93" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F93" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G93">
-        <v>1.062279939651489</v>
+        <v>1.515066623687744</v>
       </c>
       <c r="H93">
-        <v>1.484022378921509</v>
+        <v>22.35404992103577</v>
       </c>
       <c r="I93">
-        <v>0.1093487739562988</v>
+        <v>0.09372591972351074</v>
       </c>
       <c r="J93">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K93">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L93">
         <v>0.8888888888888888</v>
@@ -5030,31 +5090,31 @@
         <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E94" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F94" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="G94">
-        <v>1.609223127365112</v>
+        <v>1.328040838241577</v>
       </c>
       <c r="H94">
-        <v>1.296536684036255</v>
+        <v>1.796417951583862</v>
       </c>
       <c r="I94">
-        <v>0.07788848876953125</v>
+        <v>0.1093511581420898</v>
       </c>
       <c r="J94">
         <v>0.6666666666666666</v>
       </c>
       <c r="K94">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L94">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5068,19 +5128,22 @@
         <v>204</v>
       </c>
       <c r="D95" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="E95" t="s">
-        <v>389</v>
+        <v>397</v>
+      </c>
+      <c r="F95" t="s">
+        <v>410</v>
       </c>
       <c r="G95">
-        <v>1.374446392059326</v>
+        <v>1.765245676040649</v>
       </c>
       <c r="H95">
-        <v>22.16703176498413</v>
+        <v>1.343433141708374</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>0.1249697208404541</v>
       </c>
       <c r="J95">
         <v>0.6666666666666666</v>
@@ -5089,7 +5152,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5103,25 +5166,25 @@
         <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E96" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="G96">
-        <v>1.609028577804565</v>
+        <v>1.827693462371826</v>
       </c>
       <c r="H96">
-        <v>1.546504020690918</v>
+        <v>0.124931812286377</v>
       </c>
       <c r="I96">
-        <v>0.09369301795959473</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K96">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L96">
         <v>0</v>
@@ -5138,13 +5201,13 @@
         <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="G97">
-        <v>2.327579975128174</v>
+        <v>1.46840763092041</v>
       </c>
       <c r="H97">
-        <v>12.9659161567688</v>
+        <v>0.1405906677246094</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -5170,31 +5233,31 @@
         <v>207</v>
       </c>
       <c r="D98" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E98" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F98" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="G98">
-        <v>1.249553203582764</v>
+        <v>1.452773332595825</v>
       </c>
       <c r="H98">
-        <v>1.421531200408936</v>
+        <v>26.49447560310364</v>
       </c>
       <c r="I98">
-        <v>0.1248915195465088</v>
+        <v>0.1249806880950928</v>
       </c>
       <c r="J98">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L98">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5208,28 +5271,31 @@
         <v>208</v>
       </c>
       <c r="D99" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E99" t="s">
-        <v>392</v>
+        <v>400</v>
+      </c>
+      <c r="F99" t="s">
+        <v>437</v>
       </c>
       <c r="G99">
-        <v>1.374409437179565</v>
+        <v>1.655858755111694</v>
       </c>
       <c r="H99">
-        <v>7.764021396636963</v>
+        <v>1.562127590179443</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>0.1093506813049316</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K99">
-        <v>0.4444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5243,28 +5309,31 @@
         <v>209</v>
       </c>
       <c r="D100" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E100" t="s">
-        <v>393</v>
+        <v>401</v>
+      </c>
+      <c r="F100" t="s">
+        <v>414</v>
       </c>
       <c r="G100">
-        <v>1.296800851821899</v>
+        <v>1.577751398086548</v>
       </c>
       <c r="H100">
-        <v>2.062045335769653</v>
+        <v>1.390080213546753</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>0.09394454956054688</v>
       </c>
       <c r="J100">
         <v>0.6666666666666666</v>
       </c>
       <c r="K100">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5278,31 +5347,28 @@
         <v>210</v>
       </c>
       <c r="D101" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="E101" t="s">
-        <v>394</v>
-      </c>
-      <c r="F101" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="G101">
-        <v>1.45277738571167</v>
+        <v>1.937305688858032</v>
       </c>
       <c r="H101">
-        <v>22.71339273452759</v>
+        <v>0.8901503086090088</v>
       </c>
       <c r="I101">
-        <v>0.09371662139892578</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <v>1</v>
       </c>
       <c r="K101">
-        <v>0.7777777777777778</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
